--- a/Game simulations/Week 16/Chargers at Texans.xlsx
+++ b/Game simulations/Week 16/Chargers at Texans.xlsx
@@ -57,16 +57,16 @@
     <t>TexansAvg. FPTS</t>
   </si>
   <si>
-    <t>GAM(1430.421097340252, -438.4281091719497, 0.3118544243235981)</t>
-  </si>
-  <si>
-    <t>7 16 3 24 25 24 -4 10 -8 4 -7 -7 3 12 1 14 10 3 21 25 10 11 14 28 7 15 0 1 3 -4 20 -3 4 34 -3 15 14 10 21 17 -17 31 4 -2 5 14 6 11 23 8 18 25 24 -3 6 19 -2 -4 -2 31 18 -4 13 8 -17 18 -5 -9 3 24 3 -5 14 -13 -22 4 -4 3 -3 7 -5 -4 10 3 33 2 -14 -7 5 -7 34 10 7 32 1 -10 -7 1 8 14 -5 8 3 4 16 7 -7 -17 -16 8 12 13 14 13 3 10 6 15 -3 6 34 -6 16 11 16 22 -3 7 -4 28 25 7 4 -15 11 -3 15 6 4 -5 17 12 10 17 -3 1 3 -23 23 3 8 -3 11 7 -3 21 -1 18 6 21 38 21 12 4 35 27 18 6 18 9 15 16 35 16 -10 11 3 8 -11 2 -3 24 0 4 5 31 35 7 5 12 7 14 -7 -10 22 8 25 5 3 -2 6 10 8 7 -7 24 3 -17 35 -14 24 -14 8 10 -6 4 3 7 17 17 25 -1 21 21 9 28 24 5 16 27 7 -11 10 10 18 8 8 3 14 26 -7 14 4 21 6 6 -11 7 3 9 13 -6 -14 17 10 6 -12 3 11 24 12 10 4 10 3 8 20 6 -17 22 -5 -5 -20 -1 6 3 1 16 6 10 12 7 15 27 10 10 12 31 24 -3 4 15 6 28 14 -5 19 7 13 3 -6 11 13 3 24 6 26 21 13 11 9 8 13 9 9 14 14 28 8 -2 11 -9 28 18 7 -3 34 41 27 -7 10 -2 12 6 7 8 -3 5 5 11 2 -7 7 2 16 21 -13 11 4 -6 -6 11 -8 35 11 18 -3 15 19 4 18 6 18 5 4 13 18 -13 2 10 8 -11 -6 12 36 -2 11 3 12 3 -5 -14 20 14 7 4 21 -8 13 -4 16 8 -18 3 -7 23 -7 8 12 7 -7 4 15 27 7 2 2 18 5 -12 21 3 25 1 14 -8 -15 3 30 18 -3 10 28 -7 13 16 13 -7 15 12 2 8 10 20 3 1 2 9 14 3 -3 10 7 16 5 11 3 -3 5 7 16 4 -4 -4 7 14 10 -10 7 7 8 -18 4 18 -24 17 3 -5 14 7 1 6 1 11 -1 8 20 3 11 20 6 11 20 7 -7 -13 16 17 21 11 -8 14 17 3 2 7 17 31 0 6 -13 -1 7 -3 23 33 12 2 5 14 21 5 7 18 5 -2 3 14 -3 -12 -3 9 2 -14 4 20 38 4 -5 -5 8 11 -4 -4 1 -3 -12 10 20 3 -6 31 13 -3 7 21 17 4 -10 31 9 11 -2 1 -4 7 3 10 18 3 14 19 22 -3 -2 24 6 1 3 18 8 16 4 4 -5 7 -2 24 7 17 -6 13 -1 1 34 13 4 9 41 10 3 7 3 11 22 -43 1 8 2 -3 2 -7 -4 18 -10 3 13 -6 3 -10 9 23 -11 -5 17 7 15 7 37 -4 -10 -16 8 -2 -10 -1 13 19 18 17 38 14 -4 28 14 21 22 17 -10 6 25 3 8 3 -3 26 13 11 22 -2 11 7 -16 -8 11 2 12 -2 3 10 17 -17 21 3 1 11 -14 31 -3 -17 8 32 -5 -10 12 7 13 -10 11 -14 -4 19 -6 13 14 4 4 2 -16 28 -19 29 10 10 -3 -7 18 -13 -23 15 -5 15 24 17 -27 8 17 27 7 4 16 -7 -12 6 3 30 15 26 7 5 3 7 7 14 19 3 7 -1 3 17 -13 7 -8 3 17 3 3 7 23 -7 24 7 15 11 -8 8 9 6 -1 23 -21 5 34 9 -6 30 21 6 9 11 31 -13 -6 23 17 -3 -4 14 8 36 -11 17 -7 20 2 11 27 2 1 38 10 -3 8 5 3 27 12 6 -7 17 11 3 3 6 -7 12 9 -2 -13 20 7 -13 25 3 8 10 -3 28 8 3 3 14 23 6 -8 2 1 -10 4 3 24 12 4 13 13 20 6 -3 -3 -6 3 4 11 10 -9 19 7 4 4 3 11 34 1 13 6 -14 11 22 11 8 27 2 4 -14 27 23 -3 8 2 10 28 27 7 28 -10 24 -6 9 15 18 32 -2 8 -4 3 27 3 8 14 -3 -2 -3 17 14 -8 20 2 16 9 14 -7 2 15 9 7 3 14 -3 12 2 1 15 10 18 9 15 1 28 7 -11 23 3 12 17 -7 23 10 16 17 8 3 -5 24 12 -1 3 -1 12 31 -4 -3 18 12 -12 7 22 31 3 3 3 18 4 1 -4 -2 19 14 14 -14 12 13 11 -3 7 -3 -3 -6 8 13 -13 2 12 14 -2 5 27 -9 5 16 10 -1 1 26 -13 20 28 -12 13 14 -6 13 7 25 22 11 -1 14 -11 9 -3 7 15 5 24 1 7 7 1 -3 35 5 7 8 -7 11 20 -10 -7 3 32 19 4 14 -2 1 3 6 10 20 -6 16 7 3 -10 37 31 6 -8 16 11 -15 6 8 3 24 4 -9 17 20 -6 -7 -3 10 3 -13 -16 14 18 30 26 13 11 4 7 17 55 -10 -11 3 3 -3 4 10 18 -3 10 -4 -3 3 4 14 7 35 -5 5 28 17 20 -2 17 1 9 12 -14 4 3 3 -17 27 10 1 0 15 6 10 17 14 6 -3 11 19 4 7 -7 -3 17 -3 25 15 3 17 -6 37 3 2 10 18 30 0 1 3 14 -8 -3 6 15 11 15 -7 32 -3 -7 -5 6 -5 -14 13 19 18 41 2 10 13 8 21 -13 -6 -7 -6 -2 -6 -1 5 8 18 4 5 22 4 29 29 20 -7 10 -7 8 13 3 3 -3 11 -4 7 18 6 -5 -18 20 4 8 4 -7 -6 6 10 17 4 7 -1 -4 6 7 28 13 -19 26 3 10 33 3 -21 -3 6 7 17 -4 -7 14 -3 41 3 14 34 8 -3 28 20 23 -3 19 5 14 -6 10 1 24 16 28 6 17 13 -3 23 -6 6 -3 37 27 28 -3 34 1 -3 -3 -3 5 27 7 1 10 -7 16 3 30 1 -3 -3 7 -4 6 4 14 -3 3 17 2 22 11 17 14 25 23 -5 3 1 9 -3 -5 1 -3 7 2 29 18 6 10 9 -8 5 15 13 4 14 1 -3 11 12 7 32 31 23 -3 5 7 23 26 3 24 1 14 6 15 6 20 13 24 21 20 5 11 11 23 8 38 19 13 10 14 11 21 21 24 -3 -3 16 3 13 -10 -3 5 -9 4 18 6 -18 3 6 3 -2 3 32 17 -10 31 17 6 18 24 1 -6 17 -1 3 7 14 5 7 3 4 7 10 3 21 21 7 10 14 25 30 5 6 17 18 3 -2 11 -1 16 23 29 12 4 21 22 28 13 18 37 18 22 -1 -3 5 7 7 4 -13 9 21 -5 24 -5 17 -4 24 3 27 -7 6 22 5 3 17 28 -4 7 -3 3 1 -3 3 28 -5 6 31 9 9 8 10 3 4 5 16 -3 20 19 9 -10 -7 10 10 7 26 -13 7 13 7 -7 15 3 21 10 8 7 15 15 3 20 -7 -3 -16 17 -21 21 11 -4 28 15 3 10 3 13 15 9 18 18 6 -5 1 14 22 -3 6 -8 -3 -3 19 20 -11 -3 8 28 4 7 12 17 8 16 17 -17 8 5 2 7 36 11 13 -14 -7 -3 5 -1 13 6 15 19 3 -12 20 20 -10 13 3 19 21 10 5 18 -9 9 22 7 24 4 3 24 20 -8 -6 7 -3 7 -3 -5 14 4 3 -3 27 20 11 -23 -13 4 17 17 -8 17 10 -9 -12 6 14 3 3 38 27 22 -19 -8 3 -2 15 14 15 -4 0 18 1 -20 5 -7 21 -14 -2 6 7 -4 17 -17 27 19 -7 10 7 31 -6 -7 30 3 -7 3 17 3 -1 9 21 32 14 3 16 10 23 30 3 0 27 11 19 18 4 7 -5 11 -5 -7 8 28 11 0 13 10 5 7 14 38 4 12 -10 7 16 17 10 17 11 -4 11 10 10 3 9 18 3 6 39 4 14 -8 7 9 3 11 -2 -3 7 34 7 3 24 -14 -7 20 3 15 4 6 13 20 31 7 -19 7 21 4 18 -6 7 13 19 7 28 -7 10 7 -17 31 -10 -7 4 -17 41 -5 -1 17 12 -7 -4 11 37 9 10 -2 10 3 10 37 17 13 17 -1 -1 2 3 27 28 19 3 12 6 -6 18 18 10 26 10 10 6 8 5 4 7 10 -7 -3 1 6 9 6 23 34 21 3 23 -7 16 7 1 19 11 7 38 24 -3 4 -4 -10 7 27 -9 14 -1 -10 12 -6 28 21 14 -18 8 -6 6 40 4 12 -7 14 3 -33 8 -9 6 4 4 31 8 24 20 -3 9 29 39 13 6 -3 -20 12 12 8 7 3 14 3 47 29 10 -4 3 18 21 -3 -6 4 -4 -6 14 19 -3 3 6 -11 21 -3 8 3 17 24 19 20 4 2 -12 10 17 -1 19 3 3 7 -3 10 3 11 12 -7 -10 25 7 -25 -23 -3 6 10 -3 14 10 10 5 21 5 10 3 8 14 7 8 3 5 6 19 24 -5 13 8 8 22 25 23 16 31 12 10 10 -8 25 20 3 -3 -6 27 4 -4 3 25 4 7 24 7 3 16 -10 -3 7 25 19 -7 11 11 24 1 37 6 9 10 -1 -3 18 20 6 6 0 -6 5 4 8 4 9 -3 3 3 13 3 7 27 33 -3 3 -10 20 24 0 34 3 8 -5 4 -1 11 -5 25 3 15 7 4 7 -4 27 29 12 22 3 13 7 10 6 3 18 10 9 15 26 29 -12 14 2 3 34 -23 20 10 17 4 3 12 4 -7 15 -7 11 2 21 2 7 -13 6 10 15 3 10 6 -1 7 15 9 10 4 1 13 9 13 10 9 13 -3 17 0 -3 -2 14 11 15 5 1 6 6 11 4 -14 13 4 5 -2 6 17 17 -3 22 7 6 2 3 22 2 -17 3 -3 25 -2 3 2 5 -3 -3 18 10 11 -5 17 18 10 1 3 31 5 17 24 19 -7 -30 10 -6 -10 -5 -4 14 -5 12 -3 22 25 1 24 17 14 11 3 -10 -3 12 -6 14 3 -7 3 4 2 13 -3 16 -2 13 23 7 -1 9 18 -6 3 10 6 17 23 18 11 -1 4 11 20 7 18 10 23 -5 9 20 22 7 -10 5 28 14 4 15 4 4 18 3 2 25 10 -4 14 -11 15 7 14 6 28 3 26 10 24 -4 29 -19 8 -14 30 4 -6 6 5 6 13 4 5 9 9 -3 18 17 18 15 2 14 7 4 -6 -1 9 18 23 11 1 17 0 4 -15 -4 13 9 7 14 31 -16 20 17 21 24 -7 3 17 5 14 18 5 3 -3 9 11 11 14 11 -5 7 -6 3 2 20 10 -3 34 3 7 -2 11 5 12 21 -13 10 14 18 -15 -6 29 2 -12 25 -5 4 -4 -1 3 10 13 -11 -3 14 -4 -4 14 17 -12 19 11 19 17 -26 30 -23 8 24 8 -2 14 -10 6 6 3 27 6 -21 24 5 8 4 1 27 18 5 -20 -5 10 24 -3 -1 -6 3 -7 31 20 15 -10 -3 10 -6 20 15 11 2 3 11 4 19 3 14 -1 2 35 -12 -3 6 8 15 15 -3 10 32 17 27 12 5 4 6 7 7 34 28 3 2 -3 -3 -3 13 -1 10 4 -7 -3 13 16 8 -7 14 6 12 7 1 11 4 3 -3 -9 7 4 17 14 11 18 24 17 9 -3 7 20 22 -13 3 -3 3 -14 1 17 -4 22 3 31 11 18 14 -5 10 7 -6 5 11 -22 -3 -2 6 19 21 11 26 10 15 6 -11 10 16 3 -3 7 -3 8 11 7 27 11 10 11 28 21 7 -7 -17 8 6 -4 -12 11 4 -7 -7 6 12 5 14 21 3 21 21 7 -13 6 -1 12 10 14 15 16 10 6 7 -20 6 3 10 9 -3 31 10 27 -6 -2 21 -8 14 3 6 9 -6 9 22 -17 -17 7 3 -14 -6 13 29 7 3 5 -3 3 13 3 8 4 16 23 -9 3 10 9 14 6 19 -13 6 7 -11 -1 -5 18 25 30 17 34 10 -4 6 5 7 9 16 4 18 17 -9 22 10 3 13 -6 9 24 -8 22 16 18 22 10 9 14 13 2 10 16 22 15 -22 13 6 11 -6 25 -6 14 8 14 7 -3 2 15 9 9 3 11 13 16 17 19 14 0 19 4 17 -26 14 24 5 20 7 7 46 -7 1 29 7 17 -3 5 21 6 7 21 7 7 3 8 -8 23 8 13 20 -6 10 -3 12 4 -3 -7 -3 14 1 11 7 3 12 -11 15 -5 -3 12 3 27 28 2 6 19 -3 -7 -15 -9 3 10 14 7 -4 30 7 12 4 10 25 2 10 -5 16 13 -8 11 14 16 -3 6 2 -23 21 17 7 6 6 7 21 10 -6 12 10 19 -9 3 21 19 21 3 7 13 31 19 -8 30 28 17 20 -3 3 16 17 5 19 3 -17 12 17 17 -7 20 3 19 6 -7 20 4 15 41 17 1 20 -2 -3 14 3 -15 4 24 21 -7 27 24 14 21 3 -9 5 3 -10 -10 4 3 -7 5 6 21 7 15 8 7 3 4 -3 3 3 -14 7 -19 17 -14 -3 16 19 14 17 4 -4 14 -5 10 9 19 10 17 -4 27 20 -19 46 14 35 22 9 6 3 -6 21 -7 20 7 -3 -1 9 17 15 19 9 24 18 14 10 -9 -4 -4 8 10 8 13 38 27 5 27 14 -3 -3 7 -2 8 -10 21 4 -11 37 27 19 1 10 4 6 38 -7 -10 20 -34 16 8 -5 14 -4 14 4 -21 3 -3 44 3 -16 3 4 18 -6 15 -10 18 -6 16 21 18 30 11 -3 3 -5 3 13 -13 -6 14 21 17 1 15 1 13 8 11 13 3 25 13 21 11 -3 17 16 6 8 14 7 -4 -15 11 -30 -7 7 5 7 4 -4 21 -3 24 20 20 10 -6 30 3 -10 3 31 -8 3 3 14 6 15 22 13 11 -3 26 12 -3 14 6 6 7 18 10 -13 -21 24 -5 17 6 -21 -17 15 14 6 2 14 -2 8 3 17 21 5 20 -3 -4 3 15 11 4 18 28 4 21 4 -5 -5 -3 16 16 -17 4 5 -3 24 3 10 -3 7 36 18 1 10 6 -2 17 10 -6 30 1 -2 4 8 3 11 7 1 -4 -3 3 28 12 -13 -14 6 3 -4 3 -3 -1 3 3 20 6 14 3 21 -10 8 28 21 10 14 29 3 18 -6 3 14 6 11 24 -3 -4 3 -3 1 -12 5 -2 -14 6 -3 21 8 -5 17 16 7 -7 3 23 22 27 6 14 15 24 -3 8 3 20 3 -6 17 7 -3 1 7 -19 9 -12 10 -2 -2 4 18 24 15 -11 7 15 -17 14 7 25 14 -9 9 -8 31 27 -11 17 -10 6 -3 19 -12 6 -12 21 7 24 8 21 16 7 24 6 14 18 20 8 10 -6 14 6 6 33 -4 11 30 4 10 9 1 5 1 6 2 -17 -4 30 21 14 10 20 -7 13 22 43 -4 -14 18 14 3 17 7 3 -7 27 5 -3 18 -4 7 27 -17 13 33 -6 10 24 19 6 -18 21 13 5 0 15 1 -5 -1 20 3 5 -3 -7 7 -6 8 -3 14 -17 -3 7 -2 18 18 25 21 16 11 15 -7 6 18 13 16 44 -14 -3 21 7 3 3 51 -3 9 7 17 7 -1 29 -5 4 8 -10 18 10 -18 -2 -7 -2 -18 -3 5 15 2 -2 -11 31 14 3 17 24 5 38 -14 -6 -13 7 -14 7 18 18 -7 11 3 3 9 -4 -3 7 18 1 -3 5 18 -2 3 -5 -2 4 15 17 3 38 37 -6 6 11 11 14 28 8 -3 7 4 8 7 21 21 6 -8 -7 21 -3 5 16 13 -11 -7 8 -16 26 6 -1 6 17 -1 -14 15 3 3 -5 33 9 -8 -3 14 -6 27 17 -3 21 27 27 15 -3 12 -5 13 3 24 -2 5 -8 2 11 4 21 17 7 9 8 12 24 5 -15 -1 7 -3 9 8 -21 2 -3 12 -3 42 9 11 -1 -8 8 17 4 8 -18 -3 -6 1 18 4 21 -16 2 -5 25 14 4 32 -4 9 4 10 -11 2 -10 -3 8 21 7 -2 16 4 -4 8 -3 28 -10 4 7 9 14 25 6 20 -3 28 -7 24 23 10 8 -3 39 13 29 1 -1 13 4 11 6 3 31 24 22 9 21 7 11 21 6 16 17 23 9 12 25 20 6 -13 9 10 -5 18 -3 14 -8 11 -6 21 15 -6 10 7 -15 1 35 13 14 4 21 6 17 -4 12 21 10 13 -7 17 -7 4 -6 11 -2 14 18 10 34 -5 12 13 21 20 9 -2 5 20 24 14 28 14 3 33 13 0 7 -34 3 11 2 -2 21 7 5 -23 -3 12 4 10 10 16 24 8 -10 -15 13 2 17 8 6 -3 5 -13 4 -11 3 27 21 3 23 21 -3 3 -13 30 -5 3 0 8 -17 -13 29 6 17 1 7 3 17 3 10 6 16 29 15 11 -6 3 -7 41 10 3 25 12 6 5 -6 22 10 20 -3 -7 -20 6 13 22 13 10 5 10 7 6 6 11 -2 7 25 11 4 -14 28 -6 10 8 31 3 -5 -8 9 20 27 27 23 13 18 10 11 3 -14 14 5 5 -12 5 6 28 10 13 -15 7 26 -28 -3 3 28 11 6 22 11 8 1 7 -5 7 13 24 6 23 3 14 10 18 11 3 11 6 15 47 7 20 21 13 -3 1 28 9 16 20 7 -5 11 2 27 17 -6 -10 6 -2 2 14 -8 -21 17 1 14 27 2 32 10 3 3 19 12 7 13 17 8 -7 3 -14 4 -6 18 3 12 13 2 -7 6 -8 10 -3 -3 -7 9 10 11 -6 0 8 1 -10 6 4 17 6 -3 -3 27 15 3 -10 -6 10 34 7 -17 24 -3 -10 14 -8 13 11 11 -6 -7 14 3 24 6 25 4 8 -11 7 14 -10 19 38 10 16 -10 15 4 -7 13 3 14 -12 32 22 -6 15 -3 23 15 -7 24 12 -6 17 3 10 -7 -9 -11 13 -11 14 29 13 8 -3 -3 -4 18 25 11 7 21 3 39 -21 -6 -3 -1 3 27 -3 -3 41 41 4 8 13 11 27 8 9 13 -12 9 -3 -16 -1 7 7 7 21 11 13 -8 -6 -12 22 24 14 18 4 18 24 -25 -6 8 6 -3 22 3 6 14 14 34 11 11 7 17 -6 -3 15 18 20 -10 10 -14 17 7 18 5 18 7 18 -5 14 17 13 -5 19 16 -1 -3 6 9 7 17 7 23 31 3 3 -6 4 -3 4 7 19 13 24 27 5 -13 13 4 21 4 3 6 3 19 -18 9 11 4 -1 3 11 22 -4 15 9 14 19 11 3 3 1 14 9 6 23 -3 2 27 -7 11 5 8 -14 16 -2 2 7 7 3 21 17 9 -2 1 13 2 8 6 -8 7 18 17 10 -13 20 7 1 -4 -6 14 9 20 -3 24 -7 4 31 12 -15 18 30 -11 21 7 14 8 5 10 3 13 10 -3 1 25 -9 8 17 -2 10 13 2 -7 5 6 17 12 24 -6 -10 -6 12 3 -2 17 -15 11 2 -8 7 10 -2 3 14 4 -10 8 1 3 7 10 5 38 10 21 35 4 13 7 21 13 3 4 36 16 -6 14 7 16 4 20 11 9 6 -6 33 17 -3 1 5 11 3 7 24 20 -3 6 3 24 11 4 14 10 17 5 3 15 14 -3 -3 17 -3 4 11 -7 -1 -3 -9 -2 -2 -3 -9 30 29 -5 28 -3 0 -15 3 -14 -22 21 3 4 9 21 -9 13 18 -3 7 36 7 6 19 7 7 -8 22 21 22 7 0 -2 -3 -3 21 28 25 3 14 3 12 21 9 34 -20 15 4 42 5 -3 -6 -14 10 41 11 7 -7 -3 -5 14 -4 3 10 21 14 -9 26 11 -3 17 10 20 26 13 -4 1 31 -6 3 14 14 3 11 22 18 2 -1 14 6 -12 9 15 24 10 3 10 10 24 3 17 38 6 -14 21 12 21 3 7 24 27 9 17 -3 3 6 10 14 -4 31 19 3 -14 -8 -19 13 -28 7 4 41 -4 -1 8 20 -3 -3 6 -7 19 2 7 23 -3 -3 -8 -8 19 -4 7 -7 -3 9 7 1 -10 15 21 25 -12 6 -2 19 5 3 8 10 20 16 17 7 12 30 -16 -1 14 -7 13 -16 13 6 12 14 12 7 -2 9 -2 3 -9 7 17 14 -9 30 -4 -5 15 -5 13 3 10 12 3 19 -9 20 16 15 20 11 2 3 4 9 -8 14 4 12 -10 7 13 1 15 5 11 12 11 7 1 10 -3 16 17 23 -5 8 16 9 20 20 30 -5 -17 6 4 -1 -4 41 14 5 5 -3 3 22 4 17 11 17 -12 23 21 1 -8 21 23 -15 -6 11 14 22 3 16 16 7 34 11 12 14 18 9 -13 9 14 16 7 -3 3 6 15 13 27 21 -10 -13 24 -7 16 14 1 6 6 18 13 20 8 -3 39 14 -3 28 10 -3 31 3 14 28 6 32 3 0 16 32 3 23 17 8 2 3 5 23 9 23 -18 7 4 -4 6 4 27 -3 10 37 11 24 -5 6 -14 -11 14 14 17 -7 3 2 12 5 9 3 -2 9 20 7 9 7 7 37 8 9 24 -15 11 11 9 3 -4 10 17 3 16 11 0 6 17 17 7 -18 -2 5 22 4 13 8 5 3 -17 22 7 6 15 1 15 1 15 14 -8 0 21 11 15 1 31 18 11 3 -3 -8 -8 4 3 7 5 -4 23 7 27 -3 -3 6 14 30 38 26 14 -14 29 23 22 4 -7 20 19 17 10 18 -10 21 28 17 5 3 7 7 10 -1 9 13 3 18 11 24 7 27 5 31 18 17 -8 20 15 11 7 1 18 -27 -3 -10 10 5 -7 24 13 -14 18 10 16 12 14 -2 -6 6 21 13 4 3 -3 10 7 6 -17 8 7 -2 14 -10 15 18 42 -20 6 1 16 20 -8 -6 -8 3 28 11 3 14 3 5 13 -2 19 3 18 -13 24 27 7 -24 27 -17 21 12 11 3 20 3 11 8 26 12 -3 7 -10 -3 -3 -6 20 18 -3 20 9 9 30 -3 -2 8 5 14 7 11 16 17 23 21 -6 -6 -2 12 -11 17 5 18 16 -6 11 3 0 4 7 -7 33 -3 -3 16 5 11 5 4 4 10 30 17 10 5 11 -17 7 4 28 6 -1 3 13 5 1 1 10 1 14 7 14 -3 23 10 4 4 8 27 2 4 10 22 15 0 -3 7 7 -17 24 31 7 5 5 11 6 -1 3 14 5 11 1 -6 1 18 -13 20 10 25 -18 -4 -10 11 1 7 6 17 30 7 7 -4 7 -7 7 14 18 -9 -6 14 -2 -14 7 8 10 4 -5 10 3 22 31 -2 -3 12 35 -3 11 2 15 4 -14 35 2 7 15 1 17 15 -2 21 10 41 17 5 28 25 9 25 23 13 14 10 10 6 -17 6 7 17 -2 8 -14 -2 17 -20 3 4 5 6 18 5 -6 15 14 27 -1 18 21 -15 9 -10 7 18 -4 23 22 13 -3 8 1 1 19 13 4 6 -5 3 -8 2 11 14 -4 -5 28 -3 17 23 15 11 -24 -21 15 6 14 15 21 -14 -2 17 12 8 27 -3 13 18 1 31 26 13 10 14 22 27 13 24 10 5 -4 14 -10 4 -2 17 18 36 -1 35 -3 1 -3 -1 11 26 -14 13 18 2 11 6 18 10 10 28 -3 25 7 14 8 3 -6 18 32 24 -3 -6 1 23 6 7 14 -7 7 21 10 -3 6 14 -11 15 24 6 11 -18 11 29 10 19 20 3 13 9 -3 5 15 18 21 6 10 9 -3 3 21 3 5 19 14 -5 9 37 -3 2 27 -5 1 19 -10 -11 4 7 6 24 -9 20 17 9 12 -4 23 1 19 6 -9 13 -16 11 30 6 18 22 -21 3 -7 18 8 -3 6 10 18 6 10 16 7 12 -12 21 28 -5 4 -6 15 24 14 1 18 1 -10 7 21 22 -14 11 9 -1 7 1 14 -6 -26 5 9 7 23 20 -17 3 -10 11 16 13 4 3 28 17 11 24 16 19 1 -3 27 5 10 -3 -2 24 19 -24 20 30 4 24 18 16 4 15 -4 14 -14 22 4 -5 -4 6 14 17 9 9 22 2 6 -17 -9 -3 1 -6 -8 -9 22 14 10 10 -3 3 0 9 20 3 20 22 3 10 3 11 5 11 8 1 6 6 13 -2 7 -14 34 7 -1 6 20 -1 8 1 11 20 24 10 28 13 11 -11 -6 -7 -11 10 10 28 -3 -5 14 3 22 16 14 3 22 6 17 14 -3 4 10 -14 -14 4 12 2 10 29 10 -14 23 6 17 20 18 7 11 5 18 3 2 3 7 13 23 0 -18 18 10 9 14 6 32 24 6 20 31 6 21 -3 21 4 -14 24 13 16 -5 7 -3 10 14 -7 19 3 -6 -3 7 16 32 3 19 3 9 -3 3 13 4 19 35 -6 -2 20 -9 -5 6 3 16 24 24 -3 7 3 5 10 3 4 -10 -9 4 -3 20 15 -15 15 3 24 35 17 -3 24 5 6 12 32 30 14 0 20 5 5 1 17 1 10 -1 2 22 13 3 13 9 3 1 3 7 14 5 -6 8 6 -3 10 6 -14 7 5 9 3 27 -1 23 25 11 5 5 23 -2 7 14 8 -3 28 8 -8 6 21 -2 -12 23 -24 15 -5 -10 21 4 31 -7 8 14 5 14 3 3 -12 18 8 5 24 -3 12 5 16 15 19 21 19 17 7 -4 3 -7 27 20 24 7 18 -7 -8 17 -3 7 21 31 3 7 -15 20 11 13 7 2 13 -7 10 -5 8 -3 -9 0 4 11 4 20 28 7 -16 6 4 13 -3 -3 25 15 15 -3 24 19 4 28 17 -3 15 10 -8 3 16 3 -12 -2 23 -3 -11 -3 9 -4 4 6 16 23 3 -14 15 15 39 15 14 7 20 13 26 -3 -8 -24 7 22 7 12 -6 -2 2 21 6 7 22 -17 -3 24 4 3 30 -9 19 -20 -6 -8 27 -13 -3 7 -28 7 10 -7 -5 -6 7 12 -4 13 1 2 24 17 0 10 9 6 13 -3 -4 18 24 16 22 13 -6 14 -9 3 7 1 -3 4 14 24 -16 -10 28 19 10 13 14 4 24 -3 21 -28 6 4 10 11 -3 19 23 -1 4 14 13 7 10 -11 21 -7 -3 -17 -1 -3 2 16 12 -6 0 34 14 22 16 3 -7 27 16 12 3 23 27 -3 24 -3 13 15 7 13 -7 8 -7 -5 21 1 11 -2 4 13 14 13 -24 5 8 3 -3 -5 -1 6 6 7 20 14 3 22 5 -18 14 17 12 27 -11 2 20 3 6 5 13 3 16 17 10 8 -6 17 7 7 -11 24 21 7 38 3 30 8 23 24 4 -3 -3 20 9 3 13 10 14 -8 6 5 27 17 1 13 6 18 -26 14 9 4 -3 3 -8 4 -13 -10 17 -14 15 2 25 7 3 1 2 3 -4 -5 -4 3 4 12 2 12 6 7 30 4 0 1 -1 24 12 -7 15 20 14 18 21 2 5 8 -17 14 3 -3 32 8 3 9 24 10 -8 2 -20 11 6 23 -3 11 -13 34 8 0 -3 4 16 19 16 3 -8 31 -19 12 6 31 -3 16 18 3 20 6 13 14 11 -9 13 17 2 11 18 19 3 -11 13 4 -9 9 20 14 6 -6 6 -7 30 -8 28 10 -2 -3 14 12 -11 8 14 18 21 33 -13 15 24 23 -9 14 20 22 8 -6 25 -6 11 -3 -12 12 3 -5 4 -6 -2 6 11 -13 -17 -8 3 20 18 30 27 -3 -8 15 -5 14 -3 -2 16 3 25 -13 -17 10 -4 7 -3 -13 -3 27 4 6 9 18 2 13 -14 -11 5 13 28 20 7 12 19 3 7 -3 18 -21 24 -1 6 -13 5 -8 10 6 21 7 -3 5 -7 14 18 13 -6 16 -4 24 8 12 -11 24 22 6 4 22 -6 24 -9 13 26 6 12 25 18 28 16 3 23 -2 23 -10 -4 -8 -7 26 6 -4 7 4 16 7 7 15 7 3 14 33 20 -7 7 -13 12 22 12 23 30 4 7 23 10 -3 -3 13 33 -7 1 18 8 2 -7 7 11 12 17 5 7 -9 15 2 32 3 26 10 -9 6 -7 6 -7 8 14 17 21 4 3 -4 26 17 3 15 -11 5 23 3 25 2 27 2 7 3 0 -10 1 -8 -2 1 -1 -8 12 -4 11 13 -8 4 5 13 -4 21 23 14 20 15 3 17 4 -6 3 7 8 10 -21 18 11 3 -8 -6 1 18 19 13 8 11 6 7 -9 13 7 11 14 6 7 3 -6 11 3 17 -16 3 9 -3 6 11 21 10 7 3 -5 17 -3 24 -10 21 14 7 14 5 -3 8 11 12 -4 -3 21 6 3 3 -8 18 7 3 9 27 -33 -11 30 -6 24 31 -14 8 21 20 24 15 14 16 -3 8 8 -3 9 3 -7 -7 15 20 8 17 5 17 12 22 21 -5 -3 7 -5 15 15 17 18 11 16 -31 -3 7 25 5 3 -1 4 18 21 11 1 14 13 9 10 14 16 10 5 10 11 9 4 13 19 -6 -8 10 -7 -11 -10 14 19 3 3 2 13 -13 11 3 18 3 -6 8 10 -3 -7 32 13 17 -3 19 4 -1 -13 22 -3 -1 12 7 3 3 11 15 17 5 20 8 26 -9 16 9 -1 4 22 -10 -5 20 -2 14 5 -3 -3 26 11 14 10 14 14 3 11 11 15 -6 17 14 3 16 1 7 7 13 9 18 -6 -6 10 -5 23 3 -3 17 16 4 4 -4 11 15 15 1 7 7 6 10 7 4 39 -2 15 3 15 -6 14 17 5 9 3 27 -6 12 24 -6 -10 9 1 30 11 -4 5 3 20 17 -4 28 14 21 25 -3 -6 -3 3 -2 22 25 9 -3 6 21 -11 13 -6 3 -2 5 1 -3 8 6 19 -3 28 1 -6 -15 9 -6 6 -20 7 -4 12 9 7 8 14 10 -12 14 15 6 -12 11 5 15 33 -28 17 -4 14 14 5 14 24 4 3 6 4 15 2 -11 2 23 11 4 0 4 -12 9 33 3 3 10 1 3 -8 7 3 3 6 6 10 10 7 21 7 -2 1 -1 7 10 -5 26 6 18 4 7 8 -4 4 4 -2 1 18 10 11 8 -4 17 -8 19 23 17 13 11 14 4 24 10 -3 6 -2 9 13 -9 10 30 21 3 22 15 11 -6 7 3 22 1 2 -7 -13 14 12 5 -11 4 16 -3 5 7 2 24 14 -2 24 18 9 3 3 3 10 -7 7 -8 5 20 3 37 15 14 27 11 11 20 -10 18 16 28 3 6 14 8 -4 10 11 17 13 4 3 -10 -6 4 -3 1 9 4 6 22 -5 4 16 -7 -13 7 23 23 3 7 -5 9 -6 2 11 9 -3 -7 11 18 -1 15 28 17 4 3 14 16 17 8 -3 -3 11 14 3 24 22 -6 6 -13 8 24 3 7 -10 3 8 3 3 20 -3 11 20 19 -3 10 18 8 13 -3 8 3 -13 1 23 33 26 -11 4 -2 7 6 24 17 3 13 3 -18 16 -5 3 8 5 18 4 -3 4 10 -1 -8 -3 5 -12 13 -14 5 20 2 19 4 20 2 -6 0 4 5 16 -3 34 5 -17 -7 13 3 13 8 14 28 -1 15 19 3 -4 -14 15 -2 -7 -8 13 23 9 12 24 3 7 27 19 24 22 -8 6 7 4 -6 9 7 12 1 10 -7 23 14 6 19 8 6 -1 3 -6 -13 34 7 -10 -15 -9 10 -1 -2 4 6 2 6 7 8 -3 28 28 -10 7 3 -6 -5 -17 3 -10 6 19 7 2 3 18 -15 9 5 9 -8 12 -2 -2 16 15 8 -5 20 13 11 14 15 19 -4 31 -2 15 14 3 24 9 24 24 9 6 23 4 27 -1 16 7 7 21 14 -6 -17 13 -2 0 7 16 10 15 -2 18 4 21 -12 -4 14 25 -15 12 6 8 4 17 -21 11 -3 3 7 -8 -3 -3 17 7 32 28 3 8 17 11 24 31 28 17 24 10 -5 7 4 -6 -6 12 17 3 -10 17 14 -6 14 30 3 7 19 4 9 24 7 3 3 12 17 -17 26 2 -4 19 -11 16 6 20 16 18 3 24 10 2 -11 12 18 3 -3 10 -2 11 -17 18 -18 -11 15 -5 14 -3 -12 -3 18 -18 9 13 9 -3 2 16 -3 14 6 -2 15 16 8 4 13 -8 -5 11 4 16 -5 -1 3 -1 6 23 30 7 -3 -3 -10 9 30 -3 -10 5 30 8 18 7 2 16 -4 14 -6 -11 -13 -17 -3 3 19 -7 12 22 23 17 6 -7 3 -3 14 5 10 12 -2 3 21 18 7 -3 3 -3 -5 17 22 22 -3 3 40 6 26 18 20 10 9 -5 21 -10 -1 26 14 2 3 3 -2 -32 -3 17 10 7 20 18 29 17 13 -5 -1 -3 -16 7 24 0 10 20 -2 11 10 12 8 -12 9 3 13 6 -4 11 22 20 15 9 18 4 15 -3 6 10 14 5 14 5 7 7 22 13 -3 23 -30 26 1 16 3 6 13 25 4 8 17 -25 -8 14 7 -7 32 -8 17 28 -4 14 17 -2 15 14 5 11 3 5 18 28 -5 14 7 28 27 8 -3 3 13 9 6 -8 7 28 11 -3 3 -4 14 4 15 -10 27 24 23 3 -23 -17 13 11 -3 10 10 -6 4 34 17 14 -1 29 6 18 7 20 6 -11 18 7 17 -7 10 -17 5 -3 1 13 -7 -1 -3 -3 22 3 -3 4 14 -6 10 29 8 22 -8 9 3 15 -2 20 -9 21 3 10 4 5 13 5 7 7 24 10 24 7 35 -15 14 29 15 -5 10 14 6 4 -13 14 10 -3 19 3 7 12 18 -10 13 -14 3 20 10 26 -10 25 9 3 7 24 6 35 -4 6 1 41 -2 17 19 7 15 14 -7 16 21 -3 7 -4 9 23 6 17 30 31 -3 -11 -3 14 15 25 19 18 28 2 1 -4 3 -3 -3 18 46 5 18 28 4 -7 -9 15 18 -3 -10 11 -3 17 5 -14 6 -4 16 21 -3 -18 4 31 -6 -4 19 3 11 -3 -2 4 34 3 0 -4 20 1 22 5 12 7 10 -13 24 13 13 9 12 6 -6 -5 -1 -2 7 13 7 4 4 17 -13 -4 26 5 17 24 16 16 5 6 16 16 17 3 8 6 8 27 15 9 18 9 -8 19 16 5 21 3 -14 7 3 -5 6 -7 15 6 6 18 1 14 13 7 -2 22 18 2 -17 21 1 14 14 7 7 3 4 -4 -6 -6 -3 9 7 -6 9 -16 11 7 12 8 27 10 24 -2 22 5 5 46 3 -3 3 10 3 14 3 18 14 11 17 4 -4 12 7 8 1 9 15 -5 3 7 9 16 2 12 3 -21 -6 14 38 24 4 -3 8 11 13 -25 5 14 6 31 -6 11 21 21 11 -2 -4 9 4 -5 8 3 11 38 18 -1 25 -10 11 8 14 14 17 -10 3 3 41 12 -3 12 19 9 17 7 3 35 10 3 6 26 16 2 16 5 4 -7 -3 -3 -15 7 -6 -5 -7 33 3 15 7 21 -1 13 13 14 22 6 -3 20 24 9 22 14 -3 -2 24 7 23 11 3 6 -1 -23 17 4 21 -6 7 -12 11 14 6 -8 -6 6 -2 18 18 14 -7 11 17 3 11 8 3 10 9 -3 -12 23 1 -10 1 23 3 -16 -17 29 9 17 25 -3 -5 -12 -4 8 6 -3 -16 3 22 -6 3 7 13 -3 14 19 10 4 10 -1 5 21 3 10 -3 18 30 10 5 23 31 -16 3 31 14 13 -7 6 18 6 10 3 3 3 7 20 9 -1 -3 -11 16 4 15 16 7 10 -7 8 4 10 18 6 34 -2 -1 3 11 1 16 16 11 6 3 8 13 27 3 -6 3 19 -22 13 -6 6 22 -7 39 17 5 32 -15 -3 17 12 -27 3 35 6 -2 2 -6 23 28 26 11 3 21 12 10 -1 2 14 4 6 8 12 -6 8 3 24 37 15 18 16 14 1 -14 3 14 21 13 -10 -7 14 17 -3 30 3 -17 21 18 -6 35 30 11 1 38 6 7 -4 16 -16 -8 31 17 15 17 6 11 16 11 24 10 -5 35 26 -2 13 4 13 18 2 -7 7 3 4 5 31 -8 -16 1 14 6 17 5 6 -5 3 0 -4 5 -6 21 7 10 -10 3 13 23 4 24 18 6 6 3 16 13 -8 3 8 -14 11 20 -4 4 8 4 -5 -3 6 28 1 22 17 10 -3 9 14 15 18 7 4 7 24 5 -11 -7 5 11 10 21 29 -4 -4 6 -12 5 -7 13 -6 -19 5 11 2 12 -10 -7 -9 7 35 -3 -3 14 18 -7 -19 32 20 -4 25 13 -3 -2 15 -8 12 23 -3 7 35 14 18 -3 -25 12 17 1 37 17 18 30 9 8 33 17 8 22 3 8 13 12 -3 6 -6 -7 -3 19 21 26 22 -11 24 8 2 30 8 -3 7 14 -7 8 13 16 -2 -4 4 8 7 4 7 11 -14 17 3 -6 31 13 5 15 -6 4 14 15 3 17 18 26 15 -16 26 -14 14 1 8 -9 9 5 14 -7 24 9 -2 2 1 0 -3 -1 3 -10 15 8 -3 -3 20 19 3 5 -7 8 2 10 5 -31 23 -3 -7 20 13 16 -2 3 -14 6 7 3 15 10 7 18 -5 13 29 18 10 3 -3 22 25 21 -6 -3 20 -4 -3 -2 3 10 4 12 17 0 7 -20 3 8 -3 -22 -8 -3 33 28 13 11 20 7 26 -8 28 3 -6 11 20 18 14 11 14 12 13 -8 17 3 -17 23 19 11 -3 16 3 -8 -6 11 11 10 -8 18 8 -3 6 -9 -5 11 7 34 -6 35 -7 13 3 9 12 -2 -16 -1 -22 27 19 18 13 23 -10 -3 20 28 10 4 19 3 -13 3 10 34 1 3 1 6 3 -3 1 2 -2 14 7 6 3 11 3 -13 6 21 14 32 6 0 27 4 -3 11 3 -9 -17 -4 2 3 11 -1 10 11 4 11 4 7 14 3 -7 5 -10 10 3 14 -6 8 6 4 4 35 4 3 -3 21 25 43 1 14 39 4 -4 3 -1 2 25 9 15 -7 -7 -3 7 10 3 4 23 32 -9 8 9 -4 5 3 6 -7 35 -2 13 18 4 -6 18 -4 -17 16 7 29 -2 -11 7 18 6 -5 16 31 -4 17 4 3 16 17 5 -3 2 8 5 -3 0 -2 -1 12 3 15 18 18 16 -6 26 6 18 18 4 -19 -9 10 -4 13 4 20 13 -2 11 -11 20 1 11 8 6 -4 5 1 6 13 15 -4 41 27 4 7 20 6 -8 5 -5 6 4 7 -8 -5 -6 3 14 8 -14 14 17 25 4 6 4 10 3 6 13 32 5 13 24 11 4 1 11 21 24 1 17 3 7 17 13 30 32 12 10 7 20 13 23 30 17 29 7 -2 14 3 3 35 8 6 1 -9 40 -2 -3 -6 -4 3 17 -1 10 6 15 12 9 4 21 9 11 17 20 29 20 18 -6 3 -8 -4 18 -3 6 8 -4 7 -8 19 4 3 20 7 -8 13 26 21 2 24 -15 8 14 17 -11 4 5 15 -2 1 -7 -24 18 7 10 -14 -3 10 -3 -3 3 -3 7 3 25 8 -9 22 39 0 4 10 6 6 19 10 20 3 32 10 10 17 -3 8 11 17 11 10 12 -1 8 10 -4 16 -3 -18 12 31 1 21 37 7 6 28 18 17 27 3 14 10 27 3 -10 -5 2 1 10 18 15 3 -5 8 5 3 13 27 -10 3 -3 -3 15 5 11 25 10 11 17 18 11 29 -25 9 -6 17 12 3 2 3 -9 27 11 -2 21 -4 -5 -3 -3 7 -4 10 14 11 -3 -11 -1 12 -2 10 6 11 7 10 15 -14 14 2 10 14 23 11 19 17 1 3 10 38 -7 -11 14 3 10 4 3 3 18 4 14 12 -3 16 17 13 10 -6 5 15 3 9 -9 11 9 14 23 -16 5 2 -3 20 -10 3 3 17 27 4 6 7 -1 3 -14 13 3 20 5 3 9 6 -2 6 16 4 7 -1 24 7 10 25 7 11 12 -10 4 20 -2 4 17 17 -7 16 4 7 -7 -18 -6 19 -3 2 5 3 7 -6 12 3 -4 27 -5 4 -1 -2 21 11 -7 5 -15 3 4 15 -2 22 23 3 11 3 -6 6 -15 21 10 3 3 -9 -29 21 -9 24 -3 3 1 3 4 -15 22 6 14 8 3 21 33 7 -2 3 15 9 1 -10 -5 -10 -3 18 4 20 16 -9 6 6 15 -2 3 -13 6 11 18 -17 -3 -2 24 -9 24 6 16 2 1 7 24 18 11 -1 1 13 1 -10 14 16 -3 18 -8 14 -3 -4 -6 5 -3 -1 3 -7 17 4 20 19 15 10 15 3 8 11 28 -15 5 -7 18 -16 14 -9 21 1 -7 17 -4 10 3 13 10 41 -14 -5 -11 18 7 11 10 -7 9 -3 1 10 27 -10 7 6 17 29 31 24 7 1 -10 -8 9 -24 -12 10 6 14 3 22 31 14 -6 3 3 16 4 6 16 -1 1 -3 -2 10 -7 8 25 -13 6 5 3 27 4 7 18 7 24 3 1 -8 10 5 8 -6 3 7 11 14 -4 23 3 5 7 6 3 14 1 -4 -10 -6 14 14 -3 15 -10 8 3 18 -6 6 12 4 -3 6 3 24 7 -6 27 7 0 -14 -5 12 25 6 5 14 -3 3 11 7 10 28 23 4 27 -2 19 -3 5 28 11 24 -14 -13 6 -1 2 34 -1 14 20 -13 -2 6 6 18 14 -15 22 6 7 -10 11 5 3 13 14 18 28 17 27 3 2 -9 -23 17 18 16 32 -1 19 15 3 3 -1 6 -3 35 -6 14 -3 2 16 -4 13 5 25 24 3 -17 13 3 0 32 6 13 3 12 22 -17 -16 3 31 21 7 28 4 6 35 24 39 5 25 6 5 7 10 8 28 7 4 28 -31 4 12 18 33 1 4 3 12 12 14 2 3 4 8 11 29 18 14 -6 17 19 -5 5 21 -6 14 2 3 18 19 8 3 30 11 -10 -1 16 20 1 -7 3 21 15 30 8 10 -3 11 -9 34 -6 -3 27 10 7 21 28 18 8 6 13 18 23 19 10 10 14 19 17 24 8 8 9 -1 6 36 13 15 7 3 -3 3 -2 18 15 15 10 17 -7 24 -12 -2 -3 3 3 8 17 14 29 11 3 2 13 17 6 14 7 -5 24 34 19 15 19 13 -6 -2 32 -6 -3 20 14 -3 -4 18 -10 7 -10 11 -7 -4 18 5 27 3 -2 -8 21 11 7 -8 7 17 20 -4 -2 23 4 -21 -13 8 13 28 4 3 -2 6 6 -3 7 8 -1 13 8 -13 -2 5 4 20 -17 4 -3 7 13 -4 7 -3 31 2 -3 -2 7 4 23 4 -3 0 27 -7 25 -16 19 4 28 17 24 -13 10 3 -5 9 9 3 14 -4 3 -17 24 14 10 10 7 16 15 24 5 31 -5 10 19 13 29 13 -7 -3 20 7 -16 11 18 14 21 16 -3 6 22 22 37 10 10 6 11 -3 -3 38 29 26 3 7 6 20 1 13 3 18 -7 27 -6 12 -13 18 20 17 11 10 -3 1 6 4 -4 -10 8 4 2 35 21 3 14 -3 6 1 37 1 -4 -10 -3 10 10 17 -10 7 -14 6 -3 -1 32 -2 21 15 -11 11 10 6 30 13 -3 5 5 13 15 12 10 18 24 6 28 3 14 -24 6 3 -2 12 15 6 6 -4 3 16 25 25 28 8 7 6 0 4 -25 -9 6 7 6 -8 17 -1 12 30 -13 4 5 6 -6 -7 -5 10 -1 8 2 -7 7 -3 10 -7 7 -8 -10 12 -18 4 13 -1 11 9 10 7 11 13 27 7 -12 3 -1 -3 -2 5 6 -13 -19 6 21 15 27 14 21 3 11 1 12 -2 1 13 -4 2 3 9 -18 5 21 4 1 2 22 23 49 -9 10 7 19 7 -14 8 18 5 3 -25 7 8 -6 -12 -9 4 -2 25 10 24 10 7 16 18 10 4 6 3 28 5 -6 31 -22 17 3 11 -4 -1 7 2 4 -4 9 -6 17 6 3 7 21 -5 2 6 19 -12 -5 0 7 11 9 11 12 -7 31 5 4 17 -3 11 6 3 18 3 3 11 11 0 13 8 3 -7 1 7 -17 27 6 6 -27 17 7 16 -10 -7 21 -3 13 6 -10 14 27 6 -20 10 7 2 28 -13 19 -7 -3 10 -3 2 7 17 -5 -13 -8 34 8 30 -6 7 22 4 9 -3 24 3 -11 7 18 15 24 3 21 16 27 2 -3 2 2 -4 14 -11 20 19 20 -6 -1 18 19 5 17 14 13 10 30 24 3 -6 28 15 7 25 1 10 9 11 4 1 24 6 16 6 -3 36 -1 8 -4 18 -3 -10 13 -5 -3 18 9 10 3 5 -3 20 -3 -4 3 8 11 -10 26 14 -3 -7 14 -17 -21 17 3 26 0 -6 -2 -1 -13 41 11 25 10 -13 3 -4 -3 2 -3 5 -2 11 -10 -11 5 14 9 -8 7 24 -1 27 7 14 2 8 -3 -3 -3 16 -1 -11 5 3 -14 20 6 -6 11 5 -3 1 30 20 12 21 19 -10 3 3 2 24 -6 25 6 24 21 -2 18 17 -2 13 10 -2 3 21 14 -6 7 8 17 7 21 31 9 7 17 19 8 15 -5 -3 15 2 -11 37 13 16 13 3 14 5 14 21 14 3 -10 4 11 9 10 14 -6 21 -8 10 9 8 1 14 -2 0 18 7 27 5 19 13 25 -3 6 4 34 25 6 13 -3 16 5 13 11 4 20 28 1 17 -11 3 3 -7 -3 4 35 30 3 -6 14 21 -4 29 7 -2 35 19 3 7 7 4 3 -3 12 4 -13 11 8 11 -13 10 20 -1 14 -15 -12 -2 8 18 -13 7 18 8 11 10 7 3 1 3 2 -7 13 7 -4 27 -15 15 7 34 18 11 7 23 -24 3 -3 22 5 -4 0 17 13 5 5 9 7 7 17 23 -2 11 2 9 -4 4 -3 -13 8 7 14 1 18 10 2 23 4 17 30 -5 4 17 23 -17 -7 -3 13 5 8 15 16 4 6 9 3 5 -7 3 22 9 -5 -13 3 -15 7 4 3 2 2 1 11 4 5 2 20 20 3 10 6 17 11 29 -9 25 0 -6 7 -3 5 4 -9 3 2 4 23 -7 31 17 14 4 18 18 -4 14 3 12 20 7 -3 7 11 -13 12 -7 -9 6 16 -7 4 2 4 -1 23 -4 -9 4 14 5 13 24 6 17 7 -3 18 -3 21 18 -4 24 -2 -9 -3 31 3 -7 10 -2 19 17 12 17 -9 -16 3 25 -13 -3 10 14 3 24 3 -7 15 -3 17 8 21 8 18 17 19 -3 15 5 -6 -9 -4 7 19 20 6 -8 28 13 10 28 13 14 1 -12 14 13 6 21 -14 -22 -7 3 20 -2 18 6 5 15 11 20 7 3 2 31 18 15 3 19 0 -3 1 25 14 4 11 24 4 30 18 4 20 32 9 4 13 29 30 24 6 6 37 24 14 14 10 20 22 26 -24 16 -3 10 14 -13 13 5 7 17 -4 -3 -6 -6 -13 12 5 21 7 6 23 -4 6 10 2 16 7 10 5 -7 10 -3 10 31 7 20 17 34 17 24 3 -3 8 4 -7 11 13 -2 0 17 20 38 4 14 3 -4 8 17 -3 24 22 18 20 13 10 1 24 -5 7 7 14 3 -5 -7 -17 13 8 -8 -1 23 -3 7 -3 18 3 11 33 14 -9 10 7 10 7 2 -10 3 6 10 -3 27 -3 -7 14 11 -12 -20 11 7 23 6 -14 5 14 10 -24 3 13 4 7 4 -6 -6 -21 14 3 9 15 9 -7 20 -18 17 24 13 14 -6 8 27 10 14 14 -12 -23 -8 27 -1 -4 15 6 -17 25 -1 12 2 7 -6 7 -8 1 10 18 0 -23 14 15 3 3 4 13 13 12 22 -15 4 7 24 5 2 -11 20 16 3 7 -6 13 4 13 9 14 28 14 2 26 21 -1 7 -6 -31 31 5 -7 5 6 6 -9 27 27 7</t>
-  </si>
-  <si>
-    <t>NIG(82.97544510292892, 35.937703767351024, -1.3751023834148501, 77.0495287057668)</t>
-  </si>
-  <si>
-    <t>19 22 51 30 37 30 36 22 20 30 33 39 31 50 19 40 38 23 27 43 36 35 28 34 41 25 34 13 35 44 26 37 42 52 57 43 28 46 39 37 29 37 22 44 43 42 34 43 37 24 36 37 30 29 26 57 22 46 28 43 52 24 13 40 29 50 47 51 55 30 29 25 28 33 36 52 40 39 65 33 47 38 38 35 47 38 40 55 23 33 56 38 13 44 19 36 51 39 48 54 29 26 31 28 16 47 27 31 56 34 44 37 26 39 29 30 18 53 37 40 40 34 36 23 36 56 31 41 30 40 65 19 22 21 37 31 27 42 16 33 29 36 24 45 51 41 49 51 35 41 38 37 35 33 37 21 33 44 40 33 44 37 44 30 61 47 30 40 44 45 47 36 41 52 38 59 37 26 35 40 37 24 32 36 29 43 53 27 29 34 33 26 27 24 54 32 31 39 15 30 20 50 52 33 39 38 43 29 55 34 46 34 32 16 34 36 15 27 41 37 31 19 61 31 33 28 38 37 38 27 27 43 38 34 36 40 34 45 40 56 49 26 30 27 26 42 29 33 15 45 27 38 26 39 64 26 12 39 37 44 32 30 22 36 31 26 34 20 37 34 25 33 54 35 54 35 31 36 42 36 42 35 33 47 22 44 34 53 30 29 30 33 26 54 26 33 25 55 33 31 30 23 13 49 44 26 42 27 25 37 43 32 27 29 37 34 32 40 30 16 17 31 48 24 49 29 34 53 27 19 30 14 32 48 41 40 35 37 61 43 20 41 49 16 36 41 39 35 24 40 12 23 34 41 31 44 37 37 35 32 36 30 44 43 30 33 44 19 38 30 46 37 26 30 36 42 29 37 42 37 39 26 40 40 41 36 27 32 55 50 58 32 38 31 27 29 43 36 36 55 47 30 29 27 25 16 38 38 33 32 33 23 49 61 40 34 39 29 30 38 33 30 34 19 41 44 19 27 47 54 42 38 22 26 17 41 36 37 56 35 37 24 33 46 37 37 49 31 51 33 52 30 36 52 49 20 30 30 33 35 26 52 42 42 24 37 51 57 20 41 19 28 41 49 35 32 40 31 31 32 48 31 40 25 21 27 32 37 33 23 52 34 23 37 30 49 51 31 44 32 33 35 33 49 45 39 40 36 33 40 47 35 33 44 23 22 37 20 23 58 43 37 42 34 16 32 52 16 33 53 20 31 66 44 19 29 18 36 52 37 38 53 33 29 39 35 29 30 22 37 31 37 16 37 22 13 17 30 44 49 46 41 36 43 36 44 26 47 21 50 40 44 16 16 19 25 40 30 47 37 40 41 49 49 46 33 36 31 41 22 49 55 23 29 36 43 25 40 36 49 52 41 36 30 44 29 19 26 23 46 37 23 51 31 49 27 25 41 43 44 36 16 28 50 48 41 33 33 30 37 44 34 30 34 20 27 40 57 36 28 41 35 26 45 37 42 27 35 40 36 35 33 16 34 37 46 30 36 41 22 37 51 53 31 39 29 34 45 37 51 46 66 33 38 50 25 33 44 29 54 52 39 32 41 40 36 30 22 22 34 41 43 30 22 51 41 30 49 37 57 43 61 44 23 33 42 29 33 27 30 40 27 40 40 15 30 33 44 47 29 35 47 39 28 29 43 33 47 37 29 41 19 50 29 31 39 37 33 47 47 38 41 45 37 38 40 29 18 33 49 47 57 56 33 34 44 41 20 39 37 37 31 32 43 31 45 44 40 24 62 29 31 39 26 40 23 33 28 33 38 36 37 26 49 43 47 34 32 39 29 23 33 37 34 41 22 47 30 47 26 33 39 57 23 34 28 35 42 34 55 37 34 29 26 36 32 33 44 30 23 44 50 36 25 47 40 32 29 37 26 65 38 29 44 37 25 13 44 16 9 23 40 27 43 26 32 43 56 23 20 33 34 50 32 47 23 31 40 50 44 34 33 33 40 30 36 26 37 53 44 44 50 20 22 31 27 39 52 26 17 22 23 37 20 34 34 32 30 29 40 35 30 27 45 47 37 40 45 40 40 33 39 30 42 29 49 31 34 41 39 37 51 40 31 35 53 38 30 41 20 31 37 30 36 41 53 43 28 37 24 35 44 44 26 27 48 31 29 23 37 30 30 39 44 30 41 20 28 34 48 13 45 29 27 51 51 40 30 27 33 40 36 34 30 19 39 49 43 48 44 41 25 58 25 46 54 44 33 40 56 35 35 45 34 43 29 48 31 35 45 47 45 37 52 47 41 33 41 23 35 45 27 40 31 23 40 24 19 35 38 55 16 40 50 33 37 20 36 32 20 34 27 37 30 43 43 34 24 22 43 43 36 34 29 30 16 37 29 48 36 35 29 16 43 19 44 34 30 44 44 33 35 36 27 23 55 44 39 37 23 31 30 30 44 23 42 38 57 43 44 34 55 35 33 51 42 43 40 30 35 25 51 26 28 38 35 37 37 41 38 41 20 45 26 24 37 40 20 37 23 33 16 41 27 23 35 37 43 27 37 35 26 37 45 36 22 44 46 26 19 37 34 38 43 40 33 45 43 27 50 51 33 33 48 37 46 41 33 30 47 38 16 41 32 27 39 26 25 46 36 34 51 29 32 34 22 41 46 42 41 47 32 35 16 39 26 33 43 29 37 29 50 35 36 20 29 24 48 42 42 38 25 32 38 16 37 56 19 27 16 26 27 46 39 37 40 43 38 45 37 41 35 26 27 23 36 25 34 29 41 37 40 34 40 37 56 34 47 45 49 29 40 26 36 33 44 36 40 34 45 39 31 57 32 54 23 49 41 40 23 34 33 35 55 43 51 33 19 53 30 39 50 37 30 33 29 59 41 24 40 44 48 55 43 37 46 60 43 31 40 43 51 39 29 19 51 45 33 33 29 41 38 45 36 40 22 15 26 41 39 31 36 34 25 35 31 26 27 44 43 47 51 37 31 37 48 29 38 47 34 46 33 26 50 33 30 55 20 29 57 23 43 26 38 47 33 36 32 29 33 27 38 37 37 56 37 47 30 31 29 23 30 36 24 32 29 36 51 44 31 58 37 30 57 41 40 44 30 27 34 23 47 31 25 40 29 33 45 36 33 36 29 39 41 47 44 54 51 50 39 34 37 48 29 36 23 39 30 45 47 40 36 39 44 56 33 38 49 38 34 25 29 43 27 27 22 25 35 47 23 36 39 45 22 30 37 41 19 36 44 33 15 37 34 44 25 37 41 27 29 35 34 53 52 31 51 25 40 30 29 38 43 30 39 40 35 37 38 13 10 16 41 40 33 47 27 33 41 55 49 27 16 34 39 47 41 31 48 27 65 30 37 41 35 37 22 34 33 31 36 35 55 27 29 44 44 34 47 41 26 40 37 40 40 49 57 45 20 43 15 50 46 36 41 42 43 46 44 29 37 60 33 30 47 50 37 27 40 37 15 33 47 33 34 39 33 29 40 34 20 36 53 29 37 41 44 47 36 43 23 48 33 30 22 31 44 50 50 34 41 17 19 37 47 26 16 51 37 55 26 43 37 39 42 29 31 40 57 16 23 26 40 48 37 49 44 47 56 25 40 59 16 37 28 55 58 34 24 27 26 43 33 55 34 36 42 35 38 49 29 41 57 47 38 25 51 24 27 54 29 33 31 43 49 39 33 27 44 40 57 40 36 23 30 37 46 47 37 43 24 42 35 33 17 47 41 40 34 23 34 41 36 23 35 40 38 24 42 44 13 30 53 38 31 29 30 17 36 44 45 23 30 21 52 55 24 26 40 27 37 35 39 28 33 41 34 39 23 30 28 27 26 45 33 28 18 27 32 45 27 37 33 53 24 38 26 33 27 47 33 42 13 38 21 37 31 30 19 16 43 47 19 27 45 36 33 30 37 37 47 28 42 44 43 30 49 43 41 37 33 25 16 51 57 56 19 29 40 12 56 30 30 48 40 36 30 56 34 33 24 19 30 21 51 47 32 23 26 39 54 41 27 43 25 30 27 13 19 31 25 38 42 35 16 44 36 27 47 35 34 21 30 30 12 46 33 36 30 32 42 32 54 44 40 41 28 29 33 20 37 36 36 24 37 46 36 40 31 29 35 51 39 28 51 20 32 50 46 33 31 40 31 47 53 36 10 29 36 41 15 12 30 30 46 32 47 37 37 26 37 41 37 40 45 23 44 33 32 16 26 46 52 23 19 37 37 35 33 23 44 37 45 38 33 30 37 47 31 23 43 32 36 51 20 36 36 35 33 43 30 37 46 34 27 48 9 43 34 47 38 47 19 34 48 50 35 53 50 31 38 38 28 32 51 46 37 37 34 47 58 44 17 45 24 33 24 47 9 36 36 37 33 37 25 33 51 37 30 33 51 28 35 44 45 37 44 42 34 48 32 40 35 32 42 50 23 17 23 31 47 55 55 49 47 43 37 44 26 50 32 54 37 40 43 36 45 29 33 51 37 41 41 22 19 50 47 41 30 38 29 41 27 22 36 43 30 36 29 39 58 41 48 34 42 29 48 37 68 36 43 44 29 36 46 41 29 55 43 48 27 30 13 19 56 36 33 29 52 26 33 33 29 21 38 52 25 33 43 39 30 33 33 43 23 40 41 22 40 37 41 29 33 42 42 23 22 34 19 36 51 36 40 23 37 35 48 49 26 22 43 46 16 31 23 29 43 30 21 40 37 43 35 24 34 31 37 43 44 44 27 29 31 47 43 30 43 41 46 16 32 38 45 44 34 45 36 37 36 37 27 38 35 48 45 31 16 35 46 48 34 51 25 49 22 34 41 31 30 52 61 49 19 29 29 36 18 35 36 54 45 29 38 37 27 36 59 26 33 30 30 35 33 39 32 54 41 30 35 28 28 34 55 46 28 30 59 40 43 58 30 32 31 31 33 32 36 46 37 54 22 50 28 47 25 36 34 30 36 32 40 43 34 33 44 39 23 41 17 30 43 30 41 28 34 33 36 34 41 47 36 39 37 37 35 40 30 45 24 27 31 41 32 37 30 48 43 39 30 19 23 23 19 34 36 43 39 37 45 23 29 40 23 33 41 6 37 44 34 58 37 48 29 33 26 37 29 42 33 25 30 48 30 39 28 43 30 36 41 45 42 44 33 19 32 27 39 43 32 24 30 26 45 40 33 35 35 37 54 30 47 32 42 38 22 40 30 46 34 43 39 30 33 52 39 20 24 13 55 38 35 20 39 16 44 29 33 48 51 33 51 40 39 30 51 44 32 40 27 23 26 23 31 38 33 29 20 33 48 69 26 35 40 34 39 27 31 30 44 35 47 30 51 44 32 27 43 40 34 37 26 23 59 29 47 19 44 32 27 29 27 36 34 33 34 40 46 27 41 27 38 37 37 35 47 30 37 26 45 44 44 37 51 51 27 38 34 41 37 51 51 34 27 31 30 46 51 51 39 34 54 31 22 35 34 29 23 34 37 30 38 39 41 29 50 24 41 26 43 36 44 31 31 41 37 20 31 13 33 31 30 15 34 37 25 47 29 26 40 38 54 45 36 33 47 38 40 33 34 27 29 27 55 41 47 40 29 22 24 40 31 50 44 34 33 46 48 51 38 51 43 37 24 49 34 22 33 30 26 37 32 21 54 37 34 51 37 53 23 34 26 35 47 49 31 35 35 29 55 49 18 16 52 29 31 37 30 39 34 56 43 41 38 35 37 25 33 24 37 44 51 34 38 36 16 43 31 23 30 36 56 29 51 48 30 35 33 34 37 44 42 52 38 38 48 24 43 34 33 40 22 22 40 41 46 33 48 37 40 37 26 40 48 34 57 17 26 31 49 33 35 37 39 34 43 37 20 42 31 30 43 48 40 30 29 42 47 33 52 33 25 41 33 43 37 25 41 38 27 39 27 33 29 26 38 35 40 13 44 26 22 29 46 30 37 33 35 42 35 43 47 43 18 37 35 25 31 44 23 27 28 26 26 51 35 47 47 23 33 54 34 27 30 44 25 26 30 52 39 36 30 25 30 19 34 23 28 46 37 34 42 37 41 23 39 20 18 35 21 22 24 44 66 55 29 23 41 49 27 37 33 47 51 37 38 50 46 43 32 49 25 36 37 29 25 49 37 50 45 17 55 38 29 41 26 33 32 22 41 55 37 17 26 30 21 40 23 45 34 44 27 27 55 42 26 33 51 39 47 37 58 42 16 51 27 21 26 47 35 47 48 41 29 30 37 35 31 48 27 19 45 42 31 30 61 40 31 38 22 20 37 44 29 37 44 37 30 47 32 25 52 62 39 42 33 52 37 26 33 41 48 27 51 41 31 31 31 53 43 38 36 34 30 23 38 36 40 36 40 33 50 33 37 49 26 51 29 7 44 40 30 33 28 23 53 39 41 33 44 30 42 52 41 44 26 48 42 26 51 46 36 34 50 41 43 43 50 33 22 31 28 24 32 27 30 30 40 36 27 30 36 37 37 23 45 37 55 31 60 14 47 37 39 39 27 13 64 31 47 31 47 33 33 31 25 37 32 26 36 48 27 24 29 31 36 33 27 37 27 36 30 33 31 36 32 34 42 26 42 37 44 29 45 34 31 35 48 36 33 36 69 29 23 42 50 31 48 30 26 33 58 44 27 47 30 47 37 20 65 49 31 26 28 34 32 30 40 29 51 41 33 32 43 22 49 33 37 22 44 34 22 41 36 39 39 31 16 22 23 30 43 23 52 51 24 37 39 54 24 47 38 60 16 45 24 56 44 19 22 24 34 37 23 35 33 24 37 41 48 24 33 34 36 37 28 49 37 25 31 37 26 40 54 37 55 30 38 48 33 44 40 51 29 24 36 37 34 34 43 24 49 36 37 37 19 38 29 28 14 34 41 41 26 33 17 34 47 53 23 53 40 55 50 40 39 36 23 26 43 32 17 40 43 21 43 27 39 37 31 26 22 58 28 22 44 30 29 45 43 39 43 46 31 37 26 29 35 26 43 41 31 47 30 32 29 51 46 54 44 41 27 50 38 45 34 33 52 40 38 30 20 34 38 46 40 32 54 39 58 43 66 22 42 37 47 43 43 12 36 37 30 30 33 40 30 54 47 31 32 49 46 42 56 34 23 43 41 35 25 41 33 43 36 36 35 55 29 43 65 30 38 24 37 38 24 27 27 51 28 37 37 29 55 26 23 23 29 35 41 26 26 37 48 31 45 27 28 36 52 43 27 58 43 33 27 44 44 33 30 44 42 43 27 55 23 21 51 23 31 19 49 33 49 41 37 22 24 44 32 38 44 56 41 22 36 21 29 29 36 30 29 37 34 31 31 50 37 52 46 20 25 21 26 21 30 30 41 37 37 31 41 38 31 35 36 27 37 31 42 44 29 29 58 36 47 45 37 44 43 38 40 31 23 28 56 34 35 33 44 40 49 41 49 40 26 27 41 23 39 22 39 37 41 48 16 42 54 39 36 37 33 46 41 31 37 37 33 29 34 37 34 46 27 23 37 41 45 27 51 45 34 39 33 37 30 28 37 26 40 43 38 27 45 27 29 30 50 38 39 35 33 33 17 35 38 33 46 37 32 63 48 45 23 33 40 32 43 10 40 44 31 18 19 52 24 33 30 30 37 45 46 22 38 42 29 42 36 65 36 16 29 54 27 39 16 28 44 58 42 23 46 40 30 39 29 40 37 20 54 45 28 41 24 35 30 38 39 45 41 29 39 19 33 16 29 40 33 43 30 36 39 27 39 31 41 20 32 31 37 39 30 37 32 42 27 29 38 33 24 31 40 26 43 46 51 43 46 36 27 19 19 55 19 32 36 27 32 41 34 44 33 30 27 25 37 33 44 42 31 42 20 30 44 34 19 58 25 33 38 37 44 23 32 40 34 40 42 29 39 47 40 19 34 37 37 46 36 41 13 19 29 43 46 30 36 28 30 38 30 42 61 27 48 23 34 12 37 43 41 16 29 37 47 35 17 29 21 41 35 57 36 49 45 26 40 49 27 57 40 31 41 55 15 31 23 36 34 46 33 33 51 34 43 33 41 30 23 37 54 48 51 48 34 30 54 31 33 52 26 33 34 27 44 43 28 49 40 30 49 30 39 25 39 22 34 40 6 24 36 43 43 25 26 33 26 27 33 35 27 36 16 29 17 20 42 29 37 26 29 48 40 22 19 43 13 44 28 29 45 48 47 26 40 37 40 39 35 29 27 33 24 20 47 49 20 28 30 31 43 37 40 57 47 49 34 41 33 45 19 48 37 28 20 39 33 35 36 39 51 40 58 26 36 26 34 40 47 53 33 40 33 16 46 50 51 41 33 46 33 33 37 18 27 15 26 24 28 30 29 32 33 36 27 32 44 30 21 23 39 23 36 43 26 26 28 19 40 48 24 29 34 23 23 39 37 51 36 34 30 34 49 37 30 23 24 40 32 27 29 37 46 47 28 37 24 40 43 44 26 29 27 32 22 33 38 44 46 22 25 44 33 37 31 28 26 38 40 32 45 31 29 27 39 50 50 46 37 37 24 41 21 29 13 43 54 45 39 14 43 35 36 38 31 31 25 47 59 51 41 24 39 45 43 47 29 23 55 41 52 34 47 37 41 40 43 27 44 39 43 44 19 35 39 25 47 37 19 26 32 12 54 44 46 32 50 38 36 31 38 32 48 45 42 37 30 26 28 40 37 51 13 45 26 29 43 44 42 28 24 48 39 37 24 43 50 33 30 31 34 29 33 25 43 22 45 29 34 31 25 37 27 29 31 37 35 34 36 29 48 19 33 31 30 33 39 27 25 30 33 36 43 20 23 37 50 29 31 44 33 45 23 40 30 27 39 26 25 43 31 43 19 20 39 42 59 37 16 53 27 23 25 40 28 30 28 36 35 47 37 41 31 45 40 25 19 32 46 20 42 39 18 37 44 27 48 27 19 30 26 40 21 48 15 50 41 44 53 46 29 36 36 23 27 33 34 40 33 22 43 13 50 37 43 51 45 34 37 36 34 39 58 39 37 26 51 44 50 34 52 26 50 59 22 29 43 37 30 38 41 16 32 37 36 16 30 22 27 35 27 24 37 38 30 33 47 30 55 27 41 19 45 36 44 38 12 20 47 38 30 32 29 53 34 42 45 45 45 47 29 43 39 27 36 56 37 40 57 44 43 36 42 44 37 47 43 47 26 43 23 37 37 30 23 33 33 17 49 50 42 43 35 44 55 29 58 51 34 35 33 40 36 41 23 36 41 49 29 31 50 43 25 48 35 40 43 27 55 22 34 39 40 19 34 36 17 19 41 56 49 29 38 37 36 27 39 34 32 55 22 42 43 35 26 34 24 41 51 33 41 35 33 32 36 45 30 35 32 37 48 29 29 37 60 34 50 41 10 33 37 36 45 26 32 29 37 48 32 32 33 46 34 32 23 43 52 46 29 44 24 30 43 23 52 40 40 39 48 41 17 41 30 33 15 29 49 29 24 44 34 30 37 39 23 34 36 33 53 48 35 36 61 36 19 38 64 23 37 40 47 33 32 45 29 43 45 26 44 33 24 25 49 37 37 35 35 30 55 33 37 18 34 40 37 45 29 32 34 38 28 37 27 56 36 30 35 26 41 27 44 41 48 32 34 40 35 36 29 30 57 23 25 23 28 33 50 44 55 59 33 41 33 44 40 41 33 31 26 36 33 34 43 30 45 44 23 32 54 36 30 16 41 53 13 47 35 37 32 51 41 33 30 31 36 23 23 33 20 38 39 26 32 36 31 37 38 42 25 16 41 46 37 37 37 3 34 38 29 37 29 32 43 45 29 34 41 43 43 34 43 34 56 37 38 30 35 34 31 46 34 38 45 19 33 26 44 25 35 51 34 29 19 49 21 30 25 58 27 22 40 25 38 40 36 13 32 46 43 59 26 23 48 38 43 37 23 46 42 26 50 21 40 30 44 35 29 37 20 36 31 39 37 37 29 24 35 52 22 26 38 39 23 22 37 37 38 19 32 48 41 34 20 31 27 37 28 30 29 43 15 16 45 40 41 43 13 19 43 20 31 48 43 45 51 55 51 22 22 51 45 22 41 46 32 29 23 19 36 36 35 38 36 27 26 29 37 29 54 19 46 41 31 25 27 33 32 20 48 41 29 47 53 45 38 29 37 37 26 40 42 51 41 39 38 29 19 27 23 31 42 32 44 44 32 34 20 49 37 36 36 41 34 55 37 52 38 28 33 48 23 37 29 27 49 22 33 31 69 23 30 37 30 49 27 47 31 30 29 54 40 33 63 33 47 44 33 33 44 30 33 27 44 27 40 38 38 50 42 38 36 40 40 47 41 36 39 43 36 27 54 37 20 41 22 34 16 57 44 56 32 20 33 36 26 36 32 34 37 46 37 43 34 29 31 31 42 43 37 30 41 50 41 39 30 33 45 45 40 29 29 34 43 29 48 32 26 37 27 28 49 31 32 46 38 29 50 41 37 44 37 28 32 33 42 37 37 30 59 39 27 34 26 36 44 43 51 51 44 44 18 51 23 40 44 19 27 33 37 37 36 31 37 45 30 38 50 44 29 30 43 37 31 33 38 28 28 39 23 33 43 41 41 36 29 42 47 26 23 37 24 16 52 26 39 26 30 28 40 39 6 43 19 41 45 52 37 41 33 29 45 26 19 23 34 35 17 27 36 33 44 33 62 56 49 30 16 10 23 33 33 40 17 36 47 35 20 49 37 19 40 30 23 26 60 46 20 39 48 44 30 35 22 51 28 53 36 45 30 49 29 23 42 51 22 46 41 36 41 31 39 35 55 16 39 44 47 31 33 46 31 39 37 35 41 34 50 24 34 31 48 41 37 34 34 26 22 31 40 51 38 31 24 36 29 34 39 42 27 27 42 41 41 39 24 37 30 36 29 54 43 37 20 47 27 43 33 36 48 23 43 40 58 37 36 34 43 48 29 17 29 33 29 36 39 53 28 34 45 47 28 28 45 28 34 27 37 43 42 27 37 44 53 24 26 46 27 13 38 30 37 44 34 30 46 44 23 18 42 41 49 37 53 37 33 37 38 34 27 38 44 31 40 42 42 44 46 43 37 33 20 20 41 32 30 50 36 17 26 41 29 40 41 14 33 41 39 44 23 48 34 37 61 24 36 29 36 49 41 28 33 52 15 47 37 43 35 33 36 41 26 30 31 35 23 35 29 39 39 20 33 45 57 37 44 27 45 33 41 30 43 36 37 12 30 45 34 23 49 36 34 23 33 39 50 33 27 30 35 50 24 30 40 33 23 39 30 40 31 48 24 30 26 38 32 41 54 44 33 28 37 38 26 31 24 34 33 38 41 36 41 27 34 40 51 39 33 41 41 48 54 42 25 43 33 39 48 29 23 30 23 38 47 16 37 28 37 37 36 52 43 29 51 47 15 30 43 40 52 49 36 26 58 42 36 38 44 16 33 38 34 32 34 30 33 30 20 34 31 37 41 36 46 32 51 35 37 47 34 32 15 44 34 38 30 43 45 40 35 40 51 38 46 29 56 45 37 43 37 38 33 46 36 43 44 33 34 34 25 33 6 48 19 34 33 43 32 24 30 40 31 45 31 48 55 23 30 30 40 21 37 34 31 40 46 32 45 34 34 45 48 43 16 36 46 34 22 54 44 30 41 30 28 29 32 37 20 36 27 45 47 38 51 32 37 41 35 29 34 18 36 36 41 34 32 44 48 40 20 37 48 27 37 51 36 48 38 27 16 33 25 45 52 34 19 49 29 54 43 49 16 38 31 51 27 35 23 23 33 38 49 35 32 36 46 37 19 26 51 22 46 36 43 19 37 43 22 29 38 30 29 50 37 48 33 29 47 21 50 53 23 37 24 43 40 30 58 30 20 34 20 35 39 47 23 49 16 33 22 46 47 29 45 21 35 25 31 35 34 43 24 40 54 23 36 28 26 27 49 47 23 41 29 23 45 37 47 31 61 38 41 20 38 15 56 38 44 40 47 22 40 51 50 39 39 50 33 44 37 33 32 48 29 32 31 43 38 36 26 39 38 31 36 33 22 29 35 47 33 23 49 16 35 33 33 56 38 41 44 33 48 17 35 27 27 51 29 25 31 26 45 33 33 40 39 39 44 23 20 15 15 32 36 21 40 26 34 31 58 48 38 25 23 37 51 39 47 43 44 41 30 48 59 51 43 30 40 59 58 31 18 28 29 49 57 39 29 42 44 40 42 29 31 20 35 31 45 31 28 35 40 19 32 15 34 30 25 54 21 18 20 32 30 41 36 47 34 37 43 44 24 45 36 43 41 38 50 28 33 41 23 27 42 25 16 55 39 26 33 44 16 27 27 54 46 37 40 16 39 26 47 21 30 30 36 36 46 41 26 40 37 29 27 33 29 22 20 38 46 10 48 33 10 19 32 46 54 41 27 34 32 44 30 37 23 39 29 33 30 34 25 41 30 31 41 39 23 29 19 23 44 36 44 34 32 48 34 34 36 49 41 55 36 50 37 29 27 29 30 31 13 37 33 33 33 26 39 51 33 19 35 30 38 19 42 33 30 43 26 51 39 25 37 26 34 33 40 48 31 38 25 50 38 23 32 41 39 28 40 31 56 57 33 37 30 41 30 20 42 43 39 49 23 44 47 41 52 39 30 40 37 50 36 37 35 34 37 45 55 52 20 28 20 19 33 51 33 41 34 44 32 20 43 36 43 37 46 30 33 36 31 40 43 34 39 55 43 19 16 35 24 37 38 23 30 34 22 36 26 53 42 22 48 55 31 44 32 33 33 32 34 38 39 42 39 40 51 20 23 37 66 38 41 29 30 30 32 44 26 17 12 23 23 23 33 40 34 26 43 30 36 35 22 45 28 37 41 44 32 37 27 32 30 23 26 26 39 20 23 39 19 37 42 37 38 33 35 29 41 30 37 45 40 42 34 34 20 33 36 32 46 30 30 35 34 30 37 26 20 30 41 39 27 41 38 37 27 20 26 54 26 48 31 40 27 23 30 26 35 29 50 32 30 40 43 47 33 34 15 26 36 36 33 37 48 35 33 34 43 28 50 35 43 27 29 16 44 25 29 33 49 43 22 52 41 36 30 19 34 29 37 33 34 34 27 36 33 31 33 45 36 39 60 41 32 39 35 30 22 40 35 27 53 43 19 34 50 19 40 30 22 24 34 18 43 58 50 44 30 62 26 30 25 25 44 34 36 39 44 34 44 23 29 20 57 22 36 34 31 32 34 36 27 38 32 25 13 47 19 29 20 39 20 35 41 19 36 46 24 43 30 36 27 41 30 43 35 31 33 27 37 44 20 26 41 27 35 52 37 25 35 27 43 36 38 43 40 36 23 34 47 34 35 40 34 17 27 16 39 30 26 45 29 41 25 43 29 51 45 36 45 30 41 51 14 22 33 46 44 33 33 46 12 24 43 55 40 38 49 19 36 41 47 42 26 29 23 43 22 40 29 33 34 24 33 36 37 21 40 30 33 32 35 27 46 51 28 45 23 27 35 37 42 26 41 23 38 23 43 29 30 21 35 29 34 37 41 42 27 53 19 51 37 52 30 33 42 55 34 25 43 26 35 44 30 37 31 18 31 37 34 30 55 23 45 67 51 45 42 48 44 31 46 26 33 34 58 31 40 36 51 26 26 29 37 21 21 27 35 34 40 29 33 17 30 38 33 39 29 19 43 41 51 45 32 37 32 37 37 33 55 39 25 33 36 38 53 23 39 48 33 43 16 20 22 24 31 42 23 39 36 43 51 40 32 30 19 27 56 34 43 43 29 46 33 47 29 23 30 21 34 40 44 29 33 50 27 31 37 35 36 33 33 38 23 35 58 41 37 37 57 53 23 57 26 54 40 21 44 39 53 50 54 36 43 48 16 34 19 45 29 26 37 42 30 26 32 31 23 31 27 36 17 54 57 40 27 49 41 33 33 58 26 34 36 39 29 9 29 29 36 28 36 32 49 33 41 19 13 41 38 38 33 36 45 30 27 35 27 48 42 43 33 37 29 47 20 32 24 20 30 37 27 36 23 42 29 23 32 43 30 52 32 47 43 43 56 23 29 36 48 37 29 29 12 27 37 31 44 37 16 29 39 37 54 30 33 47 34 19 56 43 39 48 48 40 19 34 18 37 61 20 34 30 32 26 37 46 46 45 29 41 47 40 37 30 40 48 43 20 24 30 57 12 22 27 44 53 22 23 17 30 32 22 40 27 47 37 43 44 27 23 20 21 23 35 26 18 36 36 13 33 35 16 41 57 19 30 35 56 26 42 22 33 32 50 42 36 32 39 38 42 35 38 16 37 28 49 53 29 47 23 34 52 30 44 29 40 32 37 53 23 56 36 27 37 34 41 45 20 39 43 36 25 44 19 33 54 42 43 23 22 36 37 29 39 36 38 28 36 30 44 45 37 23 39 44 47 21 36 23 20 37 37 41 26 27 57 43 34 50 38 36 34 45 32 28 40 30 16 29 45 33 30 57 30 28 22 41 27 37 44 38 34 39 24 30 47 41 49 39 43 23 33 31 53 34 34 37 37 23 39 43 30 41 43 32 31 38 37 42 32 37 32 43 29 31 54 23 30 34 38 18 27 32 30 27 27 38 23 30 51 35 26 37 31 48 41 15 44 30 26 47 23 46 51 41 19 23 33 40 49 30 36 47 20 36 37 53 33 29 46 42 31 43 32 45 30 16 29 36 44 33 20 45 25 26 53 34 37 26 22 31 30 40 32 34 42 22 29 40 37 40 29 31 33 27 23 41 20 20 54 33 27 33 37 30 42 33 44 21 34 39 51 53 32 30 43 25 27 47 38 36 26 46 33 30 42 33 27 40 35 30 41 29 52 42 53 46 38 47 31 26 13 34 41 22 35 29 46 11 46 44 32 50 38 19 36 31 46 54 38 27 35 26 39 37 37 42 26 43 21 32 27 44 51 29 41 29 40 18 44 36 40 37 30 35 26 33 29 40 29 33 30 43 42 33 40 23 42 31 38 30 37 20 37 30 39 43 26 49 19 47 34 62 51 55 32 34 39 44 38 49 26 72 36 27 30 22 34 37 35 54 40 34 22 43 63 39 45 35 27 48 37 37 31 19 44 48 49 38 39 43 24 45 28 35 30 42 35 35 30 40 18 26 51 53 24 29 46 26 20 44 73 35 43 44 33 52 27 25 45 44 43 23 44 40 30 49 37 36 62 42 52 32 49 44 36 60 29 54 30 29 65 22 30 17 17 40 36 41 39 39 34 29 40 23 52 30 33 33 21 51 30 36 39 26 46 68 41 38 46 36 43 26 37 31 30 38 39 35 37 19 54 51 44 19 37 29 44 45 40 37 22 29 44 40 24 33 28 44 50 20 28 23 33 31 23 45 25 27 26 26 37 45 38 25 17 31 40 43 36 42 26 37 27 30 33 45 9 37 39 45 48 40 29 31 40 40 46 38 26 16 23 35 27 30 25 44 26 32 31 29 32 44 37 59 38 49 26 50 41 17 25 39 19 9 36 35 30 32 44 26 44 37 22 44 34 48 39 43 41 34 16 31 60 32 33 29 58 16 59 51 40 44 40 57 34 29 33 33 34 33 59 37 44 48 35 46 37 26 19 43 38 30 29 37 28 40 33 39 60 34 37 48 30 40 43 32 39 34 27 45 45 35 44 62 35 28 41 48 33 36 27 17 27 33 40 26 21 34 17 31 29 22 46 24 33 36 39 30 57 27 67 37 39 57 37 44 44 40 30 40 51 54 39 41 18 44 19 46 48 51 30 25 23 43 36 17 39 15 27 33 31 35 37 23 46 45 43 30 32 40 30 47 26 40 26 37 59 37 16 34 21 35 25 44 30 51 47 29 19 47 36 36 30 35 35 41 20 47 27 39 24 34 20 28 31 42 38 29 37 43 33 26 38 30 43 34 51 20 30 48 30 43 9 39 27 52 20 41 28 40 41 47 54 23 19 39 55 28 47 30 39 31 47 44 37 37 40 55 36 31 35 37 29 20 39 39 33 30 40 38 25 38 23 37 29 30 52 35 36 48 42 19 29 41 30 43 30 37 41 51 51 14 54 38 38 47 31 36 30 37 28 38 49 45 43 51 64 42 54 37 26 36 26 33 38 31 26 27 30 33 30 27 39 29 44 52 12 39 39 38 39 33 67 36 36 45 33 44 56 37 31 38 36 32 65 52 38 44 43 29 26 12 30 47 47 37 30 33 36 19 32 33 55 29 34 47 23 39 34 19 41 20 26 38 13 38 33 33 30 40 24 32 35 45 33 54 26 35 41 29 36 24 34 26 43 41 41 46 21 30 31 19 32 48 27 30 30 22 46 39 29 52 37 27 35 22 23 34 33 32 26 31 31 52 42 30 41 32 39 47 47 33 37 29 15 38 32 50 35 27 54 34 44 50 30 9 26 31 27 31 57 26 34 43 26 39 33 45 43 42 32 51 16 37 46 37 17 44 56 35 43 30 29 54 40 40 43 38 57 23 41 30 23 46 25 29 53 13 35 41 38 63 34 44 50 50 46 33 36 25 43 23 21 33 48 17 41 51 51 35 39 39 33 33 43 34 36 20 35 40 30 53 28 38 17 22 24 41 43 45 37 42 25 51 29 36 41 26 41 40 29 26 34 26 26 40 44 32 36 48 41 23 31 37 35 30 61 22 49 25 46 45 19 24 33 23 23 52 43 43 23 31 37 35 31 30 38 54 48 29 44 31 54 44 29 21 25 35 56 33 30 36 30 35 29 35 37 30 23 34 30 44 25 49 31 30 37 51 54 33 21 32 40 12 30 31 43 43 21 32 49 37 23 37 32 28 33 38 33 38 19 40 28 50 36 26 40 22 33 23 31 25 30 44 31 36 43 28 19 33 23 48 31 25 34 33 40 34 40 43 65 33 37 38 33 43 43 36 33 29 47 42 62 30 34 29 52 40 23 23 33 26 36 33 32 20 28 34 26 72 12 30 49 44 51 47 42 40 28 25 42 37 40 27 29 16 33 34 37 35 50 53 29 35 38 32 35 50 37 25 52 38 47 30 30 22 48 43 45 39 23 46 23 36 47 38 30 39 55 26 50 25 22 47 24 32 27 27 43 36 41 49 32 52 19 40 40 17 45 46 51 31 28 16 25 26 35 21 16 30 45 33 23 30 50 36 42 44 43 36 13 36 37 34 34 27 32 36 16 22 24 23 23 34 40 41 60 37 44 35 41 46 25 40 41 30 21 38 35 37 27 29 45 44 33 47 30 36 32 18 43 37 47 32 25 39 51 46 26 36 41 37 39 55 37 23 42 44 27 33 44 42 22 55 47 51 42 45 32 36 47 27 41 47 26 30 31 43 36 35 13 37 23 46 30 49 20 63 53 38 22 45 22 33 36 23 44 34 59 37 37 39 56 54 37 42 26 28 30 26 37 47 40 33 48 13 44 36 30 38 40 19 22 13 37 46 31 35 34 43 39 31 33 34 24 34 29 31 23 44 40 33 52 38 32 26 27 34 23 27 23 62 41 36 37 28 60 25 38 29 41 31 36 27 40 29 31 38 69 43 37 33 26 38 30 33 49 35 57 27 20 33 36 36 35 40 40 49 29 39 24 41 44 31 33 35 30 28 45 31 54 43 45 52 43 40 16 31 42 53 66 22 26 29 32 27 26 49 32 27 40 40 37 51 40 33 37 36 33 48 26 42 59 40 49 40 30 20 43 32 42 33 34 31 37 23 37 53 43 23 52 37 22 26 27 51 24 40 30 48 51 54 29 25 23 33 54 34 53 33 47 29 51 36 36 16 19 50 33 41 36 27 23 32 41 40 46 28 24 29 37 47 23 44 46 19 43 39 46 43 35 35 36 30 34 51 32 51 17 43 41 46 33 26 32 44 32 47 42 45 43 37 37 29 30 40 55 23 39 36 49 40 45 42 27 28 29 49 23 42 44 45 32 34 40 20 38 22 53 22 23 15 47 25 49 25 54 53 16 30 29 19 22 37 35 53 27 19 45 33 44 29 22 45 52 9 40 37 28 19 29 26 25 55 36 39 36 22 20 38 22 51 46 39 43 30 43 33 30 26 19 22 43 24 23 30 31 30 37 25 43 42 26 31 45 54 30 13 44 21 33 30 44 32 50 26 30 58 30 22 35 23 50 36 41 22 34 53 32 17 27 40 45 23 40 46 10 29 19 42 27 47 16 47 41 30 41 48 32 46 39 33 46 36 49 40 23 26 37 28 26 14 40 35 49 36 32 36 24 37 12 27 44 27 19 36 37 44 33 37 33 44 29 45 37 19 63 33 36 52 40 28 41 26 33 53 44 31 45 47 36 34 37 41 47 26 20 19 29 46 36 31 32 50 17 45 33 28 34 39 32 37 38 41 31 23 29 40 29 48 38 34 23 22 38 38 37 34 48 30 27 26 43 16 37 36 33 48 39 50 27 36 30 33 20 56 31 31 38 33 47 36 33 41 38 38 45 46 34 43 44 47 37 31 29 35 45 37 34 35 48 45 40 38 36 34 34 19 44 26 45 44 36 30 29 15 32 31 45 45 24 30 25 26 16 44 42 43 44 32 37 33 49 43 39 26 40 44 23 63 23 40 22 47 45 30 35 22 27 30 36 47 37 39 42 35 23 19 41 52 37 21 43 27 39 23 45 28 31 31 30 31 43 25 23 18 37 30 23 36 37 29 39 29 30 55 24 23 37 45 27 22 34 34 31 23 29 43 42 28 36 34 43 53 48 27 26 42 36 38 48 23 35 19 39 13 35 30 44 47 31 48 29 38 30 37 31 30 16 34 30 29 52 17 33 24 32 43 47 51 31 31 29 45 54 35 44 53 42 49 34 36 43 29 45 55 28 26 27 65 43 20 33 45 26 45 21 37 18 28 40 22 24 33 33 44 19 38 43 37 31 26 30 22 44 36 44 35 23 47 36 30 41 35 30 26 51 29 40 49 41 37 26 36 41 30 43 29 38 33 36 21 49 35 39 19 29 30 29 50 40 37 29 55 37 38 42 29 27 44 35 49 43 41 39 39 30 51 31 27 37 36 21 40 40 40 40 31 49 47 35 36 31 29 29 27 36 51 44 37 58 38 40 30 35 26 26 33 38 43 47 36 45 38 23 43 44 48 29 36 50 34 16 39 19 44 30 29 39 39 33 25 30 54 28 37 30 26 48 37 24 52 41 23 13 43 35 31 50 26 39 41 42 27 35 22 31 34 47 23 41 52 44 20 59 41 39 33 29 30 30 23 33 38 41 34 39 29 38 37 37 30 47 47 51 39 38 27 44 19 32 29 47 37 30 27 31 44 36 33 38 36 30 20 20 23 48 53 20 20 23 37 16 44 40 22 19 41 29 30 36 33 34 37 19 26 29 45 47 44 19 30 33 30 53 31 46 38 29 34 20 37 53 35 46 36 51 43 35 27 30 25 34 33 16 46 34 20 24 49 33 30 32 45 30 44 38 32 24 31 40 31 38 13 28 27 55 26 40 51 44 37 28 29 40 43 29 35 27 44 46 37 22 47 28 25 37 23 34 43 44 34 47 20 43 30 40 45 46 32 19 36 62 40 44 58 29 46 40 41 44 31 35 31 43 34 42 34 43 33 35 40 41 37 29 38 28 38 29 35 33 37 43 33 34 29 53 32 34 43 28 40 32 25 47 43 50 29 51 41 29 32 32 18 33 37 40 34 37 44 31 37 27 27 40 30 54 49 50 45 37 37 34 33 41 46 34 48 33 30 34 43 38 12 44 33 25 36 23 38 36 42 22 43 38 40 29 55 30 40 34 23 37 25 37 53 40 62 32 45 36 43 26 43 30 23 24 33 38 34 27 27 31 39 35 56 46 52 39 37 43 48 54 15 43 22 33 41 34 44 26 26 13 50 45 35 22 38 40 19 23 44 46 34 23 27 46 36 33 27 19 31 21 37 28 30 47 55 30 29 27 44 32 22 37 43 37 26 39 34 47 23 53 44 19 29 44 34 13 47 36 56 25 27 51 41 50 22 38 46 45 32 54 37 30 44 44 33 30 23 35 44 44 25 57 39 36 30 41 65 41 34 33 29 34 16 44 37 30 33 47 48 41 40 30 43 34 34 34 37 37 38 33 33 34 41 40 19 42 38 51 30 23 55 55 42 27 29 51 40 37 42 39 38 31 24 23 40 27 41 37 22 19 16 34 23 24 41 30 43 39 47 29 31 38 22 43 45 30 34 44 44 49 46 39 30 33 37 43 50 43 19 41 33 47 37 26 27 30 43 30 34 55 38 29 32 52 62 53 16 38 38 37 37 37 50 47 46 15 27 44 46 19 33 43 36 41 33 34 36 33 38 32 29 31 24 43 39 30 30 30 44 40 38 28 41 33 37 48 29 34 53 37 47 30 38 31 44 38 31 44 33 34 36 37 35 38 22 49 37 31 23 44 34 30 47 39 37 23 39 39 44 38 32 38 26 40 23 26 36 26 37 40 34 41 62 24 16 17 30 49 45 34 60 27 18 20 28 31 43 34 35 40 34 37 31 32 30 25 36 33 26 32 19 35 38 29 12 28 33 47 29 58 13 13 22 44 30 24 36 31 33 33 49 38 27 37 41 41 35 26 21 35 43 14 37 32 41 45 48 39 37 27 54 41 29 37 39 36 36 25 39 22 32 15 37 32 47 47 30 39 26 42 37 55 25 10 41 41 19 26 26 24 29 31 47 47 26 44 26 29 16 22 37 16 38 22 21 30 50 50 30 54 15 28 39 40 65 42 23 39 29 30 33 39 32 30 30 25 68 29 12 43 27 41 33 30 34 43 24 51 40 35 23 21 23 34 13 37 31 24 45 43 23 44 43 30 49 37 43 45 40 41 38 23 31 33 41 29 47 48 38 39 37 13 50 38 45 33 23 33 34 16 48 33 34 32 30 37 22 34 33 37 25 47 30 29 36 33 31 39 39 40 46 62 36 30 27 22 36 47 35 30 37 23 47 58 27 40 43 27 36 27 30 55 26 58 36 40 29 26 37 34 20 39 56 39 35 45 42 27 22 50 52 39 24 40 51 25 37 19 36 39 27 44 41 30 42 28 26 35 50 19 34 28 44 31 42 57 35 37 30 43 36 43 29 37 42 9 30 37 26 51 38 50 26 23 35 56 31 39 29 31 44 54 20 42 25 47 47 29 37 36 47 35 38 59 46 45 43 50 23 34 23 29 48 47 26 27 52 25 33 19 40 40 26 59 29 45 36 27 23 19 37 20 26 32 18 37 45 29 27 36 26 44 33 55 44 53 29 28 24 34 37 34 50 53 42 36 53 56 33 38 46 43 33 34 24 19 40 23 19 47 43 35 19 17 43 40 43 47 21 39 44 31 55 39 30 19 51 34 37 38 47 28 23 38 30 37 27 24 40 26 33 36 44 31 20 33 46 34 20 52 27 39 39 29 33 43 31 32 30 54 59 26 33 37 46 43 19 51 24 34 54 39 37 31 43 37 27 23 36 53 30 29 18 56 33 24 57 21 42 47 19 45 27 41 36 45 23 32 16 53 29 40 23 41 22 34 13 66 27 22 44 48 42 41 27 44 32 29 36 21 23 19 29 26 25 47 55 30 47 21 33 33 34 42 31 41 35 24 51 31 52 31 30 32 29 33 45 25 41 33 41 29 51 44 31 38 35 16 30 43 33 34 41 44 25 30 44 32 37 66 29 36 57 36 37 43 45 27 29 27 57 30 27 40 48 6 21 51 33 47 43 48 47 25 33 9 33 41 36 39 46 30 41 31 28 29 30 26 40 37 30 46 43 31 47 15 31 26 26 27 37 43 42 47 51 36 24 43 19 31 31 34 42 50 36 30 26 37 34 40 21 29 33 41 33 26 41 23 38 36 33 38 36 30 39 35 38 23 36 26 33 39 30 32 29 33 43 36 49 35 38 24 36 22 35 29 45 37 47 58 44 37 29 38 33 37 32 45 37 39 31 28 40 43 44 37 55 47 49 45 48 35 38 36 23 33 51 61 45 40 29 36 21 31 50 62 26 34 27 24 40 25 48 45 40 26 33 18 41 26 28 33 29 34 30 38 48 37 33 31 26 47 9 44 43 30 27 37 33 26 45 33 47 26 30 31 30 30 42 44 16 26 38 37 36 27 53 44 46 34 34 53 58 32 34 16 56 34 40 52 36 17 38 48 19 27 57 33 39 38 37 34 48 41 26 29 39 27 40 41 36 34 30 26 50 39 44 25 19 30 51 10 51 19 38 31 34 45 36 31 23 40 22 47 31 41 22 48 29 32 44 30 26 23 30 34 23 29 30 40 30 56 47 44 25 30 29 19 33 26 29 49 19 17 55 40 28 33 51 23 39 45 56 37 23 33 26 43 38 41 22 27 30 24 51 34 30 37 27 23 27 34 45 42 36 41 13 29 38 34 43 28 42 36 9 33 52 27 32 48 52 27 28 29 37 45 15 19 50 30 47 30 19 40 26 32 27 34 26 32 44 29 40 55 25 30 33 32 37 37 27 12 48 33 40 19 32 33 24 38 28 37 42 47 45 35 30 53 41 38 56 29 24 21 36 19 44 29 32 40 23 33 46 19 30 41 61 40 34 26 16 50 35 47 33 48 39 37 43 33 25 32 26 43 47 41 27</t>
+    <t>JSU(-0.532244539969783, 4.617537106395687, 1.4751103409008381, 53.407127037212405)</t>
+  </si>
+  <si>
+    <t>6 13 8 28 -8 17 12 3 4 11 32 1 3 22 -8 -7 6 -6 32 2 12 -3 -3 -1 -8 -6 4 -20 3 -4 14 3 6 6 14 21 14 10 16 6 -15 22 -10 20 10 13 -3 1 -9 -28 13 15 13 -3 27 11 6 19 24 24 3 4 10 4 -16 3 5 8 27 7 21 5 35 2 8 13 20 4 -3 14 -7 -3 1 23 10 7 10 22 13 8 5 13 -14 25 -26 10 -16 29 18 8 -13 2 38 29 5 -4 10 17 9 -5 17 18 16 7 5 0 14 -1 4 5 11 1 1 22 7 3 12 22 -20 19 19 17 6 2 9 -4 -7 -7 3 1 13 21 8 -6 10 8 18 1 9 14 10 -3 -20 -6 12 16 7 10 -3 -8 35 7 4 13 13 -2 17 25 19 10 10 6 32 3 17 -3 17 6 23 5 14 19 -1 13 -4 21 3 11 4 11 -3 17 -1 13 6 30 19 22 15 15 -11 9 1 7 1 2 3 -11 17 12 -3 18 6 13 -3 -14 21 18 17 17 28 28 13 -8 3 9 21 -8 3 20 17 13 14 33 -7 22 13 10 -3 -4 5 4 6 17 -4 8 31 14 -3 10 5 4 3 -2 5 7 2 -20 2 7 7 4 20 12 -28 -8 16 6 0 6 22 19 11 7 3 15 -9 -10 0 3 8 -11 3 2 -10 -3 -16 35 25 -22 -3 20 -2 6 3 -6 8 -17 16 17 11 13 3 1 5 9 4 18 3 15 21 7 11 -1 18 27 17 7 17 -4 -11 16 21 5 8 -7 -2 7 15 -8 4 32 6 -7 2 3 -7 -1 8 23 -1 3 -9 -4 13 -24 10 21 -1 -3 3 -11 7 -9 6 3 -4 24 -4 6 -4 20 32 5 1 8 -2 3 38 7 9 10 3 20 22 5 -1 12 8 8 -4 6 4 8 4 6 4 -3 14 -8 17 20 2 2 1 3 10 21 35 7 6 8 4 -7 -3 -7 9 14 -2 21 7 18 21 6 23 -4 33 6 13 -1 6 15 21 21 20 10 18 22 12 13 -10 9 14 -9 20 -23 7 17 4 -7 7 21 -5 18 -7 -14 17 -16 23 10 18 7 11 -7 11 22 3 3 -7 3 10 -2 -4 23 8 4 32 -3 -2 11 -8 7 -2 4 21 -1 16 2 6 4 -18 -17 7 7 15 18 15 18 10 8 3 -3 6 11 3 4 -8 -14 0 20 11 6 3 6 -1 10 13 -9 17 14 3 6 5 1 3 4 19 5 28 6 -16 27 -3 3 3 21 6 3 22 3 9 -3 5 38 7 -8 27 9 5 0 7 15 7 30 16 11 6 1 4 8 -8 26 20 3 3 21 -7 9 45 -1 -1 17 11 3 5 3 -1 -6 7 10 5 6 -14 -3 -4 12 35 3 19 3 4 -4 7 4 -17 15 -8 13 -6 6 15 3 -24 10 14 -15 15 -16 6 8 0 5 0 21 11 1 14 13 7 11 -20 -9 14 -6 36 1 2 -5 -14 1 -8 11 20 -6 24 24 15 9 29 -3 16 -3 12 6 3 6 30 29 -3 6 -19 7 16 -3 -3 7 8 -32 11 -2 24 11 5 14 17 -3 15 18 7 27 16 -6 6 7 22 10 3 30 7 -40 4 10 -6 -21 17 -21 -3 14 1 32 3 30 5 34 -8 28 18 -11 2 8 12 -23 -11 16 -8 -3 14 4 3 24 8 10 -1 6 7 9 24 -6 14 -8 7 12 31 21 2 17 9 -3 6 12 -3 10 -1 19 14 -8 -6 17 2 11 17 -8 8 25 13 -1 15 -2 6 13 6 37 -7 18 12 24 -8 24 17 11 -4 -1 -6 -9 3 10 13 20 27 17 10 4 9 19 4 -14 6 14 15 4 38 35 3 10 5 15 20 -11 16 28 7 -3 39 11 -10 3 -3 38 3 10 -11 3 15 14 -20 -2 21 15 13 14 8 14 -4 -7 14 44 7 27 4 4 11 7 -6 -1 23 13 -4 -6 11 6 -2 8 -21 4 12 -14 21 24 -5 25 14 20 10 10 -6 6 7 7 10 6 -14 15 38 -5 32 14 18 19 8 -7 6 -6 -1 11 17 31 16 6 -3 7 6 17 3 -10 29 15 11 16 -3 4 6 14 12 3 16 3 -7 4 21 -1 11 5 29 -10 11 12 8 -10 -26 11 -5 -13 10 4 21 35 7 26 18 12 14 -1 3 10 9 34 3 -19 13 5 27 6 3 16 7 3 25 3 27 14 13 8 11 -9 -6 -6 10 -7 7 20 3 26 3 4 3 5 -7 -17 -3 10 -10 9 18 19 18 14 15 -8 -14 -7 8 11 11 -11 3 -7 24 -27 -2 29 39 8 13 1 -6 -1 -3 5 -5 20 4 -11 21 11 12 3 25 2 3 11 7 25 17 9 -3 11 21 -2 18 28 17 6 -9 14 15 2 3 24 13 3 -11 6 13 -26 -1 3 14 15 15 -10 16 14 13 0 10 -3 10 22 15 41 1 16 -13 -3 41 7 9 20 10 -4 2 17 14 4 18 -7 6 19 1 -3 13 21 23 -8 2 3 14 6 11 13 14 -5 14 19 1 17 12 5 10 28 -3 3 31 -6 21 22 24 10 3 11 15 25 19 -5 14 -3 6 -2 6 15 17 3 17 19 14 -11 24 -10 23 10 24 10 18 22 12 18 5 18 -2 4 9 12 34 -3 15 27 28 -7 -14 20 -3 10 1 -3 3 -6 3 15 -17 3 29 24 -3 10 11 1 8 8 2 -6 10 13 -3 7 10 -8 13 -3 -2 -3 -3 11 8 6 14 -2 3 6 31 16 26 18 9 -2 -8 -11 4 -10 20 7 -4 20 18 7 -3 3 -3 7 5 19 3 14 -3 14 33 -7 12 13 3 -12 19 19 -13 21 18 6 -7 13 6 8 24 -10 17 5 15 27 20 21 -2 29 -11 2 23 14 3 27 3 0 19 5 11 6 20 3 -6 -4 24 1 -8 7 7 6 26 17 10 5 7 14 19 24 0 14 -1 4 12 11 15 17 39 6 18 11 27 6 8 5 -9 -6 -3 -15 -1 10 -3 -2 -5 17 20 11 -12 23 3 16 2 14 -6 28 17 9 8 16 13 6 7 4 4 -3 11 5 19 10 -13 3 1 22 3 6 3 4 9 2 20 -4 17 13 7 -13 3 3 28 14 10 -3 31 8 3 -29 -19 17 34 17 25 15 19 4 6 17 22 2 19 6 11 -3 25 -1 3 38 -7 17 19 -4 6 13 20 23 18 5 15 3 18 -10 5 13 10 3 6 -3 -10 12 -3 6 15 17 -8 -10 5 17 18 -4 17 24 22 3 0 -3 23 7 16 -9 6 -7 -3 -13 7 20 -2 15 24 17 17 17 17 17 19 -9 7 -12 6 17 12 15 20 7 20 4 -3 -4 19 10 24 26 12 3 -18 -3 11 -6 5 15 -8 -33 -6 28 1 13 -6 3 -3 20 14 7 1 -4 11 3 29 24 14 18 3 11 10 7 13 38 -4 -3 3 15 5 27 7 -10 9 17 26 -2 9 13 -11 -21 -5 -5 3 -6 24 -13 16 10 6 17 -3 20 6 28 20 27 11 -6 24 14 22 8 20 -2 4 20 1 1 10 8 10 25 -6 8 -13 15 21 -17 -14 -2 0 10 3 14 18 15 13 6 4 26 3 2 21 6 17 5 -4 -3 11 22 11 -10 1 14 -5 3 2 -5 -24 22 25 17 6 6 -4 8 10 7 -24 31 7 -3 11 13 30 -5 10 -3 20 9 11 6 -10 18 34 13 -14 16 13 3 -2 10 10 17 21 13 4 11 1 4 20 16 -2 4 -6 -15 -1 28 31 27 3 2 -5 -12 3 -14 22 3 -9 20 -6 4 32 8 42 2 6 31 -10 13 -1 24 10 -2 14 23 -13 17 3 24 28 3 5 5 22 5 6 -8 4 -3 3 -1 -10 -10 20 21 18 15 14 16 -2 17 9 28 2 16 14 16 5 14 12 10 10 15 -10 31 7 -3 10 -18 -3 -9 12 13 16 3 24 4 7 18 28 1 10 2 14 10 19 7 -3 -13 0 -4 20 -14 24 16 6 13 7 -5 -27 -16 -3 -6 7 4 27 14 5 -3 4 7 18 -3 5 14 -5 7 3 -18 7 24 11 6 -2 -6 0 6 2 5 -6 14 2 -14 -3 10 24 9 8 15 18 9 27 25 14 30 26 9 14 11 11 -3 -3 17 -1 13 -4 -4 8 -2 17 -26 15 2 -9 9 4 25 -5 -3 17 -2 3 3 8 12 31 -1 6 7 3 9 14 31 -3 21 10 -13 -2 16 10 3 13 22 9 27 10 7 -3 21 18 -7 4 -13 -6 3 -3 -1 27 -9 13 15 -4 -5 28 15 34 -3 24 7 10 18 13 1 28 15 7 12 28 17 -6 -9 12 10 25 1 10 -5 6 13 3 9 20 -13 6 8 21 12 -1 9 4 7 -1 1 20 25 21 17 15 14 6 10 21 10 3 4 2 8 29 27 -10 20 7 2 9 5 -7 -13 33 11 7 -10 20 4 16 14 -7 21 2 -4 0 -3 9 22 9 3 6 8 9 31 11 13 35 4 20 13 3 -14 17 6 -7 -1 25 3 18 3 14 10 28 5 -3 -7 22 11 14 9 17 10 20 24 17 4 6 -8 18 -20 21 27 10 -3 19 22 24 -1 7 8 2 14 13 10 23 4 10 7 3 3 35 -8 22 11 6 13 3 5 -28 3 25 -18 14 -19 20 26 5 30 24 38 3 -6 14 3 28 -3 -12 25 23 10 -7 15 24 -3 -12 4 11 -10 16 -17 17 9 13 -3 6 6 -16 21 7 17 5 -3 6 3 20 7 15 -5 24 10 18 1 11 6 -13 -1 14 4 1 8 27 23 18 19 5 16 5 18 29 14 -3 -5 4 1 10 18 31 1 -9 11 7 22 5 -5 14 -3 22 17 -6 4 -6 5 11 23 -10 -4 -24 -6 -6 5 1 20 3 31 -3 7 10 -6 6 11 11 30 11 4 -11 18 -9 3 14 31 -4 -6 -9 -6 3 -11 22 10 5 -6 -7 -2 23 6 19 -12 27 10 13 18 20 12 7 12 17 12 -10 10 9 1 4 -8 28 -6 3 14 10 14 17 38 24 14 -2 1 15 3 -3 6 -3 3 -3 -4 21 6 6 24 14 -3 7 -13 11 -4 13 4 27 3 8 25 -1 8 20 8 19 11 -30 -5 10 -4 -8 10 10 7 -3 12 21 3 11 11 -20 -5 -3 -4 6 7 24 -6 5 17 19 28 -1 5 7 -6 7 27 -7 15 2 31 17 22 -1 16 -3 3 9 -2 1 7 15 14 4 -1 8 -1 14 15 9 11 -7 12 9 10 3 -3 10 7 13 16 14 5 -3 31 6 -26 13 2 9 0 2 12 -10 26 22 6 10 -6 16 -3 20 31 6 -7 4 5 17 7 14 4 22 7 20 14 -3 17 16 -7 14 -5 28 -10 -3 4 -4 -5 -11 16 16 33 -5 4 19 2 4 -11 27 7 10 7 3 33 24 -10 -14 11 17 3 18 12 12 13 6 5 7 18 7 -2 14 21 6 31 6 -3 15 23 1 18 11 -2 3 3 9 14 10 -10 7 9 4 5 -5 10 10 31 24 11 11 14 3 5 -4 3 15 -7 -1 -10 13 1 21 7 -1 6 18 1 18 15 10 3 3 10 -3 -3 13 -7 16 10 -1 2 -3 6 17 30 6 15 6 -7 6 -1 -4 -5 -2 22 18 20 6 3 -3 9 3 7 3 7 4 1 6 3 6 16 3 10 7 18 18 7 3 12 12 3 6 14 7 6 2 18 -17 48 -4 -1 3 10 -6 -10 29 18 24 1 6 -12 9 3 9 -9 14 -16 -10 10 26 -6 4 3 10 5 4 17 19 -9 3 -7 8 0 -9 5 3 -21 6 30 -3 25 4 -7 2 -18 6 26 3 14 11 3 4 6 -9 -3 -7 -15 -7 8 18 25 24 2 3 8 -14 8 22 11 -6 -7 27 18 -14 11 -12 17 1 -7 -11 10 8 -3 17 13 -9 19 -2 4 -2 7 -7 3 14 18 2 -11 29 6 6 14 7 4 10 12 -14 10 -2 4 14 11 10 10 5 9 14 -6 10 -10 17 10 7 6 2 4 14 4 7 4 17 -17 5 8 10 -3 4 17 7 27 21 17 -2 8 34 24 10 13 2 3 11 -8 20 6 4 6 8 7 20 41 25 17 4 -3 21 -3 7 7 -3 35 10 40 -14 11 13 15 7 -12 14 -3 4 3 9 -3 23 20 13 22 9 24 -1 0 -13 -10 3 11 2 7 1 1 11 22 10 19 15 37 11 14 15 22 10 15 16 -3 -14 -5 -3 21 3 6 6 3 -9 -9 14 3 4 14 27 13 3 28 12 -12 3 11 27 7 11 18 -7 7 4 3 -5 11 25 -3 6 25 -10 44 3 10 -7 6 -2 3 31 -10 -6 6 17 3 16 18 6 14 7 20 13 11 12 11 17 19 -13 3 1 7 22 36 8 6 26 6 24 -14 9 4 -4 3 29 -16 13 14 24 6 -12 7 19 7 14 13 20 -23 27 28 20 -8 20 -6 12 -6 12 -2 18 -1 3 5 8 -5 24 30 38 3 17 20 18 -5 -14 -6 3 -3 -7 -8 16 27 2 21 13 4 5 22 17 19 -3 6 -9 9 22 3 5 -5 4 -5 16 5 3 -20 1 18 18 14 -7 18 8 31 12 13 15 11 13 10 6 16 13 9 11 -9 -2 7 -4 15 -6 -9 0 14 3 34 3 -5 4 11 9 7 3 11 17 6 4 45 28 -1 -3 17 1 8 6 26 1 32 6 15 14 0 13 14 5 3 9 -15 3 -3 -14 -11 -6 28 8 3 21 19 17 7 4 4 15 10 8 8 5 6 22 21 10 7 -10 22 14 2 11 -12 10 14 2 10 -3 4 -1 28 28 6 3 12 8 13 10 8 7 17 -3 29 8 14 13 20 -4 18 10 2 -7 -7 6 3 14 16 12 -1 13 -3 -3 17 20 34 8 5 -3 8 13 8 2 -2 -7 7 23 39 14 3 11 -3 2 14 4 10 40 -30 3 20 19 7 -14 9 7 8 6 2 -13 3 4 14 -20 9 1 13 8 -11 5 15 10 27 8 -7 9 1 4 17 -17 8 -3 -6 4 -5 -4 -3 -6 14 13 -10 17 10 30 7 7 -1 12 1 35 -3 -7 28 -4 11 25 31 8 13 31 11 3 17 -3 3 14 3 14 21 20 28 3 3 10 21 -4 21 14 -7 -3 24 15 -15 8 25 -3 -5 2 16 11 1 17 -9 8 24 8 17 3 9 17 11 19 -2 13 24 -4 4 1 7 25 16 15 22 1 13 24 -4 20 22 3 28 10 20 17 -2 26 -4 -3 1 11 -7 3 -9 -8 23 20 4 18 1 35 7 18 24 4 19 1 25 20 -2 4 6 8 7 8 21 25 4 -17 16 8 6 21 7 2 11 10 30 -4 24 17 -6 12 26 10 18 -3 13 -3 10 7 13 11 -13 17 29 -23 17 1 11 11 -5 0 32 -2 5 -5 1 2 15 26 -4 10 19 5 13 22 15 6 -3 6 8 -6 4 14 -2 3 10 22 14 4 -6 27 11 2 10 -21 23 7 13 11 16 7 -3 28 11 27 -8 9 16 3 3 11 -10 42 17 4 22 6 15 17 -6 17 2 -3 18 1 -2 30 27 -17 -16 -3 7 3 14 -6 -3 10 -5 -5 -3 7 24 -13 -4 10 9 10 9 18 17 6 20 3 13 -7 14 -10 -1 14 4 1 -6 7 -7 6 32 -5 5 8 14 -19 10 2 -11 10 -5 8 24 -16 9 11 -6 -4 2 3 4 7 17 8 20 -14 4 25 25 30 18 10 24 -1 8 3 -3 20 17 11 5 1 23 3 12 27 -7 -7 4 22 14 10 -2 -1 1 17 22 7 -6 5 -3 9 27 17 12 11 13 27 -1 3 -9 30 23 20 6 14 13 -7 7 7 14 -3 5 -7 10 -12 20 -16 24 1 10 14 6 18 23 6 24 1 7 31 -16 -4 29 16 -10 -7 -12 3 3 2 31 10 33 3 -4 4 3 17 -17 3 13 34 5 -4 -11 9 17 11 6 -6 -7 1 7 18 4 10 -16 10 4 15 8 13 3 3 8 3 2 7 -2 23 -26 7 15 9 6 -13 14 -5 3 10 -7 9 -19 -6 29 7 -4 -3 27 24 37 -3 11 7 6 -5 3 14 -3 3 4 7 31 12 17 25 14 30 23 21 -14 6 28 -3 3 -15 45 14 12 4 26 17 18 11 8 21 5 10 18 24 11 16 3 18 6 -31 -25 -29 30 3 17 14 -8 13 -3 10 6 11 13 15 35 7 34 0 17 12 24 11 26 6 20 -6 28 -13 3 4 8 -5 -14 17 10 12 -5 3 24 15 -5 24 10 11 -3 -3 6 -3 24 6 -4 14 7 -1 -13 9 16 -3 7 -6 11 21 2 3 12 -2 3 -3 10 34 14 16 3 -3 17 14 4 25 -9 7 11 23 -11 21 3 14 20 1 9 -9 -9 8 7 -6 -18 2 15 5 5 -17 13 10 3 1 14 10 -3 -3 10 10 4 45 -14 25 -9 -17 38 6 -20 -3 3 -5 6 15 7 10 33 18 17 19 9 -7 20 -1 8 -2 10 15 10 -3 8 52 20 16 10 28 12 9 2 35 32 18 3 -7 25 5 -9 28 -9 4 6 3 7 -2 21 -7 11 2 -1 16 31 -3 10 -15 16 3 3 38 25 -10 24 20 19 20 26 16 27 5 17 3 -11 -3 0 -9 17 19 3 26 28 16 17 16 11 -10 6 22 3 -3 4 18 -3 9 9 18 16 11 24 38 7 14 19 -11 21 3 16 15 8 1 3 28 -6 -6 -3 -3 27 2 17 16 31 20 10 21 3 18 41 -2 4 27 17 17 -6 31 -1 11 14 29 2 19 16 -7 28 30 19 17 12 14 15 13 21 16 -2 -19 28 -7 3 20 20 2 2 -19 14 16 24 -7 0 1 -14 19 21 17 -3 -4 3 12 28 21 5 10 25 -2 6 6 -7 -6 7 -17 -6 6 26 24 27 -6 17 13 18 14 3 22 11 -3 1 17 3 20 3 13 -7 10 21 11 7 7 8 11 25 -7 -2 2 3 6 21 22 8 3 8 14 -4 -7 23 24 4 7 -3 10 -7 11 -3 28 16 -4 7 34 3 5 18 8 17 22 20 -11 10 10 30 4 14 -3 10 3 -3 14 24 6 12 7 -7 18 -1 -3 -7 21 18 -16 6 -7 -15 -10 22 13 9 1 5 1 11 -10 -3 18 5 38 25 -3 -3 40 17 -3 5 7 20 29 6 1 -2 9 2 -20 -14 14 17 34 7 -3 3 4 34 -7 -5 -3 -3 -2 7 -2 11 -2 -1 16 -5 3 4 5 -14 37 -3 20 15 -4 -1 11 -11 4 8 20 7 -4 -1 5 6 8 5 6 18 14 30 -13 6 27 6 -3 8 12 14 14 7 24 1 1 8 12 21 0 8 -18 4 16 13 -3 15 21 27 15 4 15 -5 -3 -7 1 17 7 29 25 14 13 17 18 7 28 12 14 13 10 15 21 4 -3 1 26 5 27 -3 20 2 10 2 22 10 28 19 10 4 25 -9 -4 6 -2 14 14 22 7 -2 6 7 -3 7 38 7 13 2 8 11 18 7 18 8 21 10 -5 4 14 30 14 -6 -3 9 11 27 27 -4 -18 17 13 10 5 8 18 29 16 7 1 15 7 3 15 27 -13 9 -19 10 -3 -9 -3 -8 12 -3 16 9 13 8 5 3 11 12 7 -3 3 14 14 35 -11 21 3 9 15 -6 21 7 20 15 37 -7 -13 37 8 32 -7 11 13 6 18 6 -3 24 33 6 20 10 14 23 11 19 -3 14 28 -1 6 23 21 -7 -20 -3 6 7 -7 7 23 4 -11 -3 23 29 28 1 14 11 -6 6 2 -1 12 7 4 10 -7 -7 10 19 3 8 -6 -2 9 14 -8 22 38 23 -6 7 -14 25 16 8 2 17 13 -1 10 -12 9 -17 39 -7 3 2 19 16 -2 34 40 12 0 16 -3 -3 11 7 14 -4 18 4 -3 3 18 11 7 29 -7 20 14 3 4 -6 17 2 22 10 24 3 15 6 -5 23 7 -3 -3 22 -6 6 11 17 12 7 30 11 14 -7 8 28 7 27 23 -4 15 15 12 -12 8 21 3 12 -17 7 18 -8 7 20 14 13 19 10 11 23 6 31 11 3 3 17 12 35 -16 6 -3 -3 -16 23 11 -20 -6 4 -13 -7 13 30 -17 4 5 26 31 11 6 4 9 3 -4 36 4 17 3 19 15 34 8 13 17 14 17 6 -20 12 -8 3 21 -3 -10 5 5 17 -9 -3 -2 -14 8 11 8 4 -9 3 10 -4 -3 11 14 47 -7 9 -7 26 -11 7 -14 17 13 7 29 11 15 10 1 3 17 24 3 8 4 7 1 20 12 24 6 0 4 24 3 23 -9 16 6 3 13 7 19 13 21 3 37 10 23 18 -14 -11 -17 1 -6 16 15 -7 22 16 11 7 17 -1 -4 14 21 8 9 27 5 10 8 14 3 -9 34 -3 -8 18 9 17 -3 1 1 -11 24 22 5 15 33 21 -17 -8 8 22 14 14 20 -16 10 5 28 11 17 11 4 10 27 27 13 5 17 19 -7 31 28 6 1 9 6 -4 -5 4 12 -11 14 18 8 8 -4 3 26 -5 -13 -14 25 -3 -11 -2 3 -3 29 21 11 6 -3 2 29 34 10 7 37 8 20 -3 5 -5 -5 0 11 19 9 4 6 9 25 3 4 4 25 15 3 -9 15 8 20 8 23 -1 17 3 13 -7 18 14 15 5 18 -5 19 33 17 15 21 12 -2 6 16 4 20 17 10 18 -3 16 3 5 -3 6 12 -17 10 18 3 -4 6 -3 27 16 -10 9 7 14 17 -13 34 3 1 3 10 13 18 3 18 26 27 -18 6 3 17 9 31 14 6 27 4 36 -7 -11 6 17 3 10 20 8 -21 7 17 38 -3 1 0 17 4 -11 -7 -10 3 10 7 11 15 -5 14 10 -12 10 9 4 10 6 7 -1 -8 10 3 10 4 19 11 17 22 16 7 27 9 7 -7 -2 -21 7 25 10 18 13 9 12 -8 7 -4 -5 1 14 15 -2 10 11 8 -13 -3 -4 23 6 13 -3 6 -14 14 -1 8 4 -14 13 18 -4 13 6 -3 7 11 -3 11 -3 0 -3 -6 14 -2 24 -1 -11 3 9 27 2 4 -6 -10 -6 -3 2 6 7 6 3 21 25 -4 23 4 3 24 18 12 8 -1 14 -20 8 12 6 13 24 -4 13 7 27 6 3 -5 18 14 -4 16 17 20 11 7 -4 10 12 -8 8 24 1 19 -20 -5 6 -2 -5 0 3 21 27 7 -11 21 5 1 6 6 7 13 10 2 -3 3 12 39 -3 21 7 1 29 -13 7 7 19 12 16 3 21 6 -6 -18 -6 3 4 0 4 1 18 -4 52 4 -15 16 7 28 7 -14 10 -8 6 3 4 15 3 5 28 9 -3 5 14 -7 8 42 -18 -5 25 7 18 4 -1 14 -10 14 -2 35 -13 13 17 -15 3 22 20 22 6 5 -3 -3 22 8 3 -7 10 19 -6 -4 -5 17 16 18 13 6 -12 11 7 13 6 20 1 -8 -8 14 3 18 31 3 21 18 24 -3 18 7 27 23 14 5 -9 19 6 7 7 8 12 -10 27 9 24 -17 3 6 12 11 0 10 -2 -3 19 -6 17 3 7 -18 10 6 -3 10 7 4 8 19 -3 6 19 -5 6 12 5 -6 23 17 19 17 -8 3 -6 27 3 3 7 8 10 3 -3 8 -7 3 14 -24 22 -1 -16 9 3 16 3 3 -6 -2 15 14 5 7 -10 6 -3 17 -1 6 7 13 3 14 -1 14 23 15 6 18 -13 22 9 6 14 29 -22 -4 17 3 8 7 7 -2 13 24 25 24 21 20 -1 19 12 23 16 -3 14 -27 -11 -6 7 -18 19 3 9 3 8 17 3 3 -7 -14 8 4 3 4 -21 38 16 14 19 -6 -7 6 12 12 5 -10 21 17 3 10 -7 12 21 -3 17 23 -13 -5 13 16 7 -23 18 6 30 9 20 17 14 3 -3 -3 -9 -5 20 14 11 4 7 16 17 23 6 22 -6 1 5 0 -16 24 6 11 47 10 18 -13 -8 -3 21 0 18 -2 3 -7 20 4 21 13 8 6 17 9 20 -6 15 3 -4 7 5 -4 3 5 8 8 6 -3 17 26 18 -6 7 6 -9 15 -20 2 28 1 14 18 7 -10 21 6 -3 14 7 9 11 -10 -18 21 17 -11 -3 5 21 -28 -3 6 9 3 0 -7 1 8 6 4 4 -7 7 -7 5 5 -1 4 18 10 -7 4 -8 14 -3 6 14 6 -6 18 2 10 6 20 4 20 11 20 30 -7 7 6 17 -3 1 17 -4 9 20 24 -23 6 17 9 -10 -4 -3 14 5 -3 -3 -10 -6 14 -6 17 6 -1 10 13 -11 7 23 28 5 -2 14 6 9 -11 1 18 10 14 11 -11 15 -5 16 12 23 2 19 10 25 4 5 10 6 14 26 25 -3 30 22 10 10 12 11 27 8 15 17 -3 13 32 11 17 11 -6 11 7 -5 12 24 24 -8 17 20 -1 6 11 17 7 14 7 10 -2 -12 26 13 18 -5 4 10 3 -8 -3 10 -2 6 3 3 38 2 3 2 11 30 -2 -10 21 -7 10 4 25 14 8 -33 -3 6 22 19 31 1 -6 11 -2 11 4 14 22 21 18 7 -10 -11 -11 16 11 -20 -2 18 34 11 13 4 -3 -8 28 -3 -2 2 -13 4 4 17 -1 5 23 14 18 -15 -14 25 34 27 -5 -3 8 7 11 4 12 24 -16 14 21 -6 3 -3 4 12 -9 7 16 26 13 -1 21 8 20 3 17 22 -6 17 2 -16 7 21 1 1 20 -10 14 6 28 0 34 6 -1 18 2 11 17 3 -11 -10 24 12 -11 19 42 -3 6 19 16 22 -16 3 -3 14 1 3 17 3 32 15 -19 3 3 -7 14 4 -10 7 2 -6 -10 14 3 7 -12 5 -1 3 5 -11 -3 1 9 -4 4 34 7 38 9 -10 6 10 -4 -6 -1 -10 20 8 14 7 44 -7 27 25 12 10 11 2 19 13 6 -4 18 -1 5 -3 -35 10 14 17 23 -7 3 14 7 22 23 23 21 -6 14 -1 19 9 15 3 16 17 -4 18 5 -3 17 -6 4 -6 -3 3 5 6 18 -4 28 -31 -4 21 10 -4 17 -2 3 27 -7 18 -10 6 5 -3 22 28 17 14 -7 38 4 11 10 19 3 7 3 10 15 -6 4 23 7 41 25 -7 42 -4 -8 28 27 6 18 14 -5 3 18 14 2 3 25 -7 2 8 14 -9 18 15 6 -3 3 14 15 24 15 6 10 10 -12 17 6 18 23 29 13 -21 6 3 7 25 6 9 21 21 1 3 34 -17 13 26 9 3 13 10 -6 34 13 -13 5 -4 16 8 0 30 7 5 24 16 6 19 17 31 -7 3 -2 3 -1 10 4 11 7 21 0 28 3 6 14 7 8 1 -7 7 15 -7 17 7 11 21 18 9 7 -2 -2 10 18 7 22 6 15 7 -7 -4 21 17 4 14 11 7 4 25 -7 3 18 14 3 12 -7 -17 -9 15 7 3 -19 -3 26 31 -6 5 15 7 30 12 21 -3 26 12 27 9 17 22 -14 15 8 -4 -33 12 14 11 4 4 -7 20 36 3 7 7 5 14 -7 17 21 18 -13 2 -6 25 17 14 -5 5 26 3 42 -7 -3 7 5 8 17 -17 12 11 18 -8 6 21 15 -3 10 10 6 14 2 24 27 32 28 -3 -3 19 3 28 4 11 10 10 -11 -3 14 15 10 14 25 -7 -6 14 13 -3 -4 3 27 5 13 7 9 5 -9 21 40 6 16 4 -1 -7 7 4 33 14 17 9 -10 -3 11 10 18 3 -14 26 3 21 28 11 7 -3 -2 -6 -3 -8 18 -3 7 21 -6 2 -8 -9 18 14 9 14 -14 -12 -4 18 22 15 31 5 18 4 3 3 17 6 3 -8 -3 14 -6 -3 8 -6 28 18 -28 3 21 29 -2 13 -1 18 10 -19 -14 21 21 9 12 -8 3 1 -14 24 6 11 17 3 9 9 5 6 19 3 6 10 31 10 7 0 19 -27 21 18 8 3 -7 3 -20 3 -3 7 4 3 5 15 11 20 20 -2 5 -27 -18 2 1 1 11 -3 -9 9 17 19 -8 26 14 31 -3 19 10 32 6 16 13 21 -3 8 3 19 1 3 9 -2 6 -10 11 14 -4 5 9 4 -19 3 16 4 32 8 3 -3 3 10 18 25 -10 -14 28 21 -6 -19 8 -2 -4 7 -13 -3 8 11 11 34 24 -7 3 -6 15 -6 3 -3 8 17 3 7 44 7 -2 -10 29 4 -4 -3 -6 3 15 6 11 10 3 18 24 -1 7 -2 -3 10 -4 3 16 -2 31 8 4 24 -6 10 36 13 15 6 -13 -2 -3 11 3 -3 16 -3 15 -4 -14 7 17 11 -8 14 4 2 8 7 15 -7 3 1 -5 2 17 17 7 -3 6 17 -17 4 21 7 -2 17 -9 -4 4 3 -14 1 27 13 5 8 9 17 18 21 9 10 3 -11 1 18 -7 -8 -15 -3 7 24 10 5 -8 6 11 -3 17 -18 4 9 17 -15 20 -7 14 18 15 -13 21 28 3 4 -3 -3 -17 -16 18 27 14 17 7 10 5 -11 8 30 20 21 -2 23 10 8 5 24 13 4 7 7 7 24 14 11 23 23 14 4 15 -7 0 -18 2 32 7 11 1 14 24 1 26 -5 16 27 7 17 -10 4 3 1 20 -10 13 3 14 6 -1 7 -9 29 18 23 13 -3 5 6 -5 7 8 17 7 14 -2 3 -4 9 3 7 16 -9 27 3 1 -7 10 -18 6 7 -3 -17 -7 -2 -8 -5 -1 -4 5 21 2 3 -6 3 3 0 18 -4 8 8 1 11 25 -15 -3 14 9 3 14 24 27 10 50 1 3 18 22 -7 9 -4 15 36 15 10 -13 18 17 21 12 11 42 13 30 -2 17 7 8 -10 17 -3 17 15 -3 6 10 -3 20 -6 4 13 -3 10 5 18 -3 8 17 32 25 3 17 14 9 14 4 17 2 13 10 3 11 10 11 18 0 14 18 6 -14 -7 23 -6 10 -3 4 -2 15 14 10 -4 2 -3 20 10 2 7 -3 8 -7 21 7 -3 2 24 18 24 7 11 27 17 15 19 8 6 -17 15 14 12 -3 16 -5 14 -10 14 4 -2 -4 14 -7 11 3 11 14 2 10 -3 26 8 25 -13 11 8 -3 37 -3 -1 20 7 17 6 -8 8 7 13 13 5 -24 -3 24 23 14 4 -16 -5 3 18 16 14 3 -31 27 31 20 7 7 20 8 4 5 20 1 14 -6 11 21 -3 21 8 14 11 6 14 11 16 20 4 17 -14 3 4 7 -2 -6 12 17 6 19 -6 25 -13 11 17 6 17 5 6 -14 15 14 -3 6 -6 4 24 22 6 24 3 17 14 14 14 -13 11 11 5 6 -14 17 13 8 -3 7 21 8 17 -37 28 -8 -20 -14 5 31 -8 -5 6 15 23 15 -14 -7 14 -1 -4 11 2 9 -18 7 35 -3 -4 8 39 -4 -4 6 -14 16 7 1 17 7 26 3 7 5 19 25 -19 -11 3 -4 -3 8 3 6 7 24 25 -3 6 10 3 -3 -3 -10 -3 34 3 -3 3 17 -6 24 -17 3 3 7 -4 9 11 37 -6 7 -7 11 5 15 10 -10 24 24 35 14 6 16 13 3 28 14 -3 17 7 5 -3 7 -2 0 4 -3 -5 29 -16 14 19 -1 32 13 -7 -14 1 -1 -5 -3 2 17 23 17 3 24 4 -5 3 23 -3 3 8 7 14 -17 15 9 3 -6 18 7 45 4 -15 9 44 10 14 12 9 10 7 -2 -8 30 11 4 -3 22 11 4 25 14 9 -6 5 28 2 32 3 40 23 19 13 10 4 8 7 2 7 25 12 20 18 -14 21 11 3 10 -3 20 21 12 14 4 4 15 -2 15 10 10 28 14 17 26 8 -2 -21 31 12 16 25 10 -21 7 10 16 3 -5 -7 24 -6 11 30 -8 -7 8 14 7 4 -3 20 14 -3 22 3 3 18 4 31 -5 4 21 -7 3 4 -7 6 -18 -3 3 -17 1 -2 17 24 3 3 -7 33 -4 -9 8 -3 14 17 27 8 41 17 18 -2 10 1 20 8 23 -4 4 4 7 8 -5 13 -5 -5 24 6 -3 11 -5 31 19 7 -5 35 6 16 17 2 6 18 37 40 -7 6 8 27 15 1 1 14 37 26 7 12 38 3 -14 4 38 1 25 -16 10 2 14 24 3 3 28 3 18 4 -4 15 -3 -5 3 9 -6 25 31 11 3 35 -3 -8 21 -3 12 9 3 31 -8 18 14 22 22 21 11 -5 -5 8 14 3 12 9 19 12 14 6 2 14 24 3 -3 25 4 12 -11 21 14 17 3 29 3 3 2 6 -7 1 18 -5 6 13 -6 6 3 -1 7 12 23 -6 20 14 7 3 24 8 15 3 6 4 14 -10 10 3 31 19 12 29 -6 19 17 -3 9 20 6 24 -10 -17 3 -8 22 -3 10 -3 11 -11 7 12 3 -3 25 14 14 12 14 14 23 28 -13 14 -2 9 3 -14 19 9 12 24 3 3 7 8 -13 5 28 10 -17 -6 11 3 22 3 -6 -10 3 3 -20 3 8 -5 -12 14 -3 26 -6 3 15 14 15 6 1 13 20 -6 8 15 17 7 26 33 -4 -6 27 3 3 3 4 11 6 8 21 6 19 11 20 25 -3 3 29 -3 15 3 7 -1 3 14 -18 29 20 27 31 20 35 14 6 16 7 3 11 13 8 20 23 3 9 14 -5 14 13 -18 12 3 -10 23 -10 10 20 1 -14 -1 10 0 20 28 2 -9 12 17 15 14 -24 -8 9 3 25 7 -7 9 3 -3 6 4 4 3 12 -4 3 3 13 -1 10 -1 3 3 -3 4 4 10 6 -3 10 11 9 13 -1 6 11 -3 6 3 13 7 16 32 21 6 16 15 -8 3 -6 14 24 -1 10 3 18 3 9 4 -2 -8 12 -22 3 -25 6 6 14 8 15 7 3 5 6 -5 17 7 4 7 16 18 2 26 18 20 5 14 18 13 -3 -4 11 -3 -10 14 17 11 2 7 9 10 -1 -12 27 3 7 4 32 -3 -7 3 17 7 10 6 -6 5 -6 17 12 14 7 10 18 13 3 -2 7 9 -4 5 26 18 -27 6 3 10 8 10 18 -3 -10 17 1 4 21 26 6 10 6 6 32 8 10 3 21 24 28 7 -12 3 1 0 21 -6 31 17 38 -10 15 3 11 3 6 31 9 31 15 17 15 -19 10 16 -26 0 7 0 -4 1 13 3 18 -8 30 7 16 31 15 -3 26 14 -4 6 -8 6 3 20 28 44 24 15 13 11 1 3 10 17 -22 22 7 11 35 12 6 -4 10 24 7 -8 -6 8 6 -11 5 -9 -6 21 -4 -7 -11 9 27 -2 -6 23 7 -2 14 8 -3 6 -2 6 -6 18 3 20 16 11 8 11 7 20 5 18 -3 -17 14 -4 8 9 18 -6 6 13 19 8 -14 7 3 18 27 -7 -3 7 21 15 18 2 3 14 1 10 26 -4 15 -13 23 18 -3 2 3 5 9 19 21 17 11 8 1 -5 13 17 10 3 3 21 37 -14 10 9 -7 7 18 7 4 13 12 -1 15 2 24 6 11 -5 28 3 -3 -3 18 -3 15 18 -28 7 34 3 6 14 10 -7 17 -26 -9 9 -3 1 13 23 17 -6 4 8 6 15 -7 21 -6 16 3 3 23 13 4 20 5 9 6 7 3 28 -6 5 -3 1 29 -6 19 5 -5 10 4 -5 10 -3 42 7 -13 -7 4 3 7 17 -3 10 -3 8 13 26 10 6 7 7 -2 -3 -9 -14 32 41 17 3 23 18 10 26 3 31 24 5 -29 8 7 13 12 14 -3 4 10 -8 3 5 7 8 -31 37 -1 32 -3 -13 16 3 15 3 9 23 8 8 19 20 17 6 -3 -9 8 14 14 -6 18 -9 3 15 -14 2 -18 28 4 1 9 -4 24 -3 -14 6 6 10 34 20 13 2 -11 1 3 20 3 4 39 11 19 -6 5 27 20 8 -3 -3 17 9 -10 3 -14 6 13 -5 3 4 3 -3 7 10 9 -3 17 1 -5 18 17 17 16 26 9 14 18 24 21 21 19 -16 11 14 13 9 5 9 -3 -3 5 19 7 18 -4 3 2 -3 6 12 12 5 11 3 -5 18 3 -5 -4 11 7 30 28 34 6 -10 14 -4 11 13 17 17 3 34 13 -5 15 9 14 16 13 18 18 3 20 -3 5 16 9 -5 19 25 7 10 11 -5 10 17 6 23 -3 2 26 11 14 -13 4 -6 -8 11 18 -11 20 7 17 31 4 5 4 3 8 1 3 4 21 -4 -4 -2 14 14 3 10 13 11 -1 1 4 13 29 31 -7 3 3 7 7 -7 8 25 3 15 15 11 -3 -4 17 2 4 12 16 16 21 13 16 -4 22 6 17 18 14 21 -4 -3 10 3 6 18 24 14 -6 10 14 28 -3 16 11 17 6 -18 3 17 -4 16 -13 27 -2 -14 12 38 3 11 -3 -12 18 20 13 6 -11 -15 11 -8 11 4 31 3 4 -2 -13 29 7 22 6 17 3 22 21 10 -3 18 9 4 6 -7 8 11 32 4 -3 25 7 11 18 2 26 1 18 12 33 21 12 5 14 1 2 3 13 -3 -7 22 37 11 -2 1 23 7 28 34 0 4 22 22 -3 -10 6 -15 8 8 8 -2 12 3 17 -6 20 13 15 7 7 4 2 34 11 21 -5 7 -2 15 10 3 24 -4 -7 32 15 -1 10 -2 4 -15 24 8 21 15 11 3 7 4 -7 11 2 -2 -6 24 0 17 14 6 15 41 2 15 1 8 19 5 4 -9 3 -6 8 7 -3 14 3 17 11 6 18 20 6 27 20 3 3 17 20 13 3 18 14 -6 18 -9 11 4 -24 16 -2 -8 11 24 12 -3 1 7 9 11 15 4 18 14 14 -2 12 2 10 17 5 -2 20 -1 19 6 2 11 -2 -9 4 18 -18 20 9 -5 6 3 -8 -11 -6 3 8 20 21 -4 -4 -14 -13 6 10 18 10 -1 11 -7 10 -2 17 8 11 7 -16 15 -3 16 -2 11 13 12 18 2 -6 10 3 8 -9 14 5 10 10 10 11 6 21 7 2 14 4 3 10 10 -6 3 7 -1 14 3 2 3 21 3 6 8 -5 9 -10 3 31 11 -3 -3 6 10 -6 -4 28 -3 2 21 7 14 6 24 3 0 1 -4 4 3 9 27 6 20 14 -13 -3 -9 -7 20 3 -17 -12 18 7 7 13 7 -1 -7 30 14 30 3 3 24 -8 -3 -6 27 17 -1 27 3 11 4 -14 8 14 34 8 4 7 6 3 13 19 -8 5 3 15 -2 22 7 29 -24 18 21 13 24 3 27 15 18 10 -3 10 -3 9 9 20 8 3 12 28 12 -3 -1 12 16 -6 8 3 -12 8 -6 3 14 -7 4 10 -5 13 6 -6 11 -6 1 18 31 3 6 16 -24 28 23 17 19 14 4 7 -6 1 -3 -14 11 21 14 8 6 26 10 3 8 23 4 -6 1 18 7 -3 17 29 17 17 10 3 1 18 12 20 17 3 -3 3 22 15 4 -13 6 0 8 34 8 7 8 -7 -4 7 -16 -4 11 7 16 -2 24 23 15 13 36 4 -3 -16 -8 3 7 -3 17 15 4 9 18 -7 14 30 -3 16 3 20 10 4 21 -7 -11 11 -6 -23 7 2 17 31 20 -4 -2 -3 3 -3 2 3 18 -11 -4 15 38 -9 12 3 -6 14 24 0 6 17 26 4 -15 20 1 17 14 21 6 -3 6 -2 16 18 -4 11 13 2 -23 28 -7 1 8 -3 -3 -6 -9 10 -5 24 12 -10 3 33 29 23 3 17 31 16 3 3 8 -10 5 34 -7 42 4 11 24 8 40 -4 -2 24 12 18 25 21 -7 -7 15 23 3 17 4 10 6 -17 -3 -3 23 -11 -10 7 0 20 7 7 2 10 14 5 17 16 12 3 -3 -4 2 25 25 17 28 6 7 21 8 17 18 26 10 11 4 13 6 4 20 17 -3 24 -11 21 -4 3 9 4 14 -4 -6 23 52 12 27 -7 -14 27 21 7 -17 20 17 11 11 14 -4 20 6 -7 4 4 6 3 -14 1 3 8 -11 3 4 19 3 6 -10 17 15 -9 11 1 18 3 13 10 -7 -4 -3 7 4 -10 -2 -3 -4 -10 4 5 18 8 -6 -13 3 3 -3 23 7 17 21 34 10 14 1 -4 15 21 3 12 5 -1 -14 11 -3 7 2 -11 -7 33 16 1 18 44 -5 -7 1 -17 6 14 -3 14 3 3 -4 11 16 13 3 -3 34 17 4 -4 15 -2 -7 10 -12 -4 6 39 -7 23 6 4 -8 11 27 3 18 -3 -7 8 -12 -3 32 13 7 -2 -3 27 8 -2 20 7 -10 14 -7 20 6 10 -5 -6 4 15 6 16 28 3 8 17 14 17 10 5 6 -12 6 -3 -10 14 11 -3 -3 32 18 11 22 8 -7 3 -3 -18 -8 2 4 -27 7 7 14 -8 11 -4 -1 12 -9 4 -17 -10 -14 4 6 -4 -5 8 -11 3 7 12 14 4 7 15 -4 -4 3 5 3 5 23 3 11 22 11 12 19 6 17 -6 -17 3 19 4 3 21 10 17 15 15 4 14 -6 8 6 -2 3 13 13 -2 -4 5 31 24 10 12 21 35 -12 -27 -3 7 28 -18 9 3 7 31 -9 8 14 -4 3 5 17 -10 25 20 21 14 26 -15 24 16 15 10 14 9 14 13 -7 10 17 19 14 14 16 -12 19 13 -2 -6 -12 -5 20 24 -4 33 20 18 2 -6 31 11 1 -3 -8 35 3 20 6 -4 7 11 7 32 23 -3 19 10 -2 -1 -4 -5 22 30 -1 4 14 17 3 9 -6 17 7 -5 7 -11 13 14 14 4 18 -22 19 -20 13 -2 22 11 7 13 -6 -10 32 -12 5 22 5 28 -3 25 17 4 7 15 6 3 15 12 3 5 -4 24 5 31 3 -3 8 -17 5 14 7 20 -19 7 -5 13 5 7 -5 7 14 3 1 3 32 -2 6 3 12 6 26 10 -1 -4 3 5 13 11 5 -6 15 4 16 3 -7 9 11 27 3 8 -4 4 5 26 7 -10 10 13 3 27 -10 7 6 -5 6 -3 -4 14 11 31 14 -6 -5 -7 3 17 11 3 17 1 16 7 19 14 -17 5 10 17 14 -3 -6 12 10 7 14 -3 7 3 18 -3 18 11 10 12 4 21 7 8 3 5 -13 6 4 10 -5 11 10 24 -2 14 27 28 0 4 -3 9 -7 10 0 -1 -4 15 17 -10 -8 -8 21 12 -17 23 -12 6 21 -7 5 -3 0 39 30 -2 -15 11 -1 10 -5 11 22 21 5 -5 10 3 3 30 15 3 28 7 12 -8 14 15 15 5 22 25 4 20 4 -16 16 23 2 28 21 8 -3 17 3 7 11 24 24 17 11 7 -8 3 4 13 -10 7 23 -12 16 19 26 10 -3 -9 -7 8 6 7 5 31 20 -2 22 13 17 0 -3 16 -6 3 5 6 21 2 -8 -11 17 20 -5 4 3 -13 5 12 10 7 15 17 17 20 7 -7 7 -10 19 24 -3 10 16 8 29 -3 18 14 6 6 3 4 -15 20 -3 13 4 -25 17 3 -10 7 -5 13 7 3 7 2 12 -3 27 -4 -4 -7 -2 28 10 -9 35 -1 -9 52 -10 -3 6 7 21 10 2 25 31 -7 8 5 -4 2 13 27 17 24 -3 33 3 4 7 26 9 6 24 4 13 16 13 5 26 -6 15 12 8 15 23 21 12 20 9 7 24 7 10 31 20 6 3 3 34 -1 15 14 22 12 -12 -9 31 -3 28 17 13 0 7 5 33 22 3 17 7 28 9 10 7 11 -3 -1 15 17 15 8 13 -4 17 18 18 7 8 17 7 4 14 2 5 28 -3 10 -15 5 3 14 -10 14 6 4 14 -7 -9 -15 6 -6 3 -2 14 5 12 3 -20 -11 14 7 9 7 3 29 3 -1 13 -10 14 9 -8 1 -22 -3 3 -7 -6 -4 8 10 3 -13 14 -9 16 7 6 -3 -4 5 -3 35 27 37 15 14 17 8 17 17 -20 -7 24 2 6 18 3 7 5 3 3 11 25 10 18 35 13 33 11 1 7 4 7 -18 6 28 -3 -10 -11 13 26 10 11 32 -10 -3 -8 -3 13 -5 12 32 11 10 4 11 4 -3 24 3 -3 0 12 -27 7 -3 3 24 24 10 1 4 -3 7 10 2 -3 16 7 15 5 10 17 -7 3 15 12 6 -2 17 10 2 14 18 30 -7 4 31 -7 14 -5 1 7 -7 11 8 14 -12 23 -2 22 11 -16 1 35 -5 6 14 7 13 8 6 -3 32 -4 4 14 -3 25 30 -2 6 7 -12 8 16 -3 5 15 5 -12 3 3 18 4 14 3 17 -1 6 11 -3 26 20 4 -8 11 8 3 10 -8 -2 34 3 4 21 8 -13 14 10 21 -7 3 3 13 4 20 11 18 12 14 -2 6 11 14 11 -8 9 -10 -9 -1 -3 1 -10 8 18 21 23 5 11 7 -7 9 7 -2 6 -9 -6 7 21 21 -3 12 26 -4 -17 23 -3 11 7 -10 17 14 19 9 21 3 -6 12 32 21 3 10 25 17 5 5 -5 6 25 14 19 10 12 17 24 6 14 21 8 6 7 15 -5 5 -4 -13 -3 30 15 -8 -6 17 7 -9 3 -3 4 3 -7 6 7 11 8 9 8 14 20 5 4 12 23 14 23 14 5 -8 36 55 -17 12 2 20 8 -5 -3 24 3 7 32 17 17 4 10 11 0 7 -7 10 15 -7 15 -15 11 10 14 -1 5 7 17 24 13 -4 9 17 3 -16 -10 -4 14 -3 11 -8 17 -7 27 14 -4 13 4 5 25 6 -4 -6 10 11 3 7 -10 14 3 -6 -9 6 17 6 2 29 13 6 2 7 17 -16 -16 4 -1 -11 8 11 3 11 9 -4 16 -11 12 -3 21 2 18 -6 3 17 21 5 13 10 3 25 3 39 -6 -11 20 21 -2 6 1 -3 36 31 6 -16 23 3 -7 11 7 15 11 21 27 11 -2 30 47 19 -5 7 8 17 -2 15 5 9 -3 6 25 23 14 -10 -8 16 7 3 -6 9 -11 -6 4 11 14 7 21 20 19 10 27 10 13 3 -17 -1 25 14 17 7 -16 12 17 -4 8 18 11 -5 9 -13 16 5 -3 14 6 5 11 7 15 5 4 4 10 -2 -11 14 -4 17 8 5 8 1 10 -1 13 34 20 7 24 6 15 10 28 15 -2 10 -8 4 11 18 13 2 -5 -3 11 4 -4 3 -4 4 -3 18 0 16 -2 1 10 11 18 3 -6 -3 7 8 10 7 7 -11 -6 4 -5 -1 -3 28 -29 31 -9 7 29 14 -6 7 -2 11 21 14 23 13 28 0 -21 -3 43 23 38 15 -14 -9 1 18 -6 15 -3 11 14 17 10 0 15 23 20 23 3 7 15 -17 8 2 -14 14 15 -4 5 14 22 -14 9 3 11 -6 9 4 -10 26 22 18 11 -15 23 17 7 17 -3 7 28 1 5 21 21 6 7 7 20 6 22 19 12 17 21 14 15 3 -11 29 16 7 16 -3 4 1 -13 9 -3 38 -11 3 9 23 29 6 -4 12 -12 -1 19 27 -9 23 4 8 12 1 10 3 23 28 -14 8 7 8 -3 14 7 10 2 18 14 4 5 7 -7 15 12 11 7 9 -16 10 24 4 -3 -6 -2 11 34 18 14 3 -14 20 -8 3 7 3 21 3 16 31 7 14 -4 13 -11 -10 2 16 4 17 36 -17 -3 7 6 2 10 5 -3 -21 6 -10 0 -13 -10 6 1 21 5 34 3 -9 7 31 38 22 5 13 18 1 6 -8 -3 9 3 28 23 -7 8 9 26 -11 31 13 6 26 -5 -3 17 13 -7 3 25 11 -2 9 9 -3 29 14 23 23 21 -2 1 -7 10 3 10 -2 7 7 3 12 2 5 -13 -4 48 -3 27 18 13 -6 -17 -8 0 11 10 -6 -13 21 14 -3 8 20 4 19 7 3 10 -13 -3 5 1 6 11 3 24 1 -4 26 5 5 -5 -8 -1 21 14 -17 14 36</t>
+  </si>
+  <si>
+    <t>GAM(126.46970498883317, -75.86366294613539, 0.8827399788025974)</t>
+  </si>
+  <si>
+    <t>40 27 40 48 38 37 20 37 30 45 48 45 29 60 40 33 34 28 48 30 42 51 37 33 26 34 38 54 51 36 20 31 40 34 48 49 40 30 46 42 21 48 16 40 22 13 23 55 33 46 33 55 27 51 33 37 42 49 30 30 45 22 36 30 36 43 25 40 41 33 41 23 55 28 32 39 34 44 37 48 33 45 33 65 24 19 36 54 33 34 25 27 48 25 32 38 36 41 36 40 27 44 38 53 25 38 42 49 37 47 51 58 34 31 23 40 34 47 30 29 29 19 19 34 13 59 42 22 40 33 43 43 34 30 43 36 41 21 43 29 27 33 32 40 50 26 42 33 29 34 50 21 46 40 36 30 39 42 37 32 47 33 30 47 41 30 23 45 51 44 42 34 44 51 51 23 23 46 49 39 40 33 25 25 30 33 23 23 34 23 51 57 19 39 12 52 31 44 59 47 23 41 27 19 39 40 29 43 51 32 23 44 34 13 45 34 41 30 43 23 40 34 39 32 23 31 45 40 35 20 29 33 32 47 19 40 27 24 23 24 25 44 20 37 38 26 45 34 31 16 35 52 23 28 55 35 26 26 28 49 41 38 26 36 48 40 30 46 56 40 34 49 29 27 37 67 29 16 46 45 40 37 31 50 44 29 36 55 51 42 17 40 48 40 37 20 34 37 30 23 45 39 29 27 19 23 22 30 35 55 41 19 37 19 24 41 29 39 31 58 37 16 49 33 34 41 40 33 45 34 46 38 38 25 36 35 27 19 26 39 43 35 23 30 41 36 16 47 29 47 23 37 19 37 26 35 22 36 58 44 50 48 38 31 25 36 44 43 50 41 31 50 45 42 52 19 33 32 20 34 48 48 36 60 30 12 28 15 42 32 29 32 30 22 43 37 30 25 47 55 48 32 42 19 15 25 39 26 22 47 13 44 47 42 37 22 37 40 49 43 26 39 27 41 38 36 30 54 40 19 34 39 26 21 34 45 33 59 38 19 27 47 47 56 39 40 29 30 43 44 36 27 51 41 29 26 29 49 33 49 38 44 30 47 44 50 32 23 32 35 46 35 36 36 47 19 38 36 46 36 24 43 13 39 53 44 37 36 38 34 37 43 38 37 51 38 54 34 48 26 23 36 51 26 19 36 19 35 35 42 3 48 37 41 29 36 69 37 28 34 50 33 37 15 29 47 36 31 40 33 23 45 43 38 35 24 33 29 35 26 41 53 33 58 44 25 20 39 24 20 40 38 32 25 23 59 27 35 45 45 47 31 31 37 47 73 39 40 39 22 33 12 26 29 46 30 47 23 19 45 36 22 27 28 23 35 34 41 26 50 27 49 58 46 34 47 21 52 34 34 20 29 40 33 43 35 40 27 49 23 26 27 32 40 48 31 40 47 34 19 26 31 34 26 44 38 27 39 47 37 34 45 54 26 37 48 30 35 37 26 47 39 42 29 21 27 40 32 43 36 30 37 33 32 37 45 53 30 27 47 30 26 40 33 46 36 9 36 11 46 22 28 12 35 37 37 37 20 25 42 31 64 21 46 48 40 38 39 16 20 50 29 23 48 26 37 42 56 29 30 40 16 29 26 53 31 44 34 40 38 35 32 31 41 16 29 37 29 22 32 51 30 27 39 34 58 18 35 42 37 23 32 34 45 47 27 55 30 32 13 40 59 33 30 28 58 34 36 37 37 32 33 26 27 37 24 13 40 33 37 44 42 29 41 30 48 48 32 27 44 38 35 15 34 29 33 26 23 28 34 27 59 39 43 50 23 23 38 23 36 35 43 39 32 46 36 35 39 41 56 34 34 30 19 26 44 25 27 28 38 35 19 66 33 37 33 30 34 37 32 22 38 55 30 28 40 41 50 29 45 40 40 36 36 40 38 39 57 28 42 46 39 58 23 52 34 30 47 46 41 34 46 39 29 23 37 22 26 31 33 26 37 45 44 43 41 17 46 31 38 34 48 40 43 30 39 33 36 51 43 43 23 55 38 43 26 26 50 46 43 39 33 36 24 47 41 33 44 38 44 34 37 43 38 37 34 37 33 61 23 41 50 37 48 39 31 51 37 43 34 41 32 29 15 28 24 28 31 33 42 29 32 33 50 45 35 33 51 29 16 30 21 30 55 50 34 29 44 34 27 22 41 31 37 37 27 38 45 36 43 39 24 27 33 34 33 45 23 33 38 44 31 39 29 18 29 25 38 45 29 27 49 39 21 31 41 33 36 38 52 23 26 37 28 33 30 45 44 19 37 17 34 43 50 19 29 40 33 51 38 30 38 33 42 28 57 46 40 49 69 41 30 47 29 55 21 29 36 36 30 58 43 40 24 36 47 40 37 33 35 27 35 51 46 22 29 34 32 37 47 32 25 34 43 25 23 44 37 30 34 31 57 45 40 41 60 50 36 35 31 47 45 39 43 48 45 26 32 40 43 43 31 39 51 34 37 36 36 53 36 42 30 36 36 26 30 37 30 36 52 29 50 54 37 55 69 42 33 34 54 35 30 19 37 45 52 9 39 49 27 47 24 37 30 43 55 26 34 44 34 38 33 37 33 10 36 25 35 28 37 43 45 32 28 20 28 35 26 37 30 50 30 23 36 32 45 24 28 66 19 32 40 30 19 45 45 33 33 43 41 23 32 23 48 51 13 46 13 43 38 63 39 33 35 38 26 21 33 34 20 44 16 41 51 41 41 40 41 30 47 55 26 37 34 53 39 31 44 47 51 31 38 46 43 34 30 30 27 48 33 39 34 44 31 44 23 41 32 39 56 40 34 33 38 26 45 33 17 39 48 36 65 41 40 26 35 35 42 37 27 41 30 33 36 27 45 52 51 56 45 53 36 36 40 40 54 29 41 40 30 19 34 21 30 28 21 35 41 31 36 19 35 47 34 43 40 15 16 45 48 32 16 31 37 41 13 51 37 60 48 16 43 37 52 23 47 19 37 48 43 31 33 51 36 40 49 34 26 43 40 45 29 37 19 29 44 27 43 57 30 40 41 40 39 44 37 31 37 30 58 37 41 38 45 32 29 38 12 37 40 41 45 40 36 23 17 36 22 51 30 22 51 48 51 29 41 22 37 26 35 29 33 41 20 30 35 52 43 17 53 23 35 37 31 41 32 34 41 32 33 54 39 32 24 29 34 49 46 24 52 36 45 32 31 37 26 49 45 38 39 26 34 33 33 34 37 51 40 20 13 27 58 39 23 47 38 34 36 29 43 38 41 27 66 30 29 29 27 51 33 27 42 37 51 38 28 37 33 25 47 39 23 31 32 24 27 42 44 12 43 45 26 20 60 40 41 35 34 42 28 54 34 40 44 30 38 33 47 24 26 22 31 20 26 33 33 41 51 28 44 26 30 23 20 32 39 55 54 44 32 45 34 39 26 31 43 30 43 23 50 35 30 27 32 33 31 36 17 38 44 37 43 44 34 36 34 38 25 36 43 19 37 29 25 52 35 36 39 26 29 17 20 30 50 46 33 26 46 33 29 42 32 42 57 33 25 38 29 25 36 26 32 28 30 30 25 25 48 37 27 43 44 25 36 21 40 36 37 29 42 40 36 52 20 48 58 32 43 16 27 29 44 30 36 26 37 33 31 45 44 28 23 43 35 36 47 28 40 22 51 47 33 36 22 34 33 44 47 20 38 46 35 47 34 36 30 56 36 35 34 30 22 10 27 30 45 33 55 36 38 45 51 40 33 30 37 36 22 13 30 34 55 30 32 32 44 47 33 43 33 48 28 42 54 44 46 34 45 39 19 33 30 31 28 19 28 27 40 31 57 38 27 44 35 43 42 19 49 43 30 25 38 29 32 46 34 34 34 36 25 24 48 22 26 15 36 30 33 44 33 38 15 27 45 42 42 38 37 32 31 37 43 43 45 39 33 32 22 40 56 37 26 39 36 29 31 50 55 57 31 29 32 51 29 34 36 45 43 40 47 29 23 42 57 25 49 36 33 50 22 44 35 27 52 39 33 44 39 55 27 36 35 36 25 34 29 31 21 45 37 33 29 22 33 42 21 54 51 50 47 30 44 33 53 38 41 41 24 46 57 26 29 24 38 51 33 24 31 34 41 23 39 48 19 40 40 33 40 25 33 24 41 39 27 40 51 55 23 55 40 42 40 61 30 23 16 46 32 47 33 36 34 41 44 27 35 63 27 33 37 39 24 42 42 36 32 27 33 40 44 40 59 29 56 37 21 40 38 37 53 51 45 47 28 40 39 37 32 39 20 41 35 37 23 38 17 40 46 40 37 29 45 46 63 26 41 37 30 42 36 41 44 26 40 36 34 27 33 52 45 33 54 36 33 25 54 30 26 33 52 23 30 30 33 35 35 41 48 34 23 26 27 35 33 46 35 37 38 34 43 34 56 43 30 38 38 37 34 26 45 48 31 46 55 45 38 33 41 50 43 40 36 31 30 42 37 23 23 33 35 12 26 30 47 35 49 33 51 36 37 26 33 21 35 30 56 38 27 43 36 33 41 26 44 53 26 47 43 40 25 35 30 51 32 29 20 45 23 34 19 46 30 45 33 39 37 41 22 61 33 48 15 48 23 42 30 32 43 17 59 24 16 30 26 20 43 39 40 29 37 23 47 22 32 32 43 57 50 45 28 43 54 29 31 42 37 22 26 35 56 21 37 52 38 31 38 41 30 29 34 19 12 27 22 25 50 36 30 47 44 41 26 30 22 43 31 30 52 48 20 31 34 22 40 17 38 36 34 36 33 35 39 39 40 51 29 51 22 41 28 32 30 20 43 49 33 37 38 55 24 41 29 34 51 27 32 32 32 51 37 30 35 22 50 34 36 16 19 37 30 39 37 43 35 34 33 39 38 34 35 36 24 37 23 33 34 25 37 33 28 33 41 27 25 30 37 37 34 41 22 45 29 31 16 33 35 53 38 30 37 48 45 32 37 37 35 13 30 29 36 31 39 38 41 27 16 20 39 23 37 26 46 39 28 37 28 14 32 52 36 34 34 44 26 36 51 26 57 26 25 50 37 37 33 14 30 40 27 46 26 37 37 16 19 34 43 40 38 47 36 30 25 31 32 30 51 35 44 43 36 36 35 33 33 22 13 29 51 44 30 54 29 31 23 44 24 48 19 34 35 19 38 35 44 40 27 40 43 34 37 35 37 29 36 33 28 37 23 37 34 38 38 47 49 24 41 31 36 46 31 52 37 43 42 43 41 14 37 45 53 33 42 33 33 33 53 33 24 50 53 50 47 24 37 51 38 51 45 41 33 50 50 33 54 3 32 37 58 38 33 22 19 54 47 46 19 44 54 52 56 24 43 45 21 37 25 37 41 44 31 30 29 38 38 41 10 33 36 30 33 37 36 50 31 18 20 39 38 40 44 23 54 16 25 45 30 32 28 49 38 44 33 32 40 31 41 23 37 36 44 44 30 32 32 38 15 30 29 50 31 51 15 29 21 40 40 23 35 51 53 32 30 29 37 28 33 32 58 64 38 23 40 23 29 16 26 37 29 31 33 33 50 36 45 38 44 43 26 34 36 50 23 32 33 33 44 26 37 12 37 27 13 43 52 38 35 37 33 29 43 30 30 28 33 35 25 54 24 44 37 41 54 40 36 51 38 16 44 34 22 30 24 48 45 38 24 53 25 54 40 16 50 29 24 33 20 36 10 20 30 27 30 29 23 25 32 24 31 8 37 39 59 33 37 46 48 34 44 24 33 22 37 23 60 42 34 28 28 24 27 40 55 37 31 22 43 33 31 55 29 37 41 16 40 20 23 33 29 27 24 34 59 42 23 35 57 35 32 27 34 29 36 47 44 41 28 23 51 32 27 31 19 23 46 38 43 55 37 31 28 61 48 30 33 58 9 26 19 57 41 35 26 48 29 31 29 26 43 30 48 33 33 23 34 38 40 37 33 47 39 37 44 27 41 30 29 43 33 37 31 46 37 36 44 45 44 25 52 36 39 37 36 40 34 37 39 52 30 38 40 19 34 27 35 40 29 37 37 27 35 27 21 52 62 34 34 26 26 38 26 45 36 22 43 41 44 27 28 30 26 40 35 45 27 48 51 26 55 33 40 48 36 34 26 44 42 40 36 30 19 29 35 32 33 38 44 50 31 43 40 38 15 34 36 43 35 33 46 30 41 56 27 19 52 23 46 43 51 45 44 15 45 22 29 43 37 28 19 50 23 45 26 33 44 36 34 25 32 32 45 32 35 39 49 41 22 26 36 33 37 37 43 36 41 24 33 32 43 48 40 15 46 31 43 36 31 37 41 37 23 23 42 24 45 34 33 35 37 33 14 54 42 31 58 28 29 34 26 33 34 39 31 29 43 37 31 34 43 34 48 24 49 33 43 45 41 16 50 41 16 44 40 29 48 34 41 30 41 42 22 34 28 29 24 44 34 44 30 37 30 35 54 46 48 27 48 20 33 30 40 25 29 29 47 40 26 49 26 24 36 36 36 25 33 34 43 20 46 18 27 33 41 45 43 48 40 40 43 29 46 47 34 30 54 27 21 47 51 34 29 37 23 30 26 22 36 52 44 45 34 33 41 48 37 13 26 26 22 47 37 36 52 48 41 25 55 34 31 33 33 52 39 34 19 43 53 30 45 31 26 23 52 30 49 16 43 34 26 47 28 37 34 68 33 27 27 26 33 35 29 47 48 24 23 43 45 32 41 51 51 23 37 23 37 32 29 34 41 40 28 41 25 38 47 32 33 34 25 37 46 29 37 26 37 45 19 32 30 23 33 29 29 26 44 32 51 45 23 45 23 49 42 33 24 30 30 33 53 37 30 41 54 33 39 36 44 32 40 29 28 30 34 31 34 26 38 37 31 51 27 37 37 54 29 40 42 44 19 41 41 36 44 30 49 45 37 32 38 28 54 20 41 38 33 37 36 31 30 38 34 21 19 44 37 30 42 30 24 31 26 44 50 38 50 43 41 23 30 37 33 29 39 49 45 49 37 29 37 29 49 40 58 36 43 33 39 34 41 54 32 30 43 29 41 42 33 40 29 42 36 44 44 34 22 39 36 34 40 36 34 39 39 20 36 35 45 35 27 31 22 55 37 28 51 33 44 43 30 43 53 23 44 54 31 16 34 40 33 43 36 57 42 29 44 13 30 42 39 43 16 37 27 29 20 26 45 22 37 31 45 33 52 33 24 44 29 36 37 30 23 32 38 37 39 33 32 22 33 40 44 47 18 41 41 34 52 31 23 38 20 41 24 16 31 38 25 32 58 28 29 29 26 44 46 23 30 37 43 26 42 34 38 51 37 36 42 36 30 33 34 37 45 34 45 29 25 39 45 23 40 41 21 35 22 46 32 52 30 39 25 17 28 33 54 35 45 31 33 49 52 51 47 33 39 37 37 56 51 68 32 34 47 41 33 39 40 31 39 19 30 50 26 42 60 33 30 40 28 40 43 46 30 33 25 45 28 30 37 36 36 35 40 37 53 22 49 24 39 43 44 24 35 35 37 23 33 34 47 30 31 39 29 23 6 34 33 33 33 50 10 44 28 24 42 39 20 41 17 37 32 29 22 33 50 51 40 47 47 33 52 27 40 29 35 24 27 21 19 48 47 27 38 37 33 38 37 37 23 59 54 35 23 42 43 51 30 47 45 50 49 57 38 50 23 41 34 46 34 37 43 39 51 26 36 30 44 35 44 37 26 47 43 28 44 42 31 22 31 30 34 45 41 43 36 17 43 26 26 39 37 36 38 53 33 41 47 41 62 26 31 44 44 31 48 50 26 40 34 47 51 34 46 25 46 29 26 46 33 25 44 51 31 24 36 45 29 37 20 23 38 42 44 46 41 37 39 49 38 29 41 28 37 41 30 23 36 50 51 23 30 40 28 16 37 33 23 20 30 45 35 31 29 41 29 45 37 34 32 27 39 45 35 26 35 34 50 46 29 37 25 31 25 38 35 19 44 30 37 45 44 36 24 51 46 49 35 37 44 40 32 31 23 33 38 35 47 44 33 30 31 29 45 33 48 45 44 30 30 33 44 31 36 52 32 30 38 42 40 41 56 41 52 48 29 27 65 49 37 28 37 30 40 23 19 36 35 41 23 30 47 50 37 43 30 35 30 43 29 50 57 36 50 34 25 40 46 22 53 33 37 43 37 35 26 57 37 37 31 40 44 36 51 16 37 30 20 22 45 43 30 44 15 25 29 44 44 23 30 44 33 26 55 23 47 57 44 33 26 39 37 34 18 32 35 29 45 30 17 28 37 48 30 41 23 18 41 28 22 27 35 51 40 43 19 23 34 41 46 51 48 27 54 44 37 31 44 38 47 47 33 46 30 33 34 41 49 40 48 36 40 41 34 42 36 33 18 33 32 43 41 37 45 16 31 46 34 41 19 44 37 26 26 28 39 34 25 65 32 20 42 50 33 40 31 25 44 48 23 48 43 23 43 39 37 20 23 41 49 30 47 49 41 33 40 23 37 33 22 22 23 34 47 54 30 45 46 28 16 47 49 30 36 27 23 38 35 45 23 34 40 30 13 46 45 29 38 26 23 40 48 23 30 38 30 44 32 37 22 37 37 42 36 40 50 27 47 30 41 35 27 21 44 44 26 27 37 36 34 33 9 25 29 19 37 28 45 34 31 66 51 23 21 40 35 37 25 21 54 29 26 39 26 23 30 26 34 34 31 34 19 49 29 36 34 27 43 23 31 50 39 30 49 22 43 32 49 37 44 19 48 37 23 34 35 42 27 53 35 10 40 34 33 38 33 23 26 36 19 46 30 32 50 41 38 41 26 33 26 44 32 20 25 30 25 33 32 26 27 42 36 24 16 30 33 37 47 27 47 45 30 27 37 29 13 33 37 47 53 43 42 39 37 32 27 64 32 34 41 22 33 39 16 49 27 50 33 55 51 54 26 24 42 34 24 46 39 16 36 37 31 52 40 44 34 34 40 33 34 44 33 23 35 50 19 41 44 26 17 42 25 38 38 39 16 39 38 20 42 20 26 31 31 31 47 33 36 24 43 41 30 37 28 58 43 34 41 33 31 27 37 47 41 33 25 65 48 29 29 43 42 30 35 36 21 27 36 23 23 23 58 27 37 23 34 34 41 43 47 23 31 27 32 27 33 32 31 43 33 37 65 26 44 27 37 41 40 30 28 29 54 51 34 44 42 26 51 45 47 35 32 48 33 18 37 33 33 32 47 42 41 53 35 51 22 17 37 35 41 40 33 26 23 26 32 32 31 32 59 30 36 39 27 30 29 31 40 20 30 37 26 38 48 38 29 32 33 40 43 50 26 46 45 19 33 44 32 45 37 51 19 29 50 35 42 34 34 40 32 20 44 43 51 29 41 26 36 52 32 37 43 30 45 33 29 27 20 28 31 34 20 45 38 38 24 50 15 41 40 47 37 25 35 17 46 42 34 37 23 18 27 30 37 40 27 48 40 49 33 51 28 41 61 40 36 26 35 31 44 43 13 30 50 13 26 20 19 39 36 23 39 46 37 29 31 47 43 26 41 44 30 43 37 40 23 51 34 34 30 19 27 13 36 37 30 49 48 45 43 38 16 41 23 30 64 36 47 17 39 51 46 30 47 37 34 43 40 34 40 24 31 41 47 30 19 37 37 23 51 26 32 40 43 26 34 49 53 58 30 51 17 54 49 19 41 33 44 31 33 26 37 27 53 41 29 27 44 29 37 37 24 37 34 44 27 31 26 26 42 52 28 36 50 21 29 65 36 42 23 33 27 47 39 53 37 37 50 45 30 48 23 43 47 34 46 27 47 52 36 37 13 29 39 36 26 33 26 23 39 33 36 58 26 15 41 34 31 26 30 21 51 45 27 35 23 44 54 57 45 39 33 17 20 24 34 20 42 40 48 30 61 34 29 23 43 38 30 33 39 27 33 29 51 49 53 48 32 43 43 26 38 45 30 26 29 42 24 34 40 30 37 40 37 27 34 43 37 37 42 37 31 59 41 37 40 51 52 41 40 32 33 43 48 32 29 33 51 33 40 31 19 37 16 32 43 37 21 30 44 49 61 37 37 39 38 26 40 37 27 23 37 33 21 24 20 39 29 24 19 39 49 53 29 27 54 48 40 50 36 20 23 44 30 31 50 37 33 43 34 26 37 30 52 47 38 34 35 39 30 16 29 47 20 45 41 48 23 55 51 38 33 44 37 52 42 33 36 44 31 37 45 43 40 46 33 30 60 27 31 34 23 45 30 40 32 33 33 43 44 23 39 34 37 16 35 27 28 37 44 37 29 43 33 20 44 32 16 31 36 38 48 33 55 34 30 41 24 44 39 29 37 48 36 33 33 23 27 33 34 33 39 37 24 30 19 33 52 20 33 16 25 25 40 27 16 38 37 32 41 43 44 39 40 41 23 48 34 34 19 32 44 34 33 38 16 25 40 31 41 51 29 17 29 32 29 22 34 36 30 33 23 37 29 45 36 58 40 36 56 23 16 42 33 34 9 27 37 30 37 52 29 42 32 30 26 35 34 32 20 30 32 39 36 24 47 27 41 38 23 31 36 38 36 28 23 32 31 33 34 36 48 32 48 30 13 37 40 29 32 50 33 40 59 55 27 27 37 27 35 19 40 54 27 25 30 46 49 59 40 51 49 47 45 19 41 25 27 27 49 30 38 43 33 42 26 52 34 9 28 34 22 25 56 10 52 22 49 30 33 54 19 40 16 30 42 37 24 31 37 19 40 47 17 23 34 33 34 68 44 51 51 19 42 36 39 26 16 40 30 47 33 31 29 21 39 42 34 34 28 37 15 37 54 40 29 33 36 37 20 36 31 37 28 50 29 20 32 43 49 39 40 26 35 26 44 42 29 50 45 45 45 24 50 37 30 19 27 37 48 35 29 43 54 29 47 46 36 10 47 23 50 31 41 26 34 29 48 22 42 43 41 48 37 45 33 46 38 48 43 50 39 30 40 39 37 32 37 33 40 44 19 34 39 31 35 29 32 17 46 33 37 23 33 26 28 29 37 44 33 43 42 36 34 27 44 37 23 34 27 29 34 36 39 20 25 27 50 40 41 45 29 26 21 41 65 42 47 48 53 35 32 30 19 52 59 40 26 55 34 42 43 35 40 27 33 44 33 36 31 44 39 34 31 57 44 37 30 31 28 39 37 40 33 24 41 37 31 37 34 23 23 31 33 34 26 44 39 44 35 44 30 46 39 42 35 32 46 50 37 44 47 59 21 44 27 36 41 45 23 53 47 51 19 34 33 37 30 20 52 45 32 51 34 17 29 37 43 19 54 34 37 42 33 44 17 43 26 34 24 43 47 54 22 42 26 31 47 42 48 37 34 35 41 20 36 30 37 27 38 32 39 19 40 38 23 31 40 20 45 37 22 35 31 30 51 49 40 26 34 37 29 40 30 38 47 38 35 33 20 22 40 47 26 56 33 28 41 42 31 34 27 9 23 36 48 27 29 23 37 49 41 40 29 48 49 31 20 29 25 46 54 28 30 27 27 33 41 19 13 34 30 28 27 44 32 48 37 50 20 34 34 44 22 36 42 50 58 34 29 40 58 45 27 26 29 41 41 37 24 29 40 30 39 40 37 33 50 44 45 34 51 27 23 16 28 20 34 17 36 33 38 27 29 33 23 34 39 22 26 26 37 31 55 52 46 26 29 29 37 47 38 56 29 36 43 30 43 42 51 16 26 34 32 43 21 36 34 22 58 36 33 45 40 33 29 37 33 52 23 37 29 56 51 41 47 32 30 56 44 29 34 33 12 57 35 41 34 19 38 42 30 44 41 30 49 38 30 23 42 23 30 42 6 15 37 44 30 37 36 17 42 40 22 39 33 38 22 31 34 42 39 37 34 26 33 49 39 40 37 36 59 30 34 50 33 44 25 44 35 37 30 37 34 30 30 34 37 25 28 31 40 48 45 34 32 47 30 22 29 33 51 29 34 44 37 26 43 40 33 43 23 32 33 23 44 44 36 22 34 41 40 37 43 30 32 37 27 36 42 27 27 55 32 26 15 37 34 28 45 52 38 27 41 41 27 26 22 32 54 56 28 54 32 33 52 34 55 37 31 47 22 46 30 37 33 54 49 40 51 32 54 50 51 37 40 33 23 45 33 64 35 19 37 23 19 42 28 36 27 32 48 38 56 31 33 32 33 19 23 51 21 43 39 29 20 22 40 47 52 37 30 40 36 30 20 19 36 26 26 40 19 50 41 47 37 36 36 37 58 37 27 54 36 44 33 35 29 49 32 40 35 29 13 37 26 27 38 35 43 59 44 34 27 43 39 27 43 30 31 30 44 43 23 31 26 36 22 29 35 43 40 24 28 40 43 44 27 50 32 37 42 21 39 47 38 30 24 33 41 34 54 41 34 35 38 16 35 48 37 41 35 29 36 47 32 38 35 49 41 43 13 48 36 34 34 43 34 50 34 23 29 36 26 48 31 37 27 44 20 40 33 24 39 46 51 51 40 41 36 41 40 36 24 26 17 40 44 59 41 47 47 24 45 49 29 38 33 27 41 31 31 34 51 41 50 21 37 33 46 40 40 19 47 29 24 30 34 38 44 19 39 38 36 48 43 37 37 41 17 48 37 27 30 36 43 25 27 28 48 23 24 26 41 38 19 39 27 41 39 23 27 37 33 30 37 39 22 30 22 24 33 44 42 33 33 41 10 53 37 22 26 31 33 24 51 33 47 52 28 37 36 25 29 23 39 33 49 19 43 54 51 26 37 49 25 44 34 47 43 40 26 41 21 37 54 40 53 46 36 39 42 54 23 30 36 27 48 42 23 19 55 43 46 19 29 21 48 33 22 42 45 37 42 37 39 32 51 48 33 31 41 29 40 51 43 36 29 36 50 12 53 41 29 16 50 18 42 30 36 33 50 40 35 23 47 33 34 24 29 30 50 37 23 48 33 70 42 37 25 18 34 33 23 30 23 33 29 25 55 37 37 15 41 40 38 30 58 13 21 41 22 33 46 37 15 30 29 37 44 44 53 46 46 43 33 48 43 41 15 44 38 43 40 48 35 41 41 50 46 40 29 36 48 35 26 28 50 24 24 28 35 43 33 44 16 37 37 31 30 23 36 49 20 34 31 34 26 32 58 40 37 27 39 44 41 27 34 50 55 46 27 41 21 54 20 39 39 34 24 40 37 57 23 45 51 47 34 43 41 40 22 45 30 27 26 61 41 27 50 32 29 37 23 48 29 43 33 30 37 23 43 49 32 40 44 33 49 44 28 55 47 43 29 43 41 45 37 56 32 32 37 41 39 44 38 26 30 27 33 35 26 43 47 19 51 21 44 36 44 29 56 36 23 39 30 25 51 22 24 52 34 31 29 31 30 30 43 22 48 34 33 34 33 44 30 22 33 27 35 32 45 31 48 38 35 43 38 47 34 23 29 32 29 47 27 44 27 30 30 29 38 16 29 34 23 55 26 43 30 43 36 36 45 33 50 23 44 10 51 44 36 37 40 38 42 38 16 36 47 55 20 27 36 23 29 43 35 30 15 27 44 54 49 45 29 30 34 36 16 40 41 37 49 49 27 29 36 37 29 19 43 32 37 29 38 27 27 36 23 15 30 42 23 20 33 59 45 37 32 37 31 44 47 29 32 43 37 25 42 25 40 33 35 41 30 16 29 46 20 17 35 37 38 36 51 31 29 48 33 32 44 21 33 35 52 23 36 37 23 45 42 38 49 26 37 27 36 29 37 26 30 52 55 44 29 36 40 33 38 33 10 41 27 13 36 40 35 29 39 26 50 59 19 18 36 30 38 41 57 47 34 52 21 48 33 36 27 35 49 50 24 31 47 44 44 19 23 26 38 25 39 25 45 50 37 47 37 35 20 35 47 40 37 27 38 40 23 22 47 17 19 22 45 33 43 25 19 38 24 34 33 23 31 35 50 26 33 29 38 57 41 32 17 26 31 37 34 38 16 26 36 27 37 31 35 31 40 37 31 46 50 47 44 62 19 35 30 54 25 39 28 27 36 33 38 27 38 29 33 40 31 48 39 36 50 37 19 56 16 43 37 31 43 29 34 30 43 34 34 38 33 31 38 29 50 43 54 23 50 51 39 35 34 39 14 30 29 30 39 24 55 29 30 45 30 14 26 44 44 34 27 23 42 30 15 36 28 27 54 22 30 30 31 48 42 26 21 29 40 25 61 41 43 30 44 36 44 41 37 39 29 51 63 20 44 45 21 62 44 45 32 45 46 22 20 30 26 52 34 29 59 25 51 46 40 22 21 44 26 41 33 37 40 29 37 23 43 38 19 53 32 26 40 27 27 39 33 44 17 24 37 46 38 30 35 29 46 44 32 29 37 33 43 40 39 41 32 42 36 37 54 33 40 32 31 33 9 33 38 34 51 42 40 37 30 40 38 23 48 31 42 41 28 40 26 37 34 39 40 59 27 27 51 32 31 23 34 34 33 46 29 56 40 30 38 34 40 30 37 43 48 40 32 27 15 29 43 38 40 23 27 40 31 33 47 44 29 43 34 34 56 34 39 59 46 37 20 33 53 41 40 33 34 29 24 35 36 23 38 39 53 37 44 26 59 58 44 40 34 36 41 25 37 25 54 29 33 29 37 25 37 41 37 16 31 50 23 20 19 42 37 43 38 34 33 37 45 44 31 46 37 37 35 37 34 24 31 37 15 33 30 23 23 51 20 55 13 23 35 31 24 30 30 30 49 42 20 38 27 29 40 26 35 37 41 29 43 27 48 26 42 37 43 53 44 40 25 19 44 47 33 34 19 39 37 51 36 31 35 43 59 44 16 29 51 43 37 37 46 53 26 35 41 31 29 40 38 33 51 24 29 39 44 22 42 26 29 22 19 28 34 44 37 28 37 40 37 30 41 42 33 40 33 54 36 42 37 40 53 33 13 36 44 26 35 42 35 45 12 48 24 32 27 23 23 44 29 42 33 44 34 54 28 27 36 33 16 30 46 26 31 44 38 44 41 43 42 44 51 16 33 25 16 52 37 57 25 44 56 37 50 32 39 44 34 33 38 39 48 32 43 60 43 23 36 30 37 47 30 27 27 29 24 21 26 30 43 43 31 41 46 29 44 31 29 41 47 44 49 34 31 38 45 55 52 41 43 40 30 52 33 56 32 37 44 36 22 33 48 51 47 25 33 36 46 41 31 29 43 33 47 31 35 26 22 23 30 18 30 53 56 33 40 32 43 37 19 31 14 57 44 19 36 44 57 34 38 72 39 37 42 36 54 20 44 39 41 46 23 44 50 30 33 29 37 45 23 54 43 51 31 21 47 17 38 27 49 40 29 23 37 26 36 34 28 48 27 29 39 43 32 28 29 36 37 19 46 42 38 36 54 30 37 29 29 22 48 37 55 26 57 21 47 37 31 40 30 27 27 30 33 38 53 32 40 31 47 41 36 47 26 26 34 41 35 44 26 31 31 40 36 26 36 30 29 51 39 26 67 32 35 37 43 29 26 34 58 38 43 23 40 34 37 22 45 29 29 19 18 37 29 37 46 40 52 34 28 49 40 19 20 36 57 29 34 27 39 50 24 35 37 47 40 27 49 40 30 23 26 37 23 40 31 40 44 35 31 56 23 54 25 36 32 59 54 42 49 33 20 33 20 49 39 26 34 22 45 37 27 44 49 36 32 49 43 49 45 28 21 20 40 41 34 37 45 34 57 43 65 47 49 47 37 35 25 29 42 58 41 26 47 51 20 41 20 34 40 33 51 37 41 26 34 37 65 37 28 25 34 31 58 36 43 30 57 16 24 40 19 40 19 44 54 42 34 32 29 28 37 33 40 44 40 35 23 31 31 41 39 23 31 48 22 36 37 26 30 31 37 33 35 30 33 31 45 23 38 36 22 34 43 16 35 25 39 19 42 31 29 26 37 27 13 38 50 33 34 30 33 52 35 46 28 36 41 30 29 30 37 51 22 18 34 26 34 31 25 26 32 32 32 27 41 17 43 50 33 37 41 30 49 44 58 36 48 44 40 37 40 50 25 33 30 31 43 16 48 51 59 30 41 51 22 33 32 51 49 39 36 54 37 19 49 55 27 38 20 36 25 68 43 26 40 33 36 46 19 55 30 27 23 24 37 40 36 33 40 49 36 38 22 44 43 24 31 31 30 51 26 28 16 44 28 44 20 66 51 33 38 40 13 18 45 43 46 33 32 45 23 44 42 59 29 23 43 34 43 31 51 43 45 29 25 44 38 40 28 47 54 34 33 19 51 36 38 64 35 56 31 41 37 26 34 36 26 22 32 51 40 42 50 36 33 33 31 19 37 42 37 42 40 33 43 35 42 40 10 30 36 41 38 32 32 12 51 47 29 26 33 22 41 23 47 39 22 34 53 25 36 20 52 31 22 56 34 12 24 17 32 38 37 26 45 27 34 43 30 37 37 26 50 30 47 48 40 34 39 47 40 52 27 27 38 27 39 43 27 39 51 30 48 23 26 25 30 26 28 33 27 35 44 27 30 51 37 43 51 39 29 31 38 25 43 33 31 52 37 43 33 37 40 30 29 19 49 52 39 36 35 40 27 47 22 42 34 29 37 48 35 47 45 24 47 45 44 42 27 46 23 38 40 42 27 23 42 23 21 29 45 19 43 37 28 36 38 24 45 27 33 26 46 59 43 35 41 28 26 37 37 38 21 37 46 46 35 35 27 47 34 37 41 19 44 36 33 30 31 48 41 39 41 30 29 27 23 29 46 43 40 47 56 30 18 41 47 44 23 29 34 44 47 31 37 29 24 50 40 43 47 30 39 41 20 41 33 48 48 35 38 22 34 43 49 35 34 37 37 57 44 37 19 22 27 27 29 25 23 32 36 43 26 57 18 37 29 34 20 40 46 44 37 31 47 32 30 50 40 44 33 51 30 30 49 14 6 26 44 40 48 33 42 51 27 23 32 43 38 39 29 43 26 33 33 40 54 31 51 31 31 16 37 38 24 25 39 43 50 39 31 33 28 23 49 43 27 43 30 43 37 32 26 37 34 44 30 33 33 43 50 29 54 33 37 53 37 49 37 37 33 33 34 30 29 44 23 62 30 26 43 43 37 33 36 37 39 24 31 33 44 34 48 26 24 26 22 43 47 37 47 29 46 33 37 35 35 48 30 39 44 24 37 26 49 43 46 39 33 47 51 19 16 29 37 22 57 40 47 45 30 42 23 34 33 30 34 26 59 30 23 48 27 35 37 22 23 30 37 22 39 37 16 27 28 38 40 34 40 45 22 47 43 19 27 44 27 53 43 19 59 45 35 33 41 32 49 45 35 35 23 37 30 23 36 38 40 44 22 33 61 30 16 34 46 51 44 20 35 36 31 36 45 40 30 44 38 26 36 34 34 37 52 45 37 26 50 25 43 36 38 41 39 16 32 40 52 43 37 37 26 38 26 39 34 37 47 31 28 49 28 57 29 38 16 39 69 33 40 26 43 51 42 27 38 37 44 37 42 26 27 26 45 38 36 43 37 41 29 30 22 26 19 30 30 39 27 30 25 20 25 30 65 27 29 33 34 37 33 44 33 23 25 34 46 26 38 46 22 51 34 26 37 34 54 38 28 40 41 43 40 42 41 39 13 19 36 32 40 23 47 29 41 32 35 36 37 38 44 47 44 27 37 24 30 24 53 52 32 21 43 29 25 27 36 41 31 22 30 40 42 26 23 26 20 35 53 30 29 33 32 49 47 24 47 37 34 38 53 45 14 45 45 49 48 36 38 38 47 32 37 37 31 26 27 29 24 26 26 36 33 23 30 30 40 46 34 29 24 26 51 33 19 39 43 29 38 38 26 48 36 18 54 52 37 37 36 34 41 25 32 42 29 36 31 36 44 44 40 39 33 42 37 22 43 36 37 40 42 41 42 38 42 41 52 52 44 30 35 43 27 24 36 23 40 37 33 36 43 45 52 30 31 33 26 30 40 52 42 37 32 51 40 25 38 44 16 29 34 55 43 40 40 42 31 16 36 12 31 25 39 54 45 36 35 21 57 54 40 23 15 24 37 51 31 29 35 46 24 46 30 34 37 16 49 27 46 40 42 43 40 47 30 30 57 29 33 26 26 34 41 37 23 33 42 45 37 40 30 33 27 33 25 19 35 30 42 54 45 35 44 40 29 12 41 37 39 47 51 45 44 34 50 54 34 34 36 39 50 37 39 43 38 25 23 29 58 34 41 39 38 30 47 33 50 51 41 47 36 16 41 38 37 51 49 34 48 37 30 40 40 37 19 32 52 20 32 29 24 34 26 37 26 21 42 66 33 45 48 40 23 32 33 30 37 31 24 38 44 34 37 43 33 26 52 27 34 27 23 46 31 33 26 20 46 62 30 39 46 61 52 32 47 30 27 29 37 59 31 45 30 9 47 32 32 20 45 31 43 31 36 33 36 19 54 48 32 34 34 27 34 33 24 19 44 52 43 19 46 44 38 29 47 27 54 42 37 44 34 29 43 43 29 45 36 45 44 33 26 36 45 44 37 34 24 30 33 37 37 37 56 45 19 44 37 65 40 30 36 37 15 31 28 43 24 31 30 41 50 29 36 39 20 32 30 20 42 31 40 22 35 38 49 31 26 27 30 23 20 30 44 32 24 29 33 32 51 40 41 39 26 15 23 20 51 30 29 30 36 44 23 47 43 29 31 31 45 36 49 29 48 36 39 40 41 54 36 37 38 48 40 58 44 38 30 38 31 33 27 41 31 43 37 37 36 24 26 29 45 43 45 17 16 27 46 26 33 49 44 30 20 53 29 40 36 51 37 24 26 51 51 37 34 34 19 21 32 23 24 64 30 29 24 41 40 42 26 35 43 38 29 61 24 29 39 22 42 16 40 35 52 26 33 41 26 39 41 27 37 60 37 59 29 38 46 20 42 35 22 22 32 23 34 33 31 54 39 43 30 53 37 32 34 23 33 21 31 49 36 27 41 30 41 52 31 47 30 30 22 35 36 36 22 33 30 26 12 33 45 37 23 39 41 41 41 40 42 42 35 22 33 33 37 44 37 41 42 29 29 49 30 43 19 39 36 39 30 50 19 19 27 43 26 48 29 54 43 37 28 29 22 55 31 35 40 45 30 30 27 36 41 16 26 30 40 51 37 57 36 16 40 17 53 37 44 21 47 54 36 29 38 33 29 16 29 33 24 30 42 55 38 20 41 32 34 24 37 20 30 41 46 30 34 29 20 57 34 23 16 23 34 36 36 39 24 34 43 23 45 36 76 43 38 32 49 31 37 44 26 30 30 41 27 21 26 36 23 30 27 38 35 36 23 10 28 10 54 30 43 40 37 29 33 52 28 38 41 39 34 38 23 29 45 43 37 37 37 54 55 40 39 40 57 40 31 37 45 24 51 47 38 35 33 29 24 20 38 46 40 64 23 27 25 36 36 39 37 64 38 12 47 53 56 33 49 27 40 36 47 35 39 37 33 34 40 16 29 29 43 30 39 52 27 34 36 31 50 36 33 28 34 29 28 33 13 30 39 37 26 26 42 26 49 47 36 32 16 31 40 30 24 33 26 30 28 46 43 29 27 29 32 41 29 26 26 36 21 31 13 38 29 29 19 30 28 33 44 37 46 44 27 44 26 37 37 21 34 37 39 29 31 37 19 34 26 30 38 34 37 34 27 28 40 35 35 19 40 24 38 26 43 44 47 46 45 51 31 42 33 41 26 35 43 36 51 29 38 38 29 31 33 37 32 23 53 42 47 40 47 27 33 41 33 41 57 41 34 43 41 29 44 26 26 37 44 36 44 38 25 38 37 31 63 37 37 20 53 36 52 43 27 37 31 39 45 38 22 22 35 54 19 36 38 19 37 39 28 41 32 39 48 37 46 40 23 31 34 32 39 27 43 37 29 43 23 33 36 41 33 26 45 37 36 43 34 29 26 32 38 35 26 49 19 35 64 51 38 23 30 32 24 41 27 26 51 37 55 44 22 36 29 17 22 36 72 48 39 34 34 38 23 37 41 44 40 41 16 47 23 44 26 48 41 26 23 37 44 46 47 27 37 35 34 45 44 22 39 37 57 52 49 37 36 33 33 33 22 51 43 30 43 37 28 27 50 42 48 33 33 29 40 31 14 52 36 44 36 23 44 34 43 34 35 51 43 47 33 38 36 39 43 27 28 31 38 33 30 31 39 26 22 39 58 36 37 25 41 48 68 27 39 37 32 36 48 33 29 40 51 52 48 37 29 18 39 30 40 29 29 20 33 24 39 47 37 26 24 33 33 57 51 26 41 21 27 36 39 52 29 24 28 26 41 45 30 26 34 48 15 44 61 40 17 27 38 37 37 29 16 41 23 39 47 29 27 30 36 45 33 38 30 27 44 40 28 21 55 53 37 52 38 23 22 27 39 22 50 37 37 41 42 17 22 46 27 27 37 36 37 53 45 30 33 40 15 42 46 30 53 50 37 25 40 24 41 26 26 47 39 33 30 40 45 33 66 53 36 45 32 48 43 45 54 19 33 54 38 32 36 43 37 43 34 53 63 20 35 37 41 40 23 23 25 40 23 24 41 29 29 31 39 37 35 34 19 36 29 44 38 53 32 23 33 30 46 48 43 40 37 24 31 21 29 40 30 34 40 30 34 33 49 41 44 34 37 22 20 37 30 35 40 37 34 41 51 25 41 29 15 29 53 44 28 37 34 29 36 23 31 27 32 16 32 30 31 33 34 35 44 27 40 35 38 47 33 47 41 43 37 34 29 26 45 23 46 19 36 36 46 52 59 47 19 45 53 43 37 30 30 47 47 33 23 25 27 36 33 38 34 40 23 30 31 55 26 38 51 52 52 23 30 37 33 39 32 58 43 30 22 43 30 43 44 37 29 26 30 33 41 29 45 38 30 24 59 24 35 39 30 50 43 42 35 47 43 44 45 37 23 41 12 32 24 39 30 30 42 28 44 19 38 49 41 48 37 27 41 33 37 26 28 18 29 46 34 51 28 31 35 21 20 40 19 47 22 40 35 66 42 16 48 29 43 36 30 24 19 44 34 36 37 39 29 27 32 37 23 30 36 40 55 37 19 26 49 23 32 32 30 40 37 34 31 30 52 54 34 43 38 33 34 41 32 38 33 27 43 37 33 36 20 23 18 30 46 30 20 45 34 37 28 29 16 15 13 35 25 44 26 24 33 29 33 43 45 19 23 47 22 34 23 6 27 47 33 37 26 50 22 17 35 37 23 19 30 23 26 49 37 21 39 40 50 36 27 23 24 45 31 33 51 45 40 45 36 37 44 26 29 30 36 34 27 38 34 37 47 29 37 30 25 37 42 55 32 18 31 35 37 31 23 38 43 33 12 33 37 18 51 34 54 48 23 30 48 43 54 29 26 37 36 36 55 23 40 44 40 32 47 43 30 31 63 44 29 29 44 22 23 46 39 33 38 33 45 55 27 49 32 26 25 29 41 37 24 41 30 37 43 53 38 30 30 40 17 43 54 23 41 47 52 52 41 16 19 51 26 16 34 22 17 61 25 38 44 29 32 51 20 55 34 36 55 19 26 30 33 41 44 30 30 19 23 34 29 29 37 45 30 30 51 56 23 63 16 38 30 31 31 33 17 27 44 29 31 55 59 20 37 40 33 44 32 45 31 36 31 40 30 35 37 39 31 19 27 31 33 33 33 36 30 65 51 33 47 60 29 22 47 35 45 37 34 37 37 54 30 26 52 39 43 32 29 29 26 22 29 26 13 33 20 29 42 41 36 47 23 31 29 51 20 37 39 30 38 29 30 48 30 29 35 51 25 30 23 49 56 52 37 23 55 43 25 28 36 30 16 43 40 30 59 44 29 28 31 16 39 25 54 26 33 30 34 41 38 54 51 34 38 34 44 43 50 41 50 31 51 29 38 28 37 30 34 29 42 34 44 36 33 38 45 30 37 40 37 39 26 22 27 33 29 40 30 27 53 43 28 49 45 45 33 43 28 50 41 40 31 33 32 57 13 34 26 41 23 55 23 66 35 42 37 33 36 44 39 23 51 28 23 16 40 39 29 26 45 39 33 57 43 26 32 48 54 41 28 29 34 38 48 45 31 43 6 39 44 36 50 68 44 37 39 37 23 19 23 37 39 46 19 37 55 49 24 27 33 34 34 34 43 54 35 27 40 47 37 45 29 44 41 36 45 42 19 33 35 57 58 29 17 15 29 41 20 38 32 46 33 43 45 63 59 36 32 32 41 22 37 37 40 42 22 47 32 43 48 53 24 58 36 60 50 23 27 21 39 36 37 33 33 22 32 46 30 45 40 22 23 34 36 40 51 32 26 26 23 27 37 47 31 38 53 33 26 36 33 37 38 36 38 36 43 44 17 23 27 34 26 40 47 29 39 48 44 48 27 38 40 27 41 53 34 39 37 27 37 44 48 43 33 42 41 32 26 31 21 37 54 45 39 34 33 62 37 37 41 32 40 33 29 37 33 33 47 43 17 40 43 39 35 47 48 37 45 47 16 39 41 52 37 30 44 13 33 25 26 46 33 33 46 48 35 33 50 25 32 43 34 38 35 30 40 33 27 42 29 46 32 34 41 33 37 38 39 43 37 41 32 23 57 42 25 30 32 25 39 41 32 27 27 42 37 20 54</t>
   </si>
   <si>
     <t>PTS</t>
@@ -102,52 +102,52 @@
     <t>List</t>
   </si>
   <si>
-    <t>NIG(30.767137947126567, 16.157381209812524, -0.810730957127657, 36.40059488070992)</t>
-  </si>
-  <si>
-    <t>13 19 27 27 31 27 16 16 6 17 13 16 17 31 10 27 24 13 24 34 23 23 21 31 24 20 17 7 19 20 23 17 23 43 27 29 21 28 30 27 6 34 13 21 24 28 20 27 30 16 27 31 27 13 16 38 10 21 13 37 35 10 13 24 6 34 21 21 29 27 16 10 21 10 7 28 18 21 31 20 21 17 24 19 40 20 13 24 14 13 45 24 10 38 10 13 22 20 28 34 12 17 17 16 16 27 10 7 20 21 28 25 20 26 16 20 12 34 17 23 37 14 26 17 26 39 14 24 13 34 45 13 13 3 24 14 21 24 10 14 23 24 17 31 24 21 26 14 29 22 23 17 23 20 17 21 16 31 23 27 41 29 28 17 48 37 24 23 31 27 31 26 38 34 14 35 20 17 12 21 17 24 16 20 17 37 44 17 17 23 20 20 10 7 38 20 28 22 9 14 13 30 30 20 16 31 23 6 45 10 35 10 20 13 14 20 9 17 29 27 28 9 41 26 21 28 31 21 27 27 17 16 24 22 27 24 21 24 27 41 21 20 17 24 16 24 9 20 9 27 20 16 6 28 37 16 0 21 24 34 22 20 13 23 17 17 27 13 10 28 10 14 17 17 30 19 16 26 24 23 27 21 24 37 16 27 23 42 27 13 17 24 16 41 20 14 22 31 23 17 12 17 13 26 34 16 34 24 19 24 26 20 20 19 23 24 23 34 19 7 14 11 38 21 28 13 34 47 27 6 20 6 22 27 24 24 16 21 33 27 11 17 28 9 26 31 13 23 14 17 3 17 13 38 21 31 17 26 27 18 27 18 31 24 17 23 31 3 20 20 27 13 10 21 36 20 20 20 27 20 17 6 30 27 24 20 24 12 34 23 37 20 10 17 10 26 18 22 24 31 20 17 22 27 16 9 20 28 19 10 27 13 37 31 27 13 12 16 30 28 15 20 31 6 27 30 16 10 31 33 22 23 16 23 10 21 19 23 35 19 17 17 20 31 21 24 26 14 28 20 34 17 16 24 28 17 20 10 20 21 17 17 23 30 0 27 27 26 17 24 10 17 21 30 17 20 30 17 21 26 27 21 30 16 7 7 24 27 27 17 22 24 20 20 16 28 34 31 22 19 10 17 20 23 34 36 26 19 19 27 34 20 20 31 14 10 20 17 10 23 20 23 22 10 10 26 45 10 14 24 14 21 31 20 10 13 3 23 36 20 16 42 23 13 23 28 23 17 6 34 20 24 7 19 9 10 10 20 31 26 30 30 29 20 17 34 16 24 12 34 24 30 10 10 7 16 19 27 27 27 17 27 24 25 40 23 20 20 41 16 26 31 13 20 29 0 13 24 19 23 27 17 16 24 17 16 16 10 13 18 23 23 20 13 33 17 20 24 40 20 13 0 18 24 19 20 23 26 24 27 41 24 13 31 17 24 31 37 13 17 33 19 17 24 17 34 20 23 31 17 23 20 0 13 24 24 21 17 22 16 27 17 37 17 20 20 10 38 17 17 27 49 14 14 31 16 23 17 20 20 24 29 13 27 27 20 17 12 3 31 11 36 20 16 24 17 24 18 7 36 19 38 34 20 3 25 23 30 17 17 28 10 14 23 9 30 24 35 27 17 19 27 23 21 24 23 20 23 20 23 14 13 21 16 24 21 20 20 35 20 31 24 30 24 15 24 19 12 16 36 13 31 45 21 14 37 31 13 24 24 34 9 13 33 24 21 20 27 16 49 9 24 16 23 21 17 30 15 17 38 23 17 17 27 23 37 23 19 16 23 17 18 20 20 17 17 28 14 17 23 20 13 41 13 21 19 16 35 21 29 20 24 26 16 14 17 17 17 17 13 34 31 20 19 30 30 19 13 17 10 34 21 20 27 14 22 10 24 10 6 17 37 14 28 16 9 27 39 17 14 30 18 27 9 37 23 14 24 26 27 31 30 20 34 10 30 10 23 34 31 38 24 14 9 17 27 21 30 20 7 10 10 27 17 13 27 17 23 19 27 14 16 21 27 27 20 27 21 26 21 17 27 20 30 19 32 16 31 24 14 30 27 26 24 14 38 24 23 29 14 17 16 27 24 20 28 21 20 34 10 16 31 28 7 17 35 31 16 13 20 24 17 20 20 14 30 17 21 10 30 13 28 13 17 24 24 17 19 20 10 21 24 24 14 12 33 20 24 32 27 20 13 42 6 33 41 16 23 27 25 24 21 35 28 27 14 31 10 22 21 27 30 21 38 24 24 20 21 10 35 25 17 24 12 17 30 7 6 19 35 37 10 27 24 17 20 13 23 26 7 25 17 20 10 40 37 20 8 19 27 14 21 21 16 27 10 14 23 34 15 14 13 13 23 3 14 24 24 37 35 23 23 20 17 20 55 17 14 20 13 14 17 20 31 10 26 17 27 23 24 24 31 35 14 28 35 30 30 14 26 13 30 19 7 21 19 20 10 34 24 21 10 30 16 17 27 27 13 17 17 26 10 24 10 10 26 17 34 21 20 26 10 37 24 19 16 31 38 13 10 20 24 15 20 23 24 28 29 10 41 24 13 14 27 16 16 27 26 24 44 20 13 27 20 24 13 10 9 20 17 14 25 17 20 26 13 23 34 23 35 38 26 14 13 16 17 23 23 16 17 20 23 21 27 13 12 3 34 23 25 21 9 13 22 13 27 30 13 13 6 16 17 37 26 9 33 23 24 39 20 10 16 16 17 20 16 9 24 13 41 20 27 34 24 17 42 27 35 21 34 17 27 10 23 17 34 26 34 20 31 26 14 40 13 30 10 43 34 34 10 34 17 16 26 20 28 30 13 27 20 16 33 20 30 17 13 28 24 10 23 24 31 26 23 27 24 41 27 24 27 34 37 17 16 10 30 21 14 17 13 24 20 37 27 23 16 12 9 23 27 22 20 24 13 16 21 19 17 38 37 35 24 21 19 30 37 16 31 24 24 26 24 16 35 23 27 38 20 17 34 17 33 17 38 33 23 23 23 20 27 24 31 17 17 36 20 30 10 14 17 7 17 27 15 7 16 21 27 21 17 45 27 10 44 29 23 31 27 14 14 20 23 17 16 27 17 20 24 20 20 23 16 30 31 27 27 34 38 40 22 20 27 33 16 17 17 19 23 34 38 26 20 30 33 42 23 28 43 28 28 12 13 24 17 17 13 6 22 34 9 30 17 31 9 27 20 34 6 21 33 19 9 27 31 20 16 17 22 14 13 19 31 24 29 31 30 17 24 20 16 21 24 23 18 30 27 23 14 3 10 13 24 33 10 27 20 20 17 35 26 24 13 21 23 31 28 17 34 10 31 7 27 10 28 24 9 31 24 17 23 19 34 21 19 31 31 20 21 21 20 31 17 23 16 23 27 32 20 16 6 29 37 20 24 27 30 27 30 23 10 34 19 16 27 43 24 20 13 15 6 19 23 23 20 27 26 16 14 27 20 13 33 16 28 31 27 26 27 17 16 35 20 27 13 17 34 35 21 14 24 7 13 17 21 20 10 27 17 41 23 27 7 13 23 23 24 16 37 13 7 7 23 31 20 26 41 37 39 3 16 31 7 26 21 35 27 17 21 14 3 24 13 38 10 17 24 21 17 33 6 34 38 20 24 16 41 9 10 42 16 13 17 30 26 19 21 24 38 27 30 28 23 23 30 20 23 37 24 31 21 23 21 14 14 21 17 24 31 17 17 27 23 14 21 27 38 14 27 17 10 23 35 24 24 20 13 14 23 27 24 16 24 12 29 47 14 20 16 17 23 19 25 13 15 24 34 23 13 27 7 10 23 24 24 16 12 20 26 38 17 9 20 37 14 28 10 20 20 33 20 35 3 24 14 10 31 10 6 10 13 44 7 13 31 24 13 13 24 37 28 19 20 27 23 20 43 30 27 27 16 12 9 27 42 42 19 16 26 9 25 24 24 29 33 23 20 31 21 19 14 13 20 7 24 24 19 16 16 31 44 31 15 33 9 23 17 7 19 21 16 38 33 16 10 20 13 17 37 13 24 10 10 21 3 37 27 25 6 20 18 19 47 24 26 17 21 16 0 14 14 21 20 14 34 27 30 30 14 19 32 45 26 17 24 0 22 31 27 20 17 27 17 47 41 23 3 16 27 31 6 3 17 13 20 23 33 17 20 16 13 31 17 24 24 20 34 26 26 10 14 17 31 20 9 28 20 19 20 10 27 20 28 25 13 10 31 27 3 0 20 19 23 24 17 23 23 20 27 24 20 20 27 24 17 28 6 24 20 33 31 21 16 21 28 36 30 38 33 31 25 24 19 12 38 33 20 17 14 37 31 20 10 35 14 20 24 27 6 26 13 17 20 31 22 13 31 24 27 17 44 17 22 27 22 17 31 31 20 27 16 17 20 18 25 27 16 7 13 17 30 29 31 38 40 20 20 17 23 37 16 44 20 24 19 20 22 20 14 38 20 28 24 13 13 23 37 35 21 30 16 27 17 16 21 23 24 23 19 27 42 35 18 24 22 16 41 7 44 23 30 24 16 24 25 17 22 24 27 25 24 16 10 3 31 23 24 16 31 16 16 20 22 15 24 28 13 23 26 26 20 21 23 20 20 20 19 10 27 24 28 17 17 24 24 17 13 10 16 20 28 17 23 20 27 16 35 28 16 12 23 34 9 7 13 13 34 14 12 21 21 20 16 21 22 21 16 30 31 27 14 16 31 26 30 27 31 17 8 13 13 14 20 20 24 20 24 17 29 31 14 31 26 31 28 17 3 16 29 21 24 27 9 26 13 18 27 14 23 25 37 36 13 14 19 27 6 19 23 30 31 26 28 24 13 20 35 23 20 24 20 29 14 24 26 38 24 10 20 28 21 19 35 25 16 24 31 21 34 34 13 23 10 23 20 23 21 37 20 40 16 37 12 38 3 22 10 30 20 13 23 24 20 23 24 22 16 25 7 24 30 24 28 15 24 20 20 14 20 28 27 31 24 19 26 20 17 15 10 20 20 24 23 34 7 34 30 30 27 6 13 20 12 24 27 24 21 17 27 17 20 27 17 14 24 0 20 23 27 34 17 41 16 20 12 24 17 27 27 6 20 31 24 12 11 36 16 12 33 20 23 20 16 11 21 20 14 20 23 10 13 20 31 14 26 23 27 27 14 30 12 20 33 23 10 27 10 26 20 23 33 18 6 38 22 14 14 7 41 28 20 0 17 13 34 13 16 21 27 13 41 30 27 10 24 27 13 30 21 17 14 13 21 21 26 16 17 16 25 52 7 16 23 21 27 21 14 20 38 26 37 21 28 24 19 17 25 37 31 20 14 10 28 13 30 9 27 18 10 13 20 26 21 13 24 23 29 17 21 19 21 20 17 13 27 17 27 20 28 31 34 27 30 24 17 29 28 14 20 24 27 10 14 24 13 34 27 41 25 26 34 13 16 21 14 17 17 6 17 14 22 29 31 20 38 17 28 16 16 23 30 17 14 24 17 14 21 10 30 21 20 13 31 29 16 20 6 17 23 17 21 28 20 13 20 22 26 19 24 24 16 24 38 24 17 23 14 17 17 27 23 33 27 20 20 13 27 27 24 30 20 34 17 38 14 10 27 11 20 20 19 15 24 23 28 17 10 30 13 10 10 24 38 28 17 20 16 16 34 26 13 10 34 26 11 20 20 24 24 31 31 14 22 21 13 12 14 21 31 37 34 34 24 16 11 24 19 16 23 20 37 23 21 35 20 19 23 14 23 34 17 37 27 28 35 17 26 24 23 21 16 19 31 28 12 23 27 24 17 31 10 27 28 24 32 7 14 23 29 21 19 24 26 25 30 28 17 21 25 17 30 11 27 27 17 31 27 20 49 13 13 35 20 30 17 15 31 22 17 30 17 20 16 17 15 29 24 13 32 10 16 13 29 17 17 13 16 28 18 27 27 23 15 13 25 10 14 28 13 27 28 14 16 35 16 20 16 7 18 32 24 17 13 37 16 19 17 31 32 19 20 10 23 16 13 17 21 31 17 20 22 7 31 20 23 13 12 21 21 16 9 28 38 37 10 13 31 34 24 20 20 30 41 28 15 40 37 30 26 23 14 26 27 17 22 26 10 31 31 17 24 29 16 30 16 13 26 13 28 48 27 9 23 14 9 27 13 15 19 34 24 10 41 33 20 27 27 15 26 20 24 16 10 27 10 13 16 34 21 31 28 24 16 17 17 19 17 17 17 0 31 14 14 23 40 27 24 21 9 17 16 27 19 28 27 27 13 37 26 3 49 38 37 32 21 29 20 10 27 17 34 17 24 20 20 24 23 36 26 31 27 24 20 7 17 16 24 23 24 23 44 30 21 38 20 24 13 7 21 24 10 27 16 6 45 33 30 17 27 17 24 45 17 17 23 7 29 17 23 30 16 24 27 10 23 20 47 18 3 17 16 21 13 21 10 24 17 26 24 24 33 24 17 13 20 20 34 9 27 14 34 27 20 27 14 13 36 21 30 17 36 23 27 21 11 27 24 16 22 31 17 10 7 21 3 13 17 21 17 20 13 27 14 30 26 27 26 10 36 20 17 16 38 13 17 19 31 21 24 29 41 20 10 34 31 14 31 18 16 20 38 27 7 13 27 21 27 13 22 16 23 20 17 18 23 14 24 16 34 31 19 26 20 9 26 24 24 13 31 31 13 31 20 17 17 14 16 19 3 17 24 10 38 27 17 17 23 45 21 24 24 33 7 31 17 25 37 10 10 14 21 20 17 21 17 10 17 22 38 18 10 10 21 20 12 26 17 12 17 20 23 23 34 20 38 10 23 38 27 27 27 40 16 21 15 20 24 20 27 24 23 16 20 17 10 13 17 13 0 20 19 31 17 14 17 25 27 23 13 38 31 41 28 27 27 30 10 17 23 26 10 17 30 14 20 14 23 9 20 7 16 28 13 13 31 27 22 17 25 27 13 30 19 31 20 10 22 9 37 34 10 32 10 19 13 35 17 30 16 31 17 37 23 33 25 20 38 23 26 24 20 21 24 20 27 19 30 36 27 27 48 13 26 23 24 24 22 9 19 10 13 30 27 27 20 37 20 22 27 46 21 14 37 24 13 30 24 19 9 34 19 20 27 16 21 41 6 28 49 12 24 24 28 22 3 24 20 28 14 26 19 12 27 23 13 14 13 14 24 10 17 17 31 7 21 17 13 27 35 34 24 37 27 24 10 25 31 23 23 44 14 20 24 31 13 12 51 10 20 13 33 20 24 35 16 13 16 17 25 24 13 27 17 10 9 9 17 22 19 14 9 34 24 17 24 37 21 45 16 7 6 14 6 14 24 24 17 24 20 17 25 17 14 21 27 14 17 18 30 21 16 12 28 20 31 31 20 41 40 16 23 21 17 21 42 21 16 20 24 24 28 31 35 23 9 10 31 10 22 19 26 13 17 28 0 34 30 19 21 27 16 16 28 17 20 16 33 19 13 17 24 20 27 20 17 31 36 27 33 21 23 17 23 20 27 13 21 9 21 27 21 24 31 17 19 19 31 31 22 10 16 20 7 22 23 6 24 17 22 30 45 27 17 16 16 20 30 7 24 13 14 6 10 35 14 27 7 16 16 35 30 13 35 19 19 23 23 27 19 3 13 31 24 23 7 22 24 27 25 10 37 15 17 23 19 27 31 13 37 21 28 17 24 29 20 23 18 42 27 29 20 9 23 10 20 23 18 37 27 29 24 24 23 21 31 13 24 24 30 24 21 31 26 24 7 19 24 14 21 14 27 9 27 20 36 29 20 23 17 2 10 45 16 23 20 24 19 29 15 28 27 20 20 9 27 13 24 18 21 20 17 24 27 34 7 35 19 27 29 23 21 14 26 32 24 34 28 16 36 30 20 13 0 20 24 24 17 31 10 12 3 20 29 17 23 19 23 31 19 16 23 20 25 20 21 9 17 24 14 10 9 20 37 28 10 26 21 19 19 22 33 22 24 13 24 16 7 43 23 24 21 31 9 24 13 23 20 31 31 24 31 14 23 13 41 20 13 31 33 27 28 21 28 20 37 14 13 16 16 23 28 20 27 24 19 28 23 18 30 14 23 25 25 13 10 34 0 17 22 37 23 10 9 21 23 27 30 29 20 27 13 20 10 3 28 17 21 7 17 27 34 16 16 14 10 35 0 13 24 38 29 16 31 24 24 20 21 12 17 23 24 13 35 26 17 19 24 21 23 24 23 36 47 28 27 31 23 21 10 38 23 22 20 23 14 23 19 33 34 17 24 16 17 14 24 16 13 35 17 27 30 9 39 30 27 22 26 29 20 23 27 13 10 9 6 14 11 24 16 22 23 19 10 19 18 20 9 10 16 16 23 27 10 13 18 10 15 27 14 23 20 10 10 33 26 27 13 14 20 34 28 10 27 10 7 27 12 20 20 24 20 20 21 20 24 23 34 24 17 9 17 23 6 26 38 27 31 6 20 24 13 25 17 21 7 35 31 13 30 14 26 21 16 37 31 20 27 20 17 17 6 9 13 16 34 37 26 11 20 16 16 28 28 21 16 34 31 45 10 9 18 22 23 37 13 10 48 41 28 21 30 24 34 24 26 20 16 24 20 14 9 21 23 16 34 24 16 9 13 0 38 34 30 25 27 28 30 3 16 20 27 21 32 20 18 20 21 37 24 31 10 31 10 13 29 31 31 9 17 17 28 22 21 24 34 20 24 13 24 23 23 10 31 19 22 13 20 20 16 27 17 26 31 20 19 14 20 13 26 13 26 22 27 30 22 7 19 17 27 20 23 13 13 28 16 19 21 24 16 24 17 31 13 21 24 20 22 27 17 23 10 17 24 24 41 17 9 40 10 17 15 24 7 23 13 19 21 27 20 31 24 27 19 13 16 17 27 13 17 23 18 27 27 7 34 17 10 13 10 27 15 34 6 37 17 24 42 29 7 27 33 6 24 20 24 24 19 16 23 13 30 17 22 38 18 21 27 17 22 26 30 16 21 16 34 28 37 14 21 10 31 31 10 23 14 24 16 15 24 13 15 20 25 10 10 15 14 19 17 17 21 38 20 27 41 17 34 17 31 16 24 20 40 27 3 17 27 27 17 26 20 31 20 18 39 31 21 24 17 27 21 17 30 38 17 23 30 34 27 20 28 27 27 26 23 31 20 20 10 27 17 17 17 13 16 7 20 24 20 20 13 37 42 12 43 24 17 10 18 13 7 31 13 20 25 35 10 22 34 20 16 42 21 23 31 17 31 7 28 30 31 13 17 17 7 8 31 42 37 16 26 20 24 24 24 34 6 35 13 42 24 16 10 10 17 41 31 20 17 16 14 23 16 24 20 28 23 14 37 20 13 27 35 27 38 27 3 17 34 15 24 20 23 16 24 35 25 17 16 30 20 10 16 29 38 28 16 27 17 27 23 20 45 23 13 30 30 31 10 24 27 30 12 23 23 16 15 27 24 13 34 29 13 10 14 7 33 10 21 20 51 16 9 23 42 10 17 23 20 26 17 26 26 20 21 9 18 26 10 16 21 17 23 21 18 10 35 27 31 3 20 19 28 25 16 20 22 29 22 27 17 34 33 7 17 20 17 20 14 27 27 22 24 26 21 17 19 14 30 7 16 20 21 12 40 20 25 37 14 27 18 27 26 22 26 11 23 26 24 27 27 16 24 24 16 12 34 20 21 3 24 33 7 31 20 24 22 31 24 17 20 14 26 20 23 14 14 27 24 23 26 33 13 10 22 23 12 6 41 30 21 21 17 3 28 21 23 24 23 10 33 33 15 13 31 33 14 14 27 24 39 20 27 23 21 34 21 29 24 28 27 3 21 20 30 16 16 27 20 22 16 38 21 10 6 41 10 19 27 13 22 23 27 13 26 27 20 49 20 10 38 24 20 34 13 30 35 16 41 12 20 23 38 19 26 27 14 19 17 22 30 23 26 3 21 28 9 16 21 33 10 16 37 24 31 7 19 17 15 24 17 24 10 20 15 21 17 26 9 7 27 30 24 26 10 13 40 14 20 36 14 28 31 32 27 9 16 34 24 19 26 23 19 23 20 13 9 17 20 30 20 20 17 17 20 6 38 13 26 28 16 20 14 24 23 6 24 31 20 31 27 38 28 20 20 17 9 16 23 27 24 22 17 26 13 27 10 14 24 23 37 41 29 24 3 39 30 29 20 17 27 37 27 31 28 9 27 38 20 21 16 17 28 16 16 20 41 13 24 24 27 28 27 26 31 24 23 23 30 24 37 20 24 31 3 15 17 20 19 10 34 20 13 28 24 33 27 26 17 17 23 34 27 20 21 20 23 17 30 10 14 24 10 24 3 36 31 49 6 13 17 26 23 14 13 13 20 37 24 23 24 16 18 22 20 31 20 24 14 37 34 23 3 30 14 33 26 20 16 27 23 20 28 29 19 17 17 9 23 14 13 33 28 13 35 25 23 37 17 13 20 19 28 22 24 23 38 31 24 14 10 17 28 16 34 28 31 30 6 31 13 20 24 13 10 33 17 17 26 18 24 25 17 21 30 37 23 20 24 24 7 20 21 28 17 19 13 23 24 21 21 23 15 28 27 20 10 30 17 10 28 17 33 14 17 19 31 27 3 20 13 24 14 38 34 24 19 17 28 16 9 13 24 20 14 14 15 17 31 10 41 33 37 6 6 0 17 17 20 23 17 33 27 21 8 28 15 13 27 24 7 10 37 22 3 23 28 27 17 15 16 27 25 42 17 21 21 42 13 17 22 33 13 16 38 19 24 23 20 26 35 7 30 27 44 24 19 37 28 24 31 29 27 24 30 17 20 7 27 24 27 16 21 6 10 24 10 27 21 18 15 27 17 14 27 28 27 13 30 31 13 24 7 22 24 16 26 38 28 17 14 24 14 31 23 20 27 9 23 16 30 24 25 15 19 38 13 17 26 24 20 6 9 34 17 24 30 34 7 13 31 20 21 27 17 28 30 14 34 35 33 17 20 34 27 13 31 20 21 20 24 10 25 21 20 18 39 20 42 17 27 17 16 24 32 10 20 28 23 21 23 30 26 27 37 20 31 20 17 14 22 13 24 41 30 7 10 21 26 23 24 14 13 24 30 27 10 27 24 13 38 24 21 20 9 30 35 19 26 36 9 30 23 20 20 24 27 31 16 20 20 16 13 28 16 22 29 17 14 27 47 17 23 27 20 17 30 10 16 20 22 9 27 18 27 20 29 24 15 23 17 29 28 12 20 7 23 40 15 24 31 6 13 16 24 24 14 27 17 24 16 24 24 24 33 16 27 28 16 21 10 23 24 24 17 28 21 13 24 24 28 13 31 24 16 24 21 31 24 8 15 26 20 31 34 6 13 10 17 27 30 10 20 28 27 24 30 34 31 15 24 37 10 20 20 19 38 34 6 23 44 23 30 28 30 10 24 17 24 9 28 17 14 13 13 24 24 23 25 29 24 19 17 13 17 24 14 12 3 33 24 24 20 20 24 20 22 30 27 29 34 16 33 24 24 24 24 23 17 26 21 28 21 20 10 34 16 16 6 34 9 21 17 27 26 24 20 34 22 28 10 21 24 6 20 20 34 9 16 24 17 31 31 23 24 28 20 31 31 20 10 23 16 10 13 33 23 20 35 20 7 26 19 27 20 27 17 28 26 28 27 17 20 24 24 26 17 0 27 23 25 24 19 38 36 23 20 34 27 24 17 36 20 17 31 20 16 14 16 21 31 24 6 34 16 24 20 28 16 35 17 35 15 22 10 13 23 21 34 35 13 17 33 14 7 16 27 19 35 30 20 13 20 24 16 16 21 10 10 27 17 34 24 7 31 12 37 44 20 17 24 24 23 21 45 30 17 17 20 20 22 24 20 25 13 16 12 34 30 16 29 15 19 13 17 21 24 24 9 24 30 10 23 17 6 17 27 28 13 34 14 23 35 24 26 18 42 18 24 17 23 6 42 23 18 23 34 10 14 37 13 27 17 20 27 24 34 13 20 31 17 23 17 23 13 27 17 22 31 14 24 19 19 22 27 34 26 20 28 6 19 13 30 38 31 24 31 13 20 17 16 17 24 41 16 16 8 23 28 23 20 21 26 16 27 9 14 6 3 16 20 16 22 23 31 19 21 27 21 19 10 17 38 27 31 20 34 30 17 38 38 24 29 20 16 31 37 17 3 13 26 23 23 18 19 19 24 23 29 26 17 3 25 23 42 23 21 21 30 16 29 6 13 3 16 38 14 15 7 15 16 31 21 27 28 10 20 34 14 24 33 17 30 9 22 10 30 14 10 17 7 16 13 24 17 10 20 28 6 20 14 28 35 27 20 13 24 16 30 9 13 24 30 26 34 27 10 27 14 16 17 17 13 13 17 31 15 0 38 26 10 16 23 25 39 19 24 3 19 24 20 24 10 29 26 16 17 24 19 24 20 10 31 16 10 6 9 10 23 26 28 14 16 41 24 28 26 26 17 41 26 31 20 26 27 13 27 14 13 26 20 23 13 17 16 23 27 10 23 14 21 16 28 23 3 24 17 27 18 10 18 16 20 20 30 31 17 30 15 16 26 20 22 34 14 15 30 17 31 31 23 20 23 29 20 14 18 30 23 28 6 34 34 24 45 21 30 24 30 37 20 17 16 27 23 24 34 31 17 10 13 12 30 34 17 27 20 31 3 17 26 20 20 20 19 17 10 13 24 13 29 18 32 31 23 10 9 19 10 16 17 13 17 23 12 24 16 30 36 13 24 28 15 34 22 13 24 26 24 28 30 22 22 24 17 17 13 17 49 23 22 19 27 20 12 23 3 14 9 23 10 17 10 37 21 13 20 17 26 27 19 24 10 34 11 28 19 34 12 24 24 13 23 16 26 17 17 15 16 27 22 24 28 26 19 9 27 17 14 27 30 28 20 14 13 13 33 12 37 20 14 16 24 21 13 17 17 24 31 36 7 28 31 30 9 17 23 38 17 21 28 17 19 10 9 19 19 12 27 13 14 23 27 17 8 13 9 23 27 33 30 17 20 25 14 24 20 13 33 19 34 7 6 13 20 16 13 10 23 35 13 29 25 27 16 16 10 9 21 23 31 27 17 24 26 17 20 21 27 9 42 20 19 13 20 11 16 23 28 17 25 24 6 24 34 16 17 23 9 24 21 15 16 41 36 25 17 42 10 27 8 19 35 20 24 32 31 31 30 13 26 9 40 6 16 13 12 29 20 16 17 21 24 16 10 31 13 16 17 36 20 14 24 3 24 34 18 33 30 20 17 32 20 20 16 22 33 10 19 31 14 14 17 17 23 32 27 15 21 9 29 19 35 23 33 23 7 20 20 20 14 24 24 17 24 10 21 13 26 31 16 28 7 24 26 27 35 19 36 16 24 27 7 6 17 19 21 17 16 19 12 10 27 34 16 21 27 16 16 31 35 28 23 22 13 30 13 17 16 20 21 17 6 27 24 12 16 12 17 25 27 20 27 31 17 26 7 20 21 24 28 16 24 13 16 17 23 23 7 12 22 13 20 24 31 26 17 28 7 34 17 38 10 27 28 31 24 15 20 17 23 28 13 17 26 12 17 20 13 24 31 13 27 47 9 17 36 21 34 31 16 17 27 27 41 23 27 26 24 17 17 13 23 12 7 10 25 27 24 23 19 17 21 30 27 17 13 13 19 28 33 31 25 24 24 3 17 20 40 22 14 16 20 28 37 17 20 31 23 26 13 17 19 17 18 26 17 24 20 28 35 17 12 20 6 8 23 24 31 23 16 24 23 17 20 13 24 12 14 24 27 13 13 41 20 24 17 27 20 16 10 30 10 17 35 24 20 20 34 34 20 31 23 31 33 6 30 24 26 27 38 13 19 34 7 24 12 21 13 26 24 28 20 20 23 17 17 21 21 15 17 34 30 28 14 28 24 23 21 38 10 14 23 17 26 6 13 23 26 16 20 14 30 24 28 10 10 24 22 24 20 20 42 14 21 19 21 21 28 30 19 23 16 37 7 22 24 7 10 23 14 33 17 19 17 13 26 30 13 40 23 34 34 20 25 10 16 17 35 31 19 13 9 24 13 22 19 20 7 17 20 17 31 18 26 22 31 10 25 14 24 21 27 10 13 15 15 23 34 14 24 20 10 20 26 26 17 28 17 28 40 6 27 13 27 31 24 17 24 17 30 9 13 21 23 21 12 23 14 17 16 13 14 18 40 20 23 27 14 13 6 14 13 19 16 12 23 23 10 27 21 7 21 28 13 20 15 41 16 30 13 20 20 23 23 20 15 20 28 26 23 23 6 27 10 34 38 23 30 17 24 28 27 27 13 23 15 23 33 7 33 33 24 20 28 28 28 7 23 23 29 13 23 6 10 34 27 24 6 13 26 17 17 23 19 31 21 17 27 31 27 20 13 21 27 20 14 14 14 20 20 37 28 20 27 34 27 27 20 28 26 31 24 19 21 24 13 13 20 31 23 17 30 10 11 13 19 14 23 24 22 28 17 14 23 20 14 28 31 33 13 20 13 31 14 18 24 23 10 16 27 24 20 29 30 24 21 20 28 24 27 20 20 13 21 34 13 27 28 16 12 7 20 27 15 17 14 13 19 27 19 23 17 21 34 30 6 27 24 17 30 10 27 27 14 10 23 33 33 19 17 17 27 13 30 27 28 23 16 14 29 13 23 20 25 24 10 13 20 27 16 6 21 15 7 33 10 21 23 12 25 17 30 17 14 21 13 17 28 17 37 17 7 13 20 13 27 14 17 41 16 21 26 20 13 14 24 21 7 13 26 37 31 22 27 23 16 27 33 31 29 9 26 20 17 18 21 17 26 18 20 17 26 33 24 36 27 22 23 17 10 0 34 24 6 10 10 28 5 22 24 19 26 22 13 22 14 37 41 14 17 19 10 17 10 20 16 16 31 14 17 15 31 18 19 23 19 16 15 21 17 28 26 19 15 23 23 20 27 22 26 13 37 20 24 27 13 33 20 31 27 23 13 30 17 33 21 21 28 13 34 24 28 17 34 15 17 23 30 24 32 12 45 20 24 9 9 24 31 10 33 23 21 13 30 21 25 21 19 17 20 17 17 24 13 38 38 26 23 28 27 24 38 28 26 27 26 15 21 17 17 6 19 34 28 7 23 30 10 17 37 38 21 31 24 21 38 17 14 24 28 30 3 35 21 13 34 13 26 34 31 34 25 26 34 23 31 9 33 24 16 31 16 14 14 0 29 9 15 27 17 24 13 14 10 35 6 21 23 15 24 16 26 18 20 26 33 28 27 27 20 28 9 16 21 17 27 17 17 20 9 30 37 37 13 17 13 17 27 35 17 6 17 37 24 21 20 15 30 23 17 11 6 10 7 10 24 22 10 19 24 30 31 22 9 10 14 27 24 23 27 12 20 24 24 20 21 6 17 17 31 35 31 13 17 40 23 36 28 23 13 16 15 24 10 12 35 20 17 17 16 15 6 17 38 24 28 23 34 35 17 19 17 9 3 10 21 27 16 27 23 21 24 16 28 21 18 24 23 27 20 6 21 41 26 24 19 38 10 37 24 23 27 27 31 24 17 20 20 28 23 28 30 7 37 18 31 20 16 16 34 21 19 23 6 10 27 20 16 46 13 27 38 13 27 30 15 27 24 16 28 24 20 31 45 15 21 24 38 30 22 12 10 20 21 23 9 14 31 14 14 16 9 30 14 24 13 33 27 40 15 22 10 26 34 17 27 27 17 17 37 34 34 19 35 12 31 13 33 27 20 24 16 20 18 23 0 22 6 14 23 12 17 17 10 34 24 20 17 23 17 20 38 17 31 9 23 31 26 7 27 6 28 14 27 17 28 30 17 13 27 30 23 27 21 35 13 17 38 21 17 17 24 13 16 9 28 24 13 28 23 20 19 28 10 28 10 27 20 20 37 10 34 9 21 17 38 13 38 12 23 21 44 26 20 19 23 35 21 20 23 30 14 27 20 23 30 23 36 33 31 16 13 13 17 27 32 26 24 34 20 13 17 13 17 13 24 49 20 27 38 23 6 10 28 24 20 10 24 19 34 28 0 30 17 27 34 14 9 17 34 11 17 34 24 27 24 31 23 44 20 13 16 23 17 30 18 19 17 20 10 27 20 26 19 28 29 3 17 19 18 23 23 37 20 20 31 10 20 41 21 24 31 26 24 35 29 27 30 30 16 17 9 19 37 31 23 24 21 14 19 24 19 38 16 10 27 13 17 20 6 28 13 16 28 7 26 23 20 14 31 21 17 9 33 17 34 20 21 24 16 20 10 14 10 20 25 24 20 15 7 21 13 22 28 27 20 27 10 34 22 17 49 20 12 19 16 13 24 18 25 20 21 24 28 19 21 24 20 20 28 31 14 20 18 12 27 17 31 19 3 24 24 41 37 17 3 17 21 20 3 31 20 20 37 10 25 27 33 27 20 14 30 10 16 27 20 14 41 37 17 34 10 20 31 27 27 30 14 30 13 41 21 10 29 22 19 35 10 19 38 24 33 20 35 33 26 31 19 20 9 20 10 3 20 21 6 17 42 27 25 23 30 16 23 28 24 29 13 16 30 27 31 25 26 7 10 24 24 33 28 20 24 12 14 23 20 31 10 24 14 20 20 20 9 10 23 21 25 27 31 17 17 24 20 23 19 32 16 29 11 17 34 10 7 17 23 13 18 13 36 16 24 31 16 13 9 17 31 27 13 14 17 38 19 16 14 19 16 35 26 20 20 20 17 17 28 20 20 10 26 30 27 15 36 31 7 20 41 34 23 7 19 29 9 20 17 23 23 14 26 29 18 10 13 24 16 24 27 20 24 6 24 16 30 27 16 37 10 16 13 21 13 23 30 21 21 23 18 16 30 13 21 17 22 6 23 17 20 31 18 52 25 21 35 9 20 30 24 3 16 41 24 30 16 14 26 40 33 17 13 27 19 23 16 17 17 16 20 17 42 3 19 26 34 44 31 30 28 21 13 14 20 27 24 21 3 13 24 27 16 40 28 6 28 28 13 35 40 24 13 45 22 27 13 23 3 20 37 31 27 20 26 17 26 29 31 20 17 45 26 24 19 13 30 21 17 10 17 23 20 23 40 12 18 10 27 23 17 25 26 23 17 14 6 15 10 28 14 13 10 24 23 23 17 37 27 24 25 23 26 13 14 20 21 10 19 26 16 10 15 14 9 10 20 34 21 41 27 27 16 25 30 20 29 24 17 14 31 20 13 10 17 28 27 27 38 13 16 19 3 24 15 30 13 3 22 31 24 19 13 17 14 23 45 17 10 28 31 10 7 38 31 9 40 30 24 20 30 12 24 35 12 24 41 20 24 14 9 24 26 7 37 20 32 30 29 14 48 35 23 22 24 15 23 24 10 25 14 26 17 28 30 41 38 13 33 17 15 30 17 17 27 27 13 28 13 30 17 13 21 24 13 13 10 24 16 24 19 14 37 26 18 24 14 14 24 22 17 20 31 33 24 18 32 9 20 14 21 7 18 14 38 17 30 23 13 31 13 19 13 20 17 13 21 24 13 14 29 44 23 21 13 17 20 20 19 9 29 27 10 20 23 26 17 19 13 23 28 16 27 17 24 31 13 23 32 24 19 24 14 38 34 33 23 20 30 6 14 20 28 38 13 19 23 16 17 3 26 20 12 9 16 17 42 34 23 24 28 20 37 9 35 31 17 30 30 24 17 27 23 27 23 13 24 20 3 30 36 27 10 34 20 7 10 19 31 17 16 24 28 24 30 10 10 17 20 44 14 44 13 30 16 30 24 17 0 9 14 30 30 27 20 23 11 19 30 37 19 14 24 20 17 13 27 40 10 23 20 26 23 16 18 19 14 24 29 19 27 14 23 14 26 27 20 32 25 16 37 23 21 27 20 14 6 13 21 29 17 19 23 30 22 28 23 17 21 16 21 14 16 27 24 23 14 24 13 21 13 44 13 13 6 34 25 46 13 34 46 10 13 16 9 12 31 22 34 10 6 21 20 27 16 13 34 42 0 24 23 12 12 16 16 9 45 17 26 27 13 7 28 9 17 31 23 36 14 16 20 24 16 7 19 37 10 20 17 17 23 27 15 20 22 17 18 21 27 14 6 28 12 24 24 31 24 22 26 18 38 24 13 8 7 30 16 27 13 27 33 15 14 8 30 23 17 24 26 3 17 10 24 20 31 6 44 34 17 24 34 19 19 22 14 26 20 28 16 9 10 20 21 17 0 27 26 37 20 19 20 17 20 9 20 38 16 16 30 24 24 17 24 27 34 15 31 20 13 40 23 33 42 26 19 24 23 23 38 37 24 37 27 17 24 20 22 41 17 13 10 10 43 17 14 13 23 10 31 16 19 20 27 22 23 21 31 20 17 23 30 29 34 28 14 13 7 17 28 17 20 28 13 17 9 31 10 20 28 20 20 26 38 24 19 27 9 14 35 24 10 21 19 31 17 17 17 7 28 26 28 10 20 27 22 17 17 13 21 24 31 21 13 35 42 20 21 23 20 20 19 27 23 24 38 23 20 23 6 20 21 31 28 17 21 12 17 13 20 29 20 13 22 34 17 35 40 23 16 34 31 20 45 13 27 16 37 24 10 15 12 14 20 27 31 20 17 25 20 13 16 34 21 20 9 20 21 22 17 35 19 21 24 24 21 36 0 16 6 27 21 13 19 20 10 33 20 14 38 10 9 17 21 17 9 22 24 21 10 9 21 27 13 23 20 27 30 29 21 6 28 19 24 31 23 23 19 28 7 19 20 41 20 10 31 16 24 17 20 17 24 10 24 21 13 34 17 23 17 13 24 31 27 20 11 20 27 34 29 14 29 22 23 27 13 23 16 31 41 16 16 17 32 23 3 23 24 23 25 12 23 12 13 23 19 14 20 16 34 13 24 34 22 21 19 10 13 32 17 24 26 20 20 26 17 24 14 6 10 35 13 21 27 22 22 10 24 22 13 35 12 21 16 17 21 30 14 22 2 16 17 22 24 31 30 16 33 20 16 24 7 24 27 19 26 17 6 30 15 27 24 17 14 20 20 3 31 23 27 24 17 35 40 21 17 17 22 19 14 13 23 17 17 38 21 30 23 13 16 16 24 18 23 17 21 28 28 3 20 21 36 10 30 28 25 9 20 13 34 24 20 19 20 23 13 10 34 22 17 24 9 31 17 10 23 23 10 6 23 14 24 27 23 29 28 26 21 19 15 21 31 16 14 17 35 14 17 25 31 20 13 23 13 20 13 23 24 41 10 17 9 28 22 24 20 20 28 24 20 24 27 17 13 19 23 38 34 27 17 16 17 14 21 7 12 20 13 17 13 35 42 17 7 13 20 16 24 23 19 9 21 13 14 23 13 21 31 3 16 17 24 37 24 13 24 20 27 28 16 19 24 17 21 7 20 30 23 30 16 37 23 20 17 18 14 24 17 6 18 14 17 19 23 24 10 20 24 24 19 22 22 14 14 23 17 31 10 11 27 31 13 13 23 28 31 17 17 27 20 16 23 17 27 37 30 13 37 13 22 17 14 31 27 34 10 17 13 21 16 37 22 30 26 3 17 34 23 31 36 7 34 23 24 17 21 20 17 28 24 30 31 30 30 19 21 16 7 23 28 22 35 14 27 24 20 23 16 20 13 44 13 24 20 15 28 14 19 26 34 37 16 17 27 16 16 32 12 23 20 26 28 10 14 17 34 24 17 34 17 30 42 37 42 21 31 20 19 24 28 21 38 20 17 31 6 21 12 31 33 13 20 13 25 24 28 12 23 21 24 20 42 24 27 14 20 28 10 21 37 17 38 17 24 27 31 17 23 30 17 7 16 27 27 14 10 17 30 25 43 27 31 18 24 17 41 24 6 35 16 20 31 31 31 17 16 13 34 34 27 16 24 27 19 20 34 27 21 16 13 26 36 23 21 13 17 9 20 13 24 31 35 20 23 10 34 10 10 17 23 20 17 28 24 38 17 28 23 16 23 25 24 10 21 30 45 22 21 35 27 22 10 35 20 21 26 34 17 13 31 17 20 10 17 14 20 31 15 42 21 17 11 31 38 24 13 20 23 27 6 21 30 17 6 17 28 27 34 17 23 16 20 20 17 22 23 16 23 21 14 19 12 23 29 17 17 10 31 34 19 17 13 41 21 17 20 23 21 27 14 10 20 27 17 31 3 19 10 31 20 24 14 20 23 17 28 19 17 26 9 23 14 27 24 27 27 28 31 27 27 19 34 19 30 31 16 35 23 20 17 23 17 7 27 24 24 38 27 13 19 37 42 45 13 24 22 24 17 17 44 38 36 9 17 25 33 10 23 23 27 17 30 14 24 10 28 26 23 21 17 20 20 18 17 13 17 24 21 15 38 27 20 31 13 20 27 37 24 13 14 14 27 24 24 17 20 10 21 17 17 35 10 35 26 10 17 27 20 30 30 18 21 14 26 27 28 24 25 31 16 34 13 20 6 16 20 19 23 28 34 15 6 10 23 37 35 31 34 17 12 10 16 3 17 20 21 23 13 27 15 22 30 6 20 19 16 13 6 15 24 14 10 15 13 27 13 34 3 10 7 17 21 3 20 22 16 22 29 24 17 24 27 34 21 7 12 17 20 6 21 19 14 13 27 30 26 27 34 31 16 24 20 24 17 13 26 9 17 9 23 7 26 34 17 20 14 32 30 52 8 10 24 30 13 6 17 21 17 17 11 27 17 19 7 10 10 10 31 13 31 16 14 23 34 30 17 30 9 28 22 17 48 10 20 21 20 13 16 23 17 17 13 17 31 23 9 23 17 31 14 16 20 31 6 23 20 21 17 15 17 23 3 34 18 14 31 20 17 25 23 24 26 20 27 28 20 27 23 13 12 17 24 6 37 27 22 6 27 10 33 14 19 27 10 23 20 3 31 30 20 6 20 22 12 31 10 28 9 22 20 13 19 20 24 17 13 16 40 35 33 12 17 22 20 28 16 27 20 6 27 38 21 32 23 24 26 27 16 26 14 30 16 27 9 23 28 27 7 19 37 29 20 31 28 20 16 40 38 21 9 34 33 16 31 10 23 24 19 24 21 27 24 22 16 16 43 9 21 12 31 14 16 35 15 17 24 26 23 23 17 17 31 3 13 20 17 31 14 38 20 10 14 35 7 9 23 17 35 27 7 20 12 17 44 20 31 23 17 19 17 28 24 21 24 24 17 12 6 17 31 28 9 17 38 12 30 13 27 21 17 28 13 21 26 13 6 12 20 3 23 19 6 24 25 13 14 33 23 28 27 37 17 28 16 15 24 14 31 20 37 37 20 27 35 27 23 24 22 23 27 24 9 13 24 20 13 34 37 22 13 17 31 24 29 21 9 27 23 10 46 26 23 16 27 24 21 26 34 21 13 14 17 24 18 17 27 10 27 14 27 20 14 17 30 16 10 35 17 33 22 24 23 34 14 19 17 44 42 16 23 17 31 24 16 31 14 27 41 20 27 10 23 20 10 10 20 44 30 16 6 35 27 10 43 14 20 41 19 24 17 24 20 24 10 22 10 20 20 24 17 14 16 27 6 40 6 5 21 28 30 14 17 31 20 20 23 14 13 10 16 14 9 30 31 13 37 3 24 20 34 30 21 24 29 0 27 14 37 18 13 16 23 23 25 15 25 20 24 23 37 21 21 20 22 6 17 20 10 21 24 29 13 24 27 17 30 35 23 33 26 20 27 33 14 10 13 20 31 19 21 28 26 6 15 27 19 20 23 35 28 10 10 6 9 24 20 21 24 16 21 21 16 17 16 23 30 20 20 26 30 21 38 3 28 13 10 17 17 24 23 19 27 19 14 33 6 31 24 24 23 34 27 13 20 20 23 30 14 13 20 26 10 19 17 7 22 26 13 21 19 17 19 29 17 7 20 20 19 26 27 19 23 20 20 27 23 28 28 10 30 10 13 13 38 20 20 34 21 28 23 25 25 14 8 24 31 13 14 19 27 23 34 20 24 31 23 31 28 28 23 27 20 26 24 38 25 17 10 16 14 25 35 34 9 31 20 17 34 19 31 23 14 20 23 12 31 6 3 13 16 27 14 28 27 21 24 21 23 27 6 23 37 24 21 20 26 13 21 17 36 20 17 21 27 17 36 31 10 23 35 23 20 20 41 37 35 20 20 45 41 23 24 13 38 28 33 14 26 7 24 31 3 20 31 20 28 17 17 14 21 14 19 17 30 17 23 32 16 20 20 14 33 23 27 15 6 20 24 10 41 13 29 24 34 31 30 17 10 24 13 20 21 27 10 24 23 26 41 17 20 13 13 21 20 13 27 31 24 38 30 27 13 27 12 13 20 20 16 22 6 0 34 24 10 16 37 10 23 21 37 20 17 33 20 17 24 24 16 17 16 7 27 20 20 17 27 10 10 24 28 15 8 26 10 26 22 10 24 21 26 6 6 23 28 17 18 21 23 3 21 16 23 30 12 6 35 6 32 27 16 27 10 20 27 22 20 23 16 3 16 41 12 13 24 19 10 31 13 12 25 20 17 13 12 17 17 28 14 7 28 31 24 19 17 33 27 25 39 7 14 14 30 12 23 9 26 28 13 20 20 16 17 27 35 27 31 20 9 38 28 23 20 21 4 34 24 13 15 19 16 17 37 34 17</t>
-  </si>
-  <si>
-    <t>EXN(0.453061666423822, 20.910200475219987, 3.984640368175403)</t>
-  </si>
-  <si>
-    <t>18 20 25 31 22 24 26 20 22 18 19 20 22 23 16 30 26 26 27 25 28 20 17 20 18 23 28 16 24 30 25 26 22 26 22 18 20 23 28 22 16 28 20 21 24 28 19 19 31 14 29 31 24 16 16 19 25 28 22 27 22 18 30 25 17 24 23 23 30 27 23 20 23 27 17 25 31 22 29 21 16 20 22 24 28 14 23 20 15 20 34 24 21 25 19 21 25 19 25 30 24 18 22 19 23 22 22 18 29 21 22 26 23 20 18 25 26 19 19 18 30 18 19 26 23 29 22 22 20 20 30 17 15 14 24 17 29 25 14 22 28 20 19 28 32 23 19 27 30 18 23 22 17 22 23 28 15 31 22 26 26 26 21 21 31 29 25 22 31 27 25 27 30 23 23 25 19 22 23 20 21 20 21 14 21 25 30 19 22 28 21 27 18 18 32 17 31 23 28 27 13 22 21 21 23 28 24 17 29 22 26 27 15 27 25 20 28 19 22 26 20 17 27 25 24 27 16 28 28 28 21 21 28 26 25 20 25 19 21 26 24 18 15 24 23 19 34 24 23 21 19 17 18 26 26 27 15 20 26 27 20 27 17 16 24 20 35 20 21 31 16 19 20 27 27 19 23 19 26 17 21 22 19 27 24 19 21 25 28 18 21 19 18 29 25 26 26 22 22 19 23 20 20 27 25 30 24 21 25 19 21 21 24 23 27 20 27 22 22 18 19 20 27 25 18 20 22 21 25 18 28 22 18 20 22 26 18 13 27 24 22 11 21 14 33 28 22 24 19 20 21 19 21 30 25 25 26 25 29 19 25 30 22 23 21 30 24 19 20 19 24 27 25 17 28 14 22 18 19 28 21 18 18 24 22 22 23 27 27 27 31 23 13 24 23 19 28 18 25 21 28 20 25 24 22 13 14 23 25 19 32 17 30 19 26 20 12 15 28 26 27 23 26 16 25 26 20 22 23 23 19 22 14 21 27 21 23 24 31 25 15 18 23 35 24 20 17 29 25 21 23 17 20 21 23 20 23 23 19 20 22 27 21 26 13 25 17 26 14 28 20 26 23 25 27 23 30 22 26 19 23 26 24 19 18 24 30 20 29 14 27 23 30 25 20 22 19 33 20 21 22 16 16 29 33 20 25 25 24 22 20 30 20 26 23 16 18 20 13 21 20 16 24 17 18 21 28 16 24 24 25 20 25 25 17 22 19 21 24 29 15 26 21 18 28 21 23 22 24 36 27 21 26 24 19 17 24 24 22 20 30 29 19 35 22 27 22 25 23 26 28 23 23 16 20 19 31 23 20 25 23 25 16 17 23 20 21 16 33 16 16 23 22 22 27 21 17 20 21 32 19 23 22 13 23 19 20 21 21 24 27 26 27 16 22 13 21 25 32 30 19 20 15 18 30 19 22 27 23 20 25 23 21 27 29 23 23 21 23 15 27 15 19 17 26 26 20 24 27 18 25 23 16 25 23 17 23 23 17 15 27 25 22 23 16 25 28 21 23 30 22 37 20 21 26 36 19 22 17 31 22 26 12 22 31 23 24 27 19 27 22 25 24 22 25 24 20 26 19 20 22 29 26 24 16 18 22 35 19 18 15 20 23 27 17 33 25 27 22 19 19 25 21 21 24 28 21 23 22 27 14 22 21 14 19 17 33 20 26 25 26 21 31 23 22 23 23 27 14 24 23 22 26 25 23 31 17 14 21 20 21 18 13 20 17 16 22 20 25 31 21 26 19 19 17 25 28 17 16 26 19 23 17 24 23 28 20 25 28 24 15 28 23 21 19 26 19 27 24 26 20 23 26 20 24 19 17 31 18 25 26 25 23 27 17 17 15 25 16 15 28 26 21 24 23 29 21 22 28 18 15 12 27 24 20 16 20 21 11 21 18 17 22 23 20 13 24 24 24 23 29 29 26 22 35 22 21 21 22 20 30 26 19 24 24 29 21 27 14 25 23 26 20 23 27 26 25 23 16 17 17 22 25 17 16 26 25 26 20 15 24 16 24 23 19 18 28 24 31 17 28 27 24 27 27 22 20 26 27 17 27 26 22 28 17 21 27 30 24 20 22 27 27 24 26 20 23 16 26 18 21 31 21 22 27 26 32 24 15 22 16 21 21 28 16 31 24 24 19 30 27 25 27 24 22 27 22 23 26 22 20 18 22 23 21 16 30 26 27 19 29 24 32 22 23 31 24 28 21 22 27 24 32 26 21 13 24 29 19 23 21 28 26 27 21 20 24 23 24 27 19 26 23 23 21 22 16 21 18 27 24 24 27 29 8 28 18 23 17 18 21 23 21 29 36 26 28 22 22 24 23 26 14 26 27 22 25 20 18 22 19 23 20 21 15 19 17 29 35 23 23 21 23 17 27 28 27 15 24 16 17 20 28 20 12 23 20 27 23 18 23 19 28 24 21 33 23 22 18 21 22 23 22 23 27 26 27 19 33 19 23 22 25 20 21 25 23 24 25 24 24 22 31 15 23 28 15 29 29 19 20 15 29 21 25 22 30 26 24 21 28 21 19 20 18 25 28 21 23 28 23 20 24 28 20 24 23 22 23 28 25 28 29 24 28 25 21 14 27 23 16 23 18 20 30 17 22 31 21 26 29 24 15 16 20 29 25 18 24 15 14 19 22 20 22 23 16 21 25 32 22 19 14 27 33 27 23 19 18 17 20 19 20 18 22 25 19 24 23 29 26 23 25 24 24 18 19 24 19 35 24 20 21 25 26 29 17 27 23 25 19 25 17 27 26 23 29 21 23 25 21 15 27 17 30 20 31 31 24 25 28 16 22 28 20 22 25 18 15 22 23 25 12 23 23 24 20 24 20 24 25 19 23 25 24 15 27 18 24 27 26 29 23 24 14 25 26 19 35 21 27 24 32 26 24 24 19 22 23 19 14 16 15 14 21 23 22 23 30 32 30 32 30 21 29 25 20 29 20 26 32 24 19 34 19 31 21 22 20 24 25 22 18 38 30 15 29 26 26 29 19 31 27 24 30 18 22 21 21 14 14 16 24 27 15 26 27 18 24 24 27 24 10 30 28 20 29 23 13 11 28 14 24 20 22 24 24 20 17 24 17 21 25 26 25 14 27 28 27 21 20 28 25 27 22 22 23 30 36 27 25 26 26 26 29 24 22 32 23 22 20 22 21 24 16 25 12 21 20 30 24 32 26 17 27 20 29 19 23 26 15 19 21 28 15 24 28 26 20 18 19 24 24 21 28 27 23 21 26 21 22 23 18 22 28 23 22 21 16 27 17 19 26 18 25 22 22 29 25 25 34 29 25 29 29 21 18 21 26 24 22 23 31 27 23 19 25 25 15 20 21 28 32 23 26 28 17 22 21 23 26 19 20 27 31 21 26 15 28 18 28 21 30 23 27 17 17 18 27 17 26 22 23 16 20 23 25 22 22 18 26 21 20 19 12 22 17 18 21 21 23 27 24 27 26 26 28 24 22 26 17 23 22 28 27 29 21 21 25 20 24 23 18 23 22 23 21 15 36 16 23 17 16 22 26 23 24 21 26 21 17 24 32 22 28 26 27 28 16 15 28 20 20 24 23 33 25 24 21 20 27 27 38 17 15 28 20 13 25 29 29 26 22 25 27 22 21 28 32 21 22 24 24 26 23 23 22 22 27 25 22 26 24 24 22 20 25 19 24 26 27 21 23 15 20 27 27 29 17 22 26 27 13 21 19 22 19 26 29 17 24 28 25 25 30 20 18 23 23 22 18 16 21 29 27 17 27 24 22 28 30 26 15 17 23 26 16 17 25 29 23 27 17 23 22 21 26 23 21 27 28 17 26 22 22 24 19 26 26 23 30 23 19 19 17 25 18 22 28 18 29 23 19 25 18 17 20 21 24 24 24 21 20 19 22 24 14 20 25 30 28 16 28 26 29 27 19 23 13 27 23 25 21 26 16 19 22 27 24 22 17 24 20 22 22 26 21 13 19 31 21 14 28 18 31 20 15 22 22 21 32 18 15 17 21 22 15 26 19 19 19 17 27 14 29 32 17 17 22 19 22 27 21 24 21 26 18 13 23 21 22 18 17 23 27 22 25 30 24 33 29 23 20 20 22 29 20 25 22 21 31 30 33 33 18 23 25 23 19 24 18 22 26 20 24 22 13 19 19 17 35 30 24 18 23 33 32 23 23 21 17 22 23 15 23 25 16 28 25 28 21 27 27 23 18 30 24 22 23 20 27 18 30 25 22 25 16 26 20 25 26 21 20 26 26 15 13 17 27 28 18 19 21 18 17 26 25 28 22 26 21 22 21 27 27 21 21 22 24 19 25 22 28 20 24 31 26 27 20 13 28 25 25 30 18 25 25 28 20 28 26 22 22 24 19 26 24 19 22 23 21 18 24 18 21 25 19 19 16 17 20 32 29 34 17 22 26 21 26 18 29 23 16 24 18 22 16 21 21 34 25 21 21 29 21 28 23 23 32 18 20 26 21 11 24 18 16 23 32 28 26 31 21 26 24 25 21 25 24 20 17 16 22 25 24 26 23 24 21 28 19 18 16 30 24 22 25 23 24 22 19 29 19 28 24 14 15 21 28 23 23 20 15 22 23 27 21 20 22 25 14 12 18 17 22 22 19 23 18 28 13 25 18 20 22 26 23 19 16 20 25 24 23 19 16 26 22 16 20 18 16 34 20 20 19 13 28 21 27 21 18 28 15 25 18 19 22 20 20 19 18 17 16 18 26 19 25 28 24 23 30 17 24 23 25 15 20 29 26 21 21 19 26 18 14 32 23 24 22 27 30 24 19 24 23 13 21 26 28 25 25 26 20 21 22 24 19 22 23 24 24 22 19 18 30 27 13 18 22 19 21 19 26 12 21 29 19 32 24 27 20 21 24 24 22 25 27 19 24 21 29 18 23 16 19 24 31 22 24 18 20 20 27 21 22 22 23 13 22 17 22 25 22 25 20 24 22 22 24 25 23 21 18 29 33 22 19 19 19 30 20 25 23 27 25 21 31 24 9 19 20 18 15 24 24 14 18 18 20 25 16 27 14 26 16 18 23 30 25 25 29 28 18 18 16 24 21 24 17 24 24 24 23 19 31 19 25 25 18 16 21 22 25 21 26 18 22 19 18 20 25 26 25 21 25 22 23 24 31 21 21 28 21 15 21 22 21 18 23 24 18 17 17 21 19 17 14 26 23 27 19 27 20 25 25 18 25 26 16 27 19 19 20 20 23 25 24 27 21 22 21 21 18 24 23 22 19 24 29 20 27 22 25 29 23 23 24 39 25 30 17 26 19 21 11 22 26 28 24 21 15 29 17 21 18 26 26 18 22 15 21 24 20 17 20 27 20 19 19 24 17 27 21 20 24 33 25 24 22 25 17 21 16 25 20 23 21 22 25 27 20 21 24 22 32 22 32 25 29 20 26 17 22 18 17 21 27 20 14 17 25 28 12 20 25 30 21 23 22 28 26 23 28 23 20 24 16 22 24 20 18 27 19 28 21 23 22 21 32 17 31 22 21 26 19 24 23 22 25 24 22 28 21 24 23 23 25 20 24 29 20 27 29 27 22 23 22 23 21 22 29 19 26 26 19 28 15 26 21 20 25 15 21 24 16 23 28 16 18 20 26 28 24 20 18 17 17 32 23 30 19 30 23 29 23 25 26 26 25 24 17 21 20 28 20 13 22 25 26 30 32 19 20 17 16 22 17 23 19 21 20 19 28 19 27 21 24 15 23 22 20 22 29 25 22 24 16 20 14 17 25 31 23 21 30 22 21 16 32 28 23 19 18 26 25 15 29 19 19 24 20 20 22 22 16 21 24 32 16 22 22 23 26 18 34 19 21 27 19 21 29 24 22 19 20 35 24 17 24 23 20 18 21 21 20 18 18 26 19 17 21 25 17 12 22 26 22 21 26 24 26 23 22 24 13 19 19 26 26 23 15 22 24 23 21 30 19 19 20 24 20 14 28 25 19 15 21 25 20 23 17 27 28 26 20 21 22 20 23 24 28 22 25 23 21 22 32 20 32 22 21 22 30 14 17 25 30 25 13 28 28 26 30 26 30 29 24 30 21 18 30 25 24 21 21 20 26 24 31 21 24 18 24 26 15 21 22 23 22 31 16 16 24 25 27 21 22 22 19 24 21 30 28 25 21 29 22 17 22 24 13 23 24 22 23 17 23 23 31 26 24 22 18 17 15 21 26 22 11 23 25 24 21 28 24 25 17 23 27 23 21 19 21 25 22 19 19 26 22 25 27 32 28 20 20 22 17 25 25 23 20 23 18 23 26 23 25 14 24 25 21 25 15 14 16 16 16 23 21 29 24 25 26 21 23 17 21 20 31 16 18 18 15 28 23 22 18 19 22 18 23 22 24 18 23 24 20 21 25 26 13 25 27 23 21 29 21 12 21 23 18 22 16 21 21 23 33 32 26 31 19 17 19 18 31 22 27 24 23 23 25 19 23 20 25 22 22 30 16 27 13 20 19 20 23 23 24 30 19 23 24 17 17 21 25 18 20 17 24 18 26 11 31 25 30 25 13 20 23 18 17 27 21 23 24 25 23 21 21 27 22 16 31 28 26 18 21 20 21 27 22 22 24 32 22 22 19 29 23 19 18 22 22 19 23 20 24 21 23 24 23 21 18 26 17 27 19 23 26 26 30 21 20 26 29 26 21 22 13 20 21 31 22 16 21 25 27 24 13 26 27 15 24 16 26 31 21 20 18 19 27 20 21 19 15 21 31 32 26 23 17 17 18 19 22 30 24 26 26 19 25 20 17 30 19 23 32 20 18 24 29 25 22 21 25 24 32 26 23 25 17 26 21 17 28 24 22 17 19 22 20 32 28 21 23 26 22 19 20 26 30 15 26 27 29 20 24 23 28 17 18 11 24 23 16 28 29 21 26 24 25 11 15 25 27 15 19 25 24 16 25 20 27 22 15 27 18 28 26 19 21 28 22 19 30 21 24 25 22 29 29 22 23 14 24 22 25 22 15 18 23 27 17 18 29 24 24 28 31 25 14 22 23 22 23 27 18 18 24 25 25 25 25 17 28 22 25 24 33 25 17 26 29 25 21 23 24 25 27 20 19 27 20 21 29 19 29 33 22 17 18 27 20 22 27 25 25 28 28 20 23 25 24 24 21 24 22 19 22 22 20 22 21 28 20 22 29 22 22 23 25 30 25 20 25 28 22 24 34 27 23 27 34 16 27 36 24 24 16 23 22 24 22 28 22 20 28 23 25 30 24 16 14 25 15 26 20 21 17 29 27 22 27 19 22 16 36 22 18 21 16 16 19 22 31 22 16 20 35 22 17 20 21 24 19 21 25 25 19 23 17 29 19 26 28 21 34 28 21 27 23 20 25 29 24 22 23 20 26 20 24 27 24 28 19 20 27 24 18 24 29 25 22 20 34 26 16 18 26 27 15 26 25 25 25 30 21 20 17 20 24 24 25 26 28 28 25 25 27 26 18 22 18 19 24 20 17 23 22 15 25 25 23 15 24 23 19 28 20 25 21 17 16 20 21 21 18 19 24 32 22 18 20 24 16 23 17 21 18 15 21 18 26 14 17 16 17 16 30 22 17 26 23 22 19 16 27 19 16 21 30 28 25 19 18 18 20 25 23 29 28 19 20 16 26 23 21 29 30 25 26 23 22 25 23 17 17 21 27 23 24 23 17 24 22 21 25 31 22 21 21 26 19 28 22 21 24 27 16 20 18 21 16 17 19 27 25 22 18 24 18 20 25 31 24 24 21 27 16 23 26 23 19 16 28 18 23 23 25 32 25 18 24 26 16 15 16 21 27 21 30 20 23 19 26 21 22 27 26 25 20 20 25 21 30 28 20 26 23 29 23 18 17 25 20 24 24 13 19 25 24 22 26 17 31 23 30 24 22 29 25 27 23 18 19 28 26 17 24 24 20 28 26 17 25 22 29 24 27 30 21 23 27 22 17 26 34 27 23 17 25 19 23 19 20 24 21 31 23 24 24 18 20 23 20 13 29 26 24 23 21 27 17 29 25 26 22 15 22 23 32 27 20 20 24 29 22 26 14 22 22 29 17 17 24 13 22 24 30 23 21 19 21 22 35 23 26 22 26 16 23 22 19 25 22 22 22 17 23 28 20 23 23 23 22 25 23 18 28 29 22 30 23 25 22 24 24 26 20 15 28 31 28 18 23 26 24 20 30 24 28 33 26 25 20 22 22 18 22 27 26 23 22 26 26 21 27 30 25 26 20 16 20 21 27 19 30 18 25 34 22 29 25 26 21 29 22 30 19 31 17 22 19 22 13 23 22 25 23 21 23 20 21 22 18 15 16 19 22 24 30 19 20 16 17 23 25 22 32 17 22 19 27 28 26 34 16 23 27 19 23 29 19 14 27 23 25 31 17 31 21 23 27 22 27 25 21 25 17 23 22 19 29 29 18 27 23 16 18 17 16 18 25 18 24 25 23 30 28 23 16 22 30 16 27 24 22 18 18 19 21 21 16 27 30 21 23 14 14 23 29 28 17 17 27 27 33 14 17 19 24 20 31 15 17 27 30 18 20 26 19 24 21 22 23 32 23 23 26 14 24 19 24 25 23 20 20 22 15 27 20 23 23 26 20 29 17 21 28 27 24 25 25 26 26 21 33 29 27 20 28 20 28 20 24 26 27 19 25 19 21 17 26 18 22 19 18 25 24 22 21 26 31 27 25 21 24 21 25 19 29 31 24 22 21 23 23 25 20 23 15 29 24 21 17 19 18 27 19 28 23 21 26 19 21 17 24 24 26 22 30 26 19 27 25 28 24 26 25 23 26 26 22 19 24 25 27 24 26 20 22 19 26 24 24 27 17 19 24 21 19 23 22 19 23 21 26 26 20 24 25 27 15 24 20 20 23 18 20 22 29 23 24 22 26 31 22 24 19 22 17 23 30 28 23 19 21 30 22 19 26 25 23 35 26 28 23 21 28 20 20 21 22 22 26 27 20 23 16 28 22 20 26 20 27 22 18 22 19 16 27 21 22 15 21 19 28 20 23 20 23 17 25 29 27 20 27 28 23 26 24 35 32 21 19 24 23 27 25 22 25 18 29 23 24 19 31 20 22 21 16 24 29 24 19 29 31 22 21 29 23 25 23 19 23 18 24 15 24 20 20 25 18 18 14 26 22 22 29 24 28 23 22 30 19 22 18 19 27 19 27 25 20 18 27 22 25 26 24 26 31 20 18 24 18 29 12 21 33 30 17 23 19 20 20 26 25 23 20 23 15 25 23 15 29 28 24 18 24 21 19 16 28 19 28 30 24 28 20 21 24 18 28 22 23 22 18 23 18 21 14 25 25 27 27 17 15 27 20 23 17 29 18 17 25 26 24 23 19 23 19 21 27 28 22 20 25 22 20 28 25 30 24 24 22 26 24 21 22 26 33 22 27 21 25 20 24 31 20 28 31 20 21 21 13 23 24 17 19 22 16 13 17 28 20 28 18 26 22 21 23 27 25 24 18 19 25 21 27 22 20 20 20 20 17 31 21 23 21 21 21 20 25 18 26 20 27 23 10 20 23 35 24 18 16 20 26 24 24 19 29 23 25 23 22 27 21 24 17 18 26 24 17 21 17 23 24 17 28 20 16 28 23 16 23 28 20 26 21 30 21 20 23 23 22 24 16 27 17 26 22 19 26 14 20 18 27 28 19 23 22 28 21 25 19 23 21 23 26 21 33 20 21 16 22 26 20 26 24 17 18 26 21 25 23 22 23 19 18 23 23 19 17 27 26 19 24 25 17 30 23 31 18 21 25 14 23 17 22 30 24 12 21 26 16 25 24 26 20 26 30 25 23 17 21 20 21 21 22 19 21 24 21 20 24 22 27 21 23 26 25 24 26 22 19 22 19 26 22 25 19 28 24 21 26 22 21 21 19 30 19 24 14 17 19 25 24 24 29 13 24 27 19 30 20 27 26 22 20 24 19 22 25 20 22 15 17 21 25 19 28 22 20 20 21 30 18 28 32 24 23 20 25 16 17 23 34 14 22 22 29 17 29 18 16 23 17 17 33 25 22 16 17 25 15 29 20 28 21 16 22 22 18 23 19 25 27 28 31 29 24 22 19 24 23 27 19 17 20 26 28 19 23 23 31 15 24 29 19 31 26 23 20 18 30 24 26 20 26 24 24 25 27 31 20 18 23 27 18 26 15 25 27 24 27 25 23 26 21 21 24 25 24 23 26 17 18 29 29 21 22 27 19 19 22 30 25 21 17 30 29 14 22 20 28 22 29 19 21 22 31 23 19 21 22 20 15 30 18 20 18 24 20 22 25 18 35 25 26 26 26 29 25 20 14 17 31 18 23 23 20 22 22 17 29 26 21 24 21 22 25 17 31 19 28 23 23 21 20 24 22 23 25 23 17 19 20 20 20 24 23 22 25 26 22 28 28 27 23 18 18 25 20 20 24 30 25 21 26 22 19 25 25 27 20 21 26 15 20 20 28 23 18 15 28 19 23 30 22 18 23 23 17 27 31 23 22 17 20 28 26 25 27 24 17 23 25 28 29 18 26 25 19 26 22 18 26 20 15 22 18 26 22 14 19 26 25 26 17 15 16 16 28 30 26 19 21 24 18 14 13 26 18 17 19 17 17 24 22 25 25 24 21 17 19 20 14 20 26 22 25 15 28 20 28 19 26 21 28 21 22 26 25 15 25 20 16 22 19 18 21 26 30 19 25 23 31 21 21 19 22 20 21 32 26 22 34 22 26 22 17 21 26 28 32 21 23 27 20 20 29 22 22 22 28 19 26 23 20 17 22 22 28 27 27 16 23 29 25 30 20 13 20 21 23 30 20 27 28 20 26 23 29 19 26 23 28 19 18 12 19 15 28 27 22 22 23 24 21 29 25 17 15 25 30 22 17 21 21 24 24 19 24 21 24 28 22 26 17 29 20 29 34 18 22 26 24 30 24 28 15 17 24 24 25 22 22 18 25 21 18 19 28 19 25 32 20 27 22 26 25 17 23 25 22 13 22 21 24 33 17 31 23 28 27 25 18 24 16 25 17 27 30 19 17 22 21 26 23 24 17 20 23 30 23 21 24 19 24 22 30 25 27 23 24 27 22 25 25 20 17 24 33 24 19 24 24 21 25 16 21 17 28 25 19 29 18 24 26 25 24 21 27 24 19 22 20 25 19 19 29 24 24 23 31 19 26 17 23 18 30 22 22 26 21 20 27 27 30 26 25 12 28 25 20 20 22 23 22 19 23 22 18 36 29 23 34 17 20 15 28 22 23 17 29 22 24 18 24 19 22 32 26 20 21 22 24 23 21 28 24 19 27 21 13 19 20 18 27 28 18 28 32 22 18 24 31 28 25 25 26 15 20 22 22 28 28 25 31 30 22 24 23 25 20 18 23 22 23 19 22 19 20 24 25 28 21 21 21 13 24 28 22 23 26 23 19 20 28 27 23 22 24 21 24 15 19 21 18 24 19 32 23 26 24 23 27 24 22 25 21 22 25 13 30 18 17 25 24 14 22 18 23 24 26 18 22 23 21 15 25 19 21 28 14 24 19 24 20 26 18 23 27 24 19 28 23 23 27 21 26 28 18 19 22 18 18 28 17 15 21 31 29 26 19 20 22 23 22 26 19 25 19 21 24 27 7 22 24 21 27 23 24 30 25 22 27 31 26 16 23 22 26 25 27 28 20 21 23 24 21 22 20 22 24 19 28 23 27 21 32 22 19 20 20 25 17 30 29 15 26 25 22 27 11 27 17 26 25 14 17 20 24 19 22 21 12 16 21 20 23 20 22 18 21 24 25 25 20 24 22 24 24 24 32 18 21 22 17 29 30 22 23 22 16 17 24 30 23 27 20 20 19 26 17 25 27 16 23 27 21 21 19 22 13 24 28 23 23 17 18 25 20 23 23 24 28 26 20 19 20 28 22 26 28 31 20 18 29 27 21 21 22 24 21 30 24 26 25 24 20 23 28 14 24 22 20 21 17 21 18 29 25 27 27 20 24 25 21 31 24 28 25 22 22 26 21 26 28 25 17 28 26 15 16 29 22 23 27 24 23 22 21 32 20 21 28 23 27 25 23 22 23 28 26 24 16 18 23 17 16 25 15 25 19 26 23 16 22 25 25 19 34 29 29 24 22 15 21 19 22 29 24 20 26 23 25 30 28 20 16 25 28 32 29 19 21 26 22 25 21 24 21 19 19 20 20 24 23 18 19 22 24 19 26 16 32 20 22 30 20 27 21 23 18 18 20 22 23 18 27 34 19 20 21 17 21 24 26 13 18 25 24 25 19 25 20 23 21 24 24 28 27 27 25 16 19 21 21 23 24 18 23 21 24 28 16 26 19 21 29 21 18 35 27 22 20 19 22 32 30 25 26 29 19 22 27 25 18 20 19 30 24 22 18 27 22 12 25 24 17 24 23 31 18 22 23 22 22 24 24 24 25 32 21 25 24 22 25 15 22 30 19 22 19 25 20 18 26 17 24 22 19 11 22 26 17 20 21 20 28 26 24 23 24 23 28 23 24 29 13 26 27 25 24 25 23 25 25 26 15 18 28 17 30 19 20 24 22 26 30 24 19 26 19 27 25 23 26 19 20 16 25 24 21 32 27 20 21 18 22 26 17 18 27 24 26 16 18 24 23 23 34 31 16 28 25 25 15 27 22 33 22 20 20 21 29 18 15 24 17 21 27 18 24 19 26 22 17 22 28 23 24 27 21 21 26 21 31 13 21 26 26 22 24 22 23 36 25 19 20 28 19 18 20 19 21 22 25 22 21 17 33 27 20 25 25 25 23 22 23 15 29 20 20 17 30 18 21 16 18 16 17 25 22 22 22 28 28 34 27 23 22 32 23 21 16 17 31 23 19 17 22 17 19 27 25 30 20 20 19 26 22 18 16 21 21 22 34 23 25 24 21 22 20 24 26 20 21 25 16 18 19 26 24 23 25 19 20 25 20 24 28 27 19 22 22 25 33 25 23 26 23 24 17 28 28 27 30 27 24 16 14 20 22 19 14 20 35 21 27 25 30 23 26 33 18 17 22 23 26 26 23 24 19 26 20 26 20 25 17 25 19 23 20 27 28 34 28 18 18 20 26 24 27 20 26 22 23 15 16 21 23 24 22 25 20 20 22 23 26 24 18 21 20 27 24 20 21 22 17 26 23 18 18 23 28 20 22 23 17 24 18 17 17 17 19 20 28 25 19 18 19 18 24 24 25 22 19 19 23 23 28 23 23 26 17 21 27 27 29 19 13 19 22 25 18 27 23 23 18 29 21 27 20 19 17 20 23 20 22 24 27 24 16 24 19 22 26 23 28 18 26 17 19 25 16 31 17 23 28 28 16 20 25 29 16 17 22 25 21 32 26 18 21 15 26 22 26 20 20 26 17 19 23 23 25 21 22 17 23 16 27 16 19 20 19 26 26 26 23 16 25 27 20 17 28 23 17 23 22 25 17 18 18 19 15 19 23 20 18 20 21 24 27 29 14 16 20 19 21 18 25 26 18 29 20 18 22 22 34 23 25 25 21 24 16 27 19 30 23 26 29 29 34 20 22 28 22 24 24 18 23 26 28 24 19 20 24 18 24 28 22 26 16 30 22 20 23 24 21 22 28 18 19 18 18 26 27 27 27 19 23 19 22 21 26 30 18 32 18 16 22 27 19 19 19 22 24 15 21 27 18 22 21 23 19 17 24 31 16 17 24 28 14 33 24 19 20 23 19 24 24 23 12 30 22 26 23 25 17 24 29 28 24 21 23 27 26 20 30 24 26 27 24 26 20 23 26 20 28 22 22 22 18 23 19 19 27 27 18 25 29 17 27 21 20 21 25 24 24 22 20 19 21 19 20 26 23 27 20 25 18 14 28 18 29 18 33 25 16 18 26 24 19 15 23 27 23 20 23 23 29 27 21 9 28 28 27 19 27 31 26 20 21 26 21 24 20 22 20 25 27 17 22 29 17 22 24 16 35 18 20 24 16 20 22 23 25 23 23 22 22 17 21 21 19 25 31 16 21 21 18 19 22 22 23 13 26 22 25 23 21 21 23 31 26 25 24 25 19 15 22 20 16 23 22 27 29 28 22 18 16 27 23 18 29 20 26 33 21 18 23 24 23 20 22 35 26 28 12 24 25 22 25 21 24 18 19 25 13 24 23 23 17 26 23 21 24 18 19 25 31 20 20 27 22 19 25 17 10 27 24 17 26 29 27 23 20 24 24 25 26 26 23 26 18 25 19 24 26 20 20 21 30 22 27 29 24 23 24 26 20 22 24 23 22 21 25 23 29 23 22 25 19 19 26 24 24 27 25 21 24 20 22 24 22 20 22 27 22 18 22 16 29 25 20 27 26 22 25 16 22 24 25 21 17 27 24 25 31 22 18 22 28 24 23 25 14 23 34 16 20 27 23 18 20 24 30 27 17 25 22 16 23 22 22 18 17 22 27 19 23 20 21 25 17 28 28 27 22 20 22 17 19 25 22 17 16 23 25 25 25 24 22 26 21 17 24 24 25 22 24 25 21 27 22 30 20 23 19 27 28 16 22 32 17 24 28 16 26 19 23 25 21 15 24 20 20 21 18 21 27 16 19 28 28 27 30 21 20 25 21 28 23 21 22 27 24 22 19 28 15 21 22 20 18 25 21 21 15 21 22 21 31 19 18 22 15 24 18 26 21 18 24 18 29 19 16 26 16 23 12 23 21 21 22 24 21 24 20 25 24 19 14 22 28 16 21 23 27 20 25 23 26 21 22 28 28 22 24 18 17 24 20 21 28 20 22 18 25 24 14 27 25 26 23 20 27 18 20 25 28 27 15 17 28 22 23 18 20 22 23 22 18 27 29 28 25 26 20 20 20 17 23 20 20 26 21 17 24 23 26 22 22 26 27 26 17 20 27 24 17 15 22 27 17 21 23 19 19 28 25 26 30 23 27 17 24 24 20 18 21 24 21 18 23 21 21 25 19 25 21 26 19 24 18 26 22 20 19 30 18 22 21 12 33 25 19 28 19 23 13 21 28 26 24 21 23 21 22 24 28 23 29 25 17 24 25 29 22 24 28 24 28 18 25 17 24 20 24 19 24 27 21 24 26 17 29 25 38 23 26 18 21 33 17 24 26 23 27 21 27 22 16 23 23 32 28 21 24 23 31 32 24 24 26 27 23 22 31 20 16 12 24 23 14 24 19 28 17 26 27 23 26 19 22 25 18 22 24 23 17 24 20 28 26 23 26 21 23 18 22 23 25 15 25 17 17 16 20 29 25 18 20 20 22 27 29 20 25 20 30 16 20 25 25 23 23 20 25 17 26 27 15 29 24 20 21 27 22 30 24 19 22 26 21 21 30 26 21 18 27 16 21 25 21 11 22 22 33 34 27 24 32 24 18 23 19 25 22 20 25 21 21 25 15 14 16 25 20 24 21 19 23 24 21 20 19 26 21 20 15 19 20 21 29 25 21 21 26 22 22 23 24 28 21 20 24 22 15 23 28 21 19 20 25 15 23 26 19 16 25 22 23 16 19 21 22 19 23 26 22 26 21 24 26 24 19 24 21 21 24 25 16 21 27 20 29 16 24 29 23 27 20 26 21 19 19 23 20 23 19 25 23 24 24 23 23 20 21 18 31 23 26 22 22 28 22 22 20 14 17 25 26 25 25 26 25 16 29 24 19 28 22 27 22 20 18 27 23 24 24 34 21 20 22 25 21 33 16 25 16 18 23 16 23 20 18 26 25 25 22 22 26 22 20 14 21 19 21 23 25 30 27 21 21 24 19 23 14 17 17 27 27 27 18 17 16 24 27 18 23 21 28 19 19 31 30 21 17 28 25 20 17 22 22 25 22 20 23 23 24 23 20 23 21 24 16 25 25 27 23 19 17 38 25 25 21 26 23 31 21 26 25 22 27 21 23 23 18 18 20 19 20 38 17 26 37 32 18 25 20 17 20 35 16 27 27 21 19 18 30 22 22 21 31 19 23 33 21 14 17 29 23 25 22 19 28 27 23 15 23 21 26 26 18 19 20 25 23 23 24 26 22 28 29 17 30 16 30 20 22 28 27 20 26 23 27 20 26 24 26 26 26 24 23 24 21 29 17 23 25 15 22 26 33 18 23 26 29 24 31 22 18 22 22 19 25 23 15 22 25 20 16 21 18 18 23 31 20 26 24 20 24 23 23 18 22 22 28 21 23 19 18 21 23 19 18 25 25 25 16 18 21 27 22 24 25 17 20 18 27 21 20 15 17 22 16 22 20 19 21 24 26 17 25 20 30 18 23 35 25 11 22 17 19 22 21 21 15 13 28 16 30 18 21 24 25 15 27 17 18 25 17 24 17 27 19 20 24 23 23 21 24 25 19 22 25 21 22 20 17 27 24 21 23 23 22 22 20 30 19 22 25 18 19 30 34 25 33 27 21 21 32 24 26 22 24 19 29 14 20 28 15 20 25 23 19 33 28 31 20 23 27 28 28 30 24 22 24 14 18 22 22 23 19 31 21 26 27 31 27 21 24 17 30 17 19 31 27 28 18 29 16 19 28 20 25 25 20 23 19 20 20 22 23 20 25 21 26 15 27 14 25 19 29 20 25 33 25 21 18 21 19 21 25 14 21 15 21 24 18 20 18 24 16 28 22 26 23 24 18 20 20 28 26 23 23 23 23 23 23 21 25 26 15 23 22 30 24 20 18 16 18 27 18 20 18 29 28 20 21 23 22 21 25 27 32 24 20 23 30 21 20 19 22 14 17 26 24 26 22 20 18 24 27 26 21 26 15 21 15 24 20 24 22 18 20 13 17 25 33 24 24 23 17 25 25 26 19 25 14 27 24 22 27 16 29 24 23 22 31 29 18 25 30 24 20 20 26 30 15 22 27 21 32 28 22 19 24 27 22 22 20 19 22 24 18 22 19 16 18 22 33 26 25 20 18 14 23 23 24 30 23 19 21 20 20 26 31 23 19 29 20 21 37 24 19 22 40 23 21 19 19 18 23 28 25 26 29 23 28 22 23 27 28 15 30 26 22 26 22 30 20 23 25 31 22 15 16 28 22 29 21 20 22 27 20 25 20 27 24 20 22 19 28 17 17 15 24 23 24 16 21 25 26 22 22 19 24 23 27 19 22 16 23 28 17 33 22 17 21 25 27 20 32 25 26 23 24 23 22 22 30 18 20 28 18 25 16 18 25 19 18 24 26 19 28 19 22 25 25 18 23 28 19 19 20 20 23 25 29 21 21 22 20 18 23 30 25 27 20 31 23 19 22 33 21 26 24 17 24 31 24 27 24 23 21 26 15 30 23 26 22 23 27 24 32 24 24 12 23 25 19 21 27 19 26 19 28 23 27 21 14 31 26 24 27 16 17 23 29 26 21 19 22 22 19 24 19 21 19 19 25 27 28 24 27 25 25 26 23 23 21 21 20 19 23 27 28 27 28 25 18 21 18 25 27 21 29 25 28 30 19 20 27 17 23 15 21 18 21 20 20 18 24 16 29 23 20 18 20 24 29 26 17 34 27 13 21 19 21 18 18 18 16 26 25 26 19 21 24 23 21 26 23 19 22 11 24 25 24 22 16 28 15 17 15 26 20 20 18 20 25 19 22 26 27 27 24 27 22 30 20 24 19 25 25 23 16 24 25 17 20 21 24 19 17 23 20 27 24 19 14 24 25 25 27 22 22 29 17 24 25 26 17 26 23 21 32 30 22 22 26 21 28 17 26 17 26 20 23 23 22 19 18 19 27 28 22 19 27 25 31 25 32 23 26 23 24 27 28 22 32 19 25 18 24 18 15 23 23 18 27 21 21 19 18 22 21 27 26 25 35 31 21 24 24 27 24 24 14 24 22 20 21 19 24 16 25 20 22 25 25 25 20 26 18 22 25 17 19 18 21 21 14 23 34 27 23 13 28 22 22 26 18 33 20 17 19 23 18 27 16 20 21 13 23 21 18 28 27 28 29 25 26 28 20 23 18 23 23 25 21 23 24 27 25 24 27 25 32 23 23 20 24 18 26 16 11 21 35 18 27 28 21 30 25 24 20 21 25 19 22 25 21 25 32 12 18 25 25 18 22 26 22 24 31 19 20 18 29 23 25 22 25 22 25 21 22 16 23 24 23 26 24 17 18 21 26 21 19 30 29 25 17 24 23 24 25 21 25 18 26 24 24 20 19 23 16 23 19 22 27 26 23 17 18 22 25 30 30 18 20 29 22 20 21 29 19 29 24 27 22 21 30 20 22 29 32 27 22 23 32 24 35 22 26 23 17 22 24 23 24 23 20 15 17 38 24 22 18 27 23 24 22 14 27 26 24 30 23 23 18 25 25 24 23 24 23 20 19 24 23 25 22 20 26 26 24 25 24 26 17 20 26 20 27 28 28 24 27 24 21 27 29 26 26 23 33 21 17 23 22 26 18 29 31 20 27 16 24 31 21 27 20 30 19 19 30 29 35 22 24 22 20 28 21 26 26 35 29 15 20 26 20 18 25 28 17 30 19 19 18 19 22 26 22 24 16 17 34 26 25 19 30 19 25 35 20 25 18 22 20 14 24 20 17 25 28 24 23 20 28 12 22 24 34 25 23 19 14 32 22 15 28 18 24 23 31 14 21 13 19 15 25 27 18 14 26 29 26 25 24 29 22 23 18 27 21 20 19 20 26 23 21 21 16 28 20 26 25 23 24 26 16 24 20 21 25 20 25 27 22 17 31 25 26 25 24 26 21 21 19 30 21 16 14 25 22 21 22 24 19 16 22 29 26 25 24 26 20 22 26 20 22 20 25 29 24 18 25 21 29 31 23 24 20 25 24 20 22 27 21 21 19 29 22 20 19 23 14 20 16 35 18 28 17 22 18 27 20 23 18 27 20 21 21 13 24 21 19 18 26 19 24 23 14 29 25 26 19 31 26 22 29 18 24 17 24 15 20 15 26 16 23 24 25 14 21 28 17 24 16 20 18 24 25 27 22 27 26 22 30 22 21 27 21 16 25 16 13 27 30 20 26 25 29 30 20 17 22 19 26 16 20 20 25 20 27 24 25 26 23 18 19 29 29 17 27 29 27 27 25 21 27 22 25 18 23 20 24 22 20 29 20 15 21 24 25 23 23 23 19 29 28 22 23 25 26 21 19 22 24 26 23 19 15 26 27 25 18 24 19 27 25 20 24 21 23 22 25 19 19 32 20 21 25 25 19 19 29 17 30 21 16 24 19 20 29 23 29 16 19 20 21 26 17 27 20 25 27 23 27 18 20 24 14 25 22 12 18 22 18 19 27 27 22 24 21 28 22 23 25 26 25 24 19 16 20 19 20 26 12 21 22 24 36 16 22 22 28 22 25 22 25 21 25 20 17 15 25 24 34 19 22 21 24 24 22 20 22 23 24 21 21 26 19 24 22 16 26 19 24 15 18 21 13 15 17 19 27 17 21 35 23 19 22 21 17 29 20 17 22 15 21 22 21 23 24 25 23 25 22 31 23 24 23 26 21 20 26 16 23 22 32 24 24 21 22 15 26 26 25 18 19 15 25 26 26 24 19 31 30 23 18 24 25 27 17 19 24 21 21 31 25 28 22 24 21 31 18 25 24 23 31 17 26 21 17 23 19 22 22 21 23 21 23 26 23 30 33 21 21 23 22 30 19 22 18 33 27 24 30 20 25 32 26 24 22 20 28 21 27 22 20 22 20 21 28 20 24 14 20 24 19 24 18 27 21 27 23 26 27 30 20 30 22 23 20 20 25 22 21 28 23 27 30 18 18 24 24 26 26 24 26 23 18 24 26 20 21 24 33 22 16 27 24 25 24 21 26 18 26 22 17 26 20 25 21 20 17 24 33 23 9 24 20 18 29 23 23 27 22 25 25 33 18 18 17 27 20 23 19 23 25 21 25 30 25 23 23 13 23 22 19 23 28 27 29 20 24 21 20 23 24 24 18 19 28 28 26 24 27 19 23 23 31 27 16 27 32 27 25 26 23 21 16 15 17 28 26 20 24 23 22 21 21 23 17 20 11 26 23 25 27 24 22 27 16 23 22 24 25 25 22 19 17 17 17 18 13 22 19 21 27 19 16 19 23 20 18 26 27 25 25 23 33 21 21 23 22 15 31 22 19 24 37 19 21 20 23 19 34 22 31 17 20 30 15 24 21 19 24 17 25 16 27 25 21 29 29 28 22 23 22 24 34 18 25 24 22 19 18 22 28 19 15 18 22 25 28 21 18 23 28 31 28 16 20 16 21 28 25 26 27 28 16 21 28 27 21 23 18 24 25 20 21 25 18 20 27 23 25 27 18 22 21 22 27 27 25 25 19 30 21 20 18 22 23 21 25 14 15 20 17 18 27 26 14 20 18 17 27 20 29 17 25 23 20 27 26 26 21 26 26 21 16 22 29 26 25 23 29 16 24 19 25 26 30 26 25 20 22 25 11 21 20 28 15 31 31 22 22 23 23 20 18 14 20 21 22 23 20 20 27 28 22 28 32 17 24 19 24 16 17 14 25 21 24 16 23 18 19 14 22 14 18 19 20 19 30 23 28 20 23 20 29 16 29 22 18 28 20 23 19 24 23 21 28 19 33 32 28 22 22 26 25 25 25 27 23 19 22 23 26 22 25 26 20 22 27 25 38 14 22 24 33 20 19 21 25 23 26 19 31 25 16 25 24 23 22 22 19 27 21 21 23 30 29 19 20 18 21 20 23 33 21 19 19 25 17 22 27 26 21 17 19 20 22 22 23 19 20 13 19 16 23 18 27 30 23 27 16 22 21 18 32 29 25 24 27 21 19 32 22 24 25 25 24 25 24 20 19 23 20 26 20 20 26 24 23 21 15 26 11 21 18 21 28 18 20 16 27 22 21 18 23 23 27 17 23 19 20 15 17 23 25 27 20 30 19 29 20 24 20 27 30 26 25 26 25 17 22 27 33 26 31 15 27 32 25 24 23 20 26 22 25 16 28 23 25 13 18 22 25 24 28 17 22 26 31 28 19 21 17 27 19 27 21 21 20 24 23 17 28 27 18 23 18 32 18 19 23 31 26 26 19 20 24 25 21 20 19 20 19 26 17 20 25 20 22 24 30 25 13 22 30 23 23 22 24 27 27 19 21 24 24 32 18 31 30 20 24 20 28 28 25 24 23 19 23 18 13 21 20 23 21 31 25 33 20 29 24 17 24 24 26 27 26 15 22 22 13 28 19 12 24 21 13 19 33 33 30 24 31 25 22 23 16 25 23 26 19 25 21 26 26 24 27 20 26 26 20 19 15 10 16 20 31 21 25 28 17 25 21 23 29 25 22 14 28 24 23 33 24 24 16 24 26 17 17 29 27 23 22 17 23 24 22 23 21 25 14 24 22 24 22 22 16 21 25 23 23 15 23 21 27 18 27 19 25 28 26 23 22 25 17 29 17 21 25 29 22 33 16 20 15 23 18 19 29 18 25 12 23 21 24 27 16 20 25 24 23 15 18 16 19 16 22 26 23 21 23 24 24 18 21 19 27 16 18 17 24 24 24 24 25 31 17 32 23 24 25 23 14 18 23 32 26 25 17 21 24 26 22 22 18 23 17 23 24 31 29 21 25 29 25 16 25 18 20 25 21 34 16 16 21 31 21 13 20 19 24 27 22 21 27 21 20 23 24 20 24 25 17 26 17 22 20 22 27 20 24 24 21 19 18 21 26 27 15 16 25 16 20 23 23 23 26 25 20 22 21 22 20 17 21 17 33 33 19 22 38 32 27 27 19 23 25 23 25 20 24 25 25 21 25 21 23 25 33 15 22 23 25 23 26 23 24 23 24 22 21 22 24 15 27 11 17 24 23 21 24 16 23 27 22 19 24 20 26 22 20 26 20 20 19 31 21 18 19 26 19 23 20 20 22 24 25 23 24 20 21 27 21 19 25 14 23 20 18 24 23 26 20 31 29 25 21 25 16 21 24 18 24 24 19 19 20 30 21 15 20 18 32 34 26 20 27 18 25 34 27 22 22 29 26 19 22 21 25 22 23 19 24 27 26 26 21 21 23 20 24 25 23 25 26 23 25 23 25 23 15 27 20 18 17 21 20 26 22 19 22 27 20 25 22 30 31 34 21 23 29 33 25 25 24 28 26 30 24 25 14 22 29 20 19 25 15 22 17 22 18 19 29 23 20 22 26 20 29 21 21 21 16 24 24 17 19 23 27 28 22 31 18 28 26 23 24 33 17 18 21 13 23 30 21 17 26 31 22 26 18 20 26 26 23 19 20 28 26 23 27 22 20 25 23 25 13 18 28 22 18 16 23 30 18 23 21 31 24 19 23 24 20 25 30 19 29 27 21 22 22 19 22 21 15 25 23 25 19 23 13 27 29 22 28 17 21 27 24 16 21 23 25 21 19 26 23 21 19 16 25 36 26 17 27 26 21 21 19 21 19 21 25 21 21 27 23 21 23 26 25 21 27 20 25 20 22 20 25 26 18 20 23 21 19 16 19 25 28 23 21 22 25 24 31 19 23 23 24 23 16 28 23 24 20 25 20 26 19 23 18 28 21 26 22 19 26 34 25 20 29 24 24 16 19 13 19 22 21 21 27 23 24 32 26 17</t>
-  </si>
-  <si>
-    <t>EXN(0.43497310720631854, 31.48229526785414, 5.122615981795745)</t>
-  </si>
-  <si>
-    <t>30 29 34 40 34 39 46 26 39 26 34 31 34 30 21 41 38 44 44 31 32 29 30 39 27 30 51 27 35 44 36 38 32 41 32 24 28 34 49 37 28 35 25 32 34 38 30 26 42 18 37 41 34 36 28 27 34 39 37 37 31 33 44 36 35 32 42 35 51 34 35 29 30 44 31 31 43 30 45 34 21 31 29 37 39 27 43 31 28 36 44 31 32 40 28 31 40 29 33 38 41 35 31 30 38 32 39 28 43 34 31 36 32 29 28 33 45 27 35 34 40 29 37 38 39 39 39 31 37 28 38 30 33 23 32 30 43 35 23 28 48 31 31 32 43 32 28 46 39 32 32 30 27 35 34 37 28 40 37 33 35 43 28 32 41 36 34 27 44 31 39 43 34 33 37 33 34 33 37 26 32 28 29 23 30 35 37 28 39 38 31 38 30 23 41 31 47 31 44 44 28 29 33 31 41 36 35 33 39 32 32 43 29 37 41 33 41 35 39 40 35 34 35 35 33 36 30 34 39 39 32 31 42 33 33 39 35 26 37 39 34 31 24 32 31 34 48 38 38 28 28 26 28 34 39 34 25 29 39 39 35 38 25 27 35 29 45 30 34 42 31 27 37 41 40 33 30 33 39 35 33 35 31 40 35 32 33 38 44 30 32 27 24 37 32 39 36 32 30 27 37 25 29 37 35 41 34 36 29 27 27 37 34 37 35 33 41 33 34 30 26 35 34 29 26 28 38 28 34 39 41 27 27 29 32 31 33 19 32 33 37 25 28 25 38 40 31 40 31 28 29 28 32 41 35 35 36 36 42 29 34 37 34 35 32 37 32 34 34 27 36 38 38 27 43 22 36 30 28 36 30 37 25 33 35 33 34 47 37 36 38 32 23 35 33 32 36 30 37 27 39 29 42 34 33 27 22 30 37 30 43 31 42 21 38 33 25 23 36 33 39 31 36 33 36 39 32 37 36 30 28 33 23 28 41 34 35 34 40 43 24 30 37 50 33 28 26 42 36 28 27 24 31 37 30 34 34 42 28 34 32 47 25 39 28 36 24 46 22 35 28 37 33 32 34 37 40 42 29 35 29 32 34 36 37 36 39 29 40 25 42 36 48 41 30 25 22 45 32 33 35 28 25 44 44 42 40 36 34 39 35 47 32 38 33 27 27 31 18 30 33 22 39 30 31 30 35 32 36 31 36 30 38 35 26 33 42 31 31 36 27 36 36 24 36 31 35 33 35 45 38 31 42 33 33 29 45 40 31 30 38 37 29 48 34 35 37 34 39 39 39 37 32 30 31 28 47 35 36 38 39 32 23 28 32 31 34 23 48 29 25 34 36 29 42 34 31 28 32 51 25 42 33 23 37 32 32 33 30 40 41 36 43 32 40 19 31 36 43 42 30 36 27 27 44 26 31 35 36 28 33 39 31 38 39 37 36 32 38 27 40 27 34 27 35 43 27 36 35 28 32 33 24 35 34 21 31 34 36 24 38 42 30 35 30 35 45 30 37 44 32 45 30 37 37 48 32 34 26 50 35 44 13 31 40 35 35 38 32 34 41 31 44 29 37 33 36 42 36 31 33 41 35 34 29 29 34 44 31 27 25 34 37 43 26 45 35 39 33 29 27 35 30 31 33 45 31 31 36 37 25 39 30 21 26 24 48 29 33 32 40 34 43 33 37 29 41 41 20 35 37 28 33 33 33 48 26 28 27 33 31 30 25 31 25 23 30 26 34 40 37 34 25 23 30 32 43 31 27 35 31 39 31 30 35 37 27 34 39 31 29 39 39 29 29 35 30 40 39 35 29 40 38 29 32 31 25 43 27 28 40 37 29 40 29 28 21 42 29 26 38 35 31 34 36 39 25 31 41 29 22 18 38 37 34 24 28 29 19 29 25 19 31 38 25 22 30 29 39 28 42 34 37 43 46 33 35 32 30 27 40 34 30 36 35 42 31 37 27 39 33 37 32 37 43 35 38 38 28 32 31 32 34 27 28 37 35 40 33 21 39 27 32 34 26 27 37 31 41 24 41 33 38 34 38 41 33 36 37 30 39 37 32 38 26 28 37 43 31 31 33 36 36 35 35 32 32 29 35 36 37 47 31 28 45 33 43 35 26 32 22 34 29 42 23 41 32 34 31 38 34 31 33 33 26 38 28 39 33 35 27 30 30 39 29 26 48 31 39 29 35 38 39 36 34 44 37 40 30 35 36 28 47 38 27 27 34 48 26 33 37 44 31 38 29 32 34 33 36 34 31 37 30 41 27 26 30 37 26 42 31 38 43 41 21 38 28 33 26 28 37 32 29 49 47 39 40 43 31 30 41 33 29 38 39 35 42 26 32 35 31 37 30 30 23 35 20 38 51 32 38 34 35 25 38 34 38 27 40 28 32 29 41 32 25 34 33 44 35 25 32 35 38 40 27 40 31 34 39 31 29 34 28 38 34 37 34 34 46 29 34 35 35 37 28 33 35 36 40 33 36 33 41 21 34 38 27 39 47 25 31 22 44 32 31 33 41 38 36 33 41 32 26 36 25 36 35 33 34 33 38 28 36 38 35 38 32 32 30 38 36 38 40 36 46 38 36 30 35 34 27 32 29 31 41 27 33 41 32 32 41 35 25 28 31 43 35 32 38 26 20 29 30 26 37 38 27 37 35 45 26 31 24 34 48 38 32 27 27 30 25 32 34 28 32 38 29 32 34 40 42 36 40 34 34 30 32 35 33 45 36 33 30 36 35 46 23 41 39 31 27 36 31 38 33 35 44 29 32 32 32 31 32 29 44 30 46 41 30 38 38 32 38 44 29 29 36 25 26 35 38 35 24 31 33 32 32 35 30 37 34 24 34 41 30 25 34 26 33 39 40 43 41 39 22 34 37 26 55 37 34 36 45 43 32 36 23 42 33 25 26 28 24 19 36 31 33 35 36 40 35 49 45 29 41 37 30 36 31 42 43 33 30 45 32 39 27 33 30 27 34 37 28 49 36 26 40 39 40 40 34 38 43 35 33 31 34 39 31 22 23 25 31 34 24 34 40 24 38 30 36 30 22 38 39 27 36 35 22 29 41 35 35 34 36 38 34 26 30 32 31 30 32 32 36 21 34 35 42 33 35 43 38 38 33 40 33 41 48 39 40 39 33 37 36 32 29 43 31 33 38 39 28 30 27 38 22 26 31 39 37 43 37 31 39 28 41 32 32 39 33 29 31 36 25 35 35 38 32 26 30 35 33 30 37 36 33 32 34 33 34 42 26 34 39 38 30 37 24 35 25 28 42 32 33 30 35 45 34 38 46 45 39 41 36 30 28 36 35 36 35 36 53 37 32 27 35 39 28 30 43 39 43 32 41 44 32 31 30 41 31 32 32 42 48 33 36 26 43 29 41 29 36 37 37 29 26 21 37 33 39 35 32 24 29 28 36 34 38 34 35 32 32 26 23 34 25 31 30 33 37 40 41 36 31 40 37 28 34 32 27 34 28 42 37 35 29 27 36 35 41 31 30 33 36 35 31 26 48 36 31 34 37 35 37 32 34 31 37 37 37 38 42 28 36 36 42 38 33 26 47 36 27 37 32 52 32 32 31 29 39 41 50 29 27 40 37 20 33 51 37 34 38 35 33 34 38 47 42 32 31 35 30 42 35 27 39 27 38 36 35 38 35 34 31 29 37 27 33 37 38 31 32 18 32 43 36 45 25 37 29 39 23 34 31 32 24 34 42 24 33 35 32 32 41 31 32 34 31 29 27 23 31 33 35 24 39 36 37 35 48 36 26 25 38 35 32 32 33 38 33 51 27 30 34 31 37 38 26 39 49 27 35 34 37 40 29 41 37 36 42 42 30 29 34 38 25 31 43 28 45 36 34 33 27 30 30 32 34 34 34 36 33 26 29 33 27 30 33 49 47 24 40 35 41 49 34 35 23 41 27 35 34 37 25 26 27 40 31 31 28 32 31 32 31 36 30 23 29 35 30 25 38 35 43 29 28 33 36 31 43 30 29 30 26 42 25 35 37 29 35 30 40 28 40 40 23 34 33 35 35 36 31 39 30 38 27 32 34 31 28 34 26 29 40 28 32 42 41 44 40 35 33 30 41 42 32 38 34 28 43 41 44 44 31 39 36 35 30 36 34 39 37 33 33 32 16 27 32 26 42 44 37 31 37 43 38 34 43 31 23 29 37 23 32 38 32 37 35 37 32 34 36 37 29 43 35 39 41 37 41 25 46 38 33 35 28 35 36 41 36 33 27 36 37 25 18 27 39 41 26 33 27 25 28 42 33 31 32 30 25 34 33 33 38 29 27 37 36 28 32 37 40 33 37 43 38 39 24 27 47 37 35 46 33 28 32 36 32 37 37 30 31 41 32 31 30 33 29 33 29 33 36 23 33 37 33 23 24 24 37 46 39 45 28 30 37 27 37 40 37 35 24 42 30 29 28 27 30 42 39 26 30 40 31 46 28 33 44 31 32 36 39 20 32 27 25 37 41 38 44 45 35 32 38 37 43 32 33 25 26 29 37 33 37 40 34 35 29 39 30 29 29 37 33 37 40 34 41 34 29 39 31 32 36 25 26 32 37 33 31 31 25 32 33 34 28 29 27 33 23 24 25 26 30 36 29 34 28 40 22 39 33 30 38 34 31 28 27 33 37 35 37 28 29 30 37 29 29 25 25 47 34 32 25 24 38 35 40 30 27 37 23 36 29 31 32 34 28 21 28 29 29 28 33 26 44 35 31 37 39 24 37 28 36 25 30 37 40 28 32 33 35 26 26 43 34 34 29 37 40 40 27 33 30 32 31 43 41 36 34 32 24 35 34 33 31 30 36 37 31 27 35 28 36 36 27 27 30 27 28 30 38 19 32 39 31 39 34 41 30 31 40 34 35 34 35 32 32 32 39 27 32 29 37 37 46 30 34 25 28 22 36 29 36 35 28 26 35 25 27 35 37 32 30 34 36 35 32 35 29 31 28 38 45 31 32 35 29 43 29 40 32 47 41 38 39 38 15 33 34 23 25 36 34 22 23 29 31 34 27 40 22 36 29 26 31 42 35 34 35 40 28 27 22 33 31 33 28 30 32 38 41 34 47 28 42 36 24 24 32 36 36 30 37 43 35 37 26 31 31 32 34 32 38 28 36 33 36 32 29 39 34 24 32 40 31 32 36 36 28 33 21 29 31 26 26 35 34 34 35 42 37 35 35 26 41 34 34 40 28 27 33 35 33 42 32 35 33 37 34 33 21 39 32 31 31 30 37 29 37 39 40 44 30 33 30 49 31 43 27 34 28 35 18 31 37 35 36 30 24 41 29 25 30 36 32 30 34 27 31 33 38 25 32 34 31 27 26 30 23 40 36 33 36 42 36 36 34 35 23 30 25 34 30 32 31 32 31 33 31 41 39 43 42 31 39 39 41 30 38 28 31 25 25 30 41 34 24 23 36 37 23 31 34 38 35 36 30 39 33 37 41 31 31 32 29 30 32 33 26 34 29 35 39 34 29 27 42 27 36 39 42 32 31 29 36 36 38 36 32 38 33 33 33 41 31 32 31 44 28 34 41 39 40 37 35 33 27 34 40 30 37 40 30 35 23 33 33 35 35 25 36 29 36 36 43 28 29 36 32 39 36 30 24 30 27 42 36 37 30 43 35 40 32 36 36 39 36 32 29 36 28 41 32 33 36 35 41 40 42 26 29 28 20 32 28 32 26 28 28 37 38 30 44 31 35 28 36 29 25 37 43 35 38 31 26 34 23 27 32 42 29 35 38 32 32 28 48 46 33 30 31 37 44 23 40 28 25 38 33 30 32 36 22 30 35 41 22 36 32 35 37 26 42 25 28 40 34 32 38 39 30 35 38 39 38 32 30 33 35 33 26 37 31 29 29 30 27 28 32 34 22 18 32 41 32 30 33 30 39 37 35 36 32 31 28 41 36 34 21 35 31 33 33 40 41 29 38 27 27 21 44 34 26 23 27 36 31 28 25 38 41 38 33 34 37 26 32 29 37 31 39 33 30 37 46 28 45 30 26 31 40 29 28 31 42 35 28 43 46 41 46 38 40 35 32 40 29 32 35 35 31 34 30 29 31 33 38 32 35 22 34 40 29 32 36 32 37 42 30 30 31 38 37 33 31 41 38 31 33 42 44 38 31 46 38 20 33 34 21 34 29 37 32 31 32 29 39 34 33 37 27 29 27 34 38 32 30 32 36 32 35 40 43 37 25 38 34 33 34 30 32 35 32 34 29 34 36 36 34 44 41 34 30 39 33 37 33 31 29 45 26 41 38 40 35 29 27 30 33 31 25 28 25 21 19 33 40 38 42 43 35 32 34 25 34 33 42 30 28 28 27 34 30 30 33 29 29 26 29 37 39 30 36 32 24 34 37 43 21 40 44 38 28 37 30 28 32 35 28 30 22 33 30 35 41 42 30 37 27 27 32 29 42 29 43 35 31 32 36 24 34 34 38 27 34 40 30 40 25 27 34 32 33 34 34 41 27 29 38 33 25 46 38 32 30 21 35 29 39 21 44 37 40 35 26 33 42 28 27 38 31 35 33 32 28 31 37 40 34 29 41 41 40 28 34 31 34 40 31 35 50 45 37 40 35 58 41 32 28 34 34 27 32 28 33 32 34 36 31 29 30 39 27 39 35 35 36 38 35 32 34 37 41 48 38 35 30 31 29 36 28 30 32 30 38 32 24 36 36 31 36 28 36 48 26 31 31 23 37 30 35 26 25 39 51 46 36 43 31 32 28 35 33 38 38 42 41 29 39 32 31 42 31 35 40 31 33 38 45 39 34 35 35 31 47 32 31 33 27 32 28 28 38 32 37 26 30 29 28 46 39 28 34 38 30 31 32 33 42 20 29 47 35 31 34 37 43 34 26 23 40 36 22 41 49 32 40 36 34 20 30 32 36 26 29 33 39 28 39 31 40 33 26 38 31 39 34 25 34 42 37 29 38 34 44 32 33 41 36 38 36 25 42 34 36 33 27 27 34 40 28 29 41 32 37 36 38 35 30 42 35 28 30 41 29 24 42 36 36 37 38 30 32 33 34 33 43 36 33 42 35 41 28 31 35 37 38 34 29 38 41 34 43 35 39 40 31 31 26 36 31 37 40 35 32 45 37 34 34 38 43 35 29 39 32 21 31 34 31 28 36 37 31 28 36 37 31 31 33 37 41 30 37 37 36 32 43 44 31 35 46 25 40 46 37 33 24 31 35 33 36 46 34 27 46 31 36 43 37 33 20 42 24 34 29 34 22 44 40 28 37 33 33 30 46 37 22 40 25 29 38 25 44 35 28 38 50 29 32 30 33 38 31 35 39 37 26 39 30 33 31 42 37 32 48 40 30 43 30 32 33 34 37 37 36 31 36 38 29 42 35 45 30 29 40 33 34 27 52 38 32 38 42 41 26 30 34 35 28 35 42 35 39 45 33 34 29 31 34 33 36 43 36 38 37 38 42 41 32 34 32 33 33 32 35 32 33 24 35 33 35 30 37 36 27 39 29 37 26 26 21 30 33 32 30 27 38 47 27 33 34 42 31 35 24 28 26 28 29 30 35 24 33 25 26 28 41 32 24 43 33 30 26 35 41 33 26 28 42 39 41 40 30 23 28 41 32 42 48 28 29 28 38 30 30 38 44 30 38 39 40 36 35 30 29 32 36 31 36 31 23 38 38 33 37 35 32 35 29 35 30 32 33 31 36 34 24 30 28 32 30 36 28 37 41 28 35 33 29 28 29 44 38 35 34 42 29 38 35 30 30 21 39 32 29 32 34 41 40 33 35 32 27 22 25 28 34 35 41 28 41 33 36 33 32 40 32 35 31 29 40 30 41 36 27 36 34 45 28 37 30 33 27 37 32 24 26 36 36 34 38 27 46 30 34 36 31 42 41 40 37 32 31 41 37 33 33 37 32 38 38 27 33 32 39 32 39 43 34 35 41 30 30 40 44 36 34 24 33 31 36 36 30 32 32 39 33 32 39 25 32 34 33 27 40 37 30 31 32 38 31 34 36 43 39 29 33 28 43 35 27 35 29 36 32 35 23 28 37 40 28 32 32 29 33 34 38 34 32 33 35 33 47 31 41 28 32 24 33 40 34 33 28 26 38 27 33 38 34 33 36 37 33 40 34 21 36 36 34 41 35 38 39 32 42 36 29 28 37 38 39 24 33 33 35 30 46 37 38 39 35 33 24 31 34 27 35 37 36 38 32 35 40 31 37 38 35 40 37 28 32 30 34 36 36 33 42 41 35 40 38 34 36 43 37 40 29 39 26 38 26 36 25 35 33 28 32 31 39 40 29 32 25 30 35 29 33 36 43 31 34 25 28 34 40 35 50 26 39 30 36 35 33 48 29 36 37 26 42 38 28 21 38 38 38 43 30 43 32 34 40 36 37 35 28 36 36 34 36 30 37 46 27 34 37 28 23 30 22 27 32 27 37 32 32 42 37 31 23 35 37 25 44 38 33 25 32 33 34 34 29 44 44 32 38 23 24 38 42 35 30 25 36 37 38 24 31 36 44 28 44 29 35 34 37 26 27 35 26 34 27 27 31 39 30 32 38 27 40 31 33 35 34 34 31 33 26 36 29 33 34 37 33 37 29 34 38 40 33 33 40 39 36 28 48 30 41 26 37 32 41 28 37 32 34 24 35 30 29 24 36 35 30 32 34 39 34 30 38 35 43 40 36 32 40 32 31 25 40 45 40 32 32 32 35 35 31 33 29 38 36 31 33 28 34 42 30 39 39 32 29 30 31 26 34 37 39 35 45 33 30 35 34 37 34 40 32 32 37 29 32 30 36 36 32 38 33 33 29 32 36 33 36 34 26 30 33 28 28 39 31 34 33 29 38 37 28 42 33 33 21 30 32 30 34 28 29 33 42 33 33 29 42 40 32 41 29 33 31 35 42 37 28 32 35 46 31 27 33 36 34 46 39 40 32 32 31 30 26 32 28 31 31 45 31 34 29 41 30 31 40 36 36 30 28 38 29 36 45 34 30 29 31 27 40 34 32 28 30 24 36 33 40 31 41 37 39 37 34 46 40 30 29 31 33 40 37 35 34 31 43 30 32 32 41 27 32 33 26 34 37 38 33 40 42 30 23 33 33 39 31 29 32 25 34 26 29 29 32 39 31 31 25 47 33 35 43 34 34 36 37 43 27 31 28 26 45 36 33 36 30 27 38 40 32 33 33 38 40 29 33 36 33 43 19 30 44 37 29 30 24 29 33 40 35 31 29 34 26 37 33 23 43 45 29 32 29 31 31 29 38 34 48 42 33 40 29 34 32 34 36 31 33 34 31 35 26 31 23 29 34 36 29 31 24 38 36 34 23 42 28 28 33 41 33 41 29 31 30 35 36 37 28 31 38 32 33 44 37 35 36 40 33 37 36 29 31 37 41 37 44 32 40 34 29 44 36 35 42 31 34 35 23 36 33 27 31 32 32 27 26 40 36 38 31 33 34 33 34 34 42 36 35 34 35 26 36 35 33 26 31 26 27 42 32 35 42 32 37 35 35 23 39 39 39 35 20 31 32 45 38 30 24 36 41 39 33 24 43 38 36 29 34 44 35 31 36 29 39 40 32 32 32 38 31 25 43 29 24 38 34 26 31 36 26 35 37 45 31 30 33 35 33 31 29 41 27 36 27 29 34 23 29 25 31 45 23 36 29 44 33 38 32 34 39 33 45 35 42 32 34 24 30 39 36 31 35 25 32 43 33 38 37 33 33 32 29 36 33 32 26 34 36 30 34 38 24 36 35 46 35 35 39 27 34 25 28 41 42 18 31 37 28 38 30 43 27 42 37 36 38 27 32 34 31 26 29 26 29 42 31 34 32 39 34 35 41 39 36 37 32 32 34 29 32 33 31 35 30 37 38 33 38 30 38 26 30 48 30 38 27 22 29 39 37 28 44 24 31 38 32 42 29 35 42 33 34 34 33 34 37 34 31 28 23 36 38 29 36 33 32 33 31 42 29 35 39 40 34 32 40 33 24 31 37 26 34 32 46 27 45 24 22 36 26 24 38 39 33 23 30 32 29 37 30 38 28 28 35 35 25 32 29 43 39 31 43 38 31 29 34 40 38 40 31 25 28 40 43 25 37 35 41 25 37 33 31 41 39 39 27 30 34 31 35 29 42 35 33 37 33 45 43 26 28 33 24 40 26 32 40 33 36 36 32 32 37 35 31 38 32 32 37 31 27 37 42 44 31 40 33 45 32 42 29 36 33 34 42 26 36 29 36 32 45 33 30 33 40 33 25 31 41 29 22 39 33 30 26 37 31 35 37 31 40 38 33 38 43 37 38 38 27 30 42 25 35 27 30 37 37 28 41 36 35 41 30 35 29 33 42 36 35 29 33 36 29 34 36 27 36 34 24 26 32 32 31 36 37 32 44 35 37 37 32 37 39 28 26 35 29 26 31 36 30 31 35 34 32 30 35 33 25 32 34 24 29 34 40 30 28 31 42 34 39 39 33 29 34 33 26 40 42 31 31 22 35 45 38 31 40 30 26 33 40 44 37 29 35 37 28 38 31 31 43 32 31 32 27 39 32 25 29 36 35 43 24 22 28 24 37 38 33 29 30 31 23 25 23 39 24 25 29 27 28 33 41 37 35 29 34 29 28 31 25 31 35 35 43 19 40 29 34 25 31 33 38 39 38 41 31 29 32 30 22 32 22 28 32 35 36 28 28 31 40 39 36 23 29 33 35 42 36 36 51 37 38 31 28 33 36 35 45 35 36 34 31 29 41 32 33 29 37 30 42 32 31 22 31 32 48 41 38 25 31 40 38 50 31 23 33 27 37 42 29 37 37 32 33 37 46 29 35 34 37 31 29 27 28 21 39 36 36 30 35 39 33 39 37 30 26 35 37 32 30 31 30 34 39 34 37 36 31 38 34 41 24 42 37 39 43 27 37 35 35 38 34 39 22 24 33 30 38 28 30 30 40 28 30 33 41 30 37 44 32 33 31 42 32 28 30 35 31 18 30 33 34 49 24 39 32 35 40 35 35 39 25 35 33 32 40 30 26 39 28 45 32 32 30 32 34 38 37 28 33 32 40 32 45 37 37 39 35 35 36 36 38 34 24 34 50 37 34 32 35 37 35 29 32 25 33 34 29 36 28 36 38 36 35 25 37 33 32 31 33 37 29 28 43 35 33 34 45 27 36 30 40 23 46 31 36 41 36 31 38 39 48 39 34 28 44 37 27 36 32 31 33 31 29 31 27 44 41 34 41 30 33 27 38 33 30 28 32 28 40 26 29 29 34 41 36 29 31 34 28 35 45 43 35 28 36 30 24 33 31 31 33 39 31 41 41 33 22 36 40 36 42 35 29 28 34 32 36 39 36 42 43 41 31 32 36 34 28 23 35 35 42 27 36 30 36 40 35 42 32 33 31 22 35 38 32 32 33 33 24 35 37 42 30 38 38 28 40 24 27 33 32 32 30 45 33 33 36 30 33 33 31 38 28 32 38 29 42 24 26 40 45 23 30 29 36 43 38 28 33 34 25 26 39 27 37 38 26 28 36 33 31 36 33 35 35 35 23 40 31 38 41 30 37 41 29 27 36 31 23 38 31 27 37 38 37 32 32 29 31 35 33 37 33 41 29 25 36 44 21 39 38 32 38 30 35 45 32 35 35 44 40 30 33 39 42 37 36 33 33 31 37 33 33 35 28 31 33 28 32 37 34 31 38 32 31 28 30 34 25 37 36 26 35 33 33 35 22 37 27 36 37 23 33 28 33 30 34 31 23 26 33 36 32 30 32 25 39 38 37 33 26 34 27 30 38 32 41 30 37 33 26 41 40 32 31 36 25 24 35 46 33 39 31 24 32 33 28 31 34 28 35 39 33 30 33 39 22 30 38 33 34 25 30 29 30 33 31 37 42 31 23 32 33 40 32 36 38 45 35 27 38 35 24 39 36 29 29 39 37 37 34 36 33 31 39 22 36 30 27 30 25 26 29 47 38 36 35 41 39 37 36 44 42 33 34 32 31 37 32 41 39 33 25 42 40 26 30 46 36 32 36 31 36 31 29 43 38 28 40 42 43 43 37 28 30 43 37 32 33 25 30 27 40 33 28 34 29 32 38 28 30 39 32 27 44 42 44 36 34 30 28 28 30 40 35 32 37 31 37 43 45 29 31 34 37 39 40 29 28 36 33 39 38 34 35 29 28 34 31 37 36 28 25 35 35 34 45 27 38 33 27 36 29 36 40 29 28 24 40 32 36 34 41 49 31 34 39 27 33 44 31 22 23 42 35 39 29 33 34 36 29 35 30 42 40 39 36 27 31 35 35 33 31 31 33 31 35 46 29 38 30 32 41 28 29 43 40 35 36 30 29 46 42 39 34 38 27 33 37 33 26 31 32 39 39 45 33 45 31 20 37 29 25 37 34 38 26 27 33 36 34 35 32 36 37 44 32 34 45 32 35 29 35 38 27 38 35 32 28 25 37 23 35 29 27 20 33 36 30 29 36 34 36 42 32 34 32 31 38 37 38 39 29 35 33 51 39 40 31 38 33 40 23 31 43 25 42 31 28 35 28 40 42 34 26 34 29 39 33 35 38 27 32 25 41 36 31 43 38 27 36 28 39 38 27 28 38 33 38 33 30 35 40 41 47 43 24 43 37 38 29 36 34 42 36 27 35 39 40 33 28 33 27 35 37 36 35 30 36 32 29 34 45 32 38 33 33 28 40 32 39 26 30 41 33 37 39 35 31 44 33 31 29 44 25 31 29 29 31 36 34 33 30 25 38 33 38 37 34 39 31 32 30 24 32 39 29 25 38 35 32 24 29 25 27 32 34 33 31 44 40 51 33 38 31 40 37 30 27 32 40 33 28 29 28 23 28 42 37 38 35 34 24 39 35 33 30 39 34 27 42 41 35 35 26 36 31 44 34 30 32 38 21 31 32 37 41 34 43 29 34 39 32 34 39 45 38 31 32 39 43 37 37 38 34 31 25 42 38 36 34 38 40 26 30 33 28 30 21 36 38 35 37 31 44 33 43 50 34 25 35 31 39 36 31 35 30 38 29 33 35 35 33 39 32 32 43 41 40 45 38 31 27 30 39 38 39 27 41 39 32 28 25 38 28 27 27 35 27 27 27 33 41 33 25 31 31 34 32 28 27 28 37 29 34 28 31 35 36 29 29 35 27 33 27 24 30 23 32 34 38 40 27 25 36 24 33 36 32 34 24 29 35 36 44 33 43 35 27 28 42 34 42 31 27 27 39 34 35 37 32 33 27 39 27 44 33 26 22 35 31 33 29 37 36 37 24 35 30 37 35 40 41 34 39 29 34 29 23 47 31 31 33 41 28 30 39 40 29 28 34 41 30 47 36 31 31 24 31 32 34 28 31 40 34 35 35 33 37 32 33 21 32 32 42 24 33 30 38 30 33 33 35 23 33 35 24 28 36 38 21 28 34 38 25 23 27 26 26 28 38 30 34 26 31 32 41 43 18 22 27 27 31 37 36 35 24 42 27 30 31 36 38 38 33 38 32 37 24 39 30 43 32 33 40 40 41 37 32 40 31 41 36 29 38 39 37 40 31 31 40 29 41 42 29 36 33 38 33 28 34 34 29 32 40 24 26 42 28 38 36 46 36 30 27 27 38 31 36 39 26 49 32 32 35 38 32 32 32 39 37 26 34 36 36 33 30 32 28 24 28 39 24 27 35 44 26 46 38 32 34 33 27 39 29 33 21 42 32 39 37 36 25 40 43 36 33 41 33 41 32 35 41 31 36 37 35 35 28 28 29 31 33 34 29 34 32 35 28 33 33 35 31 38 35 26 38 32 31 33 35 31 39 34 33 32 30 28 26 33 36 40 32 33 32 21 40 31 39 21 40 35 34 32 42 34 30 26 33 33 31 32 37 27 39 32 30 13 40 41 41 26 43 40 41 27 30 41 28 34 29 36 31 43 38 26 34 45 29 33 34 21 44 28 31 37 29 29 31 33 40 40 31 32 36 33 34 31 36 33 40 33 33 35 31 39 32 33 35 30 38 32 37 34 30 33 35 40 37 33 30 31 25 22 35 32 31 43 32 34 41 41 29 29 24 37 35 33 36 32 36 37 35 29 30 36 39 31 33 45 35 46 24 35 30 34 39 38 35 25 26 36 27 38 33 32 27 40 35 34 36 28 32 34 47 27 29 41 29 27 36 25 22 36 37 28 39 46 33 33 32 37 35 34 35 36 34 37 29 35 32 35 35 32 30 34 41 31 35 42 40 30 37 35 32 28 37 29 28 33 38 36 41 30 29 35 27 31 42 37 36 42 36 33 31 35 28 36 32 29 35 35 27 28 34 27 37 37 32 38 35 33 40 34 34 35 39 29 27 37 35 48 43 29 37 38 35 33 34 42 20 28 43 27 30 33 33 32 34 39 37 43 34 41 38 29 36 32 34 30 28 34 36 30 40 30 34 40 30 39 43 37 34 29 31 31 31 36 28 26 26 31 29 32 37 32 32 40 36 24 34 31 40 35 39 32 29 44 38 39 31 33 28 35 34 25 28 47 29 35 42 24 39 32 39 33 24 25 36 29 33 29 30 29 36 25 26 37 39 37 44 32 34 42 33 38 31 30 30 37 38 32 30 37 27 28 29 33 31 41 30 29 32 32 35 26 39 34 27 36 25 36 29 37 29 35 37 28 38 30 27 36 25 32 25 31 39 31 33 37 33 31 30 34 41 32 24 30 30 26 33 31 33 26 35 39 38 33 39 37 39 33 36 31 26 30 34 35 38 33 31 23 36 35 25 36 29 38 35 30 37 28 34 35 41 37 33 24 42 38 39 27 31 31 33 31 32 32 37 39 31 40 34 33 30 32 38 32 27 39 29 32 34 39 37 34 36 41 37 37 27 29 39 32 28 32 31 31 35 33 40 34 26 40 31 36 37 34 32 29 30 35 30 24 30 34 26 23 32 29 31 33 29 37 43 38 30 35 28 36 36 32 32 46 25 38 33 23 40 34 34 39 27 36 25 34 46 35 29 32 33 35 38 38 40 34 43 36 27 35 35 39 32 32 36 32 39 27 36 25 31 30 33 31 32 33 40 37 36 35 43 33 43 35 34 29 32 41 26 36 32 33 33 40 41 27 28 36 42 42 37 37 36 33 37 43 34 31 40 40 29 33 41 31 22 18 42 31 23 35 32 36 32 43 40 28 35 31 33 39 25 40 36 39 28 31 31 37 40 38 35 34 33 30 30 31 36 29 36 24 27 30 32 39 33 27 28 34 36 39 39 29 45 30 36 24 30 29 38 30 31 28 40 36 41 48 23 39 33 31 35 42 34 36 31 31 35 35 32 34 37 39 37 28 45 26 28 37 28 20 36 28 44 47 42 28 40 39 27 34 33 41 32 32 33 29 39 30 20 20 26 36 31 37 30 30 30 32 31 26 30 38 25 30 23 32 33 29 45 31 31 31 37 29 31 29 30 44 37 30 36 32 24 39 39 33 28 28 30 31 32 37 29 21 39 29 34 28 25 30 28 30 37 38 36 32 39 32 41 33 30 30 36 27 33 46 29 30 34 33 38 25 36 40 40 35 33 39 27 27 33 34 33 31 28 36 36 33 33 28 30 30 32 28 44 36 33 35 33 37 36 31 29 25 23 31 38 34 34 35 37 23 48 31 32 39 35 33 38 28 27 39 36 38 36 42 23 25 36 33 33 50 23 40 29 28 41 27 36 31 28 32 35 37 35 34 38 30 30 21 30 30 37 35 35 48 40 34 27 42 27 30 28 26 26 33 38 37 32 24 27 29 38 23 31 34 46 33 30 33 39 31 31 41 41 28 33 26 29 38 34 25 35 34 36 32 29 45 30 36 25 41 36 36 37 23 29 47 35 32 32 41 34 47 39 34 34 30 35 34 33 34 28 29 27 32 32 47 31 36 47 42 32 40 33 26 28 42 29 40 44 25 31 32 41 36 42 29 38 23 34 40 33 25 27 38 37 36 40 32 39 35 30 22 33 31 35 39 25 34 31 34 37 30 33 39 35 40 43 36 43 23 41 28 35 36 36 34 44 32 39 32 40 37 37 32 37 38 38 36 34 40 25 33 37 24 32 37 47 25 29 39 41 35 47 34 34 29 39 35 35 34 28 29 34 33 26 33 27 24 32 46 34 36 31 32 43 29 31 35 32 44 35 31 33 32 28 27 27 28 30 37 32 38 29 30 33 36 35 36 36 30 33 24 36 36 33 24 29 39 27 38 26 27 35 32 35 32 40 32 36 27 37 42 34 22 28 28 26 33 35 31 30 24 39 21 41 27 31 37 35 23 34 20 30 42 27 33 25 37 36 30 40 34 38 29 32 39 32 33 36 38 33 34 26 38 40 34 34 30 31 35 31 39 25 34 41 22 28 43 39 36 42 43 32 31 38 33 39 40 31 32 41 26 32 43 22 27 29 32 34 47 41 48 35 31 35 39 38 43 35 33 40 25 34 37 35 36 33 41 32 39 40 44 33 34 34 26 40 32 30 43 37 41 28 36 32 30 34 30 40 37 26 33 28 35 29 39 29 28 45 38 38 25 37 26 37 23 42 36 36 41 36 35 26 33 31 31 36 24 24 25 31 36 24 29 25 34 27 36 36 33 36 31 30 33 26 44 41 30 31 34 38 33 39 37 34 41 26 30 23 40 36 24 26 27 26 36 31 29 31 46 33 33 29 33 32 34 33 38 41 31 30 34 40 37 29 30 34 22 26 42 33 32 40 25 29 35 35 36 34 33 29 30 27 32 29 34 29 31 30 22 26 43 43 34 38 34 34 38 34 42 28 37 23 37 37 34 40 24 37 34 29 42 39 37 26 39 39 37 37 42 37 46 28 38 42 29 41 38 29 24 37 38 31 28 31 26 34 37 29 34 34 26 32 37 40 35 39 29 27 22 32 36 39 43 32 35 33 26 26 37 39 27 37 35 25 36 44 38 31 35 53 34 30 30 32 41 34 44 33 34 43 44 38 30 38 36 40 20 39 32 35 31 27 35 29 30 39 41 34 21 24 36 36 45 33 30 38 34 27 36 33 39 37 38 31 25 40 29 26 37 29 41 37 25 34 39 35 34 39 28 33 35 42 28 38 26 38 44 29 39 33 25 32 34 34 27 37 32 33 35 33 35 31 31 45 27 31 34 27 43 33 29 33 29 31 32 35 26 44 39 33 32 33 29 41 40 27 31 26 28 33 39 49 32 36 32 26 30 37 45 34 37 41 39 34 33 35 48 39 36 32 28 33 38 38 37 32 34 31 35 27 37 31 33 32 39 45 32 40 28 33 20 36 37 23 35 38 33 36 32 38 32 38 25 26 44 31 32 38 29 28 32 42 35 28 32 34 31 30 36 31 29 32 34 28 42 44 42 38 34 38 36 34 34 36 38 31 32 36 37 36 39 49 39 31 34 29 31 36 34 39 34 39 36 30 29 36 24 35 24 31 32 31 36 29 28 35 30 34 39 25 31 27 39 44 35 28 48 37 25 34 26 32 34 29 29 28 41 41 45 36 26 33 39 33 39 34 25 33 24 38 34 37 30 26 38 26 29 25 40 30 30 33 32 36 32 36 34 41 37 43 45 34 38 32 32 30 34 33 35 30 35 36 27 27 28 32 31 28 32 26 34 37 34 24 43 36 33 36 39 26 39 24 36 45 34 31 38 35 30 40 45 37 35 38 32 37 28 38 29 38 36 34 33 30 42 32 28 31 42 33 29 43 37 39 36 39 34 36 34 35 39 39 34 41 28 35 31 39 30 20 32 35 32 44 28 33 28 23 31 44 37 44 35 43 42 42 43 30 35 32 32 31 38 35 36 37 33 40 26 35 32 29 37 39 33 27 35 34 36 34 29 27 31 31 36 21 35 47 39 40 24 40 36 30 36 31 39 34 25 29 36 24 36 27 30 33 28 27 35 26 41 33 36 42 41 37 43 28 38 31 40 39 36 32 34 37 41 42 33 41 38 39 30 40 31 40 27 35 23 25 29 48 33 45 39 33 35 33 32 29 28 34 32 35 33 35 38 40 27 30 32 36 24 31 37 32 29 43 34 31 26 43 34 37 29 34 40 34 29 34 24 33 35 34 38 38 27 26 31 36 29 31 34 45 35 29 38 33 37 36 33 41 33 28 32 35 32 21 37 27 40 27 33 38 36 37 26 29 33 41 41 42 22 34 39 30 29 28 38 29 36 32 40 30 30 36 30 35 41 41 39 41 36 42 34 47 31 41 39 37 32 33 35 33 34 29 25 34 48 38 38 32 37 30 29 36 22 45 37 31 47 38 30 26 32 35 32 35 36 30 32 30 35 34 39 36 30 35 37 38 35 34 38 22 30 39 28 36 35 38 42 35 50 33 36 38 39 36 38 41 36 26 32 33 36 28 37 51 32 38 32 34 42 31 41 29 36 29 35 40 33 46 35 30 37 30 50 24 39 36 46 37 24 31 36 32 28 35 42 24 39 33 27 27 24 31 44 39 34 28 29 41 34 37 29 46 26 34 41 33 37 28 30 26 30 34 31 27 41 37 32 34 35 43 30 36 36 42 31 28 30 23 47 34 26 38 29 33 31 40 21 36 29 29 30 47 37 33 30 33 47 37 37 37 37 33 36 29 46 31 35 31 31 36 35 31 30 25 44 29 37 35 40 38 38 24 32 27 31 34 33 36 37 36 35 50 33 34 38 35 37 36 28 35 46 33 26 22 35 27 37 27 41 27 26 35 43 36 41 36 35 31 34 34 29 35 29 41 39 37 29 38 33 38 38 31 39 26 39 33 37 34 34 25 28 28 43 29 33 33 36 21 30 26 46 26 34 38 33 31 34 37 33 29 35 30 31 31 22 28 36 27 23 38 22 32 34 25 36 35 35 26 44 40 35 43 28 37 24 36 23 32 21 36 29 36 33 37 26 25 36 28 35 21 34 27 35 39 43 34 33 43 42 43 34 23 37 37 25 40 26 30 35 44 29 36 43 34 46 31 24 33 35 43 26 31 34 36 33 37 33 41 37 39 24 32 45 47 28 39 36 40 33 37 37 36 29 43 31 31 33 31 31 35 41 33 20 31 39 32 34 38 31 30 43 36 39 39 42 42 35 32 33 40 37 38 31 31 37 41 28 29 30 28 46 38 32 39 28 27 33 41 33 31 40 37 36 35 31 29 31 39 25 46 36 26 32 34 26 37 29 44 26 31 33 34 38 28 41 26 32 37 32 43 28 26 33 31 33 39 24 27 31 30 25 42 37 38 31 30 40 35 33 36 43 39 33 36 27 32 30 28 37 23 35 32 29 46 27 32 27 34 30 37 37 39 31 32 28 33 23 33 35 44 34 33 36 38 36 34 25 34 30 36 29 33 35 27 32 34 30 37 30 30 25 29 35 20 28 27 27 34 22 30 40 32 40 43 32 28 35 27 23 30 31 33 36 33 30 41 38 38 35 35 39 32 34 31 36 39 30 36 25 34 34 45 33 29 35 36 26 32 34 32 31 35 25 36 33 41 37 25 53 38 37 27 34 37 42 27 25 38 38 32 41 31 42 34 35 31 44 26 37 34 33 43 27 34 35 27 34 26 31 31 29 38 31 32 37 36 37 52 28 31 27 36 39 36 37 25 50 35 34 38 31 35 40 38 31 29 28 43 34 38 33 27 34 31 30 42 28 35 27 30 44 27 33 35 33 32 37 34 35 41 35 30 39 32 34 27 36 40 30 36 37 38 37 42 28 28 33 32 35 32 35 35 30 27 32 36 30 31 41 47 30 25 33 37 33 43 26 39 32 33 34 28 29 33 35 30 34 24 32 45 31 25 36 25 30 44 36 33 43 33 35 37 50 33 28 29 35 35 32 32 32 36 29 38 42 35 29 36 19 34 31 35 34 32 37 39 29 39 36 30 31 36 37 28 37 39 40 43 37 36 31 32 35 41 35 25 42 43 42 34 37 34 32 32 23 27 42 40 32 28 30 30 32 34 28 25 31 24 45 38 37 34 29 31 40 28 26 33 34 36 35 29 29 34 27 27 25 27 32 25 28 40 32 22 31 36 29 34 36 37 35 42 40 47 29 39 33 33 24 39 30 27 41 43 31 34 37 40 29 44 35 49 28 30 40 23 33 34 30 33 30 32 35 35 33 33 38 35 37 33 35 36 39 44 30 47 34 38 27 30 34 43 31 37 26 35 38 38 32 27 32 37 48 37 26 32 27 31 40 41 37 37 46 25 29 39 42 30 31 29 34 40 32 33 36 31 30 38 37 34 31 25 28 31 31 39 41 39 37 27 41 34 27 26 36 34 29 30 27 30 38 27 31 41 33 34 34 29 24 41 31 40 27 33 36 37 35 37 30 30 36 31 34 25 32 42 34 38 32 34 28 30 27 40 41 44 40 33 33 33 35 21 34 26 40 28 43 40 33 32 31 34 32 28 25 27 25 35 36 32 28 38 42 34 42 47 28 43 32 38 21 23 23 36 32 36 26 29 37 31 22 35 23 38 29 30 32 45 32 37 37 36 35 39 24 44 36 39 39 31 40 25 42 40 32 40 26 48 40 35 38 31 38 33 41 35 34 38 27 36 38 45 40 33 40 26 27 38 32 42 26 35 36 43 37 40 31 31 33 33 28 41 35 28 39 40 36 34 32 32 42 27 30 34 44 40 27 36 26 31 38 36 38 36 29 24 33 31 41 35 33 30 29 32 39 29 33 35 25 30 27 38 28 33 33 35 37 32 38 26 34 32 26 42 40 38 37 38 32 33 47 34 41 37 35 36 34 35 31 35 33 36 39 49 26 35 36 38 29 31 35 21 29 28 37 40 30 30 20 37 29 37 31 33 35 41 35 32 33 29 23 30 39 38 33 31 44 30 44 33 36 31 39 43 38 36 32 29 30 33 37 44 37 42 22 37 38 41 34 31 33 44 32 31 28 44 30 31 22 25 31 35 35 38 32 31 38 45 42 41 34 30 37 29 42 31 29 33 37 39 29 41 34 28 32 29 45 30 28 42 44 40 39 28 32 39 36 30 32 30 28 27 39 33 28 39 35 30 34 38 34 21 32 34 36 30 35 32 37 38 38 33 33 39 44 27 34 42 34 35 32 40 34 35 31 34 30 37 39 25 33 26 42 30 41 32 46 31 40 32 25 30 37 36 39 39 25 37 35 29 40 32 33 33 30 22 31 44 47 43 37 46 38 34 42 25 39 35 36 38 34 30 41 34 29 36 36 34 40 30 29 26 16 27 29 45 33 33 37 23 35 29 32 35 38 37 29 47 26 41 38 28 37 25 35 41 22 22 37 41 33 30 29 28 39 33 32 32 39 22 33 37 32 35 35 26 38 33 29 34 30 34 37 38 30 36 27 36 40 38 34 31 31 30 39 30 36 34 37 34 44 27 29 24 42 32 29 42 28 39 24 33 36 35 37 25 34 27 34 29 25 26 26 30 30 37 34 33 34 31 30 36 24 28 36 43 31 35 30 37 34 38 31 40 41 30 40 35 37 34 36 21 27 31 41 31 31 30 33 34 36 29 31 28 33 31 30 44 41 44 37 43 45 34 25 34 30 28 41 27 46 28 29 31 38 31 24 32 35 28 36 37 33 35 27 28 30 33 30 34 39 26 36 29 37 32 34 41 30 43 33 30 34 33 32 36 37 28 26 33 23 29 30 38 41 40 37 24 32 30 33 29 37 30 29 45 42 28 32 53 46 33 33 31 32 37 33 38 27 30 39 35 31 31 32 33 40 41 23 37 27 37 34 34 36 33 30 32 31 33 36 36 28 37 20 27 42 41 27 33 26 31 45 35 23 33 32 41 28 26 40 30 31 29 42 32 29 27 38 30 38 33 31 33 35 32 35 33 31 29 38 32 25 38 28 30 33 31 36 37 36 33 40 44 36 34 38 26 29 38 26 35 29 29 31 21 42 34 29 35 32 42 45 31 32 36 27 40 42 37 33 31 39 38 31 35 33 41 40 38 32 30 37 34 32 29 30 32 34 31 41 38 33 40 31 40 35 43 28 23 35 31 23 24 38 26 37 27 41 36 33 34 37 32 36 39 46 27 36 39 41 33 31 38 37 37 45 36 44 27 30 39 37 31 39 32 28 30 33 28 33 41 35 30 36 41 29 42 32 28 25 31 37 36 25 30 33 37 40 32 40 29 42 41 36 33 41 23 27 26 24 34 40 30 26 41 37 32 33 32 30 36 42 33 29 31 38 35 26 34 37 27 40 30 35 25 27 41 40 24 23 38 38 27 37 37 36 35 29 33 28 30 35 40 23 48 39 31 33 33 29 38 30 22 36 40 40 41 32 25 39 46 39 37 27 28 38 44 25 29 36 33 32 36 37 35 32 25 28 45 47 47 32 37 37 34 28 35 32 28 29 33 35 33 45 33 33 29 40 45 26 38 31 37 24 38 29 34 39 33 27 34 30 28 27 33 36 45 33 35 30 33 30 54 27 36 30 34 27 29 43 35 35 34 32 29 34 27 34 27 38 29 37 26 27 36 43 34 31 41 39 37 25 26 21 30 34 32 28 44 34 33 43 36 25</t>
-  </si>
-  <si>
-    <t>JSU(-14.20850162575826, 13.741620394355081, -290.77304605730035, 435.85001921850426)</t>
-  </si>
-  <si>
-    <t>182 219 262 372 229 330 300 225 201 191 203 236 268 246 156 302 314 271 264 274 310 218 173 238 214 252 284 159 230 314 269 299 248 315 260 176 205 234 320 195 158 303 195 254 267 300 242 226 318 142 303 318 276 167 159 190 262 284 223 288 248 186 326 268 188 242 249 286 311 291 235 212 228 280 160 292 340 236 289 245 176 220 264 284 299 170 239 251 214 218 394 278 250 263 198 221 285 208 244 285 253 190 259 208 219 283 270 184 333 210 205 279 228 221 208 247 294 212 202 209 354 199 183 277 230 315 242 274 191 247 299 199 196 139 234 205 308 240 163 260 305 234 209 275 341 258 199 266 320 194 253 227 191 209 225 328 189 333 246 299 295 335 200 208 384 327 243 266 299 279 286 325 337 236 243 254 218 236 259 208 214 221 226 159 243 291 348 206 260 299 255 298 170 193 369 172 322 271 317 278 134 237 249 257 260 296 287 223 314 272 248 295 163 282 246 228 309 183 260 254 264 180 313 285 265 301 194 327 314 329 246 184 299 272 294 218 227 212 211 331 253 184 155 256 244 212 335 237 216 264 195 166 207 301 299 288 173 226 257 270 244 269 215 183 250 222 357 211 224 291 166 196 247 300 308 215 252 204 295 225 226 245 238 296 257 219 229 276 312 193 252 190 185 332 275 270 305 266 247 230 227 210 221 290 293 357 273 228 290 201 257 272 278 243 290 184 275 199 254 209 192 231 263 273 169 210 267 243 277 232 282 250 209 179 245 283 214 153 324 299 220 139 248 158 337 349 264 241 174 242 226 213 217 326 275 254 268 294 323 225 260 326 276 268 237 328 262 187 234 206 315 266 264 209 340 136 214 178 232 287 236 191 188 244 255 208 264 264 274 259 355 252 137 251 226 256 298 203 256 213 276 218 262 252 250 158 149 229 282 203 353 190 326 190 319 223 137 143 293 289 331 264 312 163 272 308 209 215 235 236 193 242 157 247 270 213 221 259 343 284 174 210 305 372 273 212 201 306 255 189 260 181 225 269 244 211 279 285 218 219 239 276 219 287 120 294 167 282 150 242 214 260 251 265 275 263 331 223 261 238 212 288 253 229 203 255 357 212 317 152 240 238 314 259 212 273 229 341 243 239 244 170 205 306 358 226 307 229 267 246 241 370 213 281 247 181 198 206 134 250 208 169 272 174 208 238 338 187 288 260 277 214 265 273 194 207 197 238 229 321 155 311 274 215 311 258 240 234 247 397 328 241 251 258 199 189 237 241 271 219 291 297 212 379 250 289 242 259 266 323 274 283 210 159 216 172 328 277 202 305 237 261 185 207 249 255 246 186 354 188 143 250 225 207 278 254 171 222 214 375 188 275 266 150 272 211 212 241 234 276 318 256 265 142 266 143 249 329 356 311 198 209 172 194 354 189 239 284 272 232 309 242 235 353 297 249 264 272 204 168 295 166 200 190 287 240 218 278 300 188 267 230 175 278 256 221 238 280 180 172 293 314 228 259 208 267 300 238 279 295 221 389 192 230 269 350 183 253 168 344 226 287 125 241 352 243 265 287 230 320 218 241 256 243 283 260 227 293 228 227 224 339 294 307 160 161 247 401 236 187 167 210 222 296 200 345 292 291 245 214 191 257 212 239 250 284 222 242 212 278 144 206 239 141 226 195 340 190 284 288 292 244 327 278 234 236 247 273 135 265 274 272 313 300 243 325 193 134 234 234 219 186 155 244 172 143 265 214 255 332 202 256 186 192 163 251 315 195 184 317 215 237 227 236 303 322 194 261 326 278 167 302 273 227 163 245 235 262 241 278 222 241 291 223 242 245 180 384 196 287 281 290 225 309 189 213 162 258 168 134 274 299 230 296 238 330 221 223 262 222 197 123 295 240 196 207 211 228 88 252 209 206 227 239 248 132 260 281 284 250 312 276 327 248 340 220 205 209 286 196 284 306 204 288 267 305 245 279 180 259 265 256 242 261 292 270 247 248 159 226 183 240 253 163 163 287 259 296 201 171 228 160 268 218 190 196 296 249 366 165 323 304 257 291 282 244 226 290 302 177 331 270 246 311 163 215 303 303 245 244 231 300 321 272 314 284 218 187 289 181 207 332 261 203 275 261 329 235 158 226 190 240 232 279 149 322 253 219 194 344 289 272 275 228 251 316 243 255 303 223 217 188 249 226 214 169 356 284 292 242 313 274 327 196 242 340 280 288 229 219 265 270 344 283 235 150 299 303 197 237 255 295 280 320 217 224 265 246 261 280 203 276 238 223 230 265 188 197 193 283 257 254 300 294 80 313 227 287 186 150 226 243 232 310 346 286 313 245 241 219 223 298 139 280 276 230 253 212 185 224 194 247 182 251 169 191 193 311 355 254 275 197 257 204 276 293 270 158 246 204 216 238 320 235 118 229 241 291 266 249 228 204 310 250 211 366 260 256 212 271 247 211 256 256 290 261 301 200 354 204 266 243 296 239 225 269 282 250 266 252 305 229 329 153 250 324 148 286 287 202 219 163 321 269 273 206 331 264 247 196 294 212 208 218 200 278 288 229 241 274 246 201 249 282 214 230 306 259 235 340 250 302 321 260 313 276 232 156 258 248 179 225 191 210 320 155 252 308 230 289 301 289 137 178 200 282 262 188 287 165 146 207 230 212 219 274 158 212 272 364 247 217 189 245 388 278 245 222 213 148 197 226 241 202 207 275 188 262 254 322 287 245 242 237 268 249 195 261 218 317 242 241 230 256 287 308 201 303 229 275 224 266 176 272 269 251 352 237 264 310 238 152 291 194 316 174 332 389 256 268 284 160 240 322 187 253 247 216 168 255 231 314 125 237 307 272 202 270 204 228 286 212 235 263 281 156 323 180 257 262 301 321 244 293 163 262 285 215 334 233 290 253 349 278 251 231 191 261 248 204 170 195 164 142 232 241 220 255 341 322 333 344 326 261 293 296 210 307 172 289 323 244 208 374 203 363 226 232 187 245 265 257 197 402 374 205 330 245 295 298 191 349 288 280 319 179 231 203 192 135 166 170 252 303 156 276 315 208 234 274 278 255 106 326 305 245 270 229 117 136 321 178 235 264 221 284 238 201 206 277 187 221 298 299 269 182 341 352 303 234 206 352 292 281 234 239 247 348 392 300 281 271 245 310 369 299 237 327 235 246 251 220 234 238 197 249 111 193 237 335 208 354 297 195 297 195 305 197 239 275 179 203 239 303 172 233 253 284 193 189 251 244 274 214 296 332 212 234 285 206 227 248 222 250 289 276 269 228 205 256 192 222 286 203 264 221 263 330 256 276 375 310 254 326 347 206 183 262 260 274 223 226 366 278 249 184 278 256 164 205 242 346 365 253 269 314 188 247 215 251 271 200 201 275 322 225 298 146 281 176 348 258 293 275 282 165 227 206 248 182 299 222 259 185 247 229 250 247 269 192 292 243 262 188 134 224 194 194 244 219 247 301 258 280 255 293 326 245 247 273 176 262 263 330 251 317 273 230 252 194 251 227 200 240 257 261 252 170 400 189 279 193 161 232 292 273 256 221 264 246 209 238 313 226 313 284 297 289 139 157 350 208 242 273 264 390 264 254 242 211 298 276 407 195 176 306 233 149 301 351 316 292 261 245 285 250 220 320 368 230 244 241 263 286 260 235 250 235 296 267 243 258 288 287 241 209 291 187 272 288 332 235 220 169 189 289 315 307 195 213 285 332 139 234 224 234 217 285 290 165 280 313 257 270 328 236 213 236 253 237 165 165 248 295 289 165 264 233 227 302 301 274 134 186 242 293 165 198 245 256 270 304 154 269 260 247 270 255 188 344 293 201 277 246 241 257 221 278 275 276 313 237 213 192 190 278 177 240 347 207 305 207 185 274 225 205 190 216 265 264 274 225 274 246 213 286 154 244 281 329 343 188 327 292 289 318 215 261 159 319 267 268 229 293 182 194 261 301 268 213 191 284 225 217 246 254 205 147 212 338 200 160 297 223 336 208 150 220 248 221 335 181 146 174 225 216 180 289 222 226 244 173 269 158 340 338 182 175 228 207 212 263 204 317 219 291 199 134 254 253 230 193 178 260 294 234 324 296 287 323 342 263 212 224 278 317 208 305 212 237 324 302 367 347 208 274 259 227 192 214 202 259 281 207 243 246 160 242 223 196 381 346 287 178 220 382 303 247 274 193 190 277 228 152 254 280 174 265 252 348 190 275 294 240 183 325 266 226 220 244 275 219 315 271 238 304 163 297 214 227 298 262 206 327 274 159 145 206 316 291 211 183 226 206 207 269 290 275 259 247 222 226 256 311 360 254 228 227 264 197 270 209 266 200 235 358 233 278 231 145 301 261 294 324 196 250 271 304 209 337 265 263 224 253 212 269 229 215 235 273 221 170 280 198 235 288 192 192 177 173 234 343 328 359 178 260 307 257 301 184 350 248 149 228 216 249 174 224 270 297 295 270 234 288 236 310 294 236 365 195 196 256 205 128 265 221 162 264 323 300 267 290 167 308 287 249 200 261 268 215 193 162 244 271 239 288 268 251 227 322 217 202 176 326 293 240 280 286 230 248 193 319 181 296 252 133 150 271 242 245 274 221 126 248 259 312 225 221 218 304 170 124 198 203 244 212 193 222 193 295 144 300 187 206 271 295 212 208 163 261 242 233 242 225 169 312 198 186 201 205 215 348 218 261 205 134 256 208 299 224 196 315 183 309 219 249 238 196 223 225 195 179 182 214 300 183 304 298 265 261 323 199 264 259 293 141 218 329 286 248 256 185 307 185 153 341 247 264 236 302 356 266 201 301 260 139 248 278 286 265 295 248 204 247 239 230 193 213 253 252 252 237 208 223 310 257 164 198 222 161 209 231 270 140 222 319 231 355 234 307 232 243 327 274 240 235 264 186 323 257 338 194 227 163 203 252 371 243 228 171 224 219 290 209 235 248 263 124 254 207 238 246 252 274 225 277 247 232 283 234 271 220 172 317 347 220 213 187 225 296 258 245 230 280 257 234 325 270 83 208 214 165 172 271 265 138 255 190 201 272 194 285 151 274 182 201 249 329 349 254 325 322 212 178 161 259 250 258 174 249 242 271 242 208 314 190 245 255 204 160 234 233 241 245 271 214 227 197 165 205 265 269 277 263 256 236 257 255 308 202 215 295 217 194 218 271 245 209 269 290 194 179 175 221 205 170 152 290 234 298 205 293 224 255 263 202 273 271 162 289 193 168 203 208 272 269 253 282 221 203 217 211 190 256 227 248 196 222 316 197 293 270 264 314 219 231 269 419 266 346 163 274 253 233 132 236 284 290 247 228 184 312 183 262 181 302 289 162 212 165 228 263 238 190 206 306 213 200 215 282 188 303 218 239 255 329 268 283 258 281 185 197 153 276 222 239 232 208 285 265 252 254 250 239 358 263 310 262 278 223 255 166 238 197 177 230 302 222 141 164 257 295 146 207 245 339 243 234 249 306 281 245 304 255 209 266 196 221 248 207 183 293 206 279 255 219 240 272 338 203 331 277 219 293 203 269 237 279 290 250 272 325 241 305 230 241 249 241 234 315 218 299 342 277 234 262 262 270 206 226 305 215 272 260 200 313 135 256 222 213 268 193 205 258 189 236 299 186 190 188 285 301 257 236 234 158 188 343 261 340 198 345 265 280 241 327 255 288 265 282 184 242 235 310 214 167 223 275 287 305 336 167 199 185 156 263 167 259 210 258 228 225 333 227 299 222 244 172 259 208 223 220 312 300 215 242 173 235 176 172 287 312 258 202 332 218 209 186 340 276 215 221 180 283 286 178 341 205 213 283 224 183 218 244 176 240 233 349 165 225 221 243 239 163 369 196 209 280 178 220 306 265 232 188 229 377 280 169 280 260 216 166 220 271 255 174 219 291 160 196 215 272 172 111 222 291 196 246 294 238 301 244 233 259 130 199 242 317 291 253 153 226 212 241 216 322 228 164 217 253 197 166 295 254 227 162 235 296 212 211 177 262 313 291 193 215 259 230 249 267 261 233 280 264 197 237 357 227 355 232 258 213 327 179 181 259 344 272 131 296 320 224 323 253 340 304 293 298 232 215 276 273 253 253 238 180 264 262 303 226 291 198 249 265 160 249 231 250 235 326 159 192 250 263 301 227 239 228 201 246 227 361 345 309 272 312 216 217 245 284 141 259 248 233 239 204 251 271 352 266 269 249 193 169 146 226 280 256 122 229 235 270 209 290 275 264 170 265 267 266 258 243 260 266 244 207 218 297 227 310 280 361 324 203 248 205 179 280 261 278 225 268 160 248 268 239 279 158 278 280 193 289 142 160 169 183 165 257 255 336 238 285 300 252 280 181 262 250 315 177 165 184 157 305 245 247 218 207 257 167 252 242 247 190 233 265 174 237 259 309 138 263 264 234 265 313 210 129 222 243 204 214 182 254 189 252 375 348 264 317 220 212 197 210 288 243 271 277 225 253 306 223 217 216 265 253 239 302 142 316 162 199 194 221 257 254 271 351 218 253 268 182 180 223 263 219 238 189 252 206 292 118 348 286 330 246 150 206 219 224 160 281 235 257 294 260 216 209 229 311 214 202 366 334 289 207 233 212 229 337 242 220 252 319 242 207 208 324 291 194 197 234 236 229 235 231 266 242 217 253 284 212 213 240 182 305 228 230 308 272 301 227 192 310 318 308 238 250 145 200 251 333 236 174 249 284 266 264 153 301 304 157 282 198 272 403 210 226 202 165 260 233 226 251 168 225 338 346 287 190 182 199 197 218 221 296 244 268 271 203 278 221 191 322 225 283 374 244 182 287 283 293 259 219 282 240 333 294 266 265 169 308 189 205 305 245 252 170 206 245 225 337 284 231 264 279 241 197 205 301 324 174 266 272 354 204 228 220 284 173 208 112 234 252 164 292 266 220 289 278 260 90 172 245 303 157 191 262 244 193 268 203 307 244 174 306 216 314 307 200 229 284 238 166 320 230 274 303 220 316 324 257 242 146 248 240 276 261 135 170 251 269 174 192 283 286 271 271 316 326 166 210 273 245 247 325 199 208 266 279 265 236 230 162 269 259 274 275 389 288 177 281 334 258 217 235 255 260 325 210 214 284 213 241 359 232 279 354 239 190 209 302 179 215 269 278 289 319 290 247 253 320 260 275 210 291 230 213 234 238 263 232 228 300 220 214 308 219 229 273 283 303 253 230 231 250 260 302 337 256 226 279 364 179 297 359 261 250 165 247 273 305 251 325 229 226 285 268 263 315 238 159 140 240 148 262 224 220 191 297 298 241 303 185 251 204 418 248 179 220 167 170 213 230 331 246 178 218 363 256 219 222 240 281 211 213 240 264 186 229 190 326 227 303 309 185 373 326 249 288 250 213 275 305 266 208 289 190 298 252 285 281 287 301 210 251 260 281 215 276 361 286 251 189 395 254 177 188 292 317 157 305 286 253 250 305 219 250 163 228 261 251 274 297 324 315 284 249 285 246 184 220 182 203 279 217 200 216 229 138 279 273 242 175 243 232 205 288 215 279 227 190 170 215 210 228 196 195 277 365 229 222 208 243 176 229 183 239 184 127 221 186 273 156 197 163 171 185 342 216 190 288 257 267 195 189 301 202 169 219 339 335 239 207 192 158 235 290 223 327 290 198 255 175 257 256 211 327 325 277 301 238 296 261 263 166 189 234 322 246 254 262 150 264 237 221 291 337 285 206 248 280 231 272 214 235 288 261 173 215 166 255 166 156 206 263 272 218 210 266 174 219 255 323 321 263 216 285 159 255 285 220 178 202 265 186 276 227 226 350 288 231 219 287 209 174 178 257 282 223 348 202 267 197 259 230 247 295 286 268 220 235 293 212 330 308 184 279 273 317 256 197 198 288 224 279 253 152 207 224 270 243 321 196 315 248 320 246 246 299 252 302 210 199 240 309 303 190 264 241 232 322 260 182 257 249 295 259 301 354 243 258 283 244 208 286 416 277 263 184 289 196 238 190 248 283 256 371 255 274 255 237 192 245 198 163 320 302 241 203 228 285 193 316 282 297 276 154 238 291 360 279 211 230 227 322 226 278 159 229 223 324 158 189 335 161 242 231 311 252 255 186 251 236 371 219 290 240 283 154 234 249 172 287 242 225 245 149 267 318 231 241 228 224 246 282 232 192 307 295 209 327 294 275 204 278 277 251 232 193 261 323 342 205 268 310 268 251 320 236 342 333 310 334 212 227 250 201 266 262 279 253 285 267 279 241 293 303 227 307 253 179 191 252 286 220 298 229 272 338 236 336 256 288 249 344 274 283 229 320 193 217 216 268 151 260 236 254 278 241 230 235 230 270 182 157 140 195 255 290 279 221 236 147 154 257 253 280 309 190 216 201 289 359 276 315 168 267 338 209 283 313 211 132 311 261 277 288 188 323 248 243 275 228 294 268 229 240 205 258 232 225 322 312 194 286 284 176 210 207 176 207 277 200 273 295 267 309 334 238 177 258 354 159 262 230 251 186 195 145 201 265 166 298 277 201 228 162 181 227 318 294 149 212 283 354 373 159 197 198 270 216 327 162 216 307 336 222 207 276 231 249 247 244 221 356 245 249 290 134 246 211 255 283 259 199 219 234 182 306 230 254 223 290 225 290 177 220 314 268 273 267 254 276 259 182 381 296 263 207 300 236 262 217 257 304 277 190 283 207 191 197 303 218 248 216 185 274 264 211 251 282 316 275 253 227 221 217 261 179 299 372 270 206 239 228 226 273 221 287 201 326 253 223 175 195 191 311 210 256 221 266 279 206 240 166 268 262 258 219 331 271 209 288 252 316 254 286 258 243 326 274 251 208 261 267 312 235 304 203 240 155 279 254 236 279 210 187 264 226 245 271 243 225 271 213 255 291 162 283 289 288 150 225 204 223 225 190 193 274 275 220 252 224 321 384 256 269 205 218 221 262 392 279 234 202 217 317 225 189 260 273 278 349 351 341 245 229 239 232 236 260 265 253 283 329 231 235 173 319 222 208 307 205 280 278 183 219 202 170 286 211 237 202 217 206 303 243 226 238 239 164 293 343 283 237 313 339 294 264 275 361 358 211 201 229 220 310 238 237 291 215 282 249 268 193 376 186 242 173 163 250 303 260 224 314 310 246 254 303 266 279 269 209 211 198 236 146 284 238 225 239 201 201 152 293 235 198 309 262 326 250 235 318 216 245 179 226 311 199 378 240 224 197 273 231 285 292 229 297 334 230 222 242 234 292 123 224 356 351 177 229 215 209 179 310 305 238 231 240 140 269 246 167 320 283 288 213 270 228 194 146 285 209 292 345 270 292 214 217 253 172 261 214 238 237 191 246 193 243 136 272 255 270 299 174 151 296 202 254 169 301 217 196 268 297 255 250 224 252 210 249 286 309 258 205 263 215 210 324 270 313 247 268 258 260 249 207 289 272 337 217 277 260 281 229 261 334 214 314 304 232 191 221 126 272 282 170 195 250 176 137 194 318 217 269 221 288 211 213 241 333 276 247 186 229 235 201 277 243 221 215 204 230 196 325 231 249 232 236 266 253 294 198 234 263 295 236 92 187 294 327 272 210 211 193 277 253 259 219 295 292 289 242 280 271 209 272 187 228 239 292 180 254 199 272 255 178 319 242 193 335 279 186 225 332 198 274 229 335 226 233 247 248 225 259 169 289 166 322 236 205 272 154 215 175 288 329 202 246 212 317 205 248 191 233 264 259 273 256 364 215 212 185 222 279 214 291 262 182 200 311 226 311 261 212 238 204 173 275 259 205 180 289 286 205 226 289 222 307 246 343 192 255 250 149 267 183 243 356 246 154 221 320 194 257 280 321 213 290 367 231 236 160 226 224 258 196 233 219 268 274 219 206 260 234 281 233 222 296 280 305 265 220 226 231 185 266 208 297 191 282 261 242 285 218 224 223 229 334 228 265 151 173 209 246 276 244 350 138 262 309 226 356 215 333 270 231 217 270 223 238 250 265 249 165 193 257 236 204 300 250 263 214 230 308 191 322 317 228 238 225 290 190 189 265 347 181 241 231 330 194 280 221 159 266 163 205 322 265 219 139 194 277 208 306 195 273 216 157 215 218 200 272 218 302 288 282 334 313 285 238 202 271 275 313 194 169 224 262 313 209 232 251 325 157 256 260 234 378 266 251 233 186 301 275 277 251 284 250 267 319 301 351 212 159 277 302 201 295 147 312 278 241 271 261 265 274 233 249 260 269 261 260 295 162 187 305 320 232 230 309 196 181 281 304 234 213 189 327 311 152 226 216 309 237 325 185 235 263 319 259 209 223 264 243 145 345 206 238 201 214 247 222 254 205 418 251 281 265 308 280 251 221 179 176 328 215 263 264 235 246 239 194 275 294 191 238 206 263 272 187 340 209 330 259 232 213 220 281 253 240 280 251 215 212 208 205 201 227 254 236 291 308 221 339 298 293 225 200 170 263 208 209 278 290 244 220 252 217 203 299 304 325 217 255 237 164 219 193 293 230 195 151 324 194 233 303 250 191 286 252 168 335 342 233 247 185 206 286 275 244 299 250 212 242 301 329 326 215 273 275 234 251 257 227 294 233 198 185 177 290 244 159 200 291 250 273 167 152 188 188 312 330 299 211 244 262 168 147 133 291 210 172 192 171 177 270 217 228 271 249 240 191 226 216 160 197 284 195 303 156 304 215 286 241 284 205 307 216 228 300 261 143 304 213 185 232 211 186 202 291 362 222 237 237 298 198 213 186 263 224 252 329 250 218 326 248 264 281 182 240 300 343 308 230 261 290 241 216 355 239 228 261 298 187 268 276 216 227 248 237 300 267 282 154 257 308 253 319 252 117 224 241 257 331 194 253 314 211 248 251 279 202 316 246 266 207 194 120 218 145 266 266 243 269 263 254 245 313 299 199 167 271 311 235 185 245 248 275 224 200 293 227 291 312 250 268 176 318 241 338 335 188 235 272 238 360 277 280 186 176 288 252 267 223 226 176 243 242 190 197 267 206 281 339 190 268 224 312 272 185 271 284 239 145 265 243 256 356 201 333 264 368 299 266 171 227 210 270 173 283 332 224 185 241 225 268 267 234 180 211 237 318 216 242 277 208 275 243 295 224 330 210 230 303 265 271 269 207 189 247 383 271 190 258 304 241 291 185 260 175 327 283 220 322 177 242 266 257 240 248 295 239 216 215 203 277 210 213 314 244 285 223 326 183 310 196 262 232 324 264 259 280 237 237 295 277 310 312 274 132 311 265 202 196 243 216 219 232 268 234 232 391 322 241 364 163 226 168 318 255 245 196 271 256 280 153 238 190 250 336 255 228 251 237 287 236 217 318 242 240 322 236 134 248 230 183 301 341 236 291 334 203 188 287 358 319 287 305 296 172 212 230 247 313 263 237 345 331 264 264 247 294 207 173 224 242 244 227 235 171 224 259 284 292 225 205 228 135 270 333 241 250 301 252 195 200 274 328 251 262 248 207 262 180 167 237 214 258 211 321 224 281 274 267 257 275 262 268 234 243 270 135 303 174 207 218 261 157 260 201 258 256 320 190 215 227 231 159 248 231 214 261 133 267 186 237 240 258 196 255 286 255 174 292 261 276 250 247 269 307 202 230 256 213 184 264 179 141 196 344 270 297 240 247 217 246 236 260 214 252 226 238 261 297 70 271 236 253 286 306 250 346 289 231 284 327 267 147 247 192 286 316 274 273 189 233 229 273 225 252 199 218 259 227 282 266 309 234 348 230 234 221 244 298 190 337 368 159 257 266 258 301 144 238 162 297 253 181 165 221 236 224 269 209 114 175 211 234 274 200 234 223 231 237 285 277 207 301 260 275 263 247 355 187 219 273 185 316 280 225 247 246 167 183 257 402 247 306 225 237 212 280 178 246 261 178 246 306 222 238 187 252 146 295 282 228 272 151 211 249 239 272 225 247 333 286 221 239 211 270 234 287 308 348 216 221 333 264 197 213 227 268 219 359 243 273 249 246 220 286 323 147 275 191 224 222 182 235 265 284 270 312 324 233 233 252 214 328 265 293 279 245 244 327 180 295 263 264 170 277 286 167 187 298 265 237 288 273 231 226 229 332 221 186 280 245 270 266 255 256 251 316 286 245 167 187 242 146 165 291 166 246 204 281 284 178 238 265 289 221 382 305 338 269 210 152 184 233 240 314 280 211 257 257 275 256 267 196 161 280 289 349 309 200 244 237 238 282 200 270 191 187 221 215 224 253 281 200 216 276 309 215 251 167 378 235 255 321 235 272 240 270 204 211 187 229 257 175 325 374 210 254 196 180 233 242 271 149 214 271 266 289 226 251 222 247 174 248 244 283 276 304 288 132 203 212 228 243 228 204 247 212 268 263 195 288 204 200 333 231 204 382 273 234 209 202 237 324 356 243 271 349 192 280 284 235 185 211 208 354 249 219 167 328 222 127 267 246 195 281 247 298 182 238 262 225 229 256 251 239 291 383 276 278 260 222 268 193 258 319 173 207 218 288 237 168 240 208 286 251 176 108 250 293 197 230 223 239 295 290 266 271 270 212 314 262 276 325 145 250 258 273 286 264 228 267 259 270 182 185 298 177 310 217 189 221 269 246 330 246 172 255 237 319 267 244 306 208 197 141 257 229 249 362 279 200 257 184 232 289 215 203 278 254 238 159 173 270 243 254 378 307 146 354 239 282 175 279 251 392 230 179 248 241 285 155 189 228 165 222 283 185 280 215 284 231 147 229 305 262 277 298 213 250 257 291 286 168 229 309 283 245 261 247 274 318 243 200 231 299 207 200 264 211 217 282 253 267 234 196 394 282 219 272 269 260 275 212 243 167 329 193 237 205 325 200 190 193 219 197 185 277 219 238 214 272 308 393 294 250 228 370 199 202 174 177 314 266 213 195 223 170 242 319 304 344 194 229 203 315 209 226 172 219 217 216 354 257 265 244 219 240 232 275 288 192 232 282 166 164 191 313 299 266 256 212 211 268 252 264 299 289 221 212 219 284 361 287 248 246 271 245 202 282 317 268 304 339 267 199 151 210 228 191 157 237 338 246 286 274 316 258 288 320 177 192 240 258 251 286 242 269 193 258 215 258 192 332 204 260 165 273 212 271 288 354 310 225 200 208 284 257 295 238 249 217 247 145 190 214 218 231 231 268 254 204 248 232 304 280 190 221 204 296 252 220 229 231 166 270 258 206 166 242 305 209 253 237 175 262 202 157 193 162 211 209 274 293 177 195 210 210 226 255 284 258 217 198 238 262 277 225 260 284 168 211 346 232 303 207 156 179 261 264 225 284 241 256 239 281 230 279 207 181 189 217 257 183 275 252 309 286 168 273 200 225 329 240 319 183 297 178 214 265 185 329 194 240 295 297 160 226 308 299 196 181 228 231 231 373 322 196 253 169 287 217 269 260 242 273 185 200 246 259 291 237 228 187 256 147 286 137 218 235 251 270 284 276 280 177 277 275 200 180 238 273 202 251 250 266 196 161 189 222 153 219 239 285 209 217 244 264 344 268 166 188 230 183 214 200 276 289 181 303 236 208 243 230 317 248 278 255 255 239 176 274 234 318 249 293 357 340 358 230 267 309 268 268 233 220 243 290 294 216 229 232 249 175 268 289 229 265 149 364 281 190 276 238 233 237 270 191 251 171 164 307 310 331 283 238 227 191 216 218 256 346 177 293 218 144 242 291 193 230 205 244 285 159 222 278 190 215 239 236 225 209 239 368 147 169 254 293 162 345 240 199 184 231 226 284 243 258 133 296 203 285 231 322 192 247 299 319 260 237 253 266 256 208 310 249 273 284 251 244 221 275 290 211 294 239 209 243 223 277 212 188 290 299 183 302 299 166 253 228 212 229 274 272 270 254 224 186 237 192 220 285 237 277 237 233 163 161 291 203 316 226 297 253 160 190 273 232 224 150 270 266 261 205 247 232 324 305 194 93 320 284 281 201 290 334 276 211 218 271 211 255 219 250 203 284 299 211 243 316 171 207 285 188 350 207 216 279 173 210 232 246 242 275 267 244 236 186 256 226 201 257 331 171 224 229 190 189 264 245 233 119 286 263 260 262 235 244 244 343 284 239 244 270 229 138 240 208 145 272 250 329 312 343 222 216 151 292 221 206 303 204 321 362 216 230 238 286 239 231 226 410 295 305 124 255 212 201 273 219 255 220 214 262 161 269 254 241 172 338 255 203 261 189 191 255 325 225 220 275 253 197 291 207 76 252 286 176 262 315 285 264 263 245 291 247 249 265 257 252 203 224 217 243 282 223 271 209 318 232 274 292 248 234 257 295 208 255 265 261 241 257 256 240 301 251 179 295 195 197 313 294 259 288 262 225 219 221 223 253 244 194 210 295 225 207 241 212 315 257 206 269 263 259 277 167 247 309 264 184 166 277 239 263 337 245 195 259 326 293 264 315 160 236 393 182 217 324 274 192 245 277 336 273 197 279 245 165 250 211 226 206 195 248 291 227 241 231 236 213 176 292 303 345 253 194 218 195 169 241 199 189 197 248 291 275 315 297 237 262 264 214 221 268 318 218 276 249 209 259 231 311 197 251 202 274 280 164 246 325 198 273 316 190 284 230 284 299 230 176 247 179 220 200 170 189 290 151 221 284 298 255 305 218 212 279 224 294 255 217 234 299 242 269 221 277 165 229 264 249 257 288 190 216 183 227 255 202 341 189 174 210 142 280 185 276 204 205 232 204 329 191 143 281 199 252 140 245 258 254 237 239 221 249 206 271 240 216 140 233 283 169 241 233 296 204 259 237 241 219 271 298 305 264 286 204 193 278 211 228 303 244 268 158 249 278 138 289 274 299 266 208 264 173 211 247 318 314 173 188 292 200 248 230 236 220 304 242 208 262 332 313 242 260 217 202 211 178 258 195 227 278 211 163 274 265 285 263 210 282 263 282 199 243 290 251 208 181 276 289 205 215 270 237 210 275 255 331 320 246 280 185 270 265 262 210 244 275 229 194 288 220 241 287 196 285 231 318 187 269 207 267 237 225 193 311 201 219 197 132 362 314 206 278 219 263 132 224 315 294 268 217 271 249 252 272 293 227 289 245 192 270 303 321 199 252 312 241 274 173 293 196 292 221 254 223 240 269 219 294 297 206 321 273 395 236 288 219 190 381 158 257 274 245 278 253 271 240 175 240 232 366 307 208 246 251 314 355 249 260 267 308 263 220 340 212 170 124 244 246 154 240 197 258 171 281 321 221 277 206 232 284 219 234 248 231 242 291 193 300 267 259 291 222 226 183 242 223 265 174 246 193 190 169 251 317 266 186 227 252 250 300 317 219 258 222 315 174 216 272 279 250 228 214 242 247 276 292 199 293 296 215 294 291 227 305 243 223 272 263 237 245 335 281 225 194 300 153 238 275 209 139 269 279 364 311 312 256 353 278 223 241 177 271 226 207 269 209 218 275 177 169 166 290 180 241 224 214 277 243 218 229 208 287 226 211 170 196 202 242 359 285 208 224 285 217 262 224 276 297 196 223 245 265 144 221 290 229 194 234 259 181 248 255 192 168 250 247 241 172 244 237 225 194 299 262 226 283 216 245 261 258 170 252 221 228 236 236 163 214 303 246 330 183 271 322 234 272 196 296 225 210 199 221 225 251 199 281 257 267 258 260 254 210 231 175 338 234 233 233 251 360 231 231 201 129 186 261 275 255 275 322 306 177 333 250 189 286 253 282 282 229 178 264 273 225 235 348 212 208 246 247 230 357 152 257 168 201 242 179 250 199 172 253 240 246 225 221 313 257 217 134 211 228 225 256 263 334 296 212 204 277 185 273 156 203 177 287 278 259 201 175 152 254 317 179 256 261 270 211 217 319 325 202 203 290 282 187 172 266 282 293 250 237 231 238 278 203 211 243 226 212 156 282 237 292 235 173 192 419 237 278 228 251 260 340 200 247 229 256 256 210 227 271 188 185 208 190 215 330 195 277 411 351 161 242 227 192 247 372 161 275 266 241 206 190 313 252 265 201 391 214 240 409 225 142 211 314 276 272 240 220 293 263 214 137 258 231 288 269 212 194 191 255 278 243 272 242 268 308 296 175 360 189 338 230 245 297 307 229 258 227 304 216 357 278 243 283 264 238 268 252 225 296 180 243 270 183 230 308 327 191 288 215 270 271 359 230 186 212 241 219 319 251 147 226 251 270 179 253 201 170 255 347 255 328 289 233 238 229 276 171 245 259 276 219 229 236 171 241 239 218 225 284 282 279 179 235 246 298 269 247 278 186 218 186 284 200 219 172 207 262 173 220 221 198 236 291 321 226 266 197 326 188 297 414 278 122 271 196 227 248 214 196 166 133 277 203 369 179 226 259 284 151 283 165 186 287 182 263 188 301 246 225 247 257 290 233 266 273 196 249 261 235 246 221 204 315 248 228 261 255 245 222 202 326 200 234 258 191 167 310 365 272 373 260 211 235 284 242 276 230 241 219 305 168 222 312 159 221 292 290 184 373 312 342 197 247 255 308 292 350 213 246 249 127 203 230 263 216 217 368 226 309 271 358 303 225 252 194 335 182 202 340 280 294 212 286 165 169 279 233 240 269 221 220 216 175 213 252 235 218 278 229 277 168 243 158 252 201 269 218 274 315 274 242 208 266 211 233 299 177 205 110 240 268 150 179 192 250 151 274 248 284 261 269 202 216 197 299 256 279 250 268 231 206 270 245 275 292 178 264 247 335 245 201 211 184 169 279 174 202 172 305 334 236 211 245 260 217 240 267 331 240 217 293 318 215 221 211 252 154 187 281 255 324 224 209 223 267 297 285 211 251 167 218 149 287 193 308 254 154 257 155 161 264 337 239 284 292 175 233 265 360 210 271 149 282 265 227 275 205 308 243 257 276 322 305 176 248 321 295 239 251 302 323 169 250 264 270 366 323 215 171 259 288 229 245 184 190 224 291 197 231 191 200 210 274 358 263 288 220 179 157 232 269 250 297 276 231 215 188 222 300 356 242 170 302 216 226 377 227 201 235 439 205 225 210 199 191 235 308 255 288 294 231 290 241 251 271 317 151 329 271 227 280 223 312 225 252 313 300 216 180 170 293 235 273 238 204 232 295 217 249 252 260 247 226 253 228 307 163 188 148 223 262 307 189 222 256 265 229 222 219 279 254 306 195 227 169 235 300 223 354 250 178 221 288 279 224 353 294 287 252 245 225 220 250 310 198 236 304 196 281 193 196 257 211 205 240 251 218 275 201 248 218 298 204 224 349 250 167 218 224 255 281 301 220 225 234 213 185 260 346 262 286 195 374 253 226 225 362 216 297 274 161 245 348 266 272 284 238 230 288 182 324 216 258 278 274 277 265 342 233 256 145 244 254 226 200 297 190 279 220 320 238 313 230 156 342 287 274 308 179 173 253 287 266 248 244 232 175 222 259 198 190 199 202 266 286 288 236 297 282 250 288 224 262 223 229 192 214 213 286 336 268 304 243 202 235 190 295 281 222 313 249 286 301 195 224 261 188 256 148 229 188 219 204 213 178 256 180 314 255 238 194 234 273 338 293 181 375 305 106 216 188 291 213 190 209 206 254 300 282 203 223 277 281 216 288 208 197 221 114 259 252 258 269 173 340 169 174 155 288 232 179 205 200 258 203 228 290 282 287 259 308 226 350 173 246 221 263 249 262 163 264 277 192 221 259 234 206 181 248 250 284 267 202 139 243 257 265 285 196 214 324 164 266 260 294 181 268 241 244 298 325 222 234 285 243 286 192 287 174 292 221 232 234 266 197 222 231 275 314 249 207 274 252 346 284 326 241 301 270 280 275 317 221 345 201 263 192 321 208 156 261 256 173 303 241 225 230 192 235 230 275 262 267 391 315 213 275 263 251 263 260 168 231 239 219 231 205 275 158 251 189 252 267 265 267 220 272 189 221 265 199 202 189 254 217 173 287 391 268 245 191 312 254 240 307 214 356 257 164 207 232 186 280 187 209 197 139 244 230 173 311 281 305 359 234 299 273 226 267 171 250 243 234 221 260 271 287 266 312 278 281 364 251 232 189 223 224 260 202 124 217 345 192 284 317 191 320 262 324 202 231 291 268 197 258 230 254 373 157 233 270 261 185 211 297 234 266 366 226 206 184 347 248 304 229 265 259 262 239 197 191 280 289 248 270 264 177 187 230 309 242 162 339 292 254 211 263 242 243 253 208 301 213 293 278 264 227 174 237 158 251 199 237 337 277 273 189 188 222 257 338 333 218 222 301 231 232 205 330 201 325 242 255 236 200 320 212 270 336 340 281 208 244 367 274 365 267 294 238 212 227 278 230 234 261 230 183 170 405 248 199 220 295 225 212 252 169 274 281 247 343 238 275 171 305 288 322 220 261 265 197 220 260 219 261 219 212 301 277 253 219 240 236 229 196 294 245 265 266 288 258 317 262 236 309 303 273 283 229 341 204 174 227 240 270 182 283 287 256 307 164 219 293 184 298 204 303 202 234 350 316 361 276 256 219 171 300 213 237 298 396 331 186 247 283 211 198 279 271 163 349 203 209</t>
-  </si>
-  <si>
-    <t>MIE(0.33473072012551, 1.9708894397926189, -1.424419392245108e-30, 2.0362405297010513)</t>
-  </si>
-  <si>
-    <t>0 0 0 3 2 1 0 1 0 2 2 1 0 3 0 2 1 0 2 3 2 0 2 3 1 0 2 0 1 2 2 2 2 3 1 2 3 1 3 1 1 4 1 0 1 3 1 0 2 0 2 3 2 1 1 2 1 1 1 3 3 0 1 1 0 0 3 2 3 1 1 0 1 1 1 3 1 3 4 2 2 2 1 1 2 1 0 1 1 1 5 1 1 2 0 1 3 1 2 3 1 2 1 1 0 2 1 1 2 3 2 2 1 0 1 2 1 1 2 2 3 0 2 2 3 2 1 3 0 3 3 1 1 0 2 0 2 3 1 1 1 1 1 2 3 1 2 1 4 0 0 1 1 1 0 1 1 1 1 2 3 0 2 2 5 3 1 0 2 2 2 1 2 3 1 4 1 2 2 1 2 2 0 1 1 3 2 2 1 1 2 2 1 0 3 2 1 2 0 2 1 2 0 0 1 3 0 0 3 0 2 1 1 0 1 2 0 0 2 2 2 0 1 1 3 1 1 2 3 3 1 2 1 1 1 2 1 2 2 3 2 0 2 2 0 0 0 2 0 3 0 0 0 2 2 1 0 3 2 2 1 3 1 1 1 1 2 1 0 4 1 1 2 1 1 2 2 1 2 0 1 3 1 4 1 2 2 3 1 0 1 2 1 3 1 1 1 2 2 2 1 2 1 2 2 1 2 3 1 3 2 1 2 1 2 2 2 2 0 1 0 1 2 2 1 1 2 3 2 0 0 0 1 1 2 2 1 0 4 1 0 1 1 0 2 2 1 2 1 0 0 2 0 3 0 4 1 1 3 2 2 2 0 2 1 3 3 0 2 1 3 1 1 1 0 1 2 2 1 2 2 0 2 1 2 1 2 0 1 3 3 1 1 1 1 0 1 0 2 2 2 2 1 3 0 0 1 2 0 1 2 0 4 3 2 0 0 2 2 2 1 1 3 0 2 2 1 0 3 1 1 1 0 0 1 2 0 1 3 1 0 1 1 4 2 3 3 2 1 2 4 0 0 0 3 1 1 1 1 0 2 1 1 2 0 1 1 2 1 3 1 1 3 3 1 1 1 1 2 1 1 2 1 1 1 1 3 2 2 0 2 2 2 1 1 2 3 3 3 0 1 2 0 1 3 2 1 2 1 3 3 1 2 3 2 1 1 1 1 2 1 2 0 0 0 2 5 0 2 2 1 3 3 1 1 1 0 1 2 1 0 1 1 1 2 2 2 0 0 1 1 3 1 1 0 0 1 1 1 1 3 3 2 1 0 4 1 2 0 4 2 3 0 0 1 1 1 3 1 3 1 3 2 2 2 1 2 0 5 0 2 2 1 2 3 0 1 2 2 2 3 0 1 1 2 0 0 0 0 2 0 2 2 1 1 2 2 2 4 1 0 0 0 2 2 1 1 1 2 0 4 1 2 1 2 1 3 3 1 1 1 1 1 2 2 3 2 1 3 2 2 0 0 1 1 2 1 2 1 2 2 2 1 2 0 2 1 3 2 2 2 5 2 2 2 1 2 2 2 1 2 3 0 2 2 1 2 0 0 1 1 3 2 0 3 2 2 2 0 3 2 4 3 1 0 2 0 2 2 1 1 1 1 1 1 2 3 3 1 1 1 3 2 1 1 2 1 2 2 3 1 1 3 1 1 1 2 2 3 2 3 2 3 3 2 3 1 0 0 2 1 2 2 2 1 2 2 0 2 3 2 1 1 2 1 3 2 1 0 5 0 2 2 2 2 2 1 1 0 3 2 1 1 3 1 2 2 1 1 2 1 2 1 1 2 1 2 1 2 1 2 1 2 1 2 0 0 3 2 3 1 1 2 1 1 1 1 1 2 1 4 3 1 2 3 1 1 1 0 0 1 1 0 3 1 1 1 3 1 0 0 2 2 1 1 0 2 1 1 1 2 2 3 1 4 0 1 3 1 2 2 2 1 2 1 1 1 1 2 2 2 3 1 0 2 1 3 2 0 1 0 0 2 2 1 3 2 1 1 1 2 0 1 2 1 1 3 1 1 3 1 3 1 2 0 2 1 2 3 1 3 2 2 2 0 3 2 1 2 0 1 2 2 2 0 1 2 1 0 1 2 2 1 1 1 3 3 0 0 1 1 1 1 1 0 4 2 3 1 3 1 3 1 1 3 2 2 1 0 1 3 2 1 1 0 1 1 2 2 2 2 1 4 1 2 4 1 1 2 3 3 2 3 3 3 1 1 0 0 2 0 3 1 1 2 2 2 3 0 0 1 1 3 0 1 3 0 0 0 3 3 1 3 2 1 1 0 0 0 1 1 2 1 0 2 4 2 1 1 4 1 3 0 0 2 0 1 1 2 1 2 1 1 1 0 2 1 2 2 5 1 0 1 0 1 7 1 2 1 0 2 1 1 2 1 2 1 3 3 1 2 2 2 2 1 5 1 2 1 1 1 2 1 0 2 0 1 1 3 1 2 1 3 0 2 3 0 1 1 2 3 0 2 1 0 0 0 3 1 1 1 0 2 0 0 1 3 3 1 0 1 3 0 1 2 2 4 1 1 2 1 1 2 4 1 2 1 1 1 2 1 1 3 2 3 1 1 1 2 1 1 1 1 0 2 0 3 1 2 3 3 2 1 1 1 1 2 1 1 1 1 1 2 1 1 0 0 2 2 2 1 0 1 1 0 2 2 0 1 0 1 1 2 1 1 3 0 3 2 2 1 0 1 2 1 0 0 3 1 4 2 2 2 1 2 5 0 4 1 3 1 3 1 1 2 1 2 3 0 3 0 0 2 1 3 1 2 2 2 0 3 1 0 2 0 1 1 0 1 1 1 4 1 1 0 1 3 1 1 1 1 2 2 1 1 2 3 0 3 1 2 2 2 1 0 3 2 1 1 2 2 2 3 2 2 0 0 0 1 3 1 0 1 0 2 3 1 1 4 2 3 1 2 0 3 2 2 4 2 3 2 2 1 4 1 4 4 1 1 2 1 2 2 4 4 2 2 2 0 1 2 4 1 2 3 0 3 0 2 0 0 1 2 1 1 1 0 2 3 2 5 2 0 3 3 2 4 2 2 0 2 0 2 2 2 1 1 2 1 0 1 2 2 3 1 0 3 5 3 3 2 1 1 1 1 2 0 2 4 2 2 2 3 4 4 3 2 2 2 1 0 1 1 2 2 1 0 3 3 0 2 2 3 0 0 0 4 0 2 2 1 0 2 2 1 1 1 0 2 1 1 3 3 2 4 3 2 0 1 1 2 3 2 0 3 1 1 2 0 1 1 2 0 1 2 2 1 1 2 2 1 1 3 2 1 3 0 3 0 3 1 3 1 2 3 0 2 3 0 1 0 2 3 1 4 3 0 3 2 1 3 2 2 1 3 3 3 2 2 0 1 2 2 3 3 1 1 1 2 0 3 1 1 4 2 1 2 1 1 0 1 1 1 1 1 1 1 1 1 1 1 3 1 2 2 1 1 0 2 1 0 2 1 2 1 2 2 2 1 1 0 0 2 1 2 1 1 2 4 1 3 1 0 3 1 2 2 2 0 0 0 2 3 2 3 1 3 4 0 0 1 1 2 2 0 4 1 2 1 0 3 1 4 1 1 1 1 1 2 0 3 5 1 1 1 1 0 0 5 1 0 1 3 1 1 3 1 4 1 1 1 2 1 2 1 1 3 2 3 1 2 2 1 1 2 2 2 3 1 2 2 1 1 1 0 2 2 2 2 0 0 3 1 2 2 1 0 3 2 1 0 0 0 1 4 1 1 0 2 2 0 3 0 0 3 0 0 1 3 0 1 2 1 3 1 0 2 0 2 1 1 0 3 0 3 0 2 2 3 0 4 0 1 1 0 3 1 0 1 1 3 1 0 2 2 0 0 2 2 4 1 1 3 1 1 2 1 2 2 1 1 0 2 2 2 0 1 2 0 2 2 0 3 3 1 2 3 1 1 2 0 1 0 1 3 1 1 0 3 4 3 1 3 0 1 1 0 1 2 0 3 2 0 1 1 1 0 1 1 2 0 0 0 0 1 2 0 0 1 2 1 4 1 1 1 2 0 0 0 2 1 1 1 1 3 3 2 1 1 2 3 1 0 2 0 1 2 1 2 1 3 2 5 5 0 0 0 3 2 0 0 2 1 1 2 2 2 0 1 2 3 2 2 2 2 4 3 1 0 1 1 2 1 0 1 2 0 2 0 1 1 3 3 1 0 4 3 0 0 0 1 0 2 2 2 1 0 3 1 2 0 1 2 1 1 0 1 0 0 3 1 1 2 3 0 2 4 3 4 2 1 1 0 3 1 2 2 2 4 4 0 1 3 1 2 2 3 0 1 0 1 1 4 1 0 2 2 2 1 4 1 1 2 2 1 3 3 0 2 0 2 2 2 2 1 1 1 1 1 2 2 3 3 4 1 2 1 1 3 1 5 1 1 2 0 1 1 2 0 1 0 1 1 1 0 2 2 2 1 1 1 1 0 1 0 1 1 2 3 5 0 2 1 1 2 2 1 5 0 2 2 1 1 2 2 1 2 3 2 1 0 1 0 2 3 2 0 2 2 0 0 1 0 3 3 0 2 3 2 2 1 2 2 1 0 3 0 0 1 2 0 1 2 1 1 0 1 1 1 4 2 1 1 1 0 3 2 1 1 2 1 0 0 1 1 2 0 0 1 2 1 2 0 2 0 0 2 1 2 1 1 3 1 2 3 2 0 1 0 1 0 2 0 2 3 3 2 1 2 1 2 0 2 4 1 0 2 1 3 2 2 1 1 2 1 1 2 2 1 2 2 1 2 1 1 0 2 1 1 2 2 2 2 1 1 3 1 2 1 2 2 1 1 1 2 2 1 1 3 2 2 1 2 0 1 2 2 1 2 1 2 0 2 2 1 3 3 2 2 0 2 0 1 0 1 1 1 1 1 2 0 0 3 3 0 0 2 0 1 2 2 3 0 2 1 2 2 2 1 2 4 3 2 2 1 1 1 1 1 2 1 2 3 1 3 2 2 2 0 0 0 1 1 2 3 3 0 1 1 1 2 0 1 2 0 0 3 1 3 1 1 1 1 0 0 1 0 1 0 1 3 2 0 1 2 1 1 2 1 1 1 1 1 2 2 0 2 2 0 0 1 4 2 0 1 2 1 2 1 1 2 2 3 1 3 0 1 3 0 1 2 0 1 2 2 1 1 5 2 1 0 1 1 3 1 0 2 1 1 3 2 2 1 2 2 2 2 2 1 1 2 3 2 1 0 1 1 2 5 1 2 2 2 1 2 2 1 5 1 1 2 2 1 2 2 2 3 2 2 2 0 4 0 2 0 1 1 1 0 2 2 3 1 1 2 2 2 2 1 2 1 0 0 4 2 3 2 3 2 1 2 2 1 0 1 2 2 1 2 2 1 2 2 0 2 0 4 1 1 3 1 0 0 2 0 2 0 2 1 2 2 3 2 2 2 4 1 1 0 2 0 1 1 2 0 2 1 2 0 2 0 1 2 1 1 0 1 0 2 2 3 2 1 1 1 1 2 3 2 0 1 3 2 2 1 1 1 1 3 2 2 2 1 1 2 3 2 0 4 0 4 1 3 1 1 2 1 2 1 1 1 1 1 2 2 1 2 0 0 1 2 3 1 1 1 1 0 2 2 0 1 2 0 1 1 0 2 2 3 2 0 2 1 0 0 2 1 3 2 5 4 3 2 1 1 0 1 1 3 3 2 1 3 1 0 2 1 1 4 1 3 2 0 1 1 2 3 0 1 2 3 3 2 1 2 2 2 1 2 1 2 2 1 3 1 1 1 2 3 1 2 3 2 2 2 2 3 3 2 3 1 1 4 1 3 3 0 5 1 2 2 2 1 1 1 1 2 0 3 2 0 1 1 1 1 2 1 3 1 0 0 1 2 2 0 2 2 1 1 2 1 1 1 1 0 1 2 1 1 1 0 1 3 1 0 1 1 2 0 2 1 1 1 0 0 2 3 3 0 2 1 0 1 1 2 2 1 1 0 1 1 2 1 1 1 0 0 1 1 0 2 1 3 0 0 3 3 2 2 2 1 1 1 2 3 4 3 1 1 1 2 1 1 0 2 0 2 3 2 2 2 1 3 0 1 1 2 1 3 1 1 1 1 0 3 1 2 0 2 2 1 3 4 1 1 2 1 2 1 1 0 1 4 1 1 1 2 1 4 3 3 1 0 1 1 1 1 1 0 1 2 0 1 1 1 2 1 0 2 1 3 0 3 1 3 0 3 1 0 3 2 2 1 1 0 0 1 1 2 3 0 1 2 0 1 1 1 0 3 3 3 2 0 2 1 2 2 2 1 1 3 2 2 1 3 1 0 2 2 1 3 1 0 2 2 2 1 1 0 3 2 2 2 1 1 1 2 2 1 0 1 2 1 1 1 3 1 0 1 0 0 0 1 0 2 2 2 2 2 1 1 2 0 1 1 4 0 1 0 4 2 2 2 2 0 0 1 1 1 3 0 2 2 1 2 2 1 0 1 1 0 0 2 0 1 2 3 1 2 0 1 1 2 2 2 2 0 3 2 0 1 4 1 2 0 2 0 2 1 3 1 0 1 2 1 2 0 0 2 1 3 0 1 3 3 1 1 2 2 2 2 1 1 0 2 3 1 0 1 2 1 0 1 2 1 3 0 2 2 1 3 1 1 1 0 1 0 0 2 2 0 3 0 2 0 2 2 1 1 2 1 1 1 0 3 2 0 0 1 3 1 1 1 2 1 1 3 3 0 1 0 0 1 0 3 0 0 1 1 2 0 2 0 3 0 0 2 2 2 2 2 1 3 2 1 1 2 1 2 0 0 1 1 0 1 2 1 0 2 1 3 1 1 1 0 2 2 1 3 2 4 2 2 2 1 1 1 1 0 1 1 1 2 1 1 1 1 0 0 0 2 0 0 3 1 0 2 3 2 0 4 2 3 2 0 3 0 1 3 1 2 1 1 1 5 1 2 1 4 2 3 2 2 0 2 2 2 1 2 0 1 1 2 1 2 1 1 2 2 3 1 0 1 1 3 1 0 1 1 1 1 1 2 0 4 2 1 1 2 2 2 3 2 0 1 2 0 0 1 1 0 3 0 0 4 0 3 3 0 1 2 3 2 0 3 3 3 2 1 0 1 1 2 1 1 0 2 1 1 2 1 3 1 2 2 1 3 3 2 2 3 3 1 0 3 2 1 1 3 1 2 2 2 0 0 3 0 2 0 1 2 1 2 1 1 0 1 0 3 1 1 1 1 1 1 2 3 1 2 0 0 1 0 1 2 1 5 1 0 1 2 0 0 1 3 2 2 1 2 2 1 1 2 1 1 2 2 2 3 1 1 3 2 3 2 1 3 3 1 2 1 2 1 4 3 1 1 0 3 1 2 2 1 0 1 2 1 2 1 1 2 1 3 0 4 3 0 1 1 0 0 2 1 1 1 1 1 1 1 2 2 3 1 1 3 2 0 1 1 0 1 2 2 0 1 2 1 3 1 2 2 3 0 1 1 2 3 0 0 1 2 1 2 3 0 0 2 1 2 3 1 0 0 2 2 2 0 2 1 0 0 0 3 0 3 1 1 1 2 3 0 2 1 1 2 1 2 2 0 1 2 2 1 1 1 2 1 1 1 2 2 1 1 2 2 2 1 2 2 1 0 1 2 2 2 2 3 1 1 2 0 1 0 1 1 1 3 4 1 2 2 1 1 2 1 2 1 3 2 0 0 0 1 0 1 2 2 2 1 2 1 2 1 3 1 1 1 1 0 0 2 0 2 1 2 1 3 1 3 1 2 0 1 0 0 2 1 3 2 2 1 1 2 0 1 0 3 0 1 2 0 0 2 2 4 3 0 3 0 2 0 0 1 2 2 2 2 0 0 0 2 1 0 1 2 1 3 1 2 1 1 1 2 0 1 0 2 2 1 1 1 4 3 1 0 2 1 1 3 1 2 1 1 0 1 1 4 2 2 0 2 1 1 1 1 1 3 4 3 2 2 2 0 1 1 1 4 3 1 3 2 4 2 3 2 1 1 1 1 1 2 2 1 1 2 1 1 4 1 1 2 1 0 1 2 0 1 1 2 1 1 0 2 0 3 3 3 1 3 1 2 1 0 2 1 1 1 1 2 2 1 0 2 0 2 0 2 1 5 4 1 3 0 3 2 0 0 2 2 0 1 3 1 1 1 2 2 1 1 0 3 5 1 2 2 2 0 1 1 2 1 2 1 1 2 1 3 3 1 0 1 0 1 2 2 1 3 1 2 3 1 3 1 2 2 0 1 2 1 3 0 1 0 0 0 1 0 1 0 2 0 0 2 1 1 0 1 1 1 0 2 1 1 1 1 1 3 2 2 2 1 1 2 1 2 1 1 1 2 2 0 1 1 1 0 0 0 2 0 2 3 1 2 2 2 2 1 1 1 2 2 0 2 3 2 4 0 1 3 1 2 1 1 1 1 3 1 2 1 1 1 1 2 1 1 3 1 0 1 0 0 0 1 4 2 2 0 1 2 1 2 3 2 0 1 1 5 1 0 2 1 2 2 1 1 2 4 1 2 2 2 4 1 1 1 1 0 3 2 0 3 0 1 2 1 1 0 1 0 1 3 3 1 2 1 2 0 0 2 2 1 2 1 2 2 2 4 2 3 1 1 1 0 1 1 3 1 2 1 2 2 2 0 3 2 1 1 2 1 3 0 1 1 2 1 1 1 2 1 2 2 4 0 2 2 1 1 2 1 2 1 1 1 2 0 1 2 1 2 2 1 1 3 2 0 0 1 0 3 1 1 1 1 3 2 1 1 0 2 1 2 2 2 2 1 0 3 1 2 1 2 1 1 1 0 2 2 1 3 2 1 1 1 1 2 2 1 2 3 1 1 3 0 1 1 1 0 1 2 0 2 0 1 0 2 2 1 1 1 2 0 3 1 2 2 1 1 1 1 2 2 2 3 2 2 1 1 2 2 2 1 3 0 3 4 2 2 1 1 2 3 1 0 1 3 1 2 2 1 0 2 1 0 0 1 2 2 1 2 2 4 2 1 3 2 2 2 2 1 1 0 3 2 0 0 3 3 0 2 1 2 1 1 2 3 2 2 2 1 1 1 0 2 2 1 3 3 3 1 2 0 3 1 3 3 1 2 0 1 0 1 1 0 1 0 2 2 1 1 2 2 2 0 3 2 0 0 0 2 1 2 1 1 1 2 0 2 4 2 1 4 1 2 2 0 2 1 1 0 3 1 1 1 1 0 3 3 2 1 2 0 1 1 2 3 0 3 0 2 3 1 1 1 0 2 2 2 1 0 2 3 0 2 1 2 1 1 4 0 0 1 3 2 5 2 0 2 3 2 2 2 1 0 0 2 3 1 0 2 2 0 1 2 3 3 1 0 1 3 1 1 1 3 0 1 2 2 0 1 3 2 0 1 2 0 0 1 1 1 3 2 0 0 2 1 4 1 2 1 5 1 0 1 3 1 2 1 1 1 1 2 1 0 2 1 2 2 1 2 2 2 1 1 2 0 3 2 2 0 2 1 0 1 1 3 0 2 1 1 2 2 2 1 1 0 1 1 2 1 4 2 0 1 0 2 1 0 2 0 2 1 2 0 3 2 2 1 2 1 0 0 1 2 1 1 2 2 1 2 2 1 1 1 1 0 2 0 2 0 3 2 0 3 2 1 1 3 2 2 2 0 1 1 0 1 1 3 1 1 1 1 1 1 1 3 0 0 2 3 2 2 2 0 1 0 3 2 2 1 0 2 1 1 0 1 2 1 3 1 5 2 2 2 2 3 1 2 0 2 2 0 1 1 0 1 2 2 2 2 1 4 2 1 0 2 0 1 4 1 0 2 1 1 1 2 1 3 0 1 4 1 1 3 0 1 2 1 4 0 2 2 5 1 2 1 1 0 2 2 2 0 2 0 2 1 0 1 3 2 1 1 3 1 2 1 1 2 2 2 1 1 0 2 0 1 1 0 0 1 1 4 1 2 1 0 4 1 1 3 2 2 1 1 1 1 0 4 0 1 2 2 1 1 0 1 1 1 1 3 1 1 2 1 1 0 3 0 3 3 2 1 1 2 0 0 3 2 2 4 3 1 3 0 1 0 0 1 2 1 3 2 0 2 0 3 0 2 3 0 3 4 2 2 0 3 1 0 1 2 1 2 3 1 4 0 2 2 2 0 1 0 2 1 1 2 3 0 3 2 1 4 0 1 3 2 2 1 2 3 2 0 2 1 0 2 1 1 0 0 2 2 0 1 1 3 2 2 2 2 1 1 1 1 2 1 1 1 4 0 1 1 0 2 0 4 3 4 0 1 1 0 1 2 1 1 1 2 1 0 3 1 1 1 0 2 0 1 2 2 2 3 0 4 1 2 0 0 1 1 2 2 2 3 1 1 1 1 1 1 1 2 2 0 2 2 2 3 0 1 1 1 3 3 2 1 2 2 2 2 1 2 3 2 2 3 4 2 0 3 0 2 2 1 1 2 1 1 2 2 1 2 1 2 1 2 1 2 1 2 1 2 3 3 0 0 1 2 2 2 0 1 1 3 1 1 1 2 0 1 2 2 3 2 1 0 4 2 0 0 2 1 1 5 2 2 0 2 2 1 0 0 2 2 1 1 1 1 3 1 5 2 4 0 0 0 2 0 2 1 0 2 2 2 0 3 0 1 2 2 1 0 2 2 0 2 2 3 2 1 1 2 1 1 2 1 2 3 0 1 2 3 1 0 3 1 2 3 0 3 1 0 3 1 2 2 1 2 1 1 1 3 3 2 1 0 1 1 3 1 0 1 2 0 1 2 0 1 2 1 0 1 2 1 2 1 1 1 3 3 1 3 1 3 2 1 2 4 1 1 1 2 2 4 1 1 1 0 2 0 2 2 2 2 2 2 1 1 1 2 0 1 1 4 2 2 2 0 1 0 3 1 2 2 2 2 3 1 2 5 2 2 2 1 1 0 2 1 2 2 1 0 3 2 1 1 4 1 5 2 0 1 0 3 2 0 2 4 2 1 2 1 1 3 2 2 4 0 2 0 2 0 1 3 1 0 1 2 3 0 1 1 1 2 1 1 0 3 2 1 2 1 3 0 1 3 1 1 2 1 0 2 1 1 2 0 1 0 1 0 1 1 1 1 0 2 2 1 2 0 4 0 2 2 3 2 1 1 1 0 2 0 2 2 0 2 2 2 1 1 0 1 3 0 1 0 2 4 1 3 3 0 0 1 2 2 2 1 1 1 1 1 3 2 3 2 1 2 2 1 0 2 1 1 1 1 2 0 2 2 2 0 3 1 0 2 1 0 2 1 1 1 1 3 2 0 1 1 1 1 3 1 2 2 1 1 2 2 1 1 3 1 1 1 2 2 3 2 0 2 5 2 2 2 1 1 2 1 2 0 3 1 2 0 1 1 0 0 0 1 1 0 1 2 2 1 2 1 0 1 1 1 1 1 3 1 0 2 2 1 2 1 2 1 2 2 2 1 1 4 1 4 2 1 1 4 1 0 0 2 0 3 0 3 2 1 1 1 1 3 0 1 2 0 2 1 2 0 0 2 1 3 4 2 2 0 1 3 2 3 1 2 1 1 2 2 0 1 3 1 0 1 2 3 2 1 0 3 2 0 4 1 2 2 1 1 1 0 2 0 2 0 1 2 0 2 1 2 3 3 1 3 2 2 3 1 1 2 2 1 1 1 1 2 2 1 2 3 0 3 1 4 0 0 1 1 0 1 3 2 1 2 2 2 1 1 3 0 3 3 1 0 2 3 1 1 2 0 1 2 1 3 2 1 2 0 1 3 2 0 2 2 1 1 6 2 2 1 0 2 3 2 1 2 0 1 0 2 2 0 1 0 2 1 1 2 1 3 1 2 3 0 1 1 0 0 2 3 0 0 2 0 2 3 1 1 3 1 2 2 2 0 4 2 2 0 2 0 0 2 2 2 0 0 1 2 2 1 1 2 2 1 2 1 1 1 2 0 3 1 0 0 1 0 1 2 1 2 0 0 0 1 2 2 4 0 2 1 1 2 2 1 1 2 1 0 0 0 2 1 2 0 2 0 3 0 2 0 0 1 2 0 2 1 2 1 1 1 0 1 1 1 3 1 2 2 2 3 1 2 1 3 2 2 2 1 1 1 0 2 2 1 2 1 1 1 3 2 2 3 2 0 2 2 5 2 2 1 2 0 2 0 1 0 1 2 0 0 1 0 0 0 1 1 1 1 1 3 1 1 2 1 2 1 3 1 0 1 1 1 1 1 0 3 2 0 1 1 0 2 1 3 3 1 0 0 1 1 4 0 1 1 1 1 3 1 1 0 1 1 0 1 1 1 2 3 1 0 4 2 1 1 1 1 5 0 1 0 0 3 3 2 1 2 1 0 1 3 1 2 0 0 2 1 1 0 0 0 1 0 4 2 2 2 2 2 2 2 1 5 1 2 0 2 3 0 2 0 0 3 0 1 0 0 0 3 1 0 2 2 2 0 2 0 0 1 2 1 2 1 1 1 2 2 1 3 2 1 0 1 1 0 2 3 1 1 2 2 2 3 1 1 3 3 0 1 0 1 1 3 0 2 3 1 4 1 2 1 1 3 2 2 0 3 2 2 2 4 2 0 0 0 2 1 1 2 2 3 0 0 2 1 1 1 1 1 1 0 3 0 2 1 3 4 2 0 0 0 0 0 2 1 2 3 0 3 0 3 3 1 2 2 2 4 2 1 2 2 2 1 1 1 1 2 2 0 1 2 6 0 2 0 2 0 0 1 0 0 0 2 1 0 1 3 3 0 1 1 1 0 0 1 1 4 1 0 1 2 0 2 0 1 1 0 2 2 2 2 1 3 1 2 4 1 0 1 1 1 1 2 2 1 0 1 0 2 2 0 3 1 2 2 2 2 2 0 1 1 1 3 0 2 3 1 0 2 0 4 1 3 2 2 0 1 0 1 0 1 1 2 2 1 2 2 1 1 0 1 2 3 3 1 1 1 2 1 2 1 2 1 3 1 0 1 1 2 0 0 1 4 1 2 0 2 2 1 1 0 0 0 3 1 0 2 1 2 2 3 2 1 3 1 1 1 0 1 0 1 3 2 2 3 0 1 2 0 1 2 0 3 1 0 1 4 2 2 2 4 0 1 1 1 3 2 2 1 1 3 1 0 2 0 2 0 0 1 1 2 0 0 2 1 2 0 1 1 1 1 1 1 1 2 1 0 2 2 0 1 1 1 0 2 0 1 1 2 1 0 2 2 0 1 1 0 1 1 2 1 3 1 2 0 5 2 3 2 1 1 2 2 0 1 2 1 3 1 3 1 2 0 0 2 1 2 1 1 3 2 5 1 3 1 1 0 1 2 0 1 0 1 0 1 2 2 1 2 1 1 1 1 2 1 0 1 0 2 0 1 0 2 2 1 0 1 1 0 1 0 2 0 3 1 2 2 2 1 0 2 2 0 2 1 2 1 2 1 0 3 0 0 1 0 0 2 3 2 1 1 0 3 1 0 0 2 3 0 1 1 2 1 2 2 0 2 2 1 2 1 1 0 4 1 2 3 1 2 3 0 3 2 2 1 2 1 2 1 2 1 2 2 1 1 2 0 1 1 2 1 3 2 0 1 3 3 1 1 1 1 2 1 2 2 0 1 1 0 2 2 3 1 2 1 0 2 4 2 0 3 1 0 1 1 1 1 0 1 1 2 3 3 3 2 1 0 0 1 3 2 3 1 1 2 1 2 0 0 3 0 2 3 0 1 1 5 1 2 1 2 1 1 1 2 1 2 3 1 0 1 2 3 2 3 1 4 3 0 2 2 1 2 3 1 2 2 0 3 0 0 0 1 2 2 2 2 1 1 2 1 1 2 2 2 4 2 0 2 1 1 0 4 1 0 1 1 1 0 1 0 0 0 2 2 3 2 3 1 1 1 2 1 1 1 2 2 2 1 2 2 3 2 1 1 0 2 0 2 1 1 1 2 1 3 0 0 2 0 2 1 0 3 0 2 3 0 2 1 1 2 3 3 1 0 0 0 0 1 2 2 0 2 0 1 2 0 2 1 3 1 3 1 3 0 1 1 1 0 0 1 2 2 2 1 0 1 2 1 1 4 2 2 3 0 2 0 2 3 1 1 1 1 2 0 1 3 2 3 1 1 0 1 2 1 0 1 3 1 1 3 2 1 0 2 0 1 1 1 1 1 0 2 1 1 2 3 1 2 1 4 0 2 1 0 1 1 2 2 1 2 0 0 1 2 0 1 1 3 4 1 2 1 1 1 1 2 0 1 1 1 1 0 4 3 0 1 1 3 3 1 2 1 1 1 2 0 0 1 2 2 0 0 2 2 2 1 0 2 1 1 2 2 3 2 0 1 1 1 1 1 1 0 0 3 2 0 1 0 3 2 2 1 1 1 2 0 1 2 0 1 0 3 1 1 1 1 1 1 0 1 2 2 3 3 1 1 1 2 2 1 0 2 1 2 1 3 1 0 3 1 1 0 1 2 3 2 0 2 2 1 1 1 2 2 1 1 1 3 0 2 3 1 1 1 2 3 1 1 2 1 1 2 2 1 1 1 2 2 0 3 1 1 1 1 2 3 0 0 1 3 4 2 2 2 1 1 3 2 3 1 0 2 2 1 2 1 1 1 0 1 2 2 1 0 2 1 1 4 1 2 3 0 1 1 3 2 1 1 0 2 4 1 4 1 1 1 0 1 2 2 1 3 0 1 2 2 1 2 2 3 0 2 3 3 1 2 1 1 0 1 0 2 1 0 1 1 1 2 1 0 1 1 0 2 3 2 2 2 2 1 0 2 1 0 3 3 0 0 0 3 0 2 0 1 2 1 1 1 2 3 2 2 0 0 1 1 1 1 2 1 1 1 1 2 3 2 1 2 2 1 0 1 1 2 3 0 0 2 2 1 2 0 1 1 2 2 3 2 0 2 1 0 0 1 2 2 1 2 2 1 2 0 2 1 1 2 2 0 2 1 3 3 1 1 4 2 1 1 0 3 2 1 3 2 3 1 1 2 2 2 1 1 1 2 1 1 1 4 3 2 2 3 3 2 1 2 2 2 1 1 0 0 1 0 1 4 3 1 1 3 1 0 2 3 0 4 1 2 3 1 2 2 4 2 0 4 1 0 4 1 1 2 1 1 2 2 3 0 3 0 3 2 1 4 2 1 1 0 2 1 1 2 0 2 0 2 1 3 0 1 1 1 1 0 0 0 0 0 3 3 3 4 1 3 1 2 2 1 2 0 0 1 0 0 1 0 0 1 0 1 2 1 1 0 1 1 1 1 2 0 3 1 0 1 0 1 1 0 2 1 1 0 2 3 1 2 0 1 1 0 0 1 2 0 2 1 0 1 2 0 1 1 3 3 3 1 1 3 1 1 3 1 1 1 1 2 1 0 2 2 2 1 1 1 0 2 2 1 3 0 2 1 1 1 1 0 0 1 2 1 0 3 1 3 3 2 2 1 2 1 1 2 1 0 1 3 0 1 1 4 0 3 2 0 1 1 1 2 2 0 0 3 2 3 2 0 4 2 2 0 1 0 4 2 1 1 1 1 3 1 0 3 0 2 3 0 1 1 0 1 2 2 2 3 2 1 3 1 2 3 2 4 1 1 0 2 3 2 0 2 1 0 2 0 0 1 2 1 1 3 2 5 1 2 1 1 5 2 3 3 2 1 2 1 3 2 4 1 2 1 2 2 2 1 1 2 2 2 0 1 0 2 0 1 1 2 1 2 3 0 2 1 1 0 3 2 3 0 0 3 1 1 3 0 1 1 2 2 3 2 1 1 3 2 2 2 2 2 1 0 3 1 1 1 2 2 1 1 3 2 1 2 1 2 1 2 1 2 1 2 1 0 1 1 4 0 1 1 5 1 2 1 1 1 4 1 2 1 2 3 2 1 0 3 1 2 2 1 4 2 3 3 3 1 1 0 1 2 4 1 2 2 3 1 2 1 2 0 2 3 1 2 5 1 0 0 3 2 1 1 3 0 3 2 0 1 1 2 1 1 0 1 2 0 1 2 2 2 2 4 1 5 1 1 1 2 2 0 0 0 2 2 1 1 1 2 2 2 2 0 2 1 2 2 1 4 1 2 2 1 1 3 2 3 2 2 2 4 3 2 0 4 1 1 0 2 2 1 2 2 1 0 1 2 2 1 0 1 1 1 1 2 0 3 1 1 1 1 2 0 0 0 3 3 1 1 1 1 2 2 1 3 1 1 0 2 0 1 0 1 1 1 1 2 1 1 1 2 0 1 1 3 1 0 4 0 0 2 1 1 0 1 2 0 2 2 2 2 1 3 1 0 1 3 2 0 1 0 1 1 4 2 0 1 2 1 0 2 0 2 2 2 0 3 1 1 3 1 1 2 3 2 2 2 2 0 2 2 1 2 4 3 1 4 1 1 1 3 2 2 1 2 1 4 2 1 1 0 0 2 0 0 3 3 2 2 2 3 2 1 2 2 0 2 1 0 1 3 0 1 4 2 0 2 3 0 0 2 2 2 0 2 2 1 3 1 2 0 0 2 1 3 4 1 2 0 1 1 2 3 1 3 2 2 0 1 0 1 2 2 0 3 3 0 1 1 2 1 1 2 0 3 1 1 3 1 1 1 1 1 2 1 3 0 2 3 0 0 1 0 2 2 1 1 1 4 1 0 0 1 2 3 2 1 2 1 0 1 1 1 2 1 3 2 2 0 3 3 1 2 4 2 1 1 0 1 0 1 2 2 0 0 1 3 1 0 1 1 1 1 1 2 2 0 2 1 2 1 0 2 1 0 0 2 1 2 2 2 2 0 1 1 1 0 2 0 1 0 1 2 2 2 1 0 0 3 3 0 2 2 1 0 0 3 2 1 0 2 2 3 1 1 0 2 1 2 1 1 1 1 2 1 6 0 1 1 2 4 3 2 3 2 0 2 1 2 3 2 0 1 0 2 1 2 3 0 3 2 0 4 3 3 0 3 2 2 1 1 0 3 3 3 2 2 1 0 2 2 3 1 2 2 0 2 0 1 2 1 1 1 2 0 1 2 3 0 2 0 2 1 1 1 2 2 1 1 0 0 1 2 1 1 0 3 3 0 2 1 0 2 1 0 0 0 2 2 2 0 1 2 0 1 1 0 1 1 1 3 2 3 2 2 0 2 2 1 1 2 1 1 1 1 0 0 0 4 2 1 2 1 0 1 0 2 2 2 0 0 1 2 1 1 2 2 2 2 2 0 1 3 3 0 0 2 3 0 4 3 0 2 2 0 0 4 1 2 2 2 2 1 1 0 1 0 4 2 3 1 2 2 0 4 2 1 0 0 2 2 1 1 2 3 1 3 1 3 4 1 3 2 1 2 2 1 2 2 1 3 0 2 2 1 1 2 1 0 0 2 2 3 2 1 2 1 1 3 1 2 0 0 1 2 4 1 2 2 2 0 1 1 2 0 1 1 3 1 3 0 1 4 1 1 1 0 0 2 3 2 1 2 1 2 2 1 0 1 1 1 0 1 3 2 0 2 1 2 2 1 1 1 2 1 2 2 3 2 1 0 2 1 1 0 0 4 2 2 0 0 1 0 1 1 1 3 0 1 1 0 1 0 1 2 0 1 1 1 2 3 1 2 3 1 3 0 3 3 2 4 2 2 1 1 1 0 2 1 2 2 0 1 2 3 1 4 1 1 0 1 1 0 2 2 1 3 1 1 0 1 2 3 2 1 0 2 1 1 2 0 0 0 1 2 3 1 1 2 0 1 1 2 1 1 1 0 2 1 2 3 0 1 1 2 2 0 1 1 1 1 1 1 2 2 2 2 3 2 2 3 2 0 3 1 3 2 2 1 0 1 1 2 1 0 1 3 3 1 2 0 0 0 1 1 2 2 2 0 1 0 0 1 1 4 1 1 0 3 1 2 1 2 4 1 1 1 1 1 2 0 1 1 0 2 2 1 0 0 3 4 0 2 2 0 0 1 0 0 4 1 0 1 1 1 2 0 2 4 1 3 1 2 0 2 0 0 1 3 1 2 2 1 2 1 1 0 0 0 0 2 2 1 0 3 0 1 1 1 0 2 2 1 2 2 0 1 1 2 1 1 1 3 2 1 2 1 2 3 2 1 1 0 1 1 2 1 1 0 3 2 0 2 2 1 2 2 2 1 1 2 1 0 1 0 3 1 0 2 1 4 0 2 0 2 1 0 0 3 0 0 2 1 1 1 1 1 3 2 3 1 1 4 0 0 3 1 1 2 0 1 1 4 2 3 3 1 2 1 1 3 2 1 0 1 5 1 2 1 1 1 3 2 1 2 3 1 2 2 2 2 2 0 4 1 2 2 1 1 1 2 2 2 2 2 0 1 1 3 1 1 4 1 1 2 3 2 1 2 0 1 1 2 1 3 1 4 1 0 2 1 2 1 3 1 2 2 2 0 2 1 2 2 2 2 0 3 5 3 2 0 2 2 0 1 2 3 4 1 0 0 0 2 1 3 4 2 3 0 1 1 1 2 2 0 0 2 0 3 2 1 0 3 2 2 5 1 1 0 2 2 1 1 0 1 2 0 2 0 1 1 2 0 1 4 2 1 0 1 3 0 0 3 0 2 1 2 0 0 0 0 0 1 3 0 0 2 1 2 2 2 1 0 0 1 2 0 0 1 2 1 0 1 3 2 0 1 2 1 1 2 2 0 2 1 3 2 1 2 2 2 1 0 0 5 1 1 1 1 1 0 2 1 1 0 1 2 0 0 0 2 1 0 2 2 1 1 1 1 1 1 1 0 2 1 2 1 0 2 0 3 4 2 1 1 1 2 0 1 3 2 2 0 1 0 1 2 1 0 2 1 3 1 0 2 2 2 0 1 1 1 2 2 2 0 1 1 2 2 1 0 1 1 1 3 3 1 1 1 2 2 1 2 1 1 1 2 2 1 1 1 0 1 1 1 1 2 2 0 2 0 1 1 1 2 2 1 3 1 0 2 2 2 2 1 2 2 1 0 1 2 2 2 2 3 1 1 2 2 1 1 0 1 1 0 2 4 2 3 0 1 2 1 2 2 1 2 3 3 2 0 0 3 2 0 0 3 2 0 2 1 3 2 0 1 1 1 0 1 2 2 1 1 1 1 2 0 0 2 0 0 2 1 2 2 0 2 3 1 1 1 0 0 2 1 0 2 0 1 1 2 4 2 1 2 1 2 1 1 1 4 1 1 0 4 1 2 2 1 1 2 2 1 3 2 1 1 2 3 2 1 1 1 2 0 3 1 1 1 1 1 1 3 2 2 1 0 3 0 2 2 0 1 2 0 2 1 0 1 2 0 0 1 2 4 1 1 2 2 2 3 1 1 0 1 2 1 0 1 2 3 0 3 0 2 1 1 2 0 2 0 1 0 1 1 1 1 0 3 2 3 0 1 1 1 1 1 1 3 0 1 1 1 0 0 2 1 3 1 1 1 2 1 0 1 1 2 1 1 3 2 2 2 2 2 3 0 1 2 1 1 1 3 2 2 1 0 1 4 3 1 1 1 1 2 1 2 1 2 1 2 1 1 3 2 2 1 2 1 1 2 3 0 3 2 1 3 1 1 2 0 0 3 1 2 1 0 2 1 2 1 2 4 1 1 2 0 1 2 0 0 1 2 4 0 1 0 2 3 1 2 0 3 4 2 4 1 1 2 0 1 4 2 1 1 2 1 0 1 1 3 0 1 3 0 2 1 4 0 2 2 2 2 3 1 2 2 0 2 0 2 3 2 1 2 1 2 2 2 2 1 0 1 1 2 3 1 0 1 1 0 3 1 1 1 1 0 1 2 1 3 0 1 2 2 3 2 1 1 1 3 3 1 3 0 1 1 4 3 0 1 1 2 2 2 0 1 1 0 1 1 0 2 3 1 3 0 1 1 0 2 1 1 2 3 1 1 0 3 3 0 2 2 2 1 3 1 1 1 2 4 0 2 0 5 0 1 2 2 2 1 2 2 1 1 0 2 2 3 0 5 1 0 0 2 5 2 0 1 0 2 0 3 0 1 1 1 3 1 2 2 2 2 1 1 1 2 1 1 2 3 2 2 0 1 0 1 0 1 3 2 2 0 1 4 2 1 1 2 1 2 2 1 2 2 2 3 0 1 0 4 2 2 0 1 0 1 2 1 1 1 0 1 2 3 1 2 1 3 3 1 2 1 1 2 2 2 1 2 0 1 2 0 1 1 2 2 2 4 1 0 2 4 5 5 0 0 0 2 1 2 3 2 2 0 2 1 4 1 2 3 2 1 1 2 2 1 4 1 1 1 1 1 2 1 0 0 1 2 2 1 4 2 0 2 0 0 2 3 1 1 1 1 2 2 1 1 0 1 0 2 1 4 0 5 1 1 1 2 2 2 3 2 2 2 2 0 1 0 0 3 1 3 0 2 0 1 1 2 1 2 2 1 0 0 1 1 2 2 2 0 0 0 0 0 1 1 3 2 2 1 0 2 2 0 3 1 1 1 0 1 2 1 1 0 1 3 1 3 0 1 0 1 2 0 1 1 1 1 2 2 1 2 0 3 0 1 0 1 1 0 1 0 2 2 0 2 3 3 3 3 0 2 2 1 2 1 1 0 2 0 2 1 2 2 1 1 1 4 3 4 0 1 2 4 1 0 1 1 2 0 1 4 1 1 1 1 1 1 2 1 2 0 1 1 4 1 1 2 0 1 1 1 5 1 0 1 1 1 1 1 2 0 1 0 3 2 0 2 1 0 1 1 2 1 0 2 1 2 1 1 2 2 0 3 2 1 2 2 1 1 1 1 2 1 3 1 1 0 2 0 0 2 1 0 4 1 2 0 1 1 2 1 2 1 0 0 0 0 2 2 2 0 1 2 0 3 1 1 0 2 2 1 1 0 1 1 2 1 2 4 3 1 0 1 2 4 0 0 2 0 3 2 2 1 3 2 0 1 1 1 1 3 1 2 0 1 2 2 1 2 2 3 2 2 2 2 2 1 3 1 0 2 2 2 2 1 2 1 0 1 2 4 3 2 1 1 4 0 2 0 2 2 2 4 1 2 2 2 1 0 1 2 2 0 1 2 1 0 1 1 1 1 0 3 1 1 1 2 2 1 0 1 1 1 3 1 1 1 1 1 1 2 3 3 0 2 2 1 0 0 2 1 1 2 3 1 2 1 3 2 2 1 1 2 0 1 0 0 2 0 2 0 0 2 0 1 2 2 1 3 1 4 2 3 1 0 2 1 1 2 2 2 2 3 3 2 2 2 2 3 0 2 0 0 1 2 1 4 4 0 1 1 2 3 1 1 0 2 2 1 3 3 2 0 2 1 1 1 3 2 1 2 0 2 1 0 2 1 1 1 0 1 2 1 2 2 0 3 1 2 0 3 0 3 2 1 2 4 5 1 1 1 4 1 0 1 1 2 4 2 2 1 1 1 0 0 0 3 2 0 0 3 1 1 2 2 1 2 0 2 0 2 1 1 1 2 1 0 1 3 1 1 1 2 0 4 0 0 2 2 1 1 1 2 2 1 2 2 1 1 1 1 1 3 3 1 4 0 2 2 2 3 0 1 3 0 1 1 4 1 0 1 1 2 2 1 1 0 2 2 2 2 1 2 2 0 1 1 1 2 2 2 1 3 0 2 2 1 1 1 3 1 0 1 2 1 0 2 1 1 2 3 1 0 0 2 2 0 1 3 2 0 1 0 0 2 2 2 2 0 1 0 0 2 0 3 1 2 0 3 2 2 3 0 3 1 1 2 2 2 1 1 2 1 2 1 0 2 2 2 1 3 3 1 1 1 1 2 1 1 0 2 0 0 2 0 2 1 1 1 0 1 0 1 1 1 1 2 1 2 2 0 1 1 1 2 1 1 3 1 2 0 0 0 1 1 2 3 3 1 2 1 1 1 0 2 2 1 2 1 1 2 2 2 3 2 2 3 4 2 1 1 1 1 1 1 2 2 0 0 2 1 5 2 1 2 2 1 3 0 3 2 2 2 2 0 2 0 0 0 0 1 2 1 3 3 2 2 1 3 0 1 3 2 3 0 2 0 1 1 3 2 0 1 2 1 1 2 0 0 2 2 2 2 3 2 5 1 1 4 3 1 2 1 3 3 2 2 2 1 1 3 0 0 3 1 3 2 1 2 2 2 0 2 2 0 2 3 0 1 2 1 2 1 4 0 0 1 3 0 2 1 2 1 0 3 3 0 1 1 1 0 3 2 1 1 3 2 3 2 1 0 1 2 0 1 2 3 2 4 2 3 1 1 0 0 1 2 1 1 0 0 1 1 1 1 4 1 2 2 0 1 1 3 1 2 2 2 2 2 0 0 0 0 2 2 2 0 0 2 3 1 1 2 1 0 3 0 1 0 1 1 0 1 2 1 1 1 0 0 2 1 0 3 0 0 2 0 2 1 1 3 1 1 1 1 2 2 2 0 1 1 1 1 1 1 1 1 1 0 2 1 1 1 1 0 2 2 1 1 2 4 1 1 2 2 2 2 3 1 2 2 2 0 2 0 2 2 1 1 1 0 2 2 2 1 3 0 0 3 1 3 2 1 0 3 1 0 1 1 1 1 3 1 2</t>
-  </si>
-  <si>
-    <t>GAM(0.7428544540195368, -3.911530771033172e-29, 0.4794669322787566)</t>
-  </si>
-  <si>
-    <t>0 0 1 1 0 0 0 0 1 1 1 0 1 0 2 0 2 0 0 0 0 0 1 0 0 0 0 2 0 0 0 1 0 0 2 0 0 1 2 0 3 0 0 0 0 0 1 0 0 0 0 0 0 2 0 1 0 0 1 0 0 0 3 0 1 0 1 1 2 0 0 1 0 1 0 0 0 0 1 0 0 1 1 0 0 0 0 1 1 0 1 0 1 0 1 0 1 0 0 1 1 0 0 2 0 0 2 1 0 0 0 0 2 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 1 0 2 1 0 0 0 0 0 1 1 0 0 0 0 0 0 2 0 1 1 0 1 1 1 1 1 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 1 0 1 0 1 0 0 1 0 0 0 0 1 0 0 0 1 0 1 0 0 1 0 2 0 0 0 0 0 0 1 0 0 0 0 0 1 2 0 2 1 0 0 0 0 2 1 0 0 0 0 0 0 1 0 0 0 0 2 1 0 0 1 0 1 0 1 1 0 0 1 2 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 1 0 0 1 2 0 3 0 1 0 2 1 1 0 2 0 0 2 1 0 0 0 0 1 0 0 2 1 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 1 1 0 0 1 1 0 0 1 0 0 0 0 2 1 0 1 0 0 0 0 1 0 0 1 2 0 0 0 0 1 0 0 1 0 1 0 0 1 0 0 0 1 0 0 1 2 0 0 0 1 0 2 0 1 0 1 0 0 0 1 1 0 1 1 0 0 0 0 0 1 0 1 0 1 0 0 1 1 0 0 0 0 0 1 1 1 1 0 0 0 0 0 1 0 0 2 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0 1 3 0 2 0 1 0 1 0 1 1 0 1 1 1 1 0 0 0 1 0 1 0 1 0 0 0 3 1 1 2 1 0 0 1 0 1 0 0 1 0 1 0 0 0 1 0 0 2 2 0 0 1 0 0 0 0 1 1 1 0 0 0 0 1 1 1 0 0 0 1 0 1 0 0 1 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 2 0 0 0 1 0 1 0 0 1 0 0 1 1 1 1 0 1 0 0 0 1 0 0 0 0 2 1 0 0 1 0 0 1 0 0 0 0 2 0 0 1 0 0 0 0 0 0 1 0 1 1 0 0 1 0 0 0 0 2 0 0 1 2 1 0 0 1 0 1 0 0 0 1 1 1 0 0 0 0 0 0 2 1 1 0 0 0 0 2 0 2 0 1 0 0 2 0 0 0 1 1 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 1 0 2 1 0 2 2 0 0 0 0 0 2 1 0 1 2 0 0 1 1 0 0 1 1 1 0 0 1 1 1 0 0 0 2 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 2 1 1 0 0 0 1 0 0 0 0 1 0 3 1 1 0 0 0 1 0 1 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 2 0 1 2 0 0 0 0 0 0 0 1 1 0 0 0 0 1 1 1 0 0 1 1 1 1 0 1 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 1 0 0 1 1 1 1 0 0 0 0 1 2 1 1 0 0 0 0 1 0 0 0 1 0 0 0 2 0 0 0 0 1 0 0 0 0 0 0 2 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 1 1 1 0 1 0 0 0 1 0 2 0 1 0 0 1 1 1 0 0 0 1 1 0 1 0 0 1 1 0 0 2 1 1 0 0 0 0 1 2 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 1 0 1 0 1 1 2 0 0 0 1 0 1 1 0 0 0 1 0 1 0 0 0 1 1 1 1 1 0 1 1 0 0 1 0 1 0 1 0 1 0 0 0 0 0 1 1 0 0 1 1 3 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 2 0 0 1 0 0 0 3 0 0 2 0 0 1 0 0 1 2 0 1 1 2 0 0 0 0 0 1 0 0 2 0 0 0 1 0 2 0 0 1 0 1 1 1 1 1 2 0 0 0 1 0 0 1 0 0 1 0 0 1 0 0 0 2 0 1 0 0 0 1 1 0 0 1 0 0 1 0 0 0 0 1 1 2 0 1 0 1 0 1 1 2 0 0 0 0 0 0 0 0 0 1 1 1 0 0 1 0 1 0 0 0 2 0 0 0 2 0 0 1 1 2 0 0 0 1 0 0 0 0 2 0 0 0 0 0 1 0 0 0 1 1 1 1 1 1 1 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 1 0 1 0 3 1 0 1 1 0 0 0 1 0 1 0 0 1 0 2 0 0 0 0 0 1 0 0 0 1 1 0 1 0 1 0 1 2 0 0 0 0 0 0 1 0 1 0 1 1 1 0 0 1 1 1 0 0 3 1 0 0 0 0 0 0 0 2 0 1 0 0 1 0 0 0 1 0 1 0 1 0 0 0 0 1 1 0 1 1 1 0 0 1 0 0 0 0 0 1 1 0 1 0 1 0 1 1 1 0 1 0 0 0 0 0 0 0 0 1 1 2 0 1 0 0 2 1 0 1 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 1 0 1 0 1 1 1 0 0 0 0 2 0 0 1 0 0 0 0 1 0 1 0 0 0 0 1 0 1 0 0 1 1 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 1 0 2 1 0 0 2 0 1 0 1 1 1 0 2 1 1 0 0 1 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 1 0 1 0 0 0 0 1 0 1 0 0 0 1 0 1 2 0 2 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 1 0 2 1 0 0 0 0 0 0 0 1 0 0 1 2 0 0 2 0 0 0 0 0 0 1 2 0 0 1 0 0 0 0 0 1 1 3 1 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 1 1 0 1 2 1 1 0 1 1 1 0 0 0 0 1 2 0 2 0 0 1 1 0 2 1 0 2 1 1 0 1 1 0 0 1 0 0 1 3 0 1 1 0 0 0 0 1 1 0 1 0 0 0 1 1 0 0 0 0 1 1 1 0 1 0 0 1 1 1 0 1 0 1 3 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 1 1 0 0 0 1 0 2 0 2 0 1 0 0 1 1 0 1 1 1 0 0 0 2 0 0 0 0 1 0 1 0 1 0 2 0 0 0 0 1 0 1 2 0 0 1 1 1 0 1 1 0 1 0 0 0 0 2 0 0 2 0 2 0 1 0 1 0 0 0 0 0 0 1 0 2 1 0 1 0 0 0 2 0 0 0 1 1 2 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 2 0 1 4 0 0 0 0 1 1 0 0 1 2 0 1 0 0 0 0 1 0 2 1 0 1 0 2 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 2 1 1 0 0 0 1 0 1 0 0 0 0 0 1 1 0 2 0 0 0 0 1 0 1 1 1 3 0 0 0 2 0 1 0 1 0 2 0 0 0 1 2 0 1 0 0 0 0 1 0 1 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 1 1 0 0 0 1 0 0 0 1 0 0 0 0 1 1 0 2 0 0 0 0 2 0 0 3 0 0 0 1 0 0 1 0 1 0 0 0 0 3 1 0 0 0 0 0 0 1 1 0 0 2 1 1 2 0 0 1 1 0 0 2 0 2 0 1 0 1 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0 1 1 1 1 0 0 0 1 1 0 1 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 1 0 1 0 2 0 1 1 1 0 2 0 1 1 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 3 1 0 1 0 1 1 0 0 1 0 0 0 0 2 1 1 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1 0 0 1 1 0 0 1 0 1 0 0 0 1 1 1 0 1 0 0 1 0 1 0 0 0 0 1 0 1 0 0 2 0 0 1 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 1 1 1 1 0 0 0 0 0 1 1 0 1 2 0 0 1 0 0 1 1 0 1 0 0 0 0 0 0 1 0 2 1 0 0 2 1 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 2 0 0 0 0 2 0 2 0 0 0 1 0 1 0 0 0 1 1 0 0 0 0 0 1 0 0 0 1 1 1 1 0 0 0 2 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 2 0 0 1 0 0 0 0 0 1 2 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 2 0 0 0 0 0 0 2 1 0 0 0 1 0 0 1 1 0 2 0 0 0 0 0 0 0 0 1 1 1 1 0 1 0 1 0 0 1 1 1 0 0 0 0 1 1 1 1 0 0 1 1 1 0 0 0 0 0 2 0 0 0 1 0 0 1 2 0 1 1 0 0 1 0 1 0 0 0 0 1 1 2 1 1 0 0 1 0 3 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 1 1 0 1 0 1 0 2 0 0 0 1 0 0 1 1 0 0 0 1 0 0 0 0 2 0 1 0 0 1 0 0 0 1 1 1 1 0 0 1 1 0 1 0 1 1 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 2 1 1 0 0 0 1 0 0 0 1 0 0 0 2 0 1 0 1 0 0 1 1 2 0 1 0 0 1 0 0 0 1 0 0 0 1 0 2 1 1 0 0 2 0 0 1 1 0 0 0 0 2 0 0 1 0 0 0 0 0 0 0 0 2 1 0 0 0 1 2 0 0 1 1 1 1 1 1 1 1 1 1 0 0 1 0 2 0 1 0 1 0 2 0 2 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 1 0 0 0 0 3 0 0 0 0 0 3 0 0 0 0 3 1 1 0 0 0 0 1 0 1 0 1 2 0 1 1 0 1 0 1 0 0 0 0 2 1 0 0 1 0 2 1 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 1 1 0 0 0 1 2 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 2 0 0 0 1 1 1 0 2 0 0 0 0 0 0 1 0 1 0 0 0 1 1 1 0 0 1 1 2 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 2 2 1 1 1 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 1 0 2 0 0 2 0 0 1 0 1 0 0 1 0 2 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 1 1 0 2 0 1 0 1 0 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 0 2 0 0 1 2 0 1 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 1 2 1 1 0 1 1 0 0 1 3 0 0 1 1 1 0 0 1 0 0 0 0 0 1 0 0 1 0 1 0 1 0 1 0 1 0 1 0 0 0 1 0 0 0 0 2 0 1 0 0 2 1 0 1 2 2 1 2 1 0 1 0 0 0 1 1 0 0 2 0 0 1 1 0 0 1 1 0 0 1 0 0 1 0 0 0 0 0 0 0 1 1 0 1 2 0 2 0 1 1 2 0 0 1 0 1 0 0 1 0 0 0 0 1 0 1 0 0 1 0 1 2 0 1 0 0 1 3 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 3 0 0 1 1 1 1 0 0 0 1 0 1 0 1 1 0 0 1 0 0 1 0 0 0 0 2 0 1 1 0 2 0 1 0 1 0 0 0 0 1 1 1 0 0 0 0 1 1 0 1 0 1 1 0 0 0 0 1 2 0 0 1 0 1 0 1 0 1 1 0 0 1 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 1 1 1 0 1 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 2 0 0 0 1 0 1 2 0 1 0 1 0 0 1 0 2 0 0 0 0 2 1 1 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 1 1 0 0 1 1 0 0 0 1 0 0 0 1 0 0 1 1 0 0 0 1 0 0 0 0 0 3 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 1 0 2 3 0 0 1 0 1 1 0 0 1 1 1 1 0 0 0 0 0 1 1 1 0 1 0 1 0 0 0 2 2 0 1 0 0 2 1 2 1 1 1 1 1 0 3 1 0 1 0 0 0 0 0 1 3 0 1 1 1 0 0 0 0 0 1 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 2 1 0 0 2 1 0 0 3 1 0 2 1 1 1 0 1 0 1 0 2 0 2 0 1 0 1 0 0 1 1 0 1 0 0 0 0 2 0 1 0 0 0 0 1 0 0 0 0 2 1 0 0 0 0 1 1 0 0 2 0 0 0 0 1 0 2 2 0 0 0 1 0 1 0 2 1 0 0 1 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 1 0 0 1 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 2 1 0 1 0 0 0 0 0 1 1 0 0 1 0 0 0 1 1 0 0 0 0 0 1 1 2 0 1 0 0 1 0 0 0 1 1 1 0 1 1 0 1 1 0 0 2 0 0 0 2 0 0 0 0 0 2 1 0 0 0 0 0 1 0 0 1 2 0 0 1 0 0 2 1 2 0 1 0 0 0 0 0 0 1 2 1 1 0 0 0 2 1 0 1 0 1 1 1 1 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 1 0 0 0 0 0 0 0 0 1 1 1 0 0 1 0 0 1 0 1 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 2 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 1 0 1 0 1 1 1 0 1 1 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 1 0 1 0 0 1 1 1 1 0 1 0 0 0 1 0 1 0 1 1 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 1 0 0 1 0 0 0 1 0 1 0 1 0 0 1 1 1 2 1 0 1 0 0 0 0 0 1 1 1 1 0 0 0 0 0 0 0 1 0 0 2 2 0 0 0 0 1 2 0 0 1 0 0 1 1 1 1 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 1 1 1 1 1 2 0 0 0 0 1 0 0 1 0 1 1 1 0 0 0 0 0 0 0 1 1 2 0 0 1 1 1 0 2 1 1 0 0 1 0 0 1 0 0 0 0 1 3 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 3 0 0 2 0 0 0 0 0 2 2 0 0 2 0 0 1 1 0 0 0 3 1 0 0 0 0 0 0 0 0 1 1 0 1 0 1 0 0 0 0 0 1 1 0 1 1 1 1 0 0 1 0 0 0 2 0 1 2 1 0 0 1 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 1 1 2 0 1 1 0 1 0 0 0 0 0 0 1 1 0 1 0 1 0 0 2 0 0 0 1 1 0 1 1 1 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 2 0 1 0 1 0 1 0 0 0 0 1 0 0 0 0 1 0 1 0 0 1 0 0 1 1 0 0 1 0 0 0 0 2 0 0 0 0 0 0 0 0 0 1 2 0 1 1 1 0 1 0 1 0 2 1 0 1 1 0 1 1 1 1 0 1 0 1 0 0 0 0 1 0 0 0 1 0 0 1 0 2 0 0 0 1 0 0 1 1 1 0 0 0 2 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 2 1 0 0 0 2 2 0 0 1 1 0 0 2 1 1 1 0 1 3 0 0 0 1 0 0 0 0 0 0 2 0 0 0 0 1 2 2 0 0 0 0 0 0 2 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 2 2 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 1 0 1 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 1 1 0 0 1 1 0 0 0 0 1 1 0 1 0 2 0 0 0 1 0 0 1 0 1 1 0 0 0 1 0 2 0 2 1 0 2 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 1 2 0 0 0 0 1 2 1 2 0 0 0 2 0 0 1 0 0 0 2 2 0 2 0 1 1 1 0 0 0 0 1 1 0 0 1 0 2 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 2 0 0 1 0 1 0 0 0 0 2 0 0 0 2 0 0 0 1 4 2 0 1 0 1 0 2 0 0 1 1 0 0 2 2 0 1 0 1 2 0 2 0 0 0 0 0 0 0 0 2 0 0 1 1 1 0 0 1 0 0 0 0 1 0 1 0 1 0 0 1 3 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 2 1 1 1 1 0 0 1 0 0 0 0 0 0 1 0 2 0 0 1 0 1 3 0 0 2 0 0 1 0 2 0 0 1 0 0 0 1 0 0 0 2 1 0 0 1 0 0 0 0 0 1 0 1 1 0 0 0 0 0 1 0 0 1 0 0 0 1 0 1 0 0 1 2 0 0 0 0 0 0 0 3 0 0 0 0 1 0 1 0 0 1 0 0 1 0 1 2 1 1 1 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 3 0 1 0 0 0 0 1 0 1 1 1 0 1 1 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 1 0 1 0 1 1 0 1 0 0 1 0 1 0 1 0 2 1 0 0 0 1 0 0 0 0 0 0 1 1 1 1 1 1 0 0 1 0 0 0 1 0 1 1 0 1 0 0 0 2 2 1 0 0 0 0 0 3 1 0 1 0 0 0 0 0 1 0 0 0 1 1 0 0 0 1 0 1 0 0 0 1 0 0 1 0 1 0 0 0 1 0 1 1 1 0 0 0 0 0 0 1 0 2 0 1 1 0 0 0 2 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 2 1 1 0 2 0 0 1 0 0 1 1 0 1 1 0 0 0 0 0 0 0 0 2 2 2 0 0 0 0 1 0 0 0 0 1 3 0 1 1 0 0 1 1 0 0 1 0 1 0 0 1 2 0 2 1 1 0 1 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 1 2 0 1 0 0 1 0 0 0 0 2 0 0 0 0 0 2 0 0 1 1 0 0 0 1 0 0 1 0 0 1 2 1 0 0 0 0 1 2 0 1 0 1 0 0 0 0 1 0 0 0 1 1 0 1 0 1 0 2 0 0 0 0 0 0 2 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 1 0 1 0 0 1 0 0 0 0 0 0 0 1 1 0 1 0 2 2 0 1 0 0 1 1 0 1 0 0 0 1 2 1 0 0 0 1 1 0 2 0 0 0 3 0 1 0 0 0 1 1 1 0 1 0 1 2 0 0 2 0 0 0 0 2 1 1 1 0 1 0 1 0 0 1 0 0 2 0 1 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 1 1 1 0 1 0 0 0 0 0 0 1 0 0 1 0 1 0 1 0 0 2 0 0 0 0 0 1 0 0 0 0 1 0 1 0 1 0 0 0 5 1 0 0 0 1 1 0 1 0 1 0 1 0 1 1 0 1 1 0 0 1 0 0 2 0 0 1 0 0 0 1 0 0 1 0 0 0 3 0 2 0 1 0 1 2 0 0 0 2 0 0 0 0 1 0 0 3 0 1 0 0 0 2 0 0 1 0 1 1 0 1 0 0 0 0 1 0 1 1 0 0 1 2 1 0 0 1 1 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 1 2 0 0 0 0 1 0 0 0 0 0 1 1 1 0 0 2 0 1 0 0 0 1 1 1 1 1 2 0 0 0 0 0 2 0 0 0 0 1 1 0 1 0 1 0 0 0 1 0 0 1 1 0 0 0 1 0 0 1 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 1 0 0 0 0 0 1 0 0 2 0 1 0 0 0 0 1 0 0 0 1 0 2 0 1 0 0 1 0 0 0 1 1 0 0 1 1 0 1 0 1 0 2 3 0 1 0 0 0 0 0 0 0 1 0 0 2 1 0 3 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 2 0 0 0 1 1 2 1 1 0 0 2 0 0 0 2 0 0 0 0 1 1 1 2 1 1 1 0 0 0 1 0 1 1 0 0 1 0 0 0 0 0 2 1 1 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 3 1 1 0 1 0 0 0 1 0 1 0 0 1 1 1 0 0 1 0 0 0 1 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 1 1 0 0 0 0 1 1 0 1 0 0 1 1 0 0 1 0 1 0 0 1 0 0 1 0 0 0 0 2 1 1 1 0 0 1 1 0 0 1 0 0 1 1 1 0 0 0 1 0 1 0 0 1 3 0 1 0 0 0 2 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 1 1 2 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 3 0 0 0 0 1 0 1 1 1 0 0 0 0 0 0 0 1 1 0 0 2 0 0 0 0 0 0 1 0 0 1 0 0 0 0 2 0 1 1 0 0 1 0 0 0 1 0 0 1 0 0 0 1 0 1 2 0 3 1 1 1 0 2 0 1 0 0 0 1 0 2 1 0 1 0 0 0 0 0 0 0 1 4 0 0 1 1 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 1 1 1 1 1 0 1 0 1 1 0 0 0 0 2 1 0 2 1 2 0 1 1 0 0 1 2 0 0 0 0 1 2 0 1 0 2 1 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 2 0 2 1 3 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 1 0 0 1 1 1 0 1 2 1 0 0 0 0 1 0 1 0 1 0 2 2 0 1 0 0 3 2 0 0 1 0 0 3 0 1 0 0 0 0 0 0 0 0 0 0 1 1 1 0 1 0 1 1 2 0 1 5 0 0 0 1 0 0 1 0 0 1 1 2 0 0 0 0 1 4 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 1 1 0 2 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 2 0 1 1 1 1 0 1 0 0 0 2 0 0 2 0 0 2 0 0 0 2 1 0 0 0 1 0 0 0 0 0 2 1 1 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 1 1 0 0 2 0 1 2 0 0 0 0 0 0 2 1 0 0 0 0 0 2 0 0 0 1 0 1 1 2 0 1 0 1 1 0 1 1 2 0 1 0 0 2 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 1 1 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 1 0 0 0 0 0 0 1 1 0 1 2 0 1 0 1 1 0 0 0 0 1 1 0 0 1 0 1 0 0 0 1 1 0 0 1 1 0 0 0 0 0 0 1 1 1 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 1 1 1 1 0 0 3 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 1 1 0 0 1 0 1 1 0 2 1 1 1 0 0 1 1 1 0 0 1 0 1 1 2 0 2 0 0 1 1 0 1 0 1 0 0 0 1 0 1 1 0 0 1 1 0 0 0 0 0 1 0 0 1 1 0 0 1 1 1 1 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 2 0 0 1 1 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 2 1 0 0 0 1 0 0 0 0 1 2 0 0 1 1 0 0 0 0 1 0 0 0 1 0 1 2 2 0 0 1 0 1 0 0 1 0 0 0 2 0 2 0 0 2 0 0 1 0 0 0 0 1 0 0 0 0 1 1 2 1 1 1 2 0 2 0 1 0 0 0 2 2 2 1 0 0 0 0 1 1 0 0 0 1 2 0 1 0 0 1 0 0 1 1 1 0 1 1 1 0 0 1 0 0 0 1 1 0 0 0 1 0 0 2 0 0 0 0 2 0 0 1 1 1 0 0 1 1 0 0 1 1 0 1 0 1 1 0 1 0 1 1 0 0 1 2 1 0 0 0 0 0 0 1 0 1 0 1 2 3 1 0 1 1 1 0 1 0 0 1 0 1 0 1 1 3 0 1 0 1 0 0 0 0 1 0 0 0 2 0 0 1 0 0 1 0 1 0 1 0 0 0 1 1 1 0 0 1 0 0 0 0 0 0 0 2 0 1 2 2 0 0 0 2 0 0 0 0 0 1 0 0 1 1 0 0 0 1 3 0 0 0 0 0 0 1 0 0 1 0 2 1 1 0 0 2 0 0 0 3 1 0 0 1 0 0 0 0 0 1 1 1 0 0 1 1 1 2 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 2 0 0 1 0 1 0 0 0 1 0 1 2 0 0 0 0 0 1 0 0 1 0 0 0 1 1 0 2 0 2 0 0 0 1 1 0 0 0 0 0 0 0 0 0 2 0 0 2 0 1 1 0 0 1 1 0 4 1 0 1 0 0 1 0 0 2 0 1 0 3 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0 1 0 2 0 1 0 0 1 1 1 0 0 0 0 0 1 0 2 0 1 1 0 0 0 1 0 0 1 0 2 1 0 0 0 2 0 0 0 0 0 1 1 0 2 0 0 1 0 1 2 0 0 0 0 0 0 0 1 1 0 2 0 0 0 0 0 1 0 0 2 0 1 0 0 0 0 1 0 0 2 0 0 0 0 0 1 1 0 1 0 0 0 1 0 0 1 2 0 0 0 2 1 0 0 0 0 0 0 2 2 0 0 2 0 0 1 0 1 1 1 0 0 0 0 0 1 0 1 0 1 0 1 2 1 1 1 0 0 0 0 0 2 1 1 1 0 0 0 1 1 1 0 1 0 0 0 1 0 1 1 0 0 0 1 1 1 0 0 0 0 1 0 0 0 0 0 1 1 0 1 0 0 0 1 0 0 0 0 0 1 0 0 1 0 1 1 1 0 0 1 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 2 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 2 0 0 0 0 1 2 1 1 0 0 1 0 0 1 2 2 0 0 1 0 1 0 0 0 1 1 0 0 0 1 0 1 2 0 0 1 1 0 0 0 0 0 0 0 0 0 2 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 2 0 0 1 2 0 1 0 0 1 0 0 1 0 1 0 0 0 0 1 0 2 0 0 1 0 0 1 0 1 1 0 0 2 0 0 0 0 1 1 0 0 0 1 1 0 1 0 0 1 1 2 0 0 0 1 1 0 0 0 1 0 2 0 0 0 0 1 1 2 0 2 2 0 0 1 0 1 1 0 0 0 1 0 1 0 1 1 1 1 0 1 0 0 0 0 0 0 0 1 0 0 2 0 1 0 0 1 1 1 0 0 1 1 0 0 0 1 0 2 2 1 0 1 1 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 2 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 1 2 2 1 0 0 0 1 0 0 1 0 0 0 0 2 0 0 0 1 0 0 0 0 1 0 0 0 2 0 1 1 0 0 0 1 0 0 0 0 1 1 1 1 0 0 0 0 0 1 1 0 0 0 0 2 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 2 1 0 0 1 0 0 0 0 0 1 1 0 0 0 2 0 0 0 0 0 1 2 0 0 1 0 1 2 0 0 0 0 0 2 0 0 1 1 0 1 1 0 0 0 1 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 2 0 0 0 0 1 0 0 0 2 0 0 0 1 1 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 1 1 0 2 1 0 0 0 1 0 0 0 0 0 0 1 1 1 0 1 1 0 2 1 0 0 0 0 0 0 0 0 1 1 0 1 1 0 2 0 0 0 0 0 2 1 0 0 0 1 1 1 1 0 1 0 0 0 0 2 1 0 0 0 0 1 1 0 0 1 1 1 1 1 1 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 2 0 0 0 0 2 0 0 1 0 0 2 0 1 0 1 0 0 0 0 1 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 1 0 0 0 0 0 1 1 0 1 0 2 1 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 2 0 0 0 0 0 0 0 1 0 3 0 0 0 1 1 1 0 0 1 0 3 1 0 1 1 0 1 0 0 0 0 0 0 0 1 1 0 2 0 0 1 0 0 0 1 0 0 1 1 1 0 0 0 1 0 0 0 0 2 0 1 0 2 1 0 1 0 0 0 0 0 0 0 0 1 0 1 0 1 0 1 0 0 0 1 1 1 0 0 0 0 1 0 0 1 1 0 1 0 0 0 0 0 1 0 1 0 1 1 1 0 1 1 1 1 0 1 0 0 1 1 0 2 1 0 0 0 1 1 4 1 1 1 0 0 1 1 0 0 0 1 0 0 0 2 0 0 0 0 1 0 1 0 1 2 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 1 1 0 0 0 2 0 0 0 1 0 1 1 0 1 0 0 2 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 2 1 0 1 0 1 1 2 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 1 0 2 0 0 0 2 1 0 0 0 3 0 0 3 0 1 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 2 0 0 2 3 1 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 3 0 0 0 1 0 1 1 0 0 1 2 0 1 0 2 0 0 3 2 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 1 1 0 0 1 0 0 1 1 0 2 0 2 1 0 0 0 0 3 1 1 1 1 0 0 0 0 0 1 1 2 0 0 1 0 1 0 0 0 0 0 0 0 1 1 0 0 2 3 0 0 1 2 1 0 1 0 0 0 2 0 3 1 0 1 1 0 1 0 1 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0 2 0 1 0 0 0 0 0 0 0 1 1 1 1 0 1 0 1 1 0 0 1 1 1 1 1 0 1 1 0 0 0 0 0 1 1 0 0 1 0 0 0 1 0 1 0 0 0 0 1 0 1 2 2 0 1 0 1 0 0 0 0 0 0 1 0 3 2 0 0 0 0 0 0 0 1 0 0 1 1 0 0 1 0 2 1 0 1 1 1 0 0 1 1 1 0 0 0 0 1 1 1 0 0 0 1 1 0 2 0 0 2 0 0 1 0 2 0 2 1 0 1 0 0 1 0 1 0 0 0 2 2 1 0 1 0 0 0 2 1 1 3 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 1 0 0 1 0 0 2 1 0 0 0 0 0 0 0 0 2 0 0 3 0 1 1 0 0 1 0 1 0 0 0 1 1 0 1 0 0 1 1 0 1 0 0 2 1 0 1 2 2 0 0 1 0 1 0 0 0 1 1 1 0 3 1 1 0 1 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 1 1 0 0 1 1 0 0 1 0 0 0 0 1 0 1 0 1 1 0 0 0 1 0 0 0 0 1 1 1 0 1 0 0 2 0 0 0 0 0 0 1 0 1 0 0 1 1 0 0 0 1 0 1 2 1 0 0 1 1 2 0 0 0 1 0 0 0 0 0 2 0 0 0 2 0 1 0 0 0 2 0 1 0 0 0 0 0 0 1 2 0 0 2 1 0 0 1 2 0 0 0 0 0 0 2 2 0 0 1 2 2 1 1 0 1 1 1 0 1 2 0 0 0 0 0 0 0 1 2 0 2 0 1 1 2 0 0 1 0 0 0 2 0 0 1 0 0 0 1 1 1 0 0 1 2 1 0 0 2 0 0 0 0 0 1 0 1 1 0 0 1 1 0 1 0 2 0 2 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 1 1 1 0 0 1 2 0 0 1 1 0 0 0 0 0 0 2 1 0 0 0 1 0 0 0 1 2 0 1 1 1 1 0 1 0 1 0 0 0 0 1 0 1 1 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 1 0 0 0 0 1 0 2 0 1 0 0 1 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 1 1 3 0 0 0 0 0 1 0 1 0 2 0 0 0 1 1 0 0 0 1 0 0 1 0 0 0 1 0 0 1 0 1 2 0 0 1 0 2 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 1 0 0 1 2 0 1 0 1 2 0 0 0 0 1 0 0 0 0 2 0 0 1 1 0 1 2 0 1 2 0 2 0 1 0 0 2 1 0 0 0 1 0 1 0 1 0 1 2 0 4 0 0 1 0 1 0 0 0 2 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 1 1 2 0 0 1 1 2 0 0 0 1 0 1 0 0 1 2 1 0 0 1 1 2 0 2 1 2 0 1 0 0 1 0 1 0 0 0 2 0 0 0 0 1 3 1 1 1 0 1 0 0 0 0 0 0 0 1 1 4 0 0 1 0 1 1 0 1 2 2 2 0 1 0 0 1 0 0 0 0 1 1 1 0 0 0 0 0 1 0 0 0 0 1 0 2 1 0 0 1 2 1 2 0 1 0 0 0 0 1 1 0 0 1 0 2 1 0 0 1 0 0 1 1 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 2 1 1 0 0 1 1 0 1 0 2 1 2 0 0 0 0 1 0 0 0 0 0 1 0 1 1 2 0 0 0 2 1 1 0 0 0 0 1 0 0 2 0 1 0 1 2 1 0 0 1 0 1 1 0 0 1 0 2 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 1 1 0 0 0 1 0 1 1 0 1 0 0 0 0 0 0 1 0 1 0 0 1 0 0 1 0 1 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 1 0 1 1 1 0 2 2 1 0 0 0 0 0 0 1 0 0 0 0 1 1 0 1 0 0 0 2 1 0 0 1 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 2 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 2 0 0 1 0 0 0 1 1 1 0 0 0 0 0 0 1 1 0 0 1 1 0 0 1 1 0 0 1 2 1 0 0 0 0 0 2 0 0 0 0 0 0 0 0 1 0 0 0 3 1 0 2 1 0 1 1 1 0 0 0 0 1 1 1 0 0 2 1 0 0 0 0 0 1 2 1 0 0 0 0 0 0 1 1 2 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1 1 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 4 0 3 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 1 0 1 1 0 1 0 0 0 0 1 0 0 0 0 0 1 1 0 0 1 1 0 0 0 0 1 1 0 0 0 1 0 2 1 2 3 1 1 1 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 1 1 0 1 0 0 0 1 0 0 2 0 1 1 0 2 0 2 0 1 0 0 0 0 2 1 0 0 2 0 0 1 0 0 2 0 0 0 2 0 0 1 1 1 1 0 0 0 1 0 0 0 0 2 1 1 0 1 1 1 0 0 0 0 0 1 0 0 2 1 0 0 3 0 2 2 2 1 1 1 2 0 0 0 0 0 1 1 2 0 0 0 1 0 1 1 1 1 0 0 0 0 1 0 0 0 0 1 2 0 0 1 0 1 0 1 0 1 2 2 1 1 0 0 0 0 0 0 0 1 0 0 1 2 1 1 0 1 1 0 1 0 1 0 0 1 0 0 0 0 1 1 0 0 1 0 0 0 2 0 1 3 1 0 0 0 1 0 0 1 0 2 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 1 0 1 1 0 0 0 2 0 0 1 1 0 1 1 0 0 0 0 0 0 2 0 1 0 0 1 0 0 1 1 1 0 1 0 0 1 0 0 0 0 0 0 0 1 0 1 2 2 2 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 2 0 0 1 1 0 1 0 0 1 0 0 0 0 0 0 0 1 1 0 1 1 0 1 1 1 0 3 0 2 1 1 0 0 1 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 1 0 0 2 1 0 0 1 0 0 0 0 1 0 0 1 0 1 1 0 2 0 1 2 1 0 2 0 0 0 1 2 0 1 2 0 0 0 1 1 1 1 0 1 0 0 1 1 0 0 0 1 0 0 1 0 1 0 2 0 0 2 2 0 1 0 0 1 0 0 1 1 0 0 0 0 1 1 0 1 1 0 0 0 2 0 1 0 0 1 0 1 2 0 1 0 0 0 0 1 1 1 0 2 0 0 0 0 0 0 0 1 1 2 0 0 0 0 1 0 2 0 0 0 1 0 0 0 1 0 0 0 1 0 0 1 0 0 0 2 1 2 0 1 0 1 0 0 1 1 1 0 1 0 1 0 0 0 0 1 1 1 0 0 0 0 0 0 1 0 0 0 1 0 1 1 0 1 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 1 0 0 0 0 1 0 1 1 0 1 1 0 0 1 0 1 0 0 0 0 0 0 1 0 0 1 0 2 1 0 2 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 2 1 0 0 0 0 0 0 0 0 0 0 1 0 3 0 1 1 0 1 2 0 1 1 1 0 0 2 0 1 0 0 0 0 0 0 1 0 0 1 0 1 1 1 0 1 0 0 1 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 2 0 0 2 0 0 0 1 0 0 1 0 0 0 2 0 0 0 0 0 0 1 1 1 0 1 1 1 0 0 2 2 1 3 1 0 1 0 1 1 0 0 1 3 1 0 2 0 1 1 0 1 0 0 0 0 0 0 1 1 0 1 1 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 1 0 0 4 0 0 0 0 0 0 2 0 1 0 0 0 0 1 0 0 0 0 2 1 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 1 0 0 1 1 0 0 0 1 1 0 0 0 2 0 0 0 0 2 0 0 2 0 0 3 0 2 2 1 0 0 0 0 0 0 1 1 0 1 1 1 0 0 0 0 0 1 0 0 0 1 1 0 0 1 2 1 1 0 0 2 0 1 0 0 0 1 1 0 1 1 1 3 1 0 0 1 2 3 0 1 0 0 0 0 1 0 1 1 0 0 0 2 0 0 0 1 0 0 1 0 0 1 0 0 1 0 2 1 2 0 1 1 1 0 0 0 1 0 0 1 0 1 0 1 0 1 0 0 0 2 1 0 1 0 0 0 2 0 0 0 1 0 0 1 1 0 2 0 0 0 1 1 1 2 0 1 0</t>
-  </si>
-  <si>
-    <t>GAM(30.294719278867486, -98.94146783609078, 7.180890686002808)</t>
-  </si>
-  <si>
-    <t>120 154 117 76 201 200 101 99 113 88 70 63 149 131 141 68 91 138 128 159 54 133 96 108 105 149 72 101 141 55 86 93 150 130 147 182 125 183 160 133 41 111 87 134 108 141 101 138 106 92 72 147 195 66 161 178 57 102 57 130 119 166 103 121 69 188 92 118 139 174 125 64 148 85 44 104 74 130 44 140 135 155 141 122 184 166 95 102 156 89 180 101 101 171 90 170 123 100 86 86 91 106 99 66 107 114 63 59 21 72 147 102 109 134 97 90 89 142 161 130 119 102 116 139 124 182 74 146 116 122 106 95 64 77 155 108 92 126 122 36 112 148 115 171 48 156 150 89 173 68 94 70 128 162 96 116 173 90 85 134 158 142 151 96 109 114 149 117 115 99 165 89 149 147 86 182 111 118 78 162 104 239 146 104 53 111 187 160 90 127 118 85 65 44 179 148 65 174 72 39 169 153 137 86 73 147 128 100 116 99 176 38 50 204 44 116 104 117 133 185 170 119 132 141 130 126 213 79 97 122 100 75 168 162 89 109 91 103 132 159 103 144 99 158 112 108 88 121 59 153 108 98 92 90 151 104 47 119 114 170 134 73 77 216 150 142 165 161 87 121 67 122 61 113 206 148 157 144 87 176 90 114 113 161 57 143 84 132 135 130 171 131 100 148 115 85 139 113 91 68 81 117 127 135 93 89 110 166 112 135 103 89 159 157 78 107 92 184 90 109 136 90 200 128 142 66 173 251 154 104 101 89 74 109 164 62 92 164 99 94 115 145 99 123 48 86 152 127 101 99 86 59 70 113 105 82 105 117 122 98 166 106 109 114 120 89 74 84 75 134 60 78 108 121 180 187 98 135 93 83 56 39 161 129 177 166 112 103 88 88 147 58 87 105 96 149 74 144 93 127 74 120 70 174 84 126 152 163 155 65 93 118 96 135 67 111 139 129 215 120 70 150 113 95 96 92 163 93 108 190 202 95 129 213 103 121 86 154 101 109 121 136 115 130 106 80 133 121 110 120 135 146 150 128 126 183 143 74 100 183 78 29 153 116 65 59 130 105 126 123 114 83 92 111 65 139 113 94 84 102 115 118 132 89 90 93 160 141 162 130 199 158 137 167 95 123 189 119 92 89 51 93 107 63 107 197 151 126 98 132 114 74 115 139 62 124 166 158 168 67 113 153 116 117 90 129 118 155 84 131 93 111 143 105 19 102 40 140 185 84 111 148 122 89 115 104 87 133 76 144 83 98 117 106 78 117 94 111 185 147 116 97 121 100 124 144 101 152 116 135 162 115 92 156 84 114 105 106 110 101 103 102 80 124 135 144 99 98 158 171 156 235 128 82 137 16 48 132 120 69 160 83 92 176 63 145 111 88 41 59 106 132 94 82 119 116 124 64 160 114 114 34 152 136 70 87 83 146 91 145 189 71 71 184 67 119 164 141 88 139 177 93 148 141 109 142 183 150 132 75 106 105 114 41 109 144 143 60 161 115 108 53 181 95 126 104 89 205 102 96 143 105 109 85 104 74 163 113 148 88 59 57 140 89 108 126 83 174 71 101 35 175 120 133 72 204 142 62 79 105 115 123 105 81 62 135 121 131 64 100 111 111 67 113 116 98 71 135 168 102 128 96 86 111 89 66 89 86 92 148 93 106 86 140 110 110 140 141 157 148 116 123 160 96 75 137 101 93 124 148 95 197 124 113 113 134 118 134 99 165 186 126 106 129 128 152 131 219 72 170 125 154 51 166 165 151 153 173 88 154 112 81 151 182 146 137 90 181 52 109 110 141 54 115 112 104 129 84 94 93 103 49 140 144 187 150 127 120 107 76 146 141 127 74 124 62 120 95 136 85 106 139 106 56 178 70 117 146 126 145 183 189 98 85 100 119 117 59 93 84 90 185 112 161 50 126 104 199 82 131 144 100 129 83 98 163 76 132 70 168 147 172 125 158 59 134 141 168 138 166 120 199 89 95 91 117 104 185 200 125 94 129 137 108 103 99 54 154 65 154 87 132 133 121 122 101 142 91 101 88 56 93 62 128 76 160 52 142 96 86 151 141 215 102 162 209 93 124 161 97 68 64 114 87 87 158 81 141 169 73 96 99 102 57 83 140 98 107 125 120 177 57 149 118 124 113 84 111 78 154 138 118 93 122 60 134 104 132 117 30 100 99 220 105 184 153 64 65 156 72 175 99 242 26 211 145 91 203 148 118 107 103 114 123 130 149 196 60 131 73 106 174 57 153 77 154 114 137 143 203 158 114 108 137 124 104 126 109 156 109 154 86 133 73 114 109 124 147 165 109 150 121 119 83 145 178 77 69 66 94 85 93 197 93 100 99 51 139 160 108 142 64 76 184 110 54 197 115 154 68 115 183 93 135 152 230 73 82 141 75 124 105 124 125 138 174 63 128 68 173 164 116 161 46 102 125 129 116 60 114 81 201 196 102 88 213 163 66 103 86 106 124 123 129 93 101 119 127 87 111 171 66 105 76 98 168 111 210 156 124 156 109 163 88 67 123 138 115 90 111 129 130 69 61 87 154 53 148 48 105 164 87 116 103 62 82 93 199 170 169 129 87 179 98 106 117 116 94 101 99 75 75 108 140 139 85 107 134 190 98 197 86 124 137 93 110 77 129 94 169 94 170 117 219 84 52 94 214 152 72 140 126 93 140 121 120 143 89 73 108 193 155 108 162 16 121 188 134 158 89 50 93 82 110 112 105 95 191 163 113 146 160 153 156 74 124 149 199 180 149 107 99 126 113 113 132 87 166 110 108 112 51 174 93 139 64 230 86 189 109 120 87 104 154 142 54 128 75 158 133 43 93 145 154 108 128 197 58 129 135 117 167 157 110 96 114 118 161 167 120 147 170 70 206 107 126 88 128 46 86 101 39 113 86 96 50 150 110 133 168 87 116 154 155 94 61 162 103 187 91 156 75 86 116 88 78 133 82 160 138 130 145 72 83 82 127 156 112 99 164 82 148 68 146 67 143 129 91 126 187 103 123 121 50 111 112 90 85 60 106 91 114 177 119 85 112 208 153 93 176 132 178 138 171 157 148 157 228 73 92 99 205 69 49 130 89 84 117 131 102 104 109 169 161 119 189 139 79 265 109 132 83 186 107 92 158 97 89 97 137 124 116 163 82 99 45 200 164 158 177 31 81 105 119 93 62 139 169 132 114 163 78 107 106 128 154 83 96 132 77 55 102 109 169 112 104 60 78 73 125 103 149 104 180 141 160 163 105 54 127 74 144 201 56 149 169 92 95 77 127 77 99 180 134 109 103 146 83 140 125 144 50 101 51 114 116 94 110 81 110 44 124 72 154 159 134 135 134 111 149 78 93 73 152 170 130 121 113 124 66 143 93 132 33 100 87 146 138 36 98 93 131 81 82 158 176 140 213 162 63 118 93 78 148 181 141 99 63 35 71 104 144 81 115 223 153 124 55 144 176 59 131 143 128 156 107 119 117 135 89 228 101 179 120 96 175 151 39 114 93 101 113 107 102 83 54 124 95 118 156 108 80 30 93 94 152 111 183 105 28 91 143 89 148 57 147 155 133 74 203 135 80 98 77 173 28 179 109 139 40 55 56 90 98 143 125 69 65 135 64 151 79 127 132 60 185 132 124 98 110 86 78 157 100 186 86 188 201 131 129 115 99 127 190 72 170 151 148 139 81 89 102 24 132 103 98 99 86 128 234 99 89 70 90 178 155 74 103 40 140 172 143 172 97 114 127 128 114 138 64 146 155 84 89 157 141 199 115 63 107 53 120 171 161 133 171 163 165 140 113 82 123 145 171 97 81 129 100 247 89 37 125 118 102 214 142 103 184 97 118 115 70 129 103 59 190 105 82 50 51 158 125 74 109 96 125 98 99 256 115 110 49 110 100 192 166 110 93 103 94 54 122 113 150 189 90 111 120 76 66 151 158 101 165 134 118 119 91 96 131 96 160 101 111 70 59 170 238 128 211 207 152 151 85 100 131 97 116 110 81 148 97 143 133 109 59 86 188 79 142 82 92 87 81 180 74 176 103 101 106 114 169 105 141 139 92 82 79 149 54 131 109 127 164 107 194 66 90 92 104 119 100 192 93 65 154 145 106 77 66 116 85 191 160 144 84 98 130 110 46 69 92 74 132 110 155 65 160 134 79 110 119 91 95 99 124 128 178 111 134 90 178 115 109 88 147 164 158 100 75 87 137 53 114 166 138 91 65 67 104 92 135 72 120 137 103 127 69 114 77 128 128 107 73 114 113 177 140 124 158 116 100 158 129 124 163 91 183 130 199 74 104 80 162 90 153 102 98 134 170 224 114 172 78 147 124 129 63 90 150 125 106 124 89 73 123 75 91 133 150 122 123 106 194 144 147 206 112 162 124 114 154 109 152 110 98 105 86 133 112 152 128 103 156 117 104 51 115 106 185 152 125 149 98 129 107 164 66 175 134 103 86 132 107 154 131 113 100 77 73 179 109 97 149 130 137 99 141 67 189 214 51 174 72 104 189 72 154 114 214 149 143 77 122 150 122 130 157 91 109 140 78 84 74 91 112 74 176 189 100 168 137 84 138 59 118 123 100 100 95 171 142 138 163 180 124 82 168 169 126 210 244 121 113 112 55 87 143 111 40 95 63 151 106 93 139 144 90 145 144 195 82 62 160 140 151 86 153 59 142 102 68 118 111 171 129 176 169 98 56 88 127 164 137 188 114 147 60 81 136 96 81 87 104 75 192 89 127 164 112 149 158 208 138 145 115 93 49 58 120 93 53 75 136 81 107 62 104 104 160 169 112 77 108 134 76 142 126 104 173 151 155 114 109 142 101 142 107 147 123 160 93 141 126 155 94 78 77 161 134 70 145 70 175 138 171 106 118 193 86 96 77 102 82 91 50 171 97 173 95 120 139 148 57 160 36 155 92 109 146 110 140 69 120 144 177 81 88 166 174 84 137 185 116 157 102 48 116 129 105 174 157 146 148 123 133 104 160 179 80 121 117 143 36 139 105 63 111 81 114 103 150 141 108 72 197 169 232 113 87 140 170 158 128 91 117 98 132 116 62 144 77 102 143 154 91 149 158 120 134 140 111 83 92 149 68 56 126 91 146 96 143 65 144 149 24 125 140 111 80 149 119 48 158 145 127 180 36 227 105 123 207 120 90 61 60 142 96 182 69 159 72 224 176 81 126 140 131 130 84 115 42 116 131 94 135 91 120 95 197 161 79 77 163 45 94 137 176 115 99 93 114 105 127 61 144 102 110 175 89 110 117 114 81 142 69 142 90 85 132 193 132 113 178 128 78 131 139 100 67 71 101 131 178 64 61 92 99 171 191 123 104 107 100 108 92 142 163 118 85 129 119 168 117 107 123 96 80 126 173 140 161 182 124 173 183 75 82 103 135 129 135 200 83 108 129 98 216 145 147 106 141 172 119 126 28 63 147 112 132 137 126 120 172 51 96 93 108 145 107 113 52 109 34 108 129 106 168 184 120 90 107 154 62 78 45 82 149 86 80 91 112 81 51 143 175 140 118 149 106 136 141 132 16 120 85 88 100 131 145 132 65 87 164 52 143 114 78 72 141 107 76 113 117 148 135 191 82 118 97 108 149 126 186 101 50 141 168 85 43 97 202 139 112 92 160 154 135 155 83 68 144 149 127 62 97 98 57 73 122 66 184 130 121 88 63 108 177 152 87 89 180 201 138 169 71 149 131 145 147 81 85 134 178 112 173 84 122 148 119 119 90 85 167 89 134 117 128 143 148 108 117 146 67 114 138 78 143 115 72 90 84 162 69 134 86 102 122 114 80 147 183 87 121 143 107 176 77 149 164 45 135 130 145 111 132 94 127 218 102 75 69 118 48 96 116 78 159 123 81 150 106 107 58 141 143 166 120 98 110 75 164 141 146 119 82 113 97 152 112 122 121 88 133 100 113 149 100 123 116 99 104 147 70 157 70 66 119 179 133 123 156 131 104 152 51 137 166 223 170 122 129 104 105 40 117 207 101 129 133 86 123 95 148 120 57 58 124 148 67 103 223 101 58 167 152 102 119 127 78 93 162 103 71 117 160 128 133 135 137 119 102 78 137 87 62 76 169 79 119 128 183 125 148 71 152 71 118 197 88 75 158 87 87 106 155 63 94 187 111 41 126 94 96 126 91 87 151 93 94 145 77 113 84 107 120 153 124 127 87 147 92 125 71 145 156 39 139 64 209 92 77 84 183 116 124 88 106 109 80 144 97 192 145 181 148 194 110 53 209 177 166 133 118 119 131 134 137 90 134 120 95 120 92 132 89 163 166 111 114 159 125 179 171 116 94 218 132 118 201 214 122 145 79 54 107 76 101 52 29 101 98 140 237 144 130 103 132 148 115 191 98 98 172 37 139 163 47 160 73 154 99 43 118 107 165 122 102 64 54 180 131 200 68 152 75 58 62 108 138 177 118 148 81 77 134 64 112 127 185 139 112 190 101 107 188 108 107 169 123 201 88 117 53 120 141 64 130 99 154 128 61 147 19 132 166 79 107 103 129 135 133 49 140 77 120 55 92 88 77 144 158 119 56 112 148 160 125 162 117 155 115 185 69 110 183 86 85 94 112 102 79 38 105 89 164 95 32 72 132 96 76 74 177 83 100 86 89 151 109 91 155 94 135 207 111 128 150 124 65 156 153 118 90 70 74 165 82 110 88 144 96 130 140 159 60 224 97 144 128 171 124 141 214 128 74 113 101 99 156 80 145 70 48 83 96 56 187 92 40 98 96 142 72 140 153 94 147 158 193 57 130 165 177 163 85 132 128 151 144 180 118 158 53 114 105 146 180 176 216 180 75 99 103 91 49 66 112 130 127 129 129 119 159 148 141 159 102 308 189 151 155 147 168 114 90 58 161 163 71 69 116 112 91 126 124 67 117 146 84 94 112 95 76 103 236 113 134 132 102 121 109 156 60 78 102 84 168 175 112 158 94 85 128 129 74 148 53 183 79 107 77 122 149 132 190 69 121 188 105 105 157 165 99 142 169 152 100 169 112 52 79 78 135 186 117 117 97 53 85 116 128 211 166 167 76 77 176 155 87 113 130 123 104 133 112 99 88 82 99 106 98 140 161 181 89 114 105 42 130 170 86 66 77 149 78 62 104 139 119 80 81 100 104 82 79 82 188 95 154 82 182 78 165 77 112 106 233 139 100 178 168 150 95 139 156 107 124 150 77 89 163 101 139 87 170 88 107 60 216 143 106 145 75 126 116 103 110 79 71 97 170 106 31 80 109 145 83 108 58 168 98 107 143 198 60 126 66 49 9 75 61 97 83 117 68 200 216 48 75 184 100 203 83 74 129 74 108 129 118 133 134 78 133 113 81 92 229 104 93 100 163 113 143 61 130 95 187 116 161 121 162 141 88 86 75 78 130 116 147 98 73 139 41 147 124 171 159 119 75 108 124 97 96 161 103 126 123 120 76 104 138 119 148 71 155 100 146 70 96 152 97 171 225 47 114 36 117 141 187 164 72 124 172 74 109 175 173 81 48 121 107 205 63 70 77 119 79 187 132 119 156 100 83 99 184 159 167 47 126 98 77 163 135 127 94 58 73 179 142 136 75 100 120 138 83 87 145 134 147 111 138 140 92 135 149 221 117 40 130 102 53 112 72 126 169 89 189 124 159 49 146 91 150 140 119 151 106 169 131 83 110 90 119 166 147 82 95 120 82 99 70 91 182 97 123 141 106 221 138 273 143 184 90 120 122 56 156 59 79 106 145 94 124 71 72 101 105 137 76 191 143 141 134 117 131 116 103 68 120 134 124 90 116 135 144 116 175 106 105 112 91 216 125 230 86 117 109 110 74 120 174 131 169 96 72 111 191 129 90 102 9 203 139 80 112 206 135 195 45 109 179 73 112 79 73 111 144 61 106 105 70 114 128 110 107 136 53 128 85 113 184 176 72 155 120 84 154 101 189 181 152 105 124 120 55 130 150 107 122 163 101 160 135 115 141 126 107 166 197 61 110 96 225 101 77 157 115 151 132 114 133 109 203 84 66 60 139 139 165 32 107 84 97 120 115 150 82 121 109 146 84 110 116 172 66 128 169 158 184 134 81 103 143 130 86 125 202 95 102 116 98 116 120 95 111 71 164 70 224 109 99 23 73 158 33 97 32 71 78 131 149 93 59 139 119 95 89 103 141 112 89 106 179 110 152 67 175 153 117 166 220 90 122 139 110 133 73 147 78 98 163 83 100 124 92 142 80 69 66 170 84 77 199 67 50 150 96 157 88 78 122 152 93 84 106 161 87 149 85 132 136 96 93 81 55 175 71 159 88 122 54 82 70 112 108 130 114 138 101 132 135 127 132 160 92 175 55 105 149 78 86 148 143 118 38 100 122 149 144 97 151 56 145 103 82 88 126 136 131 122 143 88 147 181 174 148 129 48 102 97 32 147 161 109 132 74 107 162 102 117 64 128 34 221 108 154 102 100 156 162 93 128 254 165 114 66 142 166 94 37 80 154 176 207 158 152 161 83 147 55 172 151 93 125 71 146 66 40 116 89 120 223 179 76 215 117 173 121 114 156 160 166 68 140 48 125 62 83 68 111 168 68 113 141 154 130 137 70 187 188 103 123 106 93 307 91 100 64 156 103 149 97 71 145 161 105 149 81 112 115 87 127 171 130 107 69 149 84 161 114 161 85 170 100 97 113 135 141 138 105 127 105 173 67 74 108 147 165 133 97 84 152 156 26 127 78 103 70 113 185 168 112 127 77 166 128 90 89 97 206 135 114 98 177 142 94 123 101 115 137 106 174 64 78 90 183 103 160 106 86 143 103 192 118 90 116 79 73 48 147 116 151 94 132 141 145 103 164 145 182 116 101 131 53 124 106 78 108 125 128 126 109 162 106 95 116 146 147 152 189 89 172 178 54 166 204 57 147 197 82 134 107 146 139 121 151 130 112 199 32 112 130 35 53 73 87 133 110 184 100 29 138 109 142 165 77 52 158 148 111 83 126 97 99 136 72 132 101 135 89 146 112 65 61 108 94 136 126 120 190 153 106 151 86 181 97 109 85 130 91 176 148 85 144 132 113 138 115 79 77 166 85 181 70 65 77 94 102 164 91 222 163 102 140 97 97 147 120 110 113 119 143 105 173 86 87 108 80 110 54 113 165 117 102 88 96 78 108 68 121 151 62 106 88 216 88 104 49 49 100 74 149 135 179 101 109 189 70 92 140 80 110 153 167 168 95 120 166 107 122 121 120 85 74 78 210 181 118 137 136 94 160 181 146 80 113 64 174 196 106 99 122 131 116 128 102 82 104 63 171 127 98 129 124 98 128 222 128 71 149 209 121 131 147 71 127 191 27 77 130 196 148 115 94 135 95 81 99 99 118 65 116 142 130 128 123 95 184 98 170 207 121 75 143 124 124 133 89 146 137 132 155 85 79 85 128 144 91 171 130 150 117 77 37 88 75 168 168 200 125 143 166 151 73 93 81 55 198 133 112 125 145 102 165 72 123 93 91 119 99 161 95 104 102 129 132 112 82 119 116 184 118 76 106 118 144 176 217 85 136 139 66 109 121 161 139 100 143 136 112 85 101 87 44 89 63 114 76 98 98 157 54 171 103 121 155 80 129 131 231 46 115 184 75 122 189 115 113 59 76 116 125 132 106 169 193 94 76 87 169 69 128 100 101 196 195 55 123 122 72 112 131 153 175 84 99 150 100 119 130 99 32 136 157 92 113 229 204 89 90 86 147 122 98 194 139 112 88 120 164 130 118 159 178 81 67 53 114 130 47 71 138 64 179 152 220 162 148 160 41 107 139 164 133 106 118 87 187 54 97 118 66 92 224 84 120 145 141 130 74 150 126 122 149 106 187 94 35 126 117 125 217 112 160 181 158 213 111 102 97 220 95 137 123 145 107 120 150 93 187 110 31 186 153 38 86 124 154 108 146 166 108 186 98 66 116 91 150 151 149 81 61 84 88 85 215 62 95 148 94 145 100 81 87 184 94 89 108 70 166 136 84 205 79 96 138 196 128 132 121 154 107 117 82 87 169 144 101 177 152 111 69 103 84 123 127 110 175 131 98 147 127 119 85 179 119 53 61 117 168 89 107 80 61 125 110 59 123 99 137 126 61 91 102 129 51 134 132 152 143 90 214 87 103 177 114 112 51 112 115 120 125 96 68 192 81 44 192 159 184 57 120 100 101 145 124 103 129 146 92 77 122 175 132 187 80 140 57 97 79 51 136 60 108 37 141 186 142 176 99 35 164 112 97 173 70 62 138 102 162 201 90 92 86 158 73 144 102 95 145 85 101 111 199 144 124 52 129 84 89 139 103 72 83 171 110 98 143 90 127 122 113 128 161 135 160 18 228 172 101 83 162 100 110 117 145 186 103 147 85 117 153 110 72 114 101 62 108 78 108 159 85 119 87 127 119 99 133 120 131 82 132 162 135 108 157 114 80 71 67 96 51 133 145 188 159 100 168 161 79 179 58 70 114 112 138 203 105 152 76 112 153 146 183 218 110 160 112 20 63 112 127 92 136 97 79 59 141 114 83 91 140 68 83 69 203 175 112 139 99 118 66 95 131 84 67 113 127 103 157 79 197 113 54 173 144 147 87 113 129 77 108 85 104 155 81 150 75 173 118 201 76 105 84 64 194 140 104 95 141 197 106 168 73 54 124 122 113 101 105 162 92 29 91 185 138 169 76 119 141 90 194 137 123 129 185 140 176 149 144 45 129 153 75 91 86 91 34 84 67 163 125 108 58 96 119 128 130 181 107 70 163 103 209 128 60 103 166 156 111 123 86 57 150 77 123 128 122 109 103 101 29 116 166 124 98 90 146 62 77 91 143 160 84 133 110 188 82 110 73 152 159 150 155 113 72 110 134 84 92 130 84 92 125 125 152 134 98 141 39 61 136 82 135 162 169 87 125 111 144 107 98 102 105 113 138 134 150 93 99 149 155 178 89 123 112 128 94 117 59 108 85 180 110 121 96 176 118 134 124 105 111 181 69 135 119 147 136 83 146 137 149 119 92 77 98 84 101 129 102 148 77 158 90 140 68 129 82 135 166 56 119 167 120 148 180 143 93 184 203 132 110 92 112 130 90 151 126 86 162 133 55 82 182 144 126 87 168 147 143 82 159 71 130 143 135 76 109 194 130 115 138 115 81 70 89 75 85 134 136 142 39 245 110 199 103 74 171 140 178 108 112 134 89 170 177 64 147 143 105 197 65 118 151 149 162 82 147 106 103 117 153 105 61 147 92 152 56 71 126 201 93 95 163 156 51 167 171 125 89 104 142 103 111 138 91 98 16 63 145 107 114 123 143 145 80 147 97 148 90 134 105 106 121 191 205 110 92 48 191 106 140 137 95 168 177 50 122 125 84 163 130 170 52 184 110 90 118 189 138 117 106 87 114 143 112 133 147 159 69 37 78 56 114 59 104 128 157 83 126 148 74 60 121 101 101 110 144 169 173 170 133 146 76 140 115 78 102 156 139 115 99 50 180 151 128 113 156 74 109 130 38 104 168 92 185 147 187 106 28 155 74 127 147 212 74 116 145 107 134 216 72 117 109 94 190 126 101 103 144 37 108 49 112 117 112 141 139 108 130 101 138 126 126 109 190 101 124 101 114 146 84 127 161 128 75 134 90 162 103 134 168 96 130 121 146 109 69 136 189 126 74 126 108 106 80 118 114 157 170 138 151 48 120 86 88 95 166 118 83 135 126 112 112 110 149 111 174 82 82 101 94 93 176 121 130 160 142 100 154 129 121 93 94 131 144 33 102 82 160 136 86 184 120 168 184 111 229 154 103 98 91 187 99 139 135 203 84 75 128 141 85 136 148 99 161 90 142 85 77 106 121 137 144 125 62 123 145 117 54 106 167 65 158 94 76 133 186 105 179 182 107 110 109 179 98 142 172 79 80 161 130 98 176 111 105 97 125 55 123 125 155 143 154 114 35 149 154 101 120 96 138 147 138 126 145 116 157 103 118 98 141 125 128 128 165 115 106 102 106 127 183 99 158 104 94 53 78 65 102 151 159 151 146 84 99 69 87 120 133 80 113 48 104 102 78 45 123 83 98 101 114 167 72 115 112 113 109 83 202 83 130 113 109 188 107 105 179 136 93 199 148 80 137 169 109 117 74 191 184 70 86 165 114 100 177 143 147 67 68 111 122 109 164 97 102 175 138 128 108 111 33 79 198 28 64 77 98 55 184 96 123 181 50 103 126 93 104 120 65 124 30 71 115 196 70 58 81 52 66 42 114 36 93 109 152 105 57 176 148 144 107 128 109 152 101 155 82 140 130 186 119 177 172 115 163 54 132 131 109 118 154 108 175 61 88 119 160 106 68 85 108 111 108 150 86 95 94 77 81 166 179 132 215 99 126 160 128 162 64 86 87 104 53 86 111 153 180 121 93 117 173 109 96 169 120 111 159 125 145 132 98 202 127 114 69 141 180 121 119 117 110 76 129 122 90 112 33 94 128 147 152 76 99 114 196 135 74 123 146 113 69 207 164 146 135 118 91 110 48 116 124 29 76 156 71 84 62 90 151 98 105 154 180 103 199 191 104 51 107 204 91 153 131 158 153 266 167 93 73 218 107 194 114 176 92 130 119 131 125 139 113 94 155 139 165 85 132 155 106 101 66 45 183 61 130 83 89 109 138 133 90 176 68 107 113 142 159 117 115 97 70 85 109 90 143 172 122 210 94 89 196 121 110 100 145 101 204 210 108 99 76 170 122 80 107 106 114 155 129 156 154 125 51 72 209 111 137 55 156 31 131 144 110 94 89 127 171 114 176 38 114 60 91 184 83 107 53 178 83 140 133 67 198 97 55 180 98 65 108 110 142 56 87 172 150 46 116 182 145 110 123 82 125 48 130 135 79 31 74 80 147 71 103 101 181 138 64 81 144 146 102 70 158 129 152 82 77 179 127 174 71 51 118 143 124 161 60 99 97 73 87 38 101 119 154 154 120 139 80 82 126 76 154 61 76 154 63 90 38 138 101 124 114 92 90 130 128 60 61 108 86 134 53 80 60 59 165 163 124 62 114 136 97 97 105 105 65 149 129 169 122 76 115 37 93 148 54 88 111 155 142 68 98 152 119 180 115 127 148 132 216 142 165 79 211 51 238 11 100 122 108 101 186 100 169 189 88 155 95 197 65 150 88 110 153 115 141 151 141 122 98 178 225 102 116 128 110 176 111 133 64 135 111 68 124 103 80 112 186 136 111 81 125 193 74 90 94 54 79 114 169 144 163 109 149 118 65 144 95 161 81 113 134 93 95 70 99 106 130 65 101 149 50 110 110 165 123 161 117 66 69 164 142 177 150 148 139 86 142 98 48 83 106 73 82 79 152 90 62 73 117 160 108 142 97 92 125 146 116 126 190 145 143 108 135 91 130 201 109 102 101 168 48 129 101 76 163 134 97 192 149 106 85 93 174 67 124 148 120 110 101 110 128 232 191 102 127 92 154 135 117 105 112 112 183 83 141 129 196 95 112 113 185 107 53 144 82 147 76 88 66 89 179 141 170 106 203 66 113 68 154 61 58 158 70 85 132 81 82 114 95 155 138 76 183 110 53 49 75 138 106 74 68 119 156 136 108 116 107 103 130 191 98 186 171 133 125 188 177 135 160 159 27 125 140 146 215 85 127 115 151 102 140 139 115 109 69 156 139 92 140 95 167 72 131 130 168 151 136 125 83 68 68 65 133 183 119 100 109 103 82 144 91 129 94 40 84 79 105 51 110 83 174 166 101 93 68 112 149 81 83 88 84 142 151 154 109 140 98 248 189 169 54 98 123 109 123 164 64 62 185 130 166 109 143 84 165 115 119 102 172 141 87 176 149 101 75 111 199 135 114 97 166 144 73 106 151 106 137 130 87 160 63 80 143 97 102 134 83 156 123 149 81 102 124 179 148 159 127 198 90 96 73 122 115 108 175 152 153 90 197 75 97 129 108 54 90 162 65 78 79 149 105 185 228 168 195 135 152 194 131 101 123 114 58 206 98 109 70 98 203 66 106 112 96 72 125 135 113 108 74 200 160 125 85 52 73 132 127 235 53 137 95 137 126 45 61 87 160 109 148 151 103 109 105 70 135 117 50 153 129 67 161 130 98 89 119 174 89 137 68 100 97 138 102 121 120 136 102 80 99 157 132 64 136 154 36 52 185 118 105 110 66 128 158 123 169 89 92 69 144 68 144 39 132 65 210 47 96 168 90 111 72 111 140 192 95 97 142 65 129 101 185 132 141 134 162 187 101 76 176 75 139 93 146 115 71 114 112 112 178 122 113 189 43 107 126 135 119 98 84 77 171 132 79 77 100 89 106 78 100 115 131 129 73 90 141 86 81 121 131 50 95 164 130 73 170 113 220 189 125 227 118 78 164 79 217 132 141 145 135 131 35 77 127 103 86 91 158 143 44 98 63 102 88 79 157 135 137 88 99 132 93 64 200 149 199 52 72 75 126 156 141 129 152 56 97 110 98 101 127 147 182 116 118 159 164 155 65 144 71 205 116 90 136 96 93 115 56 111 107 108 110 55 99 64 132 134 122 119 147 150 202 98 89 138 110 210 93 165 112 88 143 147 158 175 71 128 56 110 156 96 160 129 122 109 50 150 86 141 100 153 130 108 89 62 169 156 81 128 91 51 91 51 174 90 95 78 91 94 87 138 185 68 78 227 114 203 124 71 119 196 73 163 78 70 216 90 111 104 58 131 60 144 102 155 71 132 223 114 82 176 105 104 94 170 123 105 100 164 110 169 66 88 99 117 193 111 123 122 208 74 165 89 105 154 87 99 99 152 90 99 101 113 107 83 160 156 108 148 125 115 141 126 134 134 82 98 209 130 103 99 138 157 132 116 92 127 59 79 26 86 131 112 122 101 97 96 199 166 141 172 70 108 144 101 116 90 103 205 113 147 179 95 146 123 107 134 107 67 123 159 196 129 113 155 147 77 145 163 98 98 79 109 141 92 113 110 113 115 102 98 67 93 80 186 78 109 138 86 75 115 46 157 92 79 127 62 123 153 127 73 222 271 152 95 102 33 190 121 96 113 86 162 153 85 116 92 74 166 126 146 73 75 63 113 116 171 139 92 92 133 167 79 130 90 148 124 86 13 192 141 103 181 90 70 132 175 229 177 108 96 100 156 96 128 124 158 92 54 116 156 89 181 32 84 127 120 142 112 43 147 91 100 165 73 121 108 93 186 105 126 178 123 100 86 110 116 134 163 129 108 94 199 118 120 138 108 222 163 181 107 115 120 80 59 154 49 80 144 176 157 119 134 115 154 137 217 72 109 20 79 63 92 103 130 61 87 110 119 97 62 78 76 162 130 113 81 154 99 128 104 101 133 92 114 70 127 78 111 71 107 148 108 182 118 173 135 187 122 128 74 62 184 93 106 179 96 136 74 110 149 164 95 143 186 141 68 109 139 78 175 47 155 125 36 141 156 125 252 74 128 98 95 149 137 146 161 185 109 73 116 142 133 143 132 158 91 155 136 101 105 149 124 76 91 116 139 62 107 64 151 79 160 128 95 146 175 136 158 110 48 88 168 50 161 203 100 175 141 118 104 187 83 165 137 73 147 145 67 194 126 99 109 188 136 91 154 165 83 83 120 136 87 102 164 116 84 130 122 197 140 102 44 146 99 181 75 37 85 166 102 71 125 160 150 85 141 193 134 136 127 92 183 56 178 130 101 101 124 101 74 119 45 70 140 114 160 107 92 83 52 107 151 92 129 93 76 130 137 85 156 171 116 163 143 148 112 75 176 146 142 113 129 198 96 88 111 96 148 79 130 123 88 218 165 106 103 106 180 121 115 34 134 121 96 176 127 135 63 119 69 207 27 87 112 184 164 63 106 97 224 130 68 161 230 104 137 126 163 163 101 54 104 169 107 152 174 108 90 159 138 91 162 165 80 59 127 89 54 125 140 62 157 180 131 143 44 115 171 100 176 87 124 174 142 90 105 63 97 66 73 109 131 106 99 112 109 124 82 109 69 103 123 85 27 104 141 164 125 140 73 123 76 90 172 169 145 153 134 135 85 128 161 137 144 103 81 114 96 125 76 109 147 153 80 128 109 131 78 148 85 144 115 82 95 149 181 115 165 90 144 165 113 119 131 73 88 95 105 102 132 159 148 175 91 90 124 144 83 158 105 67 164 104 86 142 59 73 63 84 208 97 142 82 89 108 151 64 81 39 109 91 174 73 92 61 88 52 100 72 141 134 220 134 104 129 96 126 98 92 109 128 74 126 95 131 125 108 135 103 112 119 98 167 89 147 161 99 125 81 119 94 168 66 104 69 97 122 90 173 163 80 141 102 101 60 59 125 163 210 143 83 52 176 108 121 53 93 141 134 212 112 92 159 94 123 110 80 133 134 91 57 101 169 118 166 146 104 81 94 94 102 164 83 57 112 44 147 133 86 110 161 181 79 98 190 162 125 125 123 198 168 49 158 173 162 93 129 80 90 108 68 111 59 198 163 102 76 95 96 144 85 130 144 137 177 134 131 150 202 108 120 117 110 135 124 72 134 97 92 99 166 112 183 69 81 79 118 125 161 143 124 91 66 149 127 99 141 98 131 158 82 122 125 64 165 100 106 138 99 58 134 169 108 58 68 166 126 182 185 73 85 54 92 102 141 131 111 99 142 100 118 38 144 107 132 123 134 120 104 121 136 119 132 137 121 91 170 107 96 182 216 107 69 166 179 118 93 105 129 118 124 69 107 213 162 102 88 99 121 67 98 111 96 206 135 127 113 76 169 143 126 81 201 69 159 105 136 80 103 120 84 81 115 151 91 116 147 158 223 113 94 161 71 146 117 107 252 157 60 99 50 121 131 100 37 123 223 96 208 116 62 139 164 180 131 170 112 170 202 114 111 81 94 83 106 175 98 143 124 148 151 118 107 206 99 119 105 112 76 102 97 45 91 219 177 116 133 126 65 140 216 116 138 192 125 102 97 118 155 115 85 65 110 109 155 102 108 153 62 179 142 176 160 107 179 95 160 133 81 123 149 102 52 81 125 96 173 121 40 73 119 107 85 162 92 92 111 106 147 119 146 86 140 125 109 85 131 92 123 110 179 209 164 161 202 147 133 98 116 138 91 180 132 127 94 119 84 97 104 134 210 53 194 158 178 106 102 197 72 183 97 168 96 132 137 153 94 116 101 123 152 155 58 125 85 80 145 95 167 98 27 90 145 139 153 93 123 84 63 202 65 64 143 122 114 37 127 127 126 110 63 119 101 97 90 91 121 127 121 134 121 89 98 44 111 68 201 135 130 102 148 75 92 136 168 160 180 129 144 140 156 43 87 104 103 164 99 140 127 137 89 80 104 108 164 71 95 152 105 133 194 126 105 159 68 187 174 55 220 105 100 43 138 203 74 185 147 85 72 91 165 99 134 101 138 112 134 102 80 106 93 81 83 106 77 106 119 152 126 183 133 101 126 118 73 106 92 84 97 92 140 113 46 158 159 53 173 73 132 187 85 150 31 121 61 121 129 177 176 108 108 90 106 78 138 105 91 80 141 58 143 138 121 137 145 92 138 202 126 168 120 144 75 96 140 134 146 197 110 83 140 165 63 142 45 132 58 53 116 129 195 123 161 136 129 193 93 177 149 141 119 119 131 110 167 128 157 130 56 152 125 87 159 176 140 58 235 132 140 122 107 166 170 108 127 130 98 140 92 80 62 83 164 132 191 107 129 102 139 190 60 63 78 97 177 77 136 109 139 79 109 155 119 130 96 119 111 64 85 180 122 110 121 113 122 136 114 91 82 170 161 149 127 176 90 158 28 113 123 138 120 142 114 148 94 85 83 85 83 96 138 99 185 73 108 110 110 86 129 106 101 113 87 135 124 83 149 90 158 144 78 115 166 69 131 67 99 146 139 174 219 53 151 132 108 107 118 124 105 163 128 147 61 53 115 180 147 133 80 130 125 92 78 111 103 163 70 135 121 241 71 133 92 92 90 123 178 33 168 115 164 113 63 244 49 107 122 150 112 97 70 99 116 71 166 60 152 107 142 70 67 271 132 53 130 66 140 66 169 173 82 175 121 144 124 131 56 48 99 121 138 63 136 116 129 129 49 195 73 87 117 91 85 136 78 209 129 187 89 162 112 81 130 125 175 76 77 117 88 130 106 60 178 33 165 148 85 73 147 118 188 150 99 111 98 166 99 45 132 132 126 119 130 156 90 84 123 93 137 127 114 130 154 145 183 142 102 44 134 120 127 171 157 151 199 97 100 155 106 109 157 98 102 139 90 128 130 83 85 153 96 105 140 178 115 92 149 176 137 174 142 72 125 85 104 139 135 64 119 90 159 122 74 89 67 74 102 118 107 53 132 60 67 136 139 187 134 133 111 77 86 109 141 74 69 136 59 124 180 63 66 187 132 143 57 142 91 128 62 76 115 61 156 188 94 100 155 173 123 57 102 98 175 71 121 132 131 91 76 180 129 111 127 126 101 131 96 74 102 61 93 113 117 54 50 137 146 138 163 182 106 133 199 86 107 170 66 111 163 163 142 119 114 94 105 72 98 115 115 187 159 164 128 182 125 126 99 71 122 92 193 195 120 79 127 191 147 187 160 77 182 90 48 95 121 178 147 74 104 174 73 154 96 70 126 90 73 73 235 151 98 98 70 100 146 45 162 146 128 171 129 124 88 192 98 165 96 221 80 121 173 127 74 152 192 57 136 121 95 155 98 110 130 175 89 115 103 62 187 142 140 151 72 125 143 136 146 91 163 116 92 143 84 115 125 95 167 102 134 148 120 135 59 132 99 139 118 79 121 93 150 74 80 70 117 105 83 167 82 99 108 139 115 102 157 117 100 98 74 134 169 66 87 126 108 153 103 103 168 150 50 73 175 56 111 54 113 87 101 28 113 124 80 115 121 156 101 183 169 109 68 63 60 92 132 111 205 133 120 221 182 103 95 32 145 76 186 173 86 50 99 37 200 77 153 134 162 75 48 117 158 132 102 131 151 164 88 79 93 120 49 121 70 127 142 89 160 127 114 93 110 144 147 80 31 197 105 58 110 113 26 91 83 114 76 228 146 141 72 126 139 105 120 164 86 129 181 93 103 176 171 80 176 83 136 42 101 84 124 99 73 89 63 127 265 99 162 125 137 172 96 80 96 145 46 104 100 209 56 144 108 102 111 112 101 109 175 136 130 119 218 68 146 91 184 132 90 125 94 169 162 75 177 82 83 99 151 125 146 139 121 112 128 62 144 188 42 97 110 79 117 60 131 139 130 111 93 66 146 173 48 66 137 75 112 102 128 115 166 119 133 114 104 119 87 114 134 139 136 226 151 122 79 195 127 121 118 108 78 105 110 86 129 142 118 85 187 115 148 97 127 107 160 129 90 147 70 94 81 151 146 90 139 89 54 68 193 140 182 150 43 110 182 234 79 130 188 119 169 119 170 110 137 120 100 85 211 102 48 145 125 149 119 97 204 161 157 77 42 124 116 116 137 98 148 159 67 127 90 133 118 128 88 234 175 138 69 138 88 166 94 89 178 133 145 160 167 83 134 55 128 62 172 174 77 166 99 144 147 106 195 102 125 137 110 163 148 128 51 101 133 147 109 127 75 91 132 95 130 133 131 99 65 95 94 72 105 93 71 102 105 117 154 140 201 203 117 124 64 90 87 106 77 172 85 189 148 27 155 202 223 120 69 114 83 105 164 111 74 114 85 122 72 152 122 91 148 131 132 90 64 177 87 122 86 125 156 207 49 104 141 92 95 49 181 113 66 79 149 129 109 137 163 133 67 57 67 167 72 147 195 199 92 154 179 132 162 131 185 133 83 126 174 80 103 175 84 176 102 83 110 100 229 133 130 142 84 89 139 97 162 186 137 138 61 115 74 162 45 124 72 176 94 73 104 191 124 131 69 79 153 86 99 92 138 130 131 147 138 109 144 190 65 175 84 108 189 108 129 97 137 108 91 98 91 194 140 84 84 84 261 99 134 89 159 161 168 95 149 119 128 133 92 124 146 27 55 155 114 111 60 133 137 113 182 98 113 121 139 105 122 43 114 171 154 166 68 133 103 56 146 147 97 104 138 106 54 104 117 144 113 125 94 103 112 107 102 98 115 116 152 116 179 111 70 95 132 100 89 94 46 111 108 39 106 149 110 133 124 156 143 8</t>
-  </si>
-  <si>
-    <t>MIE(0.28156252526434367, 1.690229478773336, -4.1297675323331683e-32, 1.5978256278558851)</t>
-  </si>
-  <si>
-    <t>1 2 3 0 2 2 1 0 0 0 0 0 2 1 1 1 2 1 1 1 1 2 1 1 2 2 0 1 0 0 1 0 0 1 2 0 0 3 1 2 0 0 0 3 2 1 1 3 1 1 1 1 1 0 0 3 0 2 0 2 2 1 0 2 0 4 0 1 0 3 0 1 1 0 0 1 1 0 0 0 1 0 2 0 3 1 1 2 1 0 1 2 0 3 1 1 0 1 2 1 0 0 1 0 1 1 0 0 0 0 2 0 1 2 1 0 0 4 0 0 2 2 1 0 0 3 1 0 1 1 3 1 0 0 1 2 1 0 0 1 1 2 1 1 0 2 1 1 0 1 2 1 2 1 2 2 1 3 1 1 2 2 2 0 2 2 2 2 2 1 2 1 3 1 1 1 1 0 0 2 0 1 1 1 1 1 3 0 1 1 0 1 0 1 2 0 1 1 0 0 0 2 2 2 1 1 2 0 2 1 3 0 1 1 0 0 0 2 1 1 2 0 4 2 0 3 3 1 0 1 1 0 2 1 2 1 2 1 1 3 1 2 0 1 1 3 0 0 0 0 2 1 0 2 3 0 0 0 1 2 1 0 0 1 1 1 2 0 1 0 0 1 0 1 3 0 0 1 1 2 2 0 2 0 0 1 0 3 2 1 1 1 1 2 1 1 1 2 1 0 0 0 0 0 2 1 2 0 1 0 1 1 0 0 1 1 0 2 1 0 2 0 3 1 2 0 2 2 1 0 3 0 1 1 1 1 1 3 0 2 0 1 2 0 1 2 0 1 1 2 0 0 1 2 3 0 1 1 0 0 1 0 4 1 1 0 1 0 0 1 0 0 0 1 3 1 0 0 2 0 0 0 1 2 1 1 1 0 3 0 2 1 0 1 0 3 1 2 1 2 1 0 1 0 1 0 1 2 2 0 1 1 1 1 0 1 1 0 1 2 0 1 1 0 1 1 0 1 1 3 2 1 1 2 0 1 2 1 1 1 2 1 1 0 1 0 0 0 3 0 1 2 1 3 1 1 1 0 1 2 0 1 2 2 0 2 2 1 1 0 0 1 0 1 1 1 2 1 1 1 2 1 2 0 0 0 0 1 1 2 0 1 0 1 0 2 1 1 0 2 0 0 2 1 1 2 1 0 1 1 1 1 0 1 0 0 1 1 0 1 1 1 1 1 1 1 1 1 0 1 1 0 1 1 0 1 0 2 3 1 1 4 1 0 0 2 0 2 0 3 1 0 0 0 0 1 0 1 3 1 1 0 0 1 2 0 0 1 0 0 1 0 1 1 0 0 1 0 2 0 1 0 1 1 3 2 0 2 0 1 1 2 0 0 0 0 0 1 0 0 0 2 0 2 0 1 1 1 1 0 2 0 0 0 3 0 0 1 2 1 1 0 0 1 0 1 1 1 1 4 1 1 0 3 0 2 1 2 0 1 2 0 1 1 0 1 0 1 1 0 1 2 0 0 2 1 2 0 1 0 1 0 3 0 2 0 0 2 0 0 1 2 0 0 2 0 1 0 1 1 1 0 1 1 1 1 0 0 0 3 0 2 0 1 0 0 1 0 1 1 0 1 1 1 0 0 2 1 0 1 3 0 1 1 0 1 0 2 2 1 1 0 1 2 2 1 1 0 0 0 1 0 0 0 2 2 0 1 2 0 1 1 1 0 0 0 0 1 1 1 0 2 4 1 1 2 2 1 1 0 2 0 0 2 2 0 1 2 1 2 0 1 0 0 0 0 3 0 2 2 1 1 1 1 1 3 1 1 0 0 1 0 1 1 0 1 2 1 0 1 0 0 3 0 1 1 2 2 1 1 1 2 0 0 1 1 1 1 0 0 0 1 1 0 1 2 1 1 2 1 3 2 2 0 1 0 0 0 0 0 2 2 0 3 0 0 1 4 1 1 2 0 0 0 0 2 0 0 2 1 2 1 2 2 0 2 0 1 2 2 3 0 1 1 0 2 0 1 2 0 1 1 1 0 0 0 0 2 0 2 0 1 2 1 2 1 0 1 1 0 1 0 1 2 2 2 1 2 0 1 0 1 1 1 2 2 1 1 2 2 1 0 1 1 2 3 1 1 4 0 0 2 2 0 1 2 1 1 1 1 2 1 1 1 2 0 0 0 0 1 0 1 0 1 0 1 0 0 2 0 0 1 2 1 0 2 1 1 2 1 0 0 1 0 1 1 1 1 1 0 0 1 2 1 0 1 3 1 2 0 3 1 2 4 1 1 0 0 1 5 2 1 0 0 1 1 1 0 2 2 2 0 0 1 1 1 1 2 3 0 1 0 2 1 3 1 0 0 1 0 1 0 3 1 2 1 1 1 2 1 0 0 0 1 0 0 2 1 2 0 1 2 1 2 1 0 1 0 1 1 0 1 1 2 0 0 1 0 0 2 1 2 3 0 3 0 2 1 1 2 0 1 0 1 1 1 2 0 1 2 1 0 1 2 0 0 3 0 1 0 0 1 1 0 1 2 2 1 0 1 3 1 2 2 1 0 1 2 0 1 1 0 1 0 0 1 0 2 0 4 2 0 0 0 1 0 0 1 2 3 1 0 0 0 0 0 0 0 0 1 1 2 1 3 0 1 0 3 0 2 2 0 1 0 1 1 0 1 0 1 1 2 1 2 0 0 0 2 1 1 2 0 0 1 1 2 2 1 0 0 1 1 2 1 0 1 2 0 2 1 0 2 0 0 1 1 0 0 0 2 0 1 2 2 0 1 3 1 1 1 1 0 0 1 0 3 1 1 2 1 2 1 3 1 1 0 3 3 2 1 1 1 1 1 3 3 2 1 2 1 0 0 1 2 2 0 1 2 0 2 2 2 1 1 2 1 3 3 0 2 2 2 0 0 1 1 0 1 1 0 1 0 1 1 0 1 0 0 2 1 1 2 2 1 0 0 0 1 1 3 2 2 1 1 0 3 0 0 1 0 1 1 0 1 1 0 1 1 1 3 1 1 0 1 0 0 1 0 2 2 1 0 1 0 2 2 1 1 0 2 1 1 1 0 0 0 2 1 0 0 1 1 1 3 0 0 0 1 0 2 0 2 0 0 1 1 1 1 1 3 1 0 2 1 2 3 1 0 2 0 0 2 3 1 1 0 1 0 0 3 1 0 1 1 2 0 2 3 1 3 0 0 2 0 0 0 1 0 1 0 1 0 1 0 3 2 0 0 1 1 1 0 1 2 1 1 1 2 0 0 0 1 0 2 0 1 0 3 1 0 1 0 0 2 0 2 1 0 0 0 0 1 3 0 1 0 1 1 3 1 1 0 0 0 3 1 2 0 1 1 0 0 0 2 0 0 2 0 2 1 1 2 0 0 0 1 2 0 1 1 1 0 0 1 0 0 0 0 0 0 2 3 0 0 1 3 3 2 0 1 2 0 1 0 2 2 0 0 0 0 2 1 1 1 2 1 1 1 2 1 0 1 0 0 2 2 2 3 0 0 5 0 2 0 1 3 3 1 1 2 1 1 0 2 0 0 2 0 1 1 0 0 1 0 1 1 0 3 1 1 1 0 1 0 0 4 1 0 0 2 3 0 0 1 5 0 1 1 1 0 0 0 1 0 1 2 1 1 1 0 1 0 1 2 0 4 0 1 1 0 1 1 1 1 0 0 2 1 2 1 1 1 1 2 1 1 1 1 1 2 0 0 1 1 1 0 1 1 1 0 1 1 1 2 3 3 0 1 0 1 2 2 2 1 1 0 2 0 2 2 1 3 0 3 1 1 1 1 0 1 1 0 1 1 0 4 2 0 0 1 0 0 2 0 0 0 0 2 3 1 0 2 1 2 1 1 0 0 1 2 1 0 2 1 1 1 0 0 0 0 2 0 1 2 1 1 1 1 3 0 0 2 0 1 1 3 3 1 1 0 0 0 1 4 4 1 0 0 0 1 1 3 0 1 1 0 1 2 0 0 1 1 1 2 0 0 0 1 1 2 1 1 0 0 1 1 1 1 1 1 2 3 1 0 1 0 2 3 0 1 1 1 3 0 3 1 2 0 1 0 1 2 2 2 1 1 1 0 2 0 1 1 1 3 0 1 1 1 0 2 3 2 2 1 0 0 2 2 0 0 0 0 1 1 2 0 1 1 2 0 0 0 0 1 1 2 0 2 1 0 1 0 1 1 0 0 0 1 1 1 1 2 1 1 3 0 2 0 1 2 2 1 0 0 1 0 0 0 0 2 0 2 0 0 1 1 2 0 2 0 2 2 1 1 3 0 2 2 3 1 2 0 1 1 4 2 1 1 0 2 2 0 1 2 4 0 0 0 1 0 2 0 2 1 0 1 0 0 1 1 0 1 0 0 1 2 1 1 1 2 1 1 1 0 1 1 1 2 1 1 0 0 0 0 2 1 0 0 1 1 0 1 2 1 1 0 1 1 1 0 1 2 2 0 3 0 1 0 5 1 2 2 0 0 2 2 3 1 3 0 2 1 1 2 2 2 2 0 0 1 5 0 2 2 0 3 0 1 2 1 1 0 2 1 0 0 1 0 0 2 1 0 0 2 0 1 1 2 0 1 3 1 0 0 1 1 1 0 1 0 1 0 0 1 1 0 1 3 2 2 2 1 1 2 1 1 0 0 1 0 0 1 1 2 1 2 2 0 1 1 3 1 1 0 0 2 1 0 2 1 1 0 3 1 3 1 1 3 1 1 0 1 2 1 0 2 2 0 1 0 2 0 3 1 0 0 0 2 2 1 2 3 2 0 1 0 0 1 0 1 1 0 1 0 0 2 0 0 2 3 2 0 0 2 2 0 0 2 3 2 1 2 1 0 1 2 1 0 2 0 1 1 2 2 3 1 0 1 1 1 0 4 0 1 2 2 1 3 2 0 1 1 0 0 1 0 2 0 2 1 3 0 4 0 2 0 2 1 0 0 3 2 0 0 2 1 1 1 2 2 1 1 1 1 2 0 0 0 3 1 0 0 0 0 1 1 1 0 1 0 2 0 1 0 1 1 1 1 0 1 2 0 2 1 0 0 2 2 1 1 1 2 1 1 0 2 0 2 2 1 4 0 1 1 3 1 3 2 0 1 1 1 1 0 1 0 1 2 2 2 1 0 0 1 0 0 0 0 1 1 1 0 0 3 2 1 2 0 3 0 0 3 0 0 0 1 2 0 1 2 0 0 4 1 0 1 0 0 2 1 0 1 0 1 0 1 0 2 0 2 1 2 0 1 2 0 1 1 1 1 0 0 1 1 1 1 0 1 2 0 0 1 1 1 1 0 1 0 1 3 1 2 2 0 0 1 1 2 0 0 1 0 1 2 0 2 0 0 1 0 1 0 0 2 1 1 0 1 1 1 1 2 1 0 0 0 0 1 2 3 1 1 2 2 2 2 0 1 1 1 0 0 1 1 2 3 2 1 2 1 0 1 3 0 2 0 0 0 1 0 0 1 1 3 0 0 0 0 2 1 2 1 2 0 2 1 0 1 3 0 1 3 1 0 1 0 1 2 0 1 1 1 0 2 2 2 0 0 1 1 2 2 1 0 1 1 1 1 0 0 2 1 1 1 0 0 1 3 0 2 0 1 2 1 0 1 0 0 1 1 0 2 1 2 0 0 2 1 1 0 1 2 2 1 1 0 1 2 0 1 0 2 3 0 1 2 1 0 1 2 2 0 2 1 0 0 2 1 2 0 0 0 0 0 2 2 1 1 0 2 0 1 2 1 1 1 1 1 0 1 2 1 2 4 1 0 0 2 2 0 0 1 2 0 0 1 1 1 1 0 1 2 1 1 0 0 2 2 0 0 1 0 1 1 2 0 0 0 0 0 0 2 0 1 1 0 2 2 1 0 1 0 2 1 0 3 0 2 1 0 2 0 1 1 1 1 0 1 0 1 1 1 0 0 1 0 1 1 2 1 1 0 0 1 1 1 2 0 2 3 2 0 2 1 2 0 0 0 3 1 1 0 3 2 1 0 1 1 1 0 0 2 0 0 0 1 3 1 2 1 0 2 1 1 0 0 2 2 0 0 2 4 2 1 1 1 1 1 0 0 2 3 3 0 1 1 1 1 2 1 0 1 1 1 0 1 2 1 0 1 1 1 1 2 0 1 0 1 3 2 0 1 1 0 0 0 0 2 2 1 0 2 0 1 2 1 0 1 1 1 2 0 0 0 0 0 2 2 0 1 0 0 2 1 1 1 1 0 0 3 0 2 1 4 2 1 2 0 0 1 0 1 1 2 0 1 1 2 0 4 3 2 2 2 3 2 0 2 0 1 2 2 0 2 2 2 3 2 1 0 0 0 1 0 0 1 1 1 1 4 1 1 3 1 0 0 1 0 1 0 0 1 0 4 2 1 1 2 2 0 4 0 0 1 0 1 0 0 3 1 2 1 0 1 2 3 1 0 1 1 3 1 2 1 1 0 0 1 1 2 2 0 1 1 1 1 0 2 2 0 1 0 1 0 1 5 2 2 1 1 2 1 1 0 1 1 0 2 3 1 1 1 1 0 0 0 0 1 1 1 2 1 1 1 1 1 1 1 0 2 1 1 0 0 1 2 3 1 2 2 1 1 3 2 1 2 2 1 0 4 1 1 0 0 0 2 0 1 0 1 0 1 0 2 0 0 0 4 3 0 1 2 0 1 2 0 1 2 2 0 1 1 1 1 1 0 1 0 0 1 1 2 3 0 2 0 4 2 2 1 3 0 3 2 0 2 1 1 1 0 1 1 2 0 0 1 0 2 1 0 1 3 1 1 0 2 0 1 1 0 2 2 1 2 1 2 3 1 1 1 3 0 0 0 1 2 0 3 1 2 1 1 1 1 0 0 0 0 0 1 1 1 1 1 2 1 0 0 2 2 2 2 1 1 2 0 1 1 2 0 1 1 0 1 1 2 0 2 1 1 2 1 1 1 2 1 0 0 1 1 0 0 1 0 1 0 0 3 2 0 1 0 1 0 0 1 1 1 0 0 2 1 2 1 0 3 0 2 1 2 2 2 0 3 0 2 2 2 1 3 0 2 1 2 0 1 0 1 0 1 2 2 1 2 1 0 1 2 3 1 0 2 1 1 3 1 1 0 3 1 2 0 1 3 1 0 1 4 0 2 1 1 0 0 0 0 1 0 2 1 0 2 0 0 1 1 0 2 0 0 0 1 0 1 0 0 0 1 2 1 2 1 2 1 0 2 1 1 2 1 0 1 2 1 0 4 1 0 1 3 0 2 3 1 0 1 1 1 0 0 2 0 0 0 0 0 0 0 0 1 4 2 2 2 3 2 1 0 1 0 0 0 2 2 0 0 1 1 0 1 1 1 1 2 1 0 0 2 0 0 0 0 0 1 2 1 2 2 0 0 2 0 2 2 0 0 1 2 0 3 2 1 2 0 0 2 0 0 0 2 0 1 1 0 1 1 2 2 2 1 1 2 1 1 0 2 1 1 1 1 0 0 1 0 1 2 3 2 2 2 1 0 0 2 0 1 0 0 2 1 1 1 2 1 0 2 1 2 1 0 1 0 1 0 0 3 0 0 1 3 2 2 1 0 0 1 1 1 1 1 0 1 2 2 0 0 0 0 3 1 1 1 1 1 0 1 1 0 0 0 2 1 1 0 1 1 2 0 0 2 0 1 1 0 1 2 0 3 0 3 2 1 0 0 0 0 1 2 1 0 0 1 1 1 1 1 1 0 1 1 1 1 2 2 0 1 2 0 1 3 4 3 2 1 1 1 0 1 0 1 0 1 2 1 1 1 1 1 0 1 4 1 1 1 1 1 0 0 1 2 0 2 0 3 1 1 1 0 1 0 2 2 3 1 4 1 0 3 1 1 2 2 2 1 0 1 1 1 3 0 1 0 1 1 1 0 2 1 1 0 0 2 2 1 0 1 1 0 0 2 1 1 0 3 0 2 1 0 0 0 1 0 1 0 2 1 1 0 0 3 1 2 0 3 0 0 2 1 1 3 2 0 1 0 1 1 1 0 0 2 0 1 1 4 1 0 0 1 2 1 1 0 0 2 0 0 1 0 2 3 0 1 2 0 2 2 1 0 1 1 0 2 1 0 2 0 1 1 2 1 0 0 0 3 0 0 1 1 0 0 0 0 0 2 1 2 0 1 0 2 0 2 0 1 3 0 0 2 0 0 0 1 3 0 0 3 1 0 0 3 0 2 1 1 1 1 1 1 2 3 2 1 3 1 2 0 3 0 4 0 1 0 1 1 1 1 0 1 1 3 0 2 1 1 0 0 2 1 1 0 0 2 2 1 1 2 2 0 1 0 1 0 1 0 2 0 3 0 1 0 2 1 0 1 1 0 0 0 0 3 2 0 0 0 0 0 1 0 0 1 0 0 2 2 1 0 1 1 2 2 1 2 0 0 2 0 2 0 3 0 0 2 0 1 1 2 2 1 0 0 0 0 0 2 1 0 0 1 0 0 1 1 1 0 4 1 0 1 1 2 2 0 2 3 1 0 1 2 1 0 0 1 0 1 2 1 0 2 0 0 2 1 1 2 3 3 1 0 0 0 1 1 3 0 0 4 1 3 1 2 1 1 2 1 1 0 3 0 0 0 0 3 0 2 2 0 0 0 0 4 1 1 1 1 3 2 0 1 0 2 2 1 1 0 0 1 0 1 1 0 3 0 1 3 3 1 0 0 1 1 1 1 3 1 0 2 0 1 1 0 1 3 1 0 0 1 1 0 2 0 0 0 2 0 0 1 0 1 0 0 0 2 2 0 1 0 0 2 0 1 1 0 1 0 1 3 2 1 0 1 3 0 2 0 0 1 2 1 0 0 0 1 1 3 1 0 2 0 0 0 1 0 1 0 1 1 1 1 1 1 2 1 0 1 0 1 0 0 0 1 2 1 1 3 1 0 1 0 1 1 2 0 4 2 1 3 2 0 2 1 0 0 1 1 1 1 0 1 0 2 0 0 2 0 1 2 1 1 1 2 1 0 1 1 0 3 0 1 0 2 1 0 2 1 0 0 0 1 0 1 0 1 1 1 0 0 0 1 0 1 1 0 2 2 0 3 0 2 0 2 2 2 1 0 2 0 0 2 0 1 2 1 1 2 1 1 1 0 2 2 1 3 3 0 1 0 1 0 1 2 3 0 2 0 1 1 0 1 2 2 1 1 1 0 1 1 1 2 1 0 2 4 1 2 1 2 1 2 0 0 2 0 1 2 3 1 0 1 0 0 2 1 0 2 2 2 0 3 3 1 0 1 1 0 1 1 3 3 0 0 2 2 2 1 1 0 2 1 4 0 1 0 0 2 3 2 0 1 1 0 0 1 1 0 2 2 1 0 2 1 2 2 1 0 1 0 0 1 0 1 0 1 1 3 3 0 1 1 2 0 1 0 1 2 1 1 3 1 0 1 1 5 0 1 2 1 2 1 2 1 1 0 0 0 1 2 2 2 0 1 2 1 1 0 0 0 0 1 1 1 0 0 1 3 0 0 1 1 1 1 1 1 2 0 0 0 1 0 0 1 0 1 1 0 1 2 1 2 0 0 1 4 2 0 0 2 1 0 3 0 2 2 0 1 2 1 1 0 2 0 0 3 1 2 0 1 2 1 1 0 1 1 0 1 0 1 4 0 2 2 3 1 0 1 0 0 1 2 0 1 0 2 2 0 0 2 2 1 0 0 2 1 1 1 2 1 1 1 0 0 1 2 1 2 1 1 0 2 0 1 3 0 0 2 0 0 0 3 0 1 1 0 0 3 3 0 1 0 0 3 1 0 0 4 2 0 1 0 2 0 0 1 0 1 1 2 2 3 2 1 0 1 1 3 0 0 1 1 0 0 1 1 0 0 3 1 0 0 0 3 1 2 0 1 1 1 4 2 0 1 2 1 1 1 2 3 1 1 0 0 0 0 0 1 1 1 1 0 1 1 2 0 0 0 3 0 0 0 1 0 0 1 2 1 0 0 0 0 1 1 2 1 0 1 2 1 2 0 0 2 0 2 1 0 1 1 1 1 2 0 2 3 2 2 0 1 0 3 0 1 0 1 1 2 0 0 1 1 0 1 1 0 1 1 0 2 1 0 1 0 2 1 1 2 0 0 2 0 0 0 4 1 2 1 2 1 0 1 2 0 0 2 1 1 0 1 0 0 2 2 1 0 1 0 2 2 2 1 0 2 2 1 3 0 0 1 3 0 3 0 2 2 0 0 0 2 1 0 1 2 0 3 2 1 1 0 2 1 0 2 2 1 3 0 0 0 1 1 1 2 0 1 3 2 1 1 0 0 0 1 3 2 2 1 1 1 1 0 1 1 2 1 1 0 0 1 3 0 0 1 2 1 0 0 1 1 2 2 2 0 1 0 0 2 2 2 2 0 2 2 0 0 0 1 2 3 2 0 2 1 1 2 0 0 1 1 0 1 0 0 1 2 1 3 1 1 1 2 0 1 1 1 0 1 1 3 2 1 0 0 0 1 0 2 1 0 2 0 1 1 0 1 0 0 1 1 1 1 0 2 0 1 1 3 2 2 1 2 1 0 0 0 1 2 2 0 0 1 1 3 1 1 1 2 1 0 1 2 0 2 0 0 0 1 1 0 1 0 2 0 2 1 0 2 1 1 0 2 0 0 1 0 0 1 1 1 1 1 0 1 2 1 0 0 0 0 2 0 2 1 1 1 1 0 1 1 0 1 1 0 1 3 0 0 1 1 0 0 0 0 1 2 5 0 2 1 3 1 1 1 1 0 1 2 0 1 0 2 0 4 1 1 2 3 1 1 2 3 2 3 0 1 1 2 2 1 0 0 1 3 0 1 0 0 1 1 2 0 0 2 2 0 1 1 2 2 0 1 1 0 0 0 0 1 0 1 1 2 1 1 1 0 0 1 1 2 0 0 1 1 1 1 0 0 3 0 1 2 1 2 0 0 0 0 1 1 4 0 1 1 1 1 1 0 2 0 1 2 0 2 0 0 3 2 1 2 1 1 0 2 1 0 1 1 0 0 1 1 0 4 1 1 0 1 1 0 0 0 2 1 3 2 0 3 0 0 2 0 2 0 1 2 2 2 1 0 1 0 2 2 1 0 1 3 2 1 0 1 0 3 2 0 2 0 1 4 1 1 3 0 1 1 1 0 3 2 4 0 2 1 0 1 3 1 0 1 1 0 3 2 2 1 1 0 0 2 0 1 2 0 1 1 0 3 0 1 1 1 1 2 2 1 1 1 1 0 1 1 0 1 0 1 0 1 1 0 2 1 2 0 2 0 1 1 0 2 2 0 2 1 0 2 2 1 3 1 1 1 1 2 2 1 2 2 1 2 4 1 0 0 1 1 1 2 0 0 0 1 2 0 0 0 1 2 2 1 2 3 0 0 4 0 1 0 0 2 2 0 1 1 0 2 2 2 0 1 1 1 0 1 1 0 1 0 2 2 2 3 1 2 1 1 0 0 2 0 0 0 3 1 2 1 1 0 2 3 1 1 2 2 1 1 2 1 1 1 1 1 0 1 0 1 1 0 0 1 1 0 2 0 0 2 0 1 2 1 3 0 1 1 2 1 0 0 1 3 0 1 1 1 1 0 1 1 4 1 1 2 0 0 0 0 0 0 2 2 1 2 1 1 2 1 0 0 2 2 1 1 4 0 1 0 1 2 1 0 0 1 2 0 3 2 3 4 0 1 2 1 0 1 2 0 0 1 1 0 0 0 1 3 2 0 2 0 2 0 1 1 2 1 1 0 1 0 0 2 2 1 3 0 0 2 0 0 1 0 1 2 0 2 1 0 0 1 0 1 1 0 1 1 1 1 0 2 0 4 2 0 2 1 1 1 2 0 1 0 1 2 1 0 1 1 0 1 1 0 3 2 1 2 1 0 0 1 0 2 0 0 1 0 1 2 1 0 2 1 1 1 4 0 2 3 0 2 1 3 1 1 0 0 0 2 1 0 3 2 1 2 3 0 1 2 2 2 1 2 0 1 2 0 2 0 1 0 2 0 3 1 1 3 2 0 2 2 2 1 0 3 0 1 0 2 3 0 2 2 0 0 0 0 1 2 3 0 1 0 2 2 2 1 2 1 1 0 0 0 0 0 0 0 1 0 1 2 0 1 2 3 0 0 0 2 2 2 0 2 0 1 3 4 0 2 0 0 2 3 1 0 0 0 1 1 1 0 0 0 1 0 0 0 0 1 1 1 1 1 2 1 1 1 0 0 0 0 3 1 0 0 0 1 4 1 2 3 0 1 1 1 2 2 1 1 0 0 0 3 1 0 1 0 1 1 0 0 1 1 3 0 0 1 1 2 3 2 1 2 0 0 0 0 2 3 1 1 2 0 3 1 0 2 1 0 0 0 1 1 0 1 0 0 0 1 1 0 1 2 0 1 0 0 1 0 1 2 2 1 0 0 1 2 1 2 0 0 0 1 1 2 2 0 0 0 3 1 2 0 0 1 1 2 2 2 1 0 1 1 2 1 0 2 1 1 2 2 0 2 1 0 0 1 1 2 2 0 2 0 2 0 0 0 0 0 0 2 1 0 2 1 0 1 2 0 1 0 0 1 0 2 1 1 1 0 0 2 1 2 2 1 1 0 2 1 2 2 2 1 2 2 2 0 0 2 0 0 1 2 0 0 0 1 0 1 3 1 1 0 1 0 2 1 1 1 1 1 1 0 2 0 1 0 0 0 0 1 1 0 1 1 1 0 0 0 0 0 0 1 1 0 0 1 2 0 0 0 0 1 1 1 3 3 0 1 1 0 2 0 0 1 2 0 1 1 2 1 1 0 2 1 0 0 2 0 1 0 1 1 1 1 3 2 2 0 0 0 4 1 2 0 1 3 0 2 1 1 0 0 0 1 0 1 1 0 1 1 0 2 1 1 1 1 3 2 1 1 0 2 1 2 1 0 0 1 1 0 2 1 2 3 1 1 0 1 2 0 0 2 1 1 0 2 0 1 0 0 0 1 0 2 0 0 1 1 0 0 0 0 2 1 1 1 1 0 2 0 2 0 0 2 0 1 0 0 0 1 0 1 1 1 1 0 1 2 1 0 0 0 0 3 2 1 2 2 1 1 0 0 0 1 0 3 1 1 0 2 0 1 2 1 0 1 0 0 1 3 1 1 0 0 0 2 0 0 2 2 1 0 2 1 2 0 0 2 0 1 2 3 1 2 1 0 0 3 0 1 0 0 0 2 1 0 2 1 2 0 3 0 0 1 2 1 0 2 0 1 2 1 3 2 1 2 0 3 1 1 1 3 1 0 2 2 1 1 2 2 2 1 0 0 0 1 2 0 1 0 0 0 2 0 0 1 2 1 1 0 0 0 0 0 4 1 2 0 1 1 2 2 0 0 0 0 3 0 0 1 1 2 1 2 1 0 0 1 2 1 1 2 1 1 3 3 2 2 0 1 1 1 1 2 0 1 1 0 2 2 0 0 0 0 2 0 1 1 2 0 3 1 0 1 3 2 0 1 0 0 1 3 0 1 0 1 1 2 1 1 0 1 3 1 1 1 4 1 1 1 4 2 0 0 1 1 1 1 0 1 0 0 1 0 3 0 0 1 3 0 0 1 3 1 2 0 1 1 2 3 1 1 1 1 0 1 0 0 0 0 0 0 2 0 0 1 1 0 1 2 1 0 1 1 3 1 2 3 2 2 0 0 1 2 0 0 0 3 2 0 0 2 1 2 2 0 1 1 1 1 1 1 1 0 1 2 0 0 2 0 0 0 1 1 1 0 1 1 0 2 2 0 0 0 0 3 0 0 0 1 1 1 1 1 0 0 1 0 0 2 2 1 1 2 1 0 1 1 0 0 0 1 1 2 1 2 1 0 2 1 0 0 1 1 2 1 1 0 0 1 1 0 2 2 0 0 2 0 2 2 1 2 1 3 1 0 2 2 1 1 0 0 2 3 1 0 0 1 1 1 0 0 2 0 2 1 1 4 0 1 1 1 1 1 1 1 1 1 2 1 1 2 0 0 0 1 1 2 1 0 1 1 2 1 2 2 2 1 2 1 0 1 0 2 1 0 1 0 3 1 1 0 0 1 0 2 1 2 2 0 1 1 0 0 1 0 3 2 0 0 1 0 1 2 0 1 1 1 1 0 2 1 0 0 2 2 0 1 1 1 1 2 1 1 1 1 0 0 0 0 0 0 1 2 1 0 0 2 1 1 1 1 0 0 0 0 0 1 0 1 0 2 1 1 1 2 0 1 1 0 0 0 2 1 2 1 2 1 1 0 0 0 0 4 3 1 1 0 2 0 1 1 1 1 1 2 3 2 1 1 1 0 1 4 1 0 1 3 1 1 1 1 0 0 1 1 0 0 0 1 4 1 1 0 1 0 0 0 2 1 1 2 1 1 2 0 0 1 1 2 1 1 1 1 2 2 1 2 2 2 4 0 0 0 3 2 3 1 2 2 1 1 0 2 1 1 1 2 0 0 0 1 1 0 1 0 1 1 1 1 0 0 2 4 1 0 1 0 1 1 1 0 1 0 1 2 1 0 1 3 1 1 1 3 2 2 0 1 0 2 1 1 1 1 0 0 0 0 0 1 1 0 0 0 2 0 1 1 2 2 1 0 0 2 1 3 0 2 1 2 1 1 1 0 0 0 0 2 0 0 1 1 2 1 0 0 0 0 1 2 2 1 0 0 1 0 0 1 0 0 0 0 1 0 0 1 1 0 0 1 2 1 0 0 1 0 1 0 0 2 0 1 0 1 2 1 2 0 0 0 0 1 0 1 0 0 2 3 0 2 1 2 2 4 2 2 0 2 1 1 0 2 2 2 0 2 0 0 1 1 3 2 1 2 0 0 0 1 0 0 1 1 1 0 1 3 0 1 2 0 1 0 2 3 0 2 1 0 1 0 1 0 1 3 0 1 0 1 0 1 0 0 1 1 2 1 2 0 1 2 0 1 1 1 1 3 0 3 1 0 2 1 2 1 3 3 1 0 2 1 2 1 2 1 1 2 2 3 0 3 1 0 1 0 0 3 0 2 0 2 0 0 0 2 0 1 0 0 0 2 1 0 1 0 1 1 0 1 1 0 1 2 1 0 1 1 1 4 2 1 1 1 1 2 2 1 0 0 0 1 0 1 0 0 2 2 2 3 0 2 1 2 1 0 1 0 1 0 1 2 1 1 0 1 2 3 3 0 0 1 2 1 0 0 1 0 0 0 1 1 0 1 0 0 1 1 1 1 0 0 2 0 2 1 1 2 1 2 1 2 3 2 1 1 0 1 1 0 0 1 1 1 2 2 1 0 4 4 4 1 1 1 1 1 3 1 0 1 4 2 0 1 0 0 1 2 0 0 0 0 1 1 1 0 1 1 0 3 0 0 0 1 3 3 2 1 0 0 2 3 1 0 0 1 1 1 2 1 1 1 2 1 3 1 1 0 0 0 1 0 1 3 0 0 1 1 0 0 0 3 2 1 2 2 4 1 1 1 0 0 0 1 2 2 0 1 0 0 0 2 2 0 2 1 1 1 0 2 2 2 2 0 1 1 2 1 2 3 2 3 1 0 2 2 1 0 1 2 1 1 0 2 2 0 2 1 1 0 2 0 0 0 1 1 3 1 2 2 1 2 2 0 2 1 0 2 0 1 3 3 0 1 0 3 0 1 0 1 0 0 1 0 0 3 2 0 1 0 3 0 2 0 1 1 1 1 0 0 2 0 0 0 0 0 1 3 3 1 0 1 1 2 0 3 1 0 2 0 0 0 0 0 1 0 0 3 0 1 0 0 2 0 3 0 1 1 2 2 0 1 0 2 1 2 0 0 0 3 1 1 0 1 1 1 0 0 1 0 2 1 1 0 2 2 2 1 1 1 0 1 0 1 1 0 0 1 0 0 2 0 2 0 1 1 2 3 0 1 0 2 1 0 0 3 0 2 2 1 2 0 0 1 2 1 1 2 1 1 1 1 1 0 0 1 0 1 0 0 1 1 1 0 1 1 2 0 1 0 0 0 1 1 4 1 2 0 1 0 1 1 1 1 0 0 2 1 2 0 2 1 1 3 1 1 1 2 1 1 2 1 1 1 0 1 1 2 0 1 0 0 3 2 1 0 0 0 2 1 1 0 2 1 0 0 1 0 1 1 0 1 0 2 0 1 3 1 0 2 1 1 1 0 1 3 0 0 1 1 0 2 3 0 1 2 2 1 1 0 4 1 0 2 0 1 0 0 1 0 0 3 0 1 2 2 2 1 0 1 0 2 1 3 0 1 0 0 1 1 0 1 1 3 2 1 1 0 1 0 1 3 1 2 2 0 2 1 2 3 2 0 0 1 0 3 0 1 2 1 1 2 1 2 0 2 2 3 1 0 2 0 1 2 1 0 0 0 1 1 4 5 0 0 0 1 0 0 1 1 1 1 0 1 1 1 1 1 0 2 1 0 1 1 0 1 2 1 0 0 1 3 0 1 1 1 1 0 2 0 0 2 1 1 3 1 2 2 0 1 0 3 1 0 3 0 0 0 0 0 0 1 0 0 1 2 1 2 0 0 1 2 2 1 1 1 0 2 2 1 1 1 1 1 1 2 1 0 1 1 0 0 1 0 1 0 0 0 0 2 1 0 0 1 1 2 0 1 1 1 1 0 1 0 2 1 1 0 1 1 0 0 1 1 0 0 0 1 1 1 1 1 1 0 2 2 1 0 1 1 1 0 1 2 0 0 2 1 1 0 1 2 1 2 1 0 0 0 1 1 1 2 1 0 0 1 2 2 0 1 1 0 1 0 1 2 2 1 0 1 1 1 2 0 2 2 1 1 0 1 1 2 2 1 3 0 1 1 1 0 0 1 1 1 3 0 0 2 1 1 2 1 0 1 0 0 2 1 7 2 0 2 0 1 1 2 0 1 2 1 3 2 0 1 2 3 1 1 1 1 1 1 1 1 0 0 1 0 0 1 2 2 2 1 2 1 1 2 0 1 1 0 1 0 0 3 1 1 2 1 0 1 2 1 1 2 0 1 3 0 2 0 1 0 0 1 1 1 0 2 2 0 1 1 1 0 4 3 1 1 1 2 2 1 0 0 2 1 0 2 0 0 1 1 1 1 2 1 1 1 1 0 1 0 2 1 0 1 0 0 2 0 3 3 1 1 2 2 1 0 0 1 1 1 0 1 0 1 2 0 0 1 1 1 2 1 1 1 1 1 2 2 0 1 1 3 1 2 1 2 0 1 2 3 0 1 0 0 1 0 1 1 0 1 2 2 0 0 0 0 0 4 2 0 1 1 1 1 3 1 0 1 1 3 0 1 1 3 1 0 1 3 0 1 1 0 3 1 1 1 0 1 3 1 0 6 1 1 1 3 0 0 1 0 1 0 0 1 1 2 2 1 1 1 0 0 1 0 1 1 1 0 1 1 1 0 0 2 1 0 1 1 1 0 0 0 0 3 1 0 0 1 0 3 1 1 1 0 2 1 0 1 0 1 1 1 1 1 1 2 1 0 2 0 0 1 0 1 2 2 0 0 1 0 0 2 3 0 2 1 1 1 1 1 0 0 1 1 0 2 1 0 0 0 1 1 0 1 0 0 2 0 3 1 2 1 3 2 1 2 2 2 2 3 0 1 1 2 2 1 1 1 1 1 0 1 0 1 0 0 1 3 1 1 1 1 1 1 1 2 1 0 0 2 1 1 2 1 3 0 0 1 0 0 2 1 0 0 0 1 0 1 0 3 2 0 1 3 0 3 0 1 1 0 2 0 5 1 1 0 2 1 2 0 1 1 1 0 2 1 0 1 1 2 3 0 1 2 2 0 0 1 1 1 1 1 1 0 1 1 1 1 2 3 0 1 0 0 0 1 2 1 0 1 1 2 2 0 2 0 1 1 0 1 2 1 2 1 0 0 3 1 1 3 1 2 1 0 1 1 2 1 3 1 2 0 2 0 0 0 1 2 3 0 2 2 0 0 0 0 0 2 1 4 0 0 0 0 2 1 1 1 2 0 1 1 0 1 0 1 0 2 1 3 2 0 0 2 1 0 0 1 1 1 0 2 1 1 1 1 1 0 0 0 1 0 2 0 2 3 2 1 0 1 1 0 1 0 2 2 3 3 1 1 0 3 1 1 0 0 1 1 2 0 0 1 0 0 0 1 0 0 2 2 0 1 0 1 1 3 0 3 2 2 1 2 1 0 0 0 3 1 1 1 0 0 2 0 1 0 1 1 0 2 0 2 0 1 0 2 2 2 1 1 2 2 1 2 2 1 0 1 1 0 1 2 3 2 1 0 1 2 1 4 0 1 2 0 1 1 1 1 2 0 0 1 0 1 1 0 0 1 0 1 0 0 0 1 1 0 1 2 0 0 2 0 2 2 2 0 0 0 0 2 0 0 2 1 1 0 1 0 2 0 1 1 0 2 1 0 1 0 1 4 1 0 0 0 0 1 2 0 0 2 1 1 0 0 1 1 2 0 0 0 1 2 1 1 2 1 0 1 2 0 0 2 2 1 0 1 1 2 3 0 1 2 1 0 0 0 0 1 0 1 1 0 1 1 2 2 2 3 1 1 1 2 0 1 0 2 1 3 1 0 1 1 1 0 3 2 2 1 1 0 1 0 0 1 1 0 1 0 1 2 2 2 1 1 1 3 4 0 1 0 2 0 1 1 0 0 1 0 0 4 1 0 1 0 2 0 0 1 0 1 0 0 2 1 1 0 2 3 2 1 0 1 0 0 2 1 1 0 2 0 1 2 1 1 0 3 0 2 2 0 1 2 1 2 1 1 4 2 0 1 1 1 2 2 1 0 1 2 3 2 2 2 1 0 2 1 0 1 1 2 0 0 1 3 1 0 1 0 0 1 0 1 0 0 1 0 2 0 0 1 1 3 2 0 1 1 0 0 2 0 1 0 2 1 1 0 0 1 0 0 4 0 0 0 1 0 0 1 0 0 2 0 2 1 0 1 2 1 1 0 1 1 1 2 2 2 1 2 2 0 2 0 1 1 0 0 1 0 2 0 2 1 1 0 0 1 0 3 1 1 1 0 2 3 2 0 0 1 1 2 0 2 2 0 1 1 0 2 0 0 0 1 0 1 0 0 1 2 0 3 0 3 1 3 1 0 0 0 1 1 1 2 1 1 1 1 0 2 0 1 2 0 3 0 1 2 0 1 0 1 1 1 1 2 0 1 2 2 0 1 3 2 0 2 0 5 1 1 1 0 0 0 0 0 0 0 1 2 1 0 1 0 0 2 1 0 1 3 1 1 2 0 0 0 1 1 2 2 2 1 1 0 2 0 0 0 1 0 1 1 2 4 0 0 1 0 1 1 0 1 0 1 1 0 1 1 2 2 0 2 1 1 0 2 1 1 0 2 1 0 1 3 1 1 0 2 2 1 0 1 1 2 0 1 1 0 3 0 1 1 2 1 0 1 2 1 0 1 0 1 1 0 1 0 1 1 1 1 0 2 3 1 1 1 1 1 1 1 3 0 0 2 1 2 2 3 0 1 0 0 0 0 2 0 4 0 0 0 2 1 1 0 1 1 0 1 0 0 3 3 0 3 0 2 0 2 0 1 2 2 2 1 1 1 1 1 0 0 0 1 1 2 0 2 0 1 1 0 2 1 2 0 1 1 0 2 1 0 2 2 1 0 1 1 1 0 1 0 2 1 1 0 1 0 2 2 0 1 2 2 1 2 2 2 2 3 0 1 2 0 1 4 1 0 3 1 1 0 1 3 0 0 1 0 2 0 0 0 1 1 0 3 2 2 0 2 2 1 1 1 0 4 0 2 2 2 0 0 3 2 0 0 1 0 1 1 1 2 2 3 2 3 1 2 2 4 1 0 2 1 1 2 2 1 0 0 0 3 1 1 0 0 3 1 1 0 0 3 0 0 1 2 0 2 0 1 0 1 0 3 2 2 1 0 1 3 0 1 0 2 1 0 0 2 4 2 1 0 1 1 0 1 0 0 2 5 0 1 1 3 1 1 0 2 2 1 2 0 0 2 0 1 0 2 0 0 1 0 1 2 2 1 2 0 1 1 1 2 1 0 0 3 1 0 1 1 2 2 0 0 0 1 1 1 1 1 0 0 0 0 0 1 1 2 1 2 0 1 2 0 2 0 1 1 1 1 0 1 2 0 0 0 1 0 1 0 0 1 0 0 1 2 1 2 1 2 1 1 1 0 1 0 0 2 1 2 0 1 2 1 0 3 0 2 1 0 1 2 1 0 3 1 0 1 1 1 1 2 1 0 1 1 1 1 3 2 1 1 0 2 3 1 1 0 2 0 0 0 0 1 1 2 0 1 0 0 1 1 2 1 1 0 0 2 1 1 1 1 0 1 1 2 2 1 2 2 2 2 0 1 1 1 1 2 1 2 0 3 0 1 1 1 0 1 0 1 1 0 1 0 0 1 0 1 3 3 2 2 1 0 1 1 0 0 1 1 0 1 2 3 1 0 1 1 3 3 2 2 1 1 1 1 0 1 1 0 1 0 2 1 0 2 0 0 1 1 0 0 0 1 1 0 0 0 0 0 1 0 0 1 1 1 0 2 0 1 1 1 1 1 1 3 1 3 0 0 1 2 0 2 2 0 0 4 2 0 0 2 1 1 1 1 2 0 0 1 0 0 0 0 0 1 3 1 1 1 0 0 3 0 0 1 0 0 0 1 2 0 2 0 0 1 1 0 0 0 0 2 0 2 1 0 1 0 2 1 1 0 2 0 1 2 0 2 2 1 0 0 2 0 2 0 1 1 1 0 0 1 4 1 0 0 3 0 0 1 1 1 1 0 0 0 1 0 1 2 0 1 1 1 2 0 1 0 3 0 2 0 1 1 0 1 0 1 2 1 0 2 0 2 1 0 2 1 3 3 0 2 1 0 0 1 1 0 1 0 3 0 0 0 0 0 2 2 1 0 1 2 1 1 0 2 0 0 0 1 3 0 0 0 3 1 2 0 1 2 2 0 2 1 0 1 1 0 1 2 2 0 0 3 1 1 1 2 0 0 5 2 1 0 2 2 0 2 0 0 2 1 2 1 0 0 0 0 0 2 0 1 0 2 0 0 1 0 0 1 1 1 2 1 0 2 0 0 0 1 4 1 4 1 0 2 2 0 0 1 0 3 2 1 1 0 1 3 1 3 1 1 1 1 2 0 0 3 1 0 0 0 2 2 3 0 0 2 0 1 0 0 1 0 3 0 1 2 0 0 0 0 0 1 2 0 1 3 0 0 1 1 1 2 0 0 0 0 0 1 0 3 0 2 2 1 0 2 1 0 1 0 0 3 1 0 1 2 0 0 1 1 1 0 1 2 0 1 2 0 1 1 0 3 0 0 1 1 1 2 2 1 1 0 0 2 1 0 2 1 0 2 1 3 1 0 1 1 0 1 2 1 1 2 0 2 1 0 1 0 2 1 0 1 0 0 2 1 3 1 1 1 0 1 0 1 1 1 1 3 3 1 1 0 2 2 0 4 0 1 3 1 1 2 1 1 2 0 0 0 2 1 0 1 1 0 2 0 1 0 0 1 2 2 1 1 2 0 1 0 0 0 0 0 1 0 1 1 0 1 0 1 0 2 1 3 2 0 0 2 0 1 0 1 0 1 0 0 1 2 2 1 0 2 1 2 0 0 0 1 0 0 1 1 2 0 0 3 0 1 4 2 2 0 2 3 2 0 0 1 0 3 1 1 1 1 0 1 1 0 2 2 2 2 1 0 0 0 1 1 1 1 1 2 2 1 0 1 0 3 0 2 0 1 1 2 0 1 0 0 0 0 1 1 0 1 1 0 4 0 2 1 1 2 1 0 0 1 1 2 1 0 0 1 0 1 1 0 1 0 1 0 2 2 1 1 3 1 0 1 1 1 1 1 1 1 1 1 1 0 3 1 0 1 1 2 1 4 1 0 1 0 3 0 2 1 1 0 1 2 0 0 0 2 0 2 0 0 2 1 1 0 2 1 2 1 1 2 4 1 0 1 1 0 2 0 2 0 2 0 1 1 2 1 0 0 0 0 1 2 0 0 1 1 2 0 3 0 0 1 1 1 0 0 1 1 1 0 1 1 1 1 1 0 0 2 2 1 1 3 2 1 2 3 0 0 1 3 2 0 1 1 2 2 1 1 0 2 1 1 0 0 0 2 1 0 2 1 1 1 0 1 0 1 0 1 0 1 2 1 0 1 1 0 1 2 2 0 1 0 2 0 1 3 0 2 2 4 1 1 2 0 2 0 2 0 1 0 2 0 1 3 0 1 1 0 1 2 0 1 1 1 1 2 0 0 2 1 1 1 0 1 2 0 0 3 2 0 0 1 0 1 1 4 1 1 1 1 0 1 1 0 0 1 1 3 2 0 0 1 1 1 1 1 0 0 1 0 2 0 1 2 2 2 0 0 1 2 1 1 2 3 0 1 0 2 0 0 0 3 0 2 3 0 0 0 2 2 1 0 0 0 0 0 5 0 0 2 1 0 3 0 0 1 1 1 0 0 2 0 2 1 0 2 0 2 0 0 2 1 1 2 0 0 0 1 0 0 1 1 2 0 1 2 1 0 1 3 2 1 2 0 2 3 0 0 2 0 1 2 1 1 1 0 1 1 3 0</t>
+    <t>JSU(-14.889488740534937, 7.9114203470061355, -42.082104440774785, 19.754049284547364)</t>
+  </si>
+  <si>
+    <t>23 20 24 38 15 27 16 20 17 28 40 23 16 41 16 13 20 11 40 16 27 24 17 16 9 14 21 17 27 16 17 17 23 20 31 35 27 20 31 24 3 35 3 30 16 13 10 28 12 9 23 35 20 24 30 24 24 34 27 27 24 13 23 17 10 23 15 24 34 20 31 14 45 15 20 26 27 24 17 31 13 21 17 44 17 13 23 38 23 21 15 20 17 25 3 24 10 35 27 24 7 23 38 41 15 17 26 33 23 21 34 38 25 19 14 20 24 23 17 17 20 10 10 28 10 31 27 22 10 26 31 30 20 16 26 16 17 7 23 15 20 27 20 17 30 17 30 17 19 24 30 9 13 17 24 23 23 26 17 12 41 20 17 30 27 14 20 35 35 27 26 20 38 27 34 10 20 26 36 22 27 26 12 19 13 27 13 17 19 17 24 37 9 26 9 41 25 33 37 31 6 25 14 13 20 21 16 16 34 22 10 31 20 13 21 10 31 24 30 20 34 31 26 12 13 20 33 16 19 20 23 23 23 40 6 31 20 17 10 10 15 24 13 27 17 17 38 24 14 13 20 28 13 13 30 21 14 3 15 28 24 21 23 24 10 16 23 26 28 23 28 34 20 17 20 41 10 3 23 24 24 13 17 26 17 13 10 45 38 10 7 30 23 23 20 7 21 10 23 20 28 26 16 14 12 16 13 24 19 35 31 13 24 9 21 34 23 23 24 27 13 16 35 19 21 17 19 20 30 13 25 35 22 9 19 19 10 9 17 31 21 19 7 13 27 6 13 34 14 22 13 13 13 14 16 19 9 30 27 25 23 34 35 18 13 22 21 23 44 24 20 30 24 31 37 12 16 22 14 21 22 27 20 34 17 9 16 6 28 12 23 26 16 12 22 20 20 23 41 31 27 20 23 6 6 9 24 20 10 34 10 31 34 24 30 9 35 23 31 21 16 27 24 31 29 23 24 38 26 16 12 24 20 6 27 11 20 38 21 6 17 34 21 37 16 13 23 7 33 27 27 17 31 17 20 24 16 26 13 26 24 21 13 35 26 27 32 10 15 23 19 21 17 20 34 9 27 19 26 20 3 13 10 23 34 31 26 27 24 21 20 20 22 24 27 21 23 10 24 23 17 21 27 16 9 23 16 13 26 28 3 27 21 21 16 20 44 21 28 20 17 30 17 9 16 34 21 17 31 18 16 21 24 38 21 8 30 19 20 13 24 34 20 44 30 18 13 20 14 14 16 32 26 14 13 40 10 22 45 22 23 24 21 20 26 38 19 17 23 16 19 9 6 13 21 21 41 13 19 24 20 9 17 16 3 25 13 27 10 28 21 26 17 28 24 16 18 18 20 21 10 17 20 27 27 18 27 20 28 17 3 9 23 17 42 16 21 21 10 10 9 21 27 10 34 31 21 24 38 17 25 21 33 16 20 27 30 32 17 16 14 23 29 13 9 17 24 0 27 17 27 24 19 23 27 21 34 24 17 37 23 10 23 20 34 23 6 33 9 3 13 19 3 7 27 8 17 17 13 37 17 47 13 40 20 34 28 14 9 14 31 3 6 32 9 17 28 30 16 27 24 13 14 16 30 20 34 14 27 15 21 22 31 31 9 23 23 13 14 22 24 20 13 29 24 25 6 26 22 24 20 12 21 35 30 13 35 14 19 13 23 48 13 24 20 41 13 30 27 24 14 16 10 9 20 17 13 30 30 27 27 23 19 30 17 17 27 23 21 24 38 35 9 22 17 24 23 6 22 31 17 28 39 27 20 13 10 38 13 23 12 23 27 23 13 17 28 27 27 35 21 24 13 6 20 44 16 27 16 21 23 13 30 16 30 23 13 14 24 19 10 23 17 17 20 13 31 37 12 35 27 30 23 23 17 22 23 32 19 24 16 27 48 9 42 24 24 33 27 17 20 20 19 20 20 34 19 16 14 20 16 27 24 17 36 28 14 31 14 21 20 31 26 23 23 21 13 20 36 21 27 14 42 14 27 19 17 20 10 27 17 10 23 14 34 38 20 35 28 28 24 18 23 24 23 34 20 7 37 14 34 28 20 32 23 17 38 20 35 24 27 20 20 3 11 9 19 12 20 31 16 29 18 27 24 20 13 17 13 13 10 15 24 37 34 24 22 18 10 10 15 26 21 13 20 10 31 9 17 36 39 16 20 17 14 16 21 14 14 29 24 10 30 20 15 16 25 20 24 20 17 37 28 15 14 26 27 17 28 40 20 16 14 21 24 16 24 34 16 20 3 20 28 12 9 16 27 24 33 14 23 26 23 21 19 27 28 31 32 55 21 23 17 13 48 14 19 28 23 13 30 30 27 14 27 20 23 28 17 16 20 28 37 19 12 16 24 19 24 30 23 10 24 31 13 20 28 21 20 31 14 30 38 17 31 41 37 23 19 21 31 35 29 19 31 21 16 15 23 29 30 17 28 35 24 13 30 13 38 23 33 20 27 29 19 24 21 24 17 28 19 31 44 17 35 48 35 13 10 37 16 20 10 17 24 23 6 27 16 15 38 24 17 20 27 28 17 21 23 14 24 23 17 20 10 14 19 16 13 17 20 28 20 17 17 13 19 16 34 23 38 24 16 17 12 17 14 9 43 13 14 30 24 13 21 24 15 20 24 30 13 23 10 31 42 3 29 13 23 13 41 29 10 28 28 16 7 23 20 14 34 3 29 28 28 34 30 31 14 38 22 14 30 24 28 33 17 22 33 28 21 22 33 23 14 13 27 14 20 20 23 20 35 24 27 14 24 23 29 40 20 24 16 21 19 28 24 17 39 27 27 38 34 23 17 20 13 18 17 6 20 20 15 17 11 31 36 31 22 34 28 26 19 27 17 41 23 25 24 23 16 20 14 17 16 9 23 23 25 23 3 19 24 28 23 23 9 10 27 25 26 6 24 25 24 0 27 20 44 31 13 20 34 30 13 9 0 27 41 30 28 24 35 20 23 33 28 14 31 23 28 13 31 9 16 41 10 30 38 13 23 27 30 31 31 21 23 20 24 24 21 27 24 24 19 13 14 12 17 23 28 31 16 13 14 17 27 9 34 27 22 27 24 24 26 24 19 14 16 14 13 10 24 20 14 25 38 30 17 35 20 26 28 11 24 10 20 29 22 24 37 23 26 14 13 15 34 28 24 39 24 24 7 14 24 10 27 30 15 3 10 31 17 23 14 20 24 30 17 10 14 27 25 13 38 31 24 27 16 27 24 24 20 52 13 13 16 21 28 30 17 16 23 34 32 13 23 23 7 13 17 9 17 13 24 7 29 27 9 30 21 23 13 44 30 34 23 14 33 21 38 21 30 21 17 29 17 24 17 17 16 28 7 17 10 24 31 17 7 21 13 20 13 17 25 27 34 30 24 29 24 18 30 16 24 24 13 20 17 36 23 10 14 23 14 17 19 6 7 33 31 30 25 20 16 21 24 16 6 37 13 17 20 19 41 15 23 18 23 19 14 13 10 34 40 23 6 31 23 16 20 21 26 37 27 19 21 20 13 20 23 24 13 17 12 5 12 38 34 27 23 23 10 12 12 13 29 20 10 31 17 20 42 14 45 30 19 37 3 20 14 34 20 17 20 30 10 24 24 34 28 13 24 20 29 26 17 16 13 24 25 16 13 6 27 27 31 31 17 27 22 26 28 31 19 23 35 26 20 24 21 16 10 21 10 38 20 26 23 10 21 21 26 23 23 20 30 13 10 24 31 28 20 17 23 27 33 20 20 10 24 12 31 20 34 31 20 29 23 7 3 7 14 11 13 16 27 27 18 27 21 17 31 16 24 28 7 28 23 6 16 31 20 19 22 14 17 20 19 15 9 31 12 6 6 23 27 21 26 24 28 12 27 35 28 36 32 23 23 21 24 20 20 31 19 23 14 9 24 27 27 0 27 19 10 20 27 40 26 14 23 15 27 16 21 24 38 21 23 27 16 16 28 44 11 35 23 10 24 19 27 19 20 37 24 30 27 23 26 24 27 14 20 6 14 16 14 10 36 14 23 22 9 14 35 18 44 24 37 27 20 31 23 27 33 28 24 18 37 37 10 10 18 24 38 17 17 13 20 27 13 24 34 3 23 24 27 26 12 21 14 24 19 14 30 38 38 20 35 27 24 25 41 20 13 10 24 20 38 30 13 27 24 23 18 20 28 7 33 24 23 7 31 23 26 23 10 27 21 20 20 28 19 39 23 12 23 23 23 42 31 29 41 16 30 26 20 9 28 13 17 17 31 13 28 10 27 28 34 21 13 19 34 37 20 25 27 20 31 30 29 24 16 16 27 7 24 30 31 21 26 38 30 16 16 31 16 20 23 31 23 17 20 20 19 19 38 20 28 17 16 20 19 19 9 19 31 10 24 12 27 41 24 30 31 38 20 14 20 24 38 14 17 40 34 24 13 28 37 20 14 20 21 10 29 10 20 16 23 16 9 16 7 34 21 33 19 24 21 20 23 20 18 15 27 33 28 14 27 21 10 20 20 24 27 17 37 33 29 22 20 23 28 25 29 17 21 9 19 10 28 24 38 17 15 24 24 22 33 14 31 6 35 20 18 17 13 24 14 41 7 6 3 10 7 24 20 30 16 34 10 27 16 13 19 27 34 40 28 16 16 36 10 17 28 34 9 10 13 25 12 13 37 24 18 16 17 14 26 20 19 0 27 16 19 34 28 21 27 28 29 19 10 16 26 16 17 22 38 7 17 24 16 27 17 38 30 24 17 17 25 21 18 23 24 16 24 9 31 17 19 27 17 20 28 10 24 17 34 14 34 16 21 38 13 20 26 20 35 24 0 15 16 23 13 23 13 13 17 21 30 20 27 23 7 14 18 17 20 21 30 9 21 20 26 31 12 21 20 11 20 34 10 20 16 34 27 28 20 19 21 16 20 7 17 21 34 26 17 18 28 22 23 26 23 23 3 21 19 23 17 18 24 24 20 16 17 22 10 34 16 10 26 15 23 14 8 22 21 31 28 20 27 10 26 24 23 44 16 9 27 21 27 20 14 17 31 17 33 20 17 27 16 6 24 19 34 14 22 20 13 10 10 24 23 42 15 24 31 19 20 12 30 20 16 10 16 42 34 10 20 20 24 13 31 18 30 16 20 20 13 28 21 21 27 24 23 37 20 17 25 30 15 27 22 13 20 13 23 24 24 14 27 29 14 23 13 23 28 31 38 24 27 28 23 23 5 20 30 23 16 16 23 17 27 30 16 15 34 27 34 31 17 20 27 24 24 21 27 13 33 30 16 28 0 19 27 44 22 24 14 6 30 23 21 7 21 38 35 38 15 23 21 15 20 16 20 24 24 16 18 16 22 27 22 10 20 27 24 20 20 24 31 17 12 17 23 22 21 31 3 51 6 12 24 20 13 9 39 28 34 17 19 14 20 22 16 14 25 14 17 20 29 13 21 9 20 17 27 24 35 3 16 7 24 20 7 20 27 16 19 30 13 31 16 13 17 20 35 32 13 27 17 16 10 16 14 13 12 9 13 29 27 35 31 23 23 17 10 22 36 17 13 13 30 31 6 24 0 27 14 3 16 31 23 16 27 23 10 31 14 17 13 20 14 14 34 21 23 13 35 30 23 25 29 21 13 28 10 16 14 14 31 28 24 17 29 17 34 17 13 20 23 17 20 13 19 7 17 17 17 17 23 3 15 20 17 14 6 27 23 43 27 27 22 28 34 34 17 23 12 20 17 26 31 20 16 17 16 17 30 48 31 24 13 20 27 14 31 18 17 38 13 40 3 17 23 22 17 6 24 28 23 13 22 27 29 26 20 28 19 30 23 22 14 9 13 31 17 17 16 10 17 34 24 31 35 37 21 21 38 35 20 24 37 3 6 7 27 31 19 16 27 16 11 10 20 23 17 31 30 23 13 31 25 14 20 22 37 23 24 31 10 24 17 16 19 22 31 14 26 31 13 44 24 27 9 29 17 21 34 13 17 20 27 21 34 24 22 27 13 27 20 23 26 20 27 28 7 19 14 14 37 49 21 20 26 16 31 6 27 20 9 23 35 14 20 21 27 16 14 21 32 17 31 32 23 16 30 34 34 14 27 10 28 18 26 17 24 9 16 20 20 14 31 37 44 17 30 30 28 5 10 15 23 16 13 19 23 34 29 24 16 28 14 34 30 35 21 25 3 27 22 16 24 16 16 7 33 14 24 3 17 31 27 24 9 25 20 38 22 24 27 30 27 16 16 26 23 23 24 17 17 24 10 24 13 17 24 27 9 40 17 19 20 21 23 24 20 17 20 24 14 45 31 16 16 27 17 11 30 34 16 45 17 22 24 13 23 24 22 17 19 14 20 14 10 16 14 38 16 26 27 31 31 24 10 27 28 13 26 24 17 27 28 31 20 24 16 22 24 15 20 6 27 24 23 20 17 17 17 41 37 27 15 30 14 23 20 24 16 23 13 38 24 20 31 23 10 27 23 19 9 13 20 23 17 31 15 13 23 19 21 30 34 37 24 24 13 27 30 21 16 26 10 14 35 45 24 16 24 10 16 20 13 23 46 7 24 27 26 24 17 23 10 17 16 12 17 20 20 33 14 25 13 34 21 10 19 24 31 33 21 6 26 27 17 31 7 17 10 23 17 22 6 20 14 20 30 9 27 22 49 20 17 13 19 17 35 13 20 38 10 17 34 38 20 27 41 31 13 27 10 20 23 16 24 31 30 28 22 14 24 34 14 27 24 9 17 35 22 11 17 31 21 7 17 23 17 17 23 10 17 34 20 34 24 16 31 17 34 20 23 24 13 17 17 30 31 23 28 38 17 26 30 20 26 31 16 28 20 27 24 16 26 17 17 16 31 10 20 14 23 26 30 23 31 10 38 24 27 34 17 34 23 31 26 18 16 30 14 24 23 27 31 20 7 23 23 20 21 13 23 24 20 36 13 24 24 10 28 38 24 34 20 27 10 20 22 23 20 13 33 37 13 27 15 24 20 22 20 45 17 24 14 20 18 28 40 14 20 31 17 27 32 24 23 13 24 22 19 24 24 10 21 23 28 27 20 14 33 25 11 23 7 34 21 20 21 19 31 17 28 31 30 18 26 23 23 28 17 17 48 24 10 28 23 24 30 15 37 22 13 31 7 14 36 33 13 0 17 17 16 17 10 21 16 16 13 21 20 38 10 10 27 19 23 23 24 20 19 29 20 26 13 23 6 16 27 24 24 6 24 17 20 42 13 14 23 17 11 17 9 10 24 10 20 41 6 19 20 10 20 24 13 17 22 30 17 31 10 21 38 31 33 30 23 27 16 21 20 21 27 31 20 15 20 34 13 26 34 7 14 13 34 23 31 14 19 13 17 25 20 24 20 21 20 30 33 32 31 30 30 19 20 14 43 37 44 19 24 30 17 20 23 27 14 22 6 20 19 23 13 42 17 20 27 17 29 33 26 27 17 16 38 6 13 33 26 13 14 14 20 28 12 40 17 36 23 20 14 19 26 10 13 23 34 26 13 10 24 23 17 6 14 13 17 20 34 7 27 6 17 23 27 14 27 10 20 20 16 12 20 24 37 7 27 31 21 29 7 27 12 19 17 10 15 0 21 38 17 17 17 30 31 37 17 17 33 30 15 13 28 20 27 17 27 38 31 33 41 26 40 23 31 10 26 31 17 23 12 48 20 24 17 35 26 31 24 17 34 24 19 31 33 21 19 17 24 20 7 8 7 33 10 30 20 9 26 17 23 22 32 23 28 41 24 48 13 24 28 34 21 37 28 23 17 31 17 27 19 27 10 16 23 18 29 14 14 34 33 13 24 23 28 13 17 13 10 31 24 20 30 24 18 13 29 27 13 24 11 24 31 16 13 24 24 27 10 20 37 21 16 20 15 20 17 17 35 13 19 20 32 9 33 20 24 26 14 24 18 13 17 21 14 16 24 22 21 15 7 19 24 19 10 29 20 17 21 27 23 14 48 16 37 13 10 41 23 6 14 13 14 22 25 27 27 33 24 24 24 27 13 34 22 26 14 20 24 27 14 22 52 26 23 24 35 26 25 29 38 42 33 16 10 45 27 14 28 14 17 23 13 13 17 28 17 17 16 23 33 34 20 20 10 23 23 16 44 41 13 37 27 22 30 36 19 40 19 27 23 13 16 13 24 27 28 17 33 36 26 34 16 24 10 13 22 24 20 17 31 6 17 19 31 30 17 27 41 20 20 37 6 34 30 30 24 17 20 20 31 6 13 16 13 36 16 17 22 34 34 20 31 13 18 41 13 13 27 26 34 17 37 9 17 24 35 24 35 32 10 41 37 28 24 28 26 31 30 27 31 14 7 31 17 26 30 34 19 21 11 24 29 30 13 9 17 9 31 31 27 21 6 17 29 31 31 12 27 31 12 16 17 16 14 16 24 13 13 34 37 30 17 24 19 31 31 13 35 27 10 22 28 20 20 13 27 21 20 34 30 24 20 24 17 31 13 10 12 13 20 34 38 19 24 27 21 6 20 36 27 20 17 10 24 14 28 10 31 28 13 10 40 24 17 28 17 20 31 34 6 20 24 30 24 23 17 16 20 17 28 30 23 31 17 20 24 20 16 10 21 31 14 16 10 11 13 28 23 9 13 17 10 24 9 21 26 18 52 38 10 9 40 26 17 15 14 37 29 16 20 12 16 16 3 10 24 24 34 13 23 16 20 34 10 19 10 14 24 23 14 30 10 21 24 22 20 24 12 17 37 10 27 25 19 13 32 12 7 24 27 20 17 16 14 16 22 12 26 24 23 40 14 22 34 16 15 17 28 23 17 16 27 13 17 20 19 24 21 22 3 10 23 23 17 31 24 37 30 17 21 16 13 3 17 27 27 41 34 28 26 27 25 17 46 22 24 27 16 24 30 10 23 14 38 19 41 24 37 14 17 22 28 17 37 29 13 20 31 11 24 23 21 24 24 31 20 16 25 20 10 21 44 13 27 23 17 14 30 16 28 23 30 13 17 21 17 36 17 10 14 20 21 37 30 16 3 30 27 20 21 18 38 36 25 24 17 23 17 20 31 34 10 17 23 29 13 10 20 17 21 16 26 15 20 22 14 13 17 35 17 17 13 24 24 38 16 34 13 20 21 13 24 20 26 23 40 13 12 51 17 38 10 24 27 23 24 17 13 39 42 20 32 26 20 37 28 33 16 23 38 16 12 30 27 13 6 22 24 24 23 21 37 13 3 17 29 35 34 17 20 17 10 19 17 15 22 33 17 23 16 10 20 24 17 24 7 14 23 20 15 35 38 26 13 20 13 34 33 17 24 31 16 16 27 10 27 10 45 6 16 26 27 29 16 34 40 22 10 30 20 24 20 24 20 16 35 18 17 23 24 28 20 29 10 20 21 17 19 7 31 20 30 17 37 9 28 23 21 30 16 16 7 34 18 20 24 20 15 17 30 24 27 10 28 34 28 30 37 12 28 38 26 12 17 28 17 28 13 10 24 21 10 23 17 16 29 23 17 31 26 34 20 17 25 30 19 38 14 18 20 17 12 23 31 7 14 17 3 10 13 33 10 17 27 37 38 27 22 10 25 13 13 50 20 32 10 29 33 40 19 30 27 24 30 23 7 26 8 17 31 22 10 12 21 27 7 24 12 9 24 27 17 19 20 28 34 13 24 14 34 48 6 25 13 35 10 20 6 27 20 30 35 20 21 27 15 20 27 24 20 21 24 17 16 23 19 33 29 14 20 37 12 26 28 26 24 13 23 17 33 26 37 20 37 30 34 24 17 6 13 24 14 31 21 20 37 26 24 10 23 19 16 20 27 17 16 33 19 23 33 20 9 16 34 14 9 24 15 34 21 14 18 6 34 38 31 30 36 27 0 6 16 28 17 28 30 16 20 33 31 20 20 27 21 20 30 33 20 19 23 35 21 42 38 19 22 26 16 17 20 17 19 9 28 21 21 24 13 20 33 16 7 10 34 17 13 20 20 14 44 31 24 23 24 27 35 37 21 20 40 28 26 13 19 23 14 20 21 19 23 10 19 26 31 12 17 24 37 38 20 14 27 23 23 24 30 13 20 20 23 7 21 17 27 17 21 7 29 41 35 22 24 33 23 23 33 20 20 20 27 24 14 33 20 19 20 20 19 10 20 35 25 17 20 16 33 23 3 19 27 17 31 14 41 13 28 27 24 23 31 20 35 34 30 9 25 17 27 27 37 27 26 30 17 48 10 10 20 20 24 20 30 20 6 20 30 41 10 20 17 27 10 12 10 9 20 27 22 20 29 14 17 27 10 13 20 20 24 27 20 27 13 20 22 17 24 29 20 27 35 26 20 30 16 17 13 16 6 23 31 17 24 16 21 32 6 20 6 10 13 27 21 7 24 24 20 14 20 20 31 23 27 10 27 10 24 9 20 24 10 23 28 6 19 23 14 24 31 13 14 13 16 13 8 24 17 27 16 6 20 19 36 19 31 17 13 25 10 9 24 20 20 6 24 31 13 30 28 16 33 25 21 17 17 24 6 14 21 19 26 30 10 30 17 34 22 13 13 27 26 16 22 20 26 21 20 15 23 30 12 28 27 7 28 10 12 19 24 14 20 31 38 27 17 13 24 20 10 23 30 17 19 20 24 23 31 26 45 23 34 26 10 35 6 17 17 34 21 27 23 27 24 10 17 14 6 16 17 13 13 37 3 52 13 17 23 20 41 13 13 13 11 24 20 14 23 20 12 34 28 7 14 24 13 21 55 13 23 38 13 30 20 19 20 3 27 14 41 10 22 23 3 21 32 27 28 17 21 6 17 38 24 16 13 23 28 7 16 13 27 22 34 21 13 10 27 28 26 23 23 18 9 18 28 16 34 38 24 33 21 37 17 24 13 27 30 31 20 10 31 30 18 27 27 24 0 37 16 37 7 22 16 23 20 24 16 20 20 30 21 27 24 20 14 24 27 20 30 23 17 24 29 17 19 28 14 23 28 12 14 31 24 27 23 12 10 20 30 20 13 20 17 19 16 17 26 13 23 28 6 28 13 14 23 13 25 15 16 14 17 27 17 15 17 20 23 19 31 14 16 14 27 34 28 23 31 38 25 19 24 3 37 34 23 20 42 6 19 30 19 24 17 20 21 23 30 28 34 30 27 15 38 28 30 23 14 21 6 13 17 20 3 30 20 20 20 21 20 13 17 13 10 17 24 21 24 7 41 23 30 29 18 14 19 29 31 21 17 34 38 12 27 10 24 31 21 20 38 17 23 16 25 20 7 24 13 41 27 26 34 24 10 13 17 17 7 37 24 24 23 20 30 17 33 16 28 9 22 26 27 3 33 16 21 47 26 33 12 13 16 31 10 27 14 20 10 29 18 30 16 24 22 20 20 30 7 30 20 9 21 18 13 27 27 24 17 20 17 23 33 24 16 27 22 13 24 0 12 34 24 20 37 20 9 31 24 14 24 17 9 17 13 15 24 23 6 17 27 31 6 13 27 29 17 10 11 13 27 30 16 17 10 17 13 23 12 6 19 24 19 10 24 12 31 17 28 17 20 14 31 12 23 24 35 31 27 20 30 44 19 17 16 23 19 21 27 10 19 30 27 8 23 27 21 20 20 21 24 28 12 10 3 11 17 14 17 21 16 24 20 9 20 23 31 22 10 20 16 23 10 28 35 28 20 20 9 26 21 27 34 26 19 31 20 34 23 28 13 16 24 29 34 9 33 28 16 34 24 22 36 24 24 23 17 23 42 17 27 20 25 31 24 21 22 27 40 18 23 27 16 9 34 26 24 24 13 24 20 9 35 27 24 22 21 20 13 17 10 20 20 6 9 20 41 16 20 19 14 36 19 6 30 13 24 13 28 24 25 3 17 20 24 26 40 20 17 24 17 35 17 24 36 27 31 16 17 12 13 23 24 7 14 24 34 24 19 16 14 16 38 21 16 17 17 17 13 23 16 28 26 24 31 11 6 34 37 30 19 10 20 20 17 24 28 30 3 24 31 17 20 20 17 22 14 17 26 34 20 13 38 20 23 9 27 28 11 31 27 11 17 31 21 14 23 6 23 30 42 14 44 19 16 35 18 33 27 17 18 6 35 21 13 26 48 23 23 35 24 38 17 27 17 27 17 13 31 18 48 25 0 20 13 6 28 16 13 17 17 21 14 35 17 20 10 19 9 13 28 5 20 20 19 8 13 37 27 45 23 10 23 23 13 7 9 13 23 17 27 13 47 17 37 31 24 23 24 30 28 20 30 16 31 16 20 13 7 21 27 26 26 3 20 20 17 30 29 33 40 19 24 13 31 24 21 23 23 24 13 31 24 10 24 10 20 8 13 19 24 23 21 12 34 6 20 24 30 14 27 20 12 33 20 28 10 15 19 19 28 41 29 24 14 38 10 23 29 28 22 21 16 23 31 13 21 29 28 41 34 3 45 16 13 31 35 20 34 24 9 16 27 20 25 17 31 10 23 14 27 12 21 27 26 24 27 27 28 30 28 23 23 17 7 17 23 31 41 35 30 13 15 24 28 27 22 21 24 31 16 17 34 17 27 38 15 20 23 28 17 37 16 17 17 10 23 21 19 37 13 22 31 26 27 31 27 34 17 10 23 20 13 20 20 27 16 24 14 38 13 15 20 24 23 10 16 17 28 16 20 17 24 27 24 23 23 10 14 16 21 20 33 24 24 20 17 3 37 27 13 20 21 20 14 38 13 25 35 21 20 24 9 6 7 27 20 26 0 20 40 41 10 21 32 16 37 23 34 20 33 19 34 15 27 38 13 34 27 16 3 27 34 17 17 20 10 34 39 13 13 31 24 30 6 23 21 33 10 12 18 35 27 28 16 22 29 27 45 13 14 24 17 24 34 13 24 20 27 21 9 37 28 13 13 30 12 28 16 30 30 41 34 16 10 33 18 31 14 20 20 30 13 10 31 24 40 28 31 9 6 24 23 10 13 13 30 17 19 31 23 21 3 31 40 22 23 31 6 7 24 13 33 30 27 12 10 13 24 27 31 28 16 36 23 27 38 27 24 6 21 16 20 16 33 16 24 31 22 24 16 10 27 31 22 20 7 19 10 21 25 25 37 19 31 10 20 20 24 18 13 14 23 17 14 14 21 10 30 38 6 20 24 34 21 27 13 26 30 18 16 24 31 15 33 6 21 20 10 24 23 24 37 13 27 30 26 20 31 22 23 16 38 20 17 13 40 7 24 34 20 16 15 13 14 16 20 20 17 20 14 29 30 26 30 21 19 11 13 15 28 24 27 13 17 25 31 28 24 29 23 34 19 29 27 35 16 23 20 27 16 17 23 33 10 27 15 21 21 17 20 35 16 14 24 17 3 27 19 14 42 21 17 13 17 20 24 34 6 17 31 27 14 7 26 14 9 20 7 16 20 28 21 41 31 14 23 16 31 14 13 13 20 23 25 17 44 17 14 10 29 21 6 13 14 13 35 16 27 20 23 27 30 22 20 24 10 27 3 27 30 17 34 24 21 33 16 13 36 30 35 13 7 17 10 20 23 16 23 6 21 20 20 28 31 20 11 24 20 9 24 24 26 21 26 14 12 19 27 23 13 20 19 27 6 21 24 17 17 20 3 13 23 13 3 17 43 29 21 20 23 24 31 34 19 21 23 13 13 30 9 16 9 16 24 27 13 17 19 13 14 16 27 10 20 30 24 7 34 13 23 31 18 10 28 40 13 20 17 10 14 13 28 38 20 27 17 23 17 13 17 30 36 38 21 26 23 24 19 31 23 7 24 17 10 30 27 23 26 31 20 27 37 6 9 9 16 35 24 34 24 24 38 11 37 14 26 27 21 33 20 14 17 24 32 17 16 13 20 22 12 23 8 37 34 30 30 17 20 13 15 27 24 27 17 26 19 13 9 28 10 13 19 18 30 23 13 6 24 3 20 20 10 7 14 24 9 14 14 17 31 31 17 10 10 17 20 17 28 6 17 22 14 24 28 10 14 27 23 17 30 37 37 27 56 10 19 24 38 9 24 12 21 36 24 24 7 28 23 27 26 21 45 26 33 24 27 13 32 3 30 17 24 29 13 20 20 20 27 14 21 23 14 24 17 34 20 31 20 41 38 21 26 24 24 14 17 23 16 26 17 29 20 20 28 24 7 20 31 25 10 10 23 18 20 6 20 13 21 34 16 13 16 14 34 26 14 14 13 24 9 41 24 20 16 34 27 34 24 24 33 23 33 41 14 25 14 18 38 28 21 24 20 30 6 17 17 12 24 24 11 35 14 31 30 21 16 9 35 17 33 10 24 24 13 37 10 21 29 13 35 19 9 24 17 20 26 19 10 7 24 30 30 21 7 15 16 32 30 23 16 3 30 37 30 23 24 26 25 20 21 37 17 27 13 21 27 3 27 23 24 31 24 27 24 23 30 21 20 17 17 23 24 13 17 19 27 20 29 17 42 7 19 34 19 24 14 20 10 24 30 13 31 17 17 31 28 23 27 20 30 31 27 23 7 13 20 24 22 13 20 20 24 14 20 34 26 23 3 31 13 18 10 22 45 19 16 13 24 38 28 13 13 24 14 10 23 19 16 10 23 44 17 20 17 49 27 20 23 10 26 24 13 27 16 40 16 20 17 28 25 9 15 20 6 14 29 13 13 13 33 31 20 22 22 18 17 21 17 14 40 20 17 19 27 14 24 7 20 9 20 13 16 17 44 7 31 3 17 20 23 17 10 27 27 42 28 13 27 20 16 34 20 16 27 24 17 20 17 23 13 23 17 19 41 14 27 22 9 38 30 13 10 10 19 16 24 19 24 29 30 31 34 10 12 27 33 17 20 27 30 20 9 28 20 16 17 28 20 48 14 7 24 44 16 28 19 19 16 13 13 13 37 24 16 17 31 24 17 33 28 21 17 19 41 19 37 20 40 38 26 13 23 24 17 21 22 21 35 12 34 21 9 24 17 13 27 13 31 27 28 24 29 16 21 17 24 13 20 37 20 24 35 23 21 10 37 27 30 38 13 6 16 13 34 20 26 9 34 25 24 40 12 16 26 24 20 21 18 34 23 20 41 23 13 27 17 34 21 17 24 10 16 14 7 16 6 20 23 7 21 22 23 34 17 16 17 40 20 20 21 14 26 31 41 30 41 30 29 14 31 17 38 20 30 20 20 13 20 28 23 30 10 14 30 26 19 21 12 37 26 27 13 35 16 19 20 16 12 24 45 48 13 23 20 35 26 10 16 14 47 35 13 24 41 30 10 21 55 20 31 13 23 28 17 34 21 22 37 13 31 27 13 24 13 16 24 16 24 34 41 21 12 41 7 15 24 23 26 19 13 34 9 27 24 25 35 24 20 17 19 20 21 16 24 23 19 29 28 22 19 34 27 20 13 27 13 30 13 38 20 37 12 38 20 17 21 18 10 14 24 14 22 33 13 23 17 23 24 24 35 10 23 24 24 19 34 17 23 17 23 20 20 13 20 16 41 29 19 48 13 27 27 20 19 23 20 41 14 13 13 16 28 17 16 21 20 9 13 15 20 13 31 30 27 32 24 21 36 34 3 17 17 33 16 10 23 24 31 24 19 20 27 24 7 27 34 20 3 10 24 13 31 17 17 17 19 17 18 13 31 10 12 23 28 40 18 26 24 17 24 13 25 26 23 14 15 30 27 17 35 41 16 13 38 23 26 24 16 16 13 24 31 20 28 28 27 41 20 34 38 23 31 20 21 12 16 28 20 35 23 37 41 20 38 17 20 28 20 27 24 27 17 27 30 34 23 21 10 24 22 20 24 23 10 40 3 17 30 10 13 9 27 27 31 31 17 10 20 27 24 27 10 16 22 13 28 19 17 24 13 14 27 13 20 20 19 13 17 20 23 17 20 16 17 24 10 21 20 16 20 20 13 23 17 26 9 24 21 13 16 20 20 10 27 41 27 20 23 24 22 19 20 21 30 20 20 16 24 20 30 13 8 13 19 6 17 0 16 19 23 20 21 24 10 24 28 14 27 24 17 28 30 38 19 37 31 30 21 27 34 19 15 13 21 20 3 31 34 35 16 24 30 16 16 10 39 26 23 20 43 17 6 26 36 17 24 13 15 15 31 30 19 27 20 23 32 16 29 14 17 16 10 21 33 27 3 23 26 23 23 16 31 20 7 24 16 17 36 26 17 13 25 17 38 14 38 27 27 31 34 10 3 24 22 23 27 13 38 20 41 16 37 16 17 23 20 37 20 41 29 31 22 3 27 27 7 14 27 27 15 17 16 27 27 15 47 21 36 31 28 17 26 24 16 16 7 19 27 30 35 47 30 24 23 21 10 20 26 27 10 31 20 27 35 27 23 3 20 30 24 15 13 20 9 20 26 10 10 27 9 17 6 28 33 10 14 38 16 17 17 30 14 14 27 20 3 21 10 26 27 24 17 28 17 27 24 24 17 10 20 23 19 28 33 17 20 26 33 24 19 17 15 28 27 16 20 17 30 33 24 25 13 20 13 20 26 12 24 7 29 31 12 16 27 21 26 35 30 23 21 23 13 19 23 24 31 20 23 27 37 13 20 19 6 28 35 23 20 24 26 13 31 12 33 20 20 16 38 19 22 21 21 22 30 31 7 17 40 13 22 27 26 10 20 8 7 15 13 23 16 33 27 11 20 23 15 30 10 27 10 31 31 23 29 27 16 23 21 23 22 14 20 37 20 20 16 14 38 14 28 23 7 27 20 14 20 14 45 24 13 17 17 16 17 20 13 28 20 24 30 41 20 12 24 27 21 10 10 10 38 44 24 20 26 21 30 33 23 39 27 22 6 14 24 23 30 31 16 21 16 13 23 27 21 21 3 37 28 38 17 3 19 15 21 16 17 23 20 22 31 23 37 12 17 10 21 17 27 20 31 14 17 31 9 16 16 34 24 17 30 13 27 23 0 6 16 27 37 34 23 22 20 14 13 26 23 21 39 20 31 10 19 30 30 31 14 24 24 20 3 20 12 15 19 17 23 27 21 14 20 19 16 23 30 14 19 24 30 27 24 26 23 24 31 27 27 27 31 17 20 34 23 23 29 23 23 17 21 26 20 26 13 16 23 10 34 21 19 24 27 20 14 27 20 17 10 21 20 37 31 41 16 7 20 9 27 30 27 32 16 40 23 16 25 22 31 23 26 31 21 20 23 23 24 31 24 14 33 38 13 13 20 16 16 37 23 35 21 16 34 17 24 10 17 14 9 35 24 6 34 17 26 34 13 14 17 20 15 20 20 10 24 12 17 19 24 27 24 16 30 27 9 14 24 20 41 37 6 31 24 21 20 17 20 37 24 25 25 17 17 13 20 19 21 26 30 19 27 37 23 6 28 26 34 31 17 28 16 14 23 24 23 24 34 26 10 23 24 31 17 34 28 27 16 16 14 30 16 27 14 33 7 9 26 45 23 24 17 7 28 23 26 20 13 16 21 10 30 16 44 16 21 7 13 49 20 31 16 30 27 32 24 24 17 31 23 23 16 10 17 28 35 20 20 31 24 20 24 12 26 10 24 21 36 24 21 15 17 13 16 34 20 13 13 28 37 22 21 17 23 16 31 40 13 21 34 22 24 12 16 11 21 31 23 13 26 22 30 17 31 27 27 10 13 20 17 37 17 34 12 24 15 25 23 20 31 20 20 38 21 18 17 14 14 19 38 20 21 29 20 14 17 20 17 21 12 14 17 33 13 20 20 13 25 47 16 22 17 20 34 26 14 19 20 14 23 30 21 14 24 31 30 27 27 29 22 37 26 20 20 24 23 20 16 21 20 10 27 12 17 17 3 28 22 13 20 24 19 24 17 13 24 27 22 21 28 20 31 17 15 28 31 27 21 17 27 20 22 19 22 20 17 11 20 31 13 30 24 14 24 20 7 16 15 20 24 31 31 19 17 14 14 29 31 31 20 17 27 10 17 17 20 24 24 20 10 29 21 34 14 21 23 19 24 21 23 26 20 20 21 27 15 24 27 13 20 20 38 25 21 27 23 17 13 23 3 17 16 19 34 24 19 19 21 30 30 24 9 12 7 20 41 21 13 16 26 17 20 13 31 17 9 35 17 30 23 33 23 20 24 13 17 30 19 30 16 23 24 14 17 7 13 31 24 10 14 24 20 17 23 16 9 14 30 28 42 24 19 34 16 13 3 34 27 19 37 27 28 24 10 29 34 34 21 20 23 28 20 26 31 15 15 13 22 28 28 24 34 7 24 34 23 37 27 34 31 27 13 19 24 17 30 29 27 28 20 21 34 26 17 9 22 34 7 20 16 6 21 10 20 20 7 23 38 14 29 27 17 17 13 17 24 34 17 15 27 10 31 30 30 26 20 28 17 14 14 10 16 21 27 20 14 26 44 20 21 27 42 28 13 24 24 17 13 27 44 24 31 20 6 24 25 22 20 31 17 20 17 29 24 20 3 30 24 20 34 21 17 21 13 10 13 14 24 27 13 31 21 31 26 31 20 45 23 17 14 13 16 25 20 23 30 20 27 31 13 20 33 21 30 20 27 17 17 27 15 13 24 25 11 13 23 27 48 30 13 17 17 9 14 15 23 21 10 13 28 44 10 24 21 7 23 27 10 24 24 33 13 10 29 25 24 20 24 18 10 13 14 30 25 10 20 23 17 14 34 17 20 17 6 10 7 21 20 12 27 24 17 13 40 36 26 17 24 38 26 26 16 28 13 22 37 17 48 20 24 31 28 40 27 21 31 21 28 28 27 10 17 23 33 20 27 20 17 16 6 21 20 34 3 3 17 23 23 20 28 23 20 17 29 23 28 24 27 17 10 14 38 38 27 31 20 13 21 20 20 21 45 20 20 14 27 23 23 23 26 20 31 9 41 10 16 24 13 28 6 17 29 52 19 30 17 6 33 31 17 10 40 27 35 20 26 21 20 24 14 13 13 19 13 10 17 17 31 14 23 17 36 20 19 12 20 24 6 21 25 27 15 27 20 17 24 14 27 17 10 10 16 16 13 13 19 24 17 3 10 24 20 10 31 24 29 31 37 26 28 18 9 24 27 20 28 21 20 14 20 13 28 16 16 6 36 26 20 24 47 7 6 14 13 16 31 13 34 23 20 12 20 19 34 17 16 37 31 17 13 21 17 17 13 7 13 23 45 15 40 21 10 16 14 40 20 31 9 20 31 12 13 35 23 18 7 13 30 16 14 31 31 14 17 17 26 20 17 16 7 17 28 26 23 31 16 14 37 24 20 13 14 20 12 21 18 7 24 27 10 21 34 47 27 30 20 21 17 17 13 9 16 17 7 17 14 20 14 17 13 13 25 13 20 3 0 7 7 30 13 19 24 13 16 20 32 21 21 24 27 15 17 13 17 24 24 30 20 24 38 33 26 29 23 37 17 7 20 32 14 27 34 24 26 24 22 14 17 16 27 23 31 13 20 19 17 16 22 34 44 24 12 34 44 22 3 23 17 34 9 28 19 23 34 12 21 27 6 16 17 30 10 32 36 24 24 31 8 37 26 24 19 24 19 21 23 3 20 28 28 20 20 29 7 34 30 17 13 2 13 30 27 10 33 23 24 15 20 37 20 14 13 12 38 16 23 16 16 14 21 10 35 26 13 19 20 13 16 20 16 34 37 13 24 20 27 20 15 14 27 23 12 19 13 16 24 20 17 28 6 28 7 20 13 31 23 21 16 17 7 35 7 24 33 26 37 21 38 24 23 20 28 16 19 29 24 27 17 17 31 17 31 18 17 20 3 29 28 27 30 14 17 14 27 19 24 26 24 24 23 21 16 38 12 16 20 28 21 35 24 12 17 20 18 38 24 21 7 34 20 34 23 10 23 21 33 24 23 9 13 20 40 13 13 24 16 20 33 9 24 19 17 27 17 21 27 17 31 24 13 17 10 23 27 20 23 20 17 26 24 26 20 14 21 23 30 24 13 10 22 24 21 20 23 13 19 41 24 28 17 20 22 14 31 17 17 27 21 21 25 13 23 12 14 16 30 35 31 33 31 17 21 10 23 17 27 20 20 6 31 20 17 9 20 31 19 3 30 16 26 34 10 21 16 17 42 37 10 12 24 28 31 22 24 29 27 19 14 16 27 23 30 29 20 28 17 31 17 31 24 24 17 31 28 9 36 20 14 26 23 23 31 32 21 16 34 23 27 22 31 30 28 27 17 10 17 21 23 10 19 31 7 19 29 42 23 17 8 17 28 37 17 22 34 26 17 35 23 23 20 24 34 21 20 17 12 30 16 16 9 23 20 14 14 21 17 21 19 17 20 24 37 34 23 24 7 17 13 29 38 13 17 22 17 35 21 24 20 20 27 9 24 23 30 7 20 21 6 27 16 3 24 9 26 27 16 17 16 24 21 30 17 13 10 21 34 19 6 45 26 14 52 14 10 14 17 30 16 26 31 34 17 25 11 9 24 20 27 27 30 17 43 24 17 20 33 12 24 35 17 33 33 25 15 33 9 28 19 17 31 31 27 21 30 27 20 45 30 23 38 26 27 23 24 44 9 24 34 30 22 12 17 34 20 31 35 38 10 21 21 37 31 13 20 16 34 16 17 24 20 13 15 27 27 25 21 16 16 23 31 28 30 20 20 20 17 30 25 24 34 17 17 8 13 16 27 10 24 23 17 24 13 20 13 25 14 20 10 17 21 21 19 10 13 24 24 30 16 22 29 9 14 33 17 21 23 13 15 7 10 17 10 13 6 20 20 17 10 24 13 30 17 23 16 17 26 15 41 34 40 26 24 23 17 31 20 13 6 30 19 26 35 31 27 12 24 28 27 31 20 24 41 30 33 17 13 17 20 20 10 20 34 10 10 10 34 26 24 31 42 21 10 11 17 23 17 22 45 27 20 13 27 17 20 34 20 13 13 21 3 24 13 24 31 27 17 30 14 16 23 20 26 20 29 21 31 24 27 31 15 13 28 12 19 11 28 20 16 28 23 37 6 21 40 17 31 16 14 24 13 24 17 21 3 26 22 28 31 6 16 35 8 13 27 13 30 15 23 16 49 19 10 31 13 34 33 14 15 13 16 21 26 17 22 22 16 10 20 13 24 20 27 29 27 9 16 30 10 29 26 17 16 24 21 17 20 22 26 34 23 21 27 21 14 23 24 27 10 23 20 23 20 20 17 18 21 30 14 13 28 24 24 10 19 3 3 6 16 13 17 17 21 27 26 19 27 26 6 16 27 10 20 7 0 17 34 27 17 19 38 9 0 29 17 17 13 10 20 20 34 23 21 21 17 31 34 24 13 17 35 24 19 28 20 23 35 25 28 27 19 23 27 21 24 24 23 20 22 31 12 21 13 6 17 36 35 12 6 24 21 14 17 10 21 23 13 9 20 24 13 30 21 34 34 14 17 30 33 34 26 20 21 14 36 55 3 26 23 30 20 21 20 27 17 35 38 23 23 24 16 17 23 23 13 24 24 19 35 6 30 21 20 12 17 24 27 24 27 13 23 30 28 11 10 13 27 7 27 23 20 17 37 33 24 27 10 12 38 16 6 14 16 14 32 16 14 29 16 13 21 13 36 20 19 42 16 16 16 20 29 14 7 17 9 6 21 20 16 24 27 13 23 20 34 10 42 9 28 12 17 24 27 11 20 27 16 28 29 49 7 13 30 27 21 19 23 14 36 31 23 7 29 20 16 21 13 21 21 27 30 22 17 30 56 35 14 27 34 23 10 31 20 27 17 20 31 30 34 10 9 34 23 23 13 19 9 10 13 20 20 10 27 20 24 26 34 23 30 13 7 14 38 17 27 23 7 25 23 13 28 24 20 15 30 6 23 14 23 35 29 21 17 31 29 15 16 20 20 7 16 27 13 38 26 17 18 16 13 19 19 44 23 20 27 20 28 24 41 33 16 24 13 24 27 34 27 26 13 24 20 21 12 20 13 19 13 30 17 30 17 17 24 28 24 20 17 17 23 17 16 17 20 9 17 17 11 26 20 28 10 38 18 20 36 21 22 24 19 21 27 23 40 13 31 13 10 10 49 23 52 25 14 14 17 27 19 27 10 31 21 20 13 20 27 26 23 34 21 20 36 13 17 17 17 34 28 12 17 24 30 17 27 17 27 0 24 24 13 38 45 31 24 12 30 20 13 20 17 23 37 10 21 38 35 15 17 20 27 20 28 31 33 26 24 27 31 20 17 29 30 24 26 21 23 10 10 22 27 48 9 10 12 26 35 13 17 22 17 16 31 36 27 41 20 20 22 21 16 20 30 34 14 15 27 20 20 31 30 17 30 27 37 27 14 17 7 27 24 24 20 21 3 21 35 17 21 17 10 17 34 27 27 27 9 23 9 13 17 20 34 17 27 42 20 20 16 23 13 14 19 27 20 30 40 0 10 17 20 14 25 26 13 9 27 17 24 7 14 23 14 31 29 34 21 14 17 34 41 35 24 23 30 21 19 9 14 15 20 41 34 16 21 21 44 13 34 27 19 33 14 13 27 23 13 25 34 14 19 26 24 16 38 31 30 34 34 7 20 17 31 20 20 21 10 20 14 19 24 19 10 21 48 16 30 34 19 13 13 13 19 23 20 17 10 24 28 13 27 26 19 30 20 20 24 13 20 21 21 19 17 30 33 13 13 29 15 22 18 12 13 24 28 10 17 45</t>
+  </si>
+  <si>
+    <t>EXN(0.5551321459823944, 20.56349771047544, 3.7942537693885936)</t>
+  </si>
+  <si>
+    <t>20 20 22 20 29 30 22 28 23 19 23 24 16 28 18 16 21 23 24 20 20 33 24 22 23 25 29 31 30 30 20 25 24 20 25 30 26 24 33 28 20 24 21 17 25 22 15 19 21 18 25 29 22 23 25 27 25 31 24 26 28 19 18 21 22 23 13 18 31 21 35 19 32 20 22 24 35 21 25 25 20 25 14 26 19 27 19 24 20 17 22 22 27 19 14 26 20 26 15 24 23 17 32 30 23 17 14 22 30 12 32 22 22 18 21 26 24 24 21 21 17 16 15 22 22 21 19 25 24 27 27 27 25 13 21 15 19 20 23 21 22 20 23 23 29 26 21 18 19 20 21 23 22 19 23 20 26 21 17 22 24 22 20 34 22 16 17 26 26 25 22 27 27 21 19 20 25 22 34 20 24 30 19 15 16 21 26 18 18 24 24 23 17 26 26 25 27 16 24 20 17 23 18 29 23 17 16 21 20 28 21 27 23 25 21 26 25 20 22 21 28 26 26 21 17 20 14 19 25 25 24 25 28 26 19 24 24 21 17 21 13 21 18 19 24 17 33 22 21 26 22 28 26 23 25 21 12 14 23 26 27 21 18 17 20 22 18 18 29 25 20 22 22 25 27 29 20 16 31 26 26 24 19 22 23 19 22 38 31 19 19 22 18 18 21 23 22 22 26 23 22 22 22 14 24 24 10 24 19 19 23 14 26 14 24 28 23 20 23 19 26 17 27 23 22 23 24 20 21 24 22 24 22 21 20 17 14 18 20 30 20 19 26 25 20 31 22 20 18 20 18 22 20 21 21 23 18 23 21 25 26 30 26 17 22 18 24 20 33 19 22 20 20 23 24 25 19 25 22 23 21 14 24 23 25 20 21 23 24 22 15 25 27 27 25 21 21 28 27 24 21 25 29 15 15 22 22 33 23 26 18 27 39 31 23 18 27 18 26 24 27 19 23 17 31 28 15 29 24 18 20 26 27 21 24 23 20 28 25 21 15 24 22 24 25 27 25 15 29 24 27 23 24 24 14 20 25 28 25 24 22 26 18 25 24 21 26 28 21 26 24 27 24 19 25 22 33 23 30 18 17 29 15 24 25 24 27 27 20 13 27 20 23 22 21 22 23 27 34 23 21 20 32 21 18 23 19 19 20 24 21 24 20 21 18 23 28 25 30 25 21 27 18 22 13 27 21 24 25 20 14 20 21 36 26 29 20 21 23 20 21 23 20 23 25 26 21 16 13 19 19 29 21 22 24 20 23 23 28 22 17 24 24 20 25 29 23 18 18 21 25 23 24 16 16 16 27 22 24 26 23 24 20 17 12 24 26 20 18 24 23 25 18 19 24 23 27 27 18 22 25 20 25 29 23 22 21 21 19 19 17 26 29 18 39 20 21 26 20 22 31 22 18 25 29 28 22 27 24 15 20 27 26 20 27 20 26 20 14 15 24 17 27 24 20 25 23 17 21 28 28 21 26 16 27 21 30 26 23 23 28 16 22 19 24 13 18 27 18 17 21 26 26 16 23 18 22 21 20 29 21 28 22 25 25 28 26 23 19 14 25 18 21 25 18 19 22 24 19 26 23 18 16 19 22 20 20 25 23 23 20 24 26 19 24 27 21 23 16 21 25 18 25 25 22 21 22 27 19 25 25 20 22 22 28 14 25 20 20 20 21 32 18 17 14 30 16 19 23 23 20 23 20 32 27 30 17 31 26 23 29 21 23 25 21 22 23 19 27 26 39 24 25 28 22 21 25 25 22 23 18 22 28 24 23 17 21 33 22 12 21 19 18 23 18 21 28 23 27 31 19 33 19 17 15 27 26 26 19 16 27 22 22 21 28 16 25 19 24 18 22 26 26 20 26 21 28 20 14 23 22 22 26 22 28 20 24 29 31 21 22 31 23 21 30 15 21 29 14 23 24 23 15 18 19 20 22 20 21 23 20 24 25 29 26 23 18 25 22 23 24 30 31 24 25 23 20 25 26 19 22 21 29 21 19 20 21 40 21 19 22 23 26 14 28 37 21 28 26 19 26 23 23 30 24 26 20 21 27 21 25 28 20 18 22 21 23 20 41 23 23 24 19 19 22 16 19 20 22 32 20 29 24 25 26 26 21 24 21 18 20 22 19 23 22 24 27 25 24 16 27 20 21 31 17 15 29 24 24 32 26 20 21 27 25 19 24 26 19 28 24 19 23 20 19 15 22 24 18 18 19 34 34 21 24 25 28 23 25 31 21 17 21 24 19 20 20 19 20 19 20 24 24 10 14 19 27 21 22 20 18 26 19 21 24 23 18 19 30 33 23 23 25 22 33 18 25 26 22 21 20 18 23 21 30 20 23 20 16 16 19 25 27 28 21 19 18 13 16 24 25 19 22 20 18 20 24 25 19 21 18 20 25 25 26 32 27 25 18 23 22 25 20 18 24 21 15 23 20 26 20 23 28 20 24 23 26 15 25 22 33 23 17 21 24 20 19 24 25 27 25 21 33 20 30 32 23 22 23 25 26 20 18 18 26 22 23 21 24 20 40 21 16 18 23 23 21 22 21 16 29 28 18 26 26 16 21 18 23 19 18 23 14 26 20 26 22 28 29 22 25 19 15 21 22 26 22 18 25 17 22 25 24 19 17 23 15 27 23 16 25 23 19 21 31 21 17 20 16 26 27 29 17 28 29 20 20 23 20 21 34 22 16 25 27 23 32 25 30 27 30 17 27 20 20 23 20 27 25 25 29 26 23 18 16 25 28 28 21 16 18 18 27 18 25 18 28 26 24 29 25 21 24 21 28 24 24 21 31 25 25 32 29 21 23 30 21 27 25 20 21 29 20 23 18 27 24 19 23 19 22 18 19 19 19 25 22 19 23 21 23 28 19 21 20 23 24 23 23 20 17 21 20 21 23 30 21 18 16 24 25 20 24 17 26 21 27 16 21 28 20 19 26 31 19 19 22 22 33 27 27 26 25 25 22 27 18 26 22 14 26 19 17 12 27 29 21 30 25 17 21 19 28 26 21 18 28 25 24 23 19 27 17 18 19 25 23 27 18 24 26 21 24 16 16 27 24 16 27 31 24 19 29 25 18 20 25 18 22 21 31 15 26 32 25 20 20 23 22 26 20 19 31 20 22 18 22 20 20 25 20 22 20 18 27 20 21 31 25 31 26 19 19 20 21 21 20 28 24 20 16 29 17 24 21 19 18 23 22 19 29 21 22 16 30 35 22 27 21 23 22 20 21 32 21 16 22 25 14 24 21 18 22 27 23 24 20 27 18 28 26 20 14 23 21 26 23 18 17 28 20 19 18 20 25 22 18 23 33 21 28 20 23 19 22 25 21 27 31 19 17 25 24 29 15 27 22 18 23 26 21 18 16 29 24 23 25 23 25 28 20 26 21 22 30 24 16 16 16 24 27 22 28 16 21 18 23 28 20 28 27 26 31 24 14 24 23 22 15 22 24 21 14 16 31 13 19 25 25 24 19 26 24 29 25 20 22 28 20 19 19 25 29 25 20 21 26 22 16 21 24 21 23 26 19 21 21 25 30 24 21 20 24 25 18 25 29 19 18 19 21 22 24 29 24 27 23 34 26 28 18 27 20 23 25 27 15 20 20 26 30 25 23 23 28 23 26 19 17 23 29 20 18 15 20 18 14 23 23 25 24 22 21 27 21 17 26 29 16 27 26 28 18 31 19 30 24 22 25 20 26 27 29 27 34 24 30 22 24 20 26 23 30 17 24 25 23 25 21 20 33 24 28 13 26 22 20 28 24 19 18 22 26 17 26 21 21 25 18 22 22 26 17 21 25 22 21 24 25 23 21 26 21 18 26 27 18 17 16 23 26 23 29 21 12 21 20 27 18 28 24 23 23 27 24 29 20 23 25 15 20 17 26 17 25 23 21 19 20 24 19 15 18 14 24 23 23 28 24 20 23 20 20 24 24 26 38 29 19 24 14 22 27 31 20 27 21 17 23 22 22 16 26 29 19 29 24 33 24 21 29 22 22 20 17 16 15 15 27 17 28 18 23 24 24 22 23 21 27 27 21 22 20 27 34 25 22 19 25 21 20 19 20 24 25 20 21 25 19 23 17 27 29 25 23 13 22 29 20 18 14 26 21 19 24 29 29 25 28 21 21 24 28 28 17 22 25 24 26 25 24 29 18 20 20 17 28 32 29 20 19 20 29 20 21 21 18 27 26 27 33 24 20 21 20 20 21 22 26 22 28 34 33 20 26 26 19 20 22 25 21 21 21 22 25 23 29 16 23 21 19 29 27 26 30 23 24 22 27 25 26 22 20 21 20 21 29 27 27 18 29 24 24 21 19 22 21 20 19 28 26 20 22 18 28 19 22 21 24 29 25 25 24 25 20 25 25 27 18 21 33 31 23 29 23 35 22 18 18 24 28 17 22 30 22 19 19 25 27 28 18 22 21 21 26 27 19 23 18 20 19 33 20 33 16 20 17 20 23 20 23 23 26 23 22 32 26 25 23 21 14 21 22 23 25 26 33 34 21 26 20 23 17 23 22 22 18 25 15 19 18 22 28 14 20 22 28 26 24 20 34 19 30 22 25 16 27 23 17 25 19 18 24 22 14 31 19 26 26 27 14 21 23 20 20 22 25 30 21 18 19 28 24 27 22 29 19 18 19 28 19 25 19 23 22 15 25 16 26 23 27 23 25 25 23 19 30 26 23 19 20 24 27 26 21 22 24 22 25 20 24 23 19 27 29 31 26 21 18 23 23 25 30 25 23 21 20 24 24 16 28 26 19 27 33 21 22 19 14 19 31 29 23 30 26 22 24 23 16 22 13 20 29 22 29 20 23 23 23 20 23 26 31 28 20 20 27 23 22 29 32 17 17 20 24 32 16 24 21 23 21 22 19 20 22 16 19 31 20 23 17 25 26 17 25 24 28 24 20 19 19 25 21 23 15 22 29 26 30 14 23 24 23 26 23 28 21 22 15 29 21 14 26 25 21 29 17 28 23 26 19 22 21 28 18 26 26 26 24 21 29 21 19 18 21 19 22 21 21 19 21 18 21 26 27 18 29 16 22 24 23 14 16 34 24 23 28 20 29 20 14 27 30 20 21 19 24 34 30 20 24 23 19 20 28 20 20 23 20 29 28 26 11 28 30 23 25 32 27 26 20 31 27 26 20 16 20 22 23 21 24 19 28 21 16 23 18 22 34 25 24 16 25 18 21 25 15 16 24 19 24 21 28 16 24 31 22 22 22 25 24 29 21 29 19 23 21 25 28 20 18 21 20 24 16 25 21 29 21 20 20 17 18 24 16 17 17 25 29 32 28 25 20 20 16 20 18 20 21 20 13 16 23 22 24 13 23 25 27 17 24 21 28 25 21 25 25 28 23 23 15 34 13 22 25 21 18 22 23 25 24 16 29 20 18 26 20 16 28 17 24 24 31 23 24 16 22 18 22 31 25 15 22 16 20 24 20 18 25 28 25 29 27 31 23 21 22 26 27 26 18 24 21 20 16 22 19 11 26 11 25 24 21 32 25 20 22 23 22 24 20 23 18 18 26 18 21 25 14 23 24 20 22 18 21 18 19 22 20 27 21 23 16 18 19 22 27 28 22 23 21 25 17 20 25 22 26 26 16 29 25 19 31 27 17 24 22 20 26 21 21 27 20 20 25 27 24 25 22 16 27 19 26 18 12 26 22 19 18 27 19 26 30 25 27 24 28 21 26 31 21 15 26 27 26 26 20 24 19 18 20 18 27 29 11 22 29 27 21 24 31 26 20 26 17 23 22 23 17 18 26 23 27 17 19 20 23 18 16 22 19 30 28 22 23 23 12 21 24 22 15 20 15 25 22 26 24 32 23 21 18 16 26 22 22 23 19 17 25 25 17 24 18 18 22 18 24 26 23 26 28 29 24 25 16 22 25 24 27 18 31 26 14 23 19 21 21 27 24 20 29 22 19 24 23 26 22 22 18 27 25 24 14 20 24 23 22 21 12 26 20 26 13 20 29 21 24 23 19 18 20 16 30 39 23 17 24 18 29 22 23 19 17 30 26 28 22 19 29 21 19 13 20 22 23 23 27 26 31 26 29 24 26 24 20 14 21 18 23 18 28 22 22 16 25 28 29 20 29 27 21 24 23 22 21 26 23 24 20 22 20 24 14 25 16 20 23 23 19 18 14 22 28 18 19 27 17 17 25 19 27 20 22 25 26 28 28 24 17 25 25 21 29 20 29 25 20 27 21 24 21 18 21 24 19 26 23 27 26 19 19 21 18 30 22 21 25 32 22 19 28 18 16 29 25 23 19 21 22 22 24 33 16 29 19 31 21 28 20 24 24 18 26 21 23 21 30 19 18 22 31 25 23 24 26 28 18 25 27 20 31 25 25 24 30 25 22 22 18 25 25 25 23 27 22 22 17 17 17 16 23 33 27 27 24 26 24 21 24 19 15 22 23 23 23 20 21 17 22 28 28 22 23 20 20 27 22 21 16 17 24 29 20 23 26 29 24 20 18 18 16 26 15 21 24 24 25 29 22 22 22 18 21 22 15 24 31 19 16 24 26 20 25 18 20 27 23 20 22 24 23 22 18 20 28 33 22 17 21 14 20 32 18 17 23 31 31 28 22 25 23 18 23 23 27 30 17 17 26 25 31 27 35 15 24 17 21 23 31 19 16 23 20 22 23 29 21 30 29 27 20 20 22 19 26 26 25 25 22 23 17 17 24 26 20 18 24 24 17 30 30 22 22 31 23 15 19 22 15 18 20 25 22 31 21 22 26 21 29 20 17 21 18 20 15 24 24 27 16 22 21 27 18 20 37 21 28 19 24 19 23 21 22 14 27 26 21 13 21 22 16 21 18 27 22 19 27 15 28 23 23 33 16 27 24 24 22 21 20 23 18 22 21 14 18 17 17 19 26 28 27 20 18 23 29 29 16 21 20 14 26 29 27 22 21 21 29 21 22 23 35 19 24 32 19 23 21 24 18 20 22 24 22 14 21 23 24 26 25 17 24 26 23 23 28 28 21 27 23 20 21 26 29 20 24 20 25 26 20 30 24 26 24 27 20 29 18 20 20 23 23 25 22 24 20 21 23 18 17 22 19 18 24 23 14 24 22 23 21 21 20 20 18 28 21 19 19 30 17 15 16 15 24 22 19 17 23 23 22 30 19 24 22 20 21 20 16 26 25 21 19 28 24 25 15 27 23 20 20 28 24 22 25 21 23 27 16 20 19 28 19 24 25 26 29 20 31 23 16 31 19 15 27 21 20 17 22 23 21 21 19 23 21 26 23 23 19 23 28 18 22 30 25 25 26 24 25 24 21 28 17 14 18 25 18 22 27 11 24 15 25 28 22 21 19 24 22 21 28 26 16 22 26 26 29 20 31 26 21 25 25 28 27 20 20 21 19 23 24 22 25 22 23 24 19 15 28 17 24 26 28 22 21 23 28 27 21 25 21 19 26 26 24 20 22 19 19 28 21 22 26 32 25 10 21 24 27 21 27 22 23 23 23 21 29 24 19 27 26 25 22 13 25 20 21 16 20 16 23 18 16 17 21 28 31 17 19 29 16 26 19 19 22 20 18 19 23 21 19 31 22 27 17 26 24 25 23 27 25 28 19 24 19 19 23 19 23 29 24 30 31 21 30 25 24 23 23 26 31 17 26 28 20 27 21 30 22 29 22 29 25 21 28 23 20 27 23 19 20 21 23 21 26 23 16 27 19 17 24 19 23 22 27 18 21 26 22 26 24 24 19 31 20 29 24 25 18 26 22 25 14 27 20 31 20 22 26 24 21 23 24 22 21 21 26 20 29 17 18 29 20 21 19 27 22 24 23 21 25 16 21 23 27 20 23 22 22 17 19 26 32 24 24 20 21 16 18 24 30 20 20 19 27 21 27 21 28 26 24 27 35 22 15 20 19 26 20 19 19 21 18 18 24 18 27 25 19 25 22 27 22 20 19 23 33 23 19 33 23 28 15 18 17 15 22 22 23 25 20 25 21 22 18 28 18 19 19 25 23 29 25 29 35 24 20 20 25 31 22 21 21 29 29 22 21 29 25 24 28 20 19 23 21 23 15 24 22 17 22 16 24 21 22 18 15 27 21 18 29 29 23 36 31 25 29 28 23 22 29 18 22 26 21 21 22 18 22 22 21 27 23 16 25 22 27 23 30 19 25 22 16 23 18 21 19 28 28 23 30 21 30 30 22 30 23 23 18 21 23 25 27 15 19 20 23 25 20 22 20 22 27 13 22 15 23 24 18 20 31 18 31 18 27 25 19 25 22 19 22 31 22 31 33 16 19 17 27 16 28 31 30 25 26 23 22 27 27 20 19 25 16 18 25 23 25 15 18 23 25 25 21 32 19 22 22 27 23 14 24 22 15 22 24 26 31 23 25 23 25 26 28 25 25 23 22 23 22 24 25 22 19 17 26 26 28 17 29 27 21 25 21 23 22 22 17 18 17 20 20 22 20 25 29 29 33 22 16 19 21 25 24 19 22 28 27 22 26 24 29 23 23 15 24 31 25 19 18 16 23 32 18 23 24 27 22 19 24 13 20 20 23 25 25 15 26 27 22 16 27 20 24 29 33 22 22 16 21 26 21 25 20 15 24 21 14 21 33 13 28 29 19 14 33 20 24 20 24 23 22 24 19 27 25 25 19 26 27 30 29 20 25 20 23 21 18 18 20 26 23 23 24 18 23 16 20 24 25 22 18 21 25 22 18 21 18 18 32 27 19 24 31 24 21 21 20 21 17 19 13 20 20 21 22 19 22 22 17 19 22 25 21 19 24 20 17 18 25 17 27 24 15 21 25 25 13 26 24 22 34 20 21 19 23 21 23 23 22 27 31 16 19 23 25 19 28 19 15 24 20 18 27 20 25 22 27 23 30 22 26 18 22 27 24 24 21 24 11 18 26 20 25 18 24 20 25 17 22 26 20 31 16 17 24 27 29 27 12 18 22 25 28 25 34 33 23 17 20 33 22 19 20 24 24 22 26 16 15 21 22 20 15 21 27 27 26 28 21 34 24 19 21 22 21 26 27 28 21 18 20 19 14 17 20 13 24 21 21 20 17 25 20 21 19 24 35 27 27 21 23 20 22 19 21 16 19 30 35 20 23 27 24 28 15 24 16 17 23 22 21 26 27 27 23 23 19 20 25 19 24 25 24 21 24 24 25 14 30 23 29 21 24 19 28 18 22 17 22 28 29 18 18 22 17 15 20 18 24 22 21 22 17 15 27 18 19 16 19 21 25 18 24 23 35 19 17 22 22 25 23 18 21 27 28 25 19 16 27 29 30 17 23 23 19 17 19 24 30 18 28 28 18 17 15 18 20 28 34 16 16 17 22 28 20 25 17 23 15 23 16 21 23 23 21 22 22 21 25 28 19 31 21 22 25 31 20 17 19 24 24 24 23 19 18 26 25 27 21 22 32 19 22 22 26 24 19 21 20 26 26 23 18 25 25 29 20 19 22 20 21 21 31 33 20 25 25 29 19 26 20 21 24 27 18 24 19 28 15 17 21 23 24 31 16 23 24 26 31 24 30 22 13 18 20 31 20 31 24 25 27 28 18 28 20 23 27 19 22 25 17 20 26 27 24 17 19 29 27 25 19 17 20 25 24 22 20 20 25 20 19 18 26 36 14 18 23 24 25 20 20 30 19 24 23 31 20 27 21 33 27 25 19 15 24 17 23 23 23 33 16 20 19 23 22 26 33 28 24 21 25 16 32 24 23 20 34 20 24 25 20 26 23 20 22 27 22 25 31 18 17 14 24 14 20 22 21 21 19 25 19 23 25 21 22 20 18 20 20 20 17 24 31 23 21 16 25 28 20 30 27 17 22 15 27 17 14 24 20 22 23 22 24 20 29 20 20 27 27 28 26 22 20 22 27 27 25 23 18 17 29 24 25 18 22 16 29 20 25 18 14 24 25 14 20 23 26 18 26 26 27 22 28 30 21 26 23 15 23 22 26 26 33 22 29 20 20 30 19 24 25 20 23 19 22 21 22 17 22 22 23 29 21 21 23 21 33 25 24 19 21 18 27 22 17 26 22 24 24 21 25 35 27 21 25 23 22 20 33 18 30 23 22 26 21 25 30 25 23 22 23 26 21 19 24 24 20 16 29 24 24 23 21 23 32 20 26 19 21 16 27 21 27 21 20 29 23 17 20 26 24 23 25 18 21 32 23 24 25 26 23 17 22 21 20 17 26 22 22 19 20 19 30 21 20 21 22 16 21 16 19 25 21 17 16 24 18 22 26 26 30 23 13 21 22 24 21 30 25 27 23 20 32 26 19 23 28 17 20 21 29 19 29 29 22 18 24 25 17 19 27 17 15 30 27 16 21 24 22 16 19 31 23 18 21 26 22 13 17 20 30 25 21 24 27 19 22 20 25 24 25 17 19 15 26 20 22 22 25 22 21 16 18 18 32 26 28 21 26 23 26 23 27 30 21 18 28 23 27 24 23 18 25 22 26 23 24 26 19 21 26 17 28 24 19 24 18 32 25 17 23 22 18 22 27 26 18 24 20 20 18 18 17 26 25 20 23 15 21 22 26 25 22 24 31 22 18 23 24 20 22 21 25 22 25 18 24 23 23 25 33 21 31 22 21 31 20 20 22 25 19 26 20 21 21 23 20 24 17 27 25 20 18 31 20 24 18 24 29 21 22 20 22 27 20 17 21 26 23 22 21 30 29 22 20 18 21 19 24 20 26 23 16 28 29 19 17 19 24 23 35 19 25 29 15 29 30 23 20 29 18 18 19 23 25 30 21 21 31 22 22 19 26 23 33 20 23 20 22 24 21 26 24 19 19 22 28 16 21 22 27 21 28 35 21 33 17 23 24 21 26 16 27 18 23 22 24 29 12 28 20 30 24 21 21 26 21 27 20 19 27 24 25 18 24 25 14 29 29 23 25 18 19 18 25 17 22 25 15 23 24 24 23 31 28 27 30 21 21 28 25 15 18 21 18 21 18 16 21 15 23 25 24 28 22 27 18 13 23 18 25 23 13 25 21 26 25 18 26 18 27 21 22 20 19 30 26 24 24 22 20 20 26 21 26 27 18 18 23 24 19 17 22 23 23 18 15 26 20 22 22 26 18 22 25 15 20 22 21 22 17 20 24 26 14 27 24 22 20 24 17 20 25 23 24 20 23 26 22 17 32 23 20 22 17 18 21 28 23 21 22 27 24 19 19 12 21 18 18 22 25 27 21 20 23 19 16 24 15 31 22 29 26 25 19 28 20 18 21 29 20 20 18 21 27 32 18 24 22 13 19 27 29 19 30 22 28 27 26 28 22 22 26 26 24 20 22 19 25 24 23 32 25 28 21 23 17 24 17 25 25 18 19 19 19 21 23 24 18 24 21 23 30 25 16 23 27 17 23 18 22 29 19 21 31 16 19 24 17 21 27 18 14 22 29 24 19 24 23 16 20 26 25 23 25 25 15 23 13 21 28 26 22 13 29 21 22 21 20 18 23 25 23 17 19 19 28 18 31 21 25 22 28 17 18 22 24 28 25 19 22 29 22 18 23 19 23 26 22 21 22 21 29 19 22 22 25 27 20 31 25 26 21 29 25 22 25 22 22 18 23 24 35 24 23 27 23 23 21 21 26 29 23 23 31 25 25 18 29 22 25 27 17 29 28 28 17 21 21 24 24 13 20 22 26 22 29 26 18 26 24 25 31 20 25 22 19 26 25 16 27 26 28 31 23 29 22 17 24 22 29 27 21 23 25 23 26 23 23 21 25 22 27 22 21 27 17 24 19 16 26 28 16 20 18 22 34 20 24 26 20 27 15 24 26 17 16 21 25 21 14 23 20 21 24 27 26 13 20 26 19 24 21 19 20 18 29 22 16 21 16 19 21 24 24 22 33 22 22 21 24 22 27 16 21 28 20 16 20 23 21 22 24 26 22 23 23 18 32 22 28 20 18 24 16 20 23 24 14 21 20 21 23 21 25 21 15 21 22 30 15 27 26 25 27 16 23 23 21 24 20 17 20 23 19 20 27 24 19 32 31 24 24 22 17 23 24 28 24 17 33 18 29 28 22 21 35 24 18 27 22 26 20 27 23 23 15 23 25 18 30 21 21 19 18 17 33 23 20 21 17 19 23 25 23 23 24 29 16 21 18 16 18 17 24 15 22 27 28 23 27 26 25 21 24 23 23 25 29 25 23 19 23 27 27 22 18 19 15 20 22 22 27 21 26 23 23 25 14 24 23 27 23 13 21 23 21 33 22 21 24 19 16 21 24 22 23 21 24 24 22 26 17 25 23 21 19 19 22 27 16 20 24 15 23 15 25 23 27 12 21 26 17 23 20 27 30 19 15 16 23 30 28 25 26 30 15 23 19 26 24 22 18 24 27 14 23 15 24 31 30 15 27 23 25 25 26 17 20 28 21 18 30 21 29 27 35 21 18 20 25 23 23 19 20 26 28 21 22 30 20 29 19 26 19 28 21 27 29 23 29 26 33 24 17 26 12 20 25 24 20 16 28 34 26 23 24 23 24 27 22 24 19 21 20 20 22 24 17 29 25 20 24 21 20 21 22 27 19 17 29 26 23 23 24 29 23 21 27 26 23 24 23 23 18 15 19 15 26 25 23 17 24 25 25 25 23 20 21 24 24 20 28 22 25 21 28 22 26 15 21 20 23 17 20 26 18 25 19 31 21 24 21 21 27 28 21 26 16 23 24 26 15 15 28 21 27 21 25 19 31 24 32 20 21 27 19 23 26 27 23 28 30 26 24 22 20 29 29 27 21 21 24 24 19 16 25 24 23 13 20 35 23 30 18 25 32 22 26 22 20 22 17 23 23 27 21 28 28 28 17 22 22 21 19 20 19 25 27 24 25 30 30 27 14 21 24 26 19 27 22 24 23 15 19 30 20 24 28 22 25 27 25 21 17 26 30 23 21 24 15 21 19 23 30 31 26 20 22 16 22 15 25 25 25 23 20 21 20 21 23 19 28 25 24 19 26 21 23 21 24 12 26 25 33 19 30 19 23 23 20 23 24 25 20 20 22 23 23 28 26 19 28 21 25 16 20 27 24 16 18 13 24 30 26 24 26 13 23 28 28 23 25 24 20 28 17 29 21 22 22 25 24 22 20 22 23 18 20 25 15 23 23 20 22 21 27 20 27 23 18 19 29 18 23 24 24 21 19 21 19 23 17 18 20 26 18 15 22 23 15 19 22 27 20 20 19 25 24 21 23 21 22 18 27 20 23 22 31 31 19 27 21 20 19 33 18 22 17 25 20 17 24 21 20 22 22 14 17 26 26 26 30 12 18 22 19 29 23 26 32 19 28 18 28 21 23 24 17 26 32 21 20 23 21 25 18 22 18 23 19 29 24 36 28 29 25 18 25 19 20 15 23 21 19 17 29 20 20 19 30 20 15 17 20 20 23 20 24 22 25 20 27 24 22 25 20 19 19 24 28 20 19 26 21 26 23 26 24 25 22 25 28 25 20 28 26 18 29 15 14 21 33 21 25 20 21 23 21 25 26 19 21 21 27 18 12 18 27 12 19 20 16 16 21 26 25 26 23 24 16 20 29 22 15 21 27 31 22 23 25 23 23 32 23 18 22 18 19 23 22 20 24 22 24 27 22 19 18 21 19 16 23 27 25 29 23 18 29 19 21 17 26 18 28 38 20 23 27 14 23 18 26 23 24 17 20 17 25 14 21 24 25 24 24 27 18 18 25 35 20 25 22 25 16 33 30 29 26 26 26 23 25 18 26 18 25 29 16 23 22 22 30 19 23 24 24 25 23 17 26 21 18 22 25 21 18 31 18 25 21 26 19 21 25 29 23 16 22 13 22 21 28 17 24 23 23 23 18 23 21 23 24 27 24 17 22 22 22 21 20 23 24 24 22 24 22 22 21 23 27 24 25 18 21 20 27 23 22 20 22 21 21 25 27 18 25 22 23 16 27 31 30 19 28 23 24 21 24 17 25 19 18 31 23 21 22 28 20 25 14 30 29 20 22 25 22 22 29 18 18 21 27 26 20 22 22 24 23 21 20 21 22 21 10 27 22 23 19 29 23 23 29 21 20 19 17 20 18 26 18 35 13 22 28 24 11 20 25 27 21 20 24 21 21 27 20 24 19 27 20 22 24 15 28 14 24 19 17 20 17 24 27 23 18 25 25 31 26 26 25 26 29 22 18 19 26 25 19 25 17 25 14 19 17 24 25 22 25 23 21 24 24 22 21 19 16 19 22 19 28 21 27 21 20 26 22 22 28 25 28 33 20 29 14 19 26 19 26 21 22 29 32 17 28 25 16 22 22 21 22 19 23 23 27 16 28 30 24 22 17 23 23 20 21 24 21 14 29 25 18 21 17 25 16 24 30 23 27 20 25 22 22 25 20 20 22 23 22 21 20 23 16 26 27 26 23 17 17 22 18 22 21 14 15 29 28 29 18 23 25 26 25 23 18 27 18 25 29 19 22 18 23 18 23 22 21 22 19 35 21 24 19 30 25 29 20 17 18 26 24 21 23 21 22 19 17 26 21 28 24 29 20 22 19 30 25 18 26 22 19 17 22 26 27 28 27 27 24 23 24 20 29 16 18 20 19 18 23 18 32 27 28 25 20 23 21 27 23 26 26 26 22 24 24 22 21 17 22 21 18 15 21 23 24 23 23 21 20 18 28 17 29 24 27 28 24 20 29 28 19 26 19 23 38 23 19 18 22 24 26 20 21 26 28 32 25 25 19 30 23 19 25 16 16 24 32 19 20 26 18 24 25 17 22 24 31 20 29 23 26 19 24 23 24 19 21 26 24 31 18 20 19 24 20 22 24 25 21 18 22 20 27 24 18 25 27 15 26 23 16 21 12 24 27 25 27 25 28 30 26 21 22 28 23 19 19 23 34 19 26 19 24 26 24 30 17 24 23 27 31 25 23 15 24 24 20 24 16 24 23 21 33 22 21 27 24 20 22 24 24 20 14 20 24 19 34 19 24 14 24 27 16 20 17 20 20 20 21 21 21 31 26 22 18 22 16 18 24 14 22 21 18 18 16 16 25 22 22 16 20 24 25 26 22 25 23 25 19 25 16 27 28 27 26 22 27 21 24 17 26 23 29 20 29 14 20 24 20 23 19 26 25 20 31 24 23 24 25 26 17 20 23 27 27 27 20 23 22 25 32 28 19 14 23 20 14 31 17 21 26 26 24 20 26 25 20 23 30 22 31 18 22 17 25 21 23 25 21 18 22 25 22 29 20 27 27 16 21 22 27 24 23 33 22 30 27 18 28 21 16 33 23 25 17 23 22 20 16 14 23 21 22 20 26 24 24 21 23 23 24 29 16 24 28 23 21 16 24 20 17 23 17 26 19 23 24 19 18 19 17 24 16 21 21 27 17 20 24 22 25 26 22 29 23 26 21 17 26 22 14 26 25 20 24 19 32 24 17 34 13 25 25 26 22 29 18 24 14 26 22 20 22 23 24 19 30 14 19 20 18 18 18 25 23 25 26 21 23 21 22 25 20 24 26 21 24 27 17 25 21 24 20 19 21 15 27 22 20 21 29 22 21 21 18 24 25 20 28 21 25 25 18 25 21 27 23 27 19 21 19 20 23 18 21 24 21 20 19 17 30 31 25 16 35 24 22 24 24 19 20 19 28 23 24 23 26 27 27 27 29 19 27 27 24 22 28 21 27 28 24 22 23 23 24 21 22 32 28 28 23 27 26 23 25 24 22 18 19 24 18 31 20 25 28 35 23 24 28 22 17 16 23 24 30 28 16 16 23 20 17 22 24 18 23 25 25 22 22 23 19 18 28 31 16 20 18 22 23 22 26 25 23 28 26 22 26 15 17 22 25 25 20 20 25 30 15 20 23 14 24 23 17 21 31 23 25 30 26 25 30 17 17 25 22 24 16 20 25 16 20 17 31 17 20 17 29 16 20 21 16 17 22 22 28 24 21 21 23 18 26 24 27 31 22 24 23 24 21 20 27 23 22 32 21 22 19 23 18 23 18 20 22 38 18 16 23 24 19 20 22 19 19 28 23 23 22 24 30 20 21 23 21 19 23 23 21 19 27 21 19 21 15 20 29 19 18 21 23 24 21 22 23 22 24 23 19 22 26 26 23 20 23 18 30 19 32 30 25 24 20 25 18 30 20 30 23 13 26 11 30 21 29 27 22 27 30 30 18 31 27 25 20 17 21 16 20 24 19 23 24 18 24 24 24 25 25 32 27 30 24 20 24 15 19 16 11 26 22 30 30 31 28 24 24 22 21 20 24 25 19 25 25 31 27 24 22 19 18 32 24 24 20 20 21 18 16 18 22 22 20 23 20 21 29 19 15 25 21 26 20 21 15 19 21 21 20 27 15 29 26 22 26 24 21 28 25 25 16 25 23 22 25 26 32 16 19 15 23 25 22 24 21 20 20 24 22 18 20 25 20 23 19 25 20 19 25 15 22 22 22 24 22 21 25 17 21 25 28 26 20 30 15 19 21 28 26 18 23 29 29 25 26 18 16 28 27 23 20 18 30 18 17 17 30 21 25 23 26 17 28 15 23 25 21 22 16 22 28 26 21 18 21 13 22 30 21 17 15 21 24 36 24 18 16 17 28 24 19 24 24 27 22 18 22 23 20 25 14 23 22 18 21 34 31 25 21 16 25 22 22 17 15 20 14 32 21 19 28 31 18 19 23 22 20 25 22 20 24 30 24 32 25 23 24 24 21 15 17 23 21 28 29 19 26 22 19 26 32 33 25 25 19 18 21 25 28 27 25 25 22 17 20 20 22 18 28 27 21 23 26 18 23 30 22 27 25 26 24 26 24 25 25 20 22 19 20 18 21 23 22 26 22 20 22 17 18 27 20 21 29 24 26 27 25 22 27 24 24 33 23 27 20 17 19 29 20 22 27 27 26 23 18 27 22 19 21 26 18 22 21 23 26 23 20 21 20 27 27 15 23 17 25 20 24 28 21 21 26 23 31 23 21 23 34 29 23 23 23 21 21 24 25 16 28 21 28 22 18 21 25 25 19 15 32 18 38 20 21 21 29 20 14 28 18 21 15 26 25 24 28 30 23 20 22 24 25 32 22 28 14 31 28 27 21 24 24 24 20 22 26 34 21 16 26 20 26 25 30 21 22 23 21 23 25 18 19 32 25 19 26 16 27 21 12 23 14 28 24 16 31 20 29 27 22 18 22 20 26 12 29 20 22 18 24 25 25 31 27 28 20 19 19 22 21 22 27 27 18 27 26 21 19 18 20 23 23 31 29 19 23 32 21 19 22 17 26 24 25 25 22 21 19 18 19 29 27 27 21 21 29 25 22 25 22 20 18 12 23 23 17 24 25 24 19 27 24 24 17 29 19 20 20 23 27 26 23 24 26 21 18 22 33 29 22 21 18 19 14 21 35 24 23 19 25 31 21 21 18 16 23 20 27 21 21 23 25 21 28 18 20 22 28 23 16 19 19 19 20 22 22 29 27 33 23 28 25 13 20 17 23 25 22 22 18 24 27 20 21 15 23 16 28 33 27 17 23 22 27 22 27 25 24 21 26 20 18 22 29 20 18 18 19 16 17 25 23 30 24 28 26 20 18 19 25 22 29 22 16 23 25 21 24 21 26 23 28 24 28 21 27 17 21 29 20 18 26 26 21 28 26 27 25 25 21 27 17 22 19 22 28 27 23 22 30 22 22 23 22 16 24 26 19 21 25 24 18 25 26 19 25 29 25 20 18 20 20 18 24 20 20 28 27 25 25 21 19 26 21 23 9 21 21 21 27 24 19 19 21 17 24 26 19 20 23 18 30 26 24 20 22 21 18 28 22 28 21 22 24 20 27 28 22 26 13 25 21 26 25 20 22 19 17 12 21 17 28 19 26 21 22 23 10 16 30 22 21 25 29 28 22 23 19 20 18 25 24 20 20 24 26 19 17 16 26 17 14 24 33 21 25 20 23 20 23 22 21 22 11 19 24 16 22 31 21 32 31 28 20 19 30 18 27 22 16 13 24 25 25 21 30 19 19 23 18 24 21 18 24 31 23 22 22 24 29 26 26 26 26 20 27 18 21 20 24 22 22 20 30 21 26 19 14 30 23 23 27 26 24 25 22 21 16 38 18 24 29 21 24 20 20 30 30 34 23 21 18 15 19 25 21 21 21 25 16 26 18 24 25 15 26 23 18 27 23 28 20 22 25 25 28 22 25 28 34 20 25 22 28 27 22 16 23 26 24 24 29 20 19 18 24 22 19 24 23 15 21 24 22 27 17 22 19 30 26 20 24 21 29 26 24 29 23 22 26 20 20 15 25 25 19 23 20 25 20 20 18 21 25 27 23 23 26 18 22 28 32 30 25 21 14 25 21 20 19 17 20 20 29 24 22 15 21 21 30 26 26 15 16 21 20 19 19 16 19 21 24 19 18 28 22 24 24 24 28 17 19 24 16 21 23 26 19 21 20 27 17 22 26 30 24 22 27 26 23 23 18 27 25 27 17 19 23 24 27 32 26 18 19 25 25 9 22 23 19 19 15 22 18 23 26 21 19 18 18 22 32 25 21 15 26 26 25 23 27 20 18 26 20 23 27 24 23 27 17 20 21 24 20 23 13 20 26 29 22 18 23 24 23 19 24 28 28 16 27 25 28 14 31 22 26 18 26 21 27 16 21 25 23 33 23 25 24 22 20 28 25 23 22 30 25 20 31 18 19 24 21 25 23 26 23 20 29 22 27 27 21 28 22 25 21 23 24 19 20 18 16 16 24 29 22 22 25 22 23 18 24 29 22 19 16 22 31 23 23 26 27 20 26 22 31 21 28 22 14 20 20 21 27 37 16 26 15 14 19 28 19 19 26 18 22 25 26 22 26 20 28 16 19 23 23 26 21 24 22 24 27 20 22 25 22 21 23 17 17 19 18 28 24 27 23 20 24 24 20 25 19 14 27 19 24 19 26 23 14 13 19 27 15 18 20 27 21 21 29 24 25 18 20 15 31 26 17 24 25 18 31 25 20 19 22 25 29 28 24 21 28 8 17 23 22 19 26 17 24 22 17 25 23 25 23 20 16 30 21 14 32 24 21 21 15 17 21 21 26 18 26 14 22 21 12 20 21 28 21 27 14 31 23 30 26 20 14 19 29 22 16 24 24 20 18 22 27 24 19 22 19 20 21 22 28 24 21 15 27 30 22 23 24 23 23 23 19 19 26 18 18 25 28 23 21 25 20 24 18 22 20 17 23 17 23 18 20 19 14 26 18 18 21 16 17 11 17 20 19 23 24 24 16 18 20 20 28 16 18 27 26 17 18 28 25 21 20 29 23 20 29 17 26 25 18 20 24 17 25 18 19 25 24 19 25 27 23 19 15 14 30 25 33 16 20 28 17 22 19 31 29 24 21 21 27 29 21 20 23 26 24 30 26 17 25 16 19 21 19 25 14 26 17 32 22 24 24 24 24 26 27 16 18 27 34 25 18 23 25 24 27 22 19 29 13 25 25 23 20 25 15 26 30 27 28 34 29 16 27 26 23 20 18 15 30 21 26 20 19 17 20 19 33 27 19 24 19 20 15 23 21 35 21 22 18 20 25 20 20 28 31 25 19 18 18 25 23 25 26 24 25 29 25 20 18 19 22 26 25 21 19 27 17 24 26 27 26 25 30 25 19 19 22 17 19 19 25 20 27 23 29 24 29 28 27 17 13 26 30 20 28 25 23 22 28 18 25 19 19 21 19 23 19 26 22 22 30 25 25 26 25 22 19 21 23 22 27 17 20 22 17 22 26 16 28 17 24 31 24 18 25 18 25 19 24 18 20 15 29 14 22 26 27 21 26 22 23 26 28 21 21 28 20 21 23 18 20 24 14 26 22 24 27 19 23 21 26 21 19 24 26 30 23 18 17 22 23 22 27 21 20 22 21 24 27 18 31 20 20 27 26 26 28 21 24 15 35 26 27 28 29 28 18 23 24 29 31 29 18 19 20 17 21 24 25 25 18 24 15 26 28 22 16 23 21 28 26 30 24 21 21 22 26 31 22 16 19 25 18 22 28 24 33 23 22 32 23 16 20 29 19 24 17 22 28 20 20 22 23 22 19 21 30 21 24 18 18 22 25 24 29 22 22 28 24 20 14 14 25 22 24 25 22 23 20 26 26 26 28 21 20 25 27 28 29 25 23 26 20 29 33 29 30 24 18 20 25 21 19 24 21 26 27 19 16 18 25 16 27 16 23 24 25 28 21 32 20 21 26 30 28 14 22 24 16 25 24 30 26 18 21 15 19 21 26 17 20 21 17 25 16 22 26 22 28 26 24 21 28 23 19 28 15 27 20 23 25 18 12 24 26 22 30 12 19 20 19 21 15 22 23 23 20 22 29 24 25 21 26 23 21 31 29 22 19 22 30 20 18 21 21 34 26 22 21 34 19 16 22 21 23 33 21 25 22 24 14 26 22 22 27 33 20 21 23 30 25 22 22 25 19 20 22 31 21 32 25 29 23 24 18 22 28 21 26 24 17 22 23 29 22 19 19 33 30 24 21 28 19 21 23 28 27 17 29 22 22 28 13 19 28 18 20 20 19 18 23 19 27 21 17 23 21 19 25 29 25 17 15 27 21 25 19 24 15 23 20 23 19 26 26 16 18 30 16 30 20 17 22 23 15 19 23 18 21 28 25 19 16 22 23 30 22 20 18 26 23 19 23 34 29 25 25 25 23 26 22 25 13 25 25 24 30 20 22 18 22 19 18 24 18 19 35 28 43 31 16 20 27 20 24 19 31 21 27 24 20 27 18 20 34 19 21 22 19 23 33 23 31 26 26 22 27 25 25 25 25 22 22 26 21 20 18 25 25 23 21 24 22 16 27 20 25 25 30 22 24 22 22 26 29 25 19 21 24 21 26 30 25 24 33 26 16 21 24 20 22 22 18 22 17 24 21 22 18 22 20 26 20 17 17 23 21 14 24 16 24 23 27 27 31 17 21 18 20 22 22 18 18 25 27 21 27 22 18 26 26 18 22 21 21 12 17 22 20 21 19 21 17 23 29 19 18 19 19 16 19 22 26 23 31 19 23 29 22 20 22 28 27 30 16 18 21 20 23 21 19 29 16 24 22 24 24 17 24 22 15 21 22 14 21 24 23 23 21 25 23 20 17 18 24 17 17 18 21 27 27 23 17 23 28 19 18 21 29 20 20 23 26 20 29 25 25 25 25 22 27 26 25 28 24 21 20 23 22 25 30 22 25 27 16 25 28 29 18 27 25 21 30 24 18 23 14 20 20 29 26 24 17 22 21 28 16 22 18 28 22 19 23 16 15 22 23 21 28 20 24 23 23 22 35 19 19 20 19 39 15 31 24 27 24 20 32 26 13 22 27 19 27 16 16 12 34 22 21 26 24 23 32 18 18 23 18 17 21 22 25 30 27 24 27 24 24 29 21 22 26 12 19 20 26 23 21 24 20 25 15 18 29 20 15 21 28 23 32 13 26 18 22 24 32 28 26 22 23 29 26 22 20 18 13 16 25 19 26 15 18 26 19 20 31 16 24 22 24 16 30 15 24 24 22 27 26 15 22 22 31 27 18 30 16 21 20 18 25 28 18 23 27 29 23 17 27 24 15 23 16 26 22 21 28 24 24 24 39 31 22 19 26 27 19 22 17 22 21 18 27 24 23 23 17 31 16 27 14 21 16 24 15 22 22 26 24 26 30 19 28 19 26 23 17 17 30 30 20 29 23 22 22 24 22 21 21 21 26 21 21 11 24 21 30 23 21 27 21 22 20 22 22 22 28 22 16 20 14 22 24 14 23 16 24 30 27 25 25 24 21 23 28 32 18 22 19 21 21 27 14 21 20 25 20 25 10 22 23 19 24 19 30 32 24 24 16 21 27 21 19 20 21 19 23 26 21 20 18 26 24 24 23 25 20 25 23 16 26 25 18 22 17 29 18 23 29 27 27 26 22 15 25 27 29 32 19 15 23 21 22 24 26 17 24 22 18 21 27 23 24 24 17 17 30 24 25 24 14 28 18 23 13 27 22 31 22 17 24 22 22 23 20 23 23 23 33 34 29 25 22 23 21 26 26 17 25 26 13 22 25 19 25 18 25 20 28 17 27 26 25 22 25 20 28 17 29 25 24 26 25 21 32 34 22 18 22 18 23 13 32 20 29 18 17 29 24 22 22 21 26 20 19 28 26 26 18 23 24 17 22 16 23 19 27 26 26 22 16 23 20 25 20 24 25 25 26 29 24 19 21 22 17 19 30 22 24 21 24 30 22 27 30 18 24 24 28 20 28 20 20 19 23 18 27 28 20 27 33 19 20 26 18 21 25 19 19 27 22 25 19 19 24 29 17 17 26 23 19 18 15 24 24 28 27 19 27 25 32 23 15 17 20 26 27 23 18 23 25 20 29 25 16 30 21 25 18 29 18 20 25 27 20 25 18 21 22 32 22 23 29 20 23 31 29 22 23 23 16 20 23 23 23 13 18 20 24 23 21 21 25 15 19 15 26 21 28 21 23 21 22 13 24 21 23 22 23 26 27 20 17 17 21 20 15 20 26 21 28 24 20 24 21 17 23 23 27 16 21 23</t>
+  </si>
+  <si>
+    <t>GAM(105.59150265326562, -22.865719065675485, 0.5352743023705004)</t>
+  </si>
+  <si>
+    <t>32 39 31 30 43 41 34 44 35 31 38 36 24 33 31 24 26 34 31 33 23 48 38 32 28 38 34 46 40 40 29 31 34 24 39 35 36 33 42 38 31 30 35 32 38 35 25 27 33 33 36 38 33 35 33 39 42 39 34 38 33 32 28 35 33 37 28 29 42 31 45 30 37 38 28 30 44 33 34 34 32 32 26 33 35 40 22 31 32 25 35 37 43 31 27 41 32 33 27 37 32 31 41 44 37 30 25 36 38 20 44 30 35 26 30 44 31 33 26 31 27 26 24 32 32 29 29 35 38 36 39 33 34 24 32 21 34 28 34 38 39 28 32 34 44 42 28 25 30 23 31 38 38 28 38 27 44 32 26 31 30 35 30 47 39 28 30 34 35 38 32 39 33 30 26 33 33 33 50 31 29 43 27 31 25 29 33 27 31 30 37 34 23 38 43 38 37 24 29 33 30 34 24 41 30 27 34 37 37 36 34 37 31 35 32 40 38 38 31 29 36 30 37 32 29 32 25 33 39 36 34 42 39 35 33 43 34 31 27 35 24 27 28 29 39 31 45 26 33 34 31 38 40 36 32 28 27 28 38 35 38 35 36 26 41 36 30 27 43 41 36 27 29 39 37 34 29 37 46 35 35 37 31 29 35 26 36 46 42 36 33 31 34 33 27 34 27 36 36 40 28 33 36 24 33 40 18 36 32 28 28 27 37 29 40 43 36 24 35 33 39 30 42 33 35 33 31 26 30 40 29 38 35 35 30 23 25 31 28 46 29 35 39 35 26 49 33 27 28 25 25 43 30 33 29 34 31 32 35 32 37 48 36 26 33 34 35 28 42 33 34 32 30 35 37 37 31 37 34 29 35 20 33 30 39 27 29 30 29 36 26 34 41 36 34 32 31 34 37 38 25 40 47 36 35 38 31 42 42 36 39 38 44 41 34 36 37 27 36 30 37 31 37 26 38 38 27 44 37 27 35 36 31 37 31 36 27 34 35 31 24 36 29 27 40 44 43 26 38 36 38 33 36 40 26 29 36 36 37 38 35 41 26 32 35 29 37 39 36 35 34 41 43 28 38 32 41 31 44 27 31 42 28 30 33 32 38 36 26 24 39 32 33 33 28 33 28 38 47 36 33 28 54 32 30 30 37 29 32 33 34 36 27 31 27 34 41 40 42 35 32 35 29 34 24 42 34 37 36 29 26 25 28 46 41 44 27 32 28 37 34 41 29 35 39 35 42 28 23 31 27 42 34 30 37 32 33 30 33 31 22 30 32 35 34 43 31 30 28 28 32 36 40 30 28 28 42 35 39 41 33 41 26 24 27 41 36 33 28 40 33 38 27 23 30 39 40 43 28 32 47 36 43 37 30 30 31 29 29 27 44 42 42 37 59 34 28 44 38 30 42 32 27 33 38 35 32 36 30 28 31 35 30 27 38 28 39 38 26 25 33 26 38 35 29 31 32 40 28 42 43 32 40 31 40 30 37 37 33 34 43 27 33 24 37 26 31 42 36 34 35 36 39 30 37 37 34 30 35 47 28 33 27 39 37 42 37 38 30 23 31 32 34 33 29 34 26 41 29 38 34 25 23 27 33 29 33 39 33 33 33 34 35 26 36 33 28 34 30 30 41 31 36 32 40 28 29 37 32 28 35 29 29 32 37 30 29 28 27 31 31 46 29 24 25 38 27 25 41 33 33 33 38 47 43 45 31 44 36 33 34 39 32 31 26 35 33 31 36 40 57 32 35 39 37 29 35 43 38 33 30 33 35 31 35 29 30 40 32 26 36 31 28 35 28 34 42 31 37 38 31 47 32 31 24 41 35 40 28 24 38 39 33 25 41 25 40 30 32 31 31 31 34 27 32 38 41 30 25 33 31 26 36 30 41 24 34 41 39 32 38 41 29 34 39 28 27 38 25 32 34 36 30 34 27 31 34 29 34 42 32 39 39 42 38 36 35 33 42 30 33 37 37 32 37 38 37 34 35 30 35 30 41 36 26 34 34 60 33 29 32 33 34 19 36 47 32 36 34 27 35 39 37 37 37 39 33 30 35 31 34 37 30 26 33 36 31 36 53 36 31 42 25 26 32 28 30 33 30 47 31 41 39 35 37 38 28 44 35 37 33 28 29 31 34 35 35 38 39 29 37 26 33 42 25 27 40 42 41 40 37 27 36 36 39 29 32 44 33 41 37 32 31 28 35 26 31 41 27 29 29 46 43 30 47 38 39 36 32 35 31 30 36 32 27 28 32 32 33 34 40 27 35 26 26 28 37 29 32 33 31 38 31 35 29 34 26 28 38 41 32 38 38 39 37 33 35 35 37 31 28 26 30 37 40 33 29 27 27 24 28 36 37 34 32 30 30 20 24 34 38 30 30 35 24 35 33 42 24 31 23 35 35 35 37 46 36 32 32 30 30 35 29 32 34 28 31 32 30 41 27 30 42 37 33 34 33 26 34 34 43 34 27 31 32 32 25 34 38 35 36 28 44 33 39 42 33 33 43 37 37 30 30 26 41 37 33 28 41 34 56 30 25 30 35 30 31 31 27 29 36 42 22 36 36 28 25 31 36 33 32 30 23 37 27 31 31 36 43 31 34 29 22 31 32 40 28 31 37 26 42 37 37 29 31 29 23 38 29 29 34 32 26 33 43 32 30 32 21 33 34 39 33 34 38 31 34 32 35 25 40 40 24 33 39 32 37 33 42 33 47 27 42 28 26 31 27 43 34 34 37 33 32 29 22 37 38 42 31 30 28 37 41 27 36 29 39 43 39 38 37 33 32 29 42 35 33 27 42 35 35 42 38 28 31 43 29 47 36 33 36 38 27 36 24 44 31 29 33 33 34 34 37 25 33 33 33 26 30 29 32 44 29 29 25 36 37 36 35 28 33 32 30 33 36 40 31 31 28 32 32 32 35 25 34 31 36 28 31 32 27 28 36 40 29 35 35 36 43 40 38 37 34 37 35 34 26 37 31 26 33 31 26 32 37 44 30 37 35 32 32 24 37 40 29 29 42 34 29 40 28 35 25 28 35 40 42 35 30 32 38 29 42 28 23 39 36 33 33 41 36 27 40 38 25 31 34 30 33 33 43 33 33 43 38 32 27 30 30 33 33 29 42 30 34 31 37 33 37 38 32 31 26 32 37 30 29 40 41 43 38 27 35 26 36 38 27 30 38 39 26 39 23 32 34 35 31 30 31 34 40 32 30 25 41 45 36 34 28 34 36 27 28 43 31 29 37 32 23 32 37 32 31 34 29 39 36 40 30 42 39 30 18 36 33 37 29 26 30 37 27 34 31 27 37 28 34 33 42 31 34 30 29 24 31 34 30 38 44 29 28 34 41 39 28 38 27 31 42 40 33 33 31 40 35 38 33 38 33 40 31 32 39 37 41 36 25 29 26 34 45 36 36 26 37 28 37 40 35 39 33 37 43 29 27 35 35 34 24 32 31 32 20 29 40 24 27 35 32 35 29 36 38 37 31 27 41 33 33 29 29 36 38 40 28 35 34 36 30 36 39 37 35 39 32 29 32 37 40 36 32 33 38 39 29 36 46 33 35 25 41 35 37 40 31 37 34 50 42 44 30 36 24 30 33 38 30 28 26 39 34 35 32 38 38 36 39 30 24 37 36 36 30 33 28 26 21 36 38 32 35 42 29 43 33 33 35 35 32 36 38 34 29 42 35 38 41 32 38 28 40 37 38 35 47 41 38 31 33 25 34 36 42 25 36 36 32 33 40 32 43 35 40 22 40 32 27 38 37 32 30 39 49 30 38 29 31 34 32 33 31 35 24 30 36 32 37 34 36 41 31 40 40 26 35 43 29 30 28 38 33 33 47 39 27 36 26 40 25 37 29 35 34 39 29 36 29 30 42 22 31 27 39 25 35 37 31 30 30 36 26 32 30 25 35 36 31 42 40 32 37 32 21 36 27 36 51 40 29 31 25 40 36 44 33 37 33 30 37 33 32 31 36 45 27 39 37 44 38 37 41 36 28 33 31 22 29 21 33 29 34 31 37 32 36 35 28 34 41 37 31 29 25 39 42 39 29 27 34 28 31 34 30 35 43 28 25 31 29 31 30 38 39 35 31 24 34 46 35 29 26 40 34 34 36 39 41 34 33 30 30 31 34 43 29 35 37 36 35 37 33 38 25 32 30 28 42 51 41 33 28 33 38 29 26 36 32 37 36 38 41 31 31 36 36 37 31 36 36 26 39 43 42 28 39 37 24 32 29 37 27 34 30 33 38 30 39 30 31 33 26 39 37 40 39 27 31 27 39 31 30 32 30 34 33 33 43 36 40 28 39 28 37 30 28 32 33 29 30 36 42 26 31 29 40 31 38 39 32 44 32 32 40 34 28 35 37 41 30 36 41 42 33 42 37 47 36 26 28 38 37 29 36 39 33 22 32 38 35 45 33 35 32 40 33 44 29 34 27 33 33 41 31 42 24 32 26 32 34 28 32 31 32 38 37 40 36 38 36 35 27 32 31 33 32 40 41 38 32 38 29 27 29 37 37 35 30 32 22 28 25 32 37 24 33 30 38 40 37 29 40 30 39 32 41 25 40 33 28 36 29 27 39 40 20 42 26 36 33 38 27 26 35 32 29 28 36 45 27 29 38 39 39 39 31 37 31 35 26 37 28 38 29 31 34 26 36 26 44 33 37 37 38 40 37 31 38 31 33 29 33 34 41 33 28 33 37 31 35 31 32 34 28 42 41 44 31 31 29 32 36 34 46 35 32 30 33 42 30 31 41 39 32 36 49 34 33 26 22 33 44 39 31 39 38 35 30 30 30 31 29 28 45 33 37 28 40 39 33 31 33 32 37 35 32 33 33 34 34 40 40 31 31 32 33 40 27 40 28 39 29 27 35 32 37 26 28 43 30 32 24 37 41 30 36 32 37 29 32 29 24 32 37 34 27 30 43 33 44 27 33 38 34 35 35 40 28 38 26 33 40 27 33 30 27 38 33 34 37 38 29 27 28 38 32 44 37 34 37 30 35 30 30 27 27 30 31 35 28 32 38 29 36 43 43 33 38 28 35 37 34 22 31 46 35 31 40 31 40 34 28 35 40 28 28 33 38 44 39 31 34 32 37 29 40 27 31 33 29 42 43 41 19 45 39 36 38 42 37 39 29 36 36 37 30 29 37 31 35 31 36 26 40 31 26 31 28 30 43 35 32 23 38 21 31 41 25 30 40 26 28 35 41 29 35 40 31 31 32 35 30 36 36 37 29 32 35 31 38 31 31 35 27 30 21 38 33 42 29 34 34 28 30 36 25 34 28 32 34 37 49 35 27 30 22 31 36 26 31 36 26 35 31 28 33 24 35 38 32 25 33 32 41 35 34 37 37 42 27 32 30 46 24 34 34 28 30 36 37 32 37 24 39 35 30 32 28 29 40 35 34 26 50 31 36 27 33 26 34 38 33 24 36 25 28 38 29 28 33 56 38 36 43 39 40 34 35 44 38 36 25 34 34 30 30 33 29 26 38 26 41 31 34 46 34 25 31 34 34 32 35 30 28 28 39 28 30 36 29 40 35 32 43 28 32 27 26 30 30 36 34 35 30 28 28 32 37 39 34 40 25 34 22 28 30 39 38 41 33 48 39 27 46 37 22 41 35 27 36 37 35 41 33 33 36 44 32 39 32 28 39 31 36 32 22 33 34 35 23 38 31 36 39 34 35 33 43 28 36 43 31 31 39 40 36 32 39 30 27 26 33 32 35 41 23 31 46 35 28 34 44 33 35 41 40 33 35 36 30 34 34 38 39 28 30 30 34 28 28 30 29 47 39 34 38 38 17 28 32 32 23 31 25 39 36 39 32 40 33 34 27 22 32 29 30 34 32 28 32 37 27 35 28 31 44 29 35 31 39 36 43 44 35 33 31 40 36 36 38 26 42 33 30 36 33 31 37 35 32 34 36 34 28 40 30 39 38 33 31 38 32 35 25 28 33 34 32 32 21 42 30 31 19 33 38 27 34 32 34 30 32 18 43 48 27 30 35 28 38 39 34 31 34 44 32 39 30 29 36 32 28 18 33 35 37 34 46 45 43 41 36 35 37 34 25 28 34 27 35 37 37 30 33 31 41 38 38 32 37 37 35 36 39 34 31 43 35 34 32 36 23 39 22 33 28 32 35 32 29 25 28 38 41 23 29 38 34 29 36 34 36 49 36 34 33 35 48 44 28 32 39 32 40 35 43 41 32 42 30 34 27 31 38 29 31 38 32 38 31 34 35 26 25 42 35 27 34 47 40 32 41 24 27 37 40 35 31 34 34 31 32 44 27 44 28 38 33 40 29 38 31 28 36 36 37 35 50 31 29 28 39 38 29 31 36 37 31 33 40 28 39 34 37 36 37 36 32 33 28 29 38 43 40 38 35 34 24 26 24 27 35 44 34 34 43 34 35 35 38 33 21 29 37 36 35 32 30 30 38 40 37 40 43 33 31 37 26 36 36 29 37 46 32 29 41 39 38 29 33 31 22 36 23 34 40 35 34 40 28 33 30 24 34 32 28 36 38 38 27 33 34 27 51 35 24 38 36 28 34 43 35 31 33 37 37 46 35 31 34 21 31 40 30 33 31 35 42 40 39 34 35 23 39 37 38 38 25 28 34 43 42 43 44 20 35 29 36 32 42 29 26 33 34 38 33 35 36 39 37 39 31 29 36 25 38 42 34 38 40 33 30 27 34 35 28 25 39 32 32 43 42 35 33 42 33 22 27 35 21 29 29 41 34 34 32 38 39 28 40 29 23 29 27 35 26 34 36 34 30 31 29 40 28 28 50 37 39 26 37 25 37 31 28 22 40 38 28 25 31 37 29 30 28 45 33 31 36 26 34 31 41 41 28 37 36 32 34 25 33 36 26 30 38 23 31 25 30 32 30 40 45 25 27 37 38 42 22 32 27 19 33 38 39 27 31 34 37 36 31 33 44 34 32 45 39 33 34 32 26 37 37 30 30 22 40 36 44 38 36 24 30 36 34 30 39 43 37 46 31 28 33 38 41 30 39 25 39 39 32 43 38 38 33 38 28 38 25 29 32 34 34 36 34 31 37 36 32 33 30 28 27 30 32 37 24 35 31 34 25 29 27 29 32 39 30 37 31 45 31 27 24 26 33 34 37 29 31 39 34 39 24 30 32 35 30 33 23 40 32 28 27 45 35 38 26 37 39 28 31 34 34 33 35 27 32 31 29 25 30 39 29 30 48 38 38 33 42 32 30 37 33 22 34 29 31 28 29 37 28 26 34 32 32 38 33 27 26 35 41 24 31 43 37 34 33 31 39 33 31 37 28 25 28 34 24 35 32 21 35 22 44 45 36 34 30 32 35 35 38 35 26 36 34 39 34 29 39 35 26 33 43 42 40 31 32 32 34 34 32 37 36 37 36 31 30 21 34 34 36 38 41 28 30 37 37 41 34 33 34 30 38 41 34 32 36 27 26 35 33 38 32 51 37 30 32 35 35 30 42 37 29 34 39 37 37 37 30 42 43 36 30 22 39 29 31 28 25 27 30 29 27 28 32 37 46 27 25 38 25 33 30 22 33 27 30 32 31 34 27 44 31 37 24 38 38 30 34 31 34 38 30 36 31 29 37 27 30 37 31 39 45 31 37 34 39 34 40 32 48 28 38 36 36 36 32 37 30 40 29 36 31 33 41 31 31 33 36 29 35 31 43 42 42 32 23 41 27 29 34 28 37 29 34 30 28 34 36 35 32 38 32 50 34 41 36 34 30 34 33 34 23 35 29 47 27 31 35 35 30 38 33 31 30 39 34 30 44 23 29 41 29 31 28 37 31 36 34 34 45 29 34 32 39 29 38 34 32 21 31 37 40 29 38 30 34 29 25 41 33 33 33 28 45 37 33 31 36 36 38 37 56 37 29 33 31 34 37 30 26 36 35 22 38 27 36 36 29 41 24 34 29 30 33 41 43 38 38 40 39 40 28 28 31 29 34 31 35 38 28 30 23 34 30 47 26 26 32 33 34 44 35 39 47 34 32 31 36 38 34 31 37 38 42 33 32 42 41 38 34 34 32 27 33 31 31 32 30 29 26 22 42 30 40 26 30 41 36 39 41 39 40 50 44 38 40 42 33 31 37 32 30 38 40 38 32 27 38 33 32 39 36 23 39 30 40 32 43 24 34 35 28 37 30 43 30 37 39 35 41 25 42 40 42 39 30 36 30 34 32 38 37 27 42 37 33 40 31 34 29 30 42 24 34 29 34 33 29 32 48 27 39 26 36 38 29 35 31 22 25 41 35 40 40 24 35 25 35 20 43 40 33 34 46 34 33 37 40 31 28 32 28 26 42 36 39 24 33 30 35 39 29 43 29 34 31 34 27 29 36 31 26 40 33 39 43 31 40 36 34 44 40 36 38 34 29 27 39 35 32 29 30 30 32 35 37 26 38 38 34 36 29 37 30 27 27 29 34 33 26 27 29 30 32 36 49 29 25 37 27 35 36 30 38 45 39 29 31 31 39 35 34 22 32 42 38 25 35 30 30 43 35 35 31 37 26 32 41 24 33 28 30 36 33 26 39 32 34 27 40 30 36 35 52 34 40 28 37 36 41 36 36 29 35 31 19 39 44 23 39 36 31 29 45 32 35 31 35 34 34 34 29 33 35 40 33 43 46 39 39 28 43 32 33 29 24 33 34 36 35 32 35 26 34 23 35 41 33 33 30 37 38 37 29 30 33 28 43 34 24 40 47 30 37 34 28 34 35 28 26 29 31 32 34 29 29 27 30 25 34 35 27 29 35 30 36 29 39 23 39 38 34 37 44 40 21 35 37 35 45 31 31 29 45 38 29 32 34 37 47 30 27 36 39 37 41 34 25 37 31 30 37 30 40 36 40 35 45 34 37 26 30 38 34 39 33 35 21 24 34 33 32 30 37 29 30 27 30 38 31 39 31 33 32 33 42 35 21 25 30 37 41 35 43 48 33 27 25 44 42 30 35 36 31 36 36 24 27 25 33 29 28 29 33 38 31 43 29 47 40 33 30 29 36 34 33 36 33 25 28 36 21 32 32 22 37 28 34 28 28 35 34 41 26 42 50 33 40 29 33 30 32 38 36 21 30 37 45 33 35 37 35 38 24 30 21 31 37 35 35 33 35 39 28 35 25 29 38 25 43 31 31 28 37 36 33 25 47 34 35 34 33 29 40 34 34 36 35 32 45 28 28 34 25 19 28 35 32 37 31 34 26 29 37 24 23 26 35 35 38 36 33 29 48 29 24 35 34 37 32 27 31 37 40 38 25 28 38 49 39 31 26 32 29 26 26 31 45 28 42 38 30 28 24 29 32 32 47 28 34 28 29 40 27 39 39 33 28 37 31 35 36 30 27 34 32 36 36 38 32 49 30 31 41 36 30 27 33 42 41 41 30 30 27 41 36 42 29 27 44 44 29 30 37 40 28 35 30 35 39 35 34 37 38 47 32 31 36 26 32 29 38 45 29 36 40 40 34 33 34 34 38 38 26 32 29 42 32 34 38 35 32 45 30 30 36 42 51 35 42 37 22 28 30 45 30 41 38 36 36 31 27 38 29 30 41 28 33 33 28 27 38 43 37 31 26 39 42 30 29 33 28 34 36 44 37 27 33 32 33 26 41 44 27 31 32 40 36 28 31 42 26 34 28 44 34 37 29 43 37 32 27 22 30 25 31 38 32 41 32 33 42 35 35 42 52 40 31 34 33 27 45 33 34 31 46 30 35 32 33 47 35 27 32 33 29 41 46 31 27 23 36 21 34 34 32 35 38 39 30 27 33 30 30 38 33 26 31 32 30 31 44 31 34 32 39 38 29 38 36 23 34 28 34 23 28 36 26 42 36 33 31 27 38 25 27 32 36 41 44 36 34 31 39 38 36 35 23 29 42 37 38 33 32 40 41 25 31 25 22 31 34 32 36 34 37 31 41 42 36 29 37 41 28 34 34 27 34 32 34 34 42 33 40 32 35 39 38 38 33 26 34 29 32 33 32 32 31 30 33 38 36 35 35 31 45 40 39 31 36 29 39 38 28 40 29 35 37 38 37 49 37 34 35 35 32 36 41 31 42 32 32 36 36 38 44 38 37 32 35 40 29 26 38 38 28 23 45 37 42 37 31 38 40 33 36 29 36 32 39 33 36 35 27 37 31 36 35 38 41 30 36 26 27 39 33 36 35 44 34 25 33 38 32 31 45 33 33 24 33 31 39 30 30 29 33 26 35 23 36 35 34 27 26 36 29 35 34 34 40 33 22 30 34 30 29 42 35 35 33 26 45 37 24 35 39 27 25 37 44 28 33 46 28 27 35 36 26 33 42 30 20 39 38 27 31 30 36 33 28 45 31 35 32 42 32 25 28 35 41 39 39 39 34 29 36 30 35 33 37 26 26 26 42 37 34 31 38 31 35 27 31 24 40 39 35 30 39 34 40 37 40 44 35 33 34 35 45 33 28 30 34 33 36 33 35 41 31 33 33 29 38 33 30 35 27 44 33 28 34 31 29 36 45 40 28 34 30 35 27 26 28 34 38 31 34 31 35 31 39 41 34 35 33 30 33 35 33 30 31 30 40 30 38 24 35 38 29 31 40 34 39 34 26 39 35 33 29 33 24 38 27 29 32 41 32 35 30 36 41 26 30 40 34 31 25 34 43 31 32 29 32 34 25 25 32 36 36 28 32 47 40 34 30 27 39 28 30 33 34 38 30 38 43 30 29 33 36 31 45 29 33 41 31 37 43 32 24 41 30 26 32 28 36 45 30 32 40 39 32 34 37 43 48 32 34 34 28 36 31 33 34 29 36 36 37 25 31 30 38 34 41 51 37 38 28 30 33 32 41 26 37 26 30 32 39 36 28 35 32 40 35 30 28 34 33 38 33 25 39 40 38 29 36 39 22 42 39 36 35 29 27 25 33 29 29 30 23 38 33 40 36 46 37 40 43 36 27 39 36 29 26 33 26 32 31 24 31 25 36 28 37 40 39 41 26 26 28 29 36 33 28 30 32 40 36 33 35 29 37 34 28 30 26 35 29 34 33 37 35 29 35 35 37 33 29 30 32 39 26 32 37 30 39 27 24 32 30 27 30 33 27 34 39 22 34 30 33 30 35 34 41 39 27 33 34 34 25 35 29 33 37 34 28 28 35 42 31 28 38 33 27 33 30 30 32 39 32 32 30 36 40 28 30 20 30 36 28 33 35 40 30 32 35 26 28 36 26 41 33 39 29 31 27 41 39 25 31 37 29 34 31 31 43 45 28 40 32 23 32 45 45 32 42 38 35 38 38 35 33 35 40 36 38 28 39 31 46 36 38 41 39 35 30 36 25 41 35 39 33 28 26 28 32 29 37 37 27 34 34 39 42 36 25 27 39 29 38 33 37 40 31 37 42 24 29 32 27 32 37 25 27 32 39 40 27 38 35 29 28 39 40 37 34 39 24 34 21 31 41 40 30 19 40 27 36 34 30 29 36 35 31 27 26 32 41 28 44 32 38 34 38 26 26 35 33 41 36 28 31 42 41 28 35 33 33 40 27 33 30 29 36 36 29 32 34 36 29 45 43 33 39 37 43 40 39 33 30 29 32 30 54 40 27 36 31 31 34 32 45 38 32 33 36 32 39 31 44 35 38 35 26 40 42 38 29 35 31 33 30 20 24 32 39 34 39 39 32 31 32 37 39 33 35 29 31 38 34 24 34 45 50 43 34 40 33 31 35 39 36 36 27 43 32 36 35 32 41 32 35 37 39 35 32 38 26 32 34 21 39 38 31 35 31 35 45 26 32 39 30 42 24 35 35 27 21 28 37 24 22 44 27 32 35 42 35 22 31 35 33 32 27 27 32 31 37 35 25 36 24 27 32 42 42 31 41 33 34 36 35 38 39 24 37 42 30 31 29 37 30 32 36 35 35 37 37 28 41 33 40 34 32 33 29 34 35 39 27 32 32 35 34 29 36 29 33 27 28 35 30 40 36 33 36 30 33 33 31 38 30 34 29 36 30 28 38 38 31 41 42 35 29 39 31 31 37 32 33 25 51 34 40 38 36 34 46 41 30 30 32 34 37 33 27 31 27 38 34 29 39 34 31 26 25 34 44 32 36 29 24 35 33 35 35 32 46 39 23 25 25 34 32 29 35 26 29 40 32 30 41 41 46 32 35 31 34 38 36 37 34 35 31 42 33 32 29 29 31 25 28 40 35 31 35 40 35 41 35 31 28 33 33 32 30 35 35 49 33 30 37 29 25 32 31 32 35 32 39 38 34 38 27 38 32 33 32 30 33 33 24 26 32 28 34 28 35 31 36 17 28 41 31 33 27 41 44 27 28 28 31 33 40 29 40 37 37 31 28 32 36 33 27 33 33 23 37 31 29 38 37 26 35 31 36 40 33 29 31 39 33 29 39 29 39 37 43 25 25 31 35 30 29 24 30 36 39 31 28 40 32 43 26 38 35 38 31 37 38 32 39 45 46 36 26 38 26 32 37 36 29 22 32 50 34 33 37 35 37 28 27 36 23 41 24 28 33 31 31 39 33 30 31 31 30 27 35 43 30 28 42 37 38 36 39 37 38 30 38 33 40 34 42 38 28 28 27 27 34 42 34 30 36 35 33 35 32 38 32 34 29 31 33 26 37 36 39 32 35 26 32 30 25 30 26 33 30 31 30 49 32 39 30 39 35 33 26 40 27 37 38 43 29 23 39 31 33 34 34 26 41 39 43 28 27 35 31 31 34 38 50 36 40 35 36 31 34 37 40 35 28 31 29 35 30 26 33 33 34 26 33 45 38 37 31 39 45 33 36 36 25 33 32 35 30 35 30 43 42 41 24 34 34 29 30 35 28 31 42 34 40 42 40 38 22 30 42 39 29 36 25 40 42 24 26 38 30 33 35 35 38 34 34 33 29 41 32 34 36 35 23 32 33 31 41 47 39 25 39 26 28 24 35 33 39 37 34 35 25 34 31 29 42 36 48 27 35 31 34 29 36 29 37 37 45 34 39 23 35 32 31 38 33 31 28 29 37 37 33 37 33 30 34 29 32 25 30 42 36 23 29 23 33 45 40 35 35 24 32 37 49 35 38 29 27 42 32 41 32 40 34 31 31 29 35 38 33 30 34 39 21 36 31 26 36 32 34 30 38 30 21 29 32 31 34 37 36 34 32 31 29 34 34 28 34 34 30 27 27 30 24 27 33 34 27 32 23 36 38 27 32 29 27 32 46 33 33 30 43 39 30 41 38 27 25 43 36 29 25 33 29 26 35 32 33 29 36 24 24 39 36 28 38 17 24 35 35 41 36 35 42 32 41 26 34 33 40 33 28 35 44 32 31 34 29 37 33 35 33 35 32 37 35 47 38 45 36 28 41 29 27 26 31 29 30 26 36 35 25 40 38 29 22 35 34 32 30 28 31 31 35 28 43 33 36 35 31 23 36 35 43 30 28 32 31 37 36 33 35 31 30 33 41 40 35 37 35 28 44 30 17 36 42 30 33 29 33 32 30 45 32 24 29 28 42 32 31 28 38 24 33 37 21 28 36 37 40 37 30 36 24 30 47 34 40 33 34 44 30 38 39 31 35 43 32 24 29 33 36 34 37 28 36 33 31 36 38 29 33 27 24 25 35 38 43 39 30 33 39 30 30 25 31 33 44 48 32 29 41 25 34 31 39 29 32 28 27 26 36 30 31 37 42 32 36 39 31 25 39 46 26 37 34 37 21 40 39 34 33 33 37 31 33 29 46 37 33 36 23 33 31 29 39 34 30 37 33 38 29 27 40 37 24 30 35 33 26 46 28 34 33 35 35 30 37 37 36 27 33 25 27 30 36 26 29 30 41 32 32 31 27 33 36 38 35 28 36 33 28 40 25 33 36 35 38 39 35 32 35 28 34 30 37 33 38 31 37 40 29 42 31 30 31 37 40 31 30 30 44 34 32 38 45 23 36 32 35 34 37 28 32 36 25 43 32 32 34 38 35 34 27 43 37 31 30 34 30 31 40 34 29 35 33 42 35 35 33 36 39 31 30 31 30 32 20 34 31 30 27 36 34 32 43 32 25 37 33 31 24 35 28 55 20 32 33 30 26 31 32 40 37 33 31 30 30 39 32 39 30 36 29 38 40 24 36 30 29 30 33 27 31 34 39 37 25 38 31 45 35 36 35 35 46 40 28 28 36 41 31 38 27 33 23 24 33 32 38 31 39 37 34 30 33 29 30 30 27 35 28 33 35 31 37 32 27 41 34 31 45 36 39 41 39 42 26 31 35 28 33 33 27 44 40 27 49 39 24 30 33 28 36 44 32 30 38 20 40 40 32 31 26 36 38 33 30 28 33 25 39 32 28 32 27 33 25 34 44 28 35 31 44 41 32 42 32 35 33 33 38 38 28 40 28 35 43 35 30 27 31 28 20 37 28 24 31 38 38 42 35 36 45 39 36 36 29 37 27 42 40 31 34 23 35 27 32 31 30 32 36 49 30 41 35 42 37 43 35 26 33 41 39 31 34 25 36 37 30 35 31 42 37 42 40 31 28 40 32 30 35 41 27 24 32 33 41 37 36 38 37 32 35 37 45 27 30 38 31 30 29 30 44 33 46 36 34 32 38 34 38 43 34 40 30 33 35 37 27 32 42 29 29 26 39 43 32 33 32 37 32 31 40 28 42 32 36 37 32 32 42 43 25 36 27 28 50 35 27 32 35 39 43 30 28 38 37 53 39 44 36 42 31 38 40 26 23 40 41 36 28 43 31 32 31 27 36 31 38 36 42 35 37 26 43 31 33 27 28 30 36 49 24 37 31 37 32 32 36 37 31 34 35 34 39 32 33 36 39 22 37 34 24 30 25 37 37 37 42 38 37 42 37 36 34 35 28 25 27 33 49 33 31 35 44 41 33 42 28 43 32 39 42 39 37 29 37 35 27 33 25 37 35 32 42 30 33 43 31 38 33 33 37 35 21 28 34 27 45 31 35 20 32 40 30 37 28 27 32 26 27 33 31 41 32 32 29 33 24 31 33 24 27 35 35 22 29 25 38 30 34 33 31 41 36 36 37 37 36 35 26 40 28 37 41 40 32 30 40 28 34 26 39 36 41 32 37 19 27 37 33 29 26 29 37 30 46 31 31 33 35 40 27 29 38 40 43 36 33 36 33 31 42 41 31 29 33 32 21 44 25 36 34 33 32 31 36 41 31 37 36 41 42 30 35 27 37 30 33 38 33 33 31 41 37 38 36 45 38 29 30 33 33 27 34 43 33 44 35 23 40 27 27 40 36 34 26 34 29 34 27 27 36 30 31 44 33 32 33 32 38 32 38 43 24 35 40 33 33 24 34 32 25 32 25 35 30 33 32 34 38 25 27 33 25 28 29 35 30 30 38 35 34 39 35 41 27 39 31 26 38 31 19 40 33 30 36 26 47 32 26 41 27 38 33 35 38 43 28 29 23 36 30 30 30 37 34 28 39 24 30 34 28 36 27 35 33 41 41 29 36 28 40 32 39 31 38 32 31 36 27 36 36 33 25 28 36 25 40 34 39 31 35 32 26 31 28 35 37 28 39 29 32 37 36 40 28 42 32 32 31 39 32 33 34 31 32 35 35 31 38 24 41 44 36 27 44 34 33 35 32 32 29 29 37 30 29 37 34 38 36 36 40 34 35 45 39 31 42 32 38 35 41 35 33 33 36 35 29 41 38 40 31 40 33 31 34 32 40 33 34 36 34 49 33 39 36 43 42 28 34 34 27 41 33 36 40 42 27 33 36 29 23 33 35 33 31 40 36 33 34 30 27 30 33 47 23 29 28 36 36 29 38 37 31 37 37 29 37 20 31 34 32 39 29 26 33 36 26 30 34 23 33 38 29 29 38 32 31 43 39 37 40 25 30 36 33 30 27 28 34 26 32 23 46 25 35 32 41 34 33 36 26 27 31 37 43 33 30 39 34 29 37 31 33 39 38 29 34 35 34 28 38 33 33 44 27 29 42 38 30 33 26 29 29 49 28 30 26 37 28 28 33 33 29 33 34 32 31 33 47 35 33 37 32 30 29 34 28 28 42 29 28 28 23 32 42 29 30 25 32 34 31 32 31 35 38 34 29 30 32 30 33 30 34 25 37 23 42 40 37 35 25 35 30 44 31 42 38 26 36 22 40 33 38 39 37 39 37 34 30 40 42 33 29 30 28 27 36 36 22 39 32 28 29 33 32 32 34 48 40 37 37 28 35 27 29 20 21 33 31 41 40 48 41 33 38 32 29 34 31 35 28 31 36 40 31 34 35 32 30 40 36 32 33 33 38 30 24 31 40 39 32 36 39 32 40 32 25 37 34 35 29 34 32 34 34 28 28 40 28 36 39 38 31 28 27 37 38 33 28 38 34 37 39 40 41 25 34 28 35 32 37 30 32 31 35 34 31 31 32 38 29 32 23 38 28 35 37 24 29 33 34 34 31 32 35 25 30 42 37 42 32 35 27 36 24 40 36 28 34 37 41 42 41 26 31 39 32 36 26 29 42 24 24 28 43 35 38 36 38 30 42 30 34 39 29 32 31 31 39 39 31 22 26 22 33 42 32 37 26 33 36 47 30 29 22 32 41 30 34 33 32 37 31 31 28 33 34 39 21 33 29 27 31 47 45 38 30 26 29 32 33 26 31 32 24 39 26 26 39 42 26 33 30 35 34 39 40 28 33 42 35 42 37 29 33 36 37 28 33 40 39 36 39 24 33 35 23 36 40 44 31 40 30 31 29 32 39 38 35 39 32 32 36 30 31 31 45 41 31 35 34 35 36 40 30 39 42 33 34 39 35 40 33 32 32 33 27 33 35 31 24 43 33 35 38 26 29 34 28 34 41 32 34 34 32 31 42 33 36 44 34 41 34 26 31 38 35 34 41 38 32 37 30 40 33 26 31 37 27 32 32 30 36 37 28 33 30 41 32 26 34 29 34 30 36 36 34 36 37 29 45 34 30 34 46 33 36 38 33 31 34 34 38 29 41 30 40 34 26 32 35 38 32 25 42 32 44 29 36 33 39 31 20 37 24 29 28 33 31 33 44 40 34 34 29 39 34 40 33 39 22 50 35 37 31 35 34 37 39 35 39 48 30 31 32 34 37 33 38 28 32 35 29 36 33 28 26 39 34 33 39 30 36 40 19 30 28 41 31 30 43 40 37 40 34 24 36 33 35 21 43 28 37 32 37 41 31 41 42 47 36 28 36 29 30 28 39 36 35 40 35 30 32 29 29 36 36 40 37 30 36 49 30 29 29 27 33 38 39 36 31 32 29 28 29 36 33 35 37 30 37 32 29 39 32 27 26 21 33 35 26 34 30 30 31 43 37 35 34 37 37 28 30 35 36 38 36 32 35 35 23 38 42 37 39 34 28 33 27 35 46 36 33 31 38 40 33 38 24 27 35 29 40 29 27 28 37 26 43 30 33 29 37 33 31 26 27 27 31 33 29 43 44 45 30 38 43 19 30 25 38 34 35 38 24 33 36 31 32 26 38 29 41 41 38 29 32 35 34 38 40 41 29 30 36 35 28 33 35 37 28 28 31 27 23 34 33 39 34 36 33 28 33 36 32 34 44 31 25 32 32 31 33 32 39 30 35 33 39 30 34 26 31 40 25 29 33 38 31 36 34 38 32 37 32 33 28 34 29 38 34 34 33 32 43 36 35 35 32 27 36 37 27 34 36 31 30 34 38 30 34 38 37 28 26 30 33 28 33 30 30 40 45 33 32 33 26 37 28 32 15 30 31 36 39 32 29 25 26 21 37 33 26 28 30 27 41 43 36 33 37 34 32 42 32 34 38 34 38 32 37 42 28 42 23 36 27 36 34 24 38 33 37 20 26 24 43 27 33 32 34 34 18 27 39 32 33 37 36 36 30 29 28 34 32 32 38 29 38 35 39 31 29 27 32 27 29 32 43 29 34 35 36 29 28 32 34 32 21 29 34 26 34 47 30 45 42 36 33 37 47 29 34 32 27 25 35 39 31 31 41 28 29 35 33 33 31 25 35 48 33 37 27 34 34 45 37 34 31 35 36 36 27 30 36 38 43 29 45 35 37 34 27 41 33 37 32 32 40 35 33 31 27 47 33 33 44 36 33 25 45 46 38 46 29 38 30 28 34 36 30 40 34 34 29 34 22 31 34 27 37 32 26 42 32 43 33 35 34 35 38 36 39 36 46 33 33 32 40 35 31 28 34 34 37 36 37 38 29 34 33 34 26 34 31 31 34 31 33 45 23 31 31 42 39 35 34 40 42 37 39 45 32 38 33 36 29 23 42 36 32 40 23 42 24 29 25 29 29 39 41 32 37 30 38 42 41 41 35 32 32 40 35 26 26 27 30 35 38 35 31 26 37 29 40 36 38 31 27 28 29 25 32 28 31 30 33 30 27 35 31 35 32 33 44 28 36 40 30 27 31 37 32 32 33 35 29 32 32 40 40 37 37 34 38 39 33 38 37 33 27 28 37 32 37 45 34 32 30 40 38 17 34 32 40 29 21 33 25 32 38 32 24 28 36 30 42 32 37 31 40 41 31 31 37 34 35 35 29 29 41 43 35 44 24 32 29 44 33 34 24 32 37 46 39 29 37 38 35 32 35 38 41 24 42 32 41 27 43 38 45 31 36 33 40 25 27 32 27 45 30 34 33 32 34 42 41 30 32 48 37 34 43 26 27 36 29 35 33 37 39 31 38 38 33 39 26 38 30 33 25 34 27 31 34 29 26 29 35 40 35 35 35 37 38 28 35 44 32 26 28 31 48 33 31 39 38 32 35 32 37 31 44 35 19 31 34 29 36 43 26 35 24 26 30 38 32 35 34 29 29 33 41 30 38 30 34 26 27 35 32 41 29 38 26 38 42 25 33 34 32 32 41 32 31 28 26 43 36 34 35 29 33 35 26 37 30 20 38 37 36 29 31 35 25 26 34 41 20 28 28 40 36 33 32 36 33 32 29 22 37 41 26 35 41 27 47 40 28 22 30 38 37 39 35 30 36 15 27 33 41 25 31 26 34 40 21 35 30 35 25 31 34 43 34 30 45 32 32 40 29 34 33 32 32 36 34 24 35 34 22 29 32 39 33 34 23 43 35 42 39 32 28 35 43 28 22 38 34 25 25 37 32 40 31 36 32 34 31 33 38 34 38 25 37 43 34 29 33 42 37 30 34 28 37 29 31 34 36 30 27 34 27 31 26 35 38 27 36 24 42 30 32 30 24 36 34 30 30 30 27 28 36 30 29 37 42 39 28 30 32 31 32 27 31 43 37 24 33 38 32 29 28 41 33 29 45 23 40 34 26 33 34 29 40 28 28 36 37 28 38 36 36 29 28 25 43 33 43 25 31 45 33 33 35 43 38 33 37 30 34 49 34 30 34 33 44 37 38 26 36 35 29 35 34 35 26 40 31 43 29 40 33 33 40 35 40 24 28 34 47 35 32 33 35 35 34 32 35 45 25 38 36 40 24 40 30 36 38 41 34 50 45 24 45 39 35 32 35 28 44 30 42 31 32 25 31 32 43 38 31 33 30 36 25 37 33 44 35 36 28 27 37 37 26 39 38 30 32 28 27 44 29 35 36 31 37 42 42 35 34 34 33 33 37 29 29 36 33 34 35 32 39 38 42 36 27 35 28 27 31 29 38 27 36 33 38 29 38 47 40 31 27 39 44 33 45 36 32 40 40 30 38 31 29 32 25 32 29 42 32 40 49 33 40 33 31 30 28 32 35 32 40 26 28 29 31 27 39 28 36 30 34 38 33 32 37 32 37 29 38 24 36 27 47 26 32 37 39 29 39 32 31 41 38 31 28 44 36 27 29 31 32 41 25 39 39 39 36 39 41 34 33 25 25 40 35 35 33 32 25 38 33 40 34 28 32 31 32 35 34 26 42 30 31 36 40 33 40 42 40 27 45 31 43 41 39 41 28 31 36 36 38 44 28 33 34 31 33 39 33 33 29 47 24 41 39 29 22 35 31 40 38 40 35 37 27 36 33 49 34 27 30 38 30 29 35 33 46 31 29 45 36 24 28 42 31 35 24 32 43 39 31 36 34 27 30 34 37 29 36 31 30 41 39 37 41 30 33 42 36 24 26 20 36 43 33 34 31 31 29 36 41 36 41 34 33 37 37 39 42 41 31 38 28 40 45 38 41 34 28 29 38 27 30 36 32 32 37 26 25 30 37 25 45 22 40 32 32 38 40 42 31 28 37 42 37 25 30 37 27 32 41 41 39 22 30 32 25 34 30 30 32 33 35 33 30 35 33 35 37 35 36 29 36 33 29 40 28 39 32 33 32 30 18 31 41 36 38 27 26 23 29 36 26 31 31 31 33 35 44 43 33 27 36 30 34 47 35 31 32 34 45 33 32 35 29 45 36 39 29 49 32 32 31 30 35 43 32 41 31 32 24 33 30 30 38 48 26 37 33 44 42 32 37 39 32 31 33 41 32 41 40 39 42 34 26 31 38 33 36 34 24 33 32 39 33 34 29 40 36 37 33 35 36 29 32 37 40 26 35 29 31 41 28 27 36 29 27 34 36 36 31 34 33 27 24 35 34 32 35 42 40 30 22 45 29 33 34 44 25 33 26 31 29 31 39 28 35 44 31 34 29 28 30 39 31 23 37 32 36 38 43 28 30 30 36 41 30 31 27 36 33 34 34 42 39 39 31 29 34 33 38 39 28 42 40 33 40 28 38 30 27 32 30 35 27 27 42 45 55 43 30 30 38 28 33 30 38 31 37 39 31 42 22 28 43 32 28 34 35 34 44 32 44 37 36 31 35 34 33 38 39 32 36 37 36 34 32 30 38 39 37 37 34 23 37 28 39 37 46 31 31 37 33 35 45 39 24 41 38 34 35 38 33 32 44 38 28 38 35 30 32 36 28 28 24 37 37 38 34 37 27 39 23 33 29 33 40 21 35 27 33 35 35 33 39 27 32 32 36 29 33 26 32 38 39 31 37 32 28 31 40 38 40 32 31 19 31 33 25 40 29 27 24 32 43 25 28 32 32 26 33 34 42 36 45 34 37 37 33 32 35 34 35 40 26 31 31 29 32 37 32 40 29 37 28 32 34 26 33 39 27 37 29 32 39 39 29 28 30 40 38 34 35 28 29 27 28 36 33 30 38 32 22 31 38 33 33 28 46 30 31 32 38 29 37 43 32 38 37 28 37 37 37 35 29 35 31 28 28 39 39 31 33 35 34 32 39 38 32 31 35 32 39 31 31 31 23 33 35 39 32 35 28 32 35 41 24 31 25 39 34 30 32 29 21 30 36 29 39 25 34 35 43 34 46 36 31 32 32 50 28 41 32 39 29 36 46 40 20 30 36 23 32 18 30 25 43 33 31 40 33 38 36 38 28 34 32 30 32 33 35 41 35 37 35 34 35 52 32 40 38 25 26 25 38 34 38 36 35 46 22 26 34 30 35 31 36 35 49 23 49 25 31 34 47 37 34 35 34 36 34 34 31 28 26 29 39 28 36 34 26 39 34 29 39 31 38 41 32 23 44 28 35 40 31 35 40 26 37 33 41 39 25 43 27 37 28 32 33 44 27 32 40 37 40 32 37 30 25 34 27 38 31 30 35 35 29 35 52 38 34 27 41 41 27 31 24 35 31 30 32 32 31 37 26 40 37 35 24 40 28 41 26 36 32 36 30 37 38 30 35 32 33 31 31 26 35 46 31 38 39 34 38 37 31 32 30 32 38 35 29 18 43 25 34 29 36 38 31 38 29 33 28 32 42 29 26 30 29 28 33 24 36 27 37 40 39 39 36 37 29 38 32 39 30 30 29 30 35 40 21 26 31 36 26 37 24 34 38 32 39 32 45 43 38 28 24 29 44 36 36 29 31 33 33 37 32 37 28 36 35 31 39 42 36 36 38 24 39 35 27 36 28 42 26 32 38 40 34 39 38 26 35 38 39 42 40 24 34 36 29 34 33 23 32 27 23 31 36 35 41 29 31 27 33 38 32 37 26 39 28 41 22 40 37 45 33 28 36 34 32 31 33 31 31 30 43 55 38 33 31 36 31 35 34 32 36 36 17 33 40 31 36 29 32 26 36 26 35 37 32 29 31 33 34 26 41 39 38 37 40 30 46 40 32 27 31 33 32 23 42 34 44 28 30 37 31 36 33 36 40 28 32 38 34 33 29 37 35 34 39 27 32 27 35 39 34 31 32 36 31 42 30 36 35 32 38 39 37 26 35 34 28 33 40 33 31 33 37 41 30 37 43 26 32 34 44 32 40 32 28 32 40 36 38 42 33 37 43 35 35 38 28 33 36 27 35 39 29 38 36 28 40 38 24 29 37 35 26 29 26 39 33 37 35 28 33 44 42 36 19 25 29 38 41 38 24 37 35 35 36 33 30 42 31 39 30 38 26 37 37 36 36 40 31 38 34 38 33 31 39 29 42 45 39 42 34 30 27 29 29 33 30 19 37 35 35 35 36 30 39 29 28 28 34 34 44 32 37 35 28 24 31 34 34 35 34 34 35 34 25 23 40 36 21 28 36 31 40 39 32 36 31 25 33 32 36 30 35 36</t>
+  </si>
+  <si>
+    <t>JSU(-12.066133427940905, 10.558925649065799, -178.77357783773869, 299.93211981709203)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">234 181 191 212 274 311 221 278 226 225 270 246 165 335 163 137 202 264 277 215 213 370 235 247 236 278 304 310 348 284 209 247 278 223 262 348 262 243 415 283 219 238 233 213 279 230 175 243 229 223 241 281 273 238 280 300 292 329 274 293 298 192 180 216 220 271 141 203 351 209 369 248 345 237 261 231 384 205 271 255 219 255 156 288 197 286 195 250 198 167 220 262 295 248 149 288 228 266 185 243 240 195 315 360 256 180 168 238 352 116 344 248 272 171 215 273 260 248 229 245 208 191 181 242 235 217 220 265 245 256 331 301 275 141 200 165 187 232 276 232 256 244 247 232 318 267 274 167 210 205 269 249 250 230 260 235 272 262 159 227 247 241 241 337 235 192 191 288 307 273 253 243 301 194 204 179 243 240 381 199 240 285 227 171 178 243 333 205 178 265 243 248 193 298 272 294 272 196 323 254 170 254 166 300 233 179 180 239 250 308 248 273 245 238 233 272 284 223 254 226 309 271 281 219 194 196 149 211 287 251 272 304 314 313 198 216 251 224 199 225 136 213 210 218 277 199 364 231 210 301 234 287 246 199 255 222 110 163 253 278 302 252 176 200 205 221 194 202 281 266 255 223 259 281 264 354 200 179 332 273 241 274 171 246 205 165 253 456 340 231 215 189 190 206 251 249 239 194 310 254 228 235 224 127 251 271 108 260 232 205 252 155 290 165 299 288 261 188 212 232 221 167 314 252 250 262 258 239 231 294 225 289 240 223 187 191 146 181 226 305 177 205 239 280 226 327 217 241 197 205 200 232 193 226 214 254 200 276 256 248 294 339 278 194 244 184 272 227 344 181 198 226 221 231 264 286 225 255 247 226 231 187 199 288 240 212 251 257 238 199 175 257 258 305 279 230 223 260 263 263 260 240 297 153 165 232 233 332 224 291 211 295 392 273 257 175 287 206 280 294 268 202 256 199 329 325 150 325 294 190 181 248 270 237 253 243 210 315 281 223 175 221 236 250 266 279 262 164 288 260 279 214 262 263 126 220 281 309 235 261 199 299 199 246 235 234 270 280 231 254 247 314 245 193 296 257 367 236 277 188 209 288 185 241 252 280 296 316 230 149 279 216 249 247 211 229 236 290 377 246 225 217 333 241 202 258 187 215 216 264 244 282 210 206 235 255 301 254 297 238 178 324 184 268 144 273 233 246 278 239 161 230 224 385 306 310 243 234 208 222 238 231 208 299 266 244 227 176 136 172 158 340 210 192 243 213 277 266 321 213 181 263 257 201 232 291 263 182 216 251 277 276 209 180 167 167 254 270 250 257 255 245 230 184 120 292 298 213 188 260 248 275 195 234 276 243 276 307 184 203 261 229 257 286 239 257 259 236 185 201 195 256 319 199 429 214 250 278 251 259 343 218 185 235 306 341 233 275 280 130 216 282 293 224 312 212 276 207 133 201 289 199 302 270 218 248 241 162 266 284 308 216 286 191 301 253 306 316 276 224 323 173 248 220 286 177 226 320 216 173 254 297 298 177 225 182 263 215 208 342 213 307 248 251 275 306 282 230 202 122 241 204 241 265 201 204 270 255 202 290 286 210 169 206 222 255 236 275 264 237 219 238 301 220 232 259 230 273 188 227 270 178 245 247 236 236 229 278 233 310 271 213 241 200 320 144 308 211 209 245 219 360 206 195 140 340 207 219 268 258 230 245 231 359 312 292 195 321 262 256 315 197 256 298 216 225 252 229 273 272 420 252 264 299 246 203 284 228 263 246 194 233 287 227 233 210 206 329 213 131 194 181 199 217 198 245 271 240 277 369 225 345 230 184 203 287 268 301 188 181 279 253 301 284 263 192 262 220 277 206 190 255 284 211 275 207 324 201 146 239 313 257 280 232 312 217 264 370 389 236 259 325 261 221 313 169 228 322 151 260 228 241 172 211 242 219 256 236 265 226 191 279 233 294 317 247 256 276 227 260 274 350 358 270 282 221 187 280 277 206 234 220 329 198 234 228 228 399 227 197 247 247 270 167 336 387 251 293 285 185 263 243 239 314 252 262 177 271 313 216 222 280 215 182 230 193 253 228 394 257 270 259 197 197 229 175 230 212 254 369 235 321 283 254 282 297 227 264 177 216 187 265 243 227 232 252 289 276 247 161 276 204 219 324 198 163 327 251 250 366 291 246 218 276 268 202 288 259 190 293 279 219 241 211 208 156 256 261 193 173 210 383 314 261 254 279 348 235 291 350 247 181 228 246 200 217 208 181 197 201 184 284 232 136 147 177 287 232 247 193 203 284 193 243 267 255 186 203 306 400 236 247 222 286 404 193 257 311 273 241 224 202 235 193 283 218 239 217 201 169 209 253 323 301 239 247 233 141 173 253 245 214 254 228 182 221 227 274 196 222 190 201 267 260 299 344 308 238 211 225 277 251 215 190 256 222 170 272 246 300 231 237 274 240 245 236 297 160 258 233 322 268 212 196 245 198 228 234 275 285 259 269 356 199 338 337 253 243 262 265 250 196 212 192 251 255 235 218 279 236 433 253 155 202 276 237 236 247 213 169 305 301 211 232 241 217 210 229 267 193 194 270 175 313 183 265 250 302 289 234 278 230 190 217 241 277 223 183 320 193 260 274 247 249 164 240 169 261 212 175 256 259 217 220 285 252 190 222 168 283 310 348 202 247 288 189 233 224 241 268 338 206 202 254 311 231 325 250 340 275 287 204 290 234 225 233 262 298 280 252 321 267 281 200 170 292 320 286 234 162 194 213 300 196 264 186 297 265 260 327 274 244 243 254 306 261 256 243 314 282 290 329 329 241 240 271 245 226 247 210 216 271 225 225 177 285 230 221 235 195 245 183 201 196 212 256 243 197 279 235 280 327 232 239 193 247 278 243 301 218 190 288 202 222 228 357 234 189 171 237 262 232 247 161 249 186 325 170 209 311 239 213 291 354 245 207 202 239 326 292 315 307 257 290 231 315 191 277 236 191 241 198 215 134 286 321 249 350 289 202 235 216 305 265 239 216 286 302 267 237 173 284 191 179 204 293 231 281 191 265 263 230 289 187 178 273 243 180 287 329 242 215 352 275 210 203 251 182 264 212 359 195 257 306 254 232 218 274 233 275 218 220 331 225 250 209 244 220 239 244 203 238 232 204 293 193 271 362 257 358 305 172 215 185 286 208 247 328 278 219 155 304 187 277 237 173 178 259 231 186 262 215 222 189 299 358 255 300 209 260 244 178 191 364 209 181 245 282 152 248 268 200 219 297 234 264 177 295 199 246 279 217 161 203 214 299 261 166 176 278 203 211 183 225 292 204 212 257 368 223 352 215 271 212 230 299 229 323 375 193 151 250 279 317 158 320 225 203 254 269 196 221 176 275 305 246 298 266 272 307 222 257 270 213 327 284 165 174 176 270 290 264 304 196 207 155 222 281 196 323 303 328 344 266 129 240 225 250 171 249 261 223 158 162 372 129 191 310 304 257 184 252 249 320 264 209 245 314 215 221 241 267 323 285 225 195 263 240 180 186 270 224 241 280 230 177 261 329 320 292 217 209 278 226 179 276 277 221 204 215 226 242 309 318 275 310 245 331 303 304 212 313 200 249 255 299 133 222 194 270 289 266 254 269 301 283 244 205 153 213 317 223 211 176 214 210 133 246 246 275 231 214 219 295 244 200 302 304 184 285 254 309 203 319 204 342 256 269 238 190 238 299 324 267 366 260 337 224 249 211 266 252 319 173 243 242 245 341 259 219 367 230 326 148 329 239 231 295 247 179 197 201 281 191 273 239 222 268 207 204 225 289 202 216 280 234 212 262 277 274 256 260 224 187 281 268 176 166 181 226 286 245 304 225 144 218 214 252 173 276 232 234 248 296 256 348 218 236 246 141 228 183 288 173 304 272 206 219 204 275 225 156 216 167 249 253 224 340 286 218 303 212 217 263 264 272 384 320 198 271 170 198 279 311 219 307 250 208 253 228 232 206 314 304 238 318 263 342 293 228 329 269 252 218 166 202 147 140 299 209 263 200 216 242 271 209 291 241 288 279 191 231 198 278 362 276 265 199 275 228 201 214 203 251 246 217 262 286 179 251 204 280 294 302 239 157 252 323 193 189 142 282 227 225 291 318 365 260 330 224 225 256 320 256 189 260 245 288 272 248 286 283 166 252 210 164 262 330 302 201 205 201 251 227 240 221 192 277 278 297 343 229 194 259 252 222 248 267 252 217 274 332 374 199 291 278 199 199 262 287 242 186 232 230 276 246 315 153 263 204 173 326 281 289 360 272 303 235 306 269 299 211 235 246 226 214 306 328 274 191 280 269 267 202 211 260 207 226 186 303 280 193 272 197 323 199 261 240 255 283 282 273 281 268 224 294 258 293 195 240 340 335 288 339 282 397 248 185 173 259 285 187 251 344 230 210 205 276 298 307 210 233 218 216 318 310 205 256 199 227 238 352 189 373 148 236 192 221 231 240 276 237 267 274 207 317 290 290 219 206 139 242 230 252 251 253 367 414 232 280 226 234 228 260 209 216 212 267 170 209 226 224 259 200 234 238 271 286 243 214 335 205 331 212 251 188 298 240 178 299 193 197 231 236 143 317 193 313 267 267 152 226 269 196 238 245 297 294 232 204 205 292 268 302 247 313 204 168 216 296 244 249 205 226 263 165 277 182 296 236 323 208 266 267 266 213 282 268 212 213 232 264 280 245 211 246 270 233 284 216 230 255 194 290 297 299 272 197 167 256 256 264 295 274 275 220 237 256 215 174 286 261 205 268 365 274 225 196 145 199 346 318 248 289 240 223 269 263 177 234 132 186 333 242 269 214 245 233 272 219 222 271 320 269 185 198 274 233 228 325 367 186 160 238 279 341 187 236 234 289 229 236 187 210 248 184 216 350 207 224 205 264 285 181 262 281 310 293 233 220 204 275 232 259 160 225 287 297 311 150 242 245 286 283 237 306 235 223 185 282 251 163 299 245 219 312 175 286 243 295 197 216 226 260 179 282 266 262 275 252 293 231 213 198 262 181 271 232 247 186 212 203 255 261 259 192 345 136 260 265 213 171 165 345 259 238 303 204 299 206 160 277 336 169 219 173 253 355 323 230 246 250 224 192 291 200 227 220 235 338 282 247 102 350 344 298 258 323 336 275 234 320 294 281 244 178 182 231 208 240 220 217 335 240 175 253 194 212 334 279 255 168 287 199 223 304 181 163 279 223 258 207 273 185 248 355 216 203 251 253 254 321 217 278 178 225 246 234 293 212 247 228 242 259 158 248 224 349 238 220 219 181 203 231 148 165 174 270 328 334 300 271 210 216 170 226 202 248 231 219 164 209 220 271 256 127 247 303 280 225 281 249 325 220 208 290 259 303 215 223 151 371 116 223 274 217 204 201 257 264 264 171 324 231 197 301 192 166 272 168 234 246 368 222 259 153 245 198 255 334 278 147 245 138 223 266 205 198 288 304 244 306 310 364 207 222 246 312 275 236 199 260 214 191 134 243 208 121 238 101 231 287 217 333 313 239 236 230 223 296 230 278 205 200 270 190 220 246 164 265 283 164 245 216 229 208 208 237 167 285 210 217 157 208 194 239 304 298 270 216 184 267 173 218 257 272 277 253 138 285 238 208 305 264 210 279 204 213 287 211 218 309 264 236 273 303 264 246 230 165 299 216 293 223 130 265 247 232 227 283 180 338 352 282 269 257 294 220 233 301 201 169 251 280 286 264 223 247 214 214 230 184 289 288 122 255 322 303 201 253 315 270 199 308 167 237 222 218 167 178 300 257 283 165 202 266 257 186 175 221 268 341 298 249 243 250 134 257 262 238 161 183 167 238 269 253 258 326 257 242 226 169 251 246 289 220 209 156 270 289 167 249 190 210 245 187 291 277 229 290 287 272 302 248 190 251 257 249 276 188 307 269 136 266 216 243 230 285 247 207 292 232 224 235 257 276 267 228 168 308 264 254 166 214 239 278 231 218 129 292 251 270 149 229 306 222 258 275 166 220 236 163 325 396 227 191 291 172 292 212 270 230 173 301 264 307 256 186 293 227 258 117 207 273 272 261 303 260 328 269 317 255 292 277 219 157 256 166 272 192 312 243 234 186 270 362 276 184 337 307 220 252 256 244 227 306 260 243 203 207 206 249 169 278 193 204 271 248 197 174 183 281 309 182 208 330 192 163 260 234 274 198 226 264 288 284 312 278 201 228 264 221 295 244 334 259 197 303 224 262 236 192 219 295 177 274 246 286 268 228 174 219 208 329 245 215 277 306 243 195 318 191 167 313 266 259 198 197 280 202 293 356 183 359 226 329 197 285 203 303 250 212 254 232 248 213 326 206 188 276 321 280 244 271 269 306 196 254 295 208 360 252 240 297 272 252 252 221 224 282 233 265 257 295 241 286 199 172 206 187 212 339 299 269 252 278 239 250 263 211 153 263 244 252 277 245 249 221 254 360 237 252 243 196 197 317 236 239 195 179 249 305 212 259 294 324 263 211 205 181 160 256 157 242 258 258 312 304 221 252 219 218 203 242 182 272 333 197 202 250 270 232 243 196 231 285 224 208 264 285 240 234 221 236 303 330 221 217 212 185 271 315 182 209 238 316 377 308 249 290 220 216 276 258 269 318 160 175 306 282 307 292 461 195 272 217 243 279 341 243 157 249 218 245 256 307 214 367 345 307 214 248 237 192 273 267 303 270 255 280 184 176 252 268 213 155 275 270 177 358 319 247 253 347 253 163 178 250 181 164 207 266 213 289 244 240 279 249 330 235 219 234 164 281 155 273 254 300 190 247 194 247 170 207 376 227 336 201 284 212 241 238 242 145 305 288 239 117 220 245 189 225 200 279 228 213 336 154 284 263 255 313 193 339 256 256 274 230 199 237 181 248 239 178 185 170 218 218 282 323 301 213 201 251 271 350 164 249 242 151 264 316 294 215 255 216 288 258 216 270 359 242 285 341 238 244 221 284 175 189 224 281 205 170 274 278 246 281 262 153 233 293 228 241 353 282 242 322 226 206 241 282 351 236 220 241 266 256 221 263 291 289 238 255 222 320 186 222 215 242 241 256 271 250 219 262 239 213 218 249 220 196 248 250 132 273 223 240 225 237 243 213 213 290 245 205 263 325 185 129 154 162 245 262 205 208 261 245 271 335 204 272 251 221 247 210 161 285 263 251 198 332 261 266 150 259 224 216 261 307 232 240 295 237 297 307 175 217 199 290 202 248 292 276 340 235 319 257 174 335 211 143 289 207 206 201 229 222 233 259 195 242 227 301 273 270 207 250 296 201 221 300 263 297 288 216 291 279 256 290 232 151 200 221 213 226 329 139 259 170 273 301 255 225 217 238 239 234 326 289 185 241 286 297 314 215 315 287 209 268 247 342 307 218 219 262 210 262 252 225 277 219 221 304 186 157 331 199 248 291 337 260 281 223 286 259 220 281 231 192 298 231 250 248 240 190 201 301 238 265 282 363 309 118 207 238 279 202 281 211 243 268 224 237 315 311 205 301 282 245 244 149 305 210 251 170 237 144 266 180 211 193 239 313 350 180 178 282 187 290 200 186 228 203 188 237 238 212 210 316 237 321 183 277 274 229 268 305 283 331 222 283 206 230 234 205 253 325 268 314 335 252 335 276 263 267 238 290 356 203 245 296 208 301 238 334 227 298 225 304 276 206 323 229 233 274 245 218 196 261 257 202 282 277 179 292 211 163 269 176 264 251 299 167 257 284 235 293 252 254 180 307 206 323 261 271 186 254 225 309 136 255 199 320 234 252 314 224 204 218 287 238 199 228 292 236 308 180 210 272 220 236 198 300 247 260 236 264 278 178 241 232 295 215 238 242 290 191 189 279 323 270 246 216 239 153 185 282 342 210 207 209 318 221 284 251 306 286 245 258 355 242 180 207 200 250 231 205 234 246 200 167 280 185 317 268 176 254 208 301 226 221 200 247 339 241 261 337 244 297 182 189 175 159 241 253 238 253 238 291 229 202 183 316 185 180 170 293 276 314 253 327 349 253 243 220 263 354 259 237 241 308 317 238 214 334 312 237 341 218 213 229 204 255 163 256 217 208 241 184 277 240 251 203 157 262 213 197 323 307 283 394 308 261 302 314 235 225 320 207 227 285 233 222 225 224 265 258 221 344 242 188 279 204 309 271 308 215 282 257 202 259 175 220 218 349 277 235 332 194 325 318 234 318 259 304 183 219 231 287 266 157 186 211 211 269 224 227 186 230 269 148 227 136 271 231 174 240 328 192 345 215 251 299 229 254 246 200 264 322 257 304 357 188 213 208 341 191 289 334 291 258 255 283 244 309 294 206 208 278 188 189 250 241 258 160 194 231 282 273 270 320 197 250 237 274 228 175 272 223 144 235 241 250 304 240 258 235 274 294 351 274 270 235 216 241 205 267 274 241 192 194 287 262 299 152 330 308 223 294 204 251 218 224 168 180 208 210 214 243 225 301 331 302 370 263 164 176 208 294 255 193 259 300 277 247 290 218 341 245 275 187 248 315 250 200 230 167 224 306 194 267 250 279 259 166 270 169 218 225 262 233 283 167 280 305 264 159 312 208 234 288 371 242 255 164 232 291 233 234 193 193 240 276 163 207 319 140 330 319 181 138 332 238 282 183 258 263 235 257 218 289 269 242 200 277 274 332 296 210 310 184 220 217 174 186 244 263 262 245 259 202 227 166 248 245 244 270 192 258 276 248 200 210 214 190 304 282 191 245 312 215 220 238 207 235 202 206 184 224 198 217 222 213 232 225 169 218 215 252 255 223 258 215 168 177 299 185 325 320 153 265 256 289 155 286 252 252 361 215 213 188 234 219 249 259 235 335 333 167 248 221 286 257 309 219 149 294 223 195 271 170 309 219 285 226 329 231 278 198 238 261 239 260 207 283 118 218 270 221 274 200 226 231 222 167 252 260 223 306 186 220 264 275 284 271 126 181 231 267 290 291 400 321 256 199 245 354 185 197 254 255 227 222 266 197 132 263 258 213 172 258 292 311 281 305 201 377 263 208 242 236 225 253 276 294 218 210 259 207 141 199 199 129 302 224 236 207 186 260 242 199 194 273 365 318 271 210 243 231 202 212 223 166 182 327 380 171 230 337 243 279 197 267 168 215 263 233 238 309 291 294 265 234 186 221 262 222 255 229 260 239 230 266 258 158 326 256 298 262 250 177 297 176 220 170 186 278 350 193 198 258 195 172 200 203 277 241 271 251 195 150 294 214 210 177 177 250 240 202 271 239 349 225 157 245 217 271 264 201 249 281 323 306 226 179 278 289 309 179 248 248 198 170 214 238 323 206 305 298 190 175 159 181 176 293 381 186 207 181 260 286 205 243 168 231 172 245 184 239 228 244 215 229 255 217 328 299 191 337 236 252 296 319 245 174 222 277 247 235 233 231 191 278 266 318 197 233 353 215 254 264 281 241 183 210 198 297 267 237 156 292 266 286 216 186 248 219 202 225 319 334 214 304 287 324 177 279 227 217 263 294 205 256 249 283 167 189 273 244 267 364 178 227 264 298 384 294 311 209 126 221 241 303 248 348 270 256 312 342 175 289 201 240 321 194 232 259 188 225 268 322 252 161 207 359 310 283 193 168 243 247 264 216 253 223 282 190 227 181 290 382 174 216 239 244 277 250 223 332 213 259 248 378 192 296 187 366 287 256 198 180 275 182 246 232 281 340 174 192 223 267 228 295 343 312 268 203 261 154 347 264 248 221 333 242 253 256 215 296 238 215 243 276 227 284 347 203 151 164 321 167 243 224 220 239 204 238 186 292 266 237 207 229 207 252 208 179 192 244 314 212 233 165 267 306 204 315 277 187 210 153 276 199 131 285 202 248 260 220 261 208 286 199 231 263 274 285 281 250 220 242 275 299 280 226 179 188 318 279 269 193 223 181 349 237 249 210 153 273 266 191 208 244 284 187 283 294 314 203 304 319 243 298 253 163 258 270 278 269 373 240 303 218 206 313 224 285 299 194 293 194 262 247 249 215 220 259 224 322 240 243 271 237 340 267 266 197 238 179 292 241 159 276 229 229 249 211 286 413 300 241 251 253 267 227 353 196 309 225 284 256 235 293 318 308 295 233 251 245 234 216 239 276 206 165 344 263 230 228 217 272 301 220 311 201 251 187 282 205 333 198 212 301 263 167 211 274 257 245 250 228 242 345 244 277 254 283 255 176 228 241 221 188 298 289 227 201 205 188 296 216 219 249 215 158 200 171 189 281 227 213 167 283 184 215 272 282 332 240 185 240 210 246 249 327 287 287 266 205 354 290 191 236 315 184 282 251 310 225 303 297 270 203 236 271 188 223 293 193 184 287 299 135 228 261 239 198 202 339 262 217 217 279 187 166 209 219 333 268 215 293 283 210 251 238 242 268 263 190 175 151 284 198 250 229 255 232 223 184 218 186 333 257 301 191 257 261 249 241 294 315 247 202 312 249 278 261 276 209 333 220 262 227 264 269 165 236 265 158 289 234 194 268 182 325 291 197 232 225 214 227 292 307 210 244 178 244 174 206 201 298 238 214 267 152 232 233 287 284 202 263 305 232 188 260 267 206 228 262 271 252 253 232 284 219 219 286 390 242 320 255 251 298 231 242 228 304 190 284 285 227 193 251 223 254 206 274 275 249 180 328 179 264 192 273 287 230 270 207 241 266 197 201 241 274 206 219 252 295 304 258 228 205 185 252 260 225 264 218 179 314 316 234 201 177 266 234 389 190 230 297 167 323 305 280 205 356 166 185 203 297 259 347 201 252 329 232 252 239 289 239 343 202 263 214 232 270 218 240 235 241 193 249 283 159 248 244 272 186 293 371 242 377 194 251 239 237 275 162 301 203 226 258 254 305 142 282 236 328 247 196 251 291 220 283 232 206 297 257 265 167 258 277 159 317 307 214 305 213 206 177 243 159 218 296 178 240 282 256 225 323 291 261 310 235 224 314 240 185 197 216 182 232 187 187 238 167 253 257 235 316 236 257 190 117 246 197 269 223 134 274 227 277 265 180 270 220 289 240 241 230 201 278 290 275 287 229 226 220 285 202 267 292 198 198 238 246 178 199 234 242 235 187 193 291 206 253 231 270 200 246 307 161 200 256 218 246 186 232 229 276 157 305 238 262 204 259 169 235 258 246 270 241 250 308 235 173 354 247 234 256 212 183 244 295 276 241 252 288 277 198 191 134 278 203 218 267 296 283 233 202 273 178 160 250 158 380 222 289 284 255 175 316 214 205 266 303 177 226 181 219 291 334 210 272 247 125 188 311 300 203 332 238 294 310 301 312 252 245 269 277 268 227 244 254 221 231 263 351 261 275 226 271 197 242 165 250 291 197 200 221 219 240 258 280 195 266 226 245 321 270 203 246 281 169 222 192 200 284 189 208 314 154 185 248 185 227 316 166 133 225 325 261 193 248 274 157 211 256 281 223 268 236 154 246 147 260 313 288 248 117 314 202 215 206 232 188 239 237 277 159 210 211 314 251 297 210 248 226 330 171 220 252 251 331 248 252 228 333 267 177 244 207 267 292 260 251 230 238 285 212 221 231 243 273 211 331 267 257 237 293 261 240 254 246 212 165 236 260 385 258 267 311 277 246 249 243 263 319 253 256 383 277 296 209 343 254 250 289 183 302 323 301 173 307 221 250 232 161 204 238 279 256 319 257 221 307 264 231 350 222 245 239 189 279 259 197 322 269 310 338 286 329 261 173 286 224 344 292 218 250 288 229 269 258 223 226 287 216 246 236 208 312 182 258 196 187 293 295 179 218 197 251 347 209 262 291 220 322 159 277 231 188 192 234 269 220 165 277 220 221 269 302 295 142 256 254 211 236 254 217 252 202 324 252 169 232 167 213 242 266 251 245 351 247 227 249 274 237 303 150 235 295 187 177 210 240 224 251 281 303 233 252 257 196 321 246 313 206 190 264 161 216 212 293 148 232 224 225 229 200 265 241 149 215 247 311 176 328 282 244 274 167 255 260 252 274 225 154 193 258 223 187 293 221 183 341 316 200 280 226 183 273 258 284 267 196 355 182 313 288 219 211 394 260 187 314 228 275 220 288 216 253 124 226 271 234 347 242 195 190 176 184 345 227 252 214 194 191 238 285 252 243 224 296 151 209 193 176 169 203 272 155 260 315 288 242 306 251 277 199 257 205 250 286 302 247 283 200 253 273 325 260 178 202 155 220 243 276 273 232 243 272 282 232 152 225 235 305 245 142 212 223 229 333 251 213 217 220 179 210 245 206 230 274 294 266 231 265 191 305 214 221 202 207 250 272 164 229 255 152 226 151 241 239 247 130 229 249 150 313 203 264 320 206 147 171 271 323 284 296 304 328 170 252 208 248 236 245 184 288 251 118 282 163 272 347 308 163 294 230 264 262 350 191 232 301 238 193 311 239 303 282 350 220 193 202 269 277 242 209 220 267 265 206 279 323 202 355 205 266 205 290 231 286 334 205 328 295 363 256 161 273 142 201 304 272 200 161 286 366 261 243 248 248 257 298 251 264 211 230 239 201 285 243 226 354 237 224 253 251 206 243 274 313 229 166 301 273 243 250 266 329 262 226 320 309 240 258 269 254 176 194 195 158 289 257 246 183 220 254 268 246 252 208 227 238 222 204 296 214 255 256 286 263 265 172 209 208 244 176 241 253 211 265 234 368 245 227 223 237 279 306 225 280 158 243 266 329 161 217 307 253 286 233 280 235 346 245 346 184 230 241 224 237 285 288 238 316 327 278 249 233 209 294 300 288 219 221 234 260 174 191 266 262 260 149 220 350 249 308 222 290 347 249 282 236 189 261 185 230 282 262 250 292 297 321 176 229 228 203 225 259 189 297 286 283 267 378 323 296 138 245 290 296 222 270 226 239 241 184 244 292 228 261 286 232 270 275 263 205 192 312 285 216 203 249 178 242 195 260 298 302 275 222 228 175 223 152 277 286 284 221 216 189 223 191 246 187 284 270 274 215 303 240 247 257 225 110 257 278 381 198 355 197 273 249 243 249 271 295 237 258 206 247 229 344 259 215 280 223 257 193 248 328 220 181 214 149 245 319 266 255 268 144 231 284 292 254 253 276 250 290 191 309 231 267 243 292 256 239 215 228 238 191 179 279 179 264 214 219 228 221 290 275 279 213 198 189 355 187 242 264 294 226 247 225 218 257 189 181 176 287 214 158 251 243 181 222 207 278 229 235 197 265 234 200 256 219 273 203 312 203 223 217 307 333 225 295 232 240 208 341 202 227 178 281 200 191 248 242 221 253 244 179 223 283 245 240 330 145 196 215 192 301 250 260 367 220 281 174 277 210 270 305 172 290 334 217 195 239 234 263 219 268 203 240 224 333 219 353 287 279 253 194 267 193 222 166 242 216 245 196 288 250 218 220 344 201 155 190 230 250 272 200 292 261 290 217 249 271 247 256 171 208 228 270 309 218 209 301 217 251 218 252 274 299 230 273 278 245 208 302 245 198 311 150 148 207 359 240 283 238 205 214 206 289 272 185 276 233 271 188 125 200 324 132 233 199 168 198 231 228 260 275 239 235 166 239 329 260 183 253 293 327 258 238 285 221 250 359 233 204 236 193 188 267 272 222 266 233 252 306 198 199 213 224 193 204 285 275 276 330 234 227 299 220 228 206 288 180 283 454 200 245 243 179 222 201 292 284 228 194 218 194 307 144 236 232 243 263 253 274 191 190 295 391 235 261 228 300 206 334 324 337 313 291 305 255 254 200 269 193 267 353 182 238 274 207 286 197 235 228 284 252 266 194 280 247 228 226 278 214 188 353 199 292 237 282 218 210 255 297 258 153 234 149 224 260 279 175 237 238 277 253 200 257 214 242 269 253 220 220 272 240 228 198 218 233 249 240 242 253 230 258 214 227 310 263 227 202 227 213 286 225 219 190 244 249 200 263 288 212 267 271 275 194 288 372 348 211 314 272 245 258 265 169 248 204 188 359 247 221 217 294 227 266 149 309 339 209 256 250 228 240 319 175 217 218 306 251 233 264 273 253 259 201 214 247 227 223 112 282 290 252 200 318 231 228 285 202 205 203 233 218 223 285 200 380 155 248 322 305 101 262 285 308 197 197 237 242 204 247 239 249 191 283 241 248 268 158 284 151 288 223 174 230 171 275 298 221 163 307 283 357 322 295 268 294 300 278 172 222 300 253 203 256 182 272 150 207 178 268 255 253 234 243 211 285 270 240 231 204 163 217 263 233 318 215 311 236 204 261 250 202 320 265 309 332 216 312 164 221 281 230 257 215 274 343 354 164 343 218 191 230 226 210 232 179 288 264 308 167 311 319 246 221 235 263 254 210 230 248 240 158 317 265 181 200 176 263 197 237 321 263 276 217 296 247 294 272 205 250 188 246 220 230 231 237 154 304 260 304 256 198 168 237 218 241 240 149 163 312 289 281 181 267 290 332 246 251 184 278 195 305 295 219 239 205 247 185 247 289 232 219 196 363 183 268 197 330 264 287 216 193 195 284 265 222 274 206 243 215 219 291 202 270 231 321 239 235 206 318 280 204 324 219 209 190 220 243 301 304 298 283 306 253 255 230 281 222 196 200 223 214 271 235 365 299 315 281 212 243 206 295 233 326 278 271 231 262 238 239 251 194 235 235 200 147 206 262 283 192 216 200 202 159 344 210 311 246 280 320 220 201 321 354 193 279 222 231 379 252 214 191 248 288 268 276 262 297 328 333 275 263 208 317 288 185 257 155 160 238 354 233 242 283 219 278 288 200 238 238 372 195 294 265 258 241 253 225 285 203 260 299 254 353 202 207 187 256 229 243 248 303 236 182 250 217 336 275 209 265 262 185 260 259 188 224 117 247 232 271 315 279 340 318 320 258 229 289 230 183 203 273 375 219 301 195 251 290 289 329 176 247 253 269 286 297 269 147 292 240 182 265 154 268 241 222 362 261 270 289 255 238 193 270 307 192 159 241 286 241 362 201 251 192 268 340 148 219 184 238 189 189 197 205 233 323 318 230 212 241 175 214 260 140 247 246 168 181 187 165 227 241 221 146 201 233 248 265 247 259 228 275 196 241 178 267 287 310 244 257 294 231 276 198 294 252 305 232 311 176 217 242 215 274 202 303 257 228 352 272 206 244 264 270 188 232 249 340 265 260 232 277 241 272 367 346 230 168 216 230 153 341 184 237 309 313 268 195 273 265 225 250 324 245 343 197 223 206 269 247 249 255 240 219 239 248 246 301 200 294 304 196 260 264 279 286 248 324 255 329 270 189 302 193 171 345 236 273 201 265 243 208 187 152 286 259 260 228 290 212 232 292 242 231 265 331 181 239 293 245 226 185 265 257 222 242 207 313 197 249 261 225 186 174 198 248 204 199 238 278 213 215 258 223 244 277 261 305 270 278 229 205 306 224 144 285 254 245 277 207 377 257 177 367 178 282 259 250 238 293 169 249 144 260 240 232 223 239 277 168 353 138 200 220 213 225 203 307 222 271 283 218 257 223 213 244 258 255 265 208 262 302 211 264 225 255 219 199 230 171 323 215 220 230 298 219 228 239 216 239 283 208 294 261 266 288 191 303 228 289 244 324 187 243 225 227 241 212 225 276 243 190 189 180 288 334 271 176 372 240 205 248 242 226 204 192 300 236 215 236 274 305 293 307 292 230 324 293 266 275 320 231 309 269 293 214 280 277 256 254 248 360 317 297 223 303 231 246 291 285 277 237 245 251 193 352 211 280 270 361 259 272 337 266 180 194 227 261 337 305 187 203 250 214 212 262 267 183 235 258 280 236 217 247 246 183 302 316 186 236 224 245 261 220 316 247 259 260 276 215 272 151 170 235 261 292 215 221 283 321 166 196 264 135 251 253 163 195 290 263 295 325 286 297 318 187 151 271 262 268 181 186 282 162 222 188 301 182 259 200 386 157 233 262 177 161 224 218 307 296 201 241 246 209 258 266 263 406 251 270 230 286 204 246 268 254 209 309 238 232 185 255 208 252 206 209 268 408 182 133 250 271 243 237 259 216 211 311 268 252 239 257 299 238 229 234 258 236 222 254 286 223 331 249 219 235 163 219 317 206 193 249 227 275 209 230 306 259 261 271 229 224 312 288 222 208 221 182 300 173 343 302 274 266 197 231 181 298 205 283 256 151 272 125 313 223 320 267 226 305 366 339 177 344 321 259 197 160 244 162 234 215 197 263 244 239 293 244 254 264 290 336 289 343 254 213 241 179 167 167 108 278 238 348 307 341 270 253 279 228 203 204 244 277 198 233 260 336 324 251 223 201 186 356 256 264 214 213 221 183 189 207 232 254 221 238 253 288 315 196 190 291 238 311 208 233 189 242 239 250 172 267 154 320 258 219 270 242 218 297 249 306 162 271 215 239 263 265 363 170 227 152 273 263 199 250 239 240 234 229 208 188 251 284 218 271 217 250 174 209 254 172 226 264 227 314 222 213 297 169 228 297 289 291 251 295 183 213 245 304 267 167 271 348 331 274 229 187 193 305 284 255 219 186 344 187 166 194 342 261 265 248 296 178 287 166 269 268 216 241 158 273 320 288 279 178 270 135 233 277 240 192 169 221 283 336 204 199 184 210 284 270 210 283 259 290 260 200 229 243 178 273 188 212 261 152 268 343 357 289 199 180 271 215 259 222 173 197 145 325 197 206 307 359 171 177 239 238 258 282 194 232 299 319 316 399 279 242 276 237 289 157 178 259 221 334 311 209 305 241 208 310 378 326 250 249 171 208 205 291 334 256 246 257 214 179 191 204 209 199 272 290 208 237 290 219 235 340 251 297 249 282 212 277 264 293 259 234 205 206 229 208 245 258 225 235 233 213 238 197 211 285 217 208 336 245 286 308 254 241 264 249 280 352 274 336 244 206 199 276 209 188 318 313 279 217 202 295 244 211 182 276 164 234 193 275 262 242 200 224 213 298 262 168 242 202 258 200 254 320 225 201 319 235 327 241 212 242 410 310 266 257 244 224 247 282 249 155 300 207 303 229 213 259 274 294 211 146 350 199 391 201 241 237 311 206 136 318 172 229 159 290 281 273 294 318 246 194 267 253 279 311 222 293 150 340 290 282 223 273 249 276 232 223 272 360 197 203 245 274 273 290 308 272 218 243 238 289 267 220 201 339 256 232 303 170 297 225 144 241 165 336 261 149 309 225 315 308 232 220 231 220 260 143 314 213 217 206 255 301 291 371 298 290 201 216 233 227 226 242 313 355 202 323 280 250 192 190 223 264 279 375 279 233 249 357 250 226 211 171 304 259 284 253 249 192 210 202 214 321 257 308 261 197 335 278 230 239 255 198 175 134 229 291 173 265 295 263 204 293 262 256 170 324 177 193 239 242 251 294 255 246 268 226 190 250 354 338 240 235 226 225 161 242 371 252 244 178 290 359 221 236 207 175 252 217 307 222 220 217 301 234 303 137 237 271 293 210 171 205 202 218 181 233 230 314 286 360 243 271 287 134 188 170 264 264 223 218 218 264 298 198 231 157 234 196 318 364 294 204 242 228 302 230 280 243 258 213 243 227 248 242 290 222 185 219 234 162 171 256 220 307 279 301 264 235 200 200 271 264 335 242 190 241 284 230 254 213 260 252 317 223 277 218 284 176 240 324 224 192 258 278 215 272 332 315 255 236 219 303 194 247 215 204 272 298 266 262 277 203 232 252 232 149 249 303 210 262 249 280 217 279 290 207 278 287 265 203 199 224 238 203 281 191 182 285 280 249 272 243 200 241 229 256 105 244 218 252 306 246 192 204 258 184 263 280 238 254 251 195 301 262 258 207 237 222 179 306 238 349 220 245 254 219 316 300 262 277 113 255 285 304 271 192 209 189 177 158 207 190 304 199 258 240 211 248 92 198 329 252 213 254 293 297 245 259 194 215 192 267 299 214 176 256 281 210 186 173 279 200 139 266 335 213 303 252 258 192 216 230 236 217 128 227 267 163 219 357 228 342 348 323 217 236 316 191 294 232 173 135 267 258 247 208 371 223 205 250 194 217 239 180 241 319 222 224 264 296 323 326 292 247 300 216 276 178 250 231 232 231 257 232 330 244 297 240 160 301 281 299 268 300 233 249 218 219 141 428 184 271 336 209 217 200 219 347 316 339 279 219 209 196 249 257 220 243 241 252 157 295 231 253 291 153 247 287 207 281 212 261 241 238 250 291 286 229 256 312 351 217 255 236 331 261 238 197 267 298 277 273 311 215 183 192 282 255 233 244 262 160 196 250 219 294 192 205 182 327 284 226 252 225 320 279 286 315 252 205 300 182 241 139 285 286 236 244 217 263 222 240 176 252 251 304 269 262 283 213 255 317 361 340 276 204 143 268 229 222 181 153 186 228 278 220 285 163 197 252 322 287 297 153 184 214 207 214 199 179 199 253 251 236 214 321 257 237 241 271 297 182 253 247 161 213 309 315 188 202 189 295 165 275 301 261 255 255 306 320 261 255 214 254 273 255 168 221 241 247 </t>
+  </si>
+  <si>
+    <t>F(1.4452656103828612, 1.2193484918298254, -1.2200638824751217e-29, 1.3394832461492379)</t>
+  </si>
+  <si>
+    <t>2 2 2 4 2 1 2 2 1 1 2 2 0 3 1 1 2 0 3 0 1 3 2 1 0 1 2 2 3 1 1 1 0 2 3 3 1 2 2 2 0 3 0 2 1 1 1 3 0 1 2 5 1 2 1 3 1 2 2 2 2 1 3 1 1 0 1 1 2 1 2 0 1 1 0 3 1 2 2 1 1 3 0 2 1 1 2 2 0 1 1 2 1 0 0 2 0 3 3 2 1 0 4 3 0 1 1 2 2 0 2 4 0 1 0 1 3 1 2 2 1 0 0 1 0 4 1 2 1 1 2 3 1 0 1 0 2 1 1 0 2 3 2 2 3 2 1 1 1 2 4 0 0 1 2 0 3 2 1 1 4 0 1 3 1 1 2 2 5 2 2 2 1 2 2 1 0 3 3 2 3 2 0 0 0 1 0 1 0 2 1 2 0 2 0 2 2 0 1 4 0 0 2 1 2 2 0 1 1 2 1 3 2 1 1 1 3 1 3 1 2 3 2 1 1 2 0 2 1 1 2 2 1 2 0 1 1 1 1 1 1 3 1 1 1 1 2 2 2 1 2 4 1 1 2 2 2 0 0 3 2 1 1 3 1 1 2 3 3 2 1 2 0 0 2 2 1 0 2 1 2 1 1 2 2 1 0 6 4 1 0 2 1 2 1 1 2 1 0 2 1 2 1 2 0 1 0 2 1 1 1 1 3 0 2 2 1 1 2 2 1 0 4 0 2 2 1 2 3 1 2 3 1 0 0 2 0 0 2 1 3 1 1 0 1 0 1 2 2 1 0 0 0 1 1 2 0 3 2 2 3 2 3 1 1 2 2 2 4 2 2 2 3 3 3 1 1 0 1 2 0 2 2 2 2 0 1 0 3 1 0 1 1 0 1 2 2 2 5 2 1 2 3 0 0 0 1 2 1 3 0 3 4 1 3 0 3 2 2 2 1 1 1 2 3 2 2 4 2 0 0 2 1 0 0 1 1 3 2 0 2 4 2 5 1 0 0 1 3 3 0 1 3 1 1 2 1 1 0 2 2 1 0 4 2 3 1 1 1 2 1 1 2 1 2 0 2 2 3 1 0 2 1 3 2 2 3 1 2 0 1 1 3 3 2 1 3 1 2 1 1 1 1 0 0 2 0 1 3 3 0 2 3 3 0 1 4 1 3 1 2 2 1 0 0 3 2 1 1 0 0 2 1 3 2 1 1 0 1 1 2 1 2 1 3 1 1 1 2 2 2 1 0 1 1 4 0 1 5 2 2 2 0 2 2 4 0 1 1 0 1 1 0 1 2 1 4 0 1 1 2 0 2 1 0 1 1 2 0 1 1 2 1 2 2 0 1 2 1 3 0 2 1 3 2 1 1 2 2 1 0 0 1 2 3 0 2 2 1 0 1 2 1 1 2 3 2 3 3 1 0 3 2 0 1 1 1 1 1 1 2 0 1 1 0 1 3 0 0 1 0 2 1 1 1 2 3 0 1 1 1 0 1 1 2 1 0 3 0 0 1 0 0 1 1 1 2 2 0 2 1 2 0 3 1 2 3 2 0 1 4 0 0 1 0 1 3 2 1 1 3 1 1 1 2 1 1 2 2 1 2 1 2 1 0 2 1 1 1 1 3 0 1 1 0 2 0 1 1 2 1 0 2 2 3 0 4 0 0 0 2 3 0 1 1 4 2 1 1 1 0 1 1 0 0 1 0 3 3 2 1 2 1 2 2 1 1 0 2 3 1 1 0 1 2 2 2 0 1 0 1 1 3 2 1 1 1 4 1 2 0 1 1 2 2 2 3 2 2 3 2 2 0 0 1 2 2 1 1 2 2 0 2 1 2 2 1 1 2 1 1 2 0 2 3 0 2 2 0 3 2 3 2 2 2 1 1 4 1 1 1 2 5 0 3 1 2 0 2 1 1 1 1 1 1 3 1 1 1 1 1 2 2 2 2 3 1 3 0 3 1 3 0 1 1 2 1 2 1 1 3 1 0 1 2 1 2 2 1 1 2 1 1 2 3 3 1 3 2 1 1 1 1 2 0 3 1 0 1 1 2 1 1 0 2 1 3 0 5 1 0 2 1 0 1 0 0 1 0 4 0 2 2 2 2 1 1 2 1 1 1 1 1 2 2 3 1 1 1 0 1 1 2 1 0 0 2 1 2 3 1 2 2 1 1 1 1 0 2 2 2 1 1 1 1 0 1 1 0 1 1 2 4 1 2 3 3 2 3 4 2 2 1 3 2 1 2 0 1 1 0 2 4 1 1 0 2 3 2 2 1 2 2 2 2 1 3 2 3 5 2 1 1 1 2 2 1 3 2 0 3 3 3 1 2 2 1 2 2 0 1 0 1 2 0 0 2 2 1 2 1 0 2 1 1 0 2 2 0 4 1 1 2 0 2 5 1 2 1 3 2 1 0 2 0 2 1 0 2 3 0 2 3 1 1 1 2 0 2 2 4 1 1 2 0 2 2 1 2 3 0 1 3 2 5 4 2 1 0 3 2 1 1 1 2 3 0 3 2 0 3 2 2 2 0 2 2 1 3 0 2 2 2 2 0 1 1 2 1 2 1 2 1 0 1 1 1 2 4 3 4 0 0 1 0 2 0 0 2 1 1 3 2 1 3 3 1 1 2 1 1 1 1 2 3 0 0 1 1 0 1 1 0 4 3 1 0 2 0 1 4 0 1 4 3 2 2 3 2 3 3 2 1 1 2 0 0 1 2 2 3 2 1 1 2 1 2 2 2 1 0 1 4 2 2 1 1 0 1 3 3 2 0 2 1 1 0 0 4 3 1 5 3 2 2 1 2 2 2 0 1 2 1 1 1 2 3 2 1 2 1 0 2 3 2 2 2 2 1 1 0 2 1 2 1 0 2 1 0 1 0 2 2 3 1 1 0 0 1 2 2 0 2 2 3 0 1 0 3 3 1 1 1 3 1 1 0 2 5 3 2 1 2 2 1 2 2 0 1 0 1 1 2 0 1 3 1 2 3 0 0 3 3 3 1 1 3 0 2 3 1 3 2 1 0 1 1 1 2 2 3 1 2 1 1 2 1 0 3 1 1 2 2 2 1 2 1 0 0 1 1 1 1 1 2 1 0 2 2 4 2 1 4 1 2 0 2 0 1 1 2 1 2 2 1 2 2 4 3 4 2 3 1 0 1 1 2 3 1 0 0 3 1 3 0 2 3 1 2 1 1 2 0 1 2 2 1 2 1 1 2 3 1 2 1 0 0 1 1 2 2 2 1 3 2 1 1 1 1 2 1 0 1 1 1 0 3 0 0 3 2 1 1 2 1 2 1 2 3 1 2 3 2 2 2 2 1 2 1 0 1 3 1 1 1 2 2 1 1 3 0 2 1 2 3 0 3 1 2 1 1 1 2 1 2 1 2 1 1 2 0 1 2 0 2 2 2 1 0 3 1 2 3 0 1 3 3 1 0 1 0 1 1 1 4 1 1 2 2 1 2 1 0 0 1 1 0 2 1 0 1 3 1 5 3 1 2 0 1 1 1 1 2 1 0 0 0 2 2 0 3 2 0 1 0 1 3 1 0 3 2 2 2 1 3 2 1 4 0 2 1 2 0 2 1 1 0 1 3 1 3 1 2 1 2 0 2 1 1 2 3 0 1 0 0 2 1 1 2 4 1 2 1 0 0 0 3 2 3 1 3 2 0 0 1 3 0 1 1 1 3 1 2 0 2 1 1 0 1 2 2 2 1 1 1 2 2 0 1 0 1 0 2 0 4 4 1 3 2 1 0 0 2 0 1 1 1 1 0 2 3 2 2 1 1 2 1 3 2 0 0 4 1 0 3 1 1 2 1 0 1 1 0 0 0 1 3 2 3 3 2 0 1 4 3 2 3 2 2 1 3 1 3 4 0 2 2 0 2 2 2 0 1 0 1 0 3 3 2 1 0 0 2 1 1 3 4 2 1 2 1 0 4 3 0 4 1 0 2 1 1 1 1 2 3 2 2 1 2 2 2 2 1 0 2 1 1 1 3 1 2 2 1 1 3 2 1 3 2 3 1 2 1 3 1 3 3 0 2 3 1 1 1 2 2 1 1 2 1 1 1 2 2 0 2 2 1 3 0 1 2 2 1 0 2 1 4 1 1 2 0 2 2 1 1 1 2 2 4 4 1 1 1 3 2 1 2 1 1 0 0 0 4 1 3 2 0 1 3 2 2 4 1 2 2 0 1 1 2 5 3 4 3 1 2 3 2 0 3 1 1 2 2 1 4 1 1 2 2 2 1 2 1 3 2 1 2 1 3 3 4 1 1 0 1 0 1 2 3 2 2 3 3 1 0 2 1 1 2 3 1 2 2 1 1 1 2 2 3 2 1 3 1 2 1 1 2 1 1 1 2 3 2 2 2 4 1 1 1 3 4 1 2 3 4 1 1 1 2 0 0 2 1 1 3 1 1 0 1 0 0 1 0 3 1 2 0 2 1 0 0 3 1 0 3 3 3 1 2 2 1 1 2 2 2 0 3 3 3 0 0 3 3 0 0 0 0 0 2 1 3 1 1 1 2 3 3 0 2 1 3 0 3 1 1 1 0 0 1 4 1 0 0 0 0 3 1 3 1 2 0 1 1 0 1 1 3 4 3 0 1 4 1 2 3 2 0 0 1 3 1 1 2 1 1 1 2 1 2 1 1 0 1 1 1 3 2 2 2 2 3 0 0 1 2 1 1 3 2 1 1 1 1 3 2 3 2 1 2 2 0 2 2 1 2 2 2 0 2 1 2 2 0 2 2 1 3 2 2 1 4 1 2 5 1 2 1 2 3 0 0 1 1 1 2 0 0 1 0 3 1 2 2 2 0 2 2 1 1 2 3 1 3 1 2 4 0 2 2 1 2 3 0 1 0 1 2 2 1 2 2 1 1 0 1 0 5 2 1 1 2 0 0 1 1 1 0 1 1 0 2 0 2 2 2 1 1 1 0 2 1 1 1 2 1 2 0 1 2 3 3 1 2 1 3 0 1 4 0 0 4 1 2 1 2 1 1 2 2 1 2 1 0 0 2 1 2 1 0 1 0 1 1 3 1 2 1 1 2 2 0 1 3 2 1 1 0 5 2 0 1 2 1 1 3 1 2 0 2 0 1 3 1 2 2 2 1 4 0 1 1 1 1 2 2 0 0 1 1 1 2 1 1 0 1 3 1 0 1 2 0 2 2 1 0 1 0 1 2 1 1 1 0 2 1 2 1 2 4 2 2 3 2 0 2 2 2 2 2 0 2 2 1 4 0 1 3 4 2 1 2 0 1 1 1 0 1 3 4 2 1 1 2 0 0 1 1 0 2 1 1 0 1 0 2 1 1 2 3 0 1 1 3 1 1 1 2 2 2 3 0 3 0 0 1 1 1 0 2 3 0 0 0 1 1 1 2 1 2 0 1 0 2 1 0 0 0 2 1 2 4 0 2 1 1 2 0 2 3 2 2 3 1 1 2 0 1 1 2 2 1 3 1 1 1 1 1 1 1 1 2 2 1 4 3 2 1 2 1 1 1 1 0 1 2 2 0 2 0 1 1 0 2 3 0 1 1 0 0 2 2 2 0 1 0 2 3 1 1 1 3 3 2 2 2 1 0 4 1 0 2 1 2 2 2 1 2 0 2 1 1 2 0 1 1 1 0 1 2 2 1 2 2 0 1 2 2 1 1 2 2 4 1 3 2 3 3 3 1 2 0 1 1 3 2 1 1 1 1 2 2 0 3 2 0 1 2 0 2 1 1 4 0 3 0 2 0 1 2 0 1 2 2 1 2 2 0 2 0 4 1 2 1 0 1 1 1 2 1 1 0 1 0 2 1 2 4 3 1 3 0 3 1 0 2 0 0 0 2 1 2 0 2 1 1 1 1 2 1 1 2 2 1 3 2 1 1 0 3 1 3 4 0 1 1 0 2 0 2 1 2 2 1 2 2 2 0 2 1 1 1 1 1 1 2 2 1 2 1 3 0 1 1 1 2 1 1 1 1 0 2 2 2 7 3 0 0 1 3 0 1 2 0 1 2 2 1 2 2 1 1 2 1 1 1 1 1 1 3 2 3 1 2 1 2 0 0 2 1 0 0 2 2 2 2 3 1 1 2 1 2 0 1 2 1 2 0 1 2 2 2 2 0 2 1 3 3 3 1 2 0 2 1 1 2 0 1 0 3 1 3 0 1 3 1 3 1 0 1 4 1 2 2 2 2 0 0 1 2 2 2 2 2 3 1 2 0 2 1 3 0 3 0 2 2 1 1 3 2 1 1 1 1 3 2 1 0 0 1 0 4 3 0 2 1 1 2 1 2 2 2 2 2 2 1 2 1 2 2 2 0 1 3 2 4 2 1 2 4 0 1 2 0 2 3 2 1 3 2 1 2 1 2 0 2 1 1 0 1 2 2 3 4 1 0 3 2 0 0 0 0 0 1 3 0 0 1 0 0 2 2 1 0 1 1 1 0 2 0 1 2 1 1 1 3 2 2 1 1 1 1 2 0 3 0 1 2 2 2 0 1 1 0 0 0 1 2 1 2 1 2 1 0 1 1 2 1 0 1 0 3 2 2 2 1 3 3 1 1 1 1 2 2 0 3 3 0 0 1 2 1 1 1 1 0 2 1 2 1 0 2 1 3 1 1 2 0 1 3 1 1 3 1 2 3 3 0 2 3 3 1 1 1 0 1 0 3 2 1 2 2 0 2 4 1 1 0 0 2 2 1 1 2 4 1 0 2 0 2 2 2 0 2 3 1 1 3 0 4 2 2 3 1 1 1 1 1 1 1 2 2 3 0 1 3 1 2 3 1 3 2 1 1 2 0 2 2 1 3 0 0 1 0 2 1 2 1 1 3 2 0 4 2 3 2 3 0 2 0 1 1 2 1 1 2 1 0 2 1 2 1 0 2 3 2 0 1 2 1 1 4 2 1 3 2 1 1 2 2 2 1 0 1 2 1 1 2 1 2 0 1 3 1 1 0 2 0 1 2 2 0 2 1 0 2 2 0 1 2 1 2 2 2 1 2 3 2 2 2 2 3 1 0 1 1 2 0 1 3 1 2 0 0 2 3 1 0 1 1 2 2 1 2 2 0 3 1 3 1 1 3 2 0 3 1 2 1 3 1 0 1 0 1 2 0 1 1 1 1 3 1 2 1 1 1 0 1 1 1 0 0 0 2 2 1 2 0 2 2 1 2 1 1 2 0 1 1 2 1 2 1 2 0 1 3 0 2 1 0 2 1 1 1 1 1 0 2 2 1 2 1 3 2 2 1 3 2 3 0 1 1 2 3 2 1 1 0 2 0 2 0 1 0 1 2 2 1 1 2 0 2 1 1 3 1 2 2 3 3 1 2 3 1 1 3 1 5 3 3 2 1 2 2 1 1 1 1 0 0 1 2 1 1 3 1 1 2 1 3 2 1 1 0 2 0 1 0 2 1 1 1 1 2 1 0 2 2 3 2 1 0 1 3 0 0 2 2 4 0 1 2 2 1 0 2 0 1 1 3 0 2 0 0 1 3 1 2 1 0 2 1 0 2 3 2 1 2 2 0 2 1 2 1 2 0 0 1 0 2 3 2 2 1 2 2 2 1 1 2 2 0 0 2 1 1 2 2 4 1 4 4 0 2 0 2 0 3 2 2 0 0 2 1 2 2 3 3 4 2 2 1 2 0 0 3 2 1 0 2 1 0 1 1 2 1 1 0 1 2 2 1 3 3 1 3 3 1 5 0 1 4 2 2 4 2 1 1 3 2 2 2 2 1 2 1 1 1 2 2 1 2 1 2 1 2 1 1 0 0 3 2 2 2 0 1 1 1 1 1 2 1 0 3 1 1 2 2 2 1 2 2 3 0 0 2 1 1 1 3 1 1 1 3 1 1 0 3 2 2 3 1 0 1 1 1 1 3 2 2 0 1 1 2 1 1 3 1 2 3 3 3 1 1 0 4 1 0 3 2 0 0 0 1 2 1 2 1 3 2 3 2 1 0 1 2 1 0 2 3 2 2 1 3 3 1 2 1 3 2 2 3 5 1 0 0 5 3 2 2 2 0 2 1 0 2 2 1 1 0 1 3 2 1 1 1 1 3 1 2 3 1 2 2 1 2 2 1 2 1 3 1 0 0 1 2 0 2 2 3 1 1 2 1 3 0 0 0 2 1 1 3 0 2 1 2 2 2 2 4 2 2 4 0 2 2 1 1 1 0 1 2 0 0 1 1 3 1 0 2 2 3 1 3 1 1 1 0 1 3 2 4 2 3 0 0 2 2 1 1 0 1 5 4 3 0 1 2 2 3 2 4 2 1 3 2 3 0 1 0 2 0 1 3 2 1 0 1 0 3 2 2 3 0 1 2 3 2 0 2 3 0 1 1 0 1 2 2 1 0 4 1 4 1 1 2 2 2 1 2 1 1 1 2 1 1 1 3 2 0 1 4 1 1 1 1 1 1 0 1 0 1 2 2 0 3 2 1 0 1 2 2 0 2 1 3 1 2 0 2 4 0 0 3 2 2 3 1 1 2 2 0 0 2 1 1 1 2 0 1 1 1 2 3 1 1 1 1 0 2 1 1 1 1 1 0 1 0 3 1 0 1 0 0 1 1 1 2 1 3 3 0 0 2 3 2 1 2 1 2 1 1 1 0 1 0 1 2 3 4 0 3 1 1 3 1 2 0 2 3 1 1 1 1 2 1 3 1 1 0 2 3 1 1 2 1 0 1 1 1 1 3 1 1 1 1 1 0 0 1 0 2 1 2 1 1 1 2 0 3 1 1 2 1 0 1 1 1 1 0 0 0 0 1 0 0 3 0 2 4 2 1 1 1 0 1 2 2 4 2 1 0 1 1 1 5 0 2 1 1 0 2 1 1 1 5 2 2 1 3 1 1 3 3 2 3 0 0 0 3 1 2 1 2 2 1 3 2 2 1 2 1 0 3 1 2 2 0 2 1 1 2 1 3 0 0 1 2 2 2 0 1 1 2 5 2 1 0 3 4 2 2 1 3 2 1 2 1 0 2 2 3 3 1 1 2 2 1 1 0 2 2 0 3 0 2 3 1 0 2 5 0 2 1 3 0 1 2 3 0 1 3 0 1 1 1 2 3 1 1 4 2 4 1 3 2 1 1 1 0 3 3 2 3 1 2 2 1 0 1 2 2 2 1 3 2 0 1 1 3 3 1 1 3 1 0 1 2 4 3 0 0 0 1 1 2 0 0 2 1 0 1 1 1 1 1 0 1 1 2 0 1 2 2 2 1 2 1 2 1 2 1 2 2 1 2 1 3 1 3 0 0 1 2 2 2 2 3 2 0 3 1 1 1 3 0 1 3 0 2 0 2 2 1 3 1 2 2 2 0 0 2 2 1 1 0 0 2 2 3 1 0 2 1 3 2 2 1 1 0 0 1 2 2 0 3 1 3 2 3 0 0 1 2 1 1 4 2 2 1 0 2 3 0 2 2 1 1 2 2 3 2 0 0 2 1 3 1 4 2 2 2 2 1 1 0 1 1 1 0 1 1 3 1 1 2 3 4 1 2 1 1 0 1 4 1 2 1 1 2 3 2 2 1 2 1 1 1 1 0 0 3 0 0 0 1 3 1 1 1 1 3 1 1 1 0 2 2 0 1 1 3 5 0 2 1 2 1 1 0 3 2 2 3 1 1 1 1 2 2 2 1 1 2 2 1 1 0 3 3 2 1 3 1 1 3 1 3 1 2 0 4 2 3 2 5 1 3 2 1 0 1 1 2 2 1 2 2 0 1 0 2 1 1 1 1 0 0 3 0 1 1 1 0 1 2 1 0 2 0 2 3 2 1 1 3 3 3 1 4 1 0 0 2 1 1 3 2 1 1 3 2 2 3 3 1 1 3 3 1 0 1 2 2 4 4 1 1 2 2 1 2 1 0 1 3 1 3 1 0 1 3 2 1 0 5 2 1 3 1 1 2 3 2 2 2 1 3 2 1 2 2 0 1 1 1 3 2 2 2 2 2 1 2 2 3 0 1 2 3 3 2 1 1 1 2 1 2 1 0 1 1 1 2 1 2 2 2 0 2 4 3 2 2 2 1 2 3 1 1 2 1 1 1 2 0 2 2 1 1 1 1 2 1 1 1 0 1 2 0 0 1 1 4 2 1 1 1 1 2 1 3 1 2 4 3 0 1 1 0 1 3 2 1 3 2 4 1 0 0 1 2 1 0 0 0 0 2 1 1 1 1 2 1 1 1 1 2 2 1 1 1 2 2 2 1 1 1 1 1 2 1 2 1 2 1 1 2 2 1 2 4 3 2 2 2 1 1 1 0 1 2 1 0 0 1 1 0 1 0 0 0 3 2 1 2 3 1 2 1 1 3 0 2 1 3 0 0 1 2 3 1 1 2 0 1 0 1 2 4 0 1 0 0 1 1 1 2 1 1 1 0 0 5 0 1 0 1 2 1 0 1 2 1 0 2 1 1 3 2 2 0 1 2 0 1 2 0 1 3 2 2 2 0 2 2 2 1 1 0 3 1 1 1 1 1 1 1 0 3 2 1 3 2 1 3 0 0 2 3 2 0 2 3 0 1 1 2 3 0 1 3 1 1 3 0 2 2 2 5 1 4 1 0 4 0 2 1 3 3 1 1 2 3 1 2 2 0 1 1 1 1 3 0 3 1 2 2 1 3 1 0 1 1 1 1 1 2 2 1 2 2 1 0 2 0 2 6 1 1 3 1 3 0 1 2 0 2 0 3 0 1 2 0 1 3 0 2 1 3 0 1 2 3 1 1 0 3 1 1 0 3 0 3 2 0 1 2 2 2 2 2 1 0 2 3 0 1 0 2 2 0 3 1 1 1 3 2 3 1 0 1 2 2 3 0 0 0 1 0 4 0 2 1 3 0 2 1 2 2 3 3 2 2 2 2 2 2 2 1 2 1 1 1 2 0 1 1 2 1 1 2 2 1 2 1 0 1 1 2 1 1 2 1 1 2 1 1 1 0 2 0 4 0 2 1 1 3 1 0 2 0 1 2 1 1 1 2 1 2 2 1 2 1 3 3 1 3 2 2 1 1 0 3 4 0 1 5 0 1 1 0 2 2 0 1 3 2 2 2 3 0 0 2 1 0 2 1 1 1 1 1 2 0 2 1 0 2 0 2 1 2 1 0 1 2 0 2 1 2 1 2 3 1 1 1 2 1 2 2 2 1 0 1 1 1 0 1 0 5 2 1 1 1 1 1 2 0 4 2 2 4 3 1 1 2 1 1 4 1 1 2 2 1 1 1 0 1 1 2 1 3 0 3 1 1 2 2 4 0 1 0 2 0 2 2 1 1 2 0 2 0 2 2 1 0 2 1 2 0 0 2 1 0 3 4 2 2 1 1 2 1 2 0 3 2 0 3 0 1 3 1 1 2 0 0 3 1 2 2 1 0 0 2 2 1 1 0 1 0 3 0 1 1 1 0 1 0 0 4 3 1 2 1 2 1 2 1 0 1 2 0 0 2 1 1 1 3 2 1 0 1 1 1 2 1 2 1 2 0 5 0 1 1 1 2 1 4 0 1 3 2 1 1 3 2 1 0 3 3 2 1 1 0 1 2 1 1 0 1 2 1 0 1 2 2 1 1 2 2 2 0 2 4 0 1 1 1 0 2 2 1 2 1 2 1 1 1 1 1 0 1 1 4 0 2 3 1 2 1 0 3 1 2 2 1 2 4 2 2 2 2 3 1 2 2 3 1 1 1 2 1 0 2 2 1 2 0 1 2 0 3 2 2 3 2 1 1 2 1 2 1 0 0 1 5 1 1 2 2 0 0 0 2 0 1 1 3 2 1 0 1 1 2 1 3 1 1 3 2 2 1 2 2 1 4 1 1 1 1 0 0 1 2 0 3 2 0 1 1 1 3 2 1 2 2 0 1 1 0 3 3 2 1 1 0 1 3 1 2 0 1 3 2 2 3 1 0 1 2 0 2 2 2 0 1 0 3 4 2 0 1 2 0 0 2 3 1 2 1 1 0 2 1 1 1 1 2 3 6 2 2 2 1 5 2 2 2 1 1 0 4 1 0 2 3 2 2 3 1 3 2 3 1 2 2 1 3 2 3 1 0 2 1 0 4 2 0 1 1 1 1 2 1 1 1 1 0 1 1 0 1 1 1 0 2 1 1 2 1 1 3 1 1 1 0 1 2 2 1 2 2 2 2 2 0 1 1 1 2 1 3 1 4 1 1 2 0 3 1 1 2 0 1 2 0 3 1 1 4 1 0 0 3 2 2 3 1 3 0 2 2 1 2 1 1 1 0 1 3 0 2 0 3 1 0 1 2 1 1 0 0 0 1 1 1 0 1 1 2 4 3 2 1 4 1 1 1 3 1 1 1 1 3 1 2 2 4 3 2 0 4 1 0 3 1 2 1 1 1 0 3 1 2 2 2 0 1 1 3 0 1 2 2 1 1 1 2 3 2 2 1 2 1 1 1 2 3 4 3 1 2 1 2 2 1 2 1 3 1 0 4 1 1 4 0 2 1 2 2 4 1 1 0 1 2 3 1 2 1 1 2 0 2 2 2 3 1 0 2 1 1 1 1 2 1 2 1 5 1 0 1 1 2 0 1 1 2 0 1 0 2 1 2 1 2 0 1 1 1 1 3 2 2 2 0 0 3 3 1 1 3 0 2 1 0 2 1 2 1 1 1 0 1 2 0 2 0 1 2 3 1 1 3 0 2 1 4 2 2 1 2 0 3 4 1 2 1 1 0 2 2 1 2 0 0 3 3 1 1 3 2 3 0 2 1 2 0 0 2 4 1 3 0 2 2 1 5 0 1 3 1 3 1 1 1 2 1 3 0 3 2 1 1 2 1 3 1 0 1 3 3 0 0 1 0 3 0 2 0 1 0 1 3 2 4 2 3 0 0 2 2 1 0 1 0 1 2 3 1 1 0 3 2 1 0 3 0 1 2 2 1 1 3 0 1 0 2 2 2 3 2 3 1 1 2 2 0 0 3 1 3 0 4 1 2 3 3 3 1 0 2 3 2 2 1 2 1 2 2 2 3 0 2 1 1 1 1 1 0 1 1 2 1 2 3 0 2 3 0 2 1 2 1 3 1 2 1 2 2 0 3 1 3 0 1 0 1 0 1 1 1 0 1 1 3 1 2 2 0 1 1 0 2 1 3 1 2 2 1 1 1 1 2 0 2 2 1 1 2 3 1 2 3 2 1 1 1 0 1 2 3 1 1 2 1 3 2 3 0 0 1 1 3 2 1 1 2 2 1 1 2 0 0 3 0 1 1 2 1 2 1 1 1 1 0 2 1 2 3 1 1 1 2 1 2 1 1 2 1 2 1 1 1 2 0 1 1 1 1 1 3 4 1 2 1 1 2 0 0 1 1 2 3 1 4 0 1 1 1 2 0 1 2 1 3 0 1 0 1 1 3 1 0 3 1 1 0 2 2 1 3 2 3 1 1 1 1 3 3 0 0 1 1 1 2 1 1 0 1 1 1 3 2 1 1 0 2 0 3 2 2 2 1 0 0 1 1 1 0 1 1 2 1 1 2 2 1 2 0 1 0 1 0 1 2 2 1 1 2 2 1 3 1 1 1 0 0 1 0 1 0 1 2 2 1 1 2 1 1 0 1 1 3 3 2 0 3 0 1 2 0 0 3 5 0 3 2 1 2 1 3 2 1 0 1 3 1 1 1 2 2 0 3 2 0 2 2 2 2 1 3 2 0 2 2 2 2 1 2 1 2 0 0 0 1 3 1 4 3 2 5 0 2 1 2 3 2 2 3 1 0 2 3 1 1 0 1 0 0 2 1 1 2 2 1 0 1 0 0 2 0 2 1 2 2 1 0 4 1 1 2 2 3 0 0 0 2 0 1 2 1 0 2 1 1 1 2 2 3 1 2 0 1 1 1 1 1 0 2 1 1 2 4 1 2 3 1 0 2 2 2 2 8 0 1 3 3 0 2 1 1 3 2 1 1 3 1 2 0 2 4 2 3 2 1 1 2 0 1 2 0 2 0 1 0 1 1 2 3 1 1 1 1 2 0 3 0 3 4 2 1 1 2 1 0 2 0 2 2 1 0 1 1 1 1 1 3 2 1 1 1 1 1 0 2 1 1 4 0 1 1 1 2 1 1 2 0 3 0 1 2 2 2 1 2 1 2 1 4 1 1 4 1 3 1 1 1 2 1 2 1 2 1 1 2 1 2 0 1 4 1 2 1 2 1 0 2 2 2 1 1 2 1 3 1 2 1 1 4 2 0 2 0 1 0 0 1 1 1 1 4 2 1 1 1 1 2 2 2 0 1 2 3 1 1 3 2 2 2 3 1 2 1 2 1 0 2 3 1 3 3 3 1 3 3 2 1 1 0 1 1 1 1 1 1 2 2 2 2 1 0 2 2 0 1 1 1 2 3 1 1 2 1 4 3 2 1 1 3 3 3 0 0 0 1 0 3 1 1 0 2 1 2 0 2 2 0 3 1 2 0 3 2 0 2 0 3 4 3 1 0 3 1 1 0 1 1 1 2 0 1 2 1 4 2 1 2 1 3 2 0 3 1 4 1 1 2 2 0 0 2 2 0 0 2 1 1 0 2 1 1 0 1 1 1 1 0 1 3 1 1 0 1 1 2 1 1 0 2 1 2 1 2 0 3 0 1 1 1 0 1 0 2 2 4 1 2 1 1 3 1 1 2 2 1 0 0 1 1 2 2 1 3 2 3 0 0 3 1 0 1 0 1 1 3 0 2 1 0 3 2 0 0 2 3 2 0 2 3 1 1 1 2 1 1 3 1 2 1 1 2 1 1 1 1 1 1 1 0 1 4 1 2 2 4 1 2 2 2 1 0 1 2 2 2 2 2 5 0 1 1 3 0 1 1 1 3 0 3 0 0 2 1 1 1 0 2 2 4 2 2 1 2 2 2 0 3 3 2 0 3 1 3 1 1 0 2 1 0 1 1 0 0 1 2 1 2 2 3 3 0 1 2 2 2 3 1 1 2 2 2 2 1 1 2 2 3 1 2 0 1 0 0 0 0 0 0 0 1 2 1 1 1 1 1 3 2 2 0 1 0 1 2 2 3 1 2 2 3 1 4 1 3 0 1 1 1 2 2 2 1 2 3 1 3 2 1 4 1 0 0 2 1 1 2 0 1 2 4 3 0 1 1 2 1 1 0 1 2 4 0 0 3 2 1 1 6 2 4 1 1 3 1 1 2 3 3 1 2 1 1 2 1 2 1 1 2 1 2 2 0 4 1 1 2 2 1 2 0 3 1 0 2 0 3 1 1 0 0 2 1 1 2 1 1 1 2 0 1 5 2 0 1 0 1 2 1 1 0 3 0 1 1 1 3 1 0 2 1 1 0 3 1 2 0 1 1 0 2 1 1 1 2 1 0 1 3 2 0 2 2 0 2 1 4 2 1 4 1 2 1 1 1 1 0 1 1 1 1 1 3 1 1 3 1 0 1 0 0 0 2 1 3 2 2 2 3 1 0 2 2 3 1 1 2 3 2 2 0 2 2 3 1 1 4 2 0 0 1 1 3 1 1 2 1 1 1 1 4 1 0 2 2 2 2 0 2 1 2 1 2 1 2 1 0 3 0 1 1 4 1 1 5 1 2 1 1 0 1 2 3 1 2 3 2 3 2 1 2 1 2 2 2 1 1 1 2 3 1 3 2 0 5 2 1 2 1 1 3 1 2 3 2 3 2 1 1 1 0 2 2 0 0 4 0 1 2 1 0 0 2 2 3 3 0 1 1 1 2 2 1 0 2 0 3 1 2 1 0 1 3 1 0 0 1 1 0 2 1 2 1 1 1 2 0 1 2 1 0 1 0 0 1 3 0 1 2 0 1 1 2 1 3 4 3 2 1 1 3 1 2 1 2 1 0 1 3 2 0 0 0 0 1 0 1 0 1 0 0 1 3 1 1 3 2 2 1 2 2 2 2 3 1 4 2 2 1 0 1 1 2 2 0 2 0 2 1 2 1 2 2 0 0 1 0 2 1 1 2 2 0 2 3 2 3 1 2 1 1 3 1 1 2 1 2 0 3 0 1 0 0 2 1 2 0 2 1 1 1 1 3 1 1 2 1 2 2 1 1 1 2 0 4 0 5 2 3 3 3 1 0 3 2 2 2 0 3 0 3 1 3 1 1 1 2 2 2 5 2 2 1 0 1 1 1 2 0 1 1 1 0 4 3 1 4 3 1 2 2 2 3 1 1 0 1 1 2 2 2 3 3 2 2 2 1 2 1 2 1 2 2 2 2 3 1 0 0 2 3 0 1 1 0 1 1 1 1 1 0 1 1 2 3 1 2 2 1 0 2 3 0 0 2 2 0 3 1 2 0 3 2 4 2 1 1 2 2 1 1 1 1 3 4 2 2 2 2 3 2 2 0 2 0 0 2 1 1 2 1 0 2 1 1 1 2 0 1 1 2 2 1 1 2 1 3 4 3 2 2 2 1 1 2 3 3 1 1 1 2 1 1 0 0 3 4 1 2 2 1 1 2 0 3 0 1 1 3 0 1 1 1 2 3 2 1 1 3 1 3 3 1 1 2 0 0 1 1 0 1 4 2 1 1 1 0 3 1 1 0 1 2 1 0 2 1 2 1 2 2 0 2 5 3 1 0 0 3 0 3 1 0 0 1 1 2 1 4 1 2 2 2 0 0 1 1 1 2 3 1 3 2 1 2 2 3 0 1 1 1 3 1 1 0 0 3 3 1 2 1 2 0 1 3 2 2 2 0 1 1 1 1 3 2 3 0 4 3 3 2 0 1 0 1 1 1 0 1 2 3 0 3 0 1 1 3 1 1 1 0 1 1 1 0 1 1 1 3 1 3 1 2 2 0 0 2 2 1 3 2 3 1 1 1 1 0 2 1 1 2 1 0 2 1 2 1 3 2 1 0 2 1 0 0 1 1 0 1 2 2 0 1 1 2 1 1 2 2 1 1 1 3 1 3 2 1 2 2 1 0 2 3 1 3 2 2 2 1 1 1 2 1 0 1 1 3 2 0 2 1 0 2 2 1 2 0 1 0 4 4 1 0 0 1 0 2 2 2 1 2 3 2 1 0 2 2 1 2 2 1 1 1 2 3 2 3 2 2 4 0 0 1 2 0 1 2 1 3 0 2 2 1 1 0 1 0 1 2 0 2 2 3 3 1 0 2 1 1 0 1 0 2 0 1 2 2 2 2 1 2 1 0 1 1 2 4 1 0 4 2 3 1 0 1 1 0 1 1 1 1 1 1 2 3 1 2 1 2 2 0 0 3 1 3 2 2 1 2 2 2 2 2 2 2 2 0 0 2 2 1 1 2 1 0 1 2 0 1 3 2 2 1 0 2 2 1 2 1 1 3 1 2 2 0 1 2 0 0 1 4 1 2 1 2 4 1 3 2 2 1 1 2 1 0 3 2 2 1 0 2 1 3 1 2 3 2 1 1 0 1 1 2 3 2 2 1 0 1 0 1 3 1 0 1 1 3 1 1 1 2 0 3 3 1 0 3 1 1 1 1 1 2 2 2 0 1 2 3 0 1 1 0 1 0 1 1 3 1 3 1 0 1 1 2 2 2 1 0 3 1 2 1 2 2 1 5 1 1 2 1 2 1 1 1 2 1 2 2 2 1 1 0 1 2 5 0 1 1 1 3 2 2 1 3 2 2 1 2 2 2 2 2 1 2 1 2 1 1 0 0 2 3 1 1 2 0 1 1 0 1 2 0 2 2 1 1 2 3 3 0 0 2 3 2 2 4 1 2 1 0 2 2 1 1 1 2 0 1 1 1 0 1 1 1 3 1 2 3 1 2 2 1 1 1 2 2 2 3 1 1 1 1 0 3 1 1 1 0 0 2 0 0 2 2 0 1 1 2 2 0 2 3 1 3 2 1 2 2 2 1 0 0 2 0 0 2 2 4 2 2 1 1 2 1 1 0 2 1 1 2 2 1 0 2 1 2 2 1 0 1 0 4 2 0 0 2 2 1 1 2 2 0 1 1 2 1 2 1 2 1 1 1 2 2 2 1 1 1 0 1 1 1 1 3 0 2 3 2 0 3 2 0 1 2 2 4 2 1 2 1 1 0 3 2 2 3 2 2 2 1 2 3 2 1 1 0 1 1 2 3 2 0 1 2 4 0 2 2 1 0 2 0 2 2 4 2 1 1 1 1 1 3 1 3 2 1 0 1 1 1 0 0 2 1 1 1 0 2 1 2 1 1 3 2 1 2 1 1 2 1 2 2 3 1 1 2 1 4 2 2 1 2 4 1 1 0 0 2 2 2 1 2 1 3 2 1 3 4 2 1 2 2 1 1 2 3 1 2 2 0 2 0 1 2 2 1 1 2 2 1 2 0 1 2 1 1 1 2 1 1 1 1 1 2 2 1 3 1 3 3 3 2 4 1 0 2 0 1 1 2 0 2 2 2 2 1 0 3 3 2 1 0 2 2 2 1 0 3 3 1 0 1 3 4 2 1 2 2 0 2 0 1 0 0 0 3 4 1 3 3 1 1 3 0 3 2 4 1 1 1 2 1 1 0 1 1 1 1 1 1 1 1 1 2 2 1 2 3 1 0 1 0 2 0 2 2 3 1 0 1 1 2 1 3 2 2 1 1 2 2 1 2 1 4 1 2 2 3 5 2 3 3 1 3 0 1 1 1 2 2 1 3 1 0 1 0 1 1 2 0 0 2 2 1 2 2 0 2 2 2 2 1 1 2 0 1 2 1 2 1 2 1 0 1 2 0 2 4 1 2 2 3 2 2 1 2 2 2 0 3 0 1 3 2 2 0 1 2 3 1 0 0 0 0 3 0 1 1 1 2 1 2 2 0 1 2 1 1 1 0 1 2 2 2 2 1 2 2 2 1 0 1 1 0 0 3 3 1 2 1 1 2 2 2 2 0 1 1 1 1 1 2 1 0 0 1 2 0 0 1 2 1 0 2 3 0 0 0 2 0 1 0 2 1 1 2 1 3 1 0 0 3 1 1 3 5 0 0 2 2 1 0 0 2 2 1 0 1 1 2 0 1 1 3 1 0 3 2 2 0 1 1 2 2 1 3 2 1 2 1 3 1 1 0 0 0 1 0 3 2 2 0 0 1 1 2 1 2 1 0 1 1 1 0 1 1 1 4 2 3 3 1 0 2 2 2 1 1 1 1 1 1 0 1 1 0 3 3 3 2 2 1 3 1 0 2 0 0 1 0 1 0 1 0 1 0 0 0 1 2 0 0 0 1 3 0 2 1 1 0 1 1 2 1 2 3 2 2 0 2 2 1 2 1 2 3 2 2 0 2 1 2 0 1 3 1 2 3 0 2 3 2 1 2 0 2 1 2 1 1 2 1 1 2 1 3 1 0 3 2 0 0 2 1 2 0 3 1 1 3 0 2 2 0 0 1 2 1 2 4 0 2 2 1 2 1 2 1 3 1 1 1 0 1 2 3 2 1 2 0 3 2 1 1 0 1 1 1 1 2 0 2 1 1 4 1 1 1 1 4 0 3 0 0 2 2 1 4 2 0 1 1 0 1 0 0 3 3 1 2 1 2 1 0 2 2 1 1 0 2 2 1 2 2 2 0 3 1 1 0 2 1 1 1 2 1 2 1 2 2 2 3 3 3 3 1 1 1 1 0 0 1 2 1 1 2 1 2 1 2 2 0 3 4 3 2 2 1 2 0 0 2 2 1 1 1 3 0 3 1 1 2 3 2 4 2 0 1 2 2 2 1 1 1 3 0 2 0 0 1 1 1 2 3 0 1 0 3 0 1 2 1 1 2 1 3 0 1 3 1 1 3 2 1 2 0 2 0 2 2 1 2 1 0 3 2 0 1 2 2 0 2 2 1 1 1 2 2 1 2 1 0 3 3 2 1 3 1 1 3 1 1 2 0 3 1 1 2 1 1 0 2 5 2 3 3 0 1 1 1 2 2 0 1 0 3 1 1 1 1 2 0 0 0 2 2 2 1 2 1 2 2 2 1 0 0 3 2 3 1 2 1 1 2 1 2 2 3 3 2 2 1 1 0 3 1 1 2 2 4 0 0 1 0 1 1 2 3 3 3 1 2 1 2 1 2 1 1 3 1 1 2 1 2 0 1 2 1 2 0 2 1 2 1 1 3 3 0 2 3 0 0 3 2 2 1 3 4 3 1 1 1 3 0 1 0 2 1 2 2 0 1 1 1 1 2 1 5 4 1 3 1 2 0 2 3 1 1 2 0 4 2 3 1 1 1 0 1 3 1 1 1 2 0 3 0 0 2 1 2 1 0 1 1 1 1 1 1 1 1 1 0 2 0 4 1 1 5 1 0 2 1 0 1 2 1 3 1 1 1 0 3 1 3 1 3 2 4 3 2 2 1 0 2 2 1 4 2 1 0 3 0 1 0 2 3 3 1 1 1 3 0 3 1 2 1 1 2 1 1 4 0 2 2 2 0 0 2 4 1 3 4 4 0 1 3 3 3 1 1 1 1 0 1 2 2 1 0 3 1 1 3 1 0 2 2 3 4 1 0 0 0 2 1 2 3 0 2 1 1 0 3 0 1 0 1 2 1 2 1 3 2 3 1 1 1 2 1 1 1 1 2 1 1 1 1 0 0 2 0 3 2 1 1 0 1 2 0 1 0 2 2 1 0 2 1 3 2 2 0 2 2 0 2 2 2 1 2 2 1 3 0 1 0 2 0 2 4 0 2 0 2 2 1 3 1 3 4 1 3 1 0 1 2 2 1 1 3 1 0 1 1 2 2 1 4 2 1 1 1 0 1 1 5 2 1 1 3 1 1 1 1 1 1 2 0 2 1 3 1 2 2 3 2 2 2 2 1 1 2 1 2 2 3 2 0 1 1 0 2 0 4 0 1 1 2 2 0 3 2 2 1 2 2 3 1 1 2 1 0 2 1 1 2 1 1 2 0 1 2 0 0 0 1 2 3 2 1 1 1 4 3 2 0 0 0 3 3 1 1 2 2 0 0 1 1 2 1 2 2 0 2 0 1 2 2 1 1 2 0 2 0 2 2 2 2 2 3 3 1 1 2 3 1 2 0 2 1 0 1 0 2 1 1 0 3 3 2 0 1 0 0 0 1 1 2 1 2 4 3 2 1 1 0 1 3 1 2 1 0 2 2 1 2 2 2 1 0 2 1 2 1 1 1 2 3 1 2 2 2 2 3 3 0 1 3 3 1 3 1 2 3 1 3 3 0 2 1 2 2 1 2 1 2 3 0 2 1 0 2 1 3 1 0 1 2 1 1 1 3 2 0 0 0 2 0 2 1 2 2 1 1 3 1 2 2 1 2 2 1 6 0 3 3 1 1 1 2 2 0 3 3 1 3 1 1 1 0 3 0 2 3 1 3 0 0 2 2 0 1 3 2 2 3 1 2 2 2 1 1 0 1 0 2 2 1 1 2 0 2 2 0 0 4 1 0 2 1 0 1 1 2 0 1 1 2 2 1 1 2 5 1 1 2 1 0 2 1 1 0 0 2 1 1 3 3 1 1 1 3 0 4 0 2 0 1 3 2 0 2 3 0 2 1 4 0 1 3 1 3 2 1 1 2 4 2 1 1 2 1 1 1 2 1 1 3 2 1 3 6 3 2 2 4 2 1 2 1 1 1 2 2 3 2 0 1 3 0 3 2 1 0 1 1 1 0 1 3 1 3 0 2 2 2 1 1 1 5 2 3 3 1 2 1 0 3 1 2 0 2 0 1 0 2 2 3 2 2 3 1 1 1 2 1 0 1 2 0 3 1 2 0 1 1 2 1 2 1 1 1 1 0 3 4 3 1 2 1 1 2 4 3 1 2 3 1 2 0 2 0 0 2 1 1 2 2 2 1 3 2 1 1 2 1 1 1 2 1 1 1 1 1 3 1 2 1 2 2 0 0 1 2 3 3 2 1 1 3 1 1 0 1 1 4 1 5 1 2 0 2 1 1 2 0 2 3 3 0 2 2 0 1 1 1 1 4 1 2 2 1 2 1 0 2 1 3 2 1 0 2 0 0 1 0 2 4 0 2 1 2 2 1 0 1 2 3 0 2 3 1 0 2 0 1 1 2 3 3 1 2 3 3 2 2 2 3 1 0 2 2 1 1 2 3 4 1 1 0 2 3 1 2 1 2 1 2 2 2 1 1 1 1 0 1 2 2 3 0 0 4 1 1 2 2 0 0 1 2 2 1 1 1 1 2 1 0 2 0 2 1 0 2 1 1 1 4 2 3 1 0 2 0 0 2 2 2 1 2 2 2 1 0 2 0 2 2 2 2 3 3 0 1 0 2 2 2 2 1 1 1 1 2 1 1 1 2 2 2 1 2 0 0 2 2 4 2 1 2 3 1 1 1 0 1 0 3 2 2 2 2 1 2 2 1 4 2 1 1 3 0 2 2 2 1 2 1 0 1 3 1 2 0 0 2 2 3 1 2 1 0 0 1 0 2 1 1 2 5 0 2 3 0 1 1 0 2 0 2 1 1 1 1 1 1 1 1 2 2 1 3 1 0 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 1 0 1 2</t>
+  </si>
+  <si>
+    <t>GAM(0.32731390448223774, -8.18460275888464e-28, 0.6119353203179602)</t>
+  </si>
+  <si>
+    <t>0 0 0 1 0 0 0 1 0 2 0 2 1 0 0 0 0 0 0 1 0 2 1 0 0 1 1 0 1 1 0 1 0 0 1 0 0 0 0 0 0 1 2 0 0 2 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 2 0 1 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 2 1 0 0 2 0 0 0 0 0 2 0 0 0 0 1 0 0 0 0 0 1 2 1 0 0 1 2 0 0 1 1 1 1 0 0 1 1 2 1 0 1 2 1 0 1 0 0 2 1 0 0 2 0 2 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 1 0 0 0 1 1 0 0 0 1 0 0 1 0 0 2 1 1 0 0 0 0 0 1 0 1 0 0 0 0 0 1 1 0 0 0 0 1 1 0 2 0 0 1 0 0 0 0 1 1 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 2 0 0 0 0 1 0 0 0 0 0 1 2 0 0 0 0 0 2 0 0 0 0 1 2 1 1 0 2 0 2 0 1 1 2 0 1 2 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 3 0 1 0 1 0 0 0 0 1 2 1 0 0 0 2 0 0 0 1 0 1 1 0 0 0 0 0 0 1 0 0 0 1 1 0 1 0 0 0 1 0 2 0 0 1 0 2 1 1 0 0 1 2 0 1 0 0 0 2 2 0 0 0 0 1 1 0 1 1 0 1 0 0 0 0 1 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 2 2 0 0 0 0 0 0 1 3 1 1 1 0 1 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 1 1 0 1 0 3 0 0 0 1 1 1 0 0 0 0 1 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 2 1 2 0 0 3 1 1 3 0 0 1 1 0 0 1 2 0 0 0 1 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 1 1 0 0 1 0 0 0 2 0 1 0 0 0 0 0 2 2 1 0 0 0 1 1 1 1 1 0 2 1 2 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 2 1 0 0 0 0 1 1 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 2 0 1 3 1 1 0 1 0 0 0 0 1 1 0 2 0 0 0 1 1 0 0 0 0 0 3 1 0 0 0 1 1 0 0 0 0 0 0 0 1 0 1 1 0 1 0 0 2 2 0 0 1 0 0 0 0 1 0 0 0 2 2 0 0 0 0 1 0 0 0 1 0 0 1 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 1 1 2 1 0 1 0 0 0 2 0 0 0 0 0 0 0 1 0 1 0 1 0 2 1 1 0 1 0 0 1 1 0 3 0 1 1 0 1 0 0 1 1 1 0 0 1 1 0 0 0 0 1 0 0 0 1 0 0 0 1 0 1 1 1 0 0 1 0 1 0 0 0 0 0 0 2 2 0 1 0 1 0 0 1 1 0 0 0 2 2 0 0 0 0 0 0 0 0 0 0 1 1 1 2 0 0 0 0 0 0 2 0 0 0 0 2 0 0 3 0 0 1 1 1 0 0 0 0 0 0 1 0 0 1 0 2 0 0 0 1 1 0 0 0 0 1 1 0 1 1 0 1 2 0 2 0 0 1 0 0 1 1 0 0 0 0 1 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 1 2 1 1 3 1 1 0 0 0 0 2 1 1 1 0 1 0 0 1 0 2 1 0 0 0 1 0 2 2 0 1 0 0 0 0 0 2 0 0 0 1 0 0 1 0 0 1 0 1 2 0 0 0 1 1 0 0 1 0 0 0 1 0 0 0 1 1 3 0 1 1 0 0 0 1 1 1 0 0 2 0 1 0 0 1 0 1 1 0 5 0 0 1 0 0 0 1 1 0 1 0 1 1 0 1 0 0 0 1 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 2 0 0 1 1 2 0 0 1 0 1 0 0 0 1 1 0 0 1 1 0 1 1 0 0 0 2 0 0 0 0 2 0 0 0 0 1 0 0 1 0 1 1 1 0 0 0 1 0 1 0 0 0 0 1 1 0 0 0 1 0 0 0 0 2 0 0 0 0 0 1 2 0 0 1 0 0 2 1 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 2 1 2 0 1 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 1 1 1 0 0 0 2 1 1 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 1 1 0 0 0 0 2 2 1 0 1 3 1 0 0 2 0 1 0 0 0 0 0 0 0 0 0 1 0 2 0 0 1 1 1 0 1 0 2 1 1 0 0 1 0 1 1 1 3 1 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 3 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 2 0 1 2 0 0 0 1 1 0 0 1 0 0 2 0 1 0 1 0 0 0 0 1 0 1 0 2 0 1 0 1 0 0 2 0 0 0 0 1 1 2 1 1 0 1 0 1 0 0 1 0 0 1 0 0 0 0 0 1 1 0 0 0 0 1 1 1 0 1 0 0 0 0 0 1 1 0 0 0 1 0 1 2 2 0 1 0 0 0 1 0 0 0 1 0 1 0 1 0 2 1 1 0 0 1 1 1 1 1 0 0 0 1 0 0 1 0 0 0 0 0 0 1 2 0 1 1 1 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 1 1 0 0 1 0 0 1 0 0 2 1 2 0 1 1 1 0 0 1 1 0 0 0 1 1 0 0 0 1 1 1 0 0 0 1 1 1 0 0 2 0 0 1 1 1 2 0 1 0 0 0 0 1 0 2 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 2 1 0 1 0 0 0 1 0 1 0 0 1 0 0 2 0 0 0 0 0 1 0 1 0 3 1 0 0 0 0 0 0 2 0 0 1 0 0 0 1 1 0 1 1 1 2 1 0 1 1 0 0 1 1 0 0 0 0 0 0 0 0 0 2 1 0 2 0 0 0 1 0 0 1 1 2 0 0 0 0 0 0 0 0 1 1 2 0 2 0 0 1 0 0 1 0 0 1 0 2 0 0 0 0 0 0 1 1 0 1 1 0 1 3 1 0 0 1 0 0 0 1 0 0 1 2 0 0 0 0 0 0 2 0 1 0 1 0 1 1 0 1 0 0 0 1 0 0 1 0 1 0 0 1 1 1 0 0 0 0 0 1 0 2 0 0 1 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 1 0 0 0 0 2 0 0 0 1 0 0 0 1 3 1 1 0 1 2 0 0 0 1 0 0 0 0 1 1 0 1 2 1 1 0 0 0 1 0 1 0 1 0 0 1 0 0 0 1 0 0 0 2 0 0 0 0 0 1 0 0 0 0 0 0 0 1 2 0 0 0 0 0 1 1 0 1 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 1 2 1 1 0 1 0 0 1 0 2 1 0 0 1 1 0 1 1 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 2 0 0 0 1 1 2 1 1 0 1 0 0 0 1 0 0 1 0 0 1 1 1 0 0 1 0 1 1 1 0 1 0 1 0 0 1 1 2 2 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 2 1 0 0 0 0 0 1 0 0 1 0 1 1 0 0 2 0 1 0 1 1 0 1 0 2 0 1 0 2 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 2 0 1 0 0 1 0 0 2 0 1 0 1 0 1 0 0 0 0 1 0 1 0 0 1 1 1 3 0 1 0 0 0 0 2 2 1 0 0 1 0 0 0 2 0 1 0 1 1 0 0 0 0 1 1 0 1 2 0 1 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 1 1 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 1 0 1 0 0 0 0 1 1 0 0 0 0 1 1 0 0 1 0 1 0 0 0 0 0 1 1 0 0 1 0 1 1 0 0 0 1 0 0 0 0 1 0 0 0 3 0 1 1 0 1 1 1 0 0 1 0 0 1 1 0 0 1 1 0 0 1 2 1 0 0 0 0 2 0 1 1 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 1 1 1 0 0 0 0 2 0 1 1 1 1 0 0 1 0 0 1 0 0 0 0 1 1 0 2 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 2 0 0 0 0 0 1 0 0 2 0 0 0 0 0 1 0 1 0 1 1 0 1 1 0 1 0 1 0 1 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 1 0 0 0 1 0 0 1 0 0 1 1 1 0 0 0 0 0 0 1 0 1 0 0 1 0 0 1 1 1 1 0 0 3 0 0 0 1 0 1 0 0 2 0 0 0 0 0 0 1 1 0 0 1 1 3 0 0 0 1 2 0 0 1 0 0 1 0 0 0 3 0 1 1 0 1 0 0 0 2 1 0 0 3 0 1 0 0 0 0 0 0 0 0 1 2 1 1 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 1 0 0 2 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 2 0 0 0 1 0 0 0 0 0 1 0 0 1 1 0 1 1 0 3 0 0 1 0 0 2 1 1 0 0 1 0 1 0 0 1 0 1 0 0 0 2 0 1 0 2 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 2 0 0 0 0 0 1 0 0 0 1 0 1 1 0 1 1 0 0 0 1 0 0 0 0 0 1 1 2 0 0 1 0 0 1 1 1 1 0 0 1 0 1 0 3 0 1 1 0 0 2 1 0 0 0 1 1 0 1 0 0 0 1 1 1 0 2 1 0 0 0 0 0 1 2 1 3 0 0 2 0 0 1 0 1 0 1 0 0 0 1 1 0 1 1 0 0 2 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 2 0 0 0 1 0 0 0 0 1 0 0 0 1 1 0 0 1 1 2 1 0 1 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 1 0 0 0 0 1 0 1 0 0 1 2 0 2 0 1 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 2 0 0 0 0 0 1 0 0 1 1 2 1 1 0 0 1 0 1 0 0 2 1 0 0 1 0 1 0 0 0 2 0 1 0 0 1 0 1 1 0 1 0 0 1 0 1 0 0 0 0 0 1 0 0 1 1 2 1 0 0 0 0 1 0 1 0 0 0 0 0 0 2 2 0 1 0 0 0 0 0 1 0 2 0 1 0 0 0 0 0 1 0 1 0 0 0 3 1 0 0 1 1 1 0 0 0 0 2 0 0 0 1 0 1 0 1 0 0 1 0 1 1 3 1 0 0 0 2 1 0 0 0 0 2 0 0 0 0 0 2 0 0 1 0 0 1 1 2 1 0 0 1 0 1 0 1 0 0 1 0 0 1 0 1 2 0 0 0 0 1 0 0 0 2 0 0 0 2 1 0 0 0 0 0 2 0 1 0 0 1 2 2 1 1 1 0 0 0 1 1 0 0 0 0 1 0 0 1 0 0 0 1 0 1 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 1 0 1 0 0 0 0 1 3 0 0 1 2 0 0 0 1 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 2 0 1 0 0 0 3 0 2 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 1 1 2 0 2 1 0 1 0 1 1 0 1 0 0 0 0 0 0 0 0 0 1 0 1 1 0 1 0 1 0 1 0 0 3 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 3 0 1 1 0 0 3 0 0 0 0 0 0 1 0 0 0 2 0 0 0 2 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 2 0 1 0 0 0 0 1 2 1 0 0 0 0 0 0 2 1 1 1 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 1 0 0 0 0 2 0 2 0 0 0 0 0 1 0 0 0 0 1 1 0 0 1 0 0 1 0 1 0 1 1 0 0 2 2 0 0 0 0 0 2 1 2 1 0 0 0 0 1 0 0 1 0 1 0 1 0 2 2 0 1 2 1 0 1 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 1 1 0 0 0 1 0 1 0 1 1 0 0 0 0 0 0 0 0 1 0 2 0 0 2 0 0 1 0 0 0 0 0 0 1 1 0 0 1 0 0 1 2 0 1 1 0 0 0 0 3 1 0 0 0 0 0 1 1 2 0 0 0 0 0 0 0 0 1 1 0 1 0 1 1 0 1 0 1 0 1 0 2 1 1 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 1 1 0 0 0 0 1 0 2 1 0 1 0 0 0 0 2 0 0 0 0 0 1 0 0 0 0 1 1 1 1 1 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 2 0 1 0 0 0 0 0 1 1 0 0 0 2 0 2 0 1 1 2 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 2 0 1 1 1 1 0 2 2 0 0 0 1 0 1 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 1 1 0 0 1 1 0 0 1 1 1 0 0 0 0 0 0 0 0 0 1 1 1 0 3 1 0 1 1 0 4 1 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 1 1 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 2 0 2 1 1 0 1 1 0 0 0 0 2 1 1 1 0 0 2 3 0 1 1 0 0 0 1 2 0 0 1 0 1 0 2 0 0 1 0 0 0 0 0 1 2 1 1 0 0 1 0 1 0 1 1 1 1 1 0 0 0 2 0 0 0 1 0 1 0 0 0 0 0 0 1 1 1 1 0 1 2 1 0 0 2 3 0 1 0 2 0 0 0 1 2 0 1 0 0 0 0 1 0 1 0 0 0 0 1 1 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 2 2 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 2 1 3 0 1 2 0 0 2 1 0 0 0 1 2 1 0 0 0 1 0 0 0 0 3 0 1 0 0 0 0 0 1 2 2 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 1 2 2 1 0 0 1 0 0 1 2 0 0 1 0 0 1 0 1 0 0 1 0 0 0 1 0 2 0 0 1 1 0 1 0 1 0 0 0 0 1 0 1 0 1 0 1 1 0 0 0 3 1 0 1 0 0 0 0 0 0 2 0 0 1 0 0 0 2 1 0 0 0 0 1 1 2 0 1 0 1 0 0 0 0 0 0 1 1 1 0 0 0 0 1 1 0 1 2 0 0 2 0 2 0 0 0 0 1 1 0 1 0 1 0 1 1 0 0 0 1 0 0 0 2 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 1 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 1 0 1 0 0 1 1 0 2 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 2 0 0 2 0 0 0 0 1 1 0 0 2 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 1 0 1 0 0 2 0 2 1 0 0 0 0 0 0 0 1 0 1 0 0 1 1 0 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0 1 1 0 0 3 0 0 1 0 0 0 1 1 0 0 1 0 1 2 0 2 0 0 1 0 0 1 1 1 0 1 0 0 0 0 0 0 0 0 2 1 2 1 1 0 0 1 1 0 0 0 0 1 1 0 1 1 0 0 1 0 1 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 1 1 0 0 1 0 0 1 0 2 0 1 1 1 0 0 0 0 0 1 1 1 1 3 1 0 1 0 0 0 0 0 2 0 0 0 0 0 1 0 0 1 0 0 2 0 0 0 0 3 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 1 1 1 0 0 0 1 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 2 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 1 0 0 2 0 2 0 0 0 0 0 2 0 0 2 1 2 1 0 0 1 0 0 0 0 1 1 1 0 0 0 0 0 0 1 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 1 1 0 1 3 2 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 2 0 1 0 1 0 1 0 0 1 1 0 1 0 1 0 1 1 1 0 0 2 1 0 0 2 0 0 0 0 1 0 0 0 1 1 2 0 0 0 0 0 0 0 0 1 0 0 1 1 1 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 3 1 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 1 1 0 0 1 0 1 0 1 1 1 0 0 1 1 0 0 1 1 0 0 1 1 0 1 1 1 0 0 1 0 1 0 0 1 0 2 0 0 0 0 0 0 0 2 2 1 0 0 0 1 0 0 0 0 0 0 1 1 3 0 2 1 0 1 0 2 0 0 0 1 0 1 0 0 0 1 0 0 0 1 0 0 1 0 1 0 0 0 0 3 1 0 3 2 1 0 2 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 1 0 1 1 1 0 0 0 0 0 0 3 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 3 1 2 0 0 2 0 2 0 2 1 0 0 0 0 0 0 0 1 0 0 1 0 0 2 1 1 0 1 1 1 0 1 0 0 0 1 1 0 0 1 1 0 0 0 1 0 0 0 2 0 0 2 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 1 0 1 1 1 1 1 0 1 1 0 2 0 2 1 0 1 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 1 0 2 0 0 1 1 1 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 1 0 0 0 1 1 1 1 1 1 3 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 2 0 0 0 1 0 0 0 0 0 0 1 2 3 0 0 0 1 0 0 0 2 1 0 0 1 1 0 0 0 0 0 0 0 1 0 1 1 0 1 0 0 0 0 1 1 1 2 2 0 1 1 1 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 1 1 2 0 1 0 0 1 1 1 0 2 0 1 0 0 0 0 0 1 0 0 0 0 2 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 1 2 1 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 2 0 0 1 2 1 1 0 1 2 0 1 0 0 1 0 0 1 2 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 1 0 1 0 2 1 0 1 1 2 0 1 0 0 0 0 0 0 1 1 1 0 0 0 1 2 1 0 0 1 1 0 0 0 0 0 1 2 1 0 0 0 0 1 0 0 2 0 0 0 0 2 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 2 0 1 0 0 0 0 1 0 1 0 1 0 0 0 0 1 1 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 1 1 1 1 0 1 1 1 1 0 0 0 1 1 1 1 0 0 1 0 1 1 0 0 0 0 0 0 0 2 2 0 0 1 0 0 0 0 1 1 1 0 1 0 0 1 0 0 1 1 0 2 1 3 0 0 0 1 0 0 1 0 2 0 0 0 0 1 0 1 0 0 2 0 1 0 1 1 0 0 1 1 0 0 1 2 2 1 1 0 0 0 1 0 1 0 1 1 0 1 0 1 1 1 0 0 0 0 1 0 0 1 0 0 0 0 1 2 0 0 1 2 0 0 1 0 0 0 1 1 0 0 0 1 1 1 0 0 1 0 0 0 0 1 0 0 1 0 0 1 1 0 2 1 0 0 0 0 0 1 0 0 0 0 2 1 1 1 0 0 2 0 0 0 0 1 0 0 1 0 0 1 0 1 0 0 1 0 1 2 0 1 0 2 0 0 0 1 0 1 0 1 1 1 0 0 2 0 0 0 2 0 1 2 0 0 0 0 1 0 0 0 1 0 0 0 2 2 0 1 0 0 1 0 0 1 1 0 1 0 0 2 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 2 0 0 0 0 0 1 3 1 2 1 0 0 0 0 3 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 1 0 1 1 0 0 2 0 0 0 0 0 1 1 0 0 2 0 2 1 0 1 0 1 0 0 0 2 0 0 1 0 0 1 0 1 0 0 0 0 2 1 0 1 1 0 0 0 1 1 0 0 0 2 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 1 1 1 0 0 0 2 0 1 0 0 1 2 0 0 0 1 0 1 3 0 0 0 1 0 0 0 0 0 0 0 4 0 0 0 1 0 0 0 0 0 0 0 0 3 0 1 0 1 0 1 0 0 2 1 0 3 0 1 0 0 0 0 0 2 1 1 0 1 2 0 0 0 1 1 1 0 0 0 2 1 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 1 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 1 1 0 1 1 0 1 1 0 0 1 0 0 2 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0 0 0 1 0 0 0 0 0 1 0 0 2 1 1 0 1 1 1 1 1 0 1 0 1 1 0 0 0 1 1 0 0 1 1 0 0 1 0 1 0 0 0 0 1 3 0 0 1 1 1 0 0 1 0 2 0 0 1 0 1 0 0 1 0 0 2 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 2 2 0 1 0 0 0 0 0 0 0 0 2 0 0 1 2 1 0 0 0 0 0 1 0 2 0 0 0 1 0 0 1 1 1 0 0 2 1 1 0 0 2 0 0 1 0 0 1 1 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 1 0 2 1 0 2 0 1 0 0 0 2 0 0 0 0 1 0 0 1 0 0 2 0 0 1 1 0 1 1 1 1 0 1 2 0 0 0 1 1 1 2 0 0 0 1 0 1 0 0 1 0 1 1 2 1 1 0 1 0 0 0 0 1 1 0 3 0 1 0 1 1 0 1 1 0 1 1 0 2 2 1 1 0 1 1 0 1 1 0 0 0 0 3 0 2 0 1 0 0 1 2 1 0 1 1 0 1 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 1 0 2 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 1 1 0 0 0 0 2 1 1 0 0 0 0 0 0 0 0 0 0 2 1 0 1 0 0 1 0 0 0 2 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 1 1 1 0 0 1 0 0 1 1 0 0 0 1 0 1 0 1 0 1 0 0 0 1 0 0 0 1 0 0 0 0 1 1 0 0 0 0 1 0 1 0 0 0 0 2 1 0 0 0 1 0 0 0 0 0 1 1 0 0 1 2 0 0 1 0 0 0 1 0 0 1 1 0 0 1 1 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 2 0 0 2 1 0 0 2 1 0 1 0 0 2 0 3 1 0 0 2 0 0 0 0 0 0 2 0 0 0 1 0 0 1 1 0 1 1 0 0 0 1 0 1 0 0 0 0 1 0 1 1 2 1 0 1 0 1 1 0 1 1 0 1 0 1 0 1 0 0 1 0 0 0 1 0 0 2 1 2 1 0 0 0 2 0 0 0 1 0 0 1 0 0 0 0 0 0 2 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 1 0 2 1 1 0 0 1 0 1 0 1 0 0 1 0 2 2 0 1 1 1 0 0 1 0 0 1 0 0 0 0 5 1 0 0 0 0 0 1 1 2 0 1 0 0 0 0 1 0 1 1 0 0 1 0 0 0 0 0 2 0 2 0 0 1 0 2 0 2 1 1 0 1 1 1 0 0 0 3 1 0 1 0 1 0 2 1 0 0 0 0 0 0 1 1 1 1 0 3 1 0 0 1 0 1 1 1 1 0 0 0 0 0 1 0 0 3 0 1 1 0 0 0 0 0 0 1 0 1 1 0 0 0 0 1 0 0 0 1 3 1 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 1 1 1 1 1 1 0 1 2 1 4 0 0 1 0 0 0 1 0 1 0 0 1 1 0 0 1 0 0 1 1 0 0 0 2 0 0 0 0 0 1 1 1 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 1 0 0 0 0 0 2 0 0 0 0 1 0 0 0 2 0 0 1 0 0 0 0 1 0 0 0 1 1 0 0 1 0 0 0 1 1 1 0 0 0 1 0 1 0 0 1 0 0 1 0 0 0 0 1 0 1 1 1 0 0 0 1 0 0 0 0 0 1 0 1 2 1 1 0 0 0 2 0 2 3 0 1 1 0 1 1 0 1 0 1 1 0 0 0 0 2 0 1 0 1 0 0 1 1 2 1 0 0 2 0 1 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 1 0 1 1 1 0 0 0 0 0 0 1 0 2 1 1 1 0 0 2 0 0 1 3 1 2 1 0 1 1 1 0 1 0 0 0 0 0 0 0 0 0 0 1 3 1 1 0 0 1 0 1 0 0 0 1 0 1 1 2 0 1 3 2 0 0 0 0 0 0 0 0 0 0 1 1 1 1 2 0 1 1 0 0 0 1 0 1 0 0 0 0 1 0 1 2 1 1 0 0 0 0 1 0 0 0 0 0 0 1 0 2 1 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 1 1 1 1 0 0 0 0 0 0 0 1 0 0 1 2 1 0 0 1 1 2 1 1 0 2 0 1 0 0 0 2 2 0 0 1 1 0 2 1 1 0 0 0 1 0 1 0 0 0 2 2 1 0 0 3 1 0 1 0 0 0 0 1 0 2 0 0 0 1 0 0 0 1 1 0 0 0 2 0 0 1 3 0 1 0 0 0 0 0 0 0 0 0 0 1 1 2 0 0 1 0 1 0 0 0 0 1 1 0 1 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 2 1 0 0 0 1 1 0 0 3 0 0 0 1 1 1 1 1 0 1 0 1 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 1 0 1 1 0 0 0 1 0 1 0 1 0 1 0 0 0 0 3 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 1 2 1 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 1 3 0 0 0 0 1 1 0 1 1 3 1 0 0 1 0 1 0 1 0 0 1 0 1 0 0 0 1 0 0 1 1 0 0 1 0 1 0 0 0 0 0 1 2 0 1 0 0 0 0 0 0 0 1 1 1 0 1 0 0 1 1 1 0 0 2 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 2 1 1 1 1 1 0 0 0 0 0 0 0 1 0 0 2 1 0 0 1 0 0 1 0 1 2 0 1 1 0 0 0 1 0 1 0 0 1 0 2 0 0 2 1 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 1 1 0 1 0 0 0 0 1 0 1 0 0 0 0 0 1 2 0 0 0 0 1 2 0 1 0 0 1 1 0 0 0 1 1 1 0 0 1 0 0 1 2 1 0 0 0 1 0 1 0 0 2 2 0 0 0 0 1 1 0 1 1 0 3 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2 2 0 2 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 2 0 0 1 1 0 1 0 2 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 2 0 1 0 0 1 2 1 0 0 1 1 0 0 0 0 0 0 3 1 0 1 1 0 0 2 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 1 0 2 0 0 0 0 1 0 0 1 0 0 2 0 3 0 0 0 0 0 2 1 2 2 0 2 0 0 0 1 0 1 0 0 0 0 2 1 1 0 0 0 1 0 2 0 2 0 0 1 0 0 1 0 1 0 1 1 1 1 0 0 0 0 0 0 1 0 1 1 1 0 2 1 0 0 1 0 0 1 1 0 0 0 1 0 0 0 1 1 1 0 0 0 0 0 0 0 0 1 0 0 0 2 0 1 0 1 2 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 1 2 0 1 0 0 0 1 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 2 0 0 1 1 1 0 2 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 2 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 1 0 0 1 0 1 0 1 0 1 1 0 2 1 1 1 1 0 0 0 0 0 0 0 0 0 2 1 0 0 1 0 0 0 1 1 0 0 1 0 3 0 0 1 0 0 1 3 0 0 1 0 1 0 1 2 1 1 0 0 1 1 0 1 0 3 0 1 3 0 0 0 0 0 0 0 0 0 1 0 2 0 2 0 0 0 0 0 0 0 0 1 0 1 0 1 1 0 0 0 0 0 0 1 1 2 2 1 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 1 1 0 2 0 1 0 0 1 1 0 0 1 1 1 0 1 0 0 1 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 2 0 0 0 1 1 1 0 1 1 3 0 1 0 0 0 1 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 1 0 0 0 0 1 1 1 0 0 1 0 0 0 0 1 0 0 0 1 1 0 0 2 0 2 1 2 1 0 1 0 1 0 2 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 2 0 1 0 0 0 0 1 0 0 0 1 0 0 0 2 0 1 0 1 0 1 1 0 0 0 0 0 2 2 1 0 0 1 0 1 0 0 0 1 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 2 0 1 0 0 1 0 1 0 2 1 0 0 0 1 0 3 0 0 1 1 0 0 0 0 0 0 0 2 0 0 0 0 1 0 0 2 2 0 0 0 0 0 0 1 2 0 0 2 0 1 0 0 0 0 1 0 1 0 1 0 1 0 0 0 1 0 0 2 0 0 0 0 0 1 1 1 0 1 0 0 1 0 0 0 1 2 1 2 0 3 1 0 0 3 0 1 0 1 2 1 0 1 3 2 0 0 0 1 0 1 0 0 1 1 1 0 0 1 0 0 2 2 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 2 1 0 1 0 0 1 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 3 0 0 0 0 1 0 0 1 0 0 0 1 0 1 0 0 0 0 1 0 1 0 1 0 0 0 0 1 0 0 2 1 0 0 0 0 0 2 0 0 0 1 0 1 1 0 0 0 1 2 1 0 0 0 0 1 1 0 1 0 1 0 0 0 0 1 1 1 0 0 0 2 0 0 1 0 0 1 0 2 0 0 0 1 0 0 1 0 0 1 0 0 1 0 0 0 0 0 2 1 0 0 0 2 1 0 0 1 2 0 0 1 0 0 1 0 1 1 1 1 3 2 0 0 1 1 0 1 0 1 0 0 0 1 0 0 2 1 0 0 0 0 0 0 1 3 0 1 0 0 0 0 1 1 0 0 1 2 0 0 0 0 0 0 2 1 1 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 2 2 1 1 0 1 0 0 1 0 1 0 2 0 0 0 1 0 0 0 0 1 1 1 0 0 0 0 0 0 2 0 0 0 1 0 1 0 0 0 1 1 1 0 0 0 0 0 0 1 0 0 2 1 0 0 0 0 0 0 0 0 1 1 2 0 0 0 0 0 0 0 1 0 1 3 0 0 1 0 1 2 1 0 0 2 2 0 0 0 0 1 0 0 0 0 0 0 0 1 2 2 0 0 0 2 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 1 1 2 2 0 1 0 1 1 1 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 4 0 0 0 0 0 2 1 0 2 1 0 0 0 0 0 0 2 0 1 1 0 2 0 1 1 0 0 0 0 0 0 2 0 0 0 1 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 2 0 0 2 0 0 2 0 1 0 0 0 1 1 0 0 0 0 0 2 1 1 0 0 0 1 0 1 1 0 0 1 1 1 0 2 1 0 0 0 0 0 1 0 2 1 0 0 0 1 0 1 0 1 1 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 2 0 0 0 1 0 0 0 1 0 0 0 1 1 1 1 1 1 1 0 1 0 0 1 0 0 0 1 2 1 0 0 1 1 0 0 0 0 1 0 0 0 1 2 2 1 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 3 1 1 1 1 0 1 2 0 0 0 0 0 2 1 0 1 1 0 0 0 1 1 0 1 0 0 2 1 0 2 0 2 0 3 1 1 0 2 2 2 0 0 0 1 0 0 0 2 1 0 1 0 1 0 0 1 1 0 0 0 1 0 0 0 1 0 1 2 0 0 1 0 0 2 0 1 0 2 1 1 1 0 0 0 0 1 0 0 0 1 4 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 2 2 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 1 0 0 1 0 1 2 0 0 0 1 0 0 0 0 1 1 0 1 0 1 0 0 0 0 0 0 0 2 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 2 0 0 1 1 1 0 0 0 0 0 1 0 0 0 0 0 2 0 0 0 0 2 0 0 0 0 2 0 0 2 0 0 0 1 0 1 0 1 0 1 0 0 1 0 0 0 0 1 0 0 0 2 0 1 2 1 0 1 0 1 1 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 3 0 1 0 0 1 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 1 1 0 2 0 1 0 0 1 0 1 1 1 1 0 1 0 0 0 1 1 1 1 1 0 0 2 1 0 1 2 0 1 1 0 1 1 1 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 1 1 2 2 1 0 0 0 1 2 0 0 0 2 0 0 0 2 3 0 0 0 0 0 1 0 1 0 1 0 0 1 0 1 0 1 1 0 0 0 0 0 0 1 2 0 1 1 1 0 0 2 0 0 2 1 2 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 3 1 3 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 1 0 2 0 2 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 2 0 0 1 0 0 0 0 0 0 1 2 1 1 1 2 1 0 0 1 0 0 0 0 0 1 0 2 1 2 0 0 0 0 1 1 0 0 0 1 0 1 0 0 0 1 0 2 1 0 0 0 0 0 0 0 0 1 0 0 2 2 0 0 0 0 1 0 0 1 2 0 0 0 1 1 1 0 0 1 0 1 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 1 1 1 0 1 0 1 0 0 0 2 0 2 2 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 1 0 0 0 1 1 0 1 1 0 0 0 0 1 0 2 1 0 0 0 2 0 0 0 0 2 0 0 0 1 1 1 0 0 1 0 0 1 0 0 0 0 1 1 0 0 0 1 1 0 2 1 0 0 1 1 0 0 1 0 0 0 0 0 0 1 1 0 0 0 1 1 0 0 1 1 0 1 1 0 0 0 0 0 3 0 0 0 0 0 1 1 0 1 0 0 0 1 1 1 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 2 0 0 1 0 1 0 1 0 0 0 2 0 1 1 1 0 0 1 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 2 0 0 0 2 1 0 1 0 0 1 1 3 1 0 0 0 1 1 2 1 0 0 0 0 2 2 2 1 0 1 0 0 0 0 1 0 1 0 0 1 0 1 2 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 2 0 0 1 1 1 0 0 1 0 0 1 0 2 0 1 0 1 0 0 2 0 0 1 2 0 1 1 0 1 1 1 2 3 0 1 0 1 0 1 0 1 0 0 0 0 0 0 0 0 1 1 0 1 1 1 0 1 0 0 0 1 0 0 0 0 0 2 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 4 0 0 1 1 1 0 0 0 0 0 3 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 2 0 1 0 0 2 1 0 0 0 0 0 2 0 0 0 1 1 1 1 2 0 1 1 0 2 1 0 2 0 0 0 0 0 1 0 0 0 0 1 1 1 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 2 1 1 0 0 1 0 0 0 0 0 0 0 1 1 0 0 1 1 0 1 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 2 1 2 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 2 0 2 0 1 0 0 0 1 0 1 1 1 0 0 0 0 0 1 1 0 1 1 0 1 1 2 1 0 3 1 0 1 1 1 0 0 0 1 0 0 0 0 0 0 1 2 1 2 0 0 0 1 3 0 1 0 0 0 0 0 0 0 0 1 0 0 2 0 0 0 0 0 0 0 1 3 0 0 1 0 1 0 1 0 1 0 0 0 2 1 0 0 2 0 0 0 0 0 1 0 1 0 1 0 1 0 0 1 0 0 3 0 1 0 3 0 2 0 0 0 0 0 0 0 2 0 0 1 1 3 0 0 1 0 0 1 0 0 2 0 0 0 0 1 1 0 0 0 0 0 1 0 1 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 1 0 0 1 0 1 0 0 0 0 1 0 1 1 0 2 0 1 0 0 0 1 1 0 0 0 2 2 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 2 1 1 2 0 1 0 2 0 1 0 0 0 0 1 1 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 3 1 0 1 0 0 1 0 0 1 0 2 2 0 0 0 1 0 0 1 1 0 0 1 1 0 0 0 1 1 0 0 0 0 0 0 2 1 0 0 0 0 0 1 2 0 0 0 1 0 1 1 0 0 1 1 0 1 0 0 1 0 1 2 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 2 0 0 0 0 1 0 0 1 1 0 0 0 1 0 0 0 0 1 0 1 0 1 0 0 0 2 0 2 0 1 0 1 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 2 1 0 1 0 0 1 0 0 1 1 0 0 0 2 1 0 4 1 0 0 0 0 1 0 0 0 1 1 1 0 0 2 1 0</t>
+  </si>
+  <si>
+    <t>GAM(28.012079107570823, -91.71558955380962, 7.512208848767564)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103 84 91 130 49 119 73 97 144 227 173 92 110 121 95 109 109 59 144 125 147 61 72 96 119 122 83 28 105 102 128 108 56 137 125 115 108 130 82 108 17 140 67 189 68 80 146 61 64 43 172 73 107 95 144 50 93 158 219 99 79 115 146 105 95 214 119 112 133 89 112 93 135 64 113 90 116 106 90 93 110 95 142 147 88 48 233 208 156 144 109 78 68 130 69 120 62 172 140 100 85 92 168 108 176 109 137 177 105 151 136 153 102 90 107 188 95 124 39 185 129 53 131 206 64 158 164 111 113 141 103 138 118 154 90 80 82 70 112 170 127 127 102 121 57 79 85 132 136 159 164 104 51 61 116 165 110 83 140 88 165 77 149 67 88 112 88 148 126 137 81 129 161 164 182 77 159 180 80 111 187 110 87 115 110 158 76 98 107 115 168 162 148 125 62 161 104 192 122 150 106 187 148 66 166 109 61 104 114 128 116 139 110 135 154 79 110 125 144 77 207 133 127 112 93 112 217 42 54 82 77 66 89 161 164 94 237 109 72 117 178 76 79 122 88 69 174 195 40 77 129 82 101 111 115 128 182 38 126 68 107 97 161 137 38 79 128 169 171 91 132 150 103 99 155 132 113 94 84 129 122 96 164 116 104 87 117 26 113 102 76 156 90 102 83 56 140 92 80 137 124 77 112 142 98 91 137 153 159 145 140 109 116 109 112 117 73 121 187 116 87 141 114 96 93 104 163 100 114 122 104 96 157 90 230 163 129 113 153 173 183 150 68 48 144 22 116 135 82 57 176 85 124 60 69 68 108 95 137 59 88 97 189 142 109 148 66 101 185 149 139 137 131 176 143 62 143 159 88 146 103 167 171 159 107 149 80 96 144 123 80 142 86 131 73 136 128 202 217 80 126 130 95 135 95 58 108 72 111 98 128 141 89 97 208 122 106 147 129 73 122 152 136 119 109 128 208 121 110 137 118 160 210 65 64 26 144 143 95 134 84 167 100 138 70 75 80 107 151 120 117 80 116 170 189 118 144 124 133 127 129 121 94 155 180 127 205 125 58 104 141 107 123 100 96 102 82 137 165 206 50 45 81 127 155 134 124 88 129 156 109 168 58 55 106 92 68 34 137 162 131 128 174 183 131 177 166 93 146 109 115 84 97 134 99 115 155 113 136 96 63 145 225 83 158 118 130 133 161 52 169 49 200 106 103 58 175 87 127 147 167 121 164 202 123 139 52 88 141 157 88 155 163 149 123 132 68 76 215 84 154 167 82 90 92 128 110 105 60 159 118 130 82 100 160 139 110 143 221 61 95 86 177 131 56 132 55 128 72 153 176 135 87 131 87 77 94 44 118 150 122 140 101 141 112 125 128 134 160 79 120 62 75 101 117 69 188 82 30 81 90 135 217 37 103 120 102 110 153 123 186 57 156 143 88 104 192 154 189 96 29 143 115 116 103 123 91 42 135 90 103 128 78 140 156 112 87 188 79 185 82 81 78 144 89 140 113 91 109 39 62 145 68 18 111 7 77 54 112 95 112 106 55 157 120 99 117 64 153 144 123 52 78 186 99 136 75 102 119 151 118 138 164 100 144 70 278 47 158 112 148 101 144 191 118 76 64 123 137 182 52 142 154 180 146 141 102 122 50 86 187 156 71 164 80 100 133 136 84 68 238 140 79 190 118 128 110 115 169 74 65 152 152 70 91 64 73 167 174 142 134 158 96 121 109 81 165 115 122 79 144 164 110 140 141 193 79 98 135 191 109 122 212 161 47 90 81 164 122 113 65 198 167 55 70 67 129 102 123 156 149 77 140 113 110 162 97 120 96 103 122 104 86 85 194 148 153 97 72 166 87 183 66 96 67 89 59 191 157 180 63 195 90 119 47 113 174 134 92 76 96 125 197 110 141 137 135 206 136 79 112 159 126 144 141 207 119 79 120 146 110 83 123 110 142 160 69 106 148 72 53 68 146 93 150 123 118 38 162 155 200 89 185 93 68 89 107 9 44 154 102 73 90 108 101 115 158 96 77 178 89 129 115 58 97 239 136 51 140 134 200 108 160 201 125 94 107 157 98 174 96 54 109 67 95 132 136 90 82 108 118 157 88 161 102 110 125 98 87 106 67 110 143 134 185 152 111 105 78 156 92 157 155 92 101 167 240 59 79 140 198 134 117 65 57 95 112 130 73 110 105 84 120 126 116 92 170 35 161 256 68 84 128 73 61 110 96 42 104 156 162 111 103 168 102 86 89 282 114 90 44 52 131 156 120 112 131 160 188 77 148 174 150 103 79 175 130 195 133 162 89 191 165 74 153 91 114 160 86 108 133 85 169 142 96 72 173 119 80 142 131 170 81 136 92 165 113 101 92 119 108 115 95 153 116 148 127 95 96 130 89 200 213 179 61 119 180 109 141 179 146 146 160 45 117 75 112 108 100 84 117 92 157 126 160 91 68 77 187 139 62 113 94 276 163 107 91 161 54 79 127 107 124 166 152 153 299 59 65 145 58 135 80 103 162 70 103 156 47 62 74 125 76 155 138 107 107 76 63 158 29 76 164 114 84 59 117 160 86 101 123 142 131 103 84 118 50 82 197 127 144 133 87 62 175 77 124 121 150 80 67 166 156 65 74 118 122 148 91 158 116 43 48 130 204 52 146 197 119 72 155 153 74 152 118 146 149 122 117 116 73 73 200 84 88 165 123 113 101 139 22 57 130 144 156 127 137 143 132 140 112 71 115 110 83 107 162 120 86 131 155 84 101 140 122 99 97 175 119 190 146 127 156 112 62 132 140 93 128 162 156 110 151 118 139 83 110 96 61 36 88 140 140 150 115 104 140 171 61 203 117 168 83 140 74 226 63 74 68 141 69 88 123 107 60 94 62 125 118 154 50 207 155 148 169 115 110 79 141 108 134 98 184 134 162 85 146 203 287 103 71 105 149 95 150 30 84 143 208 125 112 87 150 83 155 114 146 95 126 117 102 72 198 56 61 160 94 76 161 130 121 123 116 145 118 180 96 44 100 35 113 58 171 189 160 74 161 93 100 100 194 144 92 90 95 131 120 65 165 151 122 123 114 145 192 106 101 67 92 87 72 79 104 75 61 106 147 104 96 130 109 187 110 52 104 80 102 110 139 108 224 121 131 186 35 68 94 81 128 101 168 170 73 115 115 109 150 98 150 31 100 88 141 129 123 136 138 184 99 69 72 154 168 90 128 109 142 82 76 125 148 160 171 152 139 158 106 69 191 170 148 33 128 123 237 111 151 105 101 44 123 116 145 117 183 87 147 159 112 100 90 139 156 255 211 204 192 102 148 111 147 79 173 122 111 123 94 107 78 130 104 93 59 85 36 160 178 62 91 104 133 87 124 111 94 163 147 184 158 170 118 114 158 70 99 117 54 81 116 135 80 69 69 131 52 128 99 84 59 140 137 127 54 116 92 100 108 88 65 199 94 97 115 138 67 129 95 96 103 138 85 103 109 114 179 117 82 222 108 65 115 85 81 131 126 108 99 97 129 91 152 154 108 61 118 90 93 99 157 147 91 82 74 77 132 62 162 161 123 126 98 68 203 72 219 117 136 80 77 120 167 150 70 93 130 180 118 153 158 104 110 74 105 94 121 48 167 102 118 93 80 97 99 57 169 176 183 150 82 152 124 125 191 135 90 168 162 116 98 132 153 109 90 117 110 139 89 118 85 80 143 103 135 86 87 83 135 110 126 156 93 123 110 183 105 132 133 113 181 83 101 83 107 187 104 133 127 84 143 82 32 55 105 71 65 87 180 144 150 125 116 126 162 120 106 115 124 82 87 7 92 86 201 140 110 86 153 100 176 82 138 116 150 56 92 173 104 123 154 116 116 165 196 121 130 122 147 129 145 192 136 136 69 215 93 87 135 72 142 40 75 47 136 84 26 80 111 109 121 155 117 124 139 121 94 111 102 95 114 111 101 118 90 105 117 121 118 64 91 81 70 91 90 241 78 133 132 122 98 104 124 85 134 101 175 116 109 98 168 40 94 127 112 95 164 119 169 128 106 94 131 175 92 141 144 105 135 117 160 149 53 69 140 179 198 123 204 45 72 101 91 102 182 54 111 166 152 52 113 78 117 84 111 103 199 109 215 120 129 122 152 113 151 66 84 79 80 150 131 159 81 82 118 146 72 118 92 80 151 149 115 66 131 116 222 95 70 179 91 86 77 161 79 197 112 176 117 133 94 243 66 112 114 82 104 94 133 146 114 80 60 108 139 100 124 148 115 195 146 105 115 56 95 92 112 158 131 157 134 126 101 86 102 149 179 54 117 90 117 89 124 137 71 140 117 119 88 150 176 141 90 184 151 117 190 111 184 76 112 132 119 139 103 105 44 138 103 70 98 60 116 190 120 72 175 105 117 127 136 80 171 82 88 145 157 102 121 144 185 127 93 87 100 104 75 33 111 94 161 120 104 115 51 88 130 141 135 153 112 177 181 131 107 70 99 153 108 76 168 138 49 156 105 114 67 111 123 83 163 159 122 114 115 227 136 183 195 68 91 95 215 121 163 65 91 105 91 103 162 87 113 111 137 160 102 91 75 172 75 180 107 56 69 129 108 72 143 87 140 184 144 193 135 93 104 173 137 127 146 136 142 123 56 109 145 122 148 86 117 36 114 122 190 113 91 120 54 127 88 137 129 81 148 109 101 169 131 66 93 117 144 58 63 148 176 95 47 103 98 107 116 94 145 119 102 173 168 123 66 99 179 57 99 121 60 108 154 84 164 133 112 115 135 100 98 75 102 118 125 112 141 102 54 114 116 43 184 76 149 158 27 142 89 83 61 143 134 116 137 133 114 101 125 152 72 112 110 113 114 108 69 95 153 82 107 65 147 122 111 39 99 147 49 97 87 209 155 115 134 181 74 115 107 35 111 185 102 149 76 95 176 100 123 93 157 146 90 73 88 132 83 65 115 117 130 126 149 88 125 162 109 53 130 84 101 64 148 81 134 155 154 178 122 67 150 109 176 222 70 142 46 129 120 61 39 103 115 72 80 134 79 95 121 50 186 114 147 148 130 74 131 92 55 97 102 183 62 137 156 150 129 72 128 129 190 107 68 157 120 103 88 80 152 118 108 172 101 158 187 137 93 100 131 70 90 125 95 160 106 80 153 79 69 132 87 112 110 123 132 115 138 165 63 167 83 81 74 180 134 139 177 147 97 142 160 125 92 160 114 102 74 84 157 128 214 135 123 65 126 95 158 111 130 114 109 254 164 109 142 116 197 151 92 115 86 119 152 119 145 147 97 113 131 126 139 100 118 122 101 79 88 88 116 118 197 123 104 141 124 99 81 172 175 99 95 66 157 66 100 161 100 124 124 89 83 75 102 140 199 106 50 129 89 92 70 121 78 77 152 160 104 76 175 102 110 129 162 104 154 99 99 123 106 74 122 121 67 114 152 59 131 157 154 75 143 70 73 158 174 12 161 148 54 173 129 82 101 45 131 203 110 114 103 101 119 59 70 158 68 94 41 136 139 162 112 125 142 115 90 102 172 51 106 146 252 177 22 138 45 138 74 63 48 135 105 88 166 155 78 122 98 74 151 146 124 95 163 106 118 93 187 67 151 133 117 112 111 87 66 47 154 131 119 102 183 91 115 99 111 89 131 73 115 142 93 53 103 79 110 120 92 112 121 49 128 121 132 88 107 116 64 147 154 155 143 107 177 183 64 147 163 124 134 31 139 65 116 189 115 69 117 243 104 153 96 153 142 77 143 101 95 187 85 144 74 97 147 133 153 73 88 138 105 127 148 95 152 120 133 134 78 204 141 147 95 105 184 223 94 81 138 97 120 142 130 170 97 123 91 112 204 238 85 137 178 114 81 46 102 113 170 107 124 86 41 117 67 132 138 163 165 119 87 173 79 35 73 119 145 161 144 136 54 134 90 96 104 122 111 104 210 136 78 220 85 164 77 167 198 72 162 134 91 147 114 89 189 157 135 147 107 135 160 180 113 105 111 115 105 116 71 96 102 187 79 142 109 130 154 96 144 115 134 114 92 45 143 110 100 121 110 137 145 112 115 168 166 61 195 178 125 69 140 141 186 126 171 110 115 137 99 77 161 116 116 131 143 103 131 108 142 110 67 98 158 93 101 107 154 153 183 145 136 158 118 179 78 120 127 171 48 90 62 121 119 92 66 57 120 115 87 89 52 108 98 161 96 104 120 193 178 108 122 128 98 130 97 149 110 86 141 65 146 107 139 96 130 76 197 135 86 190 77 45 121 102 83 76 113 108 86 147 138 174 129 142 146 174 96 101 164 104 113 181 86 113 133 130 100 72 71 149 105 84 56 143 33 93 91 146 93 90 91 111 114 137 114 184 63 117 176 156 128 86 198 97 147 131 77 170 122 69 104 71 132 85 113 145 101 134 120 105 157 71 77 146 67 102 143 171 62 130 74 160 137 201 147 131 130 62 114 98 154 102 162 113 107 188 147 117 143 75 142 185 123 122 85 154 133 78 190 115 117 122 103 132 133 213 100 140 135 124 123 144 114 104 195 16 119 191 116 147 74 107 105 76 117 159 62 115 74 163 57 72 91 157 106 85 122 195 138 122 89 68 138 82 65 111 79 86 31 159 84 110 93 74 83 103 206 54 138 94 151 138 84 26 122 81 122 125 94 207 80 166 158 126 124 101 105 143 81 130 76 186 95 113 98 61 82 129 186 94 133 99 111 194 138 128 89 148 79 67 119 158 98 84 69 196 122 94 190 62 111 98 101 145 155 136 122 70 168 56 86 141 175 71 100 160 162 116 214 150 111 150 103 157 111 179 131 255 116 121 128 90 140 98 131 91 153 99 139 68 206 113 125 146 141 138 161 123 104 149 99 151 125 112 175 141 120 173 88 133 129 121 212 148 77 155 83 105 118 116 176 152 113 139 166 165 86 144 164 93 141 165 88 224 105 121 137 118 109 98 122 198 74 193 65 153 150 144 134 194 80 177 71 87 202 98 154 42 104 119 134 146 112 157 89 56 77 126 38 184 91 62 79 152 133 147 131 49 219 141 103 122 83 157 173 169 165 118 185 120 122 90 123 52 106 172 141 161 70 116 203 133 61 138 140 126 150 171 127 157 103 102 98 74 188 146 84 26 112 134 220 94 124 112 109 111 88 72 123 222 64 72 103 106 139 122 107 135 109 123 104 126 204 116 96 55 94 117 111 127 30 99 117 175 100 171 123 114 60 131 93 106 82 70 85 218 66 146 103 103 91 119 143 152 101 96 70 178 51 138 208 120 130 92 152 94 122 76 89 48 152 163 59 114 98 130 89 165 199 154 148 59 156 86 138 75 105 121 129 133 146 71 65 114 81 163 147 122 199 110 155 58 76 102 175 115 138 120 172 144 81 139 67 113 104 139 90 133 91 132 85 139 147 144 137 106 161 152 162 147 118 124 140 53 126 228 180 75 42 135 71 109 94 251 120 162 120 51 73 85 105 147 135 94 151 149 100 69 101 151 116 77 83 146 109 114 105 111 148 76 58 134 134 104 103 125 149 110 108 97 115 55 144 87 220 92 167 62 20 166 101 151 117 131 89 55 122 127 139 62 118 103 132 181 85 155 194 94 112 100 178 162 114 65 185 117 151 110 89 180 175 127 196 90 171 140 77 156 117 148 131 117 67 144 134 94 131 65 184 79 86 132 151 103 109 160 137 119 143 32 24 216 71 117 153 62 74 138 129 65 102 91 126 165 95 169 167 118 118 108 112 125 129 117 80 115 88 141 192 131 128 71 229 177 89 51 166 197 184 121 156 140 138 64 111 124 76 81 113 159 223 134 93 82 107 96 54 141 91 79 149 107 142 182 136 98 54 82 150 118 148 166 117 124 180 147 85 74 89 115 136 135 116 170 126 83 73 53 44 56 107 168 120 84 104 59 98 107 33 179 124 235 66 145 134 83 99 149 146 92 277 80 83 59 105 100 114 40 97 76 164 118 117 80 206 123 136 78 131 146 94 113 156 176 102 136 76 127 53 93 170 131 134 167 173 81 110 106 113 135 150 55 63 143 84 88 107 15 76 150 118 92 106 107 50 91 120 140 173 153 127 154 96 148 139 127 219 132 103 115 139 133 118 167 117 144 112 86 129 68 87 178 106 194 80 112 173 123 135 268 78 116 90 164 130 145 67 128 169 73 141 131 129 87 94 153 183 73 57 135 36 99 197 96 120 92 110 149 71 135 144 115 119 81 111 164 136 148 215 130 165 141 165 154 131 186 127 121 169 68 130 90 76 122 128 156 145 101 63 154 130 199 136 88 87 144 94 76 199 85 24 161 85 95 148 174 179 67 105 144 76 111 122 101 141 76 152 157 185 66 105 94 195 118 173 104 99 166 86 153 98 39 64 104 118 86 141 157 100 108 129 138 135 127 241 77 97 140 133 147 113 106 68 120 151 127 105 178 130 108 126 111 114 146 87 109 103 93 83 163 164 124 114 112 128 139 104 152 144 112 106 45 105 51 119 124 109 68 91 138 206 84 122 139 70 154 194 123 79 156 112 168 102 134 93 105 182 144 128 130 48 140 103 158 192 66 90 111 91 181 38 159 89 70 75 159 131 117 70 80 104 64 119 108 89 93 182 167 55 99 139 146 86 92 94 171 133 111 114 64 147 84 117 109 119 141 183 107 73 158 87 204 144 96 87 60 56 77 95 192 94 71 160 54 93 132 140 61 176 38 193 157 144 144 164 77 74 71 191 126 133 147 170 126 129 99 140 143 93 235 78 118 124 100 125 112 129 98 57 38 116 46 110 146 131 135 76 101 40 60 104 83 86 101 159 169 112 97 99 41 126 107 83 124 83 98 149 191 86 130 149 72 267 177 146 133 149 104 173 114 104 139 149 163 243 111 138 117 124 56 165 110 178 145 142 140 173 158 69 134 106 180 127 187 84 123 206 134 115 95 170 78 142 79 179 74 198 111 129 124 121 87 111 133 97 142 160 71 93 59 219 189 172 169 52 102 106 156 82 156 123 247 53 73 106 108 109 159 143 203 52 168 89 115 126 74 118 95 132 105 154 127 74 133 93 131 120 190 138 74 64 136 96 167 113 152 121 90 181 69 108 116 191 110 106 181 81 228 104 158 87 122 179 163 158 108 128 95 186 111 126 120 94 165 110 161 66 112 197 69 149 122 124 108 22 82 84 102 101 91 142 86 54 52 155 161 130 161 112 113 93 117 108 84 185 168 27 104 78 87 118 156 146 159 90 61 72 125 45 170 132 176 138 116 83 162 178 124 111 118 80 77 113 67 116 54 177 108 101 89 114 184 118 139 180 164 94 106 159 221 168 85 153 54 55 113 108 156 112 157 88 151 72 152 142 90 112 129 129 128 256 127 167 67 123 109 122 131 145 78 39 85 135 114 111 109 148 138 139 190 170 82 84 134 104 145 120 92 173 209 160 55 184 130 147 89 90 137 129 69 81 95 132 117 142 97 131 175 111 171 137 70 153 96 84 224 131 120 181 99 85 123 156 37 124 99 48 86 77 129 69 202 120 202 233 122 42 111 111 93 107 184 165 63 79 150 159 147 134 129 121 117 104 82 76 99 63 86 147 75 106 120 122 60 55 79 103 27 122 163 88 105 127 176 109 78 100 82 96 255 106 169 126 208 60 152 91 72 120 145 110 105 122 78 83 64 56 90 83 202 129 125 50 139 116 134 208 191 95 141 107 149 67 84 136 124 99 163 128 130 165 94 167 59 97 110 134 100 53 147 93 141 206 53 100 175 144 96 105 69 132 109 147 69 111 190 72 63 156 99 115 144 143 151 86 167 144 140 119 126 75 65 139 122 134 123 114 185 45 90 90 235 90 126 124 142 163 162 194 107 120 140 109 152 151 101 101 140 128 128 77 145 170 162 131 108 129 90 70 124 183 95 111 145 83 82 83 113 166 133 20 59 161 101 87 111 76 70 138 100 152 151 100 111 181 167 175 124 131 112 124 120 91 118 86 106 68 159 134 170 133 162 76 127 149 104 185 153 112 86 98 138 91 68 141 118 101 151 124 49 195 163 111 107 103 145 89 128 156 110 127 103 212 135 100 151 107 115 127 131 139 155 88 138 54 203 114 36 104 128 149 120 148 215 124 94 98 119 118 124 132 40 219 56 155 174 97 168 132 215 132 145 105 126 183 84 151 153 153 213 122 146 106 199 98 92 117 171 190 98 169 90 93 110 138 218 110 155 125 162 110 71 136 99 142 119 152 79 189 107 85 57 100 153 112 164 136 145 101 84 119 163 122 110 130 102 110 181 96 142 141 184 82 132 78 92 32 113 107 126 156 120 80 126 99 118 102 86 85 160 69 187 118 120 149 92 121 82 246 104 109 51 105 132 195 43 65 126 48 131 139 107 144 81 73 66 140 112 146 90 99 84 143 118 86 143 92 63 159 188 173 120 139 137 110 87 66 93 161 71 157 155 69 177 82 123 140 149 171 172 123 46 75 67 58 95 91 90 62 142 112 118 89 185 97 164 106 118 126 73 65 147 201 124 182 75 227 183 63 118 157 86 142 34 82 120 49 29 141 141 161 182 135 88 147 183 128 118 143 133 116 92 94 170 61 127 142 140 128 102 76 183 44 115 155 153 124 119 91 149 177 93 38 55 162 86 146 53 134 123 57 202 47 81 101 148 134 75 49 74 109 136 184 161 166 135 142 96 133 126 54 150 120 87 186 105 101 121 87 141 86 127 101 77 116 131 98 53 171 166 85 67 148 83 182 86 76 46 82 136 85 101 68 143 112 129 99 51 109 98 57 85 128 48 195 105 152 98 198 70 116 123 162 102 178 203 116 265 77 133 75 57 106 169 117 125 90 97 159 108 101 134 127 73 86 195 172 186 94 148 99 84 95 167 111 100 103 171 45 171 125 68 91 50 177 172 129 121 57 118 123 84 90 83 73 73 124 79 106 146 105 224 82 74 98 50 114 145 68 64 151 80 112 127 128 96 96 106 85 102 155 57 124 129 113 79 144 86 115 112 137 103 168 166 109 113 173 87 102 113 105 107 82 84 138 173 101 138 149 99 73 136 151 144 199 49 84 117 164 138 110 133 135 35 217 185 144 137 125 118 152 176 159 128 71 79 36 53 172 87 53 125 102 105 141 133 89 56 78 130 80 57 102 191 116 52 139 103 91 154 52 70 111 160 125 108 68 154 143 104 162 64 114 138 159 52 172 45 168 116 107 185 37 118 86 133 202 109 116 96 65 88 104 64 111 139 91 125 100 150 179 141 177 95 135 74 146 147 122 89 138 74 81 243 121 124 101 95 84 137 156 177 61 81 109 164 125 134 58 135 50 171 182 136 60 125 124 132 152 117 108 83 133 152 143 150 137 136 120 114 112 100 123 96 139 95 37 204 126 151 161 164 68 162 161 113 63 156 113 157 50 45 132 122 101 112 181 96 95 107 114 158 166 69 105 119 94 133 97 148 76 135 155 123 80 106 82 129 72 79 84 126 96 76 111 137 125 85 111 104 128 131 162 115 174 91 182 160 77 132 95 87 142 86 126 87 149 96 152 68 163 149 99 76 108 95 115 137 94 56 27 140 97 126 133 174 92 78 92 98 83 144 118 143 100 124 133 124 119 111 95 124 115 116 47 129 65 94 203 99 99 100 94 173 193 103 85 131 137 172 96 82 123 153 141 156 93 88 104 78 106 112 76 125 137 94 75 78 138 111 78 100 101 135 196 139 131 155 85 99 117 128 73 206 126 137 119 53 139 97 155 106 93 83 143 145 48 74 123 126 64 155 135 87 174 105 115 103 85 114 168 92 139 95 210 114 170 57 84 56 181 119 194 228 127 115 109 254 147 205 216 87 107 92 100 71 132 126 135 65 116 203 75 149 89 127 53 72 153 194 80 22 44 141 66 119 70 179 97 89 189 60 62 179 96 96 44 114 73 99 121 130 140 112 79 128 149 89 140 130 119 99 114 110 83 137 166 92 182 83 89 129 206 137 114 117 165 27 54 142 143 172 75 40 212 60 167 103 190 107 142 138 77 168 96 110 67 48 141 112 69 123 150 72 126 135 199 143 71 125 130 145 119 71 108 125 141 141 62 89 94 118 108 105 113 84 114 110 44 167 45 145 107 96 96 100 89 94 149 73 97 125 101 119 216 244 61 65 55 118 99 37 125 89 122 113 112 75 225 128 218 160 134 98 204 200 59 127 190 85 130 156 102 109 67 84 193 157 147 75 157 126 150 94 118 192 114 111 162 67 209 106 155 76 92 139 148 146 144 72 126 138 137 82 103 86 149 161 249 93 138 50 105 64 97 117 164 128 133 174 140 63 67 140 128 108 141 185 90 115 55 164 119 120 201 117 57 115 132 107 133 125 81 176 107 183 144 145 188 131 135 142 116 107 163 74 118 125 88 87 139 71 118 87 100 102 107 50 111 133 88 127 120 199 153 119 129 97 201 61 78 129 138 129 150 174 85 89 65 81 203 142 121 107 114 145 127 152 176 50 125 151 87 143 95 102 48 179 174 37 158 106 144 93 164 115 174 129 158 160 94 177 174 163 121 120 88 98 66 87 68 68 109 132 142 147 168 92 124 155 149 148 110 146 100 82 97 159 87 175 92 120 129 127 148 60 119 197 160 163 158 103 138 98 118 155 142 134 139 125 145 256 181 130 184 57 90 148 56 37 68 86 118 134 82 79 162 88 158 95 121 124 180 104 132 117 173 78 139 149 150 200 88 144 93 113 39 94 139 152 152 120 133 133 164 82 134 165 101 121 62 133 155 145 76 119 80 77 156 148 74 111 115 90 165 162 91 97 114 113 150 95 177 66 128 68 76 193 103 91 120 102 73 115 64 187 122 148 135 62 136 166 132 166 122 155 135 174 88 62 182 183 144 117 120 64 94 105 108 73 127 106 132 108 115 94 141 57 80 219 177 166 111 125 121 84 130 156 168 143 113 74 84 182 93 195 123 111 70 97 71 151 180 143 131 60 96 65 114 112 154 113 103 140 52 82 154 90 120 153 103 137 90 128 64 59 46 83 138 124 151 128 75 60 140 145 97 157 115 104 95 46 151 97 172 102 37 121 82 118 104 130 119 101 178 53 83 81 126 110 155 58 119 66 90 184 117 105 217 100 145 201 130 157 115 129 155 70 102 115 79 99 121 21 133 123 151 135 106 87 57 129 140 146 101 111 106 148 180 114 202 117 157 13 90 136 115 197 134 175 57 75 167 180 57 100 124 170 113 236 78 141 131 163 115 132 161 91 86 90 88 148 89 108 86 85 76 135 63 120 189 89 69 154 146 48 141 187 130 132 72 86 91 143 66 23 110 129 157 36 159 84 87 120 34 122 110 128 76 126 131 87 98 119 97 86 120 91 126 77 146 102 180 123 72 101 141 176 89 87 90 77 189 68 130 156 97 147 204 134 119 115 100 146 67 145 118 129 223 82 103 179 83 103 248 141 112 116 66 78 141 141 78 110 107 147 144 98 63 113 202 93 71 153 91 120 61 115 128 124 165 132 86 102 137 181 106 83 128 158 75 166 81 104 95 153 78 93 110 120 31 132 121 100 134 91 86 131 167 116 93 173 104 82 129 132 92 82 113 97 149 70 57 131 45 85 191 207 137 48 79 95 156 63 117 89 118 217 123 86 124 110 151 75 44 59 68 99 113 172 63 78 65 154 93 96 91 140 165 124 94 148 126 142 80 118 65 130 93 103 93 82 89 128 161 166 114 156 114 110 86 71 113 127 157 171 33 134 95 177 187 107 120 147 94 223 16 120 114 79 100 100 164 45 75 135 82 80 11 109 147 147 120 130 105 151 52 105 110 131 95 118 103 73 116 89 118 97 119 86 134 140 145 126 144 15 109 69 117 89 58 64 75 114 85 90 63 131 132 96 105 78 77 124 74 163 128 137 73 89 110 69 73 118 87 171 144 113 172 146 167 142 81 152 116 63 130 110 134 113 157 87 98 174 112 184 92 81 187 160 97 68 108 100 133 92 148 113 121 125 97 106 65 97 136 169 113 163 71 139 145 185 96 68 176 207 187 135 122 159 134 96 84 108 65 113 84 104 218 112 173 131 82 103 176 68 44 112 157 97 120 72 103 154 180 141 112 95 98 123 147 155 147 39 82 71 73 169 168 122 141 120 176 99 152 128 110 65 84 108 87 79 42 84 207 120 167 106 163 140 90 86 80 97 117 151 102 176 102 127 203 103 147 60 99 57 125 84 73 131 41 126 106 184 123 96 173 112 90 88 128 125 44 193 125 70 105 136 86 134 33 83 67 178 73 132 83 55 240 169 136 165 126 72 82 117 98 121 78 140 72 121 228 68 114 151 169 154 165 129 133 106 70 132 132 79 77 111 115 103 111 146 126 117 147 52 215 65 178 110 109 220 81 140 144 160 132 114 148 92 114 88 154 126 177 64 108 68 138 101 58 73 117 98 129 95 138 159 88 114 85 187 74 104 74 129 126 84 75 64 131 103 112 135 168 101 106 91 69 112 92 126 124 90 60 37 118 125 102 87 79 86 131 106 121 108 158 79 126 128 125 178 92 117 79 161 134 57 56 146 151 120 160 109 77 87 135 112 194 124 91 107 159 118 70 80 163 93 111 126 225 68 194 139 87 101 97 157 146 122 163 133 145 83 83 144 130 96 43 162 135 207 158 89 67 90 100 135 90 117 77 136 149 107 77 141 157 137 91 90 121 43 68 162 63 154 107 129 76 88 92 97 80 148 102 175 94 97 140 88 88 81 116 73 122 96 157 105 32 223 93 97 76 92 153 162 89 60 137 203 83 128 98 86 120 71 91 103 113 157 33 116 107 186 63 164 179 148 120 92 152 94 136 132 167 124 170 79 84 186 64 157 110 112 121 105 143 162 43 130 62 117 176 100 128 145 102 159 176 129 169 95 97 154 141 146 158 210 56 91 83 47 181 196 176 214 128 70 151 118 162 64 60 66 162 153 71 147 147 112 150 139 113 122 104 183 76 83 79 118 91 114 173 110 67 139 138 73 128 97 113 170 44 99 171 69 103 124 127 203 156 118 141 187 96 90 154 79 98 173 164 84 177 151 150 94 78 154 163 120 141 160 88 48 120 60 118 165 89 115 115 112 85 87 94 238 110 149 79 141 25 105 107 126 106 100 140 179 75 137 105 247 249 81 101 116 195 116 84 115 184 77 83 101 131 58 147 59 165 90 138 188 77 60 166 62 127 102 92 162 122 95 165 128 69 186 159 108 69 109 137 92 126 149 166 134 68 128 77 148 139 133 153 150 114 150 76 102 56 123 117 133 88 67 202 124 101 98 108 115 109 102 138 162 99 214 115 184 120 144 145 143 73 70 127 39 86 108 129 184 157 63 150 171 97 112 197 55 139 170 80 116 186 109 97 96 113 78 133 79 110 96 121 161 143 135 84 115 92 104 100 159 149 152 118 72 99 121 109 103 103 114 95 113 81 100 122 68 187 175 146 99 129 96 171 163 60 128 89 142 134 89 127 73 185 166 171 112 167 79 74 144 108 122 124 78 136 93 156 71 193 81 163 180 54 63 139 155 77 117 153 215 63 143 136 98 56 69 66 184 209 103 121 123 179 204 139 160 69 141 117 130 152 122 73 154 125 86 62 121 88 145 134 160 134 124 135 93 121 111 100 98 123 151 45 115 165 161 210 124 140 132 82 112 109 148 146 98 118 126 187 104 129 85 80 115 171 67 134 152 45 179 73 94 70 100 133 128 166 96 116 113 79 83 113 110 106 110 54 111 116 80 110 114 123 62 146 152 121 140 182 125 109 84 138 88 103 88 109 144 115 124 134 149 104 145 123 127 65 93 116 76 95 123 141 122 122 160 153 69 127 144 147 94 111 89 78 168 174 181 143 124 144 96 103 132 208 90 134 101 112 92 91 68 138 139 173 133 214 73 64 135 221 77 122 110 130 129 109 94 130 209 116 142 105 175 162 86 55 102 122 77 113 132 127 74 152 151 108 73 103 95 258 99 144 81 180 57 75 131 106 124 101 118 18 106 191 212 96 180 157 98 147 126 107 87 90 132 86 89 121 150 45 168 124 94 141 145 124 175 122 103 130 100 135 177 82 136 148 141 165 153 106 75 142 174 195 92 55 47 89 83 181 88 155 180 164 113 112 100 85 136 72 137 178 115 145 138 83 67 110 137 34 94 113 185 68 76 129 178 186 106 193 121 118 154 108 110 141 188 114 129 104 93 113 127 95 177 114 128 101 111 127 133 168 119 58 181 72 92 117 95 74 92 125 172 85 108 172 129 156 92 123 63 55 134 49 98 143 82 110 104 106 147 110 132 78 174 154 61 137 126 118 116 156 135 145 151 93 125 134 171 139 134 183 37 119 104 48 55 142 107 125 94 160 95 49 110 109 140 214 101 116 119 183 155 100 140 166 92 142 75 199 89 164 54 120 89 139 125 104 180 101 150 143 137 101 117 101 105 136 115 147 187 90 88 125 88 179 135 109 152 110 148 156 107 115 152 125 193 164 119 98 102 193 156 90 129 119 74 177 114 107 118 172 155 71 212 180 141 134 77 77 93 35 116 99 94 130 93 111 117 83 97 115 114 76 158 177 130 232 108 106 192 110 142 117 95 69 125 17 75 228 86 145 130 147 93 73 132 126 103 168 122 139 73 102 92 74 91 63 190 110 130 126 89 139 107 116 96 70 92 28 154 90 93 129 140 90 84 137 147 134 131 116 146 155 93 77 75 101 117 67 104 142 58 137 125 157 103 131 121 31 209 94 184 87 109 100 78 81 75 114 138 107 111 128 123 113 122 75 95 152 138 149 138 144 74 52 155 81 103 51 186 123 104 144 146 186 150 109 126 111 127 192 136 99 110 126 65 184 76 177 122 117 123 185 100 154 167 123 159 60 68 114 135 162 112 115 122 125 66 111 116 88 67 110 159 118 97 119 38 88 125 173 167 96 171 98 159 80 107 174 125 84 87 67 166 109 108 94 120 120 173 167 203 122 221 104 193 89 146 125 109 174 103 104 149 113 115 111 71 67 100 99 112 108 170 105 79 132 109 133 86 138 110 88 238 152 68 132 110 147 117 152 148 110 136 118 114 110 136 125 31 113 155 151 187 98 75 109 210 67 164 135 148 148 116 96 60 155 80 125 106 152 106 124 94 118 88 86 136 144 114 70 176 85 119 150 97 88 63 109 121 116 88 197 147 101 144 73 107 144 146 104 50 104 112 81 144 160 117 231 65 155 111 75 76 164 171 86 121 126 85 161 106 132 96 211 183 127 64 70 161 126 90 91 92 124 173 140 140 103 214 132 131 151 156 118 133 163 58 134 114 189 127 85 122 95 94 170 148 74 155 65 68 262 169 124 44 94 92 103 133 199 95 135 76 134 95 88 190 108 145 112 200 145 204 91 95 76 135 80 139 85 150 179 125 127 115 83 120 92 157 139 98 187 80 157 95 213 152 67 158 156 138 108 102 134 204 77 171 152 138 117 127 61 151 158 181 129 150 172 127 157 73 80 68 61 135 85 102 78 121 121 112 285 120 134 142 96 161 109 151 127 130 153 165 125 103 81 78 143 107 129 238 140 70 163 129 112 54 125 142 175 144 89 60 140 134 87 96 95 95 110 207 122 54 88 118 143 219 153 138 115 98 109 45 62 46 83 119 67 125 116 118 116 120 180 102 201 126 88 152 205 121 128 133 127 105 104 168 151 72 156 155 180 115 29 126 122 64 144 135 176 91 119 171 131 114 82 109 81 162 222 113 78 121 92 112 83 64 114 95 134 127 115 90 129 34 60 119 36 104 74 88 106 106 93 108 99 137 99 146 139 114 109 129 84 193 141 97 108 116 167 125 100 62 109 130 110 152 119 140 140 128 105 74 105 194 167 132 72 171 203 82 130 101 136 133 130 115 193 100 125 104 75 165 130 81 164 178 144 85 185 108 145 165 95 77 108 112 121 58 81 130 44 140 147 107 153 149 195 127 106 183 53 104 130 141 96 147 92 256 112 100 86 128 111 164 109 144 103 104 151 86 83 65 94 248 50 98 68 115 74 76 84 63 114 83 130 104 205 93 151 101 75 110 38 126 144 79 113 132 93 114 89 121 167 112 90 122 162 149 93 129 145 99 121 148 107 96 161 119 159 60 139 100 122 153 144 150 120 144 70 105 174 97 109 73 135 167 94 185 124 153 95 113 131 154 117 71 40 85 125 59 164 95 60 77 148 74 124 117 62 42 102 110 88 124 63 131 112 34 106 174 90 112 127 138 69 185 96 115 73 154 141 137 86 129 139 157 170 172 131 112 131 123 133 116 95 46 130 53 123 178 114 101 103 175 180 166 117 117 143 155 93 144 50 180 166 123 159 156 103 134 171 78 120 71 105 148 150 177 93 131 93 108 115 207 49 143 54 65 78 218 161 168 105 205 152 93 123 114 153 126 109 79 117 88 64 162 88 83 86 111 78 205 130 79 147 70 95 80 90 123 118 107 123 108 66 102 164 186 111 97 51 114 142 167 104 102 94 134 105 96 73 79 111 158 140 105 144 117 85 106 143 76 138 79 81 84 171 111 108 80 61 143 106 86 97 91 132 91 78 118 192 152 110 178 51 193 61 181 133 113 57 74 179 34 200 161 159 179 93 121 106 55 177 86 120 74 123 82 93 106 218 206 111 137 73 108 85 65 102 143 77 88 120 151 153 82 139 124 165 71 163 79 111 72 131 98 130 147 143 137 151 187 100 89 159 88 157 110 281 93 155 75 160 183 137 101 125 123 185 97 113 176 91 112 113 157 103 121 95 175 108 150 150 89 190 113 96 49 171 148 90 72 93 106 118 104 101 184 129 111 153 114 91 181 136 29 112 78 168 126 117 99 111 152 85 157 120 139 111 109 116 149 66 81 205 106 82 94 57 115 94 87 83 161 175 111 83 115 121 150 108 122 188 225 141 60 120 158 142 173 116 151 125 86 108 59 88 98 217 126 138 57 143 135 138 104 156 138 101 71 47 85 142 154 113 148 124 137 106 153 212 120 138 182 130 129 106 152 72 86 116 72 76 158 218 95 154 95 120 78 105 152 111 105 67 99 159 93 90 98 89 113 128 120 114 125 97 89 131 122 123 99 137 89 133 90 96 134 99 129 111 278 82 92 169 53 193 141 60 60 55 154 115 85 143 198 163 117 160 245 186 124 140 73 85 130 38 93 146 122 51 129 107 82 135 123 135 142 72 38 101 75 87 38 116 175 67 88 186 115 123 114 136 197 126 80 164 92 93 111 71 129 169 98 77 174 100 124 127 236 141 175 89 27 155 262 137 144 164 90 144 59 95 98 95 129 92 65 60 76 106 74 69 135 63 118 100 121 136 128 234 117 66 171 90 143 78 88 103 178 163 135 102 203 62 92 164 104 88 105 160 113 108 137 50 155 146 164 67 100 92 73 151 53 164 172 148 56 144 110 117 170 108 81 99 80 100 198 127 72 155 77 61 70 109 161 83 149 37 97 171 74 127 176 80 95 157 120 166 121 141 188 81 110 157 97 122 130 169 133 86 112 122 146 112 76 120 96 74 167 26 42 114 137 91 141 74 157 47 108 39 221 144 78 125 94 100 88 106 141 135 144 166 116 130 114 133 109 106 135 94 135 107 150 98 133 200 125 93 160 64 141 61 166 86 156 123 20 105 28 154 129 83 118 69 131 171 136 148 110 107 135 57 125 136 132 129 118 125 186 84 251 131 126 50 179 124 131 177 75 123 145 165 76 78 94 97 130 189 119 106 102 70 117 69 92 76 157 46 103 140 91 138 82 135 162 86 73 90 161 111 127 103 142 186 105 64 159 106 111 109 196 128 227 122 71 124 54 119 124 167 107 115 116 162 163 111 157 112 106 157 139 71 133 126 98 92 146 88 133 131 129 121 129 171 121 104 88 102 112 62 64 105 150 99 82 145 143 79 138 67 166 143 90 211 54 76 139 97 121 53 95 137 201 75 80 150 124 143 66 134 129 158 109 71 122 78 75 133 137 75 152 91 203 119 125 133 72 93 157 62 111 159 123 119 169 132 195 140 184 93 83 276 166 92 136 117 173 126 89 108 86 159 119 100 93 121 168 77 96 208 198 161 84 76 144 132 212 152 </t>
+  </si>
+  <si>
+    <t>MIE(0.2910022812562566, 2.3834546104564662, -2.2425581948879647e-28, 2.6312392351304683)</t>
+  </si>
+  <si>
+    <t>0 0 1 1 0 2 0 0 1 3 3 0 1 2 0 1 0 1 2 1 2 0 0 0 0 1 1 0 1 1 1 1 2 0 0 2 2 0 2 1 0 2 0 1 0 0 0 1 1 0 0 0 1 1 2 0 2 2 1 1 1 0 0 1 0 2 0 2 2 1 2 2 5 0 2 0 2 1 0 2 1 0 2 4 1 0 0 3 2 2 0 0 1 1 0 1 1 2 0 1 0 2 1 2 1 1 2 2 0 3 2 1 1 1 2 1 0 2 0 0 1 1 1 3 1 0 3 0 0 1 2 0 2 1 1 1 0 0 2 1 0 0 0 0 0 0 3 1 1 1 0 0 1 1 1 3 0 0 1 0 2 1 1 0 2 1 0 3 0 1 1 0 4 1 3 0 1 0 0 0 0 0 0 2 1 2 1 1 3 0 1 2 0 1 0 4 0 4 4 0 0 3 0 0 1 1 1 1 3 0 0 1 0 0 2 0 1 2 0 1 2 1 0 1 0 0 3 0 1 1 0 0 1 3 0 3 1 1 0 0 0 0 1 1 1 1 3 1 0 0 0 0 0 0 2 1 0 0 0 1 1 2 1 0 0 0 0 0 1 1 3 2 2 2 0 4 0 0 0 2 1 0 1 1 0 0 1 0 1 0 1 1 1 0 1 0 1 0 2 0 3 1 0 0 0 0 1 1 0 4 3 0 0 0 1 2 1 2 1 1 0 1 0 1 1 0 1 0 1 0 1 2 1 0 1 0 1 0 0 3 0 0 0 1 3 0 0 2 0 0 1 1 1 1 0 0 0 1 2 1 0 2 2 0 0 0 1 1 2 1 0 2 0 1 2 0 0 2 1 1 1 1 0 2 0 1 0 0 1 0 2 2 0 0 1 0 0 1 0 2 2 0 0 0 0 0 2 0 0 1 1 1 0 2 1 0 2 0 2 1 0 2 2 2 0 0 1 1 0 1 1 1 1 0 3 0 1 2 1 0 0 0 1 0 1 1 2 0 1 0 3 1 1 1 1 1 1 2 1 0 1 2 1 1 1 1 1 0 0 1 1 1 0 1 2 0 1 0 0 1 0 0 0 0 2 2 0 2 1 3 1 1 0 0 1 2 0 0 1 1 1 1 2 2 0 0 1 1 0 0 0 1 0 0 2 1 1 2 1 1 0 1 1 0 2 1 0 1 3 2 1 0 2 2 1 0 3 2 1 0 1 3 1 4 1 1 0 1 0 0 0 1 2 1 0 1 1 2 1 0 1 1 3 0 1 1 2 1 1 1 0 0 0 0 1 2 1 1 1 2 0 0 0 1 0 1 0 1 1 2 2 0 1 2 1 1 0 0 1 0 1 0 1 0 2 0 2 0 2 1 0 0 1 0 1 1 1 1 0 1 0 1 2 0 2 1 1 0 2 1 2 0 2 1 1 2 2 2 1 0 0 3 1 0 0 1 0 0 3 1 3 1 1 1 2 1 1 3 0 4 1 1 1 1 2 2 0 1 0 0 1 1 0 0 2 0 0 0 1 2 1 4 1 1 2 2 1 0 0 1 0 0 0 3 0 1 1 1 0 2 0 0 1 0 2 1 3 0 1 1 1 1 2 3 0 1 1 0 1 1 0 2 0 3 2 1 0 1 1 1 1 0 1 3 0 1 1 2 1 1 1 3 1 2 2 1 0 2 2 2 2 1 0 0 2 1 1 0 0 1 2 1 0 1 0 1 2 2 1 0 4 4 0 0 0 1 0 0 1 4 1 3 2 1 1 0 0 1 0 0 1 1 2 0 0 0 1 1 1 2 1 1 2 0 1 3 0 2 0 1 0 1 2 1 1 1 0 1 1 0 0 0 2 0 0 1 2 2 1 2 1 1 0 1 0 2 1 0 1 2 1 1 2 1 3 2 1 4 1 1 1 1 0 1 1 1 1 1 1 1 0 1 1 0 1 1 1 1 0 0 1 1 2 1 1 1 0 0 3 2 0 1 6 1 2 0 0 0 0 2 0 0 1 0 2 2 2 2 2 3 1 0 2 1 2 1 1 1 3 1 2 2 1 4 1 1 2 2 0 2 3 0 1 0 0 0 1 0 2 0 1 0 0 2 0 1 0 0 0 0 0 0 2 2 2 0 1 1 0 1 0 2 1 0 2 1 2 0 0 1 3 0 0 1 0 1 2 0 0 0 1 0 2 1 0 1 1 1 3 1 1 2 0 0 0 0 0 0 1 2 0 0 1 0 1 0 1 4 0 1 0 0 0 0 0 2 1 0 2 0 1 1 0 1 0 2 1 2 1 3 1 1 1 0 4 0 0 1 0 1 1 1 0 1 1 0 2 2 0 2 1 3 3 0 0 1 1 0 2 1 1 1 1 3 0 2 2 1 2 0 1 2 3 1 2 0 3 1 0 0 2 4 3 0 4 1 0 1 0 0 3 0 1 4 2 0 1 1 3 0 0 1 3 0 2 1 1 2 0 1 1 3 2 0 0 2 3 0 1 1 0 1 0 1 0 0 0 1 0 2 2 1 0 0 3 2 0 2 0 2 1 0 0 0 1 0 0 0 0 0 1 2 1 2 1 0 1 0 0 0 1 3 1 1 0 0 2 1 3 0 1 0 1 1 0 0 0 2 1 2 0 1 0 2 3 0 3 0 1 1 4 2 1 0 1 0 1 1 2 1 0 0 2 0 1 2 2 1 0 2 0 0 2 2 2 3 2 1 2 2 0 1 2 1 0 0 1 0 1 1 2 1 1 0 1 1 2 2 1 2 0 1 2 0 0 3 3 1 0 0 2 0 1 0 0 1 0 0 0 0 1 0 0 1 0 2 2 2 1 2 3 2 0 0 0 3 1 0 2 2 1 0 1 0 0 0 0 2 2 1 0 0 1 1 1 1 0 1 2 1 1 0 0 1 0 0 2 2 3 1 0 1 3 1 0 0 0 1 0 1 2 2 3 0 1 1 2 2 3 2 3 0 2 0 1 2 0 1 2 1 3 0 0 1 3 2 0 2 1 0 2 0 1 2 1 0 1 0 0 1 1 2 0 1 1 0 2 0 1 2 1 1 1 1 1 1 0 2 1 1 0 0 2 1 0 0 5 1 0 1 0 1 0 0 1 1 0 3 1 2 2 1 2 0 0 0 2 0 0 0 1 0 0 1 2 0 2 1 0 0 1 1 1 0 2 0 0 2 0 0 1 1 2 1 3 2 2 2 1 2 1 0 2 5 0 1 1 2 3 1 0 0 1 1 2 0 2 1 0 0 1 0 1 0 2 1 0 3 0 1 1 1 0 3 3 2 1 0 1 1 3 0 2 1 0 0 1 1 1 2 0 1 0 1 0 1 2 1 0 0 1 0 0 0 0 3 1 3 1 2 2 1 1 1 1 2 0 1 1 3 3 0 0 2 0 0 0 0 1 0 3 1 0 2 0 0 0 0 1 3 1 1 1 0 1 0 1 0 1 0 0 0 1 4 4 1 0 2 2 1 1 0 2 0 0 0 1 2 0 2 2 2 0 1 0 0 0 3 2 3 0 0 1 0 0 0 0 1 1 1 0 0 4 1 3 2 0 1 0 1 1 2 3 0 1 2 1 2 0 3 1 0 1 1 2 2 0 0 0 1 0 1 0 0 3 1 3 3 0 0 1 0 3 2 1 3 2 1 0 2 0 0 1 3 0 2 2 2 1 0 0 2 0 2 0 1 3 1 0 1 2 2 1 1 1 1 3 2 1 1 2 1 2 2 0 0 1 0 0 0 0 1 0 1 0 1 2 2 1 1 0 0 2 1 2 1 0 1 1 0 1 0 1 2 0 0 1 0 1 0 0 3 0 0 0 1 0 1 0 0 2 0 2 1 1 3 1 0 0 2 0 2 0 0 1 1 0 0 1 1 1 0 2 1 0 1 0 1 2 0 2 0 1 0 2 0 1 1 1 1 0 1 0 2 0 1 1 1 1 0 2 0 1 2 0 2 1 1 1 1 1 0 1 1 0 0 0 0 2 1 0 0 0 1 2 0 5 0 2 0 1 2 2 1 3 1 0 2 3 2 0 0 0 1 3 1 1 0 1 2 0 1 2 0 0 1 2 0 0 2 0 1 1 2 1 4 1 1 4 1 2 1 3 1 0 0 1 0 1 0 0 2 2 0 0 1 2 0 3 3 2 1 0 2 0 0 1 2 0 0 1 0 0 2 0 0 1 1 1 1 1 0 3 1 1 0 0 0 1 0 1 0 2 0 0 0 2 2 2 1 0 0 3 2 0 2 2 1 1 1 0 2 0 2 3 1 2 1 1 1 0 2 1 0 1 2 0 1 0 1 1 0 0 1 1 0 3 0 1 0 1 0 1 1 0 1 2 0 2 0 1 2 1 1 2 1 1 1 1 0 1 1 0 2 0 2 0 3 2 1 2 0 2 0 1 0 1 1 1 1 0 0 1 1 2 1 2 1 2 2 2 0 0 0 0 1 1 1 2 1 0 1 0 1 1 2 2 1 0 2 2 0 1 3 2 1 3 1 0 0 1 2 4 1 0 0 0 1 1 1 1 0 2 1 1 1 1 2 1 2 0 0 0 1 1 0 1 0 1 2 1 2 0 1 1 2 1 0 1 1 1 0 0 0 1 2 0 1 0 0 0 0 2 2 0 0 0 1 0 1 1 0 2 0 1 1 2 1 1 2 1 2 1 0 1 0 1 0 3 0 1 1 0 1 0 2 1 2 0 0 3 1 0 1 1 0 1 0 1 1 0 0 2 0 1 0 0 0 2 1 0 0 1 0 0 0 2 0 2 3 0 0 0 1 0 2 1 0 2 0 2 0 1 0 1 0 0 1 2 1 1 0 0 1 0 0 1 1 0 0 1 1 1 1 1 3 1 2 1 1 1 0 1 1 1 1 0 1 1 1 2 2 2 2 2 1 0 0 0 2 0 0 1 1 0 0 1 1 1 2 0 0 2 0 2 0 0 1 1 1 1 1 0 0 0 3 1 1 1 0 0 2 1 1 0 1 3 0 2 1 0 2 1 0 1 1 2 1 1 1 1 0 0 0 1 4 0 2 2 0 2 0 0 0 1 0 1 1 2 1 1 0 1 0 1 1 1 1 0 2 0 1 2 0 1 1 2 1 2 1 2 2 0 1 0 1 2 0 1 2 1 1 2 3 1 0 0 2 3 2 5 1 1 3 2 2 0 1 2 1 0 1 2 0 2 1 0 0 0 1 2 1 0 2 1 1 1 1 1 1 2 2 0 0 0 0 1 2 1 2 0 0 2 2 2 1 2 2 1 3 0 1 1 1 2 1 1 3 1 0 1 1 1 3 0 0 1 1 0 2 1 2 1 0 0 1 0 0 1 1 0 3 0 0 2 1 0 0 2 1 4 2 2 1 1 1 0 1 1 2 1 2 0 0 2 0 2 0 3 1 1 0 0 0 2 0 1 1 1 0 0 0 0 3 0 1 1 1 2 2 0 0 1 0 0 1 1 0 0 0 0 1 2 1 1 1 1 0 0 1 2 1 1 1 2 2 0 1 0 2 1 0 0 1 2 1 2 2 1 2 0 0 1 1 2 0 1 2 2 0 2 1 0 1 1 2 1 0 0 1 0 1 2 2 1 1 2 2 2 1 1 0 2 1 1 0 1 0 0 0 1 0 0 0 1 0 0 0 0 1 0 1 2 0 0 1 1 1 1 1 0 1 1 0 2 1 1 1 1 0 1 6 1 1 1 1 1 2 2 1 1 1 1 2 0 0 2 1 0 0 2 0 1 0 1 1 3 1 2 0 1 1 2 1 1 0 0 2 1 1 2 0 2 2 2 2 1 1 2 0 5 2 1 3 3 0 0 1 1 3 0 1 1 0 0 0 1 0 1 3 1 0 0 1 1 0 1 1 1 1 0 0 1 1 1 1 0 2 2 1 1 2 0 3 1 1 0 1 1 2 3 1 1 1 1 1 3 1 2 0 1 2 1 1 1 2 2 3 0 1 0 0 3 0 0 2 2 1 1 0 2 1 0 1 3 0 1 1 1 1 1 1 3 1 3 3 1 1 0 2 1 1 1 0 2 2 3 0 2 0 1 0 0 0 2 1 4 1 1 2 2 0 0 0 1 0 1 1 1 2 2 1 1 2 1 2 1 2 2 1 0 1 0 1 1 2 0 1 1 1 0 0 1 1 2 0 0 2 1 1 1 1 1 1 2 1 1 2 1 1 1 0 0 0 0 1 1 0 2 0 1 2 2 0 1 2 2 0 0 1 1 2 1 3 2 0 1 2 1 0 0 1 2 4 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 3 1 1 0 2 0 1 0 1 0 1 1 1 2 1 1 2 1 0 0 0 1 0 0 0 2 2 1 2 1 0 0 2 1 2 2 1 0 2 2 3 1 3 0 2 3 2 3 2 1 1 1 0 0 0 1 1 2 2 0 0 0 1 2 2 1 2 1 2 0 2 3 1 1 0 1 0 3 4 1 1 2 0 1 2 1 1 5 0 1 2 0 1 2 1 0 0 0 0 1 2 0 2 0 1 0 1 0 0 1 2 3 2 1 0 1 1 2 4 0 0 0 1 1 1 0 0 1 0 2 0 2 1 4 1 1 0 1 1 2 0 1 2 0 0 1 2 2 1 2 1 0 2 0 2 2 1 0 2 2 2 0 2 1 0 1 2 2 0 0 2 0 0 0 0 2 1 0 2 0 0 0 1 0 2 1 3 0 1 0 0 2 0 1 2 0 1 1 2 3 0 2 2 2 2 0 2 0 1 0 1 0 2 2 0 2 0 0 1 1 1 2 1 2 0 2 0 3 0 2 1 3 0 0 1 1 1 2 0 1 3 1 1 1 2 2 1 1 0 2 0 2 1 0 0 0 4 0 1 2 0 0 3 2 2 0 2 0 0 0 0 1 1 3 2 0 2 0 2 1 1 1 3 1 2 2 0 2 3 2 0 2 2 1 3 1 1 2 0 1 0 0 1 1 0 1 0 0 1 0 0 0 1 0 1 0 2 3 1 0 0 2 2 4 2 0 1 3 1 1 2 0 1 5 1 1 1 1 0 2 1 2 1 1 1 0 0 3 0 0 0 1 2 0 0 1 2 0 0 0 0 1 3 0 0 2 1 1 1 2 2 2 3 0 1 0 0 0 0 1 2 1 0 2 0 2 5 0 0 1 0 0 0 0 0 0 1 0 5 0 1 1 0 1 2 0 2 1 1 1 2 0 0 3 2 2 1 1 0 1 2 1 0 0 2 1 1 2 2 1 1 4 0 2 0 2 1 3 1 0 2 0 1 1 0 1 1 0 0 0 3 2 0 2 1 0 1 1 2 2 0 2 1 0 1 1 2 0 1 0 1 0 1 0 3 1 2 1 1 0 2 2 2 2 0 5 0 1 2 1 0 0 1 0 2 0 3 0 2 0 1 2 1 0 1 1 0 2 0 1 0 1 1 1 0 0 1 1 1 2 1 1 0 2 2 0 1 1 0 2 0 0 0 0 0 2 0 1 2 2 2 0 2 0 0 1 1 0 0 1 2 0 0 1 1 2 3 1 1 2 1 1 1 2 1 2 0 1 1 3 0 1 3 3 2 2 1 0 2 0 2 0 4 1 1 0 2 0 0 1 0 3 1 1 4 2 1 1 2 1 1 1 0 0 2 0 2 2 0 1 0 1 0 1 1 1 3 2 1 1 1 0 2 1 1 1 1 1 1 0 1 0 1 0 0 1 0 1 0 0 3 1 0 1 1 2 0 1 1 1 1 1 0 1 3 1 0 3 2 0 0 0 3 1 0 0 1 1 2 0 0 2 0 1 2 0 1 1 1 2 1 1 1 0 0 4 2 0 1 0 0 1 1 1 2 1 0 0 1 1 1 0 0 1 0 0 0 1 0 0 0 0 1 5 2 1 0 1 2 0 0 1 1 1 1 1 1 2 1 1 0 1 2 1 3 1 2 2 0 0 1 0 1 4 0 1 1 2 0 1 2 2 1 2 2 1 1 0 0 2 0 2 0 0 1 0 2 1 1 2 1 1 2 1 1 0 1 0 0 3 2 0 2 1 2 1 2 0 3 1 1 1 2 1 0 1 3 2 0 0 3 2 2 0 0 1 1 1 1 0 1 1 0 0 0 2 2 0 1 1 0 0 0 0 2 1 2 2 1 2 1 2 0 1 0 0 1 0 2 1 2 1 1 1 0 1 5 1 0 0 0 1 0 2 0 2 1 3 2 4 3 0 1 0 1 1 3 0 2 0 1 0 0 0 1 0 0 3 3 1 1 1 2 0 1 0 0 1 1 1 2 1 0 0 1 1 1 2 0 1 1 1 1 1 1 1 0 1 0 1 1 3 0 1 2 0 2 2 0 3 2 0 1 2 1 1 0 0 1 2 3 0 2 1 2 1 3 0 1 0 1 1 2 3 2 0 1 2 0 1 2 1 3 0 0 0 1 2 1 2 0 1 1 2 1 0 1 1 1 2 2 0 2 1 2 2 1 0 1 1 1 3 1 0 2 1 2 2 2 0 0 2 3 0 0 1 0 1 1 1 0 0 2 1 2 0 2 1 0 4 2 1 0 3 0 0 0 0 4 0 0 1 0 1 0 0 0 0 0 1 1 0 0 1 1 0 0 1 0 0 1 1 3 0 1 2 0 1 2 1 0 1 0 2 1 1 1 1 0 0 2 0 1 1 0 1 0 1 1 2 3 1 4 0 0 3 0 0 2 1 2 1 0 2 1 1 1 0 2 3 2 0 1 1 2 2 1 3 2 0 0 2 1 0 0 1 2 2 1 2 2 2 2 1 1 1 2 1 2 0 3 1 0 1 0 0 0 3 2 2 1 1 0 1 0 2 3 1 2 1 0 1 1 1 1 2 1 0 0 2 0 0 3 3 0 1 1 2 0 2 1 2 1 1 1 2 2 0 3 0 1 0 1 1 0 1 1 0 0 0 0 1 0 2 2 1 1 1 3 0 0 1 1 0 1 1 1 0 0 2 0 1 1 0 2 0 0 1 1 0 0 2 0 0 0 3 4 0 1 1 1 0 1 2 1 1 0 2 1 1 3 0 1 0 0 1 1 2 1 1 2 3 0 1 2 0 2 3 4 0 1 3 0 0 0 1 1 0 2 0 0 2 2 1 0 0 1 1 1 1 2 2 2 0 1 0 0 2 1 1 2 0 0 1 2 0 3 0 1 0 2 1 3 3 2 0 0 0 2 3 0 2 2 0 1 2 0 0 0 3 1 2 1 1 1 0 2 1 0 1 0 1 2 1 0 1 1 2 1 0 2 1 1 1 0 0 0 1 0 2 1 2 0 3 1 4 0 2 0 0 2 2 0 0 1 0 0 2 1 0 2 3 1 1 1 1 4 0 2 2 0 4 4 1 1 1 0 0 2 0 1 1 0 1 0 0 0 1 1 0 1 1 5 2 0 1 0 1 1 0 0 0 0 0 1 4 0 0 1 0 0 1 0 0 1 1 1 1 2 1 0 2 1 0 3 1 2 0 2 2 2 0 1 2 1 2 1 0 1 1 2 1 2 1 1 2 0 0 2 0 0 0 2 1 1 2 2 3 1 1 1 1 2 0 1 0 3 0 1 0 0 0 1 2 1 2 2 0 0 1 1 1 2 1 0 0 1 2 1 0 0 1 2 0 1 1 2 0 0 0 2 0 0 1 0 0 2 1 1 1 0 0 2 0 2 2 0 2 3 2 1 0 1 1 1 2 2 1 1 3 2 2 1 1 0 2 1 0 1 1 2 0 0 1 0 1 2 1 2 0 3 0 0 0 3 1 1 2 1 1 1 2 0 0 0 2 2 0 0 1 1 1 3 1 2 1 1 1 1 0 1 0 1 1 0 1 2 0 2 1 1 1 0 0 1 0 0 0 0 1 1 3 1 1 1 1 2 2 2 2 1 3 4 1 0 1 0 0 0 1 0 0 0 0 0 1 0 1 1 2 2 0 1 3 1 1 2 1 0 2 1 1 0 1 1 1 0 1 1 1 1 2 0 1 2 1 0 0 1 1 0 2 2 1 2 2 0 1 1 1 0 1 3 1 1 1 1 2 1 0 1 2 1 0 0 4 0 3 2 1 1 1 1 3 0 1 1 1 1 3 2 1 1 2 1 0 2 0 1 2 1 1 1 3 2 0 2 1 4 0 1 1 1 0 0 0 0 0 1 0 1 2 0 0 1 0 0 1 1 2 1 0 2 0 0 1 1 1 1 1 1 1 0 1 1 0 0 0 1 0 1 2 1 3 1 2 2 0 1 0 1 1 0 1 0 1 0 1 0 1 1 1 2 1 0 0 1 3 0 0 0 0 1 2 0 1 3 1 1 0 1 1 1 1 0 0 2 0 2 0 0 2 1 0 1 3 2 1 1 0 0 2 0 1 0 1 3 0 0 2 0 4 2 1 2 1 1 0 1 0 0 1 1 1 2 0 2 1 0 2 0 1 0 1 1 1 2 1 0 0 1 0 1 1 0 1 1 0 0 0 0 2 2 2 3 1 0 1 0 1 1 1 1 0 0 3 0 2 1 1 1 0 2 1 1 0 0 1 1 0 2 1 1 0 0 0 0 0 1 1 0 1 1 0 4 1 0 1 1 2 0 1 0 0 2 1 1 0 0 0 2 2 0 2 1 1 1 1 1 1 2 0 0 2 1 0 0 1 2 2 1 1 0 0 2 1 3 2 1 0 0 1 3 0 0 0 2 1 0 0 1 0 1 1 1 1 0 1 1 0 0 1 0 0 0 1 1 3 5 1 1 1 1 1 2 0 0 1 1 1 1 3 2 0 0 3 3 0 4 2 1 1 1 0 0 2 1 0 0 1 1 0 1 1 0 0 1 1 0 2 0 1 2 1 0 1 3 1 0 3 0 0 2 2 1 1 0 0 1 1 1 0 0 1 1 0 1 2 0 2 2 0 0 1 0 1 0 0 1 1 0 2 2 0 0 1 1 0 0 2 0 1 0 3 1 1 1 1 3 1 1 2 0 2 0 2 1 1 0 0 3 2 1 0 2 2 0 2 2 3 0 3 0 3 3 3 0 1 2 0 0 1 0 0 1 1 2 0 3 0 0 0 1 1 1 1 0 1 0 3 1 2 0 1 1 1 1 3 1 0 2 4 1 3 0 2 4 2 2 0 0 1 0 1 2 0 1 1 1 1 1 0 0 0 0 0 1 0 1 2 2 1 0 2 1 2 1 3 0 0 2 0 0 1 0 2 4 1 0 0 1 1 2 1 1 0 1 0 0 0 1 1 1 1 0 2 2 0 1 2 0 1 1 1 0 0 1 0 1 1 1 2 1 1 0 1 2 0 0 0 1 2 1 2 2 0 1 2 0 1 1 0 2 0 0 2 1 0 1 3 1 0 0 2 1 2 0 1 1 0 1 1 0 0 0 0 1 0 0 0 1 1 1 1 0 3 0 1 0 1 2 3 0 2 1 2 2 2 0 3 1 1 1 0 1 0 1 0 1 0 0 1 0 1 0 1 2 2 0 0 2 0 0 0 0 0 1 1 2 1 1 1 1 1 0 2 2 0 0 0 1 1 2 1 4 1 1 0 3 1 1 3 0 1 2 2 3 2 3 0 1 2 2 1 1 2 1 0 2 2 2 2 2 1 1 1 0 1 0 1 0 1 1 2 1 0 1 3 1 2 1 0 0 2 1 2 1 1 2 1 1 2 1 1 0 1 1 0 0 0 0 1 0 0 1 0 0 1 0 0 4 2 0 1 1 2 0 1 1 0 0 1 1 1 1 1 1 1 0 0 3 1 1 2 2 0 0 1 0 0 2 3 0 0 3 1 1 1 1 1 0 2 1 0 0 0 2 0 0 1 1 0 1 3 0 0 3 2 2 0 1 2 0 0 1 1 3 0 1 2 1 0 0 0 1 1 2 0 0 0 1 4 0 2 0 1 1 0 2 2 0 2 2 2 1 2 0 1 1 0 0 3 0 0 0 0 2 1 1 1 0 1 2 1 1 3 1 0 2 2 2 0 1 1 1 0 0 1 0 3 2 0 0 0 0 0 0 1 1 1 2 1 2 1 1 0 0 0 0 3 0 1 1 0 1 0 3 2 4 1 0 0 2 0 0 0 1 0 0 2 0 3 0 3 2 3 1 2 3 2 1 1 1 0 0 1 0 1 0 2 2 0 0 1 0 2 0 1 3 0 0 3 1 1 1 1 0 1 0 1 2 1 0 1 0 1 0 1 1 0 3 1 0 1 0 2 2 1 1 2 2 0 4 1 3 0 0 1 0 2 2 0 1 1 1 0 2 1 1 2 1 0 1 1 0 1 1 0 2 2 0 2 0 1 1 4 0 3 2 0 1 0 1 1 0 2 1 1 1 1 0 2 2 1 2 2 2 2 0 2 1 1 0 0 1 2 2 3 1 0 0 0 2 2 1 2 1 2 1 1 2 0 1 2 1 0 0 1 2 0 1 0 1 2 0 0 0 0 2 0 1 2 2 1 2 1 2 1 1 0 1 0 1 2 1 1 1 1 0 0 1 1 1 0 1 0 1 2 2 1 2 1 2 1 1 0 1 1 0 2 1 1 1 1 0 2 0 1 0 0 2 0 2 0 4 1 0 4 1 1 2 0 0 0 1 2 1 0 1 2 1 0 2 0 1 2 1 0 0 2 0 2 2 0 1 0 3 2 0 0 1 2 1 0 2 1 1 1 0 0 1 1 0 0 0 2 1 1 1 0 1 2 1 2 0 1 2 1 1 1 0 1 0 3 1 2 0 2 0 0 2 2 1 0 1 0 1 0 3 2 2 1 1 1 3 0 1 2 0 2 2 1 0 1 1 1 0 1 0 0 1 1 0 1 0 4 1 0 1 1 2 0 1 2 1 2 1 0 0 1 0 3 2 1 0 0 1 1 1 2 1 0 1 1 2 3 1 3 0 0 0 0 2 0 0 1 1 0 0 1 1 1 1 0 0 0 0 0 1 0 2 2 1 2 0 1 1 2 0 1 0 1 0 0 0 0 1 2 2 0 0 2 2 2 0 0 1 2 0 0 3 1 1 1 0 2 2 0 3 1 2 4 1 2 3 1 1 2 0 2 0 4 2 0 0 1 0 1 2 1 1 0 0 0 1 0 0 1 1 0 1 2 0 1 1 2 0 0 0 3 1 0 0 1 1 3 1 1 0 2 4 0 2 0 3 0 1 0 1 1 1 0 4 1 0 0 2 2 0 1 3 1 1 2 1 0 2 0 0 3 2 1 0 0 1 1 3 0 0 3 1 1 0 2 0 0 1 0 0 1 3 0 2 3 0 1 0 2 2 1 1 1 0 0 1 2 2 1 0 2 1 0 1 0 0 2 1 2 2 1 2 0 2 2 0 0 2 0 1 1 1 1 1 0 3 0 0 2 0 2 1 1 1 0 1 1 0 1 0 2 1 1 1 2 1 0 3 0 0 0 1 1 1 1 2 0 0 2 1 1 1 1 1 0 1 1 0 1 0 0 0 2 0 0 1 3 1 2 1 0 1 3 1 1 2 1 1 1 3 0 0 0 1 1 1 1 1 0 0 1 1 2 0 0 1 1 1 1 1 2 2 1 1 1 1 1 0 0 0 0 0 1 3 1 3 1 0 1 0 1 1 1 5 0 1 2 1 0 2 1 0 0 0 1 1 2 0 1 3 0 2 2 0 0 0 0 2 2 0 0 1 0 1 3 1 1 0 0 2 0 1 2 1 1 1 0 1 1 3 0 1 0 4 2 1 2 2 1 1 1 2 3 1 1 0 0 0 0 0 0 0 0 0 1 2 1 0 1 0 1 0 0 1 0 2 0 1 0 0 1 3 0 1 0 1 1 1 3 0 0 1 1 1 0 0 0 1 1 2 2 2 2 1 0 1 0 0 2 0 1 0 2 0 1 2 0 1 2 1 1 1 2 1 0 1 2 0 1 0 3 0 3 1 1 1 2 1 2 0 0 1 1 2 1 2 2 1 2 2 1 1 1 2 1 1 2 0 1 1 0 2 2 1 3 2 0 1 1 1 0 0 1 1 1 0 0 0 2 0 1 0 0 1 2 1 1 0 2 0 0 4 1 0 0 3 2 3 1 2 0 1 2 1 1 0 1 0 4 2 2 1 1 1 0 1 0 0 1 3 0 1 1 2 3 1 0 0 3 0 2 0 2 1 0 1 0 1 2 0 1 1 1 1 2 1 2 2 0 0 2 2 0 1 0 0 0 2 1 0 0 0 3 2 0 2 2 0 0 0 1 1 1 1 0 1 2 0 1 0 2 1 0 0 2 0 0 1 1 1 1 1 2 0 1 1 2 0 1 0 4 0 2 2 0 3 1 1 0 1 0 0 3 0 1 0 1 0 2 1 0 1 0 2 1 1 1 3 0 0 1 2 1 1 0 4 0 0 0 1 0 0 1 0 4 1 0 1 0 1 1 0 1 0 1 0 2 1 0 0 1 5 1 0 1 3 2 1 1 0 0 1 1 0 0 1 0 1 0 2 3 0 0 0 0 2 1 0 0 1 1 3 1 2 1 1 1 2 2 0 2 0 1 1 2 1 1 0 1 0 0 0 0 1 3 1 1 0 1 1 1 2 0 3 1 4 0 0 1 1 0 1 1 0 1 1 1 2 1 2 0 1 0 1 2 0 0 2 0 2 2 1 0 1 1 0 0 1 1 2 3 1 2 1 1 1 0 0 2 1 0 2 0 3 1 0 1 1 1 4 1 0 1 4 0 2 1 0 0 0 1 0 1 2 0 0 0 2 0 2 1 2 2 1 3 0 2 0 3 0 2 0 1 0 2 2 0 0 2 0 1 3 0 1 1 0 2 1 2 1 0 1 2 1 1 0 1 1 0 1 0 3 2 1 0 0 3 2 2 4 2 0 1 1 4 1 1 0 3 1 0 2 0 0 0 1 1 0 1 3 1 1 3 0 0 2 0 2 0 1 1 1 0 2 1 1 0 2 2 1 2 1 1 3 1 0 1 1 0 1 3 1 2 3 3 1 2 3 1 0 1 1 1 1 1 2 1 0 1 2 1 1 0 0 1 2 0 1 0 0 1 3 1 3 0 0 0 1 0 1 2 3 1 2 1 2 2 0 1 1 4 1 1 3 3 1 0 2 2 0 0 0 1 1 1 4 1 0 2 1 2 2 0 1 0 0 2 0 1 3 3 1 0 1 0 1 1 1 1 0 1 1 0 3 1 2 2 2 2 2 2 0 1 0 1 1 1 2 2 2 0 0 1 2 0 3 0 2 1 4 3 2 0 4 1 1 0 1 1 0 2 1 2 1 0 0 1 1 2 3 3 0 1 1 1 0 4 1 0 0 2 0 0 1 0 1 1 1 1 2 0 1 2 1 0 1 2 4 1 0 0 1 1 1 0 0 1 0 0 0 2 1 2 2 0 2 1 1 2 3 0 0 0 1 0 0 1 0 2 1 1 0 1 0 0 2 0 0 0 1 2 0 1 1 1 0 0 1 1 0 0 0 0 0 1 3 0 2 1 1 1 0 1 1 0 0 0 0 3 1 4 1 0 0 0 1 1 2 0 1 1 1 1 1 2 1 1 3 0 3 3 2 2 0 0 0 0 3 0 2 1 2 3 2 0 0 1 2 1 2 0 2 0 0 1 1 0 1 0 2 1 1 1 2 1 1 0 1 1 0 1 0 1 1 1 1 2 0 1 2 1 1 0 1 1 1 1 0 0 2 1 1 0 0 2 0 1 0 2 0 1 0 1 0 1 1 1 2 0 0 1 1 1 2 1 0 0 2 1 1 0 1 0 0 0 1 0 1 1 2 0 1 0 2 2 1 2 1 0 0 3 1 0 1 0 0 1 0 0 2 2 1 0 2 0 0 2 0 2 1 0 2 1 2 0 1 2 1 2 4 3 1 0 0 3 1 0 2 3 3 0 1 1 1 1 0 5 0 2 1 2 0 0 1 2 0 0 0 0 0 3 1 0 2 0 2 1 1 1 2 1 1 1 1 3 1 0 1 1 1 2 1 1 1 0 1 0 0 2 1 1 0 1 2 1 2 0 1 0 0 2 0 0 0 1 0 1 1 2 2 2 1 1 0 1 1 0 2 0 1 1 2 1 0 2 2 0 0 3 2 1 1 1 0 0 1 2 0 2 2 2 0 0 2 1 1 0 1 2 2 3 2 1 1 0 1 0 0 2 1 0 2 0 1 3 1 2 0 2 2 0 2 0 1 1 1 1 0 0 2 0 1 0 1 1 0 0 3 0 2 0 1 2 2 1 0 0 0 0 0 3 0 0 0 0 2 2 1 0 0 1 1 0 1 0 0 0 0 1 0 0 0 2 2 3 2 0 1 2 1 2 3 0 1 1 1 1 1 2 0 1 2 1 0 1 2 0 1 0 0 1 1 0 1 0 0 0 1 1 2 2 1 1 1 0 0 1 1 0 1 1 0 2 0 1 2 1 0 2 1 1 2 2 0 1 2 0 0 3 0 0 0 2 0 0 0 1 0 0 2 0 0 1 0 1 1 1 0 0 2 1 3 2 1 3 1 0 0 2 1 1 1 1 0 0 1 1 1 2 2 1 2 1 3 1 1 1 1 2 1 0 0 0 1 2 1 0 3 0 0 2 2 0 0 1 1 0 1 0 0 4 2 2 1 3 3 0 1 1 2 2 0 0 1 0 1 1 2 1 2 0 0 1 0 1 0 0 0 1 2 0 0 0 1 2 0 1 2 1 0 1 2 1 0 1 0 0 1 2 1 4 0 1 3 1 0 1 3 0 1 1 0 1 1 0 0 0 1 3 1 0 0 1 1 0 2 2 1 4 1 2 0 1 1 2 2 1 0 1 1 0 0 0 0 2 1 2 4 2 0 1 2 0 1 1 1 1 1 1 2 2 1 0 2 1 1 2 1 2 1 2 2 0 2 0 1 0 0 2 2 1 0 0 1 1 0 1 1 2 1 2 2 0 1 2 0 1 2 2 0 0 5 1 1 1 0 1 1 1 3 0 2 1 1 1 1 2 1 0 2 2 1 1 0 0 2 0 0 2 1 1 1 1 0 1 4 0 4 0 1 2 0 2 0 2 1 0 4 1 0 2 0 0 2 0 2 0 1 1 3 1 1 1 0 1 1 1 1 1 0 1 3 1 1 2 0 1 4 0 0 1 0 1 2 1 3 3 1 2 1 0 0 1 0 0 1 2 0 1 2 2 0 1 1 2 2 0 3 0 0 1 1 1 1 2 1 1 2 1 2 1 3 2 3 2 1 0 3 0 1 0 1 0 0 1 4 1 1 1 0 1 1 1 0 2 0 1 1 4 0 2 0 1 0 0 3 1 1 0 2 2 2 1 2 2 1 0 1 0 1 0 3 2 1 1 1 0 1 2 0 1 0 1 0 2 1 2 1 1 1 0 1 1 1 0 3 2 1 2 1 0 1 1 2 0 3 1 1 2 0 0 0 1 2 0 1 2 0 0 2 3 2 3 0 1 1 1 1 1 1 0 2 0 1 0 0 2 1 2 2 2 0 1 0 0 1 0 1 2 0 2 0 1 1 1 1 0 0 0 2 0 1 2 0 1 2 1 1 1 1 2 0 0 1 0 0 1 2 1 0 0 2 2 2 2 2 0 3 2 2 2 1 0 1 0 1 2 0 2 1 1 0 0 2 1 0 1 1 0 0 2 1 1 0 0 1 0 1 2 1 1 2 2 2 2 1 1 2 1 0 0 2 1 0 1 1 0 1 0 1 1 0 0 1 1 0 1 2 1 2 1 1 1 4 0 3 1 1 3 1 0 2 2 1 1 2 0 1 1 2 2 1 0 0 0 1 2 2 0 0 1 3 0 1 3 1 0 0 1 1 1 2 2 0 0 1 0 0 1 1 2 1 0 2 1 2 2 1 0 0 0 2 2 1 1 1 2 0 2 0 2 0 0 4 1 1 2 2 1 0 2 0 1 2 0 1 0 1 2 1 0 0 0 3 0 1 0 0 0 2 0 0 0 1 1 2 2 1 0 2 1 0 0 1 1 0 2 1 2 1 0 1 1 2 2 1 2 3 1 0 1 0 1 0 0 0 4 1 2 0 3 2 2 2 1 0 2 2 0 1 2 1 0 3 1 1 1 3 3 1 1 0 2 2 0 1 1 0 1 0 0 1 0 0 3 1 2 2 0 0 0 0 1 1 0 0 1 0 0 1 1 2 0 0 1 1 2 1 0 1 1 1 0 2 3 0 2 0 2 2 0 1 1 1 0 1 2 2 1 1 0 1 2 1 0 2 1 1 0 1 2 0 0 3 1 1 3 1 0 2 0 0 0 1 1 1 0 1 2 1 0 1 0 2 1 2 0 1 0 2 0 2 1 0 1 2 0 2 1 0 1 1 3 0 0 1 1 1 0 0 0 1 2 0 2 2 0 0 0 0 0 0 1 3 1 1 1 1 0 0 0 0 1 0 1 0 1 0 0 0 2 0 2 1 3 1 0 0 1 2 0 0 1 1 0 0 3 0 0 1 0 0 1 1 2 0 1 0 1 1 3 4 1 1 0 3 0 1 0 2 0 1 3 1 2 1 1 2 1 0 2 0 1 1 1 4 2 0 1 0 2 1 0 2 2 0 0 2 1 2 0 0 0 0 1 0 2 2 0 0 2 1 3 2 1 2 0 0 4 3 2 2 1 1 2 0 2 1 2 1 0 0 0 1 1 1 0 0 2 0 2 1 0 0 0 1 0 1 1 4 1 3 2 0 3 1 2 0 4 2 3 1 0 1 3 2 0 0 0 0 1 0 0 0 2 0 1 0 3 0 0 0 1 2 0 3 0 0 0 1 1 1 1 0 1 0 1 0 0 0 0 1 0 2 2 0 0 1 2 1 3 1 3 4 2 0 4 2 0 1 3 1 4 1 1 1 0 0 1 0 1 0 1 1 1 0 1 1 0 0 0 0 4 1 2 1 1 0 1 1 3 2 1 3 1 1 1 0 0 0 1 0 0 1 4 1 2 1 0 0 1 2 1 3 0 2 4 0 1 2 0 0 1 1 2 0 0 3 2 1 2 1 2 1 2 1 0 1 0 0 0 1 0 2 3 1 0 0 1 1 0 2 0 1 2 2 1 0 1 3 1 2 1 0 1 2 0 0 1 1 1 1 1 1 1 1 1 2 2 1 0 0 0 1 0 1 1 0 2 0 1 1 3 1 2 1 1 0 0 1 0 1 2 1 1 1 2 3 0 3 1 3 0 1 1 1 1 1 1 3 0 0 0 1 0 1 1 1 2 0 1 0 1 0 1 3 2 2 1 1 3 2 0 0 1 1 0 1 0 1 1 1 1 1 0 1 1 1 0 1 0 3 1 2 0 3 2 1 0 0 1 2 1 0 1 2 1 0 1 1 1 1 1 1 1 0 0 2 2 0 2 2 1 0 1 1 1 1 0 0 1 1 0 1 1 0 1 0 1 1 1 1 1 1 0 2 1 1 1 0 1 1 1 1 0 0 1 2 0 1 0 0 2 1 0 2 0 1 0 1 1 2 1 1 0 0 0 3 0 1 2 2 1 0 2 0 1 1 3 0 1 3 2 2 1 1 2 1 2 0 0 0 0 0 0 0 1 0 1 0 3 1 1 1 2 2 1 0 1 2 0 0 0 1 1 1 1 0 1 0 0 3 2 2 0 1 2 2 2 1 1 2 3 1 0 0 1 2 2 1 0 1 0 1 1 0 0 1 1 0 1 2 0 0 3 1 1 0 1 1 2 1 0 1 2 0 1 2 1 0 1 2 2 1 0 0 0 1 0 1 0 0 1 2 0 1 1 0 0 1 1 1 1 1 3 0 1 0 0 0 1 1 1 0 2 1 1 2 2 0 1 0 1 2 1 0 1 1 1 0 1 2 2 0 4 0 1 3 0 1 0 0 4 3 0 1 3 1 2 0 2 1 2 0 0 1 1 1 0 0 0 2 1 3 2 1 2 2 0 2 0 0 4 1 1 2 1 0 1 1 0 1 2 1 0 0 2 2 2 0 1 0 0 2 0 1 0 2 0 0 3 4 1 0 0 1 1 2 2 0 1 2 2 2 0 0 1 0 0 0 1 1 0 1 1 1 1 0 1 0 0 3 1 2 0 1 0 2 0 1 1 0 0 0 1 1 2 0 1 0 2 1 0 0 1 1 2 0 2 0 3 0 1 1 0 0 1 0 1 0 0 2 1 1 1 2 2 2 1 0 0 2 4 0 1 2 1 1 2 1 1 0 1 3 0 1 3 1 1 2 0 0 0 1 0 2 1 0 1 0 0 0 3 0 1 1 1 0 1 0 2 1 0 3 2 0 1 1 2 1 2 0 2 3 2 1 4 1 2 2 2 2 0 1 2 1 3 0 0 0 1 1 1 1 1 1 0 2 1 0 1 0 4 2 1 1 0 0 1 1 2 1 0 0 1 1 2 0 0 1 2 2 2 1 2 1 1 2 0 0 0 1 0 1 1 2 1 1 0 1 0 0 0 0 0 1 2 1 0 0 0 2 1 3 1 1 1 1 2 2 2 0 0 0 1 1 0 0 1 0 0 0 0 1 1 0 1 1 0 1 1 0 1 0 3 2 3 1 1 1 1 1 2 0 0 1 1 0 1 4 2 0 1 2 2 1 1 0 1 2 0 1 1 1 0 0 0 2 1 0 1 0 3 1 1 3 2 1 0 0 1 2 1 1 1 1 2 0 1 1 1 4 1 0 0 1 0 1 0 0 3 1 0 0 0 0 0 1 2 1 1 2 2 1 0 2 1 0 3 0 0 0 0 2 1 3 0 2 0 0 2 0 3 0 0 0 0 2 0 1 0 0 2 3 2 0 1 2 0 1 1 1 3 0 1 0 4 0 0 3 1 1 1 0 0 1 1 0 0 1 1 1 0 1 2 0 2 0 2 2 2 0 0 3 0 1 1 1 1 1 3 0 2 1 1 2 0 1 1 0 1 1 1 0 0 0 3 0 1 2 1 0 1 2 1 1 1 0 1 1 0 0 0 0 0 0 0 1 1 0 0 0 2 2 0 0 0 0 0 0 0 0 3 2 0 0 3 0 0 0 0 0 0 0 1 0 1 1 1 1 0 2 1 0 1 1 2 0 0 1 1 1 2 2 1 0 1 0 2 0 1 2 0 1 0 1 1 1 0 0 0 3 2 0 1 2 1 1 1 0 0 1 1 0 2 1 1 2 2 2 2 1 1 0 2 2 1 1 1 0 2 1 0 0 0 2 1 2 0 1 2 2 2 1 0 2 0 1 2 0 1 1 0 0 2 0 3 1 1 1 1 0 1 1 0 0 1 1 2 0 0 1 2 1 2 1 1 1 2 3 1 1 1 1 1 0 0 0 0 0 1 0 0 3 0 0 1 0 3 1 0 1 1 0 0 1 2 0 0 1 0 0 1 1 0 0 0 0 1 1 2 1 2 0 2 1 1 0 1 1 0 0 1 2 1 2 1 0 1 2 0 0 1 1 2 0 1 0 2 0 1 2 0 1 2 2 1 0 1 1 2 2 0 1 0 0 0 2 1 2 1 0 2 1 2 1 0 1 2 0 0 1 0 0 0 1 2 0 0 1 0 2 2 0 1 0 0 1 0 0 0 0 0 1 1 1 1 2 0 1 1 0 1 2 0 3 1 1 0 1 3 0 0 0 1 1 0 1 1 2 1 0 1 1 0 0 1 3 1 1 3 1 4 0 1 1 0 1 1 2 1 0 0 2 0 0 1 1 1 0 1 2 0 2 1 1 0 0 2 1 1 1 1 0 1 1 0 0 1 0 1 1 0 0 1 2 0 3 0 2 4 2 0 0 0 1 2 1 1 1 3 1 0 0 3 1 2 2 0 2 0 2 1 2 1 2 0 0 1 0 1 3 1 3 2 1 0 0 0 0 1 2 2 0 0 2 1 0 2 2 1 0 3 2 1 3 2 4 1 0 1 0 0 1 1 0 1 1 0 1 4 2 0 2 2 1 2 1 1 2 1 1 1 0 0 1 1 2 2 1 0 0 0 1 1 2 0 0 1 0 2 0 0 1 0 1 2 2 1 4 1 1 1 3 0 0 1 1 2 1 0 1 1 2 2 2 3 2 3 2 1 1 0 2 1 2 2 1 0 1 4 2 0 1 0 1 0 1 0 2 0 0 0 1 0 1 3 1 1 4 0 1 2 0 1 0 0 1 0 1 2 0 0 2 0 0 1 0 0 0 2 1 1 0 1 1 0 2 2 3 1 2 2 3 4 1 1 2 1 0 1 0 1 2 1 5 1 0 1 1 3 0 2 1 0 1 0 0 2 0 1 0 2 0 1 0 2 1 4 1 2 2 4 1 1 0 1 1 1 2 1 2 1 1 1 0 0 1 2 2 1 1 1 0 0 1 0 2 1 1 0 2 2 0 2 2 0 1 0 1 0 1 2 1 2 0 1 2 3 1 0 2 0 2 0 0 0 2 1 1 1 4</t>
   </si>
   <si>
     <t>Name</t>
@@ -219,12 +219,12 @@
     <t>S.Anderson</t>
   </si>
   <si>
+    <t>T.McKitty</t>
+  </si>
+  <si>
     <t>K.Hill</t>
   </si>
   <si>
-    <t>T.McKitty</t>
-  </si>
-  <si>
     <t>A.Roberts</t>
   </si>
   <si>
@@ -255,52 +255,52 @@
     <t>D.Hopkins</t>
   </si>
   <si>
-    <t>JSU(-13.287709157164901, 6.988996316296589, -32.525350918504884, 14.073523444853613)</t>
-  </si>
-  <si>
-    <t>6 3 24 3 6 3 20 6 14 13 20 23 14 19 9 13 14 10 3 9 13 12 7 3 17 5 17 6 16 24 3 20 19 9 30 14 7 18 9 10 23 3 9 23 19 14 14 16 7 8 9 6 3 16 10 19 12 25 15 6 17 14 0 16 23 16 26 30 26 3 13 15 7 23 29 24 22 18 34 13 26 21 14 16 7 18 27 31 9 20 11 14 3 6 9 23 29 19 20 20 17 9 14 12 0 20 17 24 36 13 16 12 6 13 13 10 6 19 20 17 3 20 10 6 10 17 17 17 17 6 20 6 9 18 13 17 6 18 6 19 6 12 7 14 27 20 23 37 6 19 15 20 12 13 20 0 17 13 17 6 3 8 16 13 13 10 6 17 13 18 16 10 3 18 24 24 17 9 23 19 20 0 16 16 12 6 9 10 12 11 13 6 17 17 16 12 3 17 6 16 7 20 22 13 23 7 20 23 10 24 11 24 12 3 20 16 6 10 12 10 3 10 20 5 12 0 7 16 11 0 10 27 14 12 9 16 13 21 13 15 28 6 13 3 10 18 20 13 6 18 7 22 20 11 27 10 12 18 13 10 10 10 9 13 14 9 7 7 27 6 15 19 37 18 24 16 15 10 18 13 15 14 9 10 6 17 11 11 3 16 13 9 10 13 6 19 3 24 10 14 18 6 0 23 10 10 8 3 6 13 17 12 7 10 14 10 9 6 11 9 3 20 10 3 21 16 0 6 0 13 10 8 10 21 17 16 19 16 28 16 9 24 21 7 10 10 26 12 10 23 9 6 21 3 10 13 20 11 8 14 9 12 13 19 13 10 13 16 18 10 19 24 16 9 0 22 9 17 15 17 22 20 10 13 17 16 3 20 21 27 21 12 28 14 17 3 25 14 12 24 27 13 7 0 9 7 18 10 14 22 6 10 12 30 13 21 27 13 0 10 18 10 3 13 14 14 3 17 16 21 20 15 6 3 7 20 17 14 21 16 20 7 13 15 16 13 23 17 23 13 18 13 20 28 21 3 10 20 13 14 9 35 19 12 24 10 24 31 3 17 9 11 20 19 18 12 10 14 10 6 21 10 10 9 14 20 8 10 6 6 30 10 3 17 14 21 17 0 22 13 23 18 13 26 11 3 14 17 14 13 13 15 13 13 9 12 17 3 13 35 23 14 20 24 6 6 7 6 19 29 6 10 35 24 9 16 15 13 16 17 22 11 10 16 16 7 6 13 16 3 11 13 9 18 13 3 7 10 13 23 16 11 7 23 19 10 10 23 9 16 16 14 6 6 12 9 21 3 20 10 23 14 25 24 6 10 16 11 0 6 23 24 10 9 7 43 12 16 17 26 25 24 20 6 27 13 3 16 10 28 14 0 31 18 16 10 5 17 3 24 23 16 10 26 29 21 10 7 6 10 3 10 17 3 3 3 9 20 23 11 8 16 9 21 20 8 7 12 9 19 12 13 16 21 13 22 9 19 19 6 10 34 16 14 19 9 24 7 20 34 19 17 19 24 19 9 10 27 9 34 28 10 19 14 13 16 13 10 19 3 30 7 10 6 27 24 6 31 30 21 24 23 10 3 30 17 6 3 10 13 12 17 26 17 6 0 9 9 20 12 16 20 16 7 5 20 13 24 17 6 27 6 29 13 7 18 17 13 12 27 7 17 15 13 23 16 10 6 17 13 34 26 11 12 20 7 10 7 15 13 3 22 19 10 7 24 24 13 8 13 20 7 23 3 19 6 3 13 16 0 13 20 9 22 20 10 11 13 23 6 6 15 17 14 24 5 19 16 30 3 13 26 16 10 13 9 19 7 13 26 17 10 3 10 22 15 16 27 13 10 10 19 16 6 17 10 13 16 20 16 31 17 9 17 23 3 3 20 6 3 6 3 13 15 10 23 16 17 6 6 3 16 23 23 10 0 17 16 24 17 3 3 13 6 20 6 16 14 19 13 6 26 6 13 14 0 18 22 6 10 12 13 10 3 21 7 15 7 10 13 21 14 6 18 20 17 13 24 14 19 16 12 10 12 10 17 15 3 17 25 7 24 14 7 21 15 14 7 12 6 14 21 3 12 21 25 22 8 3 14 19 13 16 19 10 13 0 13 10 17 6 13 19 24 16 11 3 7 24 18 0 17 16 10 27 27 23 11 7 23 19 12 10 16 7 6 29 19 16 17 21 12 16 19 13 13 28 10 13 31 11 14 10 6 16 15 17 21 13 24 20 15 16 14 23 17 13 20 13 0 20 10 16 19 6 10 17 13 16 3 18 6 13 26 16 17 7 13 6 13 9 10 17 20 3 6 14 16 3 16 29 15 13 13 3 6 23 6 14 21 21 16 3 20 16 30 10 6 7 9 10 12 16 10 3 0 27 25 17 10 17 13 10 13 13 16 21 30 20 20 10 24 0 19 23 7 13 10 16 9 12 21 7 21 17 16 17 27 7 14 20 10 15 10 7 10 13 7 20 6 7 6 17 17 13 9 20 9 6 17 9 16 0 21 17 6 13 8 13 9 17 10 23 23 17 9 17 14 17 9 27 20 19 21 21 30 14 7 6 3 18 3 14 12 3 26 16 16 26 19 20 26 12 12 8 9 18 12 19 6 9 6 21 3 23 9 10 20 13 20 9 27 14 9 7 17 21 14 19 17 17 16 19 16 3 10 26 6 14 10 10 10 9 13 28 7 20 14 6 17 31 19 10 10 3 20 16 10 16 0 17 13 0 16 20 14 7 12 24 15 12 13 16 13 16 10 10 6 14 14 13 17 17 19 24 13 6 7 6 13 0 16 19 29 23 23 3 6 26 10 23 17 17 0 16 16 31 17 14 17 20 17 29 20 10 22 19 16 7 13 9 14 22 13 9 21 24 19 16 16 17 18 8 9 17 6 3 17 18 12 9 16 10 12 19 10 7 10 6 6 12 27 16 12 7 11 13 7 23 10 20 9 10 15 10 3 17 0 12 23 6 10 9 0 14 10 13 9 9 6 3 7 20 20 20 17 17 20 17 12 16 13 9 9 25 13 15 24 23 14 13 10 20 13 12 17 13 3 13 20 3 24 14 9 13 12 13 21 16 13 13 13 9 10 20 17 20 13 10 17 14 10 15 13 19 6 20 7 11 9 14 16 9 11 14 10 10 6 10 6 13 16 19 10 10 9 19 13 13 14 6 22 14 13 3 17 7 13 15 11 14 6 10 3 24 9 20 19 13 16 16 3 29 23 0 21 8 16 10 13 17 19 7 21 10 8 14 24 10 0 3 17 7 23 20 7 13 24 20 23 3 3 13 16 16 13 14 14 17 34 23 10 31 7 13 13 3 9 14 13 16 21 6 10 13 13 14 26 20 6 9 20 17 24 26 30 13 0 27 9 21 9 16 17 15 13 19 14 6 27 26 14 14 20 7 13 7 27 22 9 14 24 10 14 12 7 13 26 7 0 23 20 13 9 10 17 21 9 26 7 13 13 3 9 14 10 15 29 20 17 10 6 20 26 6 6 24 20 14 3 16 30 26 19 6 7 24 20 3 16 19 17 17 17 23 3 10 17 22 24 28 9 11 7 20 31 17 3 13 23 19 20 17 24 19 18 14 21 16 23 7 19 27 14 9 10 15 17 12 13 20 14 13 23 20 12 3 6 13 27 12 13 0 0 17 23 10 13 12 3 19 14 19 3 26 24 16 3 6 17 14 13 9 14 13 0 10 15 27 3 7 18 14 7 9 17 3 13 17 21 7 6 9 23 8 10 6 24 10 14 16 14 15 18 17 0 16 10 3 21 17 3 21 9 12 6 7 6 7 10 28 13 16 10 10 16 13 7 14 13 7 10 14 7 27 0 20 13 6 30 3 12 14 14 12 20 17 13 0 19 9 22 17 20 10 6 13 14 10 17 13 7 24 15 14 0 13 14 3 31 6 6 19 7 13 10 25 13 14 10 6 10 14 27 23 13 7 10 8 10 10 12 10 16 7 10 6 0 10 9 0 9 19 6 24 23 10 10 22 10 11 20 9 9 9 6 11 24 12 24 13 7 20 14 24 7 13 33 6 23 15 16 10 3 19 6 10 17 10 3 6 13 11 27 20 10 19 19 13 14 13 14 0 12 13 7 13 9 10 9 9 13 17 26 9 14 20 17 10 24 10 20 16 21 3 10 7 6 6 12 29 21 3 10 9 17 16 13 13 17 17 17 13 20 20 6 20 28 23 23 13 13 27 3 13 13 15 6 19 10 17 19 10 10 20 3 19 14 14 7 26 3 13 20 14 5 15 17 0 13 14 9 20 13 13 17 20 20 10 27 24 7 10 10 13 0 20 3 10 23 20 13 6 3 20 20 13 3 16 7 11 13 17 23 20 13 11 14 21 16 23 15 14 17 23 7 10 10 14 17 26 24 11 7 23 17 27 3 13 16 10 17 16 24 16 23 9 19 13 17 13 17 9 6 27 10 6 9 8 13 14 10 6 15 20 6 13 10 12 16 6 30 10 20 13 7 30 24 13 13 20 13 12 21 24 7 31 16 23 3 14 3 16 25 13 9 13 21 10 17 13 7 6 14 24 12 10 17 13 10 12 10 23 3 20 22 12 13 13 13 12 16 18 18 6 9 24 3 16 23 19 17 3 10 19 13 21 10 10 20 12 7 24 10 16 9 16 9 19 16 23 19 3 12 10 21 13 13 17 13 13 0 21 13 3 12 24 38 3 19 24 25 24 10 25 12 20 7 6 13 7 9 17 17 14 13 19 17 27 10 24 16 23 9 16 14 17 7 27 24 13 6 15 10 9 12 16 13 24 14 3 10 13 14 16 24 3 13 6 10 6 19 15 6 16 17 20 15 0 7 15 20 21 12 6 28 19 9 24 17 9 21 8 13 9 15 9 17 14 6 13 16 9 22 14 24 0 16 19 17 19 14 10 20 17 7 16 10 6 13 6 13 13 10 13 16 20 21 19 9 8 13 18 9 20 13 30 14 7 11 17 9 3 23 14 13 9 3 13 10 3 7 10 9 19 18 20 18 6 9 13 6 19 17 6 17 21 7 24 20 7 13 13 14 13 12 15 6 19 10 17 6 27 17 7 14 24 8 25 19 24 17 8 11 7 25 23 9 14 17 6 14 26 7 12 8 10 40 0 35 12 9 15 12 13 20 20 14 20 6 12 27 14 17 6 10 6 14 10 15 20 22 3 10 16 17 27 24 20 10 10 12 20 27 17 19 10 6 6 12 10 10 17 7 13 3 17 23 17 19 19 17 13 12 6 17 10 6 9 10 9 23 20 13 10 18 3 3 17 12 13 31 16 17 10 17 14 17 16 7 10 13 20 10 17 17 10 20 8 17 17 20 22 20 13 10 6 17 13 10 10 21 27 10 9 6 27 17 27 24 24 13 7 17 12 24 10 14 8 20 18 6 14 20 12 6 28 20 16 16 10 10 9 12 7 13 10 27 13 14 14 17 17 20 6 10 3 3 10 10 2 3 8 9 27 23 9 17 21 33 17 16 20 27 16 14 14 10 3 13 3 17 17 30 17 15 5 7 13 8 17 17 14 13 33 21 24 14 21 23 3 7 11 20 12 6 19 6 17 13 6 30 14 6 34 27 23 10 24 16 11 9 21 14 15 19 13 21 23 5 6 18 3 20 17 10 15 10 25 12 27 16 14 24 13 19 3 6 7 17 0 14 20 5 19 12 7 7 16 19 6 30 13 10 16 10 20 14 10 25 15 11 10 13 7 17 10 10 19 6 3 9 13 34 10 21 13 23 6 16 13 20 10 25 10 12 8 20 12 16 13 13 9 13 9 3 21 6 13 13 37 13 3 12 11 20 13 3 20 12 6 13 13 20 10 10 16 10 9 10 13 13 9 23 6 16 0 12 16 6 16 17 13 20 20 19 14 17 16 20 20 3 24 10 15 17 16 10 0 0 12 10 16 19 27 31 16 15 22 10 10 17 7 9 7 13 21 7 17 10 15 7 3 21 6 7 15 20 14 20 30 10 3 16 7 6 14 0 6 15 16 28 18 19 10 10 15 3 17 13 17 10 9 23 10 9 13 6 26 11 10 10 12 3 23 27 19 14 0 31 9 13 11 10 20 6 9 13 7 10 8 3 16 12 13 10 30 15 10 3 17 14 9 6 6 24 24 21 17 34 26 6 24 17 8 10 13 14 16 20 17 13 13 20 16 14 31 10 19 14 28 17 7 21 13 7 17 13 3 21 17 10 9 17 10 17 10 6 22 3 24 2 10 12 23 17 16 6 24 14 10 27 21 11 7 8 17 17 7 9 10 10 16 21 20 16 13 16 10 6 3 16 11 6 27 16 0 23 16 20 6 12 17 8 6 11 16 17 13 18 7 24 27 3 41 13 9 28 16 20 10 23 31 20 23 3 15 19 14 12 3 19 6 20 6 23 10 3 6 3 13 20 10 25 17 21 22 33 0 13 10 19 12 13 0 28 10 17 14 11 10 6 10 14 10 8 10 14 17 10 14 22 10 33 20 10 16 10 16 17 6 17 6 6 7 16 16 6 17 27 13 7 21 14 16 17 15 9 7 28 9 13 8 19 17 17 12 10 13 20 17 20 34 3 26 10 7 43 33 8 6 11 16 9 16 16 13 17 10 14 6 23 13 23 9 13 9 13 3 9 10 16 22 22 17 0 3 20 13 19 13 14 24 7 20 16 9 3 23 14 27 9 14 7 31 7 9 12 10 13 17 6 14 16 14 20 19 10 6 23 24 15 17 16 23 20 13 14 17 3 17 20 17 17 20 15 10 6 17 13 11 13 3 21 17 10 14 16 0 26 20 17 20 9 25 12 15 14 14 22 10 9 19 0 9 20 30 10 15 9 14 22 13 12 6 13 9 20 6 7 23 13 7 23 13 16 28 11 19 6 30 15 9 13 3 7 28 18 12 30 16 12 6 6 19 13 17 6 7 21 15 20 13 16 16 29 24 28 10 10 13 15 12 9 13 14 17 12 6 0 13 14 26 13 13 24 3 31 16 18 9 16 14 23 19 21 3 17 27 17 0 6 13 10 17 27 9 5 3 25 28 19 10 10 13 17 16 16 7 14 23 9 20 14 14 23 15 16 18 14 0 9 16 21 3 7 23 14 11 18 17 28 3 10 9 16 21 17 16 9 20 17 24 24 10 15 9 17 9 3 21 16 9 17 19 13 10 7 0 28 23 3 24 10 9 0 13 11 6 16 13 25 6 21 9 8 27 7 14 31 29 24 12 27 12 12 7 17 16 20 3 10 14 7 13 16 7 30 13 19 7 20 7 6 6 24 13 17 14 16 21 17 14 9 13 20 13 12 23 13 17 30 16 16 14 17 3 3 22 17 10 6 7 14 13 19 13 20 16 21 10 14 17 17 17 10 13 17 3 13 24 24 20 16 8 24 20 15 10 17 30 13 14 17 21 0 10 21 20 10 26 0 3 20 10 9 0 18 24 11 22 10 17 3 15 16 17 19 16 17 3 14 10 10 11 19 7 17 25 17 13 10 13 15 27 22 20 10 33 3 18 6 17 24 12 13 3 16 31 17 12 9 17 10 6 23 14 21 10 16 9 3 23 10 19 13 38 17 13 16 23 3 16 9 6 20 31 17 13 9 25 13 16 10 13 6 7 17 24 0 24 0 6 10 15 21 3 14 0 19 10 10 6 9 17 15 6 3 7 15 3 16 10 10 7 8 7 7 15 9 6 6 18 20 10 14 19 3 17 13 17 16 26 15 14 26 13 10 17 9 10 3 9 16 3 13 12 19 16 6 10 7 16 10 20 20 24 10 22 3 6 17 0 12 23 6 6 9 14 23 9 6 8 10 6 14 13 3 17 20 6 34 17 13 22 19 10 3 7 26 23 17 13 13 9 7 7 11 26 38 7 23 3 13 3 20 19 27 6 20 17 10 7 7 3 0 22 16 35 3 27 21 13 16 33 20 14 17 7 20 24 6 7 10 13 14 15 2 9 20 20 20 20 0 10 10 6 21 21 23 27 6 10 17 17 20 36 10 10 6 7 17 19 9 21 17 12 19 16 16 0 14 9 24 6 6 7 14 6 20 15 17 12 3 0 3 6 7 9 3 9 7 17 14 12 16 19 12 21 6 6 3 29 3 9 28 16 21 10 18 10 9 13 16 19 14 17 10 10 0 7 12 23 3 9 6 10 20 13 17 21 0 21 7 10 10 24 9 10 14 6 0 16 19 12 17 6 17 23 34 10 19 12 10 24 34 18 16 13 3 7 7 20 24 19 7 17 13 10 10 5 17 6 20 10 17 6 13 10 10 17 17 13 26 10 12 13 23 7 13 16 16 13 10 9 25 21 10 6 14 13 13 6 11 24 23 20 10 0 21 27 3 13 17 13 20 7 9 13 26 27 7 17 0 17 9 20 9 20 10 9 16 7 0 17 15 16 5 20 20 12 14 7 19 3 9 19 15 17 3 6 23 13 19 26 10 17 7 24 15 20 0 27 20 8 13 3 23 19 20 10 3 10 9 13 28 6 31 15 21 23 20 10 16 13 7 0 24 13 17 13 7 16 17 7 28 15 23 30 10 14 16 9 13 13 3 17 19 12 16 10 16 7 23 10 6 28 22 12 21 24 10 17 12 6 7 3 13 20 3 14 16 16 14 13 11 19 7 31 11 15 3 19 16 13 6 18 10 6 10 15 12 3 23 16 14 11 9 10 10 3 0 17 16 20 16 16 22 6 7 9 3 3 17 20 6 13 6 16 20 7 10 9 34 10 10 20 17 21 6 9 17 6 15 6 3 16 14 20 9 3 15 18 18 20 7 13 17 6 10 16 21 7 15 17 14 20 17 10 7 18 21 12 3 15 19 7 25 16 0 10 17 20 14 10 9 17 16 13 6 14 9 13 24 20 11 17 22 9 3 17 3 13 10 16 14 6 20 0 20 20 21 13 27 13 10 19 12 13 28 23 16 10 17 16 13 20 31 16 19 28 12 6 29 13 14 23 17 3 17 17 11 6 20 7 13 16 10 7 16 0 10 6 6 13 21 10 10 3 21 16 4 11 9 3 20 11 13 6 9 22 14 24 6 14 24 23 12 16 18 10 6 18 20 17 27 10 16 16 14 17 10 21 20 16 6 23 13 10 20 13 6 20 17 10 29 26 22 23 22 7 13 17 15 27 17 25 15 27 29 10 10 16 16 14 19 9 16 23 9 6 14 17 12 10 24 15 6 9 9 6 17 19 10 11 10 14 12 13 12 17 12 3 15 0 26 20 9 0 19 19 16 24 7 0 20 13 24 19 19 9 20 21 10 7 9 23 11 9 16 10 25 7 12 14 7 16 3 21 21 6 9 13 13 13 7 15 17 16 14 22 7 14 14 18 13 17 7 3 20 3 7 17 27 9 18 10 7 17 3 3 3 6 26 13 9 17 10 17 3 10 10 24 22 26 20 38 14 16 10 20 10 15 22 13 20 17 27 7 15 19 3 23 24 17 26 7 14 9 28 20 14 14 17 20 20 6 6 15 14 21 9 20 13 12 12 9 6 10 10 22 3 23 18 6 24 7 30 14 21 10 10 14 14 19 10 16 27 16 9 3 7 21 10 24 30 22 19 14 15 17 14 19 7 20 3 10 9 7 16 14 21 20 7 20 20 16 9 13 17 20 6 16 15 13 10 20 17 16 10 17 10 3 0 19 6 11 15 3 6 3 18 27 16 19 13 10 0 16 16 16 20 0 6 17 6 13 6 22 10 12 14 21 10 10 29 20 16 10 17 17 11 7 14 0 10 17 10 10 18 16 12 6 14 9 19 24 14 7 3 11 0 20 19 17 17 3 13 12 16 17 9 0 6 19 23 10 6 13 10 14 23 3 10 16 7 10 9 9 20 7 6 16 3 10 6 17 14 17 7 14 3 21 14 24 13 10 17 6 13 6 0 13 7 12 13 31 26 10 3 7 17 17 13 9 12 17 6 9 18 10 17 17 3 6 3 6 11 12 29 17 20 23 24 13 6 17 21 3 15 23 13 6 3 6 27 19 15 8 16 7 9 12 17 23 16 6 20 13 15 5 13 9 9 14 24 10 9 16 26 7 10 9 17 20 17 24 19 24 17 17 21 3 6 0 13 17 18 9 7 3 3 10 17 10 7 7 16 24 7 18 10 21 10 19 6 10 3 16 13 10 21 6 17 11 28 10 6 13 3 21 0 21 0 6 6 31 10 9 26 13 23 13 30 18 27 10 14 17 10 7 27 10 14 17 15 12 19 23 17 13 14 16 18 23 13 10 24 27 6 17 12 10 13 21 13 7 26 7 16 10 3 22 19 21 17 9 13 20 10 13 13 9 22 12 17 6 27 13 7 16 27 3 31 12 14 9 13 7 20 9 20 3 7 20 10 19 26 17 19 13 10 16 15 16 14 7 20 15 12 14 14 15 13 7 21 8 3 20 16 19 16 27 17 23 13 14 12 20 10 20 20 6 17 0 20 20 10 13 13 20 13 17 20 7 6 10 19 13 24 13 17 0 11 20 10 10 19 20 20 13 14 14 20 6 13 7 7 6 24 9 6 12 13 9 9 12 3 23 6 17 31 14 3 17 14 12 17 10 10 10 10 15 3 13 21 16 13 23 21 23 12 24 10 10 6 16 13 17 0 3 20 14 12 21 22 6 13 6 16 16 23 24 17 16 20 17 13 20 6 24 3 11 19 24 9 7 16 6 20 18 9 30 3 17 17 8 19 9 20 9 9 17 3 7 14 9 3 15 6 6 14 10 20 7 14 24 21 17 10 18 13 20 12 7 30 24 17 13 9 9 12 20 12 14 0 14 12 10 28 15 17 15 6 20 3 16 15 20 6 23 13 12 10 16 21 14 20 24 28 13 11 19 24 10 16 0 3 9 9 30 30 19 11 10 15 13 21 15 14 8 13 0 20 15 12 13 3 9 20 7 6 12 0 0 7 10 16 24 10 20 21 23 3 0 3 21 7 20 26 20 17 13 6 24 7 10 21 10 17 12 16 17 9 23 6 13 3 6 19 19 6 9 6 10 16 20 3 17 17 0 20 17 9 17 13 21 10 24 23 0 15 9 27 19 6 9 7 16 6 17 14 23 15 9 9 10 10 10 11 19 10 7 13 17 10 3 19 18 10 20 21 0 25 16 11 20 27 16 15 3 3 27 7 3 20 12 19 0 16 10 22 21 7 23 12 10 9 6 9 27 10 23 6 16 17 21 7 6 10 14 8 17 21 28 6 0 21 17 16 8 0 10 16 10 20 23 17 3 6 27 20 15 17 17 20 17 30 34 10 17 13 8 14 23 10 20 6 11 17 6 17 0 10 13 6 18 12 14 27 10 5 10 23 21 14 15 30 3 14 19 6 10 14 6 9 21 10 23 6 13 19 17 7 10 7 14 16 7 22 13 34 22 20 23 20 20 12 11 10 14 10 23 21 20 13 10 24 9 12 13 23 21 13 19 13 15 16 20 15 15 23 13 24 0 9 17 0 14 10 13 16 16 6 0 10 6 9 17 21 27 31 17 10 10 6 12 21 10 14 9 15 9 21 6 14 14 17 23 6 13 30 24 9 21 21 10 6 10 21 3 13 10 0 9 10 17 21 10 24 15 17 17 11 3 17 18 9 13 16 10 13 6 12 17 0 3 21 3 20 15 16 31 7 7 0 19 9 24 21 10 13 15 13 30 23 21 0 3 14 16 12 13 13 10 10 17 15 0 19 19 13 23 12 10 24 3 11 6 23 6 17 19 6 13 17 20 19 23 20 14 9 22 16 9 13 9 3 20 0 19 17 9 13 0 3 17 0 15 17 23 3 24 3 17 10 12 17 13 16 6 16 12 14 14 10 19 15 16 24 13 13 11 20 10 22 19 10 7 15 0 10 13 21 13 19 20 17 3 15 9 14 15 26 17 13 12 26 14 37 12 22 30 6 20 3 20 12 17 12 9 14 20 25 9 9 17 7 17 12 14 3 7 8 13 7 3 21 10 16 20 3 18 7 17 13 20 28 0 19 10 3 10 13 9 23 3 17 10 13 19 13 23 17 14 6 9 12 16 16 5 18 3 3 12 37 21 17 6 13 20 13 12 16 23 10 11 13 10 21 27 14 10 24 28 21 14 15 15 3 26 34 21 10 23 20 17 13 3 14 17 10 8 3 8 7 14 10 3 3 9 21 27 9 16 7 3 13 17 14 10 15 20 6 27 23 10 10 21 3 26 11 29 28 18 3 27 13 10 35 9 3 31 22 16 13 16 10 7 13 26 11 10 20 3 15 10 17 12 17 6 6 10 12 14 16 13 23 13 10 16 16 9 3 7 31 10 10 7 0 3 9 21 15 22 3 31 13 20 10 13 13 10 3 17 13 10 6 17 10 21 10 23 13 23 10 13 21 10 16 20 16 7 10 6 10 23 24 14 10 19 17 3 0 16 3 17 0 11 13 10 20 9 23 28 6 9 12 16 17 3 14 10 27 19 9 24 21 15 19 10 14 13 10 17 14 8 10 34 12 3 10 7 25 13 10 14 25 26 10 17 7 12 10 6 24 13 16 21 17 10 13 17 7 18 0 16 7 13 16 20 19 7 14 21 21 21 3 18 7 7 3 17 16 14 14 13 29 3 17 16 23 17 27 13 23 23 7 27 14 16 7 24 20 9 7 16 14 21 21 10 13 11 10 12 10 23 6 9 24 27 16 10 10 20 9 6 10 10 9 20 17 16 34 3 10 20 17 15 19 10 3 10 20 21 23 3 3 0 13 6 23 3 13 13 23 13 10 8 3 21 18 3 30 16 13 3 15 8 6 10 3 10 13 3 6 24 3 10 20 13 10 7 16 20 14 13 23 18 10 14 14 20 7 20 3 20 9 10 16 19 10 9 24 9 3 6 10 3 20 13 7 7 18 3 3 16 9 27 3 23 8 13 21 7 16 17 23 19 16 17 16 30 25 21 6 3 9 3 3 20 28 10 19 10 23 15 17 16 9 20 23 3 24 9 16 23 26 8 9 23 16 9 14 3 24 20 16 10 3 7 10 12 7 14 13 24 9 30 18 21 13 26 15 19 6 17 7 10 28 19 13 10 16 3 23 7 13 0 13 3 27 17 14 19 13 20 16 3 17 6 9 14 12 7 13 3 14 10 3 11 17 16 20 21 19 3 14 20 10 17 8 9 3 16 6 13 3 3 0 21 17 16 12 12 6 10 0 16 10 9 10 23 19 9 0 17 18 13 6 12 24 10 12 20 10 10 14 18 14 17 3 20 7 13 16 14 27 14 21 16 10 0 3 6 18 17 0 14 13 13 18 19 3 24 10 17 9 14 17 24 7 16 16 27 23 16 17 27 0 14 16 21 24 17 22 3 20 10 12 14 3 7 10 13 9 23 13 13 13 7 27 9 13 9 24 18 16 7 8 7 19 20 11 19 16 7 14 13 14 10 17 10 22 6 20 6 23 9 13 16 14 13 10 16 10 25 12 17 20 14 20 6 14 24 10 10 23 9 12 16 17 20 5 6 14 17 21 6 24 10 18 20 42 28 6 27 10 0 30 9 6 7 17 8 13 10 27 9 9 16 14 9 14 17 10 7 16 6 14 0 9 8 6 22 16 6 24 13 18 14 7 13 8 34 20 13 15 17 11 17 16 10 16 6 19 17 10 17 3 3 3 7 13 16 6 15 16 15 16 23 20 10 13 19 33 10 12 20 13 22 10 30 9 10 6 9 20 16 17 16 20 9 7 7 20 8 16 17 23 8 13 18 23 17 17 17 23 19 3 26 3 23 7 15 14 15 27 23 16 23 24 14 9 10 7 24 16 0 13 14 10 6 9 14 6 10 6 21 0 20 27 12 13 21 17 10 12 20 16 20 13 22 3 3 16 6 10 12 16 18 19 9 13 9 3 17 16 14 13 16 3 16 6 16 6 27 14 13 14 14 13 10 13 10 0 13 20 14 13 3 6 23 12 10 6 13 17 12 9 13 9 23 31 13 13 19 13 6 10 16 3 3 24 9 25 17 9 12 19 20 23 12 7 25 3 9 31 29 15 27 21 30 6 19 3 14 27 6 10 10 22 6 11 20 29 17 12 13 7 34 10 17 13 17 19 3 0 13 27 3 9 6 21 32 10 0 3 13 16 9 26 9 7 17 20 17 13 10 14 7 10 16 10 6 13 13 3 6 14 9 20 29 6 10 20 15 10 12 9 13 12 27 19 16 17 19 10 16 12 15 10 10 18 15 15 6 17 6 10 24 3 17 16 17 17 14 20 16 23 3 3 17 6 13 17 13 16 20 7 12 21 13 23 20 15 19 17 9 10 20 12 16 17 7 7 19 3 13 18 17 10 18 17 27 7 22 9 0 17 0 13 6 0 23 16 7 30 10 10 3 21 13 7 16 17 3 9 14 10 13 27 20 17 9 22 13 14 20 16 6 22 10 7 27 27 21 8 10 10 13 18 22 20 16 13 14 13 23 16 6 21 14 2 7 17 17 14 8 10 12 23 16 10 20 10 3 6 22 6 20 12 3 12 10 24 10 11 24 16 3 20 10 14 11 9 17 6 9 17 13 19 24 27 9 0 0 7 30 13 19 20 7 6 10 25 10 13 32 13 18 20 12 20 6 6 16 16 17 17 14 24 10 19 20 24 16 3 10 6 13 10 15 20 21 9 12 12 20 3 12 24 20 7 10 14 6 3 13 17 6 7 17 17 28 9 23 14 21 13 14 22 10 3 20 9 0 14 7 7 17 20 13 13 24 12 10 14 17 10 24 3 19 18 17 19 16 24 14 16 13 0 17 16 25 19 18 6 24 20 13 24 16 6 14 17 9 13 24 10 16 16 22 27 17 26 10 12 7 15 12 13 33 10 18 10 24 3 23 19 12 11 11 20 3 10 9 13 7 7 17 6 22 9 13 10 9 11 7 3 14 7 7 13 6 22 5 21 6 13 10 34 34 21 17 17 16 14 14 17 14 27 16 3 21 13 10 6 25 21 17 13 9 13 42 14 24 16 10 28 20 20 7 6 6 10 23 15 11 16 0 7 0 9 3 16 20 14 13 23 12 7 17 25 17 6 16 16 3 7 35 14 12 20 12 14 10 11 21 16 13 20 9 19 17 15 24 10 28 11 18 7 23 10 13 29 20 21 6 13 34 6 16 3 17 11 27 26 12 22 10 16 26 13 17 24 12 10 6 27 14 10 21 6 20 35 13 11 19 16 15 17 21 10 13 11 22 18 17 10 24 14 7 6 20 16 27 18 5 20 16 12 7 16 3 13 13 14 27 3 17 17 23 24 13 21 3 17 7 2 7 14 16 16 7 17 13 19 13 15 14 17 3 6 13 24 3 20 22 14 13 9 16 14 0 17 10 10 3 3 7 20 3 20 13 9 6 15 14 13 17 38 20 21 14 21 3 16 6 0 6 22 10 6 26 14 3 16 17 3 23 13 6 16 13 30 15 20 14 14 10 10 19 6 9 10 20 6 22 27 17 17 13 26 10 12 13 13 6 10 31 7 37 11 17 15 17 10 3 9 17 11 6 31 18 13 13 23 14 21 10 10 17 13 13 17 12 10 11 17 21 15 13 17 20 7 17 10 3 14 15 7 7 12 17 17 7 3 3 17 13 13 16 10 9 23 6 3 17 12 45 27 13 23 20 17 17 23 13 3 17 20 20 6 6 13 6 13 21 31 6 9 3 25 13 17 17 9 13 10 19 18 20 13 12 21 23 13 9 23 10 9 9 9 17 14 28 11 9 7 15 7 11 17 13 23 17 12 6 20 6 13 3 14 0 28 3 9 6 22 7 10 7 12 22 14 14 16 9 20 13 7 10 20 15 24 24 0 10 11 20 9 0 18 10 14 7 3 16 17 20 3 28 3 0 16 20 7 27 7 9 17 20 24 14 7 17 19 3 0 19 24 16 3 12 7 7 6 6 18 12 21 10 20 16 6 3 15 9 10 19 13 19 13 6 23 20 13 22 17 23 14 24 21 11 13 17 27 13 3 17 21 15 21 16 27 33 19 10 17 13 20 3 16 8 13 7 10 10 23 3 7 13 10 16 23 9 22 20 20 16 10 30 16 16 14 23 24 15 16 7 7 10 8 30 23 11 14 13 13 9 3 11 10 16 14 6 12 22 0 8 14 17 13 24 20 10 22 14 13 13 7 10 10 6 12 10 13 16 9 3 15 26 12 16 20 6 14 17 13 16 14 20 16 23 16 17 26 6 23 10 6 10 20 0 10 3 12 12 17 12 3 17 15 16 6 10 10 15 7 6 10 7 24 23 9 17 12 19 19 16 19 17 11 3 11 15 19 16 24 30 10 3 13 13 6 9 10 7 28 26 6 14 6 16 14 6 12 16 22 18 21 6 21 19 17 3 3 19 18 9 20 9 23 13 13 13 24 27 10 0 9 13 17 3 10 18 3 16 3 14 30 14 9 17 24 15 14 16 16 23 13 18 13 27 11 24 9 24 10 16 9 17 10 15 10 7 7 19 10 3 22 3 12 10 12 0 17 10 17 17 18 13 37 6 16 10 16 17 26 9 6 14 17 16 17 23 7 9 17 24 6 7 17 12 11 29 6 20 14 29 11 9 17 16 0 10 34 30 7 7 7 6 19 18 21 21 23 21 16 30 14 16 25 13 7 6 19 21 7 10 16 10 18 12 7 17 10 13 8 0 17 10 13 0 23 17 10 20 10 14 13 11 3 10 14 20 20 7 6 20 19 13 24 8 12 9 11 13 14 13 16 12 20 9 10 3 12 17 10 10 12 7 14 10 15 20 10 3 3 10 27 14 3 28 10 23 14 9 25 13 8 16 3 24 23 13 12 30 13 6 18 32 14 20 3 12 7 6 10 6 7 13 17 15 3 12 14 9 30 9 11 23 10 7 16 12 12 7 12 28 17 13 3 8 13 20 10 10 19 10 25 23 7 10 19 0 10 13 12 7 16 20 17 7 19 28 6 14 12 3 20 6 10 18 7 10 22 10 0 26 6 9 17 3 15 17 10 20 16 18 9 20 34 9 13 17 0 20 20 28 14 14 10 10 16 7 7 3 20 21 10 0 13 13 9 18 19 20 10 0 22 17 13 24 8 6 20 6 7 10 14 13 14 6 20 19 10 17 19 16 16 5 11 17 13 7 7 15 24 17 12 17 17 6 9 17 20 13 15 19 22 17 19 22 17 20 22 7 23 24 23 16 10 20 13 14 13 17 26 6 11 13 15 17 27 22 15 20 12 12 15 17 6 6 6 17 34 12 9 6 0 3 14 0 20 6 15 18 15 0 21 7 10 12 13 19 20 33 20 9 9 15 16 24 9 9 13 0 9 20 20 13 20 20 0 14 19 17 17 16 6 9 3 13 30 7 16 20 6 13 13 9 20 10 10 7 14 3 13 7 9 34 6 23 6 13 13 16 9 9 24 24 6 14 15 29 12 19 16 21 14 23 6 16 16 17 9 25 20 16 20 9 18 10 14 40 6 30 17 0 10 10 19 16 27 17 21 13 12 7 17 13 18 10 3 6 9 21 17 16 9 12 29 23 10 10 17 22 25 28 9 7 6 16 10 23 23 12 15 31 24 20 9 6 10 13 8 13 11 17 7 28 23 19 10 6 3 16 9 15 10 21 7 17 20 7 17 16 13 18 17 15 16 8 20 7 24 6 20 27 24 19 15 6 13 10 20 9 20 17 13 21 12 19 16 10 36 3 11 9 7 0 21 22 10 9 9 10 5 17 30 10 17 6 9 20 19 20 20 19 17 17 16 10 22 13 24 3 20 27 20 6 6 0 19 16 10 19 24 16 17 23 23 17 19 26 6 20 13 19 18 17 19 10 7 13 28 9 26 17 21 9 20 16 7 17 9 9 9 10 9 13 0 3 12 20 7 6 17 13 10 10 6 13 19 17 13 24 13 17 13 9 11 10 9 16 14 16 7 13 10 16 10 19 13 9 9 13 10 13 34 15 16 7 16 27 13 6 10 12 3 6 14 3 13 14 7 10 10 23 20 9 13 24 27 16 7 16 9 9 6 13 8 28 0 12 20 6 9 27 16 20 20 14 9 7 20 17 3 19 10 22 6 16 20 7 12 9 18 7 16 10 3 7 13 17 14 13 27 17 19 20 16 21 24 14 16 17 7 9 14 13 9 12 16 13 16 7 17 3 7 6 11 3 6 13 20 16 13 6 10 14 14 17 6 23 10 3 10 14 9 17 3 10 15 7 7 8 20 19 10 17 19 6 9 7 9 19 3 19 17 19 27 7 14 17 9 14 12 10 14 17 10 11 6 6 10 0 14 10 20 10 15 21 10 20 14 20 17 10 17 12 6 17 8 13 28 13 12 3 17 3 24 6 21 7 21 17 14 16 19 16 24 31 10 19 18 24 23 17 25 20 14 16 14 21 6 13 22 13 3 20 17 13 14 14 0 17 3 21 6 13 10 6 9 12 10 14 17 7 9 13 9 3 24 13 23 31 10 3 16 14 3 16 10 6 13 3 18 10 13 6 10 21 20 20 10 13 10 9 16 17 22 17 15 10 3 7 31 17 12 23 6 17 6 10 9 10 7 6 10 7 25 7 12 10 9 10 17 17 19 6 9 16 17 14 14 20 24 10 13 12 10 10 13 20 22 15 15 13 14 16 23 19 6 20 14 17 14 17 0 12 0 11 6 16 10 3 27 21 17 13 14 13 17 14 6 6 10 9 16 18 0 10 7 19 19 16 24 11 20 9 18 20 6 30 24 20 26 7 23 20 13 14 14 12 10 10 33 20 17 10 21 3 20 9 14 6 15 17 3 10 13 17 10 6 14 9 15 10 7 20 9 12 19 20 9 3 27 10 13 17 21 24 16 16 16 19 22 19 15 16 12 19 17 8 17 17 17 19 0 19 21 17 17 13 13 7 26 9 7 13 22 17 22 18 22 3 17 16 23 26 35 9 24 3 27 14 13 17 16 18 9 17 13 16 14 14 7 14 19 14 7 10 13 23 28 27 20 20 17 10 7 22 10 10 9 20 20 30 15 17 10 20 23 23 12 19 6 22 9 7 19 6 10 6 9 20 19 10 12 20 20 6 20 6 17 17 20 14 29 18 13 7 20 21 7 23 3 10 13 16 6 16 7 10 3 31 9 24 17 30 3 34 10 19 20 6 17 10 10 10 14 0 24 22 20 10 15 13 10 27 19 27 19 14 0 27 6 13 6 9 3 3 10 15 27 22 12 31 24 10 7 3 10 13 11 3 13 10 17 0 20 17 3 10 20 16 16 13 20 13 6 16 10 12 21 10 20 6 6 13 3 25 15 27 14 12 13 13 17 23 12 16 20 14 20 15 10 12 11 10 16 10 28 20 3 5 26 9 20 12 21 6 25 16 10 10 17 17 14 7 3 17 0 24 13 27 28 16 6 11 12 13 23 13 12 10 17 9 7 9 10 15 3 20 9 3 16 10 24 30 7 22 14 3 23 16 6 16 19 28 17 13 22 22 12 17 17 27 10 15 14 15 10 12 3 13 3 16 19 25 30 6 10 6 3 15 8 9 17 20 17 14 16 9 19 10 23 13 12 18 6 21 9 13 13 34 14 13 16 0 6 10 17 14 6 27 30 14 3 3 10 6 13 24 7 13 3 16 6 14 14 17 18 13 10 13 13 3 37 17 0 13 0 12 16 10 13 12 14 10 20 17 16 9 13 6 13 20 3 9 15 16 16 23 24 15 21 9 12 9 20 0 6 17 17 11 7 13 17 14 9 10 13 19 21 21 13 26 7 30 9 8 6 13 10 3 13 9 10 0 16 11 8 6 14 13 0 3 10 19 13 7 14 20 0 10 6 6 14 12 17 15 6 16 20 10 6 17 10 22 12 20 20 17 9 11 10 9 6 25 21 3 6 19 10 3 26 6 11 3 6 16 14 28 12 3 26 24 6 20 20 17 13 27 13 20 6 21 24 13 10 15 18 19 19 10 27 17 21 13 6 7 10 23 7 13 27 30 20 14 6 13 20 18 14 14 20 15 15 17 10 13 27 21 7 19 9 34 13 13 24 21 23 10 16 10 19 20 22 16 17 4 10 13 20 0 24 6 19 0 6 3 3 0 27 10 20 22 19 10 14 12 13 20 31 3 10 17 17 21 15 12 3 14 3 24 20 12 3 6 10 27 20 3 10 23 16 6 10 17 11 16 13 15 20 8 3 14 16 13 20 20 6 9 10 6 10 19 13 9 10 20 9 24 3 20 12 23 10 6 6 10 7 23 19 12 13 17 27 16 17 13 3 6 17 17 16 14 26 0 23 17 24 17 17 14 7 27 13 24 15 20 18 3 12 14 11 21 6 17 14 0 17 21 16 9 13 12 16 14 7 7 10 6 10 6 30 10 17 21 11 13 28 9 10 7 7 12 10 3 26 10 6 10 12 28 26 14 14 17 21 10 16 10 0 19 16 14 10 19 13 20 14 15 2 13 20 20 16 24 10 3 15 27 9 21 16 9 17 11 20 14 10 13 14 7 14 19 9 18 23 8 16 13 27 32 21 9 11 0 20 10 13 13 19 12 19 12 13 13 15 6 14 25 21 13 13 19 12 10 7 3 17 0 17 11 6 20 9 3 12 14 36 20 9 25 19 19 6 12 6 3 7 6 7 7 16 20 13 24 6 0 17 23 17 32 3 18 9 17 17 16 15 13 17 8 37 6 3 20 10 10 19 14 14 12 18 28 20 14 6 6 6 11 10 3 13 10 14 23 6 19 20 6 23 17 16 17 20 14 15 10 19 16 17 23 10 21 16 33 10 3 17 24 26 6 13 10 14 13 17 3 14 26 10 15 10 3 23 9 16 25 10 16 17 13 7 22 26 24 6 27 3 18 10 0 16 19 19 3 17 17 20 20 6 8 20 3 10 0 14 29 12 28 20 13 20 3 9 7 13 20 19 10 15 14 14 7 6 10 14 18 15 6 18 9 6 9 13 15 8 20 20 3 18 6 10 19 7 10 13 16 13 17 26 22 20 20 6 17 13 20 12 20 11 6 17 17 9 20 24 12 6 13 21 21 24 30 6 14 9 27 13 22 13 30 3 9 6 13 30 16 21 31 22 24 19 26 6 22 17 12 17 19 17 10 14 13 3 6 13 19 9 31 16 24 10 14 17 7 17 17 3 13 12 13 20 16 13 3 3 16 6 18 27 25 13 13 0 20 6 14 13 16 22 9 18 29 10 14 24 20 6 10 15 6 16 3 6 13 6 13 6 0 12 16 14 26 12 12 21 21 9 13 7 3 24 10 16 12 13 7 10 24 13 13 9 7 13 16 6 22 17 11 6 16 16 18 10 17 10 6 17 5 10 9 17 13 13 10 17 10 10 20 15 19 3 20 10 7 13 19 10 21 20 17 17 13 16 9 0 13 12 21 6 14 14 7 22 6 0 21 10 17 16 21 13 10 6 33 9 16 6 27 6 7 7 26 21 17 23 20 12 27 10 13 12 9 13 7 10 9 13 12 16 17 24 17 10 18 9 13 0 12 10 17 6 24 24 17 15 13 17 16 6 10 20 10 16 13 17 6 14 23 10 18 13 10 13 23 23 13 17 15 12 6 17 15 7 31 6 3 31 16 10 10 31 17 16 7 26 11 6 12 22 0 6 24 14 27 20 13 19 15 23 3 24 17 16 18 22 14 20 10 12 12 14 3 10 17 10 20 13 10 9 12 3 13 16 10 20 19 19 28 24 17 10 10 13 0 7 10 19 16 9 17 6 17 11 10 7 16 13 15 23 7 24 16 16 10 20 17 17 13 20 6 21 16 16 6 14 13 3 13 6 13 23 9 26 7 10 14 6 12 22 16 7 17 27 24 23 9 6 13 8 23 24 21 6 26 17 9 13 20 10 17 31 16 26 14 20 7 15 9 3 7 27 23 20 23 19 20 7 6 15 28 17 3 7 7 6 6 17 22 26 6 10 6 10 20 25 20 13 7 16 10 21 16 9 10 3 20 3 21 6 6 6 17 7 13 24 16 11 6 13 10 3 13 6 13 6 3 3 14 16 7 12 7 11 14 14 8 17 9 10 3 18 6 7 38 10 10 14 17 16 7 26 13 11 21 20 20 27 27 7 12 9 10 17 9 20 14 10 12 17 16 17 10 13 10 27 0 10 6 9 7 0 14 6 14 13 16 9 27 10 14 12 24 6 6 3 13 6 10 17 13 3 16 3 9 6 18 17 17 12 3 17 6 13 6 13 27 13 17 21 16 18 17 14 13 16 24 19 17 6 0 6 26 14 17 6 10 14 17 24 14 10 20 0 13 17 10 17 27 28 15 3 3 16 24 19 7 16 30 3 10 24 10 14 27 29 24 7 13 14 15 3 13 15 24 15 3 3 13 16 12 0 12 6 9 28 26 24 14 13 17 9 13 27 6 14 0 23 13 23 6 20 16 7 10 14 30 14 16 21 16 13 20 14 13 17 22 10 7 6 7 21 20 6 12 10 13 26 3 13 14 26 13 3 6 7 12 7 24 13 27 35 3 19 20 10 13 10 26 10 7 10</t>
-  </si>
-  <si>
-    <t>EXN(0.46227732823611634, 20.106569699842083, 4.071814306877627)</t>
-  </si>
-  <si>
-    <t>24 17 23 21 19 14 25 20 24 23 23 26 23 24 19 27 28 19 14 25 25 24 28 24 30 19 25 14 30 20 24 22 25 25 22 27 26 29 15 21 25 16 20 22 22 20 26 15 17 24 22 15 21 30 17 21 23 16 22 17 25 22 16 16 17 20 25 22 24 21 25 23 16 21 28 25 17 25 34 14 33 22 22 16 21 26 20 23 15 24 20 22 15 26 18 20 20 19 27 36 23 19 20 17 26 25 25 24 24 24 20 25 20 21 22 24 11 23 23 25 22 22 28 17 19 24 24 19 16 27 26 16 22 18 18 25 24 23 24 22 20 22 22 23 26 21 27 22 19 32 25 25 29 23 24 11 16 24 20 16 23 14 25 23 28 15 19 22 18 21 26 22 19 33 24 24 24 21 30 15 18 27 26 21 19 32 20 22 24 19 19 19 23 22 17 18 20 18 21 18 23 30 29 21 25 21 28 29 23 23 24 30 17 13 22 24 12 18 27 15 19 19 13 19 22 16 23 23 28 22 22 27 16 23 27 26 24 22 18 30 28 18 23 27 18 21 16 21 15 20 23 28 22 26 26 15 25 27 22 23 16 28 26 24 15 13 17 21 25 9 25 24 22 14 26 22 17 19 25 17 21 23 20 19 19 23 29 33 20 23 13 17 23 21 19 19 18 21 17 27 21 26 20 19 27 20 20 18 20 19 16 19 18 14 21 17 27 20 23 16 17 15 18 23 23 24 24 16 22 21 17 15 26 18 23 19 21 21 28 22 12 24 24 22 22 25 19 29 23 24 19 19 18 24 21 29 21 26 21 22 29 21 24 18 20 19 25 22 28 22 20 27 17 22 23 19 23 24 33 20 20 25 20 23 20 19 22 19 25 23 21 21 23 18 25 17 23 28 28 24 26 19 24 18 15 25 24 22 17 27 21 19 24 32 20 20 30 27 15 16 20 18 29 20 20 30 14 25 31 21 24 21 17 11 27 22 24 21 17 28 27 27 20 19 21 20 34 22 29 28 27 22 20 22 24 21 17 26 28 23 19 20 19 26 31 18 29 18 17 17 14 22 22 27 26 15 18 25 24 23 24 19 27 24 25 21 15 19 23 21 21 22 18 17 25 30 18 17 21 21 29 24 19 24 25 27 22 23 23 21 34 21 19 25 16 23 22 14 22 27 24 25 26 29 11 16 25 22 19 22 18 23 22 18 25 30 18 25 14 23 27 19 14 26 24 25 34 24 20 17 21 24 17 23 23 20 20 25 24 28 22 29 20 25 23 21 21 22 16 31 16 24 17 23 17 24 19 19 27 22 27 14 31 17 26 24 23 31 17 21 25 15 24 17 22 32 24 27 19 20 28 18 23 22 22 21 19 14 20 26 24 17 23 26 25 22 26 22 22 16 26 20 22 18 23 30 20 25 22 24 19 20 31 23 21 20 25 25 16 28 28 24 14 33 20 31 25 24 24 23 26 24 22 23 27 30 34 21 27 23 24 23 28 26 20 27 19 20 24 22 23 20 23 21 23 15 27 21 18 27 22 16 22 22 22 19 15 14 20 25 25 25 27 14 23 18 23 23 29 33 26 28 15 15 26 22 25 15 22 20 28 23 19 17 15 15 29 18 24 25 17 21 23 25 21 23 21 23 23 19 24 11 26 25 24 24 18 20 28 19 20 31 23 20 24 24 19 26 25 26 24 23 24 29 20 18 24 24 20 25 18 22 28 19 20 22 24 15 20 22 11 19 23 18 29 15 12 25 27 19 16 19 20 31 24 23 22 19 19 24 22 14 20 16 27 24 27 24 30 20 25 26 21 24 14 19 22 14 28 24 15 22 23 17 21 26 27 17 28 27 18 21 19 27 22 18 20 21 13 22 40 19 16 21 19 20 20 30 23 15 16 23 18 29 19 26 23 28 13 14 21 18 22 23 22 23 23 24 31 21 24 26 20 17 23 17 13 12 22 16 26 17 19 14 22 18 25 32 19 21 26 24 16 29 16 26 22 17 18 18 22 17 20 19 26 28 14 26 21 21 23 30 28 24 23 24 25 28 25 27 21 29 21 22 14 35 22 17 21 22 21 17 18 25 23 35 24 21 19 23 18 21 19 22 17 27 21 18 22 22 23 28 24 20 21 26 20 17 21 28 16 21 21 19 30 35 31 16 20 24 23 24 21 21 19 25 19 26 18 21 20 17 26 26 13 25 30 19 18 25 23 24 18 24 25 20 25 19 18 25 21 28 24 26 22 23 25 22 16 18 20 20 25 14 23 19 25 18 27 26 26 19 21 18 29 24 19 29 25 20 26 24 22 17 7 26 25 15 18 25 18 21 27 23 30 21 26 18 29 21 23 22 12 22 19 22 17 19 17 20 11 17 20 18 20 16 23 26 23 22 25 21 18 17 24 15 23 26 22 15 17 29 16 27 29 21 29 26 23 22 25 28 14 23 18 28 19 34 26 24 18 25 27 18 16 21 22 11 25 23 18 18 17 20 20 20 27 19 14 22 26 22 15 20 18 17 20 24 29 20 12 25 29 21 20 24 24 20 21 25 24 23 18 32 19 24 20 23 19 20 15 22 20 17 15 20 19 23 19 21 25 27 22 17 18 29 25 25 22 24 17 21 23 21 25 21 17 19 17 28 30 29 13 22 16 25 22 22 15 15 19 18 25 19 10 19 26 22 25 15 23 26 20 22 30 23 17 21 27 22 25 24 14 20 16 25 16 15 20 18 28 21 19 21 25 24 27 28 20 25 24 25 20 17 23 28 15 26 23 26 25 19 21 23 24 20 18 30 19 21 23 30 19 21 27 28 22 15 27 25 20 22 24 19 16 28 24 18 20 20 18 17 21 25 25 31 23 28 21 22 22 19 19 17 23 22 19 26 20 18 29 19 18 25 24 19 24 20 28 27 24 33 21 24 19 20 15 21 14 19 14 23 16 20 16 32 15 34 25 20 22 15 18 26 22 16 23 24 22 32 17 23 23 18 27 31 24 18 15 19 23 22 22 25 30 19 26 19 26 21 22 24 22 11 29 18 13 26 21 18 26 27 24 22 19 24 24 10 28 24 17 26 24 24 23 27 21 22 16 18 22 21 23 21 17 16 27 29 24 27 21 22 24 16 18 18 23 19 19 17 24 21 23 33 34 21 22 20 16 18 27 23 24 18 19 15 23 18 16 21 24 18 26 23 12 23 26 16 24 29 23 21 22 28 28 21 22 22 23 19 24 18 26 23 19 25 26 26 21 18 27 26 16 27 30 23 23 20 26 10 29 25 26 26 21 22 19 20 31 22 6 18 34 18 21 19 18 22 16 30 23 23 22 18 19 21 23 23 23 27 26 26 23 16 29 20 20 28 25 27 23 22 25 18 28 21 29 21 26 24 18 24 25 22 20 27 28 25 21 23 30 26 26 23 24 25 23 29 21 23 14 17 25 21 20 21 28 25 22 25 19 25 18 17 28 15 22 24 19 14 28 20 24 18 21 19 35 29 18 24 15 16 25 21 21 21 26 32 18 19 31 26 21 27 12 32 20 25 16 25 13 22 26 22 23 18 21 31 21 20 24 25 25 22 27 25 20 12 15 22 24 18 17 25 19 24 19 32 19 21 21 31 24 32 14 20 25 18 28 14 23 24 26 29 25 26 16 24 23 22 25 16 26 12 23 29 23 28 23 26 22 18 31 22 17 24 11 19 20 23 20 27 19 24 23 21 21 27 28 21 19 25 19 16 21 17 23 22 21 20 14 26 22 15 21 12 18 26 20 23 12 18 22 16 20 23 19 25 21 18 31 21 30 18 22 14 28 22 23 13 22 19 30 23 16 15 19 14 25 18 11 28 13 17 30 20 26 22 17 27 16 19 21 27 24 20 27 26 16 28 15 25 24 27 24 20 29 34 24 19 19 23 26 33 22 15 30 29 23 25 24 17 31 25 29 19 20 25 20 19 22 15 17 19 29 15 15 17 20 15 28 23 20 23 15 15 26 25 15 20 14 27 22 23 24 24 28 17 27 22 19 23 25 21 32 21 27 26 20 30 18 28 20 19 19 17 25 28 23 24 17 25 21 19 26 29 32 18 19 20 20 26 11 24 27 16 27 21 18 19 18 17 25 28 25 19 29 25 17 27 22 24 19 18 17 23 30 25 18 31 19 22 16 27 21 17 22 26 15 20 28 29 18 25 21 27 21 17 23 29 19 22 21 19 18 21 26 28 25 27 15 28 25 25 17 32 19 25 25 25 20 27 24 17 20 15 19 26 23 20 22 20 19 23 24 19 26 26 24 23 28 15 21 21 36 17 14 22 32 23 21 16 19 19 13 25 21 12 26 24 23 17 18 16 22 20 15 20 24 18 16 26 26 24 26 27 18 13 21 22 23 16 20 25 26 19 19 22 18 20 26 16 28 12 16 25 25 29 36 20 21 18 26 16 22 19 28 24 24 19 17 26 18 13 22 21 27 15 21 31 17 18 23 18 21 24 25 18 26 29 16 22 21 19 21 31 25 27 17 22 24 28 25 29 22 16 27 21 24 26 21 19 23 25 26 19 19 20 16 21 21 14 16 22 24 25 24 26 23 22 15 21 33 19 29 23 15 16 19 14 16 20 31 26 21 21 18 13 23 29 29 28 21 20 23 28 20 19 15 24 20 21 23 30 20 20 21 14 32 29 23 16 17 21 26 30 26 16 25 27 21 18 28 15 23 25 23 36 23 21 24 30 28 27 24 27 27 23 19 25 20 15 24 22 17 26 20 17 24 22 15 24 35 16 28 20 19 23 28 24 14 17 19 22 21 19 21 18 18 24 20 15 35 20 14 33 26 18 28 20 22 26 29 27 27 28 23 28 19 24 24 27 26 14 18 26 22 25 19 18 28 15 22 24 17 19 19 32 24 18 26 17 14 27 20 31 18 22 24 23 20 22 21 26 14 16 23 17 22 24 12 23 19 22 21 25 28 27 19 21 25 18 31 25 24 17 25 16 22 26 26 18 29 27 21 30 20 23 32 20 14 20 27 19 36 19 22 24 27 18 23 20 21 18 16 18 26 18 21 25 21 16 25 25 19 23 22 22 24 19 27 25 21 13 23 27 29 29 25 23 23 21 18 18 16 25 22 24 20 26 27 19 27 17 22 24 19 26 15 28 18 18 22 20 29 19 22 26 19 25 21 24 23 20 18 28 13 24 24 15 20 20 17 19 20 19 21 20 22 35 17 22 22 28 31 18 15 13 23 16 22 20 25 14 19 19 17 21 30 27 18 30 20 17 24 18 20 18 34 18 24 22 25 14 22 20 21 20 17 19 30 21 19 26 22 27 22 20 18 18 21 27 15 27 24 22 20 22 28 20 22 23 23 25 22 18 20 27 24 24 23 20 28 22 22 24 26 21 26 20 19 21 22 19 20 24 23 18 18 33 16 16 22 23 16 25 24 24 24 21 19 22 28 26 21 16 20 21 19 24 25 23 19 29 18 25 20 23 19 24 27 25 18 17 23 31 22 22 22 29 20 30 24 29 23 21 21 27 24 16 15 23 23 28 19 22 22 18 24 17 29 23 19 12 30 26 20 23 28 15 25 26 25 22 21 20 20 19 16 25 19 23 16 21 35 24 17 26 31 23 21 17 21 22 23 28 27 33 21 17 21 20 11 19 18 24 21 16 24 13 17 14 24 23 20 23 20 19 20 16 16 23 24 29 24 22 22 18 22 34 23 29 19 21 18 28 25 24 17 22 17 19 12 17 26 25 30 28 25 22 15 21 21 19 28 21 22 25 22 21 20 29 32 25 15 23 17 28 32 22 21 26 23 18 26 26 29 16 14 19 25 24 24 22 19 22 25 17 26 22 22 19 17 31 18 13 17 20 24 16 21 24 20 24 21 20 17 26 24 15 23 18 20 29 25 20 23 24 20 17 15 16 16 26 25 20 26 24 15 21 19 19 26 20 21 28 22 22 30 20 23 20 24 18 14 20 23 20 17 18 22 12 13 21 23 24 30 26 22 25 28 28 19 18 18 23 24 25 10 12 25 28 27 26 18 25 18 19 28 21 28 14 26 24 19 25 25 21 21 17 16 20 20 17 24 24 23 19 10 29 15 20 24 20 21 21 19 26 24 18 18 19 24 16 15 18 27 18 25 20 28 19 19 25 17 30 23 26 25 29 23 16 20 19 9 19 23 21 29 29 22 19 30 24 20 13 23 18 31 29 24 18 21 21 25 27 26 15 22 20 25 23 24 15 19 21 23 16 29 26 29 17 19 24 28 14 19 17 22 26 23 21 25 26 21 25 23 21 25 20 32 27 24 24 24 26 29 21 25 25 12 21 24 19 27 17 13 21 18 26 23 31 19 19 18 18 22 23 18 26 28 31 26 24 22 26 12 27 14 18 22 25 29 20 24 16 23 27 24 21 25 26 21 19 31 25 18 19 17 14 23 22 22 28 22 33 18 29 12 20 24 20 25 19 24 26 19 20 22 25 28 19 26 25 25 29 17 19 22 20 14 25 26 29 22 12 31 28 12 26 15 22 24 21 24 27 27 19 20 28 26 22 17 25 20 22 16 28 18 24 12 26 19 21 13 29 22 18 25 25 29 27 24 22 26 19 22 23 24 23 16 26 20 25 22 20 25 29 25 18 14 20 20 27 20 21 20 20 25 22 14 19 24 22 18 24 15 24 27 21 21 25 29 21 22 22 14 23 27 19 27 20 24 21 22 28 25 19 17 23 24 22 24 16 20 23 21 20 18 25 23 28 17 23 28 18 23 17 22 23 24 27 21 23 14 23 21 33 22 19 16 21 30 24 23 22 16 19 19 24 24 22 21 21 16 25 21 18 19 21 23 16 19 26 18 17 21 17 28 21 26 31 23 18 18 27 30 21 17 24 26 21 16 33 23 15 24 19 19 22 22 28 24 25 20 20 25 22 29 24 22 17 19 24 25 16 24 19 29 23 20 21 23 21 31 25 24 19 25 16 23 23 23 26 21 19 20 25 28 14 22 18 31 19 29 21 21 27 27 26 29 23 23 17 17 24 23 24 30 24 18 21 14 23 26 29 23 14 20 25 26 16 21 15 21 16 17 26 28 22 20 17 18 22 23 21 25 24 22 22 18 27 27 17 17 29 32 24 28 29 22 24 17 18 18 24 21 13 24 18 19 23 28 21 22 15 16 22 24 25 27 28 20 24 18 22 25 16 15 22 29 21 18 23 20 17 18 22 21 23 24 20 22 25 23 19 22 14 19 23 32 21 26 23 24 16 17 20 26 26 22 22 15 32 19 23 27 23 20 26 21 17 20 25 18 20 25 19 20 28 21 23 17 20 22 28 17 21 22 23 17 28 26 16 22 23 16 15 28 16 19 23 21 25 19 28 25 18 18 24 26 24 20 19 24 32 21 20 20 19 21 19 27 19 25 21 20 22 17 21 24 23 27 14 17 12 18 20 23 23 30 20 15 18 30 25 18 18 24 21 22 22 23 20 19 25 23 16 17 23 20 23 21 19 24 22 29 14 27 17 18 24 23 30 31 18 35 23 23 20 30 18 19 19 22 23 15 22 27 13 18 22 32 23 20 23 20 22 13 35 20 16 20 17 19 25 25 27 21 26 23 20 18 20 22 26 25 20 22 32 22 21 28 19 23 20 18 17 20 14 20 20 18 22 20 32 26 36 14 19 17 20 20 29 21 26 14 23 18 25 29 20 24 22 30 33 22 17 27 16 23 16 20 25 23 24 24 26 17 22 18 19 25 24 33 21 26 12 25 26 21 16 20 28 22 24 25 16 28 18 18 27 16 20 20 20 26 15 23 18 19 26 28 26 27 27 17 10 26 26 21 20 25 19 26 20 21 25 30 23 20 24 14 18 25 19 26 20 12 30 20 26 18 23 15 28 31 23 20 28 13 18 17 27 22 20 18 31 13 17 20 27 18 16 14 21 22 24 22 12 20 24 24 14 27 24 21 25 21 16 24 16 16 23 24 26 25 19 21 31 24 26 24 17 33 27 20 25 20 30 19 21 25 22 22 22 26 16 17 20 20 18 18 21 19 18 20 21 18 22 25 28 25 29 10 26 18 17 19 23 21 19 24 16 10 28 15 19 20 20 25 11 19 16 17 23 21 21 19 22 15 17 25 14 21 30 21 33 32 26 24 24 26 32 26 15 16 16 30 22 11 24 20 28 26 15 25 18 25 14 22 17 28 17 25 23 20 23 23 21 15 16 20 23 15 20 25 26 26 19 21 17 21 19 19 28 31 14 17 21 20 22 27 24 22 16 26 16 23 25 20 19 22 22 23 23 17 24 16 14 23 25 21 23 21 24 26 19 24 26 23 21 29 25 19 26 27 24 18 19 21 18 19 21 26 12 19 17 16 27 20 20 20 18 14 27 20 21 17 23 29 16 19 24 22 29 20 15 26 19 23 18 24 19 23 19 19 19 20 17 27 37 18 24 15 30 29 20 28 23 24 25 19 31 22 29 26 21 19 20 20 22 26 21 15 20 14 25 20 24 20 23 27 29 24 27 30 29 25 31 20 28 19 24 16 25 19 20 20 30 34 36 18 24 16 25 23 25 22 22 19 17 18 15 19 17 22 21 23 24 21 20 24 23 29 13 25 20 19 21 26 23 24 22 17 22 17 22 35 16 22 18 20 24 21 21 20 20 27 18 16 19 25 18 15 27 22 20 18 20 27 28 13 20 27 18 14 19 20 28 17 20 21 17 25 13 23 25 18 27 25 22 22 23 20 15 19 27 18 23 19 24 25 34 20 23 20 19 22 16 22 17 18 25 17 15 27 21 26 15 20 19 19 29 20 17 26 20 17 24 20 25 15 20 19 19 21 18 25 25 31 18 17 19 18 16 17 25 25 19 22 29 27 23 18 20 16 18 22 21 24 19 14 23 32 17 21 27 20 22 23 21 14 25 22 19 22 28 18 31 22 23 20 25 21 25 23 17 14 26 25 22 19 28 28 22 19 28 16 26 26 21 18 23 24 25 23 18 19 22 17 20 16 20 20 22 16 20 17 23 23 23 24 30 26 25 11 21 20 21 20 25 19 21 15 21 22 19 15 18 31 16 16 16 25 23 18 22 27 24 22 14 24 25 30 26 16 28 23 24 23 23 20 28 33 21 24 19 14 35 17 20 18 17 17 17 33 26 24 19 21 19 18 25 27 23 21 19 26 24 21 15 17 20 26 22 20 21 25 16 22 26 22 27 20 21 24 24 20 23 21 26 24 18 20 23 21 25 24 24 23 26 20 29 14 24 31 22 15 19 24 27 24 21 26 20 22 24 25 27 26 28 24 17 28 23 22 29 22 27 22 28 20 27 20 15 21 24 25 20 22 18 22 27 28 23 25 21 31 18 25 21 23 21 17 23 31 19 32 22 17 14 20 27 16 17 23 17 22 27 20 16 20 24 16 18 29 11 17 17 22 18 20 21 20 27 25 21 18 22 18 17 21 29 22 22 22 24 22 27 22 21 20 23 17 22 20 17 17 18 28 16 23 25 21 22 17 25 20 16 17 21 24 25 18 22 20 21 29 21 26 15 19 25 31 25 16 20 25 22 13 17 20 27 28 22 23 31 29 20 20 15 15 20 29 17 22 23 22 28 22 25 29 22 26 12 22 20 18 27 23 23 22 19 14 30 18 29 17 33 25 24 29 24 23 28 32 26 25 18 17 15 28 17 13 18 23 25 18 19 26 19 21 29 23 19 8 24 31 23 21 13 13 18 24 23 17 22 22 14 34 20 21 17 24 33 21 30 23 22 28 22 31 26 21 33 26 20 22 22 17 34 20 15 15 18 22 26 23 21 31 21 27 23 26 21 15 22 22 23 25 22 26 20 26 24 23 23 23 19 21 26 20 20 25 28 19 27 19 24 20 18 17 22 15 12 20 22 21 16 15 20 27 19 29 19 24 18 21 22 20 15 29 22 16 18 25 22 19 16 20 19 21 25 25 20 17 17 21 28 20 20 26 15 18 20 20 26 26 21 25 28 24 31 36 19 24 35 16 21 30 22 16 21 24 28 18 30 17 20 18 19 21 28 26 22 16 27 18 22 19 19 24 21 17 30 28 18 29 25 19 16 22 23 22 17 22 30 28 22 17 23 20 16 20 23 16 22 18 20 18 22 20 26 22 24 22 24 26 21 29 33 22 27 24 15 29 22 30 22 13 17 12 29 21 35 21 18 21 21 29 21 24 23 28 29 30 23 18 23 28 23 27 25 27 21 19 19 20 27 13 29 16 31 25 25 15 32 24 17 21 25 27 23 26 21 23 26 23 21 26 19 32 14 26 23 17 27 17 16 19 14 16 19 20 20 23 25 26 25 19 17 15 24 24 26 21 23 26 18 23 27 22 22 26 23 19 23 14 28 31 23 24 20 15 19 20 29 19 26 18 19 25 19 21 19 23 18 15 17 20 25 18 19 21 27 22 23 21 25 21 22 25 26 26 26 12 20 24 16 28 21 22 28 13 24 22 19 22 22 24 20 22 27 23 17 26 31 28 25 15 24 18 25 22 20 15 22 24 25 17 25 22 25 24 20 28 30 18 23 23 21 22 25 24 21 32 18 18 17 23 26 21 13 25 22 24 18 23 17 20 24 26 18 23 17 18 18 18 27 23 20 28 20 10 29 29 19 19 11 15 30 17 22 22 19 19 24 22 15 22 32 26 26 20 19 27 22 16 23 18 17 20 26 24 25 30 21 19 26 36 22 23 15 20 14 24 20 26 29 25 26 17 15 20 25 25 21 26 29 24 28 25 27 16 25 23 23 26 22 22 22 17 21 15 24 26 17 24 21 17 23 25 20 26 15 22 19 11 20 27 17 12 29 18 18 24 28 24 27 25 24 29 15 21 24 17 26 24 22 18 26 27 21 28 27 21 19 25 17 27 19 24 22 21 16 34 21 17 29 26 17 15 27 25 27 18 16 26 29 24 23 29 22 20 23 22 16 25 23 23 21 25 20 12 29 20 18 21 19 24 28 19 24 18 23 29 14 19 23 22 23 27 22 20 21 21 23 23 16 23 13 25 18 17 17 22 20 23 24 24 21 21 24 21 21 19 23 18 32 9 22 18 25 22 14 18 18 28 17 31 25 30 17 17 26 26 18 16 25 25 21 18 18 23 23 17 20 18 26 23 24 26 21 22 33 33 25 26 20 18 19 21 26 15 22 20 25 21 24 19 21 23 17 22 23 24 18 15 13 18 14 21 20 21 21 23 29 21 18 30 29 31 27 26 20 16 25 28 35 21 24 27 14 23 18 29 26 16 19 25 24 25 24 21 13 32 28 24 29 19 18 25 30 19 22 22 26 25 26 18 20 19 16 20 19 29 23 18 32 15 23 19 24 18 30 28 23 23 25 27 23 21 26 20 15 24 24 23 24 21 22 21 14 21 22 21 20 20 29 25 28 27 28 23 22 24 19 25 18 19 21 23 26 31 21 19 30 29 18 20 24 23 25 14 17 21 22 25 16 30 28 20 26 20 16 20 19 24 20 23 26 21 30 18 22 23 22 27 17 24 27 27 24 25 26 16 20 19 23 23 16 14 18 20 25 15 20 23 18 19 24 22 25 23 22 27 18 21 26 13 28 14 17 18 24 22 26 21 27 27 10 25 18 20 22 32 20 25 23 23 21 35 25 18 18 19 20 22 30 18 19 21 22 22 14 22 15 26 24 21 19 23 27 26 30 22 14 22 21 20 23 21 24 16 20 20 24 19 29 22 28 19 16 23 17 23 27 22 27 14 21 24 13 18 33 17 27 23 22 18 22 19 21 18 18 24 16 20 21 30 24 20 25 12 25 30 20 23 18 19 17 23 18 20 24 29 21 20 18 25 17 20 17 19 16 22 18 14 19 19 19 21 25 23 33 24 23 21 27 21 28 23 24 20 24 21 13 19 27 20 28 25 17 23 18 12 28 28 27 15 13 15 18 21 22 22 19 23 23 23 20 28 29 24 19 22 22 25 26 11 16 20 19 22 15 21 16 15 24 24 19 22 28 21 25 17 23 13 27 21 24 20 21 16 18 20 25 18 24 27 25 20 22 15 14 16 18 24 23 24 22 21 19 26 23 32 28 16 16 24 29 24 28 27 16 20 22 25 23 28 26 12 23 22 31 21 22 20 23 32 24 23 19 14 14 18 16 13 23 23 28 22 17 17 22 17 13 21 17 21 16 27 20 23 24 20 17 23 24 21 21 20 21 18 23 18 18 23 22 21 22 24 23 19 28 24 15 13 24 16 19 22 31 23 24 17 18 27 22 23 20 25 26 22 13 16 27 22 17 27 14 15 22 21 20 21 22 23 21 15 16 16 25 19 18 21 20 25 16 20 24 20 22 21 21 21 21 20 17 26 20 21 25 19 18 24 21 28 24 26 23 21 24 26 13 22 26 17 28 30 23 30 24 22 23 23 24 29 17 24 22 21 21 21 20 17 19 20 23 18 24 22 30 25 28 18 27 22 26 21 28 23 26 21 17 20 26 29 22 21 23 24 22 16 18 23 17 21 25 28 16 22 20 13 13 28 25 23 19 24 29 19 17 16 28 24 24 25 26 28 25 27 22 24 15 19 17 27 27 27 22 22 20 21 24 31 19 18 21 18 24 24 24 16 19 30 20 27 25 21 19 24 26 34 23 19 26 22 18 12 19 22 20 17 19 25 18 19 23 17 23 27 20 20 23 28 22 21 29 26 17 14 24 26 23 21 27 19 22 22 19 22 17 22 22 18 29 25 32 23 22 24 19 20 19 17 15 19 24 23 25 20 26 29 17 23 26 22 15 24 30 17 27 30 23 22 22 25 21 22 13 20 27 13 16 21 20 16 24 18 23 20 26 17 25 25 31 28 13 21 21 22 23 22 24 17 20 14 26 26 15 18 32 21 16 21 19 27 22 17 15 25 28 21 17 28 19 26 21 21 27 21 22 20 18 23 21 17 19 27 22 23 21 27 13 20 23 13 21 24 22 16 25 15 32 18 20 19 20 25 17 20 21 20 23 28 29 18 22 21 23 21 19 25 18 21 17 21 22 24 24 23 22 22 16 29 17 33 29 24 15 16 30 24 17 22 19 24 27 23 21 14 32 13 26 11 20 23 27 13 16 26 34 25 23 33 20 21 22 13 37 26 30 18 24 15 30 28 23 21 24 22 21 16 24 25 13 17 18 29 14 16 21 32 18 20 15 19 19 26 25 21 26 19 22 18 19 29 20 21 23 19 25 18 18 27 19 31 19 13 30 20 26 24 19 20 14 23 23 21 24 31 20 22 23 28 29 18 24 29 27 17 18 29 27 18 17 23 27 28 21 24 25 35 27 22 22 22 25 23 24 21 20 23 21 23 19 16 14 18 22 22 21 27 28 16 16 25 24 17 19 22 24 22 16 21 19 17 29 25 25 21 21 19 25 21 18 18 19 20 22 21 23 25 24 9 22 28 34 15 17 17 23 15 20 24 24 24 23 25 21 23 18 19 16 26 23 23 22 21 26 16 26 23 15 25 19 23 20 19 19 15 20 15 24 17 19 21 28 19 24 22 24 21 29 22 23 19 21 24 25 25 27 18 27 19 30 22 23 25 21 18 22 19 20 25 26 18 22 23 26 20 25 25 26 19 22 23 21 30 27 22 27 24 25 19 27 21 24 24 17 26 30 18 23 34 22 29 21 19 19 16 26 25 26 25 26 27 17 35 18 15 19 25 23 15 26 24 23 27 15 24 17 26 17 23 19 19 20 24 21 29 18 25 17 26 15 18 20 21 27 20 28 24 17 21 25 30 20 27 21 22 24 21 17 18 32 20 26 29 24 25 21 27 19 23 24 13 15 19 20 19 23 20 14 20 14 21 23 25 31 17 28 18 19 19 27 24 23 27 23 19 15 25 24 16 27 16 17 22 24 13 23 20 22 18 20 20 18 24 23 20 19 24 24 21 27 29 25 21 20 14 30 25 19 19 17 21 31 18 26 21 14 22 17 18 19 30 27 31 25 26 29 17 20 25 23 17 18 21 16 18 23 22 22 18 25 19 24 24 30 20 19 24 12 27 23 28 24 25 30 28 19 21 20 26 27 16 20 14 22 27 27 22 17 31 22 27 20 22 27 21 25 24 19 14 17 18 22 24 18 24 31 19 21 22 24 18 25 20 32 18 18 21 30 18 20 19 22 18 19 22 19 14 18 25 22 15 26 24 22 19 29 21 19 34 26 22 17 19 14 26 24 21 18 21 16 32 28 26 20 21 21 21 26 16 20 19 20 22 25 28 30 25 19 24 25 27 24 11 21 27 18 28 25 17 20 20 14 23 21 16 23 28 26 29 22 21 17 21 26 22 20 17 25 25 32 19 29 20 25 26 21 28 19 26 17 19 19 15 25 21 19 28 22 21 18 18 20 20 26 24 13 25 24 16 18 18 19 14 21 27 25 19 18 18 28 27 25 17 27 24 15 20 29 25 32 22 17 25 30 35 21 22 21 23 29 25 22 24 31 24 24 20 20 15 31 25 21 22 25 19 12 29 18 31 19 25 25 29 24 16 28 18 24 17 25 16 25 24 29 20 32 24 21 23 19 21 31 18 21 22 28 14 17 17 15 27 29 28 29 16 17 22 30 20 16 28 20 17 23 25 20 22 13 22 24 27 24 18 23 22 15 23 23 24 17 25 20 27 22 20 19 28 28 20 19 25 19 17 22 24 21 18 27 27 23 21 16 20 19 18 21 32 19 27 24 23 30 21 30 23 26 24 16 28 27 18 25 16 14 25 17 27 31 17 20 22 24 17 28 26 25 24 28 23 28 28 20 18 18 21 23 22 18 18 19 18 19 18 20 19 16 19 24 23 26 20 15 24 21 19 27 20 21 20 24 21 20 23 24 19 25 24 20 24 18 24 23 19 25 20 19 28 23 21 26 14 20 21 18 17 21 19 16 24 27 21 25 23 19 21 22 19 25 15 22 22 25 23 24 18 35 18 26 24 27 20 26 21 33 22 31 23 22 23 24 20 25 26 21 25 23 23 20 21 23 18 29 15 25 18 16 20 18 20 27 24 19 16 21 23 23 12 23 15 22 16 22 18 21 22 18 20 26 23 18 14 22 22 25 28 30 21 21 25 18 22 24 26 27 25 17 19 21 17 23 27 27 24 27 22 15 17 28 23 24 24 21 20 25 22 17 19 20 29 23 32 15 21 27 22 15 31 20 13 21 22 19 22 13 24 24 26 26 19 24 22 26 19 23 24 26 15 30 20 29 25 24 24 25 26 18 25 14 26 22 24 25 24 19 22 21 20 14 17 21 26 21 20 19 26 23 22 25 17 19 21 22 24 17 26 29 25 21 30 19 16 35 14 20 18 21 20 22 21 28 22 26 16 19 18 22 18 22 27 20 21 14 21 22 29 27 20 23 18 18 28 18 21 26 29 24 17 29 18 24 25 28 22 21 25 16 27 32 19 13 28 19 23 13 25 26 22 18 28 24 30 20 18 22 32 23 21 19 24 21 30 23 28 23 25 26 23 23 19 27 24 23 27 14 27 24 24 28 22 18 16 25 21 24 17 29 23 25 23 23 19 22 24 22 24 23 20 21 25 23 25 28 27 19 28 37 17 30 19 21 32 18 17 15 23 18 17 15 26 18 18 22 22 19 19 16 20 25 14 22 28 26 24 23 28 26 19 32 23 26 24 29 26 28 23 21 21 27 16 20 24 22 31 14 26 20 20 31 24 21 20 19 24 26 27 21 27 24 24 22 28 19 20 19 20 23 15 22 28 20 15 26 28 17 26 16 19 24 29 17 28 20 28 18 31 19 17 21 15 29 26 24 24 16 17 27 25 20 28 23 19 23 21 17 13 20 23 21 22 27 22 22 23 17 17 17 23 23 14 25 17 26 20 16 26 22 21 20 29 14 22 20 29 21 22 24 21 12 26 26 23 22 23 23 31 24 21 18 22 20 14 25 23 21 19 24 21 27 19 24 18 23 23 21 24 22 21 29 17 31 16 20 25 24 30 24 27 19 27 24 24 19 19 14 30 28 26 24 28 23 23 22 18 19 24 25 24 16 13 16 25 26 33 20 19 20 32 33 16 25 24 18 16 26 23 25 24 25 15 17 40 13 20 24 23 26 32 23 23 31 22 23 24 17 14 24 27 23 20 27 23 13 24 21 28 20 24 21 17 22 27 20 16 21 22 29 20 24 18 26 23 24 20 19 31 25 25 17 23 15 26 20 27 26 19 18 25 24 27 21 18 26 21 20 24 28 19 27 21 17 27 22 19 25 22 26 29 19 18 21 15 16 26 21 20 20 23 23 32 16 22 29 23 24 29 13 17 22 18 26 25 26 29 25 17 24 17 12 21 14 21 26 31 20 22 16 21 25 16 23 28 24 23 22 22 24 31 23 23 20 22 17 25 21 27 30 25 18 22 23 30 27 21 25 16 25 19 11 25 17 24 19 22 19 26 27 25 20 22 17 24 19 22 25 18 21 21 21 25 20 23 19 21 17 16 21 29 27 14 21 28 17 23 23 24 22 19 19 16 28 27 31 31 20 15 24 19 15 20 27 15 19 17 23 16 24 17 27 19 24 18 21 18 17 26 24 26 19 28 22 23 23 28 26 16 22 23 12 26 27 33 21 18 21 30 26 26 26 23 23 26 20 28 27 25 30 14 19 22 26 27 13 19 23 32 24 22 13 20 18 23 21 24 26 31 22 15 24 19 21 20 23 22 15 19 16 19 25 32 24 21 14 24 19 19 25 24 18 27 23 18 22 24 26 19 22 24 21 23 24 21 25 25 19 16 19 19 18 24 14 17 15 19 23 24 26 20 17 19 19 27 23 25 13 20 19 24 29 20 19 29 20 17 21 27 22 20 20 21 19 22 18 18 19 25 24 24 15 21 25 17 38 19 19 26 23 25 21 28 20 23 24 20 21 15 16 14 12 17 22 18 22 16 19 22 13 18 27 20 29 19 25 14 20 23 21 16 26 25 23 23 22 20 20 23 16 32 23 16 31 26 23 18 18 27 15 23 23 29 19 28 16 24 19 20 29 13 22 25 16 31 20 31 17 28 21 20 22 21 20 23 20 17 18 18 21 22 16 13 23 22 20 13 22 22 28 17 25 17 22 21 8 11 20 23 15 14 27 26 19 22 26 27 18 23 21 20 23 15 21 19 26 25 22 31 26 29 23 18 19 16 20 18 21 16 23 27 21 26 24 18 23 20 19 24 20 18 20 20 20 13 29 21 17 18 36 19 27 24 24 26 23 27 23 16 25 17 24 19 31 21 27 12 26 21 22 19 29 17 25 26 20 18 28 16 23 29 24 23 25 18 27 30 18 26 22 24 28 15 20 12 23 23 28 24 28 22 18 29 22 21 16 23 22 18 20 20 29 19 22 16 34 21 22 17 17 22 16 17 20 20 23 27 15 22 21 22 19 22 22 15 15 14 26 25 16 27 27 25 22 30 20 20 27 16 19 17 22 22 27 26 24 21 22 13 25 16 25 37 20 30 24 18 20 17 19 27 26 23 19 24 20 19 24 26 24 25 25 21 26 19 24 25 22 28 25 30 22 24 31 21 27 26 19 22 16 21 15 24 22 21 16 28 22 18 19 26 24 23 24 24 23 25 22 25 23 21 27 19 17 26 20 17 18 27 26 21 26 19 25 15 26 21 24 18 20 27 21 20 21 23 23 24 23 19 25 17 21 23 28 25 25 24 19 26 17 20 21 17 27 15 26 25 34 25 20 22 20 20 18 17 18 15 28 12 19 14 27 26 18 22 24 20 22 21 24 14 21 23 23 13 20 30 25 19 25 21 14 34 28 21 18 32 29 19 27 19 25 27 22 25 25 22 23 18 24 19 26 23 23 18 27 19 26 20 27 20 18 25 21 26 21 17 19 20 11 23 20 27 29 18 19 30 19 18 24 29 20 23 25 22 16 18 18 17 29 23 20 24 16 18 14 25 18 20 17 29 18 31 16 16 26 14 26 24 22 21 20 17 15 24 20 25 14 18 27 19 18 25 22 18 20 17 26 13 24 27 24 17 24 20 15 26 27 21 27 25 16 23 38 17 20 23 24 20 29 19 16 22 24 19 23 29 24 21 22 20 24 17 21 21 17 27 29 13 26 19 20 26 20 21 26 18 21 19 15 22 22 18 29 22 19 22 15 24 25 24 19 23 25 29 17 19 20 22 25 22 21 24 17 20 18 26 23 18 24 23 20 28 21 14 18 19 16 27 21 23 28 14 16 29 22 19 24 19 19 26 21 19 24 25 13 22 21 20 16 25 25 24 25 24 25 19 22 23 16 37 17 25 23 27 30 29 24 26 18 19 22 29 21 21 21 21 15 26 15 26 24 18 24 19 26 19 21 28 20 19 27 24 20 26 22 23 25 26 23 25 16 20 23 21 25 22 30 21 12 19 19 19 21 26 18 21 25 14 22 20 19 18 14 25 19 20 22 26 16 23 23 24 28 24 19 27 24 16 26 23 27 29 22 31 17 28 23 17 16 26 20 18 27 26 24 18 18 16 24 25 27 27 20 21 15 23 23 22 20 16 23 11 19 10 26 26 22 16 14 20 19 23 35 17 22 15 19 19 21 20 23 22 21 23 22 22 23 15 24 23 26 22 22 21 24 18 19 26 22 18 17 19 22 23 18 22 10 23 20 22 17 30 17 27 21 27 20 21 18 22 22 13 13 25 25 18 26 24 24 27 19 17 31 24 23 28 18 29 11 19 20 26 21 23 18 28 25 21 26 23 17 22 24 20 31 22 19 23 20 23 27 25 15 16 17 25 23 22 17 24 27 16 19 24 17 32 20 24 20 20 17 17 16 26 21 23 15 25 15 18 25 20 12 24 19 22 21 18 30 29 28 24 22 27 31 25 27 23 22 26 21 22 18 18 21 23 28 30 23 22 23 17 22 18 28 27 20 26 28 28 22 26 24 25 19 13 24 20 28 22 33 19 24 26 25 18 26 22 29 20 27 24 19 18 10 16 25 23 27 33 21 19 25 22 20 20 24 22 18 19 18 18 20 25 27 26 26 19 25 20 19 23 24 16 25 20 16 25 16 13 24 30 22 26 21 24 19 21 17 23 21 18 18 23 20 16 36 27 24 16 24 25 29 26 19 18 19 20 18 28 13 28 21 25 21 23 32 30 21 18 15 23 19 16 22 19 20 26 26 16 21 25 24 32 20 19 24 20 28 25 26 22 25 33 14 19 16 22 29 29 15 24 25 22 25 24 26 24 21 20 22 18 26 21 19 19 17 12 23 20 17 21 22 17 20 23 30 22 22 19 24 17 30 24 25 20 17 18 23 20 18 25 25 24 21 25 23 24 26 22 19 29 19 14 22 20 20 23 17 17 24 28 20 22 24 29 23 23 30 24 24 25 24 28 25 19 22 20 24 30 18 18 23 20 24 30 21 20 21 23 24 11 17 23 25 26 17 16 26 18 19 23 19 22 29 25 21 26 18 29 20 11 19 18 21 21 24 30 29 31 17 24 23 18 14 21 19 31 15 23 28 26 23 21 29 20 22 24 22 24 26 21 17 31 22 23 23 14 23 28 20 28 15 19 23 16 25 24 23 25 25 21 23 31 26 17 22 20 16 21 19 22 23 19 29 21 14 30 24 7 20 26 29 24 21 20 18 19 23 18 25 30 27 27 17 18 23 21 19 23 21 26 28 21 19 21 27 15 20 19 18 26 21 23 25 20 28 23 23 27 26 21 29 17 27 27 29 18 24 18 16 19 19 33 20 19 23 27 19 16 22 23 29 25 19 19 25 32 17 20 29 23 21 22 22 19 23 15 37 25 25 25 24 24 24 20 25 32 24 24 21 21 15 23 23 23 31 17 25 20 18 25 24 24 32 21 19 23 19 23 26 15 25 18 18 19 29 25 20 15 25 18 19 19 25 21 23 12 25 26 22 23 16 23 34 28 13 17 26 18 20 26 18 23 15 25 16 24 18 21 20 24 22 20 25 33 27 24 21 19 16 28 26 21 25 27 25 27 22 18 26 19 25 23 26 23 15 30 21 29 24 17 24 24 32 29 18 14 26 22 17 21 26 21 26 26 21 14 24 19 19 18 33 16 26 25 13 13 24 12 16 15 25 23 24 31 28 22 21 21 24 17 27 20 25 18 21 15 23 26 26 22 21 20 23 29 12 21 20 22 29 11 24 25 23 19 22 18 31 25 19 29 32 24 22 27 20 22 19 20 21 21 26 13 25 22 18 12 17 32 20 24 19 25 16 23 19 14 22 21 20 22 20 23 24 17 20 13 20 15 18 22 16 23 25 17 30 21 24 23 17 23 24 22 21 26 20 21 21 21 18 17 27 30 24 20 26 22 17 17 13 24 24 26 22 20 26 24 18 27 25 20 16 23 24 16 13 21 23 23 23 23 23 17 26 29 21 21 28 18 15 20 28 25 20 23 20 27 25 29 19 15 13 18 16 23 22 21 19 21 27 25 14 19 22 24 22 20 20 20 27 27 17 25 25 25 23 17 26 27 15 16 31 14 23 26 10 23 26 19 29 24 23 27 16 22 25 20 16 21 12 18 18 18 21 22 23 15 22 19 19 18 29 19 9 25 20 21 27 20 27 15 21 25 19 23 23 16 19 17 31 21 20 23 20 18 19 20 25 19 22 20 19 22 22 20 22 30 27 14 24 28 24 26 15 24 20 21 23 22 18 20 18 22 17 20 20 26 20 32 28 21 22 21 21 20 27 20 17 18 27 23 21 16 21 25 19 24 15 21 25 29 23 19 15 24 27 22 24 16 21 22 18 27 19 31 23 21 26 22 25 19 25 30 18 22 25 21 30 18 24 29 24 17 21 23 17 20 20 18 22 25 19 17 20 29 28 26 21 30 25 26 13 17 22 22 25 13 21 25 21 32 16 21 22 17 13 21 23 21 18 22 24 24 20 23 24 23 23 15 26 29 20 20 25 20 18 22 19 21 21 27 24 19 15 18 23 22 17 27 25 21 25 26 17 23 16 18 24 22 34 26 25 28 18 16 18 26 21 23 20 19 24 20 21 28 23 26 22 29 18 25 22 25 26 30 23 17 22 27 29 22 19 27 20 29 15 14 24 21 15 25 26 20 30 27 19 19 20 24 33 25 24 17 30 27 18 27 20 30 22 24 18 29 19 19 15 20 25 23 18 27 25 33 28 23 17 13 16 30 14 25 31 24 17 24 22 29 27 22 25 34 24 23 24 26 25 23 22 24 26 28 33 17 21 13 14 19 20 18 15 21 20 19 15 24 21 15 24 24 26 17 17 20 20 19 29 22 24 18 22 29 22 31 16 23 27 19 16 39 27 16 16 22 24 21 19 20 19 24 24 21 15 28 27 20 17 24 32 19 25 21 27 26 9 26 16 21 19 23 10 26 17 32 16 19 20 25 24 17 25 23 14 19 18 21 16 25 17 19 22 26 34 25 26 25 17 26 16 18 19 22 25 21 21 32 24 19 31 22 21 24 17 21 24 17 16 18 35 18 23 26 22 27 22 19 17 22 25 16 17 24 23 26 23 27 26 20 26 17 17 23 25 22 26 19 13 22 25 23 21 26 22 22 12 16 26 19 29 23 15 30 20 20 22 18 19 24 26 17 19 26 23 22 31 24 23 24 37 15 20 20 28 19 17 27 20 17 19 26 29 21 29 18 23 17 24 31 24 29 25 22 13 22 20 21 23 24 20 20 26 17 27 25 20 31 28 15 23 26 22 27 24 17 23 16 21 16 20 27 24 21 19 18 22 21 21 23 23 29 20 21 30 26 28 22 20 20 26 21 22 23 23 22 24 22 19 20 19 21 17 17 27 16 17 14 26 19 19 14 20 21 29 21 28 21 22 16 21 24 18 20 23 19 28 23 27 24 24 16 25 25 22 21 22 32 20 23 24 17 25 27 22 28 29 27 15 25 30 26 24 16 26 25 22 13 30 24 19 19 27 26 26 15 23 14 15 18 14 21 20 20 25 23 26 25 21 25 22 22 19 26 21 28 16 15 28 25 22 26 28 22 13 18 19 24 27 29 25 19 27 24 21 23 20 24 26 18 17 25 21 25 32 14 22 19 24 30 17 16 19 27 23 23 18 21 27 28 22 28 29 21 14 23 21 13 14 20 20 22 23 21 24 24 22 22 20 22 28 12 19 16 22 19 13 35 27 19 24 25 23 25 18 29 27 26 16 22 18 15 18 17 24 14 18 21 19 26 27 29 27 19 20 21 22 18 21 20 30 28 25 23 23 20 21 14 25 19 23 21 33 18 16 14 21 17 21 15 20 19 21 18 21 22 20 28 26 19 19 29 36 26 22 25 15 18 18 25 22 17 31 22 19 20 20 18 17 31 25 19 15 23 20 21 21 18 33 28 25 26 22 25 15 21 19 18 19 21 27 22 18 25 18 22 18 16 26 29 16 17 26 22 20 10 25 16 23 24 26 32 22 26 25 26 23 20 21 17 24 21 20 18 21 16 25 26 13 19 21 17 19 20 23 22 21 27 24 16 22 29 22 19 18 22 27 23 20 23 17 22 18 22 19 24 21</t>
-  </si>
-  <si>
-    <t>NIG(85.56042890020359, 66.91666330665271, -0.8116202927848459, 26.90060108235842)</t>
-  </si>
-  <si>
-    <t>36 25 28 30 32 26 34 33 33 34 30 32 30 39 32 32 40 29 22 38 38 33 43 37 37 32 30 30 39 28 34 28 31 42 31 41 30 38 28 36 35 28 25 31 31 32 30 22 23 36 35 25 34 44 27 33 37 24 34 26 35 26 27 23 27 31 32 30 33 27 30 30 26 31 38 32 22 39 42 22 43 27 34 24 32 38 25 32 26 33 36 34 30 40 28 27 30 26 32 48 29 32 35 26 37 40 35 34 31 36 37 35 29 32 37 40 21 31 32 34 36 28 48 25 30 37 35 28 20 48 40 23 34 26 30 32 40 36 32 30 35 31 33 35 33 29 35 29 28 42 31 32 40 31 37 32 23 31 29 28 34 22 36 33 40 19 32 25 31 37 47 31 30 45 35 34 39 36 42 24 28 43 33 31 28 50 31 31 37 31 26 30 30 29 27 36 33 24 27 26 43 39 38 34 39 31 39 40 37 32 36 41 35 23 35 34 20 27 40 24 28 28 26 32 27 35 32 32 48 37 31 33 25 32 38 37 35 34 32 44 37 29 33 38 27 33 23 30 25 30 40 38 33 34 41 23 32 34 33 41 31 40 30 35 25 25 27 34 31 20 34 36 26 23 34 33 28 33 36 27 27 39 34 36 31 39 41 51 29 35 22 32 33 36 32 26 29 33 32 40 26 43 35 26 39 28 37 26 35 30 31 31 28 27 38 28 35 31 37 24 31 24 40 33 30 32 43 33 31 36 29 25 38 30 36 30 26 28 30 39 21 34 39 34 32 36 30 38 32 29 25 29 28 41 33 42 29 34 31 30 46 27 41 28 33 26 41 30 40 37 26 38 20 39 36 34 33 38 49 28 27 35 34 29 23 29 35 26 35 28 31 30 37 24 35 28 28 39 43 28 39 28 38 31 29 30 36 31 27 32 35 29 44 42 34 26 40 36 28 23 22 29 42 30 26 38 18 34 46 33 37 39 28 27 43 33 31 28 28 39 41 37 35 34 35 32 43 32 41 41 42 31 27 31 34 33 25 32 36 32 33 28 32 47 32 25 37 29 29 21 21 39 28 43 39 25 27 38 30 36 35 26 45 34 31 34 26 32 33 35 31 31 32 25 34 37 29 33 33 34 44 31 30 33 41 37 39 32 36 33 49 34 27 41 23 36 34 20 31 34 34 35 37 34 29 27 41 35 26 26 31 42 35 21 43 37 30 41 23 33 39 32 26 38 36 37 42 33 25 27 28 33 28 34 32 31 30 40 40 35 29 44 32 35 32 37 32 31 28 43 23 35 28 29 26 35 29 31 42 34 37 28 41 28 45 38 35 35 31 31 33 25 32 28 35 44 35 38 28 34 42 25 34 30 32 27 34 24 25 36 37 32 32 38 36 34 41 33 32 21 33 30 34 25 34 39 33 37 33 36 33 31 41 38 31 32 41 38 26 39 37 34 26 48 29 49 36 36 44 29 45 33 32 30 38 46 44 31 39 38 33 37 42 39 33 36 28 31 31 31 33 32 32 27 30 29 40 35 32 33 33 31 30 36 35 29 21 25 29 38 31 31 42 22 30 25 38 32 39 44 33 42 22 26 41 34 33 28 31 30 50 33 24 28 28 34 45 30 31 32 21 30 35 37 27 36 32 32 30 28 31 29 34 32 36 37 28 30 40 30 29 41 32 28 36 33 31 37 31 35 30 34 32 42 33 32 32 35 32 38 34 33 34 30 35 29 33 28 35 31 18 33 29 24 42 29 22 33 39 31 26 26 28 45 35 37 34 31 22 48 37 21 32 23 37 34 39 31 45 33 33 37 39 36 26 28 33 24 46 30 19 33 37 28 31 36 38 29 36 34 34 29 27 39 40 30 27 29 21 32 52 33 29 34 28 34 26 39 44 23 27 35 26 41 37 36 33 39 27 31 33 25 33 34 36 43 33 28 44 28 34 35 28 32 34 30 23 19 36 26 46 26 36 21 29 35 33 46 25 28 36 33 25 42 26 36 35 30 32 26 24 25 31 31 33 37 32 35 32 35 34 42 39 34 37 38 39 42 32 37 39 37 31 30 25 50 35 32 38 33 28 22 26 30 36 42 35 29 32 30 23 36 29 29 25 34 37 27 30 33 36 41 34 25 28 45 32 27 29 40 26 33 31 27 38 49 43 31 31 32 31 36 32 34 30 42 27 37 29 40 29 28 37 34 23 37 36 31 28 35 38 32 25 44 38 29 33 31 27 30 37 42 38 38 33 38 35 32 24 26 33 24 40 24 35 32 37 29 36 49 36 29 35 32 44 32 27 41 41 35 41 33 33 23 19 48 34 23 30 34 26 32 38 36 43 29 37 37 43 28 33 30 27 30 35 28 25 38 27 44 20 29 31 26 31 31 29 34 32 31 29 30 30 28 31 30 32 39 32 21 37 43 25 38 38 32 40 38 34 35 36 37 20 31 26 39 26 44 35 32 22 35 37 27 21 34 29 21 38 37 28 32 23 28 32 24 42 33 29 30 34 28 28 23 22 27 33 38 38 35 18 42 41 34 35 39 30 33 30 47 31 31 28 38 26 31 29 39 31 40 28 30 31 25 34 30 31 36 28 35 34 34 33 26 25 39 30 35 31 45 29 36 30 34 39 32 30 27 26 33 45 41 28 29 30 32 34 34 25 23 31 27 29 30 18 32 35 33 35 24 41 37 33 36 36 39 29 36 44 35 30 34 22 34 33 31 27 28 30 31 38 32 32 29 38 35 36 45 34 38 34 35 32 23 36 45 21 36 35 45 33 30 31 33 33 26 37 42 35 30 30 45 30 30 33 39 41 31 32 37 27 38 33 32 26 45 34 23 28 32 27 22 28 38 39 42 36 35 34 35 33 35 31 32 36 34 27 38 23 27 38 26 32 39 37 30 31 27 39 38 38 45 37 36 28 33 23 28 22 33 25 38 26 32 26 53 21 50 35 27 41 24 31 40 33 30 39 40 29 42 26 42 39 33 35 46 41 34 27 32 45 35 30 35 41 32 33 26 36 33 34 31 41 22 36 26 22 42 38 21 36 38 34 39 36 36 33 27 39 35 31 33 33 42 32 40 32 35 24 24 34 31 38 29 25 28 46 41 36 37 28 38 34 23 32 25 31 32 33 36 36 31 32 58 47 40 36 36 25 29 33 33 36 25 28 23 37 30 29 34 43 29 39 34 24 34 38 25 33 45 38 33 33 40 45 30 32 26 37 24 34 33 37 32 27 35 42 50 27 31 35 36 28 35 37 38 39 30 34 17 39 34 40 34 29 32 24 27 44 32 18 27 43 28 36 30 27 33 20 36 32 28 33 26 27 27 31 33 35 35 38 37 31 25 38 31 27 39 34 39 36 24 31 25 42 25 49 38 41 36 26 39 31 31 32 45 40 45 32 32 49 40 32 29 36 36 33 39 28 33 22 25 41 35 29 34 36 35 33 44 31 38 26 28 38 29 30 34 30 21 44 29 33 30 28 30 54 37 22 35 27 25 37 28 32 31 38 37 33 39 47 33 30 40 22 41 28 41 26 32 25 32 36 30 36 32 32 37 28 25 31 34 35 34 37 36 30 22 23 31 35 27 29 35 28 38 24 45 30 31 32 45 30 43 25 28 32 37 47 25 30 34 37 40 36 46 31 35 35 29 40 28 37 31 33 38 39 45 41 48 34 30 44 34 25 32 21 32 30 36 29 35 31 34 34 33 29 37 40 33 28 39 27 23 37 28 36 37 30 29 21 43 33 21 35 24 29 35 36 36 24 27 31 24 33 33 34 33 33 27 40 28 42 24 30 29 36 42 38 23 28 24 44 29 28 30 32 23 38 31 25 33 22 34 38 38 33 29 24 36 34 30 27 46 50 28 37 36 34 33 26 32 36 43 42 30 35 51 33 29 28 31 36 53 27 30 46 39 30 34 40 32 43 37 41 37 26 37 33 30 31 23 31 28 37 33 28 33 37 22 40 31 34 29 22 17 36 42 29 28 31 45 35 34 31 35 37 33 42 34 27 31 41 33 50 33 38 35 30 41 26 41 38 34 22 28 36 39 39 34 24 38 31 32 33 38 45 25 32 31 36 36 21 32 44 27 35 32 33 27 35 27 33 43 43 28 40 38 29 45 27 30 23 27 31 34 38 33 29 42 45 26 24 37 36 27 38 39 24 34 36 41 28 31 33 37 38 27 32 40 28 26 30 30 29 37 34 38 37 33 25 45 31 34 30 47 29 41 36 42 34 37 38 25 27 27 25 31 38 27 36 30 29 35 38 33 44 41 41 31 37 23 32 38 52 29 22 31 49 33 29 29 32 28 21 35 32 19 35 30 39 26 31 29 29 27 28 42 35 32 28 35 34 34 34 34 26 20 31 39 35 35 22 36 38 25 26 34 25 36 37 24 39 31 30 33 30 49 53 32 34 27 35 30 37 29 34 35 45 32 32 39 32 25 26 33 45 27 30 44 32 33 38 29 31 34 38 28 43 45 25 32 33 27 31 46 33 45 33 33 32 45 35 36 28 24 33 31 31 40 26 28 32 31 37 25 28 27 26 31 35 20 21 33 38 39 42 37 30 37 27 39 51 27 39 34 19 29 31 23 24 39 44 36 34 32 29 22 31 38 44 35 38 32 33 44 27 25 28 38 33 30 26 42 32 35 29 27 44 38 30 25 33 36 36 39 36 30 41 42 30 27 42 23 32 40 36 44 40 34 27 42 35 33 34 40 47 39 36 37 35 26 38 29 27 37 37 33 30 38 22 31 48 29 39 25 29 35 34 39 29 24 27 36 34 34 33 30 32 40 30 23 45 30 29 44 39 26 49 37 34 32 43 38 31 35 32 33 28 38 29 44 35 24 28 36 36 44 31 25 45 24 41 34 31 26 33 39 31 29 39 25 25 38 27 40 28 36 28 34 35 32 27 38 25 24 42 25 38 34 28 36 31 34 33 35 37 34 29 32 42 29 41 44 38 29 34 27 35 39 35 32 39 42 29 44 29 36 41 30 29 30 45 34 48 27 33 32 41 29 44 34 30 30 25 25 34 27 36 29 33 24 34 35 28 32 29 39 32 31 41 38 33 23 35 32 38 45 32 33 26 33 28 24 21 38 34 37 28 34 41 29 38 23 33 38 34 35 23 39 34 39 32 29 47 27 35 35 27 44 30 32 38 30 29 37 19 42 37 26 28 34 31 33 32 28 29 25 38 51 21 37 30 34 47 31 26 22 37 35 33 35 36 24 30 32 20 35 48 42 27 40 31 26 33 28 29 35 45 32 32 34 37 19 30 35 36 29 24 27 35 31 32 36 31 39 26 28 23 30 30 38 24 36 36 33 25 34 37 25 29 29 33 37 34 25 30 39 41 37 34 34 35 32 31 48 35 30 33 33 26 31 36 29 34 29 39 27 24 48 29 24 34 33 27 34 33 33 30 30 31 38 37 45 32 26 30 31 27 38 31 35 34 40 37 40 37 41 28 37 34 40 28 22 34 41 28 39 30 33 34 44 36 36 34 33 28 37 36 27 29 37 37 35 26 29 33 29 35 28 38 31 28 18 40 33 30 35 35 22 44 37 45 29 30 34 33 33 20 38 30 33 32 34 46 30 35 38 44 32 32 31 28 35 29 39 37 41 35 28 31 37 20 32 25 38 30 24 32 23 23 23 31 31 30 35 33 29 36 29 24 29 34 42 35 30 36 28 39 43 40 38 32 25 25 45 28 34 32 32 29 36 22 29 38 36 43 42 32 30 25 38 38 28 40 30 39 35 38 29 33 38 49 34 24 31 25 38 40 33 32 39 33 27 42 38 41 34 25 32 31 40 39 32 37 34 35 32 38 28 39 29 34 40 29 20 26 35 33 26 33 32 36 29 41 28 26 44 34 34 32 27 37 39 33 29 33 33 36 29 23 26 26 36 36 30 37 33 36 34 31 29 39 29 25 35 32 30 44 26 33 34 34 30 24 33 34 31 20 27 29 26 25 31 35 38 40 39 34 35 42 40 34 30 27 32 33 36 27 23 35 39 35 37 23 38 34 33 39 35 44 26 36 34 33 43 36 32 27 30 25 29 30 30 40 35 33 35 23 40 27 27 36 28 30 38 29 40 41 29 30 31 32 28 28 31 34 32 40 29 31 32 35 36 30 42 32 31 33 35 32 34 28 29 21 29 35 34 41 34 36 30 41 32 25 24 30 27 45 41 30 25 34 30 39 37 39 24 33 27 32 34 38 33 35 27 37 26 41 39 45 35 33 32 36 28 29 31 29 41 32 28 30 52 29 36 41 36 37 27 43 41 28 33 35 36 40 30 38 45 26 37 42 35 39 29 23 33 29 32 44 41 27 29 39 27 34 35 26 39 37 36 31 42 26 41 19 34 24 26 31 39 41 27 37 29 32 36 35 32 36 34 27 27 47 32 28 33 31 23 31 34 32 37 33 48 26 38 27 38 39 28 43 30 32 32 29 27 35 39 42 33 40 39 35 40 24 27 30 24 23 32 36 38 30 20 40 39 18 35 28 37 36 42 39 38 36 34 34 36 39 33 29 38 29 34 22 44 29 33 28 37 37 32 23 40 29 28 38 43 40 37 39 39 37 27 32 29 33 42 26 31 32 41 27 34 35 43 45 26 31 25 31 35 36 28 33 31 43 38 28 28 34 32 25 35 30 36 45 29 29 35 41 25 36 32 27 36 43 30 37 29 40 29 30 45 41 29 26 28 37 31 35 33 24 36 29 35 27 39 29 44 24 33 41 32 38 23 31 35 35 36 37 40 23 30 28 49 36 28 31 29 49 37 31 31 23 26 32 35 29 30 27 32 25 35 31 27 31 31 33 24 26 36 32 33 30 28 40 34 37 38 37 30 31 39 46 32 22 40 37 36 29 46 34 28 28 30 31 38 33 36 36 36 31 31 32 32 47 29 34 30 34 34 34 34 30 38 44 33 33 27 33 30 40 33 40 30 36 32 42 38 31 37 30 33 29 36 45 24 31 34 40 31 39 28 30 34 35 39 41 39 34 26 27 30 35 37 38 30 27 35 28 40 35 37 37 29 28 35 36 36 27 27 34 21 25 37 40 32 32 32 31 36 34 27 41 32 33 34 30 45 44 27 30 42 44 34 41 38 29 32 24 31 29 35 32 22 34 31 24 31 32 29 30 22 28 37 45 48 38 37 29 38 28 31 39 32 28 29 36 39 29 34 35 29 31 29 31 33 34 29 36 35 36 31 30 28 31 30 45 32 33 26 37 21 26 25 34 32 39 33 26 41 35 35 38 30 25 38 32 22 44 34 31 31 44 29 28 38 32 31 26 35 33 34 27 36 27 34 26 34 42 28 36 31 32 25 41 24 31 35 30 30 30 36 33 28 30 33 34 35 37 27 35 43 30 31 43 30 32 30 39 37 46 36 26 32 30 31 32 32 39 24 25 23 26 31 33 42 43 29 21 30 37 32 30 34 35 46 30 37 29 32 33 40 31 22 27 28 32 38 36 31 32 34 37 25 35 26 31 29 35 43 39 23 42 28 34 35 42 37 26 30 32 40 20 40 38 22 27 34 41 32 37 31 30 31 24 45 31 29 27 32 30 43 32 39 31 36 34 30 26 30 37 34 30 30 33 42 30 37 37 28 35 31 24 30 30 30 26 37 32 33 35 36 51 47 29 29 33 30 34 48 29 36 22 31 31 41 42 36 38 37 38 45 37 33 42 27 39 30 30 34 33 37 31 47 31 37 30 28 33 31 44 31 34 27 32 40 34 25 29 50 37 44 34 24 42 29 29 43 30 31 26 30 33 26 31 32 33 36 43 37 39 39 27 20 36 33 32 34 40 32 35 25 32 41 43 32 31 34 26 32 36 26 37 36 21 35 28 39 28 28 22 39 43 30 27 36 23 24 25 33 31 29 27 41 21 24 30 43 25 28 28 31 30 34 28 20 24 27 35 25 37 34 36 32 24 30 32 24 31 31 41 36 38 23 32 49 33 38 35 28 52 38 32 38 28 39 27 28 36 32 34 29 40 26 26 30 31 25 27 35 25 25 37 32 29 33 40 40 39 36 25 40 28 25 28 34 36 28 35 26 17 34 28 27 28 28 39 18 25 23 31 33 27 36 31 34 29 28 31 29 32 39 30 45 47 36 32 38 31 40 41 22 23 25 41 31 22 38 25 38 35 28 38 23 35 21 28 26 38 24 36 35 30 32 32 36 24 24 26 32 28 24 37 39 37 28 29 27 29 33 33 34 49 25 25 37 32 37 39 36 32 27 41 22 35 43 30 28 34 32 28 36 27 34 25 25 35 32 29 30 32 35 36 23 32 41 37 32 38 43 26 38 40 38 33 28 31 28 29 32 31 17 30 27 25 35 27 31 27 28 24 38 29 32 28 30 39 30 25 40 30 39 30 18 37 26 34 32 37 33 36 32 31 36 28 30 37 49 30 32 27 42 40 33 33 32 33 33 29 44 32 38 38 33 30 30 34 35 32 31 23 30 24 36 31 32 28 36 35 33 29 42 46 38 34 47 28 40 30 44 22 42 34 29 26 48 49 55 28 41 29 30 43 38 29 32 24 28 33 28 25 26 34 29 33 30 28 36 37 32 40 27 32 28 33 25 39 31 32 29 28 36 31 30 40 23 34 28 34 42 35 28 29 29 36 26 26 29 32 30 24 38 31 35 35 31 37 42 28 28 39 26 27 32 30 41 33 40 32 30 33 27 33 40 31 39 39 31 37 31 31 25 27 41 34 30 29 35 40 45 30 33 34 29 34 28 37 25 23 43 27 25 41 33 34 23 35 26 26 44 26 28 45 26 28 35 28 35 25 26 25 28 31 30 33 38 43 24 29 30 30 34 25 36 39 32 29 39 35 33 28 31 24 30 32 35 38 32 26 30 39 31 29 35 28 37 32 34 21 39 29 29 30 36 33 40 27 32 34 36 30 38 32 31 24 30 29 27 32 39 41 37 25 35 27 42 35 29 29 40 38 29 30 25 31 27 28 32 27 35 28 31 26 31 32 36 44 33 37 44 39 42 26 30 38 29 26 42 33 31 28 28 28 26 31 31 41 20 28 31 33 39 30 29 39 35 36 29 35 29 40 35 32 39 32 37 35 38 29 44 50 33 31 30 26 39 31 32 31 22 28 31 41 36 34 31 35 33 27 31 37 31 28 33 33 39 35 28 25 33 33 33 29 34 32 29 31 37 31 47 33 28 33 40 27 28 36 35 34 28 27 36 37 43 32 38 33 37 31 41 24 30 50 27 27 34 35 37 28 31 38 35 36 31 33 34 41 33 34 30 37 34 29 42 34 40 34 35 28 39 31 27 36 36 38 29 41 34 29 36 39 45 33 25 49 30 38 34 37 32 22 34 48 32 38 31 35 23 27 37 29 28 36 26 27 46 29 26 37 30 20 34 42 23 25 29 32 30 27 30 27 38 31 31 29 32 34 25 26 46 31 37 35 28 40 37 30 31 31 28 27 31 40 24 24 27 34 24 30 35 28 29 29 37 29 26 26 33 32 34 30 32 34 35 38 31 38 26 28 33 42 32 31 30 39 33 26 30 28 40 36 27 31 44 42 29 36 35 21 30 34 28 36 31 39 40 27 37 37 32 40 24 31 35 35 36 30 33 30 29 27 43 32 44 26 43 40 34 37 35 39 45 43 38 36 31 22 27 39 31 24 31 37 38 27 33 40 30 34 41 30 27 17 37 41 30 33 14 23 37 36 35 29 31 31 27 52 27 25 31 33 43 30 46 41 35 34 33 41 38 33 48 36 29 34 31 28 44 30 26 32 26 34 33 33 34 44 31 40 34 33 29 23 27 27 33 37 35 35 33 37 31 39 31 34 32 37 36 29 29 40 45 30 35 35 31 34 25 26 36 24 22 29 30 28 30 22 33 41 30 35 30 39 27 33 32 28 24 39 33 20 30 37 35 30 29 31 25 32 36 45 32 24 31 30 41 33 31 35 26 30 38 27 43 37 34 38 39 32 45 44 30 37 52 27 32 42 28 26 34 28 35 26 39 34 29 33 23 35 33 30 30 33 41 25 38 29 28 37 39 24 45 44 24 40 35 31 25 34 38 25 25 27 48 38 35 27 36 30 29 32 33 27 34 24 34 29 31 29 32 39 36 33 34 37 35 40 53 35 37 30 27 46 39 43 40 28 29 27 39 29 48 32 27 38 30 34 33 40 36 38 41 36 33 31 39 42 39 40 32 39 31 27 27 32 46 20 33 28 44 34 41 28 42 34 26 33 42 35 36 39 29 34 40 31 29 32 29 55 21 40 41 27 37 27 25 28 22 24 31 28 28 35 37 33 41 28 36 30 34 35 41 31 34 49 33 32 31 34 32 47 34 28 35 27 40 45 30 36 28 23 27 31 35 27 39 29 27 34 38 30 24 41 28 17 29 29 39 27 40 31 39 34 30 28 37 33 35 33 34 34 33 23 29 29 29 36 33 32 32 28 32 32 28 27 34 35 28 36 46 32 29 39 40 43 34 28 31 29 35 32 35 34 32 27 37 32 34 33 35 34 35 41 42 31 37 36 34 35 36 36 39 51 34 22 27 30 33 34 25 39 29 38 24 29 26 32 32 38 30 31 26 26 28 26 37 40 35 40 26 17 42 42 34 26 21 33 41 31 29 27 24 23 41 31 28 29 49 33 33 30 26 39 27 23 34 30 31 38 38 30 38 49 34 32 39 47 34 33 31 29 20 38 30 36 41 33 40 26 29 32 35 40 33 34 44 41 36 40 39 27 37 31 31 32 35 32 32 28 28 26 31 29 30 31 34 24 34 27 30 38 31 30 34 26 28 39 28 27 44 28 35 37 42 36 43 34 41 40 25 28 32 28 34 29 27 30 44 34 30 36 38 34 30 37 28 34 30 39 29 37 28 46 31 29 41 35 28 26 39 34 35 24 26 40 42 33 38 47 36 32 32 39 28 35 34 36 31 36 33 20 44 30 28 31 34 34 37 39 34 20 35 46 24 31 34 36 32 46 31 32 34 29 38 40 23 37 19 43 35 23 31 35 38 31 30 40 28 28 38 34 35 25 31 20 46 21 29 26 33 36 26 29 30 36 28 40 37 43 24 35 36 37 29 31 41 31 27 26 27 29 34 28 31 24 40 30 32 45 28 38 52 42 28 44 32 30 28 28 41 27 34 30 28 41 35 27 32 30 30 33 32 36 26 28 19 30 25 34 34 30 30 36 39 34 25 42 40 43 41 34 32 31 33 40 43 36 41 41 25 35 25 37 36 31 36 31 38 32 35 34 23 43 37 31 40 29 30 41 40 28 29 25 41 33 42 27 30 32 27 35 29 50 36 31 42 24 33 37 32 25 44 43 39 38 42 36 34 42 38 28 24 30 41 29 44 39 29 32 24 41 32 33 32 32 45 32 39 36 37 34 31 31 37 36 32 28 33 29 32 37 39 33 36 41 32 27 29 31 35 31 32 27 31 35 25 42 40 29 37 35 26 28 36 40 30 30 40 35 44 35 35 35 30 38 28 33 32 38 32 32 39 27 24 28 34 40 29 27 24 34 33 25 28 33 27 28 34 28 38 39 30 42 33 34 31 27 39 24 30 39 37 37 40 28 36 42 16 31 30 35 34 40 35 31 36 39 27 51 39 29 28 30 26 37 45 27 37 30 34 35 27 26 25 36 32 33 27 44 34 30 39 29 24 38 29 29 32 29 33 29 33 31 32 34 40 34 39 27 24 27 24 37 46 36 41 32 32 39 23 34 37 24 35 32 27 28 41 26 34 30 33 40 27 28 31 38 33 37 38 26 36 40 37 40 35 27 30 34 29 28 37 44 31 35 32 40 26 32 28 28 26 30 30 25 31 29 36 33 38 32 45 38 33 30 37 34 37 34 35 33 37 34 25 30 37 33 48 36 28 31 30 23 34 40 37 25 27 21 30 28 36 29 28 39 34 29 38 40 41 34 28 36 38 38 36 29 29 32 37 33 31 32 26 23 35 32 31 35 44 30 41 28 30 30 35 27 39 37 35 27 20 32 36 33 34 35 36 29 31 22 22 21 24 35 34 43 34 35 36 34 32 42 35 25 27 32 45 34 44 35 28 32 28 35 27 42 42 21 29 35 38 32 35 24 39 42 32 32 27 20 19 27 28 29 33 31 40 30 26 29 28 30 21 38 25 32 26 36 30 35 33 32 25 29 30 32 34 29 43 29 32 28 31 32 33 33 37 30 29 28 46 32 28 20 30 28 29 31 36 32 37 27 25 41 29 29 33 39 44 44 22 24 35 31 24 37 26 25 39 29 26 40 29 33 29 24 26 26 29 34 24 36 30 31 28 26 38 29 32 29 40 31 33 26 30 38 32 30 44 26 22 39 31 44 36 36 32 29 28 35 19 34 36 30 40 45 33 45 33 38 35 32 35 44 32 35 31 30 34 28 31 30 28 34 34 27 29 31 41 30 36 30 34 30 40 33 36 37 32 33 24 28 32 41 32 34 36 39 33 23 31 35 29 26 41 47 23 33 34 22 26 43 35 38 29 36 42 34 28 27 36 33 33 35 34 40 38 37 36 27 26 25 28 39 38 34 33 32 29 30 37 36 31 24 30 31 40 37 40 24 31 39 23 43 38 29 26 36 34 45 28 29 43 34 30 21 30 32 30 27 28 37 24 31 33 29 28 38 35 33 34 42 37 32 40 35 26 25 33 30 34 29 43 35 33 31 30 36 35 33 32 27 37 40 38 32 34 30 29 32 30 29 28 36 36 35 29 32 38 47 21 31 37 36 27 30 36 31 36 42 35 32 31 45 35 29 26 31 36 21 27 27 34 23 33 29 34 31 38 22 37 43 44 35 18 34 29 27 30 34 40 26 27 22 34 38 26 30 40 32 31 32 25 38 32 32 28 34 34 37 32 44 29 38 36 25 39 33 30 30 23 32 29 31 29 37 31 38 32 39 23 34 39 24 39 32 25 27 33 25 39 30 32 33 41 33 29 35 24 32 30 39 40 33 28 28 30 29 28 35 29 28 22 35 37 39 37 35 34 31 20 34 29 41 46 37 29 26 42 39 24 31 30 30 37 37 34 25 39 24 37 21 25 41 40 20 26 34 41 36 33 43 32 31 31 23 46 40 40 29 41 28 41 36 37 36 40 30 28 29 29 37 27 34 28 39 30 32 33 50 29 33 27 32 29 30 36 35 36 33 29 27 29 38 28 27 35 30 33 30 33 42 30 48 28 27 41 33 31 35 35 31 23 35 36 25 38 44 40 31 31 40 39 22 31 41 42 26 28 44 41 27 27 39 45 42 33 38 40 48 44 31 32 29 34 31 38 28 28 30 30 34 29 23 25 29 34 26 28 40 39 23 31 33 33 25 40 37 35 34 25 28 26 28 41 40 39 35 30 30 34 30 25 28 38 31 35 36 31 33 35 20 30 41 50 20 30 23 33 22 26 37 35 33 30 29 27 33 26 28 29 35 34 33 29 27 38 27 41 38 30 35 28 39 34 26 30 24 34 28 34 28 28 35 36 32 35 35 34 31 44 28 37 35 29 33 44 44 36 33 38 38 39 36 35 35 32 28 29 29 25 47 43 28 30 32 36 36 41 38 41 31 30 34 41 41 38 39 39 31 37 28 41 31 34 39 23 37 41 32 30 47 34 41 34 24 28 30 39 33 36 35 32 38 22 46 23 24 28 31 33 27 38 40 32 35 31 27 30 38 29 34 23 28 28 28 33 44 27 37 28 39 24 26 34 30 31 29 36 31 27 31 34 38 31 35 34 27 39 29 39 31 41 31 38 34 30 38 33 41 28 31 29 24 27 28 30 32 42 33 24 30 30 25 35 38 45 30 38 23 29 31 32 37 34 44 29 30 29 30 34 30 46 24 32 34 33 24 29 29 32 32 32 33 27 32 37 27 33 29 37 30 45 42 32 32 27 25 38 39 33 24 28 26 46 31 37 26 29 30 32 27 26 40 45 43 39 44 35 26 25 31 37 24 30 26 28 37 36 32 28 28 36 33 34 34 40 30 33 31 27 35 29 33 37 30 44 38 29 34 34 32 38 22 32 30 29 33 42 30 32 45 39 44 35 30 36 25 38 41 32 23 32 24 36 33 26 34 48 24 37 32 35 28 34 29 37 30 34 34 42 30 34 29 31 29 27 33 35 23 29 37 32 30 34 35 30 32 36 32 29 53 39 33 30 32 23 29 37 35 21 28 28 41 40 44 25 35 29 39 36 24 31 35 32 30 41 42 41 34 28 37 41 44 34 27 30 41 29 43 34 29 29 38 30 35 29 24 33 40 42 36 28 41 30 29 34 33 26 27 39 30 40 29 43 30 36 41 27 37 31 40 25 36 31 26 32 36 32 39 28 35 22 32 34 37 34 32 22 32 33 25 30 30 28 27 28 38 37 26 30 36 36 36 31 32 42 35 27 26 33 36 43 36 26 34 35 48 30 29 35 35 38 31 32 45 43 45 35 33 30 24 43 45 33 37 31 26 24 38 22 49 31 32 39 39 33 33 40 28 32 26 32 26 37 32 37 27 43 36 38 31 35 33 43 24 27 29 32 25 26 25 28 36 42 35 37 24 30 32 40 30 20 39 36 22 30 33 25 37 19 27 34 41 31 24 32 30 26 40 33 33 33 36 32 38 37 35 26 41 39 31 37 40 35 25 25 35 32 35 38 38 36 36 22 31 35 32 28 44 33 36 31 36 46 41 41 31 49 30 27 41 45 36 37 25 23 35 35 34 44 32 34 33 37 25 45 43 28 37 41 31 37 36 31 28 27 29 34 35 27 24 29 21 29 24 25 32 23 29 34 35 46 31 34 32 28 33 32 29 27 33 35 28 28 32 41 24 37 34 23 29 29 34 34 29 37 27 30 40 35 34 35 25 34 28 35 26 31 33 30 39 34 30 33 36 26 33 31 37 38 23 33 30 41 39 35 25 46 29 41 32 43 30 43 31 47 32 49 33 33 35 39 29 35 36 34 37 33 32 31 26 29 35 33 25 38 32 24 35 33 28 41 37 26 27 39 37 32 28 35 27 29 28 33 21 41 36 28 31 46 37 25 32 37 31 33 41 40 30 36 35 35 31 35 39 35 39 24 24 32 27 33 45 39 35 37 31 26 29 37 31 35 33 28 28 33 32 33 26 24 38 31 49 23 33 38 29 23 50 29 22 35 33 29 34 30 32 33 36 34 33 42 32 34 34 34 32 34 26 41 24 38 34 39 34 37 37 28 29 24 38 30 48 32 27 27 36 35 37 24 26 33 35 26 27 28 35 28 32 40 28 27 36 37 41 26 38 35 36 25 42 30 28 50 23 35 32 32 30 30 30 38 38 33 32 25 29 30 29 31 37 29 32 25 33 26 40 39 28 38 29 31 38 27 29 33 40 33 25 36 30 39 37 44 35 27 35 25 41 39 30 23 40 30 32 23 34 33 34 33 46 39 41 33 30 30 45 32 28 30 35 33 39 27 40 28 37 35 27 29 33 40 34 31 40 23 29 33 33 42 33 27 30 34 28 29 28 36 29 30 33 34 40 28 42 39 35 37 34 31 41 35 33 44 34 24 37 47 32 41 29 33 45 24 24 27 42 24 24 22 36 30 29 39 33 25 34 22 34 31 27 39 35 38 32 33 39 38 31 47 41 35 32 47 34 39 33 33 33 39 31 32 30 29 41 25 37 29 28 40 36 29 35 28 32 36 40 31 37 35 31 30 38 30 34 31 37 38 21 38 37 37 25 38 41 31 33 34 28 35 52 30 35 25 39 30 46 31 26 26 25 38 39 32 38 27 32 37 34 31 41 34 33 27 34 24 27 29 40 30 39 34 36 34 34 33 38 29 36 33 26 40 26 39 28 31 35 37 32 32 44 24 33 30 44 25 32 32 26 25 44 45 44 41 31 34 41 43 35 26 32 37 28 42 36 28 31 35 30 46 35 31 30 37 43 27 30 34 31 41 26 41 31 32 39 32 39 33 42 31 39 30 38 30 33 22 46 41 37 34 32 37 39 30 30 24 37 33 35 27 25 21 33 35 48 35 32 28 43 50 26 34 31 28 27 40 38 33 35 36 30 21 56 25 29 32 36 31 42 27 43 51 31 34 44 24 21 42 41 35 38 38 33 21 38 25 43 32 30 34 24 29 39 31 22 28 31 48 29 32 28 37 35 40 38 30 40 38 36 23 36 24 31 32 37 29 21 27 31 40 39 29 32 41 38 32 37 36 33 39 34 29 41 36 29 34 32 35 39 32 25 36 20 28 43 32 28 26 28 35 40 29 25 42 41 33 40 24 29 37 31 36 31 33 36 44 33 43 31 23 30 20 29 32 45 24 28 35 30 39 34 42 42 38 27 30 37 34 43 36 34 34 30 27 42 29 39 41 36 31 31 35 42 42 36 41 20 30 29 25 34 24 33 30 30 27 37 38 34 28 31 29 32 29 39 34 33 39 31 26 35 37 30 30 28 31 23 26 45 43 28 28 42 28 36 35 36 37 27 33 22 39 41 48 39 27 21 34 31 26 37 35 24 25 35 39 22 32 31 34 28 31 33 30 25 34 39 32 39 33 33 34 34 32 36 41 26 31 37 25 32 36 42 29 27 33 44 34 32 40 30 32 35 28 39 37 33 41 25 34 35 35 34 24 32 31 40 39 26 25 32 28 30 39 33 36 41 30 28 33 31 43 29 34 30 20 32 26 34 38 41 35 36 29 32 22 27 29 36 27 35 38 34 31 31 36 23 32 30 29 41 33 28 33 36 27 35 29 30 21 31 24 30 25 29 32 34 50 27 28 26 30 37 37 40 26 28 32 34 39 31 25 36 34 33 34 39 27 27 31 34 30 30 23 25 31 35 28 31 31 33 36 29 52 26 35 35 48 30 35 46 34 33 30 22 32 29 33 24 22 29 36 32 27 28 26 30 27 37 42 32 36 31 34 29 30 34 33 25 37 31 33 33 30 29 32 34 27 43 36 34 39 42 31 26 29 36 21 34 34 35 31 35 23 35 30 28 35 22 34 46 30 42 25 35 24 37 37 34 26 33 28 40 34 26 31 30 33 43 29 17 34 34 33 24 32 35 32 28 34 28 33 33 20 17 27 37 28 28 33 40 30 34 43 42 26 33 32 24 33 24 29 35 34 40 32 43 37 47 40 35 30 26 25 35 30 21 26 41 30 36 31 24 28 27 33 34 35 26 28 27 35 23 41 38 33 29 53 29 33 29 36 33 40 35 32 21 35 26 40 28 42 32 39 24 39 30 31 33 42 32 40 35 30 29 45 21 30 44 31 32 35 28 36 40 30 43 34 31 39 27 31 19 33 38 42 40 37 29 30 41 31 30 29 34 34 30 30 29 39 39 38 26 51 35 36 31 23 35 32 32 32 34 33 43 24 32 35 31 30 36 34 21 20 21 38 34 27 39 39 34 41 41 29 29 40 25 42 27 29 30 37 42 34 30 24 23 43 27 32 47 31 38 34 30 33 28 29 41 36 35 27 36 29 27 34 39 32 40 38 33 36 28 31 40 32 56 37 39 40 38 38 29 38 46 29 36 39 32 23 32 31 35 29 38 28 25 35 40 36 33 41 34 36 38 36 33 31 38 49 31 34 43 33 33 24 34 36 32 31 32 38 25 39 35 31 26 32 43 37 39 33 35 29 30 33 27 38 32 32 42 37 41 37 34 26 38 26 30 28 25 36 26 34 40 53 38 31 30 31 35 30 26 33 20 35 18 30 32 35 41 28 34 35 27 36 30 32 24 30 27 31 28 37 43 36 28 38 44 23 43 45 33 25 46 36 31 36 27 37 38 39 35 46 33 35 33 35 25 35 29 33 28 34 29 31 31 36 29 27 36 30 44 30 30 34 36 21 39 30 38 50 34 23 39 31 31 33 39 27 35 39 31 25 31 29 23 42 30 29 39 34 27 19 33 33 23 29 39 23 45 23 28 34 27 39 29 34 35 33 25 25 38 28 38 20 31 39 33 31 35 37 26 35 29 34 27 33 39 34 28 35 33 24 39 40 31 42 32 25 33 46 28 35 27 31 32 35 23 32 37 38 31 38 38 36 36 37 30 37 23 30 27 25 39 42 22 41 29 33 37 32 33 32 26 27 29 31 31 25 27 37 33 42 33 21 34 40 38 29 39 36 47 29 31 36 34 37 34 38 42 24 38 28 38 38 29 36 27 30 35 34 24 33 26 23 36 32 38 46 27 23 39 33 29 31 26 26 38 39 30 32 38 26 35 27 27 22 32 35 36 39 34 35 29 30 33 29 46 28 38 36 49 43 41 32 39 22 27 41 41 33 27 28 30 25 40 27 32 43 24 39 26 37 35 29 44 26 32 42 43 23 37 40 42 34 32 23 32 29 31 33 29 33 31 41 29 20 28 28 30 32 37 28 31 39 24 30 25 35 29 29 40 34 27 37 37 30 34 32 30 42 36 41 36 33 25 36 36 39 44 40 41 25 52 33 23 31 37 24 33 34 43 39 31 27 27 34 33 38 39 31 25 26 36 36 27 30 29 35 22 34 20 33 37 37 26 18 34 31 37 49 23 31 35 31 32 30 30 36 33 30 32 29 30 31 35 35 36 38 28 34 27 33 33 30 41 39 29 25 34 30 38 23 37 16 38 32 33 26 38 29 39 32 35 31 32 29 37 28 23 23 37 34 27 37 38 38 37 23 33 44 33 36 38 32 42 25 32 31 31 31 34 31 34 31 31 36 36 23 32 32 27 37 34 30 32 34 38 37 31 27 22 24 40 31 35 31 30 35 24 30 33 23 47 30 35 33 31 28 30 25 41 34 34 29 34 25 29 33 30 22 38 28 33 38 26 43 36 35 37 32 41 48 30 34 32 39 45 29 37 23 30 37 30 40 44 31 27 33 29 36 28 36 40 37 37 42 39 29 36 29 35 37 21 29 29 34 36 40 38 31 35 38 29 32 30 39 35 39 39 28 33 25 26 41 36 43 43 26 29 40 30 27 37 34 36 23 33 25 29 34 40 35 29 36 32 36 34 35 32 36 24 37 27 26 33 24 22 33 40 34 31 28 38 24 29 23 39 28 33 30 32 31 22 44 41 34 25 33 32 40 38 30 28 31 36 35 37 23 43 46 34 27 28 49 39 30 25 30 34 30 28 26 33 27 42 37 32 30 37 32 40 28 28 34 30 34 36 41 27 41 42 27 32 32 41 45 39 30 31 31 32 38 31 33 33 28 34 30 35 39 27 31 28 36 22 35 30 29 35 28 26 32 39 37 35 34 33 29 29 34 35 37 30 31 26 34 32 35 32 40 33 27 36 30 35 40 36 23 47 27 23 32 34 26 32 25 23 27 36 29 35 33 46 32 32 37 35 36 33 40 43 32 24 32 35 32 36 32 27 31 29 32 46 32 28 31 39 43 25 28 31 37 37 29 27 36 28 29 30 25 34 41 35 25 29 27 35 35 23 22 31 40 28 28 40 43 44 30 30 33 25 19 29 31 42 23 37 38 41 36 34 47 30 27 33 30 40 40 33 31 41 44 36 31 25 30 44 28 37 27 28 32 28 37 35 35 31 38 38 32 39 39 26 37 39 25 30 28 35 35 26 41 28 29 41 39 22 36 31 42 34 36 31 26 30 35 27 36 41 44 35 25 29 36 31 24 33 40 35 43 30 28 30 36 23 30 30 27 39 27 37 39 29 37 35 30 42 44 27 38 26 37 44 40 30 39 29 26 28 37 43 35 29 32 39 34 26 37 39 41 29 30 29 34 42 27 35 48 33 32 33 33 28 32 27 52 42 48 45 35 32 34 29 34 41 38 35 24 30 32 34 35 30 40 26 32 32 28 33 35 34 47 31 32 34 29 33 36 29 32 31 37 28 41 34 32 27 44 30 30 31 36 38 34 22 36 37 29 31 28 43 39 41 29 29 38 21 32 37 26 35 27 32 23 39 31 31 29 31 28 32 35 40 36 32 39 37 25 32 39 27 27 35 33 41 38 29 38 30 31 36 39 32 26 42 36 36 33 25 33 32 44 37 30 23 33 35 22 36 38 32 40 33 31 25 34 29 27 27 51 29 34 37 20 31 33 28 27 25 36 34 32 42 42 31 31 37 34 28 35 33 35 29 27 25 31 38 38 35 42 29 35 43 20 35 36 27 42 28 35 36 35 32 32 27 46 35 28 41 42 37 36 39 25 30 34 36 32 31 42 24 33 27 29 23 27 47 28 28 35 34 25 32 31 31 35 30 23 27 28 30 32 27 29 22 36 24 32 37 24 32 41 24 39 35 38 28 27 38 35 39 38 34 27 28 33 29 28 28 40 45 41 25 46 31 22 31 27 29 36 32 35 34 34 31 28 33 29 31 26 37 30 27 23 27 37 36 34 32 28 18 33 43 32 36 39 26 27 33 41 36 31 31 26 39 39 45 25 25 37 32 28 32 26 33 27 29 42 39 26 25 32 37 37 29 34 26 34 35 32 34 39 39 32 35 34 38 28 25 48 29 34 37 18 38 42 32 42 31 34 33 29 34 36 32 25 35 21 31 32 32 28 31 37 19 28 31 32 28 44 31 16 39 28 40 39 29 33 26 30 42 27 32 44 24 29 32 43 29 30 34 26 30 33 31 44 29 35 33 27 26 40 27 31 40 36 33 37 37 44 36 34 28 29 27 31 29 29 28 28 32 23 32 26 43 31 37 44 27 29 33 34 26 34 28 27 33 43 34 28 32 27 37 31 35 25 26 32 43 35 25 25 33 35 30 36 28 31 30 27 38 27 45 36 37 44 31 39 27 34 36 30 35 31 33 40 33 34 35 35 28 30 36 23 35 28 29 33 36 31 25 26 41 42 34 38 44 43 36 23 32 34 31 36 28 33 44 30 42 31 26 29 29 22 42 33 30 31 32 32 33 26 36 33 36 37 21 39 40 32 34 38 25 33 39 38 34 29 39 31 28 36 24 31 30 31 39 38 37 45 35 33 32 23 27 36 30 46 34 37 45 35 19 29 35 30 34 31 29 36 35 29 41 30 41 28 40 31 33 30 39 32 39 30 27 42 36 41 26 30 34 38 42 27 25 31 29 17 35 34 28 41 37 32 30 33 33 45 36 35 31 42 38 33 38 32 41 30 31 27 42 28 24 19 32 36 33 24 42 45 43 37 32 28 23 23 48 34 35 34 38 30 31 41 39 42 36 41 51 34 37 34 39 40 32 35 33 42 43 42 26 31 20 25 30 33 29 25 42 34 25 26 36 38 25 36 26 34 28 25 34 31 31 35 32 35 36 31 41 31 40 26 31 37 28 26 48 43 22 26 30 36 33 30 28 34 38 35 34 26 42 42 25 27 32 48 36 40 29 40 38 20 36 34 27 31 36 19 35 22 40 25 27 27 31 35 25 32 32 32 29 36 31 30 42 31 31 29 33 46 35 35 38 29 31 27 24 29 28 31 31 27 52 33 29 39 31 31 30 29 36 37 34 25 32 46 27 33 45 36 42 32 27 27 30 38 25 34 37 34 34 39 37 31 24 41 24 24 39 43 28 38 26 21 32 33 38 37 34 33 33 18 27 39 29 39 35 28 47 28 31 28 29 31 31 42 27 25 36 34 35 39 32 30 39 52 29 31 29 40 28 26 36 30 28 24 47 48 29 36 28 29 24 31 46 33 40 38 30 30 32 31 32 38 33 37 30 35 27 40 30 31 47 35 18 34 33 32 32 35 23 35 26 27 29 32 42 32 36 34 28 36 33 33 34 37 41 29 35 42 40 35 32 28 34 30 29 30 33 28 42 35 27 28 32 24 29 42 25 35 29 31 29 37 26 36 27 40 28 37 34 41 32 29 28 33 38 32 29 33 29 35 30 43 31 33 31 34 36 34 34 28 51 27 33 37 33 30 37 35 37 36 34 22 30 35 37 30 30 47 40 29 24 42 36 33 27 37 32 36 25 34 25 33 24 27 30 28 32 31 31 34 38 30 33 37 29 28 40 37 40 34 28 42 38 33 31 50 28 22 32 30 39 37 43 43 33 47 43 34 35 34 39 43 31 28 41 31 35 43 27 34 39 39 44 27 24 34 44 35 35 27 33 46 38 35 37 36 30 21 34 31 21 25 34 26 37 30 35 37 47 35 42 25 38 40 27 27 28 34 33 24 50 42 25 35 33 31 35 30 39 39 32 29 31 40 26 30 25 34 24 35 31 31 38 42 39 38 34 30 32 26 27 32 31 40 38 32 31 35 33 28 28 33 37 27 35 48 30 24 26 31 29 34 25 33 28 28 31 30 33 29 39 43 34 28 46 47 36 38 39 25 41 29 32 35 30 46 29 28 33 28 26 27 39 39 30 27 42 35 32 32 33 49 34 39 40 31 44 21 34 31 30 27 32 37 30 24 38 30 29 25 26 38 44 28 26 35 36 27 20 32 26 33 32 39 44 31 45 34 38 33 29 34 23 32 32 28 27 38 24 28 31 27 38 30 25 28 32 33 32 31 41 37 29 34 37 37 28 32 33 37 43 28 34 28 29 32 33 29 41 31</t>
-  </si>
-  <si>
-    <t>JSB(4.627142907790267, 6.235078830020214, -210.26886125094202, 1308.0412411945929)</t>
-  </si>
-  <si>
-    <t>227 157 238 186 196 144 253 206 189 259 211 250 237 235 193 244 309 162 115 233 256 242 273 228 246 155 259 154 275 183 265 211 258 220 196 242 260 276 136 190 219 140 197 222 198 219 244 150 149 226 209 133 211 282 187 208 220 141 196 158 247 191 156 135 168 216 261 236 227 163 229 230 162 194 260 230 153 266 343 134 336 196 228 142 204 283 186 213 150 285 247 182 141 259 182 214 196 210 276 380 216 168 177 148 209 246 238 219 287 249 233 208 207 194 227 256 116 223 265 242 250 229 253 157 154 250 246 171 150 248 266 159 204 178 164 222 259 200 227 239 187 216 206 240 278 226 244 248 176 303 217 254 260 214 216 118 159 248 178 153 221 131 216 230 277 152 194 221 164 195 255 182 165 323 211 263 245 215 303 160 177 262 260 202 200 317 190 203 213 192 187 181 263 200 167 183 190 177 182 180 215 283 251 207 226 206 253 315 236 200 227 303 158 92 232 251 124 161 238 158 181 209 109 193 205 160 222 210 264 201 224 290 164 202 256 216 214 208 168 317 310 169 210 261 171 172 157 215 125 208 240 291 244 235 249 156 242 263 210 220 179 263 239 227 159 110 160 187 230 93 214 254 188 124 249 183 208 225 254 176 212 205 191 167 192 220 272 316 165 232 112 166 235 222 187 178 157 232 147 248 183 237 170 194 261 200 207 172 202 201 164 207 175 130 184 165 246 216 204 157 172 156 156 221 232 266 261 130 213 225 148 154 265 177 246 186 211 227 311 228 97 213 234 195 256 250 179 276 226 226 156 193 162 218 190 251 198 254 208 215 291 190 243 182 206 180 247 241 295 207 240 269 189 215 217 168 191 237 324 199 207 263 186 207 202 201 238 190 254 224 219 209 244 206 269 152 232 281 252 240 219 194 217 158 141 225 241 184 173 262 206 183 263 316 212 206 279 273 164 181 201 168 308 180 180 276 122 247 263 183 233 222 160 95 273 214 270 202 140 258 258 230 235 205 242 199 310 212 283 285 259 193 185 197 241 237 167 245 274 248 207 201 191 255 337 179 299 191 149 159 155 207 239 290 267 142 192 193 224 207 201 182 271 262 227 204 154 185 234 178 214 213 164 183 210 257 186 178 222 155 291 225 156 211 216 258 206 221 199 191 332 190 185 233 172 209 240 116 225 269 229 249 240 271 113 145 232 236 159 215 173 208 230 190 245 296 191 218 148 194 272 186 132 269 239 225 283 230 214 158 178 231 167 255 229 205 194 221 243 259 207 256 187 229 198 203 232 234 155 297 116 250 179 210 162 233 226 171 253 188 301 124 321 196 250 233 239 309 148 219 254 183 210 164 217 303 239 261 150 184 244 190 234 217 233 198 154 153 174 244 283 182 251 265 266 184 249 218 220 168 227 196 263 205 230 285 202 265 199 256 167 188 261 236 208 161 226 278 156 277 247 259 135 320 218 274 223 236 242 219 252 201 229 226 235 262 325 219 265 205 253 236 295 273 221 228 167 195 238 244 231 192 196 184 229 155 262 200 218 251 221 163 199 209 220 173 161 151 198 243 220 259 271 153 233 180 216 230 281 324 254 306 140 169 275 220 234 123 207 184 280 229 174 162 160 141 306 169 241 233 155 176 240 286 212 247 201 234 228 176 226 101 269 252 215 228 189 192 236 205 189 319 216 225 226 238 174 224 224 260 261 235 203 299 210 171 257 206 204 226 159 247 280 204 171 209 222 131 181 193 124 181 257 161 265 164 98 219 270 188 162 178 234 320 228 263 239 198 203 217 206 155 184 166 292 236 275 262 287 199 238 257 198 188 100 168 206 140 245 255 155 183 209 178 232 302 271 161 267 224 148 200 171 257 225 172 222 201 133 235 363 196 152 226 203 214 180 267 212 140 144 216 170 260 199 241 246 276 130 142 201 197 217 253 208 201 225 252 299 207 241 209 177 181 216 163 110 110 197 164 234 169 171 123 213 150 253 288 172 210 258 213 179 273 172 237 207 133 198 190 207 190 167 183 243 273 114 249 171 204 227 300 254 254 229 242 222 279 253 262 198 297 226 215 124 319 217 179 208 197 209 196 162 258 201 388 248 238 184 196 165 204 188 209 170 264 195 202 188 201 184 272 213 179 190 247 193 180 223 269 109 188 179 183 292 355 247 155 206 239 234 192 198 212 199 242 165 223 171 200 206 126 232 240 130 254 288 179 202 240 224 221 205 248 233 204 253 175 164 247 220 304 219 239 244 211 261 214 140 162 162 206 237 160 240 167 214 165 233 215 258 171 236 155 265 233 177 246 259 209 253 208 201 191 80 204 252 149 184 242 180 202 256 246 309 192 234 180 313 223 243 202 129 226 205 215 144 240 151 213 105 185 191 179 191 137 231 257 218 179 206 215 206 183 242 137 197 266 197 164 177 310 170 271 280 180 253 275 237 226 242 248 144 226 172 268 169 326 229 257 177 219 235 181 154 224 215 91 236 201 194 193 170 190 183 169 266 218 132 212 225 226 153 219 176 184 203 213 239 197 114 225 251 217 222 238 223 201 188 258 239 198 157 312 198 213 187 220 183 212 140 209 198 162 122 224 183 199 177 211 250 249 195 148 183 261 200 224 203 270 159 194 231 207 218 205 156 176 158 268 284 299 144 195 151 212 221 230 136 158 149 181 236 174 83 185 265 217 246 143 224 230 215 211 305 229 163 197 235 239 232 246 137 209 156 220 184 172 210 150 301 191 185 200 246 256 248 268 203 244 240 267 190 163 235 247 157 259 223 287 225 207 205 232 232 191 206 291 190 226 215 296 173 197 231 272 231 155 253 212 181 206 235 196 138 295 225 158 201 222 182 165 206 255 241 275 216 302 223 218 195 180 194 158 220 227 223 235 184 173 277 166 171 264 239 173 256 178 262 218 239 305 219 232 190 188 144 185 171 168 132 221 151 204 155 301 154 303 286 188 222 166 154 282 230 153 219 250 191 303 157 214 218 166 266 284 234 145 170 170 242 224 208 248 278 184 242 173 270 263 212 230 253 116 274 178 137 261 213 192 248 218 253 203 187 201 234 88 254 225 203 242 249 227 243 234 213 227 159 171 235 211 242 208 146 146 284 277 243 223 216 226 192 131 169 180 249 177 204 146 257 196 216 315 327 214 221 188 156 160 248 190 245 162 163 150 235 149 158 185 222 176 216 220 104 245 237 195 224 270 245 243 186 297 274 188 230 249 224 219 225 170 248 236 164 256 245 240 210 158 214 308 178 260 302 210 204 184 258 81 275 265 205 240 187 226 168 182 315 218 58 162 330 161 169 194 167 221 162 263 224 216 254 198 194 216 204 247 216 272 235 256 206 151 256 212 192 292 243 269 216 184 245 173 299 221 285 186 260 221 178 254 240 252 227 261 258 229 186 235 282 203 269 201 252 246 219 294 225 204 136 178 225 188 190 204 260 250 220 232 156 217 204 145 282 126 197 221 189 137 287 177 233 155 207 205 304 278 177 189 154 164 222 209 210 184 235 316 184 185 339 223 231 271 114 303 164 271 142 220 110 214 261 219 189 165 210 307 222 180 247 229 238 218 244 254 177 135 173 241 256 176 178 261 202 231 195 281 185 220 208 295 250 304 163 164 231 206 273 156 220 219 241 271 238 269 152 225 227 219 263 155 225 159 238 280 213 239 215 239 254 215 286 222 177 208 126 157 202 223 211 247 182 249 212 203 236 303 302 201 207 220 185 161 210 168 207 207 188 184 137 239 197 168 193 110 175 205 207 204 119 191 219 147 187 257 211 195 184 207 310 213 322 154 231 177 280 181 246 145 230 173 273 217 170 133 158 147 226 202 102 274 136 175 305 189 243 234 150 276 133 151 218 266 222 190 242 247 143 273 172 279 225 258 257 233 281 269 226 202 176 242 251 282 213 137 276 272 216 244 237 165 307 236 287 167 196 253 182 188 189 122 151 194 283 148 170 142 189 155 241 242 194 215 127 171 273 240 157 197 135 259 215 242 236 238 249 163 257 224 179 263 244 173 306 202 254 231 182 255 188 279 185 197 148 165 229 256 199 225 184 247 179 178 258 259 327 177 169 223 234 252 98 226 261 145 281 194 160 204 175 177 235 309 276 190 280 247 182 283 206 248 181 176 160 195 291 259 193 305 236 221 156 250 209 174 200 256 147 198 265 279 164 240 156 251 223 167 220 264 177 213 195 201 151 200 243 278 263 252 167 262 225 207 156 287 175 226 252 223 217 239 216 144 198 155 190 205 212 170 202 187 197 221 231 209 265 266 256 232 268 171 207 214 349 174 140 217 337 265 190 142 199 183 127 257 218 106 232 231 219 155 175 152 209 183 154 202 239 189 147 229 215 226 248 258 165 111 210 245 224 133 194 228 253 218 173 185 170 209 275 164 265 119 177 224 264 278 317 192 191 180 239 151 224 183 291 217 217 185 199 235 198 134 224 196 291 146 189 298 159 172 226 157 215 169 229 166 251 272 142 198 192 196 238 266 226 290 180 212 228 321 270 296 206 141 258 205 210 254 205 195 222 262 252 186 194 165 175 209 208 115 131 205 255 235 262 227 257 185 168 198 357 162 267 246 146 167 197 139 144 207 289 218 199 212 155 124 201 261 303 272 212 178 202 300 175 179 148 238 204 201 224 258 201 193 197 141 291 278 220 143 149 178 257 282 243 140 278 243 214 162 244 149 221 269 231 351 227 198 206 286 292 265 243 247 274 219 169 273 171 172 203 222 159 252 225 164 211 207 140 229 355 155 216 183 209 220 270 246 118 152 199 215 228 183 191 175 186 266 215 128 363 203 126 300 264 198 236 206 205 258 294 277 315 272 219 244 198 244 244 277 254 124 196 252 235 220 208 167 258 152 228 242 161 168 171 274 252 189 243 188 123 254 183 322 157 222 235 205 167 217 208 267 137 169 202 153 177 237 109 209 165 213 190 245 276 264 182 206 233 189 299 223 224 160 233 161 233 228 271 169 254 259 219 248 179 238 313 217 141 186 199 191 374 187 209 240 270 166 214 222 192 175 133 191 242 169 222 235 214 182 229 242 169 225 252 195 224 211 246 226 189 144 218 296 278 277 208 231 234 249 178 156 150 233 219 241 172 237 246 156 311 160 182 256 185 278 136 290 216 152 215 183 295 181 219 237 151 240 217 263 221 189 169 273 109 228 224 181 207 204 161 177 193 195 234 181 190 337 168 213 214 247 333 168 136 100 191 145 171 183 226 138 183 180 147 219 292 221 188 266 185 188 245 190 192 167 303 174 223 210 228 112 214 198 195 165 177 192 290 263 176 263 191 259 221 214 165 182 200 289 131 268 228 232 197 202 225 188 197 221 219 236 217 165 227 275 244 187 259 198 282 243 203 235 287 207 251 180 162 237 230 192 194 216 259 152 165 324 145 152 239 211 163 255 248 232 240 188 221 230 272 277 179 139 208 193 178 260 239 216 162 260 170 234 207 204 158 227 241 237 157 179 198 287 160 200 214 289 194 283 206 246 197 202 204 253 237 164 122 261 211 304 167 202 241 204 208 177 290 217 175 131 275 258 190 217 268 151 283 234 223 220 206 217 188 154 155 209 183 228 163 200 369 204 167 243 315 227 190 154 215 197 204 280 291 308 213 178 211 236 108 166 179 215 215 145 259 139 206 123 238 200 196 207 188 157 182 145 142 239 210 328 242 192 200 164 204 317 204 247 171 191 159 251 228 245 197 221 172 173 146 178 257 237 289 272 233 212 153 213 215 212 256 202 203 217 187 202 216 250 319 212 120 233 146 240 284 213 204 302 242 209 250 261 274 149 133 181 228 261 267 208 191 222 219 121 251 188 234 187 161 285 177 132 187 186 221 154 192 223 192 235 153 203 149 265 270 138 212 176 184 251 303 210 217 269 226 184 153 159 139 271 251 235 237 202 132 197 158 153 254 204 199 255 234 201 283 179 223 173 217 156 136 201 239 202 222 173 218 106 120 198 190 230 304 236 191 231 270 249 188 181 162 216 233 212 92 122 225 305 240 266 188 240 185 209 273 205 287 137 272 229 177 252 260 176 211 139 156 205 198 161 236 250 244 166 89 293 143 179 219 187 206 204 172 253 237 184 191 169 219 147 186 183 259 172 236 206 269 197 185 257 151 264 244 249 236 282 244 147 216 189 84 186 194 170 268 267 225 187 277 227 186 116 254 176 287 273 204 178 210 197 202 245 281 151 188 250 259 187 240 134 178 200 241 179 298 224 286 145 162 226 280 134 187 159 224 248 226 199 262 244 215 215 220 217 245 189 273 262 223 240 244 233 267 201 263 244 128 212 225 168 281 151 117 212 156 237 224 308 190 206 169 167 207 236 162 253 276 293 289 203 266 263 127 262 130 201 174 244 284 170 249 132 239 311 243 199 263 263 239 221 301 248 156 183 148 147 256 199 202 265 223 308 177 280 117 165 244 213 228 170 232 264 176 189 228 238 226 184 252 251 229 267 165 169 234 205 160 203 219 299 196 100 276 266 118 252 126 236 207 154 228 269 264 214 194 264 240 207 182 271 195 202 139 270 175 255 130 224 183 184 151 267 191 145 221 245 261 268 217 223 226 171 203 220 243 211 144 249 180 276 213 185 234 301 234 171 131 197 164 245 222 192 212 217 218 212 140 214 200 233 181 213 129 204 244 218 201 245 274 199 211 234 145 216 260 170 251 191 246 198 233 246 264 182 164 207 231 198 237 171 179 221 211 186 169 238 256 256 163 213 269 178 218 130 216 225 235 254 201 221 159 192 192 313 218 168 167 203 252 229 192 200 178 196 212 231 248 205 197 208 136 236 213 185 155 211 213 153 193 238 169 174 198 179 233 211 236 299 224 162 156 266 285 203 150 241 290 174 145 369 219 132 242 185 184 226 220 286 238 246 177 197 272 231 301 241 201 136 167 190 255 165 222 191 256 194 187 214 236 187 319 238 262 192 244 150 182 203 216 250 233 226 162 245 260 121 204 157 294 220 292 193 196 264 211 267 260 216 256 195 166 259 249 226 297 230 156 187 130 204 247 279 220 140 211 273 233 170 197 177 181 158 150 248 287 211 241 176 174 222 238 173 230 230 185 205 170 243 257 162 171 300 365 230 254 245 245 256 185 167 165 239 214 139 222 198 194 236 215 215 210 134 178 201 235 226 274 284 218 227 184 210 227 156 157 218 252 214 174 228 159 150 186 205 178 204 220 193 200 222 223 178 205 133 204 203 322 200 230 266 205 159 154 193 236 268 224 211 149 288 162 222 254 232 198 273 163 157 202 224 180 196 257 188 155 270 211 240 142 181 209 311 160 237 214 194 186 287 264 169 177 196 154 136 257 141 179 228 192 244 203 296 225 175 165 241 250 259 203 197 272 326 183 175 192 180 229 179 254 186 236 215 183 214 171 190 250 246 273 148 172 97 178 223 234 220 260 179 141 160 262 229 179 204 288 224 212 213 210 201 233 285 230 170 163 200 182 183 185 174 214 192 242 143 275 163 188 244 260 302 304 167 339 235 235 200 276 187 197 218 220 222 134 228 294 118 210 208 292 195 195 219 211 212 114 343 169 179 166 165 202 264 230 277 206 236 254 230 208 202 177 243 248 215 205 279 208 202 261 165 238 204 183 182 186 118 192 181 167 180 191 277 230 333 123 188 153 169 169 278 204 245 149 220 162 243 296 214 265 192 266 320 199 182 253 163 240 165 213 244 226 225 254 232 149 226 175 175 262 217 309 211 248 156 254 239 206 181 184 325 240 207 221 131 268 133 155 241 157 163 221 209 253 130 228 179 159 249 267 243 272 242 153 82 233 237 213 197 247 166 243 166 213 206 285 224 197 253 143 178 263 174 273 188 102 316 197 212 189 209 161 276 272 207 210 242 132 190 179 232 179 196 206 301 156 187 212 252 187 169 145 207 206 243 205 97 196 207 235 127 245 229 210 288 201 158 213 157 146 200 252 284 300 173 207 288 202 274 248 165 291 245 186 242 198 280 198 177 193 195 241 194 252 126 153 187 182 178 184 198 186 224 181 203 181 228 208 292 266 277 87 226 163 168 160 213 194 176 237 162 78 293 141 194 177 187 260 101 184 133 155 197 235 178 176 206 132 156 263 130 161 303 229 338 283 282 213 248 261 328 273 152 189 144 271 197 103 238 196 243 255 140 232 166 255 158 216 183 294 133 245 230 228 225 213 197 145 155 211 233 147 196 252 243 241 177 213 174 196 229 211 235 312 144 168 193 193 226 242 253 216 165 256 174 226 244 237 215 219 185 206 232 144 250 156 159 215 207 183 234 203 260 242 197 245 252 222 190 281 245 196 261 245 233 233 186 204 160 194 236 269 131 175 148 139 251 217 207 224 197 151 281 169 205 182 208 256 163 177 226 215 275 178 163 241 200 219 168 229 176 231 172 185 174 192 163 273 391 143 215 148 280 278 171 314 206 226 259 201 313 211 267 237 179 181 217 229 236 210 225 184 200 143 256 207 239 205 232 283 256 205 290 279 294 242 335 169 294 194 247 122 243 184 218 207 270 282 312 173 215 156 282 209 273 201 213 194 132 181 128 183 158 210 195 231 245 193 210 235 247 285 104 239 203 180 178 261 253 200 205 136 181 165 182 313 170 212 163 207 255 222 180 189 161 230 162 153 166 247 179 165 244 216 212 172 189 242 296 120 188 272 151 141 191 186 255 141 185 195 163 248 150 206 233 189 253 224 226 219 228 191 184 174 248 165 224 173 231 222 344 197 216 207 177 202 138 206 173 177 264 161 177 276 242 274 132 192 166 168 272 179 159 269 186 181 239 215 240 133 198 159 197 219 169 227 226 319 172 158 204 189 160 162 226 235 165 215 286 281 217 184 219 122 167 205 191 250 197 135 214 300 179 223 278 200 206 238 219 123 260 234 184 196 264 197 287 232 230 224 263 191 241 234 128 123 280 236 207 184 315 277 222 206 271 157 226 218 207 161 234 193 227 235 178 170 222 148 174 158 175 211 208 180 200 178 226 209 208 231 282 262 248 140 210 189 202 198 240 194 217 159 242 181 204 124 160 308 161 169 161 232 198 182 210 240 245 201 145 237 248 299 263 153 306 227 206 208 211 230 244 283 212 191 182 154 301 157 199 175 181 152 165 314 228 264 171 196 214 182 224 265 220 180 203 232 265 198 149 167 204 253 183 179 194 217 134 217 226 193 235 218 214 243 194 198 235 204 246 232 194 177 231 193 257 212 240 213 249 175 270 122 217 302 189 138 183 245 254 222 198 250 199 221 263 277 278 262 289 237 173 268 206 219 283 219 241 225 289 173 235 174 140 196 214 232 219 192 181 229 245 243 204 220 202 313 187 282 186 252 212 160 228 286 141 314 213 192 137 194 242 133 216 206 166 195 214 168 171 188 245 167 202 262 97 192 170 195 170 178 213 183 266 263 232 173 252 186 167 224 300 184 212 221 225 206 252 208 183 205 194 163 193 176 172 157 181 263 146 195 268 193 191 174 245 216 168 162 194 244 241 171 214 187 198 297 209 264 130 172 237 282 248 129 218 222 228 120 161 187 277 269 210 236 285 286 212 166 139 164 187 311 168 242 204 226 256 225 246 268 206 256 78 193 199 166 295 188 223 194 163 153 298 192 279 191 306 268 221 290 267 220 303 351 247 234 171 117 154 251 165 150 162 211 234 173 171 281 180 210 282 227 187 62 202 288 213 208 107 117 196 224 219 159 228 230 137 351 183 211 156 191 313 194 314 250 231 290 181 291 259 203 282 264 229 197 217 174 359 182 139 146 174 208 241 244 184 273 203 256 228 257 227 162 235 240 235 226 209 226 211 219 258 226 237 207 170 204 271 204 174 259 331 179 266 188 261 221 180 152 235 157 145 219 209 215 155 142 189 253 176 268 155 241 166 173 204 209 142 271 211 175 186 230 210 164 161 190 184 209 238 224 191 183 193 193 265 191 194 272 147 196 204 198 260 287 211 225 309 266 277 329 207 205 300 164 205 323 212 145 245 214 278 190 337 155 183 169 201 189 273 246 204 175 259 197 210 186 191 211 203 180 302 258 175 303 242 216 155 225 237 214 173 216 285 258 223 184 241 186 181 192 201 183 215 199 172 176 193 209 214 195 260 213 232 234 188 282 344 223 236 252 171 264 230 318 219 125 163 149 256 222 317 209 182 204 216 304 164 235 204 260 286 288 221 175 225 305 191 242 250 263 213 189 199 186 293 128 264 178 264 264 227 135 303 231 157 197 243 278 226 249 225 216 270 209 183 254 215 269 141 242 186 158 276 157 143 183 137 178 162 224 207 209 235 268 225 180 189 145 252 239 260 185 225 226 182 240 243 204 217 238 214 159 225 123 274 316 221 240 186 145 204 209 293 185 244 182 182 238 185 183 167 209 188 167 168 190 231 187 176 194 269 199 214 220 263 227 193 258 248 255 236 124 206 293 165 297 213 243 235 168 230 219 211 213 227 225 171 216 242 240 171 232 316 239 271 135 212 178 231 248 213 142 230 219 234 179 219 216 282 244 214 261 299 153 195 206 196 205 222 224 219 272 166 182 171 215 235 203 120 235 229 230 193 213 193 181 215 271 175 222 159 197 167 148 261 192 158 247 177 100 291 258 153 168 101 153 271 160 238 232 187 191 245 198 150 221 303 200 248 199 217 287 169 177 223 185 168 193 259 220 231 273 197 187 231 356 236 262 135 199 161 243 167 279 269 225 256 169 149 204 209 229 215 225 289 261 263 238 265 137 255 229 201 264 205 199 212 172 198 173 212 283 145 225 217 180 244 238 176 270 147 212 221 102 194 260 163 112 275 180 170 197 337 238 268 251 226 246 125 210 245 144 236 189 259 212 276 238 224 257 260 204 190 233 170 293 209 212 197 211 145 350 190 150 287 265 182 137 248 247 253 163 149 228 283 270 191 274 200 194 207 204 142 239 220 212 179 241 217 104 265 183 183 202 199 230 288 170 215 167 199 294 145 162 235 204 252 237 212 198 189 162 198 218 160 248 132 219 180 144 144 208 213 197 243 235 193 187 209 198 188 179 220 150 310 78 216 165 258 218 132 193 172 264 149 317 266 279 149 147 290 219 152 144 236 269 200 160 187 217 241 163 183 168 230 234 248 227 209 223 300 311 214 273 201 176 220 223 253 119 202 214 255 174 232 160 229 202 173 233 214 197 189 149 136 173 136 213 210 182 231 215 320 215 197 285 274 317 276 254 217 160 250 282 332 207 240 261 139 232 164 252 239 155 190 245 266 238 220 201 107 327 261 229 273 163 180 260 286 180 206 212 265 229 271 159 205 179 146 186 188 297 211 170 301 112 193 191 254 193 262 277 233 231 230 257 223 200 229 196 159 216 206 234 237 196 223 211 119 217 175 190 206 185 302 253 310 254 258 232 203 225 174 225 171 186 181 213 216 313 222 206 302 267 180 205 252 225 238 136 166 161 257 264 169 282 289 192 251 209 154 171 189 213 192 228 267 195 261 154 202 196 196 241 149 237 254 265 234 262 248 157 200 176 239 210 173 149 129 181 223 137 184 254 157 191 241 243 208 205 224 266 187 251 234 115 280 140 166 201 253 226 267 238 301 234 83 217 164 174 244 299 182 226 216 212 182 310 269 169 168 140 171 227 264 155 194 231 189 183 150 213 150 214 229 203 185 226 267 238 289 202 146 204 201 180 229 216 221 153 207 227 221 170 294 220 249 217 181 203 167 232 243 205 246 126 189 224 109 176 319 170 279 229 222 187 214 178 186 200 164 230 151 189 220 243 235 228 254 124 231 278 182 230 177 198 152 213 173 192 198 286 201 195 210 283 172 180 140 189 167 223 178 150 204 178 205 213 242 210 307 238 234 229 270 233 270 252 185 200 227 207 141 177 244 244 264 252 180 215 161 127 291 261 245 147 134 149 174 176 172 208 212 243 187 234 183 284 288 229 161 212 250 232 281 101 157 197 152 204 133 210 160 130 230 243 160 223 215 235 286 164 242 146 238 188 240 196 189 151 158 209 250 147 268 228 232 205 230 149 142 147 152 222 231 221 229 183 173 219 243 310 260 168 133 225 253 227 261 271 146 172 203 242 234 288 283 95 243 230 323 202 233 205 212 294 224 224 194 154 173 186 216 119 226 254 272 233 157 165 200 173 142 221 171 220 159 294 167 224 244 191 178 230 213 205 236 216 199 187 211 162 179 216 170 222 209 204 236 202 223 216 154 137 215 158 205 198 292 211 236 178 150 277 195 209 177 258 258 228 116 154 312 211 144 250 107 170 193 210 163 227 237 247 182 161 155 149 254 172 199 197 216 222 159 196 205 189 208 180 208 207 175 228 146 302 192 236 276 161 184 206 166 258 251 282 192 187 225 265 111 265 229 137 266 277 219 298 224 199 218 243 224 266 143 228 233 217 205 209 196 125 185 175 210 177 228 202 321 219 268 157 265 267 234 174 295 198 251 212 164 197 257 277 208 184 237 235 206 164 183 242 147 228 269 278 150 222 208 129 130 266 261 226 179 271 265 189 190 157 281 219 246 249 259 223 210 252 214 223 142 203 152 248 279 260 246 197 204 215 236 289 167 191 184 157 222 244 245 150 190 304 176 266 224 181 184 228 267 322 202 190 237 237 195 118 152 200 184 169 178 240 173 196 221 154 243 252 218 171 260 279 211 213 305 266 186 125 224 269 220 202 248 180 219 221 172 198 216 252 194 158 267 287 274 211 222 243 164 210 197 141 152 208 249 211 232 196 260 260 166 240 231 245 144 229 297 160 273 250 229 214 198 241 226 192 123 206 281 122 140 225 200 148 255 160 230 178 252 150 269 250 311 245 139 200 210 221 213 216 257 146 161 119 229 237 129 183 307 199 143 217 212 256 183 146 151 252 283 209 162 265 180 250 207 193 259 195 191 192 181 192 186 156 197 249 225 214 217 268 146 209 232 168 192 213 201 145 259 149 286 197 175 174 206 244 146 189 190 214 226 281 291 165 238 224 198 204 193 218 177 196 150 200 210 221 225 233 213 217 178 300 184 321 312 247 149 153 296 230 175 231 203 228 251 195 219 130 289 115 306 113 186 229 257 124 172 260 324 231 202 298 191 212 229 124 342 228 301 169 230 173 295 289 221 155 239 195 185 154 251 235 102 184 171 289 142 158 187 326 150 212 173 150 184 248 209 202 248 157 207 193 198 298 231 213 234 202 281 178 145 248 193 296 176 145 267 211 234 252 178 203 145 209 225 169 234 329 169 214 233 265 298 182 220 244 259 130 195 278 267 197 169 242 207 306 201 215 215 306 282 215 207 209 231 215 227 173 192 223 204 235 203 138 136 165 207 196 191 252 297 133 196 244 223 163 198 202 218 224 139 210 180 153 277 203 245 228 220 175 259 224 175 180 189 183 231 194 226 232 224 98 180 259 300 145 149 163 219 125 173 224 226 233 224 229 190 229 140 181 152 243 252 214 229 187 296 149 254 226 144 241 172 222 188 176 164 139 211 144 214 171 181 192 292 162 248 199 283 242 290 198 241 149 218 234 289 282 256 165 270 159 289 210 203 252 211 184 218 192 202 259 228 159 211 212 252 184 251 243 232 186 212 230 213 283 221 225 257 214 248 166 270 207 217 259 140 237 257 157 216 335 216 276 222 145 178 132 276 248 271 254 223 250 145 365 176 157 190 241 262 129 215 251 226 294 151 225 160 268 144 260 230 182 195 227 190 287 218 226 161 209 129 194 194 192 271 173 313 214 168 227 252 270 173 298 225 192 209 212 151 168 295 243 250 258 242 208 225 278 190 241 216 148 148 194 206 195 200 212 148 216 144 220 210 235 288 156 291 209 179 221 260 237 232 231 198 204 152 240 244 157 299 187 181 230 230 143 218 194 206 205 200 197 142 232 263 233 186 239 216 204 291 256 233 181 198 141 260 255 179 198 186 209 299 194 239 205 148 205 174 179 205 293 252 283 228 250 261 176 188 306 247 151 175 180 180 148 212 206 235 185 247 156 227 249 302 190 165 219 119 244 250 277 262 216 291 312 176 182 232 262 286 146 200 134 217 253 221 221 166 301 191 249 231 224 275 176 254 271 182 149 157 194 236 224 197 220 304 185 220 218 218 170 247 190 270 157 166 189 313 204 181 198 206 180 195 198 185 136 182 246 214 163 265 215 198 174 274 220 165 310 263 169 149 190 156 282 239 243 174 186 161 314 241 244 194 202 221 198 212 161 186 187 206 213 266 284 289 227 181 232 225 242 226 92 200 255 171 275 258 165 252 203 150 210 214 178 216 319 239 278 242 196 178 186 241 222 180 181 252 227 281 188 284 188 220 234 205 290 186 248 152 152 187 158 218 218 167 275 216 190 165 177 224 185 232 258 133 236 255 142 173 154 152 145 174 217 231 193 179 164 256 275 247 154 300 247 138 189 300 243 324 208 157 260 321 306 203 229 197 221 278 259 234 188 276 248 231 188 191 121 311 224 192 244 257 206 102 285 181 310 171 268 277 255 220 151 273 170 254 157 201 158 226 226 277 184 313 216 202 201 184 205 322 163 192 209 274 159 140 162 162 303 280 237 263 161 140 232 322 188 170 283 205 182 196 215 215 191 142 232 253 199 268 176 224 203 148 232 233 277 156 247 216 239 236 196 188 240 304 177 194 258 165 154 198 242 188 182 272 273 256 196 143 202 205 176 210 273 179 276 215 237 271 227 298 200 220 231 166 254 271 169 243 161 125 242 152 235 286 164 180 206 218 176 294 294 208 260 269 241 235 249 194 172 147 192 225 209 180 158 197 182 178 165 202 173 160 177 249 204 251 213 167 222 199 192 273 195 220 202 228 193 185 209 249 200 261 187 198 230 167 249 217 172 237 191 189 268 243 230 245 128 199 189 154 192 193 183 180 248 251 198 239 221 173 205 179 205 244 135 215 213 238 228 256 151 312 197 250 239 247 188 253 221 328 236 307 255 219 241 192 211 233 246 230 233 226 240 200 204 215 194 290 169 271 183 143 202 196 219 272 249 150 136 192 259 194 121 217 183 244 139 234 160 220 204 190 179 253 224 158 143 215 243 227 275 319 224 240 248 159 234 211 262 266 221 175 215 184 151 207 300 262 260 258 187 146 160 234 228 254 235 199 183 268 181 184 182 197 275 209 290 132 213 268 218 132 315 231 133 207 206 214 200 126 231 241 247 292 171 253 199 252 200 225 213 229 145 275 224 252 229 239 232 251 274 165 247 141 247 210 272 232 235 194 227 201 214 120 161 193 249 222 194 173 220 252 198 211 188 187 215 185 254 170 243 298 236 226 300 184 140 353 120 200 174 192 172 208 193 265 208 256 147 208 189 186 193 212 246 190 213 112 199 226 274 266 159 226 193 178 273 184 175 278 292 240 167 295 165 225 219 244 193 192 245 134 296 262 173 136 242 187 211 152 253 272 201 170 252 260 299 184 194 222 318 227 183 214 206 235 283 245 268 229 249 241 233 223 191 255 242 201 272 132 266 230 222 256 225 160 142 218 196 236 149 309 201 234 241 224 174 238 242 227 225 200 186 189 188 244 232 303 236 171 220 319 164 249 166 189 276 149 149 152 225 151 167 141 248 199 154 217 205 177 189 180 193 275 107 221 251 219 260 218 298 287 161 320 236 217 216 268 251 282 242 219 200 279 190 220 239 209 301 146 269 210 195 301 263 201 201 166 222 276 267 207 247 244 199 216 275 176 176 188 181 212 151 218 261 181 152 228 262 138 262 155 181 266 279 158 271 183 247 170 302 226 169 216 142 266 269 226 211 138 149 260 285 205 265 203 202 218 201 166 121 219 223 230 227 229 240 212 237 153 142 182 235 198 129 232 164 268 209 162 225 223 164 187 266 163 220 169 294 204 228 215 189 134 239 258 228 212 219 219 296 236 204 164 208 195 111 253 262 190 181 238 221 280 214 195 170 253 229 196 233 243 222 285 156 298 133 191 265 250 304 236 269 184 252 249 269 169 211 160 291 273 247 206 325 242 258 211 146 188 234 256 246 128 137 164 234 274 323 181 216 176 272 317 163 259 203 149 144 229 248 232 241 228 150 187 390 132 197 235 213 218 312 259 200 333 234 239 214 188 103 255 269 225 201 245 198 125 269 201 253 188 241 216 153 191 302 197 182 197 194 284 233 273 175 232 234 235 208 194 276 252 252 212 229 150 255 184 244 257 185 179 280 218 261 214 173 284 212 161 247 299 169 257 208 168 260 231 179 252 196 238 236 178 178 222 160 155 232 228 190 182 229 245 295 168 212 256 213 209 279 121 170 218 206 253 235 230 285 214 167 232 186 108 186 135 186 254 299 182 228 139 233 248 137 223 260 262 217 196 246 228 279 239 178 218 240 180 220 209 281 318 245 191 190 179 306 285 195 207 134 250 196 110 276 167 233 195 183 177 253 257 281 169 202 193 224 199 217 279 196 204 168 181 219 216 225 175 215 148 124 173 257 252 116 174 267 136 212 191 243 209 145 145 153 263 310 308 297 198 144 237 185 179 181 270 147 167 176 198 149 250 163 291 208 206 192 192 177 175 242 244 246 170 284 224 231 246 264 234 192 208 201 103 267 251 347 178 182 208 292 279 245 238 221 237 262 230 255 250 237 318 143 174 221 253 252 144 169 227 334 231 233 151 164 184 221 198 214 272 280 204 147 221 193 195 217 208 202 136 182 180 195 233 317 241 170 126 211 185 203 214 243 206 233 201 177 190 243 255 201 198 202 172 214 223 186 230 224 168 162 196 162 166 216 149 170 140 188 262 228 251 196 165 206 194 251 233 226 127 220 164 241 312 185 177 242 186 150 200 313 214 188 183 223 180 192 185 172 187 238 212 258 133 187 276 161 372 199 167 254 214 276 170 294 198 206 222 210 223 127 146 134 136 170 216 167 232 151 187 196 136 175 309 189 285 204 244 135 189 215 196 125 259 252 214 231 191 186 223 270 140 318 187 132 296 238 177 181 167 265 130 218 214 288 201 266 163 231 186 181 265 121 221 244 142 291 177 316 161 241 211 226 214 204 180 201 188 185 173 199 178 221 152 161 255 217 200 115 200 220 314 166 252 174 215 200 65 119 199 236 157 137 256 275 182 217 258 259 200 215 231 176 238 154 201 194 286 238 183 281 267 255 217 187 189 180 190 164 184 159 221 261 217 252 203 190 216 175 197 244 179 161 216 202 187 150 280 201 167 159 341 210 256 235 235 225 226 274 225 140 242 154 229 189 306 219 248 119 216 206 232 174 290 178 233 234 205 201 263 146 223 286 253 217 228 222 242 283 222 237 204 196 261 134 198 99 227 248 264 203 255 203 159 266 197 205 162 244 193 189 195 186 281 188 218 167 277 200 225 183 161 188 144 168 166 195 241 258 163 202 195 209 164 205 194 171 159 120 235 252 144 252 249 237 210 287 184 196 250 167 185 169 194 214 237 259 226 176 211 128 239 169 230 372 206 339 254 163 211 142 174 275 238 226 156 249 192 185 232 247 241 240 226 211 261 210 212 259 203 262 248 282 197 236 276 236 253 292 192 209 156 180 126 228 218 196 150 312 200 157 179 211 238 208 210 208 244 228 223 241 240 197 248 184 162 252 187 180 167 289 252 191 235 186 222 147 283 213 257 179 178 268 186 187 206 209 222 242 254 202 232 163 208 236 287 220 249 226 183 260 169 206 189 149 260 130 263 258 294 230 196 220 214 176 178 166 171 153 301 110 182 143 259 265 198 192 226 183 203 190 231 142 215 231 233 145 222 318 219 200 245 177 147 312 262 215 205 319 276 177 252 166 232 272 204 239 214 215 226 188 245 177 267 195 198 181 231 181 232 204 262 218 168 235 179 261 184 140 185 175 103 218 201 267 252 185 171 281 197 152 238 256 200 226 237 239 138 198 193 179 241 220 185 217 190 191 127 260 167 205 162 265 171 319 171 158 237 160 276 239 216 186 193 183 146 225 176 298 132 156 218 196 162 250 214 197 188 135 281 133 222 305 259 188 236 194 153 203 248 188 246 234 162 207 353 149 187 203 210 203 285 201 161 181 237 182 204 259 223 187 186 186 232 145 208 193 221 245 307 119 244 166 188 268 212 214 251 192 222 189 139 221 198 190 274 207 191 233 158 232 251 245 190 198 246 239 213 215 195 226 236 190 195 219 167 166 174 247 256 190 268 210 244 256 201 152 158 191 145 260 194 225 276 139 170 291 256 191 220 191 186 235 211 180 228 257 109 220 199 190 165 257 221 230 250 229 242 160 217 233 155 316 169 235 226 248 284 256 211 238 185 197 207 270 182 221 195 203 145 259 111 230 215 173 277 158 242 200 239 213 182 194 288 214 186 268 220 243 246 227 248 225 170 159 241 204 258 218 267 224 139 184 168 191 204 260 162 205 222 155 186 225 250 187 128 203 187 217 186 231 194 235 232 186 288 255 183 240 252 164 246 232 253 264 205 347 1</t>
-  </si>
-  <si>
-    <t>MIE(0.40634789352431155, 1.9530957111484497, -1.2799799031610146e-30, 1.6085408546926168)</t>
-  </si>
-  <si>
-    <t>0 0 2 0 0 0 2 0 2 0 1 0 2 2 0 1 2 0 0 1 1 1 1 0 2 0 1 0 0 1 0 1 1 0 3 2 1 1 0 1 2 0 0 3 2 1 0 1 1 0 1 0 0 1 1 2 0 2 1 0 2 1 0 2 0 1 1 2 2 0 1 1 0 1 2 2 0 1 3 1 1 1 2 0 1 0 2 1 1 0 1 2 0 0 0 1 2 0 3 3 2 0 2 0 0 2 2 2 1 1 0 1 0 0 1 1 0 1 1 1 0 1 1 0 1 2 1 0 1 0 3 0 0 0 1 1 0 1 0 2 0 1 1 1 3 0 3 2 1 2 1 2 1 0 2 0 1 1 0 0 0 1 1 1 1 1 0 0 1 1 1 1 0 2 0 3 2 0 1 2 0 0 0 1 0 0 1 1 1 1 0 0 1 2 2 1 0 1 0 0 1 2 2 1 0 1 2 2 0 3 1 1 0 0 1 0 0 1 1 0 0 1 1 0 0 0 1 2 1 0 1 1 1 0 0 2 1 1 1 1 2 0 1 0 1 1 0 1 0 2 1 2 1 1 2 0 0 1 1 1 1 0 0 1 0 0 1 1 2 0 1 0 1 1 1 1 1 1 1 0 1 1 0 1 0 0 1 1 0 1 1 0 1 0 0 2 0 0 0 1 2 0 0 1 1 0 1 0 0 0 0 1 0 0 1 0 1 0 1 0 0 0 1 0 2 1 0 0 0 1 1 1 1 2 2 0 0 1 4 1 0 3 1 1 1 1 1 0 0 1 0 0 2 0 0 1 1 1 0 1 1 1 1 2 0 0 1 1 1 1 0 2 0 1 0 1 1 1 1 1 1 1 1 2 2 0 0 2 1 2 1 1 0 0 2 0 1 1 1 2 2 1 1 0 0 1 1 1 0 0 0 1 1 2 0 2 2 1 0 1 1 0 0 0 1 1 0 1 2 1 1 2 0 0 0 2 1 2 1 1 2 1 1 2 2 0 3 2 3 1 2 1 1 2 1 0 0 1 0 1 1 2 0 0 0 1 1 2 0 0 0 1 2 1 2 0 1 2 1 0 3 0 1 0 0 1 1 0 1 0 2 1 0 0 2 3 2 0 1 1 3 2 1 3 1 0 2 2 2 0 1 2 1 2 0 0 0 0 1 3 1 1 2 1 0 0 1 0 2 2 0 1 4 2 0 1 1 1 0 2 2 1 1 1 0 1 0 1 0 0 0 1 0 1 1 0 0 1 0 2 2 1 1 2 1 0 0 2 1 1 1 1 0 0 0 0 2 0 2 0 1 1 2 1 0 1 1 1 0 0 3 1 0 0 1 4 0 2 2 1 2 2 1 0 1 1 0 1 1 2 1 0 2 0 1 0 0 0 0 1 1 0 1 3 2 3 0 1 0 1 0 1 2 0 0 0 0 2 0 0 1 1 1 3 0 1 1 1 1 2 1 1 0 3 1 0 1 1 0 0 1 3 2 1 1 1 1 1 2 1 1 1 2 2 1 0 1 2 0 3 2 1 1 1 1 0 0 1 1 0 2 1 1 0 2 2 0 3 4 2 3 1 1 0 0 0 0 0 1 1 0 1 0 2 0 0 1 0 1 1 2 0 0 0 0 0 1 2 1 0 1 0 2 1 1 1 0 0 2 2 0 2 1 0 1 1 0 0 1 1 3 2 1 1 3 1 1 0 1 1 0 0 2 1 1 0 2 1 1 1 0 1 1 0 2 0 0 1 1 0 1 2 0 3 2 1 1 0 1 0 0 2 1 1 1 0 0 1 1 0 1 0 0 1 1 0 0 1 1 3 0 1 0 1 2 1 0 1 1 0 0 2 1 0 1 1 1 1 1 1 2 0 0 0 1 0 0 1 0 0 0 0 0 2 1 1 1 1 0 0 0 1 0 2 0 0 0 0 2 0 0 0 1 0 1 0 1 0 0 1 0 0 0 1 2 0 1 1 0 0 0 0 0 0 0 1 1 1 0 1 1 1 1 1 2 0 1 2 2 2 1 1 1 1 0 1 0 0 2 0 0 1 1 0 1 2 0 1 0 0 1 1 0 0 1 3 2 0 0 2 0 1 0 1 0 1 0 1 1 1 0 0 0 2 1 1 0 1 1 1 0 1 0 1 2 3 2 1 1 0 2 1 1 0 1 0 0 2 0 1 2 0 2 1 1 2 1 1 1 1 1 1 0 0 1 0 2 1 1 2 0 2 2 1 1 1 0 1 0 0 2 1 1 1 0 1 0 0 0 0 2 0 1 2 1 0 1 2 0 1 1 0 1 1 0 1 1 0 0 0 1 0 1 2 0 0 1 0 1 1 1 1 0 0 0 3 0 0 0 0 0 0 1 1 0 0 2 0 2 0 2 0 1 0 1 1 2 3 1 2 1 0 0 0 2 1 1 0 1 1 0 2 1 2 0 1 1 3 1 2 2 1 2 0 1 0 1 1 2 0 1 0 2 1 1 1 1 1 0 0 1 1 0 1 2 0 1 1 2 0 0 0 1 1 1 1 2 2 0 0 1 1 2 0 2 2 2 0 0 0 1 0 2 1 0 2 0 1 2 1 1 2 1 0 1 0 1 1 1 0 1 0 1 0 0 1 1 2 1 2 0 3 1 0 0 1 1 1 0 2 0 0 0 1 0 1 1 0 2 0 1 1 0 0 4 1 2 2 0 1 3 1 1 0 0 2 0 1 1 0 1 0 0 1 0 1 1 1 1 1 1 1 1 1 0 1 0 0 1 1 1 0 2 2 0 0 0 1 0 1 0 2 1 2 2 3 0 0 1 1 2 1 2 0 1 1 2 1 2 0 2 2 2 1 0 1 0 2 1 1 1 1 1 1 0 2 1 1 1 1 2 2 1 1 2 0 0 2 2 1 0 1 1 0 0 1 1 0 0 1 0 3 2 0 1 1 0 1 2 0 2 1 1 2 1 0 1 0 1 2 1 0 1 0 2 1 1 0 0 0 0 0 1 1 2 2 2 1 1 0 0 0 0 0 2 0 0 2 2 1 1 0 1 1 1 2 1 0 0 1 0 1 2 0 0 1 1 0 1 1 1 1 1 1 3 0 2 1 1 1 2 1 2 1 0 1 0 1 1 0 2 1 1 1 1 0 1 0 0 0 1 0 1 1 1 0 1 1 2 1 0 0 2 1 0 2 0 1 2 1 1 0 0 0 2 0 1 1 1 0 0 0 2 2 0 2 1 2 1 1 0 2 1 2 0 1 0 2 0 0 0 1 1 0 1 0 0 3 2 1 0 0 0 0 1 0 0 0 1 1 3 1 1 0 0 1 0 0 2 2 1 2 0 1 1 1 1 1 1 0 1 2 2 1 0 1 2 0 3 0 0 1 1 1 1 1 1 1 0 0 4 2 1 2 1 1 1 0 1 0 1 2 1 0 0 1 1 0 1 0 1 2 0 0 1 1 2 1 0 1 0 0 0 0 2 1 2 3 1 1 0 0 2 1 0 0 1 1 2 0 1 2 1 1 0 1 3 1 0 1 0 1 2 0 2 0 1 2 0 0 1 0 1 1 2 1 2 0 1 1 2 1 2 3 0 2 0 2 1 2 0 2 2 1 1 1 0 1 1 0 1 0 0 2 1 1 0 1 1 1 1 0 0 0 2 2 1 1 1 0 2 0 2 0 1 1 0 0 0 1 2 0 0 1 1 0 1 0 2 0 1 1 1 1 0 2 0 1 0 0 1 0 0 1 1 1 0 2 0 2 1 1 1 2 2 0 1 1 0 2 2 0 2 1 0 0 1 0 0 0 3 0 2 1 1 1 1 1 0 1 0 1 1 0 3 0 1 1 0 1 0 1 1 2 2 2 1 2 0 2 0 3 0 0 1 0 2 2 0 0 1 0 2 1 1 0 0 2 0 3 0 1 1 1 1 1 2 1 1 1 0 1 0 2 1 0 0 1 0 0 1 0 1 1 1 1 0 0 1 0 0 0 2 0 2 2 1 1 3 1 0 2 0 0 1 1 1 2 1 3 1 1 1 0 2 1 1 2 0 0 0 0 0 0 2 1 0 0 1 0 1 2 1 2 2 1 2 2 1 0 0 2 0 1 1 1 1 0 0 0 0 0 2 2 0 1 2 1 0 2 1 1 1 2 0 1 0 0 0 0 2 1 0 1 0 1 1 0 0 1 1 2 1 1 1 0 1 2 1 2 1 1 3 0 1 1 1 0 2 1 2 1 1 0 2 0 1 1 2 1 3 0 1 2 2 0 2 1 0 1 1 0 1 1 2 1 1 3 1 2 1 1 1 1 0 0 1 0 1 1 1 1 0 0 1 1 1 0 1 1 1 0 2 2 1 1 1 1 2 1 1 2 0 2 3 1 1 0 2 0 0 2 1 0 1 1 1 0 0 0 1 0 1 1 1 1 1 2 1 1 0 2 0 0 3 1 0 0 1 1 2 0 0 0 0 1 1 1 1 2 0 1 0 3 0 1 2 3 1 2 1 1 1 1 3 1 3 1 3 0 1 0 0 2 1 1 0 2 0 1 0 1 0 1 2 0 0 2 0 0 1 1 1 0 1 2 0 0 0 0 1 1 2 2 1 0 0 0 2 1 1 2 0 0 0 1 3 0 1 1 1 1 1 1 1 0 1 1 2 2 1 1 0 0 1 2 0 0 2 1 1 0 1 1 0 1 1 4 0 1 1 2 2 1 2 1 1 1 0 1 0 0 2 1 2 1 0 2 3 1 1 1 0 0 1 1 1 0 1 1 0 0 0 0 1 0 1 1 1 1 0 0 1 2 0 3 0 1 0 1 0 0 2 0 1 0 1 2 0 1 1 2 0 0 1 3 0 1 1 2 1 1 1 1 1 0 1 1 2 0 1 0 0 1 1 2 0 1 1 2 1 1 1 2 1 0 1 1 0 1 0 1 2 1 1 2 1 3 1 0 1 0 1 1 1 1 2 1 1 1 2 0 0 2 1 1 0 0 0 1 0 1 1 0 2 2 1 1 0 1 0 0 0 2 0 1 3 1 2 2 1 0 1 1 0 1 1 0 1 1 2 0 0 1 1 1 3 1 1 1 2 1 0 1 1 1 0 0 2 2 1 1 1 0 1 1 1 2 0 2 0 1 1 0 2 0 1 2 1 0 1 1 1 1 0 0 0 1 1 1 1 0 0 1 2 1 1 2 1 1 1 1 1 2 0 1 1 0 0 1 0 0 2 0 1 0 1 2 2 1 1 2 1 1 0 1 1 0 0 0 1 3 1 0 0 0 0 0 1 0 1 1 1 1 1 1 1 2 2 1 0 1 1 0 2 1 1 2 1 1 1 0 1 2 1 1 0 1 2 0 0 2 3 1 0 1 0 1 2 2 0 1 1 1 1 3 1 2 1 1 1 0 1 2 1 0 1 1 1 1 0 1 0 0 1 1 0 3 1 1 2 2 1 2 0 1 0 0 1 0 0 0 1 0 0 3 1 2 1 3 2 2 2 2 2 0 2 1 0 1 0 1 1 3 1 1 0 0 1 1 1 1 1 0 3 2 2 0 2 3 0 1 1 2 1 1 0 0 2 1 0 1 0 0 3 2 1 1 2 0 0 0 2 0 1 0 0 3 1 0 0 1 0 2 1 0 1 0 1 0 1 2 1 0 1 0 0 0 1 2 0 1 1 0 1 0 0 1 0 2 0 2 1 0 1 1 0 2 0 1 1 1 0 0 0 1 0 1 1 0 0 1 1 2 1 2 0 0 1 1 0 2 0 3 1 0 1 2 1 1 0 0 0 0 0 0 2 0 0 1 2 0 0 1 1 2 1 0 1 1 0 1 1 0 0 1 1 0 0 0 1 1 0 2 1 0 0 0 1 1 1 1 1 1 1 1 1 1 0 2 1 0 1 1 0 2 2 1 0 0 0 0 0 0 1 3 2 2 3 1 0 1 1 0 0 1 1 0 2 0 1 1 0 1 0 1 1 2 1 2 2 1 0 1 1 0 1 0 0 0 1 4 2 1 0 1 1 0 1 1 1 1 1 3 1 1 1 0 0 1 1 0 1 0 0 1 0 1 0 2 0 1 1 1 1 0 0 1 1 0 0 0 1 0 0 0 3 2 1 0 0 1 0 0 0 3 2 2 1 2 0 0 2 2 0 0 2 1 2 1 0 0 1 1 1 1 4 1 1 1 2 1 1 2 1 1 2 0 0 2 1 1 0 1 1 1 0 0 2 0 2 0 1 0 2 0 0 0 3 1 1 1 1 1 1 1 2 2 1 0 1 0 1 2 2 1 2 2 1 0 0 1 1 0 2 1 0 1 1 0 0 0 1 1 0 1 1 2 0 2 1 2 2 0 2 2 0 3 0 1 0 2 2 1 1 0 1 2 1 1 0 1 0 1 0 2 1 0 1 0 0 2 1 1 1 2 0 3 0 0 0 1 1 0 0 3 0 1 1 1 1 0 1 2 1 1 1 1 1 1 0 1 1 3 1 1 2 1 0 1 0 1 0 0 1 2 1 0 2 3 0 1 3 1 2 2 1 1 0 3 0 1 1 1 1 1 1 0 1 1 2 1 1 0 2 0 1 4 2 0 0 1 1 0 1 1 1 1 1 2 0 1 1 2 0 0 1 0 0 0 0 1 0 2 1 0 0 1 0 1 0 1 2 0 2 0 0 0 2 2 2 0 1 0 3 1 0 0 0 0 2 0 1 0 1 1 1 1 0 2 2 0 2 2 2 1 1 2 1 0 2 2 2 2 1 1 1 0 1 1 0 0 0 2 1 1 2 2 0 1 1 1 2 0 2 0 1 0 1 1 0 0 2 0 0 2 1 1 2 0 2 1 0 1 1 1 1 1 1 0 1 1 1 2 1 1 2 0 2 0 1 0 0 1 0 1 2 1 1 3 1 0 0 0 1 1 1 0 1 2 2 2 1 1 1 3 3 3 0 1 1 1 0 0 0 2 1 1 0 0 2 1 3 1 0 2 0 3 2 2 0 1 0 1 1 1 0 1 3 2 0 0 1 1 2 2 0 0 0 1 2 1 1 1 2 1 1 2 0 1 1 0 1 2 1 2 2 1 0 1 0 0 1 0 0 0 2 2 1 2 1 3 0 1 0 2 3 1 0 0 2 0 2 2 1 1 0 0 0 0 1 0 1 1 2 1 0 0 0 2 2 0 1 0 1 0 0 0 0 2 1 2 0 2 0 0 1 0 1 3 3 2 0 2 0 1 1 1 1 1 0 0 1 1 1 1 1 3 0 2 1 0 1 0 1 0 2 1 1 1 2 1 1 1 1 1 1 1 1 1 2 4 1 1 1 2 0 0 1 0 1 0 1 2 0 1 1 3 2 2 1 2 0 2 1 1 0 2 0 0 1 2 2 1 1 2 3 1 0 1 2 0 1 2 2 0 0 2 2 1 3 0 0 1 1 0 0 1 1 1 2 1 2 0 0 1 0 1 1 1 0 2 0 0 0 1 1 0 1 1 1 0 1 1 3 1 2 1 1 0 2 0 1 1 1 1 0 1 2 0 1 0 2 0 0 1 2 0 1 2 0 0 1 0 1 0 4 2 1 1 1 0 0 1 0 2 3 1 1 1 2 1 2 0 0 0 1 1 2 0 2 0 1 1 1 1 0 1 0 2 1 1 0 1 1 0 0 0 1 1 0 2 0 1 1 1 1 1 0 0 0 0 2 2 1 2 2 0 1 1 0 1 3 2 1 1 2 0 1 0 1 0 0 1 0 1 1 1 1 1 1 1 0 1 0 1 3 0 1 0 1 1 0 0 2 0 0 0 2 2 1 0 1 0 0 1 0 0 2 1 0 3 1 0 1 1 1 0 1 2 3 1 1 1 0 1 1 1 2 3 1 2 0 1 0 2 2 3 0 1 1 1 1 1 0 0 2 0 3 0 2 3 1 1 1 1 0 1 0 2 3 0 0 1 1 1 1 0 1 2 1 1 2 0 0 1 0 2 0 2 2 1 1 0 2 2 0 1 0 0 0 1 2 1 2 2 0 1 1 2 0 2 0 2 0 0 0 0 1 1 0 1 0 0 0 0 0 0 1 0 0 0 1 1 0 1 1 0 1 1 0 0 2 0 0 1 1 3 1 1 1 1 0 2 1 1 1 1 1 0 0 1 1 0 1 1 0 2 1 2 2 0 3 0 1 1 2 0 1 2 0 0 0 1 0 1 0 2 2 2 1 1 0 1 2 3 1 0 0 0 0 1 3 2 1 0 2 0 0 0 0 2 0 0 1 1 0 0 0 1 1 1 0 2 0 0 1 2 1 1 1 1 1 0 1 2 1 1 0 2 0 1 0 1 0 1 2 1 0 3 3 0 0 1 1 2 0 1 0 2 3 1 2 0 2 0 1 0 1 0 0 1 1 0 1 1 0 0 1 0 1 2 1 0 0 1 1 2 1 0 0 2 0 0 1 1 2 1 1 1 0 0 3 2 1 1 0 1 1 1 1 0 1 1 1 3 1 4 1 0 1 2 0 1 1 1 0 2 1 2 2 1 1 1 0 2 2 2 1 1 2 1 0 0 0 0 1 1 0 2 1 1 1 1 1 0 1 1 0 0 3 1 1 0 0 0 0 2 2 0 1 0 0 1 0 1 0 1 2 0 0 0 2 0 0 1 2 0 0 1 1 0 0 2 1 1 0 0 1 1 0 0 1 1 2 0 1 2 0 1 0 0 0 2 1 0 1 1 1 1 0 1 1 4 1 1 1 1 1 0 1 1 1 1 0 0 2 1 1 1 0 0 2 1 0 0 1 1 0 1 1 2 1 0 2 0 2 1 1 1 2 1 1 0 1 1 1 1 1 0 1 1 2 2 1 0 1 1 2 1 2 0 0 3 3 1 1 2 0 0 1 0 0 1 2 2 0 0 0 2 1 3 0 2 2 1 1 0 1 3 2 2 1 2 2 0 1 2 1 3 4 1 0 1 1 2 0 0 0 1 1 1 0 1 1 1 1 1 1 0 0 1 0 0 1 3 0 0 0 1 1 0 1 1 0 1 1 1 0 0 2 1 1 0 2 2 3 1 2 2 1 0 0 1 1 2 0 1 0 2 1 1 2 2 2 0 0 1 1 1 1 0 1 1 0 0 2 1 2 0 1 0 1 2 1 0 0 1 1 1 0 0 0 0 1 1 0 1 2 0 1 1 1 1 0 2 1 0 0 1 0 0 1 1 0 1 1 1 1 1 2 1 0 0 0 3 1 1 0 2 1 2 2 0 0 1 0 0 1 0 1 1 2 1 1 0 0 0 0 1 0 3 1 1 2 0 0 0 1 1 1 0 1 0 1 1 1 1 2 1 2 1 1 0 0 0 2 1 0 2 0 1 2 2 1 0 1 1 1 0 0 0 1 1 1 0 2 0 2 0 1 1 2 2 1 1 3 0 0 1 0 0 0 2 1 1 2 2 0 0 1 0 2 2 2 2 1 1 0 1 2 1 2 2 0 1 0 0 0 1 2 1 3 1 1 1 1 0 1 1 2 0 0 1 0 1 0 2 1 2 0 0 0 1 1 1 1 3 0 0 0 1 1 1 3 3 1 0 1 0 1 1 2 1 1 0 1 0 1 2 1 1 1 0 0 2 0 1 0 2 1 0 2 1 1 0 3 1 0 0 2 1 0 0 0 0 0 2 0 0 0 0 2 0 1 1 0 0 2 1 0 1 0 0 1 0 1 0 1 1 1 2 3 1 1 2 2 2 1 1 1 1 0 1 0 0 1 1 1 2 1 0 0 1 1 1 2 2 1 0 1 0 1 0 2 1 0 0 1 0 0 0 0 0 1 1 1 0 1 1 2 0 0 0 1 1 1 0 1 1 1 1 0 0 0 0 2 1 1 1 0 0 3 1 1 1 1 1 0 1 0 0 1 0 0 1 2 1 1 0 0 2 1 1 1 0 1 0 0 2 1 1 0 0 0 0 0 1 0 3 1 2 3 2 1 0 1 3 0 2 1 1 0 0 0 1 0 1 1 2 1 0 1 1 2 0 1 2 1 1 0 2 1 0 2 2 1 1 2 2 1 1 0 2 1 0 1 1 2 0 2 1 0 0 0 1 0 2 1 0 0 0 0 0 0 1 1 2 2 1 1 1 2 1 0 0 1 0 1 1 1 2 0 1 0 4 0 0 0 0 1 0 3 0 0 1 2 1 1 1 0 1 0 2 1 2 1 1 2 1 1 2 0 1 1 2 1 1 1 1 2 0 0 2 1 0 1 1 4 0 1 0 1 0 2 1 0 1 1 2 1 0 1 2 0 2 1 2 2 1 0 0 0 1 2 2 0 3 1 0 0 2 0 2 1 1 0 1 0 2 0 1 0 0 1 1 1 3 1 1 0 0 0 0 1 2 0 2 1 1 1 2 0 1 0 3 1 0 2 1 0 2 2 2 1 2 0 0 3 1 1 2 0 2 0 2 1 1 1 1 1 1 0 2 0 0 1 1 0 3 1 2 0 1 1 0 0 1 2 1 1 1 1 2 0 1 1 1 0 2 1 0 0 0 1 0 0 0 2 0 1 3 2 0 1 2 0 2 0 1 1 1 1 0 1 1 0 0 3 2 2 1 1 1 0 0 0 1 2 0 0 2 2 1 3 0 0 1 1 0 1 2 2 1 0 2 0 1 1 0 2 0 1 2 1 0 1 1 0 2 1 0 3 0 1 0 1 0 1 2 0 0 1 0 0 2 0 0 1 0 0 1 1 2 1 1 0 2 2 0 2 1 1 1 1 1 1 2 1 1 0 1 1 0 0 0 1 0 0 2 1 0 1 0 0 0 1 1 0 0 3 1 2 0 1 2 0 2 2 2 1 1 0 2 0 1 0 0 0 0 3 1 0 1 1 2 1 1 1 2 0 2 0 2 0 1 0 0 1 2 1 0 1 0 0 1 0 1 2 0 2 2 2 0 0 0 1 1 1 3 2 1 1 0 2 1 1 1 0 1 0 1 1 0 0 0 1 0 0 1 1 0 0 0 0 0 1 0 0 2 0 2 1 1 1 1 2 1 2 3 0 1 0 3 2 0 0 1 2 1 2 1 1 2 1 0 1 1 0 1 0 0 1 1 1 0 0 0 1 1 2 3 0 3 1 1 1 2 1 2 0 0 1 1 0 2 2 0 0 0 1 1 2 0 1 0 1 0 0 0 3 0 2 1 2 2 2 1 0 1 1 1 2 2 2 0 0 2 2 1 1 0 1 0 1 1 1 1 0 0 2 3 2 2 0 1 2 2 2 1 1 1 1 2 1 0 1 1 1 2 0 1 0 1 1 0 2 0 1 2 1 0 0 0 2 2 2 2 0 2 1 1 0 1 0 1 1 1 1 1 0 0 2 1 0 1 1 1 1 2 0 1 2 2 2 2 2 0 1 1 2 1 1 2 2 0 1 2 0 1 1 3 2 2 1 0 2 2 1 2 2 0 2 2 0 0 1 0 1 1 1 0 0 1 0 1 0 1 2 0 1 3 1 1 1 1 0 1 1 0 0 2 0 3 0 1 1 2 1 0 1 1 2 0 2 3 1 0 0 2 0 1 1 0 0 1 1 0 1 1 2 2 1 0 0 1 1 0 1 2 1 2 0 1 2 0 0 1 0 2 1 0 2 1 1 0 1 0 2 0 1 1 2 1 2 1 3 0 0 1 1 0 0 0 0 1 2 1 0 0 3 1 1 1 0 1 0 1 0 0 0 2 2 0 1 1 1 1 2 2 1 1 1 2 0 0 1 0 2 0 2 2 0 0 0 0 0 0 1 2 2 0 1 0 1 0 1 1 0 1 0 1 0 0 2 0 2 0 1 1 0 0 0 1 1 1 0 0 1 2 0 0 1 3 0 1 0 1 0 1 0 2 1 0 2 1 0 3 2 3 0 1 2 0 2 0 1 1 1 0 0 1 2 1 0 0 1 1 1 1 1 0 1 0 1 0 0 2 1 2 2 0 1 1 2 0 2 3 0 1 1 0 1 1 0 1 0 1 0 0 1 1 1 1 2 0 0 1 1 1 0 1 0 0 0 3 3 2 0 0 1 1 0 2 1 1 1 1 0 2 1 1 0 2 3 3 2 0 2 0 1 2 2 1 1 0 0 2 0 1 0 1 1 0 1 0 1 1 0 0 0 2 1 1 2 1 0 1 2 2 1 1 1 0 3 2 1 1 2 0 1 1 2 3 1 0 1 1 1 1 0 0 2 1 1 0 1 1 0 0 2 1 1 1 0 1 0 2 1 1 0 0 0 1 1 1 0 2 1 1 2 0 1 0 1 3 0 1 1 0 0 1 3 1 2 0 2 1 0 0 1 1 1 0 2 0 1 1 2 1 2 1 1 1 1 1 1 2 1 0 1 1 0 0 0 1 0 2 1 1 1 2 0 0 1 0 1 0 0 1 1 1 1 1 2 1 0 0 0 1 0 2 1 2 1 0 2 2 1 1 1 1 0 1 1 1 1 0 3 2 0 0 1 0 0 1 1 2 2 1 2 1 0 0 0 1 1 1 2 2 0 1 1 1 1 0 1 0 2 2 1 0 1 1 2 2 2 0 0 1 0 0 1 1 1 1 1 1 0 1 2 0 2 1 0 1 1 1 1 1 1 1 1 1 0 1 1 1 2 1 0 1 1 0 1 0 2 0 1 2 2 0 0 1 1 1 1 1 1 0 0 1 1 0 0 1 2 2 2 2 0 0 1 1 3 1 0 0 0 1 0 3 0 1 0 1 1 1 0 0 2 0 0 2 2 0 0 2 0 0 1 0 1 2 0 0 1 0 1 2 0 0 1 1 1 1 0 1 2 0 2 2 1 1 0 0 3 1 1 1 0 1 0 2 0 0 1 1 0 3 1 1 1 2 0 0 1 1 1 0 1 1 1 2 1 1 2 2 0 0 2 1 2 1 2 0 0 1 0 0 1 0 0 0 1 3 1 2 0 1 1 2 0 3 1 0 2 3 1 0 0 2 1 1 0 0 2 0 1 0 1 0 0 1 2 0 2 0 2 2 0 0 1 1 1 0 0 0 1 2 2 2 1 1 0 1 1 0 0 1 0 1 2 2 0 1 1 1 0 1 1 1 2 1 0 1 0 2 1 0 0 1 1 2 1 2 0 1 2 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0 0 1 2 0 0 0 1 0 1 0 0 3 1 1 1 1 1 2 1 1 2 0 2 1 1 0 2 1 0 2 2 0 0 0 0 2 1 0 1 1 1 1 2 0 3 1 1 1 1 0 2 1 0 0 2 3 0 0 3 0 1 1 2 2 2 2 0 2 1 1 1 0 1 1 1 0 1 1 0 2 1 2 0 1 0 1 2 1 0 1 1 2 2 1 1 1 1 2 0 2 1 1 1 1 0 2 0 2 1 1 2 2 1 1 1 1 2 0 1 1 2 2 0 2 2 0 1 2 1 0 0 1 1 0 0 1 2 1 0 3 0 2 3 2 0 0 2 1 0 0 1 0 1 0 0 1 1 1 0 0 0 1 0 1 0 1 0 2 1 2 0 0 0 0 1 0 0 2 1 1 1 1 1 1 3 1 1 1 2 1 1 1 0 1 0 1 2 1 1 0 0 0 0 2 1 1 2 0 2 2 3 1 0 1 1 2 1 1 2 0 1 0 4 0 0 0 0 1 2 0 0 1 1 0 1 2 1 0 2 2 1 1 0 2 2 1 1 1 1 0 1 0 2 1 0 1 1 3 1 2 1 1 2 0 1 1 2 1 0 1 1 1 0 0 2 0 1 0 1 0 2 3 0 1 2 2 1 1 2 1 2 0 1 0 0 1 0 1 0 1 0 1 0 2 1 0 2 2 1 0 2 0 0 0 0 0 1 1 1 0 0 1 1 1 0 0 0 1 1 0 0 0 0 0 1 0 2 1 1 1 2 1 1 4 1 0 0 0 0 1 1 0 0 2 0 0 1 0 1 2 2 2 1 1 2 0 1 2 2 2 3 2 4 0 2 0 2 2 0 0 0 2 0 1 2 2 2 0 1 1 2 1 1 1 1 1 0 0 1 2 0 0 0 2 2 0 0 0 2 0 0 1 0 1 2 2 1 1 0 0 1 1 2 0 0 1 0 0 0 1 0 0 2 1 1 1 1 1 0 0 1 0 3 1 1 0 1 1 1 1 2 1 0 0 2 2 0 2 0 0 2 0 2 1 2 0 1 1 1 1 0 0 2 0 0 1 0 1 1 1 1 3 1 1 1 1 2 1 0 1 1 1 0 1 1 1 1 0 0 1 2 1 1 2 3 1 1 0 0 1 0 1 0 0 2 2 0 1 1 1 0 3 1 0 2 1 0 0 1 0 0 2 2 2 0 1 1 2 0 0 0 2 1 0 3 1 1 1 1 0 0 2 2 1 2 1 2 0 2 1 0 1 2 0 1 2 2 1 1 1 1 2 0 1 0 1 0 0 2 0 2 1 0 0 0 1 0 1 1 1 0 1 1 2 1 0 2 0 0 2 1 1 1 2 0 0 0 1 4 1 0 2 0 0 1 3 1 1 2 1 0 1 1 2 0 0 0 2 2 1 1 1 1 1 2 2 1 0 1 0 2 0 0 2 1 0 1 0 1 0 1 0 2 1 0 2 0 0 0 0 0 0 1 2 3 1 1 1 3 2 1 2 1 0 2 0 0 2 1 0 1 0 1 1 1 1 1 2 1 1 1 0 2 2 0 1 1 3 2 1 1 0 1 0 1 0 0 0 3 1 1 2 1 0 2 1 1 0 1 0 0 1 0 2 2 0 0 1 0 1 1 1 3 0 2 0 0 0 1 2 2 1 1 1 0 0 0 0 0 1 2 0 2 1 2 0 0 0 0 0 1 1 0 0 0 0 0 2 1 1 0 3 2 2 2 2 1 1 1 2 1 3 0 0 2 1 1 0 1 2 1 1 0 1 2 1 1 1 0 3 0 1 1 0 0 0 2 2 1 0 0 0 0 1 0 2 0 0 1 0 1 0 0 1 2 0 1 1 0 1 2 2 1 1 0 0 1 0 1 1 1 1 1 1 2 1 2 1 3 1 2 1 3 1 1 3 1 2 1 0 1 0 1 0 1 1 3 1 1 2 0 1 1 0 2 1 0 1 0 0 2 0 2 0 2 4 1 1 1 1 1 1 2 1 1 1 1 1 1 0 2 1 1 0 1 0 2 1 0 2 1 0 1 0 0 0 0 0 1 0 0 1 2 2 1 3 0 1 0 0 1 0 0 1 1 1 1 2 2 2 0 1 0 0 1 2 0 1 2 1 0 1 0 2 0 2 0 1 0 0 1 0 0 1 0 1 0 2 1 1 2 2 1 1 1 2 0 1 0 0 0 0 0 0 0 2 0 0 1 0 2 1 0 0 0 2 2 0 2 1 0 1 2 0 0 0 0 0 1 2 0 1 1 3 0 1 0 1 0 1 1 0 0 1 2 2 1 0 0 1 2 1 0 4 2 0 1 3 2 2 1 1 0 1 1 0 1 0 1 0 2 1 1 2 0 1 2 1 0 0 1 1 1 1 0 0 1 0 0 2 0 1 2 0 0 2 0 0 1 0 2 0 1 1 1 2 1 3 2 0 1 2 3 0 0 1 0 1 1 2 0 0 0 2 1 1 1 0 0 1 0 2 1 1 0 1 3 0 0 1 1 0 0 1 0 2 3 1 0 1 0 1 0 1 1 3 2 1 0 2 0 1 0 2 0 1 0 1 0 2 1 1 0 1 1 1 2 1 1 2 0 0 0 0 1 1 2 0 1 1 0 0 0 2 0 1 1 0 1 2 3 0 2 0 0 1 2 0 1 1 0 2 1 3 1 0 1 1 0 0 1 1 1 0 1 1 1 0 0 1 0 1 0 2 0 0 0 1 0 1 1 1 1 1 0 2 0 1 0 1 1 1 2 1 1 2 0 2 1 0 1 0 2 2 2 2 3 1 1 0 1 0 0 1 1 0 1 0 1 0 0 1 1 1 1 1 0 1 1 2 1 0 2 0 0 1 2 1 1 2 0 1 1 1 1 1 1 1 1 1 0 0 1 1 1 1 0 0 2 0 1 1 0 1 3 1 1 1 1 1 0 1 0 1 0 1 0 1 0 1 0 1 0 1 0 1 0 1 1 1 1 2 0 1 2 0 2 1 0 1 1 0 1 0 0 1 0 0 1 0 1 0 1 1 1 0 1 1 0 0 0 1 0 1 1 0 1 0 1 1 1 1 2 0 0 1 0 1 1 2 4 1 0 1 2 1 0 1 1 2 0 0 1 0 1 1 0 1 1 0 1 3 0 2 1 1 0 0 1 0 1 1 0 1 1 2 1 3 2 0 0 1 0 1 0 0 2 0 1 0 1 1 1 0 1 2 2 2 2 0 1 1 0 2 2 0 2 1 2 1 0 0 1 0 2 1 1 1 1 1 0 3 0 0 1 0 0 2 1 1 2 1 2 2 0 0 1 0 1 2 1 0 0 1 0 0 1 0 0 2 2 0 1 2 0 0 2 0 3 1 3 1 0 0 0 0 1 4 4 1 0 1 0 1 1 2 1 3 2 1 3 0 2 2 1 1 0 2 3 1 1 0 1 0 1 1 0 0 1 1 0 2 0 1 0 1 1 1 2 1 1 1 1 0 0 1 2 2 1 0 2 1 0 1 1 0 0 1 1 0 0 2 1 1 1 1 0 1 1 0 0 1 1 2 1 0 1 1 0 0 0 2 2 0 2 1 2 2 0 0 2 0 1 0 2 2 2 1 3 2 0 1 3 1 0 0 1 1 1 1 0 1 0 2 1 0 0 1 0 3 1 1 1 0 1 1 0 1 1 0 1 1 1 0 0 0 1 1 1 1 1 0 1 0 1 0 0 1 0 1 0 2 1 1 1 1 3 1 1 0 0 0 0 0 2 1 0 3 1 0 1 1 0 1 0 1 2 0 1 1 0 1 1 2 0 0 2 0 2 2 2 0 1 1 1 2 1 1 0 2 2 1 0 1 2 1 1 1 0 1 0 0 2 1 1 1 0 1 0 0 0 2 1 0 0 2 2 1 0 1 0 1 0 1 1 0 0 1 0 1 0 0 1 0 0 1 2 3 1 1 1 2 1 2 1 0 3 3 1 1 3 1 1 0 2 0 1 1 2 2 0 0 1 2 2 2 3 1 1 1 0 1 1 1 0 0 2 2 1 0 0 0 0 0 0 2 0 1 1 1 0 0 0 1 0 1 2 2 2 3 0 0 2 1 2 0 1 1 0 0 1 3 1 2 2 0 1 1 0 1 0 0 0 0 1 1 1 0 0 1 1 0 0 0 1 1 0 1 0 2 1 1 3 0 2 0 1 0 0 0 0 2 1 1 1 1 2 0 1 0 0 1 2 0 1 1 0 0 2 2 0 1 0 1 0 1 1 0 1 1 0 1 1 0 1 2 2 1 0 1 1 2 1 1 1 0 1 1 1 2 2 0 1 3 1 1 1 1 1 0 2 0 1 0 0 0 1 1 1 0 2 1 2 0 0 1 1 1 1 1 2 1 2 2 1 1 0 0 1 0 1 1 2 0 1 1 1 2 1 0 1 1 1 2 1 2 1 1 0 2 0 1 1 0 0 0 1 1 1 2 2 1 1 0 0 1 0 3 0 1 1 1 0 3 2 0 1 1 0 0 1 2 0 0 0 1 2 1 2 2 0 0 2 1 1 1 2 1 0 1 2 1 0 0 0 2 1 0 1 2 2 0 3 1 0 2 1 0 1 0 0 1 1 2 0 1 1 2 0 2 1 1 0 2 1 1 1 1 1 1 1 1 1 0 0 1 1 1 0 1 1 1 1 0 1 1 2 1 2 0 1 1 0 1 1 0 1 2 0 0 1 1 1 1 1 1 1 0 0 1 0 2 2 1 1 1 1 1 1 0 0 0 0 2 0 0 1 1 1 0 2 3 0 1 2 2 0 1 1 1 0 1 1 0 2 0 0 2 1 0 1 0 2 1 2 0 1 2 1 0 2 1 0 0 2 0 0 1 0 2 0 1 0 0 1 1 0 1 1 3 1 1 0 1 3 1 0 0 2 1 0 0 2 1 1 0 0 1 1 1 0 1 1 0 0 0 1 2 1 1 0 1 0 2 2 0 3 1 0 1 2 1 2 0 0 2 0 0 1 2 1 0 0 1 1 1 1 0 1 0 0 1 1 3 1 1 2 1 2 1 1 1 1 0 1 0 1 0 0 2 0 2 1 1 1 1 2 0 1 2 1 1 1 0 2 0 0 3 2 1 0 0 0 2 0 2 1 3 2 1 1 2 1 0 4 0 1 2 2 1 2 0 2 0 0 1 2 1 0 0 0 0 0 2 2 0 1 0 2 0 1 0 2 1 0 0 0 1 2 1 0 1 0 0 0 2 1 2 1 1 0 1 0 0 2 1 0 1 0 2 1 1 0 0 3 1 2 0 0 0 0 1 0 0 2 1 0 0 1 4 2 0 0 0 1 0 1 0 1 1 0 0 1 0 0 1 1 0 1 1 1 0 0 1 0 1 1 2 1 1 1 0 0 0 1 1 0 3 0 1 1 0 2 1 2 0 2 0 0 0 2 0 1 0 1 0 1 1 0 2 2 2 2 2 1 1 1 0 0 1 0 1 2 0 0 1 2 1 1 2 1 2 0 1 1 0 3 2 1 0 1 1 1 0 2 1 1 0 1 2 1 0 0 1 0 2 0 1 0 2 0 0 1 0 0 0 0 2 0 2 1 1 1 0 0 2 0 0 0 1 1 1 0 3 2 0 2 0 1 2 1 2 1 0 2 0 1 2 1 2 1 0 1 1 2 2 1 1 0 2 0 1 1 2 2 1 2 2 0 0 0 2 2 3 1 3 0 2 1 1 1 0 1 0 1 1 2 1 2 0 1 1 0 1 1 1 2 2 3 1 3 1 1 1 0 1 1 0 1 1 4 1 0 1 0 0 1 0 2 0 2 0 1 0 0 1 0 1 3 2 1 0 1 0 0 2 1 1 2 1 0 3 0 1 1 0 0 1 3 0 1 1 0 1 2 1 1 0 2 0 2 1 2 0 2 1 1 1 0 2 0 1 1 1 0 1 1 0 1 0 1 1 2 1 1 0 1 0 3 0 1 0 1 0 0 1 0 2 0 0 4 3 0 1 0 1 1 1 0 1 1 0 0 2 1 0 1 1 1 1 1 1 1 0 1 1 1 2 1 2 0 0 0 0 2 1 3 2 1 1 1 2 1 1 1 1 2 2 1 1 0 1 0 1 1 1 3 0 0 0 1 0 1 1 0 2 1 1 1 2 2 2 1 0 2 0 1 1 2 3 2 0 1 0 1 1 0 1 0 1 1 1 0 0 1 0 1 1 0 1 1 0 2 0 1 0 0 3 2 0 1 1 2 2 2 1 1 1 1 1 2 1 2 1 1 1 0 0 1 0 0 1 2 1 0 1 0 0 2 1 0 1 1 1 2 1 1 0 0 1 1 0 1 0 1 0 1 1 2 2 1 1 0 0 0 2 0 0 2 2 1 0 0 1 0 1 2 1 2 0 0 0 0 2 1 1 1 1 1 1 0 2 1 0 1 0 0 1 1 0 1 2 0 0 0 1 1 1 1 1 1 0 1 0 2 2 2 3 0 1 0 1 0 1 0 0 1 1 1 0 1 2 1 0 1 1 1 3 2 1 1 1 2 0 1 0 0 0 0 1 1 1 0 2 1 1 0 2 1 0 0 0 2 1 0 2 1 0 1 0 0 2 1 2 0 0 0 1 1 0 1 1 1 1 1 2 0 1 0 1 1 1 2 1 0 0 0 1 0 0 0 1 0 1 1 2 1 0 0 2 2 0 1 2 2 0 3 1 1 0 1 0 1 1 2 1 1 1 1 1 2 2 2 0 1 0 1 1 0 2 1 2 1 1 1 0 0 1 2 1 0 1 2 1 2 3 2 1 1 1 1 0 0 1 2 1 1 0 1 0 0 2 1 1 0 0 0 2 0 2 0 1 0 0 0 0 0 3 0 2 2 1 1 1 0 1 1 2 0 1 1 2 2 1 1 0 2 0 2 1 2 0 0 1 3 1 0 0 1 1 0 1 0 1 1 0 2 2 1 0 1 1 1 2 1 1 0 1 0 0 1 1 0 0 2 0 3 0 1 0 3 1 0 0 1 1 1 1 1 1 1 2 0 1 0 0 1 1 1 1 2 2 0 1 1 0 0 2 2 0 1 1 2 1 2 0 0 0 1 0 2 0 2 1 0 2 2 1 0 1 1 1 1 0 1 1 0 1 0 2 0 2 2 1 0 2 0 0 1 1 0 1 0 3 1 0 1 1 0 2 1 0 0 3 0 0 0 0 0 2 1 1 1 1 1 2 0 0 2 1 2 2 2 1 0 1 0 0 1 1 1 1 0 3 1 0 0 2 1 1 2 0 0 1 0 1 1 1 3 2 1 1 0 1 0 0 1 1 0 1 1 1 1 1 0 1 0 2 0 1 1 0 1 0 0 2 0 0 1 0 1 0 0 0 1 3 1 1 2 2 2 0 0 0 0 1 0 0 0 2 1 1 3 0 0 1 0 2 1 0 1 1 1 2 0 0 1 1 0 2 0 0 2 1 1 0 2 1 1 0 3 1 1 0 0 0 1 0 0 0 1 0 2 0 1 0 1 3 1 0 1 0 2 2 1 1 0 1 2 0 3 1 2 1 0 2 2 1 0 0 1 1 1 2 0 2 3 1 1 0 0 0 1 1 3 1 1 1 1 1 1 2 3 0 4 0 1 1 0 1 2 1 0 1 1 1 3 0 1 1 0 1 0 2 2 0 1 0 1 1 0 0 1 1 1 1 1 1 0 2 1 0 0 1 1 1 0 2 0 0 0 2 2 0 0 0 0 2 0 1 1 1 0 2 1 2 0 2 1 1 0 1 0 1 1 1 1 1 0 2 2 0 2 2 1 0 0 2 2 2 1 0 1 0 3 1 0 1 2 0 1 0 1 2 1 1 2 1 0 2 1 0 1 2 1 1 1 1 0 1 1 0 1 0 2 0 2 1 2 1 2 1 0 1 0 0 1 0 2 2 1 1 0 0 1 0 2 3 1 1 1 0 0 0 1 1 1 1 1 2 1 1 1 2 2 0 1 2 0 1 0 0 0 0 0 0 0 1 1 2 0 1 0 2 1 1 1 1 0 1 0 1 1 1 1 1 2 1 1 0 0 1 1 0 2 1 1 0 1 1 0 0 1 1 0 0 0 1 0 2 2 1 1 2 0 1 2 0 0 0 2 1 1 1 1 0 2 1 2 1 0 1 1 0 1 1 3 0 1 0 0 0 0 0 1 1 2 2 3 0 0 1 2 0 1 0 2 0 1 1 2 2 1 0 2 1 1 0 1 1 0 0 0 0 0 1 1 1 1 1 1 1 1 1 0 0 1 1 1 0 1 3 0 2 1 1 1 0 0 2 1 0 2 1 0 2 2 0 1 1 1 1 1 2 1 1 0 1 1 1 0 0 2 0 0 1 0 0 0 3 1 1 1 4 1 0 1 1 0 0 1 1 1 1 0 1 0 3 0 2 1 1 1 3 2 2 1 0 0 1 0 0 0 1 1 2 1 1 0 0 1 2 1 2 2 2 4 2 2 0 1 1 0 1 1 0 2 0 0 0 2 0 1 1 1 1 2 1 1 2 1 1 1 1 2 0 0 0 0 3 1 1 0 2 1 0 1 1 1 1 0 4 0 1 0 0 1 3 1 0 1 2 1 3 0 0 0 1 1 0 0 0 1 2 0 2 1 0 2 2 1 3 2 1 0 2 1 0 0 0 2 1 2 1 1 0 0 1 1 1 0 1 1 0 0 2 2 3 0 1 0 1 2 0 0 1 1 1 0 3 1 0 1 0 2 0 2 0 0 0 1 0 0 1 1 1 0 1 0 0 1 0 0 0 0 0 1 1 1 0 1 1 0 1 0 1 1 1 0 2 0 1 5 1 1 1 2 0 1 1 0 1 0 2 2 1 1 0 1 1 0 0 0 1 1 1 0 2 1 0 1 0 1 3 0 1 0 1 0 0 1 1 1 2 2 1 0 0 2 1 1 0 0 0 1 0 0 0 0 0 1 0 0 0 1 1 1 0 0 2 0 0 0 1 1 1 2 3 0 0 2 2 0 1 0 1 2 0 0 0 1 1 0 0 0 1 0 1 1 0 1 0 1 0 0 2 3 1 2 0 0 0 2 1 1 2 0 0 0 1 0 0 1 2 2 1 1 2 1 0 1 1 3 1 0 0 0 1 0 0 0 0 1 3 1 1 0 1 2 0 0 1 0 1 0 1 1 0 0 1 0 0 1 1 2 1 1 2 2 1 2 1 0 2 0 0 0 0 0 2 2 0 1 0 0 1 0 0 1 1 1 0 0 0 0 1 2 1 1 3 0 2 1 1 1 1 0 0 1 1</t>
-  </si>
-  <si>
-    <t>MIE(0.5246677721582416, 1.7570010975283972, -1.8970930248741144e-32, 0.8953365986700401)</t>
-  </si>
-  <si>
-    <t>0 0 0 0 1 1 0 1 0 0 1 0 0 0 0 0 1 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 2 1 0 1 0 0 1 1 1 0 0 0 0 1 0 0 0 2 1 0 0 0 1 1 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 3 1 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 3 1 0 0 1 0 0 1 1 2 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 2 0 0 1 0 0 0 2 1 0 0 0 0 0 1 1 0 1 1 0 0 1 0 3 0 0 0 2 1 1 0 0 0 0 0 2 0 0 1 0 1 1 0 1 0 1 0 1 0 0 2 2 0 1 1 0 0 1 1 0 2 0 1 0 1 1 2 0 0 0 0 1 0 1 0 1 0 1 0 0 0 1 1 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 2 0 0 0 0 2 0 0 0 0 0 0 0 0 0 1 0 1 3 0 0 0 1 0 0 1 0 2 1 0 0 0 1 0 1 0 1 1 0 0 2 1 3 0 0 0 2 0 1 0 0 1 0 2 1 1 1 0 0 0 0 0 0 2 1 0 0 1 0 1 2 0 1 0 1 0 0 0 0 0 0 0 0 1 1 0 1 0 2 0 0 0 2 0 1 1 2 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 2 0 2 1 0 2 1 0 2 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 2 0 1 1 0 0 0 2 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 1 0 1 0 1 2 0 0 0 0 1 1 1 0 0 0 0 2 1 0 1 0 0 0 0 1 0 0 1 2 0 1 0 1 0 1 0 0 0 0 0 1 1 0 2 1 0 0 0 0 0 0 0 1 0 0 1 1 0 1 1 1 0 1 1 0 0 0 0 0 1 1 0 0 1 1 0 1 0 0 1 0 0 0 1 0 2 0 0 1 3 0 0 0 0 0 0 0 0 1 1 1 0 0 2 1 2 2 0 1 1 0 2 2 4 0 0 4 1 0 0 0 0 1 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 2 0 1 3 2 0 1 0 1 0 0 1 1 1 0 0 1 1 1 2 0 0 1 0 1 0 0 0 0 2 0 1 1 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 2 0 1 0 1 1 0 2 0 0 0 1 0 2 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 1 1 1 0 1 0 1 0 1 1 2 0 0 0 0 0 2 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 2 0 2 0 0 1 0 0 0 0 2 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 1 1 1 0 0 1 0 1 1 0 0 0 1 0 0 0 1 1 1 1 0 0 0 1 0 1 0 3 1 0 2 1 1 0 0 0 0 0 0 1 0 0 1 1 0 2 0 0 0 0 1 1 1 2 0 1 2 0 0 0 0 1 0 2 0 0 0 0 1 1 0 0 0 0 0 1 1 1 3 1 1 0 0 0 1 2 1 1 0 0 1 0 1 1 1 0 0 1 0 0 1 0 0 1 1 0 0 1 2 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 1 2 1 1 0 2 0 1 2 0 0 1 0 1 0 1 0 1 0 0 1 0 0 0 0 0 1 1 2 0 0 0 0 1 1 1 0 0 0 0 0 2 0 1 0 1 1 0 1 1 1 0 0 0 0 0 1 1 0 0 2 0 0 0 1 1 0 0 0 0 0 1 1 0 0 0 1 1 1 1 0 0 1 1 1 1 0 1 0 0 1 2 1 0 0 0 0 1 1 0 0 0 0 0 1 1 2 0 2 0 0 1 0 0 0 0 2 0 0 0 1 0 2 0 0 0 1 1 0 1 1 0 2 0 0 1 0 1 3 0 0 0 0 4 0 1 1 1 0 0 1 0 1 1 0 1 0 1 2 0 1 0 1 1 0 1 1 0 1 1 0 0 0 1 0 2 0 1 0 0 0 1 0 3 0 0 1 0 0 1 1 0 0 0 0 1 0 0 1 0 1 0 0 0 0 1 1 0 2 1 0 1 1 0 0 1 0 3 0 1 1 0 0 0 1 1 0 0 0 0 1 0 0 0 0 2 0 1 1 0 1 0 0 0 0 0 0 1 2 0 0 2 0 1 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 2 1 0 0 1 0 0 2 0 0 1 1 0 0 0 0 0 1 4 1 0 1 0 1 1 0 0 2 0 1 0 0 0 2 1 1 0 1 1 0 0 2 1 1 0 0 0 0 0 0 0 0 1 0 0 2 0 0 0 0 1 1 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 2 0 0 0 0 1 0 1 1 0 0 1 0 0 0 1 0 1 0 0 0 0 0 1 2 1 0 1 0 0 1 1 0 1 1 0 0 1 0 0 1 0 0 1 0 0 2 1 3 1 0 1 0 0 0 0 0 0 1 0 0 1 1 2 0 0 1 2 0 0 0 1 0 0 1 0 0 0 0 1 1 0 1 1 0 0 1 1 0 0 2 0 1 0 2 0 0 0 0 1 0 0 0 0 1 1 2 0 0 1 0 0 0 0 0 0 0 1 1 1 0 0 1 0 1 0 0 0 0 1 1 0 0 1 0 0 0 0 1 1 0 0 0 0 1 0 1 0 0 1 0 2 2 0 1 0 1 0 0 0 2 0 0 2 0 0 0 0 1 0 1 0 0 0 0 1 0 1 1 1 0 0 0 1 1 0 0 2 0 0 2 0 1 1 0 0 0 1 1 1 0 1 2 0 0 0 1 1 0 0 1 1 0 1 1 0 0 1 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 1 1 3 0 2 1 0 0 1 0 1 3 0 0 1 0 0 0 1 0 1 0 2 1 0 1 1 0 0 1 0 1 0 0 2 0 1 1 1 0 0 0 2 1 0 0 1 1 0 0 0 1 0 0 1 2 0 0 0 0 0 2 0 0 1 0 0 1 0 0 0 1 2 2 1 0 0 0 1 0 1 0 0 0 0 1 1 0 0 1 1 0 1 1 0 1 0 1 1 0 0 0 2 0 0 0 1 0 1 0 0 0 1 0 3 0 0 0 0 1 0 0 0 1 0 0 2 1 2 0 1 0 1 1 2 0 1 0 0 1 0 0 1 0 0 1 1 1 0 0 0 0 0 0 0 1 0 1 1 1 0 3 2 0 1 1 1 0 1 0 0 0 0 1 1 0 1 0 0 1 1 0 0 1 1 1 0 0 0 1 0 0 0 1 1 2 0 1 0 0 1 1 0 0 0 0 1 0 1 0 2 1 0 1 1 0 1 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 3 0 1 1 0 2 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 1 1 2 1 2 0 0 0 0 2 1 0 1 0 1 0 0 1 1 0 0 0 0 0 1 0 1 0 1 2 0 1 1 0 1 0 0 0 2 0 1 0 2 0 0 0 0 1 0 0 1 0 0 1 0 1 2 1 0 0 1 1 1 0 0 1 0 1 0 0 0 0 0 1 0 0 1 1 1 0 1 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 2 1 1 0 0 2 0 0 0 0 0 1 1 0 0 1 1 0 0 2 0 0 3 0 0 0 0 0 0 0 0 1 1 1 0 1 1 2 0 0 2 1 0 0 0 1 0 0 0 2 0 1 1 0 0 0 0 1 0 0 2 0 0 0 1 0 1 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 1 0 0 0 1 0 0 1 2 0 0 0 1 1 0 1 2 0 2 0 1 0 0 1 0 3 1 1 1 0 0 1 0 1 0 1 0 0 0 1 0 0 2 0 1 3 0 0 0 1 1 0 1 0 1 0 1 1 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 1 0 2 0 1 0 0 1 0 1 1 0 0 1 0 0 1 0 0 0 0 1 0 1 0 1 0 0 0 1 1 0 0 2 1 0 0 0 0 0 0 1 2 1 0 1 1 0 0 1 2 0 0 0 0 2 0 1 1 0 1 1 0 0 0 1 0 0 0 0 1 1 0 1 0 0 0 1 1 0 0 1 0 0 0 1 0 1 0 0 1 2 1 0 0 0 0 1 0 0 1 0 1 0 1 0 2 0 0 0 2 2 0 1 1 1 0 1 0 0 1 1 0 1 1 1 0 2 0 3 2 0 1 0 1 1 1 0 0 0 0 2 1 1 2 2 1 3 0 1 0 0 1 0 1 0 0 0 0 0 2 0 0 0 1 0 1 0 0 2 2 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 2 0 0 0 0 2 1 0 0 1 1 0 1 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 2 0 0 1 0 1 0 0 0 0 0 1 0 2 0 0 0 0 0 1 1 1 0 2 0 0 1 0 2 0 0 1 1 0 0 0 0 1 1 0 0 0 0 1 1 1 0 1 0 0 1 2 1 0 1 0 0 1 1 0 1 0 1 0 2 0 0 1 1 0 0 0 1 0 1 0 1 1 0 0 0 0 0 0 4 1 0 0 0 0 1 0 1 3 1 0 0 0 1 0 0 0 2 1 2 0 0 1 0 1 2 0 0 0 0 2 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 0 0 0 0 1 0 1 1 1 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 1 2 1 0 2 0 0 0 0 0 0 1 0 0 1 0 1 2 2 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 2 1 1 0 0 0 2 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 2 0 0 0 1 2 0 0 1 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0 1 0 1 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 2 0 0 0 1 0 0 1 1 1 1 2 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 1 0 1 1 0 1 2 0 1 1 2 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 2 1 0 0 0 0 1 0 0 0 0 1 0 0 1 0 1 0 0 1 0 1 0 1 0 0 0 0 2 1 0 0 0 1 2 0 1 2 4 2 3 0 2 0 0 0 0 0 0 0 0 1 1 0 0 1 1 2 0 1 0 1 0 0 0 1 2 0 1 0 1 0 0 0 1 0 0 0 0 0 1 2 0 0 0 1 0 1 0 0 0 3 1 0 1 0 0 1 0 0 0 0 0 2 1 0 0 1 0 0 1 0 1 1 0 1 0 1 1 1 0 0 0 0 1 0 0 1 1 2 0 2 2 0 1 1 1 0 0 0 1 0 0 1 0 0 1 0 0 0 1 1 0 0 0 3 0 0 0 1 0 0 1 0 1 0 0 0 0 1 3 1 2 2 1 1 0 1 1 0 1 1 0 0 0 0 0 0 0 0 0 1 0 2 0 2 2 0 2 1 1 0 0 1 0 0 1 1 0 0 0 0 2 2 0 0 1 0 1 0 1 0 1 0 2 0 0 1 0 1 0 0 1 2 1 2 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 2 1 2 0 0 1 0 1 0 1 1 1 1 0 1 1 1 1 1 1 0 0 0 1 1 2 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 1 1 0 0 1 2 0 0 2 1 0 2 0 1 0 2 0 0 2 0 1 0 0 0 0 0 1 0 1 2 0 1 1 1 1 1 0 3 0 0 1 1 0 0 0 1 1 0 3 1 1 0 0 1 0 0 0 1 0 0 1 0 1 0 0 1 1 0 0 1 0 1 1 0 0 0 2 2 2 1 1 0 0 3 0 0 1 0 0 0 0 0 0 1 3 0 0 1 0 0 0 0 1 0 1 2 1 0 0 0 0 0 2 1 1 0 1 0 1 1 0 1 0 1 1 0 0 0 0 2 2 0 2 1 0 1 0 0 0 0 0 2 0 0 0 0 0 0 2 1 0 0 1 0 0 1 0 0 0 0 1 1 2 1 0 0 0 0 1 1 1 1 1 1 0 0 1 1 1 1 0 1 0 1 0 0 1 0 2 0 2 3 0 1 0 0 0 1 0 0 2 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 1 0 0 0 0 1 1 0 0 1 0 1 0 2 2 0 0 0 0 0 0 0 0 2 0 2 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 1 0 0 0 0 2 0 0 1 0 2 1 0 0 0 0 1 2 0 1 0 0 0 0 1 1 1 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 2 0 0 0 0 1 0 1 0 0 1 0 2 0 0 1 0 0 0 1 1 1 1 0 0 0 1 0 0 0 0 0 2 0 0 1 1 0 2 1 0 0 0 0 1 0 1 1 0 0 1 0 0 0 0 0 0 0 2 1 1 2 0 0 0 2 0 2 2 0 0 0 0 1 0 2 0 1 0 1 1 0 1 0 0 0 0 0 0 0 1 1 0 0 1 0 2 1 1 1 1 0 0 1 0 0 2 0 1 0 0 0 0 1 1 0 2 0 1 0 0 0 1 0 0 0 0 1 1 0 1 0 0 0 1 0 0 1 0 0 1 1 1 0 1 0 0 0 1 0 0 1 1 1 1 0 1 1 0 1 0 0 0 0 1 0 2 2 0 0 2 0 1 0 2 2 0 0 0 2 0 4 2 1 0 1 1 0 0 4 0 1 1 0 0 1 0 0 1 0 0 0 0 3 2 0 0 0 0 0 1 0 2 0 1 0 1 1 0 1 1 0 0 2 0 1 2 1 0 0 0 3 2 0 0 0 1 0 0 1 0 0 1 0 0 1 0 1 0 1 1 0 0 0 1 3 1 1 2 1 0 0 0 1 0 0 0 2 0 1 1 1 0 0 0 2 1 0 1 1 1 0 1 1 1 2 0 0 0 1 0 0 0 1 1 0 0 2 0 0 0 0 0 0 0 0 0 0 0 5 0 0 1 0 1 1 0 2 0 0 2 1 0 0 0 2 0 1 0 1 1 0 1 1 1 0 1 0 0 0 1 1 0 1 2 2 1 1 0 0 0 0 1 4 2 0 0 1 0 0 0 0 0 0 0 2 1 1 0 0 0 1 0 0 0 1 0 0 0 0 2 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 1 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1 0 0 1 0 0 1 0 2 0 1 0 0 0 0 0 0 3 0 0 1 0 1 1 0 1 0 0 0 0 0 1 0 0 1 1 0 1 1 1 1 1 0 1 1 1 0 0 0 1 0 1 0 1 0 0 0 0 1 0 1 0 0 0 1 0 0 0 1 0 1 0 1 0 0 0 0 0 2 2 0 0 0 1 0 1 0 0 1 2 0 0 0 0 1 0 1 1 0 0 0 0 2 0 0 0 1 1 1 0 0 0 1 0 0 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 3 0 0 0 1 0 1 0 0 0 1 0 0 0 1 1 0 0 0 1 0 0 3 0 0 2 0 0 0 0 3 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 1 1 0 0 1 1 0 0 2 0 1 0 0 0 0 1 0 0 1 0 0 1 0 2 0 0 0 0 0 1 0 0 0 1 1 0 0 1 1 1 1 1 0 2 1 0 1 1 1 0 1 0 0 0 1 1 0 1 0 0 1 0 1 1 0 0 0 0 2 0 2 0 0 0 0 1 0 0 5 1 2 0 0 2 1 1 0 1 0 0 0 0 0 1 0 2 1 0 0 1 0 0 0 0 0 1 0 1 1 2 1 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 2 1 1 1 1 2 0 0 0 0 1 0 1 0 2 0 0 0 0 0 0 1 2 0 0 0 0 0 1 1 0 1 1 0 0 0 1 1 0 0 0 0 0 1 0 1 0 0 0 0 1 2 0 1 3 2 1 1 1 0 0 0 0 1 1 1 0 0 2 0 2 1 0 0 2 0 0 1 0 0 0 0 0 2 0 1 0 1 0 0 0 2 0 0 1 0 0 0 1 2 0 0 0 0 0 2 2 2 0 1 0 0 0 1 0 1 2 0 0 0 1 0 1 1 1 0 0 1 0 0 0 0 0 1 0 0 1 1 0 0 0 1 0 0 1 1 2 0 1 0 0 0 0 2 0 0 0 0 1 1 0 0 1 2 2 1 0 1 0 0 1 1 1 1 0 0 0 1 0 0 0 1 0 1 2 0 2 0 0 0 0 0 1 1 0 1 2 1 1 1 0 0 1 0 1 0 0 1 1 0 1 0 0 1 0 2 0 0 0 2 1 1 2 0 0 1 0 0 0 0 1 2 0 0 1 0 0 0 2 0 0 0 0 1 1 0 1 0 1 0 0 1 0 0 0 0 2 0 0 1 1 1 0 1 0 1 0 0 2 4 0 0 0 1 0 0 1 0 0 0 1 1 1 1 0 0 0 0 0 0 1 0 2 0 2 1 1 1 2 0 0 0 0 0 0 0 4 0 0 1 0 0 2 1 1 1 0 0 0 0 0 0 0 0 0 0 2 0 0 2 0 0 0 1 0 0 1 0 1 0 1 0 1 1 0 0 0 0 0 1 2 0 0 1 0 1 0 0 1 1 1 1 0 2 0 0 0 1 1 0 0 2 0 0 0 2 0 0 0 0 2 1 1 0 0 0 0 0 0 0 1 2 0 0 0 0 1 0 1 1 0 1 2 0 1 0 1 2 0 2 0 0 0 0 1 1 0 2 1 0 0 0 0 0 0 0 1 0 0 1 2 2 0 1 0 1 0 3 2 0 0 0 0 0 1 0 0 0 1 0 0 2 1 0 0 0 0 0 0 0 0 2 1 0 1 1 0 0 1 0 0 0 0 2 0 1 0 0 2 0 0 0 0 2 0 1 1 0 1 0 0 0 0 0 0 0 3 0 1 0 0 1 1 0 1 0 0 0 0 0 0 2 0 0 1 0 1 0 0 0 1 2 1 0 1 0 0 0 1 1 1 1 0 0 0 1 0 1 0 1 1 1 2 1 0 1 1 1 0 1 0 0 1 1 0 2 1 2 1 0 0 0 0 0 1 1 0 1 0 0 0 0 0 1 0 0 1 0 1 2 0 1 0 2 2 0 0 0 4 1 1 0 0 2 0 0 0 2 0 1 1 1 1 0 1 0 0 1 1 0 0 0 1 0 1 1 1 1 0 1 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 2 1 0 1 2 0 2 2 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 3 0 0 2 0 0 0 2 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 1 0 1 1 0 0 1 0 1 1 0 0 0 0 1 0 0 0 2 1 0 0 2 0 0 2 1 0 2 1 2 1 0 0 1 0 0 0 0 1 3 1 0 1 2 0 1 1 3 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 1 0 0 1 0 0 1 1 1 0 0 1 0 1 1 1 0 1 3 0 0 1 0 0 0 1 1 1 0 2 1 1 0 0 0 0 0 0 0 2 3 0 0 0 2 0 0 0 0 0 0 2 0 1 0 2 0 1 0 0 0 0 0 0 0 2 0 2 1 1 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 1 1 1 0 0 0 0 1 0 0 1 1 0 0 0 0 2 0 1 1 0 0 1 0 0 0 1 0 1 0 1 1 0 1 1 0 0 2 0 0 0 0 0 0 0 1 1 0 0 0 1 1 0 0 1 1 1 0 1 1 0 2 2 0 0 0 1 1 0 0 1 1 2 1 1 0 1 2 0 0 2 1 0 0 1 0 0 1 0 0 0 0 1 1 0 3 2 3 0 1 0 1 1 1 0 1 0 0 1 2 1 1 1 0 0 0 0 0 1 1 0 1 1 0 1 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 1 1 0 1 1 0 0 3 0 0 1 0 2 1 0 2 0 1 1 0 0 0 0 0 0 0 1 1 1 1 1 0 2 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 3 0 0 1 1 0 1 1 1 1 1 1 0 0 1 0 1 0 0 0 0 0 0 0 0 1 2 1 0 1 0 1 0 0 0 4 0 1 0 1 0 0 0 0 0 1 0 0 1 1 1 0 1 0 0 0 1 1 0 1 0 0 1 0 1 0 0 1 0 0 0 1 1 1 0 0 0 0 1 1 0 0 2 0 0 1 0 0 2 1 0 0 0 1 0 0 1 0 1 1 1 0 0 1 0 0 1 0 0 0 0 4 1 0 0 2 0 0 1 1 1 1 0 1 0 0 0 0 1 0 0 2 1 0 0 0 2 0 0 0 0 0 0 2 0 1 0 0 1 2 0 2 1 0 1 0 1 1 3 1 2 1 1 2 0 0 1 0 0 0 2 0 0 0 3 0 2 0 3 0 2 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 2 3 0 0 1 0 0 0 1 0 0 1 4 0 0 0 0 1 1 0 0 2 1 0 2 1 0 2 0 1 0 0 1 0 1 2 0 0 0 0 2 0 0 2 0 0 0 1 0 1 0 0 0 1 0 0 1 1 0 0 1 0 2 1 1 0 1 0 1 2 1 1 0 0 0 1 0 1 1 0 1 0 0 0 1 0 0 0 0 3 0 1 0 0 0 2 1 0 0 2 1 1 0 0 0 0 0 0 0 1 1 0 0 0 1 1 0 0 0 0 2 0 1 1 1 0 0 0 1 5 1 0 1 1 0 0 0 1 0 2 0 0 0 0 0 0 1 0 1 0 1 2 0 0 1 0 0 0 0 0 0 0 2 0 0 0 1 1 0 0 0 1 1 0 1 1 0 1 0 0 1 0 1 0 1 0 0 0 1 0 1 1 1 1 0 1 0 0 0 0 1 0 3 0 0 0 0 0 1 1 0 0 2 0 0 0 0 0 0 1 1 0 0 1 2 1 1 0 1 1 0 0 0 1 0 0 0 0 0 1 4 1 0 1 3 0 0 0 1 0 0 0 1 0 0 1 0 2 2 0 1 0 0 0 0 1 2 0 0 1 1 0 0 1 0 0 0 0 0 1 0 1 1 3 0 0 1 1 0 0 0 0 1 1 2 0 0 1 0 0 0 1 1 1 0 0 0 0 0 0 0 1 0 0 0 0 1 1 1 0 1 1 0 2 0 0 0 0 1 0 0 0 2 2 1 0 1 0 0 0 2 0 0 0 0 1 0 0 2 2 0 1 0 0 0 0 0 2 0 0 1 1 0 2 1 0 1 1 0 1 1 1 2 0 0 3 0 0 0 0 0 0 1 0 2 0 0 2 0 0 0 0 1 2 0 0 0 0 1 0 1 0 0 1 0 1 1 0 1 1 1 0 0 1 0 1 0 0 1 0 0 1 1 0 0 0 0 0 0 2 1 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 2 0 0 0 0 1 1 2 0 1 1 1 2 1 0 0 2 0 1 3 0 0 2 1 0 1 0 1 0 0 0 1 2 0 0 1 1 0 0 0 2 0 0 0 1 2 0 0 0 0 0 1 0 0 1 1 0 0 1 2 1 1 0 0 1 2 1 1 0 0 0 0 0 1 1 1 0 1 0 0 1 0 0 1 0 0 2 0 0 0 1 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 1 0 1 1 1 2 1 1 0 2 1 1 0 0 0 0 1 0 1 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 3 0 0 0 3 0 0 1 0 0 0 1 0 0 1 1 0 0 0 0 1 1 1 2 1 1 1 1 0 0 0 0 0 0 0 0 0 0 2 0 0 1 1 1 1 0 1 0 1 1 0 1 0 0 2 0 1 0 0 1 0 0 0 0 2 1 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 3 0 0 1 1 1 1 2 0 1 0 0 0 0 0 0 1 0 3 0 0 0 0 1 0 0 0 0 1 0 2 0 2 0 0 0 0 0 1 0 0 0 1 1 1 2 0 0 1 0 0 0 0 0 1 1 1 0 0 0 1 1 1 0 0 0 0 1 1 0 0 0 1 1 1 0 1 0 1 0 0 1 0 0 2 0 2 0 0 0 0 3 0 0 0 0 1 2 2 1 1 0 0 0 1 2 0 2 2 0 2 0 0 1 1 0 0 1 1 0 0 0 1 1 1 0 3 1 0 0 1 0 1 0 0 0 0 1 2 0 0 0 0 0 0 1 1 1 0 0 1 0 0 0 1 1 1 1 0 1 0 0 1 0 0 0 1 1 2 0 1 0 1 0 1 0 1 1 0 0 1 0 0 0 1 0 0 0 0 0 1 1 1 1 0 1 0 0 0 0 0 0 0 1 1 0 1 0 1 0 0 1 0 1 0 0 1 1 1 0 1 1 0 0 1 2 0 0 0 0 1 1 0 0 2 1 0 0 0 0 1 1 2 0 1 0 0 1 1 0 0 0 0 1 0 0 0 1 0 1 0 1 0 0 1 1 1 1 0 1 0 0 0 0 1 0 1 1 0 0 2 0 2 0 1 0 0 0 0 0 0 0 0 1 2 0 1 1 2 1 0 0 1 1 0 0 1 1 0 1 1 0 0 0 0 1 0 0 0 1 1 2 0 1 0 0 2 1 0 0 0 1 1 0 0 0 1 1 1 0 0 2 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 2 0 0 0 0 0 1 0 0 1 1 0 0 0 0 1 0 1 0 0 2 0 0 0 0 0 1 0 0 0 1 1 1 0 0 2 2 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 2 0 0 0 1 1 1 1 0 0 0 1 1 0 1 0 0 0 1 0 1 1 0 0 1 2 0 1 0 0 2 1 1 0 0 0 2 0 0 0 2 0 0 1 0 0 0 1 0 0 1 0 1 0 0 1 0 0 0 0 1 2 1 1 1 0 0 0 0 1 1 0 2 0 1 0 0 1 1 0 1 1 0 0 1 0 0 0 2 0 0 0 1 1 0 0 0 0 0 1 0 0 1 1 1 0 1 0 0 1 0 0 0 2 2 1 1 0 0 1 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 2 0 3 0 0 1 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 1 0 2 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 1 0 1 2 1 0 1 1 1 0 1 1 0 1 1 2 0 0 1 0 0 1 1 1 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 2 0 1 0 2 0 0 0 1 1 0 1 1 0 0 1 0 0 1 1 0 1 0 1 2 1 1 0 1 0 0 0 0 1 1 0 1 0 0 0 0 1 1 2 4 0 0 0 0 0 0 2 0 0 1 0 1 1 1 0 3 1 0 0 0 1 0 1 0 0 0 1 0 0 0 1 1 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 2 0 0 0 0 1 0 0 1 1 1 1 0 1 2 1 0 1 0 0 1 1 2 1 0 1 1 0 1 0 0 0 0 1 0 2 0 1 0 1 1 1 0 0 2 2 2 1 2 0 2 1 0 0 2 0 0 0 0 1 1 0 0 0 1 1 0 0 1 0 0 2 0 0 1 1 2 0 1 0 0 0 0 0 1 0 2 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 2 1 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 1 0 2 1 0 1 0 1 1 2 0 0 1 0 0 1 1 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 3 3 0 1 0 1 1 1 0 1 0 0 1 0 0 1 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 1 0 0 0 1 2 1 0 2 0 1 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 2 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 2 0 0 0 0 1 0 0 2 0 1 0 1 0 1 0 1 0 0 0 0 0 0 0 1 1 0 0 1 1 1 0 0 1 1 0 2 0 1 0 0 0 0 1 1 1 0 0 0 1 3 0 1 0 1 0 0 1 1 1 0 1 0 0 0 1 0 0 0 0 0 1 1 1 1 1 0 1 1 0 0 0 0 0 0 0 1 1 1 0 1 0 1 1 0 2 0 2 1 2 1 0 0 0 0 1 0 0 0 1 0 0 1 0 0 2 1 1 1 0 1 0 3 1 0 1 0 2 0 1 1 0 2 0 0 0 0 1 0 1 0 0 0 0 1 1 1 1 1 0 0 0 2 0 0 1 1 0 1 1 2 0 0 2 1 0 2 0 0 0 0 0 1 0 0 1 1 0 1 1 0 1 3 0 0 2 1 1 1 0 3 3 4 0 1 0 0 0 1 0 1 0 0 3 2 1 0 0 0 1 2 2 0 1 1 1 0 0 0 0 3 0 0 0 1 1 0 2 0 1 0 0 0 0 2 1 0 1 0 1 2 0 1 0 0 0 0 0 1 0 3 1 0 0 0 1 0 0 0 0 2 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 2 0 0 1 1 1 0 1 0 0 0 1 0 1 1 1 0 0 1 1 1 0 1 0 0 0 0 1 0 1 1 2 0 0 0 0 0 2 0 1 0 0 1 0 0 0 0 0 1 1 0 0 0 0 1 1 1 1 0 0 1 1 3 0 0 0 0 1 0 2 3 0 0 1 1 3 1 1 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 1 1 0 0 1 1 1 1 0 0 0 0 1 0 0 1 1 1 0 2 1 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 1 1 1 1 1 1 2 0 2 0 1 0 0 1 0 0 0 1 1 1 0 1 0 0 0 0 2 0 2 1 0 0 2 0 0 0 0 0 0 1 0 1 1 0 0 0 1 0 0 0 0 0 1 1 1 0 0 0 0 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 1 0 2 0 1 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 2 1 1 0 1 0 0 2 1 0 3 2 0 0 1 0 0 0 0 1 0 0 1 0 1 1 0 0 0 1 0 1 1 1 1 0 1 0 0 0 0 1 1 0 0 0 2 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 2 0 1 0 1 0 0 1 1 0 0 0 2 1 0 0 0 0 0 0 0 0 0 3 1 0 0 1 0 0 2 0 0 0 1 2 0 1 1 3 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 2 1 0 1 0 1 0 2 0 1 0 1 1 0 1 0 0 0 1 1 0 0 2 1 0 0 0 0 1 1 0 0 1 0 0 0 1 2 2 2 0 0 2 0 2 1 1 0 0 1 0 0 0 1 0 0 1 0 0 0 0 2 0 0 0 0 1 1 0 1 0 0 2 0 2 0 0 0 0 0 0 0 0 1 0 1 1 0 1 0 1 1 1 1 0 1 0 1 1 0 0 0 1 0 0 0 1 1 0 1 0 0 0 1 0 1 0 0 0 3 0 1 1 0 0 0 0 2 0 1 2 0 0 1 0 0 0 0 0 0 1 1 0 0 0 1 0 0 2 0 1 2 0 1 1 0 1 1 0 1 1 0 0 0 0 0 1 1 0 0 1 0 0 1 0 1 1 0 1 2 0 1 0 0 1 1 0 1 0 1 0 1 1 0 1 0 1 0 0 2 2 0 1 0 0 3 0 0 1 0 1 0 0 1 0 0 1 0 1 0 0 3 1 0 0 1 1 2 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 2 0 0 0 1 0 0 1 0 2 0 1 1 0 0 0 0 0 1 0 0 1 0 0 1 1 0 0 0 2 1 0 0 1 0 3 1 0 0 0 0 1 0 0 0 0 1 0 1 0 1 1 0 1 1 1 0 0 2 1 1 0 0 1 0 0 2 1 0 1 0 0 1 1 0 1 1 1 1 1 0 0 0 0 2 1 0 1 0 2 1 1 0 0 0 0 2 0 0 0 0 1 1 1 0 1 0 0 0 1 0 1 1 0 0 0 0 0 1 2 1 0 0 0 0 0 0 0 0 1 1 0 0 1 1 0 1 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 2 0 3 1 2 1 1 0 1 1 0 0 0 0 0 1 0 2 1 0 0 0 0 1 0 2 1 1 0 1 1 0 0 0 0 0 0 1 0 1 0 1 2 0 0 0 1 1 1 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 1 0 1 0 1 1 0 2 1 1 1 2 0 2 1 0 0 1 0 0 0 0 0 1 1 1 0 0 0 1 0 0 1 0 0 1 1 0 0 0 0 1 1 1 1 0 1 0 0 0 1 0 0 0 0 0 0 5 1 0 0 1 3 1 0 0 1 0 0 0 2 2 1 0 0 1 0 1 2 1 0 0 0 1 2 1 0 0 0 0 0 1 0 0 1 0 1 3 0 0 0 0 1 0 0 1 1 0 1 0 0 0 1 0 0 2 0 1 1 0 0 1 0 1 0 0 5 1 0 1 0 0 0 2 0 0 0 0 0 1 2 0 1 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 2 0 1 0 2 1 0 0 0 0 0 0 0 1 0 0 1 1 1 0 2 0 0 0 0 2 2 1 1 0 0 1 0 0 1 0 1 1 1 0 0 1 0 0 0 1 2 0 0 1 2 1 1 0 1 0 1 0 0 0 0 0 1 0 0 1 0 1 2 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 1 1 0 0 0 3 1 0 2 0 0 0 1 0 0 1 0 0 0 0 1 1 0 2 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 1 2 1 0 0 1 1 0 1 0 1 0 1 0 0 0 0 1 0 0 0 0 1 0 2 0 0 0 0 1 1 0 2 0 1 0 0 0 0 2 1 0 1 1 1 1 0 1 0 0 0 0 1 1 1 0 0 0 0 1 0 0 1 1 0 0 0 1 0 0 0 1 1 1 1 0 1 1 2 1 0 1 0 2 0 1 0 1 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 2 0 0 0 1 1 0 1 0 0 1 1 2 0 1 1 1 0 2 1 2 0 0 0 0 0 1 0 3 0 0 0 1 0 0 1 0 0 1 1 1 1 1 2 0 1 0 0 0 0 0 2 0 0 0 0 0 0 0 1 0 0 1 0 1 1 1 0 0 0 0 1 0 0 0 0 1 0 1 0 0 1 1 1 1 0 0 0 0 3 1 0 0 2 1 1 1 0 1 1 2 0 1 0 1 0 2 0 0 0 0 0 1 0 0 2 1 0 2 1 1 0 0 0 1 0 0 1 0 0 2 0 1 1 0 0 1 0 0 0 2 0 1 0 0 1 0 0 0 1 0 0 0 0 1 3 0 1 1 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 2 0 1 1 1 0 1 0 2 0 2 0 0 1 3 1 0 1 0 0 1 1 1 0 1 0 0 1 0 1 1 0 0 0 1 1 0 0 0 0 0 2 2 0 0 2 0 1 1 0 0 0 2 1 0 0 1 1 0 1 0 0 0 2 2 2 1 0 0 0 1 1 0 0 1 0 0 2 0 2 0 0 1 0 1 1 0 1 1 2 2 0 2 0 2 0 0 2 1 0 0 0 0 0 1 0 0 0 1 0 0 1 1 2 1 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 1 1 1 0 0 1 1 0 0 0 1 1 0 1 0 0 1 0 0 0 0 0 0 1 1 0 1 0 0 1 0 2 0 0 0 2 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 1 1 2 2 0 0 0 0 0 0 2 2 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 2 0 1 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 2 0 0 0 3 1 2 1 0 1 0 0 0 0 0 0 0 0 1 1 0 1 0 1 1 0 1 1 1 0 2 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 1 1 1 1 0 0 0 0 0 1 0 0 1 0 0 0 2 0 0 0 1 1 1 0 0 1 0 1 0 0 1 0 1 1 0 1 0 2 3 0 0 0 0 0 1 0 1 0 0 2 0 0 0 1 1 0 2 3 0 0 2 0 0 1 2 1 0 0 0 0 0 2 2 0 0 0 1 0 0 0 1 1 0 1 0 0 1 0 1 0 0 2 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 2 3 1 0 0 1 1 1 0 0 0 0 3 1 1 0 1 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 1 2 0 1 0 2 0 3 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 2 1 0 2 0 0 0 0 0 0 3 1 0 0 0 0 1 0 1 2 0 1 0 2 1 0 2 0 0 0 1 0 0 0 1 0 1 0 0 0 0 1 1 0 0 1 0 0 0 0 0 1 2 0 0 1 0 2 1 1 0 0 0 0 0 2 1 0 0 0 1 0 0 0 0 1 0 1 1 2 1 2 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 2 0 2 1 2 1 0 0 1 0 0 0 1 0 1 0 0 0 0 0 1 0 0 1 0 1 1 2 2 4 0 0 0 0 0 1 0 0 0 0 1 0 1 1 0 1 2 0 0 0 1 2 0 0 0 0 1 0 0 0 1 0 0 1 2 2 0 0 0 0 1 0 1 1 1 1 1 1 2 0 0 1 0 0 1 1 2 1 2 0 0 2 1 0 0 1 0 1 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 1 1 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0 2 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 1 0 0 1 0 0 0 0 1 0 1 0 1 0 1 0 1 1 0 0 1 0 0 0 0 0 1 0 2 3 1 1 1 1 1 0 1 0 2 1 0 1 1 0 0 2 1 0 2 0 0 1 0 2 0 1 1 0 1 0 1 2 1 1 1 0 0 1 2 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 1 0 0 1 1 1 0 0 0 1 2 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 2 0 0 1 0 0 0 0 0 1 2 1 1 2 0 2 1 0 0 0 0 0 0 0 0 0 1 1 0 1 1 1 1 2 1 1 1 0 0 0 3 1 0 0 0 1 2 1 0 0 0 0 0 0 0 2 0 1 1 2 0 0 1 0 0 3 1 0 0 0 0 0 0 0 0 2 1 1 0 0 0 0 0 0 2 0 2 0 0 1 0 0 1 0 1 3 0 0 0 1 1 1 0 0 0 0 1 1 0 0 0 0 1 1 0 1 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 2 1 0 0 1 0 0 1 1 0 1 0 0 1 0 1 0 0 2 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 1 1 2 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 3 2 0 1 1 0 0 2 1 0 0 0 0 3 0 0 0 0 0 1 0 0 0 1 1 0 0 0 2 0 0 0 0 1 1 0 0 0 0 1 2 1 0 0 0 0 1 0 0 0 1 2 1 0 1 1 0 0 1 2 0 0 0 1 0 1 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 3 1 1 0 0 0 2 0 0 0 0 0 1 0 0 0 0 0 2 0 1 1 0 0 1 0 0 1 1 1 1 0 0 3 1 1 0 2 1 0 0 2 1 0 0 0 1 1 0 1 0 0 2 1 1 0 0 0 0 1 1 0 0 1 0 1 0 0 1 0 1 0 0 0 0 0 0 2 0 0 0 0 0 0 0 1 1 2 1 1 0 0 0 0 0 2 0 0 1 1 0 1 0 0 0 0 0 1 0 0 2 0 0 1 1 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 1 0 0 1 1 0 0 0 0 0 0 1 0 0 1 0 0 1 1 0 0 1 1 1 0 0 0 0 1 1 1 0 0 1 0 0 0 1 0 0 1 0 0 0 0 1 0 1 1 2 1 0 0 1 0 0 0 1 1 0 0 2 0 0 1 0 0 1 0 0 1 0 0 0 1 1 0 0 1 0 0 1 0 2 0 0 1 0 0 0 0 2 0 0 0 1 1 0 0 1 2 0 0 0 0 0 0 0 0 1 2 1 2 0 1 1 1 0 0 2 0 0 1 3 2 0 0 2 2</t>
-  </si>
-  <si>
-    <t>JSB(1.8367217598864596, 2.315907796308408, -39.55365849732944, 388.6120105467535)</t>
-  </si>
-  <si>
-    <t>65 38 51 25 61 37 61 34 44 90 130 155 96 98 62 42 73 107 59 68 95 97 56 72 100 55 124 106 76 133 36 99 67 53 81 24 50 52 50 84 135 47 63 146 114 52 81 100 52 37 31 87 39 42 115 137 78 122 85 12 52 82 68 109 144 69 95 151 92 61 94 90 142 152 111 103 73 81 67 105 120 142 90 144 20 91 95 101 73 67 40 41 84 54 133 177 122 77 46 50 83 87 99 116 57 90 127 133 156 79 146 52 46 123 57 38 79 77 73 63 52 102 98 44 70 101 84 105 161 36 70 164 120 142 98 104 24 85 104 134 67 80 41 50 47 119 102 114 47 73 76 83 61 77 104 35 186 30 97 45 41 29 69 92 76 133 33 73 74 85 147 69 33 11 92 123 107 75 57 106 193 59 142 121 87 49 50 69 140 55 103 75 118 125 47 105 25 132 114 60 108 52 144 90 103 37 90 123 36 118 56 68 123 57 88 113 52 129 46 86 57 66 92 107 107 61 76 92 12 29 58 153 116 87 104 95 118 127 106 61 104 80 80 54 99 129 65 77 105 55 48 70 140 10 106 38 111 71 100 61 51 41 110 51 92 108 54 72 144 101 122 104 185 120 111 145 79 44 56 133 131 88 66 19 53 57 54 19 14 124 71 117 57 30 81 115 42 126 155 93 39 88 74 89 59 75 64 55 66 54 123 89 82 154 116 177 65 22 67 104 48 83 28 81 86 116 16 79 64 83 50 89 96 89 58 85 94 99 73 60 79 114 104 90 66 45 154 106 73 113 103 136 176 16 56 80 113 70 36 57 55 80 27 81 104 84 124 148 60 85 109 81 59 69 29 136 70 110 102 114 186 79 89 106 127 148 78 102 57 71 57 132 103 93 34 58 78 67 108 76 120 59 79 61 117 101 101 31 103 142 70 87 71 105 75 111 114 83 5 45 132 87 36 114 103 23 55 92 55 75 88 48 114 86 62 115 68 51 123 33 71 47 73 78 87 112 88 82 114 40 41 83 121 144 98 45 80 50 42 110 61 117 99 41 95 104 115 108 58 99 47 59 103 63 74 115 44 89 86 39 74 145 47 53 78 130 40 88 18 103 104 12 21 77 82 104 118 79 171 94 135 105 131 81 25 50 69 69 75 57 52 69 176 60 125 111 105 106 73 183 91 47 75 71 101 84 73 85 107 117 95 97 137 147 142 69 93 55 142 65 77 43 62 107 97 22 73 50 78 36 65 54 76 64 65 67 63 52 60 122 81 42 129 86 117 85 107 112 115 71 89 51 84 82 119 100 85 29 72 68 99 126 84 108 50 63 95 40 15 72 130 83 108 77 29 183 114 81 79 126 89 61 65 80 152 91 73 135 81 77 35 53 179 78 89 127 65 174 36 148 128 152 60 174 100 83 75 69 76 52 26 75 47 27 26 62 45 81 135 79 15 140 70 71 112 15 33 47 45 93 20 97 146 91 88 107 61 104 76 113 39 148 47 98 106 45 110 51 46 119 67 48 92 102 105 69 55 136 67 97 199 102 135 98 87 110 68 69 87 47 133 46 74 72 99 104 85 150 119 128 67 95 43 81 124 89 42 13 61 119 101 60 79 88 101 59 40 26 55 34 74 71 95 60 86 196 110 116 100 47 182 50 117 114 80 84 108 82 34 154 78 30 55 94 105 111 68 40 115 47 140 99 56 45 109 25 73 67 112 99 42 98 151 49 131 105 83 100 90 95 162 75 114 67 82 42 30 138 116 59 109 68 95 89 85 52 112 125 124 51 77 53 88 105 73 35 73 39 97 60 99 86 86 69 108 72 144 65 53 122 139 40 46 80 151 47 125 107 108 104 54 99 111 81 79 42 140 82 82 120 97 93 43 68 90 73 101 117 63 47 132 52 116 66 90 104 75 61 92 80 53 78 81 87 45 53 52 122 67 88 41 12 69 99 137 43 142 100 63 45 57 130 113 158 108 62 98 59 85 87 121 133 69 62 165 31 105 53 110 60 112 53 41 70 127 74 78 71 45 110 80 101 81 34 33 112 105 46 120 88 50 171 127 79 26 8 119 26 58 42 139 151 78 61 54 40 132 81 57 64 126 59 59 77 79 64 52 87 151 94 53 79 102 141 131 33 25 89 119 66 65 100 165 73 144 57 179 51 73 127 125 109 20 97 68 82 151 46 87 128 69 116 21 97 69 26 80 88 106 91 30 69 51 78 113 105 70 119 98 114 116 52 51 46 69 115 73 95 101 44 98 58 96 71 65 62 64 77 97 29 77 91 44 128 133 72 142 83 71 73 65 99 130 101 1 25 69 90 50 96 151 70 110 107 37 114 91 50 38 106 121 135 108 76 132 196 110 90 89 107 65 88 80 79 12 23 114 146 145 108 98 113 95 147 94 107 132 160 139 153 55 117 19 81 62 101 65 44 121 63 19 46 52 132 134 91 65 80 46 65 80 114 77 86 87 52 65 68 112 89 56 110 102 158 90 16 123 32 38 81 59 124 38 128 122 49 70 84 126 117 114 76 92 118 60 36 115 72 72 56 145 119 93 113 161 127 135 21 70 25 88 44 45 92 97 87 145 159 109 94 136 125 94 92 50 66 98 78 69 68 12 84 100 52 103 65 63 116 88 58 60 92 126 103 96 93 111 108 70 138 113 68 164 141 41 87 102 86 93 133 82 95 85 91 123 43 44 99 63 54 112 132 83 12 51 75 126 48 71 28 49 39 95 99 94 82 39 16 158 52 113 87 105 136 115 39 99 51 120 46 74 153 61 124 115 152 32 63 38 139 48 93 98 130 69 34 39 183 116 33 130 71 99 78 129 82 117 88 57 115 96 148 138 80 64 89 109 55 75 74 93 51 156 121 76 95 116 137 90 95 92 123 65 37 69 127 48 106 83 89 87 67 87 99 141 56 80 80 52 57 112 104 65 116 92 74 103 37 139 55 78 94 108 78 70 61 118 92 83 92 67 71 109 15 74 37 42 46 39 57 73 84 41 50 68 114 81 159 100 98 119 107 39 99 121 143 83 116 73 84 53 47 137 38 32 77 43 60 133 88 98 90 82 57 95 64 39 130 125 108 50 104 98 40 170 130 78 60 43 98 89 37 23 52 160 36 61 66 36 84 72 139 46 52 35 88 68 32 78 53 118 79 35 64 141 57 99 110 199 53 52 66 26 108 59 69 40 120 75 32 94 89 112 42 112 66 43 80 108 103 113 74 142 76 69 74 35 74 51 81 118 97 71 121 45 26 86 139 88 42 47 58 20 101 76 46 57 76 51 131 68 54 93 111 118 94 107 106 135 137 108 47 71 85 79 90 42 50 95 81 75 66 28 74 54 66 81 76 104 75 61 113 98 137 77 77 54 56 132 81 143 78 84 62 27 65 94 60 38 139 91 67 95 105 47 37 53 135 123 122 113 150 90 44 99 95 73 137 65 42 108 52 72 69 28 94 119 59 156 49 41 108 33 87 100 64 33 121 142 105 109 64 81 113 53 96 122 77 59 65 48 112 99 106 105 45 128 41 54 90 142 57 62 131 107 74 34 72 106 183 157 51 86 47 64 113 136 51 142 96 41 116 35 84 140 48 129 129 59 114 35 24 104 25 61 34 65 72 70 113 142 75 63 102 93 59 81 31 32 161 44 43 47 50 134 76 59 25 55 39 116 69 83 89 162 103 133 41 114 134 93 57 98 110 40 17 133 50 99 75 22 95 33 67 42 89 52 74 101 183 41 58 66 102 59 126 75 87 41 49 129 55 123 111 115 45 113 70 11 106 71 31 136 34 57 80 67 66 57 100 134 104 16 92 82 60 88 78 83 73 99 56 100 107 88 18 94 80 67 117 65 128 88 34 89 105 109 55 81 47 35 97 122 107 40 125 77 33 80 117 127 87 90 21 76 53 99 61 81 92 59 47 32 28 72 51 117 119 69 44 100 83 128 93 85 65 101 57 96 46 8 69 62 88 49 134 42 42 99 57 38 106 92 55 92 87 105 40 101 81 121 96 33 118 9 54 67 83 65 62 73 18 112 48 136 51 112 65 56 144 69 112 115 35 57 44 54 103 58 28 34 57 68 148 101 30 61 69 124 79 51 75 23 36 58 111 82 90 115 72 83 114 133 97 105 54 103 120 109 68 68 102 102 104 48 21 29 47 104 62 135 66 93 91 73 67 143 111 55 49 90 32 114 132 67 58 65 115 146 100 85 27 114 65 84 108 82 18 103 48 137 74 48 99 109 123 96 69 77 47 112 59 105 92 34 51 41 12 44 47 144 112 79 43 11 91 202 92 57 62 86 42 51 152 71 18 161 49 91 101 63 58 63 49 127 111 89 27 74 53 55 51 112 65 114 82 88 112 81 86 81 143 169 58 103 13 73 141 112 109 135 139 8 36 173 100 99 30 17 120 74 132 50 147 77 202 102 103 77 53 34 73 130 89 112 52 44 149 55 59 155 60 59 175 87 85 82 163 41 6 15 114 49 86 86 24 91 30 74 112 91 86 75 104 69 62 39 83 125 24 90 60 149 135 66 116 79 87 68 110 109 94 58 47 137 93 100 116 77 53 88 73 96 103 114 94 122 76 78 100 90 123 64 117 62 69 124 71 148 48 90 127 59 102 112 43 95 81 87 80 122 76 126 71 67 65 71 110 40 100 152 90 85 61 38 109 33 101 60 84 70 37 109 101 49 62 87 86 93 93 100 111 181 96 80 43 82 54 16 77 50 113 77 130 105 88 87 79 125 118 196 140 73 118 114 36 81 89 102 50 93 90 91 70 63 169 85 25 101 26 59 80 32 159 123 75 71 92 16 42 58 78 46 92 14 93 158 74 99 61 96 54 107 141 57 121 124 40 137 120 44 126 91 86 144 123 101 67 41 84 62 90 77 126 136 93 27 125 90 139 94 113 51 98 89 57 94 94 99 66 102 47 67 58 72 62 106 66 161 53 26 100 51 28 86 97 166 107 50 30 106 119 18 90 90 80 57 96 125 68 41 48 62 90 75 66 116 47 56 35 81 47 140 93 103 98 91 52 163 106 35 74 86 60 65 34 70 77 117 54 73 14 78 72 74 90 88 54 121 94 76 59 68 85 81 77 167 58 123 89 59 120 114 113 86 92 84 162 37 158 138 30 107 94 68 130 91 95 164 98 72 116 71 80 134 104 83 89 83 117 88 125 121 51 71 87 62 111 92 20 81 78 97 112 80 116 57 65 88 69 90 91 91 47 110 81 139 104 59 78 91 97 53 74 37 108 53 33 54 24 81 109 98 160 97 96 44 32 118 67 54 69 125 27 51 94 63 87 142 77 77 72 133 49 117 113 93 67 95 132 180 142 65 91 70 69 65 100 54 17 44 167 122 77 52 86 107 162 136 127 141 88 37 52 59 109 53 79 68 54 85 128 71 196 95 82 138 136 149 72 123 42 98 55 87 61 129 99 44 47 75 74 95 116 78 41 121 31 62 70 93 58 40 74 128 133 104 56 90 88 40 22 109 98 107 152 62 61 52 107 58 78 106 142 91 92 80 100 87 26 56 76 103 74 153 91 121 128 83 173 29 95 50 77 103 23 163 40 169 69 61 143 145 46 87 176 109 84 102 67 101 91 119 83 74 129 104 12 130 92 86 33 94 73 117 49 36 166 125 133 172 105 104 136 98 112 61 102 51 83 70 94 83 40 71 109 153 59 131 51 59 127 71 57 49 35 170 80 91 140 89 52 80 121 92 89 114 20 68 91 68 25 73 138 57 120 112 178 22 138 101 128 58 97 111 118 54 72 64 112 62 69 147 84 55 84 125 40 110 86 168 34 50 57 16 80 82 93 108 56 24 94 81 115 94 61 108 54 71 105 71 79 96 178 77 115 41 82 66 66 112 67 45 142 51 61 101 70 58 153 141 58 183 44 95 101 19 97 54 49 161 74 28 110 104 105 92 83 22 84 80 135 64 144 86 89 79 55 56 96 85 109 37 129 103 112 45 85 64 146 143 90 16 119 56 84 103 67 47 110 142 82 77 124 116 26 46 83 100 69 49 80 43 79 62 1 45 47 135 71 28 49 59 42 115 163 114 67 29 119 73 84 72 92 165 49 116 57 61 44 97 105 65 114 81 120 141 75 47 68 133 77 66 46 54 96 107 91 101 130 95 74 127 112 104 68 44 78 24 59 144 78 50 71 115 80 148 75 98 32 130 111 86 105 65 45 107 99 75 118 75 88 63 91 82 100 67 73 102 56 105 27 60 72 70 118 114 51 86 53 100 103 122 30 61 25 43 132 46 92 67 35 149 140 95 140 118 78 44 16 79 63 48 103 81 146 91 134 88 89 94 39 155 54 90 120 60 90 109 70 19 75 97 67 153 15 90 94 80 126 165 72 102 127 126 72 80 124 111 158 92 73 18 106 24 98 61 40 102 64 123 132 42 157 96 41 124 92 110 81 58 53 58 124 14 95 126 77 81 63 65 81 61 111 71 54 73 50 155 52 113 78 79 119 80 116 87 46 111 71 73 102 40 43 21 45 50 56 58 146 89 39 133 100 115 68 74 79 80 112 19 185 38 105 131 70 87 98 139 94 84 79 127 32 104 105 45 155 146 55 97 55 136 65 81 122 90 73 83 122 63 144 92 93 81 82 29 47 39 109 56 108 107 96 42 48 82 113 111 87 103 41 64 81 105 85 66 39 150 79 107 54 35 154 122 12 51 126 101 104 83 57 96 147 84 80 100 40 62 109 121 105 145 145 135 105 84 159 78 69 64 81 93 36 85 97 47 28 142 110 86 87 62 128 90 84 48 83 73 128 110 90 85 127 123 101 104 135 96 188 48 40 119 91 90 159 156 61 53 57 43 56 57 72 24 66 92 72 38 88 70 113 71 77 108 43 105 104 118 76 114 93 100 80 60 85 106 59 26 113 89 110 86 34 114 84 100 64 58 143 90 99 50 78 33 71 125 122 56 107 52 80 46 50 73 65 45 121 43 99 112 49 69 143 51 113 59 124 48 74 74 53 52 148 138 75 54 140 79 60 107 37 96 64 52 81 56 36 6 125 133 108 81 71 78 157 83 81 73 85 112 83 146 55 80 67 33 37 151 80 101 64 84 114 36 47 65 110 20 68 83 151 37 39 86 95 92 124 77 64 115 53 99 92 129 100 75 75 63 66 69 74 22 115 126 56 94 111 13 66 63 31 51 56 50 24 117 34 137 69 71 140 20 105 92 106 107 39 71 157 115 92 104 146 157 79 111 117 85 129 54 72 69 68 96 103 7 140 105 112 112 148 118 119 41 136 50 140 75 81 82 97 116 27 97 88 94 41 102 97 70 93 104 57 20 157 13 22 107 93 115 60 82 73 135 109 127 106 34 116 61 50 115 56 135 56 77 89 67 137 142 96 88 91 23 152 111 100 59 138 90 76 61 154 87 38 76 87 142 53 107 44 64 45 44 35 54 57 87 55 76 40 99 30 85 85 105 128 108 101 37 66 61 18 44 96 83 73 165 104 146 80 85 81 70 190 47 102 133 40 43 36 62 60 132 69 75 60 147 118 96 72 47 82 69 105 113 102 48 10 86 23 96 111 152 103 210 107 89 99 45 54 74 46 61 92 93 93 125 41 80 141 81 91 45 53 151 52 116 68 54 35 66 37 128 88 28 75 44 84 64 53 60 25 113 94 109 78 81 83 56 98 72 76 149 38 69 66 90 91 32 78 115 90 97 55 97 28 127 92 109 143 72 77 76 190 70 94 135 98 56 49 110 71 43 76 54 175 86 51 34 72 103 113 134 105 131 49 80 83 66 77 44 57 90 80 45 69 44 116 60 119 25 104 30 78 130 35 27 138 40 167 97 68 98 132 24 86 124 78 64 39 126 131 33 33 35 39 104 151 26 163 68 106 130 89 79 130 49 87 143 70 101 102 47 61 144 92 190 37 64 62 151 109 113 55 45 79 103 150 68 137 59 80 77 83 41 90 64 35 113 123 81 54 83 71 66 75 77 103 170 71 131 30 115 125 105 92 64 26 70 113 107 66 163 115 124 94 159 70 36 71 59 85 40 86 142 55 50 119 68 79 82 61 64 79 42 114 47 88 73 88 95 85 156 59 89 61 144 25 85 89 111 77 94 94 159 103 26 58 120 40 109 69 50 128 95 100 77 92 107 74 162 53 74 76 100 113 8 104 70 27 107 78 91 52 147 94 42 72 81 99 120 58 82 99 58 59 95 203 66 169 61 26 72 190 46 139 59 56 113 22 49 107 115 68 93 88 70 27 70 114 75 103 65 71 96 64 68 90 69 88 91 135 44 118 135 180 95 58 62 49 107 42 61 104 154 52 12 69 82 92 34 33 109 135 169 65 66 72 75 45 100 145 125 83 107 35 64 111 75 110 122 60 83 3 128 44 80 105 133 126 61 45 98 93 123 44 85 152 118 55 72 121 44 17 63 93 86 44 60 31 69 84 104 66 109 78 104 122 104 40 108 50 39 78 63 98 125 81 80 67 72 102 41 61 19 135 136 134 110 92 43 210 98 56 44 123 124 48 52 43 90 119 111 88 64 53 70 47 115 54 107 116 95 69 73 132 88 61 33 66 89 95 68 34 251 200 78 100 79 66 100 59 42 57 31 51 77 86 28 129 70 77 68 36 91 117 156 72 165 73 68 96 80 63 84 78 31 37 45 26 47 43 55 134 122 110 44 75 53 44 111 99 137 109 109 83 87 50 87 49 69 72 93 82 99 33 113 105 66 78 70 110 45 92 91 49 176 75 50 90 88 58 98 75 56 46 117 119 47 63 96 35 106 67 41 89 82 70 48 92 66 78 70 77 108 130 44 50 38 111 92 52 126 126 77 91 142 108 97 77 88 35 96 76 61 124 86 72 55 64 85 140 64 50 27 73 73 43 113 76 68 34 74 85 52 105 56 71 74 77 69 65 89 75 94 79 102 118 106 119 79 76 41 95 125 116 160 15 129 74 78 142 86 81 162 155 92 65 116 60 82 83 101 101 46 84 69 115 62 48 58 46 56 110 63 92 82 143 102 33 41 102 93 91 80 42 57 73 58 108 167 76 70 183 73 57 73 24 113 89 40 62 53 102 79 60 94 64 67 54 111 69 60 89 131 87 129 87 119 48 147 144 128 82 162 163 119 131 40 72 111 23 156 142 130 70 95 94 36 85 58 80 39 145 113 71 158 120 63 96 145 49 29 118 71 47 33 61 60 108 89 55 154 73 35 43 106 51 129 51 82 92 37 133 67 132 53 100 72 109 86 67 75 70 67 112 77 64 81 48 56 64 68 63 119 53 73 75 66 47 83 26 74 87 126 27 96 114 100 22 97 63 84 12 61 86 70 194 62 118 14 66 71 88 57 88 58 71 33 28 49 106 72 122 79 118 122 28 32 106 37 141 105 79 39 87 115 4 61 116 128 99 209 70 156 100 80 66 157 189 82 48 87 87 145 130 51 51 104 33 130 75 34 136 71 96 96 148 98 112 138 91 106 103 72 46 78 85 94 55 104 79 64 113 95 51 116 107 86 17 116 122 50 112 54 119 24 134 62 84 83 82 69 23 88 69 80 76 42 38 125 49 44 170 57 121 73 55 78 44 85 92 67 53 59 102 53 84 95 129 111 79 110 48 64 34 102 66 111 119 46 118 139 67 -5 55 92 109 127 72 37 39 101 70 82 44 69 57 13 166 143 109 138 89 104 46 61 73 102 129 95 47 100 83 57 49 129 60 64 95 113 94 86 82 116 61 69 96 89 54 53 66 47 81 61 79 117 36 66 98 76 66 110 137 167 39 26 33 38 18 90 112 47 63 74 96 97 124 95 27 78 74 55 92 65 85 155 55 75 78 20 37 52 11 144 73 76 127 100 16 131 4 67 56 73 83 94 96 111 28 196 159 109 114 88 98 48 87 46 55 55 57 97 108 125 169 102 136 92 46 93 46 151 67 100 109 34 79 58 93 103 94 74 25 68 27 74 143 60 107 58 122 93 119 40 54 97 100 142 128 70 69 102 80 106 70 59 75 98 133 64 53 112 113 38 64 96 130 108 88 57 62 101 69 23 73 34 72 38 78 107 56 104 80 106 97 98 131 70 109 57 98 73 115 131 67 109 34 12 45 39 71 58 39 53 81 130 44 94 23 65 35 81 110 50 49 65 50 74 148 26 84 101 38 52 71 139 37 75 47 87 35 71 41 128 38 125 123 103 120 89 133 87 168 72 40 77 49 62 83 72 69 63 72 69 84 119 79 49 7 71 127 121 90 59 103 134 95 113 106 84 128 72 71 78 105 49 71 77 90 137 108 135 106 45 84 74 74 118 120 49 108 61 93 84 110 67 34 59 166 20 189 60 63 53 86 86 128 66 84 59 61 175 78 109 121 80 125 53 44 129 65 59 90 45 130 80 118 86 69 60 60 39 64 45 64 72 78 112 81 87 112 81 129 87 62 72 134 165 109 64 87 68 93 125 68 98 72 113 129 90 16 35 59 91 88 67 85 90 23 46 64 81 74 67 83 82 102 69 82 54 95 50 100 20 46 130 119 191 31 88 103 77 60 35 117 140 91 69 80 113 50 81 69 43 138 78 124 152 61 63 95 112 102 84 79 163 46 100 45 91 76 117 87 72 69 89 93 104 62 77 106 93 132 85 65 52 95 65 52 41 156 74 81 115 67 148 69 95 69 35 78 96 113 10 84 54 103 37 88 133 18 123 161 45 147 31 106 60 56 108 96 44 87 17 84 91 30 30 56 74 55 51 63 98 93 124 87 66 93 113 64 71 118 63 53 79 68 84 90 152 82 67 56 81 76 47 123 77 97 117 50 67 63 89 56 125 108 154 126 34 157 85 98 141 51 107 79 82 94 131 70 51 81 24 58 64 75 103 204 130 71 67 29 59 71 99 77 54 118 35 115 123 53 107 51 14 23 79 57 27 6 73 77 35 199 92 109 128 95 103 76 71 39 89 29 110 99 112 103 96 42 101 85 38 183 63 128 68 62 81 83 151 85 95 95 136 101 48 55 54 22 118 89 95 49 114 69 62 121 136 4 92 102 129 46 112 51 62 54 76 140 77 105 63 71 114 110 35 98 105 117 60 34 82 76 57 105 129 70 68 130 87 92 111 109 102 75 103 105 30 103 65 43 105 157 60 118 40 46 141 37 69 104 69 63 13 81 68 155 145 49 95 85 31 59 28 65 185 80 118 27 115 90 102 97 102 130 77 44 72 36 63 47 55 73 97 80 35 45 144 125 43 86 124 117 44 59 98 14 80 109 97 120 126 132 149 73 77 124 27 55 101 87 133 55 40 38 119 109 73 104 80 39 26 39 92 126 99 96 49 44 106 21 35 141 44 11 94 8 55 58 87 111 91 62 122 41 110 92 56 76 95 38 164 44 96 61 77 130 82 100 120 180 79 52 38 43 79 44 67 130 138 145 73 127 48 64 55 26 153 48 106 130 43 89 101 86 44 88 74 57 35 58 123 47 29 86 74 62 86 31 32 52 53 45 103 174 77 139 147 41 113 38 116 83 112 48 41 70 85 111 80 73 105 83 80 168 71 134 118 88 85 96 86 35 88 119 77 55 71 82 82 84 74 167 65 132 67 89 70 37 26 96 123 78 72 52 76 72 36 36 99 52 53 103 77 221 70 83 150 29 49 76 83 152 86 92 39 52 26 49 124 130 119 99 48 81 54 67 78 98 89 64 66 41 36 106 75 32 89 138 65 136 55 34 89 136 82 75 93 71 124 66 140 80 110 169 71 51 115 60 89 46 17 54 72 81 90 25 99 64 53 63 89 43 119 102 35 41 66 83 118 29 31 105 105 74 65 122 87 110 29 91 89 164 93 129 117 105 51 84 97 66 35 86 34 67 47 29 99 114 66 97 99 110 47 100 99 83 21 86 84 54 122 132 13 137 102 110 204 81 128 4 135 49 56 73 79 126 98 132 60 93 105 79 150 59 147 52 58 62 48 87 51 88 55 50 101 62 58 44 126 63 36 76 97 107 77 40 21 89 96 92 65 84 108 89 45 103 151 93 103 166 61 84 80 158 42 97 77 31 100 161 68 87 75 104 120 68 42 23 91 42 69 103 44 73 125 55 100 88 80 52 43 117 102 30 113 149 61 82 98 123 115 46 59 98 142 38 55 41 46 108 54 57 87 116 86 140 135 101 72 88 81 60 72 86 95 105 58 54 123 176 83 65 61 41 112 35 143 82 159 71 173 109 134 172 88 36 160 89 61 75 80 78 58 116 115 3 86 127 35 155 111 65 74 82 56 85 67 38 69 91 95 105 63 91 68 97 78 77 56 104 80 87 80 67 58 79 75 35 145 70 144 84 147 96 66 89 63 22 94 103 72 38 103 72 91 89 129 39 87 78 80 131 84 74 108 57 20 47 62 59 57 97 81 74 42 34 79 18 93 66 106 55 30 104 40 95 120 58 127 41 116 92 94 105 49 51 96 196 60 67 131 100 103 83 34 39 139 31 122 124 54 78 155 6 50 53 37 108 39 91 57 116 139 71 112 85 113 96 74 126 59 95 89 76 73 35 140 46 109 33 59 102 56 63 149 113 50 83 133 66 52 64 146 39 53 43 90 80 52 122 66 164 43 106 88 185 41 63 84 143 78 99 149 127 150 35 146 108 124 45 98 90 59 111 142 114 54 139 97 82 126 58 43 112 77 138 109 74 61 107 30 106 61 60 122 100 108 119 50 69 133 37 35 140 67 42 76 96 166 71 103 55 65 83 113 111 18 79 113 131 100 51 53 77 105 166 73 132 103 123 37 86 69 69 92 65 106 54 48 94 123 13 135 36 124 116 72 74 112 136 68 71 58 54 67 100 66 79 75 70 80 44 102 159 107 95 58 93 69 109 92 84 18 93 101 71 41 165 56 56 47 92 127 47 137 62 80 83 21 99 38 110 108 86 43 105 105 101 120 105 76 67 38 11 59 137 121 107 91 116 85 107 89 56 115 110 66 160 61 118 126 92 76 82 98 35 45 108 51 157 154 95 40 61 13 56 90 116 72 129 97 44 111 51 77 89 228 91 128 51 105 19 95 84 115 67 60 107 84 103 57 81 61 84 72 171 99 18 84 93 54 59 53 122 61 34 62 43 89 20 75 15 91 49 96 40 103 124 96 99 59 129 79 101 119 95 117 42 56 83 88 65 75 33 112 120 108 36 130 42 73 51 81 93 77 90 123 128 92 52 132 81 31 88 129 75 81 79 51 99 60 128 90 47 93 34 89 17 90 139 67 149 131 80 78 71 98 34 88 27 104 23 31 106 38 73 88 64 108 57 109 56 84 99 118 116 176 151 137 136 122 132 97 55 111 64 54 107 118 107 56 124 54 41 118 32 108 73 100 98 77 108 78 76 40 77 29 63 92 109 77 86 100 25 93 28 118 6 126 67 44 85 84 37 60 99 119 142 127 146 87 47 55 145 57 81 38 89 88 45 72 119 116 147 44 65 85 61 127 82 120 117 87 55 97 59 166 44 50 97 88 139 55 99 45 121 67 126 134 28 169 97 77 176 65 52 81 35 62 79 52 175 48 151 77 90 80 73 146 53 68 50 32 51 47 69 68 65 108 119 65 68 48 33 32 64 48 40 183 95 83 43 136 63 102 92 97 61 95 120 93 51 42 64 102 58 117 49 90 63 82 76 60 49 126 113 54 91 159 92 68 47 60 59 99 97 108 88 150 62 111 80 68 150 72 142 30 72 52 108 105 123 115 110 29 38 107 72 126 106 75 87 66 43 84 36 114 31 87 134 77 96 50 56 127 83 83 57 76 51 82 104 36 107 79 91 130 65 57 105 88 61 126 73 88 55 117 68 99 150 58 85 62 92 125 111 149 37 105 116 75 38 87 122 114 83 105 75 113 133 109 79 99 102 22 36 60 153 54 77 161 38 96 86 150 93 61 143 77 56 115 121 47 118 36 82 149 10 83 88 32 102 41 57 38 50 130 133 69 147 134 50 56 62 133 80 94 98 59 101 72 102 48 62 119 100 155 81 127 100 80 121 90 19 114 100 89 22 133 21 88 102 49 51 88 123 97 62 121 122 54 125 26 26 151 91 99 67 83 114 113 41 87 128 95 69 95 73 76 72 30 55 114 141 80 70 85 57 103 119 102 75 127 110 66 47 76 63 88 64 68 78 66 115 110 109 145 75 76 111 30 55 65 118 112 59 120 97 81 76 165 22 79 25 56 78 77 74 59 58 117 91 56 40 104 43 39 164 14 97 64 60 82 113 29 70 129 36 77 137 82 88 114 50 114 159 61 115 122 40 57 81 60 115 114 146 148 72 81 78 83 36 87 109 104 69 86 116 93 101 101 90 29 112 47 32 96 54 56 76 33 169 117 67 31 123 74 74 122 103 59 90 73 71 75 148 135 109 109 105 87 87 127 37 61 115 60 66 94 117 139 17 57 84 45 95 78 120 71 21 30 95 96 123 58 48 30 29 57 66 133 65 29 57 53 106 137 110 92 61 52 70 52 53 134 68 94 41 85 131 108 58 136 123 35 94 83 32 55 56 110 48 104 56 97 100 95 107 127 64 47 62 88 58 83 77 114 73 51 84 62 83 110 58 136 119 111 79 38 179 133 42 154 73 111 110 78 155 41 155 92 110 74 56 62 69 160 69 126 68 95 102 62 36 109 95 93 50 76 36 120 83 58 134 99 84 99 114 88 80 65 74 87 43 63 97 26 54 98 86 68 49 58 36 88 211 113 128 99 51 75 27 83 85 142 20 80 94 65 73 114 117 55 113 144 27 70 95 111 167 91 84 93 51 98 95 78 65 60 94 48 35 90 94 104 90 147 122 84 160 85 55 45 118 99 71 223 70 61 71 124 53 88 55 49 114 72 180 40 64 92 77 104 118 69 69 129 28 70 143 84 94 83 63 69 30 72 35 56 119 86 73 55 79 71 146 160 40 112 108 64 57 36 37 86 63 92 51 118 85 77 66 90 54 94 83 63 77 170 65 136 131 75 88 105 90 43 81 13 59 109 75 59 110 17 98 49 64 82 85 129 137 68 80 171 59 72 154 85 69 81 74 60 22 127 66 55 91 80 64 112 96 64 80 38 116 33 147 100 56 120 48 49 38 64 36 90 51 100 132 100 24 47 82 210 127 86 74 102 83 135 110 78 85 113 94 115 133 44 74 67 35 76 108 82 41 72 42 55 123 64 56 82 61 51 44 94 83 132 67 107 65 112 81 143 43 50 101 133 131 132 111 9 130 112 64 28 134 51 78 41 84 94 50 101 99 67 106 150 63 98 159 71 67 23 110 85 85 72 99 31 192 93 23 135 89 52 113 52 103 37 101 104 53 54 42 102 100 48 114 44 102 56 46 57 80 68 100 126 111 76 119 101 67 83 146 77 62 78 110 61 101 45 32 75 81 122 79 73 39 42 166 92 15 118 98 98 53 79 164 55 103 32 46 93 109 42 64 90 46 146 95 45 146 80 104 56 80 39 99 97 98 77 99 98 71 143 28 86 45 80 104 115 51 109 55 49 114 158 128 108 90 91 160 28 66 77 96 74 134 48 67 59 61 124 97 153 21 95 45 72 61 37 103 110 65 28 111 142 145 62 34 99 69 114 106 135 78 36 68 65 38 65 69 200 141 63 91 100 50 65 133 98 28 73 82 101 40 68 72 65 86 123 82 33 47 80 123 57 84 69 54 97 68 84 47 73 56 48 86 120 86 66 123 49 114 94 30 42 90 72 67 74 84 147 51 44 58 87 135 47 157 68 121 73 124 37 132 57 116 86 25 23 91 70 63 71 60 84 111 78 121 77 134 79 64 49 153 66 172 145 61 62 44 66 99 82 78 50 67 71 41 168 79 108 43 99 62 20 101 43 86 111 52 41 177 68 68 119 57 73 81 56 53 127 84 192 58 104 26 92 66 37 83 56 131 77 94 124 49 72 106 134 63 90 169 98 91 58 93 120 73 141 52 74 127 65 138 26 55 101 126 82 42 101 166 62 96 70 103 91 65 9 119 70 120 29 85 2 117 54 91 71 120 39 95 65 41 59 109 52 119 103 148 131 90 80 136 82 56 114 175 29 69 55 73 72 33 111 57 20 69 109 78 124 105 88 78 83 77 55 118 108 53 13 76 18 131 96 43 77 94 53 111 126 79 154 47 123 72 42 97 129 34 37 47 140 63 75 65 115 77 72 126 60 100 81 97 74 73 73 100 52 83 106 44 34 64 45 107 71 70 44 170 56 -1 97 105 54 54 77 84 148 78 90 70 77 144 56 116 100 127 91 104 50 110 72 105 90 47 91 87 86 153 35 103 81 61 76 138 105 125 86 112 75 40 56 103 44 129 79 92 126 108 116 33 80 94 59 92 69 30 81 81 21 106 54 83 88 74 79 152 108 64 28 56 118 125 51 75 53 58 66 34 71 159 44 55 41 169 49 78 124 81 123 117 140 53 179 87 133 33 78 105 99 69 137 113 79 70 107 68 103 53 55 81 55 23 54 73 76 76 47 71 71 80 144 180 75 124 45 103 130 192 58 73 92 127 96 119 92 83 73 79 91 124 100 65 61 110 106 40 111 94 132 87 99 141 151 68 63 100 66 44 75 42 46 116 63 89 99 65 77 90 109 162 27 89 77 111 101 96 75 75 73 96 60 139 87 63 119 101 62 15 40 109 78 36 56 86 115 70 58 39 92 113 42 92 31 106 81 106 64 48 89 115 79 135 111 93 52 51 119 99 97 83 82 119 112 90 32 154 137 110 68 111 18 102 59 175 37 70 100 71 95 72 92 74 176 117 102 101 54 120 4 38 64 60 107 91 50 96 136 130 40 80 143 112 109 56 46 94 89 78 63 45 62 70 66 120 50 104 86 56 76 98 69 44 53 86 71 38 39 116 131 61 88 32 102 158 96 78 54 88 49 94 130 99 72 73 40 39 77 72 29 70 127 145 77 92 135 5 70 99 35 82 43 87 50 87 43 67 35 60 94 67 50 125 64 54 66 91 140 90 82 40 134 94 125 85 52 55 70 155 85 70 116 33 75 93 36 121 52 110 90 64 39 45 53 71 68 65 130 90 43 97 79 69 115 70 82 83 141 51 164 85 52 74 49 84 51 90 84 102 51 49 93 48 67 75 81 55 104 41 118 105 57 44 33 44 84 43 96 54 162 123 85 115 51 66 113 79 53 114 104 134 106 87 104 81 128 104 99 83 51 77 54 32 80 111 86 20 79 89 117 106 134 -2 90 50 68 124 122 85 101 33 49 74 46 95 33 72 54 98 71 70 76 82 55 56 84 84 142 82 44 118 45 81 157 31 116 62 76 77 102 65 16 76 125 52 44 114 193 63 89 78 80 90 93 119 121 68 67 26 52 93 128 155 120 71 61 116 58 41 20 54 131 25 88 120 114 113 79 83 75 78 89 44 94 62 93 80 118 108 201 133 132 89 137 50 124 71 85 116 134 143 40 60 79 61 76 65 97 136 55 99 84 119 55 119 51 149 98 76 86 113 59 88 21 31 107 117 135 66 48 51 50 131 165 70 71 70 118 183 117 78 38 47 173 39 85 102 147 127 120 99 121 44 38 116 89 49 63 1 122 6 107 97 76 75 46 39 99 66 99 44 82 60 110 70 69 9 86 68 64 59 106 115 56 81 97 142 51 165 76 53 82 64 162 135 38 88 12 130 95 131 103 114 144 61 158 112 51 38 34 26 28 110 97 50 47 43 78 69 146 123 101 72 17 64 101 169 138 69 162 184 56 70 59 79 129 117 131 102 120 139 52 40 50 118 119 51 142 147 77 81 123 124 119 107 174 64 77 102 86 100 104 68 88 57 75 121 111 83 90 121 60 117 105 76 127 152 24 99 135 87 69 67 61 106 98 8 85 140 77 48 129 31 57 37 72 128 99 133 93 102 88 58 98 111 50 42 144 124 80 62 83 74 76 79 47 76 78 97 120 131 42 67 19 53 133 95 101 76 97 66 19 74 13 102 92 48 56 73 179 127 43 83 182 159 90 87 89 122 66 19 54 39 122 43 107 15 29 33 158 148 76 81 69 118 105 113 99 79 116 40 109 56 89 112 99 125 123 64 39 65 113 29 47 98 163 93 141 97 102 82 157 120 100 145 115 142 105 102 89 95 55 49 49 123 91 85 80 58 39 57 29 52 70 49 66 118 94 142 47 85 43 68 120 59 47 113 76 46 36 54 42 93 65 58 29 99 48 78 119 86 93 200 35 104 69 62 143 25 97 118 160 90 68 91 62 69 44 46 49 89 92 71 85 101 39 79 1 25 24 150 98 72 135 56 40 98 108 79 69 125 57 106 66 112 113 62 42 32 41 44 26 138 103 75 46 104 59 59 81 94 84 118 146 70 122 24 115 96 54 159 89 116 98 118 182 39 52 108 42 7 133 46 68 83 107 55 69 62 59 55 50 93 62 98 108 61 60 52 111 75 51 61 81 51 46 95 112 88 40 144 106 58 75 100 22 74 46 35 87 85 62 102 67 65 85 92 114 114 90 88 83 93 65 129 137 53 71 93 109 94 149 49 52 86 48 95 77 83 62 101 43 158 47 83 75 57 106 127 67 148 74 94 90 50 75 82 147 87 109 86 49 78 46 89 162 76 86 66 106 130 15 86 134 75 73 95 98 98 131 43 71 88 52 44 78 133 44 47 70 45 75 43 25 93 38 97 122 88 73 101 40 56 99 112 89 74 63 95 67 94 53 68 102 80 151 126 111 141 20 114 146 125 57 50 86 86 28 148 46 85 61 60 25 46 106 63 37 151 91 65 79 102 88 34 132 40 28 92 60 106 119 103 93 120 111 47 90 203 63 132 73 64 86 137 73 103 89 29 87 41 98 116 126 100 62 128 129 85 137 72 61 144 162 89 91 72 37 55 55 32 62 74 70 84 124 71 107 86 86 119 119 99 52 60 50 190 39 87 92 134 99 82 134 52 86 81 93 81 84 114 138 70 74 91 137 98 124 97 117 92 69 54 109 98 124 31 140 91 102 66 94 101 149 86 94 62 161 38 49 87 72 66 81 87 72 97 70 72 49 74 157 135 83 98 59 69 113 150 89 84 73 88 125 102 88 97 101 57 69 87 86 49 96 96 33 56 131 45 76 46 123 114 125 54 167 116 114 77 63 138 38 123 15 194 95 104 55 131 101 81 52 84 118 125 76 51 122 38 72 139 47 48 38 123 70 139 160 73 130 71 81 106 47 88 38 29 54 85 111 112 48 128 108 58 92 119 154 93 28 75 117 61 104 41 79 49 63 78 81 76 71 42 72 99 93 37 24 116 45 150 108 26 41 131 48 59 105 65 63 88 42 109 53 88 62 84 68 151 50 149 141 105 112 117 80 80 136 86 117 81 32 44 84 18 82 100 128 89 59 87 80 94 38 122 186 62 90 60 25 88 52 53 128 31 99 100 15 67 67 148 138 88 96 61 37 102 164 104 116 96 62 33 53 134 112 139 63 76 134 156 56 92 49 64 58 51 86 23 88 159 76 129 66 64 61 27 79 3 79 122 139 102 55 87 28 217 67 141 92 75 122 42 87 72 97 87 143 50 78 89 32 54 66 108 93 42 152 93 82 68 53 79 49 65 127 41 35 66 78 65 105 58 88 61 58 51 80 81 40 200 78 63 36 15 124 85 120 99 69 73 97 86 103 101 49 80 44 90 94 80 46 116 84 41 98 32 104 64 33 36 48 94 83 131 63 78 22 83 73 81 158 79 63 79 63 74 130 34 116 52 72 207 39 43 54 69 80 99 84 105 93 21 40 39 62 79 91 34 55 72 107 72 76 73 79 20 78 90 80 67 112 70 101 74 62 86 64 30 105 41 68 102 79 96 121 98 91 77 86 41 85 131 75 52 93 102 65 121 28 3 46 58 72 74 136 58 26 99 141 31 103 181 135 89 103 93 77 135 67 92 62 54 58 105 136 113 62 116 65 79 118 41 35 97 83 16 109 132 120 44 107 80 136 121 86 101 53 124 90 75 63 56 58 120 116 78 80 37 98 126 76 143 156 89 74 80 25 76 99 72 108 103 50 101 84 100 22 63 57 112 77 68 56 35 56 109 72 48 111 119 138 64 93 105 122 111 32 32 100 83 126 52 79 46 66 55 119 75 11 55 73 65 153 127 40 69 86 75 87 65 132 30 122 127 37 40 44 41 82 127 48 146 131 52 64 51 107 111 95 121 93 71 69 65 86 49 54 114 106 94 53 69 59 109 115 84 98 45 111 130 108 141 119 45 57 109 108 96 71 90 55 61 116 207 106 75 62 56 41 120 132 90 102 164 24 107 66 37 115 42 72 106 47 98 67 92 51 88 22 65 41 70 45 51 113 99 82 138 77 178 124 33 73 98 108 75 81 77 110 42 35 82 63 129 156 82 129 119 88 110 75 59 106 115 54 58 115 138 50 55 123 106 73 103 55 90 48 136 65 60 150 112 108 66 109 64 108 108 48 28 75 64 39 83 104 52 38 124 69 51 65 104 42 87 112 142 112 147 57 53 59 76 51 104 95 179 121 122 106 54 97 113 53 114 99 91 141 140 79 115 58 68 20 76 133 73 24 107 151 85 68 100 49 111 96 95 137 111 76 40 104 56 73 29 90 90 68 77 98 99 25 66 23 87 155 29 115 144 92 50 100 112 68 120 66 90 69 151 80 51 105 63 130 124 96 126 54 69 98 115 101 48 92 60 61 72 18 118 77 88 53 73 119 87 54 122 75 175 83 112 83 78 81 139 74 67 96 90 29 102 168 34 70 90 113 96 36 120 38 36 109 100 52 40 104 68 103 109 87 112 63 122 119 116 121 65 157 61 66 77 114 59 52 63 57 77 29 85 80 126 75 121 69 86 25 126 28 192 58 27 49 83 157 142 134 57 89 67 48 50 34 117 179 63 48 87 54 124 92 49 56 56 83 112 127 72 137 56 118 73 52 52 105 110 117 98 83 52 85 71 125 78 24 28 84 89 85 144 88 47 114 48 91 75 119 58 80 52 74 88 8 137 74 50 94 87 60 115 136 75 108 66 86 39 84 47 104 29 61 18 52 72 89 95 137 96 146 69 107 127 140 25 50 45 97 115 86 36 66 12 88 78 70 124 114 69 136 80 55 172 73 74 87 81 104 61 45 51 82 142 28 61 70 44 34 63 146 164 66 27 80 27 108 33 52 122 81 71 72 120 69 43 74 108 86 65 105 93 46 120 60 53 137 93 95 75 74 38 120 92 81 56 62 29 106 89 25 105 90 117 85 78 58 69 80 154 52 44 74 99 86 78 101 63 121 63 110 80 150 118 80 78 99 83 64 113 38 113 61 136 48 23 101 46 104 89 127 51 75 129 48 64 80 105 91 91 98 86 121 96 31 49 67 109 97 74 65 87 61 110 36 49 205 110 88 62 79 74 73 42 118 53 62 107 119 97 108 96 77 121 99 101 77 50 113 61 54 47 135 108 131 71 100 100 100 46 55 76 103 100 74 68 87 82 95 39 58 60 94 109 84 67 93 75 113 52 75 71 143 167 77 97 131 28 62 132 117 103 120 116 184 101 63 138 71 108 38 98 120 93 105 94 87 87 90 94 41 163 74 84 38 62 75 39 57 90 63 102 49 84 90 177 72 38 91 85 63 48 90 115 78 114 52 93 77 133 149 117 23 64 112 58 61 90 113 13 97 94 80 71 48 140 87 147 50 92 154 135 92 110 30 105 67 112 57 51 94 40 148 103 68 54 128 65 80 105 58 114 130 115 31 105 108 109 99 102 11 75 56 93 65 63 84 31 51 34 104 108 124 124 100 99 120 46 92 94 60 42 65 112 140 81 128 87 117 46 131 101 61 48 138 64 128 74 51 53 81 146 63 133 82 83 82 101 60 45 75 81 78 134 93 58 38 53 71 41 94 113 38 48 50 5 63 50 59 102 58 116 90 75 99 166 122 63 86 99 85 81 86 88 27 71 86 87 82 55 15 82 111 48 127 167 88 61 57 99 162 69 77 45 51 59 59 27 34 80 65 34 60 20 58 141 15 65 73 35 76 54 60 15 120 37 147 85 71 70 45 139 123 49 94 86 102 119 149 144 127 65 129 118 46 123 97 115 93 76 59 99 61 92 112 117 99 42 111 31 27 42 30 36 100 81 108 133 121 126 44 81 91 67 89 112 96 59 80 129 127 90 92 81 61 90 23 123 150 106 41 86 89 76 52 64 120 162 86 63 95 84 82 65 140 122 124 52 117 24 43 99 109 69 137 59 103 123 69 111 123 69</t>
-  </si>
-  <si>
-    <t>NIG(0.41564418301245604, 0.4155952263974295, 0.0038395940183011254, 0.007719047933956641)</t>
-  </si>
-  <si>
-    <t>0 0 1 0 0 0 0 0 0 1 2 2 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 2 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 2 0 2 1 0 0 0 0 1 1 1 1 3 1 1 0 2 2 0 1 0 1 1 2 0 3 0 0 0 1 1 1 1 2 0 0 0 0 0 1 0 0 0 1 2 0 1 0 0 1 0 0 0 0 1 1 0 1 0 0 0 0 1 2 1 0 0 0 0 1 0 1 0 1 0 0 0 0 0 1 1 2 0 3 0 0 1 0 0 1 0 0 1 0 2 0 0 0 1 0 0 0 0 2 0 1 0 0 0 0 3 0 0 0 2 0 2 0 1 1 1 0 0 0 0 0 1 0 1 0 0 0 0 1 0 1 0 0 1 0 2 0 0 0 1 0 0 2 1 0 1 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 2 1 1 0 0 0 2 0 1 2 0 0 0 0 1 2 0 0 0 0 0 1 0 1 1 0 1 1 0 0 1 0 0 1 0 0 0 1 0 0 1 3 1 2 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 3 1 1 0 0 0 2 0 1 0 0 0 1 2 1 1 1 1 1 0 1 0 0 0 2 0 0 1 0 0 0 0 0 0 0 0 1 0 1 2 0 0 0 1 0 2 0 0 0 1 1 1 1 1 0 1 0 1 0 1 0 1 1 0 1 0 0 1 1 0 1 1 0 1 1 1 0 0 0 0 1 0 0 1 1 0 0 0 1 0 0 1 1 1 0 3 2 0 0 2 0 0 1 1 0 0 0 1 0 1 0 2 1 0 0 0 1 1 1 2 0 0 0 1 1 0 1 1 0 0 1 0 2 1 0 0 0 1 0 1 0 2 0 0 0 0 0 0 1 0 0 0 0 0 1 1 2 1 0 1 1 1 1 0 3 2 1 3 0 2 2 0 2 0 0 1 0 0 1 0 0 0 0 0 1 0 0 2 1 0 1 0 0 1 0 0 2 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 2 0 0 2 1 1 1 2 0 0 0 0 0 1 0 0 1 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 1 0 1 1 0 0 0 1 0 1 1 0 0 1 1 0 0 0 1 1 1 0 0 1 1 1 0 2 0 0 1 0 0 0 0 2 1 1 0 1 0 0 0 1 1 1 1 0 2 0 0 1 0 2 0 0 2 1 0 1 0 2 0 2 2 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 2 0 0 0 0 0 0 0 1 0 0 2 0 0 1 0 0 1 0 1 0 0 2 0 0 3 1 1 0 1 1 0 0 0 0 2 2 0 0 1 0 1 1 0 0 0 2 0 0 0 1 1 0 1 0 0 0 2 0 0 3 2 0 0 0 0 0 1 3 0 0 0 0 0 1 0 0 2 2 1 0 2 0 1 1 0 2 0 1 0 0 1 2 1 0 1 1 0 1 1 1 1 1 0 1 0 2 1 0 0 0 0 0 1 0 0 0 2 0 0 0 2 1 0 0 0 2 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 1 0 0 0 1 1 1 0 1 1 2 0 1 3 2 0 0 1 1 0 0 1 2 0 0 0 0 0 1 2 0 1 1 0 0 0 1 0 0 1 1 0 2 0 1 2 1 0 0 1 0 0 0 0 1 0 0 1 1 1 0 0 0 0 2 0 1 0 2 1 1 2 0 0 0 1 1 0 0 2 2 0 0 3 0 0 0 0 1 2 0 1 0 1 1 0 3 0 0 0 1 0 2 1 0 1 1 2 0 1 0 0 0 0 0 0 1 1 0 0 0 2 1 2 1 1 1 0 2 0 0 0 1 1 0 0 2 0 0 0 0 0 2 1 1 1 1 0 0 0 0 1 0 1 2 1 0 0 0 0 2 1 0 1 1 0 1 0 1 0 0 2 0 0 0 1 0 0 3 1 1 1 1 0 0 1 1 0 3 0 0 3 0 1 1 0 0 1 0 1 0 1 2 0 0 1 2 1 1 1 1 0 0 0 1 1 0 0 0 1 1 0 0 0 0 1 0 2 0 0 0 0 0 1 1 1 0 0 0 1 0 1 2 0 0 0 0 0 1 0 0 1 2 0 0 2 1 0 1 0 1 0 1 1 0 0 0 0 1 2 0 1 0 1 0 1 0 0 1 1 1 0 0 2 0 2 0 0 0 1 0 0 0 1 0 1 2 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 2 0 0 0 2 0 0 0 0 0 0 2 1 1 1 1 0 0 0 2 0 2 0 0 2 1 2 0 1 0 0 1 0 0 0 0 1 1 0 1 1 1 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 1 1 1 1 0 1 1 0 2 1 2 0 0 0 2 0 0 1 0 0 0 1 0 0 0 0 0 1 1 0 0 1 0 1 1 0 0 0 0 1 0 1 2 1 0 0 1 0 1 0 0 0 1 0 1 0 1 1 0 2 0 0 3 1 0 0 0 0 0 0 0 1 0 0 0 0 2 0 0 1 0 0 0 0 1 1 0 2 0 0 1 1 1 1 2 0 0 0 0 1 0 0 0 1 2 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 1 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 1 1 0 1 1 0 1 1 1 2 0 0 1 0 1 1 0 0 0 1 0 1 0 0 2 0 0 1 0 0 3 1 0 0 0 0 0 0 2 0 0 0 1 0 0 0 0 1 0 2 0 0 0 0 0 0 0 0 1 0 0 1 0 0 2 0 0 0 0 0 0 0 1 0 2 0 0 0 0 1 0 0 0 1 0 1 0 1 0 1 1 0 1 1 0 1 0 0 1 0 0 0 0 1 0 0 1 1 0 2 1 1 0 0 1 0 2 1 1 1 0 0 1 0 0 1 1 0 1 1 2 1 3 0 0 3 1 1 0 0 1 0 0 0 1 0 0 0 1 1 2 1 0 0 0 0 2 2 2 0 0 0 0 3 0 0 1 1 1 1 0 0 1 0 0 1 0 0 0 0 3 1 0 1 1 0 2 1 0 0 2 0 0 1 0 1 1 0 1 1 0 2 0 1 1 0 0 0 0 0 0 1 1 1 0 0 2 0 0 2 1 0 0 0 1 1 1 0 0 0 1 0 0 2 1 0 2 1 0 0 0 1 3 3 1 0 0 0 3 0 0 1 1 0 1 0 0 1 0 2 1 0 0 1 0 1 1 0 0 2 1 0 1 1 2 1 1 1 0 0 0 0 2 0 2 0 0 0 1 0 0 1 0 0 2 0 0 2 2 1 0 0 1 0 1 0 0 0 0 0 2 1 0 0 0 1 0 0 0 0 0 2 2 0 0 1 1 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 1 1 0 0 0 0 0 0 1 0 1 0 1 1 0 0 1 0 0 2 0 0 1 0 0 0 1 0 0 0 1 0 2 2 0 0 0 0 1 2 0 1 1 0 0 0 1 0 0 1 0 0 1 0 0 0 1 0 1 0 0 0 1 2 2 1 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 2 1 0 0 1 0 2 1 1 1 0 0 0 1 2 0 0 0 0 0 1 0 0 0 0 0 2 1 0 0 0 0 0 0 0 1 0 0 2 0 1 0 1 0 1 1 1 0 1 0 0 0 0 1 0 0 1 1 2 0 0 0 1 1 1 1 1 1 0 0 1 0 0 1 2 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 1 0 1 1 0 0 1 2 0 0 0 1 0 1 0 0 1 1 0 0 0 1 1 0 0 0 0 0 1 0 1 1 0 0 1 0 0 1 0 2 0 0 0 0 1 0 2 2 1 0 1 1 1 2 0 1 1 0 2 1 2 0 2 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 1 0 1 2 0 0 0 0 0 0 3 1 0 2 0 1 0 0 0 1 0 0 2 0 0 1 1 0 0 1 0 1 1 0 0 1 1 1 1 1 0 0 1 1 0 1 0 1 1 0 0 1 0 1 1 0 1 1 1 0 0 0 0 0 0 3 0 0 2 0 0 0 1 2 0 0 1 0 1 0 0 2 0 1 0 0 0 0 0 1 1 0 0 0 0 1 1 0 0 0 0 2 1 0 0 2 1 0 0 2 0 1 0 0 0 1 0 0 0 1 0 0 1 0 0 2 0 0 0 2 1 2 0 1 1 1 1 2 1 1 0 0 1 0 0 0 0 2 1 0 1 0 0 1 0 0 0 0 0 0 2 0 0 0 2 1 0 0 0 0 1 3 1 0 1 2 0 2 0 0 2 0 0 0 0 0 1 0 0 0 2 0 0 1 1 0 0 0 0 1 1 0 1 1 1 1 0 0 0 0 1 0 0 0 0 2 0 1 1 0 1 0 0 1 0 2 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 2 0 0 1 0 0 1 0 0 1 0 1 1 0 1 0 0 0 0 0 3 1 0 1 0 0 2 1 1 1 0 0 0 1 2 1 0 0 0 1 2 1 0 0 0 2 0 3 0 0 0 0 0 2 1 0 1 0 0 2 0 1 0 1 0 1 0 0 1 2 0 0 0 1 2 1 1 0 0 0 1 1 2 0 0 0 0 0 1 1 0 1 0 0 1 0 0 1 1 0 0 0 0 1 0 0 0 1 0 0 1 1 1 2 0 0 1 0 0 3 0 1 0 1 1 0 0 0 1 0 1 1 0 1 0 0 0 1 1 2 2 1 0 0 0 1 0 1 1 1 0 0 1 0 3 1 2 1 3 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 3 1 0 0 1 0 0 0 0 0 1 0 0 1 0 0 1 1 0 0 0 0 0 1 0 0 0 0 3 0 0 0 2 0 0 0 0 1 0 2 0 0 0 0 0 1 1 1 1 0 0 1 1 0 1 1 1 1 1 1 1 2 0 0 0 0 0 0 0 0 2 0 0 0 0 2 2 0 2 2 1 0 1 1 0 1 1 1 0 2 2 0 2 0 0 1 0 0 1 1 0 1 2 1 2 0 0 3 0 1 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 2 0 1 0 0 2 0 1 2 0 0 1 1 1 0 1 0 0 0 0 0 0 2 0 0 1 3 0 1 2 1 1 0 0 1 0 1 0 1 1 1 0 1 0 0 1 0 1 0 2 1 0 0 0 0 0 0 0 0 0 0 0 2 1 0 1 1 0 1 0 0 1 1 0 1 0 1 1 0 0 1 0 1 1 1 1 1 1 0 1 0 2 0 1 0 0 0 0 0 1 1 2 1 2 1 0 0 0 0 1 1 0 1 1 0 1 1 0 1 1 0 0 2 1 0 1 0 1 0 1 0 0 0 0 0 1 0 0 1 1 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 1 2 0 0 1 0 0 2 2 1 0 0 2 1 0 0 0 1 0 0 1 0 1 0 0 1 0 1 1 1 0 0 0 2 1 1 0 0 0 1 1 0 2 2 1 1 0 1 1 0 0 0 1 2 1 0 1 0 0 0 0 0 0 2 0 0 1 0 0 0 1 0 1 1 0 0 1 0 1 1 0 0 0 1 0 0 0 1 2 2 0 0 0 0 2 2 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 1 1 0 0 0 0 0 1 0 0 1 2 0 3 0 1 1 2 1 1 1 2 1 2 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 2 1 1 2 1 0 1 1 0 0 1 0 1 1 1 1 0 0 0 0 0 0 0 0 1 1 0 2 1 0 1 1 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 1 0 0 0 1 1 1 0 1 1 1 0 1 3 0 1 1 0 2 1 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 1 0 1 0 0 1 0 2 0 0 0 0 1 1 1 1 0 1 1 0 1 1 0 1 0 1 0 0 1 1 0 0 0 1 1 0 0 1 1 1 1 1 0 0 1 1 2 0 0 0 1 0 0 1 0 0 0 0 0 1 1 0 0 1 1 1 1 0 1 1 0 0 0 0 1 2 1 0 0 0 1 0 0 1 1 1 0 0 0 0 0 2 0 0 0 0 1 1 0 0 0 0 1 0 1 0 0 0 0 0 0 2 0 0 0 1 0 0 0 0 0 2 0 0 1 0 0 0 0 0 1 1 0 0 1 0 0 0 0 1 0 0 1 1 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 1 1 0 1 0 0 0 1 1 2 1 2 0 1 0 0 0 0 0 0 0 1 0 0 0 2 2 1 0 0 0 1 1 0 1 1 1 0 1 0 1 0 0 1 2 1 0 0 0 1 0 1 1 0 0 0 1 1 0 0 0 0 0 1 1 0 0 2 1 1 0 0 0 1 0 0 1 2 0 1 0 1 1 1 0 1 0 0 1 1 0 0 1 0 0 0 0 1 0 1 0 0 2 1 1 1 0 1 0 1 0 0 0 1 0 1 0 1 1 0 1 0 0 0 1 0 0 2 0 0 0 3 0 1 1 0 1 0 0 0 0 2 0 0 1 0 0 0 0 1 0 0 0 0 1 2 0 0 0 0 1 0 0 0 0 1 0 0 2 0 1 0 1 0 0 1 2 1 1 0 0 1 0 0 1 1 1 1 1 0 1 0 1 0 0 0 0 0 0 1 0 0 0 1 2 0 1 0 0 0 1 0 2 1 1 1 0 0 1 1 1 1 0 2 1 1 0 1 0 0 0 1 0 0 2 0 0 0 1 2 0 0 0 1 2 2 0 0 0 1 0 1 0 1 0 0 0 0 2 1 1 1 1 0 0 1 2 0 2 0 0 0 1 1 0 0 1 0 0 1 1 0 0 1 1 0 1 0 0 0 1 2 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 2 0 0 1 0 0 0 0 0 0 1 0 2 1 0 0 1 1 0 1 1 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 2 1 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 2 1 1 0 1 1 0 0 0 0 2 0 1 0 1 0 0 0 0 1 2 0 1 0 0 0 1 0 0 0 1 1 0 0 0 0 0 1 1 2 0 1 0 0 0 3 1 2 1 1 0 0 0 1 0 0 1 0 0 0 0 1 1 0 0 1 0 0 0 2 0 1 0 0 1 0 0 3 0 1 0 1 1 0 0 1 0 0 1 0 0 0 0 0 1 0 0 1 2 0 1 0 1 1 0 0 0 0 1 0 0 0 1 1 1 0 0 0 1 2 0 0 0 0 0 0 3 1 0 0 0 0 0 1 0 1 1 1 0 0 0 1 0 2 0 0 0 1 1 0 0 1 0 0 1 0 0 1 0 0 0 0 0 2 1 0 1 0 0 0 2 0 0 0 0 1 1 1 1 1 0 1 0 0 1 1 1 0 1 1 1 0 0 0 2 0 1 0 1 1 0 1 1 1 1 1 0 0 1 0 0 1 0 0 1 0 1 0 0 0 0 1 0 0 0 2 2 1 0 0 0 0 0 1 1 0 0 1 0 1 1 0 0 0 0 0 0 1 0 1 1 0 0 0 0 1 0 1 0 1 2 0 0 0 2 0 0 1 0 0 0 0 0 1 1 2 0 0 0 2 0 2 0 1 1 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 1 2 0 1 0 0 0 0 1 0 0 0 0 1 0 1 2 0 0 2 0 0 1 0 1 1 0 1 1 0 0 0 0 0 1 0 0 3 1 0 2 0 0 1 0 0 1 0 0 1 0 1 1 1 0 1 0 1 0 2 1 1 0 1 1 1 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 1 1 0 0 0 0 0 1 1 2 0 0 1 0 1 0 0 0 1 1 0 0 2 0 1 2 1 0 1 0 0 0 0 0 0 0 2 0 1 0 0 0 2 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 1 0 0 0 0 2 0 0 1 0 1 1 0 0 0 0 0 1 1 0 0 0 0 1 1 2 1 0 0 0 0 2 0 0 2 2 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 2 0 0 0 0 1 1 1 0 0 1 0 0 0 0 0 0 2 1 1 1 1 0 1 0 1 0 1 0 0 0 2 0 0 1 0 0 1 1 1 3 1 0 0 2 0 2 1 0 2 2 2 0 2 2 1 1 2 1 1 1 0 1 0 1 0 0 1 0 1 1 0 0 0 0 0 2 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 1 0 1 1 3 1 2 0 2 1 0 0 0 3 1 0 0 1 0 0 0 0 1 1 0 1 1 0 0 0 1 0 0 0 1 0 1 0 0 1 1 2 1 0 0 0 0 0 0 0 1 0 2 0 0 1 0 0 0 0 2 0 0 0 1 0 0 0 0 1 0 2 1 2 1 1 0 2 1 0 1 0 1 0 1 1 0 1 0 0 1 0 2 0 1 0 3 0 1 0 0 2 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 3 0 0 2 1 1 0 1 1 1 2 1 0 0 0 0 1 1 0 0 1 0 0 0 1 1 1 0 1 1 0 0 1 0 0 1 0 0 1 2 1 1 2 1 1 0 1 0 1 0 0 0 0 1 0 1 1 1 0 0 0 0 2 1 0 0 0 0 0 1 1 1 1 0 1 0 0 1 1 1 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 1 0 1 0 0 1 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 1 0 1 0 1 0 2 2 0 0 0 1 2 0 0 1 0 0 2 0 1 0 0 0 0 0 1 0 0 1 0 1 0 0 1 1 0 2 0 0 1 2 0 0 1 0 0 0 0 0 1 1 0 2 1 0 0 1 0 1 0 0 0 1 0 0 0 0 1 2 0 0 0 0 0 1 0 1 0 0 1 0 0 1 0 0 0 1 1 0 0 0 2 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 2 2 0 1 2 0 0 0 0 0 0 2 0 0 1 0 0 1 1 1 0 0 0 1 0 1 0 1 0 3 0 0 0 0 0 0 1 0 1 0 0 1 0 1 0 1 0 0 0 0 0 2 0 0 2 1 1 1 1 1 1 0 1 0 0 0 1 1 0 1 0 0 1 1 0 0 2 1 0 1 2 0 2 0 0 1 0 0 1 1 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 1 1 1 0 2 0 1 0 0 1 0 0 2 0 1 1 0 0 1 1 1 1 1 1 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 1 0 1 0 2 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 2 0 1 0 0 1 1 0 0 0 0 0 1 1 1 1 0 0 0 1 1 1 0 0 0 0 0 1 0 0 1 1 0 1 0 0 1 0 1 1 0 0 1 0 0 0 1 0 0 0 0 0 0 2 1 1 0 1 1 0 2 0 1 1 1 0 0 0 0 0 0 0 0 2 1 0 0 1 0 1 1 1 1 1 2 0 2 0 0 0 0 0 2 1 0 1 0 0 1 0 1 0 1 2 0 3 0 1 0 0 1 0 1 0 0 0 1 0 0 1 0 0 0 0 2 1 0 1 0 0 1 0 0 2 2 0 0 0 0 0 1 0 1 0 1 1 1 1 0 2 0 0 2 0 1 1 2 0 0 0 0 1 0 1 2 0 1 2 0 0 2 1 1 0 0 0 1 0 0 2 2 0 0 0 1 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 1 1 1 1 0 1 1 0 0 0 2 0 1 0 0 1 0 0 1 0 0 2 1 1 0 1 1 0 2 0 0 0 0 0 0 0 0 0 1 1 1 0 2 0 0 0 1 0 1 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 1 1 0 0 1 1 0 2 1 0 0 0 0 0 0 0 1 1 0 0 0 0 2 0 0 0 0 2 0 1 0 1 1 1 2 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 1 2 0 0 1 0 0 0 0 0 1 0 1 1 1 0 0 1 0 0 0 2 1 0 2 2 0 1 0 0 0 1 1 1 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 1 3 1 0 0 1 0 0 0 0 1 0 0 0 2 0 1 0 1 2 0 0 1 0 1 0 0 0 1 3 0 0 1 1 0 1 0 0 0 0 1 1 1 1 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 2 0 1 0 0 1 0 0 0 1 1 1 0 0 0 0 0 0 3 2 1 1 0 0 0 0 2 0 1 1 0 1 0 0 1 1 0 1 0 0 3 1 0 0 0 0 0 1 1 0 0 0 0 0 0 1 3 0 2 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 2 0 0 1 1 2 0 0 0 0 0 1 3 0 0 0 0 2 1 0 0 0 1 1 0 1 1 1 0 0 0 0 2 0 0 1 0 1 2 0 0 0 2 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 2 0 1 1 0 0 1 1 0 0 0 2 0 1 0 1 0 2 1 1 1 1 0 1 1 1 0 0 0 1 0 0 1 2 2 1 0 0 0 0 1 2 0 0 1 0 0 2 1 1 2 0 0 0 1 0 1 0 0 1 1 0 1 0 1 0 1 0 1 0 0 0 0 1 0 1 0 0 0 0 1 0 0 1 1 1 0 0 0 0 0 0 0 1 0 1 1 2 0 0 1 1 0 0 0 0 1 0 0 1 0 0 1 1 0 0 0 1 1 0 0 0 1 0 0 0 1 1 2 0 1 1 1 0 0 0 0 0 2 2 1 0 2 2 2 0 0 1 1 0 0 0 0 1 1 0 0 0 0 1 2 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 1 0 2 0 1 1 1 0 2 0 0 4 0 0 1 0 0 1 0 0 1 1 1 0 0 1 0 0 1 0 0 1 1 0 1 0 1 0 1 1 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 1 1 0 2 0 2 1 0 0 0 0 0 1 0 0 0 0 1 0 2 1 1 0 0 1 0 1 1 0 1 1 0 0 3 1 1 0 1 0 0 0 0 0 1 0 1 0 0 1 0 1 2 0 0 0 1 1 0 0 0 1 0 0 1 1 0 0 0 1 1 0 1 0 0 1 1 0 0 1 0 2 1 0 0 1 1 0 0 0 0 1 0 1 1 0 1 0 1 0 1 0 1 0 1 1 0 0 1 1 0 0 0 1 1 0 2 0 1 0 1 0 1 1 0 2 0 1 0 2 0 2 1 1 2 0 2 1 0 0 2 1 0 0 0 1 1 2 1 0 0 1 0 1 0 0 0 1 1 1 1 0 1 0 0 0 0 0 3 1 0 4 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 2 0 0 0 1 1 0 0 1 1 1 1 0 1 0 0 1 0 2 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 2 0 2 0 0 1 0 0 0 0 1 1 0 1 2 2 1 0 0 0 0 0 2 4 1 1 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 1 2 0 0 1 0 2 0 2 0 0 0 1 2 0 0 1 1 0 1 0 3 1 2 0 0 0 2 1 0 1 0 0 0 1 0 2 0 2 0 0 0 2 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 1 0 0 1 0 0 1 0 1 2 0 0 0 0 0 1 0 0 0 1 1 1 0 0 0 1 0 0 1 0 0 0 2 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 2 2 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 2 1 0 1 1 1 0 1 2 0 0 1 1 0 1 0 0 0 0 0 0 1 0 0 0 1 1 2 0 1 0 0 2 0 0 0 2 0 1 1 0 0 0 0 0 0 1 0 0 1 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 1 1 0 1 0 0 2 1 1 0 0 1 0 2 0 0 1 0 0 4 2 0 1 0 0 3 0 0 0 1 0 0 0 1 1 1 2 1 1 1 1 0 1 0 0 0 0 1 0 0 1 1 0 1 0 1 0 0 0 0 1 1 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 1 1 0 0 2 0 0 0 1 2 1 0 0 1 0 0 1 0 2 1 1 0 1 0 0 0 1 0 0 0 0 1 1 0 1 1 1 1 0 2 0 1 0 0 1 0 0 2 0 2 2 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 2 0 1 1 0 0 1 0 0 0 1 1 0 1 2 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 1 1 0 0 1 0 1 0 2 1 0 2 2 1 0 0 1 0 1 1 1 1 0 0 2 1 0 0 0 1 0 0 0 0 1 0 0 1 1 1 0 0 0 0 0 1 1 2 1 0 0 0 0 1 0 0 0 0 0 2 1 0 0 1 0 0 0 0 0 1 0 1 1 0 1 0 0 1 0 1 0 0 2 0 1 0 1 1 0 0 0 1 0 1 0 0 1 1 0 0 0 1 0 2 0 0 0 0 1 0 1 0 0 0 0 1 0 0 1 0 0 0 0 2 2 0 0 1 1 0 0 0 0 1 0 1 1 2 1 0 1 0 0 0 1 1 0 0 0 0 0 1 1 0 0 1 0 2 1 1 0 1 0 0 0 0 1 1 1 0 1 0 0 0 1 1 2 1 0 1 0 0 1 0 1 0 0 0 0 0 1 1 0 0 0 0 1 0 1 0 0 1 0 0 0 0 1 0 1 2 0 0 0 0 0 1 0 1 0 1 0 1 1 1 0 0 1 1 0 0 2 1 0 0 0 1 0 2 2 0 0 1 1 0 1 1 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 3 0 0 0 0 0 0 0 0 1 1 2 1 0 2 0 0 1 0 0 0 0 0 0 0 0 0 1 2 1 0 0 0 0 0 0 1 0 1 0 0 0 0 1 1 1 1 1 0 1 0 0 1 0 0 1 1 1 0 0 0 1 1 0 0 0 0 1 0 0 1 0 0 1 1 0 0 3 0 0 1 0 0 0 1 2 0 1 1 0 1 0 2 0 0 0 1 0 0 0 1 0 0 0 0 1 1 2 0 0 2 0 0 0 1 0 2 0 0 0 2 1 0 0 0 1 0 0 1 2 1 1 2 0 0 1 0 1 0 0 0 1 0 1 2 1 1 0 1 1 0 3 1 0 1 0 1 1 1 1 0 1 2 0 2 0 0 0 0 1 0 1 0 1 1 0 0 0 0 0 0 1 0 1 1 0 0 0 1 1 0 2 0 1 0 0 1 1 2 1 0 0 0 1 1 0 1 0 1 0 1 0 0 0 1 1 1 0 0 0 4 1 2 1 1 1 2 1 0 0 0 1 1 0 0 1 0 1 0 0 0 0 2 2 0 2 0 1 2 1 0 0 1 0 0 0 3 0 0 1 1 2 0 0 1 0 0 1 0 1 0 0 1 0 1 0 0 0 0 0 0 0 1 1 0 1 4 0 0 0 1 0 0 1 0 1 1 0 2 1 0 2 0 0 0 3 0 1 0 0 0 1 0 0 1 0 0 1 1 0 0 0 2 0 1 1 1 1 0 0 1 2 1 0 0 0 1 1 0 1 0 1 1 1 2 0 2 1 0 1 0 0 0 1 1 0 0 2 1 1 0 1 0 0 0 0 2 0 0 0 0 1 0 1 0 0 1 0 1 0 0 0 1 0 0 0 0 2 0 1 1 0 0 0 1 0 0 3 0 1 1 1 0 0 0 0 0 1 1 0 2 0 0 1 1 0 0 0 0 1 1 1 0 2 0 1 1 0 0 0 0 1 2 0 2 2 2 1 0 0 1 0 1 0 0 0 3 1 4 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 2 0 0 2 0 1 0 2 1 0 1 0 2 0 0 0 0 2 1 0 0 0 1 2 0 0 0 0 1 0 0 1 0 1 0 0 0 0 4 3 0 2 1 0 0 0 0 0 1 1 0 1 0 1 0 1 2 2 0 0 0 1 1 1 1 0 1 0 1 0 1 0 0 2 0 1 0 1 0 1 0 0 2 0 1 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 1 0 0 1 0 1 1 0 0 0 1 1 1 1 2 0 2 1 0 0 0 3 0 0 0 1 0 0 0 0 0 0 0 2 0 0 0 0 1 3 0 0 0 1 0 1 1 1 0 0 0 0 2 1 0 1 0 0 0 0 1 0 2 1 0 1 0 0 0 0 0 0 0 0 0 0 1 2 0 1 1 1 1 1 2 0 0 1 1 0 0 1 2 0 0 0 1 1 0 0 2 0 2 0 1 0 1 0 0 0 2 0 0 0 0 1 1 0 1 1 0 0 1 1 1 1 1 1 2 0 0 1 0 0 0 3 2 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 1 2 0 0 1 0 0 1 0 1 0 1 0 0 0 1 0 1 0 0 0 2 0 1 1 0 1 1 0 1 0 2 0 1 1 0 1 0 1 0 0 0 2 0 0 0 1 0 2 0 0 1 0 0 0 0 0 2 1 0 0 1 2 1 1 1 0 0 0 0 1 0 1 0 0 1 1 1 1 0 0 0 1 0 0 0 0 0 2 3 0 1 0 0 1 0 0 1 1 1 0 0 1 1 1 0 0 1 2 0 1 0 2 0 0 0 0 1 1 0 0 1 1 0 1 0 0 1 0 1 2 0 0 1 1 0 0 0 1 1 0 0 0 2 1 1 0 1 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 2 0 1 0 1 1 1 0 0 2 1 1 1 1 1 0 0 1 0 0 0 0 1 1 0 0 1 0 0 0 2 1 0 0 0 0 0 1 0 0 1 0 1 2 0 1 0 0 2 0 0 0 0 0 0 0 0 0 1 0 2 0 0 2 1 0 0 0 0 1 0 0 1 1 0 0 0 1 1 0 0 1 0 0 0 0 0 1 1 1 2 0 1 0 0 0 2 1 0 0 1 0 0 0 0 1 1 1 0 0 0 0 1 1 0 0 0 1 1 0 0 2 0 0 0 1 2 0 0 1 0 1 0 0 0 1 0 0 1 0 1 2 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 1 1 0 1 0 1 0 0 3 1 1 0 0 1 1 0 0 0 0 3 1 1 0 2 0 0 1 0 1 0 1 1 0 0 1 0 1 0 0 2 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 1 1 0 1 0 1 2 0 1 0 0 1 0 1 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 1 0 0 2 0 0 1 0 1 1 0 0 1 0 0 0 0 2 1 1 0 0 0 1 1 1 0 1 2 2 1 1 2 0 0 0 0 0 0 1 0 1 0 0 2 0 0 0 2 0 1 1 1 0 1 1 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 1 0 0 0 0 2 0 0 0 0 0 2 0 0 0 0 1 1 0 2 1 0 0 0 0 1 2 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 2 1 2 0 1 0 0 2 0 1 2 0 0 1 1 2 0 0 1 1 0 0 0 0 2 0 0 0 0 1 1 1 1 0 2 0 1 0 1 0 0 1 3 1 1 0 0 1 2 0 1 0 1 1 0 1 1 1 3 0 3 1 0 0 0 1 0 1 0 2 1 0 0 0 1 1 0 0 0 0 1 0 0 0 0 1 1 0 0 1 1 2 2 0 0 0 1 1 1 1 0 0 2 2 0 0 0 0 0 0 0 0 0 0 2 1 0 0 0 0 0 0 1 0 1 1 0 2 0 0 0 1 1 1 0 0 0 0 0 2 0 0 3 2 1 0 0 1 0 2 0 0 0 0 1 1 2 0 1 1 0 0 0 0 0 0 0 1 0 0 1 0 1 2 1 2 0 0 0 1 0 1 1 2 0 0 0 1 0 1 0 1 1 1 0 0 0 0 0 1 1 1 0 1 0 1 2 0 1 0 1 1 1 1 1 0 1 0 0 1 0 1 1 2 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 1 1 1 1 0 0 0 0 1 1 0 1 1 0 0 0 0 0 0 0 0 1 0 1 2 0 0 0 1 2 0 0 1 0 0 0 0 0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 0 0 0 0 1 1 0 0 0 0 1 3 1 0 1 0 0 0 1 1 0 0 0 2 0 0 2 1 0 1 0 1 0 1 0 0 0 2 1 0 0 1 2 2 0 0 2 2 1 0 0 1 2 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 1 1 2 1 0 0 0 0 1 0 2 1 1 1 0 1 0 0 0 0 0 1 1 1 0 0 0 1 0 0 1 0 0 0 2 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 2 0 1 0 1 0 0 0 1 1 0 0 3 0 1 0 0 1 1 0 2 0 2 1 1 1 0 1 2 1 0 2 0 0 2 1 0 0 0 2 0 0 0 0 0 1 0 0 1 1 0 1 0 0 1 0 0 3 0 0 1 2 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 1 1 0 0 2 2 0 0 1 0 0 0 0 1 2 0 1 0 0 0 0 0 0 1 0 1 1 0 0 0 0 1 1 2 0 0 1 1 1 0 1 2 0 1 0 1 0 0 2 0 0 0 0 2 0 1 0 1 1 2 2 2 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 1 1 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 1 0 1 1 1 3 0 2 2 1 0 0 0 1 0 2 1 2 1 2 0 0 0 1 0 0 2 0 0 1 2 1 0 0 0 0 0 0 1 1 0 0 2 1 0 2 0 0 2 0 1 1 0 1 0 0 1 0 0 1 0 2 0 0 1 0 1 0 1 1 0 0 0 0 1 1 0 0 0 1 0 2 0 0 0 2 1 1 1 2 0 0 0 1 0 0 1 2 0 0 1 0 0 0 0 1 1 1 1 0 0 0 1 2 0 1 0 1 0 0 1 0 0 0 1 1 0 0 2 0 2 2 1 1 0 0 1 0 0 2 0 0 0 0 0 1 0 0 1 2 0 0 0 1 0 1 2 0 2 0 0 2 2 0 0 0 0 0 2 0 0 0 0 0 2 0 1 1 2 0 2 0 1 2 0 0 1 0 0 1 0 2 1 2 0 1 0 0 1 1 1 1 1 0 0 0 0 0 0 0 0 0 1 2 2 0 0 0 1 0 0 0 1 0 0 1 0 2 0 1 1 0 0 1 0 0 1 1 0 0 0 0 0 1 0 0 0 1 1 0 1 0 1 0 0 0 0 0 2 0 0 2 0 0 0 0 1 0 1 0 0 3 0 0 0 2 0 2 0 2 0 1 1 0 0 0 0 0 0 0 0 0 2 0 1 1 0 0 0 0 0 1 1 0 1 1 0 0 0 1 0 0 1 0 0 1 0 3 1 1 1 1 0 0 0 0 0 1 2 0 0 1 1 1 1 1 2 0 0 0 0 0 0 0 0 0 1 1 1 3 0 0 0 0 0 0 0 1 1 1 0 0 0 2 1 1 0 1 0 0 2 1 0 0 2 0 0 0 0 0 1 0 2 0 1 1 1 0 0 0 0 0 1 0 0 0 2 0 2 0 1 0 0 0 0 0 0 2 1 0 0 0 0 0 0 1 0 0 1 2 2 0 0 0 0 0 1 0 0 1 0 0 0 0 1 2 0 0 0 1 0 0 1 1 0 1 0 0 0 0 0 1 0 0 1 0 3 0 2 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 1 0 2 0 2 0 0 0 0 0 0 0 0 0 1 0 0 2 0 0 0 0 0 0 2 0 0 1 1 0 1 0 0 1 1 0 1 0 0 3 0 0 0 1 1 1 0 2 0 1 0 0 0 1 2 0 1 1 2 0 1 0 0 2 0 1 0 2 0 0 0 0 0 0 1 0 0 0 2 1 1 2 1 1 0 1 0 1 1 0 0 1 0 1 1 0 0 1 0 1 0 0 0 0 0 0 1 0 1 1 0 1 0 0 1 2 0 0 1 0 1 1 0 0 0 0 1 1 0 0 0 0 0 1 0 1 1 1 0 0 2 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 1 1 0 0 0 1 1 0 0 0 0 0 0 1 0 0 1 1 1 1 1 1 0 0 1 0 0 0 1 0 1 1 3 2 0 0 1 1 0 1 0 0 1 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 1 1 1 0 0 0 0 0 1 1 0 1 0 1 1 1 1 0 0 0 0 0 0 0 1 0 0 2 0 1 2 2 0 1 1 1 0 2 0 1 0 1 0 1 0 0 0 0 1 0 0 1 0 0 0 3 1 2 0 0 1 1 0 0 1 1 0 0 1 0 0 0 1 0 1 0 2 1 0 0 0 0 1 1 1 0 1 0 1 0 0 0 1 0 1 2 0 1 0 1 1 0 1 0 0 0 2 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 2 0 0 0 0 1 2 0 2 0 1 0 1 0 1 1 0 1 0 3 0 0 0 0 0 2 0 0 0 0 1 1 1 0 0 0 0 1 0 1 0 2 1 0 1 2 0 0 1 1 1 2 0 0 0 1 1 1 1 1 0 0 1 0 0 0 1 2 0 1 0 0 0 0 0 0 0 0 0 1 0 2 0 1 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 1 1 1 0 0 0 1 0 0 0 0 2 1 3 2 0 1 0 0 0 0 1 1 0 0 2 0 0 0 1 1 1 0 0 0 0 0 0 0 0 1 2 2 0 0 0 0 1 0 1 0 0 0 2 0 1 1 2 0 2 0 1 0 1 0 0 0 0 1 0 1 0 0 1 0 1 1 2 0 1 0 0 0 3 0 2 0 0 0 1 1 1 2 2 2 3 0 2 0 1 0 0 1 0 1 1 1 0 0 0 1 0 0 2 0 1 0 0 1 1 1 2 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 1 0 2 0 1 0 1 0 0 0 1 0 1 1 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 4 0 1 1 2 0 0 0 0 2 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 1 1 1 0 0 0 2 0 0 0 0 0 0 0 0 1 0 1 2 1 0 0 0 0 0 0 1 1 2 0 1 1 0 0 0 0 0 0 0 1 2 1 1 0 0 2 0 0 0 0 1 1 0 2 1 0 0 2 0 0 0 1 1 1 2 1 0 2 1 0 0 0 1 1 1 0 0 0 0 1 2 1 0 1 0 1 0 0 0 0 0 2 0 2 0 1 1 0 0 1 0 0 2 0 1 0 0 0 1 0 1 0 0 1 0 0 1 0 1 0 1 1 1 2 0 0 3 1 1 1 1 1 0 0 0 0 0 0 0 0 0 1 1 2 1 1 1 0 0 0 1 1 1 1 0 0 0 0 0 1 1 0 1 1 0 2 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 2 0 0 0 0 0 0 0 0 1 0 1 0 1 0 1 0 2 1 2 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 2 0 0 0 0 1 1 1 2 0 0 0 1 0 1 3 2 0 2 0 0 0 1 1 0 2 1 1 0 1 1 0 0 0 1 3 1 1 0 0 1 1 0 1 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 3 2 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 1 1 1 2 0 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0 0 1 1 1 1 0 0 0 0 0 0 0 0 0 1 0 1 0 2 1 0 2 0 0 2 2 1 0 0 1 2 0 1 0 0 0 0 0 2 0 2 0 0 0 0 0 0 1 0 0 0 1 0 0 0 3 1 0 1 2 0 0 0 1 0 1 2 1 0 0 0 0 0 1 1 1 0 0 0 0 1 0 0 3 0 0 0 1 1 0 0 1 1 2 1 0 0 0 0 3 0 2 0 1 1 1 2 1 1 1 0 0 2 1 0 0 3 0 0 0 2 1 0 0 0 3 0 1 2 1 2 2 1 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 2 2 0 0 0 1 2 0 1 0 1 0 2 0 1 1 1 0 1 1 1 0 1 0 1 1 1 2 0 1 1 1 0 1 1 0 0 0 1 1 2 0 1 0 1 0 0 1 1 0 0 1 0 2 1 0 0 1 0 0 0 2 1 0 0</t>
+    <t>JSB(1.7597904773200777, 2.307104745440397, -10.651961436907104, 75.83966051146137)</t>
+  </si>
+  <si>
+    <t>17 7 16 10 23 10 4 17 13 17 8 22 13 19 24 20 14 17 8 14 15 27 20 17 17 20 17 37 24 20 3 14 17 14 17 14 13 10 15 18 18 13 13 10 6 0 13 27 21 37 10 20 7 27 3 13 18 15 3 3 21 9 13 13 26 20 10 16 7 13 10 9 10 13 12 13 7 20 20 17 20 24 16 21 7 6 13 16 10 13 10 7 31 0 29 14 26 6 9 16 20 21 0 12 10 21 16 16 14 26 17 20 9 12 9 20 10 24 13 12 9 9 9 6 3 28 15 0 30 7 12 13 14 14 17 20 24 14 20 14 7 6 12 23 20 9 12 16 10 10 20 12 33 23 12 7 16 16 20 20 6 13 13 17 14 16 3 10 16 17 16 14 6 24 17 13 3 20 13 17 13 7 13 6 17 6 10 6 15 6 27 20 10 13 3 11 6 11 22 16 17 16 13 6 19 19 13 27 17 10 13 13 14 0 24 24 10 6 13 3 6 3 13 20 10 11 12 24 16 0 6 10 9 7 13 9 7 7 13 14 10 20 7 10 21 9 7 10 17 3 15 24 10 15 25 14 12 23 13 21 17 17 3 12 38 24 7 20 28 17 6 15 9 10 17 26 19 13 23 21 16 24 14 24 27 16 26 10 13 32 10 10 25 17 17 13 13 27 7 3 17 13 13 13 7 7 9 6 16 20 10 6 13 10 3 7 6 16 7 31 24 0 14 14 13 24 21 13 15 21 21 3 16 16 17 16 17 10 9 8 22 16 16 17 14 30 3 13 15 25 10 24 6 23 10 16 13 6 31 19 27 14 3 13 12 14 23 20 6 17 11 20 21 11 15 7 17 10 6 13 26 21 16 26 13 3 12 9 14 20 6 6 14 10 21 17 10 2 6 24 21 12 19 13 9 16 15 6 12 13 3 13 13 18 7 13 2 17 18 22 10 12 3 10 9 13 6 16 14 3 22 15 6 15 7 34 13 21 17 13 10 13 26 19 23 27 6 23 10 17 9 10 20 24 9 2 13 23 20 23 14 23 17 12 18 23 0 13 17 12 27 14 19 16 13 10 11 17 20 16 21 30 3 16 19 13 11 9 14 13 17 23 16 13 24 17 31 24 24 3 6 15 24 10 10 13 3 22 9 14 0 21 16 20 13 16 25 16 0 14 33 3 20 6 13 13 15 14 9 15 7 24 19 0 14 16 3 10 15 13 17 19 13 14 14 7 7 19 10 6 24 6 6 11 10 19 17 13 0 23 24 7 10 17 21 35 20 23 16 6 14 3 20 16 25 9 6 10 0 21 16 13 10 12 20 10 21 14 16 22 6 23 41 18 10 31 3 34 14 13 10 12 20 6 16 17 13 7 21 6 23 18 9 23 6 15 19 26 24 9 17 10 7 16 10 7 6 15 9 20 9 24 21 10 17 21 0 3 20 10 33 16 13 16 12 10 16 32 16 19 3 13 14 9 10 24 19 6 10 10 7 16 17 13 12 13 3 3 2 43 9 9 9 28 10 29 20 3 12 5 14 17 8 6 28 6 10 25 7 6 19 26 17 16 17 20 14 26 13 3 16 3 15 10 23 11 10 20 13 23 14 10 0 10 7 6 14 16 8 10 27 10 14 10 10 33 12 9 20 13 3 20 13 10 17 14 20 16 13 0 17 11 20 6 8 17 21 6 10 13 18 17 16 18 17 7 0 10 3 10 17 19 10 11 13 31 21 9 6 20 0 0 6 12 12 9 3 17 6 3 10 31 0 16 30 10 13 0 10 13 23 20 12 9 33 19 7 12 14 21 13 10 17 13 6 0 9 0 12 17 12 6 36 17 7 10 17 20 13 13 12 15 38 13 8 27 10 13 17 10 13 10 13 13 23 16 16 25 9 18 30 12 10 14 10 10 6 14 19 24 14 26 20 9 3 3 3 10 17 13 10 10 21 27 7 13 3 15 17 17 14 17 14 20 7 18 20 16 15 22 16 9 13 24 16 7 9 30 36 16 22 23 13 10 13 3 13 9 10 16 10 19 20 14 14 0 17 26 24 9 7 22 17 16 16 14 13 17 8 10 14 12 9 12 17 15 9 19 13 11 13 3 15 23 21 15 20 34 16 3 20 6 6 18 16 10 7 26 24 17 7 15 10 24 17 17 7 36 19 7 0 8 7 16 20 17 24 9 19 9 20 21 9 9 3 13 0 18 21 9 10 12 11 6 17 15 6 19 10 12 3 10 23 7 9 14 21 10 3 17 14 14 15 38 10 13 13 9 18 24 7 12 10 21 9 30 18 9 17 14 20 7 30 16 7 7 10 8 13 17 28 13 13 10 9 27 17 9 16 19 7 7 14 27 10 13 10 13 13 17 9 15 10 12 12 3 16 16 10 3 17 27 7 23 10 19 13 13 16 10 16 10 10 24 17 24 10 17 17 14 13 14 11 16 10 24 6 23 15 13 9 10 9 7 7 6 16 6 19 24 10 19 10 20 20 21 7 20 24 17 19 10 9 20 21 29 3 12 33 12 9 0 20 10 16 27 9 13 21 20 14 10 20 13 0 22 6 19 15 20 23 17 12 11 3 15 16 10 3 7 12 6 7 19 20 28 10 19 23 6 18 10 6 6 24 21 18 13 19 11 10 9 13 17 9 10 17 0 20 25 22 10 23 7 10 10 14 10 14 6 10 13 12 23 13 7 10 10 16 9 33 12 7 10 25 6 14 22 14 23 10 16 13 20 20 17 3 13 28 13 16 14 9 7 17 9 17 9 10 16 20 10 17 17 7 17 9 0 0 21 9 27 7 17 9 15 22 24 20 21 21 10 18 19 16 14 16 20 34 11 25 10 17 13 23 13 6 16 16 7 3 14 7 13 12 12 12 18 6 13 16 16 23 6 20 17 6 6 18 23 6 10 7 12 17 13 24 17 16 17 3 23 3 22 10 38 19 10 7 13 3 9 16 16 17 16 6 12 12 17 17 16 6 10 13 3 17 13 19 17 17 14 10 8 13 16 8 17 6 34 16 14 14 21 13 16 24 0 20 17 13 14 24 23 9 0 9 13 17 3 0 24 24 27 3 17 3 23 10 21 16 23 17 0 16 10 14 13 0 18 3 9 9 20 17 22 14 12 10 9 17 16 6 10 16 19 15 18 0 13 12 21 25 17 13 16 22 15 23 36 16 3 16 10 20 17 27 10 3 3 13 31 14 10 9 7 10 9 13 16 14 17 7 14 17 16 13 6 23 3 10 26 14 17 6 15 14 10 18 34 22 14 14 19 0 20 13 17 3 13 24 3 7 16 10 7 12 20 9 7 16 13 10 23 13 9 16 23 7 9 6 3 13 9 23 9 10 34 21 23 13 10 10 3 7 12 21 24 20 3 21 16 9 10 7 19 17 23 6 14 12 20 13 9 19 14 17 11 31 11 6 13 19 14 20 13 14 9 30 6 6 20 9 6 11 20 13 21 3 10 3 7 20 16 6 10 20 15 10 13 22 11 16 20 6 6 17 9 12 16 3 8 15 13 18 20 13 10 3 0 20 21 15 24 9 27 7 17 19 11 23 16 10 6 3 28 13 6 13 7 15 10 10 19 6 7 23 7 21 10 0 10 19 15 7 21 11 24 9 27 22 17 23 16 7 6 13 16 3 11 24 9 19 3 17 7 21 10 15 10 9 6 0 6 20 7 13 29 13 28 24 30 14 10 7 17 6 9 3 6 3 27 10 15 9 17 14 13 23 23 24 16 11 34 10 15 14 16 16 12 30 23 17 17 6 12 0 13 13 30 17 10 13 19 19 14 12 21 20 24 9 7 9 13 24 20 17 14 17 10 15 17 10 20 9 13 3 12 18 9 10 3 0 10 14 6 6 14 9 10 13 23 23 14 20 10 18 13 16 29 10 26 12 17 19 11 23 15 31 17 6 17 24 13 13 12 7 22 17 20 13 7 14 13 14 14 13 23 26 3 17 16 7 15 15 3 17 16 29 3 9 21 16 19 20 13 17 11 9 23 10 7 13 19 7 3 10 27 13 20 10 13 10 26 5 13 17 6 9 20 16 19 6 14 13 16 7 18 14 14 10 15 14 16 17 16 6 14 13 12 10 17 20 13 10 13 17 3 20 13 18 15 20 10 10 6 22 12 9 3 23 7 17 21 9 15 35 20 0 13 16 17 11 19 10 9 17 6 19 24 20 31 10 17 14 9 17 15 14 11 20 16 6 12 10 13 17 23 11 7 24 18 6 10 10 7 13 18 6 16 16 26 12 26 6 16 10 10 11 6 12 20 10 24 9 27 3 3 21 24 7 16 6 17 9 23 14 6 10 21 0 13 10 13 16 16 3 28 6 6 10 7 16 14 37 16 6 28 10 31 7 15 19 0 7 0 17 20 6 21 10 17 29 15 11 14 20 13 13 23 26 16 10 20 13 27 3 7 10 19 3 10 23 13 14 16 14 27 15 17 3 13 3 20 3 23 10 13 16 15 23 21 6 20 26 9 10 10 11 3 15 7 23 7 0 3 24 14 15 9 18 6 7 16 24 13 17 0 28 19 17 9 13 3 24 13 19 19 3 18 17 10 27 16 13 19 19 10 13 3 13 20 6 19 13 16 23 10 17 12 27 18 19 14 14 3 13 16 22 31 9 24 15 14 13 22 24 16 3 14 0 12 0 6 6 16 8 9 20 16 12 7 20 6 17 15 13 30 10 13 14 10 6 13 0 0 6 10 19 16 10 18 21 17 27 13 27 13 10 11 13 3 3 23 21 23 13 21 21 10 7 13 13 13 14 12 6 12 16 13 30 20 6 27 21 13 3 6 20 9 9 17 16 12 27 19 21 21 14 14 6 15 16 3 7 3 13 16 13 17 13 7 17 5 14 3 10 6 21 3 24 13 11 9 16 14 19 12 13 19 20 23 9 11 14 12 10 9 10 13 14 21 14 17 7 0 3 17 13 3 10 36 13 13 14 14 6 10 31 5 6 14 17 16 10 27 3 13 10 16 23 16 10 13 0 13 9 10 13 6 20 10 0 13 10 24 6 24 25 16 17 15 21 8 7 9 20 20 12 17 16 23 3 13 6 3 13 9 10 20 34 9 7 10 13 6 18 3 14 15 6 10 14 23 13 3 17 6 14 20 10 7 14 9 11 15 17 10 14 10 14 24 20 20 10 18 18 13 18 0 14 13 16 14 20 18 9 17 15 30 17 26 10 16 6 23 17 9 16 26 16 16 7 17 24 14 27 24 14 20 17 20 17 26 3 13 10 14 16 9 8 13 24 24 25 12 23 16 17 18 9 20 24 6 17 9 17 17 20 15 12 13 16 11 19 0 13 9 6 13 17 12 19 14 6 3 16 16 19 13 20 3 10 13 21 10 19 19 10 10 10 16 13 26 11 19 7 23 11 30 27 10 3 19 17 6 10 12 23 7 16 12 13 14 16 20 16 15 24 37 13 0 16 6 12 20 15 38 29 6 10 13 6 13 6 10 23 16 19 24 20 21 9 10 7 21 20 9 24 14 14 6 19 20 3 13 20 13 12 10 13 10 27 21 15 19 10 10 19 12 16 13 15 13 21 11 20 3 21 24 6 24 17 11 22 17 3 16 24 6 16 10 17 17 14 7 24 8 20 23 3 30 6 7 13 7 17 3 3 13 10 13 6 20 10 12 7 17 2 10 16 16 6 10 24 20 0 10 7 10 10 17 6 34 11 14 12 11 8 10 10 7 6 7 9 23 6 17 24 11 20 3 3 0 17 6 10 7 10 18 10 31 19 10 13 30 6 6 7 6 10 6 24 22 27 19 10 20 15 10 15 9 6 12 14 12 20 0 10 7 23 13 10 9 21 6 20 12 30 10 16 10 21 13 20 19 6 20 13 17 3 10 10 3 13 26 17 11 10 16 13 13 17 17 13 13 24 11 6 17 20 6 23 0 21 17 16 23 19 18 3 23 23 14 10 18 18 6 16 13 6 7 7 12 14 9 10 9 20 16 13 7 15 13 13 14 0 10 7 20 18 16 13 20 6 30 7 7 3 10 26 14 13 10 17 19 3 39 3 6 14 22 7 16 16 24 14 19 6 10 13 15 12 19 7 7 6 14 13 10 10 10 24 21 20 19 20 27 7 7 27 3 3 24 9 12 13 16 24 19 12 18 0 13 19 21 12 12 17 9 21 23 16 13 9 10 16 7 12 7 10 11 12 19 14 6 10 10 10 14 13 26 19 17 14 9 19 26 24 13 6 6 14 24 16 10 14 17 17 6 3 18 10 0 3 17 19 10 16 3 24 8 15 13 11 7 10 13 10 10 17 14 10 29 17 17 24 27 20 10 8 23 6 12 14 17 6 23 13 3 18 16 12 21 6 10 10 17 26 0 10 13 9 18 17 10 21 10 20 13 18 13 9 21 12 18 6 10 10 16 9 6 16 9 16 6 18 3 14 9 13 17 16 20 14 20 3 15 3 14 10 22 24 13 14 3 16 19 16 19 17 13 14 28 17 7 12 6 10 13 13 13 14 6 9 13 6 37 21 7 7 17 31 14 3 9 10 10 30 17 16 19 34 16 12 21 13 21 14 9 21 6 13 13 17 26 13 14 24 9 13 29 13 27 10 23 20 6 17 19 10 12 19 13 10 14 7 16 0 16 27 10 14 6 9 7 12 14 10 20 10 10 13 17 9 13 10 10 10 0 19 11 14 13 18 6 10 16 20 11 7 26 9 6 24 12 15 7 6 16 6 19 9 10 12 17 21 7 14 6 15 22 10 0 17 13 16 23 6 7 13 16 16 13 6 24 6 9 13 0 10 7 7 18 0 21 20 15 20 17 17 23 31 3 10 19 13 9 3 17 9 10 13 15 22 6 6 20 12 24 6 17 15 6 6 16 24 7 15 14 0 6 21 13 10 6 17 0 7 16 16 12 14 16 23 14 13 10 15 10 9 26 16 8 36 10 14 13 9 27 20 13 19 19 19 19 16 13 14 18 10 12 12 14 10 9 17 16 18 14 25 20 10 12 18 13 6 13 16 20 6 14 9 13 28 11 14 7 10 3 24 20 0 20 3 26 17 7 20 25 6 27 6 7 6 6 17 9 13 21 20 20 16 13 6 16 6 6 30 16 20 10 13 3 16 24 6 21 18 24 13 14 23 14 17 10 13 14 6 3 13 9 17 13 20 9 16 17 13 20 23 12 17 24 14 10 18 9 15 3 30 7 7 21 14 15 12 17 22 10 9 16 24 22 10 13 15 13 9 11 24 17 13 6 3 12 13 3 17 13 17 24 7 14 9 10 19 11 10 14 7 14 21 9 12 9 21 16 20 12 0 3 13 30 15 24 11 3 16 20 20 17 3 20 17 23 13 14 24 13 10 17 24 13 16 13 17 17 13 10 31 3 29 18 16 10 13 11 11 10 20 3 16 9 7 22 17 4 10 23 21 26 17 25 10 9 7 3 20 24 10 16 9 27 10 10 0 21 17 21 15 6 6 0 20 20 16 13 16 3 17 22 7 19 12 6 14 7 17 12 13 10 13 26 14 33 20 16 12 23 20 13 17 16 7 17 6 19 27 9 10 21 20 3 7 0 20 6 26 24 20 10 14 23 24 13 20 7 19 16 16 12 10 0 10 24 20 3 20 20 27 3 6 12 13 9 9 13 13 9 13 19 9 13 9 10 3 14 6 14 38 33 36 3 7 13 6 17 13 20 13 16 21 10 13 6 17 14 13 7 16 10 10 11 22 3 23 3 30 24 15 19 15 30 6 8 17 19 11 10 18 18 0 13 17 16 20 7 13 7 18 24 16 17 19 26 20 11 16 17 17 13 10 14 10 12 26 24 13 10 3 7 0 17 18 3 3 13 10 22 12 9 9 20 12 17 10 6 13 15 27 22 9 14 20 34 22 7 16 10 24 6 14 16 9 15 10 20 24 17 13 10 3 30 12 22 27 3 17 26 17 10 19 16 10 20 17 0 6 7 5 18 20 14 23 18 16 10 9 17 17 14 0 6 7 14 7 14 16 27 3 10 15 13 17 20 22 23 0 23 13 17 10 6 19 7 24 6 14 24 17 3 23 10 25 7 20 13 6 16 23 13 7 3 10 10 3 13 14 10 20 24 19 13 33 10 9 14 7 8 10 17 0 13 20 7 0 21 23 13 13 9 8 10 13 14 6 3 3 13 6 18 17 13 27 14 9 9 19 17 3 12 19 19 16 9 14 0 6 3 14 10 10 10 0 0 15 9 0 9 17 23 6 10 6 10 6 22 16 16 17 13 7 9 7 16 12 16 17 6 15 16 26 3 24 23 10 14 17 19 30 10 13 6 20 9 16 23 12 10 10 24 10 14 17 3 10 7 17 6 14 10 11 23 20 9 41 19 7 8 13 3 23 7 6 13 17 10 13 16 13 21 11 17 0 10 14 28 10 13 19 17 13 16 6 6 20 12 10 10 14 13 16 11 21 19 7 10 27 13 3 16 10 13 14 21 17 13 3 12 17 3 6 21 12 10 9 3 9 14 17 10 14 0 20 9 20 6 17 20 14 6 17 19 10 27 6 21 19 17 0 13 30 10 17 26 23 6 10 0 12 12 9 13 19 24 8 13 14 13 13 12 0 9 20 10 7 17 0 10 19 14 7 14 23 24 10 7 0 6 26 13 16 0 17 24 13 17 26 16 16 19 12 22 8 27 17 20 7 31 0 13 7 10 23 14 21 23 3 16 7 13 21 17 9 10 14 7 20 6 9 10 27 16 7 10 18 9 16 9 3 9 3 12 16 12 7 3 21 14 21 6 7 10 20 16 3 10 15 13 6 21 16 10 16 10 20 12 9 14 13 10 7 10 18 10 10 14 6 9 9 6 26 13 12 14 14 27 17 12 7 20 6 7 9 10 3 16 6 20 28 17 23 10 10 9 13 18 19 13 13 14 6 6 14 21 9 3 12 9 10 15 9 3 22 17 3 6 3 16 17 11 10 10 3 20 21 13 14 10 16 10 20 7 9 17 16 8 10 17 16 7 23 8 42 19 16 19 23 25 9 19 10 6 7 14 9 10 6 23 10 20 10 10 10 3 27 13 10 11 6 19 3 13 6 8 3 20 25 14 9 6 17 13 14 17 6 11 16 15 9 14 12 16 6 14 17 14 19 9 10 17 6 7 6 20 26 25 18 17 30 14 14 9 14 20 6 6 6 16 6 6 16 13 15 16 10 26 13 13 23 17 10 5 14 16 13 16 14 6 23 13 0 3 19 13 27 9 17 9 22 14 3 17 17 22 18 27 6 13 13 24 8 13 18 0 0 10 10 14 23 27 9 17 6 20 17 14 20 20 6 17 13 0 17 0 7 14 15 13 14 18 8 7 13 6 13 17 26 7 9 19 10 12 24 14 13 3 3 10 0 13 13 17 20 6 21 3 14 16 13 23 14 24 9 7 14 16 30 3 6 29 3 3 3 3 10 13 6 8 20 3 9 14 22 13 7 3 30 12 23 20 28 0 20 27 20 13 16 17 0 3 27 13 22 11 7 16 16 6 16 10 17 14 16 15 7 10 18 6 11 17 10 10 13 17 27 14 16 14 10 25 20 7 16 10 16 27 14 23 16 16 9 15 29 25 24 17 27 3 20 1 13 16 20 9 21 13 20 10 7 23 6 9 6 17 14 17 10 0 17 13 20 10 15 3 7 9 23 14 16 13 9 3 37 10 18 10 10 10 14 13 16 17 0 20 11 6 31 17 30 23 20 15 6 27 15 10 13 3 6 20 20 6 6 9 7 6 14 13 25 6 6 25 0 17 17 6 6 17 24 13 17 17 10 16 26 15 3 6 17 14 8 6 3 14 10 32 10 28 3 9 3 16 17 10 3 6 7 14 6 16 28 11 10 13 21 17 10 21 25 13 7 20 14 3 13 16 17 17 7 21 20 24 9 20 24 22 17 17 15 10 13 17 27 25 6 3 11 13 3 20 6 16 14 28 19 20 10 0 14 6 13 17 6 9 13 20 12 23 17 23 12 15 3 16 7 14 3 17 10 14 3 3 12 12 3 12 10 8 18 7 3 21 25 17 17 16 0 3 17 6 17 17 17 14 23 14 7 27 10 17 22 21 14 19 6 7 13 10 20 3 14 27 7 10 27 24 14 10 13 17 17 8 3 27 19 14 10 18 6 13 20 3 13 12 17 21 14 3 21 10 10 12 27 13 13 3 13 19 17 10 6 23 17 19 17 17 15 9 14 19 3 17 22 3 11 16 14 21 13 28 21 10 19 7 20 10 9 10 13 10 13 3 7 10 20 18 27 16 6 7 6 3 12 20 14 13 10 15 12 13 6 9 14 13 12 27 23 24 8 17 14 13 21 24 10 10 12 20 24 10 10 10 6 17 17 17 20 16 3 16 16 16 14 10 19 3 17 17 17 10 9 17 27 23 23 31 13 7 18 13 14 3 3 6 17 7 24 13 9 7 9 9 18 10 26 6 9 13 13 6 14 17 10 7 16 10 18 9 12 20 6 3 6 10 13 19 13 18 20 20 3 6 9 30 17 13 26 19 20 28 17 0 10 24 3 15 9 17 24 10 6 10 22 26 28 14 6 26 13 19 9 6 19 10 10 15 9 11 20 6 18 16 35 20 3 12 17 9 12 19 7 0 9 32 7 13 13 6 27 3 19 18 17 10 8 17 7 6 19 10 9 10 20 13 13 31 28 13 6 12 16 20 6 13 13 16 6 23 9 6 18 18 10 7 6 11 16 9 20 16 16 13 20 13 9 13 20 18 10 6 16 8 7 22 16 21 13 17 3 17 17 26 14 13 16 7 21 12 3 13 20 6 6 0 7 17 15 19 12 24 11 20 19 12 10 10 7 13 24 19 10 11 9 24 6 22 23 11 27 10 21 13 32 14 21 23 20 16 13 16 10 20 13 9 19 17 16 7 20 8 7 8 6 20 7 26 3 17 10 13 9 9 13 20 18 20 20 14 30 6 14 30 14 10 9 12 13 20 19 12 3 10 10 30 17 22 14 15 10 7 14 31 14 24 17 15 10 13 6 16 15 25 17 6 13 28 23 13 16 16 10 13 23 10 6 3 10 9 7 16 19 16 7 7 17 7 33 24 23 13 21 11 17 11 17 13 3 10 14 20 24 9 20 18 20 28 3 7 16 10 24 21 13 17 19 16 27 13 21 9 17 17 12 10 24 3 15 30 28 3 9 13 30 6 7 11 18 6 17 10 7 16 20 26 12 17 10 13 19 13 14 0 10 10 6 15 21 21 27 19 9 10 10 0 16 15 25 21 19 10 10 9 16 17 17 9 14 9 3 16 16 3 11 10 13 15 17 13 14 13 17 24 22 16 9 14 20 6 7 6 22 20 16 22 9 20 10 6 23 6 19 13 19 10 18 17 10 10 0 6 23 33 3 6 17 20 22 10 34 16 21 20 14 10 18 12 19 24 12 13 17 10 20 18 7 7 15 6 9 17 20 20 17 20 22 3 14 20 13 10 13 18 15 27 7 9 10 14 26 10 10 6 22 20 10 14 10 10 3 31 17 10 12 30 24 24 10 23 15 13 13 17 3 20 0 15 17 14 7 20 13 0 3 17 12 6 10 14 21 27 17 18 6 9 20 11 26 11 22 3 17 12 10 9 19 23 3 10 10 3 9 12 3 6 6 24 12 11 9 16 9 6 20 10 10 6 10 9 31 20 17 26 10 3 16 26 6 7 17 3 23 9 17 10 6 14 22 21 9 14 6 27 17 10 10 25 13 10 22 0 6 17 3 14 17 17 3 6 21 16 9 20 14 9 3 10 17 36 20 14 2 7 9 19 23 13 19 24 13 10 14 6 13 9 27 23 24 7 13 27 16 6 0 13 6 12 17 24 10 24 18 15 30 13 9 6 17 23 3 10 13 26 20 9 3 3 24 13 12 13 6 20 16 6 19 10 10 23 17 23 13 10 23 10 10 8 7 14 17 12 3 6 10 6 17 14 25 27 10 10 20 13 3 16 9 24 14 14 10 13 17 17 16 22 10 14 29 16 11 9 24 7 6 26 17 16 8 16 33 24 20 13 16 10 14 15 16 10 19 17 10 13 14 12 23 10 15 27 24 21 14 13 22 14 10 10 23 16 23 19 10 12 9 3 20 7 14 20 17 13 17 13 10 23 3 9 13 6 3 24 10 6 12 13 13 28 9 7 24 20 13 17 15 16 42 11 13 9 3 10 17 6 10 8 6 10 19 25 10 14 12 15 6 20 7 7 17 13 19 13 7 16 16 14 16 16 19 17 3 16 6 37 24 3 20 18 10 22 9 6 27 10 20 9 14 22 6 13 12 10 21 0 6 12 19 9 19 14 13 13 16 19 17 6 21 0 9 10 3 20 21 3 8 14 16 10 14 13 9 6 23 14 6 17 21 6 13 21 3 12 20 27 24 13 13 6 13 17 13 7 19 0 17 13 18 6 17 34 9 21 21 2 16 12 3 10 15 14 0 34 14 12 6 17 10 18 23 3 3 30 12 14 7 13 19 7 6 17 7 10 21 12 10 3 24 7 25 17 14 10 16 16 9 3 14 10 10 9 6 17 15 9 23 10 13 23 3 10 13 6 6 14 16 12 16 6 3 13 11 18 9 13 24 7 16 10 9 6 10 13 10 13 20 22 17 7 17 12 16 23 16 12 13 23 19 23 14 10 16 16 17 9 7 11 13 23 7 7 7 6 10 16 27 19 19 20 36 15 20 6 13 16 17 14 3 10 6 24 19 16 13 6 0 15 23 10 24 10 10 14 21 17 3 24 3 20 17 17 12 16 17 30 12 9 9 29 3 16 13 16 3 20 6 14 14 6 3 9 6 19 13 14 15 3 10 9 10 20 24 13 17 9 30 14 6 16 12 10 10 13 17 10 3 12 6 24 14 16 12 10 0 16 7 27 7 14 17 9 0 16 10 3 20 16 13 17 13 25 30 10 20 6 10 16 17 9 23 22 23 24 15 19 17 10 28 22 24 19 9 17 13 6 21 31 14 3 3 10 6 14 13 6 17 17 7 12 10 22 26 3 20 17 13 16 2 20 34 17 3 5 23 14 14 8 20 37 30 3 10 6 21 14 18 19 24 0 17 13 20 10 18 21 21 14 12 19 17 6 7 10 10 13 21 34 3 16 12 13 22 10 34 13 23 13 13 17 9 14 19 6 10 23 14 38 31 13 27 23 16 16 26 16 14 9 32 3 9 3 22 10 17 3 10 7 7 6 19 9 20 14 9 24 6 23 15 27 9 21 20 9 15 13 22 24 3 10 10 13 14 16 14 10 6 9 16 31 3 6 20 26 18 16 13 13 20 19 12 17 10 7 7 21 20 22 16 20 10 16 12 6 22 10 0 10 16 20 0 17 10 16 20 10 20 10 16 10 20 9 6 23 13 26 13 17 7 24 14 19 3 16 17 9 22 3 0 17 20 7 20 19 13 9 20 19 7 9 6 24 34 21 14 9 19 10 16 7 16 17 11 28 23 13 17 17 10 6 6 23 13 10 23 17 3 10 19 3 12 17 19 10 17 16 16 16 16 12 14 7 13 13 10 11 20 24 12 12 16 24 24 19 17 3 3 12 27 7 3 19 10 28 16 21 7 22 14 20 9 13 3 23 7 12 10 16 20 13 31 29 10 11 6 10 10 13 12 24 9 0 16 17 23 3 13 16 14 7 10 3 17 10 3 6 13 12 3 8 6 23 22 13 9 27 14 3 17 23 23 10 14 10 11 19 10 0 14 16 30 10 14 23 12 27 3 10 6 16 13 16 17 8 16 7 17 20 15 7 20 20 16 10 10 12 21 10 13 19 7 6 3 27 3 20 12 13 14 21 14 13 13 24 21 26 17 19 15 21 26 10 15 7 16 14 17 17 10 10 9 14 13 13 3 25 17 13 14 14 16 13 10 17 6 9 16 6 16 16 15 16 6 0 9 14 20 10 6 6 14 10 3 13 3 26 10 6 24 13 13 20 7 14 16 14 10 23 7 20 17 10 17 14 12 16 23 23 3 9 13 18 9 10 15 0 13 6 14 13 7 26 9 10 17 6 7 6 13 19 24 17 0 24 10 9 16 15 6 20 6 17 14 17 14 16 12 7 16 16 16 20 17 23 14 10 9 10 17 13 6 6 18 22 6 19 31 3 24 16 24 8 25 16 16 3 13 14 28 10 18 24 11 20 16 19 6 12 9 9 8 23 13 16 16 0 13 22 9 6 18 13 17 16 10 7 13 14 34 10 0 7 16 17 23 20 13 14 14 9 13 34 3 6 10 16 17 6 17 16 16 17 16 13 19 10 6 6 6 15 10 20 18 13 13 7 10 17 3 31 14 19 17 15 23 7 10 14 10 23 17 20 8 17 13 7 9 14 24 9 16 16 25 23 13 7 6 17 3 17 13 17 13 9 20 2 9 19 16 27 3 7 16 17 13 13 18 6 40 3 21 38 24 17 14 27 21 7 9 15 13 27 20 10 15 14 12 17 7 28 16 9 20 24 9 10 31 24 17 24 10 17 12 10 9 14 13 13 12 9 0 28 26 17 10 17 21 10 7 6 9 6 23 16 12 15 20 24 27 17 6 17 20 16 10 20 0 24 17 6 13 17 7 6 7 13 24 10 6 15 8 7 20 3 3 7 14 7 11 7 13 6 6 19 10 17 12 23 10 25 13 19 20 24 12 30 13 3 10 6 17 20 24 9 20 21 27 17 7 6 13 28 10 6 17 24 10 20 17 19 23 6 26 13 11 13 23 10 13 3 10 22 15 0 6 14 7 10 6 6 15 21 7 13 12 20 9 13 13 8 14 12 23 14 13 17 5 17 0 15 7 0 13 20 9 14 20 14 10 0 14 3 23 3 6 10 17 16 11 6 16 10 25 12 6 19 9 3 10 9 6 7 9 15 23 31 6 15 14 13 3 27 9 3 18 17 31 16 10 31 13 10 20 23 18 10 13 17 21 14 9 23 19 20 10 9 13 3 26 13 3 17 13 10 14 10 24 23 20 24 20 24 6 10 14 13 24 7 24 29 13 17 12 14 14 22 0 13 11 16 21 16 18 12 7 24 16 9 13 20 28 17 15 19 6 20 22 10 17 6 7 20 18 0 10 3 3 14 6 6 8 8 20 17 12 8 11 9 15 0 10 9 6 12 3 27 24 17 17 19 6 29 13 26 3 10 18 19 9 10 13 23 17 9 16 21 21 7 30 9 10 10 9 6 10 23 3 26 14 10 10 3 17 9 10 3 13 3 9 22 24 12 7 13 12 14 0 17 14 16 17 20 3 17 16 2 9 18 24 17 6 20 9 9 17 14 19 12 17 13 6 19 16 20 19 17 14 24 17 12 12 16 3 10 17 16 10 9 8 14 17 16 6 23 10 13 10 10 7 19 19 8 10 23 10 3 14 17 24 30 10 24 6 20 6 24 9 20 6 3 17 16 6 16 13 20 10 7 13 6 16 3 19 24 13 24 4 15 19 0 16 17 20 16 20 22 6 10 20 16 13 10 9 14 23 27 16 14 38 10 23 15 24 9 31 14 24 23 9 3 9 7 24 13 3 20 7 15 10 10 9 8 20 19 11 20 23 21 12 5 7 16 10 14 9 17 7 16 23 31 9 26 16 17 14 13 13 14 38 6 3 10 10 0 3 3 14 12 13 24 13 14 9 7 7 31 14 7 15 10 9 38 12 20 20 17 13 7 10 9 27 10 17 27 11 3 15 19 8 10 9 13 34 24 13 10 3 12 24 15 10 17 21 9 16 17 7 17 14 17 10 18 10 17 14 21 13 17 16 6 14 23 3 12 8 13 10 18 10 16 10 17 7 3 11 9 6 14 7 9 30 16 26 7 6 21 10 13 6 17 21 9 10 21 7 28 14 25 10 13 9 12 6 17 7 19 22 19 10 17 13 21 14 20 17 11 13 10 16 13 16 6 18 17 10 23 13 17 17 24 14 17 21 6 17 22 12 23 16 16 11 20 13 23 19 10 14 7 21 10 37 13 7 13 13 13 14 3 26 16 10 7 14 16 7 9 30 17 23 13 15 6 13 23 17 7 15 13 15 0 11 3 19 11 6 6 28 24 6 7 6 3 15 21 21 23 6 19 7 3 3 26 22 13 6 20 14 6 11 10 14 14 7 22 17 11 33 14 20 27 19 16 3 24 9 23 17 14 20 0 13 20 0 10 20 10 15 13 24 10 7 3 6 9 10 10 9 17 16 10 32 9 13 16 0 15 17 7 10 6 17 23 19 12 3 31 21 19 16 6 13 24 17 19 6 12 20 15 9 19 3 22 17 8 29 14 9 3 7 6 11 13 9 17 10 7 19 6 20 27 6 27 11 19 15 23 14 13 14 16 33 10 12 10 0 23 23 10 9 18 6 23 10 6 12 10 0 16 9 20 6 13 15 14 24 16 17 16 9 6 10 15 12 24 10 7 21 17 20 6 0 27 10 10 13 21 17 16 16 11 14 14 16 10 9 14 9 21 10 16 25 24 3 25 15 13 35 10 6 10 16 13 16 17 3 34 16 6 16 22 3 10 10 17 16 15 9 15 17 6 16 15 28 20 6 14 12 3 16 14 16 7 17 9 26 15 19 13 9 20 9 18 12 17 16 19 10 17 3 17 26 24 13 13 10 3 16 18 23 16 17 15 10 6 17 20 23 13 19 24 6 3 7 17 3 3 20 7 20 8 3 17 35 6 17 10 18 17 19 17 6 21 20 22 14 13 34 0 29 6 20 16 3 12 6 13 8 0 12 14 12 3 20 6 20 19 13 3 13 26 13 23 14 16 23 14 34 6 20 16 21 17 3 26 14 0 10 17 3 14 10 20 31 13 10 6 20 17 0 9 12 16 14 3 10 23 17 27 7 11 13 17 26 9 6 22 20 23 18 17 13 9 7 26 13 13 24 6 13 10 8 0 14 10 13 3 6 6 12 33 9 20 10 14 24 14 26 20 16 7 13 8 17 13 21 13 28 9 7 19 16 17 19 9 17 22 14 10 13 7 3 7 10 17 6 13 16 17 10 15 13 6 10 21 10 13 17 7 13 13 3 17 3 26 19 15 15 19 14 13 6 3 9 21 6 20 17 12 24 14 8 6 10 23 13 20 17 24 6 17 14 10 9 3 9 9 13 17 7 19 17 6 3 16 21 21 10 13 21 6 17 16 10 13 20 7 12 6 13 28 21 14 13 24 12 12 21 10 10 6 20 17 3 17 17 14 14 3 6 24 7 10 6 20 17 13 3 7 20 17 13 21 17 6 10 12 16 13 10 3 20 18 17 10 10 34 11 13 20 11 27 6 9 23 14 7 20 13 20 19 10 3 13 14 24 31 10 18 19 12 13 13 17 9 26 20 13 9 10 13 24 10 3 14 20 13 14 19 10 17 9 17 3 16 23 6 17 9 6 10 0 9 6 9 3 3 9 10 3 12 14 31 7 16 20 6 0 11 23 16 0 9 3 6 13 17 12 0 27 22 10 26 13 23 15 15 14 19 13 23 11 14 12 3 6 16 15 3 6 13 17 17 17 10 13 17 7 24 27 6 6 19 7 16 10 34 14 12 0 14 9 11 10 16 24 10 10 16 23 9 13 3 6 7 10 6 14 7 16 12 15 21 10 28 17 20 15 23 24 0 21 14 19 21 9 9 16 10 6 17 17 7 3 7 13 3 6 16 9 21 6 13 27 12 24 21 9 0 7 27 16 6 15 16 7 17 10 6 17 19 3 26 21 10 16 19 7 21 3 13 20 9 19 20 16 13 31 10 15 19 18 17 15 27 21 17 16 11 10 23 21 28 27 23 21 13 10 18 16 17 7 19 3 16 13 13 26 14 24 18 16 10 10 7 6 19 29 16 17 12 30 13 10 14 17 3 9 14 17 18 19 13 19 14 3 13 9 14 9 20 20 21 17 16 0 27 24 16 14 3 17 17 10 10 16 19 20 7 26 17 3 20 7 14 10 16 17 9 20 20 23 17 13 27 10 3 10 3 10 27 20 16 20 11 21 27 26 6 13 10 10 9 10 21 0 14 12 21 16 10 24 16 9 7 10 20 10 24 17 20 24 21 20 0 13 16 16 22 17 13 12 23 10 10 7 30 6 17 5 31 6 13 10 13 24 7 16 9 3 22 14 20 21 20 7 20 17 9 6 14 20 10 10 18 13 12 13 18 13 16 17 6 14 19 28 19 16 21 23 6 19 16 6 3 14 9 11 34 3 7 13 7 6 24 10 20 13 13 30 10 6 6 6 20 18 10 18 19 19 24 19 23 6 10 16 10 15 7 14 10 3 23 7 10 0 14 14 23 14 7 9 16 16 24 24 12 0 13 10 13 20 14 6 30 28 16 6 15 23 7 3 16 7 9 19 20 30 21 13 18 23 6 15 16 18 13 20 6 3 24 14 17 7 7 13 6 22 24 13 31 34 6 21 10 17 10 17 19 20 6 17 13 20 3 21 17 13 6 19 12 18 13 9 3 10 18 7 7 9 25 9 24 7 6 3 12 13 7 16 14 7 14 9 10 15 37 6 24 19 9 9 13 13 30 10 17 3 12 27 10 7 7 3 14 7 7 10 23 13 20 23 17 3 24 6 16 13 7 20 0 31 23 7 9 10 3 6 17 24 8 10 17 10 16 7 10 23 24 23 11 14 13 10 23 3 13 21 21 10 3 24 6 12 12 24 20 14 12 13 13 10 3 14 6 0 12 3 3 19 10 9 10 14 17 19 3 9 23 7 20 20 14 13 15 9 14 10 23 6 0 7 3 24 20 6 10 10 27 20 10 24 9 12 25 0 18 21 9 9 13 10 24 16 14 23 25 20 13 17 17 13 22 3 9 15 10 24 9 12 14 10 24 28 17 20 13 20 12 19 20 23 9 14 6 9 9 23 21 17 13 8 17 12 10 3 16 14 17 13 9 6 17 16 16 21 28 9 16 21 14 27 13 3 10 19 6 3 12 13 13 30 10 17 16 20 20 17 16 9 3 21 14 19 3 14 13 17 6 19 24 3 19 17 17 6 22 17 15 6 24 3 13 17 13 12 27 23 24 16 3 10 11 9 16 3 8 16 11 24 24 3 24 6 14 7 21 13 13 13 20 7 3 13 6 20 10 3 3 9 14 24 15 21 17 10 16 13 24 2 29 16 8 12 28 14 20 31 17 14 13 34 10 7 6 22 6 17 14 13 22 16 20 10 21 3 24 17 24 16 24 13 13 20 7 17 17 12 19 21 10 12 21 19 7 17 13 16 22 14 10 17 20 23 24 17 13 10 24 13 14 9 9 7 10 3 22 19 17 33 10 7 6 19 20 17 3 20 14 0 13 9 34 30 26 10 6 27 19 16 16 3 21 13 13 10 13 12 13 20 7 16 3 10 5 23 13 10 9 9 10 10 7 10 10 10 11 9 6 6 13 19 15 17 19 19 14 18 10 3 14 0 3 6 13 26 6 9 13 16 20 3 13 3 10 20 7 10 3 3 3 16 0 10 15 17 24 21 12 7 14 20 6 10 17 6 20 10 16 17 12 24 3 10 6 13 10 28 9 27 7 15 9 12 14 3 23 17 3 19 19 11 21 9 24 13 7 19 13 13 10 16 14 12 24 12 21 7 12 0 15 20 12 20 24 14 20 10 33 10 19 14 14 17 31 17 10 20 20 13 6 14 10 17 16 15 9 14 13 21 17 13 25 13 16 13 19 16 18 20 17 14 10 6 21 15 13 9 15 14 6 23 14 3 17 6 19 17 13 22 21 20 25 13 6 0 10 19 22 17 20 10 9 20 3 16 10 17 7 6 31 16 13 13 10 16 16 10 14 14 6 26 6 16 23 27 10 6 10 10 10 10 10 9 24 16 34 19 9 13 17 3 6 6 37 17 6 3 17 17 13 14 24 17 20 21 10 16 3 27 17 28 10 7 20 7 28 20 13 17 16 19 17 3 7 12 27 13 29 21 27 13 7 6 14 19 6 24 20 0 14 17 0 10 19 25 17 9 9 12 9 3 5 16 16 30 10 0 21 3 11 13 19 17 20 20 11 7 6 11 16 10 18 14 17 10 20 12 8 19 3 10 16 13 20 17 24 20 31 10 17 3 6 19 13 10 6 20 27 18 27 17 12 6 9 14 24 20 6 0 19 10 18 30 16 7 7 13 9 20 17 3 17 14 10 23 10 14 16 7 6 9 6 24 6 6 14 21 6 20 38 10 10 7 17 31 10 13 13 17 14 13 20 13 10 14 12 24 3 21 17 17 23 6 9 15 10 27 23 0 24 13 8 10 9 6 24 6 3 24 17 6 13 22 7 0 10 6 20 10 21 13 13 7 3 18 11 13 20 17 12 10 7 15 13 7 9 16 8 6 9 10 18 13 21 23 13 7 6 21 20 21 10 10 9 20 8 10 24 26 3 23 3 18 25 10 14 16 4 9 10 3 9 6 7 7 17 9 16 16 12 10 10 13 3 20 6 13 10 23 12 3 13 13 16 23 19 6 20 7 23 8 13 13 20 10 17 13 10 20 29 28 19 20 17 12 3 16 9 16 30 24 10 17 21 9 19 0 6 15 20 27 7 14 21 14 29 13 14 17 19 10 12 10 14 23 10 22 14 10 17 19 21 21 18 6 7 3 11 10 6 9 14 3 33 13 6 17 20 17 28 20 7 21 25 16 6 10 6 6 17 0 6 12 10 16 13 28 14 6 13 20 21 21 0 14 20 10 31 13 19 20 10 22 10 13 16 10 9 16 13 23 10 17 16 13 9 30 17 16 21 7 3 7 29 10 19 16 10 24 23 13 14 16 19 17 14 22 10 13 0 13 13 11 10 14 14 5 7 13 17 9 24 17 21 13 17 20 13 9 7 15 3 24 6 20 22 15 0 13 7 13 6 17 7 17 19 17 23 6 17 16 9 3 16 9 6 28 13 10 20 17 7 11 22 17 10 6 16 13 26 10 10 10 19 13 3 6 13 24 13 13 14 10 30 28 0 20 17 6 13 27 9 14 6 17 20 17 10 16 0 6 0 9 16 16 7 17 10 13 18 10 13 12 7 19 12 27 9 3 6 3 14 16 19 13 7 20 12 14 16 6 10 13 6 20 7 12 13 17 6 20 6 6 20 3 6 15 14 0 18 23 19 2 3 10 7 10 7 14 23 25 17 10 11 9 17 7 6 3 15 10 3 15 14 15 16 17 16 17 19 20 6 20 20 12 7 14 23 14 13 17 20 20 3 13 13 5 21 13 20 14 9 13 18 10 20 3 6 16 22 0 0 20 14 21 10 12 26 23 3 14 28 6 6 6 20 6 6 23 16 20 14 9 26 20 21 19 11 6 13 12 17 10 0 14 17 14 13 25 27 20 17 13 10 16 31 3 24 10 19 28 14 6 7 13 10 10 20 6 3 29 9 24 15 13 19 30 7 19 14 17 13 3 10 14 13 12 30 23 13 10 17 13 9 13 13 18 17 7 31 22 13 21 7 10 18 14 7 6 6 7 17 13 3 26 10 13 24 10 6 23 13 22 17 0 0 17 23 6 17 23 10 6 6 10 6 3 11 19 0 9 16 19 20 26 6 12 16 15 18 20 14 6 7 20 20 17 18 16 20 19 10 20 16 9 9 6 3 6 0 5 16 7 13 17 10 24 15 13 3 10 16 23 13 6 17 20 6 9 20 21 19 7 9 26 21 23 16 6 24 14 10 12 16 10 9 27 13 17 21 18 12 10 15 3 20 6 10 3 13 3 14 13 14 13 18 18 14 21 20 16 16 14 24 18 27 9 17 16 17 17 15 16 12 17 14 19 16 14 17 6 17 23 20 16 9 6 10 13 20 23 13 16 27 23 0 39 7 27 13 7 7 28 17 21 10 6 9 17 0 3 13 31 13 6 0 14 10 28 23 16 9 25 12 13 20 7 3 3 20 12 3 3 11 18 13 21 30 9 15 31 20 13 16 12 10 8 31 18 14 16 6 15 20 23 12 23 13 13 27 7 3 6 3 20 16 9 9 16 17 14 9 10 13 7 14 6 12 21 9 3 13 16 17 28 0 14 17 10 24 19 9 23 13 30 10 20 7 3 3 6 7 21 10 29 17 12 9 36 18 16 12 10 20 6 17 7 6 28 7 20 12 23 17 23 7 28 9 23 23 9 10 14 12 12 13 13 12 19 11 11 13 24 23 12 6 0 9 13 24 23 3 17 10 10 17 13 14 11 11 13 6 20 10 24 24 17 11 16 13 4 17 13 10 14 12 15 21 16 30 21 27 24 20 24 17 13 10 24 0 18 23 10 3 3 13 19 10 12 20 13 17 17 6 17 13 11 23 13 12 18 24 3 14 13 7 19 16 10 10 20 22 9 3 21 17 15 19 9 17 7 11 13 9 19 24 21 17 10 23 3 13 11 7 22 14 23 25 0 19 3 16 6 19 30 21 19 12 10 23 23 3 14 16 19 6 15 11 13 17 14 26 23 16 20 13 6 27 9 12 17 3 10 17 23 20 14 3 14 27 3 9</t>
+  </si>
+  <si>
+    <t>JSB(12.762898512491228, 9.681598361911398, -33.09185932573565, 260.8006567326685)</t>
+  </si>
+  <si>
+    <t>31 17 25 33 23 24 19 27 15 22 22 22 31 31 28 26 20 18 24 19 31 22 14 22 21 18 19 23 14 31 18 27 25 20 19 27 19 18 24 14 32 19 19 19 17 19 18 32 19 29 21 33 21 27 28 21 14 19 15 18 25 15 22 16 26 26 17 23 21 28 18 21 25 22 22 31 23 23 21 19 23 23 23 27 24 17 15 27 27 18 19 18 27 24 26 14 30 21 21 20 24 20 16 23 20 24 29 20 10 30 15 32 21 20 24 23 22 26 23 19 16 26 21 15 20 27 23 15 26 23 24 21 21 20 23 22 27 23 22 14 14 28 18 22 18 23 27 26 20 16 26 25 26 20 22 25 21 21 30 16 16 22 20 22 23 26 22 23 27 22 27 18 20 19 22 19 16 18 23 22 15 18 17 17 18 23 14 25 27 14 24 23 22 22 9 28 20 26 31 24 23 18 19 13 21 24 25 25 26 17 19 21 21 18 19 20 26 19 30 26 19 27 29 20 18 21 32 30 19 18 20 14 22 24 17 19 20 19 19 18 22 24 15 26 26 17 19 28 23 19 21 25 24 14 25 23 22 27 13 31 19 20 20 22 28 21 21 20 25 27 19 24 20 21 21 26 28 23 30 22 23 25 27 19 21 21 12 30 28 32 21 17 27 19 30 25 24 28 24 22 21 22 20 23 19 15 17 19 20 30 23 24 19 20 22 20 22 23 19 19 21 17 26 24 16 24 17 18 26 21 28 30 25 19 16 29 24 17 22 27 21 21 20 15 28 24 16 21 25 24 15 21 14 23 23 26 23 25 27 22 26 26 17 22 22 24 26 25 16 20 13 29 21 27 17 20 33 20 14 30 25 27 21 32 20 18 25 22 28 18 22 22 15 20 24 22 24 15 26 24 24 16 16 22 20 22 26 19 18 26 17 18 19 28 21 24 30 24 25 26 11 29 11 22 18 18 23 22 15 19 15 25 17 17 26 32 21 24 22 21 26 25 20 24 24 20 20 28 22 22 23 18 31 24 42 22 22 24 20 22 14 23 20 33 27 23 19 21 25 15 29 23 24 25 31 21 25 19 23 22 27 25 25 20 34 25 28 16 28 20 20 27 28 23 28 25 25 23 25 19 16 21 22 16 16 15 11 23 26 22 19 27 31 27 17 22 32 14 20 24 25 17 28 14 22 20 27 16 20 23 16 30 22 14 15 21 20 24 22 24 22 26 22 17 27 19 27 26 27 23 26 19 21 23 16 30 18 25 17 25 23 15 28 30 23 27 24 22 34 20 21 16 22 27 31 17 22 23 8 28 20 23 12 19 22 20 24 31 25 18 22 27 33 30 21 22 16 29 21 23 27 17 23 21 22 19 17 25 25 28 22 17 17 20 20 22 19 19 20 19 14 21 18 21 21 15 19 22 28 23 28 26 23 18 21 26 18 21 32 19 30 28 19 28 14 17 30 24 27 24 22 33 19 25 19 29 34 18 15 23 19 26 19 26 24 23 21 13 17 30 20 17 17 18 25 24 26 20 27 23 25 27 12 22 27 22 25 29 23 30 26 27 19 23 29 21 20 19 22 24 20 18 22 16 25 27 10 25 29 22 20 15 20 28 18 22 31 17 20 20 27 25 21 22 18 29 16 22 24 23 19 23 19 27 21 20 28 19 28 19 20 23 24 20 27 27 25 22 24 22 21 22 25 14 26 25 22 17 14 20 21 27 25 28 26 21 21 22 27 23 13 21 22 17 18 18 17 18 16 25 29 24 23 19 27 19 23 26 13 24 19 27 22 21 33 23 26 24 21 20 22 18 17 27 24 23 12 16 23 25 18 18 27 23 15 28 16 21 25 23 14 20 30 21 27 17 21 35 30 29 23 27 16 18 32 23 24 19 21 24 20 20 28 20 22 25 31 18 26 24 22 32 20 14 20 18 19 20 19 18 16 23 25 21 16 22 17 31 15 17 15 21 12 27 18 26 26 25 16 15 22 22 23 19 29 20 19 23 23 21 22 28 21 27 20 12 20 25 21 21 26 22 26 31 22 23 27 21 33 16 18 31 23 21 25 24 29 18 19 16 26 19 18 20 20 28 20 21 20 19 21 19 23 21 23 16 21 27 19 21 18 17 21 32 28 28 22 22 22 20 13 21 23 19 24 23 14 22 22 19 17 18 25 23 18 20 23 17 24 16 20 23 17 16 21 28 22 16 23 25 23 24 19 23 26 20 20 26 21 27 16 22 23 21 21 21 26 31 22 27 22 15 30 36 23 25 24 16 26 27 19 20 27 29 20 24 25 33 17 29 25 15 28 17 25 22 14 22 27 25 31 37 21 14 17 23 17 24 20 17 23 22 15 19 24 20 26 29 26 22 16 25 21 25 13 18 24 22 21 27 21 27 23 21 28 28 20 15 24 21 23 18 24 26 25 27 20 17 20 30 32 20 27 29 20 24 29 20 26 21 25 22 29 17 19 30 17 20 25 23 19 24 18 22 24 18 24 20 21 21 19 18 24 18 23 26 17 24 26 19 20 21 27 18 15 33 23 22 21 18 29 13 24 15 15 19 23 19 17 18 22 27 20 16 31 24 25 9 13 19 20 24 23 22 16 18 20 18 26 15 23 33 20 24 27 24 20 16 27 22 23 28 21 22 15 20 21 13 29 24 28 28 24 27 21 20 18 17 19 24 24 17 15 28 23 17 19 27 23 22 30 22 24 12 30 19 19 19 18 23 18 22 29 23 19 17 17 13 21 20 20 26 28 20 22 21 20 28 20 21 24 13 22 27 20 22 21 21 24 25 23 25 18 21 18 16 19 25 19 28 27 20 30 23 23 21 18 26 33 25 24 29 22 23 24 29 26 21 30 18 20 20 19 24 23 21 24 20 18 25 22 27 22 15 19 19 19 22 22 27 23 22 13 21 22 23 19 18 32 27 27 24 15 31 19 25 26 19 22 18 19 14 31 18 20 28 25 19 29 27 27 26 27 27 19 24 24 32 26 21 26 27 16 17 23 26 18 24 19 27 28 23 20 25 23 17 18 16 25 19 24 23 27 29 25 22 25 19 30 15 19 26 28 26 22 32 13 28 21 28 23 30 27 18 23 24 30 20 16 31 18 15 25 21 18 16 24 18 20 18 30 17 29 15 21 23 25 23 17 23 23 23 26 26 31 19 29 20 18 28 23 23 24 21 20 25 29 20 23 19 27 25 20 18 21 12 23 27 20 27 23 22 19 27 19 18 16 19 30 19 19 21 16 22 28 25 21 16 22 29 18 22 29 20 25 21 25 19 18 21 23 18 15 30 15 16 19 22 18 22 22 19 21 30 26 24 17 20 15 21 22 23 20 19 25 14 24 30 22 18 29 30 29 11 24 23 24 24 26 12 23 24 26 23 20 22 31 25 24 22 23 27 22 30 23 22 20 16 26 26 23 34 18 21 21 23 26 22 33 18 18 18 31 9 24 19 28 24 26 26 30 19 26 20 24 26 20 25 27 18 20 25 21 21 17 29 15 18 16 24 22 28 20 20 23 21 19 27 22 12 26 21 15 24 13 26 16 23 25 29 20 19 22 13 23 29 21 21 17 16 25 27 23 25 17 17 26 23 27 25 17 20 27 20 15 20 11 24 21 23 21 20 22 23 22 17 20 26 19 27 25 22 21 17 15 20 24 29 25 16 27 19 23 13 28 20 19 21 16 26 25 24 18 18 23 17 22 24 18 24 15 27 18 21 16 26 16 22 16 19 26 20 23 25 18 23 27 14 21 27 31 26 19 27 18 27 25 12 22 26 27 14 20 27 25 23 21 22 25 24 19 28 21 24 23 17 27 16 21 18 22 18 14 23 21 18 22 20 22 17 27 22 16 19 16 28 22 19 20 15 17 23 28 26 26 20 17 21 16 17 27 28 25 26 24 19 20 30 19 19 28 23 23 17 18 21 23 28 27 21 25 22 23 16 16 20 22 27 28 26 28 31 21 28 27 19 22 14 22 18 19 24 22 24 22 25 17 25 20 24 21 30 15 21 18 18 22 26 27 22 19 22 25 24 16 18 21 18 28 30 25 19 21 18 19 23 14 21 28 25 26 23 21 22 21 18 20 27 18 26 17 19 25 19 21 26 27 15 26 25 22 21 18 19 17 17 19 24 24 25 22 27 23 23 23 23 23 22 18 22 19 28 22 22 15 24 18 23 21 20 29 26 23 29 28 23 20 29 21 25 30 21 23 24 21 28 21 21 27 21 26 22 26 20 20 12 13 25 16 19 22 28 21 35 14 12 24 22 28 21 21 29 15 24 16 28 22 17 20 27 21 20 27 23 23 24 25 25 22 23 21 21 18 21 21 35 25 25 25 21 18 25 25 19 38 25 20 21 24 33 20 23 16 16 25 20 26 25 18 34 26 19 25 18 25 22 22 16 25 27 31 25 24 23 23 30 25 24 18 21 16 22 30 31 28 29 20 24 23 22 19 20 12 21 17 16 26 22 24 23 25 24 16 20 22 19 17 21 21 28 22 18 20 15 12 19 26 20 26 20 25 19 22 25 31 16 26 16 23 26 17 14 21 25 20 14 21 22 22 32 24 19 21 25 29 26 19 21 16 17 22 25 20 32 26 25 33 23 27 15 14 30 19 21 13 25 17 27 23 30 20 21 30 20 23 27 22 18 26 25 16 24 11 9 22 22 20 25 22 30 23 23 17 17 16 19 19 26 26 17 17 21 14 31 14 16 19 16 22 24 18 30 14 13 25 21 25 15 23 19 30 17 17 14 19 26 22 20 30 22 19 21 22 25 25 17 24 32 32 22 26 25 16 27 22 24 15 8 16 23 23 32 19 22 20 17 30 22 19 23 21 15 29 17 27 26 13 17 18 22 16 28 16 26 26 23 26 21 21 18 23 25 21 29 18 15 27 20 18 29 29 21 22 30 20 22 15 26 16 17 21 24 23 20 19 20 11 27 22 24 18 23 25 21 30 23 21 15 26 17 26 27 21 22 22 24 17 25 17 20 23 20 27 25 19 27 25 27 23 17 20 27 19 17 17 24 19 25 33 16 21 26 25 20 21 23 15 29 25 23 18 24 12 24 22 19 22 22 18 19 31 21 18 21 22 21 35 15 17 16 18 25 18 20 20 11 15 25 21 19 25 27 18 26 19 24 25 18 29 18 16 30 29 21 21 25 15 24 31 23 25 24 28 22 25 13 17 25 20 22 21 16 10 19 15 17 20 21 35 26 24 19 20 20 27 24 32 25 20 27 26 22 22 26 22 16 19 29 19 19 22 19 31 21 25 19 23 24 23 21 22 16 21 21 26 20 25 18 25 23 27 24 20 29 15 31 17 16 24 20 18 17 20 23 14 19 12 19 28 21 32 18 24 12 22 27 21 21 20 18 20 20 13 31 16 22 17 24 24 29 28 19 19 19 18 19 21 28 20 24 26 13 22 26 28 32 21 22 22 27 17 12 27 20 15 20 26 20 36 20 21 17 20 18 18 29 27 25 18 24 20 20 19 21 27 22 13 24 18 22 28 26 22 21 27 30 28 26 25 17 23 20 22 24 28 23 22 25 19 27 24 20 24 27 24 25 21 19 19 21 30 30 22 21 21 24 20 24 26 14 19 17 34 23 23 19 24 19 26 30 13 18 20 16 16 15 19 13 20 24 28 19 13 22 18 14 21 16 22 21 25 28 13 21 16 20 14 20 29 23 12 23 17 29 26 26 21 17 22 23 25 22 29 23 18 25 17 28 25 19 19 26 23 26 17 24 24 29 24 24 18 25 19 20 16 25 21 17 18 28 31 23 23 22 23 23 19 22 18 20 23 22 18 26 28 32 36 14 23 17 27 29 19 18 27 19 20 20 31 22 19 17 29 27 26 23 18 17 16 22 21 17 24 18 26 26 22 20 22 23 21 21 23 19 21 27 17 16 31 28 16 11 26 25 19 17 18 19 19 23 28 30 29 18 20 23 24 20 22 24 21 20 19 20 22 21 24 23 21 22 19 22 28 13 28 32 20 26 23 19 22 18 19 18 20 19 16 23 32 28 20 27 20 21 17 23 28 32 15 20 25 25 18 17 22 26 14 25 26 18 22 18 17 22 22 27 26 25 29 20 27 17 19 27 19 24 18 26 19 34 23 20 13 25 17 26 36 30 20 30 24 24 15 20 25 24 26 22 23 27 27 24 23 25 32 14 19 22 23 27 11 26 15 29 22 22 20 24 23 29 22 23 24 22 23 22 15 20 24 23 19 26 28 19 21 22 19 21 26 23 21 26 19 19 21 17 26 14 19 12 22 21 17 24 23 17 19 20 24 23 16 18 16 30 22 27 29 30 23 20 16 20 24 22 24 14 22 19 22 23 19 24 15 20 25 30 16 17 23 22 30 17 22 26 21 30 25 26 22 23 20 21 26 30 17 25 19 20 15 22 27 19 27 26 25 18 23 14 18 21 19 22 18 21 21 22 22 26 16 25 20 21 26 21 32 22 18 21 18 16 24 19 24 27 26 15 22 24 16 25 20 23 24 20 23 25 23 32 31 25 21 21 25 25 20 20 21 14 25 26 22 18 29 30 23 25 29 24 18 28 29 22 25 20 23 25 18 21 17 21 27 24 21 22 16 17 26 25 28 25 29 22 20 21 20 26 20 17 29 21 26 23 22 24 23 21 24 22 24 25 22 24 16 18 18 19 20 26 26 19 21 31 18 26 29 25 17 16 34 19 20 18 18 21 28 22 22 11 23 26 18 26 18 26 24 21 24 15 22 24 33 30 24 22 13 25 15 20 21 20 27 22 24 21 13 30 16 22 18 25 22 26 25 25 17 20 19 27 28 19 22 27 23 14 18 20 23 20 22 20 32 25 30 29 22 19 15 30 22 23 20 19 24 22 29 23 24 23 17 25 15 17 25 21 24 25 23 23 26 23 18 29 30 26 31 25 16 24 23 20 18 27 28 23 26 28 29 31 16 21 27 24 25 36 21 24 21 26 18 26 25 15 25 22 19 22 19 28 25 19 23 18 21 23 24 24 19 18 18 19 15 18 18 21 19 18 21 24 20 18 25 24 19 29 23 27 26 19 21 35 15 24 28 14 25 11 20 15 25 22 24 31 23 22 18 25 29 13 27 25 25 18 22 22 20 30 16 26 20 25 23 20 25 21 28 23 28 27 25 25 19 23 21 20 17 18 22 22 22 25 21 15 23 25 17 24 27 21 24 17 29 18 14 20 16 17 25 23 19 17 23 29 27 23 17 26 20 31 25 23 26 13 24 21 25 18 23 26 25 23 24 19 11 27 23 15 22 34 19 15 27 29 27 17 33 24 22 29 20 22 18 17 17 26 26 19 30 23 24 24 28 22 12 18 21 22 20 31 35 26 23 26 25 26 21 24 23 26 18 24 18 18 21 27 24 26 24 17 17 27 19 26 20 22 26 13 22 6 22 25 13 20 21 21 19 20 25 16 24 21 23 21 17 26 17 27 15 23 14 19 33 24 22 21 19 22 17 15 20 22 17 29 24 17 21 22 24 17 22 20 23 16 18 26 21 26 16 20 16 23 23 24 18 20 22 19 20 19 26 19 16 27 23 30 18 20 20 17 25 30 21 22 17 30 25 28 22 19 26 24 28 24 18 23 16 23 22 18 20 21 17 11 21 14 22 24 22 24 29 17 29 28 15 25 27 21 15 16 16 19 19 23 28 15 22 17 19 25 27 24 21 24 29 22 28 20 19 23 25 19 22 18 23 20 20 18 26 19 20 23 15 22 19 22 24 20 23 26 24 16 26 12 26 17 21 30 31 28 21 18 23 22 19 27 22 23 29 19 19 29 20 23 21 20 19 22 26 25 23 27 14 32 19 18 26 23 23 22 25 26 22 22 21 26 23 24 14 20 21 29 23 26 20 17 30 25 22 32 27 20 31 21 18 18 21 26 24 26 19 21 20 25 18 21 30 18 20 20 20 24 19 18 26 32 22 20 24 16 20 30 27 19 21 29 30 25 32 11 28 16 24 11 19 25 23 20 22 22 24 31 33 23 22 22 23 22 19 26 19 31 24 16 15 18 22 15 23 17 19 21 20 29 19 23 22 25 22 16 14 32 19 16 19 16 23 18 20 25 26 14 20 20 30 28 27 19 20 26 21 28 19 22 23 26 22 22 19 21 23 18 31 15 23 25 23 21 21 18 28 25 17 23 17 17 27 24 18 17 21 21 13 22 15 26 23 26 24 18 22 27 24 22 23 21 19 18 24 19 14 28 30 23 32 18 19 18 24 24 24 20 22 28 16 23 19 41 27 21 28 22 23 23 19 25 24 24 26 23 16 22 27 27 20 22 15 32 25 19 22 26 18 22 26 25 22 19 22 21 22 19 22 25 17 22 22 20 20 18 17 23 20 26 21 21 19 27 22 18 18 23 18 27 24 17 12 17 24 29 22 21 27 18 21 24 22 30 19 19 24 23 22 22 18 20 22 26 30 20 20 24 19 17 11 18 23 24 20 23 19 21 19 21 24 26 15 30 16 20 20 30 23 21 22 18 28 19 20 21 21 32 33 21 18 26 17 17 15 29 25 21 23 19 16 17 15 22 31 17 25 20 17 25 22 23 27 21 25 30 26 18 25 24 11 26 19 20 17 29 26 13 18 19 16 23 30 19 21 23 12 18 24 18 19 17 29 22 22 21 23 25 13 24 24 28 21 19 21 18 19 27 15 20 22 19 22 18 20 18 20 23 14 17 22 18 19 15 24 14 29 17 19 20 23 19 18 25 26 16 31 24 20 22 19 23 19 10 19 19 25 22 27 23 19 26 23 26 25 19 28 20 29 17 22 16 25 21 27 22 24 25 28 27 23 26 22 20 27 22 14 21 18 18 27 19 29 20 19 17 27 16 24 22 24 18 26 23 28 20 19 20 21 28 27 28 20 19 23 20 20 16 23 21 16 15 20 16 21 26 24 22 21 22 21 8 19 23 16 23 21 20 18 26 17 25 18 22 26 24 30 23 26 20 30 18 18 22 21 16 17 22 23 18 24 12 28 23 16 22 22 27 19 28 30 18 18 24 23 17 26 29 13 20 25 17 23 20 17 37 21 20 23 26 22 25 21 22 17 17 20 24 20 24 23 29 23 20 18 18 19 29 22 16 24 22 17 17 21 33 17 25 23 22 21 28 12 25 23 25 26 21 20 26 23 21 26 28 23 23 19 13 23 26 21 24 20 26 14 24 30 21 24 21 21 27 21 26 26 19 22 23 26 26 13 18 18 24 22 29 27 25 22 28 22 17 38 19 20 23 20 19 16 25 31 20 22 22 12 20 23 29 25 29 29 18 20 28 21 27 21 26 23 21 17 20 14 20 29 23 33 24 29 21 25 24 20 18 24 24 26 19 18 21 16 24 18 25 21 29 18 24 24 27 18 22 20 31 29 27 20 27 18 24 23 26 18 28 24 22 31 11 20 24 19 16 20 20 23 21 22 24 23 15 20 24 27 23 25 25 28 18 27 31 25 24 26 25 22 20 22 24 25 15 26 14 24 20 19 23 18 18 29 18 25 24 26 22 23 21 32 21 19 23 22 19 22 18 22 20 25 27 29 24 24 20 25 24 24 28 17 24 23 26 21 16 28 34 33 23 22 19 24 14 20 22 14 11 18 19 23 17 28 19 23 19 24 23 24 23 23 26 17 27 17 26 22 24 23 22 30 29 25 26 15 18 23 16 26 20 24 24 21 18 25 26 18 18 28 17 24 19 26 22 19 24 17 17 21 23 26 20 20 30 21 19 23 18 18 20 25 24 23 20 17 18 25 22 21 22 25 19 17 22 24 21 23 24 29 20 25 28 28 23 19 23 23 31 15 24 15 25 26 24 16 22 19 22 23 22 24 17 22 31 26 30 30 20 27 27 20 21 19 22 20 20 28 25 19 23 34 19 17 21 22 26 29 23 19 22 25 25 22 19 24 16 27 32 20 23 21 18 26 22 17 19 17 19 21 30 20 30 24 23 28 21 26 19 17 18 24 23 21 24 31 23 17 27 22 22 19 19 24 27 16 14 32 16 24 14 20 23 19 15 15 21 22 23 24 17 18 20 23 25 16 21 14 18 29 20 21 19 14 27 20 20 19 22 18 18 17 16 29 23 20 30 17 24 18 27 23 24 18 20 29 29 23 19 23 29 19 20 20 27 29 18 21 26 22 17 28 27 23 22 26 29 21 23 22 24 16 22 30 26 14 23 22 25 19 24 25 19 34 24 24 21 30 22 23 14 22 21 23 30 18 18 24 17 22 19 19 24 18 15 22 19 17 22 20 19 26 25 17 28 19 19 23 23 19 22 18 22 20 21 33 31 31 30 22 33 25 20 21 26 23 17 26 27 15 17 16 26 29 23 21 20 18 33 22 21 32 29 15 25 19 21 17 22 19 19 25 22 21 17 17 19 25 27 21 28 18 16 21 19 20 19 18 25 23 21 18 26 25 17 20 21 25 24 22 14 19 27 28 24 19 27 21 14 23 18 18 30 24 21 19 16 20 24 23 20 29 20 31 24 17 18 28 28 24 29 19 24 25 24 20 20 22 24 27 27 24 27 24 17 23 24 24 21 32 27 18 26 24 22 18 20 26 24 22 17 18 24 28 29 28 26 24 24 18 15 22 19 20 20 22 29 24 19 20 19 27 17 28 22 21 21 18 17 22 21 23 21 27 22 22 26 15 22 33 26 24 26 20 18 18 19 25 20 21 20 20 27 17 15 19 25 12 22 21 16 22 15 20 24 23 20 24 16 23 19 19 22 22 16 25 20 18 20 19 18 28 17 19 23 15 24 20 21 26 16 19 17 22 24 29 24 21 22 21 29 24 23 23 26 21 24 21 22 16 22 28 22 26 17 20 23 15 29 17 28 23 21 29 21 21 16 21 26 20 27 25 21 26 25 18 12 22 18 30 22 21 23 22 25 19 19 23 19 20 27 27 25 20 21 16 17 23 24 24 20 28 30 27 17 20 18 19 23 26 22 13 25 27 27 21 23 15 24 21 33 22 21 19 20 24 26 24 24 29 27 24 18 14 24 27 30 17 15 21 21 26 27 19 23 22 17 21 18 27 24 28 27 21 16 29 20 23 20 22 31 25 31 21 20 26 23 23 26 16 14 28 21 21 13 21 23 21 20 24 24 17 22 25 27 23 20 22 19 24 22 24 25 26 18 20 22 23 22 27 22 24 25 26 19 20 24 23 19 17 27 27 25 31 26 26 26 20 27 25 19 28 30 23 21 24 18 27 16 26 19 25 21 24 22 13 20 21 11 20 29 15 17 23 28 21 21 22 20 21 28 20 20 22 18 27 21 19 24 21 25 27 19 21 14 24 27 22 22 19 21 19 19 20 20 26 19 20 21 25 27 18 25 20 18 23 17 24 24 28 16 21 21 21 26 31 25 18 17 19 23 30 19 15 23 29 25 21 23 24 16 24 26 20 17 17 17 15 21 23 12 26 23 25 27 28 21 16 20 24 20 21 20 30 25 25 31 20 19 15 25 17 26 22 25 20 24 19 13 23 23 17 17 21 20 25 16 21 26 24 18 33 21 21 18 23 23 21 25 21 23 20 19 12 21 15 18 23 14 25 14 17 22 16 20 25 31 17 20 22 28 21 30 29 17 21 28 21 28 25 28 22 18 21 22 26 16 19 21 15 25 21 24 21 24 17 27 26 18 23 20 27 20 17 23 22 19 19 25 22 23 26 20 22 14 29 20 20 20 18 23 15 20 24 26 18 23 26 18 12 25 20 31 24 15 22 23 15 11 15 19 19 22 33 17 18 24 22 20 24 19 22 28 25 29 21 15 28 33 22 17 21 20 18 22 19 25 30 19 23 22 28 15 22 22 19 19 16 20 19 25 25 22 31 30 26 16 29 19 22 10 22 28 25 20 29 23 22 22 24 27 23 27 26 25 22 33 24 31 21 17 26 14 22 21 19 25 22 24 18 20 26 20 17 24 16 23 22 16 16 22 26 25 27 26 26 25 17 26 25 22 20 27 16 19 21 27 17 28 29 26 22 18 29 28 18 20 17 22 23 27 20 29 27 25 22 21 31 19 23 30 33 26 23 25 23 14 17 16 24 24 21 28 32 28 27 19 17 22 24 21 29 14 22 27 27 25 30 22 22 21 23 17 26 22 17 20 22 25 21 15 18 18 27 18 18 33 20 23 16 25 20 19 15 24 21 18 21 22 24 14 21 25 16 17 23 18 20 24 13 24 31 23 34 18 18 19 16 24 19 25 25 26 30 28 25 20 22 20 20 29 33 21 17 22 28 34 20 32 31 28 26 20 18 17 25 25 20 14 29 29 22 20 22 17 24 16 15 24 30 17 23 13 25 19 23 24 24 32 21 17 28 16 27 20 19 20 23 26 25 23 21 23 12 21 18 21 24 25 22 19 27 21 21 23 20 15 23 26 21 23 34 23 20 20 21 16 20 27 26 19 17 27 16 20 22 14 23 22 19 24 24 23 22 25 35 32 24 22 12 25 26 24 24 25 16 22 20 23 31 16 18 24 21 17 28 28 19 20 28 18 24 24 16 24 21 23 17 26 22 15 24 21 16 22 23 23 24 23 27 23 22 23 25 13 17 24 26 20 22 19 30 22 19 24 20 18 20 16 29 26 24 29 19 26 11 18 17 18 21 20 17 18 18 25 13 27 25 20 30 17 29 28 21 24 23 19 17 26 23 20 17 16 16 23 29 16 25 30 24 15 24 23 29 19 20 23 19 20 16 21 16 19 24 26 23 22 26 23 27 27 26 14 20 25 25 16 13 24 16 18 31 27 18 21 19 25 23 22 21 31 15 25 31 18 20 31 19 31 25 18 20 21 17 23 25 18 16 21 17 17 24 16 22 21 35 19 32 21 13 22 17 18 16 24 23 11 24 25 22 21 17 19 15 23 18 22 17 17 21 22 24 26 21 24 23 18 24 24 28 26 30 40 26 28 23 18 20 23 15 16 24 24 25 23 23 22 21 28 30 31 25 24 21 28 18 17 24 21 22 16 28 20 25 18 18 18 31 21 18 24 22 23 23 16 19 20 16 26 27 26 26 20 17 18 20 14 24 16 22 34 24 17 23 19 27 21 26 27 24 14 22 18 27 21 21 38 20 22 30 29 22 31 25 27 19 26 27 30 19 24 23 20 21 21 34 18 26 28 20 23 22 24 26 25 26 24 23 28 25 19 22 26 23 21 24 27 17 19 25 10 19 19 18 27 25 12 18 17 25 23 21 20 23 38 18 17 20 21 29 24 23 30 20 22 23 24 22 26 17 22 24 26 19 19 20 26 26 30 24 28 22 23 21 19 17 18 25 20 25 23 19 28 21 24 20 25 24 17 26 18 14 27 24 21 34 22 19 21 22 26 18 21 22 22 25 15 27 15 22 21 20 15 21 28 21 24 15 27 18 30 28 25 14 26 20 19 22 16 15 18 33 13 26 24 24 16 25 27 18 21 18 22 17 28 28 20 23 21 20 15 24 24 25 25 23 21 28 25 21 24 20 28 26 21 26 20 25 19 25 13 18 19 22 18 28 18 35 22 23 18 27 28 25 19 16 23 24 25 13 23 20 26 24 22 24 23 17 21 26 21 12 32 26 25 22 19 23 25 20 25 17 34 12 22 24 15 20 25 23 24 27 30 21 22 19 23 18 21 20 26 21 25 30 31 22 24 24 23 22 20 24 15 24 18 24 26 17 14 12 19 17 25 27 20 27 25 20 21 26 27 17 19 32 11 22 15 14 19 23 21 30 16 13 29 28 22 11 16 28 20 22 32 26 28 28 19 22 24 18 17 22 22 25 20 23 24 14 15 21 26 21 20 12 15 33 26 20 20 23 23 21 25 15 24 20 25 23 22 16 25 26 26 18 20 21 21 19 26 28 22 24 18 21 23 22 29 24 23 14 24 25 19 24 34 21 24 21 24 26 25 23 15 25 16 21 29 24 22 33 20 25 25 22 13 22 22 30 16 17 22 22 28 21 17 26 24 27 17 20 17 26 18 25 21 26 20 21 29 24 22 22 25 21 14 23 16 21 23 24 23 27 18 22 29 24 22 33 16 20 26 22 21 19 25 17 20 24 14 16 23 14 13 15 22 23 20 19 23 20 28 21 31 21 27 21 24 21 18 13 14 23 14 24 27 17 26 22 20 33 30 27 20 23 19 21 24 22 17 26 23 14 28 20 25 21 23 23 26 24 21 26 28 25 23 24 19 26 17 17 20 20 21 19 20 25 17 19 23 27 22 19 20 23 21 21 24 25 24 21 19 24 23 21 14 19 27 23 15 22 22 28 34 26 16 19 17 20 18 20 21 28 25 24 22 28 23 20 17 15 30 15 18 15 22 24 23 21 27 22 26 23 20 21 21 17 24 24 25 18 20 31 22 28 31 24 32 11 14 21 21 23 28 24 20 26 14 19 22 17 20 23 19 27 18 16 20 26 22 27 13 16 29 28 20 25 16 19 19 22 28 26 23 21 28 17 22 20 22 16 26 20 20 27 27 20 31 20 32 25 20 18 28 18 30 14 30 26 15 18 24 26 24 22 26 24 22 32 25 20 21 27 17 21 27 15 18 18 28 28 19 17 26 24 33 21 22 16 23 23 19 19 25 17 16 21 20 31 14 21 26 22 19 16 17 19 16 30 22 28 28 23 28 23 24 16 22 17 25 16 16 22 27 19 20 21 21 23 14 14 21 27 24 24 28 24 20 22 18 24 20 23 31 27 21 20 25 18 22 15 29 31 20 27 22 25 22 20 26 17 21 19 22 17 12 21 27 21 18 16 34 19 23 23 26 30 21 24 20 21 15 13 27 24 16 19 24 14 25 21 25 18 16 28 15 21 22 28 16 19 14 26 22 22 21 28 20 26 26 25 20 23 19 28 22 17 26 27 12 25 28 17 14 23 20 22 29 24 25 19 23 19 30 26 23 22 22 21 25 28 20 20 23 22 27 20 25 15 22 24 33 22 18 22 21 27 21 23 31 27 26 24 23 18 18 24 21 26 35 24 28 27 17 18 15 20 15 23 29 26 28 26 16 17 27 28 29 19 23 24 19 19 28 23 18 25 24 26 20 24 28 21 21 21 21 24 22 24 24 18 18 28 25 20 23 16 18 21 20 15 19 20 22 26 21 25 28 29 17 24 17 20 22 23 22 20 15 25 22 29 26 18 25 24 25 16 28 23 28 24 28 27 21 20 16 28 19 21 19 23 19 20 25 19 11 13 24 22 26 17 22 23 21 21 21 24 16 22 19 21 27 21 16 21 30 30 22 20 26 23 17 22 27 25 19 20 17 19 21 22 21 14 33 26 23 22 19 28 25 27 30 29 19 21 27 18 24 20 25 26 17 25 17 18 21 25 18 31 20 22 19 28 19 9 26 22 18 21 19 23 29 22 27 19 14 25 19 24 21 23 23 18 17 15 22 22 25 28 22 22 18 26 14 24 27 15 27 21 21 20 27 19 20 19 31 21 22 25 26 21 24 20 17 23 28 29 28 22 27 17 14 27 18 25 25 21 27 19 20 23 25 21 15 31 24 26 26 23 21 23 24 23 32 23 16 21 18 17 22 21 23 22 20 25 25 25 32 35 24 22 18 22 27 28 20 20 19 19 32 30 20 24 24 21 32 23 19 21 24 32 18 17 20 21 23 17 11 18 17 20 21 21 17 20 19 16 30 19 25 24 21 17 30 16 32 22 21 17 23 32 15 26 22 23 31 29 23 25 21 18 26 26 22 31 24 16 16 21 25 26 18 25 23 17 16 21 20 22 22 21 24 18 17 19 14 22 27 11 20 21 15 18 25 22 23 22 17 22 23 19 22 24 29 32 20 23 31 21 24 23 22 20 21 23 16 24 27 20 23 18 21 16 27 15 22 18 29 18 32 22 26 28 20 23 26 17 29 26 22 19 21 22 23 29 26 23 27 22 22 23 21 24 23 27 18 17 19 23 13 31 26 19 22 24 16 23 30 18 21 18 23 26 28 28 28 28 17 28 18 21 16 27 16 20 20 20 25 23 16 28 21 25 28 30 27 14 18 27 21 16 18 23 19 24 23 18 19 21 20 27 19 19 18 19 17 22 23 20 25 23 18 25 18 19 24 18 30 24 28 24 33 20 24 28 17 28 14 19 17 26 25 18 23 21 25 28 31 21 27 16 31 24 23 17 30 22 23 30 13 26 18 24 23 22 22 22 17 22 17 24 14 28 23 17 21 22 18 21 19 27 21 28 22 26 16 23 31 25 18 14 16 15 18 24 23 15 32 22 26 19 25 23 20 24 26 19 19 26 31 20 19 21 25 15 20 24 26 15 24 22 20 15 21 18 35 19 14 19 18 21 29 16 19 23 22 17 24 25 27 32 26 27 19 27 21 24 21 28 14 24 25 19 24 19 21 21 25 26 23 13 23 16 29 22 13 19 18 24 27 19 17 22 17 23 29 17 23 17 27 20 17 13 23 9 15 17 18 25 14 20 27 19 21 24 19 18 22 28 19 15 28 28 23 22 18 22 27 24 21 19 21 20 22 22 20 15 22 25 17 24 26 16 18 22 28 23 21 21 31 20 22 20 20 30 23 21 34 20 19 22 21 17 18 26 16 22 20 25 21 25 27 21 24 22 28 29 22 26 16 26 18 32 26 28 21 18 15 21 31 24 21 28 28 17 15 25 19 25 25 21 27 25 23 17 24 22 18 27 16 26 16 20 18 26 23 25 10 26 28 20 22 11 27 25 38 22 27 27 20 25 25 21 20 20 24 11 20 20 22 19 15 18 19 31 17 23 26 24 31 22 29 19 18 28 25 27 23 27 26 26 25 24 18 21 14 17 20 22 22 20 24 24 21 24 30 21 19 31 24 19 14 23 25 16 16 20 32 30 26 25 21 17 18 19 17 18 22 34 23 20 24 25 23 15 23 19 13 22 35 13 21 11 9 25 22 20 20 14 30 29 28 20 22 30 26 21 19 14 32 24 22 22 19 15 24 22 13 17 16 15 21 22 17 26 21 27 20 20 21 17 21 18 15 24 19 17 16 23 26 24 22 28 19 20 14 27 24 27 19 23 18 15 17 20 23 16 28 26 23 19 34 23 15 24 22 14 32 30 24 19 26 13 23 26 21 22 24 27 20 21 22 23 17 16 23 24 29 14 20 17 28 25 19 20 22 20 24 26 16 28 23 22 23 20 26 33 19 28 23 18 27 25 28 22 24 24 31 23 21 15 25 27 22 20 22 22 23 21 22 15 22 18 19 18 26 29 25 21 21 16 22 20 24 23 17 22 26 21 19 26 16 25 31 31 18 26 25 23 24 21 25 22 23 19 21 14 19 24 19 21 17 21 24 24 19 24 32 23 21 23 15 25 24 15 26 23 28 25 29 25 22 23 15 18 26 19 25 32 22 15 18 18 26 24 26 24 22 27 25 19 18 20 17 17 29 24 22 23 18 19 23 21 29 20 20 24 26 22 28 19 20 23 19 18 10 18 21 21 22 17 27 12 26 23 25 20 22 23 22 25 14 21 28 23 23 19 14 18 20 30 19 25 16 25 19 21 19 23 21 26 26 22 27 20 20 13 23 23 17 17 18 15 19 20 19 26 23 15 17 20 20 21 14 14 17 28 29 20 28 24 23 30 21 18 22 26 27 26 23 24 18 16 25 30 26 28 16 23 22 14 20 17 21 19 16 19 25 28 25 20 18 21 20 19 29 26 15 25 26 22 26 28 11 29 23 23 22 20 24 23 26 19 17 31 21 27 27 19 16 16 21 20 28 21 23 22 23 28 15 22 16 17 19 14 27 32 23 18 30 27 25 18 26 25 32 21 25 21 24 16 23 28 25 21 32 21 17 24 27 20 26 17 26 24 22 31 24 18 22 23 17 13 22 21 30 20 19 16 19 33 15 22 21 21 26 15 14 23 18 22 21 33 28 26 17 23 19 21 17 18 18 23 15 23 23 23 26 28 13 29 16 24 22 17 17 21 17 18 26 20 31 27 15 24 26 14 19 21 17 15 23 22 27 25 29 27 21 26 30 16 22 20 23 20 14 26 26 29 21 23 25 33 25 24 17 23 23 22 27 30 26 21 19 24 13 25 18 20 19 23 15 22 25 17 18 22 22 22 25 19 28 29 30 25 17 22 29 28 16 24 22 14 26 26 20 17 27 18 21 27 18 24 22 30 26 18 21 20 21 24 21 16 13 20 28 23 27 20 19 25 24 26 19 23 22 20 21 34 20 15 20 25 22 18 16 22 18 17 25 26 12 20 15 19 20 29 17 21 21 24 25 21 22 22 25 26 25 26 22 20 29 19 23 19 19 28 24 21 25 20 27 24 20 28 31 23 21 21 25 24 27 19 22 11 34 33 25 19 23 22 14 22 25 16 22 17 24 30 22 28 19 22 18 30 21 22 23 24 20 25 23 22 25 21 12 22 25 27 20 26 23 22 21 29 24 21 24 22 23 13 17 20 27 23 24 21 21 22 30 22 23 21 21 18 17 27 32 16 25 17 25 22 23 15 21 20 22 16 17 13 25 17 20 19 23 25 35 25 22 29 21 18 17 21 20 19 24 24 21 25 20 15 9 17 24 16 24 24 31 26 22 21 24 21 27 26 16 22 19 25 24 24 20 18 19 33 26 24 18 21 20 24 18 16 17 22 20 24 26 22 25 19 20 17 33 17 17 19 18 22 20 27 24 14 21 26 28 33 18 27 20 21 20 21 19 23 26 14 17 28 19 28 21 17 23 25 20 22 26 28 21 26 19 20 22 32 30 22 27 32 24 13 16 24 21 30 23 15 21 23 26 26 24 25 30 16 27 20 17 17 22 22 24 20 22 23 21 17 23 24 20 17 23 24 26 26 15 25 18 26 22 20 24 25 22 24 16 26 24 19 24 19 15 23 10 18 21 29 29 25 15 22 20 14 26 19 20 23 22 19 17 23 19 28 20 20 25 11 17 20 22 18 21 17 24 12 22 30 30 26 16 26 22 24 22 27 20 19 18 19 15 22 21 28 22 35 30 19 24 25 27 23 21 20 20 26 18 25 29 20 21 23 24 19 30 19 23 24 18 21 24 17 20 19 18 29 17 22 31 19 21 23 24 22 20 18 18 23 20 24 27 18 19 22 30 23 19 23 11 18 28 14 14 22 24 24 20 13 21 14 29 24 19 22 27 28 22 28 22 22 22 28 19 19 18 26 24 17 19 22 26 18 28 24 28 20 23 18 25 28 27 20 14 18 22 19 23 21 23 24 17 19 23 18 18 24 19 27 42 29 13 29 32 25 29 17 20 19 15 24 27 16 23 18 21 28 25 25 20 21 23 18 19 29 20 28 21 19 23 16 25 18 22 29 22 24 27 17 23 27 26 17 16 29 12 18 27 24 23 22 16 30 21 24 16 20 24 18 20 23 22 18 26 16 26 19 20 22 17 22 22 29 23 27 23 19 28 29 25 22 21 26 17 22 20 20 25 18 13 23 23 21 25 16 17 20 17 21 14 16 17 23 20 18 22 21 15 21 21 18 15 24 20 18 16 25 17 12 19 22 18 27 27 23 20 20 19 27 18 23 20 25 20 15 19 17 31 20 23 20 20 21 19 24 20 16 27 23 19 18 21 24 20 17 30 19 18 21 20 23 21 22 23 32 18 29 18 31 27 20 27 22 26 21 18 31 28 26 22 24 19 16 20 21 28 17 23 23 20 23 21 29 31 25 20 26 22 30 23 15 22 16 22 23 27 21 20 23 22 23 20 25 26 22 21 18 17 31 17 22 26 18 27 18 18 22 13 35 23 18 18 29 20 22 16 17 20 26 12 15 27 21 22 25 22 21 22 18 21 25 25 30 24 21 20 19 17 20 18 24 19 22 25 21 26 18 31 25 13 19 17 14 24 19 28 17 22 26 18 26 16 22 25 21 29 35 21 20 23 20 18 17 34 26 25 22 30 23 27 28 22 26 27 23 21 18 24 22 27 22 21 27 23 24 15 21 18 26 24 16 16 26 17 23 21 25 28 21 30 25 20 27 12 25 25 24 24 25 16 18 21 22 19 25 18 27 21 22 15 20 23 16 21 23 25 27 23 17 15 24 17 20 29 20 20 22 20 27 26 13 21 22 22 26 18 16 22 30 22 20 18 14 17 18 30 20 17 20 23 19 19 20 28 23 18 22 27 19 17 35 21 22 31 16 19 16 23 22 24 21 17 24 18 24 13 18 20 25 27 24 33 16 18 30 25 25 25 24 25 26 20 16 27 15 18 20 18 30 17 23 24 24 19 22 17 28 21 22 24 14 32 22 24 17 29 28 20 19 22 21 22 17 17 24 17 19 32 26 22 24 25 25 27 22 22 21 20 23 20 24 20 16 19 17 25 21 19 22 20 26 18 19 27 19 32 28 24 20 14 23 26 22 23 15 21 32 17 24 25 22 16 25 16 19 24 20 19 27 26 26 30 16 18 28 10 20 21 20 25 24 18 26 25 18 17 26 21 31 17 20 22 19 25 21 25 31 21 24 29 21 27 17 28 24 21 23 21 24 24 25 29 28 21 26 24 22 21 24 26 28 28 23 26 20 29 19 22 19 18 18 23 24 16 20 21 18 21 21 21 26 19 14 19 19 20 19 16 24 17 20 24 25 20 25 25 21 18 25 17 16 22 20 21 21 25 23 21 21 18 20 36 19 12 23 22 19 23 27 22 25 28 16 11 22 22 14 21 27 28 25 25 21 18 24 18 26 33 22 21 17 17 22 24 16 18 21 28 18 18 26 24 33 17 22 24 21 20 26 27 20 22 25 18 15 26 21 24 16 18 23 25 23 18 27 27 24 28 16 21 28 13 22 19 35 8 20 27 11 15 21 27 20 23 24 22 23 26 21 26 20 21 22 21 25 21 20 24 19 25 14 20 21 21 22 15 20 21 24 21 20 23 19 26 24 34 15 11 18 25 25 29 23 16 22 21 16 16 19 27 29 24 25 19 20 32 26 31 17 17 23 29 20 21 31 26 28 24 18 29 11 28 33 23 20 22 26 28 24 26 15 21 23 14 19 26 21 12 28 22 23 19 18 19 24 17 27 19 19 16 16 20 29 20 27 21 23 24 18 22 21 28 16 19 26 22 24 22 26 21 21 28 18 24 20 22 17 17 29 20 17 25 25 19 19 26 20 16 26 24 19 33 23 27 19 26 31 19 21 18 14 17 21 23 22 26 19 23 26 16 22 26 30 21 22 16 21 22 21 14 16 19 21 27 26 22 21 30 21 23 24 28 28 23 24 26 21 27 13 27 25 18 21 14 24 16 21 26 17 24 19 24 29 36 18 19 27 31 28 24 24 28 26 18 20 28 28 27 30 21 14 22 19 29 21 19 14 17 20 22 22 21 19 20 19 23 24 18 22 21 24 31 27 22 23 17 28 20 20 21 16 23 26 17 25 28 17 25 19 23 21 20 22 24 17 14 22 18 21 26 23 25 21 23 20 21 25 21 21 21 18 28 25 26 34 19 22 19 23 24 19 23 20 26 22 22 31 24 26 23 23 13 17 22 22 24 13 14 21 23 18 14 30 22 21 16 22 27 14 19 26 22 18 24 31 25 25 25 21 20 21 25 26 20 25 14 30 20 21 23 18 26 30 16 23 21 21 23 19 17 24 17 25 20 20 23 28 21 27 32 19 16 25 18 23 28 16 25 23 19 21 22 25 15 24 19 28 27 13 26 18 19 25 14 27 28 25 25 19 24 24 26 22 18 14 19 19 29 19 25 16 18 23 18 24 26 21 25 20 25 25 15 28 18 25 25 23 19 21 18 25 25 21 24 23 28 21 14 23 19 21 22 24 17 25 29 25 23 27 16 23 20 24 21 19 21 21 16 25 23 20 26 21 16 33 27 23 23 20 22 22 15 24 22 26 17 34 20 22 22 27 19 21 18 24 22 17 20 16 22 19 24 16 24 23 20 25 25 29 27 16 25 30 25 23 16 22 14 21 27 21 21 25 16 20 21 17 26 32 30 19 30 18 24 12 9 21 27 23 20 22 22 26 22 21 17 14 26 26 26 23 27 19 28 33 18 28 19 21 30 16 23 17 19 26 19 19 13 28 25 21 27 16 26 13 22 29 21 20 22 25 21 18 20 18 22 20 25 31 17 27 18 27 13 25 42 24 21 30 20 28 23 22 25 17 12 25 19 28 17 25 20 26 18 21 22 19 15 19 22 21 19 21 19 21 20 23 32 31 22 21 37 16 19 22 17 25 21 18 24 23 19 15 21 21 22 20 27 18 30 24 17 34 20 30 24 19 21 19 23 21 20 22 20 24 21 22 31 20 21 25 26 14 24 22 26 20 17 16 21 19 23 32 25 16 27 19 24 22 25 29 21 26 21 29 22 29 13 20 11 23 24 24 24 22 19 23 22 22 23 20 18 23 20 28 19 29 19 22 20 17 25 20 27 23 23 30 24 27 17 17 25 25 21 22 20 20 25 19 25 20 28 20 25 29 26 20 16 25 27 29 20 17 20 20 24 24 24 21 25 22 23 26 23</t>
+  </si>
+  <si>
+    <t>JSU(-3.1032362349059506, 4.8143015807372755, 16.834282239981803, 23.119711956008626)</t>
+  </si>
+  <si>
+    <t>39 33 41 50 27 39 31 34 21 40 35 27 43 43 39 37 30 28 41 25 40 34 25 27 26 27 25 29 22 34 28 41 33 26 30 33 24 31 44 22 41 30 33 34 35 31 25 38 29 36 28 51 31 39 43 33 28 24 23 32 32 29 29 23 36 35 26 35 31 40 29 31 34 33 25 46 36 31 27 27 31 31 34 34 38 30 24 42 44 34 28 30 39 35 36 26 38 32 34 30 32 30 32 35 28 30 44 33 17 38 34 47 31 29 34 32 31 38 40 33 26 32 35 27 28 37 34 35 35 36 38 29 32 32 32 29 40 31 33 24 28 47 22 30 37 33 44 29 28 25 32 40 37 26 34 38 37 30 40 25 26 34 30 33 36 32 39 31 39 36 40 29 32 24 32 27 24 27 36 30 30 27 23 32 26 34 26 35 40 32 32 32 33 31 19 45 35 46 36 43 33 28 30 18 35 33 34 35 49 25 31 37 27 31 26 30 42 31 43 34 30 41 35 30 26 41 45 40 31 24 34 31 38 35 29 36 28 29 32 29 29 38 24 45 32 32 37 42 29 28 31 39 34 23 34 35 31 35 22 39 33 28 34 34 37 31 32 31 31 42 37 30 35 34 27 35 37 41 41 33 33 34 41 24 27 34 27 50 42 45 29 26 35 36 40 33 31 39 34 32 29 30 30 32 27 25 25 27 35 41 40 32 26 32 37 30 33 31 27 28 29 31 42 28 22 31 26 25 37 30 39 46 32 26 25 38 30 27 27 43 34 31 27 25 38 29 27 30 33 31 23 30 24 34 33 34 32 38 40 29 31 44 26 26 38 34 36 32 34 26 24 42 29 37 30 31 44 29 24 41 37 36 27 43 32 24 37 28 36 31 34 38 31 30 31 30 34 27 41 34 34 27 26 34 31 30 37 32 27 34 33 37 28 37 36 30 41 30 37 30 17 41 35 38 26 27 37 33 25 29 23 34 38 27 40 42 33 38 35 28 34 35 31 33 35 33 32 34 36 35 37 26 47 36 49 33 35 32 28 27 23 27 27 45 38 35 38 30 31 24 35 31 27 34 49 29 45 33 30 30 33 32 40 25 46 41 51 23 35 29 37 38 37 35 35 34 37 29 45 28 32 34 31 27 25 35 24 34 39 32 29 39 41 40 24 33 47 25 37 33 31 31 36 23 32 31 41 25 33 40 30 34 33 30 26 33 30 35 33 41 33 44 32 31 39 30 41 40 36 33 32 34 31 30 22 48 26 36 32 33 28 27 40 43 35 31 33 32 47 32 29 27 32 35 44 27 35 35 20 34 31 31 16 35 30 28 29 50 29 25 31 38 43 41 32 31 29 35 32 30 38 28 43 33 34 32 25 36 32 36 30 28 31 28 28 36 33 28 32 30 21 29 31 33 37 25 27 35 48 35 40 35 35 27 33 38 26 33 39 36 39 34 33 46 27 25 41 30 41 34 38 49 30 39 32 40 45 32 26 33 30 37 30 36 34 36 32 20 26 38 27 29 27 27 42 32 41 29 39 37 34 39 20 39 35 29 40 40 34 39 38 32 28 35 37 29 29 33 34 39 32 33 35 27 31 39 20 35 44 28 35 28 35 43 34 28 41 33 28 23 36 36 31 28 36 38 25 31 35 37 27 30 28 42 31 27 44 25 39 31 32 39 35 35 40 47 34 37 36 32 33 31 31 26 35 35 36 27 25 30 30 37 41 41 34 33 29 33 37 30 28 37 35 29 28 31 28 29 33 44 43 30 29 32 31 30 32 45 22 39 31 40 34 38 46 33 40 33 31 29 32 27 27 37 36 39 20 27 36 40 30 28 37 34 31 39 28 30 35 41 21 28 37 35 37 28 37 47 38 45 32 37 26 29 41 33 32 26 32 33 27 31 41 24 39 40 40 25 43 29 25 41 29 27 38 33 29 35 29 24 25 37 35 27 31 31 24 43 25 21 25 28 27 42 32 39 34 31 27 28 35 31 37 29 43 33 30 31 34 32 28 39 36 35 34 26 31 45 32 30 35 31 40 44 31 38 37 30 47 27 24 38 30 40 37 38 47 33 32 28 43 31 30 32 25 38 30 34 33 30 28 30 34 30 33 33 26 39 30 32 27 26 33 44 39 50 36 30 31 32 22 32 36 30 40 32 27 26 34 31 34 26 32 33 25 31 33 28 31 24 28 26 31 28 32 37 27 25 34 34 37 44 25 35 34 32 33 28 34 37 33 31 33 33 38 32 36 46 39 35 28 19 41 45 30 32 36 26 34 35 30 30 37 39 25 30 40 48 27 48 35 26 43 29 44 33 29 33 35 32 39 60 29 34 36 33 22 35 22 26 32 32 28 28 35 28 40 43 36 35 31 37 33 39 21 32 37 34 30 50 29 39 46 32 41 43 41 24 40 35 31 31 39 37 40 34 29 23 27 36 40 28 38 47 31 35 38 26 36 31 34 33 46 30 29 47 23 39 34 34 26 34 37 32 37 28 36 30 30 31 28 32 33 23 31 34 25 39 32 28 33 29 40 37 25 41 39 33 27 30 44 30 32 23 33 28 37 26 27 27 30 42 31 23 39 34 36 16 24 28 37 31 34 31 20 29 31 25 42 25 30 41 36 31 38 36 30 26 43 33 37 40 31 30 30 24 32 22 37 29 37 37 33 39 31 27 30 27 28 33 38 29 29 36 33 32 28 40 32 36 41 31 39 24 37 34 32 32 33 34 27 36 52 36 26 22 28 36 32 33 37 37 45 28 33 34 25 39 35 25 32 21 28 32 30 33 32 27 36 34 30 38 38 30 30 25 26 35 31 37 33 33 42 34 28 31 32 41 42 38 42 42 33 37 36 46 41 29 39 26 28 34 34 32 35 30 35 33 27 32 36 38 40 24 27 30 28 38 38 31 40 30 24 30 26 38 27 27 46 40 41 34 28 38 27 28 32 37 32 31 38 23 48 27 29 40 33 30 46 42 46 36 33 43 28 37 32 43 37 29 39 40 27 33 40 34 31 29 30 41 35 31 39 38 34 23 27 31 32 30 36 32 37 37 38 32 39 29 38 26 27 40 40 32 28 44 29 40 27 36 35 39 35 34 35 37 45 33 26 45 31 30 36 29 27 21 32 30 32 31 41 25 47 26 28 33 36 32 31 41 39 34 34 34 40 26 38 28 29 39 34 39 32 30 30 31 40 30 37 27 39 32 32 30 31 19 35 50 32 37 37 29 34 47 29 27 31 33 42 28 35 33 23 35 41 37 32 24 37 37 24 28 37 30 34 29 34 30 24 33 27 32 24 43 26 39 27 28 29 33 31 35 34 39 36 33 27 30 33 33 36 40 31 29 34 27 37 37 36 33 39 37 47 16 40 36 41 34 33 24 36 34 42 30 40 30 36 33 37 35 37 32 27 40 32 35 26 23 35 39 36 44 29 30 30 37 36 34 42 35 26 25 48 16 38 27 42 33 45 39 44 28 32 27 41 36 27 33 39 28 31 46 32 30 29 40 23 30 28 37 35 43 31 30 40 31 25 40 32 30 33 31 21 29 21 34 27 33 36 48 30 31 36 23 31 40 30 36 25 24 34 41 40 35 28 29 35 35 37 38 33 30 39 32 28 32 18 35 32 34 33 33 29 33 34 27 31 36 35 42 34 35 35 30 23 33 37 38 37 22 40 32 37 21 38 34 31 27 28 36 39 31 30 30 40 29 36 32 29 36 24 33 27 29 30 41 29 32 29 26 39 30 38 27 31 32 42 26 27 37 44 32 26 38 31 39 38 25 37 36 38 31 26 38 42 35 33 31 39 37 28 41 32 35 27 26 43 24 26 31 30 25 25 30 28 29 33 33 35 29 40 31 28 26 25 42 36 27 38 26 23 29 41 42 38 41 23 30 25 22 39 36 39 39 31 33 27 43 29 29 41 30 28 28 23 37 33 37 38 25 36 37 34 28 23 33 35 39 36 37 46 45 34 39 38 28 30 25 27 35 28 32 29 35 29 34 23 39 35 32 35 44 24 28 27 29 32 34 37 31 27 37 35 34 25 29 34 29 43 41 31 23 30 28 31 34 27 31 38 31 41 40 37 34 31 30 27 46 29 41 23 29 38 30 34 37 43 24 40 38 34 31 27 26 24 27 32 34 38 34 27 39 33 30 39 34 32 39 33 36 29 34 35 31 26 32 27 42 32 31 38 36 32 44 43 37 30 38 31 34 41 30 36 32 31 42 32 33 45 34 36 35 43 27 26 19 20 45 31 31 35 39 35 56 32 23 39 39 46 37 32 40 33 31 32 38 35 30 32 33 36 30 38 36 36 33 37 35 28 35 35 27 31 30 32 49 38 30 35 43 26 35 40 32 42 38 39 28 34 41 31 35 25 26 42 36 37 34 29 45 38 30 35 27 32 30 29 28 38 42 45 33 36 39 34 38 31 38 26 28 26 37 33 39 42 45 29 32 35 29 27 31 20 29 30 30 31 37 38 33 37 32 28 26 35 38 29 28 30 42 31 25 28 28 28 31 34 28 39 31 32 34 37 38 39 31 29 30 34 35 32 22 35 35 25 18 29 32 30 49 30 24 27 33 36 37 30 30 25 27 28 36 29 43 32 30 43 39 36 28 18 45 29 33 19 36 26 35 29 40 26 28 48 30 28 33 27 30 40 35 29 34 24 22 37 34 31 32 31 45 40 42 24 30 30 27 26 36 46 27 24 26 21 51 26 31 33 30 32 28 33 39 21 26 37 31 37 29 34 30 41 29 30 23 27 34 31 27 38 34 31 27 28 39 39 28 40 51 49 32 39 30 19 33 32 34 27 13 27 32 39 39 32 32 31 29 40 30 29 30 34 29 40 25 44 40 22 27 30 35 27 47 28 38 37 45 41 40 32 30 35 30 32 38 27 25 48 32 25 47 40 27 33 43 31 34 23 38 27 32 32 36 33 28 24 31 23 40 29 39 25 30 35 28 44 36 34 23 35 27 42 37 33 26 33 31 32 39 27 27 28 26 43 33 34 34 46 36 32 28 33 41 31 24 31 38 37 39 45 25 31 40 32 29 33 39 24 40 37 32 30 34 19 29 32 27 36 37 33 31 38 36 31 31 31 27 50 24 32 26 24 40 25 28 33 22 27 38 33 26 42 38 30 41 34 36 40 30 39 26 24 37 43 31 26 34 29 36 41 35 33 33 43 30 31 29 30 29 30 27 28 29 22 32 30 26 33 31 50 37 39 35 36 30 32 36 48 32 38 34 45 33 28 36 32 22 34 44 23 30 34 26 44 32 43 28 33 33 37 36 34 25 25 36 33 37 37 24 36 31 42 29 29 41 26 46 23 30 38 29 28 33 32 26 25 25 17 27 44 36 45 33 31 18 29 35 31 31 38 26 32 29 25 40 26 28 29 33 34 41 36 32 24 29 31 32 34 41 32 41 33 25 33 34 43 43 32 34 36 34 32 28 38 35 31 31 36 26 44 30 32 28 30 27 28 41 38 38 25 32 40 24 33 34 37 27 21 40 26 31 49 31 38 32 47 42 39 38 34 35 34 30 32 28 41 30 32 38 31 37 35 29 31 33 33 35 31 33 25 27 44 39 33 28 33 35 34 32 38 27 31 23 46 37 32 31 36 27 43 44 23 24 29 28 26 20 28 27 36 31 34 27 24 29 26 21 32 27 32 37 34 42 21 29 25 32 25 37 47 43 21 32 27 35 44 42 33 29 33 32 42 37 38 32 33 43 29 43 40 25 27 36 37 44 27 34 37 44 36 32 28 38 24 34 32 32 32 35 32 39 47 33 30 29 29 37 31 28 27 26 33 32 28 44 41 48 50 28 35 23 37 37 31 31 38 30 27 31 45 32 30 27 38 35 32 25 29 25 26 36 35 29 31 32 38 37 30 37 36 31 28 31 30 30 31 40 25 27 47 37 32 23 34 46 27 27 29 35 32 34 44 39 37 34 28 30 35 36 33 35 31 34 32 32 30 33 33 31 32 31 28 30 42 33 36 50 32 38 34 29 34 29 30 28 41 29 24 37 42 40 32 35 31 26 25 35 44 38 27 32 32 38 25 29 39 36 27 34 37 32 34 34 24 36 36 34 37 35 42 28 42 22 27 36 27 32 20 32 33 60 31 36 23 33 30 39 55 45 33 37 35 36 36 30 35 34 37 33 33 36 36 42 36 38 43 28 28 35 31 41 19 36 22 42 35 32 32 36 32 42 36 30 36 34 30 33 20 21 42 35 32 40 36 27 32 31 31 30 34 31 33 38 41 37 37 28 34 26 31 21 31 33 26 35 31 31 29 29 34 36 26 29 27 37 45 33 39 36 35 36 24 31 34 36 34 20 30 28 36 37 31 38 27 30 39 40 31 28 34 32 50 30 36 36 34 51 36 37 31 30 32 32 41 39 23 41 32 36 31 34 34 29 41 45 38 32 39 28 25 29 26 28 32 27 27 34 39 39 27 30 39 27 35 37 43 38 27 30 29 24 36 30 37 34 36 28 39 44 28 39 33 29 30 32 33 37 45 41 44 39 35 36 39 36 30 31 35 22 35 41 32 29 37 48 33 38 39 36 24 39 43 32 33 31 37 40 30 37 27 30 41 30 33 34 20 27 35 42 39 29 43 31 30 33 31 33 29 26 42 29 33 40 29 35 37 36 37 29 37 44 31 35 28 28 29 34 32 38 44 33 27 37 26 35 37 38 28 23 44 27 35 26 35 39 39 34 35 16 34 39 25 38 27 40 41 33 40 25 39 35 49 46 35 43 19 41 22 31 37 34 37 35 43 31 30 37 24 38 36 40 40 36 36 39 32 22 28 39 36 27 30 37 31 28 31 30 39 28 39 31 51 44 40 40 32 31 25 41 34 33 34 25 34 36 42 34 33 35 25 35 29 26 31 32 37 36 31 35 43 30 28 37 52 42 43 38 27 33 33 31 26 41 48 33 40 43 40 42 30 31 40 39 32 46 30 36 31 39 31 38 36 25 35 31 35 39 31 42 36 25 36 30 29 32 35 34 29 34 26 26 36 28 20 32 26 31 27 39 34 29 30 35 40 41 39 34 39 27 31 53 27 33 37 24 42 26 31 27 38 34 44 43 38 34 33 33 41 26 37 33 32 21 33 42 29 40 29 40 31 33 29 31 31 28 39 42 38 45 39 41 30 34 29 34 29 29 30 25 35 33 29 24 32 30 30 30 39 31 33 26 38 24 35 28 31 24 35 43 25 26 37 43 39 29 31 35 29 52 36 41 33 20 33 33 40 29 35 44 35 34 33 29 20 48 36 22 31 43 27 25 40 47 36 28 51 28 36 39 33 33 30 38 29 35 38 33 46 34 36 33 37 37 23 25 32 30 30 41 45 40 33 37 32 39 33 43 28 38 30 38 28 34 28 38 33 39 40 28 37 50 32 38 30 37 42 28 27 21 32 37 22 33 32 29 28 31 36 28 40 35 30 35 26 33 26 41 22 31 20 29 43 38 33 28 24 30 29 25 29 37 24 40 31 25 35 30 31 25 31 34 30 25 23 36 32 32 25 29 28 32 29 38 23 32 30 24 34 37 36 29 21 33 28 41 30 29 26 34 34 43 28 31 31 35 32 32 26 33 34 35 53 40 29 45 33 32 33 25 29 32 29 24 33 24 28 35 35 31 41 32 42 42 28 41 37 28 27 20 27 30 33 38 35 35 31 23 32 32 32 32 33 34 37 37 43 34 32 41 39 34 34 30 42 37 28 36 38 33 32 29 25 36 29 32 36 34 40 36 32 32 35 27 38 32 27 37 44 34 33 33 28 25 24 37 27 34 37 31 27 42 33 35 27 29 29 35 34 34 28 36 30 44 40 31 38 30 36 34 35 33 35 31 42 39 50 38 26 33 30 39 31 34 31 29 37 29 32 41 39 26 37 38 31 29 35 38 32 35 24 28 29 35 36 28 42 26 36 30 32 30 28 29 35 44 38 26 36 31 34 44 46 29 32 47 37 37 45 18 43 27 33 18 32 43 33 33 40 38 37 41 51 39 38 32 33 36 32 34 30 35 37 28 25 28 34 27 33 27 22 29 39 41 29 34 36 35 33 28 31 46 30 33 25 23 32 33 31 39 37 22 31 29 50 42 33 31 38 37 37 42 28 34 36 34 28 34 34 35 30 24 52 26 33 41 41 30 34 31 49 32 33 35 30 26 39 39 28 28 31 32 27 31 28 36 38 43 37 34 31 42 42 33 40 28 37 30 37 29 29 33 39 31 47 29 32 27 40 30 44 32 32 42 25 39 29 60 44 35 38 39 38 31 27 40 28 43 34 37 23 38 39 33 33 39 28 42 32 27 27 36 30 32 36 36 29 37 35 37 29 39 35 35 26 39 30 30 22 26 26 33 32 46 27 37 32 36 33 25 31 30 26 32 35 33 22 26 31 40 35 34 39 30 30 34 36 44 27 27 33 32 41 42 28 28 35 35 41 30 28 38 32 25 29 26 46 29 29 27 31 35 25 28 40 35 24 42 21 33 31 36 29 28 37 31 39 36 29 30 35 48 49 32 28 41 28 21 29 36 36 28 35 23 28 29 27 33 42 37 39 30 21 45 32 33 33 36 31 46 37 36 35 34 22 44 28 34 30 44 43 24 27 27 29 37 33 27 33 37 25 32 37 35 28 28 38 29 28 31 29 37 22 36 31 37 30 28 36 24 28 42 28 34 36 26 27 24 33 27 31 36 21 22 34 28 25 30 30 23 47 28 32 33 32 33 34 41 42 27 49 38 30 26 31 36 29 21 32 26 32 27 35 30 26 38 39 38 36 35 38 30 39 24 30 29 34 27 36 42 41 32 44 39 31 33 37 28 42 34 28 36 31 33 41 28 47 33 33 25 36 29 30 37 39 31 41 33 38 36 27 26 26 40 44 38 25 35 30 36 33 20 35 39 31 22 30 24 33 43 38 34 32 29 36 21 26 36 25 34 38 33 25 34 28 42 39 31 36 34 44 36 37 28 47 29 37 34 29 29 32 32 32 30 34 27 35 34 27 38 30 31 31 38 55 30 25 35 34 22 43 42 23 25 41 32 45 38 35 51 28 35 29 33 35 32 33 31 30 27 28 36 35 45 37 37 33 31 31 30 32 34 37 26 39 27 26 27 36 39 28 34 36 31 33 46 30 35 26 33 39 33 31 34 32 30 38 39 32 37 35 23 35 38 28 29 37 36 30 31 48 38 33 28 32 35 30 38 39 31 32 33 34 39 26 34 26 39 30 38 43 32 36 41 37 23 50 28 31 31 34 30 25 32 40 29 29 33 25 31 33 44 32 41 37 33 37 39 34 38 30 35 44 36 25 34 31 29 41 30 42 26 47 34 35 37 34 30 34 30 39 32 33 27 23 34 30 38 32 40 31 29 38 37 37 29 38 49 37 48 29 38 24 33 37 37 25 50 32 28 39 17 41 41 29 25 31 31 40 34 32 36 28 24 25 38 37 39 38 34 36 25 34 39 30 43 35 32 26 38 30 37 34 26 34 23 36 38 39 29 32 31 41 23 34 40 38 34 32 33 50 35 28 35 32 30 38 31 33 30 36 35 38 38 35 32 38 39 28 34 24 34 37 35 36 28 33 48 47 29 28 35 43 29 29 32 20 23 27 26 33 27 39 26 27 34 33 27 27 35 32 43 27 36 26 36 31 30 38 33 42 44 33 37 24 39 29 25 33 29 40 36 34 31 38 33 25 31 43 33 29 26 36 32 25 37 29 25 33 37 30 31 35 36 30 27 37 28 39 33 31 37 35 28 32 27 41 30 32 35 35 28 27 28 30 29 31 33 41 32 37 41 34 29 28 36 37 42 25 28 21 35 37 48 26 32 29 32 34 37 34 32 36 46 32 50 47 31 34 37 30 29 32 35 32 28 41 34 32 33 40 26 30 32 34 32 44 35 29 37 36 35 34 34 31 23 35 48 31 36 34 27 44 32 28 27 32 24 29 41 31 43 33 33 37 36 40 31 22 28 40 31 25 36 37 39 32 33 37 34 28 29 33 34 27 27 42 24 38 23 40 43 26 26 31 33 35 34 33 27 34 31 33 34 27 36 27 23 35 35 34 23 31 40 30 31 27 32 36 36 29 30 43 32 22 37 39 38 26 34 44 41 35 30 42 45 49 29 31 36 34 31 31 41 35 31 31 44 28 23 41 37 32 33 38 42 38 35 30 39 24 34 43 43 30 30 34 34 28 39 41 33 46 31 38 29 41 30 33 22 35 29 32 41 22 25 34 22 28 35 30 41 31 28 34 37 31 34 32 32 36 34 24 40 29 29 33 35 28 37 24 29 25 36 45 45 49 40 33 45 32 29 32 42 37 28 38 42 28 25 27 36 36 40 31 29 33 41 34 29 49 42 26 36 33 39 22 31 24 29 33 31 33 25 34 27 34 40 34 35 30 29 31 31 36 29 25 38 38 32 26 39 37 28 26 28 31 33 33 29 31 39 43 42 26 38 32 26 34 29 32 44 39 25 31 22 23 37 33 28 40 41 42 36 35 28 42 35 36 37 30 39 34 30 30 34 31 30 46 37 31 44 34 23 37 33 33 35 39 33 32 42 35 38 27 36 35 36 30 26 26 37 36 41 37 36 33 34 29 24 36 26 35 32 36 50 36 31 38 31 36 33 30 29 29 34 31 26 38 33 32 37 41 31 30 43 27 33 44 35 32 39 30 33 28 28 33 29 30 27 35 39 32 28 31 36 26 34 30 29 29 25 27 37 31 28 29 21 37 32 30 29 34 27 38 33 25 29 28 26 40 24 34 29 22 33 31 38 37 34 25 31 33 32 41 35 29 30 31 45 36 30 30 30 30 39 30 26 25 32 34 37 35 27 32 33 24 42 25 40 31 30 40 31 27 23 29 39 31 33 39 35 38 38 33 22 33 30 38 33 31 31 29 41 31 29 35 30 31 35 45 33 29 31 26 24 30 32 31 27 41 43 39 32 25 27 27 35 36 34 23 33 37 39 39 32 27 35 33 46 33 29 27 34 35 34 32 29 45 37 39 24 23 36 40 47 28 32 32 29 29 41 31 38 33 28 29 26 39 45 41 46 33 20 42 33 38 31 26 46 33 40 36 29 32 36 34 36 28 22 37 30 31 24 29 33 32 31 31 30 26 31 37 41 27 29 27 28 36 37 33 37 37 28 28 29 33 29 40 30 43 34 34 28 29 39 31 34 31 38 38 33 39 36 40 38 32 35 39 28 39 41 39 28 37 26 36 34 38 30 36 31 37 32 27 32 36 23 31 39 36 28 32 43 31 31 29 30 33 41 32 31 34 28 34 31 27 39 33 34 35 27 30 20 35 34 33 39 30 30 33 33 33 32 38 29 35 31 43 34 36 38 28 28 42 29 34 33 39 25 34 29 32 41 35 32 31 29 26 32 39 27 20 30 43 33 30 37 30 26 33 39 33 27 25 23 25 28 33 22 33 33 37 35 38 27 26 25 33 29 28 29 41 32 35 39 31 27 28 33 30 35 32 39 26 36 28 21 35 29 27 35 31 31 40 25 28 38 34 31 50 33 32 28 35 32 33 35 42 29 24 29 24 37 24 31 36 21 34 22 33 31 20 30 38 40 25 28 34 39 28 42 41 35 27 46 33 43 36 34 30 30 32 36 37 23 30 31 27 34 31 35 37 37 30 35 41 33 37 30 39 32 26 32 31 31 32 35 34 36 40 32 25 30 42 30 29 28 33 39 24 27 37 45 32 29 40 31 21 36 35 41 38 27 34 29 30 24 25 27 31 38 46 26 27 32 29 28 33 33 34 33 32 39 33 29 43 49 33 44 32 25 25 29 25 36 45 30 28 31 31 23 33 31 24 30 36 28 29 36 30 33 40 45 38 28 41 28 30 23 35 38 37 29 45 33 28 35 36 42 36 36 45 35 38 42 37 49 26 26 37 22 35 30 28 42 28 38 27 31 35 34 28 35 29 32 32 28 24 42 41 30 41 42 37 35 31 35 39 31 36 38 27 28 31 44 27 42 40 37 28 34 45 47 22 32 34 32 36 40 44 43 37 33 32 29 40 31 40 42 51 32 30 37 38 26 29 23 37 31 32 38 40 36 44 23 31 30 33 29 37 26 35 41 42 38 40 40 32 35 34 27 35 40 25 27 33 34 26 24 30 29 40 23 27 50 38 38 34 33 35 27 23 32 31 25 35 36 29 25 38 40 30 25 31 34 33 39 23 39 45 30 52 23 30 37 25 32 34 36 35 43 41 41 40 25 39 26 30 33 44 32 28 34 39 46 29 48 51 35 42 31 29 30 37 37 29 21 40 40 35 29 39 27 36 28 32 32 43 26 33 21 33 31 30 33 31 42 34 25 47 23 42 27 26 35 36 41 41 30 28 33 26 36 32 26 36 36 25 25 47 29 35 33 28 20 33 37 34 38 48 32 27 29 31 24 29 39 39 28 27 33 31 31 30 26 37 40 34 35 41 32 40 30 50 43 33 33 27 35 34 38 35 37 24 30 31 31 51 30 28 30 27 29 44 45 29 34 39 28 35 33 24 32 26 34 24 47 37 23 40 30 23 34 33 33 31 32 38 35 39 31 36 28 29 31 42 27 33 28 39 35 32 35 32 27 37 20 39 43 29 40 28 43 24 36 24 27 30 28 31 28 28 36 19 36 30 30 34 22 48 42 27 37 36 28 29 36 36 30 28 25 33 28 43 25 37 42 38 26 34 37 42 28 33 31 26 30 31 33 24 31 29 38 38 36 45 29 35 42 35 23 32 34 37 26 29 35 33 26 42 41 39 35 27 37 30 32 37 40 28 33 49 25 33 46 30 37 34 27 37 35 24 35 31 32 26 45 30 27 35 29 31 28 53 37 48 26 23 34 29 29 26 35 35 16 35 35 31 31 34 28 20 36 29 31 32 31 28 29 32 38 37 39 34 30 35 32 35 33 39 57 33 49 31 29 29 28 24 26 30 33 34 27 34 29 35 40 39 44 31 35 36 42 25 26 38 31 32 27 43 36 38 28 31 32 42 27 34 32 33 28 31 25 29 31 25 36 44 38 40 34 28 34 28 27 31 22 35 46 27 38 33 31 35 35 41 40 38 29 31 29 38 31 37 57 24 31 41 34 30 43 33 38 32 39 37 41 32 35 32 28 29 32 49 29 38 40 26 31 29 33 36 35 32 34 29 35 31 28 28 38 34 32 33 45 32 34 36 25 28 28 28 37 44 30 27 27 37 33 28 31 36 51 29 26 27 30 38 28 34 36 24 33 35 35 33 37 29 30 40 41 29 26 31 38 38 46 32 36 37 36 33 27 30 32 35 30 39 39 27 39 30 35 29 40 33 25 41 27 25 35 39 32 42 35 29 34 34 33 36 29 28 36 38 21 43 27 39 32 32 24 34 39 31 33 24 43 30 44 40 35 24 43 34 25 33 28 23 31 52 21 32 30 34 26 35 40 32 35 32 33 24 32 35 38 29 39 35 23 30 35 39 31 38 34 43 31 34 32 28 37 36 35 36 27 42 34 33 25 23 28 30 33 38 25 46 32 34 33 39 46 42 34 26 35 32 35 24 40 31 34 39 36 39 33 29 29 40 27 20 51 39 38 30 27 32 37 32 37 35 49 21 32 38 31 30 38 38 33 34 40 42 33 32 33 28 27 35 32 34 43 42 51 28 41 33 32 31 32 36 25 34 30 38 39 27 25 19 32 25 31 40 30 40 33 26 41 37 40 31 34 45 16 34 20 25 40 34 35 41 28 22 40 42 32 21 26 42 25 32 44 36 41 33 35 31 35 31 25 30 32 31 33 37 38 23 24 33 37 32 29 21 21 55 34 28 28 33 30 28 35 22 38 33 37 36 30 30 31 33 37 28 30 37 26 26 35 48 31 34 24 35 38 37 38 37 43 26 33 37 35 43 43 39 38 31 40 44 35 35 25 35 30 28 41 32 38 49 36 39 38 39 25 40 30 37 22 29 31 37 44 36 33 34 35 42 21 27 30 42 30 32 36 37 28 29 35 44 40 34 34 32 24 31 30 31 40 35 33 35 29 33 37 32 30 44 26 25 37 32 32 28 37 29 30 32 27 31 33 28 21 26 35 29 41 28 30 29 40 30 46 27 40 32 43 29 30 21 17 35 26 36 36 28 31 28 30 43 47 40 30 26 32 35 36 29 28 34 29 29 42 33 36 31 33 35 37 43 33 36 40 34 31 32 44 38 26 28 31 29 28 27 31 38 30 32 32 33 30 29 31 33 31 30 30 37 38 32 27 37 34 37 32 37 38 33 22 34 32 40 52 36 25 31 22 31 27 28 33 41 36 31 34 47 39 32 28 25 38 29 28 29 28 32 30 31 37 34 35 34 29 31 33 28 37 39 35 27 29 37 31 40 53 36 41 25 25 38 26 35 42 39 37 34 27 33 37 30 30 32 27 32 30 27 34 37 33 35 24 24 37 43 30 43 21 29 26 38 38 38 32 24 37 29 30 33 31 25 31 30 36 37 34 31 43 27 42 38 33 28 39 32 39 24 38 36 23 27 40 39 31 34 36 35 29 47 38 30 32 42 34 36 34 31 29 25 40 36 26 34 38 34 42 32 36 37 35 31 34 32 32 26 28 36 29 41 26 37 39 31 30 25 33 25 29 41 29 50 42 33 41 42 38 31 29 28 36 28 29 37 40 26 29 34 34 38 33 23 37 43 30 40 44 30 30 28 29 34 31 38 41 39 35 31 40 31 33 21 42 43 30 36 40 39 27 26 41 35 39 30 28 28 29 36 44 35 31 34 47 25 31 36 38 44 27 41 30 31 31 23 35 36 21 39 35 27 35 30 38 28 29 38 23 25 33 32 24 33 28 39 34 30 38 41 30 37 37 43 38 39 37 36 30 30 33 34 25 39 44 29 26 35 33 27 42 36 42 37 41 26 41 37 28 31 32 29 37 46 26 38 35 37 31 27 41 26 31 36 42 35 29 39 32 34 37 35 43 33 39 40 38 32 25 30 32 32 46 38 32 39 28 30 24 29 23 32 37 31 41 36 24 25 42 41 38 39 31 39 24 32 37 31 32 38 29 39 35 32 43 25 33 29 30 34 34 36 35 28 26 44 35 29 43 29 24 32 28 31 34 29 30 41 31 33 44 52 29 37 31 31 36 32 27 32 20 34 34 41 39 33 31 31 34 28 42 29 35 36 35 41 28 24 32 41 25 29 28 30 31 33 33 29 33 24 37 35 42 28 34 33 35 27 34 38 26 31 37 36 36 31 25 32 44 49 33 28 40 33 22 28 39 42 27 29 34 29 32 26 37 24 50 38 36 32 28 39 39 39 36 47 29 29 36 28 34 30 30 34 31 43 27 34 35 35 26 41 34 38 31 42 29 24 38 32 25 37 32 34 40 31 46 29 27 35 37 35 44 29 34 30 24 23 29 32 37 39 26 27 39 38 28 44 37 25 36 31 31 33 40 31 31 30 35 29 28 33 41 33 41 32 26 30 40 35 38 41 32 22 21 42 30 39 40 28 37 28 26 27 35 38 25 44 38 35 42 34 27 40 41 42 42 35 34 37 27 30 34 42 33 32 29 36 35 44 40 49 40 40 37 33 39 43 31 30 34 29 46 45 28 32 32 32 40 34 28 35 32 40 27 36 31 43 31 32 21 23 29 32 30 37 30 28 32 29 39 29 37 35 33 30 40 29 42 31 31 26 32 43 21 28 28 28 40 44 38 36 34 27 38 42 37 35 29 31 29 33 35 30 32 34 35 29 27 34 30 37 27 31 34 28 27 35 27 38 36 18 32 27 24 30 32 29 43 26 25 30 35 34 29 33 43 45 30 28 45 35 33 36 30 23 26 30 29 34 39 31 32 34 32 26 36 23 32 31 34 27 50 29 35 37 31 29 36 29 46 31 34 35 31 32 30 52 34 36 37 28 30 33 36 38 33 38 25 28 23 35 25 50 34 30 30 30 30 35 39 26 32 27 32 41 37 33 38 38 26 38 36 30 31 42 29 29 27 32 36 35 24 40 30 35 39 46 39 22 28 35 27 29 27 33 30 34 33 23 36 34 32 45 28 30 23 25 27 39 29 33 33 39 33 45 27 25 31 26 42 34 44 35 45 33 31 39 22 39 24 29 31 36 38 27 33 36 39 41 55 27 38 26 44 35 32 30 40 33 30 47 19 39 35 39 29 36 32 28 27 32 28 36 22 40 41 31 29 29 28 33 35 36 34 37 31 34 23 36 41 39 29 19 24 26 30 33 36 29 41 32 37 27 38 31 28 27 37 33 28 37 42 26 30 38 45 19 32 30 34 19 33 35 41 30 31 26 51 23 20 31 30 32 42 31 25 35 26 33 32 38 43 48 37 35 28 36 28 42 33 33 27 43 43 36 28 26 34 33 36 44 33 22 36 29 43 33 20 28 29 33 41 32 31 31 24 31 43 23 34 28 41 30 23 27 36 16 26 23 26 37 23 32 43 27 33 34 25 33 34 37 30 29 36 34 30 38 29 35 41 34 33 35 26 27 30 38 28 32 27 30 30 32 35 25 32 33 37 31 35 33 38 29 34 25 28 35 36 29 48 34 29 37 36 28 28 30 26 30 32 31 32 35 34 32 38 30 46 41 26 34 19 38 29 47 33 35 35 27 30 33 41 29 31 37 48 30 24 33 26 33 37 36 33 39 42 28 31 38 29 38 26 34 35 32 25 35 39 31 16 37 46 29 35 26 37 36 50 29 35 35 29 37 41 27 33 28 36 24 30 35 32 24 23 33 29 47 28 29 36 35 44 36 37 26 28 36 38 39 26 33 44 39 36 35 25 33 22 23 27 36 30 38 31 36 29 35 37 30 29 40 33 38 27 37 36 25 29 31 40 37 34 32 34 29 27 28 29 25 35 52 29 29 30 32 32 26 31 35 26 31 49 25 31 26 18 40 29 31 30 26 45 46 42 41 39 40 36 28 32 26 39 32 29 30 30 24 41 28 20 26 24 23 31 31 25 39 30 37 31 26 29 28 38 42 26 32 33 36 25 38 40 37 38 41 30 34 26 39 39 40 29 35 26 25 28 28 33 23 38 34 30 27 49 32 24 36 28 22 43 46 41 28 37 28 37 33 29 32 35 31 33 31 33 30 24 28 41 35 40 30 30 27 38 35 33 28 28 26 33 36 26 43 35 36 26 33 35 46 25 41 41 27 34 36 32 32 35 34 46 35 36 29 37 30 35 36 31 27 30 30 34 29 37 30 26 26 32 40 34 32 26 30 30 27 32 31 33 43 36 32 31 40 31 42 44 45 31 37 33 32 35 27 36 28 39 26 34 24 35 34 30 26 22 32 43 33 32 34 38 30 31 38 21 33 38 22 37 38 43 34 45 32 35 31 29 34 37 27 39 46 33 23 32 30 41 39 38 31 40 33 41 29 22 38 30 30 42 36 36 41 31 29 32 31 40 28 30 32 37 37 41 24 31 37 28 32 24 34 30 35 38 32 44 22 34 32 34 30 33 32 29 35 22 32 36 35 36 39 23 28 36 44 34 35 22 34 32 32 29 32 26 38 40 30 31 26 28 30 30 39 21 28 27 32 29 28 29 40 34 27 28 28 39 30 24 24 30 40 50 29 41 36 34 44 28 24 26 32 36 35 30 29 34 24 43 41 35 37 29 32 34 23 29 26 31 42 29 26 41 40 31 33 23 35 32 27 36 35 26 38 41 31 34 43 17 39 37 38 31 35 32 36 37 30 23 43 39 34 36 30 23 33 31 34 40 29 27 27 34 38 23 36 26 29 29 29 36 45 30 28 46 43 33 24 37 33 50 36 38 30 38 24 32 40 27 38 45 36 27 29 39 28 38 28 36 39 35 52 28 25 31 32 27 20 33 36 42 30 28 26 29 43 24 29 32 34 39 25 23 31 28 31 36 47 34 37 24 36 22 31 31 29 33 39 25 40 38 30 35 35 25 40 19 40 30 25 27 30 25 24 37 34 43 42 26 38 34 21 41 30 28 27 35 31 37 34 43 36 33 38 48 23 33 31 34 26 15 39 37 41 28 38 33 40 34 28 28 35 30 30 34 47 37 32 28 31 19 36 29 31 27 37 24 37 34 30 28 39 30 32 38 30 32 42 44 37 25 31 43 37 30 34 27 22 35 41 27 26 38 21 29 39 27 27 31 43 38 29 32 25 27 37 36 29 24 29 35 32 38 36 30 30 39 33 28 34 38 31 26 45 29 31 35 45 30 28 21 30 27 25 35 38 23 38 26 26 33 46 28 32 30 34 36 31 34 31 33 31 37 42 34 32 45 30 40 27 27 46 37 32 38 32 35 37 29 42 42 33 30 32 32 33 36 31 30 23 46 41 36 27 39 36 29 33 34 32 49 25 38 36 34 35 27 33 37 47 36 31 34 32 29 37 33 33 36 32 20 32 40 36 27 36 26 26 38 43 39 35 37 27 35 21 31 27 43 29 36 29 25 35 46 27 29 27 32 33 28 42 35 28 41 27 36 40 34 23 36 40 37 28 22 22 35 28 31 35 40 37 42 32 26 39 28 30 29 33 29 31 29 42 39 33 27 32 16 29 34 26 42 34 46 36 30 31 31 35 37 48 28 31 29 31 34 30 25 28 30 48 42 37 23 36 34 45 21 29 25 31 27 36 34 38 34 23 28 29 47 32 27 28 23 36 34 35 39 20 33 44 36 43 25 37 35 28 37 35 29 39 34 24 27 42 26 46 29 31 33 35 29 33 38 44 29 34 29 26 37 35 38 28 36 52 38 22 25 29 31 48 37 22 44 36 33 39 38 40 40 24 49 26 26 28 33 35 33 30 32 31 27 23 35 37 32 25 35 34 44 39 30 38 34 36 33 31 32 36 29 32 22 39 34 24 32 37 31 34 20 25 31 36 44 35 24 39 30 28 43 35 27 38 29 25 25 39 26 42 32 31 35 17 26 25 32 26 32 29 29 24 36 52 35 40 30 38 30 38 33 38 26 25 23 31 29 34 32 38 26 49 44 27 36 33 39 39 31 32 28 37 24 39 42 34 33 36 47 26 49 36 33 41 28 31 34 28 30 26 26 45 25 33 44 25 32 26 32 29 29 27 27 30 32 37 37 26 30 34 38 30 26 33 18 30 43 25 23 31 35 37 34 21 27 24 35 32 35 40 36 38 30 36 34 27 33 34 27 29 31 34 38 24 28 32 36 23 36 33 40 33 32 24 33 36 37 31 18 37 32 29 27 36 32 35 26 31 35 24 29 39 28 42 56 39 26 38 48 32 40 30 37 28 30 35 40 27 36 24 32 40 37 43 25 28 29 27 27 40 28 41 35 30 37 26 39 33 34 34 37 36 39 28 36 38 41 30 31 42 25 26 44 30 33 29 28 44 37 40 31 26 33 31 32 36 33 32 37 33 35 30 38 34 27 40 39 37 38 41 33 31 37 38 34 39 32 41 33 37 30 34 40 26 24 40 32 33 35 28 27 27 30 40 26 29 29 36 30 31 31 28 25 27 34 30 25 36 31 26 29 37 22 22 29 29 29 31 43 36 28 25 38 33 28 32 30 34 35 30 27 30 39 29 45 30 28 33 26 40 31 26 45 34 28 33 30 33 27 29 39 25 27 37 31 39 30 31 37 42 29 43 30 51 35 25 38 29 36 36 25 37 39 39 30 35 33 22 31 30 39 28 43 33 29 35 34 33 47 36 36 38 31 48 36 24 35 22 39 33 44 29 31 31 29 40 31 33 37 39 30 29 23 40 27 30 38 24 39 28 39 37 22 45 28 25 26 39 36 27 27 28 36 31 25 23 37 36 29 34 28 29 33 30 28 30 42 39 37 32 29 26 29 29 24 36 25 34 39 32 40 29 39 41 21 32 24 25 34 33 37 28 35 44 30 38 24 39 32 32 43 41 32 31 39 28 27 25 46 43 32 36 39 30 39 36 33 33 35 45 32 32 32 33 40 35 27 41 45 43 28 35 30 31 31 26 29 40 31 35 34 35 39 40 38 39 30 36 25 36 37 30 37 38 21 31 36 35 24 40 35 39 32 41 23 38 33 25 29 33 37 38 35 28 27 32 28 33 48 27 27 26 24 36 35 21 31 38 30 36 29 30 29 44 32 32 25 26 29 31 42 27 28 29 35 29 30 34 40 30 28 36 41 36 28 50 33 34 43 27 22 23 37 36 36 31 30 42 35 32 25 30 28 30 38 36 43 27 27 47 34 34 42 35 32 39 28 26 35 25 28 28 38 34 29 35 31 30 25 31 30 43 30 28 29 23 41 28 38 28 45 38 34 34 28 25 27 26 28 32 29 33 41 43 33 38 35 32 35 34 28 33 29 36 31 37 37 27 28 23 35 31 31 33 28 45 33 35 36 27 55 39 31 28 25 29 32 24 41 26 31 50 32 31 32 33 38 31 31 39 35 35 32 38 38 41 36 26 30 38 18 30 26 36 34 37 25 39 32 26 31 32 31 45 25 32 30 31 31 26 39 40 30 32 34 38 35 27 44 35 29 36 31 37 35 36 38 34 28 36 35 26 40 33 38 39 42 31 40 30 35 27 31 41 27 27 32 35 27 30 27 22 29 28 32 32 24 23 28 37 26 31 29 30 28 29 35 37 35 35 34 35 28 41 33 26 37 36 32 34 33 35 26 32 31 33 45 23 23 32 33 34 35 36 30 47 43 35 16 34 31 27 28 31 41 40 37 29 33 36 38 40 52 40 36 19 24 32 38 29 33 28 38 28 30 38 34 46 31 32 32 37 42 35 34 29 27 39 32 34 32 28 33 29 28 33 34 31 30 33 37 35 40 28 37 40 21 32 27 42 18 26 36 27 23 36 37 34 29 31 42 31 32 29 37 32 28 32 35 32 29 29 34 27 45 22 29 32 36 31 31 29 34 38 32 33 35 31 39 42 42 31 17 27 39 44 35 35 21 33 33 28 18 31 42 36 36 47 32 32 44 34 42 29 26 33 37 30 33 42 32 42 37 28 40 24 35 42 35 28 34 33 39 34 43 27 34 33 31 31 39 30 29 41 31 38 26 28 29 34 26 44 36 26 26 27 36 44 32 35 33 30 36 24 32 33 44 27 30 42 34 33 32 38 26 31 38 24 38 30 35 28 30 41 31 24 34 34 30 36 36 34 27 38 38 34 41 30 40 31 41 46 28 36 33 24 25 34 29 35 34 36 33 34 25 29 36 44 35 31 26 32 37 29 25 24 30 32 33 33 30 27 47 26 37 38 43 40 33 36 34 43 38 30 34 35 24 40 26 35 23 28 38 26 34 30 34 39 44 34 37 37 40 49 35 31 38 31 29 28 31 38 38 37 26 26 34 28 36 35 35 29 24 30 39 32 30 28 28 29 35 36 24 32 29 35 43 43 27 33 23 38 30 30 34 27 30 31 28 34 39 27 38 30 35 36 26 28 36 26 19 42 31 33 34 30 34 30 32 32 31 37 40 33 29 29 43 40 36 45 32 36 34 35 36 30 36 32 43 29 40 52 30 35 29 33 22 26 37 31 34 29 22 34 34 31 21 38 36 39 30 32 37 28 31 41 38 30 40 39 28 36 39 28 37 33 36 33 26 43 26 43 29 24 37 29 32 39 28 29 39 37 32 32 27 37 25 39 29 35 34 37 26 36 38 33 22 37 25 34 40 25 31 42 30 34 29 36 27 37 27 39 35 19 37 34 28 42 23 39 41 36 37 26 37 36 41 31 28 26 27 34 40 31 40 32 32 36 27 37 41 38 44 30 41 39 24 39 28 39 36 31 31 33 28 37 37 28 36 32 42 30 21 33 30 32 32 36 23 35 37 40 33 34 26 30 32 31 31 26 29 33 29 38 36 36 36 34 26 43 34 32 37 29 34 36 22 38 33 34 24 56 31 35 37 36 35 33 29 35 33 25 28 26 34 36 34 21 38 36 33 39 36 37 34 27 37 39 38 34 26 41 28 37 35 31 28 38 23 37 34 27 34 47 44 26 35 28 35 22 18 31 37 38 32 34 37 42 33 37 27 20 39 38 40 41 38 31 35 48 30 34 32 30 37 27 28 27 36 35 29 33 27 36 36 34 47 30 38 21 30 38 28 33 35 31 34 34 37 27 30 29 38 46 34 33 25 38 26 34 59 38 36 48 32 44 28 30 36 23 25 47 27 36 26 27 31 42 29 31 31 32 27 33 32 34 32 25 34 30 25 35 42 40 35 33 58 27 28 33 32 35 31 27 31 32 31 27 30 28 36 29 43 24 41 37 22 44 30 41 35 30 31 26 43 33 33 28 27 37 36 36 44 33 34 38 40 25 28 29 42 30 31 25 34 31 33 50 29 27 40 32 38 31 35 49 31 30 32 40 31 40 27 39 20 37 37 33 35 38 34 35 33 40 40 28 25 38 27 34 31 41 34 30 28 30 29 33 33 36 36 37 29 39 30 31 35 40 30 28 31 30 33 36 36 28 36 31 34 39 37 29 32 43 42 43 26 29 38 31 31 30 38 32 40 31 38 42 37</t>
+  </si>
+  <si>
+    <t>GAM(171.01526561835803, -386.5769545291484, 3.5099401354524122)</t>
+  </si>
+  <si>
+    <t>311 132 225 314 190 234 156 288 138 211 206 181 298 296 264 212 173 173 236 181 297 193 140 219 202 168 166 240 119 293 143 263 243 184 154 222 204 203 265 156 337 187 154 192 162 220 179 287 159 290 191 333 198 272 259 189 120 187 127 161 252 125 180 161 267 267 128 211 191 266 168 194 255 251 218 317 233 225 204 153 223 217 229 271 188 169 140 249 235 164 196 195 262 231 245 137 285 206 197 206 238 214 190 223 164 217 232 205 92 278 140 310 199 204 209 218 207 241 219 180 146 265 244 150 195 242 227 137 214 190 250 205 219 196 219 186 266 220 260 116 121 271 192 210 170 220 281 243 169 159 242 252 261 185 221 259 223 192 319 159 160 221 208 216 203 254 225 214 251 228 242 173 191 187 211 168 147 173 226 223 146 195 184 172 208 230 135 230 271 135 258 218 229 197 73 272 180 217 255 223 229 174 191 133 230 227 256 262 271 177 187 202 196 200 182 206 259 187 267 237 190 243 271 187 183 187 259 301 206 176 205 155 220 218 172 175 169 186 192 158 214 227 136 228 244 163 172 258 221 199 187 213 234 149 265 199 219 249 117 298 195 206 183 240 247 257 181 188 262 236 175 213 173 192 186 252 294 248 312 203 208 231 282 183 182 181 126 322 228 335 204 166 262 194 328 239 234 276 192 208 224 215 201 220 165 145 162 162 190 285 197 206 167 164 210 192 202 251 158 245 217 144 225 247 158 238 132 186 257 242 273 259 246 168 165 283 219 189 202 230 176 215 169 159 256 260 122 206 231 230 110 204 138 231 232 258 263 242 254 241 263 261 179 196 188 238 228 224 147 197 144 316 213 248 158 181 282 202 131 249 277 288 212 344 182 146 232 207 287 180 204 204 139 206 217 229 262 151 267 205 226 143 155 222 210 205 240 216 135 265 177 144 199 269 186 258 282 229 266 273 110 303 110 240 196 189 213 207 154 208 137 240 168 177 271 308 207 255 204 216 263 236 200 207 242 181 220 286 235 244 219 174 319 289 352 197 185 232 198 239 154 209 194 309 260 231 193 225 247 172 317 229 253 251 290 222 258 181 222 217 258 256 237 196 327 230 260 161 244 187 173 265 263 256 295 269 245 229 251 195 131 233 208 128 159 142 100 230 264 217 170 252 282 287 168 224 307 146 186 243 225 137 247 126 187 206 232 147 210 252 171 290 179 133 135 201 177 224 199 232 221 230 209 167 249 172 235 264 270 213 246 226 182 203 146 298 191 265 173 238 220 121 278 323 201 282 219 194 322 191 195 127 209 269 277 163 184 214 68 292 176 230 93 181 217 219 221 268 300 157 211 238 311 280 188 212 132 313 169 218 254 179 274 219 199 171 166 222 249 271 225 174 156 204 210 224 171 190 194 196 154 193 171 187 212 122 179 183 291 227 268 269 233 185 208 237 161 198 310 162 299 245 167 268 131 169 284 257 253 251 192 296 166 287 170 245 320 181 139 206 158 246 189 282 250 230 230 133 143 266 165 155 165 178 219 263 228 190 262 227 233 223 117 231 248 220 231 274 202 292 277 240 172 232 260 219 245 182 212 235 225 179 207 139 276 241 106 230 291 200 191 141 195 261 161 200 306 141 182 208 278 272 207 214 189 263 188 207 219 254 196 242 201 297 184 169 257 176 249 198 200 239 225 203 244 264 235 237 225 213 195 183 193 117 267 266 209 181 126 202 215 270 259 237 267 233 225 230 266 202 121 203 236 166 192 169 164 181 123 232 244 243 226 191 263 184 257 228 140 255 199 274 249 184 309 238 236 201 226 238 199 187 159 304 213 185 104 169 220 234 196 196 269 248 136 239 147 215 267 223 109 234 266 217 267 174 211 298 278 293 242 224 156 180 292 204 231 199 185 230 212 185 256 181 192 231 293 193 265 261 224 295 194 147 180 163 149 241 172 171 168 234 252 195 143 181 169 261 174 177 161 206 121 289 189 232 231 248 141 154 230 205 229 201 308 173 209 223 245 234 191 284 179 273 212 104 242 248 187 186 230 237 260 308 194 237 273 215 294 155 153 303 228 214 247 201 299 193 218 142 241 201 189 233 195 274 181 202 241 152 215 203 204 223 226 148 213 234 166 216 170 169 200 280 287 258 192 202 215 198 116 224 206 155 244 197 125 223 202 195 158 196 208 271 159 194 196 174 238 148 206 227 187 159 200 254 226 163 249 238 226 206 167 196 284 221 214 228 196 266 170 181 220 219 210 199 268 267 208 257 210 137 307 358 182 221 226 164 241 303 183 175 262 300 191 270 227 315 145 284 244 152 297 189 215 217 121 228 288 268 335 334 202 146 159 220 203 268 195 182 186 179 130 214 229 165 223 270 262 221 174 223 171 252 120 191 191 190 195 260 224 256 196 213 250 262 195 150 249 202 221 197 241 268 223 250 176 184 214 297 306 211 256 286 199 209 296 198 250 209 235 214 285 137 172 299 166 147 215 210 176 249 156 241 224 175 238 198 222 200 165 170 228 173 210 266 166 211 258 173 189 205 243 164 111 318 194 224 186 169 243 129 212 119 133 207 227 197 183 169 230 287 199 136 271 240 205 97 124 187 168 232 191 220 163 173 171 177 290 149 233 313 220 252 236 228 205 183 295 230 197 264 212 210 147 173 207 136 254 242 303 273 235 244 221 165 209 174 173 189 243 163 148 278 240 193 190 247 242 199 300 200 201 129 259 153 193 160 187 227 191 202 282 236 197 147 158 136 233 192 212 265 232 180 219 184 217 248 223 196 224 112 170 266 174 249 232 184 233 249 217 248 184 192 213 168 196 258 221 255 250 189 246 203 216 162 168 241 348 254 257 271 224 248 248 239 243 196 292 162 195 189 198 245 235 209 230 191 179 237 215 260 238 127 186 189 207 254 212 262 217 196 113 209 212 200 202 154 290 222 289 246 125 313 206 257 236 177 228 138 178 148 274 162 199 266 241 169 264 219 236 245 226 271 188 210 252 297 234 217 249 304 166 154 248 227 202 210 179 262 266 195 204 270 225 180 194 144 272 216 239 216 312 250 249 182 276 171 300 130 180 252 297 261 184 306 131 281 200 266 185 250 236 166 224 236 293 206 146 267 184 157 231 215 163 167 232 161 179 165 331 178 308 140 195 252 279 243 127 254 184 255 246 214 287 172 292 204 184 297 241 203 262 187 183 260 274 217 226 188 301 240 170 158 186 115 218 253 210 277 240 190 185 241 179 155 117 206 294 191 176 200 158 222 273 264 201 124 212 286 178 203 284 178 225 230 250 189 144 252 232 174 164 286 154 180 201 202 151 183 242 175 199 304 240 224 157 256 128 173 208 216 184 170 276 130 218 330 237 214 292 305 292 127 258 212 258 217 238 115 191 201 251 198 197 202 271 253 207 219 241 273 227 259 231 192 235 152 245 272 209 376 178 218 200 211 222 201 289 184 169 176 294 89 235 184 244 262 226 257 289 160 276 196 285 252 184 219 270 183 206 214 184 215 173 254 129 199 164 233 187 264 196 197 228 236 161 270 224 135 274 212 172 262 133 254 155 227 248 254 207 169 209 130 215 275 216 184 136 156 216 255 242 232 165 151 256 198 246 238 158 202 269 217 148 189 123 241 204 236 206 212 204 236 192 161 218 212 188 250 284 225 197 173 162 174 261 285 246 163 296 177 212 137 262 215 186 201 145 213 253 223 165 148 243 153 232 225 183 238 137 253 137 210 198 270 147 231 148 205 259 208 233 213 172 219 245 167 209 245 322 231 173 242 168 274 212 107 206 225 243 130 187 257 248 218 205 194 278 227 177 270 197 237 206 161 304 147 183 162 196 174 152 204 213 202 196 186 252 194 265 198 146 197 160 274 228 224 206 130 173 222 249 244 263 199 146 199 154 150 246 259 245 244 250 157 197 310 196 175 250 218 222 153 174 212 209 238 263 200 226 202 225 154 181 174 208 267 255 270 266 287 209 276 244 188 198 166 210 151 146 234 210 217 218 235 158 248 194 252 186 284 149 191 163 164 236 243 273 198 171 233 209 269 150 180 241 155 274 302 247 188 171 189 171 227 141 205 281 241 246 257 186 229 200 217 196 243 189 249 161 163 252 200 228 252 221 131 265 245 185 220 201 187 171 141 206 257 220 256 225 282 262 222 227 222 217 190 176 258 197 286 205 204 145 226 186 260 231 221 314 273 209 248 262 263 204 243 210 235 255 189 229 225 201 270 197 235 257 188 223 226 237 203 168 123 115 244 132 215 200 273 171 324 135 129 207 192 303 190 213 276 147 254 147 256 197 154 220 269 179 186 263 227 205 236 299 243 215 243 166 218 176 145 180 338 234 242 236 222 154 237 223 190 350 227 192 224 210 308 201 242 172 147 240 187 287 240 194 280 265 177 240 170 236 224 226 152 250 279 300 212 241 250 238 311 207 228 168 210 179 213 295 259 272 284 189 229 191 222 172 208 120 192 189 190 245 208 246 214 266 230 162 195 208 177 177 266 200 272 214 195 231 139 114 177 250 195 243 193 225 195 195 240 304 179 221 136 233 237 185 121 188 252 190 134 210 229 187 295 244 183 195 246 292 264 215 196 172 162 220 214 178 299 253 243 282 226 275 159 127 287 190 192 113 236 142 239 219 289 184 196 250 193 225 280 190 163 268 249 161 265 98 93 204 203 201 263 209 264 218 237 191 148 142 154 183 262 246 162 176 191 108 312 119 156 159 146 235 237 191 282 152 150 263 247 281 156 206 155 276 147 160 113 198 275 192 193 329 215 227 208 234 227 229 162 253 294 288 220 256 226 165 268 219 236 156 79 171 244 234 325 187 201 220 157 228 193 189 239 178 153 280 153 252 232 137 167 178 225 144 262 160 284 236 218 226 194 214 184 217 232 210 253 180 152 261 211 179 230 262 199 181 277 219 195 130 240 121 187 187 233 222 189 183 177 106 271 216 226 157 250 224 219 258 230 202 127 268 159 247 265 199 229 200 216 169 248 156 170 236 180 249 217 189 327 242 243 222 168 201 257 174 185 175 215 161 270 306 139 203 254 226 185 189 202 169 264 237 219 149 260 120 209 212 163 234 216 192 221 306 220 171 200 220 161 347 141 152 146 197 257 171 180 181 119 126 198 210 164 228 264 175 237 177 225 280 170 294 178 160 276 314 196 192 229 166 219 287 214 256 243 257 225 238 148 172 227 175 219 215 166 90 186 129 149 199 170 338 244 214 205 203 207 289 221 316 234 181 252 223 225 205 240 184 124 163 279 217 222 185 183 306 227 254 188 211 251 220 213 219 151 230 203 260 179 243 185 247 249 263 196 193 253 157 271 170 195 234 216 181 135 209 189 120 183 126 177 290 190 261 157 217 124 199 254 178 215 195 153 174 198 156 312 148 202 201 239 224 262 270 174 159 178 173 186 220 265 206 207 222 149 197 270 288 302 192 190 233 294 139 135 285 188 141 193 260 223 333 190 194 177 187 151 169 297 230 238 143 241 191 180 201 217 241 214 136 245 206 214 285 249 226 206 265 276 283 254 247 145 230 237 243 231 273 225 194 266 183 246 236 171 203 257 228 254 202 177 193 237 306 235 206 189 222 195 208 208 246 123 177 154 311 204 251 192 261 167 247 256 125 164 175 146 170 145 210 131 197 211 297 160 121 197 175 145 179 197 220 216 244 238 117 219 168 211 128 234 285 207 100 234 150 325 230 232 204 157 211 204 242 238 286 262 149 262 146 268 230 196 182 242 215 246 179 201 274 298 230 217 185 246 182 171 158 257 208 183 158 254 294 233 255 213 212 231 228 208 170 176 267 226 199 249 327 302 318 155 219 142 265 224 199 168 212 179 200 215 299 211 176 163 254 259 288 214 174 196 166 213 181 177 219 183 275 273 214 190 195 240 256 187 213 230 229 249 182 157 289 263 161 107 280 229 203 148 200 192 199 220 278 276 256 181 205 203 232 195 229 225 228 178 185 184 237 179 233 221 182 225 179 209 233 134 252 317 177 257 231 177 196 176 177 188 181 168 157 211 310 282 254 230 179 217 157 232 257 318 151 215 247 254 174 202 198 288 138 274 235 157 246 183 173 215 176 245 246 231 297 210 260 164 200 264 183 234 151 258 143 332 234 206 119 255 197 263 318 307 174 268 235 231 152 194 268 209 220 184 232 257 271 251 236 231 290 131 185 198 187 257 97 224 124 301 210 204 204 245 231 292 238 198 264 203 235 205 150 203 252 220 176 256 259 182 212 206 184 252 223 203 204 246 198 201 234 146 310 124 189 100 255 205 149 251 182 149 185 181 242 257 186 144 124 296 197 282 265 275 219 192 121 236 223 210 225 130 238 217 254 248 189 196 157 197 244 278 158 141 222 199 250 179 211 242 154 269 242 236 193 207 201 208 278 298 186 241 162 193 130 216 254 183 289 235 232 138 245 132 170 216 194 207 175 193 178 210 202 234 155 256 179 185 226 208 328 185 173 218 149 172 220 193 204 255 264 144 195 239 154 269 194 226 198 226 225 236 243 290 268 229 183 175 251 243 185 246 203 143 246 256 237 207 298 280 244 237 273 242 170 247 297 210 219 202 233 241 195 246 153 180 245 221 215 216 139 189 250 220 272 264 287 205 196 201 205 292 206 156 271 201 221 253 232 205 227 226 252 221 248 254 213 247 159 173 152 192 175 273 257 196 212 320 206 259 293 259 164 176 361 168 183 192 186 208 259 209 220 97 239 259 165 296 144 245 214 211 211 138 217 254 301 322 232 193 135 244 159 209 178 182 259 207 220 188 118 284 173 207 161 202 219 249 251 236 172 190 198 248 279 160 195 288 226 117 183 195 204 160 213 180 295 236 265 268 226 162 123 280 229 221 220 202 251 225 271 220 207 231 181 241 138 165 245 226 249 246 213 209 245 195 174 263 291 247 254 255 147 259 216 199 192 255 295 234 273 261 253 276 156 191 234 243 235 323 205 221 228 231 206 291 222 149 227 246 196 233 187 240 208 186 216 153 207 225 221 241 201 170 192 149 141 175 161 231 178 193 206 261 207 181 233 264 190 251 226 291 227 168 220 348 128 249 255 134 230 102 184 145 208 210 254 262 260 255 195 251 273 132 245 245 248 180 197 194 197 293 174 263 181 227 213 210 264 241 268 238 270 271 249 235 167 234 200 188 145 153 209 211 262 226 179 163 203 223 179 249 252 184 238 162 276 167 138 188 163 165 242 242 181 174 190 270 259 227 174 257 192 239 224 264 222 141 232 187 234 157 217 249 261 231 210 172 113 253 209 136 210 321 159 166 278 275 281 162 321 222 194 312 196 185 160 173 132 249 254 196 248 231 243 228 269 233 131 185 210 186 205 282 354 257 218 247 252 278 208 238 216 258 156 242 168 162 229 265 205 230 219 149 179 256 179 230 185 214 213 127 229 55 217 242 164 190 217 204 185 188 219 145 226 200 230 192 141 255 164 260 125 227 154 204 277 259 222 213 200 214 149 132 224 205 154 324 216 146 204 186 231 178 218 190 224 160 174 271 203 236 135 177 163 230 213 245 191 164 217 181 224 182 246 190 176 270 207 299 165 185 224 169 286 262 198 235 166 298 242 235 233 193 262 243 306 241 179 202 130 238 235 157 186 188 153 101 220 134 234 204 209 209 308 176 286 261 140 240 266 242 142 139 145 173 232 241 243 139 171 168 179 220 245 217 199 234 315 217 236 171 152 221 251 187 227 161 254 205 206 186 269 176 216 231 132 221 177 215 198 181 227 251 170 143 237 105 236 156 215 300 288 261 176 147 215 233 185 262 198 239 291 179 175 258 183 234 233 181 165 232 265 225 234 265 116 299 160 179 248 231 227 200 260 231 216 237 201 250 242 236 133 201 196 237 233 245 189 194 322 278 251 301 236 170 279 231 201 177 178 262 204 234 197 230 192 241 158 181 252 180 208 171 232 242 187 175 238 287 232 202 260 114 183 316 222 188 228 282 285 208 292 91 282 154 271 97 153 238 209 201 206 214 244 290 274 240 223 192 215 210 197 235 186 289 232 127 151 144 233 127 204 166 191 204 208 268 181 231 215 243 264 163 146 322 166 157 172 172 215 162 197 264 246 136 203 205 308 272 290 176 213 235 190 296 208 226 204 250 202 198 190 207 217 186 291 156 231 215 241 230 188 212 248 225 145 244 177 173 291 227 155 150 194 199 118 225 155 260 210 258 237 197 202 240 239 243 193 225 195 193 230 178 142 269 278 256 280 185 206 166 239 200 233 201 196 241 145 204 160 386 240 180 240 232 206 228 190 247 262 260 240 212 186 213 261 277 186 178 147 301 263 175 224 262 182 227 248 258 206 179 229 221 223 200 223 231 167 208 227 171 214 192 158 233 177 238 194 224 217 282 197 152 184 226 189 285 233 149 117 158 215 274 221 222 296 167 192 187 249 261 164 192 213 215 204 252 189 179 198 278 263 179 203 204 192 158 98 187 209 240 227 211 164 214 175 168 208 228 148 286 132 216 200 298 205 222 198 162 259 183 175 189 192 320 351 211 198 304 161 137 120 330 227 185 203 171 196 170 124 221 348 134 230 148 147 273 223 217 231 202 216 316 267 199 223 254 99 233 183 196 162 258 269 118 191 177 144 222 251 189 197 247 129 153 237 194 174 160 274 260 203 214 228 225 109 225 254 270 194 207 209 214 174 273 138 181 214 156 203 217 197 176 190 207 132 176 245 183 177 146 239 122 267 167 174 207 228 175 184 265 228 128 262 224 193 197 171 215 172 95 182 176 268 206 286 209 185 242 253 243 237 202 253 200 269 178 183 164 259 210 253 213 232 254 278 258 266 237 198 236 262 208 141 195 178 189 316 209 285 197 161 166 272 148 217 224 217 178 244 234 283 206 197 196 188 281 267 298 157 165 227 196 173 130 201 218 181 141 201 125 200 244 225 192 242 189 163 85 207 205 165 213 185 162 211 258 160 222 157 191 256 232 287 217 226 183 281 167 168 206 203 140 187 227 236 181 228 123 301 238 189 210 217 272 160 268 292 170 176 235 191 157 256 285 154 208 238 152 221 188 143 345 208 204 224 273 252 257 200 180 168 162 161 225 171 230 207 294 222 211 156 179 174 238 199 158 253 230 133 162 225 311 184 256 223 242 204 319 127 242 211 221 241 219 209 243 206 226 286 259 224 227 211 164 205 292 196 208 229 255 152 240 268 208 234 199 195 222 193 260 264 217 247 220 228 240 105 181 142 201 189 284 317 214 202 289 213 178 392 171 224 258 204 206 141 240 306 190 241 217 107 164 235 300 260 251 265 190 183 274 195 260 209 242 223 204 164 214 117 182 297 235 327 204 297 221 264 247 184 166 210 234 240 169 181 216 163 248 179 269 211 276 204 227 236 254 142 202 183 277 336 249 183 256 167 239 236 221 181 281 213 208 272 92 222 247 197 156 207 182 219 205 215 243 252 142 174 239 256 233 248 226 308 178 290 292 247 218 250 280 213 196 184 254 259 132 254 155 238 182 174 212 197 169 277 165 245 226 227 200 232 205 310 213 187 225 194 188 199 215 206 169 249 240 269 259 233 186 262 238 210 272 166 261 286 276 221 168 282 328 323 203 235 168 214 138 205 220 126 80 199 190 207 171 238 202 258 193 223 197 188 226 233 280 150 249 151 232 226 200 178 226 303 289 217 275 135 226 260 162 236 199 246 223 183 214 256 243 135 208 291 138 236 199 269 250 205 234 156 173 216 245 281 204 193 292 205 176 227 171 181 191 259 261 248 162 195 155 236 241 224 224 260 184 169 209 232 205 202 243 284 194 218 295 275 227 148 212 206 291 140 203 149 232 226 203 151 175 154 194 223 222 243 185 241 295 255 322 300 171 259 281 202 206 205 220 173 205 243 247 192 241 292 190 148 201 230 261 276 246 170 201 238 254 190 199 232 183 243 299 187 242 201 170 247 196 149 169 162 169 196 308 205 278 241 206 275 201 243 191 166 195 226 214 182 223 292 240 138 241 183 177 172 172 230 251 134 113 323 174 215 134 210 230 180 150 134 196 231 229 244 154 176 177 239 249 147 180 162 175 312 185 196 188 137 266 198 175 165 235 143 204 150 163 287 210 181 293 148 196 164 240 230 198 155 182 278 301 208 219 234 264 162 192 181 262 271 182 214 263 193 191 241 240 227 227 246 300 167 244 216 212 173 212 286 286 118 217 196 266 174 222 230 181 307 223 200 199 305 221 223 134 208 209 235 275 157 155 244 144 197 173 191 229 188 138 200 170 182 216 217 198 248 240 184 250 197 191 234 246 190 191 175 253 179 191 309 314 315 279 228 331 273 202 195 241 229 177 246 277 151 164 146 318 299 196 197 170 155 296 219 210 278 268 129 248 206 210 165 226 189 169 268 213 178 202 164 201 306 297 194 248 185 158 215 200 194 182 162 212 221 189 201 253 266 177 197 210 239 202 209 110 185 267 254 222 205 272 224 140 230 184 171 278 215 194 206 156 208 216 198 230 258 194 295 232 180 167 289 272 219 269 181 242 258 234 171 186 240 227 258 301 208 307 213 143 213 252 231 205 323 278 174 258 223 209 167 203 267 252 190 174 190 209 259 271 246 272 237 233 179 123 248 173 172 213 211 275 237 212 214 195 273 167 267 194 215 185 191 139 205 192 194 235 234 205 209 271 117 214 288 223 250 243 218 201 181 190 244 206 208 203 171 271 163 151 194 244 103 212 208 148 216 150 186 252 207 201 247 154 203 198 190 235 218 187 224 182 161 197 178 146 267 160 190 234 136 244 208 237 242 159 169 158 197 242 267 256 204 183 178 300 241 198 231 265 214 214 187 208 161 202 252 222 249 156 182 236 157 278 177 251 231 200 283 182 222 151 216 220 209 254 263 203 246 245 167 124 200 169 267 192 222 203 229 235 158 197 230 198 191 253 229 242 166 200 154 172 215 274 244 202 273 250 239 135 197 180 166 199 272 218 145 242 268 279 224 226 156 250 211 258 202 211 197 174 273 232 235 248 317 235 266 180 134 248 237 321 154 147 212 188 259 237 189 221 215 175 190 170 278 235 272 262 190 132 245 187 220 232 205 281 272 328 191 188 284 224 195 249 183 155 283 186 194 127 216 250 209 228 243 252 154 189 237 309 218 205 211 200 252 202 232 205 261 167 190 232 239 179 245 217 218 226 259 162 194 224 235 207 163 224 233 235 265 239 225 246 202 252 219 196 244 324 223 195 249 159 243 184 229 171 182 224 249 196 118 184 221 130 191 244 142 167 227 254 219 202 201 205 222 255 184 200 209 146 275 174 172 222 249 236 220 173 193 133 267 279 234 222 208 220 169 174 171 206 252 183 166 191 233 255 181 224 202 145 223 159 232 239 273 140 195 203 233 246 283 277 182 165 187 252 293 163 143 236 295 262 214 213 223 152 220 258 207 172 162 146 160 202 244 125 275 223 256 318 279 209 161 184 240 194 192 170 252 209 217 300 208 231 139 253 165 309 231 247 169 228 204 104 223 201 179 205 227 186 239 152 229 226 244 162 301 186 196 195 228 243 198 223 196 215 187 182 110 201 153 156 218 150 233 130 172 213 168 188 280 316 180 208 231 291 207 270 311 147 215 239 202 282 258 263 209 184 196 206 241 147 168 192 165 253 199 208 176 193 168 234 275 156 244 151 254 200 180 210 257 217 184 208 251 242 212 155 197 111 294 215 180 191 166 219 156 168 222 219 160 235 238 147 129 232 169 281 208 121 200 235 160 112 170 212 174 210 302 164 148 204 212 212 234 177 234 290 219 297 214 151 261 335 193 173 203 179 153 211 221 235 281 201 229 192 309 138 225 225 199 176 150 189 188 226 230 235 297 308 293 125 288 196 192 97 220 280 210 168 291 226 197 200 216 263 217 242 276 245 186 321 241 300 233 166 222 159 195 201 194 266 209 248 140 189 253 188 163 254 138 179 199 153 151 214 254 267 225 235 257 250 171 243 206 257 211 228 128 192 234 287 177 289 254 231 216 158 267 245 166 211 155 196 207 245 177 251 256 253 228 210 289 156 211 294 306 242 212 227 206 126 171 148 233 235 175 279 278 277 253 173 176 177 247 185 245 118 204 281 249 221 287 237 204 207 210 198 257 202 125 159 198 226 183 119 141 152 286 168 191 350 214 220 144 257 179 154 163 218 193 173 184 208 266 145 218 256 151 167 229 146 191 223 124 232 302 259 315 184 149 195 140 205 176 230 224 232 289 249 225 182 209 187 197 257 308 186 160 202 283 337 185 301 302 273 264 223 181 159 248 228 188 132 307 293 219 207 190 167 259 167 142 229 296 166 244 134 243 202 246 237 257 272 217 168 286 160 253 175 193 208 199 252 240 213 240 251 120 248 185 179 230 233 222 160 267 244 183 227 178 158 223 244 172 223 322 227 186 177 204 179 195 260 243 185 160 288 182 224 214 133 224 254 186 266 267 198 226 234 293 296 218 223 131 291 260 243 253 244 151 192 157 213 299 153 147 243 191 165 260 281 199 188 255 169 234 236 173 241 188 215 151 265 243 146 196 252 131 209 239 247 221 220 238 255 221 214 221 114 142 244 245 187 209 172 256 217 175 249 197 178 165 151 261 252 229 292 209 219 112 156 176 180 219 181 161 160 178 240 139 259 252 202 306 134 248 273 225 227 260 178 139 259 254 218 160 177 151 238 264 173 221 267 249 139 263 246 314 182 186 221 193 211 145 192 178 182 215 226 193 210 271 205 225 275 250 145 178 244 253 159 127 234 140 203 299 250 180 200 198 235 243 222 228 330 139 274 271 175 178 277 178 271 236 162 235 195 173 224 268 193 146 175 161 152 211 185 233 223 310 191 324 192 112 187 168 180 151 228 193 88 225 230 219 193 145 202 135 218 153 207 184 197 194 211 274 223 212 243 238 199 244 225 280 221 295 369 242 276 271 168 199 273 169 143 233 242 224 217 236 198 238 252 338 279 266 242 238 226 173 160 235 219 202 137 213 174 218 183 175 171 304 178 139 217 202 203 218 180 204 206 170 275 239 249 264 206 177 177 175 139 223 137 199 331 228 154 231 182 246 205 249 211 227 125 206 198 289 200 214 369 185 208 259 285 196 271 243 225 150 279 264 301 167 263 230 182 250 204 335 173 272 282 205 190 189 233 238 234 211 239 195 263 285 201 224 243 241 231 224 261 200 224 241 111 182 191 195 271 227 117 186 159 250 247 207 170 255 351 143 145 171 200 265 242 223 318 227 217 240 223 216 233 205 219 274 252 166 188 192 263 233 268 226 262 240 206 186 169 161 172 229 215 227 218 187 279 206 235 184 232 244 172 210 171 141 257 214 190 328 172 165 194 196 233 142 196 180 222 231 142 283 131 204 201 185 148 220 273 231 257 144 249 190 321 276 266 130 254 211 166 201 136 150 176 333 121 248 216 232 136 232 319 153 185 188 191 157 255 264 191 245 179 193 137 238 230 249 218 254 205 239 220 222 215 201 258 244 193 244 190 202 172 235 132 177 198 235 177 242 216 322 219 214 191 270 277 212 171 167 232 233 256 160 237 224 228 232 241 275 241 167 182 255 209 133 284 206 265 213 167 221 249 205 240 157 306 120 173 216 145 185 241 223 234 263 284 208 211 180 208 164 202 186 287 184 228 242 301 201 236 223 214 250 193 244 158 234 150 221 238 179 117 128 163 192 244 249 197 252 251 177 216 263 268 171 144 274 117 207 163 150 171 217 208 296 152 103 297 253 207 108 157 271 188 210 316 273 260 295 198 183 194 176 157 197 203 236 187 217 237 150 179 192 267 231 222 108 119 340 247 206 173 229 237 198 234 142 225 217 246 198 204 160 246 291 265 170 168 206 177 179 241 272 203 217 170 195 206 217 255 223 217 143 229 286 185 231 336 177 248 201 230 243 228 252 142 223 166 196 289 236 234 309 193 246 211 205 111 212 226 284 176 194 221 204 295 195 157 240 247 267 195 215 201 217 167 254 211 251 188 181 221 191 197 247 254 210 148 233 139 184 202 225 209 244 178 239 255 229 198 312 134 209 259 218 204 199 257 189 184 259 148 149 210 117 151 166 192 206 213 182 189 201 244 191 257 202 277 218 240 202 165 126 149 197 179 231 296 139 222 236 176 293 264 275 186 229 162 210 189 207 177 269 238 163 312 189 258 177 211 226 257 259 204 253 256 245 234 194 175 225 145 149 189 186 218 197 161 223 168 203 188 232 223 191 216 214 225 258 222 212 215 168 185 254 233 224 155 222 290 230 166 225 186 243 353 257 142 167 174 178 166 184 223 232 251 230 198 266 223 195 164 163 307 143 190 179 234 215 217 219 264 240 244 209 200 217 190 164 222 224 262 162 177 266 215 258 280 212 279 99 144 210 204 212 277 215 212 269 131 199 194 171 217 217 211 273 185 156 188 254 190 307 117 154 297 251 199 242 156 222 165 250 265 252 209 168 294 160 219 195 222 176 269 232 219 265 268 195 294 207 308 226 171 175 274 190 271 136 291 249 145 161 223 254 213 243 236 218 209 276 263 168 197 261 171 207 270 176 166 175 260 268 165 185 252 232 277 167 207 155 256 233 166 172 230 177 176 213 222 288 124 165 248 208 172 163 167 172 162 274 180 279 259 211 246 191 220 149 219 185 233 149 174 204 242 189 197 205 212 213 123 119 184 251 232 275 284 219 183 212 189 217 193 227 295 287 209 193 276 194 220 143 276 280 194 268 241 228 177 175 250 187 228 193 223 173 116 210 240 192 171 167 318 220 237 193 221 297 191 250 181 198 156 117 300 227 115 171 216 111 208 183 231 192 168 298 156 202 220 286 149 170 136 240 208 219 218 232 185 253 256 205 207 230 161 273 199 154 254 223 106 266 295 155 139 209 212 228 283 234 245 182 273 205 309 256 231 223 225 190 242 264 210 171 234 205 275 196 224 157 224 245 289 190 216 230 183 243 201 201 301 238 275 212 226 167 175 245 220 235 342 228 260 273 202 202 160 189 149 269 283 262 273 229 188 153 267 264 277 198 215 222 191 175 283 256 185 221 243 259 174 259 261 223 213 200 185 215 213 230 272 203 163 279 274 210 223 176 173 170 184 151 166 176 230 253 202 236 244 313 190 244 188 200 194 219 246 184 143 263 224 264 259 191 255 215 241 161 280 206 288 232 295 278 211 212 162 281 199 191 171 249 186 198 227 178 101 129 212 219 278 167 207 194 203 206 225 246 169 197 177 208 267 209 133 192 303 253 236 196 283 231 207 216 246 259 186 166 163 175 206 227 215 136 298 258 214 209 167 253 220 255 284 288 167 201 258 169 213 194 245 249 159 251 184 170 235 268 209 312 189 197 202 250 160 116 258 207 184 212 192 200 284 221 251 188 140 251 220 241 188 200 224 151 149 121 214 189 245 237 223 237 181 280 133 260 253 188 220 188 193 171 264 175 174 167 295 221 191 213 237 213 223 216 162 249 265 267 262 210 240 183 148 275 176 244 235 212 246 189 202 242 242 210 138 324 246 255 217 220 199 195 289 216 306 251 153 198 184 151 198 194 197 206 180 220 260 212 306 385 211 230 159 238 250 265 189 210 195 201 314 344 201 266 215 209 300 215 197 215 213 311 156 165 199 213 221 199 87 169 134 196 216 212 173 177 187 156 320 204 236 246 188 147 277 140 327 181 246 190 255 316 135 230 203 237 328 259 214 250 204 167 267 224 161 303 211 162 123 210 240 255 156 298 218 166 169 213 198 193 186 184 203 150 177 182 133 199 224 112 181 179 128 145 252 218 248 172 152 231 211 203 212 226 274 322 215 197 312 187 238 250 223 179 227 224 173 223 251 180 245 159 219 149 294 152 213 241 294 154 339 219 257 278 197 220 262 149 286 275 212 183 176 213 215 279 261 233 252 228 199 221 199 243 224 301 196 182 180 233 161 304 234 171 204 225 195 249 282 194 204 180 221 216 284 281 276 287 179 228 158 209 166 306 192 186 215 181 269 229 161 278 199 229 262 303 293 145 150 274 200 178 197 217 192 279 255 142 176 215 224 259 161 191 159 187 159 195 230 212 226 207 194 237 168 169 196 186 305 230 277 220 323 179 237 252 156 254 136 186 183 209 258 143 222 182 220 288 287 216 248 136 310 225 221 159 290 227 257 292 180 239 178 222 206 197 232 217 169 206 168 201 142 265 218 168 243 200 151 234 203 250 195 271 184 286 143 238 303 243 171 125 159 129 170 241 219 130 293 210 238 197 238 213 188 234 275 160 185 227 273 196 189 229 264 160 195 217 249 140 269 265 174 131 229 177 351 184 125 192 153 190 264 169 181 215 241 201 224 225 270 282 236 291 183 248 195 214 215 271 112 244 239 181 227 177 175 199 261 270 226 112 230 126 273 243 114 173 179 213 299 169 176 221 181 199 317 183 247 188 229 175 152 101 227 98 143 166 182 229 152 205 240 157 192 255 168 188 214 255 202 132 281 270 234 213 230 194 280 265 206 190 202 189 215 227 199 130 224 236 155 230 272 154 148 185 265 246 190 218 291 213 218 178 226 281 219 199 305 204 169 232 264 204 190 238 134 229 195 261 216 235 243 189 237 212 266 294 210 231 153 241 169 284 237 262 192 187 115 213 277 204 223 218 287 161 141 276 152 243 215 183 274 245 209 160 236 227 178 253 149 256 157 157 186 239 219 260 107 256 256 209 226 128 212 234 328 232 256 239 171 255 218 188 225 153 233 89 183 193 198 157 147 145 160 297 205 263 245 222 346 201 290 185 197 285 242 297 209 254 236 252 245 229 196 208 145 169 191 216 200 200 252 256 207 240 289 179 178 286 252 182 119 229 230 153 142 194 312 288 250 232 212 191 190 200 158 159 208 327 236 203 241 227 234 143 225 194 128 219 331 113 182 96 77 245 217 198 187 148 280 273 278 201 236 261 242 224 216 128 326 228 203 199 141 123 241 223 149 170 145 169 190 225 164 218 186 269 191 176 223 140 204 181 146 215 169 180 147 286 269 227 206 223 168 158 120 234 234 250 173 240 173 144 160 185 199 167 265 236 246 208 342 176 178 212 215 136 305 279 242 229 241 157 221 236 222 218 233 244 227 197 216 222 152 157 200 242 231 145 190 148 266 222 192 182 206 196 223 261 187 248 212 222 218 186 268 315 178 269 210 180 237 235 251 207 208 221 314 208 184 145 256 262 210 189 223 203 205 194 224 127 223 175 193 179 232 271 251 206 211 140 235 216 239 232 157 226 239 186 183 228 140 222 296 295 190 241 239 201 211 206 222 235 200 174 228 114 156 250 178 219 176 212 219 229 174 225 301 221 203 251 162 271 206 146 254 241 285 226 324 257 268 228 182 175 264 229 230 296 224 151 163 156 273 259 243 257 231 268 243 189 176 206 162 167 287 224 203 234 189 209 217 199 272 194 197 218 269 206 263 171 190 188 204 151 83 163 197 199 220 185 291 100 225 163 236 185 207 218 193 253 136 227 261 211 221 171 128 184 203 267 215 221 148 214 169 231 190 197 235 240 227 197 267 160 170 121 225 186 162 145 180 147 184 177 172 235 193 140 151 209 195 229 127 148 157 260 250 188 273 228 213 266 193 175 211 228 273 209 233 218 167 159 250 290 223 255 128 223 224 152 184 158 192 179 148 172 269 260 209 220 183 222 203 173 262 237 138 274 234 202 217 251 117 263 237 213 239 180 209 191 269 190 182 298 201 223 255 183 203 143 195 200 244 210 246 190 211 234 143 204 148 173 160 151 315 299 235 195 297 263 208 160 242 271 269 223 230 210 243 166 219 256 244 235 281 208 185 243 256 212 254 167 258 249 190 297 261 186 228 197 136 140 200 220 276 214 190 170 210 327 149 207 196 227 258 148 125 212 185 247 198 338 275 250 165 249 192 190 180 195 145 221 152 225 193 211 253 288 119 293 171 207 221 160 175 191 185 212 223 230 289 287 149 210 260 131 195 218 198 139 231 214 270 219 280 288 215 269 275 150 216 235 252 195 110 240 252 279 205 214 236 318 261 226 145 208 203 210 272 309 254 212 178 230 137 228 179 184 180 214 147 229 228 180 199 223 182 186 259 171 270 247 273 241 187 219 282 268 156 198 207 132 252 256 182 163 249 214 218 276 142 221 227 298 298 189 182 214 169 213 234 146 125 199 291 223 234 184 238 240 232 233 209 199 183 185 196 338 164 150 191 254 217 194 168 209 155 159 234 281 112 213 128 177 213 285 147 200 195 194 260 231 230 214 252 230 251 283 218 172 280 145 245 178 166 216 239 192 235 203 271 260 192 312 341 212 208 203 212 225 263 180 210 99 327 289 226 162 217 234 136 224 247 168 227 149 277 303 233 259 196 220 209 305 195 207 202 257 203 218 249 236 237 217 115 197 252 282 174 250 224 219 182 282 238 205 227 224 229 113 195 201 28</t>
+  </si>
+  <si>
+    <t>MIE(0.3875207283086459, 2.037646069895903, -2.840360936626198e-31, 1.546235783361842)</t>
+  </si>
+  <si>
+    <t>2 1 0 0 1 1 0 2 1 2 1 2 1 2 2 2 1 2 1 0 1 3 1 1 2 2 0 2 1 1 0 0 2 2 1 2 0 0 2 2 0 1 1 1 0 0 0 2 2 3 1 2 0 2 0 0 2 1 0 0 0 0 2 0 2 2 1 1 0 1 0 0 1 1 0 1 1 2 1 1 1 2 1 2 0 0 1 1 1 0 1 0 1 0 0 1 3 0 0 0 2 1 0 1 0 1 2 2 1 3 2 1 0 1 1 1 1 1 1 1 0 0 0 1 0 1 1 0 2 1 0 1 0 1 0 0 2 2 0 1 0 1 1 1 3 0 1 1 0 0 2 0 3 1 1 1 1 2 2 0 0 1 0 2 2 1 0 1 1 2 2 1 0 1 1 0 0 1 1 2 1 1 0 0 0 0 1 0 0 0 2 2 1 1 0 1 0 1 3 1 0 2 1 0 1 1 1 1 2 1 0 1 1 0 1 1 0 0 1 0 1 0 2 0 0 0 1 2 1 0 1 1 0 1 1 1 0 0 1 0 1 2 0 1 1 0 1 1 1 0 0 3 1 0 1 2 1 1 0 2 2 1 0 0 3 1 1 1 3 2 0 1 0 1 2 2 0 1 2 2 0 0 1 1 2 1 1 0 1 3 1 1 1 1 2 0 1 0 1 0 2 1 1 1 1 0 0 0 1 2 1 0 2 1 0 0 0 0 1 1 3 0 1 1 1 1 3 1 2 3 2 0 1 2 1 1 0 1 0 1 2 1 1 1 1 3 0 1 0 0 1 2 0 2 0 1 1 0 3 1 1 1 0 2 0 1 2 2 0 0 0 1 2 1 1 1 1 0 0 1 3 1 1 2 1 0 0 0 2 0 0 0 2 1 1 1 0 0 0 2 2 0 1 0 0 1 1 0 0 1 0 1 1 2 0 1 0 2 2 1 0 1 0 1 0 0 0 2 0 0 0 2 0 0 1 4 0 2 0 1 1 1 1 1 2 3 1 2 1 2 0 1 2 3 1 0 1 3 1 1 0 1 0 1 2 1 0 0 2 0 3 1 2 1 1 0 1 2 2 0 1 3 0 2 2 1 1 0 2 1 2 2 2 0 3 2 2 2 2 0 0 1 2 1 1 1 0 1 0 0 0 2 1 2 0 1 2 0 0 0 4 0 0 0 1 1 1 0 0 0 0 2 1 0 2 1 0 0 2 1 1 2 1 2 2 0 1 1 0 0 3 0 1 1 1 2 1 0 0 0 3 0 1 2 2 4 2 2 2 1 1 0 2 1 1 0 0 1 0 1 1 1 1 0 1 1 2 2 1 1 1 2 4 1 1 3 0 2 1 0 1 1 0 1 1 1 0 1 1 0 0 1 0 1 1 0 2 3 2 0 1 0 1 0 1 1 0 2 1 0 0 2 2 0 2 2 0 0 2 0 4 0 1 1 0 0 2 2 2 1 0 1 1 0 1 3 2 0 1 1 1 1 2 1 1 0 0 0 0 4 1 0 0 1 0 2 2 0 0 0 1 2 0 1 3 0 1 1 1 0 1 2 2 1 1 1 0 2 1 0 1 0 0 1 2 1 0 1 1 3 2 1 0 1 1 0 2 1 1 0 2 0 1 0 1 3 0 0 2 0 0 2 1 1 2 2 2 0 2 0 0 0 2 0 0 2 2 0 1 0 1 2 2 0 1 0 0 0 0 1 1 1 1 1 0 4 1 0 1 3 0 0 0 1 1 0 0 0 0 0 1 1 0 1 3 1 1 0 0 1 1 2 0 0 2 2 1 1 1 3 1 1 1 0 0 0 0 0 0 2 1 0 4 2 1 1 1 1 0 1 0 2 4 1 0 2 1 2 2 1 1 1 0 0 1 0 2 1 0 2 1 0 1 1 1 1 1 2 2 2 2 3 1 1 0 0 0 1 0 0 1 1 3 1 0 1 0 2 2 0 1 1 2 3 0 2 2 1 1 2 1 0 1 0 2 1 0 1 3 1 2 2 2 1 1 0 1 0 1 1 1 3 1 1 1 0 0 0 3 0 0 1 2 2 1 2 0 1 1 1 1 1 0 0 2 1 1 2 1 1 1 0 0 2 3 1 1 4 1 0 0 0 0 2 1 1 0 3 2 0 0 0 1 2 1 2 1 3 1 1 0 0 0 0 1 1 2 0 2 1 1 2 1 0 0 1 0 0 1 1 1 1 1 0 1 1 1 1 1 1 0 1 0 0 0 1 3 1 0 1 1 0 1 3 0 1 1 0 1 2 1 1 1 1 0 1 1 1 1 2 1 1 1 1 1 1 0 1 1 0 2 1 1 1 1 1 2 0 0 1 1 1 0 2 1 0 1 1 1 2 0 0 1 1 0 0 2 1 1 0 0 1 1 2 1 2 2 0 0 1 0 1 1 1 2 3 0 1 1 2 1 2 1 1 1 2 1 1 2 2 0 1 0 1 0 0 0 0 0 1 1 2 0 2 1 1 1 0 1 1 1 1 0 1 1 1 0 1 2 0 1 0 0 1 1 3 0 1 2 0 1 0 2 1 0 1 0 2 0 1 1 2 0 1 0 1 1 0 0 1 0 0 0 1 2 2 1 2 2 0 2 1 0 0 2 2 2 1 1 0 1 1 1 2 1 1 2 0 2 0 2 1 2 1 1 1 0 0 1 0 1 0 1 1 1 1 0 1 2 0 1 0 1 0 3 1 1 1 0 2 1 0 1 2 0 1 0 0 3 0 1 1 1 0 1 1 2 1 1 2 0 1 2 2 1 0 0 0 0 3 1 4 1 2 0 0 2 3 2 1 0 1 1 0 1 2 1 1 3 1 2 1 2 1 2 2 0 0 0 0 0 2 1 2 0 1 0 1 0 1 1 2 0 0 1 2 0 0 1 2 0 1 1 1 1 1 0 2 2 2 0 2 0 3 0 4 1 1 1 1 0 1 2 0 1 0 0 1 1 1 2 0 0 1 1 0 0 2 3 0 1 2 1 1 1 1 1 0 0 3 2 2 0 1 1 2 1 0 0 1 1 1 2 2 0 0 0 0 2 0 0 1 3 2 0 1 0 3 0 2 0 2 2 0 0 0 2 1 0 1 0 1 1 2 1 1 0 0 1 0 2 0 0 0 2 1 0 1 0 1 1 2 1 2 1 1 1 2 0 3 0 0 1 1 2 2 3 1 0 0 0 3 2 1 1 0 0 1 1 1 1 2 1 2 0 0 1 0 3 0 1 1 0 0 1 1 2 1 1 5 0 2 2 1 0 1 1 1 0 1 2 0 0 2 0 1 1 0 1 0 1 1 0 2 1 1 0 2 1 0 0 0 0 0 2 0 1 1 2 2 0 0 1 0 1 0 1 2 2 0 2 1 0 1 1 1 2 1 0 1 1 2 1 0 2 0 1 1 1 1 1 1 0 2 0 0 1 1 3 0 0 1 1 0 1 1 1 1 0 0 0 1 1 0 0 0 2 2 1 0 1 1 0 2 0 0 1 0 0 1 0 1 0 1 2 0 0 1 0 0 0 1 0 1 0 2 0 1 1 1 1 0 1 0 0 2 0 0 1 0 0 1 0 0 0 1 1 1 2 1 0 1 2 0 0 1 1 3 1 3 0 2 3 0 1 0 1 1 0 1 3 1 1 0 2 0 2 1 0 0 1 0 0 0 1 1 0 1 1 3 2 1 1 0 1 1 1 0 0 0 0 1 1 1 0 1 1 0 0 1 1 0 1 5 0 0 1 1 0 0 3 2 1 2 0 0 0 1 1 3 2 1 1 1 2 1 1 1 1 2 0 1 0 0 1 2 1 2 1 0 1 1 0 0 0 1 0 2 0 1 1 0 0 0 1 0 0 1 1 1 1 1 2 2 2 0 1 1 1 1 1 1 1 1 2 0 1 2 1 1 1 0 2 0 1 1 1 2 2 2 0 0 1 1 0 1 0 1 1 0 2 2 1 2 1 0 2 1 2 0 0 2 1 1 1 1 0 0 0 1 1 1 1 2 0 0 0 2 1 1 1 1 0 2 0 1 2 0 0 1 0 1 0 1 1 0 1 1 1 1 1 1 1 0 2 0 0 2 1 0 1 1 0 1 1 1 2 0 2 0 2 2 2 1 0 0 1 1 0 0 2 1 1 2 0 1 3 2 0 1 1 1 1 1 1 0 2 1 1 3 2 2 0 2 1 0 1 1 0 1 2 2 0 1 1 1 1 2 1 0 2 1 1 0 1 1 0 1 0 2 1 1 1 3 0 2 1 0 1 1 0 1 1 3 0 3 0 0 1 2 1 1 0 1 0 2 2 0 1 1 0 1 1 1 1 2 0 3 0 0 1 1 2 0 1 0 0 2 1 1 1 1 2 0 0 0 2 2 0 2 1 1 2 1 1 1 2 1 0 1 2 1 0 2 0 3 0 1 0 2 0 1 2 2 2 1 1 2 1 2 0 1 0 1 0 2 1 0 2 1 2 2 0 2 1 0 1 1 1 0 1 0 0 1 0 0 2 1 0 0 2 0 1 1 2 1 1 0 2 1 2 0 0 0 2 1 2 1 0 1 1 0 2 2 0 1 2 0 0 0 1 2 0 2 0 1 3 1 2 0 0 1 1 2 1 0 1 1 1 2 0 3 2 2 0 1 3 1 0 2 0 0 0 0 0 1 1 0 0 2 0 0 1 0 1 0 1 3 1 0 0 0 0 2 0 0 0 1 0 1 1 0 1 0 1 1 1 1 0 0 1 0 0 2 2 1 1 1 3 1 1 1 0 1 1 1 0 1 1 0 3 2 0 2 2 2 0 0 1 1 0 1 1 1 2 0 3 1 1 1 0 0 1 0 1 0 0 1 0 1 1 1 1 0 2 0 1 0 1 0 2 1 1 1 0 1 1 0 1 2 1 2 1 1 1 0 0 0 1 1 1 3 1 1 1 0 0 2 1 0 0 1 1 0 1 1 0 1 4 0 0 1 2 1 0 3 0 2 1 1 2 1 0 1 0 0 1 1 0 0 2 1 0 0 1 2 0 2 2 1 1 0 1 1 0 0 1 1 1 1 1 1 0 0 0 0 0 0 1 0 2 0 0 1 1 0 2 0 1 1 0 1 0 2 2 0 0 1 1 0 1 0 0 1 1 1 1 0 0 1 2 3 2 2 0 1 0 0 2 0 1 1 2 1 1 0 0 2 1 3 0 2 1 0 1 3 2 1 1 3 1 1 1 2 2 1 2 1 2 1 2 2 1 1 0 1 0 1 0 0 0 2 2 1 3 0 2 1 1 2 0 0 2 0 1 0 1 1 1 1 0 1 1 1 0 0 0 0 0 0 1 0 1 2 0 0 0 1 1 1 2 0 1 1 2 1 0 1 1 1 1 2 0 3 0 0 0 3 1 4 2 1 0 1 0 0 1 1 0 0 2 0 1 1 2 2 1 1 2 4 0 0 1 1 0 1 0 3 1 0 0 0 0 0 0 1 0 1 0 1 0 3 0 1 1 2 1 0 2 1 1 0 1 2 0 1 1 0 0 0 2 0 3 2 1 2 1 1 1 1 1 0 1 1 1 1 0 0 2 2 1 3 2 1 1 2 0 0 1 0 1 0 2 1 1 1 2 1 2 0 0 2 1 0 1 0 1 0 0 1 1 0 0 2 1 1 0 0 0 1 1 1 0 1 2 1 0 0 1 0 0 0 0 3 1 2 0 1 1 1 1 1 0 1 0 0 1 1 2 1 2 0 0 0 1 0 1 0 1 0 1 2 2 0 1 1 0 0 1 1 1 1 0 1 1 1 0 3 1 1 0 0 0 0 2 1 2 0 1 0 1 2 0 1 3 0 0 0 3 0 1 1 1 0 2 0 0 1 1 2 0 1 1 0 2 3 1 1 0 1 1 1 1 2 1 0 2 0 1 1 1 0 2 0 0 1 1 1 0 1 0 3 2 1 1 1 1 0 0 1 0 1 1 0 2 1 1 0 1 2 1 1 1 0 1 2 0 1 0 0 1 0 0 2 0 2 1 1 0 0 1 1 1 0 1 1 0 3 0 0 1 2 1 0 2 1 1 0 0 0 0 0 1 1 1 1 1 1 1 1 0 0 3 2 2 2 1 3 1 1 2 0 0 3 0 1 1 2 0 2 0 1 0 0 0 3 1 0 2 1 2 2 1 1 1 0 1 1 0 0 1 1 1 1 2 1 1 1 1 1 1 1 2 2 2 1 1 1 1 1 0 0 2 2 1 0 1 1 2 1 0 1 1 0 0 1 0 0 1 0 1 1 1 2 1 1 0 1 1 1 1 2 0 1 1 1 3 3 0 1 1 2 0 0 1 1 0 2 1 0 2 1 0 1 0 1 0 2 2 0 1 1 0 2 2 1 1 0 2 0 1 1 1 3 0 2 0 1 1 2 0 0 1 1 1 0 1 0 1 0 1 2 0 3 2 1 0 2 0 1 1 1 3 1 1 0 1 2 0 0 2 1 2 2 2 1 1 0 1 0 0 0 2 0 0 0 1 4 2 1 1 0 2 2 0 0 0 0 2 2 1 0 2 1 0 3 2 3 0 1 2 0 1 1 2 1 0 2 1 1 0 3 1 2 1 1 1 0 2 2 1 1 3 0 1 0 0 1 0 0 1 1 2 1 0 1 2 2 1 2 0 1 0 0 0 1 0 0 1 0 1 1 0 1 1 0 1 1 1 1 1 2 0 0 1 0 0 1 0 1 0 1 0 0 1 1 2 0 1 0 1 0 1 0 1 1 1 0 0 0 1 1 0 2 0 0 0 0 1 0 1 0 1 1 0 3 2 1 2 0 2 1 2 0 1 2 1 0 0 1 1 1 1 2 2 0 0 2 1 2 0 0 2 0 0 1 2 1 1 1 0 0 1 1 1 0 1 0 0 2 2 1 1 1 2 2 1 1 1 1 1 3 1 1 3 1 2 2 1 3 1 2 1 1 1 1 1 1 0 1 1 0 1 1 1 1 2 1 2 2 1 1 1 0 2 1 0 0 0 1 0 2 0 0 0 1 1 1 1 0 2 1 0 1 0 1 0 1 1 3 0 0 1 1 0 0 1 0 1 1 2 1 1 1 0 0 0 0 1 0 1 0 0 0 1 2 0 1 1 2 1 2 1 2 0 1 0 1 0 0 1 1 2 0 1 1 1 0 0 2 0 1 0 1 1 1 1 1 1 0 0 1 1 1 0 0 1 1 1 1 0 1 1 2 1 1 1 1 1 1 1 0 1 0 0 1 1 0 0 1 0 1 0 2 0 0 1 1 1 0 1 1 2 0 1 0 3 2 2 1 0 0 1 4 1 0 1 0 2 2 2 1 0 2 1 3 2 1 1 1 1 1 3 1 1 1 1 2 0 1 1 0 1 1 1 1 2 1 1 0 1 0 0 0 1 1 1 0 1 3 3 3 2 2 1 1 1 0 1 2 1 0 0 2 0 1 0 2 1 2 2 0 1 0 2 2 0 1 1 0 0 2 1 2 0 0 1 0 2 0 0 1 2 2 1 2 2 1 1 2 1 1 2 1 0 1 0 0 1 1 0 3 2 0 1 0 0 0 1 3 3 1 1 1 3 1 1 1 2 2 0 0 1 0 1 1 1 0 0 3 1 0 0 0 1 1 0 1 2 0 0 1 1 1 0 0 0 1 0 2 1 1 1 0 1 1 0 2 1 1 1 1 3 1 1 0 2 2 0 0 1 1 0 1 3 0 2 0 2 0 1 2 0 2 0 1 2 2 1 1 1 0 0 0 1 0 1 0 0 0 2 3 0 2 2 2 3 1 1 1 1 2 1 0 1 1 3 3 0 0 0 0 0 0 1 0 0 0 0 1 1 0 1 2 0 2 1 0 1 2 2 2 0 1 1 2 2 0 2 0 3 0 1 1 1 1 1 0 0 0 0 1 0 3 2 1 1 0 2 1 0 1 2 1 1 1 2 0 0 1 0 1 2 2 2 2 1 0 0 1 1 2 0 0 1 0 1 2 2 2 0 1 2 0 1 3 1 0 0 1 1 1 1 0 1 0 2 0 2 1 0 0 1 0 2 1 1 1 0 2 1 1 1 0 0 0 0 2 2 1 2 2 1 1 2 1 0 2 0 1 0 1 0 1 1 1 0 0 2 0 1 0 1 1 1 2 0 0 0 1 0 1 2 0 2 1 0 0 1 2 0 1 1 1 2 1 1 0 0 0 2 0 1 0 0 0 2 0 0 1 1 1 1 1 0 1 0 1 0 1 1 1 1 0 0 1 0 1 1 0 1 2 1 0 2 1 1 2 0 2 2 1 1 0 1 0 2 2 1 0 1 0 0 1 2 0 1 1 0 0 0 1 0 0 3 0 3 1 1 1 1 0 2 1 0 1 2 1 0 0 0 2 0 1 0 1 2 3 0 1 0 2 0 2 0 0 1 1 0 1 2 1 1 1 2 2 1 1 2 1 0 1 1 1 1 0 1 0 0 0 1 0 0 3 1 1 0 0 1 2 2 1 0 0 2 0 0 0 1 1 0 1 1 0 0 3 0 2 2 1 0 1 0 1 0 1 2 0 0 0 0 0 1 1 1 2 1 2 1 0 1 0 0 1 1 1 1 2 0 1 1 2 0 2 2 2 1 1 0 0 2 1 0 0 1 1 1 0 0 0 1 1 0 1 1 1 2 0 1 3 0 0 0 1 1 1 1 2 0 1 1 1 1 2 1 1 2 1 0 0 0 1 1 1 1 1 1 1 2 1 0 0 0 0 1 0 1 0 1 2 1 0 1 0 1 2 0 0 2 1 0 2 2 1 1 0 1 0 0 1 1 1 1 1 2 1 1 0 0 0 0 0 1 0 2 1 2 0 1 1 0 2 0 0 1 0 0 1 0 0 2 1 0 1 0 0 0 1 1 1 1 2 0 0 2 2 0 0 1 0 0 2 1 0 2 2 0 1 0 1 1 1 0 1 0 1 3 1 0 1 2 1 2 0 0 0 1 1 0 2 2 0 2 0 2 2 0 0 1 2 0 1 1 0 1 1 1 1 0 2 0 0 1 1 1 0 2 1 1 0 0 1 0 1 0 1 0 1 2 2 0 0 2 1 1 2 1 1 1 1 0 2 0 1 0 0 2 1 1 1 1 1 0 1 0 1 1 2 1 1 3 0 2 0 1 0 1 0 0 0 0 0 1 1 0 0 1 1 0 1 2 1 1 0 2 1 1 0 1 0 2 1 0 0 0 1 2 0 1 0 3 1 0 1 1 1 2 1 1 1 1 2 0 0 2 0 0 1 0 1 0 2 0 0 1 2 1 2 0 2 0 1 0 0 0 0 1 0 0 1 0 1 1 1 0 0 0 2 2 1 1 0 1 0 1 1 1 0 0 1 0 1 1 2 1 0 1 0 1 1 0 1 2 2 0 1 1 0 3 0 0 2 0 0 0 0 0 2 0 1 2 0 1 1 3 2 1 0 2 1 1 2 3 0 1 1 2 0 0 1 0 0 2 1 2 1 1 1 1 0 1 0 2 1 1 2 1 0 1 0 1 1 0 1 0 1 2 1 0 1 1 2 2 1 1 1 0 1 1 1 1 0 0 0 2 2 3 2 1 0 2 0 1 1 1 0 2 1 1 1 1 0 0 1 0 2 2 2 0 0 1 0 0 1 1 0 1 1 1 2 1 1 0 0 3 0 1 1 0 1 1 0 2 2 0 1 1 0 2 2 3 2 0 1 0 2 2 0 1 0 0 1 0 1 0 0 1 0 1 0 3 0 0 3 0 1 0 0 0 2 1 1 0 1 1 0 2 1 0 0 2 2 1 0 0 1 0 2 1 2 0 0 0 1 0 0 0 0 0 0 0 2 2 1 1 1 2 2 1 1 2 1 1 2 2 0 0 1 1 1 1 2 1 3 1 1 2 0 2 1 1 1 1 1 2 2 0 0 1 0 0 2 0 1 1 3 0 2 0 0 2 0 1 1 0 0 1 1 1 3 1 0 0 1 0 2 1 0 0 0 1 1 0 0 1 1 0 2 1 1 2 1 0 3 2 1 2 0 0 0 2 0 1 2 1 1 2 1 1 0 0 1 2 1 2 1 0 0 0 1 2 0 1 1 1 1 1 2 1 1 1 1 2 1 0 1 1 1 1 1 0 1 2 0 1 1 1 0 2 0 2 1 1 1 3 0 1 0 1 1 1 1 0 2 2 0 2 2 2 1 2 2 0 1 1 0 1 1 1 3 0 3 2 1 0 0 2 1 1 0 1 0 1 0 0 1 1 1 2 0 1 1 0 0 1 2 2 1 0 0 0 1 0 0 1 1 1 1 3 2 1 1 0 1 2 3 1 1 1 1 2 1 1 0 0 2 0 0 1 1 0 1 2 0 2 0 2 0 1 1 1 0 1 1 3 2 0 3 1 1 2 0 1 0 0 0 1 1 2 1 1 1 0 0 0 1 2 1 0 1 2 1 2 1 1 1 1 1 1 1 1 2 0 0 1 1 1 1 1 1 2 2 0 0 1 2 0 1 1 0 0 1 1 0 0 2 0 1 0 0 1 0 0 1 0 3 3 1 0 1 2 1 0 0 2 0 1 0 0 1 1 0 1 1 1 2 0 0 0 0 0 1 1 0 0 3 0 0 0 0 2 0 0 0 1 1 1 2 1 0 2 1 1 0 1 2 1 2 1 0 0 2 0 0 0 1 0 0 1 1 0 1 1 2 1 0 0 1 0 0 3 2 1 1 1 0 1 1 1 1 0 0 2 0 1 1 1 1 1 1 0 1 2 1 1 1 2 1 0 1 0 2 2 0 0 0 1 2 1 1 1 1 1 1 1 1 0 0 1 1 2 1 0 1 0 3 0 2 1 1 3 1 2 1 1 1 3 2 1 1 1 1 0 2 1 0 1 0 1 1 1 1 1 1 1 2 0 1 0 2 0 1 0 0 1 1 2 2 1 1 2 0 2 1 1 1 1 1 0 2 1 1 0 1 1 3 2 2 2 0 1 0 2 4 2 0 2 1 1 0 1 0 1 3 2 0 1 3 1 1 0 1 1 0 1 1 0 0 1 0 0 0 2 0 1 0 1 1 1 2 1 1 1 1 2 1 0 0 0 1 1 0 2 0 1 1 1 1 0 1 0 1 1 1 1 2 2 1 0 2 2 0 0 1 0 1 3 0 1 3 3 0 0 1 2 0 0 1 2 0 1 1 1 1 0 3 0 1 1 2 1 1 1 0 1 1 1 1 2 1 2 0 0 1 1 0 0 2 2 1 2 0 1 1 2 0 1 1 2 1 0 2 1 0 1 1 1 2 2 1 2 1 2 3 0 1 0 1 2 0 1 0 3 1 0 1 1 2 1 1 2 0 2 0 1 1 1 1 0 0 0 0 2 1 0 0 1 1 2 0 3 1 2 1 1 1 1 1 1 1 1 1 0 1 1 1 0 0 1 0 1 1 2 2 2 0 2 0 2 2 1 1 1 2 2 3 1 0 1 1 1 1 1 0 2 1 1 0 0 1 0 2 0 1 0 3 2 1 1 2 1 1 0 2 0 1 0 1 1 1 1 2 0 0 0 2 0 0 0 0 1 1 1 2 0 1 1 1 1 1 3 0 0 1 0 0 0 2 0 0 0 0 1 1 0 1 0 1 1 1 1 0 0 0 2 1 0 0 1 0 3 3 1 1 0 0 0 0 0 1 2 0 2 0 2 1 0 1 0 1 1 2 0 2 1 1 1 2 0 1 1 0 0 1 0 0 0 0 0 0 1 0 0 1 1 0 0 1 1 3 2 1 0 0 1 0 2 2 2 1 1 1 0 0 2 0 1 1 0 1 1 2 0 0 0 1 0 1 1 1 1 1 2 1 1 1 0 0 2 3 0 0 1 0 0 0 0 0 2 0 0 0 0 1 2 0 1 0 0 2 1 1 0 0 2 1 0 1 1 2 1 0 0 0 1 1 2 1 1 1 1 0 2 1 0 2 1 1 0 2 1 0 2 2 2 3 0 1 3 1 1 1 2 0 1 2 2 1 1 2 1 2 2 0 1 0 2 0 2 1 1 0 1 1 2 0 2 0 0 3 2 3 0 1 1 2 0 1 0 0 2 1 0 0 0 0 2 0 1 0 1 1 2 0 0 1 0 1 1 0 0 1 0 0 0 1 1 3 0 1 1 2 0 0 1 1 2 0 0 0 0 1 1 0 0 1 0 0 1 1 1 0 1 1 0 2 0 1 1 2 1 1 1 0 1 2 1 2 0 1 0 1 1 4 1 0 1 1 0 1 0 0 2 1 2 0 2 1 0 0 1 1 1 0 0 0 2 0 2 0 1 1 0 1 1 0 2 0 0 1 0 3 1 0 1 1 2 1 2 0 1 0 0 1 1 2 3 0 1 2 0 1 1 1 2 0 1 0 1 0 1 1 1 0 2 1 1 1 1 0 0 1 2 0 0 1 0 1 0 1 0 3 2 0 0 1 0 2 2 0 0 2 1 2 1 2 1 1 0 1 0 1 2 1 0 0 2 1 1 1 1 1 0 1 0 0 1 0 1 1 1 1 1 0 2 1 1 0 0 1 1 0 0 1 2 1 1 0 0 1 1 2 0 0 2 1 2 0 1 0 1 0 0 1 0 1 2 1 0 1 1 1 1 2 0 0 1 2 1 1 1 1 1 0 1 1 0 2 1 0 0 0 1 1 2 2 2 1 1 1 3 1 1 1 1 1 0 1 0 3 2 1 0 0 0 1 1 1 2 1 0 2 3 1 0 1 0 2 1 1 0 0 1 3 0 1 1 2 0 2 1 0 0 3 0 2 2 1 0 1 0 0 0 1 0 0 1 0 1 2 2 1 2 0 2 1 0 1 0 1 0 0 1 0 0 0 0 1 1 1 1 0 0 0 0 2 1 1 2 0 0 1 0 0 1 0 1 2 1 2 3 1 3 0 1 0 0 0 3 0 1 2 2 1 2 1 2 3 1 1 1 2 0 0 1 0 1 0 0 1 0 2 1 0 2 1 0 1 1 1 2 0 2 1 0 0 0 2 3 1 0 0 2 1 2 0 2 2 0 0 1 0 2 1 1 1 0 0 2 1 3 1 1 2 0 2 1 2 2 0 1 1 1 1 2 2 0 0 1 1 0 0 4 1 1 1 1 2 0 2 1 0 1 0 2 2 3 0 1 2 2 0 2 1 2 0 1 0 0 0 1 1 1 0 1 1 0 1 0 0 1 1 0 2 0 1 2 2 0 2 1 0 1 1 1 3 0 1 1 1 1 1 2 1 0 0 0 2 0 0 1 1 1 0 0 1 2 1 0 2 1 1 1 2 2 0 2 1 1 1 0 1 2 1 0 1 1 1 0 1 1 1 2 0 1 0 1 0 1 1 0 2 1 1 1 1 1 2 2 0 0 2 1 0 1 0 0 1 2 0 1 1 2 1 1 1 0 1 0 3 2 3 1 1 0 1 1 0 1 1 1 3 2 1 2 1 0 0 0 1 1 1 1 1 0 0 0 0 0 1 1 0 1 1 2 1 1 1 1 0 1 1 0 0 1 2 0 1 1 3 0 0 2 0 0 1 1 0 0 2 1 3 0 3 0 1 1 1 0 2 0 3 1 1 1 1 2 1 3 1 1 1 0 1 0 1 0 2 0 0 1 2 2 0 1 2 1 1 0 0 1 1 0 0 1 0 0 1 0 1 3 1 1 3 0 0 1 2 0 1 1 0 0 1 0 0 1 0 1 0 1 3 0 1 0 0 0 1 1 1 1 0 2 0 1 2 1 1 1 1 2 1 0 0 2 0 0 2 1 0 0 1 0 2 1 1 1 3 2 1 0 2 1 1 2 1 0 2 2 1 1 1 1 1 2 1 1 0 1 1 0 1 0 3 0 0 0 2 2 0 1 1 0 1 2 1 0 1 1 1 0 0 0 1 2 1 0 0 2 1 0 1 0 0 1 0 0 1 1 0 1 1 1 2 0 1 0 2 2 1 2 1 0 1 1 3 0 1 1 2 1 1 1 0 1 0 1 2 1 0 0 1 1 0 1 1 0 1 2 0 0 3 0 0 1 0 0 1 0 0 2 1 2 0 0 0 1 1 1 1 2 1 0 0 1 0 0 1 0 0 1 2 0 1 2 0 3 1 2 0 1 1 1 0 0 0 4 0 1 2 0 2 1 2 0 0 0 0 1 1 1 1 0 0 0 2 1 0 2 1 1 1 0 0 0 1 3 1 0 0 1 2 1 2 1 1 1 0 1 3 0 0 0 1 1 0 1 1 2 2 0 0 0 1 0 0 1 1 1 2 2 1 1 1 1 2 0 1 0 1 1 1 3 1 1 1 1 2 2 2 1 1 0 0 1 1 1 0 2 0 2 1 1 1 1 1 0 0 1 2 1 1 1 0 1 1 2 2 0 1 1 1 1 1 1 0 3 0 1 4 2 2 1 2 1 0 0 0 1 3 1 1 1 2 0 1 1 4 0 0 2 2 1 0 3 2 2 2 0 0 0 1 0 1 1 0 1 1 0 2 1 0 0 2 2 1 0 0 1 1 2 2 0 1 1 2 2 2 0 1 0 2 1 1 0 1 0 0 1 2 0 0 1 0 2 1 0 0 1 0 1 0 0 1 2 1 1 1 1 0 0 0 0 2 0 3 1 1 1 0 0 3 1 1 1 0 1 0 2 2 1 0 2 1 1 1 1 1 1 0 0 0 1 2 1 1 0 2 3 0 2 1 1 1 2 1 0 0 1 0 0 0 0 2 1 0 0 0 0 3 1 1 2 1 0 1 1 1 0 0 1 1 1 1 0 1 0 2 0 0 2 0 1 2 2 2 1 0 2 0 1 0 0 0 0 1 0 0 2 0 2 0 0 1 0 0 1 0 0 0 1 0 3 3 0 2 1 1 0 3 0 0 1 0 2 0 1 2 0 0 2 0 1 1 0 2 1 2 1 1 1 1 1 1 1 0 2 0 0 1 0 1 1 1 1 2 0 2 1 0 0 1 2 0 2 1 1 2 1 1 0 2 1 2 0 1 1 1 0 0 0 1 1 3 0 0 1 2 4 2 1 1 0 2 1 1 1 1 1 2 1 0 1 0 0 1 0 0 1 1 2 1 1 1 1 0 1 0 1 0 0 0 0 1 1 1 2 1 0 0 1 1 0 0 1 2 0 1 0 1 2 0 0 2 2 1 2 1 1 1 0 0 1 3 0 1 2 1 1 0 1 0 0 0 2 0 0 1 2 1 0 1 1 1 0 0 2 0 2 1 0 1 1 0 1 1 2 1 0 3 0 0 1 0 1 0 2 1 0 0 1 3 1 1 1 3 2 0 1 1 0 0 1 1 1 0 1 2 2 0 0 1 0 0 1 1 0 2 1 1 1 1 1 0 2 1 1 2 1 1 0 2 0 1 1 1 0 0 1 1 0 1 0 2 1 1 1 1 1 0 2 2 1 0 0 1 0 0 0 2 1 2 1 1 0 0 1 0 2 1 1 2 3 2 0 0 2 1 3 1 3 1 1 2 1 0 0 0 0 1 1 0 0 2 0 1 0 0 1 1 2 0 1 1 1 2 1 0 1 0 1 1 0 1 1 2 2 2 0 2 1 1 2 1 0 1 4 0 0 1 1 0 0 0 1 1 0 2 0 2 0 1 0 3 0 1 0 1 1 3 0 2 1 1 0 0 1 0 2 1 0 0 1 0 1 0 0 1 0 1 3 1 1 0 0 1 1 0 1 2 2 0 1 1 1 1 1 2 1 1 0 1 1 3 0 1 1 0 1 2 0 0 1 0 1 0 0 1 1 2 1 0 1 0 0 2 0 0 2 0 1 1 0 2 1 1 0 1 0 0 1 1 0 2 0 1 1 1 0 0 0 0 1 3 3 1 1 2 0 1 1 2 2 1 0 0 2 1 2 0 1 1 0 1 0 1 2 1 2 1 1 0 0 2 1 1 1 0 1 2 2 2 2 1 1 1 2 0 2 0 0 1 1 1 2 0 3 1 0 1 2 1 1 0 3 1 1 0 1 1 0 1 1 1 1 0 2 0 0 0 2 1 1 0 2 3 1 0 0 0 0 3 0 1 0 1 1 0 0 3 3 2 1 1 1 0 1 1 1 1 1 1 1 0 2 1 1 2 0 0 0 2 0 2 1 1 2 0 0 2 0 0 0 0 0 1 2 1 1 0 0 1 0 0 1 2 2 1 2 1 1 1 0 0 2 1 1 1 1 2 2 1 0 2 2 1 1 0 0 3 1 1 0 1 1 1 0 1 0 2 1 0 2 1 1 0 0 0 0 1 0 1 0 1 2 0 0 3 0 3 1 1 2 1 2 1 2 1 2 1 0 1 0 0 2 0 1 2 0 2 1 1 0 1 0 0 0 2 1 2 1 1 2 1 1 1 1 0 0 2 0 2 0 1 0 2 2 0 0 1 1 1 0 1 2 0 0 1 1 1 1 0 1 2 0 2 1 0 3 2 0 1 0 2 3 0 0 1 1 0 1 1 0 3 2 0 0 1 0 1 1 1 2 1 0 1 1 1 0 2 2 1 0 2 1 0 1 1 1 0 1 1 2 1 1 1 0 2 0 1 0 2 2 1 1 0 0 1 1 2 1 0 0 0 1 1 1 2 2 2 0 0 1 1 1 0 1 3 0 0 1 1 0 0 3 1 2 1 0 1 2 0 2 1 2 2 0 1 0 2 1 3 2 2 4 0 1 0 1 1 0 0 0 1 1 0 0 1 0 0 2 0 1 2 0 0 0 2 0 1 1 1 0 1 1 0 1 1 2 0 0 2 1 0 0 2 0 1 0 1 3 0 1 0 3 0 0 0 1 0 2 0 1 3 1 1 1 0 1 2 1 0 0 1 2 2 2 2 1 0 1 2 1 1 2 0 1 1 0 0 1 1 1 0 0 1 0 2 0 0 1 2 2 1 1 1 1 1 0 0 0 1 0 0 2 0 1 2 0 2 2 1 2 0 1 1 0 1 0 0 0 1 0 0 1 1 1 1 1 1 1 3 1 1 2 0 1 1 0 2 0 1 2 1 1 1 1 1 0 0 1 1 0 2 2 1 2 1 0 0 1 0 1 1 1 3 0 2 1 1 1 0 0 0 1 2 1 2 1 0 0 0 0 2 1 1 0 0 1 2 0 0 2 1 2 1 1 2 3 2 0 2 1 1 2 1 0 0 1 1 0 2 2 1 1 0 0 3 0 1 0 2 0 0 0 1 1 2 1 2 1 0 1 0 0 1 1 0 1 2 1 0 1 4 0 1 2 1 1 0 0 2 2 1 1 1 0 1 0 0 1 1 0 2 1 0 1 1 2 1 2 0 1 3 0 0 0 1 2 1 0 1 2 0 1 1 0 1 1 2 0 1 1 0 2 0 0 1 0 0 0 1 0 0 0 1 0 1 2 3 1 1 1 1 0 1 0 2 0 0 0 0 1 2 0 0 2 0 0 1 0 1 1 1 1 2 2 0 1 1 0 0 0 1 1 0 1 1 1 1 2 1 1 0 0 2 3 0 0 1 1 1 1 3 2 1 0 1 0 0 0 1 3 1 0 0 1 1 1 0 0 1 0 0 1 0 0 1 1 2 1 1 2 1 2 2 1 0 2 1 2 2 0 0 1 1 0 0 1 0 0 1 1 0 0 1 1 2 0 0 1 1 1 1 0 0 0 1 1 0 1 1 1 2 1 1 2 1 0 1 3 1 2 2 1 2 0 1 2 0 1 0 2 2 2 0 1 1 1 1 0 1 1 1 1 1 0 1 1 2 3 2 2 1 0 1 1 0 1 2 0 1 1 0 0 1 2 2 1 0 0 1 0 3 2 0 1 1 0 1 1 1 2 0 0 1 2 0 1 0 0 1 0 0 0 2 1 2 1 1 2 1 0 3 1 1 2 0 1 1 0 1 1 0 0 0 2 1 0 2 0 1 1 0 1 1 1 2 2 2 1 2 0 0 0 0 1 1 2 0 0 1 2 1 2 0 1 0 1 0 1 0 0 1 0 2 2 1 3 0 0 1 1 2 1 2 2 2 1 2 2 0 1 1 1 3 2 1 0 2 1 0 1 4 0 1 0 3 0 1 0 1 1 1 1 0 0 3 2 1 3 1 1 1 1 0 0 1 2 1 1 2 1 0 1 0 1 1 1 0 2 2 2 2 1 2 1 0 1 1 0 0 1 1 1 2 0 1 0 1 0 2 1 1 1 0 2 1 0 0 0 1 2 1 2 2 2 3 1 2 0 1 1 1 2 0 2 1 0 2 1 1 0 1 1 3 1 1 1 0 1 3 2 1 0 1 1 1 1 1 0 2 3 1 0 0 2 1 0 1 0 1 1 1 2 1 1 0 1 1 1 2 2 1 2 0 0 2 1 2 0 0 1 0 2 1 1 3 2 0 2 1 1 1 2 0 1 0 1 1 2 0 2 1 0 0 0 0 1 0 0 0 0 1 1 1 0 2 0 2 0 0 0 0 0 1 2 2 1 2 1 0 1 4 0 2 1 0 0 1 1 3 1 2 0 0 1 0 0 0 0 1 0 1 0 2 1 1 1 2 0 2 0 0 0 0 1 0 3 1 1 0 1 0 0 2 0 1 1 1 1 0 1 1 2 0 1 1 2 1 0 2 0 2 2 2 1 0 3 0 1 0 3 1 1 0 0 1 1 0 0 0 0 0 0 0 2 1 0 0 1 1 2 0 1 2 1 2 2 2 1 1 0 1 1 3 1 0 1 0 1 1 0 1 1 3 1 1 2 0 1 2 0 1 2 0 0 1 1 2 1 2 1 1 1 0 1 0 1 1 0 1 1 1 2 1 0 2 1 0 4 1 2 1 1 0 0 1 3 0 1 0 0 0 1 3 0 1 0 0 0 1 0 1 2 1 2 0 0 2 1 1 1 0 0 1 1 2 1 0 0 1 0 1 0 0 1 0 1 1 1 0 2 2 1 1 1 0 3 1 1 0 0 0 2 0 0 1 0 1 2 1 0 1 2 1 0 1 0 1 2 1 0 0 2 1 0 0 0 0 1 0 0 0 0 1 1 2 0 3 0 1 1 0 0 0 0 1 0 0 0 1 1 0 0 0 0 2 1 1 2 0 1 0 1 3 0 2 0 0 0 2 2 1 1 2 1 0 3 1 1 0 1 0 1 0 1 3 0 1 1 1 0 2 2 2 1 0 1 1 2 0 1 2 1 1 0 1 1 2 2 0 2 1 2 2 1 0 2 2 2 2 2 0 1 0 1 0 0 0 0 1 0 1 1 1 4 0 1 0 1 3 2 0 1 1 0 0 1 1 1 2 1 0 0 1 0 2 0 2 1 1 0 1 1 0 0 1 2 0 1 0 1 1 1 0 1 1 1 1 1 0 1 1 1 0 0 1 2 2 2 1 1 1 2 1 0 1 0 0 0 1 2 0 0 1 1 1 0 1 0 0 1 1 1 0 0 0 1 0 1 1 1 1 2 0 1 1 1 0 0 1 0 2 0 0 1 0 2 0 1 0 1 1 2 1 3 0 0 0 0 2 0 2 0 0 1 2 1 2 0 2 2 1 1 0 0 1 1 1 1 2 0 2 1 1 0 2 1 1 1 2 2 1 1 2 0 1 1 0 2 1 0 0 1 1 1 0 0 1 1 2 1 0 1 2 3 1 1 3 0 1 1 2 1 1 1 0 1 1 0 2 1 0 0 0 0 0 3 1 0 1 0 1 2 1 1 1 1 2 1 0 0 1 1 2 1 1 1 0 0 0 0 1 2 1 0 4 2 1 1 0 1 1 1 2 1 0 1 0 1 2 2 1 0 0 0 1 1 1 1 3 0 1 1 0 1 2 0 0 0 2 1 0 0 2 2 1 1 3 1 1 3 1 0 0 0 2 0 0 1 2 1 4 1 1 1 1 1 1 0 0 1 2 1 2 2 1 2 0 0 0 2 0 2 0 0 2 0 0 1 1 2 1 1 0 1 1 0 0 2 1 2 1 0 1 0 1 0 1 2 1 1 0 1 1 1 2 0 1 0 1 1 0 0 1 1 0 1 2 1 2 2 3 0 4 1 1 0 0 0 1 0 0 2 1 1 2 1 1 0 1 2 1 1 0 0 1 0 2 2 2 1 1 0 1 2 0 0 1 2 1 0 1 2 1 1 0 1 0 3 0 0 0 1 0 2 3 1 1 1 2 2 1 1 1 2 1 0 2 1 1 1 1 1 0 3 0 2 1 0 0 0 0 2 1 0 3 0 0 0 1 0 3 0 0 2 2 0 1 1 0 0 1 0 1 1 1 1 1 1 0 1 1 1 2 1 0 1 0 0 1 1 0 1 1 0 1 0 2 0 2 2 1 0 1 2 1 2 1 1 0 2 1 0 0 0 0 2 0 2 1 0 0 1 0 0 1 0 0 0 0 1 2 1 1 1 1 1 1 0 0 2 0 2 1 1 0 0 0 1 1 1 0 0 1 1 2 0 1 1 0 1 0 0 1 2 2 4 1 2 1 0 0 2 1 2 3 3 1 1 1 0 2 0 0 1 2 2 1 1 1 1 2 1 1 1 0 0 1 1 1 1 1 3 1 0 1 1 2 3 1 0 1 0 1 0 0 0 1 0 1 0 0 1 0 2 3 1 0 2 2 1 1 1 0 0 2 0 0 1 1 0 1 2 0 0 1 1 1 3 0 1 1 0 2 1 1 0 1 2 1 2 1 1 0 1 1 0 1 2 1 0 1 3 1 1 2 1 0 0 3 1 1 1 0 2 1 1 2 1 2 2 2 1 0 1 0 2 0 1 0 2 2 0 1 2 1 0 2 2 1 2 1 3 0 0 0 0 0 3 0 1 1 1 0 1 1 0 0 2 1 1 1 0 1 0 2 0 1 0 1 0 0 0 1 0 2 2 1 1 1 0 1 0 1 2 2 1 0 1 2 1 0 0 0 1 1 1 2 1 1 3 0 2 2 0 2 1 0 1 0 2 2 2 1 0 0 0 0 0 2 1 1 2 0 1 0 1 1 0 0 1 0 2 0 0 0 0 2 2 0 1 0 0 0 1 1 0 1 1 0 1 0 2 0 1 0 1 0 0 1 0 1 1 2 0 0 2 1 0 0 0 1 1 1 2 2 0 2 1 0 0 1 1 0 0 0 1 0 1 2 2 2 1 2 2 0 0 1 0 1 0 1 1 1 0 0 0 1 2 0 1 0 0 2 1 1 1 0 0 2 1 2 0 0 1 1 0 0 2 2 2 0 0 1 1 0 2 3 0 0 1 1 0 0 2 1 2 2 0 2 2 2 2 0 0 0 1 2 1 0 1 1 2 1 2 2 2 1 0 0 1 1 0 2 1 1 3 2 0 0 2 0 0 1 0 0 2 0 1 1 1 2 2 1 2 2 2 2 0 1 2 0 0 2 1 0 0 0 0 0 1 1 1 0 1 2 1 1 2 0 0 1 0 1 0 0 0 1 1 0 3 1 1 2 1 0 1 1 1 2 0 0 1 1 0 1 2 0 0 0 0 1 0 1 1 0 1 2 1 0 3 0 0 1 1 2 2 1 0 1 1 1 1 2 0 2 0 1 2 1 0 0 0 0 0 0 0 1 1 1 2 0 1 1 1 0 1 1 2 0 0 2 2 0 0 1 2 1 1 0 2 2 2 0 0 1 2 0 1 1 1 0 0 2 2 2 2 1 1 1 0 2 0 1 0 1 0 1 1 1 1 2 1 1 2 1 0 0 1 0 0 1 1 1 0 2 0 1 0 1 1 1 1 1 1 0 0 0 1 2 1 0 0 1 2 1 1 1 1 3 1 0 1 1 0 1 1 1 2 0 1 1 1 0 2 0 0 1 2 1 0 0 2 0 2 1 0 0 1 1 1 0 1 0 0 1 0 0 0 1 1 1 1 2 1 0 2 1 1 1 0 0 0 3 1 1 1 0 1 2 2 1 2 1 1 3 1 0 0 0 1 1 1 0 2 2 2 0 0 1 1 1 0 1 1 0 0 1 2 1 2 0 2 1 1 0 1 0 1 0 2 0 1 1 0 0 0 0 1 0 2 1 1 0 3 2 1 0 1 2 0 1 1 0 2 1 2 0 1 1 2 1 2 1 3 1 1 0 0 1 0 1 1 0 1 1 1 1 2 1 0 0 0 0 1 0 1 0 2 1 1 2 2 1 1 1 1 0 1 0 2 0 1 1 0 1 0 0 1 1 2 1 1 2 0 2 2 2 1 0 3 2 0 1 3 0 2 2 1 0 0 1 2 1 1 2 0 2 2 1 0 1 1 1 2 0 2 1 0 2 0 1 2 1 1 1 1 0 0 0 3 1 1 0 1 2 1 1 1 0 0 3 1 1 0 2 0 1 1 1 2 2 0 0 0 1 0 2 0 0 3 1 3 0 1 2 1 0 1 0 0 1 1 1 1 1 1 1 1 0 2 0 0 1 0 1 2 0 1 1 2 1 1 0 1 1 0 0</t>
+  </si>
+  <si>
+    <t>GAM(0.42714602520181844, -3.0614645292620215e-28, 0.6409743264755505)</t>
+  </si>
+  <si>
+    <t>0 0 0 3 0 2 2 0 0 0 2 1 0 0 0 1 0 0 2 0 0 1 1 0 0 0 0 0 0 0 0 2 2 0 1 0 1 0 2 0 0 0 1 2 3 1 0 0 1 0 0 0 1 0 0 1 1 0 1 1 0 0 2 0 0 0 2 1 2 2 0 2 1 1 0 1 2 0 0 0 0 0 0 0 1 0 0 0 2 0 0 1 0 1 0 1 0 0 1 1 0 0 2 1 0 0 1 2 0 1 0 0 0 0 1 1 0 1 0 2 0 0 2 1 1 1 0 0 1 0 1 1 1 0 1 1 1 0 0 0 0 1 0 1 1 0 1 0 0 1 0 1 0 0 0 1 0 1 0 0 1 1 0 0 4 0 2 0 1 1 1 0 0 0 0 0 1 0 1 2 1 2 1 2 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 1 0 2 0 0 1 1 3 1 0 1 1 0 1 0 1 0 1 0 0 0 1 0 1 0 2 1 1 0 0 1 1 0 0 2 1 1 0 1 1 0 2 1 0 2 0 2 0 1 0 1 1 1 1 0 0 0 1 0 0 1 2 0 1 0 1 0 3 1 0 1 1 1 1 1 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 2 3 1 0 0 0 0 2 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 2 1 0 1 1 0 2 0 0 0 1 0 1 0 1 1 2 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 2 1 1 0 1 1 1 1 0 2 0 0 0 1 1 0 2 0 1 1 0 0 1 0 0 0 0 0 0 1 1 0 0 0 1 0 0 1 1 0 0 0 0 0 0 2 1 1 0 1 0 1 1 0 1 1 0 0 1 2 0 0 1 0 2 0 0 0 0 1 0 1 0 0 0 1 1 1 0 0 0 0 0 0 1 0 1 0 0 2 0 0 2 0 2 1 0 0 0 1 1 1 2 1 0 0 0 0 1 0 1 1 0 1 1 0 0 0 0 1 0 0 2 0 1 2 0 0 0 1 2 0 0 0 1 0 0 1 1 0 0 0 1 0 0 0 2 0 0 1 0 1 0 0 1 0 2 0 0 0 1 0 0 1 1 0 0 0 1 2 0 0 0 0 1 0 0 1 1 0 0 0 1 2 0 0 1 0 0 3 1 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 2 0 1 0 0 1 1 0 2 0 1 1 0 0 0 0 1 0 3 0 0 2 1 0 0 0 0 0 0 2 0 0 2 0 1 0 0 0 1 2 0 0 0 0 1 1 0 0 0 0 1 0 0 1 1 0 1 2 0 0 1 0 0 0 1 0 1 0 0 0 1 0 1 1 0 2 0 0 1 1 1 0 0 0 0 1 0 0 2 0 0 0 1 0 0 1 0 1 0 0 0 0 0 1 0 1 0 0 0 2 0 0 0 0 1 0 0 0 1 1 0 1 2 1 0 0 1 1 2 0 0 0 0 0 0 0 0 0 1 2 2 2 0 2 0 0 1 0 0 0 2 0 1 0 0 0 0 0 2 0 1 0 2 1 2 0 0 0 2 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 2 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 2 1 1 0 2 1 1 1 0 1 0 1 0 1 0 2 0 2 1 0 1 1 0 0 0 0 1 1 1 1 0 0 0 0 0 1 0 0 1 0 0 1 1 1 1 1 2 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1 2 2 0 1 0 0 1 1 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 1 2 0 0 1 0 1 0 1 0 2 2 1 1 1 0 0 1 1 0 0 1 1 1 0 0 2 0 0 1 0 2 0 0 2 1 0 0 1 0 1 2 3 0 0 0 1 1 1 1 0 0 0 2 1 0 0 1 0 1 0 0 1 2 0 1 1 0 1 0 0 0 2 0 1 0 1 0 0 1 2 1 0 1 0 0 1 0 0 0 0 1 0 0 0 2 2 1 2 0 0 0 0 0 0 0 1 0 0 2 2 0 0 0 0 1 1 1 0 0 0 0 2 1 0 1 1 0 0 0 0 0 2 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 1 2 0 0 0 0 0 0 3 0 0 0 0 2 2 1 1 1 0 0 1 0 2 1 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 1 0 3 0 0 0 0 0 1 0 2 0 0 0 0 0 1 0 0 1 0 1 0 0 0 1 1 0 2 2 0 0 2 0 1 1 0 1 0 0 1 0 3 0 0 1 2 1 1 0 0 0 0 1 0 1 1 1 0 1 1 0 1 0 0 0 0 0 1 1 0 0 0 1 2 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 1 0 0 0 1 1 0 1 0 0 1 2 0 0 1 0 1 0 1 0 0 0 2 0 0 0 1 0 1 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 2 2 0 0 0 0 1 0 0 0 0 3 0 0 0 0 1 0 2 1 0 0 0 1 0 0 3 0 1 0 0 0 1 0 0 0 1 0 0 0 1 0 1 1 0 0 0 0 0 1 0 0 0 1 0 0 0 1 1 1 0 1 0 1 0 1 1 0 0 0 0 0 0 1 2 0 0 0 1 1 1 0 0 1 0 1 1 0 0 0 1 0 0 0 1 1 1 0 1 1 1 1 0 0 0 0 2 0 1 0 1 0 1 2 2 0 2 1 1 1 0 1 1 2 0 2 2 2 1 0 1 2 0 0 1 0 0 1 0 0 2 1 0 0 0 1 0 0 1 0 0 0 1 2 0 0 1 1 2 0 0 0 4 2 1 1 0 1 0 0 1 1 0 0 0 1 1 0 0 0 1 0 0 0 0 0 2 1 1 1 0 0 0 1 1 0 0 1 0 0 0 0 1 0 0 0 1 0 1 2 0 0 0 1 4 0 0 0 1 0 3 0 1 0 1 1 1 2 0 1 1 0 0 0 1 0 0 2 1 0 0 0 1 1 0 0 0 0 0 0 2 0 0 0 2 0 1 2 0 2 0 1 0 3 0 0 1 0 2 0 0 0 0 2 0 0 0 1 2 0 2 0 0 0 1 0 0 0 0 0 0 2 1 0 0 0 1 2 0 1 0 0 0 0 1 0 0 0 2 0 1 0 0 1 0 0 0 1 0 1 1 1 1 1 0 1 0 2 0 0 1 0 2 1 1 0 2 0 1 0 0 0 1 0 0 0 2 0 1 1 2 3 0 0 0 1 1 0 0 2 1 0 0 0 0 0 1 2 1 1 0 1 1 0 1 0 0 0 0 0 3 1 2 0 2 1 0 0 0 2 1 0 0 1 2 1 1 1 2 0 1 0 1 0 1 1 0 0 0 1 0 0 0 1 1 0 0 1 1 0 1 0 0 1 1 0 0 0 0 0 2 0 0 2 0 1 0 0 0 1 0 1 0 2 0 0 0 0 1 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 1 1 0 0 1 0 1 2 2 2 0 0 1 0 0 1 1 0 0 1 0 2 0 0 0 0 2 0 1 0 0 1 0 0 0 0 2 0 1 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 1 0 1 1 0 0 2 0 1 0 0 0 0 0 0 0 2 1 0 0 1 0 0 0 0 0 1 2 3 1 0 3 0 0 0 0 0 2 0 0 0 0 0 2 0 0 2 2 1 0 1 0 0 0 1 0 1 1 0 1 0 1 0 0 2 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 1 0 0 2 0 0 1 0 1 1 0 0 0 0 1 0 1 1 0 0 0 0 0 1 0 1 0 1 0 0 1 0 0 0 2 0 0 1 0 0 1 1 1 3 0 0 0 0 0 0 0 2 1 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 2 1 0 0 1 1 0 0 2 1 0 1 2 0 2 0 2 2 0 1 0 0 0 0 1 0 0 1 0 1 1 1 1 1 1 0 0 0 1 0 0 0 0 1 0 0 1 1 1 1 0 0 0 0 2 0 0 0 0 0 0 1 1 0 1 2 0 1 1 1 0 2 0 0 0 0 0 1 0 0 1 0 0 1 0 0 1 2 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 1 2 0 1 1 0 1 0 1 2 0 0 0 0 0 0 1 2 2 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 2 0 0 1 0 0 1 0 3 1 0 1 1 0 3 0 0 0 0 0 0 0 1 2 2 0 0 0 1 2 2 0 0 0 1 0 1 0 1 1 0 1 1 0 1 1 0 0 0 1 0 0 1 1 2 0 1 1 3 0 0 0 1 0 0 0 0 1 0 0 0 0 2 1 1 0 0 0 0 0 2 1 1 0 1 1 0 0 0 2 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 2 0 0 0 1 2 2 1 1 1 0 0 2 1 1 0 2 2 0 0 0 0 2 0 0 1 0 0 0 0 0 0 2 0 0 0 0 0 1 1 1 0 1 0 0 1 0 0 0 1 0 0 1 0 2 0 1 0 0 0 0 1 1 0 2 0 0 0 0 0 0 1 1 0 0 0 0 1 0 2 1 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 1 0 1 0 1 0 0 1 1 0 0 0 1 0 0 1 2 0 0 0 0 1 0 1 0 0 0 1 0 0 0 1 1 1 0 0 1 0 0 2 1 0 0 0 1 0 0 1 1 1 0 0 0 2 0 0 0 0 0 0 0 0 1 0 1 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 2 1 1 2 1 0 1 0 0 0 1 0 0 0 1 1 1 1 0 0 2 0 0 0 1 1 1 0 0 0 1 1 0 1 0 0 2 0 1 0 0 1 1 1 1 1 0 0 0 4 0 1 0 1 1 0 1 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 2 0 1 1 1 1 0 2 1 1 0 0 0 0 1 2 1 0 1 0 0 0 1 0 1 0 0 0 0 1 0 0 1 0 3 0 2 0 0 0 1 0 0 0 2 2 0 0 0 0 1 1 0 0 0 0 1 0 2 2 0 0 0 1 0 0 0 1 1 0 1 1 0 2 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 2 0 1 2 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 1 0 0 0 1 0 0 2 2 0 1 1 0 1 0 0 1 0 0 0 2 0 2 1 2 1 0 1 1 0 0 2 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 1 1 0 0 0 0 0 1 0 2 2 0 1 0 0 1 0 0 0 0 0 0 0 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 1 0 1 2 0 0 0 0 0 1 0 2 0 2 1 0 0 0 1 1 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 2 0 1 1 1 1 0 1 0 0 1 0 0 0 0 1 1 0 1 0 0 0 1 0 0 0 0 0 0 0 2 0 1 0 0 3 0 0 0 1 0 4 1 1 0 0 0 1 1 0 0 2 0 0 0 0 0 0 0 1 0 1 1 0 2 1 1 0 0 1 0 1 0 0 1 0 2 1 1 0 0 1 1 0 0 0 0 1 0 0 1 0 2 0 0 0 0 1 0 0 1 0 1 0 0 2 3 1 0 0 0 0 1 1 0 1 0 1 0 0 1 1 1 1 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 3 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 2 1 1 0 0 1 0 0 0 0 2 0 0 1 1 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 1 1 1 0 1 0 0 2 1 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 1 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 2 1 1 1 0 2 1 1 0 0 0 0 0 1 3 1 0 0 1 0 0 2 0 0 1 0 0 0 0 1 1 2 1 1 2 0 0 0 2 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 1 2 0 0 1 0 0 2 1 0 0 0 0 2 0 0 1 2 0 1 1 0 1 1 0 0 2 0 0 1 0 1 2 0 0 0 0 1 0 1 0 0 1 0 1 1 0 0 0 0 1 2 0 1 0 0 0 0 0 0 0 0 2 1 2 0 0 1 1 0 0 1 1 1 0 0 3 0 0 0 3 1 1 1 1 0 0 3 1 0 1 0 0 0 0 0 1 2 1 0 1 0 1 1 2 0 0 2 1 0 0 2 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 2 0 0 0 1 1 1 0 2 0 0 0 1 0 0 0 1 0 1 0 0 0 2 2 0 2 0 1 1 0 0 2 0 0 1 0 0 1 0 2 1 0 0 1 0 2 0 0 0 0 1 3 0 0 0 1 1 1 0 1 1 0 1 1 0 0 0 0 0 0 0 2 0 0 2 0 0 0 1 1 1 1 0 1 0 0 0 1 0 0 0 1 1 0 1 2 1 0 0 2 1 0 0 0 1 2 0 1 0 1 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 1 0 0 0 2 0 0 0 2 1 1 1 1 2 0 0 1 1 0 1 0 0 1 1 0 1 0 2 0 0 0 0 0 1 2 1 1 0 1 0 2 1 0 0 0 1 0 1 1 0 0 1 0 0 0 1 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 1 2 0 0 1 2 1 1 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 1 1 0 0 0 0 0 1 1 1 1 0 0 4 1 0 0 0 1 1 1 0 1 0 0 0 0 3 1 0 1 1 0 0 1 0 0 0 0 0 2 0 0 0 0 0 1 0 0 2 0 0 0 0 1 1 0 0 0 3 0 2 1 0 0 1 1 0 1 0 0 1 0 1 0 0 0 1 0 0 0 1 0 0 1 1 0 0 1 0 0 1 1 0 0 1 0 0 0 0 0 0 1 1 1 2 0 0 1 1 1 1 0 0 1 1 0 0 1 0 0 1 1 0 0 0 0 0 1 0 1 0 1 1 1 0 0 0 0 1 0 0 2 1 0 0 0 0 1 0 1 0 2 0 0 1 0 1 4 0 0 0 0 0 1 0 1 2 1 0 0 0 1 2 0 1 1 0 2 2 0 0 0 0 0 0 0 1 1 1 1 0 1 0 0 0 1 1 0 0 1 2 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 1 1 0 1 1 0 0 2 1 0 3 2 0 0 1 0 0 0 1 0 1 0 0 1 0 1 0 0 5 1 1 0 1 0 0 0 0 0 1 1 0 0 0 0 0 1 3 0 0 0 2 2 0 0 0 2 0 0 2 0 0 0 1 1 1 0 0 0 0 1 0 0 1 0 0 0 1 1 2 0 2 1 1 0 0 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 1 1 0 0 1 0 2 0 1 3 1 1 1 1 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 2 1 0 0 0 0 0 1 1 1 0 1 0 1 0 1 1 1 1 1 0 1 0 0 0 1 0 1 0 1 2 1 0 1 0 1 1 0 0 1 1 0 0 0 1 0 0 1 0 0 1 0 0 1 2 0 0 0 1 0 0 1 1 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 1 3 1 1 1 1 1 0 2 1 0 1 0 0 0 0 0 0 0 0 1 1 1 1 2 0 0 0 0 0 0 1 1 0 0 0 1 0 0 1 0 1 0 1 1 0 0 0 0 1 1 1 1 1 0 1 1 0 2 1 0 1 0 1 1 0 0 1 0 0 1 0 2 0 1 0 0 0 0 1 0 0 0 1 2 0 2 0 1 2 0 0 0 2 0 0 1 0 0 1 2 0 0 0 0 0 1 2 0 0 1 0 1 1 0 0 0 2 0 1 1 0 0 0 1 0 3 0 1 1 0 1 1 0 1 0 1 0 3 0 0 0 0 0 0 1 0 1 0 1 0 1 0 0 1 1 4 0 0 1 0 1 0 0 0 0 3 1 2 0 0 0 0 0 0 0 1 0 0 1 0 2 0 0 2 0 0 0 0 2 1 0 1 1 0 2 0 0 0 0 0 0 1 1 1 1 1 0 0 0 0 1 0 1 0 0 1 1 0 2 0 0 0 0 1 3 0 0 1 0 0 1 0 1 0 0 1 2 0 2 0 0 1 2 0 0 1 0 0 0 0 1 0 1 0 0 0 2 1 0 1 1 0 0 0 0 0 1 1 1 1 1 0 0 0 0 0 0 1 1 0 1 2 0 0 0 2 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 1 1 1 1 0 0 0 0 0 0 1 1 0 1 0 2 1 0 2 0 1 1 0 1 0 1 0 0 0 1 1 0 1 0 2 0 0 0 0 0 1 0 0 1 0 0 0 1 1 0 0 0 2 1 0 0 0 1 0 0 0 0 2 0 1 0 0 0 0 0 2 0 0 0 1 1 0 0 2 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 2 0 0 0 0 0 2 1 0 0 0 1 1 4 0 1 1 2 0 1 1 1 3 0 2 0 0 0 0 0 1 0 3 0 1 1 0 0 0 2 0 1 1 0 0 0 1 0 0 2 0 0 0 0 0 0 1 0 0 2 0 0 1 1 0 0 0 0 0 1 0 0 0 1 0 0 0 2 0 0 0 0 2 2 0 1 0 0 0 1 1 0 2 0 0 0 0 1 0 2 0 0 1 1 0 0 3 0 0 3 0 0 0 1 0 1 1 0 1 0 1 1 0 1 1 0 0 0 0 1 2 0 0 0 1 0 0 2 2 2 0 0 0 1 1 1 1 0 0 0 0 2 0 1 0 0 0 2 1 1 1 0 0 0 0 0 0 0 0 0 1 1 2 0 0 1 0 0 0 0 2 0 0 0 1 0 0 0 1 0 1 2 1 1 0 0 0 1 2 0 0 1 0 0 2 0 0 0 1 1 2 0 0 0 0 0 0 1 0 2 1 0 0 0 1 1 1 0 1 1 1 1 2 1 0 0 1 0 4 0 1 0 0 1 1 2 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 1 0 2 0 0 0 0 2 1 0 1 0 1 1 1 0 1 2 0 0 0 2 1 1 0 0 0 0 1 0 0 0 0 1 1 0 2 1 0 0 1 1 1 0 1 0 0 0 0 0 2 0 1 2 0 2 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 3 0 0 0 1 0 0 1 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 2 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 2 0 0 0 1 0 1 0 0 0 1 1 0 0 0 0 1 1 1 1 3 0 0 1 0 0 0 1 0 1 1 0 0 1 2 0 1 0 0 0 1 0 0 1 0 1 1 0 1 2 0 0 0 0 3 1 0 0 1 0 0 0 0 0 0 0 0 1 1 1 0 1 3 0 0 0 2 0 1 0 0 0 0 0 1 2 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 2 0 0 0 1 0 1 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 1 2 0 3 0 0 0 1 1 1 1 0 0 0 0 1 0 0 1 0 1 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 2 0 0 0 0 0 0 1 1 1 0 0 0 0 1 1 0 1 1 0 1 0 1 2 1 0 0 0 0 0 2 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 2 0 0 0 0 1 0 0 1 1 0 0 0 0 0 1 0 1 0 1 0 0 0 2 0 0 0 2 2 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 1 0 1 0 3 0 1 1 2 0 0 0 0 0 2 0 0 0 0 1 0 0 2 0 0 0 0 0 1 1 1 0 0 0 0 1 0 0 1 0 0 0 2 1 0 0 0 0 0 0 3 0 0 1 0 1 0 1 0 2 0 0 0 1 1 0 1 1 0 2 0 2 1 0 1 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 2 0 0 2 0 2 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 1 0 0 1 2 0 0 0 0 1 0 3 1 0 0 0 0 1 1 1 0 0 1 0 0 0 1 1 0 0 0 1 0 0 1 0 0 1 2 0 1 1 1 1 0 0 0 2 0 0 1 0 0 1 1 0 0 0 0 0 0 1 0 1 0 0 1 2 1 0 0 0 0 2 1 1 0 1 1 0 1 0 1 0 0 0 2 0 0 0 0 1 0 1 2 0 2 0 2 0 0 0 1 1 2 0 0 2 0 0 1 0 1 0 0 0 0 1 1 1 0 2 0 0 1 0 1 0 1 1 0 0 2 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 2 0 0 0 0 1 1 0 2 0 1 1 1 1 0 1 1 0 2 0 1 0 0 0 0 1 1 0 1 1 1 0 0 0 0 1 1 0 1 1 0 0 1 2 0 1 3 0 1 0 1 0 0 1 1 0 0 0 1 2 1 0 0 1 0 0 2 1 0 1 1 1 0 0 2 0 1 0 0 1 1 0 0 0 1 0 0 1 0 1 0 0 0 1 1 0 0 2 0 0 0 2 1 0 0 0 1 1 2 0 1 0 0 1 1 0 2 0 0 0 0 0 0 0 0 0 0 1 2 1 0 1 2 1 0 1 0 0 0 0 0 2 1 0 0 1 0 0 0 0 2 0 1 1 0 1 0 1 2 1 0 1 1 1 0 0 1 2 0 1 0 0 0 2 0 0 1 0 1 1 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 1 1 0 1 0 1 0 1 0 1 1 1 2 4 0 1 1 1 0 0 0 0 0 1 0 2 2 2 0 0 0 1 0 0 0 1 0 1 0 1 0 1 0 1 1 0 0 1 0 0 2 3 1 0 3 0 2 0 0 1 0 0 1 1 0 0 0 0 0 0 0 1 2 0 2 1 0 2 1 0 0 0 0 1 0 1 0 2 0 1 1 0 0 1 2 1 0 1 0 0 0 1 0 0 0 1 0 0 1 0 0 2 0 1 0 1 1 0 1 0 0 3 0 1 0 0 0 0 1 2 2 0 1 0 0 0 0 1 0 1 0 0 1 2 0 0 1 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 1 2 1 0 0 1 0 0 0 0 0 0 0 1 1 1 1 0 1 1 1 1 0 1 1 0 0 0 1 0 1 2 0 0 0 0 1 0 1 3 1 0 0 1 0 0 0 0 1 1 1 0 0 0 1 0 0 0 0 0 0 1 2 0 0 1 0 1 0 1 0 0 0 1 1 1 0 0 1 0 0 0 0 0 0 0 2 1 0 0 1 0 0 2 0 1 1 0 3 0 0 2 0 1 1 2 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 1 0 0 1 0 0 1 0 1 0 1 0 2 0 0 0 0 0 2 0 1 0 0 0 0 0 3 0 0 0 1 0 1 0 0 0 0 2 1 1 0 0 1 0 1 0 0 0 0 1 1 0 1 0 1 0 1 1 1 1 1 1 2 1 0 1 2 0 0 2 1 1 0 0 2 1 1 0 0 0 0 2 0 1 0 1 0 1 1 1 1 1 1 2 1 0 0 1 1 0 0 0 1 1 0 1 0 0 0 0 0 1 0 1 1 0 0 0 0 1 0 1 1 0 0 1 1 1 0 0 0 0 0 0 1 0 1 1 0 0 1 0 2 1 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 2 2 0 0 0 0 1 2 1 1 0 1 0 0 0 1 0 0 0 1 1 1 0 1 0 1 2 1 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 1 1 0 1 1 1 2 0 0 0 1 0 1 1 0 0 0 1 0 0 1 0 1 0 1 0 0 0 1 0 3 0 0 0 1 1 2 2 0 2 0 0 0 1 1 0 1 0 0 2 0 1 0 0 0 1 0 1 1 2 2 0 1 0 0 1 1 1 0 0 0 1 1 0 0 1 0 0 0 2 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 2 1 0 0 0 0 1 1 0 1 0 0 1 1 0 0 1 0 2 1 2 0 2 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 3 0 1 0 0 3 1 0 1 0 0 0 1 1 0 1 0 0 0 0 2 0 2 0 0 0 1 0 0 1 1 1 0 0 0 1 0 0 1 1 1 0 0 0 0 0 0 0 1 0 0 0 1 1 0 1 1 0 0 0 0 1 0 1 0 1 0 0 0 0 0 2 2 0 0 0 0 0 1 1 0 0 1 1 2 1 0 1 0 0 0 0 0 1 0 0 0 2 0 0 0 1 1 0 0 0 1 0 1 0 0 1 0 1 0 0 3 0 1 0 0 1 1 0 1 0 0 0 1 1 0 2 0 1 2 0 1 3 1 0 0 1 1 0 0 0 0 0 1 1 1 0 0 0 0 2 1 0 0 0 0 0 1 0 1 2 1 0 0 0 1 0 1 0 0 0 0 1 1 0 1 1 1 2 2 2 1 1 0 1 2 0 1 0 0 0 0 1 0 0 0 1 1 0 0 1 1 0 0 0 2 1 1 0 1 0 1 0 1 1 1 0 0 1 0 0 0 1 1 1 0 0 0 0 0 1 0 1 0 0 1 0 0 1 0 1 0 0 2 0 0 1 0 0 1 0 2 1 0 0 0 0 1 2 0 0 0 0 1 0 0 0 1 2 0 0 0 0 0 1 0 3 2 1 0 0 2 0 0 0 1 0 0 0 1 0 0 1 0 1 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 2 0 0 0 0 1 0 0 0 0 1 0 2 1 0 1 1 2 1 0 0 0 0 0 0 2 3 0 0 0 2 1 0 0 1 0 0 1 0 1 1 1 1 1 0 0 2 0 0 3 0 0 1 1 0 1 0 0 0 1 0 1 1 0 1 2 0 1 0 1 0 0 1 0 0 2 0 0 1 0 0 2 1 0 0 0 0 1 0 0 1 1 0 0 0 1 0 0 0 0 0 0 2 1 1 0 0 0 2 1 0 0 1 0 0 1 1 0 1 0 0 2 1 1 0 1 2 0 0 0 0 0 1 1 0 0 0 0 0 0 2 0 1 0 0 1 0 0 0 0 0 0 0 0 1 2 0 0 0 1 1 0 2 1 0 0 0 1 2 0 1 2 1 0 1 0 0 1 0 1 1 0 0 0 0 1 2 0 0 0 1 0 1 0 0 1 0 0 1 1 0 0 1 0 1 0 1 0 0 0 0 0 0 1 0 0 2 0 0 1 0 1 0 2 0 0 0 0 0 0 0 0 0 0 0 0 1 1 2 1 0 0 3 0 1 0 2 0 2 0 0 0 0 2 0 0 1 0 1 1 0 0 0 0 1 0 1 0 0 0 0 0 0 1 1 2 0 2 0 0 0 0 1 1 0 0 0 0 0 0 1 0 1 0 2 1 1 0 0 1 3 0 2 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 1 2 0 1 0 1 0 1 0 1 0 0 0 1 1 0 1 0 0 1 1 0 0 0 1 0 1 0 0 1 0 1 1 1 1 1 0 0 0 0 0 0 0 1 0 1 3 1 0 0 0 1 0 2 0 0 0 0 2 1 0 0 1 0 0 0 0 0 0 0 1 2 3 1 2 1 0 1 0 1 1 0 0 3 1 1 0 2 1 1 0 0 1 0 1 0 1 0 2 0 1 0 0 0 0 0 1 0 0 2 1 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 2 0 0 0 0 1 1 1 0 1 1 0 0 0 0 0 0 1 0 1 0 1 0 1 0 0 2 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 1 1 1 0 0 0 1 0 0 1 0 0 1 2 0 0 0 0 1 1 1 0 0 0 0 0 1 0 1 0 1 0 1 0 0 1 0 0 0 0 2 1 0 1 1 2 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 1 1 0 0 2 1 0 0 0 1 1 1 0 0 0 1 1 2 0 2 1 0 0 1 1 0 0 1 1 0 0 1 0 0 0 0 1 1 0 1 0 0 0 1 1 0 1 0 0 2 2 0 0 0 1 0 1 0 1 0 0 0 0 2 0 2 0 2 2 0 1 0 1 1 1 2 1 0 0 0 0 0 0 0 1 0 0 2 0 0 1 0 2 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 2 0 0 0 1 0 0 0 1 1 0 0 0 0 1 0 3 0 0 0 0 1 0 0 1 1 0 0 0 1 0 0 2 1 1 0 1 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 1 2 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 1 1 0 1 2 0 1 0 0 0 0 0 2 1 1 0 0 0 0 1 2 0 1 0 1 0 0 0 1 0 1 0 0 1 0 0 0 1 1 0 0 1 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 1 1 1 0 1 2 0 2 0 1 0 2 0 1 0 0 2 1 0 0 0 1 1 0 1 1 2 1 0 1 1 0 0 0 3 1 1 0 1 1 0 0 3 0 0 1 0 1 0 1 0 1 1 0 0 2 1 0 1 1 1 0 0 0 0 1 1 4 4 0 1 1 1 2 0 0 0 0 0 0 1 0 0 2 1 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 1 0 1 0 0 0 0 2 1 0 0 0 0 2 1 1 1 0 0 1 1 0 0 0 0 1 1 1 0 0 0 0 0 1 1 1 0 2 1 0 0 1 0 0 2 0 0 0 0 1 0 0 0 1 2 1 0 1 1 0 0 1 0 1 0 1 0 0 0 0 1 1 0 0 1 0 1 0 0 0 2 0 0 0 0 0 0 1 2 1 0 0 0 0 0 0 0 2 0 1 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 1 1 0 0 0 0 1 1 0 1 0 1 0 0 1 1 0 0 0 0 0 0 0 0 2 0 0 0 1 0 0 0 1 0 1 0 0 0 0 1 1 2 1 0 1 0 0 1 1 1 2 0 0 0 0 0 0 1 2 0 0 0 1 1 0 0 0 2 1 1 0 0 0 0 0 0 1 0 1 1 1 0 0 0 0 1 0 2 0 0 0 0 0 0 1 1 0 0 0 1 0 0 1 1 0 1 1 0 1 0 0 1 0 0 2 1 1 0 0 0 0 0 0 0 1 1 0 1 0 0 1 0 1 0 1 0 2 0 0 0 1 1 1 0 0 0 0 1 0 0 0 2 0 0 0 0 1 0 0 0 2 0 0 0 0 1 0 1 1 0 1 1 0 0 1 1 0 2 1 1 0 1 0 1 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 2 1 0 1 1 0 1 0 1 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 3 2 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 1 0 1 1 1 0 0 1 0 0 2 0 0 0 0 0 0 0 1 1 0 1 4 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 1 1 0 1 0 1 0 0 3 1 1 0 0 2 2 0 1 0 0 0 0 1 0 0 2 0 0 0 0 0 0 0 0 1 0 2 0 1 1 0 0 0 0 1 0 0 0 0 0 0 1 2 2 1 0 1 1 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 2 1 1 0 1 1 0 0 0 0 0 0 2 1 0 0 0 2 0 0 0 1 0 1 2 0 1 0 1 0 0 0 2 0 2 1 1 2 1 0 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 4 0 1 0 0 0 1 0 1 1 0 0 0 0 0 3 1 2 0 0 1 2 0 0 1 1 0 1 1 0 0 1 1 1 0 0 0 0 2 0 0 0 1 0 2 1 2 1 0 0 1 1 1 1 1 0 0 0 1 0 0 0 0 0 0 1 0 0 2 0 1 0 0 1 3 0 0 0 2 1 0 0 1 0 0 0 0 1 1 1 0 0 1 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 2 0 0 1 0 0 0 2 1 0 1 1 1 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 1 1 0 0 0 0 1 1 0 0 1 1 1 3 0 0 0 0 4 0 0 1 1 1 1 1 1 0 0 0 0 0 0 0 0 0 2 0 3 0 2 0 2 0 0 0 0 1 1 0 1 1 1 0 0 2 0 1 0 0 1 0 1 1 0 1 0 0 1 4 0 2 1 1 2 1 1 0 1 0 2 0 0 2 2 0 0 1 0 1 0 1 1 0 1 0 1 1 2 0 1 2 0 0 0 0 1 0 1 1 0 0 1 1 1 0 1 0 0 1 0 0 1 0 0 0 1 0 0 1 1 0 2 0 1 0 0 0 0 2 0 2 0 1 1 2 0 0 0 0 0 2 0 0 1 3 3 1 0 1 1 0 0 0 0 0 1 0 1 2 1 0 0 1 0 0 1 1 0 0 0 1 1 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 1 1 0 2 2 0 1 0 0 1 0 1 0 3 1 1 0 1 0 1 1 1 1 1 0 0 2 1 1 1 0 0 2 0 1 0 0 1 0 0 1 0 1 0 1 0 1 0 1 0 0 0 0 3 1 1 0 0 0 0 0 0 0 0 2 1 0 0 1 1 0 3 1 0 0 0 0 0 0 2 0 0 0 0 0 1 1 0 0 1 1 2 0 0 0 1 1 0 0 0 0 0 0 1 0 2 0 1 0 0 1 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 2 0 0 0 0 1 0 0 0 0 2 0 2 1 2 1 0 0 1 1 0 0 0 0 1 2 0 1 1 1 1 0 2 0 0 3 0 0 0 0 2 0 0 1 1 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 2 0 0 1 0 1 0 1 1 0 0 1 0 0 0 1 0 0 0 1 1 0 0 0 0 1 0 2 1 0 2 0 0 2 0 0 0 0 1 0 0 0 1 1 0 0 1 0 0 0 1 0 0 0 1 1 0 1 1 0 0 0 1 1 0 1 0 0 0 0 0 0 1 1 0 0 0 1 0 2 0 0 0 0 0 0 0 1 0 1 2 0 1 0 1 0 0 2 1 0 1 0 0 1 1 1 0 2 0 1 3 0 0 0 1 1 2 1 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 2 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 1 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 2 1 0 1 0 0 0 0 0 2 0 1 0 2 0 1 0 0 0 2 1 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 2 0 1 2 1 0 1 0 1 1 1 0 0 0 1 0 0 1 0 0 0 1 1 1 0 0 0 2 0 1 2 2 1 0 0 0 0 3 1 0 1 3 0 0 0 0 1 0 1 3 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 1 1 0 0 0 1 2 0 2 3 1 1 0 0 0 1 0 0 0 2 1 0 1 1 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 3 1 0 1 2 0 0 0 1 0 0 2 0 3 1 0 0 0 0 2 1 0 0 0 0 1 1 2 0 1 0 0 0 0 0 0 0 3 0 0 1 1 1 0 0 0 0 1 0 0 2 1 0 0 0 1 1 1 0 0 0 0 1 1 0 1 0 1 2 0 0 0 2 0 1 1 0 0 0 1 0 0 0 0 2 0 0 0 0 0 2 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 1 1 0 0 1 1 0 0 0 0 0 1 0 1 0 0 1 1 0 2 0 1 1 0 0 0 1 1 1 0 0 0 0 2 0 0 0 1 1 1 0 1 0 1 0 1 0 0 0 0 0 0 2 1 1 0 0 0 1 3 1 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 1 0 1 1 1 0 0 0 0 1 1 1 0 0 1 1 0 2 0 0 0 0 0 1 0 1 1 0 0 0 1 0 0 0 0 2 0 0 0 1 1 1 0 0 0 0 1 0 1 0 1 0 0 2 0 0 0 0 1 1 1 0 0 0 0 1 0 2 1 1 2 0 0 0 1 0 2 0 0 0 0 0 1 1 0 0 0 1 0 0 0 1 1 0 0 1 0 0 1 2 1 0 1 2 0 0 0 1 2 0 0 0 0 2 0 0 0 0 1 0 1 0 0 0 1 0 0 1 1 1 0 2 2 1 2 0 0 0 0 0 0 0 2 1 1 0 0 0 1 1 0 0 0 1 1 0 1 0 2 0 0 1 1 0 0 0 0 1 0 1 1 0 0 0 1 0 1 0 0 0 1 0 1 1 1 0 1 0 0 1 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 1 1 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 1 1 0 0 1 1 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1 0 3 0 0 2 0 0 1 0 0 0 0 1 0 0 0 0 2 0 0 1 2 0 0 1 0 2 0 0 0 0 0 0 1 1 0 0 0 3 2 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 1 0 0 1 2 0 1 0 0 1 1 0 1 0 0 0 0 0 0 0 2 0 1 0 1 1 1 1 2 1 0 0 0 0 0 0 0 0 1 0 0 1 0 2 0 1 1 0 1 0 0 0 0 0 1 1 0 1 0 2 1 0 5 0 0 1 1 0 1 0 1 0 0 0 0 0 0 1 0 1 0 2 0 1 1 0 0 0 0 0 1 0 0 2 2 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 3 1 1 0 0 0 0 3 0 0 1 1 0 0 0 0 1 0 0 1 0 0 0 1 0 0 1 0 0 0 1 1 2 0 1 0 0 0 1 0 0 1 0 0 0 1 0 1 1 0 0 1 1 0 0 0 2 0 1 0 0 1 2 2 0 0 0 0 0 0 1 0 1 0 1 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 2 1 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 1 0 0 0 0 0 0 0 1 1 2 3 0 0 0 1 0 0 0 0 0 1 1 1 0 1 1 1 0 2 1 0 0 0 0 0 0 0 1 1 2 1 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 1 0 1 1 1 0 1 0 1 1 1 0 0 0 0 0 0 0 0 2 0 0 1 1 2 0 1 1 0 2 0 0 1 1 0 1 0 0 0 0 1 0 0 1 0 0 2 1 0 0 1 1 0 2 1 0 0 1 1 0 1 1 0 0 1 0 1 1 1 0 0 1 0 0 1 0 0 1 2 1 0 1 1 1 0 0 1 1 1 0 0 0 0 1 0 1 0 0 0 0 1 0 0 1 0 1 1 0 0 0 1 1 0 1 0 1 0 2 0 2 1 0 0 1 0 1 0 1 1 0 0 2 0 0 0 0 0 1 0 0 1 0 2 1 0 1 0 0 0 1 0 1 1 1 1 0 0 0 0 2 3 1 1 0 1 0 1 1 0 0 2 1 0 0 0 0 0 0 0 2 0 2 1 1 0 0 0 1 1 0 0 0 1 1 0 1 0 0 2 3 1 1 0 0 0 0 1 0 1 0 0 0 2 0 1 0 1 0 1 1 1 2 0 0 0 0 0 0 1 2 1 1 2 1 2 0 0 0 3 0 1 1 1 1 1 0 0 0 2 0 0 0 1 0 0 1 0 0 1 1 0 1 0 0 0 0 1 0 2 1 1 0 0 0 1 0 0 0 1 0 0 0 1 2 0 1 0 0 1 1 0 0 0 0 0 0 1 0 1 0 1 1 0 2 0 0 0 0 0 0 0 1 1 3 1 2 0 0 0 0 0 1 1 2 0 2 0 2 0 1 0 0 0 1 1 0 1 0 0 0 0 2 1 1 0 0 1 0 0 0 0 0 0 0 0 2 0 0 0 1 0 0 1 1 1 1 1 2 1 1 0 1 3 0 0 0 1 1 0 1 1 0 1 2 0 1 1 0 1 0 0 0 0 1 0 0 1 0 0 0 2 0 1 1 0 0 1 1 0 0 2 0 0 0 0 0 1 1 2 2 0 1 0 2 0 1 1 0 0 0 0 2 2 0 1 1 0 2 2 3 0 3 0 1 0 0 1 0 0 1 0 2 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 1 0 0 0 0 1 1 1 0 2 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 1 2 1 0 0 0 1 0 0 1 0 1</t>
+  </si>
+  <si>
+    <t>JSB(1.628173411065947, 2.296081247786771, -40.125967100401354, 368.5604079525924)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72 104 120 39 110 41 42 65 83 104 20 135 65 25 100 87 50 103 66 82 43 93 119 108 69 80 64 170 113 30 60 57 56 83 99 66 64 54 27 165 100 85 86 103 54 65 137 105 130 193 61 65 106 128 50 89 67 55 40 67 136 107 114 100 85 128 89 101 42 60 88 105 30 80 91 45 34 78 126 106 78 67 90 102 66 38 90 95 56 93 62 106 103 47 109 89 76 57 58 109 56 91 88 51 95 138 121 88 128 108 99 25 89 81 78 104 87 67 72 75 114 115 72 20 91 104 94 97 144 40 57 61 147 102 95 140 85 106 93 104 117 51 86 69 49 39 74 70 118 95 100 102 130 155 45 94 61 134 84 148 90 79 89 61 138 71 76 73 48 37 62 96 7 186 46 185 63 116 47 83 18 74 154 87 117 93 124 62 84 105 189 53 79 72 98 75 32 23 89 68 63 78 77 73 136 114 94 112 31 81 51 45 128 81 124 105 29 63 81 77 60 61 48 89 117 61 54 132 98 68 45 93 41 45 63 43 50 64 122 77 67 117 139 52 122 114 33 84 122 98 94 113 113 111 62 97 94 189 118 48 66 110 85 114 96 101 92 112 87 85 42 109 88 116 73 74 61 83 78 95 76 117 101 135 159 77 184 42 18 113 76 73 101 80 49 117 49 40 78 30 69 81 128 81 73 96 136 64 130 61 82 70 90 99 55 91 51 73 106 136 103 53 52 53 121 107 85 126 90 85 115 47 137 72 94 121 96 81 32 45 99 62 106 138 62 141 51 80 113 191 85 118 68 102 100 102 96 32 118 133 134 24 44 132 77 88 122 85 43 76 78 37 83 22 32 76 73 22 82 71 117 76 80 35 55 46 167 105 81 130 86 56 42 48 84 100 79 69 15 104 48 114 115 75 118 138 113 114 96 39 98 129 41 62 61 73 54 97 59 136 91 28 50 74 54 52 51 99 98 61 138 37 35 123 40 102 75 105 121 81 100 64 119 63 109 72 79 116 73 74 83 141 51 117 28 59 132 78 121 96 96 145 75 52 52 48 53 102 77 88 62 43 36 142 67 96 26 48 102 60 147 87 88 56 47 42 29 73 96 103 70 128 84 82 82 55 158 95 104 47 65 38 148 88 107 39 33 85 60 107 55 72 46 89 115 64 58 107 72 89 103 42 128 59 121 56 111 112 49 80 82 111 40 23 104 133 68 102 143 85 90 78 68 105 43 89 110 108 49 112 98 90 68 60 70 83 171 87 74 124 101 80 77 155 59 139 106 181 61 44 72 65 99 86 68 83 38 76 13 104 86 47 125 142 163 65 86 62 100 106 37 53 143 69 62 99 43 102 59 66 57 78 123 96 75 116 101 41 85 80 76 120 81 158 14 98 115 70 109 20 81 84 90 115 33 56 128 82 26 134 46 92 61 127 85 49 48 62 81 140 119 66 91 88 97 101 16 117 56 99 49 95 83 63 52 124 36 34 59 80 79 107 103 85 116 79 64 74 62 141 80 51 71 153 93 221 140 77 79 23 54 56 158 18 113 82 70 128 88 65 68 183 125 74 76 81 80 136 98 22 65 65 96 63 101 65 97 109 37 146 51 63 67 81 102 45 97 126 107 83 120 128 96 86 64 101 83 90 107 106 75 78 105 75 47 107 40 89 69 67 110 33 133 37 74 17 143 47 30 67 91 80 86 90 77 60 84 45 56 87 41 91 72 50 95 146 127 82 31 98 21 14 38 66 76 97 90 105 44 24 45 120 32 72 165 77 107 29 82 113 154 103 82 109 72 101 32 88 69 78 108 70 137 88 95 23 103 4 104 142 66 54 187 74 53 88 111 98 111 59 133 33 146 88 76 159 72 74 61 12 99 51 127 101 107 64 71 147 87 55 125 81 23 115 52 52 18 43 113 75 84 169 103 64 82 77 41 58 80 128 125 54 100 146 50 120 96 73 94 154 61 62 74 43 61 107 72 135 123 157 61 60 43 146 59 87 77 164 149 111 152 112 80 80 67 46 134 52 76 77 68 76 130 60 45 49 101 133 32 53 70 52 66 70 83 71 75 60 49 35 62 78 125 158 97 83 93 127 108 58 116 29 114 92 91 119 100 114 138 60 110 80 58 56 72 26 41 100 85 129 64 29 55 135 64 100 28 121 89 30 38 78 70 75 170 105 122 56 152 81 137 75 51 92 92 131 71 84 98 83 128 65 11 49 60 57 36 71 113 65 48 73 165 82 113 71 74 44 60 43 105 98 100 78 85 94 40 36 16 122 46 99 78 106 85 100 82 64 110 16 65 54 109 111 2 153 99 57 55 102 69 46 93 106 60 133 40 96 141 86 44 45 90 76 94 89 78 97 156 68 88 92 88 54 136 33 94 83 110 54 54 103 80 94 53 47 22 104 82 104 150 31 69 129 109 111 99 102 100 62 30 106 33 74 41 147 54 153 68 59 66 84 59 99 59 52 144 53 89 157 79 94 56 75 81 96 34 106 86 62 84 76 93 166 119 159 37 47 116 119 18 82 127 122 136 159 124 93 138 123 80 60 88 74 82 121 60 81 63 119 119 104 117 63 40 112 84 117 32 122 84 55 125 124 104 207 106 109 82 99 75 38 45 94 95 75 114 112 73 49 77 67 91 95 50 96 73 40 139 84 75 61 111 80 68 84 78 50 118 141 35 73 104 66 53 41 74 56 65 59 63 67 46 72 105 31 95 155 64 68 69 76 29 131 121 62 38 84 131 76 62 77 23 97 97 91 69 27 29 45 181 90 87 63 66 103 29 84 26 73 20 64 59 121 55 105 121 83 115 127 116 83 96 46 85 90 80 74 76 88 86 61 98 46 104 45 42 91 78 90 69 43 96 64 56 80 64 52 48 60 84 102 131 141 143 73 88 104 113 70 22 99 50 75 113 94 57 139 26 93 77 97 81 32 41 221 111 112 42 109 42 53 51 125 62 65 110 117 39 70 90 127 55 96 124 56 136 27 64 108 114 68 59 108 31 71 64 120 51 193 66 108 127 158 45 99 81 67 82 95 86 98 107 80 85 83 86 88 38 112 53 92 63 124 77 70 90 66 154 84 121 74 88 65 91 80 10 106 71 28 23 51 43 93 146 137 77 99 91 51 43 76 86 74 86 60 86 96 64 62 39 74 168 47 83 109 100 89 168 141 153 33 114 82 112 56 109 42 84 122 43 131 90 104 60 52 103 50 87 95 35 150 56 7 111 131 95 54 100 38 89 172 87 100 29 44 90 36 73 127 109 83 88 141 31 86 109 107 77 79 167 49 95 17 92 43 89 125 54 91 94 118 97 86 91 60 139 99 103 77 82 26 105 37 142 111 39 106 84 123 73 95 84 51 53 96 63 85 71 47 107 79 63 108 44 112 98 102 49 67 72 77 106 61 95 77 117 109 114 51 39 55 70 102 102 91 89 87 105 42 81 99 28 91 61 103 121 35 41 46 75 74 84 97 36 60 121 25 56 108 145 90 177 68 95 55 126 77 110 88 55 34 85 129 108 111 152 84 5 53 112 95 95 118 77 117 49 96 69 36 92 96 89 71 62 135 93 25 81 100 76 22 69 147 81 51 136 61 105 69 64 137 79 75 64 140 83 96 80 113 119 108 122 129 56 84 85 73 72 56 73 36 58 59 133 41 54 73 108 90 29 69 83 26 44 84 32 196 145 87 88 148 78 125 46 137 61 73 49 20 69 103 85 117 92 51 111 94 178 69 100 106 37 143 89 86 93 64 133 90 102 119 101 134 101 95 9 87 48 206 73 119 87 83 80 103 55 138 104 163 69 51 64 79 94 68 58 105 77 61 101 144 41 87 61 43 75 63 69 34 69 47 44 93 55 28 54 96 75 103 89 94 157 108 74 59 104 129 137 177 105 110 85 72 84 43 97 54 155 172 94 63 106 99 66 58 26 98 48 84 103 51 67 66 57 124 84 93 77 86 99 98 88 38 132 32 64 116 91 74 40 101 82 128 106 76 150 87 57 135 44 39 79 124 68 66 43 109 94 98 74 66 75 117 8 107 62 81 26 91 62 102 69 83 71 66 65 103 93 72 63 49 38 76 67 105 65 90 95 78 127 141 67 69 45 59 24 49 62 55 106 71 75 73 130 103 85 35 83 31 101 23 80 104 108 95 126 92 24 68 174 138 34 62 94 54 103 22 119 79 69 111 86 5 84 56 88 51 30 61 47 74 36 92 101 33 166 93 35 79 158 79 64 114 80 110 102 61 51 86 196 104 61 90 77 91 61 39 36 79 96 104 102 57 75 137 45 39 64 139 37 63 76 88 78 79 75 32 99 45 16 90 64 87 119 92 31 74 59 20 138 60 42 91 118 59 32 144 83 103 59 53 97 21 31 48 99 75 80 66 26 98 181 73 36 119 84 36 50 99 25 73 86 85 73 108 95 46 47 105 71 32 89 47 76 25 59 146 70 48 56 84 96 111 55 65 74 57 49 84 68 71 46 95 129 67 79 19 51 30 73 95 115 53 89 119 105 86 103 63 64 65 40 122 52 110 63 36 78 101 46 153 104 74 131 101 92 61 99 34 88 94 176 68 47 71 138 71 75 36 87 109 55 125 70 75 42 49 79 110 115 33 73 80 157 31 69 87 86 113 133 114 64 139 61 95 70 133 31 29 87 97 79 54 48 99 17 86 99 106 101 49 186 65 140 144 98 128 67 117 73 40 63 63 25 12 34 68 96 74 77 90 126 134 181 42 89 60 89 48 53 34 95 127 106 81 134 124 105 100 15 106 85 44 106 128 58 59 32 82 182 111 43 129 112 92 59 84 111 70 98 31 85 40 192 97 61 95 155 100 32 128 57 102 42 58 126 113 58 83 123 72 147 34 69 39 112 97 88 58 112 129 12 65 81 123 63 103 104 78 71 99 26 123 145 106 90 62 69 117 114 115 74 133 123 35 72 66 116 12 40 112 82 99 42 102 86 98 108 49 19 67 128 50 107 155 45 17 83 62 123 144 68 142 69 100 78 84 113 69 85 90 47 104 55 104 24 90 76 112 85 136 121 45 59 51 105 68 24 126 104 122 92 161 79 109 50 20 69 94 99 96 89 61 88 97 39 33 91 110 82 87 114 133 109 65 155 30 70 83 78 20 63 37 78 111 79 84 29 98 52 117 54 68 172 69 116 40 26 56 71 59 40 115 131 86 67 123 111 152 68 183 96 75 54 89 85 69 27 75 83 97 41 42 87 38 91 103 19 75 40 110 105 123 105 50 45 83 92 76 67 111 48 174 157 123 66 90 88 34 88 65 164 85 132 44 53 149 118 68 95 79 113 63 135 71 54 70 47 90 103 71 57 114 94 92 104 111 28 65 129 16 161 156 113 67 102 75 53 96 36 99 84 90 101 130 99 92 57 131 94 90 66 99 67 84 50 103 94 76 70 224 62 125 66 119 118 154 86 114 82 10 34 7 88 166 71 92 83 30 40 61 98 119 96 44 135 75 107 134 92 114 56 33 48 89 132 31 173 74 65 59 110 91 50 76 107 102 120 59 95 74 119 55 49 166 75 59 136 39 81 112 93 79 102 52 109 60 133 92 60 83 75 61 75 101 67 130 152 89 74 65 42 151 112 86 95 62 52 116 49 106 57 72 109 103 52 41 71 129 42 160 87 142 97 137 48 108 34 44 60 77 33 75 89 144 68 102 66 16 122 114 107 107 12 80 81 41 51 80 73 69 59 58 162 114 32 114 114 107 98 84 49 12 101 35 90 54 91 103 53 214 75 117 96 165 32 85 100 67 88 13 85 145 121 58 63 97 109 104 80 79 54 65 42 31 24 68 114 99 124 90 107 81 130 74 110 110 83 64 58 53 89 70 104 117 75 86 77 88 45 22 90 46 34 118 90 84 79 74 64 56 118 61 70 106 118 46 21 78 145 55 113 37 81 51 68 162 106 118 33 77 151 78 67 133 26 57 119 64 59 111 53 38 50 61 49 61 127 67 121 99 36 39 96 17 41 124 121 70 63 162 110 53 43 185 65 112 51 55 93 139 101 44 117 92 35 88 63 53 31 139 63 83 85 78 105 91 63 99 95 113 88 76 30 33 34 101 40 33 65 83 142 98 66 88 142 136 69 11 109 45 73 61 103 72 44 75 161 98 89 121 46 110 97 120 75 122 85 34 22 78 67 58 73 48 91 45 71 115 102 42 98 61 70 77 70 26 93 35 62 106 72 122 94 36 95 130 94 93 122 59 100 203 61 111 96 83 99 91 54 110 107 46 31 148 74 87 72 26 163 22 119 33 127 84 86 62 52 49 83 108 80 90 93 79 80 71 135 62 32 80 76 96 59 80 65 46 87 68 20 47 89 91 21 51 103 70 91 104 26 122 31 79 82 76 134 62 139 167 121 109 23 42 152 53 56 61 73 84 128 79 100 26 56 79 67 68 118 104 67 121 73 101 166 77 99 41 73 73 66 75 44 36 34 30 51 104 121 131 73 52 74 83 46 97 40 47 57 127 68 67 61 38 53 72 35 127 117 18 64 135 68 71 80 91 103 35 97 77 64 105 158 84 80 19 46 195 130 24 53 34 69 108 59 80 84 55 168 62 71 146 79 109 87 121 63 93 33 66 17 66 84 125 49 139 45 127 40 56 190 78 124 98 84 62 40 63 17 0 142 54 112 133 70 52 48 50 27 47 88 67 66 55 87 40 113 82 145 39 20 155 88 65 148 138 109 49 103 97 125 76 60 62 39 75 87 94 39 87 61 133 98 17 108 58 159 126 94 53 57 105 86 84 24 123 73 67 94 40 0 53 54 113 67 116 100 74 62 98 114 94 114 30 86 60 50 114 16 122 75 76 75 42 119 58 72 39 87 104 83 104 47 115 37 81 133 39 103 25 48 94 121 71 26 72 99 39 123 117 92 48 20 92 122 65 145 70 73 40 41 141 68 18 153 47 121 58 48 104 136 70 137 89 73 126 110 41 102 90 85 91 92 59 101 35 79 134 70 95 163 62 70 102 96 96 43 76 144 91 81 105 88 43 148 59 98 45 89 48 34 76 23 94 76 134 125 98 83 28 127 155 61 79 87 157 101 95 61 122 80 84 136 43 88 89 29 32 120 122 153 115 83 56 135 171 55 126 157 103 72 56 89 101 117 41 55 82 36 18 89 39 110 107 154 89 33 108 98 81 143 78 82 147 105 35 93 114 76 96 127 131 47 148 57 93 59 153 136 23 133 100 70 89 72 50 72 21 106 35 127 84 86 54 51 74 79 56 40 113 93 111 47 66 39 91 60 24 75 71 39 44 57 65 42 48 45 121 113 143 74 67 157 124 100 191 56 67 61 90 96 62 68 87 45 132 70 78 67 63 46 51 65 60 65 89 50 68 100 52 130 50 149 37 69 107 42 133 60 55 66 60 74 89 26 143 83 72 89 98 103 64 84 127 79 47 73 6 120 169 81 100 56 197 102 74 54 97 92 81 52 35 28 56 100 131 122 92 76 45 114 94 50 113 80 69 124 105 100 114 84 70 89 85 18 144 70 159 64 107 144 94 111 80 71 75 83 151 128 35 76 82 92 16 70 29 112 43 63 33 82 90 82 84 81 118 134 56 100 9 17 92 50 47 49 94 102 117 108 56 161 46 55 96 78 57 88 35 63 73 83 41 45 52 71 74 65 104 60 84 65 189 130 82 81 35 57 102 64 121 77 83 42 81 45 45 108 55 135 28 57 56 57 57 115 46 144 62 133 84 121 39 122 161 51 41 42 102 100 38 71 63 86 76 52 87 74 41 134 87 109 89 115 83 97 147 59 71 53 79 106 91 135 113 76 35 52 93 64 64 43 106 35 78 78 100 63 76 70 139 63 98 9 124 53 77 55 143 132 69 143 112 87 108 55 78 145 65 77 88 78 64 101 114 72 60 115 87 133 28 55 59 52 132 54 134 98 75 57 135 110 108 79 76 83 110 78 44 40 67 73 115 128 33 71 95 72 96 35 158 100 66 24 24 32 141 37 42 33 101 67 33 40 104 64 31 106 78 43 101 136 124 101 124 104 41 96 95 53 113 33 21 145 120 86 36 65 96 18 20 154 120 37 52 47 67 63 45 53 104 51 138 78 109 178 49 37 67 92 42 65 56 71 91 131 78 33 93 109 99 104 82 67 127 81 112 108 82 20 72 59 109 163 51 114 61 116 77 112 68 94 143 121 75 90 65 130 40 108 52 35 65 32 89 43 71 109 108 73 69 42 134 54 61 106 64 43 134 61 85 120 38 68 75 65 32 81 129 44 51 48 101 136 31 137 60 38 50 61 75 127 68 68 27 97 133 70 180 71 67 45 102 99 104 72 83 37 84 93 66 131 52 100 127 78 55 139 115 59 35 109 121 44 55 72 77 84 93 95 105 106 122 79 83 45 81 28 56 94 50 124 72 99 133 54 64 197 112 101 69 120 36 54 73 154 76 39 69 112 45 151 119 73 47 60 138 83 110 47 63 96 122 51 44 131 74 110 94 42 37 74 53 88 0 76 78 118 73 151 86 54 59 150 67 145 161 32 62 88 90 65 117 103 30 109 143 22 122 97 33 143 107 91 77 124 137 53 48 34 49 133 76 16 44 81 92 105 35 33 122 107 77 87 110 124 117 53 46 21 98 93 122 181 40 44 126 115 128 145 106 174 69 103 138 42 123 66 95 107 77 39 124 60 64 90 74 90 144 109 60 73 81 126 99 85 60 97 126 75 95 101 47 133 135 53 37 102 121 64 77 92 124 33 111 109 87 44 67 131 76 137 36 85 79 165 101 66 69 0 126 50 146 115 149 76 101 110 65 16 77 40 77 36 88 74 81 53 77 93 72 100 86 71 95 63 52 14 197 79 77 84 84 67 114 36 53 71 64 41 99 133 30 144 79 92 117 93 101 102 90 89 46 32 60 28 153 84 70 64 82 36 100 85 35 74 71 97 22 67 109 61 55 90 8 63 95 123 83 44 99 129 114 54 71 83 96 143 62 76 38 56 102 107 41 139 75 82 144 160 124 95 61 56 117 98 121 96 118 77 72 68 149 105 79 23 41 201 29 84 118 89 75 28 102 24 33 74 83 128 43 93 34 98 48 89 73 37 84 144 110 67 109 64 40 52 60 69 59 132 83 80 104 86 29 52 143 153 141 32 109 110 120 66 97 93 97 39 25 27 52 81 66 80 64 73 77 65 112 59 49 131 134 14 119 63 92 79 147 34 89 69 59 35 67 112 81 116 29 27 60 76 30 50 70 41 116 82 101 74 117 120 103 77 108 78 31 43 108 102 20 108 133 55 118 99 78 71 67 86 112 70 72 106 28 55 34 76 120 83 122 75 102 63 61 83 112 57 60 101 57 93 116 129 98 94 67 131 39 49 62 17 50 77 92 154 24 64 52 100 121 81 80 43 88 80 71 56 95 93 88 58 69 91 70 31 90 88 74 68 12 80 52 60 72 59 57 67 4 92 82 79 81 123 80 76 91 121 71 155 51 82 59 83 47 62 5 26 81 107 85 81 114 62 43 119 84 68 81 15 26 83 86 91 81 82 104 103 108 66 53 46 113 96 107 69 82 72 106 72 90 68 64 71 76 83 24 119 90 89 53 73 19 114 61 108 57 127 89 127 87 26 153 66 57 89 38 75 85 68 20 146 107 89 60 82 53 91 48 145 140 108 59 64 25 164 57 64 96 36 60 58 45 100 82 38 91 44 93 139 138 115 88 152 62 56 176 58 55 80 134 56 66 155 49 41 101 118 14 115 103 51 86 110 120 43 94 118 68 103 97 108 69 140 124 75 75 85 32 32 82 131 127 103 33 73 78 89 119 109 97 42 48 76 116 179 73 71 36 50 148 109 71 102 29 64 61 132 54 82 94 119 58 36 65 26 64 99 138 68 122 67 98 102 71 61 105 149 131 73 90 75 27 70 89 198 58 106 46 62 115 39 88 57 82 102 85 92 111 40 34 79 48 75 54 58 117 66 103 74 19 150 103 89 81 40 79 40 132 51 109 13 92 85 43 51 75 48 81 78 20 65 92 23 68 120 62 21 62 64 76 59 48 118 36 71 123 102 62 60 162 78 76 91 70 90 83 67 79 136 129 108 108 73 109 32 81 156 105 78 59 57 168 34 42 17 129 116 45 70 61 90 68 66 57 45 27 84 101 50 46 78 128 56 56 81 82 27 17 84 109 102 63 105 104 152 100 97 137 60 31 43 118 72 94 136 33 42 67 156 42 60 96 102 75 118 61 100 96 87 124 72 97 104 36 55 48 108 119 136 85 34 69 82 43 85 78 109 110 81 123 53 54 62 66 67 67 60 143 97 133 29 71 96 80 111 100 89 93 77 102 106 88 60 93 51 106 144 97 66 41 78 126 128 62 66 36 97 70 86 175 132 116 29 108 103 123 94 119 106 64 55 162 92 114 25 33 54 70 144 52 11 92 74 114 93 59 106 129 60 145 83 43 129 17 95 33 86 84 75 73 108 148 76 21 59 80 50 138 35 85 53 86 64 70 67 169 73 61 178 76 140 73 88 73 85 129 34 85 67 97 106 75 22 90 100 66 106 52 33 102 37 66 107 61 77 58 68 64 110 58 131 46 92 99 141 147 121 91 108 108 78 51 75 25 106 214 43 96 75 80 99 73 106 116 113 79 37 100 56 67 48 73 138 103 114 83 80 122 122 80 48 74 86 124 60 82 79 94 48 135 70 38 123 53 61 96 83 81 156 143 153 103 67 85 72 88 17 85 60 93 136 38 25 164 56 128 91 110 32 183 38 142 123 117 93 95 111 75 52 62 21 43 51 51 65 70 69 60 61 99 31 125 79 73 59 58 173 49 61 67 114 136 92 70 53 180 76 153 92 74 101 51 136 119 172 153 85 109 76 173 65 78 84 170 100 99 92 142 36 46 77 18 45 17 34 88 110 122 50 121 81 106 104 96 109 118 85 149 102 61 155 60 82 150 109 156 75 100 73 101 78 16 62 85 74 146 74 119 67 128 124 122 96 127 47 84 65 75 55 95 99 92 105 63 128 91 92 152 118 56 125 57 116 83 106 76 25 49 75 34 89 56 36 112 67 46 98 75 108 96 127 140 102 45 108 45 88 76 67 117 49 116 91 101 70 54 151 168 38 74 95 13 167 111 107 35 68 156 81 24 74 138 127 125 50 88 119 82 56 101 80 66 82 89 120 55 85 64 50 35 84 84 66 89 81 88 85 134 62 61 127 85 28 42 101 89 64 164 95 61 145 70 90 79 71 64 88 49 86 144 92 74 116 65 131 174 93 61 87 28 58 126 66 27 63 54 127 57 90 91 67 137 137 113 81 51 86 69 144 100 47 42 132 152 141 125 111 126 89 38 108 77 18 74 121 76 97 87 56 114 68 64 100 136 67 97 97 97 56 103 116 51 105 114 98 98 116 56 90 65 137 134 63 124 143 164 110 104 111 123 54 78 108 89 80 128 55 57 61 183 74 95 127 86 103 133 54 76 46 28 96 45 92 70 110 91 91 121 94 83 51 142 113 120 69 120 81 130 35 97 124 72 123 71 40 109 98 68 115 88 49 108 126 58 84 90 68 102 92 111 111 119 36 33 59 124 92 47 159 63 18 24 61 28 134 65 109 68 71 95 66 61 52 56 76 57 72 96 103 43 47 154 86 100 131 76 35 111 62 78 155 89 99 90 128 85 91 81 34 50 38 34 94 54 112 49 69 65 141 146 26 47 77 113 122 82 109 69 72 59 110 105 62 122 29 88 75 125 59 68 98 102 78 124 93 91 80 95 70 118 150 72 -4 68 68 67 118 29 134 92 101 27 80 56 30 68 138 98 117 127 61 117 115 70 65 60 119 75 65 80 44 96 100 135 107 128 152 60 62 59 127 47 58 125 88 109 25 48 84 123 83 78 130 39 88 20 157 66 62 103 94 133 104 58 103 122 139 27 67 33 56 66 64 126 52 38 98 75 62 135 75 81 69 50 61 87 56 87 51 85 84 97 74 65 131 34 36 110 109 130 41 37 138 62 46 102 75 71 39 102 106 81 131 114 78 46 5 62 44 20 86 87 56 186 75 105 94 115 97 110 110 63 85 73 116 107 75 106 148 94 116 58 44 73 52 34 84 39 74 149 45 74 103 156 68 65 48 92 90 99 19 133 76 51 59 80 74 177 130 83 157 123 114 57 48 79 102 93 34 57 36 75 99 59 69 24 64 88 53 106 34 92 55 105 128 178 66 56 109 59 60 84 42 93 43 100 124 51 70 119 61 153 105 117 78 37 81 100 50 130 87 101 126 29 118 67 57 101 41 43 48 107 131 11 81 98 73 80 113 135 42 89 69 144 109 16 145 49 35 73 33 76 160 61 39 91 117 61 102 99 78 20 143 69 54 79 86 105 40 95 79 104 124 83 115 65 86 23 42 79 104 108 87 62 129 47 37 94 108 108 52 87 114 18 125 51 34 74 92 99 22 115 42 30 49 104 113 36 114 74 33 120 76 112 67 81 93 58 134 96 66 68 122 84 84 87 62 80 82 91 95 111 94 122 39 47 141 82 102 70 53 88 69 105 110 94 64 123 63 65 68 51 105 56 63 89 103 70 56 91 38 62 35 97 150 104 89 108 45 47 82 98 120 85 126 144 67 36 80 74 100 167 85 78 42 73 103 155 26 34 86 94 83 70 50 70 25 112 64 83 46 46 25 60 90 73 46 119 102 50 69 23 78 93 73 17 34 124 55 121 104 38 109 47 20 135 107 57 73 79 128 79 87 100 70 116 33 107 116 100 61 44 87 137 72 67 34 104 95 29 38 114 69 34 61 67 54 7 49 17 91 116 105 47 96 18 86 106 68 94 85 135 37 22 112 59 76 73 91 67 113 111 131 162 23 86 102 127 92 129 128 70 42 65 46 191 54 133 72 139 42 69 61 17 70 107 85 69 44 65 94 51 133 50 42 117 104 70 120 106 117 106 24 84 40 23 80 92 62 102 107 55 118 110 94 132 81 60 34 94 56 21 49 123 42 74 102 114 97 119 175 46 85 119 96 106 4 82 121 99 102 65 85 94 113 50 104 92 91 49 65 79 76 139 97 138 49 46 72 58 43 118 71 16 117 79 72 68 71 40 26 103 74 135 67 153 48 91 66 82 72 46 57 50 82 90 117 89 112 78 29 48 98 127 136 125 151 99 52 54 52 101 110 60 62 50 125 57 60 38 180 64 55 54 90 60 61 78 92 104 60 48 89 161 144 104 99 92 56 61 100 56 68 32 100 148 81 55 45 97 87 108 84 49 57 79 69 121 54 49 106 130 70 106 124 116 109 139 119 18 88 59 51 61 78 194 52 109 101 50 69 87 61 121 51 49 102 81 81 131 97 81 81 121 56 188 80 86 87 108 55 72 93 129 147 77 122 134 25 105 33 127 80 110 86 61 15 75 45 90 108 124 74 93 97 49 66 102 106 98 186 114 9 89 116 91 75 94 117 113 62 159 108 81 74 103 26 80 85 96 81 71 99 97 40 90 119 51 87 128 78 53 112 109 51 83 98 56 70 37 100 47 94 138 137 122 80 114 45 94 149 101 58 75 74 52 99 79 92 156 48 99 127 61 48 105 47 61 176 46 63 127 21 53 119 146 57 107 88 95 75 47 92 52 95 65 131 134 70 47 58 46 92 48 92 89 50 59 79 99 78 52 101 48 51 57 112 28 72 134 54 81 132 98 104 23 84 71 115 99 47 88 103 122 122 22 59 126 137 77 124 57 60 116 75 113 19 93 125 41 119 25 17 23 77 101 90 114 90 87 26 81 89 104 104 61 78 99 83 88 63 178 21 80 127 107 79 137 125 53 154 77 210 102 91 114 86 64 79 46 118 71 61 128 129 105 127 79 77 116 95 62 46 123 140 68 118 72 20 53 69 36 57 77 64 27 61 118 49 109 82 40 67 73 112 60 89 54 101 89 27 114 40 109 69 95 146 62 100 82 10 130 88 29 63 143 70 103 116 82 119 43 126 71 109 130 56 35 29 61 54 73 113 41 105 41 85 86 129 176 102 58 58 55 84 81 53 71 129 69 37 72 108 75 107 57 54 73 86 109 61 107 64 83 116 62 130 110 93 107 125 103 136 93 73 66 100 55 46 88 78 97 87 76 52 60 34 66 121 76 140 118 87 45 56 99 73 48 122 53 96 97 58 69 73 104 88 110 18 147 93 68 95 34 107 173 94 54 50 115 70 49 74 81 59 105 165 93 81 59 70 94 123 93 126 66 139 75 56 120 67 21 21 91 37 80 109 65 107 27 83 129 153 71 43 58 29 62 39 65 69 102 90 41 57 140 90 120 105 91 139 89 87 75 77 47 56 77 80 117 47 101 98 45 113 62 140 60 78 113 159 99 135 59 97 81 66 159 91 49 103 82 87 91 81 100 92 119 94 73 64 105 111 84 75 84 129 33 102 114 97 115 74 135 149 79 65 57 84 110 126 83 99 33 54 85 75 151 77 42 97 88 121 77 120 94 72 97 77 93 48 54 160 35 84 83 141 27 25 110 94 106 58 91 59 37 95 73 19 53 98 33 111 194 155 101 120 120 34 159 96 24 79 119 48 129 106 99 88 73 73 65 44 72 120 110 78 93 17 132 133 50 79 52 78 135 48 42 59 41 72 133 30 53 77 108 115 100 121 42 69 91 74 115 44 40 149 28 89 150 115 64 132 146 115 70 55 92 96 91 61 84 93 96 -6 96 112 67 18 38 114 30 48 143 102 90 96 60 75 134 126 34 91 61 46 68 88 57 88 53 94 93 62 124 64 55 92 55 125 69 99 147 96 105 26 99 34 39 85 89 63 109 90 75 86 50 44 66 70 72 46 72 77 32 122 96 49 27 44 136 84 103 111 87 81 66 59 32 49 121 86 102 104 87 40 57 64 24 49 117 92 51 65 97 101 102 44 164 136 75 106 54 84 99 69 80 112 57 47 109 96 144 58 35 96 42 122 93 49 100 93 103 49 104 119 92 103 135 119 151 98 93 73 85 139 10 98 96 99 139 58 40 61 92 25 69 56 101 127 37 55 91 9 139 98 124 75 120 102 132 92 99 16 99 100 70 96 67 43 102 125 44 106 41 36 106 138 71 60 10 103 115 107 35 43 114 134 52 33 81 78 86 28 153 113 124 77 92 23 141 53 116 78 93 153 40 104 101 76 128 96 74 64 18 96 36 146 93 37 84 52 34 129 94 48 132 121 62 81 46 159 44 158 80 138 88 127 93 109 80 154 54 76 66 41 93 51 67 51 62 65 82 99 92 61 88 94 77 88 18 58 65 138 92 115 129 83 86 46 138 100 44 88 69 97 88 94 88 38 113 36 62 75 131 39 105 36 75 122 53 94 126 55 138 38 95 76 52 167 25 95 110 99 36 69 83 137 139 108 120 51 78 27 153 35 89 117 50 68 115 77 43 128 103 69 134 106 58 92 47 168 45 76 128 76 82 101 57 112 107 106 82 138 107 40 76 117 109 63 60 78 90 150 81 113 92 126 71 145 110 133 74 93 94 85 111 89 38 100 98 56 140 90 115 64 102 45 77 42 26 81 105 52 88 69 136 61 81 62 121 79 95 74 146 72 31 74 101 56 124 43 91 52 63 67 62 149 84 73 66 52 32 29 64 106 20 59 95 75 63 75 63 108 84 86 61 84 82 60 115 148 114 146 28 93 87 36 85 136 103 83 111 29 45 97 144 69 49 83 119 117 99 90 137 33 53 67 105 114 75 102 58 67 112 70 142 85 86 60 104 79 139 34 122 107 131 139 51 46 110 70 97 95 106 94 144 151 121 65 125 45 106 4 49 74 131 25 40 74 65 124 33 63 65 108 99 109 84 72 99 71 187 37 134 113 57 39 22 86 128 52 68 111 43 63 123 81 139 101 87 114 40 88 14 132 51 57 116 53 63 134 117 96 135 89 101 55 109 78 39 73 60 101 76 72 156 75 80 54 95 49 83 75 94 68 115 88 98 193 70 109 96 86 54 21 76 89 126 49 82 134 98 60 53 117 50 101 94 94 43 54 96 91 71 52 100 25 56 107 70 56 66 15 109 118 122 39 90 108 55 114 98 169 118 56 69 19 36 54 124 47 68 54 139 90 44 97 31 81 44 83 72 77 76 202 126 174 127 137 142 68 65 35 86 67 100 43 13 97 125 29 75 95 100 120 76 127 54 36 25 59 56 119 94 89 88 32 45 156 41 47 68 48 61 91 109 75 19 108 95 83 103 65 133 94 120 101 34 82 103 71 132 43 120 122 18 79 51 99 113 190 113 136 67 136 35 51 78 44 74 52 74 125 60 122 92 83 157 54 108 75 161 67 110 95 106 55 85 128 92 81 70 33 107 132 115 58 50 50 110 76 45 75 101 31 51 98 118 86 15 75 96 143 135 98 113 25 45 72 87 108 67 58 58 98 83 133 79 61 98 131 100 87 92 34 128 97 134 50 84 101 85 23 79 33 114 114 78 137 117 37 88 137 42 163 49 57 61 109 89 74 103 61 158 68 80 113 122 72 30 128 53 165 68 73 56 82 27 161 88 86 58 48 34 131 46 98 83 68 82 78 51 90 93 147 60 78 147 110 96 68 66 96 124 65 189 61 98 101 138 118 73 64 80 127 66 125 107 64 42 80 75 50 133 176 93 110 90 35 6 81 85 48 49 66 92 60 16 55 153 122 98 76 62 76 44 125 89 95 119 58 36 101 75 139 35 158 62 99 101 104 49 91 101 37 14 99 87 70 42 83 49 132 82 93 51 68 157 57 159 55 88 117 54 183 27 141 71 85 106 61 136 116 72 82 69 67 42 52 73 173 111 68 42 110 105 64 52 50 62 102 45 128 40 37 117 112 42 61 64 110 126 64 180 38 85 131 106 66 60 96 114 92 123 136 3 69 48 57 85 73 28 68 42 78 33 46 134 79 57 55 73 52 96 111 83 59 90 140 77 106 57 93 106 89 134 47 106 108 88 110 60 68 143 107 121 98 64 37 66 91 89 133 82 54 45 56 74 81 36 105 121 29 79 67 103 53 95 51 144 65 123 92 62 89 90 52 42 36 40 47 85 76 41 89 27 80 110 62 130 84 149 128 82 135 52 39 88 79 98 36 51 46 70 91 103 102 126 33 78 61 95 120 99 96 61 115 37 95 118 93 51 112 86 48 48 93 94 60 75 92 133 76 83 42 74 76 61 110 52 79 109 176 99 107 76 56 80 90 74 72 57 97 116 59 28 134 90 28 74 71 58 73 67 111 101 88 60 104 42 66 102 114 124 87 82 85 29 135 80 91 105 46 48 154 92 99 117 79 33 54 132 149 95 109 108 131 88 35 104 92 137 139 44 59 62 74 47 134 80 77 68 107 77 12 154 128 123 43 76 59 77 74 72 87 67 56 69 21 110 70 46 32 52 52 80 42 63 60 78 73 68 101 67 38 41 123 123 53 81 20 132 143 106 80 61 127 79 65 91 109 142 44 74 104 94 72 117 23 102 52 75 126 67 93 16 63 120 63 142 60 120 95 79 50 134 120 48 63 112 48 133 53 114 54 184 80 73 118 92 82 124 75 68 123 129 114 34 108 34 42 52 78 56 67 43 86 106 73 71 99 145 61 79 117 145 115 80 73 30 72 97 28 67 147 43 55 63 105 48 103 85 80 70 47 106 105 72 61 77 169 43 148 152 87 39 81 119 132 58 62 75 69 93 119 70 49 110 62 136 79 49 81 128 157 107 108 68 136 56 144 135 70 58 176 75 92 126 34 85 92 72 89 83 104 33 50 78 152 142 98 101 81 51 76 86 65 126 34 56 60 117 71 98 101 52 77 51 118 75 78 86 52 100 172 100 93 113 229 91 69 101 43 40 88 84 59 123 66 77 56 62 63 102 63 96 112 100 82 54 55 202 69 167 122 98 99 80 77 146 60 72 96 159 144 161 144 73 100 151 68 91 55 103 90 18 107 88 87 107 75 147 67 60 66 50 80 107 108 107 156 68 81 135 103 63 121 92 60 94 93 137 54 99 13 83 77 70 76 89 188 41 70 91 20 106 46 50 103 90 64 73 68 91 81 127 61 72 65 109 46 103 74 161 64 104 73 112 84 71 95 44 110 27 80 82 81 100 55 138 79 88 47 113 129 39 22 98 140 117 51 65 123 139 98 106 92 63 81 72 114 162 129 86 86 130 168 110 130 117 86 57 135 136 67 147 60 63 54 40 62 154 61 106 86 56 67 52 111 52 127 135 67 94 112 115 119 125 139 102 46 120 83 66 35 108 93 69 63 110 51 76 39 134 78 205 93 68 72 123 48 66 74 93 44 51 132 116 109 86 147 134 88 109 80 78 105 57 67 101 104 45 136 120 94 63 35 120 132 47 44 115 168 38 107 16 59 124 65 47 74 138 80 52 72 119 113 101 151 77 58 122 50 87 58 112 154 75 87 76 96 57 127 191 155 54 127 97 155 88 114 74 145 115 89 58 59 139 61 93 85 39 15 74 48 44 157 65 41 101 99 52 100 101 41 160 76 82 97 85 92 92 89 130 32 85 81 146 34 100 40 64 66 49 88 120 63 57 111 124 71 94 12 131 77 64 133 42 121 138 80 78 92 53 39 137 90 73 21 92 64 85 100 134 75 126 149 67 115 62 91 122 58 53 81 88 70 26 68 31 85 94 108 86 89 104 31 41 65 12 59 37 62 77 76 55 39 98 70 141 27 61 107 46 97 85 19 83 109 42 73 127 61 54 46 87 32 13 89 43 126 125 51 18 81 104 132 92 98 55 55 74 40 98 160 52 69 89 56 116 113 76 122 127 103 121 93 72 72 95 88 53 101 61 132 74 93 74 62 137 112 76 67 98 103 109 111 77 115 123 62 128 66 87 55 101 76 113 77 105 69 6 24 108 59 126 114 89 41 85 96 95 126 115 65 168 80 70 98 106 66 70 95 63 46 98 37 129 81 77 57 100 65 123 92 48 63 40 71 114 149 54 84 67 75 69 114 95 80 116 108 92 50 116 7 96 71 142 131 66 70 42 83 98 73 160 91 11 122 134 91 70 31 69 85 32 101 113 41 109 126 123 40 122 114 70 108 91 70 44 95 85 86 93 39 106 76 74 119 93 193 99 31 52 133 74 36 61 84 93 55 103 49 99 162 65 93 85 109 74 59 53 88 50 165 147 82 107 88 106 62 85 56 92 70 140 83 95 119 106 86 126 152 128 51 110 88 61 120 122 88 56 74 92 89 35 47 63 61 55 58 142 161 103 103 165 54 131 37 66 70 88 79 104 60 111 95 114 50 53 107 126 66 53 113 94 73 55 60 120 132 93 34 37 115 107 120 39 49 87 109 35 101 45 69 45 109 52 57 68 75 63 119 99 29 83 89 64 97 65 70 121 113 18 63 72 46 89 155 58 43 92 135 89 118 27 22 59 30 14 110 91 126 26 64 92 134 60 48 104 38 103 86 57 67 82 64 53 71 22 64 113 126 117 112 46 91 73 148 68 108 125 53 112 125 65 120 97 167 44 86 53 104 22 75 36 119 75 110 85 92 109 44 184 128 36 167 139 63 132 47 85 57 38 82 53 65 94 110 77 86 62 116 128 57 114 44 108 107 79 78 153 64 147 47 100 86 90 66 72 87 157 94 77 43 85 92 35 98 118 132 47 61 50 60 126 83 92 79 38 59 92 144 46 50 84 97 84 82 121 39 116 100 79 68 100 61 93 84 125 105 79 63 148 65 93 129 89 94 76 66 45 47 75 60 129 118 147 32 99 132 49 73 62 122 52 100 132 71 123 99 67 114 87 67 109 111 22 121 62 104 94 131 70 49 96 60 95 70 129 58 61 106 91 66 96 65 89 68 66 32 144 115 42 38 101 60 113 115 94 60 78 108 88 85 26 137 57 163 77 47 76 58 99 105 71 123 86 84 133 33 59 86 102 55 110 99 98 44 62 40 130 154 71 75 117 46 78 108 41 50 99 144 38 80 87 137 45 46 64 41 36 131 53 73 149 66 60 85 207 20 75 82 71 27 52 74 47 83 112 124 170 24 98 84 65 104 127 46 46 78 112 63 111 129 153 107 87 30 42 92 80 79 28 103 70 84 134 102 112 92 40 88 187 86 94 42 118 100 147 89 128 40 59 91 57 79 71 52 55 101 137 173 18 45 180 79 95 68 78 128 86 72 77 91 78 103 151 97 80 80 91 109 82 102 100 113 91 42 50 91 125 62 66 144 28 160 29 67 64 17 72 113 66 127 165 43 89 125 102 99 65 83 136 107 69 166 83 51 51 95 89 64 45 41 127 44 98 50 70 61 113 52 41 92 61 53 50 116 105 69 89 110 130 90 24 29 152 94 78 146 34 86 52 52 19 110 137 101 66 81 77 43 25 81 108 121 58 89 40 47 89 152 117 88 56 48 95 122 81 34 74 37 83 90 82 95 80 35 84 73 49 91 108 70 50 77 137 76 72 85 45 120 101 32 73 67 112 96 57 97 114 70 123 98 35 122 106 80 90 94 108 107 49 82 92 59 105 122 91 88 96 105 74 18 66 102 60 95 78 72 163 108 102 123 95 60 106 32 86 58 133 148 110 90 66 105 95 93 114 27 29 85 42 23 59 117 67 70 39 60 105 133 97 114 101 49 48 85 73 116 71 80 74 79 49 52 28 19 73 58 121 107 89 121 105 6 99 91 95 78 51 77 96 41 138 96 92 92 67 116 41 16 47 49 55 65 92 54 57 55 73 84 92 171 42 94 101 60 19 93 97 79 81 140 85 81 147 64 117 51 73 91 89 104 84 65 82 40 97 39 134 59 71 35 35 172 88 109 153 125 135 98 60 105 73 123 127 110 72 102 83 112 131 118 67 85 92 64 112 65 69 83 131 61 124 64 52 94 65 97 111 105 87 133 82 37 78 119 79 62 91 77 85 73 127 90 142 48 84 66 68 98 21 48 92 108 78 112 96 82 64 103 31 75 130 35 128 68 42 97 36 98 72 107 58 119 41 103 76 90 31 115 71 101 93 78 128 26 80 128 97 124 74 131 62 74 56 42 64 56 97 63 53 94 99 90 85 21 56 24 76 82 100 1 126 84 39 70 81 70 112 73 112 26 73 84 100 75 104 21 54 89 41 32 74 108 89 158 72 45 78 15 85 51 158 62 126 64 59 81 116 60 43 138 92 101 93 95 54 125 68 111 51 87 138 119 94 67 90 52 51 114 100 107 78 69 109 35 69 107 61 78 18 62 68 65 142 24 20 119 105 75 34 51 136 95 72 85 65 51 91 47 109 73 77 108 93 91 59 84 112 17 92 61 101 110 96 59 57 90 56 130 119 38 78 98 121 118 80 103 94 141 117 31 88 38 43 86 40 112 43 32 73 96 118 45 97 84 142 94 103 67 57 149 111 89 67 94 55 85 93 43 56 67 94 134 86 128 89 88 44 69 79 86 103 69 129 94 63 68 111 84 97 31 51 83 94 130 88 68 37 53 77 83 73 62 126 95 134 87 83 29 36 59 102 50 106 120 34 65 104 78 71 101 19 66 47 37 77 79 104 66 47 83 119 63 41 74 109 72 49 100 123 76 44 72 128 108 86 104 34 72 122 59 81 69 56 44 71 34 75 123 80 102 96 98 84 49 45 126 51 108 74 89 77 30 140 99 102 44 89 99 130 156 80 142 167 21 131 53 61 71 73 168 33 100 143 34 128 106 77 125 124 137 25 59 57 56 100 92 57 89 52 138 30 102 133 97 113 86 122 109 78 57 90 110 102 88 36 84 52 64 61 88 116 124 149 52 135 132 133 39 63 105 94 107 131 137 85 82 137 103 70 146 45 127 122 48 37 130 134 81 58 49 96 91 77 18 143 126 133 10 39 44 72 101 109 108 107 99 77 82 130 71 95 50 146 88 55 26 50 118 92 43 121 51 125 104 73 63 81 106 64 72 94 142 84 49 63 99 128 155 39 60 31 67 92 84 77 104 26 137 67 24 105 91 79 55 97 115 102 60 102 26 53 96 93 50 68 36 111 138 57 52 99 69 102 105 70 97 99 169 23 96 79 69 61 78 95 150 63 93 133 59 72 135 47 104 143 97 123 89 132 46 57 119 60 86 144 112 46 66 137 41 14 45 85 73 73 173 76 65 104 82 80 40 51 39 78 209 150 150 96 30 63 63 162 171 45 99 73 38 56 33 58 37 36 114 80 146 82 101 164 118 69 80 69 55 118 117 67 85 81 52 71 105 134 35 55 139 155 122 103 78 35 126 30 45 91 </t>
+  </si>
+  <si>
+    <t>GAM(0.17483266459202756, -4.738686613163648e-28, 0.6522466269257678)</t>
+  </si>
+  <si>
+    <t>0 0 1 1 2 0 0 0 0 0 0 0 0 0 1 0 1 0 0 2 0 0 2 1 0 0 2 3 1 1 0 2 0 0 1 0 1 1 0 0 1 0 0 0 0 0 1 1 1 1 0 0 1 1 0 1 0 0 0 0 2 0 0 1 2 0 0 0 1 0 1 0 0 0 1 0 0 0 1 1 2 1 1 1 1 0 0 1 0 1 0 1 3 0 3 1 0 0 0 1 0 2 0 0 1 2 0 0 1 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0 3 0 0 2 0 0 0 1 1 2 2 1 0 2 1 1 0 0 1 0 0 0 0 1 1 1 0 1 1 0 0 0 0 0 2 0 0 1 0 0 0 0 0 0 0 0 0 0 2 1 1 0 1 0 0 0 0 1 0 2 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 2 0 0 0 0 1 0 2 0 0 1 0 0 0 2 2 1 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 1 0 1 1 0 2 0 0 1 0 2 1 0 0 1 0 0 0 0 0 2 0 0 2 1 1 0 1 0 0 2 2 0 1 1 0 0 0 0 0 0 1 1 0 0 0 2 3 0 1 1 0 1 1 0 0 0 0 1 1 0 1 0 3 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 3 0 0 0 1 1 1 0 0 0 0 1 0 0 0 1 1 2 0 1 0 0 0 0 1 1 1 0 0 1 2 0 1 0 0 1 0 0 0 1 1 2 1 0 0 0 1 0 0 0 2 1 1 1 0 0 0 1 1 0 0 0 2 0 1 1 0 0 0 0 2 0 0 0 0 2 1 1 0 0 1 1 0 1 1 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 1 0 0 2 0 2 0 0 0 0 0 1 1 2 0 0 0 2 1 1 1 0 1 0 0 0 0 0 0 0 0 0 0 2 1 2 1 2 0 0 2 0 1 0 0 0 1 1 1 0 1 0 0 0 2 2 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 2 1 1 0 0 0 1 0 0 0 0 1 0 1 0 1 0 0 1 0 1 2 0 1 0 0 2 0 0 0 1 2 1 0 1 1 1 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 1 0 3 0 1 0 0 1 1 1 1 0 0 1 0 0 1 2 0 1 0 0 2 0 0 0 0 1 0 1 0 1 0 0 0 1 0 0 1 0 3 0 1 0 0 2 0 0 1 1 0 2 0 2 1 0 1 0 1 0 0 0 0 1 1 0 1 0 0 0 0 0 2 0 1 1 1 0 0 0 0 0 1 0 1 0 0 0 1 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 1 1 0 0 2 0 1 0 0 0 1 0 0 2 0 0 2 1 0 0 1 1 2 1 0 0 1 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1 1 0 1 0 1 0 1 0 0 0 0 0 0 0 1 0 0 2 1 0 0 0 0 1 0 0 2 0 0 0 2 1 1 0 1 0 0 1 1 0 0 1 0 2 0 0 0 0 0 0 0 0 0 0 2 0 0 0 3 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 1 0 1 0 1 1 0 0 0 0 1 0 0 0 1 0 0 0 1 1 1 0 0 0 1 0 1 1 0 0 0 0 0 0 1 1 2 1 0 2 1 0 2 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2 1 0 0 0 2 1 0 0 0 0 2 1 1 0 0 1 0 0 1 0 0 0 0 0 3 0 0 0 3 1 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 1 0 1 2 0 0 0 1 0 0 0 0 1 1 0 0 1 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 2 0 0 0 1 0 1 0 1 2 1 0 0 1 1 0 0 2 0 0 0 1 1 1 1 0 1 0 0 0 1 1 0 1 0 0 0 0 2 0 0 0 0 0 1 1 0 0 0 0 0 0 2 1 1 1 0 0 0 1 1 1 0 2 1 0 0 0 1 1 0 0 0 1 0 2 1 0 0 0 1 0 3 0 0 0 1 0 0 2 1 0 0 0 0 2 0 1 1 0 0 0 2 1 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0 1 1 0 1 0 0 2 0 0 1 1 1 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 1 0 1 0 2 2 0 0 1 0 1 2 0 2 2 0 0 0 0 1 2 2 0 0 2 0 0 0 1 0 1 0 0 1 1 2 1 1 0 0 0 1 0 0 0 1 1 0 1 0 0 0 1 1 0 0 1 0 1 1 0 2 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 1 2 1 0 1 0 0 0 2 1 1 0 0 1 0 1 0 0 1 0 0 0 3 0 0 1 0 0 1 1 2 1 0 1 0 1 2 0 0 1 1 1 1 1 0 1 1 0 0 0 0 0 2 0 0 0 0 2 0 0 0 0 0 0 0 0 0 2 0 0 0 0 3 0 1 1 1 0 1 1 1 0 1 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 1 0 0 0 0 1 1 0 3 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 1 2 0 0 0 1 0 2 0 0 0 0 2 0 0 2 0 0 0 0 0 0 0 2 0 1 0 0 2 1 0 0 2 0 2 1 0 0 1 0 0 0 0 1 0 0 0 2 0 1 0 1 0 0 1 1 1 0 0 0 1 1 0 0 0 1 0 0 0 0 1 2 2 0 0 0 0 1 0 1 0 2 1 1 0 0 0 0 2 0 1 0 1 0 3 0 1 0 1 0 0 0 0 0 0 0 1 1 0 0 0 1 1 0 0 1 0 0 0 0 2 1 0 0 0 0 0 1 2 2 0 0 0 0 0 0 2 0 0 1 0 1 0 1 0 0 1 0 1 0 1 0 0 2 0 1 1 0 1 1 1 0 1 0 0 0 0 0 1 0 0 0 0 3 1 0 1 1 0 0 0 1 1 1 0 0 1 1 1 0 0 1 0 1 0 1 0 0 0 0 1 2 1 0 3 0 0 0 2 0 2 1 0 0 1 0 0 1 0 0 0 1 0 2 0 1 0 0 1 1 1 1 0 0 0 1 1 0 1 0 0 0 1 0 1 0 0 0 1 0 0 2 1 0 0 0 2 2 1 2 0 1 1 1 1 0 1 1 0 0 0 1 1 0 0 1 1 0 1 1 0 0 2 0 0 0 0 0 0 1 1 2 0 0 0 0 2 0 0 1 0 0 0 1 0 0 0 0 1 0 0 1 1 0 0 1 0 0 0 0 1 0 1 3 1 1 1 3 1 1 0 1 0 0 0 0 0 2 0 1 1 1 0 1 2 1 2 1 0 0 1 1 1 0 1 0 1 1 1 0 0 0 0 1 0 1 0 0 0 0 0 1 0 1 1 1 0 0 0 1 2 0 0 0 1 1 1 1 1 2 0 0 0 0 1 0 0 0 0 1 1 0 0 1 0 0 0 2 0 0 0 1 0 0 0 2 0 1 0 1 0 0 1 0 3 1 0 2 1 1 1 0 0 1 0 0 1 1 1 1 1 1 1 2 2 0 0 0 0 0 0 0 0 1 1 0 0 1 1 0 1 1 2 0 0 1 0 0 0 1 0 0 1 1 0 1 0 0 1 0 0 0 0 0 0 1 1 0 0 1 0 1 0 0 1 1 0 1 0 1 0 2 0 0 0 0 0 1 2 0 0 1 0 0 0 1 0 0 1 0 1 0 1 0 0 0 0 0 0 1 1 1 2 0 0 0 0 1 0 1 0 1 0 0 0 0 0 2 1 0 0 0 1 1 2 0 1 0 0 0 0 0 1 1 0 1 1 1 0 1 0 0 1 1 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 2 4 1 0 2 0 3 0 1 0 0 1 0 0 0 0 1 0 1 1 1 0 1 0 0 1 1 0 0 1 0 1 0 0 0 1 0 0 0 1 0 0 0 1 1 1 0 0 0 0 1 0 1 0 1 0 1 0 1 0 1 2 0 0 0 0 0 0 1 2 0 0 0 1 1 1 0 0 0 0 1 1 0 1 0 2 0 0 0 1 0 1 0 0 1 0 0 1 1 1 0 1 1 0 1 1 0 0 0 0 0 1 0 0 0 0 1 3 1 1 0 1 0 0 0 1 2 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 1 0 0 2 0 1 1 1 1 1 1 0 0 0 1 1 1 0 0 0 0 0 0 1 1 0 2 2 2 2 1 1 0 1 1 0 0 0 0 1 1 0 1 0 0 0 1 1 0 1 0 0 0 0 1 0 0 0 1 1 0 0 0 1 0 0 1 1 0 2 1 0 1 1 1 0 0 1 0 0 0 1 1 1 1 0 0 1 0 0 0 0 0 1 0 1 0 0 0 1 1 1 0 0 0 1 1 0 0 1 1 1 0 0 0 1 0 1 1 0 0 0 0 0 0 1 3 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 1 0 0 1 0 0 0 0 1 0 1 0 1 0 0 1 1 1 0 1 0 1 1 0 1 0 1 0 1 0 0 1 0 0 2 3 1 1 0 0 0 0 0 1 0 0 0 1 0 0 0 2 0 1 2 0 1 2 0 0 0 1 1 2 0 0 0 0 0 1 1 0 1 0 0 1 0 0 1 1 1 0 0 0 1 2 1 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 1 0 0 1 1 0 0 1 0 1 0 0 0 0 2 0 1 0 1 1 0 0 2 1 0 1 0 1 1 1 0 0 0 0 0 1 0 1 0 0 1 1 1 1 0 0 0 1 0 0 0 0 0 0 1 1 0 1 1 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 1 2 0 0 0 2 1 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 1 1 2 3 0 1 1 0 1 0 0 2 0 2 2 2 0 0 0 0 1 1 0 1 1 0 0 0 0 0 0 1 1 1 1 0 1 0 1 0 0 0 0 0 0 1 1 0 0 1 0 2 0 1 1 0 0 0 0 2 0 0 1 1 0 0 1 0 0 1 0 1 0 0 3 0 2 0 1 0 1 1 0 0 0 0 1 0 0 0 0 1 2 0 0 1 1 1 0 1 1 0 1 0 1 1 2 0 1 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 2 0 1 0 3 1 0 0 0 0 0 3 0 2 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 2 0 1 0 0 0 3 0 1 1 0 0 1 1 0 1 0 1 0 0 0 0 0 0 0 0 1 0 1 1 0 0 1 0 0 1 1 0 0 1 2 0 0 0 2 1 0 1 1 1 0 0 0 0 0 1 1 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 1 1 0 0 0 0 1 1 1 1 1 0 0 1 0 0 0 1 2 0 0 1 1 1 0 2 0 0 0 0 0 1 0 2 1 1 0 1 1 0 0 1 0 0 0 1 0 0 1 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 3 0 0 1 0 1 2 0 0 0 0 0 0 0 0 1 0 1 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 2 2 0 0 0 0 1 0 1 1 1 0 0 0 1 0 0 0 1 1 1 0 0 2 0 1 0 0 0 1 0 0 0 1 0 1 2 1 1 0 0 2 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 2 1 0 1 0 1 0 0 1 0 0 0 0 0 0 1 0 0 1 0 1 0 1 0 0 0 1 0 0 1 0 0 0 1 0 2 0 1 0 0 0 0 1 2 0 0 0 2 0 0 0 0 0 1 1 1 0 0 0 1 0 0 1 0 0 2 2 0 0 1 1 1 1 0 0 2 2 0 0 0 0 0 2 0 0 0 0 0 0 2 1 0 1 0 1 1 0 1 0 1 1 0 0 1 0 0 0 1 0 1 1 0 0 1 2 0 0 0 0 0 0 0 0 0 1 0 1 2 0 0 1 1 0 0 1 0 2 0 0 0 0 0 1 0 0 2 0 0 2 0 0 0 0 0 0 0 0 1 0 1 1 1 0 0 1 1 0 0 1 0 0 2 0 1 0 0 1 0 0 3 0 0 1 0 0 1 0 0 0 0 0 0 1 2 0 1 2 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0 1 0 1 1 0 0 2 0 0 1 1 0 1 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 1 0 0 0 0 1 1 0 0 1 0 1 0 0 2 0 0 0 0 1 0 0 0 0 0 0 1 2 0 1 0 0 0 1 2 2 0 0 1 1 3 0 0 0 0 0 1 1 0 1 0 1 2 0 1 0 0 3 0 0 0 0 1 1 0 1 0 1 0 0 0 1 0 0 2 2 1 1 1 0 0 1 0 1 1 1 0 0 1 0 2 0 2 0 0 0 0 0 0 1 1 0 0 2 1 0 2 0 2 2 0 0 0 0 0 0 3 0 0 2 1 2 0 1 1 0 0 1 2 1 0 0 0 0 0 0 2 2 1 0 0 0 0 0 2 0 2 2 1 0 0 1 1 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 3 0 0 0 0 0 1 0 0 1 0 0 1 2 0 0 1 0 0 1 0 1 0 1 0 2 0 2 1 0 0 0 0 0 1 1 0 1 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 1 0 1 0 1 1 0 0 0 1 1 0 0 0 0 1 1 1 0 1 0 2 0 0 0 0 0 1 1 0 0 1 0 0 1 0 1 0 0 0 1 1 0 0 0 1 1 0 1 2 0 1 0 0 0 0 0 2 0 2 0 0 0 0 1 0 0 2 0 0 0 1 1 0 0 0 1 1 0 2 0 2 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 1 0 0 4 1 3 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 1 0 0 1 0 0 0 1 0 1 3 0 0 1 1 0 0 0 0 0 0 1 1 0 1 1 2 1 1 1 1 0 0 1 0 0 1 0 0 1 1 1 0 0 2 0 0 0 0 1 1 0 1 0 2 1 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 1 1 0 1 1 2 0 1 0 1 0 0 0 0 0 0 0 2 3 2 1 0 0 0 0 1 2 0 0 1 2 0 1 0 0 1 0 0 0 0 0 1 0 0 1 0 0 1 1 1 1 0 0 0 0 2 0 0 0 2 0 0 0 1 1 0 1 2 0 1 0 1 0 0 0 1 1 0 0 2 1 0 1 1 0 0 1 0 0 0 1 0 0 0 1 1 0 0 0 0 0 1 0 0 2 0 0 0 1 0 1 1 0 0 1 0 0 2 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 1 1 1 1 0 0 0 1 0 0 1 1 0 1 0 2 0 1 1 0 0 2 0 2 0 0 0 1 1 0 0 0 1 0 3 1 1 0 0 0 0 1 0 0 0 1 2 0 0 2 1 0 0 1 0 1 0 0 0 0 0 1 2 1 1 0 1 0 0 0 1 1 1 1 0 1 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 3 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 2 0 1 1 2 0 0 2 1 0 0 1 0 1 0 0 4 0 2 2 1 0 1 0 0 0 0 0 1 1 0 0 0 1 0 1 0 0 1 0 0 0 0 0 1 0 1 0 0 1 0 0 0 1 1 0 1 0 1 2 0 2 2 1 1 1 0 1 0 2 0 2 0 1 0 1 1 0 1 1 2 1 0 1 0 0 2 0 0 0 0 0 2 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 1 1 0 0 1 0 0 0 1 0 0 0 1 1 1 1 1 0 0 0 0 0 0 0 2 0 0 0 0 1 1 0 1 0 3 1 0 1 0 0 1 0 1 0 1 0 2 2 1 2 0 1 0 1 0 1 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 1 2 0 0 0 0 1 0 1 1 0 1 0 0 1 0 0 4 0 1 2 2 0 0 0 0 0 0 0 0 0 0 1 1 2 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 2 0 1 1 0 0 1 0 0 0 1 2 1 1 1 0 1 0 0 1 2 0 0 0 2 0 0 0 0 1 2 0 2 1 0 1 1 0 0 0 1 0 1 1 0 0 0 0 0 1 0 1 0 0 1 0 0 0 1 0 1 0 2 0 0 0 1 0 1 0 0 0 0 1 0 2 1 0 2 0 1 1 0 2 0 0 1 1 0 2 0 0 2 0 1 1 1 0 0 1 0 1 0 0 0 0 2 0 1 2 0 0 0 0 0 0 0 0 0 1 0 2 0 1 0 2 1 0 1 0 0 1 2 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 2 1 1 0 1 0 2 2 0 1 1 0 0 0 1 1 1 0 0 1 1 0 0 1 0 0 1 0 0 1 1 0 0 1 1 0 1 1 2 1 1 1 0 1 1 0 1 0 1 2 1 1 0 1 0 1 1 1 0 0 1 0 0 0 0 1 1 0 1 0 1 0 0 2 0 0 0 0 0 0 1 0 1 1 2 0 0 0 0 0 1 0 0 0 0 0 2 1 1 0 1 0 0 1 0 0 0 1 0 0 2 0 1 1 3 0 0 1 0 1 1 0 0 1 2 0 0 0 0 1 1 1 0 0 0 0 0 0 2 0 0 0 2 0 2 1 0 1 0 1 0 0 0 0 0 0 0 1 1 2 0 2 0 1 0 0 2 1 0 0 1 2 0 0 1 0 0 0 1 0 0 2 1 0 0 0 0 0 1 1 0 1 0 1 1 0 0 1 1 1 0 1 0 0 0 1 1 1 0 0 0 1 0 0 0 0 1 1 1 0 1 0 0 0 0 1 0 0 1 1 0 0 1 2 0 1 0 0 0 1 0 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 1 0 1 1 0 1 0 3 1 1 1 2 0 0 0 1 1 0 1 0 1 2 0 0 2 1 0 0 0 1 0 0 0 2 1 0 0 1 0 0 1 0 0 0 1 3 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 1 0 1 0 1 0 1 1 1 0 0 1 0 1 0 0 1 0 1 0 1 1 0 0 0 0 0 1 0 0 1 2 0 0 0 0 1 0 0 2 0 1 0 0 2 0 0 0 0 0 0 1 1 0 0 1 0 0 2 2 1 0 0 0 0 1 0 1 0 0 1 1 1 1 0 1 0 0 2 1 0 0 0 1 1 0 0 0 1 0 1 0 0 0 1 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 1 2 0 2 1 2 2 1 0 1 0 0 0 0 2 2 1 0 0 3 0 1 1 0 1 0 0 0 0 0 1 0 1 1 0 1 0 1 1 2 0 0 0 2 0 0 2 0 0 0 0 0 1 1 0 1 0 1 1 1 0 0 0 0 0 0 0 0 1 1 0 0 2 3 1 0 0 1 2 0 0 1 1 0 1 0 0 0 0 0 1 0 0 1 0 0 0 1 0 1 1 0 0 1 1 1 0 0 0 0 2 1 2 0 1 0 1 0 2 1 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 1 0 1 1 0 0 1 0 1 0 0 0 0 0 2 0 1 0 1 1 2 1 0 0 1 1 0 0 1 0 0 1 1 2 1 0 1 0 0 0 0 1 1 2 0 0 1 0 0 0 0 1 0 0 1 1 2 0 0 2 1 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 3 0 0 0 1 0 1 0 0 0 0 0 1 2 0 1 0 0 1 2 0 0 0 0 0 1 1 0 1 0 1 1 0 2 1 2 0 2 0 0 0 2 1 0 0 1 2 1 1 1 1 1 2 0 0 1 0 1 0 0 0 0 0 3 0 1 0 2 1 1 0 0 0 0 1 1 0 0 0 1 0 1 0 0 0 1 0 0 0 2 0 1 1 0 0 0 0 0 0 0 0 0 0 1 2 1 2 1 0 0 0 1 0 0 2 0 1 0 0 0 2 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 3 1 0 1 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 1 0 0 1 0 1 1 0 0 1 2 0 0 1 1 0 1 2 1 0 2 1 0 1 0 0 1 0 0 2 0 1 0 1 1 1 0 0 1 0 0 0 3 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 2 1 0 0 2 2 0 0 1 1 1 0 0 0 0 2 0 0 1 0 1 1 1 0 0 1 0 0 0 1 1 1 2 2 2 1 0 0 0 1 0 1 0 0 0 2 0 1 0 2 1 0 1 1 0 0 0 0 0 0 2 0 0 0 1 0 0 0 0 1 0 0 1 1 0 1 2 1 0 2 2 0 0 0 0 1 0 0 0 0 0 1 2 0 0 0 1 1 0 0 0 1 0 1 0 0 1 0 0 2 2 0 0 1 1 1 1 1 0 0 0 1 1 0 1 0 1 0 1 0 0 0 2 0 0 2 0 0 0 2 1 3 0 0 1 1 0 0 0 0 0 1 2 0 2 0 0 2 1 0 0 0 0 0 1 0 3 2 0 0 0 1 1 0 1 0 1 0 0 0 1 1 0 1 2 1 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 2 0 1 0 0 0 0 0 2 2 0 0 1 0 0 0 0 1 0 0 0 0 0 1 1 0 1 0 1 0 0 3 1 0 1 0 1 0 1 0 0 0 2 0 0 0 0 0 1 1 1 1 0 2 0 1 0 1 0 3 1 0 1 1 1 0 0 0 1 1 2 0 0 0 1 1 1 0 0 0 1 0 2 1 0 0 0 0 1 1 0 2 0 1 2 0 0 2 0 1 1 0 0 1 0 1 0 0 1 1 2 0 2 0 0 0 0 1 0 1 0 1 0 0 2 0 0 0 0 2 1 0 1 0 0 2 0 1 0 1 1 0 1 1 0 0 0 0 1 0 1 0 0 1 0 0 0 0 1 0 2 0 0 1 0 1 0 1 0 0 0 0 0 2 0 0 0 0 0 0 1 0 0 2 1 0 0 0 0 0 1 0 0 1 1 1 1 0 0 0 1 1 0 0 0 0 0 1 0 1 4 0 1 1 0 1 0 0 0 1 1 0 2 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 1 0 1 0 2 1 1 0 1 0 0 0 1 1 0 0 0 1 1 0 1 0 0 2 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 2 1 0 2 1 0 0 2 0 0 1 0 0 1 3 0 1 0 0 0 0 1 0 0 0 1 0 0 1 1 0 0 1 1 0 0 1 2 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 1 0 0 1 0 2 0 0 1 0 0 1 1 1 0 0 0 2 0 0 0 1 0 0 0 0 0 0 0 0 1 1 1 0 2 0 0 0 0 0 1 0 0 0 1 1 0 0 2 0 1 1 1 1 0 1 0 1 0 0 0 1 0 1 1 2 0 1 0 0 0 1 1 0 1 1 0 0 0 1 0 0 0 0 0 1 2 0 0 1 1 1 0 1 0 0 2 0 2 1 0 0 1 0 1 4 1 0 0 0 1 0 0 0 0 1 1 0 0 1 0 0 0 1 1 1 0 0 1 1 0 0 0 1 0 1 0 2 3 0 0 0 1 1 0 0 3 0 0 1 0 0 1 0 3 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0 3 1 0 1 1 0 0 0 0 0 1 0 0 2 0 3 1 2 2 0 0 1 1 0 0 1 2 0 1 0 1 0 1 0 0 0 1 0 1 1 1 0 0 1 0 1 0 1 0 1 1 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 2 0 0 0 2 1 1 1 0 0 1 1 0 0 0 0 1 0 2 0 1 0 0 1 0 0 0 0 0 0 2 0 1 0 1 0 1 1 1 0 1 1 0 0 1 0 1 0 0 0 1 0 1 0 0 1 1 0 0 0 1 1 1 1 1 0 0 1 1 1 0 0 0 2 0 0 0 2 0 0 1 1 1 0 0 0 0 0 1 1 0 0 1 0 0 1 1 0 1 1 0 0 1 0 1 1 0 0 0 0 0 1 1 0 0 1 0 1 1 0 0 0 0 2 1 0 0 0 0 2 1 0 0 0 1 1 0 1 0 0 2 0 0 0 0 0 0 0 1 0 0 1 2 0 0 0 0 1 1 0 1 1 0 1 0 0 0 0 0 1 0 1 0 1 0 0 0 0 1 0 0 0 1 0 0 0 1 2 0 0 1 2 0 1 1 1 1 1 0 1 2 2 1 0 0 1 2 0 1 0 1 1 0 1 0 0 1 1 1 0 0 2 1 0 0 1 0 1 1 2 0 0 1 0 2 0 0 0 0 1 0 0 0 1 1 2 1 0 1 0 1 0 0 0 0 0 1 0 1 0 1 0 0 1 0 0 0 2 1 1 0 0 1 0 1 0 0 0 0 2 1 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 2 0 0 3 0 0 1 0 1 0 0 1 2 1 0 0 0 0 1 1 1 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 3 0 0 1 0 0 0 1 1 1 0 0 0 1 0 1 1 0 1 0 2 0 1 0 1 0 1 1 0 1 2 0 1 2 1 0 1 1 0 0 1 1 1 0 0 2 0 0 0 1 0 1 0 1 0 1 2 0 1 1 1 1 0 1 0 0 0 0 0 0 1 0 1 1 0 1 1 0 0 0 0 1 0 1 1 0 1 1 0 0 1 0 0 1 0 0 1 1 0 0 1 0 0 1 0 1 0 0 0 0 0 1 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 3 2 0 1 0 0 0 0 0 0 1 0 0 0 1 1 1 0 1 2 0 0 1 1 1 0 0 0 0 0 2 0 0 0 0 2 0 0 0 0 0 0 0 1 1 0 1 1 0 1 0 2 1 1 0 1 1 2 1 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 1 1 1 0 1 1 2 0 0 1 1 0 1 0 0 0 1 2 2 1 0 0 0 1 0 0 0 0 0 0 0 1 1 1 0 0 1 2 0 0 1 0 2 2 0 0 0 0 0 0 1 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 2 0 1 2 0 0 2 1 0 0 0 0 0 2 0 0 2 2 1 0 0 0 4 1 0 1 1 0 1 2 0 0 0 1 0 0 0 0 0 1 0 0 2 1 0 0 0 0 1 0 0 1 0 0 0 0 1 1 0 0 0 2 1 1 0 1 1 0 1 0 0 1 0 0 2 0 0 0 0 0 0 0 0 2 0 0 1 2 0 1 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 1 2 2 2 0 2 1 1 0 3 1 0 1 0 2 0 0 1 1 1 0 0 0 0 2 1 0 1 1 0 1 0 2 0 2 1 1 3 0 0 0 1 1 0 2 1 0 1 1 0 1 0 0 1 0 0 3 1 2 0 0 0 2 0 0 0 0 0 1 1 0 1 1 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 1 0 2 2 0 0 1 0 2 0 1 0 1 1 0 0 0 2 1 0 1 1 1 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 1 0 0 0 0 1 1 0 1 0 0 0 0 2 0 1 0 1 0 1 0 0 0 0 1 1 0 0 0 0 1 1 1 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 1 1 1 0 0 1 0 0 0 0 1 0 0 0 1 2 1 0 2 0 0 0 2 0 1 0 0 1 0 0 1 1 1 0 0 0 0 0 0 0 1 0 3 0 1 1 0 2 0 0 0 1 1 0 1 1 1 0 0 0 0 0 1 1 2 2 0 0 0 0 0 3 0 1 2 0 0 0 0 2 1 0 0 1 1 1 1 0 0 0 2 0 1 1 1 0 0 0 1 0 1 1 1 0 0 0 2 0 0 0 1 0 0 1 1 1 1 0 0 0 0 0 0 1 0 1 1 1 0 1 0 1 1 2 0 0 0 0 2 1 1 1 1 1 1 0 0 1 0 2 3 0 0 0 1 0 0 0 0 1 2 0 1 0 0 2 0 0 0 1 1 0 1 0 1 1 0 0 0 1 1 1 0 1 1 1 0 0 1 0 0 0 1 0 2 1 0 0 0 0 0 0 0 0 0 1 0 2 1 2 0 0 0 0 0 0 1 2 0 0 2 1 2 2 1 0 0 0 0 0 2 0 0 0 1 0 0 1 1 1 0 0 0 2 1 0 0 0 0 1 1 1 1 1 1 0 2 0 1 1 0 2 0 0 1 0 1 0 0 0 0 0 0 1 0 0 1 2 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 1 1 0 1 1 1 0 0 1 0 0 1 0 0 0 0 0 2 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 2 1 0 0 0 1 0 0 1 0 0 2 1 1 2 1 1 0 1 1 1 1 1 0 0 1 1 0 1 2 1 0 0 1 0 0 0 0 0 1 1 0 0 0 0 2 0 0 1 0 1 0 0 0 0 1 0 0 0 0 2 1 0 0 0 1 0 1 1 0 0 1 0 0 1 0 0 1 0 1 1 0 0 1 0 0 0 1 1 1 0 0 0 2 0 0 0 0 1 0 1 0 0 0 1 1 0 0 0 0 3 1 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 1 1 0 1 1 0 0 1 0 0 1 1 0 3 0 1 1 0 2 0 0 1 2 0 1 1 0 1 1 0 1 0 0 0 1 0 2 0 1 0 2 1 0 2 1 0 0 1 1 0 0 0 2 0 0 1 0 0 0 0 1 0 1 0 1 1 0 1 0 2 1 1 0 0 0 1 0 1 1 1 0 1 0 0 0 0 1 0 0 0 0 0 2 0 2 0 1 2 1 1 1 1 0 0 1 1 0 0 0 1 0 1 1 1 1 1 0 0 0 0 1 0 0 0 0 0 0 0 1 3 0 0 0 0 0 1 1 0 1 1 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 1 1 1 1 1 0 2 1 3 0 1 0 0 2 0 1 1 0 1 0 0 1 1 1 1 1 0 0 0 2 0 0 0 1 0 0 0 0 1 3 0 1 0 0 1 0 0 1 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 1 0 1 1 0 1 0 0 1 1 1 1 1 0 1 1 1 0 3 1 2 0 0 0 2 0 0 0 0 2 1 0 1 0 0 1 1 1 0 1 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 2 0 0 1 1 1 1 0 0 0 0 0 0 0 0 1 1 0 0 0 3 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 3 1 0 0 3 0 1 0 1 1 0 0 0 0 0 1 0 0 1 1 0 0 1 0 1 1 1 1 0 0 0 1 1 0 0 0 1 0 0 0 2 1 0 0 0 0 0 1 0 0 0 1 2 0 0 0 1 0 1 1 0 1 1 0 0 0 2 0 0 0 0 0 1 0 2 1 1 0 1 1 3 2 0 1 0 0 0 1 0 1 1 0 1 1 1 0 1 0 0 0 0 1 0 0 1 1 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 3 0 0 1 0 0 0 0 0 0 0 1 1 2 1 1 1 0 1 0 0 2 0 1 0 0 0 1 0 0 0 0 1 1 0 0 0 2 1 1 0 0 0 1 0 1 0 1 0 0 0 1 0 0 1 0 0 0 1 2 1 0 0 0 0 0 1 0 1 1 1 0 1 1 0 2 0 1 0 0 2 0 1 0 0 1 1 0 1 0 0 2 1 1 0 0 0 0 0 0 0 1 0 1 3 0 2 0 0 0 1 2 1 0 1 0 0 0 0 0 0 0 0 2 0 0 0 0 0 1 0 0 0 0 0 2 0 0 2 1 0 1 1 1 1 2 2 1 1 0 1 1 2 2 0 1 1 0 1 0 1 2 0 0 0 0 0 1 3 0 1 0 0 1 1 0 0 0 1 1 1 0 3 0 0 0 0 0 1 1 0 2 0 2 1 1 0 1 1 0 0 0 1 1 0 1 0 1 2 1 0 0 1 1 1 0 1 2 2 1 1 1 0 0 1 1 0 1 1 0 1 0 1 0 0 1 1 0 1 0 0 2 0 1 2 0 1 1 1 0 0 1 0 0 0 2 0 1 1 1 0 0 0 1 0 0 0 0 0 1 0 0 2 0 0 0 0 1 0 0 0 0 1 1 0 1 0 0 0 1 0 1 0 0 1 0 2 0 1 0 0 0 0 1 0 1 0 2 1 0 0 1 0 0 0 0 0 0 0 2 0 0 1 0 0 0 2 0 0 1 2 0 1 0 0 0 1 0 0 2 0 0 1 0 0 1 0 2 0 1 1 0 0 1 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 1 0 2 1 0 0 0 0 0 0 1 1 0 1 1 1 2 0 2 1 0 0 0 0 0 1 0 0 0 1 0 1 1 0 0 0 2 1 1 2 0 0 0 1 0 0 1 1 0 1 0 0 0 1 1 1 0 1 0 1 1 0 0 1 1 0 0 0 1 0 1 1 0 0 0 1 0 0 0 0 0 0 1 1 1 0 1 1 1 0 0 0 1 0 0 0 0 2 1 1 1 0 1 1 0 1 1 0 1 1 0 0 1 0 2 1 1 1 0 0 1 0 0 0 0 0 0 3 0 0 1 0 1 0 0 0 1 1 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 1 1 0 1 0 0 0 2 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 2 1 0 0 0 0 1 0 1 0 0 0 0 1 1 0 0 0 0 1 0 0 1 1 1 1 1 2 0 1 0 0 1 0 1 0 0 0 0 3 0 1 1 0 1 0 1 1 0 0 1 0 0 0 1 0 2 0 0 2 0 0 0 0 0 1 0 0 0 0 1 0 1 4 0 0 2 0 2 1 0 0 1 0 0 0 0 1 2 0 1 1 0 0 1 1 0 0 0 1 1 0 2 2 0 1 1 2 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0 3 1 2 1 0 1 0 0 1 0 1 1 0 2 1 0 0 0 1 0 3 1 1 1 1 1 0 1 0 1 1 0 0 1 0 2 1 0 2 0 1 0 0 0 1 2 0 1 2 0 1 3 0 1 1 1 0 0 0 2 0 1 2 1 0 1 1 0 0 0 1 0 1 1 3 1 0 0 1 1 0 0 1 2 0 0 0 0 1 0 1 0 1 1 1 0 1 0 1 0 1 0 3 0 2 0 0 1 0 0 1 0 1 0 1 0 0 0 0 0 0 1 0 0 1 0 3 3 1 0 0 3 1 2 0 0 1 0 0 1 0 0 1 3 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 1 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 2 1 0 0 1 1 0 1 1 0 1 1 1 1 1 0 0 0 1 0 0 2 0 1 1 0 0 1 0 0 1 1 0 1 0 0 1 0 1 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 2 0 1 1 0 1 0 1 1 1 1 0 0 3 2 1 1 1 0 0 2 0 1 0 1 0 1 0 0 1 0 0 1 0 0 0 0 1 2 2 1 0 0 1 1 1 1 1 1 0 0 1 0 1 0 1 0 0 1 2 1 1 0 0 0 0 1 1 0 1 0 0 2 0 1 0 0 0 0 0 0 1 1 1 0 0 0 0 1 0 1 0 0 1 1 0 0 1 1 0 0 0 0 0 1 3 1 1 0 0 0 0 0 3 1 0 0 0 0 0 1 0 1 1 0 0 2 0 3 0 4 1 0 0 0 0 1 0 1 1 1 1 0 1 0 1 0 0 1 2 0 1 0 2 0 0 1 2 0 0 2 0 0 0 0 1 0 0 0 0 0 0 0 0 2 0 0 2 0 0 1 0 0 1 1 1 0 0 0 0 1 0 1 1 0 2 0 0 1 0 0 0 0 0 0 0 2 0 0 1 0 0 1 0 1 0 0 2 1 2 1 0 0 0 0 2 1 0 0 0 1 0 1 0 0 0 1 0 0 2 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 2 2 0 0 2 0 0 0 0 2 0 0 0 0 1 1 0 0 0 1 0 2 0 0 2 0 1 0 0 1 1 1 1 0 0 1 0 1 0 0 0 0 0 1 0 0 0 2 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 1 2 0 0 0 1 0 0 0 1 0 1 0 1 0 1 0 1 1 1 0 0 0 0 0 1 3 3 0 1 0 0 2 1 2 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 1 0 0 1 2 0 1 0 1 0 1 0 2 0 2 1 0 0 2 0 1 0 1 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 1 0 0 2 0 1 1 1 1 2 1 0 0 0 1 0 0 0 1 0 0 1 0 1 1 0 0 0 1 0 0 0 0 3 1 0 1 2 0 1 1 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 2 2 0 0 1 2 0 0 1 1 1 2 0 1 3 0 0 0 0 1 0 0 0 0 2 0 0 0 1 0 0 1 0 0 0 0 1 1 0 0 0 1 1 1 0 0 0 0 0 0 2 1 0 0 0 1 0 1 0 0 0 0 0 1 0 1 0 1 0 1 0 1 0 1 0 0 0 0 1 1 0 0 0 0 1 0 0 0 1 1 2 2 0 0 2 0 0 0 0 0 3 0 1 0 0 0 0 0 2 0 0 0 0 1 0 1 0 0 0 0 0 1 2 0 0 0 0 2 1 0 0 0 0 0 2 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 1 2 0 0 0 0 0 0 0 1 1 0 1 1 0 1 0 0 1 0 0 0 0 0 2 1 1 0 0 1 0 0 0 0 0 1 0 0 0 1 1 0 0 0 2 0 0 0 0 0 0 1 0 0 1 2 0 2 1 0 0 1 1 2 1 2 1 0 0 0 1 0 0 1 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 1 1 2 2 0 0 1 0 0 0 1 0 0 1 0 0 0 0 1 0 1 0 1 0 1 0 0 0 0 1 1 0 0 1 1 0 1 1 1 0 2 0 1 0 1 1 0 0 1 0 1 1 1 0 0 2 0 2 0 0 0 2 0 0 0 0 0 0 0 0 1 1 1 2 1 1 2 1 0 0 0 1 2 0 2 2 0 0 1 1 0 2 0 0 0 1 1 0 0 0 0 0 1 0 0 1 0 2 0 0 0 1 1 1 1 1 1 0 0 1 0 0 0 1 0 0 0 1 2 0 0 0 0 0 0 0 1 0 0 1 2 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 2 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 2 0 2 0 1 0 0 0 0 4 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 1 2 1 1 3 1 2 0 1 1 0 2 0 1 0 1 1 0 0 1 2 0 2 2 0 0 1 0 0 0 1 2 1 0 1 2 0 3 0 3 0 0 0 1 2 0 0 0 1 0 0 0 0 2 0 0 0 0 1 2 1 1 0 2 0 0 3 0 0 0 1 0 0 0 0 1 0 2 1 0 2 2 1 0 0 0 1 0 1 1 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 1 1 0 0 0 0 0 1 1 0 0 1 0 0 2 0 0 0 0 1 2 0 0 1 0 3 0 0 1 1 1 1 1 0 0 0 0 1 2 1 1 1 0 0 2 0 0 0 0 0 0 1 0 0 1 0 0 0 1 1 0 0 1 0 0 1 0 1 1 0 1 0 0 1 1 0 0 0 1 1 0 0 0 0 0 3 1 0 0 0 0 0 0 0 0 0 0 0 1 1 1 3 1 0 2 0 0 2 0 0 0 0 0 1 1 2 1 1 2 2 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 2 1 0 1 0 0 0 2 0 0 1 0 0 0 0 0 2 2 0 0 0 1 0 2 0 0 0 0 0 1 2 0 1 1 1 0 0 0 0 0 1 0 3 2 0 1 0 0 0 1 0 2 0 0 0 1 1 0 1 1 2 0 0 0 0 1 0 1 1 1 1 1 0 2 1 0 0 0 0 1 0 1 1 0 1 2 0 1</t>
   </si>
   <si>
     <t>T.Taylor</t>
@@ -312,55 +312,55 @@
     <t>D.Watson</t>
   </si>
   <si>
+    <t>N.Collins</t>
+  </si>
+  <si>
+    <t>D.Johnson</t>
+  </si>
+  <si>
+    <t>R.Burkhead</t>
+  </si>
+  <si>
+    <t>C.Conley</t>
+  </si>
+  <si>
+    <t>D.Amendola</t>
+  </si>
+  <si>
+    <t>J.Akins</t>
+  </si>
+  <si>
+    <t>P.Brown</t>
+  </si>
+  <si>
+    <t>B.Jordan</t>
+  </si>
+  <si>
+    <t>R.Freeman</t>
+  </si>
+  <si>
+    <t>A.Miller</t>
+  </si>
+  <si>
+    <t>S.Phillips</t>
+  </si>
+  <si>
+    <t>C.Moore</t>
+  </si>
+  <si>
+    <t>P.Dorsett</t>
+  </si>
+  <si>
+    <t>A.Auclair</t>
+  </si>
+  <si>
+    <t>J.Samuels</t>
+  </si>
+  <si>
+    <t>D.Davis</t>
+  </si>
+  <si>
     <t>B.Cooks</t>
-  </si>
-  <si>
-    <t>D.Johnson</t>
-  </si>
-  <si>
-    <t>R.Burkhead</t>
-  </si>
-  <si>
-    <t>N.Collins</t>
-  </si>
-  <si>
-    <t>J.Akins</t>
-  </si>
-  <si>
-    <t>P.Brown</t>
-  </si>
-  <si>
-    <t>D.Amendola</t>
-  </si>
-  <si>
-    <t>C.Conley</t>
-  </si>
-  <si>
-    <t>B.Jordan</t>
-  </si>
-  <si>
-    <t>R.Freeman</t>
-  </si>
-  <si>
-    <t>A.Miller</t>
-  </si>
-  <si>
-    <t>S.Phillips</t>
-  </si>
-  <si>
-    <t>C.Moore</t>
-  </si>
-  <si>
-    <t>P.Dorsett</t>
-  </si>
-  <si>
-    <t>A.Auclair</t>
-  </si>
-  <si>
-    <t>J.Samuels</t>
-  </si>
-  <si>
-    <t>D.Davis</t>
   </si>
   <si>
     <t>K.Fairbairn</t>
@@ -770,13 +770,13 @@
         <v>74.40000000000001</v>
       </c>
       <c r="C2">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="D2">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E2">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -785,7 +785,7 @@
         <v>12</v>
       </c>
       <c r="H2">
-        <v>35.6</v>
+        <v>35.8</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
@@ -794,10 +794,10 @@
         <v>14</v>
       </c>
       <c r="K2">
-        <v>7.28</v>
+        <v>7.29</v>
       </c>
       <c r="L2">
-        <v>3.8</v>
+        <v>3.71</v>
       </c>
     </row>
   </sheetData>
@@ -844,7 +844,7 @@
         <v>23</v>
       </c>
       <c r="B2">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="C2">
         <v>22.7</v>
@@ -853,16 +853,16 @@
         <v>33.7</v>
       </c>
       <c r="E2">
-        <v>246.02</v>
+        <v>245.49</v>
       </c>
       <c r="F2">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="G2">
         <v>0.45</v>
       </c>
       <c r="H2">
-        <v>118.6</v>
+        <v>118.72</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -991,22 +991,22 @@
         <v>33.7</v>
       </c>
       <c r="E2">
-        <v>246.02</v>
+        <v>245.49</v>
       </c>
       <c r="F2">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="G2">
         <v>0.45</v>
       </c>
       <c r="H2">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="I2">
         <v>4.4</v>
       </c>
       <c r="J2">
-        <v>16.6</v>
+        <v>16.75</v>
       </c>
       <c r="K2">
         <v>0.16</v>
@@ -1015,7 +1015,7 @@
         <v>0.04</v>
       </c>
       <c r="M2">
-        <v>17.3</v>
+        <v>17.37</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1156,16 +1156,16 @@
         <v>55</v>
       </c>
       <c r="C2">
-        <v>6.88</v>
+        <v>6.85</v>
       </c>
       <c r="D2">
-        <v>74.06999999999999</v>
+        <v>73.83</v>
       </c>
       <c r="E2">
         <v>0.44</v>
       </c>
       <c r="F2">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0.01</v>
       </c>
       <c r="K2">
-        <v>16.81</v>
+        <v>16.74</v>
       </c>
       <c r="L2">
-        <v>9.94</v>
+        <v>9.890000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1197,10 +1197,10 @@
         <v>1.87</v>
       </c>
       <c r="D3">
-        <v>19.62</v>
+        <v>19.72</v>
       </c>
       <c r="E3">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="F3">
         <v>0.14</v>
@@ -1209,19 +1209,19 @@
         <v>11.6</v>
       </c>
       <c r="H3">
-        <v>54.05</v>
+        <v>54</v>
       </c>
       <c r="I3">
         <v>0.44</v>
       </c>
       <c r="J3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>12.26</v>
+        <v>12.32</v>
       </c>
       <c r="L3">
-        <v>10.39</v>
+        <v>10.45</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1232,22 +1232,22 @@
         <v>57</v>
       </c>
       <c r="C4">
-        <v>4.49</v>
+        <v>4.45</v>
       </c>
       <c r="D4">
-        <v>50.45</v>
+        <v>49.88</v>
       </c>
       <c r="E4">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="F4">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G4">
         <v>0.1</v>
       </c>
       <c r="H4">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0.01</v>
       </c>
       <c r="K4">
-        <v>11.31</v>
+        <v>11.18</v>
       </c>
       <c r="L4">
-        <v>6.82</v>
+        <v>6.72</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1270,13 +1270,13 @@
         <v>58</v>
       </c>
       <c r="C5">
-        <v>3.24</v>
+        <v>3.29</v>
       </c>
       <c r="D5">
-        <v>35.17</v>
+        <v>35.75</v>
       </c>
       <c r="E5">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="F5">
         <v>0.03</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>7.94</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="L5">
-        <v>4.7</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1308,10 +1308,10 @@
         <v>59</v>
       </c>
       <c r="C6">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>10.18</v>
       </c>
       <c r="E6">
         <v>0.06</v>
@@ -1323,19 +1323,19 @@
         <v>5.6</v>
       </c>
       <c r="H6">
-        <v>26.07</v>
+        <v>25.95</v>
       </c>
       <c r="I6">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>6.05</v>
+        <v>6.1</v>
       </c>
       <c r="L6">
-        <v>5.11</v>
+        <v>5.15</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1346,10 +1346,10 @@
         <v>60</v>
       </c>
       <c r="C7">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="D7">
-        <v>16.93</v>
+        <v>17.03</v>
       </c>
       <c r="E7">
         <v>0.1</v>
@@ -1361,7 +1361,7 @@
         <v>0.6</v>
       </c>
       <c r="H7">
-        <v>2.81</v>
+        <v>2.92</v>
       </c>
       <c r="I7">
         <v>0.02</v>
@@ -1370,10 +1370,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>4.22</v>
+        <v>4.26</v>
       </c>
       <c r="L7">
-        <v>2.68</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1384,10 +1384,10 @@
         <v>61</v>
       </c>
       <c r="C8">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="D8">
-        <v>13.16</v>
+        <v>12.98</v>
       </c>
       <c r="E8">
         <v>0.08</v>
@@ -1399,7 +1399,7 @@
         <v>0.1</v>
       </c>
       <c r="H8">
-        <v>0.45</v>
+        <v>0.51</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1408,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3.06</v>
+        <v>3.05</v>
       </c>
       <c r="L8">
         <v>1.81</v>
@@ -1422,10 +1422,10 @@
         <v>62</v>
       </c>
       <c r="C9">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="D9">
-        <v>12.82</v>
+        <v>12.63</v>
       </c>
       <c r="E9">
         <v>0.07000000000000001</v>
@@ -1446,10 +1446,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.93</v>
+        <v>2.89</v>
       </c>
       <c r="L9">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1484,10 +1484,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.68</v>
+        <v>2.67</v>
       </c>
       <c r="L10">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1498,10 +1498,10 @@
         <v>64</v>
       </c>
       <c r="C11">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="D11">
-        <v>8.59</v>
+        <v>8.4</v>
       </c>
       <c r="E11">
         <v>0.05</v>
@@ -1522,10 +1522,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="L11">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1536,10 +1536,10 @@
         <v>65</v>
       </c>
       <c r="C12">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="D12">
-        <v>1.96</v>
+        <v>1.91</v>
       </c>
       <c r="E12">
         <v>0.01</v>
@@ -1560,10 +1560,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="L12">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1574,10 +1574,10 @@
         <v>66</v>
       </c>
       <c r="C13">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="D13">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="E13">
         <v>0.01</v>
@@ -1598,10 +1598,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="L13">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1627,7 +1627,7 @@
         <v>0.3</v>
       </c>
       <c r="H14">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="I14">
         <v>0.01</v>
@@ -1636,10 +1636,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="L14">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1765,22 +1765,22 @@
         <v>76</v>
       </c>
       <c r="C2">
-        <v>2.21</v>
+        <v>2.22</v>
       </c>
       <c r="D2">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="E2">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="F2">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="G2">
         <v>0.33</v>
       </c>
       <c r="H2">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I2">
         <v>7.53</v>
@@ -1833,25 +1833,25 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="D2">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="E2">
-        <v>212.92</v>
+        <v>213.68</v>
       </c>
       <c r="F2">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="G2">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="H2">
-        <v>84.23999999999999</v>
+        <v>83.87</v>
       </c>
       <c r="I2">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1971,37 +1971,37 @@
         <v>93</v>
       </c>
       <c r="C2">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="D2">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="E2">
-        <v>212.92</v>
+        <v>213.68</v>
       </c>
       <c r="F2">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="G2">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="H2">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="I2">
-        <v>2.7</v>
+        <v>0.2</v>
       </c>
       <c r="J2">
-        <v>8.880000000000001</v>
+        <v>-0.23</v>
       </c>
       <c r="K2">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0.05</v>
       </c>
       <c r="M2">
-        <v>12.3</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -2030,19 +2030,19 @@
         <v>0.01</v>
       </c>
       <c r="I3">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="J3">
-        <v>1.94</v>
+        <v>2.28</v>
       </c>
       <c r="K3">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.26</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -2142,34 +2142,34 @@
         <v>96</v>
       </c>
       <c r="C2">
-        <v>6.03</v>
+        <v>4.28</v>
       </c>
       <c r="D2">
-        <v>59.05</v>
+        <v>41.82</v>
       </c>
       <c r="E2">
-        <v>0.26</v>
+        <v>0.18</v>
       </c>
       <c r="F2">
-        <v>0.11</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G2">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0.01</v>
       </c>
       <c r="K2">
-        <v>13.42</v>
+        <v>9.42</v>
       </c>
       <c r="L2">
-        <v>7.39</v>
+        <v>5.14</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2180,34 +2180,34 @@
         <v>97</v>
       </c>
       <c r="C3">
-        <v>2.26</v>
+        <v>2.4</v>
       </c>
       <c r="D3">
-        <v>21.58</v>
+        <v>22.79</v>
       </c>
       <c r="E3">
         <v>0.09</v>
       </c>
       <c r="F3">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="G3">
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
       <c r="H3">
-        <v>27.48</v>
+        <v>31.54</v>
       </c>
       <c r="I3">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="J3">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="K3">
-        <v>8.33</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="L3">
-        <v>6.07</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2218,34 +2218,34 @@
         <v>98</v>
       </c>
       <c r="C4">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
       <c r="D4">
-        <v>11.89</v>
+        <v>12.72</v>
       </c>
       <c r="E4">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="F4">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="G4">
-        <v>8.4</v>
+        <v>9.6</v>
       </c>
       <c r="H4">
-        <v>31.43</v>
+        <v>35.59</v>
       </c>
       <c r="I4">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="J4">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="K4">
-        <v>6.76</v>
+        <v>7.45</v>
       </c>
       <c r="L4">
-        <v>5.5</v>
+        <v>6.11</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2256,16 +2256,16 @@
         <v>99</v>
       </c>
       <c r="C5">
-        <v>2.14</v>
+        <v>3.36</v>
       </c>
       <c r="D5">
-        <v>21.02</v>
+        <v>33.15</v>
       </c>
       <c r="E5">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
       <c r="F5">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -2277,13 +2277,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="K5">
-        <v>4.74</v>
+        <v>7.43</v>
       </c>
       <c r="L5">
-        <v>2.6</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2294,34 +2294,34 @@
         <v>100</v>
       </c>
       <c r="C6">
-        <v>1.96</v>
+        <v>3.12</v>
       </c>
       <c r="D6">
-        <v>18.5</v>
+        <v>30.64</v>
       </c>
       <c r="E6">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="F6">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G6">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="K6">
-        <v>4.24</v>
+        <v>6.89</v>
       </c>
       <c r="L6">
-        <v>2.29</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2332,22 +2332,22 @@
         <v>101</v>
       </c>
       <c r="C7">
-        <v>1.67</v>
+        <v>2.08</v>
       </c>
       <c r="D7">
-        <v>16.05</v>
+        <v>19.71</v>
       </c>
       <c r="E7">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="F7">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2356,10 +2356,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>3.65</v>
+        <v>4.53</v>
       </c>
       <c r="L7">
-        <v>1.98</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2370,13 +2370,13 @@
         <v>102</v>
       </c>
       <c r="C8">
-        <v>1.58</v>
+        <v>1.76</v>
       </c>
       <c r="D8">
-        <v>15.3</v>
+        <v>16.88</v>
       </c>
       <c r="E8">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F8">
         <v>0.03</v>
@@ -2394,10 +2394,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3.44</v>
+        <v>3.81</v>
       </c>
       <c r="L8">
-        <v>1.86</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2408,16 +2408,16 @@
         <v>103</v>
       </c>
       <c r="C9">
-        <v>1.54</v>
+        <v>1.34</v>
       </c>
       <c r="D9">
-        <v>15.22</v>
+        <v>12.83</v>
       </c>
       <c r="E9">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="F9">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -2432,10 +2432,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>3.4</v>
+        <v>2.91</v>
       </c>
       <c r="L9">
-        <v>1.86</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2446,34 +2446,34 @@
         <v>104</v>
       </c>
       <c r="C10">
-        <v>1.26</v>
+        <v>0.59</v>
       </c>
       <c r="D10">
-        <v>12.16</v>
+        <v>5.55</v>
       </c>
       <c r="E10">
+        <v>0.03</v>
+      </c>
+      <c r="F10">
         <v>0.05</v>
       </c>
-      <c r="F10">
-        <v>0.02</v>
-      </c>
       <c r="G10">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>9.24</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.71</v>
+        <v>2.43</v>
       </c>
       <c r="L10">
-        <v>1.46</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2484,34 +2484,34 @@
         <v>105</v>
       </c>
       <c r="C11">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="D11">
-        <v>5.36</v>
+        <v>5.88</v>
       </c>
       <c r="E11">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F11">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="G11">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>8.35</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.22</v>
+        <v>1.35</v>
       </c>
       <c r="L11">
-        <v>1.66</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2522,34 +2522,34 @@
         <v>106</v>
       </c>
       <c r="C12">
-        <v>0.57</v>
+        <v>0.2</v>
       </c>
       <c r="D12">
-        <v>5.57</v>
+        <v>1.83</v>
       </c>
       <c r="E12">
+        <v>0.01</v>
+      </c>
+      <c r="F12">
         <v>0.02</v>
       </c>
-      <c r="F12">
-        <v>0.01</v>
-      </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>3.03</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.26</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="L12">
-        <v>0.6899999999999999</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2560,34 +2560,34 @@
         <v>107</v>
       </c>
       <c r="C13">
-        <v>0.19</v>
+        <v>0.34</v>
       </c>
       <c r="D13">
-        <v>1.78</v>
+        <v>3.19</v>
       </c>
       <c r="E13">
         <v>0.01</v>
       </c>
       <c r="F13">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G13">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>2.86</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="L13">
-        <v>0.57</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2598,22 +2598,22 @@
         <v>108</v>
       </c>
       <c r="C14">
-        <v>0.32</v>
+        <v>0.27</v>
       </c>
       <c r="D14">
-        <v>3.02</v>
+        <v>2.74</v>
       </c>
       <c r="E14">
         <v>0.01</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -2625,7 +2625,7 @@
         <v>0.68</v>
       </c>
       <c r="L14">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2636,22 +2636,22 @@
         <v>109</v>
       </c>
       <c r="C15">
-        <v>0.27</v>
+        <v>0.2</v>
       </c>
       <c r="D15">
-        <v>2.74</v>
+        <v>1.87</v>
       </c>
       <c r="E15">
         <v>0.01</v>
       </c>
       <c r="F15">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -2660,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.67</v>
+        <v>0.42</v>
       </c>
       <c r="L15">
-        <v>0.4</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2674,34 +2674,34 @@
         <v>110</v>
       </c>
       <c r="C16">
-        <v>0.19</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D16">
-        <v>1.79</v>
+        <v>0.66</v>
       </c>
       <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
         <v>0.01</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.41</v>
+        <v>0.29</v>
       </c>
       <c r="L16">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2709,13 +2709,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="C17">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D17">
-        <v>0.58</v>
+        <v>0.79</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2724,22 +2724,22 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.26</v>
+        <v>0.17</v>
       </c>
       <c r="L17">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2747,13 +2747,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="C18">
         <v>0.07000000000000001</v>
       </c>
       <c r="D18">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -2774,10 +2774,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="L18">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2788,10 +2788,10 @@
         <v>112</v>
       </c>
       <c r="C19">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2812,10 +2812,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2871,16 +2871,16 @@
         <v>1.26</v>
       </c>
       <c r="E2">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F2">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="G2">
         <v>0.39</v>
       </c>
       <c r="H2">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="I2">
         <v>6.12</v>
